--- a/cw12022023.xlsx
+++ b/cw12022023.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="100">
   <si>
     <t>Surname</t>
   </si>
@@ -37,13 +37,28 @@
     <t>CW</t>
   </si>
   <si>
+    <t>Chagorerino</t>
+  </si>
+  <si>
+    <t>H200481F</t>
+  </si>
+  <si>
+    <t>HEMT</t>
+  </si>
+  <si>
     <t>Charumbwidza</t>
   </si>
   <si>
     <t>H190837V</t>
   </si>
   <si>
-    <t>HEMT</t>
+    <t>Chibvuri</t>
+  </si>
+  <si>
+    <t>H220444P</t>
+  </si>
+  <si>
+    <t>HEEE</t>
   </si>
   <si>
     <t>Chikwaka</t>
@@ -73,6 +88,15 @@
     <t>HECP</t>
   </si>
   <si>
+    <t>Dendera</t>
+  </si>
+  <si>
+    <t>H220051G</t>
+  </si>
+  <si>
+    <t>HEBE</t>
+  </si>
+  <si>
     <t>Foroma</t>
   </si>
   <si>
@@ -97,9 +121,6 @@
     <t>H220177A</t>
   </si>
   <si>
-    <t>HEEE</t>
-  </si>
-  <si>
     <t>Kazembe</t>
   </si>
   <si>
@@ -112,6 +133,48 @@
     <t>H220600T</t>
   </si>
   <si>
+    <t>Machingauta</t>
+  </si>
+  <si>
+    <t>H220098M</t>
+  </si>
+  <si>
+    <t>Madzokora</t>
+  </si>
+  <si>
+    <t>H220621R</t>
+  </si>
+  <si>
+    <t>Madzowere</t>
+  </si>
+  <si>
+    <t>H220694Y</t>
+  </si>
+  <si>
+    <t>Makuyana</t>
+  </si>
+  <si>
+    <t>H210581E</t>
+  </si>
+  <si>
+    <t>Mangozhu</t>
+  </si>
+  <si>
+    <t>H220055X</t>
+  </si>
+  <si>
+    <t>Maponde</t>
+  </si>
+  <si>
+    <t>H220207F</t>
+  </si>
+  <si>
+    <t>Mariridza</t>
+  </si>
+  <si>
+    <t>H180455C</t>
+  </si>
+  <si>
     <t>Masawi</t>
   </si>
   <si>
@@ -124,9 +187,6 @@
     <t>H220436J</t>
   </si>
   <si>
-    <t>HEBE</t>
-  </si>
-  <si>
     <t>Mbabvu</t>
   </si>
   <si>
@@ -139,12 +199,24 @@
     <t>H220093Z</t>
   </si>
   <si>
+    <t>Mtendi</t>
+  </si>
+  <si>
+    <t>H220596R</t>
+  </si>
+  <si>
     <t>Muchemwa</t>
   </si>
   <si>
     <t>H220584B</t>
   </si>
   <si>
+    <t>Munhutu</t>
+  </si>
+  <si>
+    <t>H220655G</t>
+  </si>
+  <si>
     <t>Muraicho</t>
   </si>
   <si>
@@ -163,6 +235,18 @@
     <t>H220309Z</t>
   </si>
   <si>
+    <t>Nhambu</t>
+  </si>
+  <si>
+    <t>H220510G</t>
+  </si>
+  <si>
+    <t>Paganga</t>
+  </si>
+  <si>
+    <t>H220453N</t>
+  </si>
+  <si>
     <t>Panavanhu</t>
   </si>
   <si>
@@ -175,12 +259,30 @@
     <t>H220003C</t>
   </si>
   <si>
+    <t>Ratinina</t>
+  </si>
+  <si>
+    <t>H220441W</t>
+  </si>
+  <si>
+    <t>Sikumba</t>
+  </si>
+  <si>
+    <t>H220361X</t>
+  </si>
+  <si>
     <t>Simemeza</t>
   </si>
   <si>
     <t>H220597T</t>
   </si>
   <si>
+    <t>Svikiro</t>
+  </si>
+  <si>
+    <t>H220629Y</t>
+  </si>
+  <si>
     <t>Tafirei</t>
   </si>
   <si>
@@ -197,6 +299,12 @@
   </si>
   <si>
     <t>H220500Y</t>
+  </si>
+  <si>
+    <t>Zhorizhi</t>
+  </si>
+  <si>
+    <t>H220054M</t>
   </si>
   <si>
     <t>Zorounye</t>
@@ -347,7 +455,7 @@
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
@@ -360,6 +468,36 @@
       </right>
       <top style="thin">
         <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
       </top>
       <bottom style="thin">
         <color indexed="10"/>
@@ -404,40 +542,10 @@
         <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
         <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
@@ -462,7 +570,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -490,6 +598,15 @@
     <xf numFmtId="2" fontId="6" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -502,13 +619,10 @@
     <xf numFmtId="2" fontId="6" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="59" fontId="0" fillId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -520,28 +634,28 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1677,7 +1791,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="7">
-        <v>0.714285714285714</v>
+        <v>0.880952380952381</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -1691,155 +1805,155 @@
       <c r="B3" t="s" s="9">
         <v>12</v>
       </c>
-      <c r="C3" t="s" s="10">
+      <c r="C3" t="s" s="6">
+        <v>10</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0.714285714285714</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" ht="21" customHeight="1">
+      <c r="A4" t="s" s="10">
         <v>13</v>
       </c>
-      <c r="D3" s="11">
+      <c r="B4" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s" s="10">
+        <v>15</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.642857142857143</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="11"/>
+    </row>
+    <row r="5" ht="21" customHeight="1">
+      <c r="A5" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s" s="12">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s" s="13">
+        <v>18</v>
+      </c>
+      <c r="D5" s="14">
         <v>0.285714285714286</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12"/>
-    </row>
-    <row r="4" ht="21" customHeight="1">
-      <c r="A4" t="s" s="5">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s" s="5">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s" s="13">
-        <v>16</v>
-      </c>
-      <c r="D4" s="14">
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="15"/>
+    </row>
+    <row r="6" ht="21" customHeight="1">
+      <c r="A6" t="s" s="9">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s" s="9">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s" s="16">
+        <v>21</v>
+      </c>
+      <c r="D6" s="17">
         <v>0.738095238095238</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" ht="20.7" customHeight="1">
-      <c r="A5" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s" s="9">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s" s="15">
-        <v>19</v>
-      </c>
-      <c r="D5" s="16">
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" ht="20.7" customHeight="1">
+      <c r="A7" t="s" s="10">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s" s="10">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s" s="10">
+        <v>24</v>
+      </c>
+      <c r="D7" s="18">
         <v>0.666666666666667</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="18"/>
-    </row>
-    <row r="6" ht="21" customHeight="1">
-      <c r="A6" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s" s="6">
-        <v>16</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0.761904761904762</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" ht="20.7" customHeight="1">
-      <c r="A7" t="s" s="15">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s" s="15">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="D7" s="16">
-        <v>0.80952380952381</v>
-      </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="18"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="20"/>
     </row>
     <row r="8" ht="21" customHeight="1">
-      <c r="A8" t="s" s="15">
-        <v>24</v>
-      </c>
-      <c r="B8" t="s" s="15">
+      <c r="A8" t="s" s="12">
         <v>25</v>
       </c>
-      <c r="C8" t="s" s="15">
-        <v>19</v>
+      <c r="B8" t="s" s="12">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s" s="10">
+        <v>27</v>
       </c>
       <c r="D8" s="7">
-        <v>0.714285714285714</v>
+        <v>0.904761904761905</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="19"/>
+      <c r="H8" s="8"/>
     </row>
     <row r="9" ht="21" customHeight="1">
-      <c r="A9" t="s" s="15">
-        <v>26</v>
-      </c>
-      <c r="B9" t="s" s="15">
-        <v>27</v>
-      </c>
-      <c r="C9" t="s" s="15">
+      <c r="A9" t="s" s="9">
         <v>28</v>
       </c>
+      <c r="B9" t="s" s="9">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s" s="6">
+        <v>21</v>
+      </c>
       <c r="D9" s="7">
-        <v>0.69047619047619</v>
+        <v>0.761904761904762</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="19"/>
-    </row>
-    <row r="10" ht="21" customHeight="1">
-      <c r="A10" t="s" s="15">
-        <v>29</v>
-      </c>
-      <c r="B10" t="s" s="15">
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" ht="20.7" customHeight="1">
+      <c r="A10" t="s" s="10">
         <v>30</v>
       </c>
-      <c r="C10" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="D10" s="7">
-        <v>0.619047619047619</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="19"/>
+      <c r="B10" t="s" s="10">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="D10" s="18">
+        <v>0.80952380952381</v>
+      </c>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="20"/>
     </row>
     <row r="11" ht="21" customHeight="1">
-      <c r="A11" t="s" s="15">
-        <v>31</v>
-      </c>
-      <c r="B11" t="s" s="15">
+      <c r="A11" t="s" s="10">
         <v>32</v>
       </c>
-      <c r="C11" t="s" s="15">
-        <v>16</v>
+      <c r="B11" t="s" s="10">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s" s="10">
+        <v>24</v>
       </c>
       <c r="D11" s="7">
-        <v>0.761904761904762</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -1847,35 +1961,35 @@
       <c r="H11" s="8"/>
     </row>
     <row r="12" ht="21" customHeight="1">
-      <c r="A12" t="s" s="15">
-        <v>33</v>
-      </c>
-      <c r="B12" t="s" s="15">
+      <c r="A12" t="s" s="10">
         <v>34</v>
       </c>
-      <c r="C12" t="s" s="15">
-        <v>13</v>
+      <c r="B12" t="s" s="10">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s" s="10">
+        <v>15</v>
       </c>
       <c r="D12" s="7">
-        <v>0.5</v>
+        <v>0.69047619047619</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="12"/>
+      <c r="H12" s="8"/>
     </row>
     <row r="13" ht="21" customHeight="1">
-      <c r="A13" t="s" s="9">
-        <v>35</v>
-      </c>
-      <c r="B13" t="s" s="9">
+      <c r="A13" t="s" s="10">
         <v>36</v>
       </c>
-      <c r="C13" t="s" s="15">
+      <c r="B13" t="s" s="10">
         <v>37</v>
       </c>
+      <c r="C13" t="s" s="10">
+        <v>21</v>
+      </c>
       <c r="D13" s="7">
-        <v>0.738095238095238</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
@@ -1883,3528 +1997,3672 @@
       <c r="H13" s="8"/>
     </row>
     <row r="14" ht="21" customHeight="1">
-      <c r="A14" t="s" s="20">
+      <c r="A14" t="s" s="10">
         <v>38</v>
       </c>
-      <c r="B14" t="s" s="20">
+      <c r="B14" t="s" s="10">
         <v>39</v>
       </c>
-      <c r="C14" t="s" s="15">
-        <v>19</v>
+      <c r="C14" t="s" s="10">
+        <v>21</v>
       </c>
       <c r="D14" s="7">
-        <v>0.452380952380952</v>
+        <v>0.761904761904762</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="12"/>
+      <c r="H14" s="8"/>
     </row>
     <row r="15" ht="21" customHeight="1">
-      <c r="A15" t="s" s="15">
+      <c r="A15" t="s" s="10">
         <v>40</v>
       </c>
-      <c r="B15" t="s" s="15">
+      <c r="B15" t="s" s="10">
         <v>41</v>
       </c>
-      <c r="C15" t="s" s="15">
-        <v>19</v>
+      <c r="C15" t="s" s="10">
+        <v>15</v>
       </c>
       <c r="D15" s="7">
-        <v>0.738095238095238</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
+      <c r="H15" s="11"/>
     </row>
     <row r="16" ht="21" customHeight="1">
-      <c r="A16" t="s" s="15">
+      <c r="A16" t="s" s="10">
         <v>42</v>
       </c>
-      <c r="B16" t="s" s="15">
+      <c r="B16" t="s" s="10">
         <v>43</v>
       </c>
-      <c r="C16" t="s" s="15">
-        <v>16</v>
+      <c r="C16" t="s" s="10">
+        <v>21</v>
       </c>
       <c r="D16" s="7">
-        <v>0.833333333333333</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="21"/>
-    </row>
-    <row r="17" ht="20.7" customHeight="1">
-      <c r="A17" t="s" s="15">
+      <c r="H16" s="15"/>
+    </row>
+    <row r="17" ht="21" customHeight="1">
+      <c r="A17" t="s" s="10">
         <v>44</v>
       </c>
-      <c r="B17" t="s" s="15">
+      <c r="B17" t="s" s="10">
         <v>45</v>
       </c>
-      <c r="C17" t="s" s="15">
-        <v>19</v>
-      </c>
-      <c r="D17" s="16">
-        <v>0.642857142857143</v>
-      </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="22"/>
+      <c r="C17" t="s" s="10">
+        <v>24</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0.619047619047619</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="8"/>
     </row>
     <row r="18" ht="21" customHeight="1">
-      <c r="A18" t="s" s="9">
+      <c r="A18" t="s" s="12">
         <v>46</v>
       </c>
-      <c r="B18" t="s" s="9">
+      <c r="B18" t="s" s="12">
         <v>47</v>
       </c>
-      <c r="C18" t="s" s="15">
-        <v>37</v>
+      <c r="C18" t="s" s="10">
+        <v>24</v>
       </c>
       <c r="D18" s="7">
-        <v>0.666666666666667</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="21"/>
+      <c r="H18" s="8"/>
     </row>
     <row r="19" ht="21" customHeight="1">
-      <c r="A19" t="s" s="20">
+      <c r="A19" t="s" s="21">
         <v>48</v>
       </c>
-      <c r="B19" t="s" s="20">
+      <c r="B19" t="s" s="21">
         <v>49</v>
       </c>
-      <c r="C19" t="s" s="15">
-        <v>19</v>
+      <c r="C19" t="s" s="10">
+        <v>18</v>
       </c>
       <c r="D19" s="7">
-        <v>0.857142857142857</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-      <c r="H19" s="12"/>
-    </row>
-    <row r="20" ht="21" customHeight="1">
-      <c r="A20" t="s" s="15">
+      <c r="H19" s="11"/>
+    </row>
+    <row r="20" ht="20.7" customHeight="1">
+      <c r="A20" t="s" s="10">
         <v>50</v>
       </c>
-      <c r="B20" t="s" s="15">
+      <c r="B20" t="s" s="10">
         <v>51</v>
       </c>
-      <c r="C20" t="s" s="15">
-        <v>37</v>
-      </c>
-      <c r="D20" s="7">
-        <v>0.785714285714286</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="8"/>
-    </row>
-    <row r="21" ht="20.7" customHeight="1">
-      <c r="A21" t="s" s="9">
+      <c r="C20" t="s" s="10">
+        <v>18</v>
+      </c>
+      <c r="D20" s="18">
+        <v>0.5238095238095239</v>
+      </c>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="20"/>
+    </row>
+    <row r="21" ht="21" customHeight="1">
+      <c r="A21" t="s" s="10">
         <v>52</v>
       </c>
-      <c r="B21" t="s" s="9">
+      <c r="B21" t="s" s="10">
         <v>53</v>
       </c>
-      <c r="C21" t="s" s="15">
-        <v>37</v>
-      </c>
-      <c r="D21" s="16">
+      <c r="C21" t="s" s="10">
+        <v>24</v>
+      </c>
+      <c r="D21" s="7">
         <v>0.833333333333333</v>
       </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="18"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="11"/>
     </row>
     <row r="22" ht="21" customHeight="1">
-      <c r="A22" t="s" s="5">
+      <c r="A22" t="s" s="10">
         <v>54</v>
       </c>
-      <c r="B22" t="s" s="5">
+      <c r="B22" t="s" s="10">
         <v>55</v>
       </c>
-      <c r="C22" t="s" s="6">
-        <v>16</v>
+      <c r="C22" t="s" s="10">
+        <v>18</v>
       </c>
       <c r="D22" s="7">
-        <v>0.666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-      <c r="H22" s="19"/>
+      <c r="H22" s="15"/>
     </row>
     <row r="23" ht="21" customHeight="1">
-      <c r="A23" t="s" s="15">
+      <c r="A23" t="s" s="12">
         <v>56</v>
       </c>
-      <c r="B23" t="s" s="15">
+      <c r="B23" t="s" s="12">
         <v>57</v>
       </c>
-      <c r="C23" t="s" s="15">
-        <v>37</v>
+      <c r="C23" t="s" s="10">
+        <v>27</v>
       </c>
       <c r="D23" s="7">
-        <v>0.833333333333333</v>
+        <v>0.738095238095238</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
-      <c r="H23" s="19"/>
+      <c r="H23" s="11"/>
     </row>
     <row r="24" ht="21" customHeight="1">
-      <c r="A24" t="s" s="15">
+      <c r="A24" t="s" s="21">
         <v>58</v>
       </c>
-      <c r="B24" t="s" s="15">
+      <c r="B24" t="s" s="21">
         <v>59</v>
       </c>
-      <c r="C24" t="s" s="15">
-        <v>37</v>
+      <c r="C24" t="s" s="10">
+        <v>24</v>
       </c>
       <c r="D24" s="7">
-        <v>0.5</v>
+        <v>0.452380952380952</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
-      <c r="H24" s="19"/>
+      <c r="H24" s="15"/>
     </row>
     <row r="25" ht="21" customHeight="1">
-      <c r="A25" t="s" s="15">
+      <c r="A25" t="s" s="10">
         <v>60</v>
       </c>
-      <c r="B25" t="s" s="15">
+      <c r="B25" t="s" s="10">
         <v>61</v>
       </c>
-      <c r="C25" t="s" s="15">
-        <v>16</v>
+      <c r="C25" t="s" s="10">
+        <v>24</v>
       </c>
       <c r="D25" s="7">
-        <v>0.547619047619048</v>
+        <v>0.738095238095238</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
-      <c r="H25" s="19"/>
-    </row>
-    <row r="26" ht="21" customHeight="1">
-      <c r="A26" t="s" s="15">
+      <c r="H25" s="11"/>
+    </row>
+    <row r="26" ht="20.7" customHeight="1">
+      <c r="A26" t="s" s="10">
         <v>62</v>
       </c>
-      <c r="B26" t="s" s="15">
+      <c r="B26" t="s" s="10">
         <v>63</v>
       </c>
-      <c r="C26" t="s" s="15">
-        <v>28</v>
-      </c>
-      <c r="D26" s="7">
-        <v>0.30952380952381</v>
-      </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="8"/>
+      <c r="C26" t="s" s="10">
+        <v>24</v>
+      </c>
+      <c r="D26" s="22">
+        <v>0.476190476190476</v>
+      </c>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="23"/>
     </row>
     <row r="27" ht="21" customHeight="1">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="7"/>
+      <c r="A27" t="s" s="10">
+        <v>64</v>
+      </c>
+      <c r="B27" t="s" s="10">
+        <v>65</v>
+      </c>
+      <c r="C27" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="D27" s="7">
+        <v>0.833333333333333</v>
+      </c>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
-      <c r="H27" s="21"/>
-    </row>
-    <row r="28" ht="21" customHeight="1">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="12"/>
-    </row>
-    <row r="29" ht="21" customHeight="1">
-      <c r="A29" s="23"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="19"/>
+      <c r="H27" s="24"/>
+    </row>
+    <row r="28" ht="20.7" customHeight="1">
+      <c r="A28" t="s" s="10">
+        <v>66</v>
+      </c>
+      <c r="B28" t="s" s="10">
+        <v>67</v>
+      </c>
+      <c r="C28" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="D28" s="18">
+        <v>0.619047619047619</v>
+      </c>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="23"/>
+    </row>
+    <row r="29" ht="20.7" customHeight="1">
+      <c r="A29" t="s" s="10">
+        <v>68</v>
+      </c>
+      <c r="B29" t="s" s="10">
+        <v>69</v>
+      </c>
+      <c r="C29" t="s" s="10">
+        <v>24</v>
+      </c>
+      <c r="D29" s="18">
+        <v>0.642857142857143</v>
+      </c>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="23"/>
     </row>
     <row r="30" ht="21" customHeight="1">
-      <c r="A30" s="24"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="7"/>
+      <c r="A30" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="B30" t="s" s="12">
+        <v>71</v>
+      </c>
+      <c r="C30" t="s" s="10">
+        <v>27</v>
+      </c>
+      <c r="D30" s="7">
+        <v>0.666666666666667</v>
+      </c>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
-      <c r="H30" s="19"/>
+      <c r="H30" s="24"/>
     </row>
     <row r="31" ht="21" customHeight="1">
-      <c r="A31" s="26"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="7"/>
+      <c r="A31" t="s" s="21">
+        <v>72</v>
+      </c>
+      <c r="B31" t="s" s="21">
+        <v>73</v>
+      </c>
+      <c r="C31" t="s" s="10">
+        <v>24</v>
+      </c>
+      <c r="D31" s="7">
+        <v>0.857142857142857</v>
+      </c>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
-      <c r="H31" s="8"/>
+      <c r="H31" s="24"/>
     </row>
     <row r="32" ht="20.7" customHeight="1">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="18"/>
+      <c r="A32" t="s" s="12">
+        <v>74</v>
+      </c>
+      <c r="B32" t="s" s="12">
+        <v>75</v>
+      </c>
+      <c r="C32" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="D32" s="22">
+        <v>0.69047619047619</v>
+      </c>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="20"/>
     </row>
     <row r="33" ht="21" customHeight="1">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="7"/>
+      <c r="A33" t="s" s="9">
+        <v>76</v>
+      </c>
+      <c r="B33" t="s" s="9">
+        <v>77</v>
+      </c>
+      <c r="C33" t="s" s="6">
+        <v>21</v>
+      </c>
+      <c r="D33" s="7">
+        <v>0.738095238095238</v>
+      </c>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" ht="20.7" customHeight="1">
-      <c r="A34" s="17"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="18"/>
-    </row>
-    <row r="35" ht="21" customHeight="1">
-      <c r="A35" s="17"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="19"/>
+    <row r="34" ht="21" customHeight="1">
+      <c r="A34" t="s" s="10">
+        <v>78</v>
+      </c>
+      <c r="B34" t="s" s="10">
+        <v>79</v>
+      </c>
+      <c r="C34" t="s" s="10">
+        <v>27</v>
+      </c>
+      <c r="D34" s="7">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="11"/>
+    </row>
+    <row r="35" ht="20.7" customHeight="1">
+      <c r="A35" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="B35" t="s" s="10">
+        <v>81</v>
+      </c>
+      <c r="C35" t="s" s="10">
+        <v>27</v>
+      </c>
+      <c r="D35" s="18">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="20"/>
     </row>
     <row r="36" ht="21" customHeight="1">
-      <c r="A36" s="17"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="7"/>
+      <c r="A36" t="s" s="10">
+        <v>82</v>
+      </c>
+      <c r="B36" t="s" s="10">
+        <v>83</v>
+      </c>
+      <c r="C36" t="s" s="10">
+        <v>18</v>
+      </c>
+      <c r="D36" s="7">
+        <v>0.880952380952381</v>
+      </c>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" ht="20.7" customHeight="1">
-      <c r="A37" s="17"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="18"/>
+    <row r="37" ht="21" customHeight="1">
+      <c r="A37" t="s" s="12">
+        <v>84</v>
+      </c>
+      <c r="B37" t="s" s="12">
+        <v>85</v>
+      </c>
+      <c r="C37" t="s" s="10">
+        <v>27</v>
+      </c>
+      <c r="D37" s="7">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="8"/>
     </row>
     <row r="38" ht="21" customHeight="1">
-      <c r="A38" s="17"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="7"/>
+      <c r="A38" t="s" s="9">
+        <v>86</v>
+      </c>
+      <c r="B38" t="s" s="9">
+        <v>87</v>
+      </c>
+      <c r="C38" t="s" s="6">
+        <v>21</v>
+      </c>
+      <c r="D38" s="7">
+        <v>0.666666666666667</v>
+      </c>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
-      <c r="H38" s="19"/>
+      <c r="H38" s="11"/>
     </row>
     <row r="39" ht="21" customHeight="1">
-      <c r="A39" s="17"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="7"/>
+      <c r="A39" t="s" s="10">
+        <v>88</v>
+      </c>
+      <c r="B39" t="s" s="10">
+        <v>89</v>
+      </c>
+      <c r="C39" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="D39" s="7">
+        <v>0.571428571428571</v>
+      </c>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
-      <c r="H39" s="19"/>
+      <c r="H39" s="15"/>
     </row>
     <row r="40" ht="21" customHeight="1">
-      <c r="A40" s="17"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="7"/>
+      <c r="A40" t="s" s="10">
+        <v>90</v>
+      </c>
+      <c r="B40" t="s" s="10">
+        <v>91</v>
+      </c>
+      <c r="C40" t="s" s="10">
+        <v>27</v>
+      </c>
+      <c r="D40" s="7">
+        <v>0.833333333333333</v>
+      </c>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
-      <c r="H40" s="19"/>
+      <c r="H40" s="8"/>
     </row>
     <row r="41" ht="21" customHeight="1">
-      <c r="A41" s="17"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="7"/>
+      <c r="A41" t="s" s="10">
+        <v>92</v>
+      </c>
+      <c r="B41" t="s" s="10">
+        <v>93</v>
+      </c>
+      <c r="C41" t="s" s="10">
+        <v>27</v>
+      </c>
+      <c r="D41" s="7">
+        <v>0.5</v>
+      </c>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" ht="20.7" customHeight="1">
-      <c r="A42" s="17"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="18"/>
+    <row r="42" ht="21" customHeight="1">
+      <c r="A42" t="s" s="10">
+        <v>94</v>
+      </c>
+      <c r="B42" t="s" s="10">
+        <v>95</v>
+      </c>
+      <c r="C42" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="D42" s="7">
+        <v>0.547619047619048</v>
+      </c>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="8"/>
     </row>
     <row r="43" ht="21" customHeight="1">
-      <c r="A43" s="23"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="7"/>
+      <c r="A43" t="s" s="10">
+        <v>96</v>
+      </c>
+      <c r="B43" t="s" s="10">
+        <v>97</v>
+      </c>
+      <c r="C43" t="s" s="10">
+        <v>27</v>
+      </c>
+      <c r="D43" s="7">
+        <v>0.571428571428571</v>
+      </c>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
-      <c r="H43" s="19"/>
+      <c r="H43" s="8"/>
     </row>
     <row r="44" ht="21" customHeight="1">
-      <c r="A44" s="24"/>
-      <c r="B44" s="24"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="7"/>
+      <c r="A44" t="s" s="12">
+        <v>98</v>
+      </c>
+      <c r="B44" t="s" s="12">
+        <v>99</v>
+      </c>
+      <c r="C44" t="s" s="10">
+        <v>15</v>
+      </c>
+      <c r="D44" s="7">
+        <v>0.30952380952381</v>
+      </c>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
-      <c r="H44" s="19"/>
+      <c r="H44" s="8"/>
     </row>
     <row r="45" ht="21" customHeight="1">
-      <c r="A45" s="24"/>
-      <c r="B45" s="24"/>
-      <c r="C45" s="25"/>
+      <c r="A45" s="25"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="26"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
-      <c r="H45" s="8"/>
+      <c r="H45" s="11"/>
     </row>
     <row r="46" ht="21" customHeight="1">
-      <c r="A46" s="26"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="17"/>
+      <c r="A46" s="27"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="19"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
-      <c r="H46" s="21"/>
+      <c r="H46" s="24"/>
     </row>
     <row r="47" ht="20.7" customHeight="1">
-      <c r="A47" s="17"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="18"/>
+      <c r="A47" s="19"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="20"/>
     </row>
     <row r="48" ht="21" customHeight="1">
-      <c r="A48" s="17"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
+      <c r="A48" s="19"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
-      <c r="H48" s="8"/>
+      <c r="H48" s="11"/>
     </row>
     <row r="49" ht="21" customHeight="1">
-      <c r="A49" s="17"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
+      <c r="A49" s="19"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
-      <c r="H49" s="21"/>
+      <c r="H49" s="24"/>
     </row>
     <row r="50" ht="20.7" customHeight="1">
-      <c r="A50" s="17"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="18"/>
+      <c r="A50" s="19"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="20"/>
     </row>
     <row r="51" ht="21" customHeight="1">
-      <c r="A51" s="17"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
+      <c r="A51" s="19"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="19"/>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
-      <c r="H51" s="19"/>
+      <c r="H51" s="8"/>
     </row>
     <row r="52" ht="21" customHeight="1">
-      <c r="A52" s="17"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="17"/>
+      <c r="A52" s="19"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="19"/>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
-      <c r="H52" s="19"/>
+      <c r="H52" s="8"/>
     </row>
     <row r="53" ht="21" customHeight="1">
-      <c r="A53" s="17"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
+      <c r="A53" s="19"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="19"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
-      <c r="H53" s="19"/>
+      <c r="H53" s="8"/>
     </row>
     <row r="54" ht="21" customHeight="1">
-      <c r="A54" s="17"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
+      <c r="A54" s="19"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="19"/>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
-      <c r="H54" s="19"/>
+      <c r="H54" s="8"/>
     </row>
     <row r="55" ht="21" customHeight="1">
-      <c r="A55" s="17"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="17"/>
+      <c r="A55" s="19"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="19"/>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
-      <c r="H55" s="19"/>
+      <c r="H55" s="8"/>
     </row>
     <row r="56" ht="21" customHeight="1">
-      <c r="A56" s="17"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
+      <c r="A56" s="19"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
-      <c r="H56" s="19"/>
+      <c r="H56" s="8"/>
     </row>
     <row r="57" ht="21" customHeight="1">
-      <c r="A57" s="17"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="17"/>
+      <c r="A57" s="19"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="19"/>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
-      <c r="H57" s="19"/>
+      <c r="H57" s="8"/>
     </row>
     <row r="58" ht="21" customHeight="1">
-      <c r="A58" s="17"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="17"/>
+      <c r="A58" s="19"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="19"/>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
-      <c r="H58" s="19"/>
+      <c r="H58" s="8"/>
     </row>
     <row r="59" ht="21" customHeight="1">
-      <c r="A59" s="17"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="17"/>
+      <c r="A59" s="19"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="19"/>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
-      <c r="H59" s="8"/>
+      <c r="H59" s="11"/>
     </row>
     <row r="60" ht="21" customHeight="1">
-      <c r="A60" s="23"/>
-      <c r="B60" s="23"/>
-      <c r="C60" s="17"/>
+      <c r="A60" s="28"/>
+      <c r="B60" s="28"/>
+      <c r="C60" s="19"/>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
-      <c r="H60" s="12"/>
+      <c r="H60" s="15"/>
     </row>
     <row r="61" ht="21" customHeight="1">
-      <c r="A61" s="24"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="25"/>
+      <c r="A61" s="25"/>
+      <c r="B61" s="25"/>
+      <c r="C61" s="26"/>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
-      <c r="H61" s="8"/>
+      <c r="H61" s="11"/>
     </row>
     <row r="62" ht="21" customHeight="1">
-      <c r="A62" s="26"/>
-      <c r="B62" s="26"/>
-      <c r="C62" s="17"/>
+      <c r="A62" s="27"/>
+      <c r="B62" s="27"/>
+      <c r="C62" s="19"/>
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
-      <c r="H62" s="12"/>
+      <c r="H62" s="15"/>
     </row>
     <row r="63" ht="21" customHeight="1">
-      <c r="A63" s="17"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="17"/>
+      <c r="A63" s="19"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="19"/>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
-      <c r="H63" s="19"/>
+      <c r="H63" s="8"/>
     </row>
     <row r="64" ht="21" customHeight="1">
-      <c r="A64" s="17"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="17"/>
+      <c r="A64" s="19"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="19"/>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
-      <c r="H64" s="8"/>
+      <c r="H64" s="11"/>
     </row>
     <row r="65" ht="21" customHeight="1">
-      <c r="A65" s="17"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="17"/>
+      <c r="A65" s="19"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="19"/>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
-      <c r="H65" s="12"/>
+      <c r="H65" s="15"/>
     </row>
     <row r="66" ht="21" customHeight="1">
-      <c r="A66" s="17"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="17"/>
+      <c r="A66" s="19"/>
+      <c r="B66" s="19"/>
+      <c r="C66" s="19"/>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
-      <c r="H66" s="19"/>
+      <c r="H66" s="8"/>
     </row>
     <row r="67" ht="21" customHeight="1">
-      <c r="A67" s="17"/>
-      <c r="B67" s="17"/>
-      <c r="C67" s="17"/>
+      <c r="A67" s="19"/>
+      <c r="B67" s="19"/>
+      <c r="C67" s="19"/>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
-      <c r="H67" s="8"/>
+      <c r="H67" s="11"/>
     </row>
     <row r="68" ht="21" customHeight="1">
-      <c r="A68" s="17"/>
-      <c r="B68" s="17"/>
-      <c r="C68" s="17"/>
+      <c r="A68" s="19"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="19"/>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
-      <c r="H68" s="12"/>
+      <c r="H68" s="15"/>
     </row>
     <row r="69" ht="21" customHeight="1">
-      <c r="A69" s="17"/>
-      <c r="B69" s="17"/>
-      <c r="C69" s="17"/>
+      <c r="A69" s="19"/>
+      <c r="B69" s="19"/>
+      <c r="C69" s="19"/>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
-      <c r="H69" s="19"/>
+      <c r="H69" s="8"/>
     </row>
     <row r="70" ht="21" customHeight="1">
-      <c r="A70" s="17"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="17"/>
+      <c r="A70" s="19"/>
+      <c r="B70" s="19"/>
+      <c r="C70" s="19"/>
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
-      <c r="H70" s="19"/>
+      <c r="H70" s="8"/>
     </row>
     <row r="71" ht="21" customHeight="1">
-      <c r="A71" s="17"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="17"/>
+      <c r="A71" s="19"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="19"/>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
-      <c r="H71" s="8"/>
+      <c r="H71" s="11"/>
     </row>
     <row r="72" ht="20.7" customHeight="1">
-      <c r="A72" s="17"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="17"/>
-      <c r="D72" s="17"/>
-      <c r="E72" s="17"/>
-      <c r="F72" s="17"/>
-      <c r="G72" s="17"/>
-      <c r="H72" s="18"/>
+      <c r="A72" s="19"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="19"/>
+      <c r="G72" s="19"/>
+      <c r="H72" s="20"/>
     </row>
     <row r="73" ht="21" customHeight="1">
-      <c r="A73" s="17"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="17"/>
+      <c r="A73" s="19"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="19"/>
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
-      <c r="H73" s="8"/>
+      <c r="H73" s="11"/>
     </row>
     <row r="74" ht="21" customHeight="1">
-      <c r="A74" s="17"/>
-      <c r="B74" s="17"/>
-      <c r="C74" s="17"/>
+      <c r="A74" s="19"/>
+      <c r="B74" s="19"/>
+      <c r="C74" s="19"/>
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
-      <c r="H74" s="12"/>
+      <c r="H74" s="15"/>
     </row>
     <row r="75" ht="21" customHeight="1">
-      <c r="A75" s="17"/>
-      <c r="B75" s="17"/>
-      <c r="C75" s="17"/>
+      <c r="A75" s="19"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="19"/>
       <c r="D75" s="7"/>
       <c r="E75" s="7"/>
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
-      <c r="H75" s="19"/>
+      <c r="H75" s="8"/>
     </row>
     <row r="76" ht="21" customHeight="1">
-      <c r="A76" s="23"/>
-      <c r="B76" s="23"/>
-      <c r="C76" s="17"/>
+      <c r="A76" s="28"/>
+      <c r="B76" s="28"/>
+      <c r="C76" s="19"/>
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
-      <c r="H76" s="19"/>
+      <c r="H76" s="8"/>
     </row>
     <row r="77" ht="21" customHeight="1">
-      <c r="A77" s="24"/>
-      <c r="B77" s="24"/>
-      <c r="C77" s="25"/>
+      <c r="A77" s="25"/>
+      <c r="B77" s="25"/>
+      <c r="C77" s="26"/>
       <c r="D77" s="7"/>
       <c r="E77" s="7"/>
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
-      <c r="H77" s="8"/>
+      <c r="H77" s="11"/>
     </row>
     <row r="78" ht="21" customHeight="1">
-      <c r="A78" s="26"/>
-      <c r="B78" s="26"/>
-      <c r="C78" s="17"/>
+      <c r="A78" s="27"/>
+      <c r="B78" s="27"/>
+      <c r="C78" s="19"/>
       <c r="D78" s="7"/>
       <c r="E78" s="7"/>
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
-      <c r="H78" s="12"/>
+      <c r="H78" s="15"/>
     </row>
     <row r="79" ht="21" customHeight="1">
-      <c r="A79" s="17"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="17"/>
+      <c r="A79" s="19"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="19"/>
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
-      <c r="H79" s="19"/>
+      <c r="H79" s="8"/>
     </row>
     <row r="80" ht="21" customHeight="1">
-      <c r="A80" s="17"/>
-      <c r="B80" s="17"/>
-      <c r="C80" s="17"/>
+      <c r="A80" s="19"/>
+      <c r="B80" s="19"/>
+      <c r="C80" s="19"/>
       <c r="D80" s="7"/>
       <c r="E80" s="7"/>
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
-      <c r="H80" s="19"/>
+      <c r="H80" s="8"/>
     </row>
     <row r="81" ht="21" customHeight="1">
-      <c r="A81" s="17"/>
-      <c r="B81" s="17"/>
-      <c r="C81" s="17"/>
+      <c r="A81" s="19"/>
+      <c r="B81" s="19"/>
+      <c r="C81" s="19"/>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
-      <c r="H81" s="19"/>
+      <c r="H81" s="8"/>
     </row>
     <row r="82" ht="21" customHeight="1">
-      <c r="A82" s="17"/>
-      <c r="B82" s="17"/>
-      <c r="C82" s="17"/>
+      <c r="A82" s="19"/>
+      <c r="B82" s="19"/>
+      <c r="C82" s="19"/>
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
-      <c r="H82" s="19"/>
+      <c r="H82" s="8"/>
     </row>
     <row r="83" ht="21" customHeight="1">
-      <c r="A83" s="17"/>
-      <c r="B83" s="17"/>
-      <c r="C83" s="17"/>
+      <c r="A83" s="19"/>
+      <c r="B83" s="19"/>
+      <c r="C83" s="19"/>
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
-      <c r="H83" s="8"/>
+      <c r="H83" s="11"/>
     </row>
     <row r="84" ht="20.7" customHeight="1">
-      <c r="A84" s="23"/>
-      <c r="B84" s="23"/>
-      <c r="C84" s="17"/>
-      <c r="D84" s="17"/>
-      <c r="E84" s="17"/>
-      <c r="F84" s="17"/>
-      <c r="G84" s="17"/>
-      <c r="H84" s="18"/>
+      <c r="A84" s="28"/>
+      <c r="B84" s="28"/>
+      <c r="C84" s="19"/>
+      <c r="D84" s="19"/>
+      <c r="E84" s="19"/>
+      <c r="F84" s="19"/>
+      <c r="G84" s="19"/>
+      <c r="H84" s="20"/>
     </row>
     <row r="85" ht="21" customHeight="1">
-      <c r="A85" s="24"/>
-      <c r="B85" s="24"/>
-      <c r="C85" s="25"/>
+      <c r="A85" s="25"/>
+      <c r="B85" s="25"/>
+      <c r="C85" s="26"/>
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
-      <c r="H85" s="8"/>
+      <c r="H85" s="11"/>
     </row>
     <row r="86" ht="21" customHeight="1">
-      <c r="A86" s="26"/>
-      <c r="B86" s="26"/>
-      <c r="C86" s="17"/>
+      <c r="A86" s="27"/>
+      <c r="B86" s="27"/>
+      <c r="C86" s="19"/>
       <c r="D86" s="7"/>
       <c r="E86" s="7"/>
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
-      <c r="H86" s="12"/>
+      <c r="H86" s="15"/>
     </row>
     <row r="87" ht="21" customHeight="1">
-      <c r="A87" s="17"/>
-      <c r="B87" s="17"/>
-      <c r="C87" s="17"/>
+      <c r="A87" s="19"/>
+      <c r="B87" s="19"/>
+      <c r="C87" s="19"/>
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
-      <c r="H87" s="19"/>
+      <c r="H87" s="8"/>
     </row>
     <row r="88" ht="21" customHeight="1">
-      <c r="A88" s="23"/>
-      <c r="B88" s="23"/>
-      <c r="C88" s="17"/>
+      <c r="A88" s="28"/>
+      <c r="B88" s="28"/>
+      <c r="C88" s="19"/>
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
-      <c r="H88" s="19"/>
+      <c r="H88" s="8"/>
     </row>
     <row r="89" ht="21" customHeight="1">
-      <c r="A89" s="24"/>
-      <c r="B89" s="24"/>
-      <c r="C89" s="25"/>
+      <c r="A89" s="25"/>
+      <c r="B89" s="25"/>
+      <c r="C89" s="26"/>
       <c r="D89" s="7"/>
       <c r="E89" s="7"/>
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
-      <c r="H89" s="8"/>
+      <c r="H89" s="11"/>
     </row>
     <row r="90" ht="21" customHeight="1">
-      <c r="A90" s="27"/>
-      <c r="B90" s="27"/>
-      <c r="C90" s="17"/>
+      <c r="A90" s="29"/>
+      <c r="B90" s="29"/>
+      <c r="C90" s="19"/>
       <c r="D90" s="7"/>
       <c r="E90" s="7"/>
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
-      <c r="H90" s="12"/>
+      <c r="H90" s="15"/>
     </row>
     <row r="91" ht="21" customHeight="1">
-      <c r="A91" s="24"/>
-      <c r="B91" s="24"/>
-      <c r="C91" s="25"/>
+      <c r="A91" s="25"/>
+      <c r="B91" s="25"/>
+      <c r="C91" s="26"/>
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
-      <c r="H91" s="8"/>
+      <c r="H91" s="11"/>
     </row>
     <row r="92" ht="21" customHeight="1">
-      <c r="A92" s="26"/>
-      <c r="B92" s="26"/>
-      <c r="C92" s="17"/>
+      <c r="A92" s="27"/>
+      <c r="B92" s="27"/>
+      <c r="C92" s="19"/>
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
-      <c r="H92" s="12"/>
+      <c r="H92" s="15"/>
     </row>
     <row r="93" ht="21" customHeight="1">
-      <c r="A93" s="17"/>
-      <c r="B93" s="17"/>
-      <c r="C93" s="17"/>
+      <c r="A93" s="19"/>
+      <c r="B93" s="19"/>
+      <c r="C93" s="19"/>
       <c r="D93" s="7"/>
       <c r="E93" s="7"/>
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
-      <c r="H93" s="19"/>
+      <c r="H93" s="8"/>
     </row>
     <row r="94" ht="21" customHeight="1">
-      <c r="A94" s="17"/>
-      <c r="B94" s="17"/>
-      <c r="C94" s="17"/>
+      <c r="A94" s="19"/>
+      <c r="B94" s="19"/>
+      <c r="C94" s="19"/>
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
-      <c r="H94" s="8"/>
+      <c r="H94" s="11"/>
     </row>
     <row r="95" ht="21" customHeight="1">
-      <c r="A95" s="17"/>
-      <c r="B95" s="17"/>
-      <c r="C95" s="17"/>
+      <c r="A95" s="19"/>
+      <c r="B95" s="19"/>
+      <c r="C95" s="19"/>
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
-      <c r="H95" s="12"/>
+      <c r="H95" s="15"/>
     </row>
     <row r="96" ht="21" customHeight="1">
-      <c r="A96" s="23"/>
-      <c r="B96" s="23"/>
-      <c r="C96" s="17"/>
+      <c r="A96" s="28"/>
+      <c r="B96" s="28"/>
+      <c r="C96" s="19"/>
       <c r="D96" s="7"/>
       <c r="E96" s="7"/>
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
-      <c r="H96" s="19"/>
+      <c r="H96" s="8"/>
     </row>
     <row r="97" ht="21" customHeight="1">
-      <c r="A97" s="24"/>
-      <c r="B97" s="24"/>
-      <c r="C97" s="25"/>
+      <c r="A97" s="25"/>
+      <c r="B97" s="25"/>
+      <c r="C97" s="26"/>
       <c r="D97" s="7"/>
       <c r="E97" s="7"/>
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
-      <c r="H97" s="8"/>
+      <c r="H97" s="11"/>
     </row>
     <row r="98" ht="21" customHeight="1">
-      <c r="A98" s="26"/>
-      <c r="B98" s="26"/>
-      <c r="C98" s="17"/>
+      <c r="A98" s="27"/>
+      <c r="B98" s="27"/>
+      <c r="C98" s="19"/>
       <c r="D98" s="7"/>
       <c r="E98" s="7"/>
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
-      <c r="H98" s="12"/>
+      <c r="H98" s="15"/>
     </row>
     <row r="99" ht="21" customHeight="1">
-      <c r="A99" s="17"/>
-      <c r="B99" s="17"/>
-      <c r="C99" s="17"/>
+      <c r="A99" s="19"/>
+      <c r="B99" s="19"/>
+      <c r="C99" s="19"/>
       <c r="D99" s="7"/>
       <c r="E99" s="7"/>
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
-      <c r="H99" s="19"/>
+      <c r="H99" s="8"/>
     </row>
     <row r="100" ht="21" customHeight="1">
-      <c r="A100" s="23"/>
-      <c r="B100" s="23"/>
-      <c r="C100" s="17"/>
+      <c r="A100" s="28"/>
+      <c r="B100" s="28"/>
+      <c r="C100" s="19"/>
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
-      <c r="H100" s="19"/>
+      <c r="H100" s="8"/>
     </row>
     <row r="101" ht="21" customHeight="1">
-      <c r="A101" s="24"/>
-      <c r="B101" s="24"/>
-      <c r="C101" s="25"/>
+      <c r="A101" s="25"/>
+      <c r="B101" s="25"/>
+      <c r="C101" s="26"/>
       <c r="D101" s="7"/>
       <c r="E101" s="7"/>
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
-      <c r="H101" s="19"/>
+      <c r="H101" s="8"/>
     </row>
     <row r="102" ht="21" customHeight="1">
-      <c r="A102" s="24"/>
-      <c r="B102" s="24"/>
-      <c r="C102" s="25"/>
+      <c r="A102" s="25"/>
+      <c r="B102" s="25"/>
+      <c r="C102" s="26"/>
       <c r="D102" s="7"/>
       <c r="E102" s="7"/>
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
-      <c r="H102" s="19"/>
+      <c r="H102" s="8"/>
     </row>
     <row r="103" ht="21" customHeight="1">
-      <c r="A103" s="24"/>
-      <c r="B103" s="24"/>
-      <c r="C103" s="25"/>
+      <c r="A103" s="25"/>
+      <c r="B103" s="25"/>
+      <c r="C103" s="26"/>
       <c r="D103" s="7"/>
       <c r="E103" s="7"/>
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
-      <c r="H103" s="19"/>
+      <c r="H103" s="8"/>
     </row>
     <row r="104" ht="21" customHeight="1">
-      <c r="A104" s="26"/>
-      <c r="B104" s="26"/>
-      <c r="C104" s="17"/>
+      <c r="A104" s="27"/>
+      <c r="B104" s="27"/>
+      <c r="C104" s="19"/>
       <c r="D104" s="7"/>
       <c r="E104" s="7"/>
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
-      <c r="H104" s="8"/>
+      <c r="H104" s="11"/>
     </row>
     <row r="105" ht="21" customHeight="1">
-      <c r="A105" s="17"/>
-      <c r="B105" s="17"/>
-      <c r="C105" s="17"/>
+      <c r="A105" s="19"/>
+      <c r="B105" s="19"/>
+      <c r="C105" s="19"/>
       <c r="D105" s="7"/>
       <c r="E105" s="7"/>
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
-      <c r="H105" s="21"/>
+      <c r="H105" s="24"/>
     </row>
     <row r="106" ht="20.7" customHeight="1">
-      <c r="A106" s="17"/>
-      <c r="B106" s="17"/>
-      <c r="C106" s="17"/>
-      <c r="D106" s="17"/>
-      <c r="E106" s="17"/>
-      <c r="F106" s="17"/>
-      <c r="G106" s="17"/>
-      <c r="H106" s="18"/>
+      <c r="A106" s="19"/>
+      <c r="B106" s="19"/>
+      <c r="C106" s="19"/>
+      <c r="D106" s="19"/>
+      <c r="E106" s="19"/>
+      <c r="F106" s="19"/>
+      <c r="G106" s="19"/>
+      <c r="H106" s="20"/>
     </row>
     <row r="107" ht="21" customHeight="1">
-      <c r="A107" s="17"/>
-      <c r="B107" s="17"/>
-      <c r="C107" s="17"/>
+      <c r="A107" s="19"/>
+      <c r="B107" s="19"/>
+      <c r="C107" s="19"/>
       <c r="D107" s="7"/>
       <c r="E107" s="7"/>
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
-      <c r="H107" s="19"/>
+      <c r="H107" s="8"/>
     </row>
     <row r="108" ht="21" customHeight="1">
-      <c r="A108" s="17"/>
-      <c r="B108" s="17"/>
-      <c r="C108" s="17"/>
+      <c r="A108" s="19"/>
+      <c r="B108" s="19"/>
+      <c r="C108" s="19"/>
       <c r="D108" s="7"/>
       <c r="E108" s="7"/>
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
-      <c r="H108" s="19"/>
+      <c r="H108" s="8"/>
     </row>
     <row r="109" ht="21" customHeight="1">
-      <c r="A109" s="17"/>
-      <c r="B109" s="17"/>
-      <c r="C109" s="17"/>
+      <c r="A109" s="19"/>
+      <c r="B109" s="19"/>
+      <c r="C109" s="19"/>
       <c r="D109" s="7"/>
       <c r="E109" s="7"/>
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
-      <c r="H109" s="19"/>
+      <c r="H109" s="8"/>
     </row>
     <row r="110" ht="21" customHeight="1">
-      <c r="A110" s="17"/>
-      <c r="B110" s="17"/>
-      <c r="C110" s="17"/>
+      <c r="A110" s="19"/>
+      <c r="B110" s="19"/>
+      <c r="C110" s="19"/>
       <c r="D110" s="7"/>
       <c r="E110" s="7"/>
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
-      <c r="H110" s="8"/>
+      <c r="H110" s="11"/>
     </row>
     <row r="111" ht="20.35" customHeight="1">
-      <c r="A111" s="17"/>
-      <c r="B111" s="17"/>
-      <c r="C111" s="17"/>
-      <c r="D111" s="17"/>
-      <c r="E111" s="17"/>
-      <c r="F111" s="17"/>
-      <c r="G111" s="17"/>
-      <c r="H111" s="22"/>
+      <c r="A111" s="19"/>
+      <c r="B111" s="19"/>
+      <c r="C111" s="19"/>
+      <c r="D111" s="19"/>
+      <c r="E111" s="19"/>
+      <c r="F111" s="19"/>
+      <c r="G111" s="19"/>
+      <c r="H111" s="23"/>
     </row>
     <row r="112" ht="20.05" customHeight="1">
-      <c r="A112" s="17"/>
-      <c r="B112" s="17"/>
-      <c r="C112" s="17"/>
-      <c r="D112" s="17"/>
-      <c r="E112" s="17"/>
-      <c r="F112" s="17"/>
-      <c r="G112" s="17"/>
-      <c r="H112" s="22"/>
+      <c r="A112" s="19"/>
+      <c r="B112" s="19"/>
+      <c r="C112" s="19"/>
+      <c r="D112" s="19"/>
+      <c r="E112" s="19"/>
+      <c r="F112" s="19"/>
+      <c r="G112" s="19"/>
+      <c r="H112" s="23"/>
     </row>
     <row r="113" ht="20.35" customHeight="1">
-      <c r="A113" s="17"/>
-      <c r="B113" s="17"/>
-      <c r="C113" s="17"/>
-      <c r="D113" s="17"/>
-      <c r="E113" s="17"/>
-      <c r="F113" s="17"/>
-      <c r="G113" s="17"/>
-      <c r="H113" s="18"/>
+      <c r="A113" s="19"/>
+      <c r="B113" s="19"/>
+      <c r="C113" s="19"/>
+      <c r="D113" s="19"/>
+      <c r="E113" s="19"/>
+      <c r="F113" s="19"/>
+      <c r="G113" s="19"/>
+      <c r="H113" s="20"/>
     </row>
     <row r="114" ht="21" customHeight="1">
-      <c r="A114" s="23"/>
-      <c r="B114" s="23"/>
-      <c r="C114" s="17"/>
+      <c r="A114" s="28"/>
+      <c r="B114" s="28"/>
+      <c r="C114" s="19"/>
       <c r="D114" s="7"/>
       <c r="E114" s="7"/>
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
-      <c r="H114" s="8"/>
+      <c r="H114" s="11"/>
     </row>
     <row r="115" ht="21" customHeight="1">
-      <c r="A115" s="24"/>
-      <c r="B115" s="24"/>
-      <c r="C115" s="25"/>
+      <c r="A115" s="25"/>
+      <c r="B115" s="25"/>
+      <c r="C115" s="26"/>
       <c r="D115" s="7"/>
       <c r="E115" s="7"/>
       <c r="F115" s="7"/>
       <c r="G115" s="7"/>
-      <c r="H115" s="21"/>
+      <c r="H115" s="24"/>
     </row>
     <row r="116" ht="21" customHeight="1">
-      <c r="A116" s="26"/>
-      <c r="B116" s="26"/>
-      <c r="C116" s="17"/>
+      <c r="A116" s="27"/>
+      <c r="B116" s="27"/>
+      <c r="C116" s="19"/>
       <c r="D116" s="7"/>
       <c r="E116" s="7"/>
       <c r="F116" s="7"/>
       <c r="G116" s="7"/>
-      <c r="H116" s="12"/>
+      <c r="H116" s="15"/>
     </row>
     <row r="117" ht="21" customHeight="1">
-      <c r="A117" s="17"/>
-      <c r="B117" s="17"/>
-      <c r="C117" s="17"/>
+      <c r="A117" s="19"/>
+      <c r="B117" s="19"/>
+      <c r="C117" s="19"/>
       <c r="D117" s="7"/>
       <c r="E117" s="7"/>
       <c r="F117" s="7"/>
       <c r="G117" s="7"/>
-      <c r="H117" s="19"/>
+      <c r="H117" s="8"/>
     </row>
     <row r="118" ht="21" customHeight="1">
-      <c r="A118" s="23"/>
-      <c r="B118" s="23"/>
-      <c r="C118" s="17"/>
+      <c r="A118" s="28"/>
+      <c r="B118" s="28"/>
+      <c r="C118" s="19"/>
       <c r="D118" s="7"/>
       <c r="E118" s="7"/>
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
-      <c r="H118" s="19"/>
+      <c r="H118" s="8"/>
     </row>
     <row r="119" ht="21" customHeight="1">
-      <c r="A119" s="24"/>
-      <c r="B119" s="24"/>
-      <c r="C119" s="25"/>
+      <c r="A119" s="25"/>
+      <c r="B119" s="25"/>
+      <c r="C119" s="26"/>
       <c r="D119" s="7"/>
       <c r="E119" s="7"/>
       <c r="F119" s="7"/>
       <c r="G119" s="7"/>
-      <c r="H119" s="19"/>
+      <c r="H119" s="8"/>
     </row>
     <row r="120" ht="21" customHeight="1">
-      <c r="A120" s="24"/>
-      <c r="B120" s="24"/>
-      <c r="C120" s="25"/>
+      <c r="A120" s="25"/>
+      <c r="B120" s="25"/>
+      <c r="C120" s="26"/>
       <c r="D120" s="7"/>
       <c r="E120" s="7"/>
       <c r="F120" s="7"/>
       <c r="G120" s="7"/>
-      <c r="H120" s="8"/>
+      <c r="H120" s="11"/>
     </row>
     <row r="121" ht="21" customHeight="1">
-      <c r="A121" s="26"/>
-      <c r="B121" s="26"/>
-      <c r="C121" s="17"/>
+      <c r="A121" s="27"/>
+      <c r="B121" s="27"/>
+      <c r="C121" s="19"/>
       <c r="D121" s="7"/>
       <c r="E121" s="7"/>
       <c r="F121" s="7"/>
       <c r="G121" s="7"/>
-      <c r="H121" s="12"/>
+      <c r="H121" s="15"/>
     </row>
     <row r="122" ht="21" customHeight="1">
-      <c r="A122" s="17"/>
-      <c r="B122" s="17"/>
-      <c r="C122" s="17"/>
+      <c r="A122" s="19"/>
+      <c r="B122" s="19"/>
+      <c r="C122" s="19"/>
       <c r="D122" s="7"/>
       <c r="E122" s="7"/>
       <c r="F122" s="7"/>
       <c r="G122" s="7"/>
-      <c r="H122" s="19"/>
+      <c r="H122" s="8"/>
     </row>
     <row r="123" ht="21" customHeight="1">
-      <c r="A123" s="17"/>
-      <c r="B123" s="17"/>
-      <c r="C123" s="17"/>
+      <c r="A123" s="19"/>
+      <c r="B123" s="19"/>
+      <c r="C123" s="19"/>
       <c r="D123" s="7"/>
       <c r="E123" s="7"/>
       <c r="F123" s="7"/>
       <c r="G123" s="7"/>
-      <c r="H123" s="19"/>
+      <c r="H123" s="8"/>
     </row>
     <row r="124" ht="21" customHeight="1">
-      <c r="A124" s="23"/>
-      <c r="B124" s="23"/>
-      <c r="C124" s="17"/>
+      <c r="A124" s="28"/>
+      <c r="B124" s="28"/>
+      <c r="C124" s="19"/>
       <c r="D124" s="7"/>
       <c r="E124" s="7"/>
       <c r="F124" s="7"/>
       <c r="G124" s="7"/>
-      <c r="H124" s="19"/>
+      <c r="H124" s="8"/>
     </row>
     <row r="125" ht="21" customHeight="1">
-      <c r="A125" s="24"/>
-      <c r="B125" s="24"/>
-      <c r="C125" s="25"/>
+      <c r="A125" s="25"/>
+      <c r="B125" s="25"/>
+      <c r="C125" s="26"/>
       <c r="D125" s="7"/>
       <c r="E125" s="7"/>
       <c r="F125" s="7"/>
       <c r="G125" s="7"/>
-      <c r="H125" s="8"/>
+      <c r="H125" s="11"/>
     </row>
     <row r="126" ht="20.7" customHeight="1">
-      <c r="A126" s="26"/>
-      <c r="B126" s="26"/>
-      <c r="C126" s="17"/>
-      <c r="D126" s="17"/>
-      <c r="E126" s="17"/>
-      <c r="F126" s="17"/>
-      <c r="G126" s="17"/>
-      <c r="H126" s="18"/>
+      <c r="A126" s="27"/>
+      <c r="B126" s="27"/>
+      <c r="C126" s="19"/>
+      <c r="D126" s="19"/>
+      <c r="E126" s="19"/>
+      <c r="F126" s="19"/>
+      <c r="G126" s="19"/>
+      <c r="H126" s="20"/>
     </row>
     <row r="127" ht="21" customHeight="1">
-      <c r="A127" s="17"/>
-      <c r="B127" s="17"/>
-      <c r="C127" s="17"/>
+      <c r="A127" s="19"/>
+      <c r="B127" s="19"/>
+      <c r="C127" s="19"/>
       <c r="D127" s="7"/>
       <c r="E127" s="7"/>
       <c r="F127" s="7"/>
       <c r="G127" s="7"/>
-      <c r="H127" s="8"/>
+      <c r="H127" s="11"/>
     </row>
     <row r="128" ht="21" customHeight="1">
-      <c r="A128" s="17"/>
-      <c r="B128" s="17"/>
-      <c r="C128" s="17"/>
+      <c r="A128" s="19"/>
+      <c r="B128" s="19"/>
+      <c r="C128" s="19"/>
       <c r="D128" s="7"/>
       <c r="E128" s="7"/>
       <c r="F128" s="7"/>
       <c r="G128" s="7"/>
-      <c r="H128" s="21"/>
+      <c r="H128" s="24"/>
     </row>
     <row r="129" ht="20.7" customHeight="1">
-      <c r="A129" s="17"/>
-      <c r="B129" s="17"/>
-      <c r="C129" s="17"/>
-      <c r="D129" s="17"/>
-      <c r="E129" s="17"/>
-      <c r="F129" s="17"/>
-      <c r="G129" s="17"/>
-      <c r="H129" s="18"/>
+      <c r="A129" s="19"/>
+      <c r="B129" s="19"/>
+      <c r="C129" s="19"/>
+      <c r="D129" s="19"/>
+      <c r="E129" s="19"/>
+      <c r="F129" s="19"/>
+      <c r="G129" s="19"/>
+      <c r="H129" s="20"/>
     </row>
     <row r="130" ht="21" customHeight="1">
-      <c r="A130" s="17"/>
-      <c r="B130" s="17"/>
-      <c r="C130" s="17"/>
+      <c r="A130" s="19"/>
+      <c r="B130" s="19"/>
+      <c r="C130" s="19"/>
       <c r="D130" s="7"/>
       <c r="E130" s="7"/>
       <c r="F130" s="7"/>
       <c r="G130" s="7"/>
-      <c r="H130" s="19"/>
+      <c r="H130" s="8"/>
     </row>
     <row r="131" ht="21" customHeight="1">
-      <c r="A131" s="23"/>
-      <c r="B131" s="23"/>
-      <c r="C131" s="17"/>
+      <c r="A131" s="28"/>
+      <c r="B131" s="28"/>
+      <c r="C131" s="19"/>
       <c r="D131" s="7"/>
       <c r="E131" s="7"/>
       <c r="F131" s="7"/>
       <c r="G131" s="7"/>
-      <c r="H131" s="19"/>
+      <c r="H131" s="8"/>
     </row>
     <row r="132" ht="21" customHeight="1">
-      <c r="A132" s="24"/>
-      <c r="B132" s="24"/>
-      <c r="C132" s="25"/>
+      <c r="A132" s="25"/>
+      <c r="B132" s="25"/>
+      <c r="C132" s="26"/>
       <c r="D132" s="7"/>
       <c r="E132" s="7"/>
       <c r="F132" s="7"/>
       <c r="G132" s="7"/>
-      <c r="H132" s="19"/>
+      <c r="H132" s="8"/>
     </row>
     <row r="133" ht="21" customHeight="1">
-      <c r="A133" s="27"/>
-      <c r="B133" s="27"/>
-      <c r="C133" s="17"/>
+      <c r="A133" s="29"/>
+      <c r="B133" s="29"/>
+      <c r="C133" s="19"/>
       <c r="D133" s="7"/>
       <c r="E133" s="7"/>
       <c r="F133" s="7"/>
       <c r="G133" s="7"/>
-      <c r="H133" s="8"/>
+      <c r="H133" s="11"/>
     </row>
     <row r="134" ht="21" customHeight="1">
-      <c r="A134" s="24"/>
-      <c r="B134" s="24"/>
-      <c r="C134" s="25"/>
+      <c r="A134" s="25"/>
+      <c r="B134" s="25"/>
+      <c r="C134" s="26"/>
       <c r="D134" s="7"/>
       <c r="E134" s="7"/>
       <c r="F134" s="7"/>
       <c r="G134" s="7"/>
-      <c r="H134" s="21"/>
+      <c r="H134" s="24"/>
     </row>
     <row r="135" ht="21" customHeight="1">
-      <c r="A135" s="26"/>
-      <c r="B135" s="26"/>
-      <c r="C135" s="17"/>
+      <c r="A135" s="27"/>
+      <c r="B135" s="27"/>
+      <c r="C135" s="19"/>
       <c r="D135" s="7"/>
       <c r="E135" s="7"/>
       <c r="F135" s="7"/>
       <c r="G135" s="7"/>
-      <c r="H135" s="21"/>
+      <c r="H135" s="24"/>
     </row>
     <row r="136" ht="20.7" customHeight="1">
-      <c r="A136" s="17"/>
-      <c r="B136" s="17"/>
-      <c r="C136" s="17"/>
-      <c r="D136" s="17"/>
-      <c r="E136" s="17"/>
-      <c r="F136" s="17"/>
-      <c r="G136" s="17"/>
-      <c r="H136" s="18"/>
+      <c r="A136" s="19"/>
+      <c r="B136" s="19"/>
+      <c r="C136" s="19"/>
+      <c r="D136" s="19"/>
+      <c r="E136" s="19"/>
+      <c r="F136" s="19"/>
+      <c r="G136" s="19"/>
+      <c r="H136" s="20"/>
     </row>
     <row r="137" ht="21" customHeight="1">
-      <c r="A137" s="17"/>
-      <c r="B137" s="17"/>
-      <c r="C137" s="17"/>
+      <c r="A137" s="19"/>
+      <c r="B137" s="19"/>
+      <c r="C137" s="19"/>
       <c r="D137" s="7"/>
       <c r="E137" s="7"/>
       <c r="F137" s="7"/>
       <c r="G137" s="7"/>
-      <c r="H137" s="19"/>
+      <c r="H137" s="8"/>
     </row>
     <row r="138" ht="21" customHeight="1">
-      <c r="A138" s="23"/>
-      <c r="B138" s="23"/>
-      <c r="C138" s="17"/>
+      <c r="A138" s="28"/>
+      <c r="B138" s="28"/>
+      <c r="C138" s="19"/>
       <c r="D138" s="7"/>
       <c r="E138" s="7"/>
       <c r="F138" s="7"/>
       <c r="G138" s="7"/>
-      <c r="H138" s="19"/>
+      <c r="H138" s="8"/>
     </row>
     <row r="139" ht="21" customHeight="1">
-      <c r="A139" s="24"/>
-      <c r="B139" s="24"/>
-      <c r="C139" s="25"/>
+      <c r="A139" s="25"/>
+      <c r="B139" s="25"/>
+      <c r="C139" s="26"/>
       <c r="D139" s="7"/>
       <c r="E139" s="7"/>
       <c r="F139" s="7"/>
       <c r="G139" s="7"/>
-      <c r="H139" s="8"/>
+      <c r="H139" s="11"/>
     </row>
     <row r="140" ht="21" customHeight="1">
-      <c r="A140" s="26"/>
-      <c r="B140" s="26"/>
-      <c r="C140" s="17"/>
+      <c r="A140" s="27"/>
+      <c r="B140" s="27"/>
+      <c r="C140" s="19"/>
       <c r="D140" s="7"/>
       <c r="E140" s="7"/>
       <c r="F140" s="7"/>
       <c r="G140" s="7"/>
-      <c r="H140" s="12"/>
+      <c r="H140" s="15"/>
     </row>
     <row r="141" ht="21" customHeight="1">
-      <c r="A141" s="17"/>
-      <c r="B141" s="17"/>
-      <c r="C141" s="17"/>
+      <c r="A141" s="19"/>
+      <c r="B141" s="19"/>
+      <c r="C141" s="19"/>
       <c r="D141" s="7"/>
       <c r="E141" s="7"/>
       <c r="F141" s="7"/>
       <c r="G141" s="7"/>
-      <c r="H141" s="19"/>
+      <c r="H141" s="8"/>
     </row>
     <row r="142" ht="21" customHeight="1">
-      <c r="A142" s="17"/>
-      <c r="B142" s="17"/>
-      <c r="C142" s="17"/>
+      <c r="A142" s="19"/>
+      <c r="B142" s="19"/>
+      <c r="C142" s="19"/>
       <c r="D142" s="7"/>
       <c r="E142" s="7"/>
       <c r="F142" s="7"/>
       <c r="G142" s="7"/>
-      <c r="H142" s="19"/>
+      <c r="H142" s="8"/>
     </row>
     <row r="143" ht="21" customHeight="1">
-      <c r="A143" s="23"/>
-      <c r="B143" s="23"/>
-      <c r="C143" s="17"/>
+      <c r="A143" s="28"/>
+      <c r="B143" s="28"/>
+      <c r="C143" s="19"/>
       <c r="D143" s="7"/>
       <c r="E143" s="7"/>
       <c r="F143" s="7"/>
       <c r="G143" s="7"/>
-      <c r="H143" s="8"/>
+      <c r="H143" s="11"/>
     </row>
     <row r="144" ht="21" customHeight="1">
-      <c r="A144" s="24"/>
-      <c r="B144" s="24"/>
-      <c r="C144" s="25"/>
+      <c r="A144" s="25"/>
+      <c r="B144" s="25"/>
+      <c r="C144" s="26"/>
       <c r="D144" s="7"/>
       <c r="E144" s="7"/>
       <c r="F144" s="7"/>
       <c r="G144" s="7"/>
-      <c r="H144" s="21"/>
+      <c r="H144" s="24"/>
     </row>
     <row r="145" ht="21" customHeight="1">
-      <c r="A145" s="27"/>
-      <c r="B145" s="27"/>
-      <c r="C145" s="17"/>
+      <c r="A145" s="29"/>
+      <c r="B145" s="29"/>
+      <c r="C145" s="19"/>
       <c r="D145" s="7"/>
       <c r="E145" s="7"/>
       <c r="F145" s="7"/>
       <c r="G145" s="7"/>
-      <c r="H145" s="12"/>
+      <c r="H145" s="15"/>
     </row>
     <row r="146" ht="21" customHeight="1">
-      <c r="A146" s="24"/>
-      <c r="B146" s="24"/>
-      <c r="C146" s="25"/>
+      <c r="A146" s="25"/>
+      <c r="B146" s="25"/>
+      <c r="C146" s="26"/>
       <c r="D146" s="7"/>
       <c r="E146" s="7"/>
       <c r="F146" s="7"/>
       <c r="G146" s="7"/>
-      <c r="H146" s="8"/>
+      <c r="H146" s="11"/>
     </row>
     <row r="147" ht="21" customHeight="1">
-      <c r="A147" s="26"/>
-      <c r="B147" s="26"/>
-      <c r="C147" s="17"/>
+      <c r="A147" s="27"/>
+      <c r="B147" s="27"/>
+      <c r="C147" s="19"/>
       <c r="D147" s="7"/>
       <c r="E147" s="7"/>
       <c r="F147" s="7"/>
       <c r="G147" s="7"/>
-      <c r="H147" s="12"/>
+      <c r="H147" s="15"/>
     </row>
     <row r="148" ht="21" customHeight="1">
-      <c r="A148" s="17"/>
-      <c r="B148" s="17"/>
-      <c r="C148" s="17"/>
+      <c r="A148" s="19"/>
+      <c r="B148" s="19"/>
+      <c r="C148" s="19"/>
       <c r="D148" s="7"/>
       <c r="E148" s="7"/>
       <c r="F148" s="7"/>
       <c r="G148" s="7"/>
-      <c r="H148" s="8"/>
+      <c r="H148" s="11"/>
     </row>
     <row r="149" ht="21" customHeight="1">
-      <c r="A149" s="23"/>
-      <c r="B149" s="23"/>
-      <c r="C149" s="17"/>
+      <c r="A149" s="28"/>
+      <c r="B149" s="28"/>
+      <c r="C149" s="19"/>
       <c r="D149" s="7"/>
       <c r="E149" s="7"/>
       <c r="F149" s="7"/>
       <c r="G149" s="7"/>
-      <c r="H149" s="12"/>
+      <c r="H149" s="15"/>
     </row>
     <row r="150" ht="21" customHeight="1">
-      <c r="A150" s="24"/>
-      <c r="B150" s="24"/>
-      <c r="C150" s="25"/>
+      <c r="A150" s="25"/>
+      <c r="B150" s="25"/>
+      <c r="C150" s="26"/>
       <c r="D150" s="7"/>
       <c r="E150" s="7"/>
       <c r="F150" s="7"/>
       <c r="G150" s="7"/>
-      <c r="H150" s="8"/>
+      <c r="H150" s="11"/>
     </row>
     <row r="151" ht="21" customHeight="1">
-      <c r="A151" s="26"/>
-      <c r="B151" s="26"/>
-      <c r="C151" s="17"/>
+      <c r="A151" s="27"/>
+      <c r="B151" s="27"/>
+      <c r="C151" s="19"/>
       <c r="D151" s="7"/>
       <c r="E151" s="7"/>
       <c r="F151" s="7"/>
       <c r="G151" s="7"/>
-      <c r="H151" s="21"/>
+      <c r="H151" s="24"/>
     </row>
     <row r="152" ht="20.7" customHeight="1">
-      <c r="A152" s="17"/>
-      <c r="B152" s="17"/>
-      <c r="C152" s="17"/>
-      <c r="D152" s="17"/>
-      <c r="E152" s="17"/>
-      <c r="F152" s="17"/>
-      <c r="G152" s="17"/>
-      <c r="H152" s="18"/>
+      <c r="A152" s="19"/>
+      <c r="B152" s="19"/>
+      <c r="C152" s="19"/>
+      <c r="D152" s="19"/>
+      <c r="E152" s="19"/>
+      <c r="F152" s="19"/>
+      <c r="G152" s="19"/>
+      <c r="H152" s="20"/>
     </row>
     <row r="153" ht="21" customHeight="1">
-      <c r="A153" s="17"/>
-      <c r="B153" s="17"/>
-      <c r="C153" s="17"/>
+      <c r="A153" s="19"/>
+      <c r="B153" s="19"/>
+      <c r="C153" s="19"/>
       <c r="D153" s="7"/>
       <c r="E153" s="7"/>
       <c r="F153" s="7"/>
       <c r="G153" s="7"/>
-      <c r="H153" s="19"/>
+      <c r="H153" s="8"/>
     </row>
     <row r="154" ht="21" customHeight="1">
-      <c r="A154" s="17"/>
-      <c r="B154" s="17"/>
-      <c r="C154" s="17"/>
+      <c r="A154" s="19"/>
+      <c r="B154" s="19"/>
+      <c r="C154" s="19"/>
       <c r="D154" s="7"/>
       <c r="E154" s="7"/>
       <c r="F154" s="7"/>
       <c r="G154" s="7"/>
-      <c r="H154" s="19"/>
+      <c r="H154" s="8"/>
     </row>
     <row r="155" ht="21" customHeight="1">
-      <c r="A155" s="17"/>
-      <c r="B155" s="17"/>
-      <c r="C155" s="17"/>
-      <c r="D155" s="17"/>
-      <c r="E155" s="17"/>
-      <c r="F155" s="17"/>
-      <c r="G155" s="17"/>
-      <c r="H155" s="19"/>
+      <c r="A155" s="19"/>
+      <c r="B155" s="19"/>
+      <c r="C155" s="19"/>
+      <c r="D155" s="19"/>
+      <c r="E155" s="19"/>
+      <c r="F155" s="19"/>
+      <c r="G155" s="19"/>
+      <c r="H155" s="8"/>
     </row>
     <row r="156" ht="21" customHeight="1">
-      <c r="A156" s="17"/>
-      <c r="B156" s="17"/>
-      <c r="C156" s="17"/>
+      <c r="A156" s="19"/>
+      <c r="B156" s="19"/>
+      <c r="C156" s="19"/>
       <c r="D156" s="7"/>
       <c r="E156" s="7"/>
       <c r="F156" s="7"/>
       <c r="G156" s="7"/>
-      <c r="H156" s="19"/>
+      <c r="H156" s="8"/>
     </row>
     <row r="157" ht="21" customHeight="1">
-      <c r="A157" s="17"/>
-      <c r="B157" s="17"/>
-      <c r="C157" s="17"/>
+      <c r="A157" s="19"/>
+      <c r="B157" s="19"/>
+      <c r="C157" s="19"/>
       <c r="D157" s="7"/>
       <c r="E157" s="7"/>
       <c r="F157" s="7"/>
       <c r="G157" s="7"/>
-      <c r="H157" s="19"/>
+      <c r="H157" s="8"/>
     </row>
     <row r="158" ht="21" customHeight="1">
-      <c r="A158" s="17"/>
-      <c r="B158" s="17"/>
-      <c r="C158" s="17"/>
+      <c r="A158" s="19"/>
+      <c r="B158" s="19"/>
+      <c r="C158" s="19"/>
       <c r="D158" s="7"/>
       <c r="E158" s="7"/>
       <c r="F158" s="7"/>
       <c r="G158" s="7"/>
-      <c r="H158" s="19"/>
+      <c r="H158" s="8"/>
     </row>
     <row r="159" ht="21" customHeight="1">
-      <c r="A159" s="17"/>
-      <c r="B159" s="17"/>
-      <c r="C159" s="17"/>
+      <c r="A159" s="19"/>
+      <c r="B159" s="19"/>
+      <c r="C159" s="19"/>
       <c r="D159" s="7"/>
       <c r="E159" s="7"/>
       <c r="F159" s="7"/>
       <c r="G159" s="7"/>
-      <c r="H159" s="19"/>
+      <c r="H159" s="8"/>
     </row>
     <row r="160" ht="21" customHeight="1">
-      <c r="A160" s="17"/>
-      <c r="B160" s="17"/>
-      <c r="C160" s="17"/>
+      <c r="A160" s="19"/>
+      <c r="B160" s="19"/>
+      <c r="C160" s="19"/>
       <c r="D160" s="7"/>
       <c r="E160" s="7"/>
       <c r="F160" s="7"/>
       <c r="G160" s="7"/>
-      <c r="H160" s="19"/>
+      <c r="H160" s="8"/>
     </row>
     <row r="161" ht="21" customHeight="1">
-      <c r="A161" s="23"/>
-      <c r="B161" s="23"/>
-      <c r="C161" s="17"/>
+      <c r="A161" s="28"/>
+      <c r="B161" s="28"/>
+      <c r="C161" s="19"/>
       <c r="D161" s="7"/>
       <c r="E161" s="7"/>
       <c r="F161" s="7"/>
       <c r="G161" s="7"/>
-      <c r="H161" s="19"/>
+      <c r="H161" s="8"/>
     </row>
     <row r="162" ht="21" customHeight="1">
-      <c r="A162" s="24"/>
-      <c r="B162" s="24"/>
-      <c r="C162" s="25"/>
+      <c r="A162" s="25"/>
+      <c r="B162" s="25"/>
+      <c r="C162" s="26"/>
       <c r="D162" s="7"/>
       <c r="E162" s="7"/>
       <c r="F162" s="7"/>
       <c r="G162" s="7"/>
-      <c r="H162" s="8"/>
+      <c r="H162" s="11"/>
     </row>
     <row r="163" ht="21" customHeight="1">
-      <c r="A163" s="26"/>
-      <c r="B163" s="26"/>
-      <c r="C163" s="17"/>
+      <c r="A163" s="27"/>
+      <c r="B163" s="27"/>
+      <c r="C163" s="19"/>
       <c r="D163" s="7"/>
       <c r="E163" s="7"/>
       <c r="F163" s="7"/>
       <c r="G163" s="7"/>
-      <c r="H163" s="12"/>
+      <c r="H163" s="15"/>
     </row>
     <row r="164" ht="21" customHeight="1">
-      <c r="A164" s="17"/>
-      <c r="B164" s="17"/>
-      <c r="C164" s="17"/>
+      <c r="A164" s="19"/>
+      <c r="B164" s="19"/>
+      <c r="C164" s="19"/>
       <c r="D164" s="7"/>
       <c r="E164" s="7"/>
       <c r="F164" s="7"/>
       <c r="G164" s="7"/>
-      <c r="H164" s="19"/>
+      <c r="H164" s="8"/>
     </row>
     <row r="165" ht="21" customHeight="1">
-      <c r="A165" s="17"/>
-      <c r="B165" s="17"/>
-      <c r="C165" s="17"/>
+      <c r="A165" s="19"/>
+      <c r="B165" s="19"/>
+      <c r="C165" s="19"/>
       <c r="D165" s="7"/>
       <c r="E165" s="7"/>
       <c r="F165" s="7"/>
       <c r="G165" s="7"/>
-      <c r="H165" s="19"/>
+      <c r="H165" s="8"/>
     </row>
     <row r="166" ht="21" customHeight="1">
-      <c r="A166" s="23"/>
-      <c r="B166" s="23"/>
-      <c r="C166" s="17"/>
+      <c r="A166" s="28"/>
+      <c r="B166" s="28"/>
+      <c r="C166" s="19"/>
       <c r="D166" s="7"/>
       <c r="E166" s="7"/>
       <c r="F166" s="7"/>
       <c r="G166" s="7"/>
-      <c r="H166" s="19"/>
+      <c r="H166" s="8"/>
     </row>
     <row r="167" ht="21" customHeight="1">
-      <c r="A167" s="24"/>
-      <c r="B167" s="24"/>
-      <c r="C167" s="25"/>
+      <c r="A167" s="25"/>
+      <c r="B167" s="25"/>
+      <c r="C167" s="26"/>
       <c r="D167" s="7"/>
       <c r="E167" s="7"/>
       <c r="F167" s="7"/>
       <c r="G167" s="7"/>
-      <c r="H167" s="8"/>
+      <c r="H167" s="11"/>
     </row>
     <row r="168" ht="21" customHeight="1">
-      <c r="A168" s="26"/>
-      <c r="B168" s="26"/>
-      <c r="C168" s="17"/>
+      <c r="A168" s="27"/>
+      <c r="B168" s="27"/>
+      <c r="C168" s="19"/>
       <c r="D168" s="7"/>
       <c r="E168" s="7"/>
       <c r="F168" s="7"/>
       <c r="G168" s="7"/>
-      <c r="H168" s="12"/>
+      <c r="H168" s="15"/>
     </row>
     <row r="169" ht="21" customHeight="1">
-      <c r="A169" s="17"/>
-      <c r="B169" s="17"/>
-      <c r="C169" s="17"/>
+      <c r="A169" s="19"/>
+      <c r="B169" s="19"/>
+      <c r="C169" s="19"/>
       <c r="D169" s="7"/>
       <c r="E169" s="7"/>
       <c r="F169" s="7"/>
       <c r="G169" s="7"/>
-      <c r="H169" s="19"/>
+      <c r="H169" s="8"/>
     </row>
     <row r="170" ht="21" customHeight="1">
-      <c r="A170" s="17"/>
-      <c r="B170" s="17"/>
-      <c r="C170" s="17"/>
+      <c r="A170" s="19"/>
+      <c r="B170" s="19"/>
+      <c r="C170" s="19"/>
       <c r="D170" s="7"/>
       <c r="E170" s="7"/>
       <c r="F170" s="7"/>
       <c r="G170" s="7"/>
-      <c r="H170" s="19"/>
+      <c r="H170" s="8"/>
     </row>
     <row r="171" ht="21" customHeight="1">
-      <c r="A171" s="17"/>
-      <c r="B171" s="17"/>
-      <c r="C171" s="17"/>
+      <c r="A171" s="19"/>
+      <c r="B171" s="19"/>
+      <c r="C171" s="19"/>
       <c r="D171" s="7"/>
       <c r="E171" s="7"/>
       <c r="F171" s="7"/>
       <c r="G171" s="7"/>
-      <c r="H171" s="19"/>
+      <c r="H171" s="8"/>
     </row>
     <row r="172" ht="21" customHeight="1">
-      <c r="A172" s="17"/>
-      <c r="B172" s="17"/>
-      <c r="C172" s="17"/>
+      <c r="A172" s="19"/>
+      <c r="B172" s="19"/>
+      <c r="C172" s="19"/>
       <c r="D172" s="7"/>
       <c r="E172" s="7"/>
       <c r="F172" s="7"/>
       <c r="G172" s="7"/>
-      <c r="H172" s="19"/>
+      <c r="H172" s="8"/>
     </row>
     <row r="173" ht="21" customHeight="1">
-      <c r="A173" s="17"/>
-      <c r="B173" s="17"/>
-      <c r="C173" s="17"/>
+      <c r="A173" s="19"/>
+      <c r="B173" s="19"/>
+      <c r="C173" s="19"/>
       <c r="D173" s="7"/>
       <c r="E173" s="7"/>
       <c r="F173" s="7"/>
       <c r="G173" s="7"/>
-      <c r="H173" s="19"/>
+      <c r="H173" s="8"/>
     </row>
     <row r="174" ht="21" customHeight="1">
-      <c r="A174" s="17"/>
-      <c r="B174" s="17"/>
-      <c r="C174" s="17"/>
+      <c r="A174" s="19"/>
+      <c r="B174" s="19"/>
+      <c r="C174" s="19"/>
       <c r="D174" s="7"/>
       <c r="E174" s="7"/>
       <c r="F174" s="7"/>
       <c r="G174" s="7"/>
-      <c r="H174" s="19"/>
+      <c r="H174" s="8"/>
     </row>
     <row r="175" ht="21" customHeight="1">
-      <c r="A175" s="17"/>
-      <c r="B175" s="17"/>
-      <c r="C175" s="17"/>
+      <c r="A175" s="19"/>
+      <c r="B175" s="19"/>
+      <c r="C175" s="19"/>
       <c r="D175" s="7"/>
       <c r="E175" s="7"/>
       <c r="F175" s="7"/>
       <c r="G175" s="7"/>
-      <c r="H175" s="8"/>
+      <c r="H175" s="11"/>
     </row>
     <row r="176" ht="21" customHeight="1">
-      <c r="A176" s="17"/>
-      <c r="B176" s="17"/>
-      <c r="C176" s="17"/>
+      <c r="A176" s="19"/>
+      <c r="B176" s="19"/>
+      <c r="C176" s="19"/>
       <c r="D176" s="7"/>
       <c r="E176" s="7"/>
       <c r="F176" s="7"/>
       <c r="G176" s="7"/>
-      <c r="H176" s="12"/>
+      <c r="H176" s="15"/>
     </row>
     <row r="177" ht="21" customHeight="1">
-      <c r="A177" s="17"/>
-      <c r="B177" s="17"/>
-      <c r="C177" s="17"/>
+      <c r="A177" s="19"/>
+      <c r="B177" s="19"/>
+      <c r="C177" s="19"/>
       <c r="D177" s="7"/>
       <c r="E177" s="7"/>
       <c r="F177" s="7"/>
       <c r="G177" s="7"/>
-      <c r="H177" s="19"/>
+      <c r="H177" s="8"/>
     </row>
     <row r="178" ht="21" customHeight="1">
-      <c r="A178" s="17"/>
-      <c r="B178" s="17"/>
-      <c r="C178" s="17"/>
+      <c r="A178" s="19"/>
+      <c r="B178" s="19"/>
+      <c r="C178" s="19"/>
       <c r="D178" s="7"/>
       <c r="E178" s="7"/>
       <c r="F178" s="7"/>
       <c r="G178" s="7"/>
-      <c r="H178" s="19"/>
+      <c r="H178" s="8"/>
     </row>
     <row r="179" ht="21" customHeight="1">
-      <c r="A179" s="17"/>
-      <c r="B179" s="17"/>
-      <c r="C179" s="17"/>
+      <c r="A179" s="19"/>
+      <c r="B179" s="19"/>
+      <c r="C179" s="19"/>
       <c r="D179" s="7"/>
       <c r="E179" s="7"/>
       <c r="F179" s="7"/>
       <c r="G179" s="7"/>
-      <c r="H179" s="19"/>
+      <c r="H179" s="8"/>
     </row>
     <row r="180" ht="21" customHeight="1">
-      <c r="A180" s="17"/>
-      <c r="B180" s="17"/>
-      <c r="C180" s="17"/>
+      <c r="A180" s="19"/>
+      <c r="B180" s="19"/>
+      <c r="C180" s="19"/>
       <c r="D180" s="7"/>
       <c r="E180" s="7"/>
       <c r="F180" s="7"/>
       <c r="G180" s="7"/>
-      <c r="H180" s="19"/>
+      <c r="H180" s="8"/>
     </row>
     <row r="181" ht="21" customHeight="1">
-      <c r="A181" s="17"/>
-      <c r="B181" s="17"/>
-      <c r="C181" s="17"/>
+      <c r="A181" s="19"/>
+      <c r="B181" s="19"/>
+      <c r="C181" s="19"/>
       <c r="D181" s="7"/>
       <c r="E181" s="7"/>
       <c r="F181" s="7"/>
       <c r="G181" s="7"/>
-      <c r="H181" s="19"/>
+      <c r="H181" s="8"/>
     </row>
     <row r="182" ht="21" customHeight="1">
-      <c r="A182" s="17"/>
-      <c r="B182" s="17"/>
-      <c r="C182" s="17"/>
+      <c r="A182" s="19"/>
+      <c r="B182" s="19"/>
+      <c r="C182" s="19"/>
       <c r="D182" s="7"/>
       <c r="E182" s="7"/>
       <c r="F182" s="7"/>
       <c r="G182" s="7"/>
-      <c r="H182" s="8"/>
+      <c r="H182" s="11"/>
     </row>
     <row r="183" ht="21" customHeight="1">
-      <c r="A183" s="23"/>
-      <c r="B183" s="23"/>
-      <c r="C183" s="17"/>
+      <c r="A183" s="28"/>
+      <c r="B183" s="28"/>
+      <c r="C183" s="19"/>
       <c r="D183" s="7"/>
       <c r="E183" s="7"/>
       <c r="F183" s="7"/>
       <c r="G183" s="7"/>
-      <c r="H183" s="12"/>
+      <c r="H183" s="15"/>
     </row>
     <row r="184" ht="21" customHeight="1">
-      <c r="A184" s="24"/>
-      <c r="B184" s="24"/>
-      <c r="C184" s="25"/>
+      <c r="A184" s="25"/>
+      <c r="B184" s="25"/>
+      <c r="C184" s="26"/>
       <c r="D184" s="7"/>
       <c r="E184" s="7"/>
       <c r="F184" s="7"/>
       <c r="G184" s="7"/>
-      <c r="H184" s="19"/>
+      <c r="H184" s="8"/>
     </row>
     <row r="185" ht="21" customHeight="1">
-      <c r="A185" s="26"/>
-      <c r="B185" s="26"/>
-      <c r="C185" s="17"/>
+      <c r="A185" s="27"/>
+      <c r="B185" s="27"/>
+      <c r="C185" s="19"/>
       <c r="D185" s="7"/>
       <c r="E185" s="7"/>
       <c r="F185" s="7"/>
       <c r="G185" s="7"/>
-      <c r="H185" s="8"/>
+      <c r="H185" s="11"/>
     </row>
     <row r="186" ht="21" customHeight="1">
-      <c r="A186" s="17"/>
-      <c r="B186" s="17"/>
-      <c r="C186" s="17"/>
+      <c r="A186" s="19"/>
+      <c r="B186" s="19"/>
+      <c r="C186" s="19"/>
       <c r="D186" s="7"/>
       <c r="E186" s="7"/>
       <c r="F186" s="7"/>
       <c r="G186" s="7"/>
-      <c r="H186" s="12"/>
+      <c r="H186" s="15"/>
     </row>
     <row r="187" ht="21" customHeight="1">
-      <c r="A187" s="17"/>
-      <c r="B187" s="17"/>
-      <c r="C187" s="17"/>
+      <c r="A187" s="19"/>
+      <c r="B187" s="19"/>
+      <c r="C187" s="19"/>
       <c r="D187" s="7"/>
       <c r="E187" s="7"/>
       <c r="F187" s="7"/>
       <c r="G187" s="7"/>
-      <c r="H187" s="8"/>
+      <c r="H187" s="11"/>
     </row>
     <row r="188" ht="21" customHeight="1">
-      <c r="A188" s="17"/>
-      <c r="B188" s="17"/>
-      <c r="C188" s="17"/>
+      <c r="A188" s="19"/>
+      <c r="B188" s="19"/>
+      <c r="C188" s="19"/>
       <c r="D188" s="7"/>
       <c r="E188" s="7"/>
       <c r="F188" s="7"/>
       <c r="G188" s="7"/>
-      <c r="H188" s="21"/>
+      <c r="H188" s="24"/>
     </row>
     <row r="189" ht="20.7" customHeight="1">
-      <c r="A189" s="17"/>
-      <c r="B189" s="17"/>
-      <c r="C189" s="17"/>
-      <c r="D189" s="17"/>
-      <c r="E189" s="17"/>
-      <c r="F189" s="17"/>
-      <c r="G189" s="17"/>
-      <c r="H189" s="18"/>
+      <c r="A189" s="19"/>
+      <c r="B189" s="19"/>
+      <c r="C189" s="19"/>
+      <c r="D189" s="19"/>
+      <c r="E189" s="19"/>
+      <c r="F189" s="19"/>
+      <c r="G189" s="19"/>
+      <c r="H189" s="20"/>
     </row>
     <row r="190" ht="21" customHeight="1">
-      <c r="A190" s="17"/>
-      <c r="B190" s="17"/>
-      <c r="C190" s="17"/>
+      <c r="A190" s="19"/>
+      <c r="B190" s="19"/>
+      <c r="C190" s="19"/>
       <c r="D190" s="7"/>
       <c r="E190" s="7"/>
       <c r="F190" s="7"/>
       <c r="G190" s="7"/>
-      <c r="H190" s="8"/>
+      <c r="H190" s="11"/>
     </row>
     <row r="191" ht="20.7" customHeight="1">
-      <c r="A191" s="17"/>
-      <c r="B191" s="17"/>
-      <c r="C191" s="17"/>
-      <c r="D191" s="17"/>
-      <c r="E191" s="17"/>
-      <c r="F191" s="17"/>
-      <c r="G191" s="17"/>
-      <c r="H191" s="18"/>
+      <c r="A191" s="19"/>
+      <c r="B191" s="19"/>
+      <c r="C191" s="19"/>
+      <c r="D191" s="19"/>
+      <c r="E191" s="19"/>
+      <c r="F191" s="19"/>
+      <c r="G191" s="19"/>
+      <c r="H191" s="20"/>
     </row>
     <row r="192" ht="21" customHeight="1">
-      <c r="A192" s="17"/>
-      <c r="B192" s="17"/>
-      <c r="C192" s="17"/>
+      <c r="A192" s="19"/>
+      <c r="B192" s="19"/>
+      <c r="C192" s="19"/>
       <c r="D192" s="7"/>
       <c r="E192" s="7"/>
       <c r="F192" s="7"/>
       <c r="G192" s="7"/>
-      <c r="H192" s="19"/>
+      <c r="H192" s="8"/>
     </row>
     <row r="193" ht="21" customHeight="1">
-      <c r="A193" s="17"/>
-      <c r="B193" s="17"/>
-      <c r="C193" s="17"/>
+      <c r="A193" s="19"/>
+      <c r="B193" s="19"/>
+      <c r="C193" s="19"/>
       <c r="D193" s="7"/>
       <c r="E193" s="7"/>
       <c r="F193" s="7"/>
       <c r="G193" s="7"/>
-      <c r="H193" s="19"/>
+      <c r="H193" s="8"/>
     </row>
     <row r="194" ht="21" customHeight="1">
-      <c r="A194" s="17"/>
-      <c r="B194" s="17"/>
-      <c r="C194" s="17"/>
+      <c r="A194" s="19"/>
+      <c r="B194" s="19"/>
+      <c r="C194" s="19"/>
       <c r="D194" s="7"/>
       <c r="E194" s="7"/>
       <c r="F194" s="7"/>
       <c r="G194" s="7"/>
-      <c r="H194" s="19"/>
+      <c r="H194" s="8"/>
     </row>
     <row r="195" ht="21" customHeight="1">
-      <c r="A195" s="17"/>
-      <c r="B195" s="17"/>
-      <c r="C195" s="17"/>
+      <c r="A195" s="19"/>
+      <c r="B195" s="19"/>
+      <c r="C195" s="19"/>
       <c r="D195" s="7"/>
       <c r="E195" s="7"/>
       <c r="F195" s="7"/>
       <c r="G195" s="7"/>
-      <c r="H195" s="19"/>
+      <c r="H195" s="8"/>
     </row>
     <row r="196" ht="21" customHeight="1">
-      <c r="A196" s="17"/>
-      <c r="B196" s="17"/>
-      <c r="C196" s="17"/>
+      <c r="A196" s="19"/>
+      <c r="B196" s="19"/>
+      <c r="C196" s="19"/>
       <c r="D196" s="7"/>
       <c r="E196" s="7"/>
       <c r="F196" s="7"/>
       <c r="G196" s="7"/>
-      <c r="H196" s="19"/>
+      <c r="H196" s="8"/>
     </row>
     <row r="197" ht="21" customHeight="1">
-      <c r="A197" s="17"/>
-      <c r="B197" s="17"/>
-      <c r="C197" s="17"/>
+      <c r="A197" s="19"/>
+      <c r="B197" s="19"/>
+      <c r="C197" s="19"/>
       <c r="D197" s="7"/>
       <c r="E197" s="7"/>
       <c r="F197" s="7"/>
       <c r="G197" s="7"/>
-      <c r="H197" s="8"/>
+      <c r="H197" s="11"/>
     </row>
     <row r="198" ht="21" customHeight="1">
-      <c r="A198" s="17"/>
-      <c r="B198" s="17"/>
-      <c r="C198" s="17"/>
+      <c r="A198" s="19"/>
+      <c r="B198" s="19"/>
+      <c r="C198" s="19"/>
       <c r="D198" s="7"/>
       <c r="E198" s="7"/>
       <c r="F198" s="7"/>
       <c r="G198" s="7"/>
-      <c r="H198" s="12"/>
+      <c r="H198" s="15"/>
     </row>
     <row r="199" ht="21" customHeight="1">
-      <c r="A199" s="23"/>
-      <c r="B199" s="23"/>
-      <c r="C199" s="17"/>
+      <c r="A199" s="28"/>
+      <c r="B199" s="28"/>
+      <c r="C199" s="19"/>
       <c r="D199" s="7"/>
       <c r="E199" s="7"/>
       <c r="F199" s="7"/>
       <c r="G199" s="7"/>
-      <c r="H199" s="19"/>
+      <c r="H199" s="8"/>
     </row>
     <row r="200" ht="21" customHeight="1">
-      <c r="A200" s="24"/>
-      <c r="B200" s="24"/>
-      <c r="C200" s="25"/>
+      <c r="A200" s="25"/>
+      <c r="B200" s="25"/>
+      <c r="C200" s="26"/>
       <c r="D200" s="7"/>
       <c r="E200" s="7"/>
       <c r="F200" s="7"/>
       <c r="G200" s="7"/>
-      <c r="H200" s="8"/>
+      <c r="H200" s="11"/>
     </row>
     <row r="201" ht="21" customHeight="1">
-      <c r="A201" s="26"/>
-      <c r="B201" s="26"/>
-      <c r="C201" s="17"/>
+      <c r="A201" s="27"/>
+      <c r="B201" s="27"/>
+      <c r="C201" s="19"/>
       <c r="D201" s="7"/>
       <c r="E201" s="7"/>
       <c r="F201" s="7"/>
       <c r="G201" s="7"/>
-      <c r="H201" s="12"/>
+      <c r="H201" s="15"/>
     </row>
     <row r="202" ht="21" customHeight="1">
-      <c r="A202" s="17"/>
-      <c r="B202" s="17"/>
-      <c r="C202" s="17"/>
+      <c r="A202" s="19"/>
+      <c r="B202" s="19"/>
+      <c r="C202" s="19"/>
       <c r="D202" s="7"/>
       <c r="E202" s="7"/>
       <c r="F202" s="7"/>
       <c r="G202" s="7"/>
-      <c r="H202" s="19"/>
+      <c r="H202" s="8"/>
     </row>
     <row r="203" ht="21" customHeight="1">
-      <c r="A203" s="17"/>
-      <c r="B203" s="17"/>
-      <c r="C203" s="17"/>
+      <c r="A203" s="19"/>
+      <c r="B203" s="19"/>
+      <c r="C203" s="19"/>
       <c r="D203" s="7"/>
       <c r="E203" s="7"/>
       <c r="F203" s="7"/>
       <c r="G203" s="7"/>
-      <c r="H203" s="19"/>
+      <c r="H203" s="8"/>
     </row>
     <row r="204" ht="21" customHeight="1">
-      <c r="A204" s="17"/>
-      <c r="B204" s="17"/>
-      <c r="C204" s="17"/>
+      <c r="A204" s="19"/>
+      <c r="B204" s="19"/>
+      <c r="C204" s="19"/>
       <c r="D204" s="7"/>
       <c r="E204" s="7"/>
       <c r="F204" s="7"/>
       <c r="G204" s="7"/>
-      <c r="H204" s="8"/>
+      <c r="H204" s="11"/>
     </row>
     <row r="205" ht="20.7" customHeight="1">
-      <c r="A205" s="17"/>
-      <c r="B205" s="17"/>
-      <c r="C205" s="17"/>
-      <c r="D205" s="17"/>
-      <c r="E205" s="17"/>
-      <c r="F205" s="17"/>
-      <c r="G205" s="17"/>
-      <c r="H205" s="18"/>
+      <c r="A205" s="19"/>
+      <c r="B205" s="19"/>
+      <c r="C205" s="19"/>
+      <c r="D205" s="19"/>
+      <c r="E205" s="19"/>
+      <c r="F205" s="19"/>
+      <c r="G205" s="19"/>
+      <c r="H205" s="20"/>
     </row>
     <row r="206" ht="21" customHeight="1">
-      <c r="A206" s="17"/>
-      <c r="B206" s="17"/>
-      <c r="C206" s="17"/>
+      <c r="A206" s="19"/>
+      <c r="B206" s="19"/>
+      <c r="C206" s="19"/>
       <c r="D206" s="7"/>
       <c r="E206" s="7"/>
       <c r="F206" s="7"/>
       <c r="G206" s="7"/>
-      <c r="H206" s="19"/>
+      <c r="H206" s="8"/>
     </row>
     <row r="207" ht="21" customHeight="1">
-      <c r="A207" s="17"/>
-      <c r="B207" s="17"/>
-      <c r="C207" s="17"/>
+      <c r="A207" s="19"/>
+      <c r="B207" s="19"/>
+      <c r="C207" s="19"/>
       <c r="D207" s="7"/>
       <c r="E207" s="7"/>
       <c r="F207" s="7"/>
       <c r="G207" s="7"/>
-      <c r="H207" s="19"/>
+      <c r="H207" s="8"/>
     </row>
     <row r="208" ht="21" customHeight="1">
-      <c r="A208" s="17"/>
-      <c r="B208" s="17"/>
-      <c r="C208" s="17"/>
+      <c r="A208" s="19"/>
+      <c r="B208" s="19"/>
+      <c r="C208" s="19"/>
       <c r="D208" s="7"/>
       <c r="E208" s="7"/>
       <c r="F208" s="7"/>
       <c r="G208" s="7"/>
-      <c r="H208" s="8"/>
+      <c r="H208" s="11"/>
     </row>
     <row r="209" ht="21" customHeight="1">
-      <c r="A209" s="17"/>
-      <c r="B209" s="17"/>
-      <c r="C209" s="17"/>
+      <c r="A209" s="19"/>
+      <c r="B209" s="19"/>
+      <c r="C209" s="19"/>
       <c r="D209" s="7"/>
       <c r="E209" s="7"/>
       <c r="F209" s="7"/>
       <c r="G209" s="7"/>
-      <c r="H209" s="12"/>
+      <c r="H209" s="15"/>
     </row>
     <row r="210" ht="21" customHeight="1">
-      <c r="A210" s="17"/>
-      <c r="B210" s="17"/>
-      <c r="C210" s="17"/>
+      <c r="A210" s="19"/>
+      <c r="B210" s="19"/>
+      <c r="C210" s="19"/>
       <c r="D210" s="7"/>
       <c r="E210" s="7"/>
       <c r="F210" s="7"/>
       <c r="G210" s="7"/>
-      <c r="H210" s="8"/>
+      <c r="H210" s="11"/>
     </row>
     <row r="211" ht="21" customHeight="1">
-      <c r="A211" s="23"/>
-      <c r="B211" s="23"/>
-      <c r="C211" s="17"/>
+      <c r="A211" s="28"/>
+      <c r="B211" s="28"/>
+      <c r="C211" s="19"/>
       <c r="D211" s="7"/>
       <c r="E211" s="7"/>
       <c r="F211" s="7"/>
       <c r="G211" s="7"/>
-      <c r="H211" s="12"/>
+      <c r="H211" s="15"/>
     </row>
     <row r="212" ht="21" customHeight="1">
-      <c r="A212" s="24"/>
-      <c r="B212" s="24"/>
-      <c r="C212" s="25"/>
+      <c r="A212" s="25"/>
+      <c r="B212" s="25"/>
+      <c r="C212" s="26"/>
       <c r="D212" s="7"/>
       <c r="E212" s="7"/>
       <c r="F212" s="7"/>
       <c r="G212" s="7"/>
-      <c r="H212" s="8"/>
+      <c r="H212" s="11"/>
     </row>
     <row r="213" ht="21" customHeight="1">
-      <c r="A213" s="26"/>
-      <c r="B213" s="26"/>
-      <c r="C213" s="17"/>
+      <c r="A213" s="27"/>
+      <c r="B213" s="27"/>
+      <c r="C213" s="19"/>
       <c r="D213" s="7"/>
       <c r="E213" s="7"/>
       <c r="F213" s="7"/>
       <c r="G213" s="7"/>
-      <c r="H213" s="12"/>
+      <c r="H213" s="15"/>
     </row>
     <row r="214" ht="21" customHeight="1">
-      <c r="A214" s="17"/>
-      <c r="B214" s="17"/>
-      <c r="C214" s="17"/>
+      <c r="A214" s="19"/>
+      <c r="B214" s="19"/>
+      <c r="C214" s="19"/>
       <c r="D214" s="7"/>
       <c r="E214" s="7"/>
       <c r="F214" s="7"/>
       <c r="G214" s="7"/>
-      <c r="H214" s="19"/>
+      <c r="H214" s="8"/>
     </row>
     <row r="215" ht="21" customHeight="1">
-      <c r="A215" s="23"/>
-      <c r="B215" s="23"/>
-      <c r="C215" s="17"/>
+      <c r="A215" s="28"/>
+      <c r="B215" s="28"/>
+      <c r="C215" s="19"/>
       <c r="D215" s="7"/>
       <c r="E215" s="7"/>
       <c r="F215" s="7"/>
       <c r="G215" s="7"/>
-      <c r="H215" s="8"/>
+      <c r="H215" s="11"/>
     </row>
     <row r="216" ht="21" customHeight="1">
-      <c r="A216" s="24"/>
-      <c r="B216" s="24"/>
-      <c r="C216" s="25"/>
+      <c r="A216" s="25"/>
+      <c r="B216" s="25"/>
+      <c r="C216" s="26"/>
       <c r="D216" s="7"/>
       <c r="E216" s="7"/>
       <c r="F216" s="7"/>
       <c r="G216" s="7"/>
-      <c r="H216" s="21"/>
+      <c r="H216" s="24"/>
     </row>
     <row r="217" ht="21" customHeight="1">
-      <c r="A217" s="26"/>
-      <c r="B217" s="26"/>
-      <c r="C217" s="17"/>
+      <c r="A217" s="27"/>
+      <c r="B217" s="27"/>
+      <c r="C217" s="19"/>
       <c r="D217" s="7"/>
       <c r="E217" s="7"/>
       <c r="F217" s="7"/>
       <c r="G217" s="7"/>
-      <c r="H217" s="12"/>
+      <c r="H217" s="15"/>
     </row>
     <row r="218" ht="21" customHeight="1">
-      <c r="A218" s="17"/>
-      <c r="B218" s="17"/>
-      <c r="C218" s="17"/>
+      <c r="A218" s="19"/>
+      <c r="B218" s="19"/>
+      <c r="C218" s="19"/>
       <c r="D218" s="7"/>
       <c r="E218" s="7"/>
       <c r="F218" s="7"/>
       <c r="G218" s="7"/>
-      <c r="H218" s="19"/>
+      <c r="H218" s="8"/>
     </row>
     <row r="219" ht="21" customHeight="1">
-      <c r="A219" s="23"/>
-      <c r="B219" s="23"/>
-      <c r="C219" s="17"/>
+      <c r="A219" s="28"/>
+      <c r="B219" s="28"/>
+      <c r="C219" s="19"/>
       <c r="D219" s="7"/>
       <c r="E219" s="7"/>
       <c r="F219" s="7"/>
       <c r="G219" s="7"/>
-      <c r="H219" s="19"/>
+      <c r="H219" s="8"/>
     </row>
     <row r="220" ht="21" customHeight="1">
-      <c r="A220" s="24"/>
-      <c r="B220" s="24"/>
-      <c r="C220" s="25"/>
+      <c r="A220" s="25"/>
+      <c r="B220" s="25"/>
+      <c r="C220" s="26"/>
       <c r="D220" s="7"/>
       <c r="E220" s="7"/>
       <c r="F220" s="7"/>
       <c r="G220" s="7"/>
-      <c r="H220" s="8"/>
+      <c r="H220" s="11"/>
     </row>
     <row r="221" ht="21" customHeight="1">
-      <c r="A221" s="27"/>
-      <c r="B221" s="27"/>
-      <c r="C221" s="17"/>
+      <c r="A221" s="29"/>
+      <c r="B221" s="29"/>
+      <c r="C221" s="19"/>
       <c r="D221" s="7"/>
       <c r="E221" s="7"/>
       <c r="F221" s="7"/>
       <c r="G221" s="7"/>
-      <c r="H221" s="12"/>
+      <c r="H221" s="15"/>
     </row>
     <row r="222" ht="21" customHeight="1">
-      <c r="A222" s="24"/>
-      <c r="B222" s="24"/>
-      <c r="C222" s="25"/>
+      <c r="A222" s="25"/>
+      <c r="B222" s="25"/>
+      <c r="C222" s="26"/>
       <c r="D222" s="7"/>
       <c r="E222" s="7"/>
       <c r="F222" s="7"/>
       <c r="G222" s="7"/>
-      <c r="H222" s="8"/>
+      <c r="H222" s="11"/>
     </row>
     <row r="223" ht="21" customHeight="1">
-      <c r="A223" s="26"/>
-      <c r="B223" s="26"/>
-      <c r="C223" s="17"/>
+      <c r="A223" s="27"/>
+      <c r="B223" s="27"/>
+      <c r="C223" s="19"/>
       <c r="D223" s="7"/>
       <c r="E223" s="7"/>
       <c r="F223" s="7"/>
       <c r="G223" s="7"/>
-      <c r="H223" s="21"/>
+      <c r="H223" s="24"/>
     </row>
     <row r="224" ht="20.7" customHeight="1">
-      <c r="A224" s="17"/>
-      <c r="B224" s="17"/>
-      <c r="C224" s="17"/>
-      <c r="D224" s="17"/>
-      <c r="E224" s="17"/>
-      <c r="F224" s="17"/>
-      <c r="G224" s="17"/>
-      <c r="H224" s="18"/>
+      <c r="A224" s="19"/>
+      <c r="B224" s="19"/>
+      <c r="C224" s="19"/>
+      <c r="D224" s="19"/>
+      <c r="E224" s="19"/>
+      <c r="F224" s="19"/>
+      <c r="G224" s="19"/>
+      <c r="H224" s="20"/>
     </row>
     <row r="225" ht="21" customHeight="1">
-      <c r="A225" s="17"/>
-      <c r="B225" s="17"/>
-      <c r="C225" s="17"/>
+      <c r="A225" s="19"/>
+      <c r="B225" s="19"/>
+      <c r="C225" s="19"/>
       <c r="D225" s="7"/>
       <c r="E225" s="7"/>
       <c r="F225" s="7"/>
       <c r="G225" s="7"/>
-      <c r="H225" s="8"/>
+      <c r="H225" s="11"/>
     </row>
     <row r="226" ht="20.7" customHeight="1">
-      <c r="A226" s="23"/>
-      <c r="B226" s="23"/>
-      <c r="C226" s="17"/>
-      <c r="D226" s="17"/>
-      <c r="E226" s="17"/>
-      <c r="F226" s="17"/>
-      <c r="G226" s="17"/>
-      <c r="H226" s="18"/>
+      <c r="A226" s="28"/>
+      <c r="B226" s="28"/>
+      <c r="C226" s="19"/>
+      <c r="D226" s="19"/>
+      <c r="E226" s="19"/>
+      <c r="F226" s="19"/>
+      <c r="G226" s="19"/>
+      <c r="H226" s="20"/>
     </row>
     <row r="227" ht="21" customHeight="1">
-      <c r="A227" s="24"/>
-      <c r="B227" s="24"/>
-      <c r="C227" s="25"/>
+      <c r="A227" s="25"/>
+      <c r="B227" s="25"/>
+      <c r="C227" s="26"/>
       <c r="D227" s="7"/>
       <c r="E227" s="7"/>
       <c r="F227" s="7"/>
       <c r="G227" s="7"/>
-      <c r="H227" s="19"/>
+      <c r="H227" s="8"/>
     </row>
     <row r="228" ht="21" customHeight="1">
-      <c r="A228" s="27"/>
-      <c r="B228" s="27"/>
-      <c r="C228" s="17"/>
-      <c r="D228" s="17"/>
-      <c r="E228" s="17"/>
-      <c r="F228" s="17"/>
-      <c r="G228" s="17"/>
-      <c r="H228" s="19"/>
+      <c r="A228" s="29"/>
+      <c r="B228" s="29"/>
+      <c r="C228" s="19"/>
+      <c r="D228" s="19"/>
+      <c r="E228" s="19"/>
+      <c r="F228" s="19"/>
+      <c r="G228" s="19"/>
+      <c r="H228" s="8"/>
     </row>
     <row r="229" ht="21" customHeight="1">
-      <c r="A229" s="24"/>
-      <c r="B229" s="24"/>
-      <c r="C229" s="25"/>
+      <c r="A229" s="25"/>
+      <c r="B229" s="25"/>
+      <c r="C229" s="26"/>
       <c r="D229" s="7"/>
       <c r="E229" s="7"/>
       <c r="F229" s="7"/>
       <c r="G229" s="7"/>
-      <c r="H229" s="8"/>
+      <c r="H229" s="11"/>
     </row>
     <row r="230" ht="21" customHeight="1">
-      <c r="A230" s="26"/>
-      <c r="B230" s="26"/>
-      <c r="C230" s="17"/>
+      <c r="A230" s="27"/>
+      <c r="B230" s="27"/>
+      <c r="C230" s="19"/>
       <c r="D230" s="7"/>
       <c r="E230" s="7"/>
       <c r="F230" s="7"/>
       <c r="G230" s="7"/>
-      <c r="H230" s="12"/>
+      <c r="H230" s="15"/>
     </row>
     <row r="231" ht="21" customHeight="1">
-      <c r="A231" s="17"/>
-      <c r="B231" s="17"/>
-      <c r="C231" s="17"/>
+      <c r="A231" s="19"/>
+      <c r="B231" s="19"/>
+      <c r="C231" s="19"/>
       <c r="D231" s="7"/>
       <c r="E231" s="7"/>
       <c r="F231" s="7"/>
       <c r="G231" s="7"/>
-      <c r="H231" s="19"/>
+      <c r="H231" s="8"/>
     </row>
     <row r="232" ht="21" customHeight="1">
-      <c r="A232" s="17"/>
-      <c r="B232" s="17"/>
-      <c r="C232" s="17"/>
+      <c r="A232" s="19"/>
+      <c r="B232" s="19"/>
+      <c r="C232" s="19"/>
       <c r="D232" s="7"/>
       <c r="E232" s="7"/>
       <c r="F232" s="7"/>
       <c r="G232" s="7"/>
-      <c r="H232" s="19"/>
+      <c r="H232" s="8"/>
     </row>
     <row r="233" ht="21" customHeight="1">
-      <c r="A233" s="17"/>
-      <c r="B233" s="17"/>
-      <c r="C233" s="17"/>
+      <c r="A233" s="19"/>
+      <c r="B233" s="19"/>
+      <c r="C233" s="19"/>
       <c r="D233" s="7"/>
       <c r="E233" s="7"/>
       <c r="F233" s="7"/>
       <c r="G233" s="7"/>
-      <c r="H233" s="19"/>
+      <c r="H233" s="8"/>
     </row>
     <row r="234" ht="21" customHeight="1">
-      <c r="A234" s="17"/>
-      <c r="B234" s="17"/>
-      <c r="C234" s="17"/>
+      <c r="A234" s="19"/>
+      <c r="B234" s="19"/>
+      <c r="C234" s="19"/>
       <c r="D234" s="7"/>
       <c r="E234" s="7"/>
       <c r="F234" s="7"/>
       <c r="G234" s="7"/>
-      <c r="H234" s="8"/>
+      <c r="H234" s="11"/>
     </row>
     <row r="235" ht="21" customHeight="1">
-      <c r="A235" s="23"/>
-      <c r="B235" s="23"/>
-      <c r="C235" s="17"/>
+      <c r="A235" s="28"/>
+      <c r="B235" s="28"/>
+      <c r="C235" s="19"/>
       <c r="D235" s="7"/>
       <c r="E235" s="7"/>
       <c r="F235" s="7"/>
       <c r="G235" s="7"/>
-      <c r="H235" s="12"/>
+      <c r="H235" s="15"/>
     </row>
     <row r="236" ht="21" customHeight="1">
-      <c r="A236" s="24"/>
-      <c r="B236" s="24"/>
-      <c r="C236" s="25"/>
+      <c r="A236" s="25"/>
+      <c r="B236" s="25"/>
+      <c r="C236" s="26"/>
       <c r="D236" s="7"/>
       <c r="E236" s="7"/>
       <c r="F236" s="7"/>
       <c r="G236" s="7"/>
-      <c r="H236" s="8"/>
+      <c r="H236" s="11"/>
     </row>
     <row r="237" ht="21" customHeight="1">
-      <c r="A237" s="26"/>
-      <c r="B237" s="26"/>
-      <c r="C237" s="17"/>
+      <c r="A237" s="27"/>
+      <c r="B237" s="27"/>
+      <c r="C237" s="19"/>
       <c r="D237" s="7"/>
       <c r="E237" s="7"/>
       <c r="F237" s="7"/>
       <c r="G237" s="7"/>
-      <c r="H237" s="12"/>
+      <c r="H237" s="15"/>
     </row>
     <row r="238" ht="21" customHeight="1">
-      <c r="A238" s="23"/>
-      <c r="B238" s="23"/>
-      <c r="C238" s="17"/>
+      <c r="A238" s="28"/>
+      <c r="B238" s="28"/>
+      <c r="C238" s="19"/>
       <c r="D238" s="7"/>
       <c r="E238" s="7"/>
       <c r="F238" s="7"/>
       <c r="G238" s="7"/>
-      <c r="H238" s="19"/>
+      <c r="H238" s="8"/>
     </row>
     <row r="239" ht="21" customHeight="1">
-      <c r="A239" s="24"/>
-      <c r="B239" s="24"/>
-      <c r="C239" s="25"/>
+      <c r="A239" s="25"/>
+      <c r="B239" s="25"/>
+      <c r="C239" s="26"/>
       <c r="D239" s="7"/>
       <c r="E239" s="7"/>
       <c r="F239" s="7"/>
       <c r="G239" s="7"/>
-      <c r="H239" s="19"/>
+      <c r="H239" s="8"/>
     </row>
     <row r="240" ht="21" customHeight="1">
-      <c r="A240" s="24"/>
-      <c r="B240" s="24"/>
-      <c r="C240" s="25"/>
+      <c r="A240" s="25"/>
+      <c r="B240" s="25"/>
+      <c r="C240" s="26"/>
       <c r="D240" s="7"/>
       <c r="E240" s="7"/>
       <c r="F240" s="7"/>
       <c r="G240" s="7"/>
-      <c r="H240" s="8"/>
+      <c r="H240" s="11"/>
     </row>
     <row r="241" ht="21" customHeight="1">
-      <c r="A241" s="27"/>
-      <c r="B241" s="27"/>
-      <c r="C241" s="17"/>
+      <c r="A241" s="29"/>
+      <c r="B241" s="29"/>
+      <c r="C241" s="19"/>
       <c r="D241" s="7"/>
       <c r="E241" s="7"/>
       <c r="F241" s="7"/>
       <c r="G241" s="7"/>
-      <c r="H241" s="12"/>
+      <c r="H241" s="15"/>
     </row>
     <row r="242" ht="21" customHeight="1">
-      <c r="A242" s="24"/>
-      <c r="B242" s="24"/>
-      <c r="C242" s="25"/>
+      <c r="A242" s="25"/>
+      <c r="B242" s="25"/>
+      <c r="C242" s="26"/>
       <c r="D242" s="7"/>
       <c r="E242" s="7"/>
       <c r="F242" s="7"/>
       <c r="G242" s="7"/>
-      <c r="H242" s="8"/>
+      <c r="H242" s="11"/>
     </row>
     <row r="243" ht="21" customHeight="1">
-      <c r="A243" s="26"/>
-      <c r="B243" s="26"/>
-      <c r="C243" s="17"/>
+      <c r="A243" s="27"/>
+      <c r="B243" s="27"/>
+      <c r="C243" s="19"/>
       <c r="D243" s="7"/>
       <c r="E243" s="7"/>
       <c r="F243" s="7"/>
       <c r="G243" s="7"/>
-      <c r="H243" s="12"/>
+      <c r="H243" s="15"/>
     </row>
     <row r="244" ht="21" customHeight="1">
-      <c r="A244" s="17"/>
-      <c r="B244" s="17"/>
-      <c r="C244" s="17"/>
+      <c r="A244" s="19"/>
+      <c r="B244" s="19"/>
+      <c r="C244" s="19"/>
       <c r="D244" s="7"/>
       <c r="E244" s="7"/>
       <c r="F244" s="7"/>
       <c r="G244" s="7"/>
-      <c r="H244" s="19"/>
+      <c r="H244" s="8"/>
     </row>
     <row r="245" ht="21" customHeight="1">
-      <c r="A245" s="17"/>
-      <c r="B245" s="17"/>
-      <c r="C245" s="17"/>
+      <c r="A245" s="19"/>
+      <c r="B245" s="19"/>
+      <c r="C245" s="19"/>
       <c r="D245" s="7"/>
       <c r="E245" s="7"/>
       <c r="F245" s="7"/>
       <c r="G245" s="7"/>
-      <c r="H245" s="19"/>
+      <c r="H245" s="8"/>
     </row>
     <row r="246" ht="21" customHeight="1">
-      <c r="A246" s="17"/>
-      <c r="B246" s="17"/>
-      <c r="C246" s="17"/>
+      <c r="A246" s="19"/>
+      <c r="B246" s="19"/>
+      <c r="C246" s="19"/>
       <c r="D246" s="7"/>
       <c r="E246" s="7"/>
       <c r="F246" s="7"/>
       <c r="G246" s="7"/>
-      <c r="H246" s="19"/>
+      <c r="H246" s="8"/>
     </row>
     <row r="247" ht="21" customHeight="1">
-      <c r="A247" s="17"/>
-      <c r="B247" s="17"/>
-      <c r="C247" s="17"/>
+      <c r="A247" s="19"/>
+      <c r="B247" s="19"/>
+      <c r="C247" s="19"/>
       <c r="D247" s="7"/>
       <c r="E247" s="7"/>
       <c r="F247" s="7"/>
       <c r="G247" s="7"/>
-      <c r="H247" s="19"/>
+      <c r="H247" s="8"/>
     </row>
     <row r="248" ht="21" customHeight="1">
-      <c r="A248" s="17"/>
-      <c r="B248" s="17"/>
-      <c r="C248" s="17"/>
+      <c r="A248" s="19"/>
+      <c r="B248" s="19"/>
+      <c r="C248" s="19"/>
       <c r="D248" s="7"/>
       <c r="E248" s="7"/>
       <c r="F248" s="7"/>
       <c r="G248" s="7"/>
-      <c r="H248" s="8"/>
+      <c r="H248" s="11"/>
     </row>
     <row r="249" ht="20.35" customHeight="1">
-      <c r="A249" s="17"/>
-      <c r="B249" s="17"/>
-      <c r="C249" s="17"/>
-      <c r="D249" s="17"/>
-      <c r="E249" s="17"/>
-      <c r="F249" s="17"/>
-      <c r="G249" s="17"/>
-      <c r="H249" s="22"/>
+      <c r="A249" s="19"/>
+      <c r="B249" s="19"/>
+      <c r="C249" s="19"/>
+      <c r="D249" s="19"/>
+      <c r="E249" s="19"/>
+      <c r="F249" s="19"/>
+      <c r="G249" s="19"/>
+      <c r="H249" s="23"/>
     </row>
     <row r="250" ht="20.35" customHeight="1">
-      <c r="A250" s="17"/>
-      <c r="B250" s="17"/>
-      <c r="C250" s="17"/>
-      <c r="D250" s="17"/>
-      <c r="E250" s="17"/>
-      <c r="F250" s="17"/>
-      <c r="G250" s="17"/>
-      <c r="H250" s="18"/>
+      <c r="A250" s="19"/>
+      <c r="B250" s="19"/>
+      <c r="C250" s="19"/>
+      <c r="D250" s="19"/>
+      <c r="E250" s="19"/>
+      <c r="F250" s="19"/>
+      <c r="G250" s="19"/>
+      <c r="H250" s="20"/>
     </row>
     <row r="251" ht="21" customHeight="1">
-      <c r="A251" s="17"/>
-      <c r="B251" s="17"/>
-      <c r="C251" s="17"/>
+      <c r="A251" s="19"/>
+      <c r="B251" s="19"/>
+      <c r="C251" s="19"/>
       <c r="D251" s="7"/>
       <c r="E251" s="7"/>
       <c r="F251" s="7"/>
       <c r="G251" s="7"/>
-      <c r="H251" s="8"/>
+      <c r="H251" s="11"/>
     </row>
     <row r="252" ht="20.35" customHeight="1">
-      <c r="A252" s="17"/>
-      <c r="B252" s="17"/>
-      <c r="C252" s="17"/>
-      <c r="D252" s="17"/>
-      <c r="E252" s="17"/>
-      <c r="F252" s="17"/>
-      <c r="G252" s="17"/>
-      <c r="H252" s="22"/>
+      <c r="A252" s="19"/>
+      <c r="B252" s="19"/>
+      <c r="C252" s="19"/>
+      <c r="D252" s="19"/>
+      <c r="E252" s="19"/>
+      <c r="F252" s="19"/>
+      <c r="G252" s="19"/>
+      <c r="H252" s="23"/>
     </row>
     <row r="253" ht="20.05" customHeight="1">
-      <c r="A253" s="17"/>
-      <c r="B253" s="17"/>
-      <c r="C253" s="17"/>
-      <c r="D253" s="17"/>
-      <c r="E253" s="17"/>
-      <c r="F253" s="17"/>
-      <c r="G253" s="17"/>
-      <c r="H253" s="22"/>
+      <c r="A253" s="19"/>
+      <c r="B253" s="19"/>
+      <c r="C253" s="19"/>
+      <c r="D253" s="19"/>
+      <c r="E253" s="19"/>
+      <c r="F253" s="19"/>
+      <c r="G253" s="19"/>
+      <c r="H253" s="23"/>
     </row>
     <row r="254" ht="20.35" customHeight="1">
-      <c r="A254" s="23"/>
-      <c r="B254" s="23"/>
-      <c r="C254" s="17"/>
-      <c r="D254" s="17"/>
-      <c r="E254" s="17"/>
-      <c r="F254" s="17"/>
-      <c r="G254" s="17"/>
-      <c r="H254" s="18"/>
+      <c r="A254" s="28"/>
+      <c r="B254" s="28"/>
+      <c r="C254" s="19"/>
+      <c r="D254" s="19"/>
+      <c r="E254" s="19"/>
+      <c r="F254" s="19"/>
+      <c r="G254" s="19"/>
+      <c r="H254" s="20"/>
     </row>
     <row r="255" ht="21" customHeight="1">
-      <c r="A255" s="24"/>
-      <c r="B255" s="24"/>
-      <c r="C255" s="25"/>
+      <c r="A255" s="25"/>
+      <c r="B255" s="25"/>
+      <c r="C255" s="26"/>
       <c r="D255" s="7"/>
       <c r="E255" s="7"/>
       <c r="F255" s="7"/>
       <c r="G255" s="7"/>
-      <c r="H255" s="8"/>
+      <c r="H255" s="11"/>
     </row>
     <row r="256" ht="20.7" customHeight="1">
-      <c r="A256" s="26"/>
-      <c r="B256" s="26"/>
-      <c r="C256" s="17"/>
-      <c r="D256" s="17"/>
-      <c r="E256" s="17"/>
-      <c r="F256" s="17"/>
-      <c r="G256" s="17"/>
-      <c r="H256" s="18"/>
+      <c r="A256" s="27"/>
+      <c r="B256" s="27"/>
+      <c r="C256" s="19"/>
+      <c r="D256" s="19"/>
+      <c r="E256" s="19"/>
+      <c r="F256" s="19"/>
+      <c r="G256" s="19"/>
+      <c r="H256" s="20"/>
     </row>
     <row r="257" ht="21" customHeight="1">
-      <c r="A257" s="23"/>
-      <c r="B257" s="23"/>
-      <c r="C257" s="17"/>
+      <c r="A257" s="28"/>
+      <c r="B257" s="28"/>
+      <c r="C257" s="19"/>
       <c r="D257" s="7"/>
       <c r="E257" s="7"/>
       <c r="F257" s="7"/>
       <c r="G257" s="7"/>
-      <c r="H257" s="19"/>
+      <c r="H257" s="8"/>
     </row>
     <row r="258" ht="21" customHeight="1">
-      <c r="A258" s="24"/>
-      <c r="B258" s="24"/>
-      <c r="C258" s="25"/>
+      <c r="A258" s="25"/>
+      <c r="B258" s="25"/>
+      <c r="C258" s="26"/>
       <c r="D258" s="7"/>
       <c r="E258" s="7"/>
       <c r="F258" s="7"/>
       <c r="G258" s="7"/>
-      <c r="H258" s="8"/>
+      <c r="H258" s="11"/>
     </row>
     <row r="259" ht="21" customHeight="1">
-      <c r="A259" s="26"/>
-      <c r="B259" s="26"/>
-      <c r="C259" s="17"/>
+      <c r="A259" s="27"/>
+      <c r="B259" s="27"/>
+      <c r="C259" s="19"/>
       <c r="D259" s="7"/>
       <c r="E259" s="7"/>
       <c r="F259" s="7"/>
       <c r="G259" s="7"/>
-      <c r="H259" s="12"/>
+      <c r="H259" s="15"/>
     </row>
     <row r="260" ht="21" customHeight="1">
-      <c r="A260" s="17"/>
-      <c r="B260" s="17"/>
-      <c r="C260" s="17"/>
+      <c r="A260" s="19"/>
+      <c r="B260" s="19"/>
+      <c r="C260" s="19"/>
       <c r="D260" s="7"/>
       <c r="E260" s="7"/>
       <c r="F260" s="7"/>
       <c r="G260" s="7"/>
-      <c r="H260" s="19"/>
+      <c r="H260" s="8"/>
     </row>
     <row r="261" ht="21" customHeight="1">
-      <c r="A261" s="23"/>
-      <c r="B261" s="23"/>
-      <c r="C261" s="17"/>
+      <c r="A261" s="28"/>
+      <c r="B261" s="28"/>
+      <c r="C261" s="19"/>
       <c r="D261" s="7"/>
       <c r="E261" s="7"/>
       <c r="F261" s="7"/>
       <c r="G261" s="7"/>
-      <c r="H261" s="19"/>
+      <c r="H261" s="8"/>
     </row>
     <row r="262" ht="21" customHeight="1">
-      <c r="A262" s="24"/>
-      <c r="B262" s="24"/>
-      <c r="C262" s="25"/>
+      <c r="A262" s="25"/>
+      <c r="B262" s="25"/>
+      <c r="C262" s="26"/>
       <c r="D262" s="7"/>
       <c r="E262" s="7"/>
       <c r="F262" s="7"/>
       <c r="G262" s="7"/>
-      <c r="H262" s="19"/>
+      <c r="H262" s="8"/>
     </row>
     <row r="263" ht="21" customHeight="1">
-      <c r="A263" s="24"/>
-      <c r="B263" s="24"/>
-      <c r="C263" s="25"/>
+      <c r="A263" s="25"/>
+      <c r="B263" s="25"/>
+      <c r="C263" s="26"/>
       <c r="D263" s="7"/>
       <c r="E263" s="7"/>
       <c r="F263" s="7"/>
       <c r="G263" s="7"/>
-      <c r="H263" s="19"/>
+      <c r="H263" s="8"/>
     </row>
     <row r="264" ht="21" customHeight="1">
-      <c r="A264" s="26"/>
-      <c r="B264" s="26"/>
-      <c r="C264" s="17"/>
+      <c r="A264" s="27"/>
+      <c r="B264" s="27"/>
+      <c r="C264" s="19"/>
       <c r="D264" s="7"/>
       <c r="E264" s="7"/>
       <c r="F264" s="7"/>
       <c r="G264" s="7"/>
-      <c r="H264" s="8"/>
+      <c r="H264" s="11"/>
     </row>
     <row r="265" ht="21" customHeight="1">
-      <c r="A265" s="17"/>
-      <c r="B265" s="17"/>
-      <c r="C265" s="17"/>
+      <c r="A265" s="19"/>
+      <c r="B265" s="19"/>
+      <c r="C265" s="19"/>
       <c r="D265" s="7"/>
       <c r="E265" s="7"/>
       <c r="F265" s="7"/>
       <c r="G265" s="7"/>
-      <c r="H265" s="21"/>
+      <c r="H265" s="24"/>
     </row>
     <row r="266" ht="21" customHeight="1">
-      <c r="A266" s="17"/>
-      <c r="B266" s="17"/>
-      <c r="C266" s="17"/>
+      <c r="A266" s="19"/>
+      <c r="B266" s="19"/>
+      <c r="C266" s="19"/>
       <c r="D266" s="7"/>
       <c r="E266" s="7"/>
       <c r="F266" s="7"/>
       <c r="G266" s="7"/>
-      <c r="H266" s="12"/>
+      <c r="H266" s="15"/>
     </row>
     <row r="267" ht="21" customHeight="1">
-      <c r="A267" s="17"/>
-      <c r="B267" s="17"/>
-      <c r="C267" s="17"/>
+      <c r="A267" s="19"/>
+      <c r="B267" s="19"/>
+      <c r="C267" s="19"/>
       <c r="D267" s="7"/>
       <c r="E267" s="7"/>
       <c r="F267" s="7"/>
       <c r="G267" s="7"/>
-      <c r="H267" s="8"/>
+      <c r="H267" s="11"/>
     </row>
     <row r="268" ht="21" customHeight="1">
-      <c r="A268" s="17"/>
-      <c r="B268" s="17"/>
-      <c r="C268" s="17"/>
+      <c r="A268" s="19"/>
+      <c r="B268" s="19"/>
+      <c r="C268" s="19"/>
       <c r="D268" s="7"/>
       <c r="E268" s="7"/>
       <c r="F268" s="7"/>
       <c r="G268" s="7"/>
-      <c r="H268" s="12"/>
+      <c r="H268" s="15"/>
     </row>
     <row r="269" ht="21" customHeight="1">
-      <c r="A269" s="17"/>
-      <c r="B269" s="17"/>
-      <c r="C269" s="17"/>
+      <c r="A269" s="19"/>
+      <c r="B269" s="19"/>
+      <c r="C269" s="19"/>
       <c r="D269" s="7"/>
       <c r="E269" s="7"/>
       <c r="F269" s="7"/>
       <c r="G269" s="7"/>
-      <c r="H269" s="8"/>
+      <c r="H269" s="11"/>
     </row>
     <row r="270" ht="21" customHeight="1">
-      <c r="A270" s="17"/>
-      <c r="B270" s="17"/>
-      <c r="C270" s="17"/>
+      <c r="A270" s="19"/>
+      <c r="B270" s="19"/>
+      <c r="C270" s="19"/>
       <c r="D270" s="7"/>
       <c r="E270" s="7"/>
       <c r="F270" s="7"/>
       <c r="G270" s="7"/>
-      <c r="H270" s="12"/>
+      <c r="H270" s="15"/>
     </row>
     <row r="271" ht="21" customHeight="1">
-      <c r="A271" s="17"/>
-      <c r="B271" s="17"/>
-      <c r="C271" s="17"/>
+      <c r="A271" s="19"/>
+      <c r="B271" s="19"/>
+      <c r="C271" s="19"/>
       <c r="D271" s="7"/>
       <c r="E271" s="7"/>
       <c r="F271" s="7"/>
       <c r="G271" s="7"/>
-      <c r="H271" s="19"/>
+      <c r="H271" s="8"/>
     </row>
     <row r="272" ht="21" customHeight="1">
-      <c r="A272" s="17"/>
-      <c r="B272" s="17"/>
-      <c r="C272" s="17"/>
+      <c r="A272" s="19"/>
+      <c r="B272" s="19"/>
+      <c r="C272" s="19"/>
       <c r="D272" s="7"/>
       <c r="E272" s="7"/>
       <c r="F272" s="7"/>
       <c r="G272" s="7"/>
-      <c r="H272" s="8"/>
+      <c r="H272" s="11"/>
     </row>
     <row r="273" ht="21" customHeight="1">
-      <c r="A273" s="17"/>
-      <c r="B273" s="17"/>
-      <c r="C273" s="17"/>
+      <c r="A273" s="19"/>
+      <c r="B273" s="19"/>
+      <c r="C273" s="19"/>
       <c r="D273" s="7"/>
       <c r="E273" s="7"/>
       <c r="F273" s="7"/>
       <c r="G273" s="7"/>
-      <c r="H273" s="21"/>
+      <c r="H273" s="24"/>
     </row>
     <row r="274" ht="20.7" customHeight="1">
-      <c r="A274" s="17"/>
-      <c r="B274" s="17"/>
-      <c r="C274" s="17"/>
-      <c r="D274" s="17"/>
-      <c r="E274" s="17"/>
-      <c r="F274" s="17"/>
-      <c r="G274" s="17"/>
-      <c r="H274" s="18"/>
+      <c r="A274" s="19"/>
+      <c r="B274" s="19"/>
+      <c r="C274" s="19"/>
+      <c r="D274" s="19"/>
+      <c r="E274" s="19"/>
+      <c r="F274" s="19"/>
+      <c r="G274" s="19"/>
+      <c r="H274" s="20"/>
     </row>
     <row r="275" ht="21" customHeight="1">
-      <c r="A275" s="17"/>
-      <c r="B275" s="17"/>
-      <c r="C275" s="17"/>
+      <c r="A275" s="19"/>
+      <c r="B275" s="19"/>
+      <c r="C275" s="19"/>
       <c r="D275" s="7"/>
       <c r="E275" s="7"/>
       <c r="F275" s="7"/>
       <c r="G275" s="7"/>
-      <c r="H275" s="19"/>
+      <c r="H275" s="8"/>
     </row>
     <row r="276" ht="21" customHeight="1">
-      <c r="A276" s="17"/>
-      <c r="B276" s="17"/>
-      <c r="C276" s="17"/>
+      <c r="A276" s="19"/>
+      <c r="B276" s="19"/>
+      <c r="C276" s="19"/>
       <c r="D276" s="7"/>
       <c r="E276" s="7"/>
       <c r="F276" s="7"/>
       <c r="G276" s="7"/>
-      <c r="H276" s="19"/>
+      <c r="H276" s="8"/>
     </row>
     <row r="277" ht="21" customHeight="1">
-      <c r="A277" s="17"/>
-      <c r="B277" s="17"/>
-      <c r="C277" s="17"/>
+      <c r="A277" s="19"/>
+      <c r="B277" s="19"/>
+      <c r="C277" s="19"/>
       <c r="D277" s="7"/>
       <c r="E277" s="7"/>
       <c r="F277" s="7"/>
       <c r="G277" s="7"/>
-      <c r="H277" s="19"/>
+      <c r="H277" s="8"/>
     </row>
     <row r="278" ht="21" customHeight="1">
-      <c r="A278" s="23"/>
-      <c r="B278" s="23"/>
-      <c r="C278" s="17"/>
+      <c r="A278" s="28"/>
+      <c r="B278" s="28"/>
+      <c r="C278" s="19"/>
       <c r="D278" s="7"/>
       <c r="E278" s="7"/>
       <c r="F278" s="7"/>
       <c r="G278" s="7"/>
-      <c r="H278" s="19"/>
+      <c r="H278" s="8"/>
     </row>
     <row r="279" ht="21" customHeight="1">
-      <c r="A279" s="24"/>
-      <c r="B279" s="24"/>
-      <c r="C279" s="25"/>
+      <c r="A279" s="25"/>
+      <c r="B279" s="25"/>
+      <c r="C279" s="26"/>
       <c r="D279" s="7"/>
       <c r="E279" s="7"/>
       <c r="F279" s="7"/>
       <c r="G279" s="7"/>
-      <c r="H279" s="19"/>
+      <c r="H279" s="8"/>
     </row>
     <row r="280" ht="21" customHeight="1">
-      <c r="A280" s="24"/>
-      <c r="B280" s="24"/>
-      <c r="C280" s="25"/>
+      <c r="A280" s="25"/>
+      <c r="B280" s="25"/>
+      <c r="C280" s="26"/>
       <c r="D280" s="7"/>
       <c r="E280" s="7"/>
       <c r="F280" s="7"/>
       <c r="G280" s="7"/>
-      <c r="H280" s="8"/>
+      <c r="H280" s="11"/>
     </row>
     <row r="281" ht="21" customHeight="1">
-      <c r="A281" s="26"/>
-      <c r="B281" s="26"/>
-      <c r="C281" s="17"/>
+      <c r="A281" s="27"/>
+      <c r="B281" s="27"/>
+      <c r="C281" s="19"/>
       <c r="D281" s="7"/>
       <c r="E281" s="7"/>
       <c r="F281" s="7"/>
       <c r="G281" s="7"/>
-      <c r="H281" s="12"/>
+      <c r="H281" s="15"/>
     </row>
     <row r="282" ht="21" customHeight="1">
-      <c r="A282" s="17"/>
-      <c r="B282" s="17"/>
-      <c r="C282" s="17"/>
+      <c r="A282" s="19"/>
+      <c r="B282" s="19"/>
+      <c r="C282" s="19"/>
       <c r="D282" s="7"/>
       <c r="E282" s="7"/>
       <c r="F282" s="7"/>
       <c r="G282" s="7"/>
-      <c r="H282" s="19"/>
+      <c r="H282" s="8"/>
     </row>
     <row r="283" ht="21" customHeight="1">
-      <c r="A283" s="17"/>
-      <c r="B283" s="17"/>
-      <c r="C283" s="17"/>
+      <c r="A283" s="19"/>
+      <c r="B283" s="19"/>
+      <c r="C283" s="19"/>
       <c r="D283" s="7"/>
       <c r="E283" s="7"/>
       <c r="F283" s="7"/>
       <c r="G283" s="7"/>
-      <c r="H283" s="8"/>
+      <c r="H283" s="11"/>
     </row>
     <row r="284" ht="21" customHeight="1">
-      <c r="A284" s="17"/>
-      <c r="B284" s="17"/>
-      <c r="C284" s="17"/>
+      <c r="A284" s="19"/>
+      <c r="B284" s="19"/>
+      <c r="C284" s="19"/>
       <c r="D284" s="7"/>
       <c r="E284" s="7"/>
       <c r="F284" s="7"/>
       <c r="G284" s="7"/>
-      <c r="H284" s="12"/>
+      <c r="H284" s="15"/>
     </row>
     <row r="285" ht="21" customHeight="1">
-      <c r="A285" s="17"/>
-      <c r="B285" s="17"/>
-      <c r="C285" s="17"/>
+      <c r="A285" s="19"/>
+      <c r="B285" s="19"/>
+      <c r="C285" s="19"/>
       <c r="D285" s="7"/>
       <c r="E285" s="7"/>
       <c r="F285" s="7"/>
       <c r="G285" s="7"/>
-      <c r="H285" s="19"/>
+      <c r="H285" s="8"/>
     </row>
     <row r="286" ht="21" customHeight="1">
-      <c r="A286" s="17"/>
-      <c r="B286" s="17"/>
-      <c r="C286" s="17"/>
+      <c r="A286" s="19"/>
+      <c r="B286" s="19"/>
+      <c r="C286" s="19"/>
       <c r="D286" s="7"/>
       <c r="E286" s="7"/>
       <c r="F286" s="7"/>
       <c r="G286" s="7"/>
-      <c r="H286" s="8"/>
+      <c r="H286" s="11"/>
     </row>
     <row r="287" ht="21" customHeight="1">
-      <c r="A287" s="17"/>
-      <c r="B287" s="17"/>
-      <c r="C287" s="17"/>
+      <c r="A287" s="19"/>
+      <c r="B287" s="19"/>
+      <c r="C287" s="19"/>
       <c r="D287" s="7"/>
       <c r="E287" s="7"/>
       <c r="F287" s="7"/>
       <c r="G287" s="7"/>
-      <c r="H287" s="12"/>
+      <c r="H287" s="15"/>
     </row>
     <row r="288" ht="21" customHeight="1">
-      <c r="A288" s="17"/>
-      <c r="B288" s="17"/>
-      <c r="C288" s="17"/>
+      <c r="A288" s="19"/>
+      <c r="B288" s="19"/>
+      <c r="C288" s="19"/>
       <c r="D288" s="7"/>
       <c r="E288" s="7"/>
       <c r="F288" s="7"/>
       <c r="G288" s="7"/>
-      <c r="H288" s="19"/>
+      <c r="H288" s="8"/>
     </row>
     <row r="289" ht="21" customHeight="1">
-      <c r="A289" s="17"/>
-      <c r="B289" s="17"/>
-      <c r="C289" s="17"/>
+      <c r="A289" s="19"/>
+      <c r="B289" s="19"/>
+      <c r="C289" s="19"/>
       <c r="D289" s="7"/>
       <c r="E289" s="7"/>
       <c r="F289" s="7"/>
       <c r="G289" s="7"/>
-      <c r="H289" s="19"/>
+      <c r="H289" s="8"/>
     </row>
     <row r="290" ht="21" customHeight="1">
-      <c r="A290" s="17"/>
-      <c r="B290" s="17"/>
-      <c r="C290" s="17"/>
+      <c r="A290" s="19"/>
+      <c r="B290" s="19"/>
+      <c r="C290" s="19"/>
       <c r="D290" s="7"/>
       <c r="E290" s="7"/>
       <c r="F290" s="7"/>
       <c r="G290" s="7"/>
-      <c r="H290" s="19"/>
+      <c r="H290" s="8"/>
     </row>
     <row r="291" ht="21" customHeight="1">
-      <c r="A291" s="17"/>
-      <c r="B291" s="17"/>
-      <c r="C291" s="17"/>
+      <c r="A291" s="19"/>
+      <c r="B291" s="19"/>
+      <c r="C291" s="19"/>
       <c r="D291" s="7"/>
       <c r="E291" s="7"/>
       <c r="F291" s="7"/>
       <c r="G291" s="7"/>
-      <c r="H291" s="19"/>
+      <c r="H291" s="8"/>
     </row>
     <row r="292" ht="21" customHeight="1">
-      <c r="A292" s="17"/>
-      <c r="B292" s="17"/>
-      <c r="C292" s="17"/>
+      <c r="A292" s="19"/>
+      <c r="B292" s="19"/>
+      <c r="C292" s="19"/>
       <c r="D292" s="7"/>
       <c r="E292" s="7"/>
       <c r="F292" s="7"/>
       <c r="G292" s="7"/>
-      <c r="H292" s="19"/>
+      <c r="H292" s="8"/>
     </row>
     <row r="293" ht="21" customHeight="1">
-      <c r="A293" s="23"/>
-      <c r="B293" s="23"/>
-      <c r="C293" s="17"/>
+      <c r="A293" s="28"/>
+      <c r="B293" s="28"/>
+      <c r="C293" s="19"/>
       <c r="D293" s="7"/>
       <c r="E293" s="7"/>
       <c r="F293" s="7"/>
       <c r="G293" s="7"/>
-      <c r="H293" s="19"/>
+      <c r="H293" s="8"/>
     </row>
     <row r="294" ht="21" customHeight="1">
-      <c r="A294" s="24"/>
-      <c r="B294" s="24"/>
-      <c r="C294" s="25"/>
+      <c r="A294" s="25"/>
+      <c r="B294" s="25"/>
+      <c r="C294" s="26"/>
       <c r="D294" s="7"/>
       <c r="E294" s="7"/>
       <c r="F294" s="7"/>
       <c r="G294" s="7"/>
-      <c r="H294" s="8"/>
+      <c r="H294" s="11"/>
     </row>
     <row r="295" ht="20.7" customHeight="1">
-      <c r="A295" s="26"/>
-      <c r="B295" s="26"/>
-      <c r="C295" s="17"/>
-      <c r="D295" s="17"/>
-      <c r="E295" s="17"/>
-      <c r="F295" s="17"/>
-      <c r="G295" s="17"/>
-      <c r="H295" s="18"/>
+      <c r="A295" s="27"/>
+      <c r="B295" s="27"/>
+      <c r="C295" s="19"/>
+      <c r="D295" s="19"/>
+      <c r="E295" s="19"/>
+      <c r="F295" s="19"/>
+      <c r="G295" s="19"/>
+      <c r="H295" s="20"/>
     </row>
     <row r="296" ht="21" customHeight="1">
-      <c r="A296" s="17"/>
-      <c r="B296" s="17"/>
-      <c r="C296" s="17"/>
+      <c r="A296" s="19"/>
+      <c r="B296" s="19"/>
+      <c r="C296" s="19"/>
       <c r="D296" s="7"/>
       <c r="E296" s="7"/>
       <c r="F296" s="7"/>
       <c r="G296" s="7"/>
-      <c r="H296" s="19"/>
+      <c r="H296" s="8"/>
     </row>
     <row r="297" ht="21" customHeight="1">
-      <c r="A297" s="17"/>
-      <c r="B297" s="17"/>
-      <c r="C297" s="17"/>
+      <c r="A297" s="19"/>
+      <c r="B297" s="19"/>
+      <c r="C297" s="19"/>
       <c r="D297" s="7"/>
       <c r="E297" s="7"/>
       <c r="F297" s="7"/>
       <c r="G297" s="7"/>
-      <c r="H297" s="19"/>
+      <c r="H297" s="8"/>
     </row>
     <row r="298" ht="21" customHeight="1">
-      <c r="A298" s="17"/>
-      <c r="B298" s="17"/>
-      <c r="C298" s="17"/>
+      <c r="A298" s="19"/>
+      <c r="B298" s="19"/>
+      <c r="C298" s="19"/>
       <c r="D298" s="7"/>
       <c r="E298" s="7"/>
       <c r="F298" s="7"/>
       <c r="G298" s="7"/>
-      <c r="H298" s="19"/>
+      <c r="H298" s="8"/>
     </row>
     <row r="299" ht="21" customHeight="1">
-      <c r="A299" s="17"/>
-      <c r="B299" s="17"/>
-      <c r="C299" s="17"/>
+      <c r="A299" s="19"/>
+      <c r="B299" s="19"/>
+      <c r="C299" s="19"/>
       <c r="D299" s="7"/>
       <c r="E299" s="7"/>
       <c r="F299" s="7"/>
       <c r="G299" s="7"/>
-      <c r="H299" s="8"/>
+      <c r="H299" s="11"/>
     </row>
     <row r="300" ht="21" customHeight="1">
-      <c r="A300" s="23"/>
-      <c r="B300" s="23"/>
-      <c r="C300" s="17"/>
+      <c r="A300" s="28"/>
+      <c r="B300" s="28"/>
+      <c r="C300" s="19"/>
       <c r="D300" s="7"/>
       <c r="E300" s="7"/>
       <c r="F300" s="7"/>
       <c r="G300" s="7"/>
-      <c r="H300" s="12"/>
+      <c r="H300" s="15"/>
     </row>
     <row r="301" ht="21" customHeight="1">
-      <c r="A301" s="24"/>
-      <c r="B301" s="24"/>
-      <c r="C301" s="25"/>
+      <c r="A301" s="25"/>
+      <c r="B301" s="25"/>
+      <c r="C301" s="26"/>
       <c r="D301" s="7"/>
       <c r="E301" s="7"/>
       <c r="F301" s="7"/>
       <c r="G301" s="7"/>
-      <c r="H301" s="19"/>
+      <c r="H301" s="8"/>
     </row>
     <row r="302" ht="21" customHeight="1">
-      <c r="A302" s="26"/>
-      <c r="B302" s="26"/>
-      <c r="C302" s="17"/>
+      <c r="A302" s="27"/>
+      <c r="B302" s="27"/>
+      <c r="C302" s="19"/>
       <c r="D302" s="7"/>
       <c r="E302" s="7"/>
       <c r="F302" s="7"/>
       <c r="G302" s="7"/>
-      <c r="H302" s="8"/>
+      <c r="H302" s="11"/>
     </row>
     <row r="303" ht="21" customHeight="1">
-      <c r="A303" s="17"/>
-      <c r="B303" s="17"/>
-      <c r="C303" s="17"/>
+      <c r="A303" s="19"/>
+      <c r="B303" s="19"/>
+      <c r="C303" s="19"/>
       <c r="D303" s="7"/>
       <c r="E303" s="7"/>
       <c r="F303" s="7"/>
       <c r="G303" s="7"/>
-      <c r="H303" s="12"/>
+      <c r="H303" s="15"/>
     </row>
     <row r="304" ht="21" customHeight="1">
-      <c r="A304" s="17"/>
-      <c r="B304" s="17"/>
-      <c r="C304" s="17"/>
+      <c r="A304" s="19"/>
+      <c r="B304" s="19"/>
+      <c r="C304" s="19"/>
       <c r="D304" s="7"/>
       <c r="E304" s="7"/>
       <c r="F304" s="7"/>
       <c r="G304" s="7"/>
-      <c r="H304" s="8"/>
+      <c r="H304" s="11"/>
     </row>
     <row r="305" ht="20.35" customHeight="1">
-      <c r="A305" s="17"/>
-      <c r="B305" s="17"/>
-      <c r="C305" s="17"/>
-      <c r="D305" s="17"/>
-      <c r="E305" s="17"/>
-      <c r="F305" s="17"/>
-      <c r="G305" s="17"/>
-      <c r="H305" s="22"/>
+      <c r="A305" s="19"/>
+      <c r="B305" s="19"/>
+      <c r="C305" s="19"/>
+      <c r="D305" s="19"/>
+      <c r="E305" s="19"/>
+      <c r="F305" s="19"/>
+      <c r="G305" s="19"/>
+      <c r="H305" s="23"/>
     </row>
     <row r="306" ht="20.35" customHeight="1">
-      <c r="A306" s="17"/>
-      <c r="B306" s="17"/>
-      <c r="C306" s="17"/>
-      <c r="D306" s="17"/>
-      <c r="E306" s="17"/>
-      <c r="F306" s="17"/>
-      <c r="G306" s="17"/>
-      <c r="H306" s="18"/>
+      <c r="A306" s="19"/>
+      <c r="B306" s="19"/>
+      <c r="C306" s="19"/>
+      <c r="D306" s="19"/>
+      <c r="E306" s="19"/>
+      <c r="F306" s="19"/>
+      <c r="G306" s="19"/>
+      <c r="H306" s="20"/>
     </row>
     <row r="307" ht="21" customHeight="1">
-      <c r="A307" s="17"/>
-      <c r="B307" s="17"/>
-      <c r="C307" s="17"/>
+      <c r="A307" s="19"/>
+      <c r="B307" s="19"/>
+      <c r="C307" s="19"/>
       <c r="D307" s="7"/>
       <c r="E307" s="7"/>
       <c r="F307" s="7"/>
       <c r="G307" s="7"/>
-      <c r="H307" s="8"/>
+      <c r="H307" s="11"/>
     </row>
     <row r="308" ht="21" customHeight="1">
-      <c r="A308" s="17"/>
-      <c r="B308" s="17"/>
-      <c r="C308" s="17"/>
+      <c r="A308" s="19"/>
+      <c r="B308" s="19"/>
+      <c r="C308" s="19"/>
       <c r="D308" s="7"/>
       <c r="E308" s="7"/>
       <c r="F308" s="7"/>
       <c r="G308" s="7"/>
-      <c r="H308" s="12"/>
+      <c r="H308" s="15"/>
     </row>
     <row r="309" ht="21" customHeight="1">
-      <c r="A309" s="17"/>
-      <c r="B309" s="17"/>
-      <c r="C309" s="17"/>
+      <c r="A309" s="19"/>
+      <c r="B309" s="19"/>
+      <c r="C309" s="19"/>
       <c r="D309" s="7"/>
       <c r="E309" s="7"/>
       <c r="F309" s="7"/>
       <c r="G309" s="7"/>
-      <c r="H309" s="8"/>
+      <c r="H309" s="11"/>
     </row>
     <row r="310" ht="21" customHeight="1">
-      <c r="A310" s="17"/>
-      <c r="B310" s="17"/>
-      <c r="C310" s="17"/>
+      <c r="A310" s="19"/>
+      <c r="B310" s="19"/>
+      <c r="C310" s="19"/>
       <c r="D310" s="7"/>
       <c r="E310" s="7"/>
       <c r="F310" s="7"/>
       <c r="G310" s="7"/>
-      <c r="H310" s="12"/>
+      <c r="H310" s="15"/>
     </row>
     <row r="311" ht="21" customHeight="1">
-      <c r="A311" s="17"/>
-      <c r="B311" s="17"/>
-      <c r="C311" s="17"/>
-      <c r="D311" s="17"/>
-      <c r="E311" s="17"/>
-      <c r="F311" s="17"/>
-      <c r="G311" s="17"/>
-      <c r="H311" s="19"/>
+      <c r="A311" s="19"/>
+      <c r="B311" s="19"/>
+      <c r="C311" s="19"/>
+      <c r="D311" s="19"/>
+      <c r="E311" s="19"/>
+      <c r="F311" s="19"/>
+      <c r="G311" s="19"/>
+      <c r="H311" s="8"/>
     </row>
     <row r="312" ht="21" customHeight="1">
-      <c r="A312" s="17"/>
-      <c r="B312" s="17"/>
-      <c r="C312" s="17"/>
+      <c r="A312" s="19"/>
+      <c r="B312" s="19"/>
+      <c r="C312" s="19"/>
       <c r="D312" s="7"/>
       <c r="E312" s="7"/>
       <c r="F312" s="7"/>
       <c r="G312" s="7"/>
-      <c r="H312" s="19"/>
+      <c r="H312" s="8"/>
     </row>
     <row r="313" ht="21" customHeight="1">
-      <c r="A313" s="17"/>
-      <c r="B313" s="17"/>
-      <c r="C313" s="17"/>
+      <c r="A313" s="19"/>
+      <c r="B313" s="19"/>
+      <c r="C313" s="19"/>
       <c r="D313" s="7"/>
       <c r="E313" s="7"/>
       <c r="F313" s="7"/>
       <c r="G313" s="7"/>
-      <c r="H313" s="8"/>
+      <c r="H313" s="11"/>
     </row>
     <row r="314" ht="20.7" customHeight="1">
-      <c r="A314" s="17"/>
-      <c r="B314" s="17"/>
-      <c r="C314" s="17"/>
-      <c r="D314" s="17"/>
-      <c r="E314" s="17"/>
-      <c r="F314" s="17"/>
-      <c r="G314" s="17"/>
-      <c r="H314" s="18"/>
+      <c r="A314" s="19"/>
+      <c r="B314" s="19"/>
+      <c r="C314" s="19"/>
+      <c r="D314" s="19"/>
+      <c r="E314" s="19"/>
+      <c r="F314" s="19"/>
+      <c r="G314" s="19"/>
+      <c r="H314" s="20"/>
     </row>
     <row r="315" ht="21" customHeight="1">
-      <c r="A315" s="17"/>
-      <c r="B315" s="17"/>
-      <c r="C315" s="17"/>
+      <c r="A315" s="19"/>
+      <c r="B315" s="19"/>
+      <c r="C315" s="19"/>
       <c r="D315" s="7"/>
       <c r="E315" s="7"/>
       <c r="F315" s="7"/>
       <c r="G315" s="7"/>
-      <c r="H315" s="19"/>
+      <c r="H315" s="8"/>
     </row>
     <row r="316" ht="21" customHeight="1">
-      <c r="A316" s="17"/>
-      <c r="B316" s="17"/>
-      <c r="C316" s="17"/>
+      <c r="A316" s="19"/>
+      <c r="B316" s="19"/>
+      <c r="C316" s="19"/>
       <c r="D316" s="7"/>
       <c r="E316" s="7"/>
       <c r="F316" s="7"/>
       <c r="G316" s="7"/>
-      <c r="H316" s="19"/>
+      <c r="H316" s="8"/>
     </row>
     <row r="317" ht="21" customHeight="1">
-      <c r="A317" s="17"/>
-      <c r="B317" s="17"/>
-      <c r="C317" s="17"/>
+      <c r="A317" s="19"/>
+      <c r="B317" s="19"/>
+      <c r="C317" s="19"/>
       <c r="D317" s="7"/>
       <c r="E317" s="7"/>
       <c r="F317" s="7"/>
       <c r="G317" s="7"/>
-      <c r="H317" s="8"/>
+      <c r="H317" s="11"/>
     </row>
     <row r="318" ht="21" customHeight="1">
-      <c r="A318" s="17"/>
-      <c r="B318" s="17"/>
-      <c r="C318" s="17"/>
+      <c r="A318" s="19"/>
+      <c r="B318" s="19"/>
+      <c r="C318" s="19"/>
       <c r="D318" s="7"/>
       <c r="E318" s="7"/>
       <c r="F318" s="7"/>
       <c r="G318" s="7"/>
-      <c r="H318" s="12"/>
+      <c r="H318" s="15"/>
     </row>
     <row r="319" ht="21" customHeight="1">
-      <c r="A319" s="17"/>
-      <c r="B319" s="17"/>
-      <c r="C319" s="17"/>
+      <c r="A319" s="19"/>
+      <c r="B319" s="19"/>
+      <c r="C319" s="19"/>
       <c r="D319" s="7"/>
       <c r="E319" s="7"/>
       <c r="F319" s="7"/>
       <c r="G319" s="7"/>
-      <c r="H319" s="19"/>
+      <c r="H319" s="8"/>
     </row>
     <row r="320" ht="21" customHeight="1">
-      <c r="A320" s="17"/>
-      <c r="B320" s="17"/>
-      <c r="C320" s="17"/>
+      <c r="A320" s="19"/>
+      <c r="B320" s="19"/>
+      <c r="C320" s="19"/>
       <c r="D320" s="7"/>
       <c r="E320" s="7"/>
       <c r="F320" s="7"/>
       <c r="G320" s="7"/>
-      <c r="H320" s="19"/>
+      <c r="H320" s="8"/>
     </row>
     <row r="321" ht="21" customHeight="1">
-      <c r="A321" s="17"/>
-      <c r="B321" s="17"/>
-      <c r="C321" s="17"/>
+      <c r="A321" s="19"/>
+      <c r="B321" s="19"/>
+      <c r="C321" s="19"/>
       <c r="D321" s="7"/>
       <c r="E321" s="7"/>
       <c r="F321" s="7"/>
       <c r="G321" s="7"/>
-      <c r="H321" s="19"/>
+      <c r="H321" s="8"/>
     </row>
     <row r="322" ht="21" customHeight="1">
-      <c r="A322" s="17"/>
-      <c r="B322" s="17"/>
-      <c r="C322" s="17"/>
+      <c r="A322" s="19"/>
+      <c r="B322" s="19"/>
+      <c r="C322" s="19"/>
       <c r="D322" s="7"/>
       <c r="E322" s="7"/>
       <c r="F322" s="7"/>
       <c r="G322" s="7"/>
-      <c r="H322" s="19"/>
+      <c r="H322" s="8"/>
     </row>
     <row r="323" ht="21" customHeight="1">
-      <c r="A323" s="23"/>
-      <c r="B323" s="23"/>
-      <c r="C323" s="17"/>
+      <c r="A323" s="28"/>
+      <c r="B323" s="28"/>
+      <c r="C323" s="19"/>
       <c r="D323" s="7"/>
       <c r="E323" s="7"/>
       <c r="F323" s="7"/>
       <c r="G323" s="7"/>
-      <c r="H323" s="19"/>
+      <c r="H323" s="8"/>
     </row>
     <row r="324" ht="21" customHeight="1">
-      <c r="A324" s="24"/>
-      <c r="B324" s="24"/>
-      <c r="C324" s="25"/>
+      <c r="A324" s="25"/>
+      <c r="B324" s="25"/>
+      <c r="C324" s="26"/>
       <c r="D324" s="7"/>
       <c r="E324" s="7"/>
       <c r="F324" s="7"/>
       <c r="G324" s="7"/>
-      <c r="H324" s="19"/>
+      <c r="H324" s="8"/>
     </row>
     <row r="325" ht="21" customHeight="1">
-      <c r="A325" s="24"/>
-      <c r="B325" s="24"/>
-      <c r="C325" s="25"/>
+      <c r="A325" s="25"/>
+      <c r="B325" s="25"/>
+      <c r="C325" s="26"/>
       <c r="D325" s="7"/>
       <c r="E325" s="7"/>
       <c r="F325" s="7"/>
       <c r="G325" s="7"/>
-      <c r="H325" s="19"/>
+      <c r="H325" s="8"/>
     </row>
     <row r="326" ht="21" customHeight="1">
-      <c r="A326" s="24"/>
-      <c r="B326" s="24"/>
-      <c r="C326" s="25"/>
+      <c r="A326" s="25"/>
+      <c r="B326" s="25"/>
+      <c r="C326" s="26"/>
       <c r="D326" s="7"/>
       <c r="E326" s="7"/>
       <c r="F326" s="7"/>
       <c r="G326" s="7"/>
-      <c r="H326" s="8"/>
+      <c r="H326" s="11"/>
     </row>
     <row r="327" ht="21" customHeight="1">
-      <c r="A327" s="26"/>
-      <c r="B327" s="26"/>
-      <c r="C327" s="17"/>
+      <c r="A327" s="27"/>
+      <c r="B327" s="27"/>
+      <c r="C327" s="19"/>
       <c r="D327" s="7"/>
       <c r="E327" s="7"/>
       <c r="F327" s="7"/>
       <c r="G327" s="7"/>
-      <c r="H327" s="12"/>
+      <c r="H327" s="15"/>
     </row>
     <row r="328" ht="21" customHeight="1">
-      <c r="A328" s="17"/>
-      <c r="B328" s="17"/>
-      <c r="C328" s="17"/>
+      <c r="A328" s="19"/>
+      <c r="B328" s="19"/>
+      <c r="C328" s="19"/>
       <c r="D328" s="7"/>
       <c r="E328" s="7"/>
       <c r="F328" s="7"/>
       <c r="G328" s="7"/>
-      <c r="H328" s="19"/>
+      <c r="H328" s="8"/>
     </row>
     <row r="329" ht="21" customHeight="1">
-      <c r="A329" s="17"/>
-      <c r="B329" s="17"/>
-      <c r="C329" s="17"/>
+      <c r="A329" s="19"/>
+      <c r="B329" s="19"/>
+      <c r="C329" s="19"/>
       <c r="D329" s="7"/>
       <c r="E329" s="7"/>
       <c r="F329" s="7"/>
       <c r="G329" s="7"/>
-      <c r="H329" s="19"/>
+      <c r="H329" s="8"/>
     </row>
     <row r="330" ht="21" customHeight="1">
-      <c r="A330" s="17"/>
-      <c r="B330" s="17"/>
-      <c r="C330" s="17"/>
+      <c r="A330" s="19"/>
+      <c r="B330" s="19"/>
+      <c r="C330" s="19"/>
       <c r="D330" s="7"/>
       <c r="E330" s="7"/>
       <c r="F330" s="7"/>
       <c r="G330" s="7"/>
-      <c r="H330" s="19"/>
+      <c r="H330" s="8"/>
     </row>
     <row r="331" ht="21" customHeight="1">
-      <c r="A331" s="17"/>
-      <c r="B331" s="17"/>
-      <c r="C331" s="17"/>
+      <c r="A331" s="19"/>
+      <c r="B331" s="19"/>
+      <c r="C331" s="19"/>
       <c r="D331" s="7"/>
       <c r="E331" s="7"/>
       <c r="F331" s="7"/>
       <c r="G331" s="7"/>
-      <c r="H331" s="8"/>
+      <c r="H331" s="11"/>
     </row>
     <row r="332" ht="21" customHeight="1">
-      <c r="A332" s="17"/>
-      <c r="B332" s="17"/>
-      <c r="C332" s="17"/>
+      <c r="A332" s="19"/>
+      <c r="B332" s="19"/>
+      <c r="C332" s="19"/>
       <c r="D332" s="7"/>
       <c r="E332" s="7"/>
       <c r="F332" s="7"/>
       <c r="G332" s="7"/>
-      <c r="H332" s="21"/>
+      <c r="H332" s="24"/>
     </row>
     <row r="333" ht="20.7" customHeight="1">
-      <c r="A333" s="23"/>
-      <c r="B333" s="23"/>
-      <c r="C333" s="17"/>
-      <c r="D333" s="17"/>
-      <c r="E333" s="17"/>
-      <c r="F333" s="17"/>
-      <c r="G333" s="17"/>
-      <c r="H333" s="18"/>
+      <c r="A333" s="28"/>
+      <c r="B333" s="28"/>
+      <c r="C333" s="19"/>
+      <c r="D333" s="19"/>
+      <c r="E333" s="19"/>
+      <c r="F333" s="19"/>
+      <c r="G333" s="19"/>
+      <c r="H333" s="20"/>
     </row>
     <row r="334" ht="21" customHeight="1">
-      <c r="A334" s="24"/>
-      <c r="B334" s="24"/>
-      <c r="C334" s="25"/>
+      <c r="A334" s="25"/>
+      <c r="B334" s="25"/>
+      <c r="C334" s="26"/>
       <c r="D334" s="7"/>
       <c r="E334" s="7"/>
       <c r="F334" s="7"/>
       <c r="G334" s="7"/>
-      <c r="H334" s="19"/>
+      <c r="H334" s="8"/>
     </row>
     <row r="335" ht="21" customHeight="1">
-      <c r="A335" s="24"/>
-      <c r="B335" s="24"/>
-      <c r="C335" s="25"/>
+      <c r="A335" s="25"/>
+      <c r="B335" s="25"/>
+      <c r="C335" s="26"/>
       <c r="D335" s="7"/>
       <c r="E335" s="7"/>
       <c r="F335" s="7"/>
       <c r="G335" s="7"/>
-      <c r="H335" s="8"/>
+      <c r="H335" s="11"/>
     </row>
     <row r="336" ht="21" customHeight="1">
-      <c r="A336" s="26"/>
-      <c r="B336" s="26"/>
-      <c r="C336" s="17"/>
+      <c r="A336" s="27"/>
+      <c r="B336" s="27"/>
+      <c r="C336" s="19"/>
       <c r="D336" s="7"/>
       <c r="E336" s="7"/>
       <c r="F336" s="7"/>
       <c r="G336" s="7"/>
-      <c r="H336" s="12"/>
+      <c r="H336" s="15"/>
     </row>
     <row r="337" ht="21" customHeight="1">
-      <c r="A337" s="17"/>
-      <c r="B337" s="17"/>
-      <c r="C337" s="17"/>
+      <c r="A337" s="19"/>
+      <c r="B337" s="19"/>
+      <c r="C337" s="19"/>
       <c r="D337" s="7"/>
       <c r="E337" s="7"/>
       <c r="F337" s="7"/>
       <c r="G337" s="7"/>
-      <c r="H337" s="19"/>
+      <c r="H337" s="8"/>
     </row>
     <row r="338" ht="21" customHeight="1">
-      <c r="A338" s="17"/>
-      <c r="B338" s="17"/>
-      <c r="C338" s="17"/>
+      <c r="A338" s="19"/>
+      <c r="B338" s="19"/>
+      <c r="C338" s="19"/>
       <c r="D338" s="7"/>
       <c r="E338" s="7"/>
       <c r="F338" s="7"/>
       <c r="G338" s="7"/>
-      <c r="H338" s="19"/>
+      <c r="H338" s="8"/>
     </row>
     <row r="339" ht="21" customHeight="1">
-      <c r="A339" s="17"/>
-      <c r="B339" s="17"/>
-      <c r="C339" s="17"/>
+      <c r="A339" s="19"/>
+      <c r="B339" s="19"/>
+      <c r="C339" s="19"/>
       <c r="D339" s="7"/>
       <c r="E339" s="7"/>
       <c r="F339" s="7"/>
       <c r="G339" s="7"/>
-      <c r="H339" s="8"/>
+      <c r="H339" s="11"/>
     </row>
     <row r="340" ht="21" customHeight="1">
-      <c r="A340" s="17"/>
-      <c r="B340" s="17"/>
-      <c r="C340" s="17"/>
+      <c r="A340" s="19"/>
+      <c r="B340" s="19"/>
+      <c r="C340" s="19"/>
       <c r="D340" s="7"/>
       <c r="E340" s="7"/>
       <c r="F340" s="7"/>
       <c r="G340" s="7"/>
-      <c r="H340" s="12"/>
+      <c r="H340" s="15"/>
     </row>
     <row r="341" ht="21" customHeight="1">
-      <c r="A341" s="17"/>
-      <c r="B341" s="17"/>
-      <c r="C341" s="17"/>
+      <c r="A341" s="19"/>
+      <c r="B341" s="19"/>
+      <c r="C341" s="19"/>
       <c r="D341" s="7"/>
       <c r="E341" s="7"/>
       <c r="F341" s="7"/>
       <c r="G341" s="7"/>
-      <c r="H341" s="19"/>
+      <c r="H341" s="8"/>
     </row>
     <row r="342" ht="21" customHeight="1">
-      <c r="A342" s="17"/>
-      <c r="B342" s="17"/>
-      <c r="C342" s="17"/>
+      <c r="A342" s="19"/>
+      <c r="B342" s="19"/>
+      <c r="C342" s="19"/>
       <c r="D342" s="7"/>
       <c r="E342" s="7"/>
       <c r="F342" s="7"/>
       <c r="G342" s="7"/>
-      <c r="H342" s="19"/>
+      <c r="H342" s="8"/>
     </row>
     <row r="343" ht="21" customHeight="1">
-      <c r="A343" s="17"/>
-      <c r="B343" s="17"/>
-      <c r="C343" s="17"/>
+      <c r="A343" s="19"/>
+      <c r="B343" s="19"/>
+      <c r="C343" s="19"/>
       <c r="D343" s="7"/>
       <c r="E343" s="7"/>
       <c r="F343" s="7"/>
       <c r="G343" s="7"/>
-      <c r="H343" s="19"/>
+      <c r="H343" s="8"/>
     </row>
     <row r="344" ht="21" customHeight="1">
-      <c r="A344" s="17"/>
-      <c r="B344" s="17"/>
-      <c r="C344" s="17"/>
+      <c r="A344" s="19"/>
+      <c r="B344" s="19"/>
+      <c r="C344" s="19"/>
       <c r="D344" s="7"/>
       <c r="E344" s="7"/>
       <c r="F344" s="7"/>
       <c r="G344" s="7"/>
-      <c r="H344" s="8"/>
+      <c r="H344" s="11"/>
     </row>
     <row r="345" ht="21" customHeight="1">
-      <c r="A345" s="23"/>
-      <c r="B345" s="23"/>
-      <c r="C345" s="17"/>
+      <c r="A345" s="28"/>
+      <c r="B345" s="28"/>
+      <c r="C345" s="19"/>
       <c r="D345" s="7"/>
       <c r="E345" s="7"/>
       <c r="F345" s="7"/>
       <c r="G345" s="7"/>
-      <c r="H345" s="12"/>
+      <c r="H345" s="15"/>
     </row>
     <row r="346" ht="21" customHeight="1">
-      <c r="A346" s="24"/>
-      <c r="B346" s="24"/>
-      <c r="C346" s="25"/>
+      <c r="A346" s="25"/>
+      <c r="B346" s="25"/>
+      <c r="C346" s="26"/>
       <c r="D346" s="7"/>
       <c r="E346" s="7"/>
       <c r="F346" s="7"/>
       <c r="G346" s="7"/>
-      <c r="H346" s="8"/>
+      <c r="H346" s="11"/>
     </row>
     <row r="347" ht="21" customHeight="1">
-      <c r="A347" s="26"/>
-      <c r="B347" s="26"/>
-      <c r="C347" s="17"/>
+      <c r="A347" s="27"/>
+      <c r="B347" s="27"/>
+      <c r="C347" s="19"/>
       <c r="D347" s="7"/>
       <c r="E347" s="7"/>
       <c r="F347" s="7"/>
       <c r="G347" s="7"/>
-      <c r="H347" s="12"/>
+      <c r="H347" s="15"/>
     </row>
     <row r="348" ht="21" customHeight="1">
-      <c r="A348" s="17"/>
-      <c r="B348" s="17"/>
-      <c r="C348" s="17"/>
+      <c r="A348" s="19"/>
+      <c r="B348" s="19"/>
+      <c r="C348" s="19"/>
       <c r="D348" s="7"/>
       <c r="E348" s="7"/>
       <c r="F348" s="7"/>
       <c r="G348" s="7"/>
-      <c r="H348" s="8"/>
+      <c r="H348" s="11"/>
     </row>
     <row r="349" ht="21" customHeight="1">
-      <c r="A349" s="17"/>
-      <c r="B349" s="17"/>
-      <c r="C349" s="17"/>
+      <c r="A349" s="19"/>
+      <c r="B349" s="19"/>
+      <c r="C349" s="19"/>
       <c r="D349" s="7"/>
       <c r="E349" s="7"/>
       <c r="F349" s="7"/>
       <c r="G349" s="7"/>
-      <c r="H349" s="12"/>
+      <c r="H349" s="15"/>
     </row>
     <row r="350" ht="21" customHeight="1">
-      <c r="A350" s="17"/>
-      <c r="B350" s="17"/>
-      <c r="C350" s="17"/>
+      <c r="A350" s="19"/>
+      <c r="B350" s="19"/>
+      <c r="C350" s="19"/>
       <c r="D350" s="7"/>
       <c r="E350" s="7"/>
       <c r="F350" s="7"/>
       <c r="G350" s="7"/>
-      <c r="H350" s="19"/>
+      <c r="H350" s="8"/>
     </row>
     <row r="351" ht="21" customHeight="1">
-      <c r="A351" s="17"/>
-      <c r="B351" s="17"/>
-      <c r="C351" s="17"/>
+      <c r="A351" s="19"/>
+      <c r="B351" s="19"/>
+      <c r="C351" s="19"/>
       <c r="D351" s="7"/>
       <c r="E351" s="7"/>
       <c r="F351" s="7"/>
       <c r="G351" s="7"/>
-      <c r="H351" s="19"/>
+      <c r="H351" s="8"/>
     </row>
     <row r="352" ht="21" customHeight="1">
-      <c r="A352" s="17"/>
-      <c r="B352" s="17"/>
-      <c r="C352" s="17"/>
+      <c r="A352" s="19"/>
+      <c r="B352" s="19"/>
+      <c r="C352" s="19"/>
       <c r="D352" s="7"/>
       <c r="E352" s="7"/>
       <c r="F352" s="7"/>
       <c r="G352" s="7"/>
-      <c r="H352" s="19"/>
+      <c r="H352" s="8"/>
     </row>
     <row r="353" ht="21" customHeight="1">
-      <c r="A353" s="17"/>
-      <c r="B353" s="17"/>
-      <c r="C353" s="17"/>
+      <c r="A353" s="19"/>
+      <c r="B353" s="19"/>
+      <c r="C353" s="19"/>
       <c r="D353" s="7"/>
       <c r="E353" s="7"/>
       <c r="F353" s="7"/>
       <c r="G353" s="7"/>
-      <c r="H353" s="8"/>
+      <c r="H353" s="11"/>
     </row>
     <row r="354" ht="21" customHeight="1">
-      <c r="A354" s="17"/>
-      <c r="B354" s="17"/>
-      <c r="C354" s="17"/>
+      <c r="A354" s="19"/>
+      <c r="B354" s="19"/>
+      <c r="C354" s="19"/>
       <c r="D354" s="7"/>
       <c r="E354" s="7"/>
       <c r="F354" s="7"/>
       <c r="G354" s="7"/>
-      <c r="H354" s="12"/>
+      <c r="H354" s="15"/>
     </row>
     <row r="355" ht="21" customHeight="1">
-      <c r="A355" s="17"/>
-      <c r="B355" s="17"/>
-      <c r="C355" s="17"/>
+      <c r="A355" s="19"/>
+      <c r="B355" s="19"/>
+      <c r="C355" s="19"/>
       <c r="D355" s="7"/>
       <c r="E355" s="7"/>
       <c r="F355" s="7"/>
       <c r="G355" s="7"/>
-      <c r="H355" s="8"/>
+      <c r="H355" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/cw12022023.xlsx
+++ b/cw12022023.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="146">
   <si>
     <t>Surname</t>
   </si>
@@ -55,6 +55,15 @@
     <t>HEMT</t>
   </si>
   <si>
+    <t>Chakanyuka</t>
+  </si>
+  <si>
+    <t>H220658E</t>
+  </si>
+  <si>
+    <t>HEEE</t>
+  </si>
+  <si>
     <t>Charumbwidza</t>
   </si>
   <si>
@@ -67,9 +76,6 @@
     <t>H220444P</t>
   </si>
   <si>
-    <t>HEEE</t>
-  </si>
-  <si>
     <t>Chikwaka</t>
   </si>
   <si>
@@ -79,6 +85,12 @@
     <t>HEIM</t>
   </si>
   <si>
+    <t>Chinavamwe</t>
+  </si>
+  <si>
+    <t>H220627Y</t>
+  </si>
+  <si>
     <t>Chingandu</t>
   </si>
   <si>
@@ -88,6 +100,12 @@
     <t>HEPT</t>
   </si>
   <si>
+    <t>Chinyerere</t>
+  </si>
+  <si>
+    <t>H220422M</t>
+  </si>
+  <si>
     <t>Chipembe</t>
   </si>
   <si>
@@ -100,6 +118,12 @@
     <t>H220523Y</t>
   </si>
   <si>
+    <t>Dafter</t>
+  </si>
+  <si>
+    <t>H220161M</t>
+  </si>
+  <si>
     <t>Dendera</t>
   </si>
   <si>
@@ -115,6 +139,12 @@
     <t>H220518Y</t>
   </si>
   <si>
+    <t>Govera</t>
+  </si>
+  <si>
+    <t>H220017H</t>
+  </si>
+  <si>
     <t>Jinga</t>
   </si>
   <si>
@@ -133,6 +163,12 @@
     <t>H220602N</t>
   </si>
   <si>
+    <t>Kanengini</t>
+  </si>
+  <si>
+    <t>H220385Y</t>
+  </si>
+  <si>
     <t>Kashiri</t>
   </si>
   <si>
@@ -205,6 +241,18 @@
     <t>H220544A</t>
   </si>
   <si>
+    <t>Mashiri</t>
+  </si>
+  <si>
+    <t>H220568A</t>
+  </si>
+  <si>
+    <t>Matambanadzo</t>
+  </si>
+  <si>
+    <t>H220279B</t>
+  </si>
+  <si>
     <t>Matongo</t>
   </si>
   <si>
@@ -241,6 +289,18 @@
     <t>H220584B</t>
   </si>
   <si>
+    <t>Mudekwa</t>
+  </si>
+  <si>
+    <t>H220571T</t>
+  </si>
+  <si>
+    <t>Mungitshwa</t>
+  </si>
+  <si>
+    <t>H220598P</t>
+  </si>
+  <si>
     <t>Munhutu</t>
   </si>
   <si>
@@ -289,6 +349,12 @@
     <t>H220412H</t>
   </si>
   <si>
+    <t>Padziri</t>
+  </si>
+  <si>
+    <t>H220031Q</t>
+  </si>
+  <si>
     <t>Paganga</t>
   </si>
   <si>
@@ -313,6 +379,12 @@
     <t>H220441W</t>
   </si>
   <si>
+    <t>Runhare</t>
+  </si>
+  <si>
+    <t>H220639Y</t>
+  </si>
+  <si>
     <t>Sikumba</t>
   </si>
   <si>
@@ -365,6 +437,12 @@
   </si>
   <si>
     <t>H220054M</t>
+  </si>
+  <si>
+    <t>Zinyama</t>
+  </si>
+  <si>
+    <t>H220405P</t>
   </si>
   <si>
     <t>Zorounye</t>
@@ -530,7 +608,7 @@
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,21 +629,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="10"/>
       </left>
       <right style="thin">
@@ -576,6 +639,21 @@
       </top>
       <bottom style="thin">
         <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
@@ -661,10 +739,10 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="2" fontId="5" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="2" fontId="5" fillId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -673,14 +751,20 @@
     <xf numFmtId="2" fontId="0" fillId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="59" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
@@ -694,19 +778,13 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1874,17 +1952,17 @@
       <c r="H3" s="7"/>
     </row>
     <row r="4" ht="21" customHeight="1">
-      <c r="A4" t="s" s="10">
+      <c r="A4" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="B4" t="s" s="10">
+      <c r="B4" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="C4" t="s" s="9">
-        <v>13</v>
+      <c r="C4" t="s" s="5">
+        <v>16</v>
       </c>
       <c r="D4" s="6">
-        <v>0.714285714285714</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -1892,161 +1970,161 @@
       <c r="H4" s="7"/>
     </row>
     <row r="5" ht="21" customHeight="1">
-      <c r="A5" t="s" s="5">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s" s="5">
+      <c r="A5" t="s" s="8">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="5">
+      <c r="B5" t="s" s="8">
         <v>18</v>
       </c>
+      <c r="C5" t="s" s="9">
+        <v>13</v>
+      </c>
       <c r="D5" s="6">
-        <v>0.642857142857143</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="11"/>
+      <c r="H5" s="7"/>
     </row>
     <row r="6" ht="21" customHeight="1">
-      <c r="A6" t="s" s="4">
+      <c r="A6" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="B6" t="s" s="4">
+      <c r="B6" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="C6" t="s" s="12">
+      <c r="C6" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.642857142857143</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" ht="21" customHeight="1">
+      <c r="A7" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="D6" s="13">
+      <c r="B7" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="D7" s="6">
         <v>0.285714285714286</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="14"/>
-    </row>
-    <row r="7" ht="21" customHeight="1">
-      <c r="A7" t="s" s="10">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s" s="10">
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" ht="21" customHeight="1">
+      <c r="A8" t="s" s="4">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s" s="4">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="D8" s="13">
+        <v>0.69047619047619</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" ht="21" customHeight="1">
+      <c r="A9" t="s" s="14">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s" s="14">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s" s="15">
+        <v>28</v>
+      </c>
+      <c r="D9" s="16">
+        <v>0.738095238095238</v>
+      </c>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" ht="21" customHeight="1">
+      <c r="A10" t="s" s="17">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s" s="17">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="C7" t="s" s="15">
-        <v>24</v>
-      </c>
-      <c r="D7" s="16">
-        <v>0.738095238095238</v>
-      </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="11"/>
-    </row>
-    <row r="8" ht="20.7" customHeight="1">
-      <c r="A8" t="s" s="5">
-        <v>25</v>
-      </c>
-      <c r="B8" t="s" s="5">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s" s="5">
-        <v>10</v>
-      </c>
-      <c r="D8" s="17">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="19"/>
-    </row>
-    <row r="9" ht="20.7" customHeight="1">
-      <c r="A9" t="s" s="5">
-        <v>27</v>
-      </c>
-      <c r="B9" t="s" s="5">
-        <v>28</v>
-      </c>
-      <c r="C9" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="D9" s="6">
-        <v>0.214285714285714</v>
-      </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="20"/>
-    </row>
-    <row r="10" ht="21" customHeight="1">
-      <c r="A10" t="s" s="4">
-        <v>29</v>
-      </c>
-      <c r="B10" t="s" s="4">
-        <v>30</v>
-      </c>
-      <c r="C10" t="s" s="5">
-        <v>31</v>
-      </c>
       <c r="D10" s="6">
-        <v>0.904761904761905</v>
+        <v>0.595238095238095</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" ht="21" customHeight="1">
-      <c r="A11" t="s" s="10">
+      <c r="H10" s="18"/>
+    </row>
+    <row r="11" ht="20.7" customHeight="1">
+      <c r="A11" t="s" s="5">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s" s="5">
         <v>32</v>
       </c>
-      <c r="B11" t="s" s="10">
-        <v>33</v>
-      </c>
-      <c r="C11" t="s" s="9">
-        <v>24</v>
-      </c>
-      <c r="D11" s="6">
-        <v>0.761904761904762</v>
-      </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="11"/>
+      <c r="C11" t="s" s="5">
+        <v>10</v>
+      </c>
+      <c r="D11" s="19">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="21"/>
     </row>
     <row r="12" ht="20.7" customHeight="1">
       <c r="A12" t="s" s="5">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s" s="5">
         <v>34</v>
       </c>
-      <c r="B12" t="s" s="5">
-        <v>35</v>
-      </c>
       <c r="C12" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="D12" s="17">
-        <v>0.80952380952381</v>
-      </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="20"/>
+        <v>23</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0.214285714285714</v>
+      </c>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="22"/>
     </row>
     <row r="13" ht="21" customHeight="1">
       <c r="A13" t="s" s="5">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s" s="5">
         <v>36</v>
       </c>
-      <c r="B13" t="s" s="5">
-        <v>37</v>
-      </c>
       <c r="C13" t="s" s="5">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D13" s="6">
-        <v>0.714285714285714</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
@@ -2054,17 +2132,17 @@
       <c r="H13" s="7"/>
     </row>
     <row r="14" ht="21" customHeight="1">
-      <c r="A14" t="s" s="5">
+      <c r="A14" t="s" s="4">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s" s="4">
         <v>38</v>
       </c>
-      <c r="B14" t="s" s="5">
+      <c r="C14" t="s" s="5">
         <v>39</v>
       </c>
-      <c r="C14" t="s" s="5">
-        <v>10</v>
-      </c>
       <c r="D14" s="6">
-        <v>0.619047619047619</v>
+        <v>0.904761904761905</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -2072,17 +2150,17 @@
       <c r="H14" s="7"/>
     </row>
     <row r="15" ht="21" customHeight="1">
-      <c r="A15" t="s" s="5">
+      <c r="A15" t="s" s="8">
         <v>40</v>
       </c>
-      <c r="B15" t="s" s="5">
+      <c r="B15" t="s" s="8">
         <v>41</v>
       </c>
-      <c r="C15" t="s" s="5">
-        <v>18</v>
+      <c r="C15" t="s" s="9">
+        <v>28</v>
       </c>
       <c r="D15" s="6">
-        <v>0.69047619047619</v>
+        <v>0.761904761904762</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
@@ -2097,17 +2175,17 @@
         <v>43</v>
       </c>
       <c r="C16" t="s" s="5">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D16" s="6">
-        <v>0.619047619047619</v>
+        <v>0.476190476190476</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" ht="21" customHeight="1">
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" ht="20.7" customHeight="1">
       <c r="A17" t="s" s="5">
         <v>44</v>
       </c>
@@ -2115,15 +2193,15 @@
         <v>45</v>
       </c>
       <c r="C17" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="D17" s="6">
-        <v>0.761904761904762</v>
-      </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="D17" s="19">
+        <v>0.80952380952381</v>
+      </c>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="22"/>
     </row>
     <row r="18" ht="21" customHeight="1">
       <c r="A18" t="s" s="5">
@@ -2133,7 +2211,7 @@
         <v>47</v>
       </c>
       <c r="C18" t="s" s="5">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D18" s="6">
         <v>0.714285714285714</v>
@@ -2141,7 +2219,7 @@
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
-      <c r="H18" s="11"/>
+      <c r="H18" s="7"/>
     </row>
     <row r="19" ht="21" customHeight="1">
       <c r="A19" t="s" s="5">
@@ -2151,7 +2229,7 @@
         <v>49</v>
       </c>
       <c r="C19" t="s" s="5">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D19" s="6">
         <v>0.619047619047619</v>
@@ -2159,38 +2237,38 @@
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="14"/>
+      <c r="H19" s="10"/>
     </row>
     <row r="20" ht="21" customHeight="1">
-      <c r="A20" t="s" s="4">
+      <c r="A20" t="s" s="5">
         <v>50</v>
       </c>
-      <c r="B20" t="s" s="4">
+      <c r="B20" t="s" s="5">
         <v>51</v>
       </c>
       <c r="C20" t="s" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D20" s="6">
-        <v>0.619047619047619</v>
+        <v>0.595238095238095</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="7"/>
+      <c r="H20" s="11"/>
     </row>
     <row r="21" ht="21" customHeight="1">
-      <c r="A21" t="s" s="10">
+      <c r="A21" t="s" s="5">
         <v>52</v>
       </c>
-      <c r="B21" t="s" s="10">
+      <c r="B21" t="s" s="5">
         <v>53</v>
       </c>
-      <c r="C21" t="s" s="9">
-        <v>31</v>
+      <c r="C21" t="s" s="5">
+        <v>16</v>
       </c>
       <c r="D21" s="6">
-        <v>0.5238095238095239</v>
+        <v>0.69047619047619</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
@@ -2198,17 +2276,17 @@
       <c r="H21" s="7"/>
     </row>
     <row r="22" ht="21" customHeight="1">
-      <c r="A22" t="s" s="4">
+      <c r="A22" t="s" s="5">
         <v>54</v>
       </c>
-      <c r="B22" t="s" s="4">
+      <c r="B22" t="s" s="5">
         <v>55</v>
       </c>
       <c r="C22" t="s" s="5">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D22" s="6">
-        <v>0.833333333333333</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
@@ -2216,24 +2294,24 @@
       <c r="H22" s="7"/>
     </row>
     <row r="23" ht="21" customHeight="1">
-      <c r="A23" t="s" s="21">
+      <c r="A23" t="s" s="5">
         <v>56</v>
       </c>
-      <c r="B23" t="s" s="21">
+      <c r="B23" t="s" s="5">
         <v>57</v>
       </c>
       <c r="C23" t="s" s="5">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D23" s="6">
-        <v>0.571428571428571</v>
+        <v>0.761904761904762</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
-      <c r="H23" s="11"/>
-    </row>
-    <row r="24" ht="20.7" customHeight="1">
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" ht="21" customHeight="1">
       <c r="A24" t="s" s="5">
         <v>58</v>
       </c>
@@ -2241,15 +2319,15 @@
         <v>59</v>
       </c>
       <c r="C24" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="D24" s="17">
-        <v>0.5238095238095239</v>
-      </c>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="20"/>
+        <v>16</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0.714285714285714</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="10"/>
     </row>
     <row r="25" ht="21" customHeight="1">
       <c r="A25" t="s" s="5">
@@ -2259,10 +2337,10 @@
         <v>61</v>
       </c>
       <c r="C25" t="s" s="5">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D25" s="6">
-        <v>0.833333333333333</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
@@ -2277,33 +2355,33 @@
         <v>63</v>
       </c>
       <c r="C26" t="s" s="5">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D26" s="6">
-        <v>0.5</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
-      <c r="H26" s="22"/>
+      <c r="H26" s="7"/>
     </row>
     <row r="27" ht="21" customHeight="1">
-      <c r="A27" t="s" s="21">
+      <c r="A27" t="s" s="8">
         <v>64</v>
       </c>
-      <c r="B27" t="s" s="21">
+      <c r="B27" t="s" s="8">
         <v>65</v>
       </c>
-      <c r="C27" t="s" s="5">
-        <v>13</v>
+      <c r="C27" t="s" s="9">
+        <v>39</v>
       </c>
       <c r="D27" s="6">
-        <v>0.619047619047619</v>
+        <v>0.5238095238095239</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
-      <c r="H27" s="14"/>
+      <c r="H27" s="7"/>
     </row>
     <row r="28" ht="21" customHeight="1">
       <c r="A28" t="s" s="4">
@@ -2313,35 +2391,35 @@
         <v>67</v>
       </c>
       <c r="C28" t="s" s="5">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D28" s="6">
-        <v>0.738095238095238</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
-      <c r="H28" s="11"/>
+      <c r="H28" s="7"/>
     </row>
     <row r="29" ht="21" customHeight="1">
-      <c r="A29" t="s" s="21">
+      <c r="A29" t="s" s="17">
         <v>68</v>
       </c>
-      <c r="B29" t="s" s="21">
+      <c r="B29" t="s" s="17">
         <v>69</v>
       </c>
       <c r="C29" t="s" s="5">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D29" s="6">
-        <v>0.452380952380952</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
-      <c r="H29" s="14"/>
-    </row>
-    <row r="30" ht="21" customHeight="1">
+      <c r="H29" s="10"/>
+    </row>
+    <row r="30" ht="20.7" customHeight="1">
       <c r="A30" t="s" s="5">
         <v>70</v>
       </c>
@@ -2349,17 +2427,17 @@
         <v>71</v>
       </c>
       <c r="C30" t="s" s="5">
-        <v>10</v>
-      </c>
-      <c r="D30" s="6">
-        <v>0.738095238095238</v>
-      </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="11"/>
-    </row>
-    <row r="31" ht="20.7" customHeight="1">
+        <v>23</v>
+      </c>
+      <c r="D30" s="19">
+        <v>0.5238095238095239</v>
+      </c>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="22"/>
+    </row>
+    <row r="31" ht="21" customHeight="1">
       <c r="A31" t="s" s="5">
         <v>72</v>
       </c>
@@ -2369,13 +2447,13 @@
       <c r="C31" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="D31" s="23">
-        <v>0.476190476190476</v>
-      </c>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="19"/>
+      <c r="D31" s="6">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="10"/>
     </row>
     <row r="32" ht="21" customHeight="1">
       <c r="A32" t="s" s="5">
@@ -2385,17 +2463,17 @@
         <v>75</v>
       </c>
       <c r="C32" t="s" s="5">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D32" s="6">
-        <v>0.833333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
-      <c r="H32" s="22"/>
-    </row>
-    <row r="33" ht="20.7" customHeight="1">
+      <c r="H32" s="11"/>
+    </row>
+    <row r="33" ht="21" customHeight="1">
       <c r="A33" t="s" s="5">
         <v>76</v>
       </c>
@@ -2403,87 +2481,87 @@
         <v>77</v>
       </c>
       <c r="C33" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="D33" s="17">
+        <v>23</v>
+      </c>
+      <c r="D33" s="6">
+        <v>0.595238095238095</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="10"/>
+    </row>
+    <row r="34" ht="21" customHeight="1">
+      <c r="A34" t="s" s="4">
+        <v>78</v>
+      </c>
+      <c r="B34" t="s" s="4">
+        <v>79</v>
+      </c>
+      <c r="C34" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="D34" s="6">
+        <v>0.642857142857143</v>
+      </c>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="18"/>
+    </row>
+    <row r="35" ht="21" customHeight="1">
+      <c r="A35" t="s" s="17">
+        <v>80</v>
+      </c>
+      <c r="B35" t="s" s="17">
+        <v>81</v>
+      </c>
+      <c r="C35" t="s" s="5">
+        <v>13</v>
+      </c>
+      <c r="D35" s="6">
         <v>0.619047619047619</v>
-      </c>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="19"/>
-    </row>
-    <row r="34" ht="20.7" customHeight="1">
-      <c r="A34" t="s" s="5">
-        <v>78</v>
-      </c>
-      <c r="B34" t="s" s="5">
-        <v>79</v>
-      </c>
-      <c r="C34" t="s" s="5">
-        <v>10</v>
-      </c>
-      <c r="D34" s="17">
-        <v>0.642857142857143</v>
-      </c>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="19"/>
-    </row>
-    <row r="35" ht="21" customHeight="1">
-      <c r="A35" t="s" s="4">
-        <v>80</v>
-      </c>
-      <c r="B35" t="s" s="4">
-        <v>81</v>
-      </c>
-      <c r="C35" t="s" s="5">
-        <v>31</v>
-      </c>
-      <c r="D35" s="6">
-        <v>0.666666666666667</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
-      <c r="H35" s="22"/>
+      <c r="H35" s="11"/>
     </row>
     <row r="36" ht="21" customHeight="1">
-      <c r="A36" t="s" s="21">
+      <c r="A36" t="s" s="4">
         <v>82</v>
       </c>
-      <c r="B36" t="s" s="21">
+      <c r="B36" t="s" s="4">
         <v>83</v>
       </c>
       <c r="C36" t="s" s="5">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="D36" s="6">
-        <v>0.857142857142857</v>
+        <v>0.738095238095238</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
-      <c r="H36" s="22"/>
-    </row>
-    <row r="37" ht="20.7" customHeight="1">
-      <c r="A37" t="s" s="5">
+      <c r="H36" s="10"/>
+    </row>
+    <row r="37" ht="21" customHeight="1">
+      <c r="A37" t="s" s="17">
         <v>84</v>
       </c>
-      <c r="B37" t="s" s="5">
+      <c r="B37" t="s" s="17">
         <v>85</v>
       </c>
       <c r="C37" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D37" s="23">
-        <v>0.738095238095238</v>
-      </c>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="20"/>
+        <v>10</v>
+      </c>
+      <c r="D37" s="6">
+        <v>0.452380952380952</v>
+      </c>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="11"/>
     </row>
     <row r="38" ht="21" customHeight="1">
       <c r="A38" t="s" s="5">
@@ -2493,15 +2571,15 @@
         <v>87</v>
       </c>
       <c r="C38" t="s" s="5">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D38" s="6">
-        <v>0.571428571428571</v>
+        <v>0.738095238095238</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
-      <c r="H38" s="11"/>
+      <c r="H38" s="10"/>
     </row>
     <row r="39" ht="20.7" customHeight="1">
       <c r="A39" t="s" s="5">
@@ -2511,46 +2589,46 @@
         <v>89</v>
       </c>
       <c r="C39" t="s" s="5">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D39" s="23">
-        <v>0.69047619047619</v>
-      </c>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="20"/>
+        <v>0.476190476190476</v>
+      </c>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="21"/>
     </row>
     <row r="40" ht="21" customHeight="1">
-      <c r="A40" t="s" s="4">
+      <c r="A40" t="s" s="5">
         <v>90</v>
       </c>
-      <c r="B40" t="s" s="4">
+      <c r="B40" t="s" s="5">
         <v>91</v>
       </c>
       <c r="C40" t="s" s="5">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D40" s="6">
-        <v>1</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
-      <c r="H40" s="7"/>
+      <c r="H40" s="11"/>
     </row>
     <row r="41" ht="21" customHeight="1">
-      <c r="A41" t="s" s="10">
+      <c r="A41" t="s" s="5">
         <v>92</v>
       </c>
-      <c r="B41" t="s" s="10">
+      <c r="B41" t="s" s="5">
         <v>93</v>
       </c>
-      <c r="C41" t="s" s="9">
-        <v>24</v>
+      <c r="C41" t="s" s="5">
+        <v>23</v>
       </c>
       <c r="D41" s="6">
-        <v>0.738095238095238</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
@@ -2565,15 +2643,15 @@
         <v>95</v>
       </c>
       <c r="C42" t="s" s="5">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D42" s="6">
-        <v>0.785714285714286</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
-      <c r="H42" s="11"/>
+      <c r="H42" s="10"/>
     </row>
     <row r="43" ht="20.7" customHeight="1">
       <c r="A43" t="s" s="5">
@@ -2583,17 +2661,17 @@
         <v>97</v>
       </c>
       <c r="C43" t="s" s="5">
-        <v>31</v>
-      </c>
-      <c r="D43" s="17">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="20"/>
-    </row>
-    <row r="44" ht="21" customHeight="1">
+        <v>28</v>
+      </c>
+      <c r="D43" s="19">
+        <v>0.619047619047619</v>
+      </c>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="21"/>
+    </row>
+    <row r="44" ht="20.7" customHeight="1">
       <c r="A44" t="s" s="5">
         <v>98</v>
       </c>
@@ -2601,15 +2679,15 @@
         <v>99</v>
       </c>
       <c r="C44" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="D44" s="6">
-        <v>0.880952380952381</v>
-      </c>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="D44" s="19">
+        <v>0.642857142857143</v>
+      </c>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="21"/>
     </row>
     <row r="45" ht="21" customHeight="1">
       <c r="A45" t="s" s="4">
@@ -2619,7 +2697,7 @@
         <v>101</v>
       </c>
       <c r="C45" t="s" s="5">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D45" s="6">
         <v>0.666666666666667</v>
@@ -2627,27 +2705,27 @@
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="7"/>
+      <c r="H45" s="18"/>
     </row>
     <row r="46" ht="21" customHeight="1">
-      <c r="A46" t="s" s="10">
+      <c r="A46" t="s" s="17">
         <v>102</v>
       </c>
-      <c r="B46" t="s" s="10">
+      <c r="B46" t="s" s="17">
         <v>103</v>
       </c>
-      <c r="C46" t="s" s="9">
-        <v>24</v>
+      <c r="C46" t="s" s="5">
+        <v>10</v>
       </c>
       <c r="D46" s="6">
-        <v>0.666666666666667</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="11"/>
-    </row>
-    <row r="47" ht="21" customHeight="1">
+      <c r="H46" s="18"/>
+    </row>
+    <row r="47" ht="20.7" customHeight="1">
       <c r="A47" t="s" s="5">
         <v>104</v>
       </c>
@@ -2655,15 +2733,15 @@
         <v>105</v>
       </c>
       <c r="C47" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="D47" s="6">
-        <v>0.571428571428571</v>
-      </c>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="14"/>
+        <v>16</v>
+      </c>
+      <c r="D47" s="23">
+        <v>0.738095238095238</v>
+      </c>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="22"/>
     </row>
     <row r="48" ht="21" customHeight="1">
       <c r="A48" t="s" s="5">
@@ -2673,17 +2751,17 @@
         <v>107</v>
       </c>
       <c r="C48" t="s" s="5">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D48" s="6">
-        <v>0.833333333333333</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
-      <c r="H48" s="7"/>
-    </row>
-    <row r="49" ht="21" customHeight="1">
+      <c r="H48" s="10"/>
+    </row>
+    <row r="49" ht="20.7" customHeight="1">
       <c r="A49" t="s" s="5">
         <v>108</v>
       </c>
@@ -2691,15 +2769,15 @@
         <v>109</v>
       </c>
       <c r="C49" t="s" s="5">
-        <v>31</v>
-      </c>
-      <c r="D49" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="D49" s="23">
+        <v>0.69047619047619</v>
+      </c>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="22"/>
     </row>
     <row r="50" ht="21" customHeight="1">
       <c r="A50" t="s" s="5">
@@ -2709,10 +2787,10 @@
         <v>111</v>
       </c>
       <c r="C50" t="s" s="5">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D50" s="6">
-        <v>0.642857142857143</v>
+        <v>1</v>
       </c>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
@@ -2720,40 +2798,40 @@
       <c r="H50" s="7"/>
     </row>
     <row r="51" ht="21" customHeight="1">
-      <c r="A51" t="s" s="5">
+      <c r="A51" t="s" s="4">
         <v>112</v>
       </c>
-      <c r="B51" t="s" s="5">
+      <c r="B51" t="s" s="4">
         <v>113</v>
       </c>
       <c r="C51" t="s" s="5">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D51" s="6">
-        <v>0.547619047619048</v>
+        <v>0.785714285714286</v>
       </c>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
-      <c r="H51" s="11"/>
+      <c r="H51" s="7"/>
     </row>
     <row r="52" ht="21" customHeight="1">
-      <c r="A52" t="s" s="5">
+      <c r="A52" t="s" s="8">
         <v>114</v>
       </c>
-      <c r="B52" t="s" s="5">
+      <c r="B52" t="s" s="8">
         <v>115</v>
       </c>
-      <c r="C52" t="s" s="5">
-        <v>10</v>
+      <c r="C52" t="s" s="9">
+        <v>28</v>
       </c>
       <c r="D52" s="6">
-        <v>0.761904761904762</v>
+        <v>0.738095238095238</v>
       </c>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
-      <c r="H52" s="14"/>
+      <c r="H52" s="7"/>
     </row>
     <row r="53" ht="21" customHeight="1">
       <c r="A53" t="s" s="5">
@@ -2763,17 +2841,17 @@
         <v>117</v>
       </c>
       <c r="C53" t="s" s="5">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D53" s="6">
-        <v>0.571428571428571</v>
+        <v>0.785714285714286</v>
       </c>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
-      <c r="H53" s="7"/>
-    </row>
-    <row r="54" ht="21" customHeight="1">
+      <c r="H53" s="10"/>
+    </row>
+    <row r="54" ht="20.7" customHeight="1">
       <c r="A54" t="s" s="5">
         <v>118</v>
       </c>
@@ -2781,160 +2859,264 @@
         <v>119</v>
       </c>
       <c r="C54" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D54" s="6">
-        <v>0.30952380952381</v>
-      </c>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="D54" s="19">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="22"/>
     </row>
     <row r="55" ht="21" customHeight="1">
-      <c r="A55" s="18"/>
-      <c r="B55" s="18"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="6"/>
+      <c r="A55" t="s" s="5">
+        <v>120</v>
+      </c>
+      <c r="B55" t="s" s="5">
+        <v>121</v>
+      </c>
+      <c r="C55" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="D55" s="6">
+        <v>0.880952380952381</v>
+      </c>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
       <c r="H55" s="7"/>
     </row>
     <row r="56" ht="21" customHeight="1">
-      <c r="A56" s="18"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="6"/>
+      <c r="A56" t="s" s="5">
+        <v>122</v>
+      </c>
+      <c r="B56" t="s" s="5">
+        <v>123</v>
+      </c>
+      <c r="C56" t="s" s="5">
+        <v>28</v>
+      </c>
+      <c r="D56" s="6">
+        <v>0.714285714285714</v>
+      </c>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
       <c r="H56" s="7"/>
     </row>
     <row r="57" ht="21" customHeight="1">
-      <c r="A57" s="18"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="6"/>
+      <c r="A57" t="s" s="4">
+        <v>124</v>
+      </c>
+      <c r="B57" t="s" s="4">
+        <v>125</v>
+      </c>
+      <c r="C57" t="s" s="5">
+        <v>39</v>
+      </c>
+      <c r="D57" s="6">
+        <v>0.666666666666667</v>
+      </c>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
       <c r="H57" s="7"/>
     </row>
     <row r="58" ht="21" customHeight="1">
-      <c r="A58" s="18"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="6"/>
+      <c r="A58" t="s" s="8">
+        <v>126</v>
+      </c>
+      <c r="B58" t="s" s="8">
+        <v>127</v>
+      </c>
+      <c r="C58" t="s" s="9">
+        <v>28</v>
+      </c>
+      <c r="D58" s="6">
+        <v>0.666666666666667</v>
+      </c>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
-      <c r="H58" s="7"/>
+      <c r="H58" s="10"/>
     </row>
     <row r="59" ht="21" customHeight="1">
-      <c r="A59" s="18"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="6"/>
+      <c r="A59" t="s" s="5">
+        <v>128</v>
+      </c>
+      <c r="B59" t="s" s="5">
+        <v>129</v>
+      </c>
+      <c r="C59" t="s" s="5">
+        <v>28</v>
+      </c>
+      <c r="D59" s="6">
+        <v>0.571428571428571</v>
+      </c>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
       <c r="H59" s="11"/>
     </row>
     <row r="60" ht="21" customHeight="1">
-      <c r="A60" s="24"/>
-      <c r="B60" s="24"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="6"/>
+      <c r="A60" t="s" s="5">
+        <v>130</v>
+      </c>
+      <c r="B60" t="s" s="5">
+        <v>131</v>
+      </c>
+      <c r="C60" t="s" s="5">
+        <v>39</v>
+      </c>
+      <c r="D60" s="6">
+        <v>0.833333333333333</v>
+      </c>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
-      <c r="H60" s="14"/>
+      <c r="H60" s="7"/>
     </row>
     <row r="61" ht="21" customHeight="1">
-      <c r="A61" s="25"/>
-      <c r="B61" s="25"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="6"/>
+      <c r="A61" t="s" s="5">
+        <v>132</v>
+      </c>
+      <c r="B61" t="s" s="5">
+        <v>133</v>
+      </c>
+      <c r="C61" t="s" s="5">
+        <v>39</v>
+      </c>
+      <c r="D61" s="6">
+        <v>0.5</v>
+      </c>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
-      <c r="H61" s="11"/>
+      <c r="H61" s="7"/>
     </row>
     <row r="62" ht="21" customHeight="1">
-      <c r="A62" s="27"/>
-      <c r="B62" s="27"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="6"/>
+      <c r="A62" t="s" s="5">
+        <v>134</v>
+      </c>
+      <c r="B62" t="s" s="5">
+        <v>135</v>
+      </c>
+      <c r="C62" t="s" s="5">
+        <v>28</v>
+      </c>
+      <c r="D62" s="6">
+        <v>0.642857142857143</v>
+      </c>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
-      <c r="H62" s="14"/>
+      <c r="H62" s="7"/>
     </row>
     <row r="63" ht="21" customHeight="1">
-      <c r="A63" s="18"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="6"/>
+      <c r="A63" t="s" s="5">
+        <v>136</v>
+      </c>
+      <c r="B63" t="s" s="5">
+        <v>137</v>
+      </c>
+      <c r="C63" t="s" s="5">
+        <v>28</v>
+      </c>
+      <c r="D63" s="6">
+        <v>0.547619047619048</v>
+      </c>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
-      <c r="H63" s="7"/>
+      <c r="H63" s="10"/>
     </row>
     <row r="64" ht="21" customHeight="1">
-      <c r="A64" s="18"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="6"/>
+      <c r="A64" t="s" s="5">
+        <v>138</v>
+      </c>
+      <c r="B64" t="s" s="5">
+        <v>139</v>
+      </c>
+      <c r="C64" t="s" s="5">
+        <v>10</v>
+      </c>
+      <c r="D64" s="6">
+        <v>0.761904761904762</v>
+      </c>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
       <c r="H64" s="11"/>
     </row>
     <row r="65" ht="21" customHeight="1">
-      <c r="A65" s="18"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="18"/>
-      <c r="D65" s="6"/>
+      <c r="A65" t="s" s="4">
+        <v>140</v>
+      </c>
+      <c r="B65" t="s" s="4">
+        <v>141</v>
+      </c>
+      <c r="C65" t="s" s="5">
+        <v>39</v>
+      </c>
+      <c r="D65" s="6">
+        <v>0.571428571428571</v>
+      </c>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
-      <c r="H65" s="14"/>
+      <c r="H65" s="7"/>
     </row>
     <row r="66" ht="21" customHeight="1">
-      <c r="A66" s="18"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="6"/>
+      <c r="A66" t="s" s="8">
+        <v>142</v>
+      </c>
+      <c r="B66" t="s" s="8">
+        <v>143</v>
+      </c>
+      <c r="C66" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="D66" s="6">
+        <v>0.285714285714286</v>
+      </c>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
       <c r="H66" s="7"/>
     </row>
     <row r="67" ht="21" customHeight="1">
-      <c r="A67" s="18"/>
-      <c r="B67" s="18"/>
-      <c r="C67" s="18"/>
-      <c r="D67" s="6"/>
+      <c r="A67" t="s" s="5">
+        <v>144</v>
+      </c>
+      <c r="B67" t="s" s="5">
+        <v>145</v>
+      </c>
+      <c r="C67" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="D67" s="6">
+        <v>0.30952380952381</v>
+      </c>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
-      <c r="H67" s="11"/>
+      <c r="H67" s="10"/>
     </row>
     <row r="68" ht="21" customHeight="1">
-      <c r="A68" s="18"/>
-      <c r="B68" s="18"/>
-      <c r="C68" s="18"/>
+      <c r="A68" s="20"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="20"/>
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
-      <c r="H68" s="14"/>
+      <c r="H68" s="11"/>
     </row>
     <row r="69" ht="21" customHeight="1">
-      <c r="A69" s="18"/>
-      <c r="B69" s="18"/>
-      <c r="C69" s="18"/>
+      <c r="A69" s="20"/>
+      <c r="B69" s="20"/>
+      <c r="C69" s="20"/>
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
@@ -2942,9 +3124,9 @@
       <c r="H69" s="7"/>
     </row>
     <row r="70" ht="21" customHeight="1">
-      <c r="A70" s="18"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="18"/>
+      <c r="A70" s="20"/>
+      <c r="B70" s="20"/>
+      <c r="C70" s="20"/>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
@@ -2952,49 +3134,49 @@
       <c r="H70" s="7"/>
     </row>
     <row r="71" ht="21" customHeight="1">
-      <c r="A71" s="18"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="18"/>
+      <c r="A71" s="20"/>
+      <c r="B71" s="20"/>
+      <c r="C71" s="20"/>
       <c r="D71" s="6"/>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
-      <c r="H71" s="11"/>
+      <c r="H71" s="10"/>
     </row>
     <row r="72" ht="20.7" customHeight="1">
-      <c r="A72" s="18"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="18"/>
-      <c r="D72" s="18"/>
-      <c r="E72" s="18"/>
-      <c r="F72" s="18"/>
-      <c r="G72" s="18"/>
-      <c r="H72" s="20"/>
+      <c r="A72" s="20"/>
+      <c r="B72" s="20"/>
+      <c r="C72" s="20"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="20"/>
+      <c r="F72" s="20"/>
+      <c r="G72" s="20"/>
+      <c r="H72" s="22"/>
     </row>
     <row r="73" ht="21" customHeight="1">
-      <c r="A73" s="18"/>
-      <c r="B73" s="18"/>
-      <c r="C73" s="18"/>
+      <c r="A73" s="20"/>
+      <c r="B73" s="20"/>
+      <c r="C73" s="20"/>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
-      <c r="H73" s="11"/>
+      <c r="H73" s="10"/>
     </row>
     <row r="74" ht="21" customHeight="1">
-      <c r="A74" s="18"/>
-      <c r="B74" s="18"/>
-      <c r="C74" s="18"/>
+      <c r="A74" s="20"/>
+      <c r="B74" s="20"/>
+      <c r="C74" s="20"/>
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
-      <c r="H74" s="14"/>
+      <c r="H74" s="11"/>
     </row>
     <row r="75" ht="21" customHeight="1">
-      <c r="A75" s="18"/>
-      <c r="B75" s="18"/>
-      <c r="C75" s="18"/>
+      <c r="A75" s="20"/>
+      <c r="B75" s="20"/>
+      <c r="C75" s="20"/>
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
@@ -3004,7 +3186,7 @@
     <row r="76" ht="21" customHeight="1">
       <c r="A76" s="24"/>
       <c r="B76" s="24"/>
-      <c r="C76" s="18"/>
+      <c r="C76" s="20"/>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
@@ -3019,22 +3201,22 @@
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
-      <c r="H77" s="11"/>
+      <c r="H77" s="10"/>
     </row>
     <row r="78" ht="21" customHeight="1">
       <c r="A78" s="27"/>
       <c r="B78" s="27"/>
-      <c r="C78" s="18"/>
+      <c r="C78" s="20"/>
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
-      <c r="H78" s="14"/>
+      <c r="H78" s="11"/>
     </row>
     <row r="79" ht="21" customHeight="1">
-      <c r="A79" s="18"/>
-      <c r="B79" s="18"/>
-      <c r="C79" s="18"/>
+      <c r="A79" s="20"/>
+      <c r="B79" s="20"/>
+      <c r="C79" s="20"/>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
@@ -3042,9 +3224,9 @@
       <c r="H79" s="7"/>
     </row>
     <row r="80" ht="21" customHeight="1">
-      <c r="A80" s="18"/>
-      <c r="B80" s="18"/>
-      <c r="C80" s="18"/>
+      <c r="A80" s="20"/>
+      <c r="B80" s="20"/>
+      <c r="C80" s="20"/>
       <c r="D80" s="6"/>
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
@@ -3052,9 +3234,9 @@
       <c r="H80" s="7"/>
     </row>
     <row r="81" ht="21" customHeight="1">
-      <c r="A81" s="18"/>
-      <c r="B81" s="18"/>
-      <c r="C81" s="18"/>
+      <c r="A81" s="20"/>
+      <c r="B81" s="20"/>
+      <c r="C81" s="20"/>
       <c r="D81" s="6"/>
       <c r="E81" s="6"/>
       <c r="F81" s="6"/>
@@ -3062,9 +3244,9 @@
       <c r="H81" s="7"/>
     </row>
     <row r="82" ht="21" customHeight="1">
-      <c r="A82" s="18"/>
-      <c r="B82" s="18"/>
-      <c r="C82" s="18"/>
+      <c r="A82" s="20"/>
+      <c r="B82" s="20"/>
+      <c r="C82" s="20"/>
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
@@ -3072,24 +3254,24 @@
       <c r="H82" s="7"/>
     </row>
     <row r="83" ht="21" customHeight="1">
-      <c r="A83" s="18"/>
-      <c r="B83" s="18"/>
-      <c r="C83" s="18"/>
+      <c r="A83" s="20"/>
+      <c r="B83" s="20"/>
+      <c r="C83" s="20"/>
       <c r="D83" s="6"/>
       <c r="E83" s="6"/>
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
-      <c r="H83" s="11"/>
+      <c r="H83" s="10"/>
     </row>
     <row r="84" ht="20.7" customHeight="1">
       <c r="A84" s="24"/>
       <c r="B84" s="24"/>
-      <c r="C84" s="18"/>
-      <c r="D84" s="18"/>
-      <c r="E84" s="18"/>
-      <c r="F84" s="18"/>
-      <c r="G84" s="18"/>
-      <c r="H84" s="20"/>
+      <c r="C84" s="20"/>
+      <c r="D84" s="20"/>
+      <c r="E84" s="20"/>
+      <c r="F84" s="20"/>
+      <c r="G84" s="20"/>
+      <c r="H84" s="22"/>
     </row>
     <row r="85" ht="21" customHeight="1">
       <c r="A85" s="25"/>
@@ -3099,22 +3281,22 @@
       <c r="E85" s="6"/>
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
-      <c r="H85" s="11"/>
+      <c r="H85" s="10"/>
     </row>
     <row r="86" ht="21" customHeight="1">
       <c r="A86" s="27"/>
       <c r="B86" s="27"/>
-      <c r="C86" s="18"/>
+      <c r="C86" s="20"/>
       <c r="D86" s="6"/>
       <c r="E86" s="6"/>
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
-      <c r="H86" s="14"/>
+      <c r="H86" s="11"/>
     </row>
     <row r="87" ht="21" customHeight="1">
-      <c r="A87" s="18"/>
-      <c r="B87" s="18"/>
-      <c r="C87" s="18"/>
+      <c r="A87" s="20"/>
+      <c r="B87" s="20"/>
+      <c r="C87" s="20"/>
       <c r="D87" s="6"/>
       <c r="E87" s="6"/>
       <c r="F87" s="6"/>
@@ -3124,7 +3306,7 @@
     <row r="88" ht="21" customHeight="1">
       <c r="A88" s="24"/>
       <c r="B88" s="24"/>
-      <c r="C88" s="18"/>
+      <c r="C88" s="20"/>
       <c r="D88" s="6"/>
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
@@ -3139,17 +3321,17 @@
       <c r="E89" s="6"/>
       <c r="F89" s="6"/>
       <c r="G89" s="6"/>
-      <c r="H89" s="11"/>
+      <c r="H89" s="10"/>
     </row>
     <row r="90" ht="21" customHeight="1">
       <c r="A90" s="28"/>
       <c r="B90" s="28"/>
-      <c r="C90" s="18"/>
+      <c r="C90" s="20"/>
       <c r="D90" s="6"/>
       <c r="E90" s="6"/>
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
-      <c r="H90" s="14"/>
+      <c r="H90" s="11"/>
     </row>
     <row r="91" ht="21" customHeight="1">
       <c r="A91" s="25"/>
@@ -3159,22 +3341,22 @@
       <c r="E91" s="6"/>
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
-      <c r="H91" s="11"/>
+      <c r="H91" s="10"/>
     </row>
     <row r="92" ht="21" customHeight="1">
       <c r="A92" s="27"/>
       <c r="B92" s="27"/>
-      <c r="C92" s="18"/>
+      <c r="C92" s="20"/>
       <c r="D92" s="6"/>
       <c r="E92" s="6"/>
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
-      <c r="H92" s="14"/>
+      <c r="H92" s="11"/>
     </row>
     <row r="93" ht="21" customHeight="1">
-      <c r="A93" s="18"/>
-      <c r="B93" s="18"/>
-      <c r="C93" s="18"/>
+      <c r="A93" s="20"/>
+      <c r="B93" s="20"/>
+      <c r="C93" s="20"/>
       <c r="D93" s="6"/>
       <c r="E93" s="6"/>
       <c r="F93" s="6"/>
@@ -3182,29 +3364,29 @@
       <c r="H93" s="7"/>
     </row>
     <row r="94" ht="21" customHeight="1">
-      <c r="A94" s="18"/>
-      <c r="B94" s="18"/>
-      <c r="C94" s="18"/>
+      <c r="A94" s="20"/>
+      <c r="B94" s="20"/>
+      <c r="C94" s="20"/>
       <c r="D94" s="6"/>
       <c r="E94" s="6"/>
       <c r="F94" s="6"/>
       <c r="G94" s="6"/>
-      <c r="H94" s="11"/>
+      <c r="H94" s="10"/>
     </row>
     <row r="95" ht="21" customHeight="1">
-      <c r="A95" s="18"/>
-      <c r="B95" s="18"/>
-      <c r="C95" s="18"/>
+      <c r="A95" s="20"/>
+      <c r="B95" s="20"/>
+      <c r="C95" s="20"/>
       <c r="D95" s="6"/>
       <c r="E95" s="6"/>
       <c r="F95" s="6"/>
       <c r="G95" s="6"/>
-      <c r="H95" s="14"/>
+      <c r="H95" s="11"/>
     </row>
     <row r="96" ht="21" customHeight="1">
       <c r="A96" s="24"/>
       <c r="B96" s="24"/>
-      <c r="C96" s="18"/>
+      <c r="C96" s="20"/>
       <c r="D96" s="6"/>
       <c r="E96" s="6"/>
       <c r="F96" s="6"/>
@@ -3219,22 +3401,22 @@
       <c r="E97" s="6"/>
       <c r="F97" s="6"/>
       <c r="G97" s="6"/>
-      <c r="H97" s="11"/>
+      <c r="H97" s="10"/>
     </row>
     <row r="98" ht="21" customHeight="1">
       <c r="A98" s="27"/>
       <c r="B98" s="27"/>
-      <c r="C98" s="18"/>
+      <c r="C98" s="20"/>
       <c r="D98" s="6"/>
       <c r="E98" s="6"/>
       <c r="F98" s="6"/>
       <c r="G98" s="6"/>
-      <c r="H98" s="14"/>
+      <c r="H98" s="11"/>
     </row>
     <row r="99" ht="21" customHeight="1">
-      <c r="A99" s="18"/>
-      <c r="B99" s="18"/>
-      <c r="C99" s="18"/>
+      <c r="A99" s="20"/>
+      <c r="B99" s="20"/>
+      <c r="C99" s="20"/>
       <c r="D99" s="6"/>
       <c r="E99" s="6"/>
       <c r="F99" s="6"/>
@@ -3244,7 +3426,7 @@
     <row r="100" ht="21" customHeight="1">
       <c r="A100" s="24"/>
       <c r="B100" s="24"/>
-      <c r="C100" s="18"/>
+      <c r="C100" s="20"/>
       <c r="D100" s="6"/>
       <c r="E100" s="6"/>
       <c r="F100" s="6"/>
@@ -3284,37 +3466,37 @@
     <row r="104" ht="21" customHeight="1">
       <c r="A104" s="27"/>
       <c r="B104" s="27"/>
-      <c r="C104" s="18"/>
+      <c r="C104" s="20"/>
       <c r="D104" s="6"/>
       <c r="E104" s="6"/>
       <c r="F104" s="6"/>
       <c r="G104" s="6"/>
-      <c r="H104" s="11"/>
+      <c r="H104" s="10"/>
     </row>
     <row r="105" ht="21" customHeight="1">
-      <c r="A105" s="18"/>
-      <c r="B105" s="18"/>
-      <c r="C105" s="18"/>
+      <c r="A105" s="20"/>
+      <c r="B105" s="20"/>
+      <c r="C105" s="20"/>
       <c r="D105" s="6"/>
       <c r="E105" s="6"/>
       <c r="F105" s="6"/>
       <c r="G105" s="6"/>
-      <c r="H105" s="22"/>
+      <c r="H105" s="18"/>
     </row>
     <row r="106" ht="20.7" customHeight="1">
-      <c r="A106" s="18"/>
-      <c r="B106" s="18"/>
-      <c r="C106" s="18"/>
-      <c r="D106" s="18"/>
-      <c r="E106" s="18"/>
-      <c r="F106" s="18"/>
-      <c r="G106" s="18"/>
-      <c r="H106" s="20"/>
+      <c r="A106" s="20"/>
+      <c r="B106" s="20"/>
+      <c r="C106" s="20"/>
+      <c r="D106" s="20"/>
+      <c r="E106" s="20"/>
+      <c r="F106" s="20"/>
+      <c r="G106" s="20"/>
+      <c r="H106" s="22"/>
     </row>
     <row r="107" ht="21" customHeight="1">
-      <c r="A107" s="18"/>
-      <c r="B107" s="18"/>
-      <c r="C107" s="18"/>
+      <c r="A107" s="20"/>
+      <c r="B107" s="20"/>
+      <c r="C107" s="20"/>
       <c r="D107" s="6"/>
       <c r="E107" s="6"/>
       <c r="F107" s="6"/>
@@ -3322,9 +3504,9 @@
       <c r="H107" s="7"/>
     </row>
     <row r="108" ht="21" customHeight="1">
-      <c r="A108" s="18"/>
-      <c r="B108" s="18"/>
-      <c r="C108" s="18"/>
+      <c r="A108" s="20"/>
+      <c r="B108" s="20"/>
+      <c r="C108" s="20"/>
       <c r="D108" s="6"/>
       <c r="E108" s="6"/>
       <c r="F108" s="6"/>
@@ -3332,9 +3514,9 @@
       <c r="H108" s="7"/>
     </row>
     <row r="109" ht="21" customHeight="1">
-      <c r="A109" s="18"/>
-      <c r="B109" s="18"/>
-      <c r="C109" s="18"/>
+      <c r="A109" s="20"/>
+      <c r="B109" s="20"/>
+      <c r="C109" s="20"/>
       <c r="D109" s="6"/>
       <c r="E109" s="6"/>
       <c r="F109" s="6"/>
@@ -3342,54 +3524,54 @@
       <c r="H109" s="7"/>
     </row>
     <row r="110" ht="21" customHeight="1">
-      <c r="A110" s="18"/>
-      <c r="B110" s="18"/>
-      <c r="C110" s="18"/>
+      <c r="A110" s="20"/>
+      <c r="B110" s="20"/>
+      <c r="C110" s="20"/>
       <c r="D110" s="6"/>
       <c r="E110" s="6"/>
       <c r="F110" s="6"/>
       <c r="G110" s="6"/>
-      <c r="H110" s="11"/>
+      <c r="H110" s="10"/>
     </row>
     <row r="111" ht="20.35" customHeight="1">
-      <c r="A111" s="18"/>
-      <c r="B111" s="18"/>
-      <c r="C111" s="18"/>
-      <c r="D111" s="18"/>
-      <c r="E111" s="18"/>
-      <c r="F111" s="18"/>
-      <c r="G111" s="18"/>
-      <c r="H111" s="19"/>
+      <c r="A111" s="20"/>
+      <c r="B111" s="20"/>
+      <c r="C111" s="20"/>
+      <c r="D111" s="20"/>
+      <c r="E111" s="20"/>
+      <c r="F111" s="20"/>
+      <c r="G111" s="20"/>
+      <c r="H111" s="21"/>
     </row>
     <row r="112" ht="20.05" customHeight="1">
-      <c r="A112" s="18"/>
-      <c r="B112" s="18"/>
-      <c r="C112" s="18"/>
-      <c r="D112" s="18"/>
-      <c r="E112" s="18"/>
-      <c r="F112" s="18"/>
-      <c r="G112" s="18"/>
-      <c r="H112" s="19"/>
+      <c r="A112" s="20"/>
+      <c r="B112" s="20"/>
+      <c r="C112" s="20"/>
+      <c r="D112" s="20"/>
+      <c r="E112" s="20"/>
+      <c r="F112" s="20"/>
+      <c r="G112" s="20"/>
+      <c r="H112" s="21"/>
     </row>
     <row r="113" ht="20.35" customHeight="1">
-      <c r="A113" s="18"/>
-      <c r="B113" s="18"/>
-      <c r="C113" s="18"/>
-      <c r="D113" s="18"/>
-      <c r="E113" s="18"/>
-      <c r="F113" s="18"/>
-      <c r="G113" s="18"/>
-      <c r="H113" s="20"/>
+      <c r="A113" s="20"/>
+      <c r="B113" s="20"/>
+      <c r="C113" s="20"/>
+      <c r="D113" s="20"/>
+      <c r="E113" s="20"/>
+      <c r="F113" s="20"/>
+      <c r="G113" s="20"/>
+      <c r="H113" s="22"/>
     </row>
     <row r="114" ht="21" customHeight="1">
       <c r="A114" s="24"/>
       <c r="B114" s="24"/>
-      <c r="C114" s="18"/>
+      <c r="C114" s="20"/>
       <c r="D114" s="6"/>
       <c r="E114" s="6"/>
       <c r="F114" s="6"/>
       <c r="G114" s="6"/>
-      <c r="H114" s="11"/>
+      <c r="H114" s="10"/>
     </row>
     <row r="115" ht="21" customHeight="1">
       <c r="A115" s="25"/>
@@ -3399,22 +3581,22 @@
       <c r="E115" s="6"/>
       <c r="F115" s="6"/>
       <c r="G115" s="6"/>
-      <c r="H115" s="22"/>
+      <c r="H115" s="18"/>
     </row>
     <row r="116" ht="21" customHeight="1">
       <c r="A116" s="27"/>
       <c r="B116" s="27"/>
-      <c r="C116" s="18"/>
+      <c r="C116" s="20"/>
       <c r="D116" s="6"/>
       <c r="E116" s="6"/>
       <c r="F116" s="6"/>
       <c r="G116" s="6"/>
-      <c r="H116" s="14"/>
+      <c r="H116" s="11"/>
     </row>
     <row r="117" ht="21" customHeight="1">
-      <c r="A117" s="18"/>
-      <c r="B117" s="18"/>
-      <c r="C117" s="18"/>
+      <c r="A117" s="20"/>
+      <c r="B117" s="20"/>
+      <c r="C117" s="20"/>
       <c r="D117" s="6"/>
       <c r="E117" s="6"/>
       <c r="F117" s="6"/>
@@ -3424,7 +3606,7 @@
     <row r="118" ht="21" customHeight="1">
       <c r="A118" s="24"/>
       <c r="B118" s="24"/>
-      <c r="C118" s="18"/>
+      <c r="C118" s="20"/>
       <c r="D118" s="6"/>
       <c r="E118" s="6"/>
       <c r="F118" s="6"/>
@@ -3449,22 +3631,22 @@
       <c r="E120" s="6"/>
       <c r="F120" s="6"/>
       <c r="G120" s="6"/>
-      <c r="H120" s="11"/>
+      <c r="H120" s="10"/>
     </row>
     <row r="121" ht="21" customHeight="1">
       <c r="A121" s="27"/>
       <c r="B121" s="27"/>
-      <c r="C121" s="18"/>
+      <c r="C121" s="20"/>
       <c r="D121" s="6"/>
       <c r="E121" s="6"/>
       <c r="F121" s="6"/>
       <c r="G121" s="6"/>
-      <c r="H121" s="14"/>
+      <c r="H121" s="11"/>
     </row>
     <row r="122" ht="21" customHeight="1">
-      <c r="A122" s="18"/>
-      <c r="B122" s="18"/>
-      <c r="C122" s="18"/>
+      <c r="A122" s="20"/>
+      <c r="B122" s="20"/>
+      <c r="C122" s="20"/>
       <c r="D122" s="6"/>
       <c r="E122" s="6"/>
       <c r="F122" s="6"/>
@@ -3472,9 +3654,9 @@
       <c r="H122" s="7"/>
     </row>
     <row r="123" ht="21" customHeight="1">
-      <c r="A123" s="18"/>
-      <c r="B123" s="18"/>
-      <c r="C123" s="18"/>
+      <c r="A123" s="20"/>
+      <c r="B123" s="20"/>
+      <c r="C123" s="20"/>
       <c r="D123" s="6"/>
       <c r="E123" s="6"/>
       <c r="F123" s="6"/>
@@ -3484,7 +3666,7 @@
     <row r="124" ht="21" customHeight="1">
       <c r="A124" s="24"/>
       <c r="B124" s="24"/>
-      <c r="C124" s="18"/>
+      <c r="C124" s="20"/>
       <c r="D124" s="6"/>
       <c r="E124" s="6"/>
       <c r="F124" s="6"/>
@@ -3499,52 +3681,52 @@
       <c r="E125" s="6"/>
       <c r="F125" s="6"/>
       <c r="G125" s="6"/>
-      <c r="H125" s="11"/>
+      <c r="H125" s="10"/>
     </row>
     <row r="126" ht="20.7" customHeight="1">
       <c r="A126" s="27"/>
       <c r="B126" s="27"/>
-      <c r="C126" s="18"/>
-      <c r="D126" s="18"/>
-      <c r="E126" s="18"/>
-      <c r="F126" s="18"/>
-      <c r="G126" s="18"/>
-      <c r="H126" s="20"/>
+      <c r="C126" s="20"/>
+      <c r="D126" s="20"/>
+      <c r="E126" s="20"/>
+      <c r="F126" s="20"/>
+      <c r="G126" s="20"/>
+      <c r="H126" s="22"/>
     </row>
     <row r="127" ht="21" customHeight="1">
-      <c r="A127" s="18"/>
-      <c r="B127" s="18"/>
-      <c r="C127" s="18"/>
+      <c r="A127" s="20"/>
+      <c r="B127" s="20"/>
+      <c r="C127" s="20"/>
       <c r="D127" s="6"/>
       <c r="E127" s="6"/>
       <c r="F127" s="6"/>
       <c r="G127" s="6"/>
-      <c r="H127" s="11"/>
+      <c r="H127" s="10"/>
     </row>
     <row r="128" ht="21" customHeight="1">
-      <c r="A128" s="18"/>
-      <c r="B128" s="18"/>
-      <c r="C128" s="18"/>
+      <c r="A128" s="20"/>
+      <c r="B128" s="20"/>
+      <c r="C128" s="20"/>
       <c r="D128" s="6"/>
       <c r="E128" s="6"/>
       <c r="F128" s="6"/>
       <c r="G128" s="6"/>
-      <c r="H128" s="22"/>
+      <c r="H128" s="18"/>
     </row>
     <row r="129" ht="20.7" customHeight="1">
-      <c r="A129" s="18"/>
-      <c r="B129" s="18"/>
-      <c r="C129" s="18"/>
-      <c r="D129" s="18"/>
-      <c r="E129" s="18"/>
-      <c r="F129" s="18"/>
-      <c r="G129" s="18"/>
-      <c r="H129" s="20"/>
+      <c r="A129" s="20"/>
+      <c r="B129" s="20"/>
+      <c r="C129" s="20"/>
+      <c r="D129" s="20"/>
+      <c r="E129" s="20"/>
+      <c r="F129" s="20"/>
+      <c r="G129" s="20"/>
+      <c r="H129" s="22"/>
     </row>
     <row r="130" ht="21" customHeight="1">
-      <c r="A130" s="18"/>
-      <c r="B130" s="18"/>
-      <c r="C130" s="18"/>
+      <c r="A130" s="20"/>
+      <c r="B130" s="20"/>
+      <c r="C130" s="20"/>
       <c r="D130" s="6"/>
       <c r="E130" s="6"/>
       <c r="F130" s="6"/>
@@ -3554,7 +3736,7 @@
     <row r="131" ht="21" customHeight="1">
       <c r="A131" s="24"/>
       <c r="B131" s="24"/>
-      <c r="C131" s="18"/>
+      <c r="C131" s="20"/>
       <c r="D131" s="6"/>
       <c r="E131" s="6"/>
       <c r="F131" s="6"/>
@@ -3574,12 +3756,12 @@
     <row r="133" ht="21" customHeight="1">
       <c r="A133" s="28"/>
       <c r="B133" s="28"/>
-      <c r="C133" s="18"/>
+      <c r="C133" s="20"/>
       <c r="D133" s="6"/>
       <c r="E133" s="6"/>
       <c r="F133" s="6"/>
       <c r="G133" s="6"/>
-      <c r="H133" s="11"/>
+      <c r="H133" s="10"/>
     </row>
     <row r="134" ht="21" customHeight="1">
       <c r="A134" s="25"/>
@@ -3589,32 +3771,32 @@
       <c r="E134" s="6"/>
       <c r="F134" s="6"/>
       <c r="G134" s="6"/>
-      <c r="H134" s="22"/>
+      <c r="H134" s="18"/>
     </row>
     <row r="135" ht="21" customHeight="1">
       <c r="A135" s="27"/>
       <c r="B135" s="27"/>
-      <c r="C135" s="18"/>
+      <c r="C135" s="20"/>
       <c r="D135" s="6"/>
       <c r="E135" s="6"/>
       <c r="F135" s="6"/>
       <c r="G135" s="6"/>
-      <c r="H135" s="22"/>
+      <c r="H135" s="18"/>
     </row>
     <row r="136" ht="20.7" customHeight="1">
-      <c r="A136" s="18"/>
-      <c r="B136" s="18"/>
-      <c r="C136" s="18"/>
-      <c r="D136" s="18"/>
-      <c r="E136" s="18"/>
-      <c r="F136" s="18"/>
-      <c r="G136" s="18"/>
-      <c r="H136" s="20"/>
+      <c r="A136" s="20"/>
+      <c r="B136" s="20"/>
+      <c r="C136" s="20"/>
+      <c r="D136" s="20"/>
+      <c r="E136" s="20"/>
+      <c r="F136" s="20"/>
+      <c r="G136" s="20"/>
+      <c r="H136" s="22"/>
     </row>
     <row r="137" ht="21" customHeight="1">
-      <c r="A137" s="18"/>
-      <c r="B137" s="18"/>
-      <c r="C137" s="18"/>
+      <c r="A137" s="20"/>
+      <c r="B137" s="20"/>
+      <c r="C137" s="20"/>
       <c r="D137" s="6"/>
       <c r="E137" s="6"/>
       <c r="F137" s="6"/>
@@ -3624,7 +3806,7 @@
     <row r="138" ht="21" customHeight="1">
       <c r="A138" s="24"/>
       <c r="B138" s="24"/>
-      <c r="C138" s="18"/>
+      <c r="C138" s="20"/>
       <c r="D138" s="6"/>
       <c r="E138" s="6"/>
       <c r="F138" s="6"/>
@@ -3639,22 +3821,22 @@
       <c r="E139" s="6"/>
       <c r="F139" s="6"/>
       <c r="G139" s="6"/>
-      <c r="H139" s="11"/>
+      <c r="H139" s="10"/>
     </row>
     <row r="140" ht="21" customHeight="1">
       <c r="A140" s="27"/>
       <c r="B140" s="27"/>
-      <c r="C140" s="18"/>
+      <c r="C140" s="20"/>
       <c r="D140" s="6"/>
       <c r="E140" s="6"/>
       <c r="F140" s="6"/>
       <c r="G140" s="6"/>
-      <c r="H140" s="14"/>
+      <c r="H140" s="11"/>
     </row>
     <row r="141" ht="21" customHeight="1">
-      <c r="A141" s="18"/>
-      <c r="B141" s="18"/>
-      <c r="C141" s="18"/>
+      <c r="A141" s="20"/>
+      <c r="B141" s="20"/>
+      <c r="C141" s="20"/>
       <c r="D141" s="6"/>
       <c r="E141" s="6"/>
       <c r="F141" s="6"/>
@@ -3662,9 +3844,9 @@
       <c r="H141" s="7"/>
     </row>
     <row r="142" ht="21" customHeight="1">
-      <c r="A142" s="18"/>
-      <c r="B142" s="18"/>
-      <c r="C142" s="18"/>
+      <c r="A142" s="20"/>
+      <c r="B142" s="20"/>
+      <c r="C142" s="20"/>
       <c r="D142" s="6"/>
       <c r="E142" s="6"/>
       <c r="F142" s="6"/>
@@ -3674,12 +3856,12 @@
     <row r="143" ht="21" customHeight="1">
       <c r="A143" s="24"/>
       <c r="B143" s="24"/>
-      <c r="C143" s="18"/>
+      <c r="C143" s="20"/>
       <c r="D143" s="6"/>
       <c r="E143" s="6"/>
       <c r="F143" s="6"/>
       <c r="G143" s="6"/>
-      <c r="H143" s="11"/>
+      <c r="H143" s="10"/>
     </row>
     <row r="144" ht="21" customHeight="1">
       <c r="A144" s="25"/>
@@ -3689,17 +3871,17 @@
       <c r="E144" s="6"/>
       <c r="F144" s="6"/>
       <c r="G144" s="6"/>
-      <c r="H144" s="22"/>
+      <c r="H144" s="18"/>
     </row>
     <row r="145" ht="21" customHeight="1">
       <c r="A145" s="28"/>
       <c r="B145" s="28"/>
-      <c r="C145" s="18"/>
+      <c r="C145" s="20"/>
       <c r="D145" s="6"/>
       <c r="E145" s="6"/>
       <c r="F145" s="6"/>
       <c r="G145" s="6"/>
-      <c r="H145" s="14"/>
+      <c r="H145" s="11"/>
     </row>
     <row r="146" ht="21" customHeight="1">
       <c r="A146" s="25"/>
@@ -3709,37 +3891,37 @@
       <c r="E146" s="6"/>
       <c r="F146" s="6"/>
       <c r="G146" s="6"/>
-      <c r="H146" s="11"/>
+      <c r="H146" s="10"/>
     </row>
     <row r="147" ht="21" customHeight="1">
       <c r="A147" s="27"/>
       <c r="B147" s="27"/>
-      <c r="C147" s="18"/>
+      <c r="C147" s="20"/>
       <c r="D147" s="6"/>
       <c r="E147" s="6"/>
       <c r="F147" s="6"/>
       <c r="G147" s="6"/>
-      <c r="H147" s="14"/>
+      <c r="H147" s="11"/>
     </row>
     <row r="148" ht="21" customHeight="1">
-      <c r="A148" s="18"/>
-      <c r="B148" s="18"/>
-      <c r="C148" s="18"/>
+      <c r="A148" s="20"/>
+      <c r="B148" s="20"/>
+      <c r="C148" s="20"/>
       <c r="D148" s="6"/>
       <c r="E148" s="6"/>
       <c r="F148" s="6"/>
       <c r="G148" s="6"/>
-      <c r="H148" s="11"/>
+      <c r="H148" s="10"/>
     </row>
     <row r="149" ht="21" customHeight="1">
       <c r="A149" s="24"/>
       <c r="B149" s="24"/>
-      <c r="C149" s="18"/>
+      <c r="C149" s="20"/>
       <c r="D149" s="6"/>
       <c r="E149" s="6"/>
       <c r="F149" s="6"/>
       <c r="G149" s="6"/>
-      <c r="H149" s="14"/>
+      <c r="H149" s="11"/>
     </row>
     <row r="150" ht="21" customHeight="1">
       <c r="A150" s="25"/>
@@ -3749,32 +3931,32 @@
       <c r="E150" s="6"/>
       <c r="F150" s="6"/>
       <c r="G150" s="6"/>
-      <c r="H150" s="11"/>
+      <c r="H150" s="10"/>
     </row>
     <row r="151" ht="21" customHeight="1">
       <c r="A151" s="27"/>
       <c r="B151" s="27"/>
-      <c r="C151" s="18"/>
+      <c r="C151" s="20"/>
       <c r="D151" s="6"/>
       <c r="E151" s="6"/>
       <c r="F151" s="6"/>
       <c r="G151" s="6"/>
-      <c r="H151" s="22"/>
+      <c r="H151" s="18"/>
     </row>
     <row r="152" ht="20.7" customHeight="1">
-      <c r="A152" s="18"/>
-      <c r="B152" s="18"/>
-      <c r="C152" s="18"/>
-      <c r="D152" s="18"/>
-      <c r="E152" s="18"/>
-      <c r="F152" s="18"/>
-      <c r="G152" s="18"/>
-      <c r="H152" s="20"/>
+      <c r="A152" s="20"/>
+      <c r="B152" s="20"/>
+      <c r="C152" s="20"/>
+      <c r="D152" s="20"/>
+      <c r="E152" s="20"/>
+      <c r="F152" s="20"/>
+      <c r="G152" s="20"/>
+      <c r="H152" s="22"/>
     </row>
     <row r="153" ht="21" customHeight="1">
-      <c r="A153" s="18"/>
-      <c r="B153" s="18"/>
-      <c r="C153" s="18"/>
+      <c r="A153" s="20"/>
+      <c r="B153" s="20"/>
+      <c r="C153" s="20"/>
       <c r="D153" s="6"/>
       <c r="E153" s="6"/>
       <c r="F153" s="6"/>
@@ -3782,9 +3964,9 @@
       <c r="H153" s="7"/>
     </row>
     <row r="154" ht="21" customHeight="1">
-      <c r="A154" s="18"/>
-      <c r="B154" s="18"/>
-      <c r="C154" s="18"/>
+      <c r="A154" s="20"/>
+      <c r="B154" s="20"/>
+      <c r="C154" s="20"/>
       <c r="D154" s="6"/>
       <c r="E154" s="6"/>
       <c r="F154" s="6"/>
@@ -3792,19 +3974,19 @@
       <c r="H154" s="7"/>
     </row>
     <row r="155" ht="21" customHeight="1">
-      <c r="A155" s="18"/>
-      <c r="B155" s="18"/>
-      <c r="C155" s="18"/>
-      <c r="D155" s="18"/>
-      <c r="E155" s="18"/>
-      <c r="F155" s="18"/>
-      <c r="G155" s="18"/>
+      <c r="A155" s="20"/>
+      <c r="B155" s="20"/>
+      <c r="C155" s="20"/>
+      <c r="D155" s="20"/>
+      <c r="E155" s="20"/>
+      <c r="F155" s="20"/>
+      <c r="G155" s="20"/>
       <c r="H155" s="7"/>
     </row>
     <row r="156" ht="21" customHeight="1">
-      <c r="A156" s="18"/>
-      <c r="B156" s="18"/>
-      <c r="C156" s="18"/>
+      <c r="A156" s="20"/>
+      <c r="B156" s="20"/>
+      <c r="C156" s="20"/>
       <c r="D156" s="6"/>
       <c r="E156" s="6"/>
       <c r="F156" s="6"/>
@@ -3812,9 +3994,9 @@
       <c r="H156" s="7"/>
     </row>
     <row r="157" ht="21" customHeight="1">
-      <c r="A157" s="18"/>
-      <c r="B157" s="18"/>
-      <c r="C157" s="18"/>
+      <c r="A157" s="20"/>
+      <c r="B157" s="20"/>
+      <c r="C157" s="20"/>
       <c r="D157" s="6"/>
       <c r="E157" s="6"/>
       <c r="F157" s="6"/>
@@ -3822,9 +4004,9 @@
       <c r="H157" s="7"/>
     </row>
     <row r="158" ht="21" customHeight="1">
-      <c r="A158" s="18"/>
-      <c r="B158" s="18"/>
-      <c r="C158" s="18"/>
+      <c r="A158" s="20"/>
+      <c r="B158" s="20"/>
+      <c r="C158" s="20"/>
       <c r="D158" s="6"/>
       <c r="E158" s="6"/>
       <c r="F158" s="6"/>
@@ -3832,9 +4014,9 @@
       <c r="H158" s="7"/>
     </row>
     <row r="159" ht="21" customHeight="1">
-      <c r="A159" s="18"/>
-      <c r="B159" s="18"/>
-      <c r="C159" s="18"/>
+      <c r="A159" s="20"/>
+      <c r="B159" s="20"/>
+      <c r="C159" s="20"/>
       <c r="D159" s="6"/>
       <c r="E159" s="6"/>
       <c r="F159" s="6"/>
@@ -3842,9 +4024,9 @@
       <c r="H159" s="7"/>
     </row>
     <row r="160" ht="21" customHeight="1">
-      <c r="A160" s="18"/>
-      <c r="B160" s="18"/>
-      <c r="C160" s="18"/>
+      <c r="A160" s="20"/>
+      <c r="B160" s="20"/>
+      <c r="C160" s="20"/>
       <c r="D160" s="6"/>
       <c r="E160" s="6"/>
       <c r="F160" s="6"/>
@@ -3854,7 +4036,7 @@
     <row r="161" ht="21" customHeight="1">
       <c r="A161" s="24"/>
       <c r="B161" s="24"/>
-      <c r="C161" s="18"/>
+      <c r="C161" s="20"/>
       <c r="D161" s="6"/>
       <c r="E161" s="6"/>
       <c r="F161" s="6"/>
@@ -3869,22 +4051,22 @@
       <c r="E162" s="6"/>
       <c r="F162" s="6"/>
       <c r="G162" s="6"/>
-      <c r="H162" s="11"/>
+      <c r="H162" s="10"/>
     </row>
     <row r="163" ht="21" customHeight="1">
       <c r="A163" s="27"/>
       <c r="B163" s="27"/>
-      <c r="C163" s="18"/>
+      <c r="C163" s="20"/>
       <c r="D163" s="6"/>
       <c r="E163" s="6"/>
       <c r="F163" s="6"/>
       <c r="G163" s="6"/>
-      <c r="H163" s="14"/>
+      <c r="H163" s="11"/>
     </row>
     <row r="164" ht="21" customHeight="1">
-      <c r="A164" s="18"/>
-      <c r="B164" s="18"/>
-      <c r="C164" s="18"/>
+      <c r="A164" s="20"/>
+      <c r="B164" s="20"/>
+      <c r="C164" s="20"/>
       <c r="D164" s="6"/>
       <c r="E164" s="6"/>
       <c r="F164" s="6"/>
@@ -3892,9 +4074,9 @@
       <c r="H164" s="7"/>
     </row>
     <row r="165" ht="21" customHeight="1">
-      <c r="A165" s="18"/>
-      <c r="B165" s="18"/>
-      <c r="C165" s="18"/>
+      <c r="A165" s="20"/>
+      <c r="B165" s="20"/>
+      <c r="C165" s="20"/>
       <c r="D165" s="6"/>
       <c r="E165" s="6"/>
       <c r="F165" s="6"/>
@@ -3904,7 +4086,7 @@
     <row r="166" ht="21" customHeight="1">
       <c r="A166" s="24"/>
       <c r="B166" s="24"/>
-      <c r="C166" s="18"/>
+      <c r="C166" s="20"/>
       <c r="D166" s="6"/>
       <c r="E166" s="6"/>
       <c r="F166" s="6"/>
@@ -3919,22 +4101,22 @@
       <c r="E167" s="6"/>
       <c r="F167" s="6"/>
       <c r="G167" s="6"/>
-      <c r="H167" s="11"/>
+      <c r="H167" s="10"/>
     </row>
     <row r="168" ht="21" customHeight="1">
       <c r="A168" s="27"/>
       <c r="B168" s="27"/>
-      <c r="C168" s="18"/>
+      <c r="C168" s="20"/>
       <c r="D168" s="6"/>
       <c r="E168" s="6"/>
       <c r="F168" s="6"/>
       <c r="G168" s="6"/>
-      <c r="H168" s="14"/>
+      <c r="H168" s="11"/>
     </row>
     <row r="169" ht="21" customHeight="1">
-      <c r="A169" s="18"/>
-      <c r="B169" s="18"/>
-      <c r="C169" s="18"/>
+      <c r="A169" s="20"/>
+      <c r="B169" s="20"/>
+      <c r="C169" s="20"/>
       <c r="D169" s="6"/>
       <c r="E169" s="6"/>
       <c r="F169" s="6"/>
@@ -3942,9 +4124,9 @@
       <c r="H169" s="7"/>
     </row>
     <row r="170" ht="21" customHeight="1">
-      <c r="A170" s="18"/>
-      <c r="B170" s="18"/>
-      <c r="C170" s="18"/>
+      <c r="A170" s="20"/>
+      <c r="B170" s="20"/>
+      <c r="C170" s="20"/>
       <c r="D170" s="6"/>
       <c r="E170" s="6"/>
       <c r="F170" s="6"/>
@@ -3952,9 +4134,9 @@
       <c r="H170" s="7"/>
     </row>
     <row r="171" ht="21" customHeight="1">
-      <c r="A171" s="18"/>
-      <c r="B171" s="18"/>
-      <c r="C171" s="18"/>
+      <c r="A171" s="20"/>
+      <c r="B171" s="20"/>
+      <c r="C171" s="20"/>
       <c r="D171" s="6"/>
       <c r="E171" s="6"/>
       <c r="F171" s="6"/>
@@ -3962,9 +4144,9 @@
       <c r="H171" s="7"/>
     </row>
     <row r="172" ht="21" customHeight="1">
-      <c r="A172" s="18"/>
-      <c r="B172" s="18"/>
-      <c r="C172" s="18"/>
+      <c r="A172" s="20"/>
+      <c r="B172" s="20"/>
+      <c r="C172" s="20"/>
       <c r="D172" s="6"/>
       <c r="E172" s="6"/>
       <c r="F172" s="6"/>
@@ -3972,9 +4154,9 @@
       <c r="H172" s="7"/>
     </row>
     <row r="173" ht="21" customHeight="1">
-      <c r="A173" s="18"/>
-      <c r="B173" s="18"/>
-      <c r="C173" s="18"/>
+      <c r="A173" s="20"/>
+      <c r="B173" s="20"/>
+      <c r="C173" s="20"/>
       <c r="D173" s="6"/>
       <c r="E173" s="6"/>
       <c r="F173" s="6"/>
@@ -3982,9 +4164,9 @@
       <c r="H173" s="7"/>
     </row>
     <row r="174" ht="21" customHeight="1">
-      <c r="A174" s="18"/>
-      <c r="B174" s="18"/>
-      <c r="C174" s="18"/>
+      <c r="A174" s="20"/>
+      <c r="B174" s="20"/>
+      <c r="C174" s="20"/>
       <c r="D174" s="6"/>
       <c r="E174" s="6"/>
       <c r="F174" s="6"/>
@@ -3992,29 +4174,29 @@
       <c r="H174" s="7"/>
     </row>
     <row r="175" ht="21" customHeight="1">
-      <c r="A175" s="18"/>
-      <c r="B175" s="18"/>
-      <c r="C175" s="18"/>
+      <c r="A175" s="20"/>
+      <c r="B175" s="20"/>
+      <c r="C175" s="20"/>
       <c r="D175" s="6"/>
       <c r="E175" s="6"/>
       <c r="F175" s="6"/>
       <c r="G175" s="6"/>
-      <c r="H175" s="11"/>
+      <c r="H175" s="10"/>
     </row>
     <row r="176" ht="21" customHeight="1">
-      <c r="A176" s="18"/>
-      <c r="B176" s="18"/>
-      <c r="C176" s="18"/>
+      <c r="A176" s="20"/>
+      <c r="B176" s="20"/>
+      <c r="C176" s="20"/>
       <c r="D176" s="6"/>
       <c r="E176" s="6"/>
       <c r="F176" s="6"/>
       <c r="G176" s="6"/>
-      <c r="H176" s="14"/>
+      <c r="H176" s="11"/>
     </row>
     <row r="177" ht="21" customHeight="1">
-      <c r="A177" s="18"/>
-      <c r="B177" s="18"/>
-      <c r="C177" s="18"/>
+      <c r="A177" s="20"/>
+      <c r="B177" s="20"/>
+      <c r="C177" s="20"/>
       <c r="D177" s="6"/>
       <c r="E177" s="6"/>
       <c r="F177" s="6"/>
@@ -4022,9 +4204,9 @@
       <c r="H177" s="7"/>
     </row>
     <row r="178" ht="21" customHeight="1">
-      <c r="A178" s="18"/>
-      <c r="B178" s="18"/>
-      <c r="C178" s="18"/>
+      <c r="A178" s="20"/>
+      <c r="B178" s="20"/>
+      <c r="C178" s="20"/>
       <c r="D178" s="6"/>
       <c r="E178" s="6"/>
       <c r="F178" s="6"/>
@@ -4032,9 +4214,9 @@
       <c r="H178" s="7"/>
     </row>
     <row r="179" ht="21" customHeight="1">
-      <c r="A179" s="18"/>
-      <c r="B179" s="18"/>
-      <c r="C179" s="18"/>
+      <c r="A179" s="20"/>
+      <c r="B179" s="20"/>
+      <c r="C179" s="20"/>
       <c r="D179" s="6"/>
       <c r="E179" s="6"/>
       <c r="F179" s="6"/>
@@ -4042,9 +4224,9 @@
       <c r="H179" s="7"/>
     </row>
     <row r="180" ht="21" customHeight="1">
-      <c r="A180" s="18"/>
-      <c r="B180" s="18"/>
-      <c r="C180" s="18"/>
+      <c r="A180" s="20"/>
+      <c r="B180" s="20"/>
+      <c r="C180" s="20"/>
       <c r="D180" s="6"/>
       <c r="E180" s="6"/>
       <c r="F180" s="6"/>
@@ -4052,9 +4234,9 @@
       <c r="H180" s="7"/>
     </row>
     <row r="181" ht="21" customHeight="1">
-      <c r="A181" s="18"/>
-      <c r="B181" s="18"/>
-      <c r="C181" s="18"/>
+      <c r="A181" s="20"/>
+      <c r="B181" s="20"/>
+      <c r="C181" s="20"/>
       <c r="D181" s="6"/>
       <c r="E181" s="6"/>
       <c r="F181" s="6"/>
@@ -4062,24 +4244,24 @@
       <c r="H181" s="7"/>
     </row>
     <row r="182" ht="21" customHeight="1">
-      <c r="A182" s="18"/>
-      <c r="B182" s="18"/>
-      <c r="C182" s="18"/>
+      <c r="A182" s="20"/>
+      <c r="B182" s="20"/>
+      <c r="C182" s="20"/>
       <c r="D182" s="6"/>
       <c r="E182" s="6"/>
       <c r="F182" s="6"/>
       <c r="G182" s="6"/>
-      <c r="H182" s="11"/>
+      <c r="H182" s="10"/>
     </row>
     <row r="183" ht="21" customHeight="1">
       <c r="A183" s="24"/>
       <c r="B183" s="24"/>
-      <c r="C183" s="18"/>
+      <c r="C183" s="20"/>
       <c r="D183" s="6"/>
       <c r="E183" s="6"/>
       <c r="F183" s="6"/>
       <c r="G183" s="6"/>
-      <c r="H183" s="14"/>
+      <c r="H183" s="11"/>
     </row>
     <row r="184" ht="21" customHeight="1">
       <c r="A184" s="25"/>
@@ -4094,77 +4276,77 @@
     <row r="185" ht="21" customHeight="1">
       <c r="A185" s="27"/>
       <c r="B185" s="27"/>
-      <c r="C185" s="18"/>
+      <c r="C185" s="20"/>
       <c r="D185" s="6"/>
       <c r="E185" s="6"/>
       <c r="F185" s="6"/>
       <c r="G185" s="6"/>
-      <c r="H185" s="11"/>
+      <c r="H185" s="10"/>
     </row>
     <row r="186" ht="21" customHeight="1">
-      <c r="A186" s="18"/>
-      <c r="B186" s="18"/>
-      <c r="C186" s="18"/>
+      <c r="A186" s="20"/>
+      <c r="B186" s="20"/>
+      <c r="C186" s="20"/>
       <c r="D186" s="6"/>
       <c r="E186" s="6"/>
       <c r="F186" s="6"/>
       <c r="G186" s="6"/>
-      <c r="H186" s="14"/>
+      <c r="H186" s="11"/>
     </row>
     <row r="187" ht="21" customHeight="1">
-      <c r="A187" s="18"/>
-      <c r="B187" s="18"/>
-      <c r="C187" s="18"/>
+      <c r="A187" s="20"/>
+      <c r="B187" s="20"/>
+      <c r="C187" s="20"/>
       <c r="D187" s="6"/>
       <c r="E187" s="6"/>
       <c r="F187" s="6"/>
       <c r="G187" s="6"/>
-      <c r="H187" s="11"/>
+      <c r="H187" s="10"/>
     </row>
     <row r="188" ht="21" customHeight="1">
-      <c r="A188" s="18"/>
-      <c r="B188" s="18"/>
-      <c r="C188" s="18"/>
+      <c r="A188" s="20"/>
+      <c r="B188" s="20"/>
+      <c r="C188" s="20"/>
       <c r="D188" s="6"/>
       <c r="E188" s="6"/>
       <c r="F188" s="6"/>
       <c r="G188" s="6"/>
-      <c r="H188" s="22"/>
+      <c r="H188" s="18"/>
     </row>
     <row r="189" ht="20.7" customHeight="1">
-      <c r="A189" s="18"/>
-      <c r="B189" s="18"/>
-      <c r="C189" s="18"/>
-      <c r="D189" s="18"/>
-      <c r="E189" s="18"/>
-      <c r="F189" s="18"/>
-      <c r="G189" s="18"/>
-      <c r="H189" s="20"/>
+      <c r="A189" s="20"/>
+      <c r="B189" s="20"/>
+      <c r="C189" s="20"/>
+      <c r="D189" s="20"/>
+      <c r="E189" s="20"/>
+      <c r="F189" s="20"/>
+      <c r="G189" s="20"/>
+      <c r="H189" s="22"/>
     </row>
     <row r="190" ht="21" customHeight="1">
-      <c r="A190" s="18"/>
-      <c r="B190" s="18"/>
-      <c r="C190" s="18"/>
+      <c r="A190" s="20"/>
+      <c r="B190" s="20"/>
+      <c r="C190" s="20"/>
       <c r="D190" s="6"/>
       <c r="E190" s="6"/>
       <c r="F190" s="6"/>
       <c r="G190" s="6"/>
-      <c r="H190" s="11"/>
+      <c r="H190" s="10"/>
     </row>
     <row r="191" ht="20.7" customHeight="1">
-      <c r="A191" s="18"/>
-      <c r="B191" s="18"/>
-      <c r="C191" s="18"/>
-      <c r="D191" s="18"/>
-      <c r="E191" s="18"/>
-      <c r="F191" s="18"/>
-      <c r="G191" s="18"/>
-      <c r="H191" s="20"/>
+      <c r="A191" s="20"/>
+      <c r="B191" s="20"/>
+      <c r="C191" s="20"/>
+      <c r="D191" s="20"/>
+      <c r="E191" s="20"/>
+      <c r="F191" s="20"/>
+      <c r="G191" s="20"/>
+      <c r="H191" s="22"/>
     </row>
     <row r="192" ht="21" customHeight="1">
-      <c r="A192" s="18"/>
-      <c r="B192" s="18"/>
-      <c r="C192" s="18"/>
+      <c r="A192" s="20"/>
+      <c r="B192" s="20"/>
+      <c r="C192" s="20"/>
       <c r="D192" s="6"/>
       <c r="E192" s="6"/>
       <c r="F192" s="6"/>
@@ -4172,9 +4354,9 @@
       <c r="H192" s="7"/>
     </row>
     <row r="193" ht="21" customHeight="1">
-      <c r="A193" s="18"/>
-      <c r="B193" s="18"/>
-      <c r="C193" s="18"/>
+      <c r="A193" s="20"/>
+      <c r="B193" s="20"/>
+      <c r="C193" s="20"/>
       <c r="D193" s="6"/>
       <c r="E193" s="6"/>
       <c r="F193" s="6"/>
@@ -4182,9 +4364,9 @@
       <c r="H193" s="7"/>
     </row>
     <row r="194" ht="21" customHeight="1">
-      <c r="A194" s="18"/>
-      <c r="B194" s="18"/>
-      <c r="C194" s="18"/>
+      <c r="A194" s="20"/>
+      <c r="B194" s="20"/>
+      <c r="C194" s="20"/>
       <c r="D194" s="6"/>
       <c r="E194" s="6"/>
       <c r="F194" s="6"/>
@@ -4192,9 +4374,9 @@
       <c r="H194" s="7"/>
     </row>
     <row r="195" ht="21" customHeight="1">
-      <c r="A195" s="18"/>
-      <c r="B195" s="18"/>
-      <c r="C195" s="18"/>
+      <c r="A195" s="20"/>
+      <c r="B195" s="20"/>
+      <c r="C195" s="20"/>
       <c r="D195" s="6"/>
       <c r="E195" s="6"/>
       <c r="F195" s="6"/>
@@ -4202,9 +4384,9 @@
       <c r="H195" s="7"/>
     </row>
     <row r="196" ht="21" customHeight="1">
-      <c r="A196" s="18"/>
-      <c r="B196" s="18"/>
-      <c r="C196" s="18"/>
+      <c r="A196" s="20"/>
+      <c r="B196" s="20"/>
+      <c r="C196" s="20"/>
       <c r="D196" s="6"/>
       <c r="E196" s="6"/>
       <c r="F196" s="6"/>
@@ -4212,29 +4394,29 @@
       <c r="H196" s="7"/>
     </row>
     <row r="197" ht="21" customHeight="1">
-      <c r="A197" s="18"/>
-      <c r="B197" s="18"/>
-      <c r="C197" s="18"/>
+      <c r="A197" s="20"/>
+      <c r="B197" s="20"/>
+      <c r="C197" s="20"/>
       <c r="D197" s="6"/>
       <c r="E197" s="6"/>
       <c r="F197" s="6"/>
       <c r="G197" s="6"/>
-      <c r="H197" s="11"/>
+      <c r="H197" s="10"/>
     </row>
     <row r="198" ht="21" customHeight="1">
-      <c r="A198" s="18"/>
-      <c r="B198" s="18"/>
-      <c r="C198" s="18"/>
+      <c r="A198" s="20"/>
+      <c r="B198" s="20"/>
+      <c r="C198" s="20"/>
       <c r="D198" s="6"/>
       <c r="E198" s="6"/>
       <c r="F198" s="6"/>
       <c r="G198" s="6"/>
-      <c r="H198" s="14"/>
+      <c r="H198" s="11"/>
     </row>
     <row r="199" ht="21" customHeight="1">
       <c r="A199" s="24"/>
       <c r="B199" s="24"/>
-      <c r="C199" s="18"/>
+      <c r="C199" s="20"/>
       <c r="D199" s="6"/>
       <c r="E199" s="6"/>
       <c r="F199" s="6"/>
@@ -4249,22 +4431,22 @@
       <c r="E200" s="6"/>
       <c r="F200" s="6"/>
       <c r="G200" s="6"/>
-      <c r="H200" s="11"/>
+      <c r="H200" s="10"/>
     </row>
     <row r="201" ht="21" customHeight="1">
       <c r="A201" s="27"/>
       <c r="B201" s="27"/>
-      <c r="C201" s="18"/>
+      <c r="C201" s="20"/>
       <c r="D201" s="6"/>
       <c r="E201" s="6"/>
       <c r="F201" s="6"/>
       <c r="G201" s="6"/>
-      <c r="H201" s="14"/>
+      <c r="H201" s="11"/>
     </row>
     <row r="202" ht="21" customHeight="1">
-      <c r="A202" s="18"/>
-      <c r="B202" s="18"/>
-      <c r="C202" s="18"/>
+      <c r="A202" s="20"/>
+      <c r="B202" s="20"/>
+      <c r="C202" s="20"/>
       <c r="D202" s="6"/>
       <c r="E202" s="6"/>
       <c r="F202" s="6"/>
@@ -4272,9 +4454,9 @@
       <c r="H202" s="7"/>
     </row>
     <row r="203" ht="21" customHeight="1">
-      <c r="A203" s="18"/>
-      <c r="B203" s="18"/>
-      <c r="C203" s="18"/>
+      <c r="A203" s="20"/>
+      <c r="B203" s="20"/>
+      <c r="C203" s="20"/>
       <c r="D203" s="6"/>
       <c r="E203" s="6"/>
       <c r="F203" s="6"/>
@@ -4282,29 +4464,29 @@
       <c r="H203" s="7"/>
     </row>
     <row r="204" ht="21" customHeight="1">
-      <c r="A204" s="18"/>
-      <c r="B204" s="18"/>
-      <c r="C204" s="18"/>
+      <c r="A204" s="20"/>
+      <c r="B204" s="20"/>
+      <c r="C204" s="20"/>
       <c r="D204" s="6"/>
       <c r="E204" s="6"/>
       <c r="F204" s="6"/>
       <c r="G204" s="6"/>
-      <c r="H204" s="11"/>
+      <c r="H204" s="10"/>
     </row>
     <row r="205" ht="20.7" customHeight="1">
-      <c r="A205" s="18"/>
-      <c r="B205" s="18"/>
-      <c r="C205" s="18"/>
-      <c r="D205" s="18"/>
-      <c r="E205" s="18"/>
-      <c r="F205" s="18"/>
-      <c r="G205" s="18"/>
-      <c r="H205" s="20"/>
+      <c r="A205" s="20"/>
+      <c r="B205" s="20"/>
+      <c r="C205" s="20"/>
+      <c r="D205" s="20"/>
+      <c r="E205" s="20"/>
+      <c r="F205" s="20"/>
+      <c r="G205" s="20"/>
+      <c r="H205" s="22"/>
     </row>
     <row r="206" ht="21" customHeight="1">
-      <c r="A206" s="18"/>
-      <c r="B206" s="18"/>
-      <c r="C206" s="18"/>
+      <c r="A206" s="20"/>
+      <c r="B206" s="20"/>
+      <c r="C206" s="20"/>
       <c r="D206" s="6"/>
       <c r="E206" s="6"/>
       <c r="F206" s="6"/>
@@ -4312,9 +4494,9 @@
       <c r="H206" s="7"/>
     </row>
     <row r="207" ht="21" customHeight="1">
-      <c r="A207" s="18"/>
-      <c r="B207" s="18"/>
-      <c r="C207" s="18"/>
+      <c r="A207" s="20"/>
+      <c r="B207" s="20"/>
+      <c r="C207" s="20"/>
       <c r="D207" s="6"/>
       <c r="E207" s="6"/>
       <c r="F207" s="6"/>
@@ -4322,44 +4504,44 @@
       <c r="H207" s="7"/>
     </row>
     <row r="208" ht="21" customHeight="1">
-      <c r="A208" s="18"/>
-      <c r="B208" s="18"/>
-      <c r="C208" s="18"/>
+      <c r="A208" s="20"/>
+      <c r="B208" s="20"/>
+      <c r="C208" s="20"/>
       <c r="D208" s="6"/>
       <c r="E208" s="6"/>
       <c r="F208" s="6"/>
       <c r="G208" s="6"/>
-      <c r="H208" s="11"/>
+      <c r="H208" s="10"/>
     </row>
     <row r="209" ht="21" customHeight="1">
-      <c r="A209" s="18"/>
-      <c r="B209" s="18"/>
-      <c r="C209" s="18"/>
+      <c r="A209" s="20"/>
+      <c r="B209" s="20"/>
+      <c r="C209" s="20"/>
       <c r="D209" s="6"/>
       <c r="E209" s="6"/>
       <c r="F209" s="6"/>
       <c r="G209" s="6"/>
-      <c r="H209" s="14"/>
+      <c r="H209" s="11"/>
     </row>
     <row r="210" ht="21" customHeight="1">
-      <c r="A210" s="18"/>
-      <c r="B210" s="18"/>
-      <c r="C210" s="18"/>
+      <c r="A210" s="20"/>
+      <c r="B210" s="20"/>
+      <c r="C210" s="20"/>
       <c r="D210" s="6"/>
       <c r="E210" s="6"/>
       <c r="F210" s="6"/>
       <c r="G210" s="6"/>
-      <c r="H210" s="11"/>
+      <c r="H210" s="10"/>
     </row>
     <row r="211" ht="21" customHeight="1">
       <c r="A211" s="24"/>
       <c r="B211" s="24"/>
-      <c r="C211" s="18"/>
+      <c r="C211" s="20"/>
       <c r="D211" s="6"/>
       <c r="E211" s="6"/>
       <c r="F211" s="6"/>
       <c r="G211" s="6"/>
-      <c r="H211" s="14"/>
+      <c r="H211" s="11"/>
     </row>
     <row r="212" ht="21" customHeight="1">
       <c r="A212" s="25"/>
@@ -4369,22 +4551,22 @@
       <c r="E212" s="6"/>
       <c r="F212" s="6"/>
       <c r="G212" s="6"/>
-      <c r="H212" s="11"/>
+      <c r="H212" s="10"/>
     </row>
     <row r="213" ht="21" customHeight="1">
       <c r="A213" s="27"/>
       <c r="B213" s="27"/>
-      <c r="C213" s="18"/>
+      <c r="C213" s="20"/>
       <c r="D213" s="6"/>
       <c r="E213" s="6"/>
       <c r="F213" s="6"/>
       <c r="G213" s="6"/>
-      <c r="H213" s="14"/>
+      <c r="H213" s="11"/>
     </row>
     <row r="214" ht="21" customHeight="1">
-      <c r="A214" s="18"/>
-      <c r="B214" s="18"/>
-      <c r="C214" s="18"/>
+      <c r="A214" s="20"/>
+      <c r="B214" s="20"/>
+      <c r="C214" s="20"/>
       <c r="D214" s="6"/>
       <c r="E214" s="6"/>
       <c r="F214" s="6"/>
@@ -4394,12 +4576,12 @@
     <row r="215" ht="21" customHeight="1">
       <c r="A215" s="24"/>
       <c r="B215" s="24"/>
-      <c r="C215" s="18"/>
+      <c r="C215" s="20"/>
       <c r="D215" s="6"/>
       <c r="E215" s="6"/>
       <c r="F215" s="6"/>
       <c r="G215" s="6"/>
-      <c r="H215" s="11"/>
+      <c r="H215" s="10"/>
     </row>
     <row r="216" ht="21" customHeight="1">
       <c r="A216" s="25"/>
@@ -4409,22 +4591,22 @@
       <c r="E216" s="6"/>
       <c r="F216" s="6"/>
       <c r="G216" s="6"/>
-      <c r="H216" s="22"/>
+      <c r="H216" s="18"/>
     </row>
     <row r="217" ht="21" customHeight="1">
       <c r="A217" s="27"/>
       <c r="B217" s="27"/>
-      <c r="C217" s="18"/>
+      <c r="C217" s="20"/>
       <c r="D217" s="6"/>
       <c r="E217" s="6"/>
       <c r="F217" s="6"/>
       <c r="G217" s="6"/>
-      <c r="H217" s="14"/>
+      <c r="H217" s="11"/>
     </row>
     <row r="218" ht="21" customHeight="1">
-      <c r="A218" s="18"/>
-      <c r="B218" s="18"/>
-      <c r="C218" s="18"/>
+      <c r="A218" s="20"/>
+      <c r="B218" s="20"/>
+      <c r="C218" s="20"/>
       <c r="D218" s="6"/>
       <c r="E218" s="6"/>
       <c r="F218" s="6"/>
@@ -4434,7 +4616,7 @@
     <row r="219" ht="21" customHeight="1">
       <c r="A219" s="24"/>
       <c r="B219" s="24"/>
-      <c r="C219" s="18"/>
+      <c r="C219" s="20"/>
       <c r="D219" s="6"/>
       <c r="E219" s="6"/>
       <c r="F219" s="6"/>
@@ -4449,17 +4631,17 @@
       <c r="E220" s="6"/>
       <c r="F220" s="6"/>
       <c r="G220" s="6"/>
-      <c r="H220" s="11"/>
+      <c r="H220" s="10"/>
     </row>
     <row r="221" ht="21" customHeight="1">
       <c r="A221" s="28"/>
       <c r="B221" s="28"/>
-      <c r="C221" s="18"/>
+      <c r="C221" s="20"/>
       <c r="D221" s="6"/>
       <c r="E221" s="6"/>
       <c r="F221" s="6"/>
       <c r="G221" s="6"/>
-      <c r="H221" s="14"/>
+      <c r="H221" s="11"/>
     </row>
     <row r="222" ht="21" customHeight="1">
       <c r="A222" s="25"/>
@@ -4469,47 +4651,47 @@
       <c r="E222" s="6"/>
       <c r="F222" s="6"/>
       <c r="G222" s="6"/>
-      <c r="H222" s="11"/>
+      <c r="H222" s="10"/>
     </row>
     <row r="223" ht="21" customHeight="1">
       <c r="A223" s="27"/>
       <c r="B223" s="27"/>
-      <c r="C223" s="18"/>
+      <c r="C223" s="20"/>
       <c r="D223" s="6"/>
       <c r="E223" s="6"/>
       <c r="F223" s="6"/>
       <c r="G223" s="6"/>
-      <c r="H223" s="22"/>
+      <c r="H223" s="18"/>
     </row>
     <row r="224" ht="20.7" customHeight="1">
-      <c r="A224" s="18"/>
-      <c r="B224" s="18"/>
-      <c r="C224" s="18"/>
-      <c r="D224" s="18"/>
-      <c r="E224" s="18"/>
-      <c r="F224" s="18"/>
-      <c r="G224" s="18"/>
-      <c r="H224" s="20"/>
+      <c r="A224" s="20"/>
+      <c r="B224" s="20"/>
+      <c r="C224" s="20"/>
+      <c r="D224" s="20"/>
+      <c r="E224" s="20"/>
+      <c r="F224" s="20"/>
+      <c r="G224" s="20"/>
+      <c r="H224" s="22"/>
     </row>
     <row r="225" ht="21" customHeight="1">
-      <c r="A225" s="18"/>
-      <c r="B225" s="18"/>
-      <c r="C225" s="18"/>
+      <c r="A225" s="20"/>
+      <c r="B225" s="20"/>
+      <c r="C225" s="20"/>
       <c r="D225" s="6"/>
       <c r="E225" s="6"/>
       <c r="F225" s="6"/>
       <c r="G225" s="6"/>
-      <c r="H225" s="11"/>
+      <c r="H225" s="10"/>
     </row>
     <row r="226" ht="20.7" customHeight="1">
       <c r="A226" s="24"/>
       <c r="B226" s="24"/>
-      <c r="C226" s="18"/>
-      <c r="D226" s="18"/>
-      <c r="E226" s="18"/>
-      <c r="F226" s="18"/>
-      <c r="G226" s="18"/>
-      <c r="H226" s="20"/>
+      <c r="C226" s="20"/>
+      <c r="D226" s="20"/>
+      <c r="E226" s="20"/>
+      <c r="F226" s="20"/>
+      <c r="G226" s="20"/>
+      <c r="H226" s="22"/>
     </row>
     <row r="227" ht="21" customHeight="1">
       <c r="A227" s="25"/>
@@ -4524,11 +4706,11 @@
     <row r="228" ht="21" customHeight="1">
       <c r="A228" s="28"/>
       <c r="B228" s="28"/>
-      <c r="C228" s="18"/>
-      <c r="D228" s="18"/>
-      <c r="E228" s="18"/>
-      <c r="F228" s="18"/>
-      <c r="G228" s="18"/>
+      <c r="C228" s="20"/>
+      <c r="D228" s="20"/>
+      <c r="E228" s="20"/>
+      <c r="F228" s="20"/>
+      <c r="G228" s="20"/>
       <c r="H228" s="7"/>
     </row>
     <row r="229" ht="21" customHeight="1">
@@ -4539,22 +4721,22 @@
       <c r="E229" s="6"/>
       <c r="F229" s="6"/>
       <c r="G229" s="6"/>
-      <c r="H229" s="11"/>
+      <c r="H229" s="10"/>
     </row>
     <row r="230" ht="21" customHeight="1">
       <c r="A230" s="27"/>
       <c r="B230" s="27"/>
-      <c r="C230" s="18"/>
+      <c r="C230" s="20"/>
       <c r="D230" s="6"/>
       <c r="E230" s="6"/>
       <c r="F230" s="6"/>
       <c r="G230" s="6"/>
-      <c r="H230" s="14"/>
+      <c r="H230" s="11"/>
     </row>
     <row r="231" ht="21" customHeight="1">
-      <c r="A231" s="18"/>
-      <c r="B231" s="18"/>
-      <c r="C231" s="18"/>
+      <c r="A231" s="20"/>
+      <c r="B231" s="20"/>
+      <c r="C231" s="20"/>
       <c r="D231" s="6"/>
       <c r="E231" s="6"/>
       <c r="F231" s="6"/>
@@ -4562,9 +4744,9 @@
       <c r="H231" s="7"/>
     </row>
     <row r="232" ht="21" customHeight="1">
-      <c r="A232" s="18"/>
-      <c r="B232" s="18"/>
-      <c r="C232" s="18"/>
+      <c r="A232" s="20"/>
+      <c r="B232" s="20"/>
+      <c r="C232" s="20"/>
       <c r="D232" s="6"/>
       <c r="E232" s="6"/>
       <c r="F232" s="6"/>
@@ -4572,9 +4754,9 @@
       <c r="H232" s="7"/>
     </row>
     <row r="233" ht="21" customHeight="1">
-      <c r="A233" s="18"/>
-      <c r="B233" s="18"/>
-      <c r="C233" s="18"/>
+      <c r="A233" s="20"/>
+      <c r="B233" s="20"/>
+      <c r="C233" s="20"/>
       <c r="D233" s="6"/>
       <c r="E233" s="6"/>
       <c r="F233" s="6"/>
@@ -4582,24 +4764,24 @@
       <c r="H233" s="7"/>
     </row>
     <row r="234" ht="21" customHeight="1">
-      <c r="A234" s="18"/>
-      <c r="B234" s="18"/>
-      <c r="C234" s="18"/>
+      <c r="A234" s="20"/>
+      <c r="B234" s="20"/>
+      <c r="C234" s="20"/>
       <c r="D234" s="6"/>
       <c r="E234" s="6"/>
       <c r="F234" s="6"/>
       <c r="G234" s="6"/>
-      <c r="H234" s="11"/>
+      <c r="H234" s="10"/>
     </row>
     <row r="235" ht="21" customHeight="1">
       <c r="A235" s="24"/>
       <c r="B235" s="24"/>
-      <c r="C235" s="18"/>
+      <c r="C235" s="20"/>
       <c r="D235" s="6"/>
       <c r="E235" s="6"/>
       <c r="F235" s="6"/>
       <c r="G235" s="6"/>
-      <c r="H235" s="14"/>
+      <c r="H235" s="11"/>
     </row>
     <row r="236" ht="21" customHeight="1">
       <c r="A236" s="25"/>
@@ -4609,22 +4791,22 @@
       <c r="E236" s="6"/>
       <c r="F236" s="6"/>
       <c r="G236" s="6"/>
-      <c r="H236" s="11"/>
+      <c r="H236" s="10"/>
     </row>
     <row r="237" ht="21" customHeight="1">
       <c r="A237" s="27"/>
       <c r="B237" s="27"/>
-      <c r="C237" s="18"/>
+      <c r="C237" s="20"/>
       <c r="D237" s="6"/>
       <c r="E237" s="6"/>
       <c r="F237" s="6"/>
       <c r="G237" s="6"/>
-      <c r="H237" s="14"/>
+      <c r="H237" s="11"/>
     </row>
     <row r="238" ht="21" customHeight="1">
       <c r="A238" s="24"/>
       <c r="B238" s="24"/>
-      <c r="C238" s="18"/>
+      <c r="C238" s="20"/>
       <c r="D238" s="6"/>
       <c r="E238" s="6"/>
       <c r="F238" s="6"/>
@@ -4649,17 +4831,17 @@
       <c r="E240" s="6"/>
       <c r="F240" s="6"/>
       <c r="G240" s="6"/>
-      <c r="H240" s="11"/>
+      <c r="H240" s="10"/>
     </row>
     <row r="241" ht="21" customHeight="1">
       <c r="A241" s="28"/>
       <c r="B241" s="28"/>
-      <c r="C241" s="18"/>
+      <c r="C241" s="20"/>
       <c r="D241" s="6"/>
       <c r="E241" s="6"/>
       <c r="F241" s="6"/>
       <c r="G241" s="6"/>
-      <c r="H241" s="14"/>
+      <c r="H241" s="11"/>
     </row>
     <row r="242" ht="21" customHeight="1">
       <c r="A242" s="25"/>
@@ -4669,22 +4851,22 @@
       <c r="E242" s="6"/>
       <c r="F242" s="6"/>
       <c r="G242" s="6"/>
-      <c r="H242" s="11"/>
+      <c r="H242" s="10"/>
     </row>
     <row r="243" ht="21" customHeight="1">
       <c r="A243" s="27"/>
       <c r="B243" s="27"/>
-      <c r="C243" s="18"/>
+      <c r="C243" s="20"/>
       <c r="D243" s="6"/>
       <c r="E243" s="6"/>
       <c r="F243" s="6"/>
       <c r="G243" s="6"/>
-      <c r="H243" s="14"/>
+      <c r="H243" s="11"/>
     </row>
     <row r="244" ht="21" customHeight="1">
-      <c r="A244" s="18"/>
-      <c r="B244" s="18"/>
-      <c r="C244" s="18"/>
+      <c r="A244" s="20"/>
+      <c r="B244" s="20"/>
+      <c r="C244" s="20"/>
       <c r="D244" s="6"/>
       <c r="E244" s="6"/>
       <c r="F244" s="6"/>
@@ -4692,9 +4874,9 @@
       <c r="H244" s="7"/>
     </row>
     <row r="245" ht="21" customHeight="1">
-      <c r="A245" s="18"/>
-      <c r="B245" s="18"/>
-      <c r="C245" s="18"/>
+      <c r="A245" s="20"/>
+      <c r="B245" s="20"/>
+      <c r="C245" s="20"/>
       <c r="D245" s="6"/>
       <c r="E245" s="6"/>
       <c r="F245" s="6"/>
@@ -4702,9 +4884,9 @@
       <c r="H245" s="7"/>
     </row>
     <row r="246" ht="21" customHeight="1">
-      <c r="A246" s="18"/>
-      <c r="B246" s="18"/>
-      <c r="C246" s="18"/>
+      <c r="A246" s="20"/>
+      <c r="B246" s="20"/>
+      <c r="C246" s="20"/>
       <c r="D246" s="6"/>
       <c r="E246" s="6"/>
       <c r="F246" s="6"/>
@@ -4712,9 +4894,9 @@
       <c r="H246" s="7"/>
     </row>
     <row r="247" ht="21" customHeight="1">
-      <c r="A247" s="18"/>
-      <c r="B247" s="18"/>
-      <c r="C247" s="18"/>
+      <c r="A247" s="20"/>
+      <c r="B247" s="20"/>
+      <c r="C247" s="20"/>
       <c r="D247" s="6"/>
       <c r="E247" s="6"/>
       <c r="F247" s="6"/>
@@ -4722,74 +4904,74 @@
       <c r="H247" s="7"/>
     </row>
     <row r="248" ht="21" customHeight="1">
-      <c r="A248" s="18"/>
-      <c r="B248" s="18"/>
-      <c r="C248" s="18"/>
+      <c r="A248" s="20"/>
+      <c r="B248" s="20"/>
+      <c r="C248" s="20"/>
       <c r="D248" s="6"/>
       <c r="E248" s="6"/>
       <c r="F248" s="6"/>
       <c r="G248" s="6"/>
-      <c r="H248" s="11"/>
+      <c r="H248" s="10"/>
     </row>
     <row r="249" ht="20.35" customHeight="1">
-      <c r="A249" s="18"/>
-      <c r="B249" s="18"/>
-      <c r="C249" s="18"/>
-      <c r="D249" s="18"/>
-      <c r="E249" s="18"/>
-      <c r="F249" s="18"/>
-      <c r="G249" s="18"/>
-      <c r="H249" s="19"/>
+      <c r="A249" s="20"/>
+      <c r="B249" s="20"/>
+      <c r="C249" s="20"/>
+      <c r="D249" s="20"/>
+      <c r="E249" s="20"/>
+      <c r="F249" s="20"/>
+      <c r="G249" s="20"/>
+      <c r="H249" s="21"/>
     </row>
     <row r="250" ht="20.35" customHeight="1">
-      <c r="A250" s="18"/>
-      <c r="B250" s="18"/>
-      <c r="C250" s="18"/>
-      <c r="D250" s="18"/>
-      <c r="E250" s="18"/>
-      <c r="F250" s="18"/>
-      <c r="G250" s="18"/>
-      <c r="H250" s="20"/>
+      <c r="A250" s="20"/>
+      <c r="B250" s="20"/>
+      <c r="C250" s="20"/>
+      <c r="D250" s="20"/>
+      <c r="E250" s="20"/>
+      <c r="F250" s="20"/>
+      <c r="G250" s="20"/>
+      <c r="H250" s="22"/>
     </row>
     <row r="251" ht="21" customHeight="1">
-      <c r="A251" s="18"/>
-      <c r="B251" s="18"/>
-      <c r="C251" s="18"/>
+      <c r="A251" s="20"/>
+      <c r="B251" s="20"/>
+      <c r="C251" s="20"/>
       <c r="D251" s="6"/>
       <c r="E251" s="6"/>
       <c r="F251" s="6"/>
       <c r="G251" s="6"/>
-      <c r="H251" s="11"/>
+      <c r="H251" s="10"/>
     </row>
     <row r="252" ht="20.35" customHeight="1">
-      <c r="A252" s="18"/>
-      <c r="B252" s="18"/>
-      <c r="C252" s="18"/>
-      <c r="D252" s="18"/>
-      <c r="E252" s="18"/>
-      <c r="F252" s="18"/>
-      <c r="G252" s="18"/>
-      <c r="H252" s="19"/>
+      <c r="A252" s="20"/>
+      <c r="B252" s="20"/>
+      <c r="C252" s="20"/>
+      <c r="D252" s="20"/>
+      <c r="E252" s="20"/>
+      <c r="F252" s="20"/>
+      <c r="G252" s="20"/>
+      <c r="H252" s="21"/>
     </row>
     <row r="253" ht="20.05" customHeight="1">
-      <c r="A253" s="18"/>
-      <c r="B253" s="18"/>
-      <c r="C253" s="18"/>
-      <c r="D253" s="18"/>
-      <c r="E253" s="18"/>
-      <c r="F253" s="18"/>
-      <c r="G253" s="18"/>
-      <c r="H253" s="19"/>
+      <c r="A253" s="20"/>
+      <c r="B253" s="20"/>
+      <c r="C253" s="20"/>
+      <c r="D253" s="20"/>
+      <c r="E253" s="20"/>
+      <c r="F253" s="20"/>
+      <c r="G253" s="20"/>
+      <c r="H253" s="21"/>
     </row>
     <row r="254" ht="20.35" customHeight="1">
       <c r="A254" s="24"/>
       <c r="B254" s="24"/>
-      <c r="C254" s="18"/>
-      <c r="D254" s="18"/>
-      <c r="E254" s="18"/>
-      <c r="F254" s="18"/>
-      <c r="G254" s="18"/>
-      <c r="H254" s="20"/>
+      <c r="C254" s="20"/>
+      <c r="D254" s="20"/>
+      <c r="E254" s="20"/>
+      <c r="F254" s="20"/>
+      <c r="G254" s="20"/>
+      <c r="H254" s="22"/>
     </row>
     <row r="255" ht="21" customHeight="1">
       <c r="A255" s="25"/>
@@ -4799,22 +4981,22 @@
       <c r="E255" s="6"/>
       <c r="F255" s="6"/>
       <c r="G255" s="6"/>
-      <c r="H255" s="11"/>
+      <c r="H255" s="10"/>
     </row>
     <row r="256" ht="20.7" customHeight="1">
       <c r="A256" s="27"/>
       <c r="B256" s="27"/>
-      <c r="C256" s="18"/>
-      <c r="D256" s="18"/>
-      <c r="E256" s="18"/>
-      <c r="F256" s="18"/>
-      <c r="G256" s="18"/>
-      <c r="H256" s="20"/>
+      <c r="C256" s="20"/>
+      <c r="D256" s="20"/>
+      <c r="E256" s="20"/>
+      <c r="F256" s="20"/>
+      <c r="G256" s="20"/>
+      <c r="H256" s="22"/>
     </row>
     <row r="257" ht="21" customHeight="1">
       <c r="A257" s="24"/>
       <c r="B257" s="24"/>
-      <c r="C257" s="18"/>
+      <c r="C257" s="20"/>
       <c r="D257" s="6"/>
       <c r="E257" s="6"/>
       <c r="F257" s="6"/>
@@ -4829,22 +5011,22 @@
       <c r="E258" s="6"/>
       <c r="F258" s="6"/>
       <c r="G258" s="6"/>
-      <c r="H258" s="11"/>
+      <c r="H258" s="10"/>
     </row>
     <row r="259" ht="21" customHeight="1">
       <c r="A259" s="27"/>
       <c r="B259" s="27"/>
-      <c r="C259" s="18"/>
+      <c r="C259" s="20"/>
       <c r="D259" s="6"/>
       <c r="E259" s="6"/>
       <c r="F259" s="6"/>
       <c r="G259" s="6"/>
-      <c r="H259" s="14"/>
+      <c r="H259" s="11"/>
     </row>
     <row r="260" ht="21" customHeight="1">
-      <c r="A260" s="18"/>
-      <c r="B260" s="18"/>
-      <c r="C260" s="18"/>
+      <c r="A260" s="20"/>
+      <c r="B260" s="20"/>
+      <c r="C260" s="20"/>
       <c r="D260" s="6"/>
       <c r="E260" s="6"/>
       <c r="F260" s="6"/>
@@ -4854,7 +5036,7 @@
     <row r="261" ht="21" customHeight="1">
       <c r="A261" s="24"/>
       <c r="B261" s="24"/>
-      <c r="C261" s="18"/>
+      <c r="C261" s="20"/>
       <c r="D261" s="6"/>
       <c r="E261" s="6"/>
       <c r="F261" s="6"/>
@@ -4884,77 +5066,77 @@
     <row r="264" ht="21" customHeight="1">
       <c r="A264" s="27"/>
       <c r="B264" s="27"/>
-      <c r="C264" s="18"/>
+      <c r="C264" s="20"/>
       <c r="D264" s="6"/>
       <c r="E264" s="6"/>
       <c r="F264" s="6"/>
       <c r="G264" s="6"/>
-      <c r="H264" s="11"/>
+      <c r="H264" s="10"/>
     </row>
     <row r="265" ht="21" customHeight="1">
-      <c r="A265" s="18"/>
-      <c r="B265" s="18"/>
-      <c r="C265" s="18"/>
+      <c r="A265" s="20"/>
+      <c r="B265" s="20"/>
+      <c r="C265" s="20"/>
       <c r="D265" s="6"/>
       <c r="E265" s="6"/>
       <c r="F265" s="6"/>
       <c r="G265" s="6"/>
-      <c r="H265" s="22"/>
+      <c r="H265" s="18"/>
     </row>
     <row r="266" ht="21" customHeight="1">
-      <c r="A266" s="18"/>
-      <c r="B266" s="18"/>
-      <c r="C266" s="18"/>
+      <c r="A266" s="20"/>
+      <c r="B266" s="20"/>
+      <c r="C266" s="20"/>
       <c r="D266" s="6"/>
       <c r="E266" s="6"/>
       <c r="F266" s="6"/>
       <c r="G266" s="6"/>
-      <c r="H266" s="14"/>
+      <c r="H266" s="11"/>
     </row>
     <row r="267" ht="21" customHeight="1">
-      <c r="A267" s="18"/>
-      <c r="B267" s="18"/>
-      <c r="C267" s="18"/>
+      <c r="A267" s="20"/>
+      <c r="B267" s="20"/>
+      <c r="C267" s="20"/>
       <c r="D267" s="6"/>
       <c r="E267" s="6"/>
       <c r="F267" s="6"/>
       <c r="G267" s="6"/>
-      <c r="H267" s="11"/>
+      <c r="H267" s="10"/>
     </row>
     <row r="268" ht="21" customHeight="1">
-      <c r="A268" s="18"/>
-      <c r="B268" s="18"/>
-      <c r="C268" s="18"/>
+      <c r="A268" s="20"/>
+      <c r="B268" s="20"/>
+      <c r="C268" s="20"/>
       <c r="D268" s="6"/>
       <c r="E268" s="6"/>
       <c r="F268" s="6"/>
       <c r="G268" s="6"/>
-      <c r="H268" s="14"/>
+      <c r="H268" s="11"/>
     </row>
     <row r="269" ht="21" customHeight="1">
-      <c r="A269" s="18"/>
-      <c r="B269" s="18"/>
-      <c r="C269" s="18"/>
+      <c r="A269" s="20"/>
+      <c r="B269" s="20"/>
+      <c r="C269" s="20"/>
       <c r="D269" s="6"/>
       <c r="E269" s="6"/>
       <c r="F269" s="6"/>
       <c r="G269" s="6"/>
-      <c r="H269" s="11"/>
+      <c r="H269" s="10"/>
     </row>
     <row r="270" ht="21" customHeight="1">
-      <c r="A270" s="18"/>
-      <c r="B270" s="18"/>
-      <c r="C270" s="18"/>
+      <c r="A270" s="20"/>
+      <c r="B270" s="20"/>
+      <c r="C270" s="20"/>
       <c r="D270" s="6"/>
       <c r="E270" s="6"/>
       <c r="F270" s="6"/>
       <c r="G270" s="6"/>
-      <c r="H270" s="14"/>
+      <c r="H270" s="11"/>
     </row>
     <row r="271" ht="21" customHeight="1">
-      <c r="A271" s="18"/>
-      <c r="B271" s="18"/>
-      <c r="C271" s="18"/>
+      <c r="A271" s="20"/>
+      <c r="B271" s="20"/>
+      <c r="C271" s="20"/>
       <c r="D271" s="6"/>
       <c r="E271" s="6"/>
       <c r="F271" s="6"/>
@@ -4962,39 +5144,39 @@
       <c r="H271" s="7"/>
     </row>
     <row r="272" ht="21" customHeight="1">
-      <c r="A272" s="18"/>
-      <c r="B272" s="18"/>
-      <c r="C272" s="18"/>
+      <c r="A272" s="20"/>
+      <c r="B272" s="20"/>
+      <c r="C272" s="20"/>
       <c r="D272" s="6"/>
       <c r="E272" s="6"/>
       <c r="F272" s="6"/>
       <c r="G272" s="6"/>
-      <c r="H272" s="11"/>
+      <c r="H272" s="10"/>
     </row>
     <row r="273" ht="21" customHeight="1">
-      <c r="A273" s="18"/>
-      <c r="B273" s="18"/>
-      <c r="C273" s="18"/>
+      <c r="A273" s="20"/>
+      <c r="B273" s="20"/>
+      <c r="C273" s="20"/>
       <c r="D273" s="6"/>
       <c r="E273" s="6"/>
       <c r="F273" s="6"/>
       <c r="G273" s="6"/>
-      <c r="H273" s="22"/>
+      <c r="H273" s="18"/>
     </row>
     <row r="274" ht="20.7" customHeight="1">
-      <c r="A274" s="18"/>
-      <c r="B274" s="18"/>
-      <c r="C274" s="18"/>
-      <c r="D274" s="18"/>
-      <c r="E274" s="18"/>
-      <c r="F274" s="18"/>
-      <c r="G274" s="18"/>
-      <c r="H274" s="20"/>
+      <c r="A274" s="20"/>
+      <c r="B274" s="20"/>
+      <c r="C274" s="20"/>
+      <c r="D274" s="20"/>
+      <c r="E274" s="20"/>
+      <c r="F274" s="20"/>
+      <c r="G274" s="20"/>
+      <c r="H274" s="22"/>
     </row>
     <row r="275" ht="21" customHeight="1">
-      <c r="A275" s="18"/>
-      <c r="B275" s="18"/>
-      <c r="C275" s="18"/>
+      <c r="A275" s="20"/>
+      <c r="B275" s="20"/>
+      <c r="C275" s="20"/>
       <c r="D275" s="6"/>
       <c r="E275" s="6"/>
       <c r="F275" s="6"/>
@@ -5002,9 +5184,9 @@
       <c r="H275" s="7"/>
     </row>
     <row r="276" ht="21" customHeight="1">
-      <c r="A276" s="18"/>
-      <c r="B276" s="18"/>
-      <c r="C276" s="18"/>
+      <c r="A276" s="20"/>
+      <c r="B276" s="20"/>
+      <c r="C276" s="20"/>
       <c r="D276" s="6"/>
       <c r="E276" s="6"/>
       <c r="F276" s="6"/>
@@ -5012,9 +5194,9 @@
       <c r="H276" s="7"/>
     </row>
     <row r="277" ht="21" customHeight="1">
-      <c r="A277" s="18"/>
-      <c r="B277" s="18"/>
-      <c r="C277" s="18"/>
+      <c r="A277" s="20"/>
+      <c r="B277" s="20"/>
+      <c r="C277" s="20"/>
       <c r="D277" s="6"/>
       <c r="E277" s="6"/>
       <c r="F277" s="6"/>
@@ -5024,7 +5206,7 @@
     <row r="278" ht="21" customHeight="1">
       <c r="A278" s="24"/>
       <c r="B278" s="24"/>
-      <c r="C278" s="18"/>
+      <c r="C278" s="20"/>
       <c r="D278" s="6"/>
       <c r="E278" s="6"/>
       <c r="F278" s="6"/>
@@ -5049,22 +5231,22 @@
       <c r="E280" s="6"/>
       <c r="F280" s="6"/>
       <c r="G280" s="6"/>
-      <c r="H280" s="11"/>
+      <c r="H280" s="10"/>
     </row>
     <row r="281" ht="21" customHeight="1">
       <c r="A281" s="27"/>
       <c r="B281" s="27"/>
-      <c r="C281" s="18"/>
+      <c r="C281" s="20"/>
       <c r="D281" s="6"/>
       <c r="E281" s="6"/>
       <c r="F281" s="6"/>
       <c r="G281" s="6"/>
-      <c r="H281" s="14"/>
+      <c r="H281" s="11"/>
     </row>
     <row r="282" ht="21" customHeight="1">
-      <c r="A282" s="18"/>
-      <c r="B282" s="18"/>
-      <c r="C282" s="18"/>
+      <c r="A282" s="20"/>
+      <c r="B282" s="20"/>
+      <c r="C282" s="20"/>
       <c r="D282" s="6"/>
       <c r="E282" s="6"/>
       <c r="F282" s="6"/>
@@ -5072,29 +5254,29 @@
       <c r="H282" s="7"/>
     </row>
     <row r="283" ht="21" customHeight="1">
-      <c r="A283" s="18"/>
-      <c r="B283" s="18"/>
-      <c r="C283" s="18"/>
+      <c r="A283" s="20"/>
+      <c r="B283" s="20"/>
+      <c r="C283" s="20"/>
       <c r="D283" s="6"/>
       <c r="E283" s="6"/>
       <c r="F283" s="6"/>
       <c r="G283" s="6"/>
-      <c r="H283" s="11"/>
+      <c r="H283" s="10"/>
     </row>
     <row r="284" ht="21" customHeight="1">
-      <c r="A284" s="18"/>
-      <c r="B284" s="18"/>
-      <c r="C284" s="18"/>
+      <c r="A284" s="20"/>
+      <c r="B284" s="20"/>
+      <c r="C284" s="20"/>
       <c r="D284" s="6"/>
       <c r="E284" s="6"/>
       <c r="F284" s="6"/>
       <c r="G284" s="6"/>
-      <c r="H284" s="14"/>
+      <c r="H284" s="11"/>
     </row>
     <row r="285" ht="21" customHeight="1">
-      <c r="A285" s="18"/>
-      <c r="B285" s="18"/>
-      <c r="C285" s="18"/>
+      <c r="A285" s="20"/>
+      <c r="B285" s="20"/>
+      <c r="C285" s="20"/>
       <c r="D285" s="6"/>
       <c r="E285" s="6"/>
       <c r="F285" s="6"/>
@@ -5102,29 +5284,29 @@
       <c r="H285" s="7"/>
     </row>
     <row r="286" ht="21" customHeight="1">
-      <c r="A286" s="18"/>
-      <c r="B286" s="18"/>
-      <c r="C286" s="18"/>
+      <c r="A286" s="20"/>
+      <c r="B286" s="20"/>
+      <c r="C286" s="20"/>
       <c r="D286" s="6"/>
       <c r="E286" s="6"/>
       <c r="F286" s="6"/>
       <c r="G286" s="6"/>
-      <c r="H286" s="11"/>
+      <c r="H286" s="10"/>
     </row>
     <row r="287" ht="21" customHeight="1">
-      <c r="A287" s="18"/>
-      <c r="B287" s="18"/>
-      <c r="C287" s="18"/>
+      <c r="A287" s="20"/>
+      <c r="B287" s="20"/>
+      <c r="C287" s="20"/>
       <c r="D287" s="6"/>
       <c r="E287" s="6"/>
       <c r="F287" s="6"/>
       <c r="G287" s="6"/>
-      <c r="H287" s="14"/>
+      <c r="H287" s="11"/>
     </row>
     <row r="288" ht="21" customHeight="1">
-      <c r="A288" s="18"/>
-      <c r="B288" s="18"/>
-      <c r="C288" s="18"/>
+      <c r="A288" s="20"/>
+      <c r="B288" s="20"/>
+      <c r="C288" s="20"/>
       <c r="D288" s="6"/>
       <c r="E288" s="6"/>
       <c r="F288" s="6"/>
@@ -5132,9 +5314,9 @@
       <c r="H288" s="7"/>
     </row>
     <row r="289" ht="21" customHeight="1">
-      <c r="A289" s="18"/>
-      <c r="B289" s="18"/>
-      <c r="C289" s="18"/>
+      <c r="A289" s="20"/>
+      <c r="B289" s="20"/>
+      <c r="C289" s="20"/>
       <c r="D289" s="6"/>
       <c r="E289" s="6"/>
       <c r="F289" s="6"/>
@@ -5142,9 +5324,9 @@
       <c r="H289" s="7"/>
     </row>
     <row r="290" ht="21" customHeight="1">
-      <c r="A290" s="18"/>
-      <c r="B290" s="18"/>
-      <c r="C290" s="18"/>
+      <c r="A290" s="20"/>
+      <c r="B290" s="20"/>
+      <c r="C290" s="20"/>
       <c r="D290" s="6"/>
       <c r="E290" s="6"/>
       <c r="F290" s="6"/>
@@ -5152,9 +5334,9 @@
       <c r="H290" s="7"/>
     </row>
     <row r="291" ht="21" customHeight="1">
-      <c r="A291" s="18"/>
-      <c r="B291" s="18"/>
-      <c r="C291" s="18"/>
+      <c r="A291" s="20"/>
+      <c r="B291" s="20"/>
+      <c r="C291" s="20"/>
       <c r="D291" s="6"/>
       <c r="E291" s="6"/>
       <c r="F291" s="6"/>
@@ -5162,9 +5344,9 @@
       <c r="H291" s="7"/>
     </row>
     <row r="292" ht="21" customHeight="1">
-      <c r="A292" s="18"/>
-      <c r="B292" s="18"/>
-      <c r="C292" s="18"/>
+      <c r="A292" s="20"/>
+      <c r="B292" s="20"/>
+      <c r="C292" s="20"/>
       <c r="D292" s="6"/>
       <c r="E292" s="6"/>
       <c r="F292" s="6"/>
@@ -5174,7 +5356,7 @@
     <row r="293" ht="21" customHeight="1">
       <c r="A293" s="24"/>
       <c r="B293" s="24"/>
-      <c r="C293" s="18"/>
+      <c r="C293" s="20"/>
       <c r="D293" s="6"/>
       <c r="E293" s="6"/>
       <c r="F293" s="6"/>
@@ -5189,22 +5371,22 @@
       <c r="E294" s="6"/>
       <c r="F294" s="6"/>
       <c r="G294" s="6"/>
-      <c r="H294" s="11"/>
+      <c r="H294" s="10"/>
     </row>
     <row r="295" ht="20.7" customHeight="1">
       <c r="A295" s="27"/>
       <c r="B295" s="27"/>
-      <c r="C295" s="18"/>
-      <c r="D295" s="18"/>
-      <c r="E295" s="18"/>
-      <c r="F295" s="18"/>
-      <c r="G295" s="18"/>
-      <c r="H295" s="20"/>
+      <c r="C295" s="20"/>
+      <c r="D295" s="20"/>
+      <c r="E295" s="20"/>
+      <c r="F295" s="20"/>
+      <c r="G295" s="20"/>
+      <c r="H295" s="22"/>
     </row>
     <row r="296" ht="21" customHeight="1">
-      <c r="A296" s="18"/>
-      <c r="B296" s="18"/>
-      <c r="C296" s="18"/>
+      <c r="A296" s="20"/>
+      <c r="B296" s="20"/>
+      <c r="C296" s="20"/>
       <c r="D296" s="6"/>
       <c r="E296" s="6"/>
       <c r="F296" s="6"/>
@@ -5212,9 +5394,9 @@
       <c r="H296" s="7"/>
     </row>
     <row r="297" ht="21" customHeight="1">
-      <c r="A297" s="18"/>
-      <c r="B297" s="18"/>
-      <c r="C297" s="18"/>
+      <c r="A297" s="20"/>
+      <c r="B297" s="20"/>
+      <c r="C297" s="20"/>
       <c r="D297" s="6"/>
       <c r="E297" s="6"/>
       <c r="F297" s="6"/>
@@ -5222,9 +5404,9 @@
       <c r="H297" s="7"/>
     </row>
     <row r="298" ht="21" customHeight="1">
-      <c r="A298" s="18"/>
-      <c r="B298" s="18"/>
-      <c r="C298" s="18"/>
+      <c r="A298" s="20"/>
+      <c r="B298" s="20"/>
+      <c r="C298" s="20"/>
       <c r="D298" s="6"/>
       <c r="E298" s="6"/>
       <c r="F298" s="6"/>
@@ -5232,24 +5414,24 @@
       <c r="H298" s="7"/>
     </row>
     <row r="299" ht="21" customHeight="1">
-      <c r="A299" s="18"/>
-      <c r="B299" s="18"/>
-      <c r="C299" s="18"/>
+      <c r="A299" s="20"/>
+      <c r="B299" s="20"/>
+      <c r="C299" s="20"/>
       <c r="D299" s="6"/>
       <c r="E299" s="6"/>
       <c r="F299" s="6"/>
       <c r="G299" s="6"/>
-      <c r="H299" s="11"/>
+      <c r="H299" s="10"/>
     </row>
     <row r="300" ht="21" customHeight="1">
       <c r="A300" s="24"/>
       <c r="B300" s="24"/>
-      <c r="C300" s="18"/>
+      <c r="C300" s="20"/>
       <c r="D300" s="6"/>
       <c r="E300" s="6"/>
       <c r="F300" s="6"/>
       <c r="G300" s="6"/>
-      <c r="H300" s="14"/>
+      <c r="H300" s="11"/>
     </row>
     <row r="301" ht="21" customHeight="1">
       <c r="A301" s="25"/>
@@ -5264,107 +5446,107 @@
     <row r="302" ht="21" customHeight="1">
       <c r="A302" s="27"/>
       <c r="B302" s="27"/>
-      <c r="C302" s="18"/>
+      <c r="C302" s="20"/>
       <c r="D302" s="6"/>
       <c r="E302" s="6"/>
       <c r="F302" s="6"/>
       <c r="G302" s="6"/>
-      <c r="H302" s="11"/>
+      <c r="H302" s="10"/>
     </row>
     <row r="303" ht="21" customHeight="1">
-      <c r="A303" s="18"/>
-      <c r="B303" s="18"/>
-      <c r="C303" s="18"/>
+      <c r="A303" s="20"/>
+      <c r="B303" s="20"/>
+      <c r="C303" s="20"/>
       <c r="D303" s="6"/>
       <c r="E303" s="6"/>
       <c r="F303" s="6"/>
       <c r="G303" s="6"/>
-      <c r="H303" s="14"/>
+      <c r="H303" s="11"/>
     </row>
     <row r="304" ht="21" customHeight="1">
-      <c r="A304" s="18"/>
-      <c r="B304" s="18"/>
-      <c r="C304" s="18"/>
+      <c r="A304" s="20"/>
+      <c r="B304" s="20"/>
+      <c r="C304" s="20"/>
       <c r="D304" s="6"/>
       <c r="E304" s="6"/>
       <c r="F304" s="6"/>
       <c r="G304" s="6"/>
-      <c r="H304" s="11"/>
+      <c r="H304" s="10"/>
     </row>
     <row r="305" ht="20.35" customHeight="1">
-      <c r="A305" s="18"/>
-      <c r="B305" s="18"/>
-      <c r="C305" s="18"/>
-      <c r="D305" s="18"/>
-      <c r="E305" s="18"/>
-      <c r="F305" s="18"/>
-      <c r="G305" s="18"/>
-      <c r="H305" s="19"/>
+      <c r="A305" s="20"/>
+      <c r="B305" s="20"/>
+      <c r="C305" s="20"/>
+      <c r="D305" s="20"/>
+      <c r="E305" s="20"/>
+      <c r="F305" s="20"/>
+      <c r="G305" s="20"/>
+      <c r="H305" s="21"/>
     </row>
     <row r="306" ht="20.35" customHeight="1">
-      <c r="A306" s="18"/>
-      <c r="B306" s="18"/>
-      <c r="C306" s="18"/>
-      <c r="D306" s="18"/>
-      <c r="E306" s="18"/>
-      <c r="F306" s="18"/>
-      <c r="G306" s="18"/>
-      <c r="H306" s="20"/>
+      <c r="A306" s="20"/>
+      <c r="B306" s="20"/>
+      <c r="C306" s="20"/>
+      <c r="D306" s="20"/>
+      <c r="E306" s="20"/>
+      <c r="F306" s="20"/>
+      <c r="G306" s="20"/>
+      <c r="H306" s="22"/>
     </row>
     <row r="307" ht="21" customHeight="1">
-      <c r="A307" s="18"/>
-      <c r="B307" s="18"/>
-      <c r="C307" s="18"/>
+      <c r="A307" s="20"/>
+      <c r="B307" s="20"/>
+      <c r="C307" s="20"/>
       <c r="D307" s="6"/>
       <c r="E307" s="6"/>
       <c r="F307" s="6"/>
       <c r="G307" s="6"/>
-      <c r="H307" s="11"/>
+      <c r="H307" s="10"/>
     </row>
     <row r="308" ht="21" customHeight="1">
-      <c r="A308" s="18"/>
-      <c r="B308" s="18"/>
-      <c r="C308" s="18"/>
+      <c r="A308" s="20"/>
+      <c r="B308" s="20"/>
+      <c r="C308" s="20"/>
       <c r="D308" s="6"/>
       <c r="E308" s="6"/>
       <c r="F308" s="6"/>
       <c r="G308" s="6"/>
-      <c r="H308" s="14"/>
+      <c r="H308" s="11"/>
     </row>
     <row r="309" ht="21" customHeight="1">
-      <c r="A309" s="18"/>
-      <c r="B309" s="18"/>
-      <c r="C309" s="18"/>
+      <c r="A309" s="20"/>
+      <c r="B309" s="20"/>
+      <c r="C309" s="20"/>
       <c r="D309" s="6"/>
       <c r="E309" s="6"/>
       <c r="F309" s="6"/>
       <c r="G309" s="6"/>
-      <c r="H309" s="11"/>
+      <c r="H309" s="10"/>
     </row>
     <row r="310" ht="21" customHeight="1">
-      <c r="A310" s="18"/>
-      <c r="B310" s="18"/>
-      <c r="C310" s="18"/>
+      <c r="A310" s="20"/>
+      <c r="B310" s="20"/>
+      <c r="C310" s="20"/>
       <c r="D310" s="6"/>
       <c r="E310" s="6"/>
       <c r="F310" s="6"/>
       <c r="G310" s="6"/>
-      <c r="H310" s="14"/>
+      <c r="H310" s="11"/>
     </row>
     <row r="311" ht="21" customHeight="1">
-      <c r="A311" s="18"/>
-      <c r="B311" s="18"/>
-      <c r="C311" s="18"/>
-      <c r="D311" s="18"/>
-      <c r="E311" s="18"/>
-      <c r="F311" s="18"/>
-      <c r="G311" s="18"/>
+      <c r="A311" s="20"/>
+      <c r="B311" s="20"/>
+      <c r="C311" s="20"/>
+      <c r="D311" s="20"/>
+      <c r="E311" s="20"/>
+      <c r="F311" s="20"/>
+      <c r="G311" s="20"/>
       <c r="H311" s="7"/>
     </row>
     <row r="312" ht="21" customHeight="1">
-      <c r="A312" s="18"/>
-      <c r="B312" s="18"/>
-      <c r="C312" s="18"/>
+      <c r="A312" s="20"/>
+      <c r="B312" s="20"/>
+      <c r="C312" s="20"/>
       <c r="D312" s="6"/>
       <c r="E312" s="6"/>
       <c r="F312" s="6"/>
@@ -5372,29 +5554,29 @@
       <c r="H312" s="7"/>
     </row>
     <row r="313" ht="21" customHeight="1">
-      <c r="A313" s="18"/>
-      <c r="B313" s="18"/>
-      <c r="C313" s="18"/>
+      <c r="A313" s="20"/>
+      <c r="B313" s="20"/>
+      <c r="C313" s="20"/>
       <c r="D313" s="6"/>
       <c r="E313" s="6"/>
       <c r="F313" s="6"/>
       <c r="G313" s="6"/>
-      <c r="H313" s="11"/>
+      <c r="H313" s="10"/>
     </row>
     <row r="314" ht="20.7" customHeight="1">
-      <c r="A314" s="18"/>
-      <c r="B314" s="18"/>
-      <c r="C314" s="18"/>
-      <c r="D314" s="18"/>
-      <c r="E314" s="18"/>
-      <c r="F314" s="18"/>
-      <c r="G314" s="18"/>
-      <c r="H314" s="20"/>
+      <c r="A314" s="20"/>
+      <c r="B314" s="20"/>
+      <c r="C314" s="20"/>
+      <c r="D314" s="20"/>
+      <c r="E314" s="20"/>
+      <c r="F314" s="20"/>
+      <c r="G314" s="20"/>
+      <c r="H314" s="22"/>
     </row>
     <row r="315" ht="21" customHeight="1">
-      <c r="A315" s="18"/>
-      <c r="B315" s="18"/>
-      <c r="C315" s="18"/>
+      <c r="A315" s="20"/>
+      <c r="B315" s="20"/>
+      <c r="C315" s="20"/>
       <c r="D315" s="6"/>
       <c r="E315" s="6"/>
       <c r="F315" s="6"/>
@@ -5402,9 +5584,9 @@
       <c r="H315" s="7"/>
     </row>
     <row r="316" ht="21" customHeight="1">
-      <c r="A316" s="18"/>
-      <c r="B316" s="18"/>
-      <c r="C316" s="18"/>
+      <c r="A316" s="20"/>
+      <c r="B316" s="20"/>
+      <c r="C316" s="20"/>
       <c r="D316" s="6"/>
       <c r="E316" s="6"/>
       <c r="F316" s="6"/>
@@ -5412,29 +5594,29 @@
       <c r="H316" s="7"/>
     </row>
     <row r="317" ht="21" customHeight="1">
-      <c r="A317" s="18"/>
-      <c r="B317" s="18"/>
-      <c r="C317" s="18"/>
+      <c r="A317" s="20"/>
+      <c r="B317" s="20"/>
+      <c r="C317" s="20"/>
       <c r="D317" s="6"/>
       <c r="E317" s="6"/>
       <c r="F317" s="6"/>
       <c r="G317" s="6"/>
-      <c r="H317" s="11"/>
+      <c r="H317" s="10"/>
     </row>
     <row r="318" ht="21" customHeight="1">
-      <c r="A318" s="18"/>
-      <c r="B318" s="18"/>
-      <c r="C318" s="18"/>
+      <c r="A318" s="20"/>
+      <c r="B318" s="20"/>
+      <c r="C318" s="20"/>
       <c r="D318" s="6"/>
       <c r="E318" s="6"/>
       <c r="F318" s="6"/>
       <c r="G318" s="6"/>
-      <c r="H318" s="14"/>
+      <c r="H318" s="11"/>
     </row>
     <row r="319" ht="21" customHeight="1">
-      <c r="A319" s="18"/>
-      <c r="B319" s="18"/>
-      <c r="C319" s="18"/>
+      <c r="A319" s="20"/>
+      <c r="B319" s="20"/>
+      <c r="C319" s="20"/>
       <c r="D319" s="6"/>
       <c r="E319" s="6"/>
       <c r="F319" s="6"/>
@@ -5442,9 +5624,9 @@
       <c r="H319" s="7"/>
     </row>
     <row r="320" ht="21" customHeight="1">
-      <c r="A320" s="18"/>
-      <c r="B320" s="18"/>
-      <c r="C320" s="18"/>
+      <c r="A320" s="20"/>
+      <c r="B320" s="20"/>
+      <c r="C320" s="20"/>
       <c r="D320" s="6"/>
       <c r="E320" s="6"/>
       <c r="F320" s="6"/>
@@ -5452,9 +5634,9 @@
       <c r="H320" s="7"/>
     </row>
     <row r="321" ht="21" customHeight="1">
-      <c r="A321" s="18"/>
-      <c r="B321" s="18"/>
-      <c r="C321" s="18"/>
+      <c r="A321" s="20"/>
+      <c r="B321" s="20"/>
+      <c r="C321" s="20"/>
       <c r="D321" s="6"/>
       <c r="E321" s="6"/>
       <c r="F321" s="6"/>
@@ -5462,9 +5644,9 @@
       <c r="H321" s="7"/>
     </row>
     <row r="322" ht="21" customHeight="1">
-      <c r="A322" s="18"/>
-      <c r="B322" s="18"/>
-      <c r="C322" s="18"/>
+      <c r="A322" s="20"/>
+      <c r="B322" s="20"/>
+      <c r="C322" s="20"/>
       <c r="D322" s="6"/>
       <c r="E322" s="6"/>
       <c r="F322" s="6"/>
@@ -5474,7 +5656,7 @@
     <row r="323" ht="21" customHeight="1">
       <c r="A323" s="24"/>
       <c r="B323" s="24"/>
-      <c r="C323" s="18"/>
+      <c r="C323" s="20"/>
       <c r="D323" s="6"/>
       <c r="E323" s="6"/>
       <c r="F323" s="6"/>
@@ -5509,22 +5691,22 @@
       <c r="E326" s="6"/>
       <c r="F326" s="6"/>
       <c r="G326" s="6"/>
-      <c r="H326" s="11"/>
+      <c r="H326" s="10"/>
     </row>
     <row r="327" ht="21" customHeight="1">
       <c r="A327" s="27"/>
       <c r="B327" s="27"/>
-      <c r="C327" s="18"/>
+      <c r="C327" s="20"/>
       <c r="D327" s="6"/>
       <c r="E327" s="6"/>
       <c r="F327" s="6"/>
       <c r="G327" s="6"/>
-      <c r="H327" s="14"/>
+      <c r="H327" s="11"/>
     </row>
     <row r="328" ht="21" customHeight="1">
-      <c r="A328" s="18"/>
-      <c r="B328" s="18"/>
-      <c r="C328" s="18"/>
+      <c r="A328" s="20"/>
+      <c r="B328" s="20"/>
+      <c r="C328" s="20"/>
       <c r="D328" s="6"/>
       <c r="E328" s="6"/>
       <c r="F328" s="6"/>
@@ -5532,9 +5714,9 @@
       <c r="H328" s="7"/>
     </row>
     <row r="329" ht="21" customHeight="1">
-      <c r="A329" s="18"/>
-      <c r="B329" s="18"/>
-      <c r="C329" s="18"/>
+      <c r="A329" s="20"/>
+      <c r="B329" s="20"/>
+      <c r="C329" s="20"/>
       <c r="D329" s="6"/>
       <c r="E329" s="6"/>
       <c r="F329" s="6"/>
@@ -5542,9 +5724,9 @@
       <c r="H329" s="7"/>
     </row>
     <row r="330" ht="21" customHeight="1">
-      <c r="A330" s="18"/>
-      <c r="B330" s="18"/>
-      <c r="C330" s="18"/>
+      <c r="A330" s="20"/>
+      <c r="B330" s="20"/>
+      <c r="C330" s="20"/>
       <c r="D330" s="6"/>
       <c r="E330" s="6"/>
       <c r="F330" s="6"/>
@@ -5552,34 +5734,34 @@
       <c r="H330" s="7"/>
     </row>
     <row r="331" ht="21" customHeight="1">
-      <c r="A331" s="18"/>
-      <c r="B331" s="18"/>
-      <c r="C331" s="18"/>
+      <c r="A331" s="20"/>
+      <c r="B331" s="20"/>
+      <c r="C331" s="20"/>
       <c r="D331" s="6"/>
       <c r="E331" s="6"/>
       <c r="F331" s="6"/>
       <c r="G331" s="6"/>
-      <c r="H331" s="11"/>
+      <c r="H331" s="10"/>
     </row>
     <row r="332" ht="21" customHeight="1">
-      <c r="A332" s="18"/>
-      <c r="B332" s="18"/>
-      <c r="C332" s="18"/>
+      <c r="A332" s="20"/>
+      <c r="B332" s="20"/>
+      <c r="C332" s="20"/>
       <c r="D332" s="6"/>
       <c r="E332" s="6"/>
       <c r="F332" s="6"/>
       <c r="G332" s="6"/>
-      <c r="H332" s="22"/>
+      <c r="H332" s="18"/>
     </row>
     <row r="333" ht="20.7" customHeight="1">
       <c r="A333" s="24"/>
       <c r="B333" s="24"/>
-      <c r="C333" s="18"/>
-      <c r="D333" s="18"/>
-      <c r="E333" s="18"/>
-      <c r="F333" s="18"/>
-      <c r="G333" s="18"/>
-      <c r="H333" s="20"/>
+      <c r="C333" s="20"/>
+      <c r="D333" s="20"/>
+      <c r="E333" s="20"/>
+      <c r="F333" s="20"/>
+      <c r="G333" s="20"/>
+      <c r="H333" s="22"/>
     </row>
     <row r="334" ht="21" customHeight="1">
       <c r="A334" s="25"/>
@@ -5599,22 +5781,22 @@
       <c r="E335" s="6"/>
       <c r="F335" s="6"/>
       <c r="G335" s="6"/>
-      <c r="H335" s="11"/>
+      <c r="H335" s="10"/>
     </row>
     <row r="336" ht="21" customHeight="1">
       <c r="A336" s="27"/>
       <c r="B336" s="27"/>
-      <c r="C336" s="18"/>
+      <c r="C336" s="20"/>
       <c r="D336" s="6"/>
       <c r="E336" s="6"/>
       <c r="F336" s="6"/>
       <c r="G336" s="6"/>
-      <c r="H336" s="14"/>
+      <c r="H336" s="11"/>
     </row>
     <row r="337" ht="21" customHeight="1">
-      <c r="A337" s="18"/>
-      <c r="B337" s="18"/>
-      <c r="C337" s="18"/>
+      <c r="A337" s="20"/>
+      <c r="B337" s="20"/>
+      <c r="C337" s="20"/>
       <c r="D337" s="6"/>
       <c r="E337" s="6"/>
       <c r="F337" s="6"/>
@@ -5622,9 +5804,9 @@
       <c r="H337" s="7"/>
     </row>
     <row r="338" ht="21" customHeight="1">
-      <c r="A338" s="18"/>
-      <c r="B338" s="18"/>
-      <c r="C338" s="18"/>
+      <c r="A338" s="20"/>
+      <c r="B338" s="20"/>
+      <c r="C338" s="20"/>
       <c r="D338" s="6"/>
       <c r="E338" s="6"/>
       <c r="F338" s="6"/>
@@ -5632,29 +5814,29 @@
       <c r="H338" s="7"/>
     </row>
     <row r="339" ht="21" customHeight="1">
-      <c r="A339" s="18"/>
-      <c r="B339" s="18"/>
-      <c r="C339" s="18"/>
+      <c r="A339" s="20"/>
+      <c r="B339" s="20"/>
+      <c r="C339" s="20"/>
       <c r="D339" s="6"/>
       <c r="E339" s="6"/>
       <c r="F339" s="6"/>
       <c r="G339" s="6"/>
-      <c r="H339" s="11"/>
+      <c r="H339" s="10"/>
     </row>
     <row r="340" ht="21" customHeight="1">
-      <c r="A340" s="18"/>
-      <c r="B340" s="18"/>
-      <c r="C340" s="18"/>
+      <c r="A340" s="20"/>
+      <c r="B340" s="20"/>
+      <c r="C340" s="20"/>
       <c r="D340" s="6"/>
       <c r="E340" s="6"/>
       <c r="F340" s="6"/>
       <c r="G340" s="6"/>
-      <c r="H340" s="14"/>
+      <c r="H340" s="11"/>
     </row>
     <row r="341" ht="21" customHeight="1">
-      <c r="A341" s="18"/>
-      <c r="B341" s="18"/>
-      <c r="C341" s="18"/>
+      <c r="A341" s="20"/>
+      <c r="B341" s="20"/>
+      <c r="C341" s="20"/>
       <c r="D341" s="6"/>
       <c r="E341" s="6"/>
       <c r="F341" s="6"/>
@@ -5662,9 +5844,9 @@
       <c r="H341" s="7"/>
     </row>
     <row r="342" ht="21" customHeight="1">
-      <c r="A342" s="18"/>
-      <c r="B342" s="18"/>
-      <c r="C342" s="18"/>
+      <c r="A342" s="20"/>
+      <c r="B342" s="20"/>
+      <c r="C342" s="20"/>
       <c r="D342" s="6"/>
       <c r="E342" s="6"/>
       <c r="F342" s="6"/>
@@ -5672,9 +5854,9 @@
       <c r="H342" s="7"/>
     </row>
     <row r="343" ht="21" customHeight="1">
-      <c r="A343" s="18"/>
-      <c r="B343" s="18"/>
-      <c r="C343" s="18"/>
+      <c r="A343" s="20"/>
+      <c r="B343" s="20"/>
+      <c r="C343" s="20"/>
       <c r="D343" s="6"/>
       <c r="E343" s="6"/>
       <c r="F343" s="6"/>
@@ -5682,24 +5864,24 @@
       <c r="H343" s="7"/>
     </row>
     <row r="344" ht="21" customHeight="1">
-      <c r="A344" s="18"/>
-      <c r="B344" s="18"/>
-      <c r="C344" s="18"/>
+      <c r="A344" s="20"/>
+      <c r="B344" s="20"/>
+      <c r="C344" s="20"/>
       <c r="D344" s="6"/>
       <c r="E344" s="6"/>
       <c r="F344" s="6"/>
       <c r="G344" s="6"/>
-      <c r="H344" s="11"/>
+      <c r="H344" s="10"/>
     </row>
     <row r="345" ht="21" customHeight="1">
       <c r="A345" s="24"/>
       <c r="B345" s="24"/>
-      <c r="C345" s="18"/>
+      <c r="C345" s="20"/>
       <c r="D345" s="6"/>
       <c r="E345" s="6"/>
       <c r="F345" s="6"/>
       <c r="G345" s="6"/>
-      <c r="H345" s="14"/>
+      <c r="H345" s="11"/>
     </row>
     <row r="346" ht="21" customHeight="1">
       <c r="A346" s="25"/>
@@ -5709,42 +5891,42 @@
       <c r="E346" s="6"/>
       <c r="F346" s="6"/>
       <c r="G346" s="6"/>
-      <c r="H346" s="11"/>
+      <c r="H346" s="10"/>
     </row>
     <row r="347" ht="21" customHeight="1">
       <c r="A347" s="27"/>
       <c r="B347" s="27"/>
-      <c r="C347" s="18"/>
+      <c r="C347" s="20"/>
       <c r="D347" s="6"/>
       <c r="E347" s="6"/>
       <c r="F347" s="6"/>
       <c r="G347" s="6"/>
-      <c r="H347" s="14"/>
+      <c r="H347" s="11"/>
     </row>
     <row r="348" ht="21" customHeight="1">
-      <c r="A348" s="18"/>
-      <c r="B348" s="18"/>
-      <c r="C348" s="18"/>
+      <c r="A348" s="20"/>
+      <c r="B348" s="20"/>
+      <c r="C348" s="20"/>
       <c r="D348" s="6"/>
       <c r="E348" s="6"/>
       <c r="F348" s="6"/>
       <c r="G348" s="6"/>
-      <c r="H348" s="11"/>
+      <c r="H348" s="10"/>
     </row>
     <row r="349" ht="21" customHeight="1">
-      <c r="A349" s="18"/>
-      <c r="B349" s="18"/>
-      <c r="C349" s="18"/>
+      <c r="A349" s="20"/>
+      <c r="B349" s="20"/>
+      <c r="C349" s="20"/>
       <c r="D349" s="6"/>
       <c r="E349" s="6"/>
       <c r="F349" s="6"/>
       <c r="G349" s="6"/>
-      <c r="H349" s="14"/>
+      <c r="H349" s="11"/>
     </row>
     <row r="350" ht="21" customHeight="1">
-      <c r="A350" s="18"/>
-      <c r="B350" s="18"/>
-      <c r="C350" s="18"/>
+      <c r="A350" s="20"/>
+      <c r="B350" s="20"/>
+      <c r="C350" s="20"/>
       <c r="D350" s="6"/>
       <c r="E350" s="6"/>
       <c r="F350" s="6"/>
@@ -5752,9 +5934,9 @@
       <c r="H350" s="7"/>
     </row>
     <row r="351" ht="21" customHeight="1">
-      <c r="A351" s="18"/>
-      <c r="B351" s="18"/>
-      <c r="C351" s="18"/>
+      <c r="A351" s="20"/>
+      <c r="B351" s="20"/>
+      <c r="C351" s="20"/>
       <c r="D351" s="6"/>
       <c r="E351" s="6"/>
       <c r="F351" s="6"/>
@@ -5762,9 +5944,9 @@
       <c r="H351" s="7"/>
     </row>
     <row r="352" ht="21" customHeight="1">
-      <c r="A352" s="18"/>
-      <c r="B352" s="18"/>
-      <c r="C352" s="18"/>
+      <c r="A352" s="20"/>
+      <c r="B352" s="20"/>
+      <c r="C352" s="20"/>
       <c r="D352" s="6"/>
       <c r="E352" s="6"/>
       <c r="F352" s="6"/>
@@ -5772,34 +5954,34 @@
       <c r="H352" s="7"/>
     </row>
     <row r="353" ht="21" customHeight="1">
-      <c r="A353" s="18"/>
-      <c r="B353" s="18"/>
-      <c r="C353" s="18"/>
+      <c r="A353" s="20"/>
+      <c r="B353" s="20"/>
+      <c r="C353" s="20"/>
       <c r="D353" s="6"/>
       <c r="E353" s="6"/>
       <c r="F353" s="6"/>
       <c r="G353" s="6"/>
-      <c r="H353" s="11"/>
+      <c r="H353" s="10"/>
     </row>
     <row r="354" ht="21" customHeight="1">
-      <c r="A354" s="18"/>
-      <c r="B354" s="18"/>
-      <c r="C354" s="18"/>
+      <c r="A354" s="20"/>
+      <c r="B354" s="20"/>
+      <c r="C354" s="20"/>
       <c r="D354" s="6"/>
       <c r="E354" s="6"/>
       <c r="F354" s="6"/>
       <c r="G354" s="6"/>
-      <c r="H354" s="14"/>
+      <c r="H354" s="11"/>
     </row>
     <row r="355" ht="21" customHeight="1">
-      <c r="A355" s="18"/>
-      <c r="B355" s="18"/>
-      <c r="C355" s="18"/>
+      <c r="A355" s="20"/>
+      <c r="B355" s="20"/>
+      <c r="C355" s="20"/>
       <c r="D355" s="6"/>
       <c r="E355" s="6"/>
       <c r="F355" s="6"/>
       <c r="G355" s="6"/>
-      <c r="H355" s="11"/>
+      <c r="H355" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/cw12022023.xlsx
+++ b/cw12022023.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="188">
   <si>
     <t>Surname</t>
   </si>
@@ -46,6 +46,12 @@
     <t>HECP</t>
   </si>
   <si>
+    <t>Chabata</t>
+  </si>
+  <si>
+    <t>H220423M</t>
+  </si>
+  <si>
     <t>Chagorerino</t>
   </si>
   <si>
@@ -112,6 +118,12 @@
     <t>H220620N</t>
   </si>
   <si>
+    <t>Chitiki</t>
+  </si>
+  <si>
+    <t>H220259G</t>
+  </si>
+  <si>
     <t>Chitonho</t>
   </si>
   <si>
@@ -133,12 +145,24 @@
     <t>HEBE</t>
   </si>
   <si>
+    <t>Dhliwayo</t>
+  </si>
+  <si>
+    <t>H220630W</t>
+  </si>
+  <si>
     <t>Foroma</t>
   </si>
   <si>
     <t>H220518Y</t>
   </si>
   <si>
+    <t>Garan’anga</t>
+  </si>
+  <si>
+    <t>H220190J</t>
+  </si>
+  <si>
     <t>Govera</t>
   </si>
   <si>
@@ -181,6 +205,12 @@
     <t>H220692W</t>
   </si>
   <si>
+    <t>Kloppers</t>
+  </si>
+  <si>
+    <t>H220285F</t>
+  </si>
+  <si>
     <t>Mabehlya</t>
   </si>
   <si>
@@ -193,6 +223,18 @@
     <t>H220098M</t>
   </si>
   <si>
+    <t>Machote</t>
+  </si>
+  <si>
+    <t>H220027Z</t>
+  </si>
+  <si>
+    <t>Madhende</t>
+  </si>
+  <si>
+    <t>H210337P</t>
+  </si>
+  <si>
     <t>Madzokora</t>
   </si>
   <si>
@@ -217,6 +259,18 @@
     <t>H210581E</t>
   </si>
   <si>
+    <t>Mambayo</t>
+  </si>
+  <si>
+    <t>H220103A</t>
+  </si>
+  <si>
+    <t>Mandara</t>
+  </si>
+  <si>
+    <t>H220186G</t>
+  </si>
+  <si>
     <t>Mangozhu</t>
   </si>
   <si>
@@ -259,6 +313,18 @@
     <t>H220214Y</t>
   </si>
   <si>
+    <t>Maushe</t>
+  </si>
+  <si>
+    <t>H220490J</t>
+  </si>
+  <si>
+    <t>Mawoyo</t>
+  </si>
+  <si>
+    <t>H220271G</t>
+  </si>
+  <si>
     <t>Mazobere</t>
   </si>
   <si>
@@ -271,6 +337,12 @@
     <t>H220370E</t>
   </si>
   <si>
+    <t>Mbanje</t>
+  </si>
+  <si>
+    <t>H220381F</t>
+  </si>
+  <si>
     <t>Mhungu</t>
   </si>
   <si>
@@ -295,6 +367,12 @@
     <t>H220571T</t>
   </si>
   <si>
+    <t>Mukungwa</t>
+  </si>
+  <si>
+    <t>H220123C</t>
+  </si>
+  <si>
     <t>Mungitshwa</t>
   </si>
   <si>
@@ -307,12 +385,24 @@
     <t>H220655G</t>
   </si>
   <si>
+    <t>Munjodzi</t>
+  </si>
+  <si>
+    <t>H220159P</t>
+  </si>
+  <si>
     <t>Muraicho</t>
   </si>
   <si>
     <t>H220241M</t>
   </si>
   <si>
+    <t>Murambiwa</t>
+  </si>
+  <si>
+    <t>H220499V</t>
+  </si>
+  <si>
     <t>Musariri</t>
   </si>
   <si>
@@ -337,12 +427,42 @@
     <t>H220200V</t>
   </si>
   <si>
+    <t>Ndige</t>
+  </si>
+  <si>
+    <t>H220676Q</t>
+  </si>
+  <si>
+    <t>Ngoromani</t>
+  </si>
+  <si>
+    <t>H220579F</t>
+  </si>
+  <si>
     <t>Nhambu</t>
   </si>
   <si>
     <t>H220510G</t>
   </si>
   <si>
+    <t>Nyamadzawo</t>
+  </si>
+  <si>
+    <t>H210240M</t>
+  </si>
+  <si>
+    <t>Nyamaropa</t>
+  </si>
+  <si>
+    <t>H220061Q</t>
+  </si>
+  <si>
+    <t>Nyikayaramba</t>
+  </si>
+  <si>
+    <t>H220265N</t>
+  </si>
+  <si>
     <t>Nyisome</t>
   </si>
   <si>
@@ -419,6 +539,12 @@
   </si>
   <si>
     <t>H220079G</t>
+  </si>
+  <si>
+    <t>Tizirai</t>
+  </si>
+  <si>
+    <t>H220514E</t>
   </si>
   <si>
     <t>Tsoka</t>
@@ -575,10 +701,10 @@
         <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="12"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="12"/>
       </bottom>
       <diagonal/>
     </border>
@@ -590,10 +716,10 @@
         <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
@@ -708,7 +834,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -721,17 +847,17 @@
     <xf numFmtId="49" fontId="4" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="2" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
@@ -772,17 +898,17 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
@@ -790,10 +916,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1922,430 +2051,430 @@
       <c r="B2" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="C2" t="s" s="5">
+      <c r="C2" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>0.5238095238095239</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" ht="21" customHeight="1">
-      <c r="A3" t="s" s="8">
+      <c r="A3" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="B3" t="s" s="8">
+      <c r="B3" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="C3" t="s" s="9">
+      <c r="C3" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.714285714285714</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" ht="21" customHeight="1">
+      <c r="A4" t="s" s="8">
         <v>13</v>
       </c>
-      <c r="D3" s="6">
+      <c r="B4" t="s" s="8">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s" s="9">
+        <v>15</v>
+      </c>
+      <c r="D4" s="5">
         <v>0.880952380952381</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" ht="21" customHeight="1">
-      <c r="A4" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s" s="4">
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" ht="21" customHeight="1">
+      <c r="A5" t="s" s="7">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s" s="7">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s" s="4">
+        <v>18</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" ht="21" customHeight="1">
+      <c r="A6" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s" s="8">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s" s="9">
         <v>15</v>
       </c>
-      <c r="C4" t="s" s="5">
-        <v>16</v>
-      </c>
-      <c r="D4" s="6">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" ht="21" customHeight="1">
-      <c r="A5" t="s" s="8">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s" s="8">
+      <c r="D6" s="5">
+        <v>0.714285714285714</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" ht="21" customHeight="1">
+      <c r="A7" t="s" s="4">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s" s="4">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="C5" t="s" s="9">
-        <v>13</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0.714285714285714</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" ht="21" customHeight="1">
-      <c r="A6" t="s" s="5">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s" s="5">
-        <v>16</v>
-      </c>
-      <c r="D6" s="6">
+      <c r="D7" s="5">
         <v>0.642857142857143</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="10"/>
-    </row>
-    <row r="7" ht="21" customHeight="1">
-      <c r="A7" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="D7" s="6">
-        <v>0.285714285714286</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="11"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="10"/>
     </row>
     <row r="8" ht="21" customHeight="1">
       <c r="A8" t="s" s="4">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s" s="4">
         <v>24</v>
       </c>
-      <c r="B8" t="s" s="4">
+      <c r="C8" t="s" s="4">
         <v>25</v>
       </c>
-      <c r="C8" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="D8" s="13">
+      <c r="D8" s="5">
+        <v>0.285714285714286</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="11"/>
+    </row>
+    <row r="9" ht="21" customHeight="1">
+      <c r="A9" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s" s="12">
+        <v>18</v>
+      </c>
+      <c r="D9" s="13">
         <v>0.69047619047619</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" ht="21" customHeight="1">
-      <c r="A9" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="B9" t="s" s="14">
-        <v>27</v>
-      </c>
-      <c r="C9" t="s" s="15">
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" ht="21" customHeight="1">
+      <c r="A10" t="s" s="14">
         <v>28</v>
       </c>
-      <c r="D9" s="16">
+      <c r="B10" t="s" s="14">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s" s="15">
+        <v>30</v>
+      </c>
+      <c r="D10" s="16">
         <v>0.738095238095238</v>
       </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="10"/>
-    </row>
-    <row r="10" ht="21" customHeight="1">
-      <c r="A10" t="s" s="17">
-        <v>29</v>
-      </c>
-      <c r="B10" t="s" s="17">
-        <v>30</v>
-      </c>
-      <c r="C10" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="D10" s="6">
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" ht="21" customHeight="1">
+      <c r="A11" t="s" s="17">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s" s="17">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s" s="4">
+        <v>25</v>
+      </c>
+      <c r="D11" s="5">
         <v>0.595238095238095</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="18"/>
-    </row>
-    <row r="11" ht="20.7" customHeight="1">
-      <c r="A11" t="s" s="5">
-        <v>31</v>
-      </c>
-      <c r="B11" t="s" s="5">
-        <v>32</v>
-      </c>
-      <c r="C11" t="s" s="5">
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="18"/>
+    </row>
+    <row r="12" ht="20.7" customHeight="1">
+      <c r="A12" t="s" s="4">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s" s="4">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D12" s="19">
         <v>0.666666666666667</v>
-      </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="21"/>
-    </row>
-    <row r="12" ht="20.7" customHeight="1">
-      <c r="A12" t="s" s="5">
-        <v>33</v>
-      </c>
-      <c r="B12" t="s" s="5">
-        <v>34</v>
-      </c>
-      <c r="C12" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="D12" s="6">
-        <v>0.214285714285714</v>
       </c>
       <c r="E12" s="20"/>
       <c r="F12" s="20"/>
       <c r="G12" s="20"/>
-      <c r="H12" s="22"/>
+      <c r="H12" s="21"/>
     </row>
     <row r="13" ht="21" customHeight="1">
-      <c r="A13" t="s" s="5">
+      <c r="A13" t="s" s="4">
         <v>35</v>
       </c>
-      <c r="B13" t="s" s="5">
+      <c r="B13" t="s" s="4">
         <v>36</v>
       </c>
-      <c r="C13" t="s" s="5">
-        <v>16</v>
-      </c>
-      <c r="D13" s="6">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" ht="21" customHeight="1">
+      <c r="C13" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" ht="20.7" customHeight="1">
       <c r="A14" t="s" s="4">
         <v>37</v>
       </c>
       <c r="B14" t="s" s="4">
         <v>38</v>
       </c>
-      <c r="C14" t="s" s="5">
+      <c r="C14" t="s" s="4">
+        <v>25</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0.214285714285714</v>
+      </c>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="21"/>
+    </row>
+    <row r="15" ht="21" customHeight="1">
+      <c r="A15" t="s" s="4">
         <v>39</v>
       </c>
-      <c r="D14" s="6">
+      <c r="B15" t="s" s="4">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s" s="4">
+        <v>18</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" ht="21" customHeight="1">
+      <c r="A16" t="s" s="7">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s" s="4">
+        <v>43</v>
+      </c>
+      <c r="D16" s="5">
         <v>0.904761904761905</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" ht="21" customHeight="1">
-      <c r="A15" t="s" s="8">
-        <v>40</v>
-      </c>
-      <c r="B15" t="s" s="8">
-        <v>41</v>
-      </c>
-      <c r="C15" t="s" s="9">
-        <v>28</v>
-      </c>
-      <c r="D15" s="6">
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" ht="21" customHeight="1">
+      <c r="A17" t="s" s="22">
+        <v>44</v>
+      </c>
+      <c r="B17" t="s" s="22">
+        <v>45</v>
+      </c>
+      <c r="C17" t="s" s="4">
+        <v>43</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0.595238095238095</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" ht="21" customHeight="1">
+      <c r="A18" t="s" s="8">
+        <v>46</v>
+      </c>
+      <c r="B18" t="s" s="8">
+        <v>47</v>
+      </c>
+      <c r="C18" t="s" s="9">
+        <v>30</v>
+      </c>
+      <c r="D18" s="5">
         <v>0.761904761904762</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" ht="21" customHeight="1">
-      <c r="A16" t="s" s="5">
-        <v>42</v>
-      </c>
-      <c r="B16" t="s" s="5">
-        <v>43</v>
-      </c>
-      <c r="C16" t="s" s="5">
-        <v>16</v>
-      </c>
-      <c r="D16" s="6">
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" ht="21" customHeight="1">
+      <c r="A19" t="s" s="4">
+        <v>48</v>
+      </c>
+      <c r="B19" t="s" s="4">
+        <v>49</v>
+      </c>
+      <c r="C19" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" ht="21" customHeight="1">
+      <c r="A20" t="s" s="4">
+        <v>50</v>
+      </c>
+      <c r="B20" t="s" s="4">
+        <v>51</v>
+      </c>
+      <c r="C20" t="s" s="4">
+        <v>18</v>
+      </c>
+      <c r="D20" s="5">
         <v>0.476190476190476</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="10"/>
-    </row>
-    <row r="17" ht="20.7" customHeight="1">
-      <c r="A17" t="s" s="5">
-        <v>44</v>
-      </c>
-      <c r="B17" t="s" s="5">
-        <v>45</v>
-      </c>
-      <c r="C17" t="s" s="5">
-        <v>28</v>
-      </c>
-      <c r="D17" s="19">
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="10"/>
+    </row>
+    <row r="21" ht="20.7" customHeight="1">
+      <c r="A21" t="s" s="4">
+        <v>52</v>
+      </c>
+      <c r="B21" t="s" s="4">
+        <v>53</v>
+      </c>
+      <c r="C21" t="s" s="4">
+        <v>30</v>
+      </c>
+      <c r="D21" s="19">
         <v>0.80952380952381</v>
       </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="22"/>
-    </row>
-    <row r="18" ht="21" customHeight="1">
-      <c r="A18" t="s" s="5">
-        <v>46</v>
-      </c>
-      <c r="B18" t="s" s="5">
-        <v>47</v>
-      </c>
-      <c r="C18" t="s" s="5">
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="21"/>
+    </row>
+    <row r="22" ht="21" customHeight="1">
+      <c r="A22" t="s" s="4">
+        <v>54</v>
+      </c>
+      <c r="B22" t="s" s="4">
+        <v>55</v>
+      </c>
+      <c r="C22" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D22" s="5">
         <v>0.714285714285714</v>
       </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="7"/>
-    </row>
-    <row r="19" ht="21" customHeight="1">
-      <c r="A19" t="s" s="5">
-        <v>48</v>
-      </c>
-      <c r="B19" t="s" s="5">
-        <v>49</v>
-      </c>
-      <c r="C19" t="s" s="5">
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" ht="21" customHeight="1">
+      <c r="A23" t="s" s="4">
+        <v>56</v>
+      </c>
+      <c r="B23" t="s" s="4">
+        <v>57</v>
+      </c>
+      <c r="C23" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D23" s="5">
         <v>0.619047619047619</v>
       </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="10"/>
-    </row>
-    <row r="20" ht="21" customHeight="1">
-      <c r="A20" t="s" s="5">
-        <v>50</v>
-      </c>
-      <c r="B20" t="s" s="5">
-        <v>51</v>
-      </c>
-      <c r="C20" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="D20" s="6">
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="10"/>
+    </row>
+    <row r="24" ht="21" customHeight="1">
+      <c r="A24" t="s" s="4">
+        <v>58</v>
+      </c>
+      <c r="B24" t="s" s="4">
+        <v>59</v>
+      </c>
+      <c r="C24" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="D24" s="5">
         <v>0.595238095238095</v>
       </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="11"/>
-    </row>
-    <row r="21" ht="21" customHeight="1">
-      <c r="A21" t="s" s="5">
-        <v>52</v>
-      </c>
-      <c r="B21" t="s" s="5">
-        <v>53</v>
-      </c>
-      <c r="C21" t="s" s="5">
-        <v>16</v>
-      </c>
-      <c r="D21" s="6">
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="11"/>
+    </row>
+    <row r="25" ht="21" customHeight="1">
+      <c r="A25" t="s" s="4">
+        <v>60</v>
+      </c>
+      <c r="B25" t="s" s="4">
+        <v>61</v>
+      </c>
+      <c r="C25" t="s" s="4">
+        <v>18</v>
+      </c>
+      <c r="D25" s="5">
         <v>0.69047619047619</v>
       </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="7"/>
-    </row>
-    <row r="22" ht="21" customHeight="1">
-      <c r="A22" t="s" s="5">
-        <v>54</v>
-      </c>
-      <c r="B22" t="s" s="5">
-        <v>55</v>
-      </c>
-      <c r="C22" t="s" s="5">
-        <v>28</v>
-      </c>
-      <c r="D22" s="6">
-        <v>0.619047619047619</v>
-      </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="7"/>
-    </row>
-    <row r="23" ht="21" customHeight="1">
-      <c r="A23" t="s" s="5">
-        <v>56</v>
-      </c>
-      <c r="B23" t="s" s="5">
-        <v>57</v>
-      </c>
-      <c r="C23" t="s" s="5">
-        <v>28</v>
-      </c>
-      <c r="D23" s="6">
-        <v>0.761904761904762</v>
-      </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="7"/>
-    </row>
-    <row r="24" ht="21" customHeight="1">
-      <c r="A24" t="s" s="5">
-        <v>58</v>
-      </c>
-      <c r="B24" t="s" s="5">
-        <v>59</v>
-      </c>
-      <c r="C24" t="s" s="5">
-        <v>16</v>
-      </c>
-      <c r="D24" s="6">
-        <v>0.714285714285714</v>
-      </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="10"/>
-    </row>
-    <row r="25" ht="21" customHeight="1">
-      <c r="A25" t="s" s="5">
-        <v>60</v>
-      </c>
-      <c r="B25" t="s" s="5">
-        <v>61</v>
-      </c>
-      <c r="C25" t="s" s="5">
-        <v>28</v>
-      </c>
-      <c r="D25" s="6">
-        <v>0.619047619047619</v>
-      </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="11"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="6"/>
     </row>
     <row r="26" ht="21" customHeight="1">
       <c r="A26" t="s" s="4">
@@ -2354,34 +2483,34 @@
       <c r="B26" t="s" s="4">
         <v>63</v>
       </c>
-      <c r="C26" t="s" s="5">
-        <v>10</v>
-      </c>
-      <c r="D26" s="6">
+      <c r="C26" t="s" s="4">
+        <v>30</v>
+      </c>
+      <c r="D26" s="5">
         <v>0.619047619047619</v>
       </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="7"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="6"/>
     </row>
     <row r="27" ht="21" customHeight="1">
-      <c r="A27" t="s" s="8">
+      <c r="A27" t="s" s="4">
         <v>64</v>
       </c>
-      <c r="B27" t="s" s="8">
+      <c r="B27" t="s" s="4">
         <v>65</v>
       </c>
-      <c r="C27" t="s" s="9">
-        <v>39</v>
-      </c>
-      <c r="D27" s="6">
-        <v>0.5238095238095239</v>
-      </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="7"/>
+      <c r="C27" t="s" s="4">
+        <v>43</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0.80952380952381</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="6"/>
     </row>
     <row r="28" ht="21" customHeight="1">
       <c r="A28" t="s" s="4">
@@ -2390,209 +2519,209 @@
       <c r="B28" t="s" s="4">
         <v>67</v>
       </c>
-      <c r="C28" t="s" s="5">
-        <v>10</v>
-      </c>
-      <c r="D28" s="6">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="7"/>
+      <c r="C28" t="s" s="4">
+        <v>30</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0.761904761904762</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="6"/>
     </row>
     <row r="29" ht="21" customHeight="1">
-      <c r="A29" t="s" s="17">
+      <c r="A29" t="s" s="4">
         <v>68</v>
       </c>
-      <c r="B29" t="s" s="17">
+      <c r="B29" t="s" s="4">
         <v>69</v>
       </c>
-      <c r="C29" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="D29" s="6">
-        <v>0.571428571428571</v>
-      </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
+      <c r="C29" t="s" s="4">
+        <v>18</v>
+      </c>
+      <c r="D29" s="5">
+        <v>0.714285714285714</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
       <c r="H29" s="10"/>
     </row>
     <row r="30" ht="20.7" customHeight="1">
-      <c r="A30" t="s" s="5">
+      <c r="A30" t="s" s="4">
         <v>70</v>
       </c>
-      <c r="B30" t="s" s="5">
+      <c r="B30" t="s" s="4">
         <v>71</v>
       </c>
-      <c r="C30" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="D30" s="19">
-        <v>0.5238095238095239</v>
+      <c r="C30" t="s" s="4">
+        <v>43</v>
+      </c>
+      <c r="D30" s="23">
+        <v>0.857142857142857</v>
       </c>
       <c r="E30" s="20"/>
       <c r="F30" s="20"/>
       <c r="G30" s="20"/>
-      <c r="H30" s="22"/>
+      <c r="H30" s="21"/>
     </row>
     <row r="31" ht="21" customHeight="1">
-      <c r="A31" t="s" s="5">
+      <c r="A31" t="s" s="4">
         <v>72</v>
       </c>
-      <c r="B31" t="s" s="5">
+      <c r="B31" t="s" s="4">
         <v>73</v>
       </c>
-      <c r="C31" t="s" s="5">
+      <c r="C31" t="s" s="4">
+        <v>43</v>
+      </c>
+      <c r="D31" s="5">
+        <v>0.452380952380952</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="10"/>
+    </row>
+    <row r="32" ht="21" customHeight="1">
+      <c r="A32" t="s" s="4">
+        <v>74</v>
+      </c>
+      <c r="B32" t="s" s="4">
+        <v>75</v>
+      </c>
+      <c r="C32" t="s" s="4">
+        <v>30</v>
+      </c>
+      <c r="D32" s="5">
+        <v>0.619047619047619</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="11"/>
+    </row>
+    <row r="33" ht="21" customHeight="1">
+      <c r="A33" t="s" s="7">
+        <v>76</v>
+      </c>
+      <c r="B33" t="s" s="7">
+        <v>77</v>
+      </c>
+      <c r="C33" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D33" s="5">
+        <v>0.619047619047619</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" ht="21" customHeight="1">
+      <c r="A34" t="s" s="8">
+        <v>78</v>
+      </c>
+      <c r="B34" t="s" s="8">
+        <v>79</v>
+      </c>
+      <c r="C34" t="s" s="9">
+        <v>43</v>
+      </c>
+      <c r="D34" s="5">
+        <v>0.5238095238095239</v>
+      </c>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="6"/>
+    </row>
+    <row r="35" ht="21" customHeight="1">
+      <c r="A35" t="s" s="4">
+        <v>80</v>
+      </c>
+      <c r="B35" t="s" s="4">
+        <v>81</v>
+      </c>
+      <c r="C35" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="D35" s="5">
         <v>0.833333333333333</v>
       </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="10"/>
-    </row>
-    <row r="32" ht="21" customHeight="1">
-      <c r="A32" t="s" s="5">
-        <v>74</v>
-      </c>
-      <c r="B32" t="s" s="5">
-        <v>75</v>
-      </c>
-      <c r="C32" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="D32" s="6">
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="10"/>
+    </row>
+    <row r="36" ht="21" customHeight="1">
+      <c r="A36" t="s" s="7">
+        <v>82</v>
+      </c>
+      <c r="B36" t="s" s="7">
+        <v>83</v>
+      </c>
+      <c r="C36" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="D36" s="5">
+        <v>0.595238095238095</v>
+      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="11"/>
+    </row>
+    <row r="37" ht="21" customHeight="1">
+      <c r="A37" t="s" s="14">
+        <v>84</v>
+      </c>
+      <c r="B37" t="s" s="14">
+        <v>85</v>
+      </c>
+      <c r="C37" t="s" s="9">
+        <v>18</v>
+      </c>
+      <c r="D37" s="5">
         <v>0.5</v>
       </c>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="11"/>
-    </row>
-    <row r="33" ht="21" customHeight="1">
-      <c r="A33" t="s" s="5">
-        <v>76</v>
-      </c>
-      <c r="B33" t="s" s="5">
-        <v>77</v>
-      </c>
-      <c r="C33" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="D33" s="6">
-        <v>0.595238095238095</v>
-      </c>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="10"/>
-    </row>
-    <row r="34" ht="21" customHeight="1">
-      <c r="A34" t="s" s="4">
-        <v>78</v>
-      </c>
-      <c r="B34" t="s" s="4">
-        <v>79</v>
-      </c>
-      <c r="C34" t="s" s="5">
-        <v>16</v>
-      </c>
-      <c r="D34" s="6">
-        <v>0.642857142857143</v>
-      </c>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="18"/>
-    </row>
-    <row r="35" ht="21" customHeight="1">
-      <c r="A35" t="s" s="17">
-        <v>80</v>
-      </c>
-      <c r="B35" t="s" s="17">
-        <v>81</v>
-      </c>
-      <c r="C35" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="D35" s="6">
-        <v>0.619047619047619</v>
-      </c>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="11"/>
-    </row>
-    <row r="36" ht="21" customHeight="1">
-      <c r="A36" t="s" s="4">
-        <v>82</v>
-      </c>
-      <c r="B36" t="s" s="4">
-        <v>83</v>
-      </c>
-      <c r="C36" t="s" s="5">
-        <v>39</v>
-      </c>
-      <c r="D36" s="6">
-        <v>0.738095238095238</v>
-      </c>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="10"/>
-    </row>
-    <row r="37" ht="21" customHeight="1">
-      <c r="A37" t="s" s="17">
-        <v>84</v>
-      </c>
-      <c r="B37" t="s" s="17">
-        <v>85</v>
-      </c>
-      <c r="C37" t="s" s="5">
-        <v>10</v>
-      </c>
-      <c r="D37" s="6">
-        <v>0.452380952380952</v>
-      </c>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="11"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="6"/>
     </row>
     <row r="38" ht="21" customHeight="1">
-      <c r="A38" t="s" s="5">
+      <c r="A38" t="s" s="17">
         <v>86</v>
       </c>
-      <c r="B38" t="s" s="5">
+      <c r="B38" t="s" s="17">
         <v>87</v>
       </c>
-      <c r="C38" t="s" s="5">
-        <v>10</v>
-      </c>
-      <c r="D38" s="6">
-        <v>0.738095238095238</v>
-      </c>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
+      <c r="C38" t="s" s="4">
+        <v>25</v>
+      </c>
+      <c r="D38" s="5">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
       <c r="H38" s="10"/>
     </row>
     <row r="39" ht="20.7" customHeight="1">
-      <c r="A39" t="s" s="5">
+      <c r="A39" t="s" s="4">
         <v>88</v>
       </c>
-      <c r="B39" t="s" s="5">
+      <c r="B39" t="s" s="4">
         <v>89</v>
       </c>
-      <c r="C39" t="s" s="5">
-        <v>10</v>
-      </c>
-      <c r="D39" s="23">
-        <v>0.476190476190476</v>
+      <c r="C39" t="s" s="4">
+        <v>25</v>
+      </c>
+      <c r="D39" s="19">
+        <v>0.5238095238095239</v>
       </c>
       <c r="E39" s="20"/>
       <c r="F39" s="20"/>
@@ -2600,310 +2729,310 @@
       <c r="H39" s="21"/>
     </row>
     <row r="40" ht="21" customHeight="1">
-      <c r="A40" t="s" s="5">
+      <c r="A40" t="s" s="4">
         <v>90</v>
       </c>
-      <c r="B40" t="s" s="5">
+      <c r="B40" t="s" s="4">
         <v>91</v>
       </c>
-      <c r="C40" t="s" s="5">
-        <v>28</v>
-      </c>
-      <c r="D40" s="6">
+      <c r="C40" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="D40" s="5">
         <v>0.833333333333333</v>
       </c>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="11"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="10"/>
     </row>
     <row r="41" ht="21" customHeight="1">
-      <c r="A41" t="s" s="5">
+      <c r="A41" t="s" s="4">
         <v>92</v>
       </c>
-      <c r="B41" t="s" s="5">
+      <c r="B41" t="s" s="4">
         <v>93</v>
       </c>
-      <c r="C41" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="D41" s="6">
-        <v>0.714285714285714</v>
-      </c>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="7"/>
+      <c r="C41" t="s" s="4">
+        <v>25</v>
+      </c>
+      <c r="D41" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="11"/>
     </row>
     <row r="42" ht="21" customHeight="1">
-      <c r="A42" t="s" s="5">
+      <c r="A42" t="s" s="4">
         <v>94</v>
       </c>
-      <c r="B42" t="s" s="5">
+      <c r="B42" t="s" s="4">
         <v>95</v>
       </c>
-      <c r="C42" t="s" s="5">
-        <v>16</v>
-      </c>
-      <c r="D42" s="6">
-        <v>0.714285714285714</v>
-      </c>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
+      <c r="C42" t="s" s="4">
+        <v>25</v>
+      </c>
+      <c r="D42" s="5">
+        <v>0.595238095238095</v>
+      </c>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
       <c r="H42" s="10"/>
     </row>
-    <row r="43" ht="20.7" customHeight="1">
-      <c r="A43" t="s" s="5">
+    <row r="43" ht="21" customHeight="1">
+      <c r="A43" t="s" s="7">
         <v>96</v>
       </c>
-      <c r="B43" t="s" s="5">
+      <c r="B43" t="s" s="7">
         <v>97</v>
       </c>
-      <c r="C43" t="s" s="5">
-        <v>28</v>
-      </c>
-      <c r="D43" s="19">
+      <c r="C43" t="s" s="4">
+        <v>18</v>
+      </c>
+      <c r="D43" s="5">
+        <v>0.642857142857143</v>
+      </c>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="18"/>
+    </row>
+    <row r="44" ht="21" customHeight="1">
+      <c r="A44" t="s" s="17">
+        <v>98</v>
+      </c>
+      <c r="B44" t="s" s="17">
+        <v>99</v>
+      </c>
+      <c r="C44" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="D44" s="5">
         <v>0.619047619047619</v>
       </c>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="21"/>
-    </row>
-    <row r="44" ht="20.7" customHeight="1">
-      <c r="A44" t="s" s="5">
-        <v>98</v>
-      </c>
-      <c r="B44" t="s" s="5">
-        <v>99</v>
-      </c>
-      <c r="C44" t="s" s="5">
-        <v>10</v>
-      </c>
-      <c r="D44" s="19">
-        <v>0.642857142857143</v>
-      </c>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="21"/>
-    </row>
-    <row r="45" ht="21" customHeight="1">
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="18"/>
+    </row>
+    <row r="45" ht="20.7" customHeight="1">
       <c r="A45" t="s" s="4">
         <v>100</v>
       </c>
       <c r="B45" t="s" s="4">
         <v>101</v>
       </c>
-      <c r="C45" t="s" s="5">
-        <v>39</v>
-      </c>
-      <c r="D45" s="6">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="18"/>
+      <c r="C45" t="s" s="4">
+        <v>25</v>
+      </c>
+      <c r="D45" s="23">
+        <v>0.595238095238095</v>
+      </c>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="24"/>
     </row>
     <row r="46" ht="21" customHeight="1">
-      <c r="A46" t="s" s="17">
+      <c r="A46" t="s" s="4">
         <v>102</v>
       </c>
-      <c r="B46" t="s" s="17">
+      <c r="B46" t="s" s="4">
         <v>103</v>
       </c>
-      <c r="C46" t="s" s="5">
+      <c r="C46" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D46" s="5">
+        <v>0.738095238095238</v>
+      </c>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="11"/>
+    </row>
+    <row r="47" ht="21" customHeight="1">
+      <c r="A47" t="s" s="7">
+        <v>104</v>
+      </c>
+      <c r="B47" t="s" s="7">
+        <v>105</v>
+      </c>
+      <c r="C47" t="s" s="4">
+        <v>43</v>
+      </c>
+      <c r="D47" s="5">
+        <v>0.738095238095238</v>
+      </c>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="10"/>
+    </row>
+    <row r="48" ht="21" customHeight="1">
+      <c r="A48" t="s" s="17">
+        <v>106</v>
+      </c>
+      <c r="B48" t="s" s="17">
+        <v>107</v>
+      </c>
+      <c r="C48" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="D48" s="5">
+        <v>0.452380952380952</v>
+      </c>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="11"/>
+    </row>
+    <row r="49" ht="21" customHeight="1">
+      <c r="A49" t="s" s="4">
+        <v>108</v>
+      </c>
+      <c r="B49" t="s" s="4">
+        <v>109</v>
+      </c>
+      <c r="C49" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="D49" s="5">
         <v>0.857142857142857</v>
       </c>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="18"/>
-    </row>
-    <row r="47" ht="20.7" customHeight="1">
-      <c r="A47" t="s" s="5">
-        <v>104</v>
-      </c>
-      <c r="B47" t="s" s="5">
-        <v>105</v>
-      </c>
-      <c r="C47" t="s" s="5">
-        <v>16</v>
-      </c>
-      <c r="D47" s="23">
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="6"/>
+    </row>
+    <row r="50" ht="21" customHeight="1">
+      <c r="A50" t="s" s="4">
+        <v>110</v>
+      </c>
+      <c r="B50" t="s" s="4">
+        <v>111</v>
+      </c>
+      <c r="C50" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="D50" s="5">
         <v>0.738095238095238</v>
       </c>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="22"/>
-    </row>
-    <row r="48" ht="21" customHeight="1">
-      <c r="A48" t="s" s="5">
-        <v>106</v>
-      </c>
-      <c r="B48" t="s" s="5">
-        <v>107</v>
-      </c>
-      <c r="C48" t="s" s="5">
-        <v>16</v>
-      </c>
-      <c r="D48" s="6">
-        <v>0.571428571428571</v>
-      </c>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="10"/>
-    </row>
-    <row r="49" ht="20.7" customHeight="1">
-      <c r="A49" t="s" s="5">
-        <v>108</v>
-      </c>
-      <c r="B49" t="s" s="5">
-        <v>109</v>
-      </c>
-      <c r="C49" t="s" s="5">
-        <v>28</v>
-      </c>
-      <c r="D49" s="23">
-        <v>0.69047619047619</v>
-      </c>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="22"/>
-    </row>
-    <row r="50" ht="21" customHeight="1">
-      <c r="A50" t="s" s="5">
-        <v>110</v>
-      </c>
-      <c r="B50" t="s" s="5">
-        <v>111</v>
-      </c>
-      <c r="C50" t="s" s="5">
-        <v>39</v>
-      </c>
-      <c r="D50" s="6">
-        <v>1</v>
-      </c>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="7"/>
-    </row>
-    <row r="51" ht="21" customHeight="1">
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="10"/>
+    </row>
+    <row r="51" ht="20.7" customHeight="1">
       <c r="A51" t="s" s="4">
         <v>112</v>
       </c>
       <c r="B51" t="s" s="4">
         <v>113</v>
       </c>
-      <c r="C51" t="s" s="5">
-        <v>16</v>
-      </c>
-      <c r="D51" s="6">
+      <c r="C51" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="D51" s="23">
+        <v>0.476190476190476</v>
+      </c>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="24"/>
+    </row>
+    <row r="52" ht="21" customHeight="1">
+      <c r="A52" t="s" s="4">
+        <v>114</v>
+      </c>
+      <c r="B52" t="s" s="4">
+        <v>115</v>
+      </c>
+      <c r="C52" t="s" s="4">
+        <v>30</v>
+      </c>
+      <c r="D52" s="5">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="11"/>
+    </row>
+    <row r="53" ht="21" customHeight="1">
+      <c r="A53" t="s" s="4">
+        <v>116</v>
+      </c>
+      <c r="B53" t="s" s="4">
+        <v>117</v>
+      </c>
+      <c r="C53" t="s" s="4">
+        <v>25</v>
+      </c>
+      <c r="D53" s="5">
+        <v>0.714285714285714</v>
+      </c>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="6"/>
+    </row>
+    <row r="54" ht="21" customHeight="1">
+      <c r="A54" t="s" s="4">
+        <v>118</v>
+      </c>
+      <c r="B54" t="s" s="4">
+        <v>119</v>
+      </c>
+      <c r="C54" t="s" s="4">
+        <v>25</v>
+      </c>
+      <c r="D54" s="5">
         <v>0.785714285714286</v>
       </c>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="7"/>
-    </row>
-    <row r="52" ht="21" customHeight="1">
-      <c r="A52" t="s" s="8">
-        <v>114</v>
-      </c>
-      <c r="B52" t="s" s="8">
-        <v>115</v>
-      </c>
-      <c r="C52" t="s" s="9">
-        <v>28</v>
-      </c>
-      <c r="D52" s="6">
-        <v>0.738095238095238</v>
-      </c>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="7"/>
-    </row>
-    <row r="53" ht="21" customHeight="1">
-      <c r="A53" t="s" s="5">
-        <v>116</v>
-      </c>
-      <c r="B53" t="s" s="5">
-        <v>117</v>
-      </c>
-      <c r="C53" t="s" s="5">
-        <v>39</v>
-      </c>
-      <c r="D53" s="6">
-        <v>0.785714285714286</v>
-      </c>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="10"/>
-    </row>
-    <row r="54" ht="20.7" customHeight="1">
-      <c r="A54" t="s" s="5">
-        <v>118</v>
-      </c>
-      <c r="B54" t="s" s="5">
-        <v>119</v>
-      </c>
-      <c r="C54" t="s" s="5">
-        <v>39</v>
-      </c>
-      <c r="D54" s="19">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="20"/>
-      <c r="H54" s="22"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="6"/>
     </row>
     <row r="55" ht="21" customHeight="1">
-      <c r="A55" t="s" s="5">
+      <c r="A55" t="s" s="4">
         <v>120</v>
       </c>
-      <c r="B55" t="s" s="5">
+      <c r="B55" t="s" s="4">
         <v>121</v>
       </c>
-      <c r="C55" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="D55" s="6">
-        <v>0.880952380952381</v>
-      </c>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="7"/>
-    </row>
-    <row r="56" ht="21" customHeight="1">
-      <c r="A56" t="s" s="5">
+      <c r="C55" t="s" s="4">
+        <v>18</v>
+      </c>
+      <c r="D55" s="5">
+        <v>0.714285714285714</v>
+      </c>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="10"/>
+    </row>
+    <row r="56" ht="20.7" customHeight="1">
+      <c r="A56" t="s" s="4">
         <v>122</v>
       </c>
-      <c r="B56" t="s" s="5">
+      <c r="B56" t="s" s="4">
         <v>123</v>
       </c>
-      <c r="C56" t="s" s="5">
-        <v>28</v>
-      </c>
-      <c r="D56" s="6">
-        <v>0.714285714285714</v>
-      </c>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="7"/>
+      <c r="C56" t="s" s="4">
+        <v>30</v>
+      </c>
+      <c r="D56" s="19">
+        <v>0.619047619047619</v>
+      </c>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="21"/>
     </row>
     <row r="57" ht="21" customHeight="1">
       <c r="A57" t="s" s="4">
@@ -2912,141 +3041,141 @@
       <c r="B57" t="s" s="4">
         <v>125</v>
       </c>
-      <c r="C57" t="s" s="5">
-        <v>39</v>
-      </c>
-      <c r="D57" s="6">
+      <c r="C57" t="s" s="4">
+        <v>43</v>
+      </c>
+      <c r="D57" s="5">
+        <v>0.904761904761905</v>
+      </c>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="10"/>
+    </row>
+    <row r="58" ht="20.7" customHeight="1">
+      <c r="A58" t="s" s="4">
+        <v>126</v>
+      </c>
+      <c r="B58" t="s" s="4">
+        <v>127</v>
+      </c>
+      <c r="C58" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="D58" s="19">
+        <v>0.642857142857143</v>
+      </c>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="21"/>
+    </row>
+    <row r="59" ht="21" customHeight="1">
+      <c r="A59" t="s" s="4">
+        <v>128</v>
+      </c>
+      <c r="B59" t="s" s="4">
+        <v>129</v>
+      </c>
+      <c r="C59" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="D59" s="5">
+        <v>0.619047619047619</v>
+      </c>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="10"/>
+    </row>
+    <row r="60" ht="21" customHeight="1">
+      <c r="A60" t="s" s="7">
+        <v>130</v>
+      </c>
+      <c r="B60" t="s" s="7">
+        <v>131</v>
+      </c>
+      <c r="C60" t="s" s="4">
+        <v>43</v>
+      </c>
+      <c r="D60" s="5">
         <v>0.666666666666667</v>
       </c>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="7"/>
-    </row>
-    <row r="58" ht="21" customHeight="1">
-      <c r="A58" t="s" s="8">
-        <v>126</v>
-      </c>
-      <c r="B58" t="s" s="8">
-        <v>127</v>
-      </c>
-      <c r="C58" t="s" s="9">
-        <v>28</v>
-      </c>
-      <c r="D58" s="6">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="10"/>
-    </row>
-    <row r="59" ht="21" customHeight="1">
-      <c r="A59" t="s" s="5">
-        <v>128</v>
-      </c>
-      <c r="B59" t="s" s="5">
-        <v>129</v>
-      </c>
-      <c r="C59" t="s" s="5">
-        <v>28</v>
-      </c>
-      <c r="D59" s="6">
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="18"/>
+    </row>
+    <row r="61" ht="21" customHeight="1">
+      <c r="A61" t="s" s="17">
+        <v>132</v>
+      </c>
+      <c r="B61" t="s" s="17">
+        <v>133</v>
+      </c>
+      <c r="C61" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="D61" s="5">
+        <v>0.857142857142857</v>
+      </c>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="18"/>
+    </row>
+    <row r="62" ht="20.7" customHeight="1">
+      <c r="A62" t="s" s="4">
+        <v>134</v>
+      </c>
+      <c r="B62" t="s" s="4">
+        <v>135</v>
+      </c>
+      <c r="C62" t="s" s="4">
+        <v>18</v>
+      </c>
+      <c r="D62" s="23">
+        <v>0.738095238095238</v>
+      </c>
+      <c r="E62" s="20"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="20"/>
+      <c r="H62" s="21"/>
+    </row>
+    <row r="63" ht="21" customHeight="1">
+      <c r="A63" t="s" s="7">
+        <v>136</v>
+      </c>
+      <c r="B63" t="s" s="7">
+        <v>137</v>
+      </c>
+      <c r="C63" t="s" s="4">
+        <v>18</v>
+      </c>
+      <c r="D63" s="5">
         <v>0.571428571428571</v>
       </c>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="11"/>
-    </row>
-    <row r="60" ht="21" customHeight="1">
-      <c r="A60" t="s" s="5">
-        <v>130</v>
-      </c>
-      <c r="B60" t="s" s="5">
-        <v>131</v>
-      </c>
-      <c r="C60" t="s" s="5">
-        <v>39</v>
-      </c>
-      <c r="D60" s="6">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="7"/>
-    </row>
-    <row r="61" ht="21" customHeight="1">
-      <c r="A61" t="s" s="5">
-        <v>132</v>
-      </c>
-      <c r="B61" t="s" s="5">
-        <v>133</v>
-      </c>
-      <c r="C61" t="s" s="5">
-        <v>39</v>
-      </c>
-      <c r="D61" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="7"/>
-    </row>
-    <row r="62" ht="21" customHeight="1">
-      <c r="A62" t="s" s="5">
-        <v>134</v>
-      </c>
-      <c r="B62" t="s" s="5">
-        <v>135</v>
-      </c>
-      <c r="C62" t="s" s="5">
-        <v>28</v>
-      </c>
-      <c r="D62" s="6">
-        <v>0.642857142857143</v>
-      </c>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="7"/>
-    </row>
-    <row r="63" ht="21" customHeight="1">
-      <c r="A63" t="s" s="5">
-        <v>136</v>
-      </c>
-      <c r="B63" t="s" s="5">
-        <v>137</v>
-      </c>
-      <c r="C63" t="s" s="5">
-        <v>28</v>
-      </c>
-      <c r="D63" s="6">
-        <v>0.547619047619048</v>
-      </c>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
       <c r="H63" s="10"/>
     </row>
     <row r="64" ht="21" customHeight="1">
-      <c r="A64" t="s" s="5">
+      <c r="A64" t="s" s="17">
         <v>138</v>
       </c>
-      <c r="B64" t="s" s="5">
+      <c r="B64" t="s" s="17">
         <v>139</v>
       </c>
-      <c r="C64" t="s" s="5">
-        <v>10</v>
-      </c>
-      <c r="D64" s="6">
+      <c r="C64" t="s" s="4">
+        <v>43</v>
+      </c>
+      <c r="D64" s="5">
         <v>0.761904761904762</v>
       </c>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
       <c r="H64" s="11"/>
     </row>
     <row r="65" ht="21" customHeight="1">
@@ -3056,431 +3185,599 @@
       <c r="B65" t="s" s="4">
         <v>141</v>
       </c>
-      <c r="C65" t="s" s="5">
-        <v>39</v>
-      </c>
-      <c r="D65" s="6">
+      <c r="C65" t="s" s="4">
+        <v>25</v>
+      </c>
+      <c r="D65" s="5">
+        <v>0.904761904761905</v>
+      </c>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="10"/>
+    </row>
+    <row r="66" ht="20.7" customHeight="1">
+      <c r="A66" t="s" s="7">
+        <v>142</v>
+      </c>
+      <c r="B66" t="s" s="7">
+        <v>143</v>
+      </c>
+      <c r="C66" t="s" s="4">
+        <v>30</v>
+      </c>
+      <c r="D66" s="23">
+        <v>0.69047619047619</v>
+      </c>
+      <c r="E66" s="20"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="20"/>
+      <c r="H66" s="21"/>
+    </row>
+    <row r="67" ht="21" customHeight="1">
+      <c r="A67" t="s" s="8">
+        <v>144</v>
+      </c>
+      <c r="B67" t="s" s="8">
+        <v>145</v>
+      </c>
+      <c r="C67" t="s" s="9">
+        <v>43</v>
+      </c>
+      <c r="D67" s="5">
         <v>0.571428571428571</v>
       </c>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="7"/>
-    </row>
-    <row r="66" ht="21" customHeight="1">
-      <c r="A66" t="s" s="8">
-        <v>142</v>
-      </c>
-      <c r="B66" t="s" s="8">
-        <v>143</v>
-      </c>
-      <c r="C66" t="s" s="9">
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="6"/>
+    </row>
+    <row r="68" ht="21" customHeight="1">
+      <c r="A68" t="s" s="4">
+        <v>146</v>
+      </c>
+      <c r="B68" t="s" s="4">
+        <v>147</v>
+      </c>
+      <c r="C68" t="s" s="4">
+        <v>18</v>
+      </c>
+      <c r="D68" s="5">
+        <v>0.857142857142857</v>
+      </c>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="6"/>
+    </row>
+    <row r="69" ht="21" customHeight="1">
+      <c r="A69" t="s" s="4">
+        <v>148</v>
+      </c>
+      <c r="B69" t="s" s="4">
+        <v>149</v>
+      </c>
+      <c r="C69" t="s" s="4">
+        <v>43</v>
+      </c>
+      <c r="D69" s="5">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="6"/>
+    </row>
+    <row r="70" ht="21" customHeight="1">
+      <c r="A70" t="s" s="4">
+        <v>150</v>
+      </c>
+      <c r="B70" t="s" s="4">
+        <v>151</v>
+      </c>
+      <c r="C70" t="s" s="4">
+        <v>43</v>
+      </c>
+      <c r="D70" s="5">
+        <v>1</v>
+      </c>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="6"/>
+    </row>
+    <row r="71" ht="21" customHeight="1">
+      <c r="A71" t="s" s="7">
+        <v>152</v>
+      </c>
+      <c r="B71" t="s" s="7">
+        <v>153</v>
+      </c>
+      <c r="C71" t="s" s="4">
+        <v>18</v>
+      </c>
+      <c r="D71" s="5">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="6"/>
+    </row>
+    <row r="72" ht="21" customHeight="1">
+      <c r="A72" t="s" s="8">
+        <v>154</v>
+      </c>
+      <c r="B72" t="s" s="8">
+        <v>155</v>
+      </c>
+      <c r="C72" t="s" s="9">
+        <v>30</v>
+      </c>
+      <c r="D72" s="5">
+        <v>0.738095238095238</v>
+      </c>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="6"/>
+    </row>
+    <row r="73" ht="21" customHeight="1">
+      <c r="A73" t="s" s="4">
+        <v>156</v>
+      </c>
+      <c r="B73" t="s" s="4">
+        <v>157</v>
+      </c>
+      <c r="C73" t="s" s="4">
+        <v>43</v>
+      </c>
+      <c r="D73" s="5">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="10"/>
+    </row>
+    <row r="74" ht="20.7" customHeight="1">
+      <c r="A74" t="s" s="4">
+        <v>158</v>
+      </c>
+      <c r="B74" t="s" s="4">
+        <v>159</v>
+      </c>
+      <c r="C74" t="s" s="4">
+        <v>43</v>
+      </c>
+      <c r="D74" s="19">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E74" s="20"/>
+      <c r="F74" s="20"/>
+      <c r="G74" s="20"/>
+      <c r="H74" s="21"/>
+    </row>
+    <row r="75" ht="21" customHeight="1">
+      <c r="A75" t="s" s="4">
+        <v>160</v>
+      </c>
+      <c r="B75" t="s" s="4">
+        <v>161</v>
+      </c>
+      <c r="C75" t="s" s="4">
+        <v>25</v>
+      </c>
+      <c r="D75" s="5">
+        <v>0.880952380952381</v>
+      </c>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="6"/>
+    </row>
+    <row r="76" ht="21" customHeight="1">
+      <c r="A76" t="s" s="4">
+        <v>162</v>
+      </c>
+      <c r="B76" t="s" s="4">
+        <v>163</v>
+      </c>
+      <c r="C76" t="s" s="4">
+        <v>30</v>
+      </c>
+      <c r="D76" s="5">
+        <v>0.714285714285714</v>
+      </c>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="6"/>
+    </row>
+    <row r="77" ht="21" customHeight="1">
+      <c r="A77" t="s" s="7">
+        <v>164</v>
+      </c>
+      <c r="B77" t="s" s="7">
+        <v>165</v>
+      </c>
+      <c r="C77" t="s" s="4">
+        <v>43</v>
+      </c>
+      <c r="D77" s="5">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="6"/>
+    </row>
+    <row r="78" ht="21" customHeight="1">
+      <c r="A78" t="s" s="8">
+        <v>166</v>
+      </c>
+      <c r="B78" t="s" s="8">
+        <v>167</v>
+      </c>
+      <c r="C78" t="s" s="9">
+        <v>30</v>
+      </c>
+      <c r="D78" s="5">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="10"/>
+    </row>
+    <row r="79" ht="21" customHeight="1">
+      <c r="A79" t="s" s="4">
+        <v>168</v>
+      </c>
+      <c r="B79" t="s" s="4">
+        <v>169</v>
+      </c>
+      <c r="C79" t="s" s="4">
+        <v>30</v>
+      </c>
+      <c r="D79" s="5">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="11"/>
+    </row>
+    <row r="80" ht="21" customHeight="1">
+      <c r="A80" t="s" s="4">
+        <v>170</v>
+      </c>
+      <c r="B80" t="s" s="4">
+        <v>171</v>
+      </c>
+      <c r="C80" t="s" s="4">
+        <v>43</v>
+      </c>
+      <c r="D80" s="5">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="6"/>
+    </row>
+    <row r="81" ht="21" customHeight="1">
+      <c r="A81" t="s" s="4">
+        <v>172</v>
+      </c>
+      <c r="B81" t="s" s="4">
+        <v>173</v>
+      </c>
+      <c r="C81" t="s" s="4">
+        <v>43</v>
+      </c>
+      <c r="D81" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="6"/>
+    </row>
+    <row r="82" ht="21" customHeight="1">
+      <c r="A82" t="s" s="4">
+        <v>174</v>
+      </c>
+      <c r="B82" t="s" s="4">
+        <v>175</v>
+      </c>
+      <c r="C82" t="s" s="4">
+        <v>30</v>
+      </c>
+      <c r="D82" s="5">
+        <v>0.642857142857143</v>
+      </c>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="6"/>
+    </row>
+    <row r="83" ht="21" customHeight="1">
+      <c r="A83" t="s" s="4">
+        <v>176</v>
+      </c>
+      <c r="B83" t="s" s="4">
+        <v>177</v>
+      </c>
+      <c r="C83" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="D66" s="6">
+      <c r="D83" s="5">
+        <v>0.595238095238095</v>
+      </c>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="6"/>
+    </row>
+    <row r="84" ht="21" customHeight="1">
+      <c r="A84" t="s" s="4">
+        <v>178</v>
+      </c>
+      <c r="B84" t="s" s="4">
+        <v>179</v>
+      </c>
+      <c r="C84" t="s" s="4">
+        <v>30</v>
+      </c>
+      <c r="D84" s="5">
+        <v>0.547619047619048</v>
+      </c>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="10"/>
+    </row>
+    <row r="85" ht="21" customHeight="1">
+      <c r="A85" t="s" s="4">
+        <v>180</v>
+      </c>
+      <c r="B85" t="s" s="4">
+        <v>181</v>
+      </c>
+      <c r="C85" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="D85" s="5">
+        <v>0.761904761904762</v>
+      </c>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="11"/>
+    </row>
+    <row r="86" ht="21" customHeight="1">
+      <c r="A86" t="s" s="7">
+        <v>182</v>
+      </c>
+      <c r="B86" t="s" s="7">
+        <v>183</v>
+      </c>
+      <c r="C86" t="s" s="4">
+        <v>43</v>
+      </c>
+      <c r="D86" s="5">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="6"/>
+    </row>
+    <row r="87" ht="21" customHeight="1">
+      <c r="A87" t="s" s="8">
+        <v>184</v>
+      </c>
+      <c r="B87" t="s" s="8">
+        <v>185</v>
+      </c>
+      <c r="C87" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="D87" s="5">
         <v>0.285714285714286</v>
       </c>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="7"/>
-    </row>
-    <row r="67" ht="21" customHeight="1">
-      <c r="A67" t="s" s="5">
-        <v>144</v>
-      </c>
-      <c r="B67" t="s" s="5">
-        <v>145</v>
-      </c>
-      <c r="C67" t="s" s="5">
-        <v>16</v>
-      </c>
-      <c r="D67" s="6">
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="6"/>
+    </row>
+    <row r="88" ht="21" customHeight="1">
+      <c r="A88" t="s" s="7">
+        <v>186</v>
+      </c>
+      <c r="B88" t="s" s="7">
+        <v>187</v>
+      </c>
+      <c r="C88" t="s" s="4">
+        <v>18</v>
+      </c>
+      <c r="D88" s="5">
         <v>0.30952380952381</v>
       </c>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
-      <c r="H67" s="10"/>
-    </row>
-    <row r="68" ht="21" customHeight="1">
-      <c r="A68" s="20"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="11"/>
-    </row>
-    <row r="69" ht="21" customHeight="1">
-      <c r="A69" s="20"/>
-      <c r="B69" s="20"/>
-      <c r="C69" s="20"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
-      <c r="H69" s="7"/>
-    </row>
-    <row r="70" ht="21" customHeight="1">
-      <c r="A70" s="20"/>
-      <c r="B70" s="20"/>
-      <c r="C70" s="20"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="7"/>
-    </row>
-    <row r="71" ht="21" customHeight="1">
-      <c r="A71" s="20"/>
-      <c r="B71" s="20"/>
-      <c r="C71" s="20"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
-      <c r="H71" s="10"/>
-    </row>
-    <row r="72" ht="20.7" customHeight="1">
-      <c r="A72" s="20"/>
-      <c r="B72" s="20"/>
-      <c r="C72" s="20"/>
-      <c r="D72" s="20"/>
-      <c r="E72" s="20"/>
-      <c r="F72" s="20"/>
-      <c r="G72" s="20"/>
-      <c r="H72" s="22"/>
-    </row>
-    <row r="73" ht="21" customHeight="1">
-      <c r="A73" s="20"/>
-      <c r="B73" s="20"/>
-      <c r="C73" s="20"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
-      <c r="H73" s="10"/>
-    </row>
-    <row r="74" ht="21" customHeight="1">
-      <c r="A74" s="20"/>
-      <c r="B74" s="20"/>
-      <c r="C74" s="20"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
-      <c r="H74" s="11"/>
-    </row>
-    <row r="75" ht="21" customHeight="1">
-      <c r="A75" s="20"/>
-      <c r="B75" s="20"/>
-      <c r="C75" s="20"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
-      <c r="H75" s="7"/>
-    </row>
-    <row r="76" ht="21" customHeight="1">
-      <c r="A76" s="24"/>
-      <c r="B76" s="24"/>
-      <c r="C76" s="20"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="6"/>
-      <c r="H76" s="7"/>
-    </row>
-    <row r="77" ht="21" customHeight="1">
-      <c r="A77" s="25"/>
-      <c r="B77" s="25"/>
-      <c r="C77" s="26"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="6"/>
-      <c r="H77" s="10"/>
-    </row>
-    <row r="78" ht="21" customHeight="1">
-      <c r="A78" s="27"/>
-      <c r="B78" s="27"/>
-      <c r="C78" s="20"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="6"/>
-      <c r="H78" s="11"/>
-    </row>
-    <row r="79" ht="21" customHeight="1">
-      <c r="A79" s="20"/>
-      <c r="B79" s="20"/>
-      <c r="C79" s="20"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
-      <c r="G79" s="6"/>
-      <c r="H79" s="7"/>
-    </row>
-    <row r="80" ht="21" customHeight="1">
-      <c r="A80" s="20"/>
-      <c r="B80" s="20"/>
-      <c r="C80" s="20"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
-      <c r="H80" s="7"/>
-    </row>
-    <row r="81" ht="21" customHeight="1">
-      <c r="A81" s="20"/>
-      <c r="B81" s="20"/>
-      <c r="C81" s="20"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
-      <c r="G81" s="6"/>
-      <c r="H81" s="7"/>
-    </row>
-    <row r="82" ht="21" customHeight="1">
-      <c r="A82" s="20"/>
-      <c r="B82" s="20"/>
-      <c r="C82" s="20"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="7"/>
-    </row>
-    <row r="83" ht="21" customHeight="1">
-      <c r="A83" s="20"/>
-      <c r="B83" s="20"/>
-      <c r="C83" s="20"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
-      <c r="G83" s="6"/>
-      <c r="H83" s="10"/>
-    </row>
-    <row r="84" ht="20.7" customHeight="1">
-      <c r="A84" s="24"/>
-      <c r="B84" s="24"/>
-      <c r="C84" s="20"/>
-      <c r="D84" s="20"/>
-      <c r="E84" s="20"/>
-      <c r="F84" s="20"/>
-      <c r="G84" s="20"/>
-      <c r="H84" s="22"/>
-    </row>
-    <row r="85" ht="21" customHeight="1">
-      <c r="A85" s="25"/>
-      <c r="B85" s="25"/>
-      <c r="C85" s="26"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
-      <c r="F85" s="6"/>
-      <c r="G85" s="6"/>
-      <c r="H85" s="10"/>
-    </row>
-    <row r="86" ht="21" customHeight="1">
-      <c r="A86" s="27"/>
-      <c r="B86" s="27"/>
-      <c r="C86" s="20"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
-      <c r="F86" s="6"/>
-      <c r="G86" s="6"/>
-      <c r="H86" s="11"/>
-    </row>
-    <row r="87" ht="21" customHeight="1">
-      <c r="A87" s="20"/>
-      <c r="B87" s="20"/>
-      <c r="C87" s="20"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
-      <c r="F87" s="6"/>
-      <c r="G87" s="6"/>
-      <c r="H87" s="7"/>
-    </row>
-    <row r="88" ht="21" customHeight="1">
-      <c r="A88" s="24"/>
-      <c r="B88" s="24"/>
-      <c r="C88" s="20"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
-      <c r="F88" s="6"/>
-      <c r="G88" s="6"/>
-      <c r="H88" s="7"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="6"/>
     </row>
     <row r="89" ht="21" customHeight="1">
       <c r="A89" s="25"/>
       <c r="B89" s="25"/>
       <c r="C89" s="26"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
-      <c r="F89" s="6"/>
-      <c r="G89" s="6"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
       <c r="H89" s="10"/>
     </row>
     <row r="90" ht="21" customHeight="1">
-      <c r="A90" s="28"/>
-      <c r="B90" s="28"/>
+      <c r="A90" s="27"/>
+      <c r="B90" s="27"/>
       <c r="C90" s="20"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
-      <c r="F90" s="6"/>
-      <c r="G90" s="6"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
       <c r="H90" s="11"/>
     </row>
     <row r="91" ht="21" customHeight="1">
       <c r="A91" s="25"/>
       <c r="B91" s="25"/>
       <c r="C91" s="26"/>
-      <c r="D91" s="6"/>
-      <c r="E91" s="6"/>
-      <c r="F91" s="6"/>
-      <c r="G91" s="6"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
       <c r="H91" s="10"/>
     </row>
     <row r="92" ht="21" customHeight="1">
-      <c r="A92" s="27"/>
-      <c r="B92" s="27"/>
+      <c r="A92" s="28"/>
+      <c r="B92" s="28"/>
       <c r="C92" s="20"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="6"/>
-      <c r="F92" s="6"/>
-      <c r="G92" s="6"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
       <c r="H92" s="11"/>
     </row>
     <row r="93" ht="21" customHeight="1">
       <c r="A93" s="20"/>
       <c r="B93" s="20"/>
       <c r="C93" s="20"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="6"/>
-      <c r="F93" s="6"/>
-      <c r="G93" s="6"/>
-      <c r="H93" s="7"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="6"/>
     </row>
     <row r="94" ht="21" customHeight="1">
       <c r="A94" s="20"/>
       <c r="B94" s="20"/>
       <c r="C94" s="20"/>
-      <c r="D94" s="6"/>
-      <c r="E94" s="6"/>
-      <c r="F94" s="6"/>
-      <c r="G94" s="6"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
       <c r="H94" s="10"/>
     </row>
     <row r="95" ht="21" customHeight="1">
       <c r="A95" s="20"/>
       <c r="B95" s="20"/>
       <c r="C95" s="20"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="6"/>
-      <c r="F95" s="6"/>
-      <c r="G95" s="6"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
       <c r="H95" s="11"/>
     </row>
     <row r="96" ht="21" customHeight="1">
-      <c r="A96" s="24"/>
-      <c r="B96" s="24"/>
+      <c r="A96" s="29"/>
+      <c r="B96" s="29"/>
       <c r="C96" s="20"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="6"/>
-      <c r="F96" s="6"/>
-      <c r="G96" s="6"/>
-      <c r="H96" s="7"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="6"/>
     </row>
     <row r="97" ht="21" customHeight="1">
       <c r="A97" s="25"/>
       <c r="B97" s="25"/>
       <c r="C97" s="26"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="6"/>
-      <c r="F97" s="6"/>
-      <c r="G97" s="6"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
       <c r="H97" s="10"/>
     </row>
     <row r="98" ht="21" customHeight="1">
-      <c r="A98" s="27"/>
-      <c r="B98" s="27"/>
+      <c r="A98" s="28"/>
+      <c r="B98" s="28"/>
       <c r="C98" s="20"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="6"/>
-      <c r="F98" s="6"/>
-      <c r="G98" s="6"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
       <c r="H98" s="11"/>
     </row>
     <row r="99" ht="21" customHeight="1">
       <c r="A99" s="20"/>
       <c r="B99" s="20"/>
       <c r="C99" s="20"/>
-      <c r="D99" s="6"/>
-      <c r="E99" s="6"/>
-      <c r="F99" s="6"/>
-      <c r="G99" s="6"/>
-      <c r="H99" s="7"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="6"/>
     </row>
     <row r="100" ht="21" customHeight="1">
-      <c r="A100" s="24"/>
-      <c r="B100" s="24"/>
+      <c r="A100" s="29"/>
+      <c r="B100" s="29"/>
       <c r="C100" s="20"/>
-      <c r="D100" s="6"/>
-      <c r="E100" s="6"/>
-      <c r="F100" s="6"/>
-      <c r="G100" s="6"/>
-      <c r="H100" s="7"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="6"/>
     </row>
     <row r="101" ht="21" customHeight="1">
       <c r="A101" s="25"/>
       <c r="B101" s="25"/>
       <c r="C101" s="26"/>
-      <c r="D101" s="6"/>
-      <c r="E101" s="6"/>
-      <c r="F101" s="6"/>
-      <c r="G101" s="6"/>
-      <c r="H101" s="7"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="6"/>
     </row>
     <row r="102" ht="21" customHeight="1">
       <c r="A102" s="25"/>
       <c r="B102" s="25"/>
       <c r="C102" s="26"/>
-      <c r="D102" s="6"/>
-      <c r="E102" s="6"/>
-      <c r="F102" s="6"/>
-      <c r="G102" s="6"/>
-      <c r="H102" s="7"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="6"/>
     </row>
     <row r="103" ht="21" customHeight="1">
       <c r="A103" s="25"/>
       <c r="B103" s="25"/>
       <c r="C103" s="26"/>
-      <c r="D103" s="6"/>
-      <c r="E103" s="6"/>
-      <c r="F103" s="6"/>
-      <c r="G103" s="6"/>
-      <c r="H103" s="7"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="6"/>
     </row>
     <row r="104" ht="21" customHeight="1">
-      <c r="A104" s="27"/>
-      <c r="B104" s="27"/>
+      <c r="A104" s="28"/>
+      <c r="B104" s="28"/>
       <c r="C104" s="20"/>
-      <c r="D104" s="6"/>
-      <c r="E104" s="6"/>
-      <c r="F104" s="6"/>
-      <c r="G104" s="6"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
       <c r="H104" s="10"/>
     </row>
     <row r="105" ht="21" customHeight="1">
       <c r="A105" s="20"/>
       <c r="B105" s="20"/>
       <c r="C105" s="20"/>
-      <c r="D105" s="6"/>
-      <c r="E105" s="6"/>
-      <c r="F105" s="6"/>
-      <c r="G105" s="6"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
       <c r="H105" s="18"/>
     </row>
     <row r="106" ht="20.7" customHeight="1">
@@ -3491,46 +3788,46 @@
       <c r="E106" s="20"/>
       <c r="F106" s="20"/>
       <c r="G106" s="20"/>
-      <c r="H106" s="22"/>
+      <c r="H106" s="21"/>
     </row>
     <row r="107" ht="21" customHeight="1">
       <c r="A107" s="20"/>
       <c r="B107" s="20"/>
       <c r="C107" s="20"/>
-      <c r="D107" s="6"/>
-      <c r="E107" s="6"/>
-      <c r="F107" s="6"/>
-      <c r="G107" s="6"/>
-      <c r="H107" s="7"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="6"/>
     </row>
     <row r="108" ht="21" customHeight="1">
       <c r="A108" s="20"/>
       <c r="B108" s="20"/>
       <c r="C108" s="20"/>
-      <c r="D108" s="6"/>
-      <c r="E108" s="6"/>
-      <c r="F108" s="6"/>
-      <c r="G108" s="6"/>
-      <c r="H108" s="7"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="6"/>
     </row>
     <row r="109" ht="21" customHeight="1">
       <c r="A109" s="20"/>
       <c r="B109" s="20"/>
       <c r="C109" s="20"/>
-      <c r="D109" s="6"/>
-      <c r="E109" s="6"/>
-      <c r="F109" s="6"/>
-      <c r="G109" s="6"/>
-      <c r="H109" s="7"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="6"/>
     </row>
     <row r="110" ht="21" customHeight="1">
       <c r="A110" s="20"/>
       <c r="B110" s="20"/>
       <c r="C110" s="20"/>
-      <c r="D110" s="6"/>
-      <c r="E110" s="6"/>
-      <c r="F110" s="6"/>
-      <c r="G110" s="6"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="5"/>
       <c r="H110" s="10"/>
     </row>
     <row r="111" ht="20.35" customHeight="1">
@@ -3541,7 +3838,7 @@
       <c r="E111" s="20"/>
       <c r="F111" s="20"/>
       <c r="G111" s="20"/>
-      <c r="H111" s="21"/>
+      <c r="H111" s="24"/>
     </row>
     <row r="112" ht="20.05" customHeight="1">
       <c r="A112" s="20"/>
@@ -3551,7 +3848,7 @@
       <c r="E112" s="20"/>
       <c r="F112" s="20"/>
       <c r="G112" s="20"/>
-      <c r="H112" s="21"/>
+      <c r="H112" s="24"/>
     </row>
     <row r="113" ht="20.35" customHeight="1">
       <c r="A113" s="20"/>
@@ -3561,156 +3858,156 @@
       <c r="E113" s="20"/>
       <c r="F113" s="20"/>
       <c r="G113" s="20"/>
-      <c r="H113" s="22"/>
+      <c r="H113" s="21"/>
     </row>
     <row r="114" ht="21" customHeight="1">
-      <c r="A114" s="24"/>
-      <c r="B114" s="24"/>
+      <c r="A114" s="29"/>
+      <c r="B114" s="29"/>
       <c r="C114" s="20"/>
-      <c r="D114" s="6"/>
-      <c r="E114" s="6"/>
-      <c r="F114" s="6"/>
-      <c r="G114" s="6"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
       <c r="H114" s="10"/>
     </row>
     <row r="115" ht="21" customHeight="1">
       <c r="A115" s="25"/>
       <c r="B115" s="25"/>
       <c r="C115" s="26"/>
-      <c r="D115" s="6"/>
-      <c r="E115" s="6"/>
-      <c r="F115" s="6"/>
-      <c r="G115" s="6"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5"/>
+      <c r="G115" s="5"/>
       <c r="H115" s="18"/>
     </row>
     <row r="116" ht="21" customHeight="1">
-      <c r="A116" s="27"/>
-      <c r="B116" s="27"/>
+      <c r="A116" s="28"/>
+      <c r="B116" s="28"/>
       <c r="C116" s="20"/>
-      <c r="D116" s="6"/>
-      <c r="E116" s="6"/>
-      <c r="F116" s="6"/>
-      <c r="G116" s="6"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5"/>
+      <c r="G116" s="5"/>
       <c r="H116" s="11"/>
     </row>
     <row r="117" ht="21" customHeight="1">
       <c r="A117" s="20"/>
       <c r="B117" s="20"/>
       <c r="C117" s="20"/>
-      <c r="D117" s="6"/>
-      <c r="E117" s="6"/>
-      <c r="F117" s="6"/>
-      <c r="G117" s="6"/>
-      <c r="H117" s="7"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5"/>
+      <c r="G117" s="5"/>
+      <c r="H117" s="6"/>
     </row>
     <row r="118" ht="21" customHeight="1">
-      <c r="A118" s="24"/>
-      <c r="B118" s="24"/>
+      <c r="A118" s="29"/>
+      <c r="B118" s="29"/>
       <c r="C118" s="20"/>
-      <c r="D118" s="6"/>
-      <c r="E118" s="6"/>
-      <c r="F118" s="6"/>
-      <c r="G118" s="6"/>
-      <c r="H118" s="7"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5"/>
+      <c r="G118" s="5"/>
+      <c r="H118" s="6"/>
     </row>
     <row r="119" ht="21" customHeight="1">
       <c r="A119" s="25"/>
       <c r="B119" s="25"/>
       <c r="C119" s="26"/>
-      <c r="D119" s="6"/>
-      <c r="E119" s="6"/>
-      <c r="F119" s="6"/>
-      <c r="G119" s="6"/>
-      <c r="H119" s="7"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="5"/>
+      <c r="G119" s="5"/>
+      <c r="H119" s="6"/>
     </row>
     <row r="120" ht="21" customHeight="1">
       <c r="A120" s="25"/>
       <c r="B120" s="25"/>
       <c r="C120" s="26"/>
-      <c r="D120" s="6"/>
-      <c r="E120" s="6"/>
-      <c r="F120" s="6"/>
-      <c r="G120" s="6"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="5"/>
+      <c r="G120" s="5"/>
       <c r="H120" s="10"/>
     </row>
     <row r="121" ht="21" customHeight="1">
-      <c r="A121" s="27"/>
-      <c r="B121" s="27"/>
+      <c r="A121" s="28"/>
+      <c r="B121" s="28"/>
       <c r="C121" s="20"/>
-      <c r="D121" s="6"/>
-      <c r="E121" s="6"/>
-      <c r="F121" s="6"/>
-      <c r="G121" s="6"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
       <c r="H121" s="11"/>
     </row>
     <row r="122" ht="21" customHeight="1">
       <c r="A122" s="20"/>
       <c r="B122" s="20"/>
       <c r="C122" s="20"/>
-      <c r="D122" s="6"/>
-      <c r="E122" s="6"/>
-      <c r="F122" s="6"/>
-      <c r="G122" s="6"/>
-      <c r="H122" s="7"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5"/>
+      <c r="G122" s="5"/>
+      <c r="H122" s="6"/>
     </row>
     <row r="123" ht="21" customHeight="1">
       <c r="A123" s="20"/>
       <c r="B123" s="20"/>
       <c r="C123" s="20"/>
-      <c r="D123" s="6"/>
-      <c r="E123" s="6"/>
-      <c r="F123" s="6"/>
-      <c r="G123" s="6"/>
-      <c r="H123" s="7"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="5"/>
+      <c r="G123" s="5"/>
+      <c r="H123" s="6"/>
     </row>
     <row r="124" ht="21" customHeight="1">
-      <c r="A124" s="24"/>
-      <c r="B124" s="24"/>
+      <c r="A124" s="29"/>
+      <c r="B124" s="29"/>
       <c r="C124" s="20"/>
-      <c r="D124" s="6"/>
-      <c r="E124" s="6"/>
-      <c r="F124" s="6"/>
-      <c r="G124" s="6"/>
-      <c r="H124" s="7"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
+      <c r="F124" s="5"/>
+      <c r="G124" s="5"/>
+      <c r="H124" s="6"/>
     </row>
     <row r="125" ht="21" customHeight="1">
       <c r="A125" s="25"/>
       <c r="B125" s="25"/>
       <c r="C125" s="26"/>
-      <c r="D125" s="6"/>
-      <c r="E125" s="6"/>
-      <c r="F125" s="6"/>
-      <c r="G125" s="6"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="5"/>
       <c r="H125" s="10"/>
     </row>
     <row r="126" ht="20.7" customHeight="1">
-      <c r="A126" s="27"/>
-      <c r="B126" s="27"/>
+      <c r="A126" s="28"/>
+      <c r="B126" s="28"/>
       <c r="C126" s="20"/>
       <c r="D126" s="20"/>
       <c r="E126" s="20"/>
       <c r="F126" s="20"/>
       <c r="G126" s="20"/>
-      <c r="H126" s="22"/>
+      <c r="H126" s="21"/>
     </row>
     <row r="127" ht="21" customHeight="1">
       <c r="A127" s="20"/>
       <c r="B127" s="20"/>
       <c r="C127" s="20"/>
-      <c r="D127" s="6"/>
-      <c r="E127" s="6"/>
-      <c r="F127" s="6"/>
-      <c r="G127" s="6"/>
+      <c r="D127" s="5"/>
+      <c r="E127" s="5"/>
+      <c r="F127" s="5"/>
+      <c r="G127" s="5"/>
       <c r="H127" s="10"/>
     </row>
     <row r="128" ht="21" customHeight="1">
       <c r="A128" s="20"/>
       <c r="B128" s="20"/>
       <c r="C128" s="20"/>
-      <c r="D128" s="6"/>
-      <c r="E128" s="6"/>
-      <c r="F128" s="6"/>
-      <c r="G128" s="6"/>
+      <c r="D128" s="5"/>
+      <c r="E128" s="5"/>
+      <c r="F128" s="5"/>
+      <c r="G128" s="5"/>
       <c r="H128" s="18"/>
     </row>
     <row r="129" ht="20.7" customHeight="1">
@@ -3721,66 +4018,66 @@
       <c r="E129" s="20"/>
       <c r="F129" s="20"/>
       <c r="G129" s="20"/>
-      <c r="H129" s="22"/>
+      <c r="H129" s="21"/>
     </row>
     <row r="130" ht="21" customHeight="1">
       <c r="A130" s="20"/>
       <c r="B130" s="20"/>
       <c r="C130" s="20"/>
-      <c r="D130" s="6"/>
-      <c r="E130" s="6"/>
-      <c r="F130" s="6"/>
-      <c r="G130" s="6"/>
-      <c r="H130" s="7"/>
+      <c r="D130" s="5"/>
+      <c r="E130" s="5"/>
+      <c r="F130" s="5"/>
+      <c r="G130" s="5"/>
+      <c r="H130" s="6"/>
     </row>
     <row r="131" ht="21" customHeight="1">
-      <c r="A131" s="24"/>
-      <c r="B131" s="24"/>
+      <c r="A131" s="29"/>
+      <c r="B131" s="29"/>
       <c r="C131" s="20"/>
-      <c r="D131" s="6"/>
-      <c r="E131" s="6"/>
-      <c r="F131" s="6"/>
-      <c r="G131" s="6"/>
-      <c r="H131" s="7"/>
+      <c r="D131" s="5"/>
+      <c r="E131" s="5"/>
+      <c r="F131" s="5"/>
+      <c r="G131" s="5"/>
+      <c r="H131" s="6"/>
     </row>
     <row r="132" ht="21" customHeight="1">
       <c r="A132" s="25"/>
       <c r="B132" s="25"/>
       <c r="C132" s="26"/>
-      <c r="D132" s="6"/>
-      <c r="E132" s="6"/>
-      <c r="F132" s="6"/>
-      <c r="G132" s="6"/>
-      <c r="H132" s="7"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="5"/>
+      <c r="F132" s="5"/>
+      <c r="G132" s="5"/>
+      <c r="H132" s="6"/>
     </row>
     <row r="133" ht="21" customHeight="1">
-      <c r="A133" s="28"/>
-      <c r="B133" s="28"/>
+      <c r="A133" s="27"/>
+      <c r="B133" s="27"/>
       <c r="C133" s="20"/>
-      <c r="D133" s="6"/>
-      <c r="E133" s="6"/>
-      <c r="F133" s="6"/>
-      <c r="G133" s="6"/>
+      <c r="D133" s="5"/>
+      <c r="E133" s="5"/>
+      <c r="F133" s="5"/>
+      <c r="G133" s="5"/>
       <c r="H133" s="10"/>
     </row>
     <row r="134" ht="21" customHeight="1">
       <c r="A134" s="25"/>
       <c r="B134" s="25"/>
       <c r="C134" s="26"/>
-      <c r="D134" s="6"/>
-      <c r="E134" s="6"/>
-      <c r="F134" s="6"/>
-      <c r="G134" s="6"/>
+      <c r="D134" s="5"/>
+      <c r="E134" s="5"/>
+      <c r="F134" s="5"/>
+      <c r="G134" s="5"/>
       <c r="H134" s="18"/>
     </row>
     <row r="135" ht="21" customHeight="1">
-      <c r="A135" s="27"/>
-      <c r="B135" s="27"/>
+      <c r="A135" s="28"/>
+      <c r="B135" s="28"/>
       <c r="C135" s="20"/>
-      <c r="D135" s="6"/>
-      <c r="E135" s="6"/>
-      <c r="F135" s="6"/>
-      <c r="G135" s="6"/>
+      <c r="D135" s="5"/>
+      <c r="E135" s="5"/>
+      <c r="F135" s="5"/>
+      <c r="G135" s="5"/>
       <c r="H135" s="18"/>
     </row>
     <row r="136" ht="20.7" customHeight="1">
@@ -3791,156 +4088,156 @@
       <c r="E136" s="20"/>
       <c r="F136" s="20"/>
       <c r="G136" s="20"/>
-      <c r="H136" s="22"/>
+      <c r="H136" s="21"/>
     </row>
     <row r="137" ht="21" customHeight="1">
       <c r="A137" s="20"/>
       <c r="B137" s="20"/>
       <c r="C137" s="20"/>
-      <c r="D137" s="6"/>
-      <c r="E137" s="6"/>
-      <c r="F137" s="6"/>
-      <c r="G137" s="6"/>
-      <c r="H137" s="7"/>
+      <c r="D137" s="5"/>
+      <c r="E137" s="5"/>
+      <c r="F137" s="5"/>
+      <c r="G137" s="5"/>
+      <c r="H137" s="6"/>
     </row>
     <row r="138" ht="21" customHeight="1">
-      <c r="A138" s="24"/>
-      <c r="B138" s="24"/>
+      <c r="A138" s="29"/>
+      <c r="B138" s="29"/>
       <c r="C138" s="20"/>
-      <c r="D138" s="6"/>
-      <c r="E138" s="6"/>
-      <c r="F138" s="6"/>
-      <c r="G138" s="6"/>
-      <c r="H138" s="7"/>
+      <c r="D138" s="5"/>
+      <c r="E138" s="5"/>
+      <c r="F138" s="5"/>
+      <c r="G138" s="5"/>
+      <c r="H138" s="6"/>
     </row>
     <row r="139" ht="21" customHeight="1">
       <c r="A139" s="25"/>
       <c r="B139" s="25"/>
       <c r="C139" s="26"/>
-      <c r="D139" s="6"/>
-      <c r="E139" s="6"/>
-      <c r="F139" s="6"/>
-      <c r="G139" s="6"/>
+      <c r="D139" s="5"/>
+      <c r="E139" s="5"/>
+      <c r="F139" s="5"/>
+      <c r="G139" s="5"/>
       <c r="H139" s="10"/>
     </row>
     <row r="140" ht="21" customHeight="1">
-      <c r="A140" s="27"/>
-      <c r="B140" s="27"/>
+      <c r="A140" s="28"/>
+      <c r="B140" s="28"/>
       <c r="C140" s="20"/>
-      <c r="D140" s="6"/>
-      <c r="E140" s="6"/>
-      <c r="F140" s="6"/>
-      <c r="G140" s="6"/>
+      <c r="D140" s="5"/>
+      <c r="E140" s="5"/>
+      <c r="F140" s="5"/>
+      <c r="G140" s="5"/>
       <c r="H140" s="11"/>
     </row>
     <row r="141" ht="21" customHeight="1">
       <c r="A141" s="20"/>
       <c r="B141" s="20"/>
       <c r="C141" s="20"/>
-      <c r="D141" s="6"/>
-      <c r="E141" s="6"/>
-      <c r="F141" s="6"/>
-      <c r="G141" s="6"/>
-      <c r="H141" s="7"/>
+      <c r="D141" s="5"/>
+      <c r="E141" s="5"/>
+      <c r="F141" s="5"/>
+      <c r="G141" s="5"/>
+      <c r="H141" s="6"/>
     </row>
     <row r="142" ht="21" customHeight="1">
       <c r="A142" s="20"/>
       <c r="B142" s="20"/>
       <c r="C142" s="20"/>
-      <c r="D142" s="6"/>
-      <c r="E142" s="6"/>
-      <c r="F142" s="6"/>
-      <c r="G142" s="6"/>
-      <c r="H142" s="7"/>
+      <c r="D142" s="5"/>
+      <c r="E142" s="5"/>
+      <c r="F142" s="5"/>
+      <c r="G142" s="5"/>
+      <c r="H142" s="6"/>
     </row>
     <row r="143" ht="21" customHeight="1">
-      <c r="A143" s="24"/>
-      <c r="B143" s="24"/>
+      <c r="A143" s="29"/>
+      <c r="B143" s="29"/>
       <c r="C143" s="20"/>
-      <c r="D143" s="6"/>
-      <c r="E143" s="6"/>
-      <c r="F143" s="6"/>
-      <c r="G143" s="6"/>
+      <c r="D143" s="5"/>
+      <c r="E143" s="5"/>
+      <c r="F143" s="5"/>
+      <c r="G143" s="5"/>
       <c r="H143" s="10"/>
     </row>
     <row r="144" ht="21" customHeight="1">
       <c r="A144" s="25"/>
       <c r="B144" s="25"/>
       <c r="C144" s="26"/>
-      <c r="D144" s="6"/>
-      <c r="E144" s="6"/>
-      <c r="F144" s="6"/>
-      <c r="G144" s="6"/>
+      <c r="D144" s="5"/>
+      <c r="E144" s="5"/>
+      <c r="F144" s="5"/>
+      <c r="G144" s="5"/>
       <c r="H144" s="18"/>
     </row>
     <row r="145" ht="21" customHeight="1">
-      <c r="A145" s="28"/>
-      <c r="B145" s="28"/>
+      <c r="A145" s="27"/>
+      <c r="B145" s="27"/>
       <c r="C145" s="20"/>
-      <c r="D145" s="6"/>
-      <c r="E145" s="6"/>
-      <c r="F145" s="6"/>
-      <c r="G145" s="6"/>
+      <c r="D145" s="5"/>
+      <c r="E145" s="5"/>
+      <c r="F145" s="5"/>
+      <c r="G145" s="5"/>
       <c r="H145" s="11"/>
     </row>
     <row r="146" ht="21" customHeight="1">
       <c r="A146" s="25"/>
       <c r="B146" s="25"/>
       <c r="C146" s="26"/>
-      <c r="D146" s="6"/>
-      <c r="E146" s="6"/>
-      <c r="F146" s="6"/>
-      <c r="G146" s="6"/>
+      <c r="D146" s="5"/>
+      <c r="E146" s="5"/>
+      <c r="F146" s="5"/>
+      <c r="G146" s="5"/>
       <c r="H146" s="10"/>
     </row>
     <row r="147" ht="21" customHeight="1">
-      <c r="A147" s="27"/>
-      <c r="B147" s="27"/>
+      <c r="A147" s="28"/>
+      <c r="B147" s="28"/>
       <c r="C147" s="20"/>
-      <c r="D147" s="6"/>
-      <c r="E147" s="6"/>
-      <c r="F147" s="6"/>
-      <c r="G147" s="6"/>
+      <c r="D147" s="5"/>
+      <c r="E147" s="5"/>
+      <c r="F147" s="5"/>
+      <c r="G147" s="5"/>
       <c r="H147" s="11"/>
     </row>
     <row r="148" ht="21" customHeight="1">
       <c r="A148" s="20"/>
       <c r="B148" s="20"/>
       <c r="C148" s="20"/>
-      <c r="D148" s="6"/>
-      <c r="E148" s="6"/>
-      <c r="F148" s="6"/>
-      <c r="G148" s="6"/>
+      <c r="D148" s="5"/>
+      <c r="E148" s="5"/>
+      <c r="F148" s="5"/>
+      <c r="G148" s="5"/>
       <c r="H148" s="10"/>
     </row>
     <row r="149" ht="21" customHeight="1">
-      <c r="A149" s="24"/>
-      <c r="B149" s="24"/>
+      <c r="A149" s="29"/>
+      <c r="B149" s="29"/>
       <c r="C149" s="20"/>
-      <c r="D149" s="6"/>
-      <c r="E149" s="6"/>
-      <c r="F149" s="6"/>
-      <c r="G149" s="6"/>
+      <c r="D149" s="5"/>
+      <c r="E149" s="5"/>
+      <c r="F149" s="5"/>
+      <c r="G149" s="5"/>
       <c r="H149" s="11"/>
     </row>
     <row r="150" ht="21" customHeight="1">
       <c r="A150" s="25"/>
       <c r="B150" s="25"/>
       <c r="C150" s="26"/>
-      <c r="D150" s="6"/>
-      <c r="E150" s="6"/>
-      <c r="F150" s="6"/>
-      <c r="G150" s="6"/>
+      <c r="D150" s="5"/>
+      <c r="E150" s="5"/>
+      <c r="F150" s="5"/>
+      <c r="G150" s="5"/>
       <c r="H150" s="10"/>
     </row>
     <row r="151" ht="21" customHeight="1">
-      <c r="A151" s="27"/>
-      <c r="B151" s="27"/>
+      <c r="A151" s="28"/>
+      <c r="B151" s="28"/>
       <c r="C151" s="20"/>
-      <c r="D151" s="6"/>
-      <c r="E151" s="6"/>
-      <c r="F151" s="6"/>
-      <c r="G151" s="6"/>
+      <c r="D151" s="5"/>
+      <c r="E151" s="5"/>
+      <c r="F151" s="5"/>
+      <c r="G151" s="5"/>
       <c r="H151" s="18"/>
     </row>
     <row r="152" ht="20.7" customHeight="1">
@@ -3951,27 +4248,27 @@
       <c r="E152" s="20"/>
       <c r="F152" s="20"/>
       <c r="G152" s="20"/>
-      <c r="H152" s="22"/>
+      <c r="H152" s="21"/>
     </row>
     <row r="153" ht="21" customHeight="1">
       <c r="A153" s="20"/>
       <c r="B153" s="20"/>
       <c r="C153" s="20"/>
-      <c r="D153" s="6"/>
-      <c r="E153" s="6"/>
-      <c r="F153" s="6"/>
-      <c r="G153" s="6"/>
-      <c r="H153" s="7"/>
+      <c r="D153" s="5"/>
+      <c r="E153" s="5"/>
+      <c r="F153" s="5"/>
+      <c r="G153" s="5"/>
+      <c r="H153" s="6"/>
     </row>
     <row r="154" ht="21" customHeight="1">
       <c r="A154" s="20"/>
       <c r="B154" s="20"/>
       <c r="C154" s="20"/>
-      <c r="D154" s="6"/>
-      <c r="E154" s="6"/>
-      <c r="F154" s="6"/>
-      <c r="G154" s="6"/>
-      <c r="H154" s="7"/>
+      <c r="D154" s="5"/>
+      <c r="E154" s="5"/>
+      <c r="F154" s="5"/>
+      <c r="G154" s="5"/>
+      <c r="H154" s="6"/>
     </row>
     <row r="155" ht="21" customHeight="1">
       <c r="A155" s="20"/>
@@ -3981,336 +4278,336 @@
       <c r="E155" s="20"/>
       <c r="F155" s="20"/>
       <c r="G155" s="20"/>
-      <c r="H155" s="7"/>
+      <c r="H155" s="6"/>
     </row>
     <row r="156" ht="21" customHeight="1">
       <c r="A156" s="20"/>
       <c r="B156" s="20"/>
       <c r="C156" s="20"/>
-      <c r="D156" s="6"/>
-      <c r="E156" s="6"/>
-      <c r="F156" s="6"/>
-      <c r="G156" s="6"/>
-      <c r="H156" s="7"/>
+      <c r="D156" s="5"/>
+      <c r="E156" s="5"/>
+      <c r="F156" s="5"/>
+      <c r="G156" s="5"/>
+      <c r="H156" s="6"/>
     </row>
     <row r="157" ht="21" customHeight="1">
       <c r="A157" s="20"/>
       <c r="B157" s="20"/>
       <c r="C157" s="20"/>
-      <c r="D157" s="6"/>
-      <c r="E157" s="6"/>
-      <c r="F157" s="6"/>
-      <c r="G157" s="6"/>
-      <c r="H157" s="7"/>
+      <c r="D157" s="5"/>
+      <c r="E157" s="5"/>
+      <c r="F157" s="5"/>
+      <c r="G157" s="5"/>
+      <c r="H157" s="6"/>
     </row>
     <row r="158" ht="21" customHeight="1">
       <c r="A158" s="20"/>
       <c r="B158" s="20"/>
       <c r="C158" s="20"/>
-      <c r="D158" s="6"/>
-      <c r="E158" s="6"/>
-      <c r="F158" s="6"/>
-      <c r="G158" s="6"/>
-      <c r="H158" s="7"/>
+      <c r="D158" s="5"/>
+      <c r="E158" s="5"/>
+      <c r="F158" s="5"/>
+      <c r="G158" s="5"/>
+      <c r="H158" s="6"/>
     </row>
     <row r="159" ht="21" customHeight="1">
       <c r="A159" s="20"/>
       <c r="B159" s="20"/>
       <c r="C159" s="20"/>
-      <c r="D159" s="6"/>
-      <c r="E159" s="6"/>
-      <c r="F159" s="6"/>
-      <c r="G159" s="6"/>
-      <c r="H159" s="7"/>
+      <c r="D159" s="5"/>
+      <c r="E159" s="5"/>
+      <c r="F159" s="5"/>
+      <c r="G159" s="5"/>
+      <c r="H159" s="6"/>
     </row>
     <row r="160" ht="21" customHeight="1">
       <c r="A160" s="20"/>
       <c r="B160" s="20"/>
       <c r="C160" s="20"/>
-      <c r="D160" s="6"/>
-      <c r="E160" s="6"/>
-      <c r="F160" s="6"/>
-      <c r="G160" s="6"/>
-      <c r="H160" s="7"/>
+      <c r="D160" s="5"/>
+      <c r="E160" s="5"/>
+      <c r="F160" s="5"/>
+      <c r="G160" s="5"/>
+      <c r="H160" s="6"/>
     </row>
     <row r="161" ht="21" customHeight="1">
-      <c r="A161" s="24"/>
-      <c r="B161" s="24"/>
+      <c r="A161" s="29"/>
+      <c r="B161" s="29"/>
       <c r="C161" s="20"/>
-      <c r="D161" s="6"/>
-      <c r="E161" s="6"/>
-      <c r="F161" s="6"/>
-      <c r="G161" s="6"/>
-      <c r="H161" s="7"/>
+      <c r="D161" s="5"/>
+      <c r="E161" s="5"/>
+      <c r="F161" s="5"/>
+      <c r="G161" s="5"/>
+      <c r="H161" s="6"/>
     </row>
     <row r="162" ht="21" customHeight="1">
       <c r="A162" s="25"/>
       <c r="B162" s="25"/>
       <c r="C162" s="26"/>
-      <c r="D162" s="6"/>
-      <c r="E162" s="6"/>
-      <c r="F162" s="6"/>
-      <c r="G162" s="6"/>
+      <c r="D162" s="5"/>
+      <c r="E162" s="5"/>
+      <c r="F162" s="5"/>
+      <c r="G162" s="5"/>
       <c r="H162" s="10"/>
     </row>
     <row r="163" ht="21" customHeight="1">
-      <c r="A163" s="27"/>
-      <c r="B163" s="27"/>
+      <c r="A163" s="28"/>
+      <c r="B163" s="28"/>
       <c r="C163" s="20"/>
-      <c r="D163" s="6"/>
-      <c r="E163" s="6"/>
-      <c r="F163" s="6"/>
-      <c r="G163" s="6"/>
+      <c r="D163" s="5"/>
+      <c r="E163" s="5"/>
+      <c r="F163" s="5"/>
+      <c r="G163" s="5"/>
       <c r="H163" s="11"/>
     </row>
     <row r="164" ht="21" customHeight="1">
       <c r="A164" s="20"/>
       <c r="B164" s="20"/>
       <c r="C164" s="20"/>
-      <c r="D164" s="6"/>
-      <c r="E164" s="6"/>
-      <c r="F164" s="6"/>
-      <c r="G164" s="6"/>
-      <c r="H164" s="7"/>
+      <c r="D164" s="5"/>
+      <c r="E164" s="5"/>
+      <c r="F164" s="5"/>
+      <c r="G164" s="5"/>
+      <c r="H164" s="6"/>
     </row>
     <row r="165" ht="21" customHeight="1">
       <c r="A165" s="20"/>
       <c r="B165" s="20"/>
       <c r="C165" s="20"/>
-      <c r="D165" s="6"/>
-      <c r="E165" s="6"/>
-      <c r="F165" s="6"/>
-      <c r="G165" s="6"/>
-      <c r="H165" s="7"/>
+      <c r="D165" s="5"/>
+      <c r="E165" s="5"/>
+      <c r="F165" s="5"/>
+      <c r="G165" s="5"/>
+      <c r="H165" s="6"/>
     </row>
     <row r="166" ht="21" customHeight="1">
-      <c r="A166" s="24"/>
-      <c r="B166" s="24"/>
+      <c r="A166" s="29"/>
+      <c r="B166" s="29"/>
       <c r="C166" s="20"/>
-      <c r="D166" s="6"/>
-      <c r="E166" s="6"/>
-      <c r="F166" s="6"/>
-      <c r="G166" s="6"/>
-      <c r="H166" s="7"/>
+      <c r="D166" s="5"/>
+      <c r="E166" s="5"/>
+      <c r="F166" s="5"/>
+      <c r="G166" s="5"/>
+      <c r="H166" s="6"/>
     </row>
     <row r="167" ht="21" customHeight="1">
       <c r="A167" s="25"/>
       <c r="B167" s="25"/>
       <c r="C167" s="26"/>
-      <c r="D167" s="6"/>
-      <c r="E167" s="6"/>
-      <c r="F167" s="6"/>
-      <c r="G167" s="6"/>
+      <c r="D167" s="5"/>
+      <c r="E167" s="5"/>
+      <c r="F167" s="5"/>
+      <c r="G167" s="5"/>
       <c r="H167" s="10"/>
     </row>
     <row r="168" ht="21" customHeight="1">
-      <c r="A168" s="27"/>
-      <c r="B168" s="27"/>
+      <c r="A168" s="28"/>
+      <c r="B168" s="28"/>
       <c r="C168" s="20"/>
-      <c r="D168" s="6"/>
-      <c r="E168" s="6"/>
-      <c r="F168" s="6"/>
-      <c r="G168" s="6"/>
+      <c r="D168" s="5"/>
+      <c r="E168" s="5"/>
+      <c r="F168" s="5"/>
+      <c r="G168" s="5"/>
       <c r="H168" s="11"/>
     </row>
     <row r="169" ht="21" customHeight="1">
       <c r="A169" s="20"/>
       <c r="B169" s="20"/>
       <c r="C169" s="20"/>
-      <c r="D169" s="6"/>
-      <c r="E169" s="6"/>
-      <c r="F169" s="6"/>
-      <c r="G169" s="6"/>
-      <c r="H169" s="7"/>
+      <c r="D169" s="5"/>
+      <c r="E169" s="5"/>
+      <c r="F169" s="5"/>
+      <c r="G169" s="5"/>
+      <c r="H169" s="6"/>
     </row>
     <row r="170" ht="21" customHeight="1">
       <c r="A170" s="20"/>
       <c r="B170" s="20"/>
       <c r="C170" s="20"/>
-      <c r="D170" s="6"/>
-      <c r="E170" s="6"/>
-      <c r="F170" s="6"/>
-      <c r="G170" s="6"/>
-      <c r="H170" s="7"/>
+      <c r="D170" s="5"/>
+      <c r="E170" s="5"/>
+      <c r="F170" s="5"/>
+      <c r="G170" s="5"/>
+      <c r="H170" s="6"/>
     </row>
     <row r="171" ht="21" customHeight="1">
       <c r="A171" s="20"/>
       <c r="B171" s="20"/>
       <c r="C171" s="20"/>
-      <c r="D171" s="6"/>
-      <c r="E171" s="6"/>
-      <c r="F171" s="6"/>
-      <c r="G171" s="6"/>
-      <c r="H171" s="7"/>
+      <c r="D171" s="5"/>
+      <c r="E171" s="5"/>
+      <c r="F171" s="5"/>
+      <c r="G171" s="5"/>
+      <c r="H171" s="6"/>
     </row>
     <row r="172" ht="21" customHeight="1">
       <c r="A172" s="20"/>
       <c r="B172" s="20"/>
       <c r="C172" s="20"/>
-      <c r="D172" s="6"/>
-      <c r="E172" s="6"/>
-      <c r="F172" s="6"/>
-      <c r="G172" s="6"/>
-      <c r="H172" s="7"/>
+      <c r="D172" s="5"/>
+      <c r="E172" s="5"/>
+      <c r="F172" s="5"/>
+      <c r="G172" s="5"/>
+      <c r="H172" s="6"/>
     </row>
     <row r="173" ht="21" customHeight="1">
       <c r="A173" s="20"/>
       <c r="B173" s="20"/>
       <c r="C173" s="20"/>
-      <c r="D173" s="6"/>
-      <c r="E173" s="6"/>
-      <c r="F173" s="6"/>
-      <c r="G173" s="6"/>
-      <c r="H173" s="7"/>
+      <c r="D173" s="5"/>
+      <c r="E173" s="5"/>
+      <c r="F173" s="5"/>
+      <c r="G173" s="5"/>
+      <c r="H173" s="6"/>
     </row>
     <row r="174" ht="21" customHeight="1">
       <c r="A174" s="20"/>
       <c r="B174" s="20"/>
       <c r="C174" s="20"/>
-      <c r="D174" s="6"/>
-      <c r="E174" s="6"/>
-      <c r="F174" s="6"/>
-      <c r="G174" s="6"/>
-      <c r="H174" s="7"/>
+      <c r="D174" s="5"/>
+      <c r="E174" s="5"/>
+      <c r="F174" s="5"/>
+      <c r="G174" s="5"/>
+      <c r="H174" s="6"/>
     </row>
     <row r="175" ht="21" customHeight="1">
       <c r="A175" s="20"/>
       <c r="B175" s="20"/>
       <c r="C175" s="20"/>
-      <c r="D175" s="6"/>
-      <c r="E175" s="6"/>
-      <c r="F175" s="6"/>
-      <c r="G175" s="6"/>
+      <c r="D175" s="5"/>
+      <c r="E175" s="5"/>
+      <c r="F175" s="5"/>
+      <c r="G175" s="5"/>
       <c r="H175" s="10"/>
     </row>
     <row r="176" ht="21" customHeight="1">
       <c r="A176" s="20"/>
       <c r="B176" s="20"/>
       <c r="C176" s="20"/>
-      <c r="D176" s="6"/>
-      <c r="E176" s="6"/>
-      <c r="F176" s="6"/>
-      <c r="G176" s="6"/>
+      <c r="D176" s="5"/>
+      <c r="E176" s="5"/>
+      <c r="F176" s="5"/>
+      <c r="G176" s="5"/>
       <c r="H176" s="11"/>
     </row>
     <row r="177" ht="21" customHeight="1">
       <c r="A177" s="20"/>
       <c r="B177" s="20"/>
       <c r="C177" s="20"/>
-      <c r="D177" s="6"/>
-      <c r="E177" s="6"/>
-      <c r="F177" s="6"/>
-      <c r="G177" s="6"/>
-      <c r="H177" s="7"/>
+      <c r="D177" s="5"/>
+      <c r="E177" s="5"/>
+      <c r="F177" s="5"/>
+      <c r="G177" s="5"/>
+      <c r="H177" s="6"/>
     </row>
     <row r="178" ht="21" customHeight="1">
       <c r="A178" s="20"/>
       <c r="B178" s="20"/>
       <c r="C178" s="20"/>
-      <c r="D178" s="6"/>
-      <c r="E178" s="6"/>
-      <c r="F178" s="6"/>
-      <c r="G178" s="6"/>
-      <c r="H178" s="7"/>
+      <c r="D178" s="5"/>
+      <c r="E178" s="5"/>
+      <c r="F178" s="5"/>
+      <c r="G178" s="5"/>
+      <c r="H178" s="6"/>
     </row>
     <row r="179" ht="21" customHeight="1">
       <c r="A179" s="20"/>
       <c r="B179" s="20"/>
       <c r="C179" s="20"/>
-      <c r="D179" s="6"/>
-      <c r="E179" s="6"/>
-      <c r="F179" s="6"/>
-      <c r="G179" s="6"/>
-      <c r="H179" s="7"/>
+      <c r="D179" s="5"/>
+      <c r="E179" s="5"/>
+      <c r="F179" s="5"/>
+      <c r="G179" s="5"/>
+      <c r="H179" s="6"/>
     </row>
     <row r="180" ht="21" customHeight="1">
       <c r="A180" s="20"/>
       <c r="B180" s="20"/>
       <c r="C180" s="20"/>
-      <c r="D180" s="6"/>
-      <c r="E180" s="6"/>
-      <c r="F180" s="6"/>
-      <c r="G180" s="6"/>
-      <c r="H180" s="7"/>
+      <c r="D180" s="5"/>
+      <c r="E180" s="5"/>
+      <c r="F180" s="5"/>
+      <c r="G180" s="5"/>
+      <c r="H180" s="6"/>
     </row>
     <row r="181" ht="21" customHeight="1">
       <c r="A181" s="20"/>
       <c r="B181" s="20"/>
       <c r="C181" s="20"/>
-      <c r="D181" s="6"/>
-      <c r="E181" s="6"/>
-      <c r="F181" s="6"/>
-      <c r="G181" s="6"/>
-      <c r="H181" s="7"/>
+      <c r="D181" s="5"/>
+      <c r="E181" s="5"/>
+      <c r="F181" s="5"/>
+      <c r="G181" s="5"/>
+      <c r="H181" s="6"/>
     </row>
     <row r="182" ht="21" customHeight="1">
       <c r="A182" s="20"/>
       <c r="B182" s="20"/>
       <c r="C182" s="20"/>
-      <c r="D182" s="6"/>
-      <c r="E182" s="6"/>
-      <c r="F182" s="6"/>
-      <c r="G182" s="6"/>
+      <c r="D182" s="5"/>
+      <c r="E182" s="5"/>
+      <c r="F182" s="5"/>
+      <c r="G182" s="5"/>
       <c r="H182" s="10"/>
     </row>
     <row r="183" ht="21" customHeight="1">
-      <c r="A183" s="24"/>
-      <c r="B183" s="24"/>
+      <c r="A183" s="29"/>
+      <c r="B183" s="29"/>
       <c r="C183" s="20"/>
-      <c r="D183" s="6"/>
-      <c r="E183" s="6"/>
-      <c r="F183" s="6"/>
-      <c r="G183" s="6"/>
+      <c r="D183" s="5"/>
+      <c r="E183" s="5"/>
+      <c r="F183" s="5"/>
+      <c r="G183" s="5"/>
       <c r="H183" s="11"/>
     </row>
     <row r="184" ht="21" customHeight="1">
       <c r="A184" s="25"/>
       <c r="B184" s="25"/>
       <c r="C184" s="26"/>
-      <c r="D184" s="6"/>
-      <c r="E184" s="6"/>
-      <c r="F184" s="6"/>
-      <c r="G184" s="6"/>
-      <c r="H184" s="7"/>
+      <c r="D184" s="5"/>
+      <c r="E184" s="5"/>
+      <c r="F184" s="5"/>
+      <c r="G184" s="5"/>
+      <c r="H184" s="6"/>
     </row>
     <row r="185" ht="21" customHeight="1">
-      <c r="A185" s="27"/>
-      <c r="B185" s="27"/>
+      <c r="A185" s="28"/>
+      <c r="B185" s="28"/>
       <c r="C185" s="20"/>
-      <c r="D185" s="6"/>
-      <c r="E185" s="6"/>
-      <c r="F185" s="6"/>
-      <c r="G185" s="6"/>
+      <c r="D185" s="5"/>
+      <c r="E185" s="5"/>
+      <c r="F185" s="5"/>
+      <c r="G185" s="5"/>
       <c r="H185" s="10"/>
     </row>
     <row r="186" ht="21" customHeight="1">
       <c r="A186" s="20"/>
       <c r="B186" s="20"/>
       <c r="C186" s="20"/>
-      <c r="D186" s="6"/>
-      <c r="E186" s="6"/>
-      <c r="F186" s="6"/>
-      <c r="G186" s="6"/>
+      <c r="D186" s="5"/>
+      <c r="E186" s="5"/>
+      <c r="F186" s="5"/>
+      <c r="G186" s="5"/>
       <c r="H186" s="11"/>
     </row>
     <row r="187" ht="21" customHeight="1">
       <c r="A187" s="20"/>
       <c r="B187" s="20"/>
       <c r="C187" s="20"/>
-      <c r="D187" s="6"/>
-      <c r="E187" s="6"/>
-      <c r="F187" s="6"/>
-      <c r="G187" s="6"/>
+      <c r="D187" s="5"/>
+      <c r="E187" s="5"/>
+      <c r="F187" s="5"/>
+      <c r="G187" s="5"/>
       <c r="H187" s="10"/>
     </row>
     <row r="188" ht="21" customHeight="1">
       <c r="A188" s="20"/>
       <c r="B188" s="20"/>
       <c r="C188" s="20"/>
-      <c r="D188" s="6"/>
-      <c r="E188" s="6"/>
-      <c r="F188" s="6"/>
-      <c r="G188" s="6"/>
+      <c r="D188" s="5"/>
+      <c r="E188" s="5"/>
+      <c r="F188" s="5"/>
+      <c r="G188" s="5"/>
       <c r="H188" s="18"/>
     </row>
     <row r="189" ht="20.7" customHeight="1">
@@ -4321,16 +4618,16 @@
       <c r="E189" s="20"/>
       <c r="F189" s="20"/>
       <c r="G189" s="20"/>
-      <c r="H189" s="22"/>
+      <c r="H189" s="21"/>
     </row>
     <row r="190" ht="21" customHeight="1">
       <c r="A190" s="20"/>
       <c r="B190" s="20"/>
       <c r="C190" s="20"/>
-      <c r="D190" s="6"/>
-      <c r="E190" s="6"/>
-      <c r="F190" s="6"/>
-      <c r="G190" s="6"/>
+      <c r="D190" s="5"/>
+      <c r="E190" s="5"/>
+      <c r="F190" s="5"/>
+      <c r="G190" s="5"/>
       <c r="H190" s="10"/>
     </row>
     <row r="191" ht="20.7" customHeight="1">
@@ -4341,136 +4638,136 @@
       <c r="E191" s="20"/>
       <c r="F191" s="20"/>
       <c r="G191" s="20"/>
-      <c r="H191" s="22"/>
+      <c r="H191" s="21"/>
     </row>
     <row r="192" ht="21" customHeight="1">
       <c r="A192" s="20"/>
       <c r="B192" s="20"/>
       <c r="C192" s="20"/>
-      <c r="D192" s="6"/>
-      <c r="E192" s="6"/>
-      <c r="F192" s="6"/>
-      <c r="G192" s="6"/>
-      <c r="H192" s="7"/>
+      <c r="D192" s="5"/>
+      <c r="E192" s="5"/>
+      <c r="F192" s="5"/>
+      <c r="G192" s="5"/>
+      <c r="H192" s="6"/>
     </row>
     <row r="193" ht="21" customHeight="1">
       <c r="A193" s="20"/>
       <c r="B193" s="20"/>
       <c r="C193" s="20"/>
-      <c r="D193" s="6"/>
-      <c r="E193" s="6"/>
-      <c r="F193" s="6"/>
-      <c r="G193" s="6"/>
-      <c r="H193" s="7"/>
+      <c r="D193" s="5"/>
+      <c r="E193" s="5"/>
+      <c r="F193" s="5"/>
+      <c r="G193" s="5"/>
+      <c r="H193" s="6"/>
     </row>
     <row r="194" ht="21" customHeight="1">
       <c r="A194" s="20"/>
       <c r="B194" s="20"/>
       <c r="C194" s="20"/>
-      <c r="D194" s="6"/>
-      <c r="E194" s="6"/>
-      <c r="F194" s="6"/>
-      <c r="G194" s="6"/>
-      <c r="H194" s="7"/>
+      <c r="D194" s="5"/>
+      <c r="E194" s="5"/>
+      <c r="F194" s="5"/>
+      <c r="G194" s="5"/>
+      <c r="H194" s="6"/>
     </row>
     <row r="195" ht="21" customHeight="1">
       <c r="A195" s="20"/>
       <c r="B195" s="20"/>
       <c r="C195" s="20"/>
-      <c r="D195" s="6"/>
-      <c r="E195" s="6"/>
-      <c r="F195" s="6"/>
-      <c r="G195" s="6"/>
-      <c r="H195" s="7"/>
+      <c r="D195" s="5"/>
+      <c r="E195" s="5"/>
+      <c r="F195" s="5"/>
+      <c r="G195" s="5"/>
+      <c r="H195" s="6"/>
     </row>
     <row r="196" ht="21" customHeight="1">
       <c r="A196" s="20"/>
       <c r="B196" s="20"/>
       <c r="C196" s="20"/>
-      <c r="D196" s="6"/>
-      <c r="E196" s="6"/>
-      <c r="F196" s="6"/>
-      <c r="G196" s="6"/>
-      <c r="H196" s="7"/>
+      <c r="D196" s="5"/>
+      <c r="E196" s="5"/>
+      <c r="F196" s="5"/>
+      <c r="G196" s="5"/>
+      <c r="H196" s="6"/>
     </row>
     <row r="197" ht="21" customHeight="1">
       <c r="A197" s="20"/>
       <c r="B197" s="20"/>
       <c r="C197" s="20"/>
-      <c r="D197" s="6"/>
-      <c r="E197" s="6"/>
-      <c r="F197" s="6"/>
-      <c r="G197" s="6"/>
+      <c r="D197" s="5"/>
+      <c r="E197" s="5"/>
+      <c r="F197" s="5"/>
+      <c r="G197" s="5"/>
       <c r="H197" s="10"/>
     </row>
     <row r="198" ht="21" customHeight="1">
       <c r="A198" s="20"/>
       <c r="B198" s="20"/>
       <c r="C198" s="20"/>
-      <c r="D198" s="6"/>
-      <c r="E198" s="6"/>
-      <c r="F198" s="6"/>
-      <c r="G198" s="6"/>
+      <c r="D198" s="5"/>
+      <c r="E198" s="5"/>
+      <c r="F198" s="5"/>
+      <c r="G198" s="5"/>
       <c r="H198" s="11"/>
     </row>
     <row r="199" ht="21" customHeight="1">
-      <c r="A199" s="24"/>
-      <c r="B199" s="24"/>
+      <c r="A199" s="29"/>
+      <c r="B199" s="29"/>
       <c r="C199" s="20"/>
-      <c r="D199" s="6"/>
-      <c r="E199" s="6"/>
-      <c r="F199" s="6"/>
-      <c r="G199" s="6"/>
-      <c r="H199" s="7"/>
+      <c r="D199" s="5"/>
+      <c r="E199" s="5"/>
+      <c r="F199" s="5"/>
+      <c r="G199" s="5"/>
+      <c r="H199" s="6"/>
     </row>
     <row r="200" ht="21" customHeight="1">
       <c r="A200" s="25"/>
       <c r="B200" s="25"/>
       <c r="C200" s="26"/>
-      <c r="D200" s="6"/>
-      <c r="E200" s="6"/>
-      <c r="F200" s="6"/>
-      <c r="G200" s="6"/>
+      <c r="D200" s="5"/>
+      <c r="E200" s="5"/>
+      <c r="F200" s="5"/>
+      <c r="G200" s="5"/>
       <c r="H200" s="10"/>
     </row>
     <row r="201" ht="21" customHeight="1">
-      <c r="A201" s="27"/>
-      <c r="B201" s="27"/>
+      <c r="A201" s="28"/>
+      <c r="B201" s="28"/>
       <c r="C201" s="20"/>
-      <c r="D201" s="6"/>
-      <c r="E201" s="6"/>
-      <c r="F201" s="6"/>
-      <c r="G201" s="6"/>
+      <c r="D201" s="5"/>
+      <c r="E201" s="5"/>
+      <c r="F201" s="5"/>
+      <c r="G201" s="5"/>
       <c r="H201" s="11"/>
     </row>
     <row r="202" ht="21" customHeight="1">
       <c r="A202" s="20"/>
       <c r="B202" s="20"/>
       <c r="C202" s="20"/>
-      <c r="D202" s="6"/>
-      <c r="E202" s="6"/>
-      <c r="F202" s="6"/>
-      <c r="G202" s="6"/>
-      <c r="H202" s="7"/>
+      <c r="D202" s="5"/>
+      <c r="E202" s="5"/>
+      <c r="F202" s="5"/>
+      <c r="G202" s="5"/>
+      <c r="H202" s="6"/>
     </row>
     <row r="203" ht="21" customHeight="1">
       <c r="A203" s="20"/>
       <c r="B203" s="20"/>
       <c r="C203" s="20"/>
-      <c r="D203" s="6"/>
-      <c r="E203" s="6"/>
-      <c r="F203" s="6"/>
-      <c r="G203" s="6"/>
-      <c r="H203" s="7"/>
+      <c r="D203" s="5"/>
+      <c r="E203" s="5"/>
+      <c r="F203" s="5"/>
+      <c r="G203" s="5"/>
+      <c r="H203" s="6"/>
     </row>
     <row r="204" ht="21" customHeight="1">
       <c r="A204" s="20"/>
       <c r="B204" s="20"/>
       <c r="C204" s="20"/>
-      <c r="D204" s="6"/>
-      <c r="E204" s="6"/>
-      <c r="F204" s="6"/>
-      <c r="G204" s="6"/>
+      <c r="D204" s="5"/>
+      <c r="E204" s="5"/>
+      <c r="F204" s="5"/>
+      <c r="G204" s="5"/>
       <c r="H204" s="10"/>
     </row>
     <row r="205" ht="20.7" customHeight="1">
@@ -4481,186 +4778,186 @@
       <c r="E205" s="20"/>
       <c r="F205" s="20"/>
       <c r="G205" s="20"/>
-      <c r="H205" s="22"/>
+      <c r="H205" s="21"/>
     </row>
     <row r="206" ht="21" customHeight="1">
       <c r="A206" s="20"/>
       <c r="B206" s="20"/>
       <c r="C206" s="20"/>
-      <c r="D206" s="6"/>
-      <c r="E206" s="6"/>
-      <c r="F206" s="6"/>
-      <c r="G206" s="6"/>
-      <c r="H206" s="7"/>
+      <c r="D206" s="5"/>
+      <c r="E206" s="5"/>
+      <c r="F206" s="5"/>
+      <c r="G206" s="5"/>
+      <c r="H206" s="6"/>
     </row>
     <row r="207" ht="21" customHeight="1">
       <c r="A207" s="20"/>
       <c r="B207" s="20"/>
       <c r="C207" s="20"/>
-      <c r="D207" s="6"/>
-      <c r="E207" s="6"/>
-      <c r="F207" s="6"/>
-      <c r="G207" s="6"/>
-      <c r="H207" s="7"/>
+      <c r="D207" s="5"/>
+      <c r="E207" s="5"/>
+      <c r="F207" s="5"/>
+      <c r="G207" s="5"/>
+      <c r="H207" s="6"/>
     </row>
     <row r="208" ht="21" customHeight="1">
       <c r="A208" s="20"/>
       <c r="B208" s="20"/>
       <c r="C208" s="20"/>
-      <c r="D208" s="6"/>
-      <c r="E208" s="6"/>
-      <c r="F208" s="6"/>
-      <c r="G208" s="6"/>
+      <c r="D208" s="5"/>
+      <c r="E208" s="5"/>
+      <c r="F208" s="5"/>
+      <c r="G208" s="5"/>
       <c r="H208" s="10"/>
     </row>
     <row r="209" ht="21" customHeight="1">
       <c r="A209" s="20"/>
       <c r="B209" s="20"/>
       <c r="C209" s="20"/>
-      <c r="D209" s="6"/>
-      <c r="E209" s="6"/>
-      <c r="F209" s="6"/>
-      <c r="G209" s="6"/>
+      <c r="D209" s="5"/>
+      <c r="E209" s="5"/>
+      <c r="F209" s="5"/>
+      <c r="G209" s="5"/>
       <c r="H209" s="11"/>
     </row>
     <row r="210" ht="21" customHeight="1">
       <c r="A210" s="20"/>
       <c r="B210" s="20"/>
       <c r="C210" s="20"/>
-      <c r="D210" s="6"/>
-      <c r="E210" s="6"/>
-      <c r="F210" s="6"/>
-      <c r="G210" s="6"/>
+      <c r="D210" s="5"/>
+      <c r="E210" s="5"/>
+      <c r="F210" s="5"/>
+      <c r="G210" s="5"/>
       <c r="H210" s="10"/>
     </row>
     <row r="211" ht="21" customHeight="1">
-      <c r="A211" s="24"/>
-      <c r="B211" s="24"/>
+      <c r="A211" s="29"/>
+      <c r="B211" s="29"/>
       <c r="C211" s="20"/>
-      <c r="D211" s="6"/>
-      <c r="E211" s="6"/>
-      <c r="F211" s="6"/>
-      <c r="G211" s="6"/>
+      <c r="D211" s="5"/>
+      <c r="E211" s="5"/>
+      <c r="F211" s="5"/>
+      <c r="G211" s="5"/>
       <c r="H211" s="11"/>
     </row>
     <row r="212" ht="21" customHeight="1">
       <c r="A212" s="25"/>
       <c r="B212" s="25"/>
       <c r="C212" s="26"/>
-      <c r="D212" s="6"/>
-      <c r="E212" s="6"/>
-      <c r="F212" s="6"/>
-      <c r="G212" s="6"/>
+      <c r="D212" s="5"/>
+      <c r="E212" s="5"/>
+      <c r="F212" s="5"/>
+      <c r="G212" s="5"/>
       <c r="H212" s="10"/>
     </row>
     <row r="213" ht="21" customHeight="1">
-      <c r="A213" s="27"/>
-      <c r="B213" s="27"/>
+      <c r="A213" s="28"/>
+      <c r="B213" s="28"/>
       <c r="C213" s="20"/>
-      <c r="D213" s="6"/>
-      <c r="E213" s="6"/>
-      <c r="F213" s="6"/>
-      <c r="G213" s="6"/>
+      <c r="D213" s="5"/>
+      <c r="E213" s="5"/>
+      <c r="F213" s="5"/>
+      <c r="G213" s="5"/>
       <c r="H213" s="11"/>
     </row>
     <row r="214" ht="21" customHeight="1">
       <c r="A214" s="20"/>
       <c r="B214" s="20"/>
       <c r="C214" s="20"/>
-      <c r="D214" s="6"/>
-      <c r="E214" s="6"/>
-      <c r="F214" s="6"/>
-      <c r="G214" s="6"/>
-      <c r="H214" s="7"/>
+      <c r="D214" s="5"/>
+      <c r="E214" s="5"/>
+      <c r="F214" s="5"/>
+      <c r="G214" s="5"/>
+      <c r="H214" s="6"/>
     </row>
     <row r="215" ht="21" customHeight="1">
-      <c r="A215" s="24"/>
-      <c r="B215" s="24"/>
+      <c r="A215" s="29"/>
+      <c r="B215" s="29"/>
       <c r="C215" s="20"/>
-      <c r="D215" s="6"/>
-      <c r="E215" s="6"/>
-      <c r="F215" s="6"/>
-      <c r="G215" s="6"/>
+      <c r="D215" s="5"/>
+      <c r="E215" s="5"/>
+      <c r="F215" s="5"/>
+      <c r="G215" s="5"/>
       <c r="H215" s="10"/>
     </row>
     <row r="216" ht="21" customHeight="1">
       <c r="A216" s="25"/>
       <c r="B216" s="25"/>
       <c r="C216" s="26"/>
-      <c r="D216" s="6"/>
-      <c r="E216" s="6"/>
-      <c r="F216" s="6"/>
-      <c r="G216" s="6"/>
+      <c r="D216" s="5"/>
+      <c r="E216" s="5"/>
+      <c r="F216" s="5"/>
+      <c r="G216" s="5"/>
       <c r="H216" s="18"/>
     </row>
     <row r="217" ht="21" customHeight="1">
-      <c r="A217" s="27"/>
-      <c r="B217" s="27"/>
+      <c r="A217" s="28"/>
+      <c r="B217" s="28"/>
       <c r="C217" s="20"/>
-      <c r="D217" s="6"/>
-      <c r="E217" s="6"/>
-      <c r="F217" s="6"/>
-      <c r="G217" s="6"/>
+      <c r="D217" s="5"/>
+      <c r="E217" s="5"/>
+      <c r="F217" s="5"/>
+      <c r="G217" s="5"/>
       <c r="H217" s="11"/>
     </row>
     <row r="218" ht="21" customHeight="1">
       <c r="A218" s="20"/>
       <c r="B218" s="20"/>
       <c r="C218" s="20"/>
-      <c r="D218" s="6"/>
-      <c r="E218" s="6"/>
-      <c r="F218" s="6"/>
-      <c r="G218" s="6"/>
-      <c r="H218" s="7"/>
+      <c r="D218" s="5"/>
+      <c r="E218" s="5"/>
+      <c r="F218" s="5"/>
+      <c r="G218" s="5"/>
+      <c r="H218" s="6"/>
     </row>
     <row r="219" ht="21" customHeight="1">
-      <c r="A219" s="24"/>
-      <c r="B219" s="24"/>
+      <c r="A219" s="29"/>
+      <c r="B219" s="29"/>
       <c r="C219" s="20"/>
-      <c r="D219" s="6"/>
-      <c r="E219" s="6"/>
-      <c r="F219" s="6"/>
-      <c r="G219" s="6"/>
-      <c r="H219" s="7"/>
+      <c r="D219" s="5"/>
+      <c r="E219" s="5"/>
+      <c r="F219" s="5"/>
+      <c r="G219" s="5"/>
+      <c r="H219" s="6"/>
     </row>
     <row r="220" ht="21" customHeight="1">
       <c r="A220" s="25"/>
       <c r="B220" s="25"/>
       <c r="C220" s="26"/>
-      <c r="D220" s="6"/>
-      <c r="E220" s="6"/>
-      <c r="F220" s="6"/>
-      <c r="G220" s="6"/>
+      <c r="D220" s="5"/>
+      <c r="E220" s="5"/>
+      <c r="F220" s="5"/>
+      <c r="G220" s="5"/>
       <c r="H220" s="10"/>
     </row>
     <row r="221" ht="21" customHeight="1">
-      <c r="A221" s="28"/>
-      <c r="B221" s="28"/>
+      <c r="A221" s="27"/>
+      <c r="B221" s="27"/>
       <c r="C221" s="20"/>
-      <c r="D221" s="6"/>
-      <c r="E221" s="6"/>
-      <c r="F221" s="6"/>
-      <c r="G221" s="6"/>
+      <c r="D221" s="5"/>
+      <c r="E221" s="5"/>
+      <c r="F221" s="5"/>
+      <c r="G221" s="5"/>
       <c r="H221" s="11"/>
     </row>
     <row r="222" ht="21" customHeight="1">
       <c r="A222" s="25"/>
       <c r="B222" s="25"/>
       <c r="C222" s="26"/>
-      <c r="D222" s="6"/>
-      <c r="E222" s="6"/>
-      <c r="F222" s="6"/>
-      <c r="G222" s="6"/>
+      <c r="D222" s="5"/>
+      <c r="E222" s="5"/>
+      <c r="F222" s="5"/>
+      <c r="G222" s="5"/>
       <c r="H222" s="10"/>
     </row>
     <row r="223" ht="21" customHeight="1">
-      <c r="A223" s="27"/>
-      <c r="B223" s="27"/>
+      <c r="A223" s="28"/>
+      <c r="B223" s="28"/>
       <c r="C223" s="20"/>
-      <c r="D223" s="6"/>
-      <c r="E223" s="6"/>
-      <c r="F223" s="6"/>
-      <c r="G223" s="6"/>
+      <c r="D223" s="5"/>
+      <c r="E223" s="5"/>
+      <c r="F223" s="5"/>
+      <c r="G223" s="5"/>
       <c r="H223" s="18"/>
     </row>
     <row r="224" ht="20.7" customHeight="1">
@@ -4671,246 +4968,246 @@
       <c r="E224" s="20"/>
       <c r="F224" s="20"/>
       <c r="G224" s="20"/>
-      <c r="H224" s="22"/>
+      <c r="H224" s="21"/>
     </row>
     <row r="225" ht="21" customHeight="1">
       <c r="A225" s="20"/>
       <c r="B225" s="20"/>
       <c r="C225" s="20"/>
-      <c r="D225" s="6"/>
-      <c r="E225" s="6"/>
-      <c r="F225" s="6"/>
-      <c r="G225" s="6"/>
+      <c r="D225" s="5"/>
+      <c r="E225" s="5"/>
+      <c r="F225" s="5"/>
+      <c r="G225" s="5"/>
       <c r="H225" s="10"/>
     </row>
     <row r="226" ht="20.7" customHeight="1">
-      <c r="A226" s="24"/>
-      <c r="B226" s="24"/>
+      <c r="A226" s="29"/>
+      <c r="B226" s="29"/>
       <c r="C226" s="20"/>
       <c r="D226" s="20"/>
       <c r="E226" s="20"/>
       <c r="F226" s="20"/>
       <c r="G226" s="20"/>
-      <c r="H226" s="22"/>
+      <c r="H226" s="21"/>
     </row>
     <row r="227" ht="21" customHeight="1">
       <c r="A227" s="25"/>
       <c r="B227" s="25"/>
       <c r="C227" s="26"/>
-      <c r="D227" s="6"/>
-      <c r="E227" s="6"/>
-      <c r="F227" s="6"/>
-      <c r="G227" s="6"/>
-      <c r="H227" s="7"/>
+      <c r="D227" s="5"/>
+      <c r="E227" s="5"/>
+      <c r="F227" s="5"/>
+      <c r="G227" s="5"/>
+      <c r="H227" s="6"/>
     </row>
     <row r="228" ht="21" customHeight="1">
-      <c r="A228" s="28"/>
-      <c r="B228" s="28"/>
+      <c r="A228" s="27"/>
+      <c r="B228" s="27"/>
       <c r="C228" s="20"/>
       <c r="D228" s="20"/>
       <c r="E228" s="20"/>
       <c r="F228" s="20"/>
       <c r="G228" s="20"/>
-      <c r="H228" s="7"/>
+      <c r="H228" s="6"/>
     </row>
     <row r="229" ht="21" customHeight="1">
       <c r="A229" s="25"/>
       <c r="B229" s="25"/>
       <c r="C229" s="26"/>
-      <c r="D229" s="6"/>
-      <c r="E229" s="6"/>
-      <c r="F229" s="6"/>
-      <c r="G229" s="6"/>
+      <c r="D229" s="5"/>
+      <c r="E229" s="5"/>
+      <c r="F229" s="5"/>
+      <c r="G229" s="5"/>
       <c r="H229" s="10"/>
     </row>
     <row r="230" ht="21" customHeight="1">
-      <c r="A230" s="27"/>
-      <c r="B230" s="27"/>
+      <c r="A230" s="28"/>
+      <c r="B230" s="28"/>
       <c r="C230" s="20"/>
-      <c r="D230" s="6"/>
-      <c r="E230" s="6"/>
-      <c r="F230" s="6"/>
-      <c r="G230" s="6"/>
+      <c r="D230" s="5"/>
+      <c r="E230" s="5"/>
+      <c r="F230" s="5"/>
+      <c r="G230" s="5"/>
       <c r="H230" s="11"/>
     </row>
     <row r="231" ht="21" customHeight="1">
       <c r="A231" s="20"/>
       <c r="B231" s="20"/>
       <c r="C231" s="20"/>
-      <c r="D231" s="6"/>
-      <c r="E231" s="6"/>
-      <c r="F231" s="6"/>
-      <c r="G231" s="6"/>
-      <c r="H231" s="7"/>
+      <c r="D231" s="5"/>
+      <c r="E231" s="5"/>
+      <c r="F231" s="5"/>
+      <c r="G231" s="5"/>
+      <c r="H231" s="6"/>
     </row>
     <row r="232" ht="21" customHeight="1">
       <c r="A232" s="20"/>
       <c r="B232" s="20"/>
       <c r="C232" s="20"/>
-      <c r="D232" s="6"/>
-      <c r="E232" s="6"/>
-      <c r="F232" s="6"/>
-      <c r="G232" s="6"/>
-      <c r="H232" s="7"/>
+      <c r="D232" s="5"/>
+      <c r="E232" s="5"/>
+      <c r="F232" s="5"/>
+      <c r="G232" s="5"/>
+      <c r="H232" s="6"/>
     </row>
     <row r="233" ht="21" customHeight="1">
       <c r="A233" s="20"/>
       <c r="B233" s="20"/>
       <c r="C233" s="20"/>
-      <c r="D233" s="6"/>
-      <c r="E233" s="6"/>
-      <c r="F233" s="6"/>
-      <c r="G233" s="6"/>
-      <c r="H233" s="7"/>
+      <c r="D233" s="5"/>
+      <c r="E233" s="5"/>
+      <c r="F233" s="5"/>
+      <c r="G233" s="5"/>
+      <c r="H233" s="6"/>
     </row>
     <row r="234" ht="21" customHeight="1">
       <c r="A234" s="20"/>
       <c r="B234" s="20"/>
       <c r="C234" s="20"/>
-      <c r="D234" s="6"/>
-      <c r="E234" s="6"/>
-      <c r="F234" s="6"/>
-      <c r="G234" s="6"/>
+      <c r="D234" s="5"/>
+      <c r="E234" s="5"/>
+      <c r="F234" s="5"/>
+      <c r="G234" s="5"/>
       <c r="H234" s="10"/>
     </row>
     <row r="235" ht="21" customHeight="1">
-      <c r="A235" s="24"/>
-      <c r="B235" s="24"/>
+      <c r="A235" s="29"/>
+      <c r="B235" s="29"/>
       <c r="C235" s="20"/>
-      <c r="D235" s="6"/>
-      <c r="E235" s="6"/>
-      <c r="F235" s="6"/>
-      <c r="G235" s="6"/>
+      <c r="D235" s="5"/>
+      <c r="E235" s="5"/>
+      <c r="F235" s="5"/>
+      <c r="G235" s="5"/>
       <c r="H235" s="11"/>
     </row>
     <row r="236" ht="21" customHeight="1">
       <c r="A236" s="25"/>
       <c r="B236" s="25"/>
       <c r="C236" s="26"/>
-      <c r="D236" s="6"/>
-      <c r="E236" s="6"/>
-      <c r="F236" s="6"/>
-      <c r="G236" s="6"/>
+      <c r="D236" s="5"/>
+      <c r="E236" s="5"/>
+      <c r="F236" s="5"/>
+      <c r="G236" s="5"/>
       <c r="H236" s="10"/>
     </row>
     <row r="237" ht="21" customHeight="1">
-      <c r="A237" s="27"/>
-      <c r="B237" s="27"/>
+      <c r="A237" s="28"/>
+      <c r="B237" s="28"/>
       <c r="C237" s="20"/>
-      <c r="D237" s="6"/>
-      <c r="E237" s="6"/>
-      <c r="F237" s="6"/>
-      <c r="G237" s="6"/>
+      <c r="D237" s="5"/>
+      <c r="E237" s="5"/>
+      <c r="F237" s="5"/>
+      <c r="G237" s="5"/>
       <c r="H237" s="11"/>
     </row>
     <row r="238" ht="21" customHeight="1">
-      <c r="A238" s="24"/>
-      <c r="B238" s="24"/>
+      <c r="A238" s="29"/>
+      <c r="B238" s="29"/>
       <c r="C238" s="20"/>
-      <c r="D238" s="6"/>
-      <c r="E238" s="6"/>
-      <c r="F238" s="6"/>
-      <c r="G238" s="6"/>
-      <c r="H238" s="7"/>
+      <c r="D238" s="5"/>
+      <c r="E238" s="5"/>
+      <c r="F238" s="5"/>
+      <c r="G238" s="5"/>
+      <c r="H238" s="6"/>
     </row>
     <row r="239" ht="21" customHeight="1">
       <c r="A239" s="25"/>
       <c r="B239" s="25"/>
       <c r="C239" s="26"/>
-      <c r="D239" s="6"/>
-      <c r="E239" s="6"/>
-      <c r="F239" s="6"/>
-      <c r="G239" s="6"/>
-      <c r="H239" s="7"/>
+      <c r="D239" s="5"/>
+      <c r="E239" s="5"/>
+      <c r="F239" s="5"/>
+      <c r="G239" s="5"/>
+      <c r="H239" s="6"/>
     </row>
     <row r="240" ht="21" customHeight="1">
       <c r="A240" s="25"/>
       <c r="B240" s="25"/>
       <c r="C240" s="26"/>
-      <c r="D240" s="6"/>
-      <c r="E240" s="6"/>
-      <c r="F240" s="6"/>
-      <c r="G240" s="6"/>
+      <c r="D240" s="5"/>
+      <c r="E240" s="5"/>
+      <c r="F240" s="5"/>
+      <c r="G240" s="5"/>
       <c r="H240" s="10"/>
     </row>
     <row r="241" ht="21" customHeight="1">
-      <c r="A241" s="28"/>
-      <c r="B241" s="28"/>
+      <c r="A241" s="27"/>
+      <c r="B241" s="27"/>
       <c r="C241" s="20"/>
-      <c r="D241" s="6"/>
-      <c r="E241" s="6"/>
-      <c r="F241" s="6"/>
-      <c r="G241" s="6"/>
+      <c r="D241" s="5"/>
+      <c r="E241" s="5"/>
+      <c r="F241" s="5"/>
+      <c r="G241" s="5"/>
       <c r="H241" s="11"/>
     </row>
     <row r="242" ht="21" customHeight="1">
       <c r="A242" s="25"/>
       <c r="B242" s="25"/>
       <c r="C242" s="26"/>
-      <c r="D242" s="6"/>
-      <c r="E242" s="6"/>
-      <c r="F242" s="6"/>
-      <c r="G242" s="6"/>
+      <c r="D242" s="5"/>
+      <c r="E242" s="5"/>
+      <c r="F242" s="5"/>
+      <c r="G242" s="5"/>
       <c r="H242" s="10"/>
     </row>
     <row r="243" ht="21" customHeight="1">
-      <c r="A243" s="27"/>
-      <c r="B243" s="27"/>
+      <c r="A243" s="28"/>
+      <c r="B243" s="28"/>
       <c r="C243" s="20"/>
-      <c r="D243" s="6"/>
-      <c r="E243" s="6"/>
-      <c r="F243" s="6"/>
-      <c r="G243" s="6"/>
+      <c r="D243" s="5"/>
+      <c r="E243" s="5"/>
+      <c r="F243" s="5"/>
+      <c r="G243" s="5"/>
       <c r="H243" s="11"/>
     </row>
     <row r="244" ht="21" customHeight="1">
       <c r="A244" s="20"/>
       <c r="B244" s="20"/>
       <c r="C244" s="20"/>
-      <c r="D244" s="6"/>
-      <c r="E244" s="6"/>
-      <c r="F244" s="6"/>
-      <c r="G244" s="6"/>
-      <c r="H244" s="7"/>
+      <c r="D244" s="5"/>
+      <c r="E244" s="5"/>
+      <c r="F244" s="5"/>
+      <c r="G244" s="5"/>
+      <c r="H244" s="6"/>
     </row>
     <row r="245" ht="21" customHeight="1">
       <c r="A245" s="20"/>
       <c r="B245" s="20"/>
       <c r="C245" s="20"/>
-      <c r="D245" s="6"/>
-      <c r="E245" s="6"/>
-      <c r="F245" s="6"/>
-      <c r="G245" s="6"/>
-      <c r="H245" s="7"/>
+      <c r="D245" s="5"/>
+      <c r="E245" s="5"/>
+      <c r="F245" s="5"/>
+      <c r="G245" s="5"/>
+      <c r="H245" s="6"/>
     </row>
     <row r="246" ht="21" customHeight="1">
       <c r="A246" s="20"/>
       <c r="B246" s="20"/>
       <c r="C246" s="20"/>
-      <c r="D246" s="6"/>
-      <c r="E246" s="6"/>
-      <c r="F246" s="6"/>
-      <c r="G246" s="6"/>
-      <c r="H246" s="7"/>
+      <c r="D246" s="5"/>
+      <c r="E246" s="5"/>
+      <c r="F246" s="5"/>
+      <c r="G246" s="5"/>
+      <c r="H246" s="6"/>
     </row>
     <row r="247" ht="21" customHeight="1">
       <c r="A247" s="20"/>
       <c r="B247" s="20"/>
       <c r="C247" s="20"/>
-      <c r="D247" s="6"/>
-      <c r="E247" s="6"/>
-      <c r="F247" s="6"/>
-      <c r="G247" s="6"/>
-      <c r="H247" s="7"/>
+      <c r="D247" s="5"/>
+      <c r="E247" s="5"/>
+      <c r="F247" s="5"/>
+      <c r="G247" s="5"/>
+      <c r="H247" s="6"/>
     </row>
     <row r="248" ht="21" customHeight="1">
       <c r="A248" s="20"/>
       <c r="B248" s="20"/>
       <c r="C248" s="20"/>
-      <c r="D248" s="6"/>
-      <c r="E248" s="6"/>
-      <c r="F248" s="6"/>
-      <c r="G248" s="6"/>
+      <c r="D248" s="5"/>
+      <c r="E248" s="5"/>
+      <c r="F248" s="5"/>
+      <c r="G248" s="5"/>
       <c r="H248" s="10"/>
     </row>
     <row r="249" ht="20.35" customHeight="1">
@@ -4921,7 +5218,7 @@
       <c r="E249" s="20"/>
       <c r="F249" s="20"/>
       <c r="G249" s="20"/>
-      <c r="H249" s="21"/>
+      <c r="H249" s="24"/>
     </row>
     <row r="250" ht="20.35" customHeight="1">
       <c r="A250" s="20"/>
@@ -4931,16 +5228,16 @@
       <c r="E250" s="20"/>
       <c r="F250" s="20"/>
       <c r="G250" s="20"/>
-      <c r="H250" s="22"/>
+      <c r="H250" s="21"/>
     </row>
     <row r="251" ht="21" customHeight="1">
       <c r="A251" s="20"/>
       <c r="B251" s="20"/>
       <c r="C251" s="20"/>
-      <c r="D251" s="6"/>
-      <c r="E251" s="6"/>
-      <c r="F251" s="6"/>
-      <c r="G251" s="6"/>
+      <c r="D251" s="5"/>
+      <c r="E251" s="5"/>
+      <c r="F251" s="5"/>
+      <c r="G251" s="5"/>
       <c r="H251" s="10"/>
     </row>
     <row r="252" ht="20.35" customHeight="1">
@@ -4951,7 +5248,7 @@
       <c r="E252" s="20"/>
       <c r="F252" s="20"/>
       <c r="G252" s="20"/>
-      <c r="H252" s="21"/>
+      <c r="H252" s="24"/>
     </row>
     <row r="253" ht="20.05" customHeight="1">
       <c r="A253" s="20"/>
@@ -4961,206 +5258,206 @@
       <c r="E253" s="20"/>
       <c r="F253" s="20"/>
       <c r="G253" s="20"/>
-      <c r="H253" s="21"/>
+      <c r="H253" s="24"/>
     </row>
     <row r="254" ht="20.35" customHeight="1">
-      <c r="A254" s="24"/>
-      <c r="B254" s="24"/>
+      <c r="A254" s="29"/>
+      <c r="B254" s="29"/>
       <c r="C254" s="20"/>
       <c r="D254" s="20"/>
       <c r="E254" s="20"/>
       <c r="F254" s="20"/>
       <c r="G254" s="20"/>
-      <c r="H254" s="22"/>
+      <c r="H254" s="21"/>
     </row>
     <row r="255" ht="21" customHeight="1">
       <c r="A255" s="25"/>
       <c r="B255" s="25"/>
       <c r="C255" s="26"/>
-      <c r="D255" s="6"/>
-      <c r="E255" s="6"/>
-      <c r="F255" s="6"/>
-      <c r="G255" s="6"/>
+      <c r="D255" s="5"/>
+      <c r="E255" s="5"/>
+      <c r="F255" s="5"/>
+      <c r="G255" s="5"/>
       <c r="H255" s="10"/>
     </row>
     <row r="256" ht="20.7" customHeight="1">
-      <c r="A256" s="27"/>
-      <c r="B256" s="27"/>
+      <c r="A256" s="28"/>
+      <c r="B256" s="28"/>
       <c r="C256" s="20"/>
       <c r="D256" s="20"/>
       <c r="E256" s="20"/>
       <c r="F256" s="20"/>
       <c r="G256" s="20"/>
-      <c r="H256" s="22"/>
+      <c r="H256" s="21"/>
     </row>
     <row r="257" ht="21" customHeight="1">
-      <c r="A257" s="24"/>
-      <c r="B257" s="24"/>
+      <c r="A257" s="29"/>
+      <c r="B257" s="29"/>
       <c r="C257" s="20"/>
-      <c r="D257" s="6"/>
-      <c r="E257" s="6"/>
-      <c r="F257" s="6"/>
-      <c r="G257" s="6"/>
-      <c r="H257" s="7"/>
+      <c r="D257" s="5"/>
+      <c r="E257" s="5"/>
+      <c r="F257" s="5"/>
+      <c r="G257" s="5"/>
+      <c r="H257" s="6"/>
     </row>
     <row r="258" ht="21" customHeight="1">
       <c r="A258" s="25"/>
       <c r="B258" s="25"/>
       <c r="C258" s="26"/>
-      <c r="D258" s="6"/>
-      <c r="E258" s="6"/>
-      <c r="F258" s="6"/>
-      <c r="G258" s="6"/>
+      <c r="D258" s="5"/>
+      <c r="E258" s="5"/>
+      <c r="F258" s="5"/>
+      <c r="G258" s="5"/>
       <c r="H258" s="10"/>
     </row>
     <row r="259" ht="21" customHeight="1">
-      <c r="A259" s="27"/>
-      <c r="B259" s="27"/>
+      <c r="A259" s="28"/>
+      <c r="B259" s="28"/>
       <c r="C259" s="20"/>
-      <c r="D259" s="6"/>
-      <c r="E259" s="6"/>
-      <c r="F259" s="6"/>
-      <c r="G259" s="6"/>
+      <c r="D259" s="5"/>
+      <c r="E259" s="5"/>
+      <c r="F259" s="5"/>
+      <c r="G259" s="5"/>
       <c r="H259" s="11"/>
     </row>
     <row r="260" ht="21" customHeight="1">
       <c r="A260" s="20"/>
       <c r="B260" s="20"/>
       <c r="C260" s="20"/>
-      <c r="D260" s="6"/>
-      <c r="E260" s="6"/>
-      <c r="F260" s="6"/>
-      <c r="G260" s="6"/>
-      <c r="H260" s="7"/>
+      <c r="D260" s="5"/>
+      <c r="E260" s="5"/>
+      <c r="F260" s="5"/>
+      <c r="G260" s="5"/>
+      <c r="H260" s="6"/>
     </row>
     <row r="261" ht="21" customHeight="1">
-      <c r="A261" s="24"/>
-      <c r="B261" s="24"/>
+      <c r="A261" s="29"/>
+      <c r="B261" s="29"/>
       <c r="C261" s="20"/>
-      <c r="D261" s="6"/>
-      <c r="E261" s="6"/>
-      <c r="F261" s="6"/>
-      <c r="G261" s="6"/>
-      <c r="H261" s="7"/>
+      <c r="D261" s="5"/>
+      <c r="E261" s="5"/>
+      <c r="F261" s="5"/>
+      <c r="G261" s="5"/>
+      <c r="H261" s="6"/>
     </row>
     <row r="262" ht="21" customHeight="1">
       <c r="A262" s="25"/>
       <c r="B262" s="25"/>
       <c r="C262" s="26"/>
-      <c r="D262" s="6"/>
-      <c r="E262" s="6"/>
-      <c r="F262" s="6"/>
-      <c r="G262" s="6"/>
-      <c r="H262" s="7"/>
+      <c r="D262" s="5"/>
+      <c r="E262" s="5"/>
+      <c r="F262" s="5"/>
+      <c r="G262" s="5"/>
+      <c r="H262" s="6"/>
     </row>
     <row r="263" ht="21" customHeight="1">
       <c r="A263" s="25"/>
       <c r="B263" s="25"/>
       <c r="C263" s="26"/>
-      <c r="D263" s="6"/>
-      <c r="E263" s="6"/>
-      <c r="F263" s="6"/>
-      <c r="G263" s="6"/>
-      <c r="H263" s="7"/>
+      <c r="D263" s="5"/>
+      <c r="E263" s="5"/>
+      <c r="F263" s="5"/>
+      <c r="G263" s="5"/>
+      <c r="H263" s="6"/>
     </row>
     <row r="264" ht="21" customHeight="1">
-      <c r="A264" s="27"/>
-      <c r="B264" s="27"/>
+      <c r="A264" s="28"/>
+      <c r="B264" s="28"/>
       <c r="C264" s="20"/>
-      <c r="D264" s="6"/>
-      <c r="E264" s="6"/>
-      <c r="F264" s="6"/>
-      <c r="G264" s="6"/>
+      <c r="D264" s="5"/>
+      <c r="E264" s="5"/>
+      <c r="F264" s="5"/>
+      <c r="G264" s="5"/>
       <c r="H264" s="10"/>
     </row>
     <row r="265" ht="21" customHeight="1">
       <c r="A265" s="20"/>
       <c r="B265" s="20"/>
       <c r="C265" s="20"/>
-      <c r="D265" s="6"/>
-      <c r="E265" s="6"/>
-      <c r="F265" s="6"/>
-      <c r="G265" s="6"/>
+      <c r="D265" s="5"/>
+      <c r="E265" s="5"/>
+      <c r="F265" s="5"/>
+      <c r="G265" s="5"/>
       <c r="H265" s="18"/>
     </row>
     <row r="266" ht="21" customHeight="1">
       <c r="A266" s="20"/>
       <c r="B266" s="20"/>
       <c r="C266" s="20"/>
-      <c r="D266" s="6"/>
-      <c r="E266" s="6"/>
-      <c r="F266" s="6"/>
-      <c r="G266" s="6"/>
+      <c r="D266" s="5"/>
+      <c r="E266" s="5"/>
+      <c r="F266" s="5"/>
+      <c r="G266" s="5"/>
       <c r="H266" s="11"/>
     </row>
     <row r="267" ht="21" customHeight="1">
       <c r="A267" s="20"/>
       <c r="B267" s="20"/>
       <c r="C267" s="20"/>
-      <c r="D267" s="6"/>
-      <c r="E267" s="6"/>
-      <c r="F267" s="6"/>
-      <c r="G267" s="6"/>
+      <c r="D267" s="5"/>
+      <c r="E267" s="5"/>
+      <c r="F267" s="5"/>
+      <c r="G267" s="5"/>
       <c r="H267" s="10"/>
     </row>
     <row r="268" ht="21" customHeight="1">
       <c r="A268" s="20"/>
       <c r="B268" s="20"/>
       <c r="C268" s="20"/>
-      <c r="D268" s="6"/>
-      <c r="E268" s="6"/>
-      <c r="F268" s="6"/>
-      <c r="G268" s="6"/>
+      <c r="D268" s="5"/>
+      <c r="E268" s="5"/>
+      <c r="F268" s="5"/>
+      <c r="G268" s="5"/>
       <c r="H268" s="11"/>
     </row>
     <row r="269" ht="21" customHeight="1">
       <c r="A269" s="20"/>
       <c r="B269" s="20"/>
       <c r="C269" s="20"/>
-      <c r="D269" s="6"/>
-      <c r="E269" s="6"/>
-      <c r="F269" s="6"/>
-      <c r="G269" s="6"/>
+      <c r="D269" s="5"/>
+      <c r="E269" s="5"/>
+      <c r="F269" s="5"/>
+      <c r="G269" s="5"/>
       <c r="H269" s="10"/>
     </row>
     <row r="270" ht="21" customHeight="1">
       <c r="A270" s="20"/>
       <c r="B270" s="20"/>
       <c r="C270" s="20"/>
-      <c r="D270" s="6"/>
-      <c r="E270" s="6"/>
-      <c r="F270" s="6"/>
-      <c r="G270" s="6"/>
+      <c r="D270" s="5"/>
+      <c r="E270" s="5"/>
+      <c r="F270" s="5"/>
+      <c r="G270" s="5"/>
       <c r="H270" s="11"/>
     </row>
     <row r="271" ht="21" customHeight="1">
       <c r="A271" s="20"/>
       <c r="B271" s="20"/>
       <c r="C271" s="20"/>
-      <c r="D271" s="6"/>
-      <c r="E271" s="6"/>
-      <c r="F271" s="6"/>
-      <c r="G271" s="6"/>
-      <c r="H271" s="7"/>
+      <c r="D271" s="5"/>
+      <c r="E271" s="5"/>
+      <c r="F271" s="5"/>
+      <c r="G271" s="5"/>
+      <c r="H271" s="6"/>
     </row>
     <row r="272" ht="21" customHeight="1">
       <c r="A272" s="20"/>
       <c r="B272" s="20"/>
       <c r="C272" s="20"/>
-      <c r="D272" s="6"/>
-      <c r="E272" s="6"/>
-      <c r="F272" s="6"/>
-      <c r="G272" s="6"/>
+      <c r="D272" s="5"/>
+      <c r="E272" s="5"/>
+      <c r="F272" s="5"/>
+      <c r="G272" s="5"/>
       <c r="H272" s="10"/>
     </row>
     <row r="273" ht="21" customHeight="1">
       <c r="A273" s="20"/>
       <c r="B273" s="20"/>
       <c r="C273" s="20"/>
-      <c r="D273" s="6"/>
-      <c r="E273" s="6"/>
-      <c r="F273" s="6"/>
-      <c r="G273" s="6"/>
+      <c r="D273" s="5"/>
+      <c r="E273" s="5"/>
+      <c r="F273" s="5"/>
+      <c r="G273" s="5"/>
       <c r="H273" s="18"/>
     </row>
     <row r="274" ht="20.7" customHeight="1">
@@ -5171,306 +5468,306 @@
       <c r="E274" s="20"/>
       <c r="F274" s="20"/>
       <c r="G274" s="20"/>
-      <c r="H274" s="22"/>
+      <c r="H274" s="21"/>
     </row>
     <row r="275" ht="21" customHeight="1">
       <c r="A275" s="20"/>
       <c r="B275" s="20"/>
       <c r="C275" s="20"/>
-      <c r="D275" s="6"/>
-      <c r="E275" s="6"/>
-      <c r="F275" s="6"/>
-      <c r="G275" s="6"/>
-      <c r="H275" s="7"/>
+      <c r="D275" s="5"/>
+      <c r="E275" s="5"/>
+      <c r="F275" s="5"/>
+      <c r="G275" s="5"/>
+      <c r="H275" s="6"/>
     </row>
     <row r="276" ht="21" customHeight="1">
       <c r="A276" s="20"/>
       <c r="B276" s="20"/>
       <c r="C276" s="20"/>
-      <c r="D276" s="6"/>
-      <c r="E276" s="6"/>
-      <c r="F276" s="6"/>
-      <c r="G276" s="6"/>
-      <c r="H276" s="7"/>
+      <c r="D276" s="5"/>
+      <c r="E276" s="5"/>
+      <c r="F276" s="5"/>
+      <c r="G276" s="5"/>
+      <c r="H276" s="6"/>
     </row>
     <row r="277" ht="21" customHeight="1">
       <c r="A277" s="20"/>
       <c r="B277" s="20"/>
       <c r="C277" s="20"/>
-      <c r="D277" s="6"/>
-      <c r="E277" s="6"/>
-      <c r="F277" s="6"/>
-      <c r="G277" s="6"/>
-      <c r="H277" s="7"/>
+      <c r="D277" s="5"/>
+      <c r="E277" s="5"/>
+      <c r="F277" s="5"/>
+      <c r="G277" s="5"/>
+      <c r="H277" s="6"/>
     </row>
     <row r="278" ht="21" customHeight="1">
-      <c r="A278" s="24"/>
-      <c r="B278" s="24"/>
+      <c r="A278" s="29"/>
+      <c r="B278" s="29"/>
       <c r="C278" s="20"/>
-      <c r="D278" s="6"/>
-      <c r="E278" s="6"/>
-      <c r="F278" s="6"/>
-      <c r="G278" s="6"/>
-      <c r="H278" s="7"/>
+      <c r="D278" s="5"/>
+      <c r="E278" s="5"/>
+      <c r="F278" s="5"/>
+      <c r="G278" s="5"/>
+      <c r="H278" s="6"/>
     </row>
     <row r="279" ht="21" customHeight="1">
       <c r="A279" s="25"/>
       <c r="B279" s="25"/>
       <c r="C279" s="26"/>
-      <c r="D279" s="6"/>
-      <c r="E279" s="6"/>
-      <c r="F279" s="6"/>
-      <c r="G279" s="6"/>
-      <c r="H279" s="7"/>
+      <c r="D279" s="5"/>
+      <c r="E279" s="5"/>
+      <c r="F279" s="5"/>
+      <c r="G279" s="5"/>
+      <c r="H279" s="6"/>
     </row>
     <row r="280" ht="21" customHeight="1">
       <c r="A280" s="25"/>
       <c r="B280" s="25"/>
       <c r="C280" s="26"/>
-      <c r="D280" s="6"/>
-      <c r="E280" s="6"/>
-      <c r="F280" s="6"/>
-      <c r="G280" s="6"/>
+      <c r="D280" s="5"/>
+      <c r="E280" s="5"/>
+      <c r="F280" s="5"/>
+      <c r="G280" s="5"/>
       <c r="H280" s="10"/>
     </row>
     <row r="281" ht="21" customHeight="1">
-      <c r="A281" s="27"/>
-      <c r="B281" s="27"/>
+      <c r="A281" s="28"/>
+      <c r="B281" s="28"/>
       <c r="C281" s="20"/>
-      <c r="D281" s="6"/>
-      <c r="E281" s="6"/>
-      <c r="F281" s="6"/>
-      <c r="G281" s="6"/>
+      <c r="D281" s="5"/>
+      <c r="E281" s="5"/>
+      <c r="F281" s="5"/>
+      <c r="G281" s="5"/>
       <c r="H281" s="11"/>
     </row>
     <row r="282" ht="21" customHeight="1">
       <c r="A282" s="20"/>
       <c r="B282" s="20"/>
       <c r="C282" s="20"/>
-      <c r="D282" s="6"/>
-      <c r="E282" s="6"/>
-      <c r="F282" s="6"/>
-      <c r="G282" s="6"/>
-      <c r="H282" s="7"/>
+      <c r="D282" s="5"/>
+      <c r="E282" s="5"/>
+      <c r="F282" s="5"/>
+      <c r="G282" s="5"/>
+      <c r="H282" s="6"/>
     </row>
     <row r="283" ht="21" customHeight="1">
       <c r="A283" s="20"/>
       <c r="B283" s="20"/>
       <c r="C283" s="20"/>
-      <c r="D283" s="6"/>
-      <c r="E283" s="6"/>
-      <c r="F283" s="6"/>
-      <c r="G283" s="6"/>
+      <c r="D283" s="5"/>
+      <c r="E283" s="5"/>
+      <c r="F283" s="5"/>
+      <c r="G283" s="5"/>
       <c r="H283" s="10"/>
     </row>
     <row r="284" ht="21" customHeight="1">
       <c r="A284" s="20"/>
       <c r="B284" s="20"/>
       <c r="C284" s="20"/>
-      <c r="D284" s="6"/>
-      <c r="E284" s="6"/>
-      <c r="F284" s="6"/>
-      <c r="G284" s="6"/>
+      <c r="D284" s="5"/>
+      <c r="E284" s="5"/>
+      <c r="F284" s="5"/>
+      <c r="G284" s="5"/>
       <c r="H284" s="11"/>
     </row>
     <row r="285" ht="21" customHeight="1">
       <c r="A285" s="20"/>
       <c r="B285" s="20"/>
       <c r="C285" s="20"/>
-      <c r="D285" s="6"/>
-      <c r="E285" s="6"/>
-      <c r="F285" s="6"/>
-      <c r="G285" s="6"/>
-      <c r="H285" s="7"/>
+      <c r="D285" s="5"/>
+      <c r="E285" s="5"/>
+      <c r="F285" s="5"/>
+      <c r="G285" s="5"/>
+      <c r="H285" s="6"/>
     </row>
     <row r="286" ht="21" customHeight="1">
       <c r="A286" s="20"/>
       <c r="B286" s="20"/>
       <c r="C286" s="20"/>
-      <c r="D286" s="6"/>
-      <c r="E286" s="6"/>
-      <c r="F286" s="6"/>
-      <c r="G286" s="6"/>
+      <c r="D286" s="5"/>
+      <c r="E286" s="5"/>
+      <c r="F286" s="5"/>
+      <c r="G286" s="5"/>
       <c r="H286" s="10"/>
     </row>
     <row r="287" ht="21" customHeight="1">
       <c r="A287" s="20"/>
       <c r="B287" s="20"/>
       <c r="C287" s="20"/>
-      <c r="D287" s="6"/>
-      <c r="E287" s="6"/>
-      <c r="F287" s="6"/>
-      <c r="G287" s="6"/>
+      <c r="D287" s="5"/>
+      <c r="E287" s="5"/>
+      <c r="F287" s="5"/>
+      <c r="G287" s="5"/>
       <c r="H287" s="11"/>
     </row>
     <row r="288" ht="21" customHeight="1">
       <c r="A288" s="20"/>
       <c r="B288" s="20"/>
       <c r="C288" s="20"/>
-      <c r="D288" s="6"/>
-      <c r="E288" s="6"/>
-      <c r="F288" s="6"/>
-      <c r="G288" s="6"/>
-      <c r="H288" s="7"/>
+      <c r="D288" s="5"/>
+      <c r="E288" s="5"/>
+      <c r="F288" s="5"/>
+      <c r="G288" s="5"/>
+      <c r="H288" s="6"/>
     </row>
     <row r="289" ht="21" customHeight="1">
       <c r="A289" s="20"/>
       <c r="B289" s="20"/>
       <c r="C289" s="20"/>
-      <c r="D289" s="6"/>
-      <c r="E289" s="6"/>
-      <c r="F289" s="6"/>
-      <c r="G289" s="6"/>
-      <c r="H289" s="7"/>
+      <c r="D289" s="5"/>
+      <c r="E289" s="5"/>
+      <c r="F289" s="5"/>
+      <c r="G289" s="5"/>
+      <c r="H289" s="6"/>
     </row>
     <row r="290" ht="21" customHeight="1">
       <c r="A290" s="20"/>
       <c r="B290" s="20"/>
       <c r="C290" s="20"/>
-      <c r="D290" s="6"/>
-      <c r="E290" s="6"/>
-      <c r="F290" s="6"/>
-      <c r="G290" s="6"/>
-      <c r="H290" s="7"/>
+      <c r="D290" s="5"/>
+      <c r="E290" s="5"/>
+      <c r="F290" s="5"/>
+      <c r="G290" s="5"/>
+      <c r="H290" s="6"/>
     </row>
     <row r="291" ht="21" customHeight="1">
       <c r="A291" s="20"/>
       <c r="B291" s="20"/>
       <c r="C291" s="20"/>
-      <c r="D291" s="6"/>
-      <c r="E291" s="6"/>
-      <c r="F291" s="6"/>
-      <c r="G291" s="6"/>
-      <c r="H291" s="7"/>
+      <c r="D291" s="5"/>
+      <c r="E291" s="5"/>
+      <c r="F291" s="5"/>
+      <c r="G291" s="5"/>
+      <c r="H291" s="6"/>
     </row>
     <row r="292" ht="21" customHeight="1">
       <c r="A292" s="20"/>
       <c r="B292" s="20"/>
       <c r="C292" s="20"/>
-      <c r="D292" s="6"/>
-      <c r="E292" s="6"/>
-      <c r="F292" s="6"/>
-      <c r="G292" s="6"/>
-      <c r="H292" s="7"/>
+      <c r="D292" s="5"/>
+      <c r="E292" s="5"/>
+      <c r="F292" s="5"/>
+      <c r="G292" s="5"/>
+      <c r="H292" s="6"/>
     </row>
     <row r="293" ht="21" customHeight="1">
-      <c r="A293" s="24"/>
-      <c r="B293" s="24"/>
+      <c r="A293" s="29"/>
+      <c r="B293" s="29"/>
       <c r="C293" s="20"/>
-      <c r="D293" s="6"/>
-      <c r="E293" s="6"/>
-      <c r="F293" s="6"/>
-      <c r="G293" s="6"/>
-      <c r="H293" s="7"/>
+      <c r="D293" s="5"/>
+      <c r="E293" s="5"/>
+      <c r="F293" s="5"/>
+      <c r="G293" s="5"/>
+      <c r="H293" s="6"/>
     </row>
     <row r="294" ht="21" customHeight="1">
       <c r="A294" s="25"/>
       <c r="B294" s="25"/>
       <c r="C294" s="26"/>
-      <c r="D294" s="6"/>
-      <c r="E294" s="6"/>
-      <c r="F294" s="6"/>
-      <c r="G294" s="6"/>
+      <c r="D294" s="5"/>
+      <c r="E294" s="5"/>
+      <c r="F294" s="5"/>
+      <c r="G294" s="5"/>
       <c r="H294" s="10"/>
     </row>
     <row r="295" ht="20.7" customHeight="1">
-      <c r="A295" s="27"/>
-      <c r="B295" s="27"/>
+      <c r="A295" s="28"/>
+      <c r="B295" s="28"/>
       <c r="C295" s="20"/>
       <c r="D295" s="20"/>
       <c r="E295" s="20"/>
       <c r="F295" s="20"/>
       <c r="G295" s="20"/>
-      <c r="H295" s="22"/>
+      <c r="H295" s="21"/>
     </row>
     <row r="296" ht="21" customHeight="1">
       <c r="A296" s="20"/>
       <c r="B296" s="20"/>
       <c r="C296" s="20"/>
-      <c r="D296" s="6"/>
-      <c r="E296" s="6"/>
-      <c r="F296" s="6"/>
-      <c r="G296" s="6"/>
-      <c r="H296" s="7"/>
+      <c r="D296" s="5"/>
+      <c r="E296" s="5"/>
+      <c r="F296" s="5"/>
+      <c r="G296" s="5"/>
+      <c r="H296" s="6"/>
     </row>
     <row r="297" ht="21" customHeight="1">
       <c r="A297" s="20"/>
       <c r="B297" s="20"/>
       <c r="C297" s="20"/>
-      <c r="D297" s="6"/>
-      <c r="E297" s="6"/>
-      <c r="F297" s="6"/>
-      <c r="G297" s="6"/>
-      <c r="H297" s="7"/>
+      <c r="D297" s="5"/>
+      <c r="E297" s="5"/>
+      <c r="F297" s="5"/>
+      <c r="G297" s="5"/>
+      <c r="H297" s="6"/>
     </row>
     <row r="298" ht="21" customHeight="1">
       <c r="A298" s="20"/>
       <c r="B298" s="20"/>
       <c r="C298" s="20"/>
-      <c r="D298" s="6"/>
-      <c r="E298" s="6"/>
-      <c r="F298" s="6"/>
-      <c r="G298" s="6"/>
-      <c r="H298" s="7"/>
+      <c r="D298" s="5"/>
+      <c r="E298" s="5"/>
+      <c r="F298" s="5"/>
+      <c r="G298" s="5"/>
+      <c r="H298" s="6"/>
     </row>
     <row r="299" ht="21" customHeight="1">
       <c r="A299" s="20"/>
       <c r="B299" s="20"/>
       <c r="C299" s="20"/>
-      <c r="D299" s="6"/>
-      <c r="E299" s="6"/>
-      <c r="F299" s="6"/>
-      <c r="G299" s="6"/>
+      <c r="D299" s="5"/>
+      <c r="E299" s="5"/>
+      <c r="F299" s="5"/>
+      <c r="G299" s="5"/>
       <c r="H299" s="10"/>
     </row>
     <row r="300" ht="21" customHeight="1">
-      <c r="A300" s="24"/>
-      <c r="B300" s="24"/>
+      <c r="A300" s="29"/>
+      <c r="B300" s="29"/>
       <c r="C300" s="20"/>
-      <c r="D300" s="6"/>
-      <c r="E300" s="6"/>
-      <c r="F300" s="6"/>
-      <c r="G300" s="6"/>
+      <c r="D300" s="5"/>
+      <c r="E300" s="5"/>
+      <c r="F300" s="5"/>
+      <c r="G300" s="5"/>
       <c r="H300" s="11"/>
     </row>
     <row r="301" ht="21" customHeight="1">
       <c r="A301" s="25"/>
       <c r="B301" s="25"/>
       <c r="C301" s="26"/>
-      <c r="D301" s="6"/>
-      <c r="E301" s="6"/>
-      <c r="F301" s="6"/>
-      <c r="G301" s="6"/>
-      <c r="H301" s="7"/>
+      <c r="D301" s="5"/>
+      <c r="E301" s="5"/>
+      <c r="F301" s="5"/>
+      <c r="G301" s="5"/>
+      <c r="H301" s="6"/>
     </row>
     <row r="302" ht="21" customHeight="1">
-      <c r="A302" s="27"/>
-      <c r="B302" s="27"/>
+      <c r="A302" s="28"/>
+      <c r="B302" s="28"/>
       <c r="C302" s="20"/>
-      <c r="D302" s="6"/>
-      <c r="E302" s="6"/>
-      <c r="F302" s="6"/>
-      <c r="G302" s="6"/>
+      <c r="D302" s="5"/>
+      <c r="E302" s="5"/>
+      <c r="F302" s="5"/>
+      <c r="G302" s="5"/>
       <c r="H302" s="10"/>
     </row>
     <row r="303" ht="21" customHeight="1">
       <c r="A303" s="20"/>
       <c r="B303" s="20"/>
       <c r="C303" s="20"/>
-      <c r="D303" s="6"/>
-      <c r="E303" s="6"/>
-      <c r="F303" s="6"/>
-      <c r="G303" s="6"/>
+      <c r="D303" s="5"/>
+      <c r="E303" s="5"/>
+      <c r="F303" s="5"/>
+      <c r="G303" s="5"/>
       <c r="H303" s="11"/>
     </row>
     <row r="304" ht="21" customHeight="1">
       <c r="A304" s="20"/>
       <c r="B304" s="20"/>
       <c r="C304" s="20"/>
-      <c r="D304" s="6"/>
-      <c r="E304" s="6"/>
-      <c r="F304" s="6"/>
-      <c r="G304" s="6"/>
+      <c r="D304" s="5"/>
+      <c r="E304" s="5"/>
+      <c r="F304" s="5"/>
+      <c r="G304" s="5"/>
       <c r="H304" s="10"/>
     </row>
     <row r="305" ht="20.35" customHeight="1">
@@ -5481,7 +5778,7 @@
       <c r="E305" s="20"/>
       <c r="F305" s="20"/>
       <c r="G305" s="20"/>
-      <c r="H305" s="21"/>
+      <c r="H305" s="24"/>
     </row>
     <row r="306" ht="20.35" customHeight="1">
       <c r="A306" s="20"/>
@@ -5491,46 +5788,46 @@
       <c r="E306" s="20"/>
       <c r="F306" s="20"/>
       <c r="G306" s="20"/>
-      <c r="H306" s="22"/>
+      <c r="H306" s="21"/>
     </row>
     <row r="307" ht="21" customHeight="1">
       <c r="A307" s="20"/>
       <c r="B307" s="20"/>
       <c r="C307" s="20"/>
-      <c r="D307" s="6"/>
-      <c r="E307" s="6"/>
-      <c r="F307" s="6"/>
-      <c r="G307" s="6"/>
+      <c r="D307" s="5"/>
+      <c r="E307" s="5"/>
+      <c r="F307" s="5"/>
+      <c r="G307" s="5"/>
       <c r="H307" s="10"/>
     </row>
     <row r="308" ht="21" customHeight="1">
       <c r="A308" s="20"/>
       <c r="B308" s="20"/>
       <c r="C308" s="20"/>
-      <c r="D308" s="6"/>
-      <c r="E308" s="6"/>
-      <c r="F308" s="6"/>
-      <c r="G308" s="6"/>
+      <c r="D308" s="5"/>
+      <c r="E308" s="5"/>
+      <c r="F308" s="5"/>
+      <c r="G308" s="5"/>
       <c r="H308" s="11"/>
     </row>
     <row r="309" ht="21" customHeight="1">
       <c r="A309" s="20"/>
       <c r="B309" s="20"/>
       <c r="C309" s="20"/>
-      <c r="D309" s="6"/>
-      <c r="E309" s="6"/>
-      <c r="F309" s="6"/>
-      <c r="G309" s="6"/>
+      <c r="D309" s="5"/>
+      <c r="E309" s="5"/>
+      <c r="F309" s="5"/>
+      <c r="G309" s="5"/>
       <c r="H309" s="10"/>
     </row>
     <row r="310" ht="21" customHeight="1">
       <c r="A310" s="20"/>
       <c r="B310" s="20"/>
       <c r="C310" s="20"/>
-      <c r="D310" s="6"/>
-      <c r="E310" s="6"/>
-      <c r="F310" s="6"/>
-      <c r="G310" s="6"/>
+      <c r="D310" s="5"/>
+      <c r="E310" s="5"/>
+      <c r="F310" s="5"/>
+      <c r="G310" s="5"/>
       <c r="H310" s="11"/>
     </row>
     <row r="311" ht="21" customHeight="1">
@@ -5541,26 +5838,26 @@
       <c r="E311" s="20"/>
       <c r="F311" s="20"/>
       <c r="G311" s="20"/>
-      <c r="H311" s="7"/>
+      <c r="H311" s="6"/>
     </row>
     <row r="312" ht="21" customHeight="1">
       <c r="A312" s="20"/>
       <c r="B312" s="20"/>
       <c r="C312" s="20"/>
-      <c r="D312" s="6"/>
-      <c r="E312" s="6"/>
-      <c r="F312" s="6"/>
-      <c r="G312" s="6"/>
-      <c r="H312" s="7"/>
+      <c r="D312" s="5"/>
+      <c r="E312" s="5"/>
+      <c r="F312" s="5"/>
+      <c r="G312" s="5"/>
+      <c r="H312" s="6"/>
     </row>
     <row r="313" ht="21" customHeight="1">
       <c r="A313" s="20"/>
       <c r="B313" s="20"/>
       <c r="C313" s="20"/>
-      <c r="D313" s="6"/>
-      <c r="E313" s="6"/>
-      <c r="F313" s="6"/>
-      <c r="G313" s="6"/>
+      <c r="D313" s="5"/>
+      <c r="E313" s="5"/>
+      <c r="F313" s="5"/>
+      <c r="G313" s="5"/>
       <c r="H313" s="10"/>
     </row>
     <row r="314" ht="20.7" customHeight="1">
@@ -5571,416 +5868,416 @@
       <c r="E314" s="20"/>
       <c r="F314" s="20"/>
       <c r="G314" s="20"/>
-      <c r="H314" s="22"/>
+      <c r="H314" s="21"/>
     </row>
     <row r="315" ht="21" customHeight="1">
       <c r="A315" s="20"/>
       <c r="B315" s="20"/>
       <c r="C315" s="20"/>
-      <c r="D315" s="6"/>
-      <c r="E315" s="6"/>
-      <c r="F315" s="6"/>
-      <c r="G315" s="6"/>
-      <c r="H315" s="7"/>
+      <c r="D315" s="5"/>
+      <c r="E315" s="5"/>
+      <c r="F315" s="5"/>
+      <c r="G315" s="5"/>
+      <c r="H315" s="6"/>
     </row>
     <row r="316" ht="21" customHeight="1">
       <c r="A316" s="20"/>
       <c r="B316" s="20"/>
       <c r="C316" s="20"/>
-      <c r="D316" s="6"/>
-      <c r="E316" s="6"/>
-      <c r="F316" s="6"/>
-      <c r="G316" s="6"/>
-      <c r="H316" s="7"/>
+      <c r="D316" s="5"/>
+      <c r="E316" s="5"/>
+      <c r="F316" s="5"/>
+      <c r="G316" s="5"/>
+      <c r="H316" s="6"/>
     </row>
     <row r="317" ht="21" customHeight="1">
       <c r="A317" s="20"/>
       <c r="B317" s="20"/>
       <c r="C317" s="20"/>
-      <c r="D317" s="6"/>
-      <c r="E317" s="6"/>
-      <c r="F317" s="6"/>
-      <c r="G317" s="6"/>
+      <c r="D317" s="5"/>
+      <c r="E317" s="5"/>
+      <c r="F317" s="5"/>
+      <c r="G317" s="5"/>
       <c r="H317" s="10"/>
     </row>
     <row r="318" ht="21" customHeight="1">
       <c r="A318" s="20"/>
       <c r="B318" s="20"/>
       <c r="C318" s="20"/>
-      <c r="D318" s="6"/>
-      <c r="E318" s="6"/>
-      <c r="F318" s="6"/>
-      <c r="G318" s="6"/>
+      <c r="D318" s="5"/>
+      <c r="E318" s="5"/>
+      <c r="F318" s="5"/>
+      <c r="G318" s="5"/>
       <c r="H318" s="11"/>
     </row>
     <row r="319" ht="21" customHeight="1">
       <c r="A319" s="20"/>
       <c r="B319" s="20"/>
       <c r="C319" s="20"/>
-      <c r="D319" s="6"/>
-      <c r="E319" s="6"/>
-      <c r="F319" s="6"/>
-      <c r="G319" s="6"/>
-      <c r="H319" s="7"/>
+      <c r="D319" s="5"/>
+      <c r="E319" s="5"/>
+      <c r="F319" s="5"/>
+      <c r="G319" s="5"/>
+      <c r="H319" s="6"/>
     </row>
     <row r="320" ht="21" customHeight="1">
       <c r="A320" s="20"/>
       <c r="B320" s="20"/>
       <c r="C320" s="20"/>
-      <c r="D320" s="6"/>
-      <c r="E320" s="6"/>
-      <c r="F320" s="6"/>
-      <c r="G320" s="6"/>
-      <c r="H320" s="7"/>
+      <c r="D320" s="5"/>
+      <c r="E320" s="5"/>
+      <c r="F320" s="5"/>
+      <c r="G320" s="5"/>
+      <c r="H320" s="6"/>
     </row>
     <row r="321" ht="21" customHeight="1">
       <c r="A321" s="20"/>
       <c r="B321" s="20"/>
       <c r="C321" s="20"/>
-      <c r="D321" s="6"/>
-      <c r="E321" s="6"/>
-      <c r="F321" s="6"/>
-      <c r="G321" s="6"/>
-      <c r="H321" s="7"/>
+      <c r="D321" s="5"/>
+      <c r="E321" s="5"/>
+      <c r="F321" s="5"/>
+      <c r="G321" s="5"/>
+      <c r="H321" s="6"/>
     </row>
     <row r="322" ht="21" customHeight="1">
       <c r="A322" s="20"/>
       <c r="B322" s="20"/>
       <c r="C322" s="20"/>
-      <c r="D322" s="6"/>
-      <c r="E322" s="6"/>
-      <c r="F322" s="6"/>
-      <c r="G322" s="6"/>
-      <c r="H322" s="7"/>
+      <c r="D322" s="5"/>
+      <c r="E322" s="5"/>
+      <c r="F322" s="5"/>
+      <c r="G322" s="5"/>
+      <c r="H322" s="6"/>
     </row>
     <row r="323" ht="21" customHeight="1">
-      <c r="A323" s="24"/>
-      <c r="B323" s="24"/>
+      <c r="A323" s="29"/>
+      <c r="B323" s="29"/>
       <c r="C323" s="20"/>
-      <c r="D323" s="6"/>
-      <c r="E323" s="6"/>
-      <c r="F323" s="6"/>
-      <c r="G323" s="6"/>
-      <c r="H323" s="7"/>
+      <c r="D323" s="5"/>
+      <c r="E323" s="5"/>
+      <c r="F323" s="5"/>
+      <c r="G323" s="5"/>
+      <c r="H323" s="6"/>
     </row>
     <row r="324" ht="21" customHeight="1">
       <c r="A324" s="25"/>
       <c r="B324" s="25"/>
       <c r="C324" s="26"/>
-      <c r="D324" s="6"/>
-      <c r="E324" s="6"/>
-      <c r="F324" s="6"/>
-      <c r="G324" s="6"/>
-      <c r="H324" s="7"/>
+      <c r="D324" s="5"/>
+      <c r="E324" s="5"/>
+      <c r="F324" s="5"/>
+      <c r="G324" s="5"/>
+      <c r="H324" s="6"/>
     </row>
     <row r="325" ht="21" customHeight="1">
       <c r="A325" s="25"/>
       <c r="B325" s="25"/>
       <c r="C325" s="26"/>
-      <c r="D325" s="6"/>
-      <c r="E325" s="6"/>
-      <c r="F325" s="6"/>
-      <c r="G325" s="6"/>
-      <c r="H325" s="7"/>
+      <c r="D325" s="5"/>
+      <c r="E325" s="5"/>
+      <c r="F325" s="5"/>
+      <c r="G325" s="5"/>
+      <c r="H325" s="6"/>
     </row>
     <row r="326" ht="21" customHeight="1">
       <c r="A326" s="25"/>
       <c r="B326" s="25"/>
       <c r="C326" s="26"/>
-      <c r="D326" s="6"/>
-      <c r="E326" s="6"/>
-      <c r="F326" s="6"/>
-      <c r="G326" s="6"/>
+      <c r="D326" s="5"/>
+      <c r="E326" s="5"/>
+      <c r="F326" s="5"/>
+      <c r="G326" s="5"/>
       <c r="H326" s="10"/>
     </row>
     <row r="327" ht="21" customHeight="1">
-      <c r="A327" s="27"/>
-      <c r="B327" s="27"/>
+      <c r="A327" s="28"/>
+      <c r="B327" s="28"/>
       <c r="C327" s="20"/>
-      <c r="D327" s="6"/>
-      <c r="E327" s="6"/>
-      <c r="F327" s="6"/>
-      <c r="G327" s="6"/>
+      <c r="D327" s="5"/>
+      <c r="E327" s="5"/>
+      <c r="F327" s="5"/>
+      <c r="G327" s="5"/>
       <c r="H327" s="11"/>
     </row>
     <row r="328" ht="21" customHeight="1">
       <c r="A328" s="20"/>
       <c r="B328" s="20"/>
       <c r="C328" s="20"/>
-      <c r="D328" s="6"/>
-      <c r="E328" s="6"/>
-      <c r="F328" s="6"/>
-      <c r="G328" s="6"/>
-      <c r="H328" s="7"/>
+      <c r="D328" s="5"/>
+      <c r="E328" s="5"/>
+      <c r="F328" s="5"/>
+      <c r="G328" s="5"/>
+      <c r="H328" s="6"/>
     </row>
     <row r="329" ht="21" customHeight="1">
       <c r="A329" s="20"/>
       <c r="B329" s="20"/>
       <c r="C329" s="20"/>
-      <c r="D329" s="6"/>
-      <c r="E329" s="6"/>
-      <c r="F329" s="6"/>
-      <c r="G329" s="6"/>
-      <c r="H329" s="7"/>
+      <c r="D329" s="5"/>
+      <c r="E329" s="5"/>
+      <c r="F329" s="5"/>
+      <c r="G329" s="5"/>
+      <c r="H329" s="6"/>
     </row>
     <row r="330" ht="21" customHeight="1">
       <c r="A330" s="20"/>
       <c r="B330" s="20"/>
       <c r="C330" s="20"/>
-      <c r="D330" s="6"/>
-      <c r="E330" s="6"/>
-      <c r="F330" s="6"/>
-      <c r="G330" s="6"/>
-      <c r="H330" s="7"/>
+      <c r="D330" s="5"/>
+      <c r="E330" s="5"/>
+      <c r="F330" s="5"/>
+      <c r="G330" s="5"/>
+      <c r="H330" s="6"/>
     </row>
     <row r="331" ht="21" customHeight="1">
       <c r="A331" s="20"/>
       <c r="B331" s="20"/>
       <c r="C331" s="20"/>
-      <c r="D331" s="6"/>
-      <c r="E331" s="6"/>
-      <c r="F331" s="6"/>
-      <c r="G331" s="6"/>
+      <c r="D331" s="5"/>
+      <c r="E331" s="5"/>
+      <c r="F331" s="5"/>
+      <c r="G331" s="5"/>
       <c r="H331" s="10"/>
     </row>
     <row r="332" ht="21" customHeight="1">
       <c r="A332" s="20"/>
       <c r="B332" s="20"/>
       <c r="C332" s="20"/>
-      <c r="D332" s="6"/>
-      <c r="E332" s="6"/>
-      <c r="F332" s="6"/>
-      <c r="G332" s="6"/>
+      <c r="D332" s="5"/>
+      <c r="E332" s="5"/>
+      <c r="F332" s="5"/>
+      <c r="G332" s="5"/>
       <c r="H332" s="18"/>
     </row>
     <row r="333" ht="20.7" customHeight="1">
-      <c r="A333" s="24"/>
-      <c r="B333" s="24"/>
+      <c r="A333" s="29"/>
+      <c r="B333" s="29"/>
       <c r="C333" s="20"/>
       <c r="D333" s="20"/>
       <c r="E333" s="20"/>
       <c r="F333" s="20"/>
       <c r="G333" s="20"/>
-      <c r="H333" s="22"/>
+      <c r="H333" s="21"/>
     </row>
     <row r="334" ht="21" customHeight="1">
       <c r="A334" s="25"/>
       <c r="B334" s="25"/>
       <c r="C334" s="26"/>
-      <c r="D334" s="6"/>
-      <c r="E334" s="6"/>
-      <c r="F334" s="6"/>
-      <c r="G334" s="6"/>
-      <c r="H334" s="7"/>
+      <c r="D334" s="5"/>
+      <c r="E334" s="5"/>
+      <c r="F334" s="5"/>
+      <c r="G334" s="5"/>
+      <c r="H334" s="6"/>
     </row>
     <row r="335" ht="21" customHeight="1">
       <c r="A335" s="25"/>
       <c r="B335" s="25"/>
       <c r="C335" s="26"/>
-      <c r="D335" s="6"/>
-      <c r="E335" s="6"/>
-      <c r="F335" s="6"/>
-      <c r="G335" s="6"/>
+      <c r="D335" s="5"/>
+      <c r="E335" s="5"/>
+      <c r="F335" s="5"/>
+      <c r="G335" s="5"/>
       <c r="H335" s="10"/>
     </row>
     <row r="336" ht="21" customHeight="1">
-      <c r="A336" s="27"/>
-      <c r="B336" s="27"/>
+      <c r="A336" s="28"/>
+      <c r="B336" s="28"/>
       <c r="C336" s="20"/>
-      <c r="D336" s="6"/>
-      <c r="E336" s="6"/>
-      <c r="F336" s="6"/>
-      <c r="G336" s="6"/>
+      <c r="D336" s="5"/>
+      <c r="E336" s="5"/>
+      <c r="F336" s="5"/>
+      <c r="G336" s="5"/>
       <c r="H336" s="11"/>
     </row>
     <row r="337" ht="21" customHeight="1">
       <c r="A337" s="20"/>
       <c r="B337" s="20"/>
       <c r="C337" s="20"/>
-      <c r="D337" s="6"/>
-      <c r="E337" s="6"/>
-      <c r="F337" s="6"/>
-      <c r="G337" s="6"/>
-      <c r="H337" s="7"/>
+      <c r="D337" s="5"/>
+      <c r="E337" s="5"/>
+      <c r="F337" s="5"/>
+      <c r="G337" s="5"/>
+      <c r="H337" s="6"/>
     </row>
     <row r="338" ht="21" customHeight="1">
       <c r="A338" s="20"/>
       <c r="B338" s="20"/>
       <c r="C338" s="20"/>
-      <c r="D338" s="6"/>
-      <c r="E338" s="6"/>
-      <c r="F338" s="6"/>
-      <c r="G338" s="6"/>
-      <c r="H338" s="7"/>
+      <c r="D338" s="5"/>
+      <c r="E338" s="5"/>
+      <c r="F338" s="5"/>
+      <c r="G338" s="5"/>
+      <c r="H338" s="6"/>
     </row>
     <row r="339" ht="21" customHeight="1">
       <c r="A339" s="20"/>
       <c r="B339" s="20"/>
       <c r="C339" s="20"/>
-      <c r="D339" s="6"/>
-      <c r="E339" s="6"/>
-      <c r="F339" s="6"/>
-      <c r="G339" s="6"/>
+      <c r="D339" s="5"/>
+      <c r="E339" s="5"/>
+      <c r="F339" s="5"/>
+      <c r="G339" s="5"/>
       <c r="H339" s="10"/>
     </row>
     <row r="340" ht="21" customHeight="1">
       <c r="A340" s="20"/>
       <c r="B340" s="20"/>
       <c r="C340" s="20"/>
-      <c r="D340" s="6"/>
-      <c r="E340" s="6"/>
-      <c r="F340" s="6"/>
-      <c r="G340" s="6"/>
+      <c r="D340" s="5"/>
+      <c r="E340" s="5"/>
+      <c r="F340" s="5"/>
+      <c r="G340" s="5"/>
       <c r="H340" s="11"/>
     </row>
     <row r="341" ht="21" customHeight="1">
       <c r="A341" s="20"/>
       <c r="B341" s="20"/>
       <c r="C341" s="20"/>
-      <c r="D341" s="6"/>
-      <c r="E341" s="6"/>
-      <c r="F341" s="6"/>
-      <c r="G341" s="6"/>
-      <c r="H341" s="7"/>
+      <c r="D341" s="5"/>
+      <c r="E341" s="5"/>
+      <c r="F341" s="5"/>
+      <c r="G341" s="5"/>
+      <c r="H341" s="6"/>
     </row>
     <row r="342" ht="21" customHeight="1">
       <c r="A342" s="20"/>
       <c r="B342" s="20"/>
       <c r="C342" s="20"/>
-      <c r="D342" s="6"/>
-      <c r="E342" s="6"/>
-      <c r="F342" s="6"/>
-      <c r="G342" s="6"/>
-      <c r="H342" s="7"/>
+      <c r="D342" s="5"/>
+      <c r="E342" s="5"/>
+      <c r="F342" s="5"/>
+      <c r="G342" s="5"/>
+      <c r="H342" s="6"/>
     </row>
     <row r="343" ht="21" customHeight="1">
       <c r="A343" s="20"/>
       <c r="B343" s="20"/>
       <c r="C343" s="20"/>
-      <c r="D343" s="6"/>
-      <c r="E343" s="6"/>
-      <c r="F343" s="6"/>
-      <c r="G343" s="6"/>
-      <c r="H343" s="7"/>
+      <c r="D343" s="5"/>
+      <c r="E343" s="5"/>
+      <c r="F343" s="5"/>
+      <c r="G343" s="5"/>
+      <c r="H343" s="6"/>
     </row>
     <row r="344" ht="21" customHeight="1">
       <c r="A344" s="20"/>
       <c r="B344" s="20"/>
       <c r="C344" s="20"/>
-      <c r="D344" s="6"/>
-      <c r="E344" s="6"/>
-      <c r="F344" s="6"/>
-      <c r="G344" s="6"/>
+      <c r="D344" s="5"/>
+      <c r="E344" s="5"/>
+      <c r="F344" s="5"/>
+      <c r="G344" s="5"/>
       <c r="H344" s="10"/>
     </row>
     <row r="345" ht="21" customHeight="1">
-      <c r="A345" s="24"/>
-      <c r="B345" s="24"/>
+      <c r="A345" s="29"/>
+      <c r="B345" s="29"/>
       <c r="C345" s="20"/>
-      <c r="D345" s="6"/>
-      <c r="E345" s="6"/>
-      <c r="F345" s="6"/>
-      <c r="G345" s="6"/>
+      <c r="D345" s="5"/>
+      <c r="E345" s="5"/>
+      <c r="F345" s="5"/>
+      <c r="G345" s="5"/>
       <c r="H345" s="11"/>
     </row>
     <row r="346" ht="21" customHeight="1">
       <c r="A346" s="25"/>
       <c r="B346" s="25"/>
       <c r="C346" s="26"/>
-      <c r="D346" s="6"/>
-      <c r="E346" s="6"/>
-      <c r="F346" s="6"/>
-      <c r="G346" s="6"/>
+      <c r="D346" s="5"/>
+      <c r="E346" s="5"/>
+      <c r="F346" s="5"/>
+      <c r="G346" s="5"/>
       <c r="H346" s="10"/>
     </row>
     <row r="347" ht="21" customHeight="1">
-      <c r="A347" s="27"/>
-      <c r="B347" s="27"/>
+      <c r="A347" s="28"/>
+      <c r="B347" s="28"/>
       <c r="C347" s="20"/>
-      <c r="D347" s="6"/>
-      <c r="E347" s="6"/>
-      <c r="F347" s="6"/>
-      <c r="G347" s="6"/>
+      <c r="D347" s="5"/>
+      <c r="E347" s="5"/>
+      <c r="F347" s="5"/>
+      <c r="G347" s="5"/>
       <c r="H347" s="11"/>
     </row>
     <row r="348" ht="21" customHeight="1">
       <c r="A348" s="20"/>
       <c r="B348" s="20"/>
       <c r="C348" s="20"/>
-      <c r="D348" s="6"/>
-      <c r="E348" s="6"/>
-      <c r="F348" s="6"/>
-      <c r="G348" s="6"/>
+      <c r="D348" s="5"/>
+      <c r="E348" s="5"/>
+      <c r="F348" s="5"/>
+      <c r="G348" s="5"/>
       <c r="H348" s="10"/>
     </row>
     <row r="349" ht="21" customHeight="1">
       <c r="A349" s="20"/>
       <c r="B349" s="20"/>
       <c r="C349" s="20"/>
-      <c r="D349" s="6"/>
-      <c r="E349" s="6"/>
-      <c r="F349" s="6"/>
-      <c r="G349" s="6"/>
+      <c r="D349" s="5"/>
+      <c r="E349" s="5"/>
+      <c r="F349" s="5"/>
+      <c r="G349" s="5"/>
       <c r="H349" s="11"/>
     </row>
     <row r="350" ht="21" customHeight="1">
       <c r="A350" s="20"/>
       <c r="B350" s="20"/>
       <c r="C350" s="20"/>
-      <c r="D350" s="6"/>
-      <c r="E350" s="6"/>
-      <c r="F350" s="6"/>
-      <c r="G350" s="6"/>
-      <c r="H350" s="7"/>
+      <c r="D350" s="5"/>
+      <c r="E350" s="5"/>
+      <c r="F350" s="5"/>
+      <c r="G350" s="5"/>
+      <c r="H350" s="6"/>
     </row>
     <row r="351" ht="21" customHeight="1">
       <c r="A351" s="20"/>
       <c r="B351" s="20"/>
       <c r="C351" s="20"/>
-      <c r="D351" s="6"/>
-      <c r="E351" s="6"/>
-      <c r="F351" s="6"/>
-      <c r="G351" s="6"/>
-      <c r="H351" s="7"/>
+      <c r="D351" s="5"/>
+      <c r="E351" s="5"/>
+      <c r="F351" s="5"/>
+      <c r="G351" s="5"/>
+      <c r="H351" s="6"/>
     </row>
     <row r="352" ht="21" customHeight="1">
       <c r="A352" s="20"/>
       <c r="B352" s="20"/>
       <c r="C352" s="20"/>
-      <c r="D352" s="6"/>
-      <c r="E352" s="6"/>
-      <c r="F352" s="6"/>
-      <c r="G352" s="6"/>
-      <c r="H352" s="7"/>
+      <c r="D352" s="5"/>
+      <c r="E352" s="5"/>
+      <c r="F352" s="5"/>
+      <c r="G352" s="5"/>
+      <c r="H352" s="6"/>
     </row>
     <row r="353" ht="21" customHeight="1">
       <c r="A353" s="20"/>
       <c r="B353" s="20"/>
       <c r="C353" s="20"/>
-      <c r="D353" s="6"/>
-      <c r="E353" s="6"/>
-      <c r="F353" s="6"/>
-      <c r="G353" s="6"/>
+      <c r="D353" s="5"/>
+      <c r="E353" s="5"/>
+      <c r="F353" s="5"/>
+      <c r="G353" s="5"/>
       <c r="H353" s="10"/>
     </row>
     <row r="354" ht="21" customHeight="1">
       <c r="A354" s="20"/>
       <c r="B354" s="20"/>
       <c r="C354" s="20"/>
-      <c r="D354" s="6"/>
-      <c r="E354" s="6"/>
-      <c r="F354" s="6"/>
-      <c r="G354" s="6"/>
+      <c r="D354" s="5"/>
+      <c r="E354" s="5"/>
+      <c r="F354" s="5"/>
+      <c r="G354" s="5"/>
       <c r="H354" s="11"/>
     </row>
     <row r="355" ht="21" customHeight="1">
       <c r="A355" s="20"/>
       <c r="B355" s="20"/>
       <c r="C355" s="20"/>
-      <c r="D355" s="6"/>
-      <c r="E355" s="6"/>
-      <c r="F355" s="6"/>
-      <c r="G355" s="6"/>
+      <c r="D355" s="5"/>
+      <c r="E355" s="5"/>
+      <c r="F355" s="5"/>
+      <c r="G355" s="5"/>
       <c r="H355" s="10"/>
     </row>
   </sheetData>

--- a/cw12022023.xlsx
+++ b/cw12022023.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="208">
   <si>
     <t>Surname</t>
   </si>
@@ -97,6 +97,12 @@
     <t>H220627Y</t>
   </si>
   <si>
+    <t>Chindenga</t>
+  </si>
+  <si>
+    <t>H220337F</t>
+  </si>
+  <si>
     <t>Chingandu</t>
   </si>
   <si>
@@ -118,6 +124,12 @@
     <t>H220620N</t>
   </si>
   <si>
+    <t>Chitando</t>
+  </si>
+  <si>
+    <t>H220360N</t>
+  </si>
+  <si>
     <t>Chitiki</t>
   </si>
   <si>
@@ -151,6 +163,12 @@
     <t>H220630W</t>
   </si>
   <si>
+    <t>Dube</t>
+  </si>
+  <si>
+    <t>H220288T</t>
+  </si>
+  <si>
     <t>Foroma</t>
   </si>
   <si>
@@ -283,6 +301,12 @@
     <t>H220207F</t>
   </si>
   <si>
+    <t>Marezva</t>
+  </si>
+  <si>
+    <t>H220706X</t>
+  </si>
+  <si>
     <t>Mariridza</t>
   </si>
   <si>
@@ -349,6 +373,12 @@
     <t>H220093Z</t>
   </si>
   <si>
+    <t>Moyo</t>
+  </si>
+  <si>
+    <t>H220642T</t>
+  </si>
+  <si>
     <t>Mtendi</t>
   </si>
   <si>
@@ -367,6 +397,12 @@
     <t>H220571T</t>
   </si>
   <si>
+    <t>Mugadza</t>
+  </si>
+  <si>
+    <t>H220112F</t>
+  </si>
+  <si>
     <t>Mukungwa</t>
   </si>
   <si>
@@ -409,6 +445,18 @@
     <t>H220442T</t>
   </si>
   <si>
+    <t>Mutambirwa</t>
+  </si>
+  <si>
+    <t>H220253X</t>
+  </si>
+  <si>
+    <t>Mutanda</t>
+  </si>
+  <si>
+    <t>H220267R</t>
+  </si>
+  <si>
     <t>Mutubuki</t>
   </si>
   <si>
@@ -517,6 +565,12 @@
     <t>H220597T</t>
   </si>
   <si>
+    <t>Songeya</t>
+  </si>
+  <si>
+    <t>H220080J</t>
+  </si>
+  <si>
     <t>Svikiro</t>
   </si>
   <si>
@@ -539,6 +593,12 @@
   </si>
   <si>
     <t>H220079G</t>
+  </si>
+  <si>
+    <t>Tayinga</t>
+  </si>
+  <si>
+    <t>H220581X</t>
   </si>
   <si>
     <t>Tizirai</t>
@@ -655,7 +715,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -791,6 +851,21 @@
         <color indexed="10"/>
       </right>
       <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
         <color indexed="12"/>
       </top>
       <bottom style="thin">
@@ -871,22 +946,22 @@
     <xf numFmtId="2" fontId="5" fillId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -901,7 +976,7 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -909,6 +984,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
@@ -919,10 +997,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2177,106 +2252,106 @@
       <c r="B9" t="s" s="7">
         <v>27</v>
       </c>
-      <c r="C9" t="s" s="12">
+      <c r="C9" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="5">
         <v>0.69047619047619</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
       <c r="H9" s="6"/>
     </row>
     <row r="10" ht="21" customHeight="1">
-      <c r="A10" t="s" s="14">
+      <c r="A10" t="s" s="12">
         <v>28</v>
       </c>
-      <c r="B10" t="s" s="14">
+      <c r="B10" t="s" s="12">
         <v>29</v>
       </c>
-      <c r="C10" t="s" s="15">
+      <c r="C10" t="s" s="13">
+        <v>18</v>
+      </c>
+      <c r="D10" s="14">
+        <v>0.761904761904762</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" ht="21" customHeight="1">
+      <c r="A11" t="s" s="12">
         <v>30</v>
       </c>
-      <c r="D10" s="16">
+      <c r="B11" t="s" s="12">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s" s="15">
+        <v>32</v>
+      </c>
+      <c r="D11" s="16">
         <v>0.738095238095238</v>
       </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="10"/>
-    </row>
-    <row r="11" ht="21" customHeight="1">
-      <c r="A11" t="s" s="17">
-        <v>31</v>
-      </c>
-      <c r="B11" t="s" s="17">
-        <v>32</v>
-      </c>
-      <c r="C11" t="s" s="4">
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" ht="21" customHeight="1">
+      <c r="A12" t="s" s="17">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s" s="17">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s" s="4">
         <v>25</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D12" s="5">
         <v>0.595238095238095</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="18"/>
-    </row>
-    <row r="12" ht="20.7" customHeight="1">
-      <c r="A12" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B12" t="s" s="4">
-        <v>34</v>
-      </c>
-      <c r="C12" t="s" s="4">
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="18"/>
+    </row>
+    <row r="13" ht="20.7" customHeight="1">
+      <c r="A13" t="s" s="7">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D13" s="19">
         <v>0.666666666666667</v>
       </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="21"/>
-    </row>
-    <row r="13" ht="21" customHeight="1">
-      <c r="A13" t="s" s="4">
-        <v>35</v>
-      </c>
-      <c r="B13" t="s" s="4">
-        <v>36</v>
-      </c>
-      <c r="C13" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="D13" s="5">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="10"/>
-    </row>
-    <row r="14" ht="20.7" customHeight="1">
-      <c r="A14" t="s" s="4">
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="21"/>
+    </row>
+    <row r="14" ht="21" customHeight="1">
+      <c r="A14" t="s" s="8">
         <v>37</v>
       </c>
-      <c r="B14" t="s" s="4">
+      <c r="B14" t="s" s="8">
         <v>38</v>
       </c>
-      <c r="C14" t="s" s="4">
+      <c r="C14" t="s" s="9">
         <v>25</v>
       </c>
       <c r="D14" s="5">
-        <v>0.214285714285714</v>
-      </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="21"/>
+        <v>0.880952380952381</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="6"/>
     </row>
     <row r="15" ht="21" customHeight="1">
       <c r="A15" t="s" s="4">
@@ -2286,123 +2361,123 @@
         <v>40</v>
       </c>
       <c r="C15" t="s" s="4">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D15" s="5">
-        <v>0.833333333333333</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" ht="21" customHeight="1">
-      <c r="A16" t="s" s="7">
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" ht="20.7" customHeight="1">
+      <c r="A16" t="s" s="4">
         <v>41</v>
       </c>
-      <c r="B16" t="s" s="7">
+      <c r="B16" t="s" s="4">
         <v>42</v>
       </c>
       <c r="C16" t="s" s="4">
+        <v>25</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0.214285714285714</v>
+      </c>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="21"/>
+    </row>
+    <row r="17" ht="21" customHeight="1">
+      <c r="A17" t="s" s="4">
         <v>43</v>
       </c>
-      <c r="D16" s="5">
-        <v>0.904761904761905</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="10"/>
-    </row>
-    <row r="17" ht="21" customHeight="1">
-      <c r="A17" t="s" s="22">
+      <c r="B17" t="s" s="4">
         <v>44</v>
       </c>
-      <c r="B17" t="s" s="22">
-        <v>45</v>
-      </c>
       <c r="C17" t="s" s="4">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D17" s="5">
-        <v>0.595238095238095</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="11"/>
+      <c r="H17" s="6"/>
     </row>
     <row r="18" ht="21" customHeight="1">
-      <c r="A18" t="s" s="8">
+      <c r="A18" t="s" s="7">
+        <v>45</v>
+      </c>
+      <c r="B18" t="s" s="7">
         <v>46</v>
       </c>
-      <c r="B18" t="s" s="8">
+      <c r="C18" t="s" s="4">
         <v>47</v>
       </c>
-      <c r="C18" t="s" s="9">
-        <v>30</v>
-      </c>
       <c r="D18" s="5">
-        <v>0.761904761904762</v>
+        <v>0.904761904761905</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
-      <c r="H18" s="6"/>
+      <c r="H18" s="10"/>
     </row>
     <row r="19" ht="21" customHeight="1">
-      <c r="A19" t="s" s="4">
+      <c r="A19" t="s" s="22">
         <v>48</v>
       </c>
-      <c r="B19" t="s" s="4">
+      <c r="B19" t="s" s="22">
         <v>49</v>
       </c>
       <c r="C19" t="s" s="4">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="D19" s="5">
-        <v>0.571428571428571</v>
+        <v>0.595238095238095</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="6"/>
+      <c r="H19" s="18"/>
     </row>
     <row r="20" ht="21" customHeight="1">
-      <c r="A20" t="s" s="4">
+      <c r="A20" t="s" s="22">
         <v>50</v>
       </c>
-      <c r="B20" t="s" s="4">
+      <c r="B20" t="s" s="22">
         <v>51</v>
       </c>
       <c r="C20" t="s" s="4">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D20" s="5">
-        <v>0.476190476190476</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
-      <c r="H20" s="10"/>
-    </row>
-    <row r="21" ht="20.7" customHeight="1">
-      <c r="A21" t="s" s="4">
+      <c r="H20" s="11"/>
+    </row>
+    <row r="21" ht="21" customHeight="1">
+      <c r="A21" t="s" s="8">
         <v>52</v>
       </c>
-      <c r="B21" t="s" s="4">
+      <c r="B21" t="s" s="8">
         <v>53</v>
       </c>
-      <c r="C21" t="s" s="4">
-        <v>30</v>
-      </c>
-      <c r="D21" s="19">
-        <v>0.80952380952381</v>
-      </c>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="21"/>
+      <c r="C21" t="s" s="9">
+        <v>32</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0.761904761904762</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="6"/>
     </row>
     <row r="22" ht="21" customHeight="1">
       <c r="A22" t="s" s="4">
@@ -2415,7 +2490,7 @@
         <v>10</v>
       </c>
       <c r="D22" s="5">
-        <v>0.714285714285714</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -2430,17 +2505,17 @@
         <v>57</v>
       </c>
       <c r="C23" t="s" s="4">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D23" s="5">
-        <v>0.619047619047619</v>
+        <v>0.476190476190476</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="10"/>
     </row>
-    <row r="24" ht="21" customHeight="1">
+    <row r="24" ht="20.7" customHeight="1">
       <c r="A24" t="s" s="4">
         <v>58</v>
       </c>
@@ -2448,15 +2523,15 @@
         <v>59</v>
       </c>
       <c r="C24" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="D24" s="5">
-        <v>0.595238095238095</v>
-      </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="11"/>
+        <v>32</v>
+      </c>
+      <c r="D24" s="19">
+        <v>0.80952380952381</v>
+      </c>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="21"/>
     </row>
     <row r="25" ht="21" customHeight="1">
       <c r="A25" t="s" s="4">
@@ -2466,10 +2541,10 @@
         <v>61</v>
       </c>
       <c r="C25" t="s" s="4">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D25" s="5">
-        <v>0.69047619047619</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -2484,7 +2559,7 @@
         <v>63</v>
       </c>
       <c r="C26" t="s" s="4">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D26" s="5">
         <v>0.619047619047619</v>
@@ -2492,7 +2567,7 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
-      <c r="H26" s="6"/>
+      <c r="H26" s="10"/>
     </row>
     <row r="27" ht="21" customHeight="1">
       <c r="A27" t="s" s="4">
@@ -2502,15 +2577,15 @@
         <v>65</v>
       </c>
       <c r="C27" t="s" s="4">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="D27" s="5">
-        <v>0.80952380952381</v>
+        <v>0.595238095238095</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
-      <c r="H27" s="6"/>
+      <c r="H27" s="11"/>
     </row>
     <row r="28" ht="21" customHeight="1">
       <c r="A28" t="s" s="4">
@@ -2520,10 +2595,10 @@
         <v>67</v>
       </c>
       <c r="C28" t="s" s="4">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D28" s="5">
-        <v>0.761904761904762</v>
+        <v>0.69047619047619</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -2538,17 +2613,17 @@
         <v>69</v>
       </c>
       <c r="C29" t="s" s="4">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D29" s="5">
-        <v>0.714285714285714</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
-      <c r="H29" s="10"/>
-    </row>
-    <row r="30" ht="20.7" customHeight="1">
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" ht="21" customHeight="1">
       <c r="A30" t="s" s="4">
         <v>70</v>
       </c>
@@ -2556,15 +2631,15 @@
         <v>71</v>
       </c>
       <c r="C30" t="s" s="4">
-        <v>43</v>
-      </c>
-      <c r="D30" s="23">
-        <v>0.857142857142857</v>
-      </c>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="21"/>
+        <v>47</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0.80952380952381</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="6"/>
     </row>
     <row r="31" ht="21" customHeight="1">
       <c r="A31" t="s" s="4">
@@ -2574,15 +2649,15 @@
         <v>73</v>
       </c>
       <c r="C31" t="s" s="4">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D31" s="5">
-        <v>0.452380952380952</v>
+        <v>0.761904761904762</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
-      <c r="H31" s="10"/>
+      <c r="H31" s="6"/>
     </row>
     <row r="32" ht="21" customHeight="1">
       <c r="A32" t="s" s="4">
@@ -2592,51 +2667,51 @@
         <v>75</v>
       </c>
       <c r="C32" t="s" s="4">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D32" s="5">
-        <v>0.619047619047619</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
-      <c r="H32" s="11"/>
-    </row>
-    <row r="33" ht="21" customHeight="1">
-      <c r="A33" t="s" s="7">
+      <c r="H32" s="10"/>
+    </row>
+    <row r="33" ht="20.7" customHeight="1">
+      <c r="A33" t="s" s="4">
         <v>76</v>
       </c>
-      <c r="B33" t="s" s="7">
+      <c r="B33" t="s" s="4">
         <v>77</v>
       </c>
       <c r="C33" t="s" s="4">
-        <v>10</v>
-      </c>
-      <c r="D33" s="5">
-        <v>0.619047619047619</v>
-      </c>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="6"/>
+        <v>47</v>
+      </c>
+      <c r="D33" s="23">
+        <v>0.857142857142857</v>
+      </c>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="21"/>
     </row>
     <row r="34" ht="21" customHeight="1">
-      <c r="A34" t="s" s="8">
+      <c r="A34" t="s" s="4">
         <v>78</v>
       </c>
-      <c r="B34" t="s" s="8">
+      <c r="B34" t="s" s="4">
         <v>79</v>
       </c>
-      <c r="C34" t="s" s="9">
-        <v>43</v>
+      <c r="C34" t="s" s="4">
+        <v>47</v>
       </c>
       <c r="D34" s="5">
-        <v>0.5238095238095239</v>
+        <v>0.452380952380952</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
-      <c r="H34" s="6"/>
+      <c r="H34" s="10"/>
     </row>
     <row r="35" ht="21" customHeight="1">
       <c r="A35" t="s" s="4">
@@ -2646,15 +2721,15 @@
         <v>81</v>
       </c>
       <c r="C35" t="s" s="4">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D35" s="5">
-        <v>0.833333333333333</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
-      <c r="H35" s="10"/>
+      <c r="H35" s="11"/>
     </row>
     <row r="36" ht="21" customHeight="1">
       <c r="A36" t="s" s="7">
@@ -2664,28 +2739,28 @@
         <v>83</v>
       </c>
       <c r="C36" t="s" s="4">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D36" s="5">
-        <v>0.595238095238095</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
-      <c r="H36" s="11"/>
+      <c r="H36" s="6"/>
     </row>
     <row r="37" ht="21" customHeight="1">
-      <c r="A37" t="s" s="14">
+      <c r="A37" t="s" s="8">
         <v>84</v>
       </c>
-      <c r="B37" t="s" s="14">
+      <c r="B37" t="s" s="8">
         <v>85</v>
       </c>
       <c r="C37" t="s" s="9">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="D37" s="5">
-        <v>0.5</v>
+        <v>0.5238095238095239</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
@@ -2693,78 +2768,78 @@
       <c r="H37" s="6"/>
     </row>
     <row r="38" ht="21" customHeight="1">
-      <c r="A38" t="s" s="17">
+      <c r="A38" t="s" s="4">
         <v>86</v>
       </c>
-      <c r="B38" t="s" s="17">
+      <c r="B38" t="s" s="4">
         <v>87</v>
       </c>
       <c r="C38" t="s" s="4">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D38" s="5">
-        <v>0.571428571428571</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
       <c r="H38" s="10"/>
     </row>
-    <row r="39" ht="20.7" customHeight="1">
-      <c r="A39" t="s" s="4">
+    <row r="39" ht="21" customHeight="1">
+      <c r="A39" t="s" s="7">
         <v>88</v>
       </c>
-      <c r="B39" t="s" s="4">
+      <c r="B39" t="s" s="7">
         <v>89</v>
       </c>
       <c r="C39" t="s" s="4">
-        <v>25</v>
-      </c>
-      <c r="D39" s="19">
-        <v>0.5238095238095239</v>
-      </c>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="21"/>
+        <v>15</v>
+      </c>
+      <c r="D39" s="5">
+        <v>0.595238095238095</v>
+      </c>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="11"/>
     </row>
     <row r="40" ht="21" customHeight="1">
-      <c r="A40" t="s" s="4">
+      <c r="A40" t="s" s="12">
         <v>90</v>
       </c>
-      <c r="B40" t="s" s="4">
+      <c r="B40" t="s" s="12">
         <v>91</v>
       </c>
-      <c r="C40" t="s" s="4">
-        <v>10</v>
+      <c r="C40" t="s" s="9">
+        <v>18</v>
       </c>
       <c r="D40" s="5">
-        <v>0.833333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
-      <c r="H40" s="10"/>
+      <c r="H40" s="6"/>
     </row>
     <row r="41" ht="21" customHeight="1">
-      <c r="A41" t="s" s="4">
+      <c r="A41" t="s" s="17">
         <v>92</v>
       </c>
-      <c r="B41" t="s" s="4">
+      <c r="B41" t="s" s="17">
         <v>93</v>
       </c>
       <c r="C41" t="s" s="4">
         <v>25</v>
       </c>
       <c r="D41" s="5">
-        <v>0.5</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
-      <c r="H41" s="11"/>
-    </row>
-    <row r="42" ht="21" customHeight="1">
+      <c r="H41" s="10"/>
+    </row>
+    <row r="42" ht="20.7" customHeight="1">
       <c r="A42" t="s" s="4">
         <v>94</v>
       </c>
@@ -2774,51 +2849,51 @@
       <c r="C42" t="s" s="4">
         <v>25</v>
       </c>
-      <c r="D42" s="5">
-        <v>0.595238095238095</v>
-      </c>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="10"/>
+      <c r="D42" s="19">
+        <v>0.5238095238095239</v>
+      </c>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="21"/>
     </row>
     <row r="43" ht="21" customHeight="1">
-      <c r="A43" t="s" s="7">
+      <c r="A43" t="s" s="4">
         <v>96</v>
       </c>
-      <c r="B43" t="s" s="7">
+      <c r="B43" t="s" s="4">
         <v>97</v>
       </c>
       <c r="C43" t="s" s="4">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D43" s="5">
-        <v>0.642857142857143</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
-      <c r="H43" s="18"/>
+      <c r="H43" s="6"/>
     </row>
     <row r="44" ht="21" customHeight="1">
-      <c r="A44" t="s" s="17">
+      <c r="A44" t="s" s="4">
         <v>98</v>
       </c>
-      <c r="B44" t="s" s="17">
+      <c r="B44" t="s" s="4">
         <v>99</v>
       </c>
       <c r="C44" t="s" s="4">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D44" s="5">
-        <v>0.619047619047619</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
-      <c r="H44" s="18"/>
-    </row>
-    <row r="45" ht="20.7" customHeight="1">
+      <c r="H44" s="10"/>
+    </row>
+    <row r="45" ht="21" customHeight="1">
       <c r="A45" t="s" s="4">
         <v>100</v>
       </c>
@@ -2828,13 +2903,13 @@
       <c r="C45" t="s" s="4">
         <v>25</v>
       </c>
-      <c r="D45" s="23">
-        <v>0.595238095238095</v>
-      </c>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="24"/>
+      <c r="D45" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="11"/>
     </row>
     <row r="46" ht="21" customHeight="1">
       <c r="A46" t="s" s="4">
@@ -2844,15 +2919,15 @@
         <v>103</v>
       </c>
       <c r="C46" t="s" s="4">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D46" s="5">
-        <v>0.738095238095238</v>
+        <v>0.595238095238095</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
-      <c r="H46" s="11"/>
+      <c r="H46" s="10"/>
     </row>
     <row r="47" ht="21" customHeight="1">
       <c r="A47" t="s" s="7">
@@ -2862,15 +2937,15 @@
         <v>105</v>
       </c>
       <c r="C47" t="s" s="4">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D47" s="5">
-        <v>0.738095238095238</v>
+        <v>0.642857142857143</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
-      <c r="H47" s="10"/>
+      <c r="H47" s="18"/>
     </row>
     <row r="48" ht="21" customHeight="1">
       <c r="A48" t="s" s="17">
@@ -2880,17 +2955,17 @@
         <v>107</v>
       </c>
       <c r="C48" t="s" s="4">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D48" s="5">
-        <v>0.452380952380952</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
-      <c r="H48" s="11"/>
-    </row>
-    <row r="49" ht="21" customHeight="1">
+      <c r="H48" s="18"/>
+    </row>
+    <row r="49" ht="20.7" customHeight="1">
       <c r="A49" t="s" s="4">
         <v>108</v>
       </c>
@@ -2898,15 +2973,15 @@
         <v>109</v>
       </c>
       <c r="C49" t="s" s="4">
-        <v>10</v>
-      </c>
-      <c r="D49" s="5">
-        <v>0.857142857142857</v>
-      </c>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="6"/>
+        <v>25</v>
+      </c>
+      <c r="D49" s="23">
+        <v>0.595238095238095</v>
+      </c>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="24"/>
     </row>
     <row r="50" ht="21" customHeight="1">
       <c r="A50" t="s" s="4">
@@ -2924,38 +2999,38 @@
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
-      <c r="H50" s="10"/>
-    </row>
-    <row r="51" ht="20.7" customHeight="1">
-      <c r="A51" t="s" s="4">
+      <c r="H50" s="11"/>
+    </row>
+    <row r="51" ht="21" customHeight="1">
+      <c r="A51" t="s" s="7">
         <v>112</v>
       </c>
-      <c r="B51" t="s" s="4">
+      <c r="B51" t="s" s="7">
         <v>113</v>
       </c>
       <c r="C51" t="s" s="4">
+        <v>47</v>
+      </c>
+      <c r="D51" s="5">
+        <v>0.738095238095238</v>
+      </c>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="10"/>
+    </row>
+    <row r="52" ht="21" customHeight="1">
+      <c r="A52" t="s" s="17">
+        <v>114</v>
+      </c>
+      <c r="B52" t="s" s="17">
+        <v>115</v>
+      </c>
+      <c r="C52" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="D51" s="23">
-        <v>0.476190476190476</v>
-      </c>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="24"/>
-    </row>
-    <row r="52" ht="21" customHeight="1">
-      <c r="A52" t="s" s="4">
-        <v>114</v>
-      </c>
-      <c r="B52" t="s" s="4">
-        <v>115</v>
-      </c>
-      <c r="C52" t="s" s="4">
-        <v>30</v>
-      </c>
       <c r="D52" s="5">
-        <v>0.833333333333333</v>
+        <v>0.452380952380952</v>
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
@@ -2970,10 +3045,10 @@
         <v>117</v>
       </c>
       <c r="C53" t="s" s="4">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D53" s="5">
-        <v>0.714285714285714</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
@@ -2988,10 +3063,10 @@
         <v>119</v>
       </c>
       <c r="C54" t="s" s="4">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D54" s="5">
-        <v>0.785714285714286</v>
+        <v>0.738095238095238</v>
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
@@ -3006,10 +3081,10 @@
         <v>121</v>
       </c>
       <c r="C55" t="s" s="4">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D55" s="5">
-        <v>0.714285714285714</v>
+        <v>0.738095238095238</v>
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
@@ -3024,15 +3099,15 @@
         <v>123</v>
       </c>
       <c r="C56" t="s" s="4">
-        <v>30</v>
-      </c>
-      <c r="D56" s="19">
-        <v>0.619047619047619</v>
+        <v>10</v>
+      </c>
+      <c r="D56" s="23">
+        <v>0.476190476190476</v>
       </c>
       <c r="E56" s="20"/>
       <c r="F56" s="20"/>
       <c r="G56" s="20"/>
-      <c r="H56" s="21"/>
+      <c r="H56" s="24"/>
     </row>
     <row r="57" ht="21" customHeight="1">
       <c r="A57" t="s" s="4">
@@ -3042,17 +3117,17 @@
         <v>125</v>
       </c>
       <c r="C57" t="s" s="4">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D57" s="5">
-        <v>0.904761904761905</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
-      <c r="H57" s="10"/>
-    </row>
-    <row r="58" ht="20.7" customHeight="1">
+      <c r="H57" s="11"/>
+    </row>
+    <row r="58" ht="21" customHeight="1">
       <c r="A58" t="s" s="4">
         <v>126</v>
       </c>
@@ -3060,15 +3135,15 @@
         <v>127</v>
       </c>
       <c r="C58" t="s" s="4">
-        <v>10</v>
-      </c>
-      <c r="D58" s="19">
-        <v>0.642857142857143</v>
-      </c>
-      <c r="E58" s="20"/>
-      <c r="F58" s="20"/>
-      <c r="G58" s="20"/>
-      <c r="H58" s="21"/>
+        <v>25</v>
+      </c>
+      <c r="D58" s="5">
+        <v>0.714285714285714</v>
+      </c>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="6"/>
     </row>
     <row r="59" ht="21" customHeight="1">
       <c r="A59" t="s" s="4">
@@ -3078,51 +3153,51 @@
         <v>129</v>
       </c>
       <c r="C59" t="s" s="4">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D59" s="5">
-        <v>0.619047619047619</v>
+        <v>0.69047619047619</v>
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
-      <c r="H59" s="10"/>
+      <c r="H59" s="6"/>
     </row>
     <row r="60" ht="21" customHeight="1">
-      <c r="A60" t="s" s="7">
+      <c r="A60" t="s" s="4">
         <v>130</v>
       </c>
-      <c r="B60" t="s" s="7">
+      <c r="B60" t="s" s="4">
         <v>131</v>
       </c>
       <c r="C60" t="s" s="4">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D60" s="5">
-        <v>0.666666666666667</v>
+        <v>0.785714285714286</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
-      <c r="H60" s="18"/>
+      <c r="H60" s="6"/>
     </row>
     <row r="61" ht="21" customHeight="1">
-      <c r="A61" t="s" s="17">
+      <c r="A61" t="s" s="4">
         <v>132</v>
       </c>
-      <c r="B61" t="s" s="17">
+      <c r="B61" t="s" s="4">
         <v>133</v>
       </c>
       <c r="C61" t="s" s="4">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D61" s="5">
-        <v>0.857142857142857</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
-      <c r="H61" s="18"/>
+      <c r="H61" s="10"/>
     </row>
     <row r="62" ht="20.7" customHeight="1">
       <c r="A62" t="s" s="4">
@@ -3132,10 +3207,10 @@
         <v>135</v>
       </c>
       <c r="C62" t="s" s="4">
-        <v>18</v>
-      </c>
-      <c r="D62" s="23">
-        <v>0.738095238095238</v>
+        <v>32</v>
+      </c>
+      <c r="D62" s="19">
+        <v>0.619047619047619</v>
       </c>
       <c r="E62" s="20"/>
       <c r="F62" s="20"/>
@@ -3143,40 +3218,40 @@
       <c r="H62" s="21"/>
     </row>
     <row r="63" ht="21" customHeight="1">
-      <c r="A63" t="s" s="7">
+      <c r="A63" t="s" s="4">
         <v>136</v>
       </c>
-      <c r="B63" t="s" s="7">
+      <c r="B63" t="s" s="4">
         <v>137</v>
       </c>
       <c r="C63" t="s" s="4">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="D63" s="5">
-        <v>0.571428571428571</v>
+        <v>0.904761904761905</v>
       </c>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
       <c r="H63" s="10"/>
     </row>
-    <row r="64" ht="21" customHeight="1">
-      <c r="A64" t="s" s="17">
+    <row r="64" ht="20.7" customHeight="1">
+      <c r="A64" t="s" s="4">
         <v>138</v>
       </c>
-      <c r="B64" t="s" s="17">
+      <c r="B64" t="s" s="4">
         <v>139</v>
       </c>
       <c r="C64" t="s" s="4">
-        <v>43</v>
-      </c>
-      <c r="D64" s="5">
-        <v>0.761904761904762</v>
-      </c>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="11"/>
+        <v>10</v>
+      </c>
+      <c r="D64" s="19">
+        <v>0.642857142857143</v>
+      </c>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="21"/>
     </row>
     <row r="65" ht="21" customHeight="1">
       <c r="A65" t="s" s="4">
@@ -3186,17 +3261,17 @@
         <v>141</v>
       </c>
       <c r="C65" t="s" s="4">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D65" s="5">
-        <v>0.904761904761905</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
       <c r="H65" s="10"/>
     </row>
-    <row r="66" ht="20.7" customHeight="1">
+    <row r="66" ht="21" customHeight="1">
       <c r="A66" t="s" s="7">
         <v>142</v>
       </c>
@@ -3204,71 +3279,71 @@
         <v>143</v>
       </c>
       <c r="C66" t="s" s="4">
-        <v>30</v>
-      </c>
-      <c r="D66" s="23">
-        <v>0.69047619047619</v>
-      </c>
-      <c r="E66" s="20"/>
-      <c r="F66" s="20"/>
-      <c r="G66" s="20"/>
-      <c r="H66" s="21"/>
+        <v>47</v>
+      </c>
+      <c r="D66" s="5">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="18"/>
     </row>
     <row r="67" ht="21" customHeight="1">
-      <c r="A67" t="s" s="8">
+      <c r="A67" t="s" s="22">
         <v>144</v>
       </c>
-      <c r="B67" t="s" s="8">
+      <c r="B67" t="s" s="22">
         <v>145</v>
       </c>
-      <c r="C67" t="s" s="9">
-        <v>43</v>
+      <c r="C67" t="s" s="4">
+        <v>18</v>
       </c>
       <c r="D67" s="5">
-        <v>0.571428571428571</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
-      <c r="H67" s="6"/>
+      <c r="H67" s="18"/>
     </row>
     <row r="68" ht="21" customHeight="1">
-      <c r="A68" t="s" s="4">
+      <c r="A68" t="s" s="22">
         <v>146</v>
       </c>
-      <c r="B68" t="s" s="4">
+      <c r="B68" t="s" s="22">
         <v>147</v>
       </c>
       <c r="C68" t="s" s="4">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D68" s="5">
-        <v>0.857142857142857</v>
+        <v>0.80952380952381</v>
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
-      <c r="H68" s="6"/>
+      <c r="H68" s="18"/>
     </row>
     <row r="69" ht="21" customHeight="1">
-      <c r="A69" t="s" s="4">
+      <c r="A69" t="s" s="17">
         <v>148</v>
       </c>
-      <c r="B69" t="s" s="4">
+      <c r="B69" t="s" s="17">
         <v>149</v>
       </c>
       <c r="C69" t="s" s="4">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="D69" s="5">
-        <v>0.785714285714286</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>
-      <c r="H69" s="6"/>
-    </row>
-    <row r="70" ht="21" customHeight="1">
+      <c r="H69" s="18"/>
+    </row>
+    <row r="70" ht="20.7" customHeight="1">
       <c r="A70" t="s" s="4">
         <v>150</v>
       </c>
@@ -3276,15 +3351,15 @@
         <v>151</v>
       </c>
       <c r="C70" t="s" s="4">
-        <v>43</v>
-      </c>
-      <c r="D70" s="5">
-        <v>1</v>
-      </c>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="D70" s="23">
+        <v>0.738095238095238</v>
+      </c>
+      <c r="E70" s="20"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="20"/>
+      <c r="H70" s="21"/>
     </row>
     <row r="71" ht="21" customHeight="1">
       <c r="A71" t="s" s="7">
@@ -3297,30 +3372,30 @@
         <v>18</v>
       </c>
       <c r="D71" s="5">
-        <v>0.785714285714286</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
-      <c r="H71" s="6"/>
+      <c r="H71" s="10"/>
     </row>
     <row r="72" ht="21" customHeight="1">
-      <c r="A72" t="s" s="8">
+      <c r="A72" t="s" s="17">
         <v>154</v>
       </c>
-      <c r="B72" t="s" s="8">
+      <c r="B72" t="s" s="17">
         <v>155</v>
       </c>
-      <c r="C72" t="s" s="9">
-        <v>30</v>
+      <c r="C72" t="s" s="4">
+        <v>47</v>
       </c>
       <c r="D72" s="5">
-        <v>0.738095238095238</v>
+        <v>0.761904761904762</v>
       </c>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
-      <c r="H72" s="6"/>
+      <c r="H72" s="11"/>
     </row>
     <row r="73" ht="21" customHeight="1">
       <c r="A73" t="s" s="4">
@@ -3330,10 +3405,10 @@
         <v>157</v>
       </c>
       <c r="C73" t="s" s="4">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D73" s="5">
-        <v>0.785714285714286</v>
+        <v>0.904761904761905</v>
       </c>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
@@ -3341,17 +3416,17 @@
       <c r="H73" s="10"/>
     </row>
     <row r="74" ht="20.7" customHeight="1">
-      <c r="A74" t="s" s="4">
+      <c r="A74" t="s" s="7">
         <v>158</v>
       </c>
-      <c r="B74" t="s" s="4">
+      <c r="B74" t="s" s="7">
         <v>159</v>
       </c>
       <c r="C74" t="s" s="4">
-        <v>43</v>
-      </c>
-      <c r="D74" s="19">
-        <v>0.833333333333333</v>
+        <v>32</v>
+      </c>
+      <c r="D74" s="23">
+        <v>0.69047619047619</v>
       </c>
       <c r="E74" s="20"/>
       <c r="F74" s="20"/>
@@ -3359,17 +3434,17 @@
       <c r="H74" s="21"/>
     </row>
     <row r="75" ht="21" customHeight="1">
-      <c r="A75" t="s" s="4">
+      <c r="A75" t="s" s="8">
         <v>160</v>
       </c>
-      <c r="B75" t="s" s="4">
+      <c r="B75" t="s" s="8">
         <v>161</v>
       </c>
-      <c r="C75" t="s" s="4">
-        <v>25</v>
+      <c r="C75" t="s" s="9">
+        <v>47</v>
       </c>
       <c r="D75" s="5">
-        <v>0.880952380952381</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
@@ -3384,10 +3459,10 @@
         <v>163</v>
       </c>
       <c r="C76" t="s" s="4">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D76" s="5">
-        <v>0.714285714285714</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
@@ -3395,17 +3470,17 @@
       <c r="H76" s="6"/>
     </row>
     <row r="77" ht="21" customHeight="1">
-      <c r="A77" t="s" s="7">
+      <c r="A77" t="s" s="4">
         <v>164</v>
       </c>
-      <c r="B77" t="s" s="7">
+      <c r="B77" t="s" s="4">
         <v>165</v>
       </c>
       <c r="C77" t="s" s="4">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D77" s="5">
-        <v>0.666666666666667</v>
+        <v>0.785714285714286</v>
       </c>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
@@ -3413,53 +3488,53 @@
       <c r="H77" s="6"/>
     </row>
     <row r="78" ht="21" customHeight="1">
-      <c r="A78" t="s" s="8">
+      <c r="A78" t="s" s="4">
         <v>166</v>
       </c>
-      <c r="B78" t="s" s="8">
+      <c r="B78" t="s" s="4">
         <v>167</v>
       </c>
-      <c r="C78" t="s" s="9">
-        <v>30</v>
+      <c r="C78" t="s" s="4">
+        <v>47</v>
       </c>
       <c r="D78" s="5">
-        <v>0.666666666666667</v>
+        <v>1</v>
       </c>
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
       <c r="G78" s="5"/>
-      <c r="H78" s="10"/>
+      <c r="H78" s="6"/>
     </row>
     <row r="79" ht="21" customHeight="1">
-      <c r="A79" t="s" s="4">
+      <c r="A79" t="s" s="7">
         <v>168</v>
       </c>
-      <c r="B79" t="s" s="4">
+      <c r="B79" t="s" s="7">
         <v>169</v>
       </c>
       <c r="C79" t="s" s="4">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D79" s="5">
-        <v>0.571428571428571</v>
+        <v>0.785714285714286</v>
       </c>
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
       <c r="G79" s="5"/>
-      <c r="H79" s="11"/>
+      <c r="H79" s="6"/>
     </row>
     <row r="80" ht="21" customHeight="1">
-      <c r="A80" t="s" s="4">
+      <c r="A80" t="s" s="8">
         <v>170</v>
       </c>
-      <c r="B80" t="s" s="4">
+      <c r="B80" t="s" s="8">
         <v>171</v>
       </c>
-      <c r="C80" t="s" s="4">
-        <v>43</v>
+      <c r="C80" t="s" s="9">
+        <v>32</v>
       </c>
       <c r="D80" s="5">
-        <v>0.833333333333333</v>
+        <v>0.738095238095238</v>
       </c>
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
@@ -3474,17 +3549,17 @@
         <v>173</v>
       </c>
       <c r="C81" t="s" s="4">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D81" s="5">
-        <v>0.5</v>
+        <v>0.785714285714286</v>
       </c>
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
       <c r="G81" s="5"/>
-      <c r="H81" s="6"/>
-    </row>
-    <row r="82" ht="21" customHeight="1">
+      <c r="H81" s="10"/>
+    </row>
+    <row r="82" ht="20.7" customHeight="1">
       <c r="A82" t="s" s="4">
         <v>174</v>
       </c>
@@ -3492,15 +3567,15 @@
         <v>175</v>
       </c>
       <c r="C82" t="s" s="4">
-        <v>30</v>
-      </c>
-      <c r="D82" s="5">
-        <v>0.642857142857143</v>
-      </c>
-      <c r="E82" s="5"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="5"/>
-      <c r="H82" s="6"/>
+        <v>47</v>
+      </c>
+      <c r="D82" s="19">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E82" s="20"/>
+      <c r="F82" s="20"/>
+      <c r="G82" s="20"/>
+      <c r="H82" s="21"/>
     </row>
     <row r="83" ht="21" customHeight="1">
       <c r="A83" t="s" s="4">
@@ -3510,10 +3585,10 @@
         <v>177</v>
       </c>
       <c r="C83" t="s" s="4">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D83" s="5">
-        <v>0.595238095238095</v>
+        <v>0.880952380952381</v>
       </c>
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
@@ -3528,46 +3603,46 @@
         <v>179</v>
       </c>
       <c r="C84" t="s" s="4">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D84" s="5">
-        <v>0.547619047619048</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
-      <c r="H84" s="10"/>
+      <c r="H84" s="6"/>
     </row>
     <row r="85" ht="21" customHeight="1">
-      <c r="A85" t="s" s="4">
+      <c r="A85" t="s" s="7">
         <v>180</v>
       </c>
-      <c r="B85" t="s" s="4">
+      <c r="B85" t="s" s="7">
         <v>181</v>
       </c>
       <c r="C85" t="s" s="4">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="D85" s="5">
-        <v>0.761904761904762</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
       <c r="G85" s="5"/>
-      <c r="H85" s="11"/>
+      <c r="H85" s="6"/>
     </row>
     <row r="86" ht="21" customHeight="1">
-      <c r="A86" t="s" s="7">
+      <c r="A86" t="s" s="12">
         <v>182</v>
       </c>
-      <c r="B86" t="s" s="7">
+      <c r="B86" t="s" s="12">
         <v>183</v>
       </c>
-      <c r="C86" t="s" s="4">
-        <v>43</v>
+      <c r="C86" t="s" s="9">
+        <v>32</v>
       </c>
       <c r="D86" s="5">
-        <v>0.571428571428571</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
@@ -3582,133 +3657,213 @@
         <v>185</v>
       </c>
       <c r="C87" t="s" s="9">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D87" s="5">
-        <v>0.285714285714286</v>
+        <v>0.80952380952381</v>
       </c>
       <c r="E87" s="5"/>
       <c r="F87" s="5"/>
       <c r="G87" s="5"/>
-      <c r="H87" s="6"/>
+      <c r="H87" s="10"/>
     </row>
     <row r="88" ht="21" customHeight="1">
-      <c r="A88" t="s" s="7">
+      <c r="A88" t="s" s="4">
         <v>186</v>
       </c>
-      <c r="B88" t="s" s="7">
+      <c r="B88" t="s" s="4">
         <v>187</v>
       </c>
       <c r="C88" t="s" s="4">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D88" s="5">
-        <v>0.30952380952381</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="E88" s="5"/>
       <c r="F88" s="5"/>
       <c r="G88" s="5"/>
-      <c r="H88" s="6"/>
+      <c r="H88" s="11"/>
     </row>
     <row r="89" ht="21" customHeight="1">
-      <c r="A89" s="25"/>
-      <c r="B89" s="25"/>
-      <c r="C89" s="26"/>
-      <c r="D89" s="5"/>
+      <c r="A89" t="s" s="4">
+        <v>188</v>
+      </c>
+      <c r="B89" t="s" s="4">
+        <v>189</v>
+      </c>
+      <c r="C89" t="s" s="4">
+        <v>47</v>
+      </c>
+      <c r="D89" s="5">
+        <v>0.833333333333333</v>
+      </c>
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
       <c r="G89" s="5"/>
-      <c r="H89" s="10"/>
+      <c r="H89" s="6"/>
     </row>
     <row r="90" ht="21" customHeight="1">
-      <c r="A90" s="27"/>
-      <c r="B90" s="27"/>
-      <c r="C90" s="20"/>
-      <c r="D90" s="5"/>
+      <c r="A90" t="s" s="4">
+        <v>190</v>
+      </c>
+      <c r="B90" t="s" s="4">
+        <v>191</v>
+      </c>
+      <c r="C90" t="s" s="4">
+        <v>47</v>
+      </c>
+      <c r="D90" s="5">
+        <v>0.5</v>
+      </c>
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
       <c r="G90" s="5"/>
-      <c r="H90" s="11"/>
+      <c r="H90" s="6"/>
     </row>
     <row r="91" ht="21" customHeight="1">
-      <c r="A91" s="25"/>
-      <c r="B91" s="25"/>
-      <c r="C91" s="26"/>
-      <c r="D91" s="5"/>
+      <c r="A91" t="s" s="4">
+        <v>192</v>
+      </c>
+      <c r="B91" t="s" s="4">
+        <v>193</v>
+      </c>
+      <c r="C91" t="s" s="4">
+        <v>32</v>
+      </c>
+      <c r="D91" s="5">
+        <v>0.642857142857143</v>
+      </c>
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
       <c r="G91" s="5"/>
       <c r="H91" s="10"/>
     </row>
     <row r="92" ht="21" customHeight="1">
-      <c r="A92" s="28"/>
-      <c r="B92" s="28"/>
-      <c r="C92" s="20"/>
-      <c r="D92" s="5"/>
+      <c r="A92" t="s" s="4">
+        <v>194</v>
+      </c>
+      <c r="B92" t="s" s="4">
+        <v>195</v>
+      </c>
+      <c r="C92" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="D92" s="5">
+        <v>0.666666666666667</v>
+      </c>
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
       <c r="G92" s="5"/>
       <c r="H92" s="11"/>
     </row>
     <row r="93" ht="21" customHeight="1">
-      <c r="A93" s="20"/>
-      <c r="B93" s="20"/>
-      <c r="C93" s="20"/>
-      <c r="D93" s="5"/>
+      <c r="A93" t="s" s="4">
+        <v>196</v>
+      </c>
+      <c r="B93" t="s" s="4">
+        <v>197</v>
+      </c>
+      <c r="C93" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="D93" s="5">
+        <v>0.595238095238095</v>
+      </c>
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
       <c r="G93" s="5"/>
       <c r="H93" s="6"/>
     </row>
     <row r="94" ht="21" customHeight="1">
-      <c r="A94" s="20"/>
-      <c r="B94" s="20"/>
-      <c r="C94" s="20"/>
-      <c r="D94" s="5"/>
+      <c r="A94" t="s" s="4">
+        <v>198</v>
+      </c>
+      <c r="B94" t="s" s="4">
+        <v>199</v>
+      </c>
+      <c r="C94" t="s" s="4">
+        <v>32</v>
+      </c>
+      <c r="D94" s="5">
+        <v>0.547619047619048</v>
+      </c>
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
       <c r="G94" s="5"/>
       <c r="H94" s="10"/>
     </row>
     <row r="95" ht="21" customHeight="1">
-      <c r="A95" s="20"/>
-      <c r="B95" s="20"/>
-      <c r="C95" s="20"/>
-      <c r="D95" s="5"/>
+      <c r="A95" t="s" s="4">
+        <v>200</v>
+      </c>
+      <c r="B95" t="s" s="4">
+        <v>201</v>
+      </c>
+      <c r="C95" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="D95" s="5">
+        <v>0.761904761904762</v>
+      </c>
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
       <c r="G95" s="5"/>
       <c r="H95" s="11"/>
     </row>
     <row r="96" ht="21" customHeight="1">
-      <c r="A96" s="29"/>
-      <c r="B96" s="29"/>
-      <c r="C96" s="20"/>
-      <c r="D96" s="5"/>
+      <c r="A96" t="s" s="7">
+        <v>202</v>
+      </c>
+      <c r="B96" t="s" s="7">
+        <v>203</v>
+      </c>
+      <c r="C96" t="s" s="4">
+        <v>47</v>
+      </c>
+      <c r="D96" s="5">
+        <v>0.571428571428571</v>
+      </c>
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
       <c r="G96" s="5"/>
       <c r="H96" s="6"/>
     </row>
     <row r="97" ht="21" customHeight="1">
-      <c r="A97" s="25"/>
-      <c r="B97" s="25"/>
-      <c r="C97" s="26"/>
-      <c r="D97" s="5"/>
+      <c r="A97" t="s" s="8">
+        <v>204</v>
+      </c>
+      <c r="B97" t="s" s="8">
+        <v>205</v>
+      </c>
+      <c r="C97" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="D97" s="5">
+        <v>0.285714285714286</v>
+      </c>
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
       <c r="G97" s="5"/>
-      <c r="H97" s="10"/>
+      <c r="H97" s="6"/>
     </row>
     <row r="98" ht="21" customHeight="1">
-      <c r="A98" s="28"/>
-      <c r="B98" s="28"/>
-      <c r="C98" s="20"/>
-      <c r="D98" s="5"/>
+      <c r="A98" t="s" s="4">
+        <v>206</v>
+      </c>
+      <c r="B98" t="s" s="4">
+        <v>207</v>
+      </c>
+      <c r="C98" t="s" s="4">
+        <v>18</v>
+      </c>
+      <c r="D98" s="5">
+        <v>0.30952380952381</v>
+      </c>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
       <c r="G98" s="5"/>
-      <c r="H98" s="11"/>
+      <c r="H98" s="6"/>
     </row>
     <row r="99" ht="21" customHeight="1">
       <c r="A99" s="20"/>
@@ -3721,8 +3876,8 @@
       <c r="H99" s="6"/>
     </row>
     <row r="100" ht="21" customHeight="1">
-      <c r="A100" s="29"/>
-      <c r="B100" s="29"/>
+      <c r="A100" s="25"/>
+      <c r="B100" s="25"/>
       <c r="C100" s="20"/>
       <c r="D100" s="5"/>
       <c r="E100" s="5"/>
@@ -3731,9 +3886,9 @@
       <c r="H100" s="6"/>
     </row>
     <row r="101" ht="21" customHeight="1">
-      <c r="A101" s="25"/>
-      <c r="B101" s="25"/>
-      <c r="C101" s="26"/>
+      <c r="A101" s="26"/>
+      <c r="B101" s="26"/>
+      <c r="C101" s="27"/>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
@@ -3741,9 +3896,9 @@
       <c r="H101" s="6"/>
     </row>
     <row r="102" ht="21" customHeight="1">
-      <c r="A102" s="25"/>
-      <c r="B102" s="25"/>
-      <c r="C102" s="26"/>
+      <c r="A102" s="26"/>
+      <c r="B102" s="26"/>
+      <c r="C102" s="27"/>
       <c r="D102" s="5"/>
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
@@ -3751,9 +3906,9 @@
       <c r="H102" s="6"/>
     </row>
     <row r="103" ht="21" customHeight="1">
-      <c r="A103" s="25"/>
-      <c r="B103" s="25"/>
-      <c r="C103" s="26"/>
+      <c r="A103" s="26"/>
+      <c r="B103" s="26"/>
+      <c r="C103" s="27"/>
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
@@ -3861,8 +4016,8 @@
       <c r="H113" s="21"/>
     </row>
     <row r="114" ht="21" customHeight="1">
-      <c r="A114" s="29"/>
-      <c r="B114" s="29"/>
+      <c r="A114" s="25"/>
+      <c r="B114" s="25"/>
       <c r="C114" s="20"/>
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
@@ -3871,9 +4026,9 @@
       <c r="H114" s="10"/>
     </row>
     <row r="115" ht="21" customHeight="1">
-      <c r="A115" s="25"/>
-      <c r="B115" s="25"/>
-      <c r="C115" s="26"/>
+      <c r="A115" s="26"/>
+      <c r="B115" s="26"/>
+      <c r="C115" s="27"/>
       <c r="D115" s="5"/>
       <c r="E115" s="5"/>
       <c r="F115" s="5"/>
@@ -3901,8 +4056,8 @@
       <c r="H117" s="6"/>
     </row>
     <row r="118" ht="21" customHeight="1">
-      <c r="A118" s="29"/>
-      <c r="B118" s="29"/>
+      <c r="A118" s="25"/>
+      <c r="B118" s="25"/>
       <c r="C118" s="20"/>
       <c r="D118" s="5"/>
       <c r="E118" s="5"/>
@@ -3911,9 +4066,9 @@
       <c r="H118" s="6"/>
     </row>
     <row r="119" ht="21" customHeight="1">
-      <c r="A119" s="25"/>
-      <c r="B119" s="25"/>
-      <c r="C119" s="26"/>
+      <c r="A119" s="26"/>
+      <c r="B119" s="26"/>
+      <c r="C119" s="27"/>
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
@@ -3921,9 +4076,9 @@
       <c r="H119" s="6"/>
     </row>
     <row r="120" ht="21" customHeight="1">
-      <c r="A120" s="25"/>
-      <c r="B120" s="25"/>
-      <c r="C120" s="26"/>
+      <c r="A120" s="26"/>
+      <c r="B120" s="26"/>
+      <c r="C120" s="27"/>
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
       <c r="F120" s="5"/>
@@ -3961,8 +4116,8 @@
       <c r="H123" s="6"/>
     </row>
     <row r="124" ht="21" customHeight="1">
-      <c r="A124" s="29"/>
-      <c r="B124" s="29"/>
+      <c r="A124" s="25"/>
+      <c r="B124" s="25"/>
       <c r="C124" s="20"/>
       <c r="D124" s="5"/>
       <c r="E124" s="5"/>
@@ -3971,9 +4126,9 @@
       <c r="H124" s="6"/>
     </row>
     <row r="125" ht="21" customHeight="1">
-      <c r="A125" s="25"/>
-      <c r="B125" s="25"/>
-      <c r="C125" s="26"/>
+      <c r="A125" s="26"/>
+      <c r="B125" s="26"/>
+      <c r="C125" s="27"/>
       <c r="D125" s="5"/>
       <c r="E125" s="5"/>
       <c r="F125" s="5"/>
@@ -4031,8 +4186,8 @@
       <c r="H130" s="6"/>
     </row>
     <row r="131" ht="21" customHeight="1">
-      <c r="A131" s="29"/>
-      <c r="B131" s="29"/>
+      <c r="A131" s="25"/>
+      <c r="B131" s="25"/>
       <c r="C131" s="20"/>
       <c r="D131" s="5"/>
       <c r="E131" s="5"/>
@@ -4041,9 +4196,9 @@
       <c r="H131" s="6"/>
     </row>
     <row r="132" ht="21" customHeight="1">
-      <c r="A132" s="25"/>
-      <c r="B132" s="25"/>
-      <c r="C132" s="26"/>
+      <c r="A132" s="26"/>
+      <c r="B132" s="26"/>
+      <c r="C132" s="27"/>
       <c r="D132" s="5"/>
       <c r="E132" s="5"/>
       <c r="F132" s="5"/>
@@ -4051,8 +4206,8 @@
       <c r="H132" s="6"/>
     </row>
     <row r="133" ht="21" customHeight="1">
-      <c r="A133" s="27"/>
-      <c r="B133" s="27"/>
+      <c r="A133" s="29"/>
+      <c r="B133" s="29"/>
       <c r="C133" s="20"/>
       <c r="D133" s="5"/>
       <c r="E133" s="5"/>
@@ -4061,9 +4216,9 @@
       <c r="H133" s="10"/>
     </row>
     <row r="134" ht="21" customHeight="1">
-      <c r="A134" s="25"/>
-      <c r="B134" s="25"/>
-      <c r="C134" s="26"/>
+      <c r="A134" s="26"/>
+      <c r="B134" s="26"/>
+      <c r="C134" s="27"/>
       <c r="D134" s="5"/>
       <c r="E134" s="5"/>
       <c r="F134" s="5"/>
@@ -4101,8 +4256,8 @@
       <c r="H137" s="6"/>
     </row>
     <row r="138" ht="21" customHeight="1">
-      <c r="A138" s="29"/>
-      <c r="B138" s="29"/>
+      <c r="A138" s="25"/>
+      <c r="B138" s="25"/>
       <c r="C138" s="20"/>
       <c r="D138" s="5"/>
       <c r="E138" s="5"/>
@@ -4111,9 +4266,9 @@
       <c r="H138" s="6"/>
     </row>
     <row r="139" ht="21" customHeight="1">
-      <c r="A139" s="25"/>
-      <c r="B139" s="25"/>
-      <c r="C139" s="26"/>
+      <c r="A139" s="26"/>
+      <c r="B139" s="26"/>
+      <c r="C139" s="27"/>
       <c r="D139" s="5"/>
       <c r="E139" s="5"/>
       <c r="F139" s="5"/>
@@ -4151,8 +4306,8 @@
       <c r="H142" s="6"/>
     </row>
     <row r="143" ht="21" customHeight="1">
-      <c r="A143" s="29"/>
-      <c r="B143" s="29"/>
+      <c r="A143" s="25"/>
+      <c r="B143" s="25"/>
       <c r="C143" s="20"/>
       <c r="D143" s="5"/>
       <c r="E143" s="5"/>
@@ -4161,9 +4316,9 @@
       <c r="H143" s="10"/>
     </row>
     <row r="144" ht="21" customHeight="1">
-      <c r="A144" s="25"/>
-      <c r="B144" s="25"/>
-      <c r="C144" s="26"/>
+      <c r="A144" s="26"/>
+      <c r="B144" s="26"/>
+      <c r="C144" s="27"/>
       <c r="D144" s="5"/>
       <c r="E144" s="5"/>
       <c r="F144" s="5"/>
@@ -4171,8 +4326,8 @@
       <c r="H144" s="18"/>
     </row>
     <row r="145" ht="21" customHeight="1">
-      <c r="A145" s="27"/>
-      <c r="B145" s="27"/>
+      <c r="A145" s="29"/>
+      <c r="B145" s="29"/>
       <c r="C145" s="20"/>
       <c r="D145" s="5"/>
       <c r="E145" s="5"/>
@@ -4181,9 +4336,9 @@
       <c r="H145" s="11"/>
     </row>
     <row r="146" ht="21" customHeight="1">
-      <c r="A146" s="25"/>
-      <c r="B146" s="25"/>
-      <c r="C146" s="26"/>
+      <c r="A146" s="26"/>
+      <c r="B146" s="26"/>
+      <c r="C146" s="27"/>
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
       <c r="F146" s="5"/>
@@ -4211,8 +4366,8 @@
       <c r="H148" s="10"/>
     </row>
     <row r="149" ht="21" customHeight="1">
-      <c r="A149" s="29"/>
-      <c r="B149" s="29"/>
+      <c r="A149" s="25"/>
+      <c r="B149" s="25"/>
       <c r="C149" s="20"/>
       <c r="D149" s="5"/>
       <c r="E149" s="5"/>
@@ -4221,9 +4376,9 @@
       <c r="H149" s="11"/>
     </row>
     <row r="150" ht="21" customHeight="1">
-      <c r="A150" s="25"/>
-      <c r="B150" s="25"/>
-      <c r="C150" s="26"/>
+      <c r="A150" s="26"/>
+      <c r="B150" s="26"/>
+      <c r="C150" s="27"/>
       <c r="D150" s="5"/>
       <c r="E150" s="5"/>
       <c r="F150" s="5"/>
@@ -4331,8 +4486,8 @@
       <c r="H160" s="6"/>
     </row>
     <row r="161" ht="21" customHeight="1">
-      <c r="A161" s="29"/>
-      <c r="B161" s="29"/>
+      <c r="A161" s="25"/>
+      <c r="B161" s="25"/>
       <c r="C161" s="20"/>
       <c r="D161" s="5"/>
       <c r="E161" s="5"/>
@@ -4341,9 +4496,9 @@
       <c r="H161" s="6"/>
     </row>
     <row r="162" ht="21" customHeight="1">
-      <c r="A162" s="25"/>
-      <c r="B162" s="25"/>
-      <c r="C162" s="26"/>
+      <c r="A162" s="26"/>
+      <c r="B162" s="26"/>
+      <c r="C162" s="27"/>
       <c r="D162" s="5"/>
       <c r="E162" s="5"/>
       <c r="F162" s="5"/>
@@ -4381,8 +4536,8 @@
       <c r="H165" s="6"/>
     </row>
     <row r="166" ht="21" customHeight="1">
-      <c r="A166" s="29"/>
-      <c r="B166" s="29"/>
+      <c r="A166" s="25"/>
+      <c r="B166" s="25"/>
       <c r="C166" s="20"/>
       <c r="D166" s="5"/>
       <c r="E166" s="5"/>
@@ -4391,9 +4546,9 @@
       <c r="H166" s="6"/>
     </row>
     <row r="167" ht="21" customHeight="1">
-      <c r="A167" s="25"/>
-      <c r="B167" s="25"/>
-      <c r="C167" s="26"/>
+      <c r="A167" s="26"/>
+      <c r="B167" s="26"/>
+      <c r="C167" s="27"/>
       <c r="D167" s="5"/>
       <c r="E167" s="5"/>
       <c r="F167" s="5"/>
@@ -4551,8 +4706,8 @@
       <c r="H182" s="10"/>
     </row>
     <row r="183" ht="21" customHeight="1">
-      <c r="A183" s="29"/>
-      <c r="B183" s="29"/>
+      <c r="A183" s="25"/>
+      <c r="B183" s="25"/>
       <c r="C183" s="20"/>
       <c r="D183" s="5"/>
       <c r="E183" s="5"/>
@@ -4561,9 +4716,9 @@
       <c r="H183" s="11"/>
     </row>
     <row r="184" ht="21" customHeight="1">
-      <c r="A184" s="25"/>
-      <c r="B184" s="25"/>
-      <c r="C184" s="26"/>
+      <c r="A184" s="26"/>
+      <c r="B184" s="26"/>
+      <c r="C184" s="27"/>
       <c r="D184" s="5"/>
       <c r="E184" s="5"/>
       <c r="F184" s="5"/>
@@ -4711,8 +4866,8 @@
       <c r="H198" s="11"/>
     </row>
     <row r="199" ht="21" customHeight="1">
-      <c r="A199" s="29"/>
-      <c r="B199" s="29"/>
+      <c r="A199" s="25"/>
+      <c r="B199" s="25"/>
       <c r="C199" s="20"/>
       <c r="D199" s="5"/>
       <c r="E199" s="5"/>
@@ -4721,9 +4876,9 @@
       <c r="H199" s="6"/>
     </row>
     <row r="200" ht="21" customHeight="1">
-      <c r="A200" s="25"/>
-      <c r="B200" s="25"/>
-      <c r="C200" s="26"/>
+      <c r="A200" s="26"/>
+      <c r="B200" s="26"/>
+      <c r="C200" s="27"/>
       <c r="D200" s="5"/>
       <c r="E200" s="5"/>
       <c r="F200" s="5"/>
@@ -4831,8 +4986,8 @@
       <c r="H210" s="10"/>
     </row>
     <row r="211" ht="21" customHeight="1">
-      <c r="A211" s="29"/>
-      <c r="B211" s="29"/>
+      <c r="A211" s="25"/>
+      <c r="B211" s="25"/>
       <c r="C211" s="20"/>
       <c r="D211" s="5"/>
       <c r="E211" s="5"/>
@@ -4841,9 +4996,9 @@
       <c r="H211" s="11"/>
     </row>
     <row r="212" ht="21" customHeight="1">
-      <c r="A212" s="25"/>
-      <c r="B212" s="25"/>
-      <c r="C212" s="26"/>
+      <c r="A212" s="26"/>
+      <c r="B212" s="26"/>
+      <c r="C212" s="27"/>
       <c r="D212" s="5"/>
       <c r="E212" s="5"/>
       <c r="F212" s="5"/>
@@ -4871,8 +5026,8 @@
       <c r="H214" s="6"/>
     </row>
     <row r="215" ht="21" customHeight="1">
-      <c r="A215" s="29"/>
-      <c r="B215" s="29"/>
+      <c r="A215" s="25"/>
+      <c r="B215" s="25"/>
       <c r="C215" s="20"/>
       <c r="D215" s="5"/>
       <c r="E215" s="5"/>
@@ -4881,9 +5036,9 @@
       <c r="H215" s="10"/>
     </row>
     <row r="216" ht="21" customHeight="1">
-      <c r="A216" s="25"/>
-      <c r="B216" s="25"/>
-      <c r="C216" s="26"/>
+      <c r="A216" s="26"/>
+      <c r="B216" s="26"/>
+      <c r="C216" s="27"/>
       <c r="D216" s="5"/>
       <c r="E216" s="5"/>
       <c r="F216" s="5"/>
@@ -4911,8 +5066,8 @@
       <c r="H218" s="6"/>
     </row>
     <row r="219" ht="21" customHeight="1">
-      <c r="A219" s="29"/>
-      <c r="B219" s="29"/>
+      <c r="A219" s="25"/>
+      <c r="B219" s="25"/>
       <c r="C219" s="20"/>
       <c r="D219" s="5"/>
       <c r="E219" s="5"/>
@@ -4921,9 +5076,9 @@
       <c r="H219" s="6"/>
     </row>
     <row r="220" ht="21" customHeight="1">
-      <c r="A220" s="25"/>
-      <c r="B220" s="25"/>
-      <c r="C220" s="26"/>
+      <c r="A220" s="26"/>
+      <c r="B220" s="26"/>
+      <c r="C220" s="27"/>
       <c r="D220" s="5"/>
       <c r="E220" s="5"/>
       <c r="F220" s="5"/>
@@ -4931,8 +5086,8 @@
       <c r="H220" s="10"/>
     </row>
     <row r="221" ht="21" customHeight="1">
-      <c r="A221" s="27"/>
-      <c r="B221" s="27"/>
+      <c r="A221" s="29"/>
+      <c r="B221" s="29"/>
       <c r="C221" s="20"/>
       <c r="D221" s="5"/>
       <c r="E221" s="5"/>
@@ -4941,9 +5096,9 @@
       <c r="H221" s="11"/>
     </row>
     <row r="222" ht="21" customHeight="1">
-      <c r="A222" s="25"/>
-      <c r="B222" s="25"/>
-      <c r="C222" s="26"/>
+      <c r="A222" s="26"/>
+      <c r="B222" s="26"/>
+      <c r="C222" s="27"/>
       <c r="D222" s="5"/>
       <c r="E222" s="5"/>
       <c r="F222" s="5"/>
@@ -4981,8 +5136,8 @@
       <c r="H225" s="10"/>
     </row>
     <row r="226" ht="20.7" customHeight="1">
-      <c r="A226" s="29"/>
-      <c r="B226" s="29"/>
+      <c r="A226" s="25"/>
+      <c r="B226" s="25"/>
       <c r="C226" s="20"/>
       <c r="D226" s="20"/>
       <c r="E226" s="20"/>
@@ -4991,9 +5146,9 @@
       <c r="H226" s="21"/>
     </row>
     <row r="227" ht="21" customHeight="1">
-      <c r="A227" s="25"/>
-      <c r="B227" s="25"/>
-      <c r="C227" s="26"/>
+      <c r="A227" s="26"/>
+      <c r="B227" s="26"/>
+      <c r="C227" s="27"/>
       <c r="D227" s="5"/>
       <c r="E227" s="5"/>
       <c r="F227" s="5"/>
@@ -5001,8 +5156,8 @@
       <c r="H227" s="6"/>
     </row>
     <row r="228" ht="21" customHeight="1">
-      <c r="A228" s="27"/>
-      <c r="B228" s="27"/>
+      <c r="A228" s="29"/>
+      <c r="B228" s="29"/>
       <c r="C228" s="20"/>
       <c r="D228" s="20"/>
       <c r="E228" s="20"/>
@@ -5011,9 +5166,9 @@
       <c r="H228" s="6"/>
     </row>
     <row r="229" ht="21" customHeight="1">
-      <c r="A229" s="25"/>
-      <c r="B229" s="25"/>
-      <c r="C229" s="26"/>
+      <c r="A229" s="26"/>
+      <c r="B229" s="26"/>
+      <c r="C229" s="27"/>
       <c r="D229" s="5"/>
       <c r="E229" s="5"/>
       <c r="F229" s="5"/>
@@ -5071,8 +5226,8 @@
       <c r="H234" s="10"/>
     </row>
     <row r="235" ht="21" customHeight="1">
-      <c r="A235" s="29"/>
-      <c r="B235" s="29"/>
+      <c r="A235" s="25"/>
+      <c r="B235" s="25"/>
       <c r="C235" s="20"/>
       <c r="D235" s="5"/>
       <c r="E235" s="5"/>
@@ -5081,9 +5236,9 @@
       <c r="H235" s="11"/>
     </row>
     <row r="236" ht="21" customHeight="1">
-      <c r="A236" s="25"/>
-      <c r="B236" s="25"/>
-      <c r="C236" s="26"/>
+      <c r="A236" s="26"/>
+      <c r="B236" s="26"/>
+      <c r="C236" s="27"/>
       <c r="D236" s="5"/>
       <c r="E236" s="5"/>
       <c r="F236" s="5"/>
@@ -5101,8 +5256,8 @@
       <c r="H237" s="11"/>
     </row>
     <row r="238" ht="21" customHeight="1">
-      <c r="A238" s="29"/>
-      <c r="B238" s="29"/>
+      <c r="A238" s="25"/>
+      <c r="B238" s="25"/>
       <c r="C238" s="20"/>
       <c r="D238" s="5"/>
       <c r="E238" s="5"/>
@@ -5111,9 +5266,9 @@
       <c r="H238" s="6"/>
     </row>
     <row r="239" ht="21" customHeight="1">
-      <c r="A239" s="25"/>
-      <c r="B239" s="25"/>
-      <c r="C239" s="26"/>
+      <c r="A239" s="26"/>
+      <c r="B239" s="26"/>
+      <c r="C239" s="27"/>
       <c r="D239" s="5"/>
       <c r="E239" s="5"/>
       <c r="F239" s="5"/>
@@ -5121,9 +5276,9 @@
       <c r="H239" s="6"/>
     </row>
     <row r="240" ht="21" customHeight="1">
-      <c r="A240" s="25"/>
-      <c r="B240" s="25"/>
-      <c r="C240" s="26"/>
+      <c r="A240" s="26"/>
+      <c r="B240" s="26"/>
+      <c r="C240" s="27"/>
       <c r="D240" s="5"/>
       <c r="E240" s="5"/>
       <c r="F240" s="5"/>
@@ -5131,8 +5286,8 @@
       <c r="H240" s="10"/>
     </row>
     <row r="241" ht="21" customHeight="1">
-      <c r="A241" s="27"/>
-      <c r="B241" s="27"/>
+      <c r="A241" s="29"/>
+      <c r="B241" s="29"/>
       <c r="C241" s="20"/>
       <c r="D241" s="5"/>
       <c r="E241" s="5"/>
@@ -5141,9 +5296,9 @@
       <c r="H241" s="11"/>
     </row>
     <row r="242" ht="21" customHeight="1">
-      <c r="A242" s="25"/>
-      <c r="B242" s="25"/>
-      <c r="C242" s="26"/>
+      <c r="A242" s="26"/>
+      <c r="B242" s="26"/>
+      <c r="C242" s="27"/>
       <c r="D242" s="5"/>
       <c r="E242" s="5"/>
       <c r="F242" s="5"/>
@@ -5261,8 +5416,8 @@
       <c r="H253" s="24"/>
     </row>
     <row r="254" ht="20.35" customHeight="1">
-      <c r="A254" s="29"/>
-      <c r="B254" s="29"/>
+      <c r="A254" s="25"/>
+      <c r="B254" s="25"/>
       <c r="C254" s="20"/>
       <c r="D254" s="20"/>
       <c r="E254" s="20"/>
@@ -5271,9 +5426,9 @@
       <c r="H254" s="21"/>
     </row>
     <row r="255" ht="21" customHeight="1">
-      <c r="A255" s="25"/>
-      <c r="B255" s="25"/>
-      <c r="C255" s="26"/>
+      <c r="A255" s="26"/>
+      <c r="B255" s="26"/>
+      <c r="C255" s="27"/>
       <c r="D255" s="5"/>
       <c r="E255" s="5"/>
       <c r="F255" s="5"/>
@@ -5291,8 +5446,8 @@
       <c r="H256" s="21"/>
     </row>
     <row r="257" ht="21" customHeight="1">
-      <c r="A257" s="29"/>
-      <c r="B257" s="29"/>
+      <c r="A257" s="25"/>
+      <c r="B257" s="25"/>
       <c r="C257" s="20"/>
       <c r="D257" s="5"/>
       <c r="E257" s="5"/>
@@ -5301,9 +5456,9 @@
       <c r="H257" s="6"/>
     </row>
     <row r="258" ht="21" customHeight="1">
-      <c r="A258" s="25"/>
-      <c r="B258" s="25"/>
-      <c r="C258" s="26"/>
+      <c r="A258" s="26"/>
+      <c r="B258" s="26"/>
+      <c r="C258" s="27"/>
       <c r="D258" s="5"/>
       <c r="E258" s="5"/>
       <c r="F258" s="5"/>
@@ -5331,8 +5486,8 @@
       <c r="H260" s="6"/>
     </row>
     <row r="261" ht="21" customHeight="1">
-      <c r="A261" s="29"/>
-      <c r="B261" s="29"/>
+      <c r="A261" s="25"/>
+      <c r="B261" s="25"/>
       <c r="C261" s="20"/>
       <c r="D261" s="5"/>
       <c r="E261" s="5"/>
@@ -5341,9 +5496,9 @@
       <c r="H261" s="6"/>
     </row>
     <row r="262" ht="21" customHeight="1">
-      <c r="A262" s="25"/>
-      <c r="B262" s="25"/>
-      <c r="C262" s="26"/>
+      <c r="A262" s="26"/>
+      <c r="B262" s="26"/>
+      <c r="C262" s="27"/>
       <c r="D262" s="5"/>
       <c r="E262" s="5"/>
       <c r="F262" s="5"/>
@@ -5351,9 +5506,9 @@
       <c r="H262" s="6"/>
     </row>
     <row r="263" ht="21" customHeight="1">
-      <c r="A263" s="25"/>
-      <c r="B263" s="25"/>
-      <c r="C263" s="26"/>
+      <c r="A263" s="26"/>
+      <c r="B263" s="26"/>
+      <c r="C263" s="27"/>
       <c r="D263" s="5"/>
       <c r="E263" s="5"/>
       <c r="F263" s="5"/>
@@ -5501,8 +5656,8 @@
       <c r="H277" s="6"/>
     </row>
     <row r="278" ht="21" customHeight="1">
-      <c r="A278" s="29"/>
-      <c r="B278" s="29"/>
+      <c r="A278" s="25"/>
+      <c r="B278" s="25"/>
       <c r="C278" s="20"/>
       <c r="D278" s="5"/>
       <c r="E278" s="5"/>
@@ -5511,9 +5666,9 @@
       <c r="H278" s="6"/>
     </row>
     <row r="279" ht="21" customHeight="1">
-      <c r="A279" s="25"/>
-      <c r="B279" s="25"/>
-      <c r="C279" s="26"/>
+      <c r="A279" s="26"/>
+      <c r="B279" s="26"/>
+      <c r="C279" s="27"/>
       <c r="D279" s="5"/>
       <c r="E279" s="5"/>
       <c r="F279" s="5"/>
@@ -5521,9 +5676,9 @@
       <c r="H279" s="6"/>
     </row>
     <row r="280" ht="21" customHeight="1">
-      <c r="A280" s="25"/>
-      <c r="B280" s="25"/>
-      <c r="C280" s="26"/>
+      <c r="A280" s="26"/>
+      <c r="B280" s="26"/>
+      <c r="C280" s="27"/>
       <c r="D280" s="5"/>
       <c r="E280" s="5"/>
       <c r="F280" s="5"/>
@@ -5651,8 +5806,8 @@
       <c r="H292" s="6"/>
     </row>
     <row r="293" ht="21" customHeight="1">
-      <c r="A293" s="29"/>
-      <c r="B293" s="29"/>
+      <c r="A293" s="25"/>
+      <c r="B293" s="25"/>
       <c r="C293" s="20"/>
       <c r="D293" s="5"/>
       <c r="E293" s="5"/>
@@ -5661,9 +5816,9 @@
       <c r="H293" s="6"/>
     </row>
     <row r="294" ht="21" customHeight="1">
-      <c r="A294" s="25"/>
-      <c r="B294" s="25"/>
-      <c r="C294" s="26"/>
+      <c r="A294" s="26"/>
+      <c r="B294" s="26"/>
+      <c r="C294" s="27"/>
       <c r="D294" s="5"/>
       <c r="E294" s="5"/>
       <c r="F294" s="5"/>
@@ -5721,8 +5876,8 @@
       <c r="H299" s="10"/>
     </row>
     <row r="300" ht="21" customHeight="1">
-      <c r="A300" s="29"/>
-      <c r="B300" s="29"/>
+      <c r="A300" s="25"/>
+      <c r="B300" s="25"/>
       <c r="C300" s="20"/>
       <c r="D300" s="5"/>
       <c r="E300" s="5"/>
@@ -5731,9 +5886,9 @@
       <c r="H300" s="11"/>
     </row>
     <row r="301" ht="21" customHeight="1">
-      <c r="A301" s="25"/>
-      <c r="B301" s="25"/>
-      <c r="C301" s="26"/>
+      <c r="A301" s="26"/>
+      <c r="B301" s="26"/>
+      <c r="C301" s="27"/>
       <c r="D301" s="5"/>
       <c r="E301" s="5"/>
       <c r="F301" s="5"/>
@@ -5951,8 +6106,8 @@
       <c r="H322" s="6"/>
     </row>
     <row r="323" ht="21" customHeight="1">
-      <c r="A323" s="29"/>
-      <c r="B323" s="29"/>
+      <c r="A323" s="25"/>
+      <c r="B323" s="25"/>
       <c r="C323" s="20"/>
       <c r="D323" s="5"/>
       <c r="E323" s="5"/>
@@ -5961,9 +6116,9 @@
       <c r="H323" s="6"/>
     </row>
     <row r="324" ht="21" customHeight="1">
-      <c r="A324" s="25"/>
-      <c r="B324" s="25"/>
-      <c r="C324" s="26"/>
+      <c r="A324" s="26"/>
+      <c r="B324" s="26"/>
+      <c r="C324" s="27"/>
       <c r="D324" s="5"/>
       <c r="E324" s="5"/>
       <c r="F324" s="5"/>
@@ -5971,9 +6126,9 @@
       <c r="H324" s="6"/>
     </row>
     <row r="325" ht="21" customHeight="1">
-      <c r="A325" s="25"/>
-      <c r="B325" s="25"/>
-      <c r="C325" s="26"/>
+      <c r="A325" s="26"/>
+      <c r="B325" s="26"/>
+      <c r="C325" s="27"/>
       <c r="D325" s="5"/>
       <c r="E325" s="5"/>
       <c r="F325" s="5"/>
@@ -5981,9 +6136,9 @@
       <c r="H325" s="6"/>
     </row>
     <row r="326" ht="21" customHeight="1">
-      <c r="A326" s="25"/>
-      <c r="B326" s="25"/>
-      <c r="C326" s="26"/>
+      <c r="A326" s="26"/>
+      <c r="B326" s="26"/>
+      <c r="C326" s="27"/>
       <c r="D326" s="5"/>
       <c r="E326" s="5"/>
       <c r="F326" s="5"/>
@@ -6051,8 +6206,8 @@
       <c r="H332" s="18"/>
     </row>
     <row r="333" ht="20.7" customHeight="1">
-      <c r="A333" s="29"/>
-      <c r="B333" s="29"/>
+      <c r="A333" s="25"/>
+      <c r="B333" s="25"/>
       <c r="C333" s="20"/>
       <c r="D333" s="20"/>
       <c r="E333" s="20"/>
@@ -6061,9 +6216,9 @@
       <c r="H333" s="21"/>
     </row>
     <row r="334" ht="21" customHeight="1">
-      <c r="A334" s="25"/>
-      <c r="B334" s="25"/>
-      <c r="C334" s="26"/>
+      <c r="A334" s="26"/>
+      <c r="B334" s="26"/>
+      <c r="C334" s="27"/>
       <c r="D334" s="5"/>
       <c r="E334" s="5"/>
       <c r="F334" s="5"/>
@@ -6071,9 +6226,9 @@
       <c r="H334" s="6"/>
     </row>
     <row r="335" ht="21" customHeight="1">
-      <c r="A335" s="25"/>
-      <c r="B335" s="25"/>
-      <c r="C335" s="26"/>
+      <c r="A335" s="26"/>
+      <c r="B335" s="26"/>
+      <c r="C335" s="27"/>
       <c r="D335" s="5"/>
       <c r="E335" s="5"/>
       <c r="F335" s="5"/>
@@ -6171,8 +6326,8 @@
       <c r="H344" s="10"/>
     </row>
     <row r="345" ht="21" customHeight="1">
-      <c r="A345" s="29"/>
-      <c r="B345" s="29"/>
+      <c r="A345" s="25"/>
+      <c r="B345" s="25"/>
       <c r="C345" s="20"/>
       <c r="D345" s="5"/>
       <c r="E345" s="5"/>
@@ -6181,9 +6336,9 @@
       <c r="H345" s="11"/>
     </row>
     <row r="346" ht="21" customHeight="1">
-      <c r="A346" s="25"/>
-      <c r="B346" s="25"/>
-      <c r="C346" s="26"/>
+      <c r="A346" s="26"/>
+      <c r="B346" s="26"/>
+      <c r="C346" s="27"/>
       <c r="D346" s="5"/>
       <c r="E346" s="5"/>
       <c r="F346" s="5"/>

--- a/cw12022023.xlsx
+++ b/cw12022023.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="288">
   <si>
     <t>Surname</t>
   </si>
@@ -115,6 +115,12 @@
     <t>H220444P</t>
   </si>
   <si>
+    <t>Chidhakwa</t>
+  </si>
+  <si>
+    <t>H220356V</t>
+  </si>
+  <si>
     <t>Chihwanda</t>
   </si>
   <si>
@@ -148,6 +154,12 @@
     <t>HEPT</t>
   </si>
   <si>
+    <t>Chingovo</t>
+  </si>
+  <si>
+    <t>H220101H</t>
+  </si>
+  <si>
     <t>Chinyerere</t>
   </si>
   <si>
@@ -211,6 +223,12 @@
     <t>H220288T</t>
   </si>
   <si>
+    <t>Dzingira</t>
+  </si>
+  <si>
+    <t>H220286E</t>
+  </si>
+  <si>
     <t>Foroma</t>
   </si>
   <si>
@@ -259,6 +277,12 @@
     <t>H220126G</t>
   </si>
   <si>
+    <t>Kaboti</t>
+  </si>
+  <si>
+    <t>H190340F</t>
+  </si>
+  <si>
     <t>Kandi</t>
   </si>
   <si>
@@ -295,6 +319,12 @@
     <t>H220285F</t>
   </si>
   <si>
+    <t>Lungu</t>
+  </si>
+  <si>
+    <t>H220326C</t>
+  </si>
+  <si>
     <t>Mabehlya</t>
   </si>
   <si>
@@ -319,6 +349,12 @@
     <t>H210337P</t>
   </si>
   <si>
+    <t>Madzokere</t>
+  </si>
+  <si>
+    <t>H220376N</t>
+  </si>
+  <si>
     <t>Madzokora</t>
   </si>
   <si>
@@ -337,6 +373,12 @@
     <t>H220534J</t>
   </si>
   <si>
+    <t>Makanyire</t>
+  </si>
+  <si>
+    <t>H220032F</t>
+  </si>
+  <si>
     <t>Makuyana</t>
   </si>
   <si>
@@ -367,6 +409,12 @@
     <t>H220055X</t>
   </si>
   <si>
+    <t>Manjeru</t>
+  </si>
+  <si>
+    <t>H220525Z</t>
+  </si>
+  <si>
     <t>Maponde</t>
   </si>
   <si>
@@ -553,6 +601,12 @@
     <t>H220598P</t>
   </si>
   <si>
+    <t>Mupfudze</t>
+  </si>
+  <si>
+    <t>H220559Y</t>
+  </si>
+  <si>
     <t>Mupini</t>
   </si>
   <si>
@@ -661,6 +715,12 @@
     <t>H220061Q</t>
   </si>
   <si>
+    <t>Nyathi</t>
+  </si>
+  <si>
+    <t>H220486J</t>
+  </si>
+  <si>
     <t>Nyikayaramba</t>
   </si>
   <si>
@@ -791,6 +851,12 @@
   </si>
   <si>
     <t>H220054M</t>
+  </si>
+  <si>
+    <t>Zimudyi</t>
+  </si>
+  <si>
+    <t>H220191P</t>
   </si>
   <si>
     <t>Zinyama</t>
@@ -1141,25 +1207,25 @@
     <xf numFmtId="2" fontId="0" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1168,10 +1234,10 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2487,10 +2553,10 @@
       <c r="J10" s="7"/>
     </row>
     <row r="11" ht="21" customHeight="1">
-      <c r="A11" t="s" s="4">
+      <c r="A11" t="s" s="5">
         <v>32</v>
       </c>
-      <c r="B11" t="s" s="4">
+      <c r="B11" t="s" s="5">
         <v>33</v>
       </c>
       <c r="C11" t="s" s="5">
@@ -2504,16 +2570,16 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="12"/>
+      <c r="J11" s="7"/>
     </row>
     <row r="12" ht="21" customHeight="1">
-      <c r="A12" t="s" s="9">
+      <c r="A12" t="s" s="4">
         <v>34</v>
       </c>
-      <c r="B12" t="s" s="9">
+      <c r="B12" t="s" s="4">
         <v>35</v>
       </c>
-      <c r="C12" t="s" s="10">
+      <c r="C12" t="s" s="5">
         <v>18</v>
       </c>
       <c r="D12" s="6"/>
@@ -2524,66 +2590,66 @@
         <v>0.777777777777778</v>
       </c>
       <c r="I12" s="6"/>
-      <c r="J12" s="13"/>
+      <c r="J12" s="12"/>
     </row>
     <row r="13" ht="21" customHeight="1">
-      <c r="A13" t="s" s="5">
+      <c r="A13" t="s" s="9">
         <v>36</v>
       </c>
-      <c r="B13" t="s" s="5">
+      <c r="B13" t="s" s="9">
         <v>37</v>
       </c>
-      <c r="C13" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="D13" s="6">
-        <v>0.285714285714286</v>
-      </c>
+      <c r="C13" t="s" s="10">
+        <v>18</v>
+      </c>
+      <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+      <c r="H13" s="6">
+        <v>0.777777777777778</v>
+      </c>
       <c r="I13" s="6"/>
-      <c r="J13" s="14"/>
+      <c r="J13" s="13"/>
     </row>
     <row r="14" ht="21" customHeight="1">
-      <c r="A14" t="s" s="4">
+      <c r="A14" t="s" s="5">
         <v>38</v>
       </c>
-      <c r="B14" t="s" s="4">
+      <c r="B14" t="s" s="5">
         <v>39</v>
       </c>
       <c r="C14" t="s" s="5">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D14" s="6">
-        <v>0.69047619047619</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="7"/>
+      <c r="J14" s="14"/>
     </row>
     <row r="15" ht="21" customHeight="1">
-      <c r="A15" t="s" s="11">
+      <c r="A15" t="s" s="4">
         <v>40</v>
       </c>
-      <c r="B15" t="s" s="11">
+      <c r="B15" t="s" s="4">
         <v>41</v>
       </c>
-      <c r="C15" t="s" s="15">
+      <c r="C15" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="D15" s="16">
-        <v>0.761904761904762</v>
-      </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
+      <c r="D15" s="6">
+        <v>0.69047619047619</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
       <c r="J15" s="7"/>
     </row>
     <row r="16" ht="21" customHeight="1">
@@ -2593,38 +2659,38 @@
       <c r="B16" t="s" s="11">
         <v>43</v>
       </c>
-      <c r="C16" t="s" s="17">
+      <c r="C16" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="D16" s="16">
+        <v>0.761904761904762</v>
+      </c>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="7"/>
+    </row>
+    <row r="17" ht="21" customHeight="1">
+      <c r="A17" t="s" s="9">
         <v>44</v>
       </c>
-      <c r="D16" s="18">
+      <c r="B17" t="s" s="9">
+        <v>45</v>
+      </c>
+      <c r="C17" t="s" s="17">
+        <v>46</v>
+      </c>
+      <c r="D17" s="18">
         <v>0.738095238095238</v>
       </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="12"/>
-    </row>
-    <row r="17" ht="21" customHeight="1">
-      <c r="A17" t="s" s="8">
-        <v>45</v>
-      </c>
-      <c r="B17" t="s" s="8">
-        <v>46</v>
-      </c>
-      <c r="C17" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="D17" s="6">
-        <v>0.595238095238095</v>
-      </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="13"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="12"/>
     </row>
     <row r="18" ht="20.7" customHeight="1">
       <c r="A18" t="s" s="4">
@@ -2636,39 +2702,37 @@
       <c r="C18" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D18" s="19">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
       <c r="H18" s="6">
-        <v>0.805555555555556</v>
-      </c>
-      <c r="I18" s="20"/>
-      <c r="J18" s="21"/>
+        <v>0.777777777777778</v>
+      </c>
+      <c r="I18" s="19"/>
+      <c r="J18" s="20"/>
     </row>
     <row r="19" ht="21" customHeight="1">
-      <c r="A19" t="s" s="9">
+      <c r="A19" t="s" s="8">
         <v>49</v>
       </c>
-      <c r="B19" t="s" s="9">
+      <c r="B19" t="s" s="8">
         <v>50</v>
       </c>
-      <c r="C19" t="s" s="10">
+      <c r="C19" t="s" s="5">
         <v>21</v>
       </c>
       <c r="D19" s="6">
-        <v>0.880952380952381</v>
+        <v>0.595238095238095</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
-      <c r="J19" s="7"/>
-    </row>
-    <row r="20" ht="21" customHeight="1">
+      <c r="J19" s="13"/>
+    </row>
+    <row r="20" ht="20.7" customHeight="1">
       <c r="A20" t="s" s="4">
         <v>51</v>
       </c>
@@ -2676,163 +2740,167 @@
         <v>52</v>
       </c>
       <c r="C20" t="s" s="5">
+        <v>18</v>
+      </c>
+      <c r="D20" s="21">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="6">
+        <v>0.805555555555556</v>
+      </c>
+      <c r="I20" s="19"/>
+      <c r="J20" s="22"/>
+    </row>
+    <row r="21" ht="21" customHeight="1">
+      <c r="A21" t="s" s="9">
+        <v>53</v>
+      </c>
+      <c r="B21" t="s" s="9">
+        <v>54</v>
+      </c>
+      <c r="C21" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0.880952380952381</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="I21" s="6"/>
+      <c r="J21" s="7"/>
+    </row>
+    <row r="22" ht="21" customHeight="1">
+      <c r="A22" t="s" s="4">
+        <v>55</v>
+      </c>
+      <c r="B22" t="s" s="4">
+        <v>56</v>
+      </c>
+      <c r="C22" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D22" s="6">
         <v>0.666666666666667</v>
       </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="12"/>
-    </row>
-    <row r="21" ht="20.7" customHeight="1">
-      <c r="A21" t="s" s="8">
-        <v>53</v>
-      </c>
-      <c r="B21" t="s" s="8">
-        <v>54</v>
-      </c>
-      <c r="C21" t="s" s="5">
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="12"/>
+    </row>
+    <row r="23" ht="20.7" customHeight="1">
+      <c r="A23" t="s" s="8">
+        <v>57</v>
+      </c>
+      <c r="B23" t="s" s="8">
+        <v>58</v>
+      </c>
+      <c r="C23" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="6">
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="6">
         <v>0.805555555555556</v>
       </c>
-      <c r="I21" s="20"/>
-      <c r="J21" s="22"/>
-    </row>
-    <row r="22" ht="20.7" customHeight="1">
-      <c r="A22" t="s" s="5">
-        <v>55</v>
-      </c>
-      <c r="B22" t="s" s="5">
-        <v>56</v>
-      </c>
-      <c r="C22" t="s" s="5">
+      <c r="I23" s="19"/>
+      <c r="J23" s="20"/>
+    </row>
+    <row r="24" ht="20.7" customHeight="1">
+      <c r="A24" t="s" s="5">
+        <v>59</v>
+      </c>
+      <c r="B24" t="s" s="5">
+        <v>60</v>
+      </c>
+      <c r="C24" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D24" s="6">
         <v>0.214285714285714</v>
       </c>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="21"/>
-    </row>
-    <row r="23" ht="21" customHeight="1">
-      <c r="A23" t="s" s="5">
-        <v>57</v>
-      </c>
-      <c r="B23" t="s" s="5">
-        <v>58</v>
-      </c>
-      <c r="C23" t="s" s="5">
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="22"/>
+    </row>
+    <row r="25" ht="21" customHeight="1">
+      <c r="A25" t="s" s="5">
+        <v>61</v>
+      </c>
+      <c r="B25" t="s" s="5">
+        <v>62</v>
+      </c>
+      <c r="C25" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D25" s="6">
         <v>0.833333333333333</v>
-      </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="7"/>
-    </row>
-    <row r="24" ht="21" customHeight="1">
-      <c r="A24" t="s" s="4">
-        <v>59</v>
-      </c>
-      <c r="B24" t="s" s="4">
-        <v>60</v>
-      </c>
-      <c r="C24" t="s" s="5">
-        <v>61</v>
-      </c>
-      <c r="D24" s="6">
-        <v>0.904761904761905</v>
-      </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="12"/>
-    </row>
-    <row r="25" ht="21" customHeight="1">
-      <c r="A25" t="s" s="23">
-        <v>62</v>
-      </c>
-      <c r="B25" t="s" s="23">
-        <v>63</v>
-      </c>
-      <c r="C25" t="s" s="5">
-        <v>61</v>
-      </c>
-      <c r="D25" s="6">
-        <v>0.595238095238095</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
-      <c r="J25" s="13"/>
+      <c r="J25" s="7"/>
     </row>
     <row r="26" ht="21" customHeight="1">
-      <c r="A26" t="s" s="23">
+      <c r="A26" t="s" s="4">
+        <v>63</v>
+      </c>
+      <c r="B26" t="s" s="4">
         <v>64</v>
       </c>
-      <c r="B26" t="s" s="23">
+      <c r="C26" t="s" s="5">
         <v>65</v>
       </c>
-      <c r="C26" t="s" s="5">
-        <v>18</v>
-      </c>
       <c r="D26" s="6">
-        <v>0.571428571428571</v>
+        <v>0.904761904761905</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
-      <c r="J26" s="14"/>
+      <c r="J26" s="12"/>
     </row>
     <row r="27" ht="21" customHeight="1">
-      <c r="A27" t="s" s="9">
+      <c r="A27" t="s" s="23">
         <v>66</v>
       </c>
-      <c r="B27" t="s" s="9">
+      <c r="B27" t="s" s="23">
         <v>67</v>
       </c>
-      <c r="C27" t="s" s="10">
-        <v>44</v>
+      <c r="C27" t="s" s="5">
+        <v>65</v>
       </c>
       <c r="D27" s="6">
-        <v>0.761904761904762</v>
+        <v>0.595238095238095</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
-      <c r="J27" s="7"/>
+      <c r="J27" s="13"/>
     </row>
     <row r="28" ht="21" customHeight="1">
-      <c r="A28" t="s" s="5">
+      <c r="A28" t="s" s="8">
         <v>68</v>
       </c>
-      <c r="B28" t="s" s="5">
+      <c r="B28" t="s" s="8">
         <v>69</v>
       </c>
       <c r="C28" t="s" s="5">
@@ -2845,208 +2913,210 @@
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6">
-        <v>0.555555555555556</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I28" s="6"/>
-      <c r="J28" s="7"/>
-    </row>
-    <row r="29" ht="21" customHeight="1">
-      <c r="A29" t="s" s="5">
+      <c r="J28" s="13"/>
+    </row>
+    <row r="29" ht="20.7" customHeight="1">
+      <c r="A29" t="s" s="4">
         <v>70</v>
       </c>
-      <c r="B29" t="s" s="5">
+      <c r="B29" t="s" s="4">
         <v>71</v>
       </c>
       <c r="C29" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="D29" s="6">
-        <v>0.476190476190476</v>
-      </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="12"/>
-    </row>
-    <row r="30" ht="20.35" customHeight="1">
-      <c r="A30" t="s" s="4">
+        <v>21</v>
+      </c>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="6">
+        <v>0.777777777777778</v>
+      </c>
+      <c r="I29" s="19"/>
+      <c r="J29" s="22"/>
+    </row>
+    <row r="30" ht="21" customHeight="1">
+      <c r="A30" t="s" s="9">
         <v>72</v>
       </c>
-      <c r="B30" t="s" s="4">
+      <c r="B30" t="s" s="9">
         <v>73</v>
       </c>
-      <c r="C30" t="s" s="5">
+      <c r="C30" t="s" s="10">
+        <v>46</v>
+      </c>
+      <c r="D30" s="6">
+        <v>0.761904761904762</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="7"/>
+    </row>
+    <row r="31" ht="21" customHeight="1">
+      <c r="A31" t="s" s="5">
+        <v>74</v>
+      </c>
+      <c r="B31" t="s" s="5">
+        <v>75</v>
+      </c>
+      <c r="C31" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="6">
-        <v>0.777777777777778</v>
-      </c>
-      <c r="I30" s="20"/>
-      <c r="J30" s="21"/>
-    </row>
-    <row r="31" ht="21" customHeight="1">
-      <c r="A31" t="s" s="11">
-        <v>74</v>
-      </c>
-      <c r="B31" t="s" s="11">
-        <v>75</v>
-      </c>
-      <c r="C31" t="s" s="10">
-        <v>18</v>
-      </c>
-      <c r="D31" s="6"/>
+      <c r="D31" s="6">
+        <v>0.571428571428571</v>
+      </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6">
-        <v>0.75</v>
+        <v>0.555555555555556</v>
       </c>
       <c r="I31" s="6"/>
-      <c r="J31" s="12"/>
+      <c r="J31" s="7"/>
     </row>
     <row r="32" ht="21" customHeight="1">
-      <c r="A32" t="s" s="8">
+      <c r="A32" t="s" s="5">
         <v>76</v>
       </c>
-      <c r="B32" t="s" s="8">
+      <c r="B32" t="s" s="5">
         <v>77</v>
       </c>
       <c r="C32" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D32" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="D32" s="6">
+        <v>0.476190476190476</v>
+      </c>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
-      <c r="H32" s="6">
-        <v>0.75</v>
-      </c>
+      <c r="H32" s="6"/>
       <c r="I32" s="6"/>
-      <c r="J32" s="13"/>
-    </row>
-    <row r="33" ht="20.7" customHeight="1">
-      <c r="A33" t="s" s="5">
+      <c r="J32" s="12"/>
+    </row>
+    <row r="33" ht="20.35" customHeight="1">
+      <c r="A33" t="s" s="4">
         <v>78</v>
       </c>
-      <c r="B33" t="s" s="5">
+      <c r="B33" t="s" s="4">
         <v>79</v>
       </c>
       <c r="C33" t="s" s="5">
-        <v>44</v>
-      </c>
-      <c r="D33" s="19">
-        <v>0.80952380952381</v>
-      </c>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="21"/>
+        <v>18</v>
+      </c>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="6">
+        <v>0.777777777777778</v>
+      </c>
+      <c r="I33" s="19"/>
+      <c r="J33" s="22"/>
     </row>
     <row r="34" ht="21" customHeight="1">
-      <c r="A34" t="s" s="5">
+      <c r="A34" t="s" s="11">
         <v>80</v>
       </c>
-      <c r="B34" t="s" s="5">
+      <c r="B34" t="s" s="11">
         <v>81</v>
       </c>
-      <c r="C34" t="s" s="5">
+      <c r="C34" t="s" s="10">
         <v>18</v>
       </c>
-      <c r="D34" s="6">
-        <v>0.714285714285714</v>
-      </c>
+      <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
+      <c r="H34" s="6">
+        <v>0.75</v>
+      </c>
       <c r="I34" s="6"/>
-      <c r="J34" s="7"/>
+      <c r="J34" s="12"/>
     </row>
     <row r="35" ht="21" customHeight="1">
-      <c r="A35" t="s" s="5">
+      <c r="A35" t="s" s="8">
         <v>82</v>
       </c>
-      <c r="B35" t="s" s="5">
+      <c r="B35" t="s" s="8">
         <v>83</v>
       </c>
       <c r="C35" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D35" s="6">
-        <v>0.619047619047619</v>
-      </c>
+      <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
+      <c r="H35" s="6">
+        <v>0.75</v>
+      </c>
       <c r="I35" s="6"/>
-      <c r="J35" s="12"/>
-    </row>
-    <row r="36" ht="21" customHeight="1">
-      <c r="A36" t="s" s="4">
+      <c r="J35" s="13"/>
+    </row>
+    <row r="36" ht="20.7" customHeight="1">
+      <c r="A36" t="s" s="5">
         <v>84</v>
       </c>
-      <c r="B36" t="s" s="4">
+      <c r="B36" t="s" s="5">
         <v>85</v>
       </c>
       <c r="C36" t="s" s="5">
-        <v>15</v>
-      </c>
-      <c r="D36" s="6">
-        <v>0.595238095238095</v>
-      </c>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
+        <v>46</v>
+      </c>
+      <c r="D36" s="21">
+        <v>0.80952380952381</v>
+      </c>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
       <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="13"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="22"/>
     </row>
     <row r="37" ht="21" customHeight="1">
-      <c r="A37" t="s" s="8">
+      <c r="A37" t="s" s="4">
         <v>86</v>
       </c>
-      <c r="B37" t="s" s="8">
+      <c r="B37" t="s" s="4">
         <v>87</v>
       </c>
       <c r="C37" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D37" s="6"/>
+      <c r="D37" s="6">
+        <v>0.714285714285714</v>
+      </c>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6">
-        <v>0.777777777777778</v>
+        <v>0.694444444444444</v>
       </c>
       <c r="I37" s="6"/>
-      <c r="J37" s="14"/>
+      <c r="J37" s="7"/>
     </row>
     <row r="38" ht="21" customHeight="1">
-      <c r="A38" t="s" s="5">
+      <c r="A38" t="s" s="9">
         <v>88</v>
       </c>
-      <c r="B38" t="s" s="5">
+      <c r="B38" t="s" s="9">
         <v>89</v>
       </c>
-      <c r="C38" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="D38" s="6">
-        <v>0.69047619047619</v>
-      </c>
+      <c r="C38" s="24"/>
+      <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
+      <c r="H38" s="6">
+        <v>0.694444444444444</v>
+      </c>
       <c r="I38" s="6"/>
       <c r="J38" s="7"/>
     </row>
@@ -3058,7 +3128,7 @@
         <v>91</v>
       </c>
       <c r="C39" t="s" s="5">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="D39" s="6">
         <v>0.619047619047619</v>
@@ -3068,47 +3138,47 @@
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
-      <c r="J39" s="7"/>
+      <c r="J39" s="12"/>
     </row>
     <row r="40" ht="21" customHeight="1">
-      <c r="A40" t="s" s="5">
+      <c r="A40" t="s" s="4">
         <v>92</v>
       </c>
-      <c r="B40" t="s" s="5">
+      <c r="B40" t="s" s="4">
         <v>93</v>
       </c>
       <c r="C40" t="s" s="5">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="D40" s="6">
-        <v>0.80952380952381</v>
+        <v>0.595238095238095</v>
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
-      <c r="J40" s="7"/>
+      <c r="J40" s="13"/>
     </row>
     <row r="41" ht="21" customHeight="1">
-      <c r="A41" t="s" s="5">
+      <c r="A41" t="s" s="8">
         <v>94</v>
       </c>
-      <c r="B41" t="s" s="5">
+      <c r="B41" t="s" s="8">
         <v>95</v>
       </c>
       <c r="C41" t="s" s="5">
-        <v>44</v>
-      </c>
-      <c r="D41" s="6">
-        <v>0.761904761904762</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
+      <c r="H41" s="6">
+        <v>0.777777777777778</v>
+      </c>
       <c r="I41" s="6"/>
-      <c r="J41" s="7"/>
+      <c r="J41" s="14"/>
     </row>
     <row r="42" ht="21" customHeight="1">
       <c r="A42" t="s" s="5">
@@ -3121,16 +3191,16 @@
         <v>12</v>
       </c>
       <c r="D42" s="6">
-        <v>0.714285714285714</v>
+        <v>0.69047619047619</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
-      <c r="J42" s="12"/>
-    </row>
-    <row r="43" ht="20.7" customHeight="1">
+      <c r="J42" s="7"/>
+    </row>
+    <row r="43" ht="21" customHeight="1">
       <c r="A43" t="s" s="5">
         <v>98</v>
       </c>
@@ -3138,17 +3208,17 @@
         <v>99</v>
       </c>
       <c r="C43" t="s" s="5">
-        <v>61</v>
-      </c>
-      <c r="D43" s="24">
-        <v>0.857142857142857</v>
-      </c>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
+        <v>46</v>
+      </c>
+      <c r="D43" s="6">
+        <v>0.619047619047619</v>
+      </c>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
       <c r="H43" s="6"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="21"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="7"/>
     </row>
     <row r="44" ht="21" customHeight="1">
       <c r="A44" t="s" s="5">
@@ -3158,17 +3228,17 @@
         <v>101</v>
       </c>
       <c r="C44" t="s" s="5">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D44" s="6">
-        <v>0.452380952380952</v>
+        <v>0.80952380952381</v>
       </c>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
-      <c r="J44" s="12"/>
+      <c r="J44" s="7"/>
     </row>
     <row r="45" ht="21" customHeight="1">
       <c r="A45" t="s" s="5">
@@ -3177,31 +3247,29 @@
       <c r="B45" t="s" s="5">
         <v>103</v>
       </c>
-      <c r="C45" t="s" s="5">
-        <v>44</v>
-      </c>
-      <c r="D45" s="6">
-        <v>0.619047619047619</v>
-      </c>
+      <c r="C45" s="19"/>
+      <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
+      <c r="H45" s="6">
+        <v>0.694444444444444</v>
+      </c>
       <c r="I45" s="6"/>
-      <c r="J45" s="14"/>
+      <c r="J45" s="7"/>
     </row>
     <row r="46" ht="21" customHeight="1">
-      <c r="A46" t="s" s="4">
+      <c r="A46" t="s" s="5">
         <v>104</v>
       </c>
-      <c r="B46" t="s" s="4">
+      <c r="B46" t="s" s="5">
         <v>105</v>
       </c>
       <c r="C46" t="s" s="5">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="D46" s="6">
-        <v>0.619047619047619</v>
+        <v>0.761904761904762</v>
       </c>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
@@ -3211,26 +3279,26 @@
       <c r="J46" s="7"/>
     </row>
     <row r="47" ht="21" customHeight="1">
-      <c r="A47" t="s" s="9">
+      <c r="A47" t="s" s="5">
         <v>106</v>
       </c>
-      <c r="B47" t="s" s="9">
+      <c r="B47" t="s" s="5">
         <v>107</v>
       </c>
-      <c r="C47" t="s" s="10">
-        <v>61</v>
+      <c r="C47" t="s" s="5">
+        <v>12</v>
       </c>
       <c r="D47" s="6">
-        <v>0.5238095238095239</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
-      <c r="J47" s="7"/>
-    </row>
-    <row r="48" ht="21" customHeight="1">
+      <c r="J47" s="12"/>
+    </row>
+    <row r="48" ht="20.7" customHeight="1">
       <c r="A48" t="s" s="5">
         <v>108</v>
       </c>
@@ -3238,70 +3306,70 @@
         <v>109</v>
       </c>
       <c r="C48" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D48" s="6">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
+        <v>65</v>
+      </c>
+      <c r="D48" s="25">
+        <v>0.857142857142857</v>
+      </c>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
       <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="12"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="22"/>
     </row>
     <row r="49" ht="21" customHeight="1">
-      <c r="A49" t="s" s="4">
+      <c r="A49" t="s" s="5">
         <v>110</v>
       </c>
-      <c r="B49" t="s" s="4">
+      <c r="B49" t="s" s="5">
         <v>111</v>
       </c>
       <c r="C49" t="s" s="5">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="D49" s="6">
-        <v>0.595238095238095</v>
+        <v>0.452380952380952</v>
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
-      <c r="J49" s="14"/>
+      <c r="J49" s="12"/>
     </row>
     <row r="50" ht="21" customHeight="1">
-      <c r="A50" t="s" s="9">
+      <c r="A50" t="s" s="5">
         <v>112</v>
       </c>
-      <c r="B50" t="s" s="9">
+      <c r="B50" t="s" s="5">
         <v>113</v>
       </c>
-      <c r="C50" t="s" s="10">
-        <v>12</v>
-      </c>
-      <c r="D50" s="6">
-        <v>0.5</v>
-      </c>
+      <c r="C50" t="s" s="5">
+        <v>18</v>
+      </c>
+      <c r="D50" s="6"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
+      <c r="H50" s="6">
+        <v>0.777777777777778</v>
+      </c>
       <c r="I50" s="6"/>
-      <c r="J50" s="12"/>
+      <c r="J50" s="13"/>
     </row>
     <row r="51" ht="21" customHeight="1">
-      <c r="A51" t="s" s="4">
+      <c r="A51" t="s" s="5">
         <v>114</v>
       </c>
-      <c r="B51" t="s" s="4">
+      <c r="B51" t="s" s="5">
         <v>115</v>
       </c>
       <c r="C51" t="s" s="5">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="D51" s="6">
-        <v>0.69047619047619</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
@@ -3311,62 +3379,62 @@
       <c r="J51" s="14"/>
     </row>
     <row r="52" ht="21" customHeight="1">
-      <c r="A52" t="s" s="8">
+      <c r="A52" t="s" s="4">
         <v>116</v>
       </c>
-      <c r="B52" t="s" s="8">
+      <c r="B52" t="s" s="4">
         <v>117</v>
       </c>
       <c r="C52" t="s" s="5">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D52" s="6">
-        <v>0.571428571428571</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
-      <c r="J52" s="12"/>
-    </row>
-    <row r="53" ht="20.7" customHeight="1">
-      <c r="A53" t="s" s="5">
+      <c r="J52" s="7"/>
+    </row>
+    <row r="53" ht="21" customHeight="1">
+      <c r="A53" t="s" s="11">
         <v>118</v>
       </c>
-      <c r="B53" t="s" s="5">
+      <c r="B53" t="s" s="11">
         <v>119</v>
       </c>
-      <c r="C53" t="s" s="5">
+      <c r="C53" t="s" s="10">
+        <v>65</v>
+      </c>
+      <c r="D53" s="6">
+        <v>0.5238095238095239</v>
+      </c>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="7"/>
+    </row>
+    <row r="54" ht="21" customHeight="1">
+      <c r="A54" t="s" s="8">
+        <v>120</v>
+      </c>
+      <c r="B54" t="s" s="8">
+        <v>121</v>
+      </c>
+      <c r="C54" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="D53" s="19">
-        <v>0.5238095238095239</v>
-      </c>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="20"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="20"/>
-      <c r="J53" s="21"/>
-    </row>
-    <row r="54" ht="21" customHeight="1">
-      <c r="A54" t="s" s="5">
-        <v>120</v>
-      </c>
-      <c r="B54" t="s" s="5">
-        <v>121</v>
-      </c>
-      <c r="C54" t="s" s="5">
-        <v>15</v>
-      </c>
-      <c r="D54" s="6">
-        <v>0.666666666666667</v>
-      </c>
+      <c r="D54" s="6"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
+      <c r="H54" s="6">
+        <v>0.75</v>
+      </c>
       <c r="I54" s="6"/>
       <c r="J54" s="7"/>
     </row>
@@ -3390,85 +3458,85 @@
       <c r="I55" s="6"/>
       <c r="J55" s="12"/>
     </row>
-    <row r="56" ht="20.05" customHeight="1">
-      <c r="A56" t="s" s="5">
+    <row r="56" ht="21" customHeight="1">
+      <c r="A56" t="s" s="4">
         <v>124</v>
       </c>
-      <c r="B56" t="s" s="5">
+      <c r="B56" t="s" s="4">
         <v>125</v>
       </c>
       <c r="C56" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="20"/>
-      <c r="H56" s="6">
-        <v>0.777777777777778</v>
-      </c>
-      <c r="I56" s="20"/>
-      <c r="J56" s="21"/>
+        <v>15</v>
+      </c>
+      <c r="D56" s="6">
+        <v>0.595238095238095</v>
+      </c>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="14"/>
     </row>
     <row r="57" ht="21" customHeight="1">
-      <c r="A57" t="s" s="5">
+      <c r="A57" t="s" s="9">
         <v>126</v>
       </c>
-      <c r="B57" t="s" s="5">
+      <c r="B57" t="s" s="9">
         <v>127</v>
       </c>
-      <c r="C57" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D57" s="6"/>
+      <c r="C57" t="s" s="10">
+        <v>12</v>
+      </c>
+      <c r="D57" s="6">
+        <v>0.5</v>
+      </c>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
-      <c r="H57" s="6">
-        <v>0.555555555555556</v>
-      </c>
+      <c r="H57" s="6"/>
       <c r="I57" s="6"/>
       <c r="J57" s="12"/>
     </row>
-    <row r="58" ht="20.7" customHeight="1">
-      <c r="A58" t="s" s="5">
+    <row r="58" ht="21" customHeight="1">
+      <c r="A58" t="s" s="4">
         <v>128</v>
       </c>
-      <c r="B58" t="s" s="5">
+      <c r="B58" t="s" s="4">
         <v>129</v>
       </c>
       <c r="C58" t="s" s="5">
-        <v>61</v>
-      </c>
-      <c r="D58" s="19">
-        <v>0.452380952380952</v>
-      </c>
-      <c r="E58" s="20"/>
-      <c r="F58" s="20"/>
-      <c r="G58" s="20"/>
+        <v>18</v>
+      </c>
+      <c r="D58" s="6">
+        <v>0.69047619047619</v>
+      </c>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
       <c r="H58" s="6"/>
-      <c r="I58" s="20"/>
-      <c r="J58" s="22"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="14"/>
     </row>
     <row r="59" ht="21" customHeight="1">
-      <c r="A59" t="s" s="5">
+      <c r="A59" t="s" s="8">
         <v>130</v>
       </c>
-      <c r="B59" t="s" s="5">
+      <c r="B59" t="s" s="8">
         <v>131</v>
       </c>
       <c r="C59" t="s" s="5">
         <v>21</v>
       </c>
       <c r="D59" s="6">
-        <v>0.5</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
-      <c r="J59" s="14"/>
+      <c r="J59" s="7"/>
     </row>
     <row r="60" ht="21" customHeight="1">
       <c r="A60" t="s" s="5">
@@ -3477,20 +3545,18 @@
       <c r="B60" t="s" s="5">
         <v>133</v>
       </c>
-      <c r="C60" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="D60" s="6">
-        <v>0.595238095238095</v>
-      </c>
+      <c r="C60" s="19"/>
+      <c r="D60" s="6"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
+      <c r="H60" s="6">
+        <v>0.694444444444444</v>
+      </c>
       <c r="I60" s="6"/>
-      <c r="J60" s="7"/>
-    </row>
-    <row r="61" ht="21" customHeight="1">
+      <c r="J60" s="12"/>
+    </row>
+    <row r="61" ht="20.7" customHeight="1">
       <c r="A61" t="s" s="5">
         <v>134</v>
       </c>
@@ -3498,17 +3564,19 @@
         <v>135</v>
       </c>
       <c r="C61" t="s" s="5">
-        <v>61</v>
-      </c>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="D61" s="21">
+        <v>0.5238095238095239</v>
+      </c>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="19"/>
       <c r="H61" s="6">
         <v>0.777777777777778</v>
       </c>
-      <c r="I61" s="6"/>
-      <c r="J61" s="7"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="22"/>
     </row>
     <row r="62" ht="21" customHeight="1">
       <c r="A62" t="s" s="5">
@@ -3517,94 +3585,100 @@
       <c r="B62" t="s" s="5">
         <v>137</v>
       </c>
-      <c r="C62" s="20"/>
-      <c r="D62" s="6"/>
+      <c r="C62" t="s" s="5">
+        <v>15</v>
+      </c>
+      <c r="D62" s="6">
+        <v>0.666666666666667</v>
+      </c>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
-      <c r="H62" s="6">
-        <v>0.388888888888889</v>
-      </c>
+      <c r="H62" s="6"/>
       <c r="I62" s="6"/>
-      <c r="J62" s="12"/>
+      <c r="J62" s="7"/>
     </row>
     <row r="63" ht="21" customHeight="1">
-      <c r="A63" t="s" s="4">
+      <c r="A63" t="s" s="5">
         <v>138</v>
       </c>
-      <c r="B63" t="s" s="4">
+      <c r="B63" t="s" s="5">
         <v>139</v>
       </c>
       <c r="C63" t="s" s="5">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D63" s="6">
-        <v>0.642857142857143</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
+      <c r="H63" s="6">
+        <v>0.694444444444444</v>
+      </c>
       <c r="I63" s="6"/>
-      <c r="J63" s="13"/>
-    </row>
-    <row r="64" ht="21" customHeight="1">
-      <c r="A64" t="s" s="8">
+      <c r="J63" s="12"/>
+    </row>
+    <row r="64" ht="20.05" customHeight="1">
+      <c r="A64" t="s" s="5">
         <v>140</v>
       </c>
-      <c r="B64" t="s" s="8">
+      <c r="B64" t="s" s="5">
         <v>141</v>
       </c>
       <c r="C64" t="s" s="5">
-        <v>15</v>
-      </c>
-      <c r="D64" s="6">
-        <v>0.619047619047619</v>
-      </c>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
-      <c r="J64" s="13"/>
-    </row>
-    <row r="65" ht="20.7" customHeight="1">
-      <c r="A65" t="s" s="4">
+        <v>18</v>
+      </c>
+      <c r="D64" s="19"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="19"/>
+      <c r="H64" s="6">
+        <v>0.777777777777778</v>
+      </c>
+      <c r="I64" s="19"/>
+      <c r="J64" s="22"/>
+    </row>
+    <row r="65" ht="21" customHeight="1">
+      <c r="A65" t="s" s="5">
         <v>142</v>
       </c>
-      <c r="B65" t="s" s="4">
+      <c r="B65" t="s" s="5">
         <v>143</v>
       </c>
       <c r="C65" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="D65" s="24">
-        <v>0.595238095238095</v>
-      </c>
-      <c r="E65" s="20"/>
-      <c r="F65" s="20"/>
-      <c r="G65" s="20"/>
-      <c r="H65" s="6"/>
-      <c r="I65" s="20"/>
-      <c r="J65" s="21"/>
-    </row>
-    <row r="66" ht="21" customHeight="1">
-      <c r="A66" t="s" s="9">
+        <v>18</v>
+      </c>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6">
+        <v>0.555555555555556</v>
+      </c>
+      <c r="I65" s="6"/>
+      <c r="J65" s="12"/>
+    </row>
+    <row r="66" ht="20.7" customHeight="1">
+      <c r="A66" t="s" s="5">
         <v>144</v>
       </c>
-      <c r="B66" t="s" s="9">
+      <c r="B66" t="s" s="5">
         <v>145</v>
       </c>
-      <c r="C66" s="25"/>
-      <c r="D66" s="6">
-        <v>0.80952380952381</v>
-      </c>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
+      <c r="C66" t="s" s="5">
+        <v>65</v>
+      </c>
+      <c r="D66" s="21">
+        <v>0.452380952380952</v>
+      </c>
+      <c r="E66" s="19"/>
+      <c r="F66" s="19"/>
+      <c r="G66" s="19"/>
       <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="12"/>
+      <c r="I66" s="19"/>
+      <c r="J66" s="20"/>
     </row>
     <row r="67" ht="21" customHeight="1">
       <c r="A67" t="s" s="5">
@@ -3614,59 +3688,59 @@
         <v>147</v>
       </c>
       <c r="C67" t="s" s="5">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D67" s="6">
-        <v>0.738095238095238</v>
+        <v>0.5</v>
       </c>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
       <c r="H67" s="6">
-        <v>0.861111111111111</v>
+        <v>0.75</v>
       </c>
       <c r="I67" s="6"/>
       <c r="J67" s="14"/>
     </row>
     <row r="68" ht="21" customHeight="1">
-      <c r="A68" t="s" s="4">
+      <c r="A68" t="s" s="5">
         <v>148</v>
       </c>
-      <c r="B68" t="s" s="4">
+      <c r="B68" t="s" s="5">
         <v>149</v>
       </c>
       <c r="C68" t="s" s="5">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="D68" s="6">
-        <v>0.738095238095238</v>
+        <v>0.595238095238095</v>
       </c>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
       <c r="I68" s="6"/>
-      <c r="J68" s="12"/>
+      <c r="J68" s="7"/>
     </row>
     <row r="69" ht="21" customHeight="1">
-      <c r="A69" t="s" s="8">
+      <c r="A69" t="s" s="5">
         <v>150</v>
       </c>
-      <c r="B69" t="s" s="8">
+      <c r="B69" t="s" s="5">
         <v>151</v>
       </c>
       <c r="C69" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D69" s="6">
-        <v>0.452380952380952</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="D69" s="6"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
-      <c r="H69" s="6"/>
+      <c r="H69" s="6">
+        <v>0.777777777777778</v>
+      </c>
       <c r="I69" s="6"/>
-      <c r="J69" s="14"/>
+      <c r="J69" s="7"/>
     </row>
     <row r="70" ht="21" customHeight="1">
       <c r="A70" t="s" s="5">
@@ -3675,20 +3749,16 @@
       <c r="B70" t="s" s="5">
         <v>153</v>
       </c>
-      <c r="C70" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D70" s="6">
-        <v>0.857142857142857</v>
-      </c>
+      <c r="C70" s="19"/>
+      <c r="D70" s="6"/>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
       <c r="H70" s="6">
-        <v>0.861111111111111</v>
+        <v>0.388888888888889</v>
       </c>
       <c r="I70" s="6"/>
-      <c r="J70" s="7"/>
+      <c r="J70" s="12"/>
     </row>
     <row r="71" ht="21" customHeight="1">
       <c r="A71" t="s" s="4">
@@ -3698,39 +3768,39 @@
         <v>155</v>
       </c>
       <c r="C71" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D71" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="D71" s="6">
+        <v>0.642857142857143</v>
+      </c>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
-      <c r="H71" s="6">
-        <v>0.777777777777778</v>
-      </c>
+      <c r="H71" s="6"/>
       <c r="I71" s="6"/>
-      <c r="J71" s="7"/>
+      <c r="J71" s="13"/>
     </row>
     <row r="72" ht="21" customHeight="1">
-      <c r="A72" t="s" s="9">
+      <c r="A72" t="s" s="8">
         <v>156</v>
       </c>
-      <c r="B72" t="s" s="9">
+      <c r="B72" t="s" s="8">
         <v>157</v>
       </c>
-      <c r="C72" t="s" s="10">
-        <v>18</v>
-      </c>
-      <c r="D72" s="6"/>
+      <c r="C72" t="s" s="5">
+        <v>15</v>
+      </c>
+      <c r="D72" s="6">
+        <v>0.619047619047619</v>
+      </c>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
-      <c r="H72" s="6">
-        <v>0.75</v>
-      </c>
+      <c r="H72" s="6"/>
       <c r="I72" s="6"/>
-      <c r="J72" s="7"/>
-    </row>
-    <row r="73" ht="21" customHeight="1">
+      <c r="J72" s="13"/>
+    </row>
+    <row r="73" ht="20.7" customHeight="1">
       <c r="A73" t="s" s="4">
         <v>158</v>
       </c>
@@ -3738,17 +3808,17 @@
         <v>159</v>
       </c>
       <c r="C73" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D73" s="6">
-        <v>0.738095238095238</v>
-      </c>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="D73" s="25">
+        <v>0.595238095238095</v>
+      </c>
+      <c r="E73" s="19"/>
+      <c r="F73" s="19"/>
+      <c r="G73" s="19"/>
       <c r="H73" s="6"/>
-      <c r="I73" s="6"/>
-      <c r="J73" s="7"/>
+      <c r="I73" s="19"/>
+      <c r="J73" s="22"/>
     </row>
     <row r="74" ht="21" customHeight="1">
       <c r="A74" t="s" s="9">
@@ -3757,18 +3827,16 @@
       <c r="B74" t="s" s="9">
         <v>161</v>
       </c>
-      <c r="C74" t="s" s="10">
-        <v>18</v>
-      </c>
-      <c r="D74" s="6"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="6">
+        <v>0.80952380952381</v>
+      </c>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
-      <c r="H74" s="6">
-        <v>0.805555555555556</v>
-      </c>
+      <c r="H74" s="6"/>
       <c r="I74" s="6"/>
-      <c r="J74" s="7"/>
+      <c r="J74" s="12"/>
     </row>
     <row r="75" ht="21" customHeight="1">
       <c r="A75" t="s" s="5">
@@ -3786,51 +3854,49 @@
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
-      <c r="H75" s="6"/>
+      <c r="H75" s="6">
+        <v>0.861111111111111</v>
+      </c>
       <c r="I75" s="6"/>
-      <c r="J75" s="12"/>
-    </row>
-    <row r="76" ht="20.7" customHeight="1">
-      <c r="A76" t="s" s="5">
+      <c r="J75" s="14"/>
+    </row>
+    <row r="76" ht="21" customHeight="1">
+      <c r="A76" t="s" s="4">
         <v>164</v>
       </c>
-      <c r="B76" t="s" s="5">
+      <c r="B76" t="s" s="4">
         <v>165</v>
       </c>
       <c r="C76" t="s" s="5">
+        <v>65</v>
+      </c>
+      <c r="D76" s="6">
+        <v>0.738095238095238</v>
+      </c>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="12"/>
+    </row>
+    <row r="77" ht="21" customHeight="1">
+      <c r="A77" t="s" s="8">
+        <v>166</v>
+      </c>
+      <c r="B77" t="s" s="8">
+        <v>167</v>
+      </c>
+      <c r="C77" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D76" s="24">
-        <v>0.476190476190476</v>
-      </c>
-      <c r="E76" s="20"/>
-      <c r="F76" s="20"/>
-      <c r="G76" s="20"/>
-      <c r="H76" s="6">
-        <v>0.555555555555556</v>
-      </c>
-      <c r="I76" s="20"/>
-      <c r="J76" s="22"/>
-    </row>
-    <row r="77" ht="21" customHeight="1">
-      <c r="A77" t="s" s="5">
-        <v>166</v>
-      </c>
-      <c r="B77" t="s" s="5">
-        <v>167</v>
-      </c>
-      <c r="C77" t="s" s="5">
-        <v>44</v>
-      </c>
       <c r="D77" s="6">
-        <v>0.833333333333333</v>
+        <v>0.452380952380952</v>
       </c>
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
-      <c r="H77" s="6">
-        <v>0.39</v>
-      </c>
+      <c r="H77" s="6"/>
       <c r="I77" s="6"/>
       <c r="J77" s="14"/>
     </row>
@@ -3842,95 +3908,97 @@
         <v>169</v>
       </c>
       <c r="C78" t="s" s="5">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D78" s="6">
-        <v>0.714285714285714</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
-      <c r="H78" s="6"/>
+      <c r="H78" s="6">
+        <v>0.861111111111111</v>
+      </c>
       <c r="I78" s="6"/>
       <c r="J78" s="7"/>
     </row>
     <row r="79" ht="21" customHeight="1">
-      <c r="A79" t="s" s="5">
+      <c r="A79" t="s" s="4">
         <v>170</v>
       </c>
-      <c r="B79" t="s" s="5">
+      <c r="B79" t="s" s="4">
         <v>171</v>
       </c>
       <c r="C79" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="D79" s="6">
-        <v>0.69047619047619</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D79" s="6"/>
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
-      <c r="H79" s="6"/>
+      <c r="H79" s="6">
+        <v>0.777777777777778</v>
+      </c>
       <c r="I79" s="6"/>
       <c r="J79" s="7"/>
     </row>
     <row r="80" ht="21" customHeight="1">
-      <c r="A80" t="s" s="5">
+      <c r="A80" t="s" s="9">
         <v>172</v>
       </c>
-      <c r="B80" t="s" s="5">
+      <c r="B80" t="s" s="9">
         <v>173</v>
       </c>
-      <c r="C80" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="D80" s="6">
-        <v>0.785714285714286</v>
-      </c>
+      <c r="C80" t="s" s="10">
+        <v>18</v>
+      </c>
+      <c r="D80" s="6"/>
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
-      <c r="H80" s="6"/>
+      <c r="H80" s="6">
+        <v>0.75</v>
+      </c>
       <c r="I80" s="6"/>
-      <c r="J80" s="12"/>
-    </row>
-    <row r="81" ht="20.7" customHeight="1">
-      <c r="A81" t="s" s="5">
+      <c r="J80" s="7"/>
+    </row>
+    <row r="81" ht="21" customHeight="1">
+      <c r="A81" t="s" s="4">
         <v>174</v>
       </c>
-      <c r="B81" t="s" s="5">
+      <c r="B81" t="s" s="4">
         <v>175</v>
       </c>
       <c r="C81" t="s" s="5">
-        <v>44</v>
-      </c>
-      <c r="D81" s="19">
-        <v>0.619047619047619</v>
-      </c>
-      <c r="E81" s="20"/>
-      <c r="F81" s="20"/>
-      <c r="G81" s="20"/>
+        <v>18</v>
+      </c>
+      <c r="D81" s="6">
+        <v>0.738095238095238</v>
+      </c>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
       <c r="H81" s="6"/>
-      <c r="I81" s="20"/>
-      <c r="J81" s="21"/>
+      <c r="I81" s="6"/>
+      <c r="J81" s="7"/>
     </row>
     <row r="82" ht="21" customHeight="1">
-      <c r="A82" t="s" s="5">
+      <c r="A82" t="s" s="9">
         <v>176</v>
       </c>
-      <c r="B82" t="s" s="5">
+      <c r="B82" t="s" s="9">
         <v>177</v>
       </c>
-      <c r="C82" t="s" s="5">
-        <v>61</v>
-      </c>
-      <c r="D82" s="6">
-        <v>0.904761904761905</v>
-      </c>
+      <c r="C82" t="s" s="10">
+        <v>18</v>
+      </c>
+      <c r="D82" s="6"/>
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
-      <c r="H82" s="6"/>
+      <c r="H82" s="6">
+        <v>0.805555555555556</v>
+      </c>
       <c r="I82" s="6"/>
       <c r="J82" s="7"/>
     </row>
@@ -3942,37 +4010,41 @@
         <v>179</v>
       </c>
       <c r="C83" t="s" s="5">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D83" s="6">
-        <v>0.714285714285714</v>
+        <v>0.738095238095238</v>
       </c>
       <c r="E83" s="6"/>
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
       <c r="H83" s="6"/>
       <c r="I83" s="6"/>
-      <c r="J83" s="7"/>
-    </row>
-    <row r="84" ht="21" customHeight="1">
+      <c r="J83" s="12"/>
+    </row>
+    <row r="84" ht="20.7" customHeight="1">
       <c r="A84" t="s" s="5">
         <v>180</v>
       </c>
       <c r="B84" t="s" s="5">
         <v>181</v>
       </c>
-      <c r="C84" s="20"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
-      <c r="F84" s="6"/>
-      <c r="G84" s="6"/>
+      <c r="C84" t="s" s="5">
+        <v>18</v>
+      </c>
+      <c r="D84" s="25">
+        <v>0.476190476190476</v>
+      </c>
+      <c r="E84" s="19"/>
+      <c r="F84" s="19"/>
+      <c r="G84" s="19"/>
       <c r="H84" s="6">
-        <v>0.388888888888889</v>
-      </c>
-      <c r="I84" s="6"/>
-      <c r="J84" s="12"/>
-    </row>
-    <row r="85" ht="20.7" customHeight="1">
+        <v>0.555555555555556</v>
+      </c>
+      <c r="I84" s="19"/>
+      <c r="J84" s="20"/>
+    </row>
+    <row r="85" ht="21" customHeight="1">
       <c r="A85" t="s" s="5">
         <v>182</v>
       </c>
@@ -3980,19 +4052,19 @@
         <v>183</v>
       </c>
       <c r="C85" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D85" s="24">
-        <v>0.642857142857143</v>
-      </c>
-      <c r="E85" s="20"/>
-      <c r="F85" s="20"/>
-      <c r="G85" s="20"/>
+        <v>46</v>
+      </c>
+      <c r="D85" s="6">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
       <c r="H85" s="6">
-        <v>0.861111111111111</v>
-      </c>
-      <c r="I85" s="20"/>
-      <c r="J85" s="21"/>
+        <v>0.39</v>
+      </c>
+      <c r="I85" s="6"/>
+      <c r="J85" s="14"/>
     </row>
     <row r="86" ht="21" customHeight="1">
       <c r="A86" t="s" s="5">
@@ -4002,17 +4074,17 @@
         <v>185</v>
       </c>
       <c r="C86" t="s" s="5">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D86" s="6">
-        <v>0.619047619047619</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="E86" s="6"/>
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
       <c r="H86" s="6"/>
       <c r="I86" s="6"/>
-      <c r="J86" s="12"/>
+      <c r="J86" s="7"/>
     </row>
     <row r="87" ht="21" customHeight="1">
       <c r="A87" t="s" s="5">
@@ -4022,174 +4094,172 @@
         <v>187</v>
       </c>
       <c r="C87" t="s" s="5">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="D87" s="6">
-        <v>0.666666666666667</v>
+        <v>0.69047619047619</v>
       </c>
       <c r="E87" s="6"/>
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
       <c r="H87" s="6"/>
       <c r="I87" s="6"/>
-      <c r="J87" s="14"/>
+      <c r="J87" s="7"/>
     </row>
     <row r="88" ht="21" customHeight="1">
-      <c r="A88" t="s" s="4">
+      <c r="A88" t="s" s="5">
         <v>188</v>
       </c>
-      <c r="B88" t="s" s="4">
+      <c r="B88" t="s" s="5">
         <v>189</v>
       </c>
       <c r="C88" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D88" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="D88" s="6">
+        <v>0.785714285714286</v>
+      </c>
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
       <c r="H88" s="6">
-        <v>0.777777777777778</v>
+        <v>0.75</v>
       </c>
       <c r="I88" s="6"/>
       <c r="J88" s="12"/>
     </row>
-    <row r="89" ht="21" customHeight="1">
-      <c r="A89" t="s" s="23">
+    <row r="89" ht="20.7" customHeight="1">
+      <c r="A89" t="s" s="5">
         <v>190</v>
       </c>
-      <c r="B89" t="s" s="23">
+      <c r="B89" t="s" s="5">
         <v>191</v>
       </c>
       <c r="C89" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="D89" s="6">
-        <v>0.714285714285714</v>
-      </c>
-      <c r="E89" s="6"/>
-      <c r="F89" s="6"/>
-      <c r="G89" s="6"/>
+        <v>46</v>
+      </c>
+      <c r="D89" s="21">
+        <v>0.619047619047619</v>
+      </c>
+      <c r="E89" s="19"/>
+      <c r="F89" s="19"/>
+      <c r="G89" s="19"/>
       <c r="H89" s="6"/>
-      <c r="I89" s="6"/>
-      <c r="J89" s="13"/>
+      <c r="I89" s="19"/>
+      <c r="J89" s="22"/>
     </row>
     <row r="90" ht="21" customHeight="1">
-      <c r="A90" t="s" s="8">
+      <c r="A90" t="s" s="5">
         <v>192</v>
       </c>
-      <c r="B90" t="s" s="8">
+      <c r="B90" t="s" s="5">
         <v>193</v>
       </c>
       <c r="C90" t="s" s="5">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="D90" s="6">
-        <v>0.80952380952381</v>
+        <v>0.904761904761905</v>
       </c>
       <c r="E90" s="6"/>
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
       <c r="H90" s="6"/>
       <c r="I90" s="6"/>
-      <c r="J90" s="13"/>
-    </row>
-    <row r="91" ht="20.35" customHeight="1">
-      <c r="A91" t="s" s="4">
+      <c r="J90" s="7"/>
+    </row>
+    <row r="91" ht="21" customHeight="1">
+      <c r="A91" t="s" s="5">
         <v>194</v>
       </c>
-      <c r="B91" t="s" s="4">
+      <c r="B91" t="s" s="5">
         <v>195</v>
       </c>
       <c r="C91" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D91" s="20"/>
-      <c r="E91" s="20"/>
-      <c r="F91" s="20"/>
-      <c r="G91" s="20"/>
-      <c r="H91" s="6">
-        <v>0.777777777777778</v>
-      </c>
-      <c r="I91" s="20"/>
-      <c r="J91" s="22"/>
+        <v>12</v>
+      </c>
+      <c r="D91" s="6">
+        <v>0.714285714285714</v>
+      </c>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="6"/>
+      <c r="I91" s="6"/>
+      <c r="J91" s="7"/>
     </row>
     <row r="92" ht="21" customHeight="1">
-      <c r="A92" t="s" s="8">
+      <c r="A92" t="s" s="5">
         <v>196</v>
       </c>
-      <c r="B92" t="s" s="8">
+      <c r="B92" t="s" s="5">
         <v>197</v>
       </c>
       <c r="C92" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D92" s="6">
-        <v>0.857142857142857</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D92" s="6"/>
       <c r="E92" s="6"/>
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
       <c r="H92" s="6">
-        <v>0.805555555555556</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I92" s="6"/>
-      <c r="J92" s="13"/>
-    </row>
-    <row r="93" ht="20.7" customHeight="1">
-      <c r="A93" t="s" s="4">
+      <c r="J92" s="7"/>
+    </row>
+    <row r="93" ht="21" customHeight="1">
+      <c r="A93" t="s" s="5">
         <v>198</v>
       </c>
-      <c r="B93" t="s" s="4">
+      <c r="B93" t="s" s="5">
         <v>199</v>
       </c>
-      <c r="C93" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="D93" s="24">
-        <v>0.738095238095238</v>
-      </c>
-      <c r="E93" s="20"/>
-      <c r="F93" s="20"/>
-      <c r="G93" s="20"/>
-      <c r="H93" s="6"/>
-      <c r="I93" s="20"/>
-      <c r="J93" s="21"/>
-    </row>
-    <row r="94" ht="21" customHeight="1">
-      <c r="A94" t="s" s="9">
+      <c r="C93" s="19"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="6">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="I93" s="6"/>
+      <c r="J93" s="12"/>
+    </row>
+    <row r="94" ht="20.7" customHeight="1">
+      <c r="A94" t="s" s="5">
         <v>200</v>
       </c>
-      <c r="B94" t="s" s="9">
+      <c r="B94" t="s" s="5">
         <v>201</v>
       </c>
-      <c r="C94" t="s" s="10">
+      <c r="C94" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D94" s="6">
-        <v>0.952380952380952</v>
-      </c>
-      <c r="E94" s="6"/>
-      <c r="F94" s="6"/>
-      <c r="G94" s="6"/>
+      <c r="D94" s="25">
+        <v>0.642857142857143</v>
+      </c>
+      <c r="E94" s="19"/>
+      <c r="F94" s="19"/>
+      <c r="G94" s="19"/>
       <c r="H94" s="6">
-        <v>0.777777777777778</v>
-      </c>
-      <c r="I94" s="6"/>
-      <c r="J94" s="7"/>
+        <v>0.861111111111111</v>
+      </c>
+      <c r="I94" s="19"/>
+      <c r="J94" s="22"/>
     </row>
     <row r="95" ht="21" customHeight="1">
-      <c r="A95" t="s" s="4">
+      <c r="A95" t="s" s="5">
         <v>202</v>
       </c>
-      <c r="B95" t="s" s="4">
+      <c r="B95" t="s" s="5">
         <v>203</v>
       </c>
       <c r="C95" t="s" s="5">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D95" s="6">
-        <v>0.571428571428571</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="E95" s="6"/>
       <c r="F95" s="6"/>
@@ -4199,17 +4269,17 @@
       <c r="J95" s="12"/>
     </row>
     <row r="96" ht="21" customHeight="1">
-      <c r="A96" t="s" s="8">
+      <c r="A96" t="s" s="5">
         <v>204</v>
       </c>
-      <c r="B96" t="s" s="8">
+      <c r="B96" t="s" s="5">
         <v>205</v>
       </c>
       <c r="C96" t="s" s="5">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D96" s="6">
-        <v>0.761904761904762</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="E96" s="6"/>
       <c r="F96" s="6"/>
@@ -4219,94 +4289,96 @@
       <c r="J96" s="14"/>
     </row>
     <row r="97" ht="21" customHeight="1">
-      <c r="A97" t="s" s="5">
+      <c r="A97" t="s" s="4">
         <v>206</v>
       </c>
-      <c r="B97" t="s" s="5">
+      <c r="B97" t="s" s="4">
         <v>207</v>
       </c>
       <c r="C97" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="D97" s="6">
-        <v>0.904761904761905</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D97" s="6"/>
       <c r="E97" s="6"/>
       <c r="F97" s="6"/>
       <c r="G97" s="6"/>
-      <c r="H97" s="6"/>
+      <c r="H97" s="6">
+        <v>0.777777777777778</v>
+      </c>
       <c r="I97" s="6"/>
       <c r="J97" s="12"/>
     </row>
-    <row r="98" ht="20.7" customHeight="1">
-      <c r="A98" t="s" s="5">
+    <row r="98" ht="21" customHeight="1">
+      <c r="A98" t="s" s="23">
         <v>208</v>
       </c>
-      <c r="B98" t="s" s="5">
+      <c r="B98" t="s" s="23">
         <v>209</v>
       </c>
       <c r="C98" t="s" s="5">
-        <v>44</v>
-      </c>
-      <c r="D98" s="24">
-        <v>0.69047619047619</v>
-      </c>
-      <c r="E98" s="20"/>
-      <c r="F98" s="20"/>
-      <c r="G98" s="20"/>
+        <v>12</v>
+      </c>
+      <c r="D98" s="6">
+        <v>0.714285714285714</v>
+      </c>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="6"/>
       <c r="H98" s="6"/>
-      <c r="I98" s="20"/>
-      <c r="J98" s="21"/>
+      <c r="I98" s="6"/>
+      <c r="J98" s="13"/>
     </row>
     <row r="99" ht="21" customHeight="1">
-      <c r="A99" t="s" s="4">
+      <c r="A99" t="s" s="8">
         <v>210</v>
       </c>
-      <c r="B99" t="s" s="4">
+      <c r="B99" t="s" s="8">
         <v>211</v>
       </c>
       <c r="C99" t="s" s="5">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="D99" s="6">
-        <v>0.619047619047619</v>
+        <v>0.80952380952381</v>
       </c>
       <c r="E99" s="6"/>
       <c r="F99" s="6"/>
       <c r="G99" s="6"/>
-      <c r="H99" s="6"/>
+      <c r="H99" s="6">
+        <v>0.777777777777778</v>
+      </c>
       <c r="I99" s="6"/>
-      <c r="J99" s="7"/>
-    </row>
-    <row r="100" ht="21" customHeight="1">
-      <c r="A100" t="s" s="9">
+      <c r="J99" s="13"/>
+    </row>
+    <row r="100" ht="20.35" customHeight="1">
+      <c r="A100" t="s" s="4">
         <v>212</v>
       </c>
-      <c r="B100" t="s" s="9">
+      <c r="B100" t="s" s="4">
         <v>213</v>
       </c>
-      <c r="C100" t="s" s="10">
-        <v>61</v>
-      </c>
-      <c r="D100" s="6">
-        <v>0.571428571428571</v>
-      </c>
-      <c r="E100" s="6"/>
-      <c r="F100" s="6"/>
-      <c r="G100" s="6"/>
-      <c r="H100" s="6"/>
-      <c r="I100" s="6"/>
-      <c r="J100" s="7"/>
+      <c r="C100" t="s" s="5">
+        <v>18</v>
+      </c>
+      <c r="D100" s="19"/>
+      <c r="E100" s="19"/>
+      <c r="F100" s="19"/>
+      <c r="G100" s="19"/>
+      <c r="H100" s="6">
+        <v>0.777777777777778</v>
+      </c>
+      <c r="I100" s="19"/>
+      <c r="J100" s="20"/>
     </row>
     <row r="101" ht="21" customHeight="1">
-      <c r="A101" t="s" s="5">
+      <c r="A101" t="s" s="8">
         <v>214</v>
       </c>
-      <c r="B101" t="s" s="5">
+      <c r="B101" t="s" s="8">
         <v>215</v>
       </c>
       <c r="C101" t="s" s="5">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D101" s="6">
         <v>0.857142857142857</v>
@@ -4314,47 +4386,51 @@
       <c r="E101" s="6"/>
       <c r="F101" s="6"/>
       <c r="G101" s="6"/>
-      <c r="H101" s="6"/>
+      <c r="H101" s="6">
+        <v>0.805555555555556</v>
+      </c>
       <c r="I101" s="6"/>
-      <c r="J101" s="7"/>
-    </row>
-    <row r="102" ht="21" customHeight="1">
-      <c r="A102" t="s" s="5">
+      <c r="J101" s="13"/>
+    </row>
+    <row r="102" ht="20.7" customHeight="1">
+      <c r="A102" t="s" s="4">
         <v>216</v>
       </c>
-      <c r="B102" t="s" s="5">
+      <c r="B102" t="s" s="4">
         <v>217</v>
       </c>
       <c r="C102" t="s" s="5">
-        <v>61</v>
-      </c>
-      <c r="D102" s="6">
-        <v>0.785714285714286</v>
-      </c>
-      <c r="E102" s="6"/>
-      <c r="F102" s="6"/>
-      <c r="G102" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="D102" s="25">
+        <v>0.738095238095238</v>
+      </c>
+      <c r="E102" s="19"/>
+      <c r="F102" s="19"/>
+      <c r="G102" s="19"/>
       <c r="H102" s="6"/>
-      <c r="I102" s="6"/>
-      <c r="J102" s="7"/>
+      <c r="I102" s="19"/>
+      <c r="J102" s="22"/>
     </row>
     <row r="103" ht="21" customHeight="1">
-      <c r="A103" t="s" s="5">
+      <c r="A103" t="s" s="9">
         <v>218</v>
       </c>
-      <c r="B103" t="s" s="5">
+      <c r="B103" t="s" s="9">
         <v>219</v>
       </c>
-      <c r="C103" t="s" s="5">
-        <v>61</v>
+      <c r="C103" t="s" s="10">
+        <v>18</v>
       </c>
       <c r="D103" s="6">
-        <v>1</v>
+        <v>0.952380952380952</v>
       </c>
       <c r="E103" s="6"/>
       <c r="F103" s="6"/>
       <c r="G103" s="6"/>
-      <c r="H103" s="6"/>
+      <c r="H103" s="6">
+        <v>0.777777777777778</v>
+      </c>
       <c r="I103" s="6"/>
       <c r="J103" s="7"/>
     </row>
@@ -4369,36 +4445,34 @@
         <v>12</v>
       </c>
       <c r="D104" s="6">
-        <v>0.785714285714286</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="E104" s="6"/>
       <c r="F104" s="6"/>
       <c r="G104" s="6"/>
       <c r="H104" s="6"/>
       <c r="I104" s="6"/>
-      <c r="J104" s="7"/>
+      <c r="J104" s="12"/>
     </row>
     <row r="105" ht="21" customHeight="1">
-      <c r="A105" t="s" s="9">
+      <c r="A105" t="s" s="8">
         <v>222</v>
       </c>
-      <c r="B105" t="s" s="9">
+      <c r="B105" t="s" s="8">
         <v>223</v>
       </c>
-      <c r="C105" t="s" s="10">
-        <v>44</v>
+      <c r="C105" t="s" s="5">
+        <v>65</v>
       </c>
       <c r="D105" s="6">
-        <v>0.738095238095238</v>
+        <v>0.761904761904762</v>
       </c>
       <c r="E105" s="6"/>
       <c r="F105" s="6"/>
       <c r="G105" s="6"/>
-      <c r="H105" s="6">
-        <v>0.388888888888889</v>
-      </c>
+      <c r="H105" s="6"/>
       <c r="I105" s="6"/>
-      <c r="J105" s="7"/>
+      <c r="J105" s="14"/>
     </row>
     <row r="106" ht="21" customHeight="1">
       <c r="A106" t="s" s="5">
@@ -4408,10 +4482,10 @@
         <v>225</v>
       </c>
       <c r="C106" t="s" s="5">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="D106" s="6">
-        <v>0.785714285714286</v>
+        <v>0.904761904761905</v>
       </c>
       <c r="E106" s="6"/>
       <c r="F106" s="6"/>
@@ -4428,30 +4502,30 @@
         <v>227</v>
       </c>
       <c r="C107" t="s" s="5">
-        <v>61</v>
-      </c>
-      <c r="D107" s="19">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E107" s="20"/>
-      <c r="F107" s="20"/>
-      <c r="G107" s="20"/>
+        <v>46</v>
+      </c>
+      <c r="D107" s="25">
+        <v>0.69047619047619</v>
+      </c>
+      <c r="E107" s="19"/>
+      <c r="F107" s="19"/>
+      <c r="G107" s="19"/>
       <c r="H107" s="6"/>
-      <c r="I107" s="20"/>
-      <c r="J107" s="21"/>
+      <c r="I107" s="19"/>
+      <c r="J107" s="22"/>
     </row>
     <row r="108" ht="21" customHeight="1">
-      <c r="A108" t="s" s="5">
+      <c r="A108" t="s" s="4">
         <v>228</v>
       </c>
-      <c r="B108" t="s" s="5">
+      <c r="B108" t="s" s="4">
         <v>229</v>
       </c>
       <c r="C108" t="s" s="5">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="D108" s="6">
-        <v>0.880952380952381</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="E108" s="6"/>
       <c r="F108" s="6"/>
@@ -4461,17 +4535,17 @@
       <c r="J108" s="7"/>
     </row>
     <row r="109" ht="21" customHeight="1">
-      <c r="A109" t="s" s="5">
+      <c r="A109" t="s" s="9">
         <v>230</v>
       </c>
-      <c r="B109" t="s" s="5">
+      <c r="B109" t="s" s="9">
         <v>231</v>
       </c>
-      <c r="C109" t="s" s="5">
-        <v>44</v>
+      <c r="C109" t="s" s="10">
+        <v>65</v>
       </c>
       <c r="D109" s="6">
-        <v>0.714285714285714</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="E109" s="6"/>
       <c r="F109" s="6"/>
@@ -4481,57 +4555,57 @@
       <c r="J109" s="7"/>
     </row>
     <row r="110" ht="21" customHeight="1">
-      <c r="A110" t="s" s="5">
+      <c r="A110" t="s" s="4">
         <v>232</v>
       </c>
-      <c r="B110" t="s" s="5">
+      <c r="B110" t="s" s="4">
         <v>233</v>
       </c>
       <c r="C110" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D110" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="D110" s="6">
+        <v>0.857142857142857</v>
+      </c>
       <c r="E110" s="6"/>
       <c r="F110" s="6"/>
       <c r="G110" s="6"/>
-      <c r="H110" s="6">
-        <v>0.777777777777778</v>
-      </c>
+      <c r="H110" s="6"/>
       <c r="I110" s="6"/>
-      <c r="J110" s="7"/>
+      <c r="J110" s="12"/>
     </row>
     <row r="111" ht="21" customHeight="1">
-      <c r="A111" t="s" s="4">
+      <c r="A111" t="s" s="9">
         <v>234</v>
       </c>
-      <c r="B111" t="s" s="4">
+      <c r="B111" t="s" s="9">
         <v>235</v>
       </c>
-      <c r="C111" t="s" s="5">
-        <v>61</v>
-      </c>
-      <c r="D111" s="6">
-        <v>0.666666666666667</v>
-      </c>
+      <c r="C111" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="D111" s="6"/>
       <c r="E111" s="6"/>
       <c r="F111" s="6"/>
       <c r="G111" s="6"/>
-      <c r="H111" s="6"/>
+      <c r="H111" s="6">
+        <v>0.75</v>
+      </c>
       <c r="I111" s="6"/>
-      <c r="J111" s="7"/>
+      <c r="J111" s="14"/>
     </row>
     <row r="112" ht="21" customHeight="1">
-      <c r="A112" t="s" s="9">
+      <c r="A112" t="s" s="5">
         <v>236</v>
       </c>
-      <c r="B112" t="s" s="9">
+      <c r="B112" t="s" s="5">
         <v>237</v>
       </c>
-      <c r="C112" t="s" s="10">
-        <v>44</v>
+      <c r="C112" t="s" s="5">
+        <v>65</v>
       </c>
       <c r="D112" s="6">
-        <v>0.666666666666667</v>
+        <v>0.785714285714286</v>
       </c>
       <c r="E112" s="6"/>
       <c r="F112" s="6"/>
@@ -4541,64 +4615,66 @@
       <c r="J112" s="7"/>
     </row>
     <row r="113" ht="21" customHeight="1">
-      <c r="A113" t="s" s="4">
+      <c r="A113" t="s" s="5">
         <v>238</v>
       </c>
-      <c r="B113" t="s" s="4">
+      <c r="B113" t="s" s="5">
         <v>239</v>
       </c>
       <c r="C113" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D113" s="6"/>
+        <v>65</v>
+      </c>
+      <c r="D113" s="6">
+        <v>1</v>
+      </c>
       <c r="E113" s="6"/>
       <c r="F113" s="6"/>
       <c r="G113" s="6"/>
-      <c r="H113" s="6">
-        <v>0.555555555555556</v>
-      </c>
+      <c r="H113" s="6"/>
       <c r="I113" s="6"/>
       <c r="J113" s="7"/>
     </row>
     <row r="114" ht="21" customHeight="1">
-      <c r="A114" t="s" s="9">
+      <c r="A114" t="s" s="4">
         <v>240</v>
       </c>
-      <c r="B114" t="s" s="9">
+      <c r="B114" t="s" s="4">
         <v>241</v>
       </c>
-      <c r="C114" t="s" s="10">
-        <v>15</v>
+      <c r="C114" t="s" s="5">
+        <v>12</v>
       </c>
       <c r="D114" s="6">
-        <v>0.80952380952381</v>
+        <v>0.785714285714286</v>
       </c>
       <c r="E114" s="6"/>
       <c r="F114" s="6"/>
       <c r="G114" s="6"/>
       <c r="H114" s="6"/>
       <c r="I114" s="6"/>
-      <c r="J114" s="12"/>
+      <c r="J114" s="7"/>
     </row>
     <row r="115" ht="21" customHeight="1">
-      <c r="A115" t="s" s="5">
+      <c r="A115" t="s" s="9">
         <v>242</v>
       </c>
-      <c r="B115" t="s" s="5">
+      <c r="B115" t="s" s="9">
         <v>243</v>
       </c>
-      <c r="C115" t="s" s="5">
-        <v>44</v>
+      <c r="C115" t="s" s="10">
+        <v>46</v>
       </c>
       <c r="D115" s="6">
-        <v>0.571428571428571</v>
+        <v>0.738095238095238</v>
       </c>
       <c r="E115" s="6"/>
       <c r="F115" s="6"/>
       <c r="G115" s="6"/>
-      <c r="H115" s="6"/>
+      <c r="H115" s="6">
+        <v>0.388888888888889</v>
+      </c>
       <c r="I115" s="6"/>
-      <c r="J115" s="14"/>
+      <c r="J115" s="7"/>
     </row>
     <row r="116" ht="21" customHeight="1">
       <c r="A116" t="s" s="5">
@@ -4608,19 +4684,19 @@
         <v>245</v>
       </c>
       <c r="C116" t="s" s="5">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D116" s="6">
-        <v>0.833333333333333</v>
+        <v>0.785714285714286</v>
       </c>
       <c r="E116" s="6"/>
       <c r="F116" s="6"/>
       <c r="G116" s="6"/>
       <c r="H116" s="6"/>
       <c r="I116" s="6"/>
-      <c r="J116" s="7"/>
-    </row>
-    <row r="117" ht="21" customHeight="1">
+      <c r="J116" s="12"/>
+    </row>
+    <row r="117" ht="20.7" customHeight="1">
       <c r="A117" t="s" s="5">
         <v>246</v>
       </c>
@@ -4628,17 +4704,17 @@
         <v>247</v>
       </c>
       <c r="C117" t="s" s="5">
-        <v>61</v>
-      </c>
-      <c r="D117" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="E117" s="6"/>
-      <c r="F117" s="6"/>
-      <c r="G117" s="6"/>
+        <v>65</v>
+      </c>
+      <c r="D117" s="21">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E117" s="19"/>
+      <c r="F117" s="19"/>
+      <c r="G117" s="19"/>
       <c r="H117" s="6"/>
-      <c r="I117" s="6"/>
-      <c r="J117" s="7"/>
+      <c r="I117" s="19"/>
+      <c r="J117" s="22"/>
     </row>
     <row r="118" ht="21" customHeight="1">
       <c r="A118" t="s" s="5">
@@ -4648,19 +4724,17 @@
         <v>249</v>
       </c>
       <c r="C118" t="s" s="5">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="D118" s="6">
-        <v>0.642857142857143</v>
+        <v>0.880952380952381</v>
       </c>
       <c r="E118" s="6"/>
       <c r="F118" s="6"/>
       <c r="G118" s="6"/>
-      <c r="H118" s="6">
-        <v>0.388888888888889</v>
-      </c>
+      <c r="H118" s="6"/>
       <c r="I118" s="6"/>
-      <c r="J118" s="12"/>
+      <c r="J118" s="7"/>
     </row>
     <row r="119" ht="21" customHeight="1">
       <c r="A119" t="s" s="5">
@@ -4670,17 +4744,17 @@
         <v>251</v>
       </c>
       <c r="C119" t="s" s="5">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="D119" s="6">
-        <v>0.666666666666667</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="E119" s="6"/>
       <c r="F119" s="6"/>
       <c r="G119" s="6"/>
       <c r="H119" s="6"/>
       <c r="I119" s="6"/>
-      <c r="J119" s="14"/>
+      <c r="J119" s="7"/>
     </row>
     <row r="120" ht="21" customHeight="1">
       <c r="A120" t="s" s="5">
@@ -4692,57 +4766,55 @@
       <c r="C120" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D120" s="6">
-        <v>0.595238095238095</v>
-      </c>
+      <c r="D120" s="6"/>
       <c r="E120" s="6"/>
       <c r="F120" s="6"/>
       <c r="G120" s="6"/>
-      <c r="H120" s="6"/>
+      <c r="H120" s="6">
+        <v>0.777777777777778</v>
+      </c>
       <c r="I120" s="6"/>
       <c r="J120" s="7"/>
     </row>
     <row r="121" ht="21" customHeight="1">
-      <c r="A121" t="s" s="5">
+      <c r="A121" t="s" s="4">
         <v>254</v>
       </c>
-      <c r="B121" t="s" s="5">
+      <c r="B121" t="s" s="4">
         <v>255</v>
       </c>
       <c r="C121" t="s" s="5">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="D121" s="6">
-        <v>0.547619047619048</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="E121" s="6"/>
       <c r="F121" s="6"/>
       <c r="G121" s="6"/>
       <c r="H121" s="6"/>
       <c r="I121" s="6"/>
-      <c r="J121" s="12"/>
+      <c r="J121" s="7"/>
     </row>
     <row r="122" ht="21" customHeight="1">
-      <c r="A122" t="s" s="5">
+      <c r="A122" t="s" s="9">
         <v>256</v>
       </c>
-      <c r="B122" t="s" s="5">
+      <c r="B122" t="s" s="9">
         <v>257</v>
       </c>
-      <c r="C122" t="s" s="5">
-        <v>18</v>
+      <c r="C122" t="s" s="10">
+        <v>46</v>
       </c>
       <c r="D122" s="6">
-        <v>0.761904761904762</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="E122" s="6"/>
       <c r="F122" s="6"/>
       <c r="G122" s="6"/>
-      <c r="H122" s="6">
-        <v>0.861111111111111</v>
-      </c>
+      <c r="H122" s="6"/>
       <c r="I122" s="6"/>
-      <c r="J122" s="14"/>
+      <c r="J122" s="7"/>
     </row>
     <row r="123" ht="21" customHeight="1">
       <c r="A123" t="s" s="4">
@@ -4752,15 +4824,15 @@
         <v>259</v>
       </c>
       <c r="C123" t="s" s="5">
-        <v>61</v>
-      </c>
-      <c r="D123" s="6">
-        <v>0.571428571428571</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D123" s="6"/>
       <c r="E123" s="6"/>
       <c r="F123" s="6"/>
       <c r="G123" s="6"/>
-      <c r="H123" s="6"/>
+      <c r="H123" s="6">
+        <v>0.555555555555556</v>
+      </c>
       <c r="I123" s="6"/>
       <c r="J123" s="7"/>
     </row>
@@ -4772,19 +4844,17 @@
         <v>261</v>
       </c>
       <c r="C124" t="s" s="10">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D124" s="6">
-        <v>0.285714285714286</v>
+        <v>0.80952380952381</v>
       </c>
       <c r="E124" s="6"/>
       <c r="F124" s="6"/>
       <c r="G124" s="6"/>
-      <c r="H124" s="6">
-        <v>0.805555555555556</v>
-      </c>
+      <c r="H124" s="6"/>
       <c r="I124" s="6"/>
-      <c r="J124" s="7"/>
+      <c r="J124" s="12"/>
     </row>
     <row r="125" ht="21" customHeight="1">
       <c r="A125" t="s" s="5">
@@ -4794,17 +4864,17 @@
         <v>263</v>
       </c>
       <c r="C125" t="s" s="5">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="D125" s="6">
-        <v>0.30952380952381</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="E125" s="6"/>
       <c r="F125" s="6"/>
       <c r="G125" s="6"/>
       <c r="H125" s="6"/>
       <c r="I125" s="6"/>
-      <c r="J125" s="7"/>
+      <c r="J125" s="14"/>
     </row>
     <row r="126" ht="21" customHeight="1">
       <c r="A126" t="s" s="5">
@@ -4814,59 +4884,93 @@
         <v>265</v>
       </c>
       <c r="C126" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D126" s="6"/>
+        <v>65</v>
+      </c>
+      <c r="D126" s="6">
+        <v>0.833333333333333</v>
+      </c>
       <c r="E126" s="6"/>
       <c r="F126" s="6"/>
       <c r="G126" s="6"/>
-      <c r="H126" s="6">
-        <v>0.861111111111111</v>
-      </c>
+      <c r="H126" s="6"/>
       <c r="I126" s="6"/>
       <c r="J126" s="7"/>
     </row>
     <row r="127" ht="21" customHeight="1">
-      <c r="A127" s="20"/>
-      <c r="B127" s="20"/>
-      <c r="C127" s="20"/>
-      <c r="D127" s="6"/>
+      <c r="A127" t="s" s="5">
+        <v>266</v>
+      </c>
+      <c r="B127" t="s" s="5">
+        <v>267</v>
+      </c>
+      <c r="C127" t="s" s="5">
+        <v>65</v>
+      </c>
+      <c r="D127" s="6">
+        <v>0.5</v>
+      </c>
       <c r="E127" s="6"/>
       <c r="F127" s="6"/>
       <c r="G127" s="6"/>
       <c r="H127" s="6"/>
       <c r="I127" s="6"/>
-      <c r="J127" s="12"/>
+      <c r="J127" s="7"/>
     </row>
     <row r="128" ht="21" customHeight="1">
-      <c r="A128" s="20"/>
-      <c r="B128" s="20"/>
-      <c r="C128" s="20"/>
-      <c r="D128" s="6"/>
+      <c r="A128" t="s" s="5">
+        <v>268</v>
+      </c>
+      <c r="B128" t="s" s="5">
+        <v>269</v>
+      </c>
+      <c r="C128" t="s" s="5">
+        <v>46</v>
+      </c>
+      <c r="D128" s="6">
+        <v>0.642857142857143</v>
+      </c>
       <c r="E128" s="6"/>
       <c r="F128" s="6"/>
       <c r="G128" s="6"/>
-      <c r="H128" s="6"/>
+      <c r="H128" s="6">
+        <v>0.388888888888889</v>
+      </c>
       <c r="I128" s="6"/>
-      <c r="J128" s="13"/>
-    </row>
-    <row r="129" ht="20.7" customHeight="1">
-      <c r="A129" s="20"/>
-      <c r="B129" s="20"/>
-      <c r="C129" s="20"/>
-      <c r="D129" s="20"/>
-      <c r="E129" s="20"/>
-      <c r="F129" s="20"/>
-      <c r="G129" s="20"/>
+      <c r="J128" s="12"/>
+    </row>
+    <row r="129" ht="21" customHeight="1">
+      <c r="A129" t="s" s="5">
+        <v>270</v>
+      </c>
+      <c r="B129" t="s" s="5">
+        <v>271</v>
+      </c>
+      <c r="C129" t="s" s="5">
+        <v>18</v>
+      </c>
+      <c r="D129" s="6">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="E129" s="6"/>
+      <c r="F129" s="6"/>
+      <c r="G129" s="6"/>
       <c r="H129" s="6"/>
-      <c r="I129" s="20"/>
-      <c r="J129" s="21"/>
+      <c r="I129" s="6"/>
+      <c r="J129" s="14"/>
     </row>
     <row r="130" ht="21" customHeight="1">
-      <c r="A130" s="20"/>
-      <c r="B130" s="20"/>
-      <c r="C130" s="20"/>
-      <c r="D130" s="6"/>
+      <c r="A130" t="s" s="5">
+        <v>272</v>
+      </c>
+      <c r="B130" t="s" s="5">
+        <v>273</v>
+      </c>
+      <c r="C130" t="s" s="5">
+        <v>18</v>
+      </c>
+      <c r="D130" s="6">
+        <v>0.595238095238095</v>
+      </c>
       <c r="E130" s="6"/>
       <c r="F130" s="6"/>
       <c r="G130" s="6"/>
@@ -4875,34 +4979,60 @@
       <c r="J130" s="7"/>
     </row>
     <row r="131" ht="21" customHeight="1">
-      <c r="A131" s="26"/>
-      <c r="B131" s="26"/>
-      <c r="C131" s="20"/>
-      <c r="D131" s="6"/>
+      <c r="A131" t="s" s="5">
+        <v>274</v>
+      </c>
+      <c r="B131" t="s" s="5">
+        <v>275</v>
+      </c>
+      <c r="C131" t="s" s="5">
+        <v>46</v>
+      </c>
+      <c r="D131" s="6">
+        <v>0.547619047619048</v>
+      </c>
       <c r="E131" s="6"/>
       <c r="F131" s="6"/>
       <c r="G131" s="6"/>
       <c r="H131" s="6"/>
       <c r="I131" s="6"/>
-      <c r="J131" s="7"/>
+      <c r="J131" s="12"/>
     </row>
     <row r="132" ht="21" customHeight="1">
-      <c r="A132" s="27"/>
-      <c r="B132" s="27"/>
-      <c r="C132" s="25"/>
-      <c r="D132" s="6"/>
+      <c r="A132" t="s" s="5">
+        <v>276</v>
+      </c>
+      <c r="B132" t="s" s="5">
+        <v>277</v>
+      </c>
+      <c r="C132" t="s" s="5">
+        <v>18</v>
+      </c>
+      <c r="D132" s="6">
+        <v>0.761904761904762</v>
+      </c>
       <c r="E132" s="6"/>
       <c r="F132" s="6"/>
       <c r="G132" s="6"/>
-      <c r="H132" s="6"/>
+      <c r="H132" s="6">
+        <v>0.861111111111111</v>
+      </c>
       <c r="I132" s="6"/>
-      <c r="J132" s="7"/>
+      <c r="J132" s="14"/>
     </row>
     <row r="133" ht="21" customHeight="1">
-      <c r="A133" s="28"/>
-      <c r="B133" s="28"/>
-      <c r="C133" s="20"/>
-      <c r="D133" s="6"/>
+      <c r="A133" t="s" s="4">
+        <v>278</v>
+      </c>
+      <c r="B133" t="s" s="4">
+        <v>279</v>
+      </c>
+      <c r="C133" t="s" s="5">
+        <v>65</v>
+      </c>
+      <c r="D133" s="6">
+        <v>0.571428571428571</v>
+      </c>
       <c r="E133" s="6"/>
       <c r="F133" s="6"/>
       <c r="G133" s="6"/>
@@ -4911,57 +5041,91 @@
       <c r="J133" s="12"/>
     </row>
     <row r="134" ht="21" customHeight="1">
-      <c r="A134" s="27"/>
-      <c r="B134" s="27"/>
-      <c r="C134" s="25"/>
+      <c r="A134" t="s" s="23">
+        <v>280</v>
+      </c>
+      <c r="B134" t="s" s="23">
+        <v>281</v>
+      </c>
+      <c r="C134" t="s" s="5">
+        <v>21</v>
+      </c>
       <c r="D134" s="6"/>
       <c r="E134" s="6"/>
       <c r="F134" s="6"/>
       <c r="G134" s="6"/>
-      <c r="H134" s="6"/>
+      <c r="H134" s="6">
+        <v>0.777777777777778</v>
+      </c>
       <c r="I134" s="6"/>
-      <c r="J134" s="13"/>
+      <c r="J134" s="14"/>
     </row>
     <row r="135" ht="21" customHeight="1">
-      <c r="A135" s="29"/>
-      <c r="B135" s="29"/>
-      <c r="C135" s="20"/>
-      <c r="D135" s="6"/>
+      <c r="A135" t="s" s="9">
+        <v>282</v>
+      </c>
+      <c r="B135" t="s" s="9">
+        <v>283</v>
+      </c>
+      <c r="C135" t="s" s="10">
+        <v>18</v>
+      </c>
+      <c r="D135" s="6">
+        <v>0.285714285714286</v>
+      </c>
       <c r="E135" s="6"/>
       <c r="F135" s="6"/>
       <c r="G135" s="6"/>
-      <c r="H135" s="6"/>
+      <c r="H135" s="6">
+        <v>0.805555555555556</v>
+      </c>
       <c r="I135" s="6"/>
-      <c r="J135" s="13"/>
-    </row>
-    <row r="136" ht="20.7" customHeight="1">
-      <c r="A136" s="20"/>
-      <c r="B136" s="20"/>
-      <c r="C136" s="20"/>
-      <c r="D136" s="20"/>
-      <c r="E136" s="20"/>
-      <c r="F136" s="20"/>
-      <c r="G136" s="20"/>
+      <c r="J135" s="7"/>
+    </row>
+    <row r="136" ht="21" customHeight="1">
+      <c r="A136" t="s" s="5">
+        <v>284</v>
+      </c>
+      <c r="B136" t="s" s="5">
+        <v>285</v>
+      </c>
+      <c r="C136" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D136" s="6">
+        <v>0.30952380952381</v>
+      </c>
+      <c r="E136" s="6"/>
+      <c r="F136" s="6"/>
+      <c r="G136" s="6"/>
       <c r="H136" s="6"/>
-      <c r="I136" s="20"/>
-      <c r="J136" s="21"/>
+      <c r="I136" s="6"/>
+      <c r="J136" s="7"/>
     </row>
     <row r="137" ht="21" customHeight="1">
-      <c r="A137" s="20"/>
-      <c r="B137" s="20"/>
-      <c r="C137" s="20"/>
+      <c r="A137" t="s" s="5">
+        <v>286</v>
+      </c>
+      <c r="B137" t="s" s="5">
+        <v>287</v>
+      </c>
+      <c r="C137" t="s" s="5">
+        <v>18</v>
+      </c>
       <c r="D137" s="6"/>
       <c r="E137" s="6"/>
       <c r="F137" s="6"/>
       <c r="G137" s="6"/>
-      <c r="H137" s="6"/>
+      <c r="H137" s="6">
+        <v>0.861111111111111</v>
+      </c>
       <c r="I137" s="6"/>
       <c r="J137" s="7"/>
     </row>
     <row r="138" ht="21" customHeight="1">
       <c r="A138" s="26"/>
       <c r="B138" s="26"/>
-      <c r="C138" s="20"/>
+      <c r="C138" s="19"/>
       <c r="D138" s="6"/>
       <c r="E138" s="6"/>
       <c r="F138" s="6"/>
@@ -4973,7 +5137,7 @@
     <row r="139" ht="21" customHeight="1">
       <c r="A139" s="27"/>
       <c r="B139" s="27"/>
-      <c r="C139" s="25"/>
+      <c r="C139" s="24"/>
       <c r="D139" s="6"/>
       <c r="E139" s="6"/>
       <c r="F139" s="6"/>
@@ -4983,9 +5147,9 @@
       <c r="J139" s="12"/>
     </row>
     <row r="140" ht="21" customHeight="1">
-      <c r="A140" s="29"/>
-      <c r="B140" s="29"/>
-      <c r="C140" s="20"/>
+      <c r="A140" s="28"/>
+      <c r="B140" s="28"/>
+      <c r="C140" s="19"/>
       <c r="D140" s="6"/>
       <c r="E140" s="6"/>
       <c r="F140" s="6"/>
@@ -4995,9 +5159,9 @@
       <c r="J140" s="14"/>
     </row>
     <row r="141" ht="21" customHeight="1">
-      <c r="A141" s="20"/>
-      <c r="B141" s="20"/>
-      <c r="C141" s="20"/>
+      <c r="A141" s="19"/>
+      <c r="B141" s="19"/>
+      <c r="C141" s="19"/>
       <c r="D141" s="6"/>
       <c r="E141" s="6"/>
       <c r="F141" s="6"/>
@@ -5007,9 +5171,9 @@
       <c r="J141" s="7"/>
     </row>
     <row r="142" ht="21" customHeight="1">
-      <c r="A142" s="20"/>
-      <c r="B142" s="20"/>
-      <c r="C142" s="20"/>
+      <c r="A142" s="19"/>
+      <c r="B142" s="19"/>
+      <c r="C142" s="19"/>
       <c r="D142" s="6"/>
       <c r="E142" s="6"/>
       <c r="F142" s="6"/>
@@ -5021,7 +5185,7 @@
     <row r="143" ht="21" customHeight="1">
       <c r="A143" s="26"/>
       <c r="B143" s="26"/>
-      <c r="C143" s="20"/>
+      <c r="C143" s="19"/>
       <c r="D143" s="6"/>
       <c r="E143" s="6"/>
       <c r="F143" s="6"/>
@@ -5033,7 +5197,7 @@
     <row r="144" ht="21" customHeight="1">
       <c r="A144" s="27"/>
       <c r="B144" s="27"/>
-      <c r="C144" s="25"/>
+      <c r="C144" s="24"/>
       <c r="D144" s="6"/>
       <c r="E144" s="6"/>
       <c r="F144" s="6"/>
@@ -5043,9 +5207,9 @@
       <c r="J144" s="13"/>
     </row>
     <row r="145" ht="21" customHeight="1">
-      <c r="A145" s="28"/>
-      <c r="B145" s="28"/>
-      <c r="C145" s="20"/>
+      <c r="A145" s="29"/>
+      <c r="B145" s="29"/>
+      <c r="C145" s="19"/>
       <c r="D145" s="6"/>
       <c r="E145" s="6"/>
       <c r="F145" s="6"/>
@@ -5057,7 +5221,7 @@
     <row r="146" ht="21" customHeight="1">
       <c r="A146" s="27"/>
       <c r="B146" s="27"/>
-      <c r="C146" s="25"/>
+      <c r="C146" s="24"/>
       <c r="D146" s="6"/>
       <c r="E146" s="6"/>
       <c r="F146" s="6"/>
@@ -5067,9 +5231,9 @@
       <c r="J146" s="12"/>
     </row>
     <row r="147" ht="21" customHeight="1">
-      <c r="A147" s="29"/>
-      <c r="B147" s="29"/>
-      <c r="C147" s="20"/>
+      <c r="A147" s="28"/>
+      <c r="B147" s="28"/>
+      <c r="C147" s="19"/>
       <c r="D147" s="6"/>
       <c r="E147" s="6"/>
       <c r="F147" s="6"/>
@@ -5079,9 +5243,9 @@
       <c r="J147" s="14"/>
     </row>
     <row r="148" ht="21" customHeight="1">
-      <c r="A148" s="20"/>
-      <c r="B148" s="20"/>
-      <c r="C148" s="20"/>
+      <c r="A148" s="19"/>
+      <c r="B148" s="19"/>
+      <c r="C148" s="19"/>
       <c r="D148" s="6"/>
       <c r="E148" s="6"/>
       <c r="F148" s="6"/>
@@ -5093,7 +5257,7 @@
     <row r="149" ht="21" customHeight="1">
       <c r="A149" s="26"/>
       <c r="B149" s="26"/>
-      <c r="C149" s="20"/>
+      <c r="C149" s="19"/>
       <c r="D149" s="6"/>
       <c r="E149" s="6"/>
       <c r="F149" s="6"/>
@@ -5105,7 +5269,7 @@
     <row r="150" ht="21" customHeight="1">
       <c r="A150" s="27"/>
       <c r="B150" s="27"/>
-      <c r="C150" s="25"/>
+      <c r="C150" s="24"/>
       <c r="D150" s="6"/>
       <c r="E150" s="6"/>
       <c r="F150" s="6"/>
@@ -5115,9 +5279,9 @@
       <c r="J150" s="12"/>
     </row>
     <row r="151" ht="21" customHeight="1">
-      <c r="A151" s="29"/>
-      <c r="B151" s="29"/>
-      <c r="C151" s="20"/>
+      <c r="A151" s="28"/>
+      <c r="B151" s="28"/>
+      <c r="C151" s="19"/>
       <c r="D151" s="6"/>
       <c r="E151" s="6"/>
       <c r="F151" s="6"/>
@@ -5127,21 +5291,21 @@
       <c r="J151" s="13"/>
     </row>
     <row r="152" ht="20.7" customHeight="1">
-      <c r="A152" s="20"/>
-      <c r="B152" s="20"/>
-      <c r="C152" s="20"/>
-      <c r="D152" s="20"/>
-      <c r="E152" s="20"/>
-      <c r="F152" s="20"/>
-      <c r="G152" s="20"/>
+      <c r="A152" s="19"/>
+      <c r="B152" s="19"/>
+      <c r="C152" s="19"/>
+      <c r="D152" s="19"/>
+      <c r="E152" s="19"/>
+      <c r="F152" s="19"/>
+      <c r="G152" s="19"/>
       <c r="H152" s="6"/>
-      <c r="I152" s="20"/>
-      <c r="J152" s="21"/>
+      <c r="I152" s="19"/>
+      <c r="J152" s="22"/>
     </row>
     <row r="153" ht="21" customHeight="1">
-      <c r="A153" s="20"/>
-      <c r="B153" s="20"/>
-      <c r="C153" s="20"/>
+      <c r="A153" s="19"/>
+      <c r="B153" s="19"/>
+      <c r="C153" s="19"/>
       <c r="D153" s="6"/>
       <c r="E153" s="6"/>
       <c r="F153" s="6"/>
@@ -5151,9 +5315,9 @@
       <c r="J153" s="7"/>
     </row>
     <row r="154" ht="21" customHeight="1">
-      <c r="A154" s="20"/>
-      <c r="B154" s="20"/>
-      <c r="C154" s="20"/>
+      <c r="A154" s="19"/>
+      <c r="B154" s="19"/>
+      <c r="C154" s="19"/>
       <c r="D154" s="6"/>
       <c r="E154" s="6"/>
       <c r="F154" s="6"/>
@@ -5163,21 +5327,21 @@
       <c r="J154" s="7"/>
     </row>
     <row r="155" ht="21" customHeight="1">
-      <c r="A155" s="20"/>
-      <c r="B155" s="20"/>
-      <c r="C155" s="20"/>
-      <c r="D155" s="20"/>
-      <c r="E155" s="20"/>
-      <c r="F155" s="20"/>
-      <c r="G155" s="20"/>
+      <c r="A155" s="19"/>
+      <c r="B155" s="19"/>
+      <c r="C155" s="19"/>
+      <c r="D155" s="19"/>
+      <c r="E155" s="19"/>
+      <c r="F155" s="19"/>
+      <c r="G155" s="19"/>
       <c r="H155" s="6"/>
-      <c r="I155" s="20"/>
+      <c r="I155" s="19"/>
       <c r="J155" s="7"/>
     </row>
     <row r="156" ht="21" customHeight="1">
-      <c r="A156" s="20"/>
-      <c r="B156" s="20"/>
-      <c r="C156" s="20"/>
+      <c r="A156" s="19"/>
+      <c r="B156" s="19"/>
+      <c r="C156" s="19"/>
       <c r="D156" s="6"/>
       <c r="E156" s="6"/>
       <c r="F156" s="6"/>
@@ -5187,9 +5351,9 @@
       <c r="J156" s="7"/>
     </row>
     <row r="157" ht="21" customHeight="1">
-      <c r="A157" s="20"/>
-      <c r="B157" s="20"/>
-      <c r="C157" s="20"/>
+      <c r="A157" s="19"/>
+      <c r="B157" s="19"/>
+      <c r="C157" s="19"/>
       <c r="D157" s="6"/>
       <c r="E157" s="6"/>
       <c r="F157" s="6"/>
@@ -5199,9 +5363,9 @@
       <c r="J157" s="7"/>
     </row>
     <row r="158" ht="21" customHeight="1">
-      <c r="A158" s="20"/>
-      <c r="B158" s="20"/>
-      <c r="C158" s="20"/>
+      <c r="A158" s="19"/>
+      <c r="B158" s="19"/>
+      <c r="C158" s="19"/>
       <c r="D158" s="6"/>
       <c r="E158" s="6"/>
       <c r="F158" s="6"/>
@@ -5211,9 +5375,9 @@
       <c r="J158" s="7"/>
     </row>
     <row r="159" ht="21" customHeight="1">
-      <c r="A159" s="20"/>
-      <c r="B159" s="20"/>
-      <c r="C159" s="20"/>
+      <c r="A159" s="19"/>
+      <c r="B159" s="19"/>
+      <c r="C159" s="19"/>
       <c r="D159" s="6"/>
       <c r="E159" s="6"/>
       <c r="F159" s="6"/>
@@ -5223,9 +5387,9 @@
       <c r="J159" s="7"/>
     </row>
     <row r="160" ht="21" customHeight="1">
-      <c r="A160" s="20"/>
-      <c r="B160" s="20"/>
-      <c r="C160" s="20"/>
+      <c r="A160" s="19"/>
+      <c r="B160" s="19"/>
+      <c r="C160" s="19"/>
       <c r="D160" s="6"/>
       <c r="E160" s="6"/>
       <c r="F160" s="6"/>
@@ -5237,7 +5401,7 @@
     <row r="161" ht="21" customHeight="1">
       <c r="A161" s="26"/>
       <c r="B161" s="26"/>
-      <c r="C161" s="20"/>
+      <c r="C161" s="19"/>
       <c r="D161" s="6"/>
       <c r="E161" s="6"/>
       <c r="F161" s="6"/>
@@ -5249,7 +5413,7 @@
     <row r="162" ht="21" customHeight="1">
       <c r="A162" s="27"/>
       <c r="B162" s="27"/>
-      <c r="C162" s="25"/>
+      <c r="C162" s="24"/>
       <c r="D162" s="6"/>
       <c r="E162" s="6"/>
       <c r="F162" s="6"/>
@@ -5259,9 +5423,9 @@
       <c r="J162" s="12"/>
     </row>
     <row r="163" ht="21" customHeight="1">
-      <c r="A163" s="29"/>
-      <c r="B163" s="29"/>
-      <c r="C163" s="20"/>
+      <c r="A163" s="28"/>
+      <c r="B163" s="28"/>
+      <c r="C163" s="19"/>
       <c r="D163" s="6"/>
       <c r="E163" s="6"/>
       <c r="F163" s="6"/>
@@ -5271,9 +5435,9 @@
       <c r="J163" s="14"/>
     </row>
     <row r="164" ht="21" customHeight="1">
-      <c r="A164" s="20"/>
-      <c r="B164" s="20"/>
-      <c r="C164" s="20"/>
+      <c r="A164" s="19"/>
+      <c r="B164" s="19"/>
+      <c r="C164" s="19"/>
       <c r="D164" s="6"/>
       <c r="E164" s="6"/>
       <c r="F164" s="6"/>
@@ -5283,9 +5447,9 @@
       <c r="J164" s="7"/>
     </row>
     <row r="165" ht="21" customHeight="1">
-      <c r="A165" s="20"/>
-      <c r="B165" s="20"/>
-      <c r="C165" s="20"/>
+      <c r="A165" s="19"/>
+      <c r="B165" s="19"/>
+      <c r="C165" s="19"/>
       <c r="D165" s="6"/>
       <c r="E165" s="6"/>
       <c r="F165" s="6"/>
@@ -5297,7 +5461,7 @@
     <row r="166" ht="21" customHeight="1">
       <c r="A166" s="26"/>
       <c r="B166" s="26"/>
-      <c r="C166" s="20"/>
+      <c r="C166" s="19"/>
       <c r="D166" s="6"/>
       <c r="E166" s="6"/>
       <c r="F166" s="6"/>
@@ -5309,7 +5473,7 @@
     <row r="167" ht="21" customHeight="1">
       <c r="A167" s="27"/>
       <c r="B167" s="27"/>
-      <c r="C167" s="25"/>
+      <c r="C167" s="24"/>
       <c r="D167" s="6"/>
       <c r="E167" s="6"/>
       <c r="F167" s="6"/>
@@ -5319,9 +5483,9 @@
       <c r="J167" s="12"/>
     </row>
     <row r="168" ht="21" customHeight="1">
-      <c r="A168" s="29"/>
-      <c r="B168" s="29"/>
-      <c r="C168" s="20"/>
+      <c r="A168" s="28"/>
+      <c r="B168" s="28"/>
+      <c r="C168" s="19"/>
       <c r="D168" s="6"/>
       <c r="E168" s="6"/>
       <c r="F168" s="6"/>
@@ -5331,9 +5495,9 @@
       <c r="J168" s="14"/>
     </row>
     <row r="169" ht="21" customHeight="1">
-      <c r="A169" s="20"/>
-      <c r="B169" s="20"/>
-      <c r="C169" s="20"/>
+      <c r="A169" s="19"/>
+      <c r="B169" s="19"/>
+      <c r="C169" s="19"/>
       <c r="D169" s="6"/>
       <c r="E169" s="6"/>
       <c r="F169" s="6"/>
@@ -5343,9 +5507,9 @@
       <c r="J169" s="7"/>
     </row>
     <row r="170" ht="21" customHeight="1">
-      <c r="A170" s="20"/>
-      <c r="B170" s="20"/>
-      <c r="C170" s="20"/>
+      <c r="A170" s="19"/>
+      <c r="B170" s="19"/>
+      <c r="C170" s="19"/>
       <c r="D170" s="6"/>
       <c r="E170" s="6"/>
       <c r="F170" s="6"/>
@@ -5355,9 +5519,9 @@
       <c r="J170" s="7"/>
     </row>
     <row r="171" ht="21" customHeight="1">
-      <c r="A171" s="20"/>
-      <c r="B171" s="20"/>
-      <c r="C171" s="20"/>
+      <c r="A171" s="19"/>
+      <c r="B171" s="19"/>
+      <c r="C171" s="19"/>
       <c r="D171" s="6"/>
       <c r="E171" s="6"/>
       <c r="F171" s="6"/>
@@ -5367,9 +5531,9 @@
       <c r="J171" s="7"/>
     </row>
     <row r="172" ht="21" customHeight="1">
-      <c r="A172" s="20"/>
-      <c r="B172" s="20"/>
-      <c r="C172" s="20"/>
+      <c r="A172" s="19"/>
+      <c r="B172" s="19"/>
+      <c r="C172" s="19"/>
       <c r="D172" s="6"/>
       <c r="E172" s="6"/>
       <c r="F172" s="6"/>
@@ -5379,9 +5543,9 @@
       <c r="J172" s="7"/>
     </row>
     <row r="173" ht="21" customHeight="1">
-      <c r="A173" s="20"/>
-      <c r="B173" s="20"/>
-      <c r="C173" s="20"/>
+      <c r="A173" s="19"/>
+      <c r="B173" s="19"/>
+      <c r="C173" s="19"/>
       <c r="D173" s="6"/>
       <c r="E173" s="6"/>
       <c r="F173" s="6"/>
@@ -5391,9 +5555,9 @@
       <c r="J173" s="7"/>
     </row>
     <row r="174" ht="21" customHeight="1">
-      <c r="A174" s="20"/>
-      <c r="B174" s="20"/>
-      <c r="C174" s="20"/>
+      <c r="A174" s="19"/>
+      <c r="B174" s="19"/>
+      <c r="C174" s="19"/>
       <c r="D174" s="6"/>
       <c r="E174" s="6"/>
       <c r="F174" s="6"/>
@@ -5403,9 +5567,9 @@
       <c r="J174" s="7"/>
     </row>
     <row r="175" ht="21" customHeight="1">
-      <c r="A175" s="20"/>
-      <c r="B175" s="20"/>
-      <c r="C175" s="20"/>
+      <c r="A175" s="19"/>
+      <c r="B175" s="19"/>
+      <c r="C175" s="19"/>
       <c r="D175" s="6"/>
       <c r="E175" s="6"/>
       <c r="F175" s="6"/>
@@ -5415,9 +5579,9 @@
       <c r="J175" s="12"/>
     </row>
     <row r="176" ht="21" customHeight="1">
-      <c r="A176" s="20"/>
-      <c r="B176" s="20"/>
-      <c r="C176" s="20"/>
+      <c r="A176" s="19"/>
+      <c r="B176" s="19"/>
+      <c r="C176" s="19"/>
       <c r="D176" s="6"/>
       <c r="E176" s="6"/>
       <c r="F176" s="6"/>
@@ -5427,9 +5591,9 @@
       <c r="J176" s="14"/>
     </row>
     <row r="177" ht="21" customHeight="1">
-      <c r="A177" s="20"/>
-      <c r="B177" s="20"/>
-      <c r="C177" s="20"/>
+      <c r="A177" s="19"/>
+      <c r="B177" s="19"/>
+      <c r="C177" s="19"/>
       <c r="D177" s="6"/>
       <c r="E177" s="6"/>
       <c r="F177" s="6"/>
@@ -5439,9 +5603,9 @@
       <c r="J177" s="7"/>
     </row>
     <row r="178" ht="21" customHeight="1">
-      <c r="A178" s="20"/>
-      <c r="B178" s="20"/>
-      <c r="C178" s="20"/>
+      <c r="A178" s="19"/>
+      <c r="B178" s="19"/>
+      <c r="C178" s="19"/>
       <c r="D178" s="6"/>
       <c r="E178" s="6"/>
       <c r="F178" s="6"/>
@@ -5451,9 +5615,9 @@
       <c r="J178" s="7"/>
     </row>
     <row r="179" ht="21" customHeight="1">
-      <c r="A179" s="20"/>
-      <c r="B179" s="20"/>
-      <c r="C179" s="20"/>
+      <c r="A179" s="19"/>
+      <c r="B179" s="19"/>
+      <c r="C179" s="19"/>
       <c r="D179" s="6"/>
       <c r="E179" s="6"/>
       <c r="F179" s="6"/>
@@ -5463,9 +5627,9 @@
       <c r="J179" s="7"/>
     </row>
     <row r="180" ht="21" customHeight="1">
-      <c r="A180" s="20"/>
-      <c r="B180" s="20"/>
-      <c r="C180" s="20"/>
+      <c r="A180" s="19"/>
+      <c r="B180" s="19"/>
+      <c r="C180" s="19"/>
       <c r="D180" s="6"/>
       <c r="E180" s="6"/>
       <c r="F180" s="6"/>
@@ -5475,9 +5639,9 @@
       <c r="J180" s="7"/>
     </row>
     <row r="181" ht="21" customHeight="1">
-      <c r="A181" s="20"/>
-      <c r="B181" s="20"/>
-      <c r="C181" s="20"/>
+      <c r="A181" s="19"/>
+      <c r="B181" s="19"/>
+      <c r="C181" s="19"/>
       <c r="D181" s="6"/>
       <c r="E181" s="6"/>
       <c r="F181" s="6"/>
@@ -5487,9 +5651,9 @@
       <c r="J181" s="7"/>
     </row>
     <row r="182" ht="21" customHeight="1">
-      <c r="A182" s="20"/>
-      <c r="B182" s="20"/>
-      <c r="C182" s="20"/>
+      <c r="A182" s="19"/>
+      <c r="B182" s="19"/>
+      <c r="C182" s="19"/>
       <c r="D182" s="6"/>
       <c r="E182" s="6"/>
       <c r="F182" s="6"/>
@@ -5501,7 +5665,7 @@
     <row r="183" ht="21" customHeight="1">
       <c r="A183" s="26"/>
       <c r="B183" s="26"/>
-      <c r="C183" s="20"/>
+      <c r="C183" s="19"/>
       <c r="D183" s="6"/>
       <c r="E183" s="6"/>
       <c r="F183" s="6"/>
@@ -5513,7 +5677,7 @@
     <row r="184" ht="21" customHeight="1">
       <c r="A184" s="27"/>
       <c r="B184" s="27"/>
-      <c r="C184" s="25"/>
+      <c r="C184" s="24"/>
       <c r="D184" s="6"/>
       <c r="E184" s="6"/>
       <c r="F184" s="6"/>
@@ -5523,9 +5687,9 @@
       <c r="J184" s="7"/>
     </row>
     <row r="185" ht="21" customHeight="1">
-      <c r="A185" s="29"/>
-      <c r="B185" s="29"/>
-      <c r="C185" s="20"/>
+      <c r="A185" s="28"/>
+      <c r="B185" s="28"/>
+      <c r="C185" s="19"/>
       <c r="D185" s="6"/>
       <c r="E185" s="6"/>
       <c r="F185" s="6"/>
@@ -5535,9 +5699,9 @@
       <c r="J185" s="12"/>
     </row>
     <row r="186" ht="21" customHeight="1">
-      <c r="A186" s="20"/>
-      <c r="B186" s="20"/>
-      <c r="C186" s="20"/>
+      <c r="A186" s="19"/>
+      <c r="B186" s="19"/>
+      <c r="C186" s="19"/>
       <c r="D186" s="6"/>
       <c r="E186" s="6"/>
       <c r="F186" s="6"/>
@@ -5547,9 +5711,9 @@
       <c r="J186" s="14"/>
     </row>
     <row r="187" ht="21" customHeight="1">
-      <c r="A187" s="20"/>
-      <c r="B187" s="20"/>
-      <c r="C187" s="20"/>
+      <c r="A187" s="19"/>
+      <c r="B187" s="19"/>
+      <c r="C187" s="19"/>
       <c r="D187" s="6"/>
       <c r="E187" s="6"/>
       <c r="F187" s="6"/>
@@ -5559,9 +5723,9 @@
       <c r="J187" s="12"/>
     </row>
     <row r="188" ht="21" customHeight="1">
-      <c r="A188" s="20"/>
-      <c r="B188" s="20"/>
-      <c r="C188" s="20"/>
+      <c r="A188" s="19"/>
+      <c r="B188" s="19"/>
+      <c r="C188" s="19"/>
       <c r="D188" s="6"/>
       <c r="E188" s="6"/>
       <c r="F188" s="6"/>
@@ -5571,21 +5735,21 @@
       <c r="J188" s="13"/>
     </row>
     <row r="189" ht="20.7" customHeight="1">
-      <c r="A189" s="20"/>
-      <c r="B189" s="20"/>
-      <c r="C189" s="20"/>
-      <c r="D189" s="20"/>
-      <c r="E189" s="20"/>
-      <c r="F189" s="20"/>
-      <c r="G189" s="20"/>
+      <c r="A189" s="19"/>
+      <c r="B189" s="19"/>
+      <c r="C189" s="19"/>
+      <c r="D189" s="19"/>
+      <c r="E189" s="19"/>
+      <c r="F189" s="19"/>
+      <c r="G189" s="19"/>
       <c r="H189" s="6"/>
-      <c r="I189" s="20"/>
-      <c r="J189" s="21"/>
+      <c r="I189" s="19"/>
+      <c r="J189" s="22"/>
     </row>
     <row r="190" ht="21" customHeight="1">
-      <c r="A190" s="20"/>
-      <c r="B190" s="20"/>
-      <c r="C190" s="20"/>
+      <c r="A190" s="19"/>
+      <c r="B190" s="19"/>
+      <c r="C190" s="19"/>
       <c r="D190" s="6"/>
       <c r="E190" s="6"/>
       <c r="F190" s="6"/>
@@ -5595,21 +5759,21 @@
       <c r="J190" s="12"/>
     </row>
     <row r="191" ht="20.7" customHeight="1">
-      <c r="A191" s="20"/>
-      <c r="B191" s="20"/>
-      <c r="C191" s="20"/>
-      <c r="D191" s="20"/>
-      <c r="E191" s="20"/>
-      <c r="F191" s="20"/>
-      <c r="G191" s="20"/>
+      <c r="A191" s="19"/>
+      <c r="B191" s="19"/>
+      <c r="C191" s="19"/>
+      <c r="D191" s="19"/>
+      <c r="E191" s="19"/>
+      <c r="F191" s="19"/>
+      <c r="G191" s="19"/>
       <c r="H191" s="6"/>
-      <c r="I191" s="20"/>
-      <c r="J191" s="21"/>
+      <c r="I191" s="19"/>
+      <c r="J191" s="22"/>
     </row>
     <row r="192" ht="21" customHeight="1">
-      <c r="A192" s="20"/>
-      <c r="B192" s="20"/>
-      <c r="C192" s="20"/>
+      <c r="A192" s="19"/>
+      <c r="B192" s="19"/>
+      <c r="C192" s="19"/>
       <c r="D192" s="6"/>
       <c r="E192" s="6"/>
       <c r="F192" s="6"/>
@@ -5619,9 +5783,9 @@
       <c r="J192" s="7"/>
     </row>
     <row r="193" ht="21" customHeight="1">
-      <c r="A193" s="20"/>
-      <c r="B193" s="20"/>
-      <c r="C193" s="20"/>
+      <c r="A193" s="19"/>
+      <c r="B193" s="19"/>
+      <c r="C193" s="19"/>
       <c r="D193" s="6"/>
       <c r="E193" s="6"/>
       <c r="F193" s="6"/>
@@ -5631,9 +5795,9 @@
       <c r="J193" s="7"/>
     </row>
     <row r="194" ht="21" customHeight="1">
-      <c r="A194" s="20"/>
-      <c r="B194" s="20"/>
-      <c r="C194" s="20"/>
+      <c r="A194" s="19"/>
+      <c r="B194" s="19"/>
+      <c r="C194" s="19"/>
       <c r="D194" s="6"/>
       <c r="E194" s="6"/>
       <c r="F194" s="6"/>
@@ -5643,9 +5807,9 @@
       <c r="J194" s="7"/>
     </row>
     <row r="195" ht="21" customHeight="1">
-      <c r="A195" s="20"/>
-      <c r="B195" s="20"/>
-      <c r="C195" s="20"/>
+      <c r="A195" s="19"/>
+      <c r="B195" s="19"/>
+      <c r="C195" s="19"/>
       <c r="D195" s="6"/>
       <c r="E195" s="6"/>
       <c r="F195" s="6"/>
@@ -5655,9 +5819,9 @@
       <c r="J195" s="7"/>
     </row>
     <row r="196" ht="21" customHeight="1">
-      <c r="A196" s="20"/>
-      <c r="B196" s="20"/>
-      <c r="C196" s="20"/>
+      <c r="A196" s="19"/>
+      <c r="B196" s="19"/>
+      <c r="C196" s="19"/>
       <c r="D196" s="6"/>
       <c r="E196" s="6"/>
       <c r="F196" s="6"/>
@@ -5667,9 +5831,9 @@
       <c r="J196" s="7"/>
     </row>
     <row r="197" ht="21" customHeight="1">
-      <c r="A197" s="20"/>
-      <c r="B197" s="20"/>
-      <c r="C197" s="20"/>
+      <c r="A197" s="19"/>
+      <c r="B197" s="19"/>
+      <c r="C197" s="19"/>
       <c r="D197" s="6"/>
       <c r="E197" s="6"/>
       <c r="F197" s="6"/>
@@ -5679,9 +5843,9 @@
       <c r="J197" s="12"/>
     </row>
     <row r="198" ht="21" customHeight="1">
-      <c r="A198" s="20"/>
-      <c r="B198" s="20"/>
-      <c r="C198" s="20"/>
+      <c r="A198" s="19"/>
+      <c r="B198" s="19"/>
+      <c r="C198" s="19"/>
       <c r="D198" s="6"/>
       <c r="E198" s="6"/>
       <c r="F198" s="6"/>
@@ -5693,7 +5857,7 @@
     <row r="199" ht="21" customHeight="1">
       <c r="A199" s="26"/>
       <c r="B199" s="26"/>
-      <c r="C199" s="20"/>
+      <c r="C199" s="19"/>
       <c r="D199" s="6"/>
       <c r="E199" s="6"/>
       <c r="F199" s="6"/>
@@ -5705,7 +5869,7 @@
     <row r="200" ht="21" customHeight="1">
       <c r="A200" s="27"/>
       <c r="B200" s="27"/>
-      <c r="C200" s="25"/>
+      <c r="C200" s="24"/>
       <c r="D200" s="6"/>
       <c r="E200" s="6"/>
       <c r="F200" s="6"/>
@@ -5715,9 +5879,9 @@
       <c r="J200" s="12"/>
     </row>
     <row r="201" ht="21" customHeight="1">
-      <c r="A201" s="29"/>
-      <c r="B201" s="29"/>
-      <c r="C201" s="20"/>
+      <c r="A201" s="28"/>
+      <c r="B201" s="28"/>
+      <c r="C201" s="19"/>
       <c r="D201" s="6"/>
       <c r="E201" s="6"/>
       <c r="F201" s="6"/>
@@ -5727,9 +5891,9 @@
       <c r="J201" s="14"/>
     </row>
     <row r="202" ht="21" customHeight="1">
-      <c r="A202" s="20"/>
-      <c r="B202" s="20"/>
-      <c r="C202" s="20"/>
+      <c r="A202" s="19"/>
+      <c r="B202" s="19"/>
+      <c r="C202" s="19"/>
       <c r="D202" s="6"/>
       <c r="E202" s="6"/>
       <c r="F202" s="6"/>
@@ -5739,9 +5903,9 @@
       <c r="J202" s="7"/>
     </row>
     <row r="203" ht="21" customHeight="1">
-      <c r="A203" s="20"/>
-      <c r="B203" s="20"/>
-      <c r="C203" s="20"/>
+      <c r="A203" s="19"/>
+      <c r="B203" s="19"/>
+      <c r="C203" s="19"/>
       <c r="D203" s="6"/>
       <c r="E203" s="6"/>
       <c r="F203" s="6"/>
@@ -5751,9 +5915,9 @@
       <c r="J203" s="7"/>
     </row>
     <row r="204" ht="21" customHeight="1">
-      <c r="A204" s="20"/>
-      <c r="B204" s="20"/>
-      <c r="C204" s="20"/>
+      <c r="A204" s="19"/>
+      <c r="B204" s="19"/>
+      <c r="C204" s="19"/>
       <c r="D204" s="6"/>
       <c r="E204" s="6"/>
       <c r="F204" s="6"/>
@@ -5763,21 +5927,21 @@
       <c r="J204" s="12"/>
     </row>
     <row r="205" ht="20.7" customHeight="1">
-      <c r="A205" s="20"/>
-      <c r="B205" s="20"/>
-      <c r="C205" s="20"/>
-      <c r="D205" s="20"/>
-      <c r="E205" s="20"/>
-      <c r="F205" s="20"/>
-      <c r="G205" s="20"/>
+      <c r="A205" s="19"/>
+      <c r="B205" s="19"/>
+      <c r="C205" s="19"/>
+      <c r="D205" s="19"/>
+      <c r="E205" s="19"/>
+      <c r="F205" s="19"/>
+      <c r="G205" s="19"/>
       <c r="H205" s="6"/>
-      <c r="I205" s="20"/>
-      <c r="J205" s="21"/>
+      <c r="I205" s="19"/>
+      <c r="J205" s="22"/>
     </row>
     <row r="206" ht="21" customHeight="1">
-      <c r="A206" s="20"/>
-      <c r="B206" s="20"/>
-      <c r="C206" s="20"/>
+      <c r="A206" s="19"/>
+      <c r="B206" s="19"/>
+      <c r="C206" s="19"/>
       <c r="D206" s="6"/>
       <c r="E206" s="6"/>
       <c r="F206" s="6"/>
@@ -5787,9 +5951,9 @@
       <c r="J206" s="7"/>
     </row>
     <row r="207" ht="21" customHeight="1">
-      <c r="A207" s="20"/>
-      <c r="B207" s="20"/>
-      <c r="C207" s="20"/>
+      <c r="A207" s="19"/>
+      <c r="B207" s="19"/>
+      <c r="C207" s="19"/>
       <c r="D207" s="6"/>
       <c r="E207" s="6"/>
       <c r="F207" s="6"/>
@@ -5799,9 +5963,9 @@
       <c r="J207" s="7"/>
     </row>
     <row r="208" ht="21" customHeight="1">
-      <c r="A208" s="20"/>
-      <c r="B208" s="20"/>
-      <c r="C208" s="20"/>
+      <c r="A208" s="19"/>
+      <c r="B208" s="19"/>
+      <c r="C208" s="19"/>
       <c r="D208" s="6"/>
       <c r="E208" s="6"/>
       <c r="F208" s="6"/>
@@ -5811,9 +5975,9 @@
       <c r="J208" s="12"/>
     </row>
     <row r="209" ht="21" customHeight="1">
-      <c r="A209" s="20"/>
-      <c r="B209" s="20"/>
-      <c r="C209" s="20"/>
+      <c r="A209" s="19"/>
+      <c r="B209" s="19"/>
+      <c r="C209" s="19"/>
       <c r="D209" s="6"/>
       <c r="E209" s="6"/>
       <c r="F209" s="6"/>
@@ -5823,9 +5987,9 @@
       <c r="J209" s="14"/>
     </row>
     <row r="210" ht="21" customHeight="1">
-      <c r="A210" s="20"/>
-      <c r="B210" s="20"/>
-      <c r="C210" s="20"/>
+      <c r="A210" s="19"/>
+      <c r="B210" s="19"/>
+      <c r="C210" s="19"/>
       <c r="D210" s="6"/>
       <c r="E210" s="6"/>
       <c r="F210" s="6"/>
@@ -5837,7 +6001,7 @@
     <row r="211" ht="21" customHeight="1">
       <c r="A211" s="26"/>
       <c r="B211" s="26"/>
-      <c r="C211" s="20"/>
+      <c r="C211" s="19"/>
       <c r="D211" s="6"/>
       <c r="E211" s="6"/>
       <c r="F211" s="6"/>
@@ -5849,7 +6013,7 @@
     <row r="212" ht="21" customHeight="1">
       <c r="A212" s="27"/>
       <c r="B212" s="27"/>
-      <c r="C212" s="25"/>
+      <c r="C212" s="24"/>
       <c r="D212" s="6"/>
       <c r="E212" s="6"/>
       <c r="F212" s="6"/>
@@ -5859,9 +6023,9 @@
       <c r="J212" s="12"/>
     </row>
     <row r="213" ht="21" customHeight="1">
-      <c r="A213" s="29"/>
-      <c r="B213" s="29"/>
-      <c r="C213" s="20"/>
+      <c r="A213" s="28"/>
+      <c r="B213" s="28"/>
+      <c r="C213" s="19"/>
       <c r="D213" s="6"/>
       <c r="E213" s="6"/>
       <c r="F213" s="6"/>
@@ -5871,9 +6035,9 @@
       <c r="J213" s="14"/>
     </row>
     <row r="214" ht="21" customHeight="1">
-      <c r="A214" s="20"/>
-      <c r="B214" s="20"/>
-      <c r="C214" s="20"/>
+      <c r="A214" s="19"/>
+      <c r="B214" s="19"/>
+      <c r="C214" s="19"/>
       <c r="D214" s="6"/>
       <c r="E214" s="6"/>
       <c r="F214" s="6"/>
@@ -5885,7 +6049,7 @@
     <row r="215" ht="21" customHeight="1">
       <c r="A215" s="26"/>
       <c r="B215" s="26"/>
-      <c r="C215" s="20"/>
+      <c r="C215" s="19"/>
       <c r="D215" s="6"/>
       <c r="E215" s="6"/>
       <c r="F215" s="6"/>
@@ -5897,7 +6061,7 @@
     <row r="216" ht="21" customHeight="1">
       <c r="A216" s="27"/>
       <c r="B216" s="27"/>
-      <c r="C216" s="25"/>
+      <c r="C216" s="24"/>
       <c r="D216" s="6"/>
       <c r="E216" s="6"/>
       <c r="F216" s="6"/>
@@ -5907,9 +6071,9 @@
       <c r="J216" s="13"/>
     </row>
     <row r="217" ht="21" customHeight="1">
-      <c r="A217" s="29"/>
-      <c r="B217" s="29"/>
-      <c r="C217" s="20"/>
+      <c r="A217" s="28"/>
+      <c r="B217" s="28"/>
+      <c r="C217" s="19"/>
       <c r="D217" s="6"/>
       <c r="E217" s="6"/>
       <c r="F217" s="6"/>
@@ -5919,9 +6083,9 @@
       <c r="J217" s="14"/>
     </row>
     <row r="218" ht="21" customHeight="1">
-      <c r="A218" s="20"/>
-      <c r="B218" s="20"/>
-      <c r="C218" s="20"/>
+      <c r="A218" s="19"/>
+      <c r="B218" s="19"/>
+      <c r="C218" s="19"/>
       <c r="D218" s="6"/>
       <c r="E218" s="6"/>
       <c r="F218" s="6"/>
@@ -5933,7 +6097,7 @@
     <row r="219" ht="21" customHeight="1">
       <c r="A219" s="26"/>
       <c r="B219" s="26"/>
-      <c r="C219" s="20"/>
+      <c r="C219" s="19"/>
       <c r="D219" s="6"/>
       <c r="E219" s="6"/>
       <c r="F219" s="6"/>
@@ -5945,7 +6109,7 @@
     <row r="220" ht="21" customHeight="1">
       <c r="A220" s="27"/>
       <c r="B220" s="27"/>
-      <c r="C220" s="25"/>
+      <c r="C220" s="24"/>
       <c r="D220" s="6"/>
       <c r="E220" s="6"/>
       <c r="F220" s="6"/>
@@ -5955,9 +6119,9 @@
       <c r="J220" s="12"/>
     </row>
     <row r="221" ht="21" customHeight="1">
-      <c r="A221" s="28"/>
-      <c r="B221" s="28"/>
-      <c r="C221" s="20"/>
+      <c r="A221" s="29"/>
+      <c r="B221" s="29"/>
+      <c r="C221" s="19"/>
       <c r="D221" s="6"/>
       <c r="E221" s="6"/>
       <c r="F221" s="6"/>
@@ -5969,7 +6133,7 @@
     <row r="222" ht="21" customHeight="1">
       <c r="A222" s="27"/>
       <c r="B222" s="27"/>
-      <c r="C222" s="25"/>
+      <c r="C222" s="24"/>
       <c r="D222" s="6"/>
       <c r="E222" s="6"/>
       <c r="F222" s="6"/>
@@ -5979,9 +6143,9 @@
       <c r="J222" s="12"/>
     </row>
     <row r="223" ht="21" customHeight="1">
-      <c r="A223" s="29"/>
-      <c r="B223" s="29"/>
-      <c r="C223" s="20"/>
+      <c r="A223" s="28"/>
+      <c r="B223" s="28"/>
+      <c r="C223" s="19"/>
       <c r="D223" s="6"/>
       <c r="E223" s="6"/>
       <c r="F223" s="6"/>
@@ -5991,21 +6155,21 @@
       <c r="J223" s="13"/>
     </row>
     <row r="224" ht="20.7" customHeight="1">
-      <c r="A224" s="20"/>
-      <c r="B224" s="20"/>
-      <c r="C224" s="20"/>
-      <c r="D224" s="20"/>
-      <c r="E224" s="20"/>
-      <c r="F224" s="20"/>
-      <c r="G224" s="20"/>
+      <c r="A224" s="19"/>
+      <c r="B224" s="19"/>
+      <c r="C224" s="19"/>
+      <c r="D224" s="19"/>
+      <c r="E224" s="19"/>
+      <c r="F224" s="19"/>
+      <c r="G224" s="19"/>
       <c r="H224" s="6"/>
-      <c r="I224" s="20"/>
-      <c r="J224" s="21"/>
+      <c r="I224" s="19"/>
+      <c r="J224" s="22"/>
     </row>
     <row r="225" ht="21" customHeight="1">
-      <c r="A225" s="20"/>
-      <c r="B225" s="20"/>
-      <c r="C225" s="20"/>
+      <c r="A225" s="19"/>
+      <c r="B225" s="19"/>
+      <c r="C225" s="19"/>
       <c r="D225" s="6"/>
       <c r="E225" s="6"/>
       <c r="F225" s="6"/>
@@ -6017,19 +6181,19 @@
     <row r="226" ht="20.7" customHeight="1">
       <c r="A226" s="26"/>
       <c r="B226" s="26"/>
-      <c r="C226" s="20"/>
-      <c r="D226" s="20"/>
-      <c r="E226" s="20"/>
-      <c r="F226" s="20"/>
-      <c r="G226" s="20"/>
+      <c r="C226" s="19"/>
+      <c r="D226" s="19"/>
+      <c r="E226" s="19"/>
+      <c r="F226" s="19"/>
+      <c r="G226" s="19"/>
       <c r="H226" s="6"/>
-      <c r="I226" s="20"/>
-      <c r="J226" s="21"/>
+      <c r="I226" s="19"/>
+      <c r="J226" s="22"/>
     </row>
     <row r="227" ht="21" customHeight="1">
       <c r="A227" s="27"/>
       <c r="B227" s="27"/>
-      <c r="C227" s="25"/>
+      <c r="C227" s="24"/>
       <c r="D227" s="6"/>
       <c r="E227" s="6"/>
       <c r="F227" s="6"/>
@@ -6039,21 +6203,21 @@
       <c r="J227" s="7"/>
     </row>
     <row r="228" ht="21" customHeight="1">
-      <c r="A228" s="28"/>
-      <c r="B228" s="28"/>
-      <c r="C228" s="20"/>
-      <c r="D228" s="20"/>
-      <c r="E228" s="20"/>
-      <c r="F228" s="20"/>
-      <c r="G228" s="20"/>
+      <c r="A228" s="29"/>
+      <c r="B228" s="29"/>
+      <c r="C228" s="19"/>
+      <c r="D228" s="19"/>
+      <c r="E228" s="19"/>
+      <c r="F228" s="19"/>
+      <c r="G228" s="19"/>
       <c r="H228" s="6"/>
-      <c r="I228" s="20"/>
+      <c r="I228" s="19"/>
       <c r="J228" s="7"/>
     </row>
     <row r="229" ht="21" customHeight="1">
       <c r="A229" s="27"/>
       <c r="B229" s="27"/>
-      <c r="C229" s="25"/>
+      <c r="C229" s="24"/>
       <c r="D229" s="6"/>
       <c r="E229" s="6"/>
       <c r="F229" s="6"/>
@@ -6063,9 +6227,9 @@
       <c r="J229" s="12"/>
     </row>
     <row r="230" ht="21" customHeight="1">
-      <c r="A230" s="29"/>
-      <c r="B230" s="29"/>
-      <c r="C230" s="20"/>
+      <c r="A230" s="28"/>
+      <c r="B230" s="28"/>
+      <c r="C230" s="19"/>
       <c r="D230" s="6"/>
       <c r="E230" s="6"/>
       <c r="F230" s="6"/>
@@ -6075,9 +6239,9 @@
       <c r="J230" s="14"/>
     </row>
     <row r="231" ht="21" customHeight="1">
-      <c r="A231" s="20"/>
-      <c r="B231" s="20"/>
-      <c r="C231" s="20"/>
+      <c r="A231" s="19"/>
+      <c r="B231" s="19"/>
+      <c r="C231" s="19"/>
       <c r="D231" s="6"/>
       <c r="E231" s="6"/>
       <c r="F231" s="6"/>
@@ -6087,9 +6251,9 @@
       <c r="J231" s="7"/>
     </row>
     <row r="232" ht="21" customHeight="1">
-      <c r="A232" s="20"/>
-      <c r="B232" s="20"/>
-      <c r="C232" s="20"/>
+      <c r="A232" s="19"/>
+      <c r="B232" s="19"/>
+      <c r="C232" s="19"/>
       <c r="D232" s="6"/>
       <c r="E232" s="6"/>
       <c r="F232" s="6"/>
@@ -6099,9 +6263,9 @@
       <c r="J232" s="7"/>
     </row>
     <row r="233" ht="21" customHeight="1">
-      <c r="A233" s="20"/>
-      <c r="B233" s="20"/>
-      <c r="C233" s="20"/>
+      <c r="A233" s="19"/>
+      <c r="B233" s="19"/>
+      <c r="C233" s="19"/>
       <c r="D233" s="6"/>
       <c r="E233" s="6"/>
       <c r="F233" s="6"/>
@@ -6111,9 +6275,9 @@
       <c r="J233" s="7"/>
     </row>
     <row r="234" ht="21" customHeight="1">
-      <c r="A234" s="20"/>
-      <c r="B234" s="20"/>
-      <c r="C234" s="20"/>
+      <c r="A234" s="19"/>
+      <c r="B234" s="19"/>
+      <c r="C234" s="19"/>
       <c r="D234" s="6"/>
       <c r="E234" s="6"/>
       <c r="F234" s="6"/>
@@ -6125,7 +6289,7 @@
     <row r="235" ht="21" customHeight="1">
       <c r="A235" s="26"/>
       <c r="B235" s="26"/>
-      <c r="C235" s="20"/>
+      <c r="C235" s="19"/>
       <c r="D235" s="6"/>
       <c r="E235" s="6"/>
       <c r="F235" s="6"/>
@@ -6137,7 +6301,7 @@
     <row r="236" ht="21" customHeight="1">
       <c r="A236" s="27"/>
       <c r="B236" s="27"/>
-      <c r="C236" s="25"/>
+      <c r="C236" s="24"/>
       <c r="D236" s="6"/>
       <c r="E236" s="6"/>
       <c r="F236" s="6"/>
@@ -6147,9 +6311,9 @@
       <c r="J236" s="12"/>
     </row>
     <row r="237" ht="21" customHeight="1">
-      <c r="A237" s="29"/>
-      <c r="B237" s="29"/>
-      <c r="C237" s="20"/>
+      <c r="A237" s="28"/>
+      <c r="B237" s="28"/>
+      <c r="C237" s="19"/>
       <c r="D237" s="6"/>
       <c r="E237" s="6"/>
       <c r="F237" s="6"/>
@@ -6161,7 +6325,7 @@
     <row r="238" ht="21" customHeight="1">
       <c r="A238" s="26"/>
       <c r="B238" s="26"/>
-      <c r="C238" s="20"/>
+      <c r="C238" s="19"/>
       <c r="D238" s="6"/>
       <c r="E238" s="6"/>
       <c r="F238" s="6"/>
@@ -6173,7 +6337,7 @@
     <row r="239" ht="21" customHeight="1">
       <c r="A239" s="27"/>
       <c r="B239" s="27"/>
-      <c r="C239" s="25"/>
+      <c r="C239" s="24"/>
       <c r="D239" s="6"/>
       <c r="E239" s="6"/>
       <c r="F239" s="6"/>
@@ -6185,7 +6349,7 @@
     <row r="240" ht="21" customHeight="1">
       <c r="A240" s="27"/>
       <c r="B240" s="27"/>
-      <c r="C240" s="25"/>
+      <c r="C240" s="24"/>
       <c r="D240" s="6"/>
       <c r="E240" s="6"/>
       <c r="F240" s="6"/>
@@ -6195,9 +6359,9 @@
       <c r="J240" s="12"/>
     </row>
     <row r="241" ht="21" customHeight="1">
-      <c r="A241" s="28"/>
-      <c r="B241" s="28"/>
-      <c r="C241" s="20"/>
+      <c r="A241" s="29"/>
+      <c r="B241" s="29"/>
+      <c r="C241" s="19"/>
       <c r="D241" s="6"/>
       <c r="E241" s="6"/>
       <c r="F241" s="6"/>
@@ -6209,7 +6373,7 @@
     <row r="242" ht="21" customHeight="1">
       <c r="A242" s="27"/>
       <c r="B242" s="27"/>
-      <c r="C242" s="25"/>
+      <c r="C242" s="24"/>
       <c r="D242" s="6"/>
       <c r="E242" s="6"/>
       <c r="F242" s="6"/>
@@ -6219,9 +6383,9 @@
       <c r="J242" s="12"/>
     </row>
     <row r="243" ht="21" customHeight="1">
-      <c r="A243" s="29"/>
-      <c r="B243" s="29"/>
-      <c r="C243" s="20"/>
+      <c r="A243" s="28"/>
+      <c r="B243" s="28"/>
+      <c r="C243" s="19"/>
       <c r="D243" s="6"/>
       <c r="E243" s="6"/>
       <c r="F243" s="6"/>
@@ -6231,9 +6395,9 @@
       <c r="J243" s="14"/>
     </row>
     <row r="244" ht="21" customHeight="1">
-      <c r="A244" s="20"/>
-      <c r="B244" s="20"/>
-      <c r="C244" s="20"/>
+      <c r="A244" s="19"/>
+      <c r="B244" s="19"/>
+      <c r="C244" s="19"/>
       <c r="D244" s="6"/>
       <c r="E244" s="6"/>
       <c r="F244" s="6"/>
@@ -6243,9 +6407,9 @@
       <c r="J244" s="7"/>
     </row>
     <row r="245" ht="21" customHeight="1">
-      <c r="A245" s="20"/>
-      <c r="B245" s="20"/>
-      <c r="C245" s="20"/>
+      <c r="A245" s="19"/>
+      <c r="B245" s="19"/>
+      <c r="C245" s="19"/>
       <c r="D245" s="6"/>
       <c r="E245" s="6"/>
       <c r="F245" s="6"/>
@@ -6255,9 +6419,9 @@
       <c r="J245" s="7"/>
     </row>
     <row r="246" ht="21" customHeight="1">
-      <c r="A246" s="20"/>
-      <c r="B246" s="20"/>
-      <c r="C246" s="20"/>
+      <c r="A246" s="19"/>
+      <c r="B246" s="19"/>
+      <c r="C246" s="19"/>
       <c r="D246" s="6"/>
       <c r="E246" s="6"/>
       <c r="F246" s="6"/>
@@ -6267,9 +6431,9 @@
       <c r="J246" s="7"/>
     </row>
     <row r="247" ht="21" customHeight="1">
-      <c r="A247" s="20"/>
-      <c r="B247" s="20"/>
-      <c r="C247" s="20"/>
+      <c r="A247" s="19"/>
+      <c r="B247" s="19"/>
+      <c r="C247" s="19"/>
       <c r="D247" s="6"/>
       <c r="E247" s="6"/>
       <c r="F247" s="6"/>
@@ -6279,9 +6443,9 @@
       <c r="J247" s="7"/>
     </row>
     <row r="248" ht="21" customHeight="1">
-      <c r="A248" s="20"/>
-      <c r="B248" s="20"/>
-      <c r="C248" s="20"/>
+      <c r="A248" s="19"/>
+      <c r="B248" s="19"/>
+      <c r="C248" s="19"/>
       <c r="D248" s="6"/>
       <c r="E248" s="6"/>
       <c r="F248" s="6"/>
@@ -6291,33 +6455,33 @@
       <c r="J248" s="12"/>
     </row>
     <row r="249" ht="20.35" customHeight="1">
-      <c r="A249" s="20"/>
-      <c r="B249" s="20"/>
-      <c r="C249" s="20"/>
-      <c r="D249" s="20"/>
-      <c r="E249" s="20"/>
-      <c r="F249" s="20"/>
-      <c r="G249" s="20"/>
+      <c r="A249" s="19"/>
+      <c r="B249" s="19"/>
+      <c r="C249" s="19"/>
+      <c r="D249" s="19"/>
+      <c r="E249" s="19"/>
+      <c r="F249" s="19"/>
+      <c r="G249" s="19"/>
       <c r="H249" s="6"/>
-      <c r="I249" s="20"/>
-      <c r="J249" s="22"/>
+      <c r="I249" s="19"/>
+      <c r="J249" s="20"/>
     </row>
     <row r="250" ht="20.35" customHeight="1">
-      <c r="A250" s="20"/>
-      <c r="B250" s="20"/>
-      <c r="C250" s="20"/>
-      <c r="D250" s="20"/>
-      <c r="E250" s="20"/>
-      <c r="F250" s="20"/>
-      <c r="G250" s="20"/>
+      <c r="A250" s="19"/>
+      <c r="B250" s="19"/>
+      <c r="C250" s="19"/>
+      <c r="D250" s="19"/>
+      <c r="E250" s="19"/>
+      <c r="F250" s="19"/>
+      <c r="G250" s="19"/>
       <c r="H250" s="6"/>
-      <c r="I250" s="20"/>
-      <c r="J250" s="21"/>
+      <c r="I250" s="19"/>
+      <c r="J250" s="22"/>
     </row>
     <row r="251" ht="21" customHeight="1">
-      <c r="A251" s="20"/>
-      <c r="B251" s="20"/>
-      <c r="C251" s="20"/>
+      <c r="A251" s="19"/>
+      <c r="B251" s="19"/>
+      <c r="C251" s="19"/>
       <c r="D251" s="6"/>
       <c r="E251" s="6"/>
       <c r="F251" s="6"/>
@@ -6327,45 +6491,45 @@
       <c r="J251" s="12"/>
     </row>
     <row r="252" ht="20.35" customHeight="1">
-      <c r="A252" s="20"/>
-      <c r="B252" s="20"/>
-      <c r="C252" s="20"/>
-      <c r="D252" s="20"/>
-      <c r="E252" s="20"/>
-      <c r="F252" s="20"/>
-      <c r="G252" s="20"/>
+      <c r="A252" s="19"/>
+      <c r="B252" s="19"/>
+      <c r="C252" s="19"/>
+      <c r="D252" s="19"/>
+      <c r="E252" s="19"/>
+      <c r="F252" s="19"/>
+      <c r="G252" s="19"/>
       <c r="H252" s="6"/>
-      <c r="I252" s="20"/>
-      <c r="J252" s="22"/>
+      <c r="I252" s="19"/>
+      <c r="J252" s="20"/>
     </row>
     <row r="253" ht="20.05" customHeight="1">
-      <c r="A253" s="20"/>
-      <c r="B253" s="20"/>
-      <c r="C253" s="20"/>
-      <c r="D253" s="20"/>
-      <c r="E253" s="20"/>
-      <c r="F253" s="20"/>
-      <c r="G253" s="20"/>
+      <c r="A253" s="19"/>
+      <c r="B253" s="19"/>
+      <c r="C253" s="19"/>
+      <c r="D253" s="19"/>
+      <c r="E253" s="19"/>
+      <c r="F253" s="19"/>
+      <c r="G253" s="19"/>
       <c r="H253" s="6"/>
-      <c r="I253" s="20"/>
-      <c r="J253" s="22"/>
+      <c r="I253" s="19"/>
+      <c r="J253" s="20"/>
     </row>
     <row r="254" ht="20.35" customHeight="1">
       <c r="A254" s="26"/>
       <c r="B254" s="26"/>
-      <c r="C254" s="20"/>
-      <c r="D254" s="20"/>
-      <c r="E254" s="20"/>
-      <c r="F254" s="20"/>
-      <c r="G254" s="20"/>
+      <c r="C254" s="19"/>
+      <c r="D254" s="19"/>
+      <c r="E254" s="19"/>
+      <c r="F254" s="19"/>
+      <c r="G254" s="19"/>
       <c r="H254" s="6"/>
-      <c r="I254" s="20"/>
-      <c r="J254" s="21"/>
+      <c r="I254" s="19"/>
+      <c r="J254" s="22"/>
     </row>
     <row r="255" ht="21" customHeight="1">
       <c r="A255" s="27"/>
       <c r="B255" s="27"/>
-      <c r="C255" s="25"/>
+      <c r="C255" s="24"/>
       <c r="D255" s="6"/>
       <c r="E255" s="6"/>
       <c r="F255" s="6"/>
@@ -6375,21 +6539,21 @@
       <c r="J255" s="12"/>
     </row>
     <row r="256" ht="20.7" customHeight="1">
-      <c r="A256" s="29"/>
-      <c r="B256" s="29"/>
-      <c r="C256" s="20"/>
-      <c r="D256" s="20"/>
-      <c r="E256" s="20"/>
-      <c r="F256" s="20"/>
-      <c r="G256" s="20"/>
+      <c r="A256" s="28"/>
+      <c r="B256" s="28"/>
+      <c r="C256" s="19"/>
+      <c r="D256" s="19"/>
+      <c r="E256" s="19"/>
+      <c r="F256" s="19"/>
+      <c r="G256" s="19"/>
       <c r="H256" s="6"/>
-      <c r="I256" s="20"/>
-      <c r="J256" s="21"/>
+      <c r="I256" s="19"/>
+      <c r="J256" s="22"/>
     </row>
     <row r="257" ht="21" customHeight="1">
       <c r="A257" s="26"/>
       <c r="B257" s="26"/>
-      <c r="C257" s="20"/>
+      <c r="C257" s="19"/>
       <c r="D257" s="6"/>
       <c r="E257" s="6"/>
       <c r="F257" s="6"/>
@@ -6401,7 +6565,7 @@
     <row r="258" ht="21" customHeight="1">
       <c r="A258" s="27"/>
       <c r="B258" s="27"/>
-      <c r="C258" s="25"/>
+      <c r="C258" s="24"/>
       <c r="D258" s="6"/>
       <c r="E258" s="6"/>
       <c r="F258" s="6"/>
@@ -6411,9 +6575,9 @@
       <c r="J258" s="12"/>
     </row>
     <row r="259" ht="21" customHeight="1">
-      <c r="A259" s="29"/>
-      <c r="B259" s="29"/>
-      <c r="C259" s="20"/>
+      <c r="A259" s="28"/>
+      <c r="B259" s="28"/>
+      <c r="C259" s="19"/>
       <c r="D259" s="6"/>
       <c r="E259" s="6"/>
       <c r="F259" s="6"/>
@@ -6423,9 +6587,9 @@
       <c r="J259" s="14"/>
     </row>
     <row r="260" ht="21" customHeight="1">
-      <c r="A260" s="20"/>
-      <c r="B260" s="20"/>
-      <c r="C260" s="20"/>
+      <c r="A260" s="19"/>
+      <c r="B260" s="19"/>
+      <c r="C260" s="19"/>
       <c r="D260" s="6"/>
       <c r="E260" s="6"/>
       <c r="F260" s="6"/>
@@ -6437,7 +6601,7 @@
     <row r="261" ht="21" customHeight="1">
       <c r="A261" s="26"/>
       <c r="B261" s="26"/>
-      <c r="C261" s="20"/>
+      <c r="C261" s="19"/>
       <c r="D261" s="6"/>
       <c r="E261" s="6"/>
       <c r="F261" s="6"/>
@@ -6449,7 +6613,7 @@
     <row r="262" ht="21" customHeight="1">
       <c r="A262" s="27"/>
       <c r="B262" s="27"/>
-      <c r="C262" s="25"/>
+      <c r="C262" s="24"/>
       <c r="D262" s="6"/>
       <c r="E262" s="6"/>
       <c r="F262" s="6"/>
@@ -6461,7 +6625,7 @@
     <row r="263" ht="21" customHeight="1">
       <c r="A263" s="27"/>
       <c r="B263" s="27"/>
-      <c r="C263" s="25"/>
+      <c r="C263" s="24"/>
       <c r="D263" s="6"/>
       <c r="E263" s="6"/>
       <c r="F263" s="6"/>
@@ -6471,9 +6635,9 @@
       <c r="J263" s="7"/>
     </row>
     <row r="264" ht="21" customHeight="1">
-      <c r="A264" s="29"/>
-      <c r="B264" s="29"/>
-      <c r="C264" s="20"/>
+      <c r="A264" s="28"/>
+      <c r="B264" s="28"/>
+      <c r="C264" s="19"/>
       <c r="D264" s="6"/>
       <c r="E264" s="6"/>
       <c r="F264" s="6"/>
@@ -6483,9 +6647,9 @@
       <c r="J264" s="12"/>
     </row>
     <row r="265" ht="21" customHeight="1">
-      <c r="A265" s="20"/>
-      <c r="B265" s="20"/>
-      <c r="C265" s="20"/>
+      <c r="A265" s="19"/>
+      <c r="B265" s="19"/>
+      <c r="C265" s="19"/>
       <c r="D265" s="6"/>
       <c r="E265" s="6"/>
       <c r="F265" s="6"/>
@@ -6495,9 +6659,9 @@
       <c r="J265" s="13"/>
     </row>
     <row r="266" ht="21" customHeight="1">
-      <c r="A266" s="20"/>
-      <c r="B266" s="20"/>
-      <c r="C266" s="20"/>
+      <c r="A266" s="19"/>
+      <c r="B266" s="19"/>
+      <c r="C266" s="19"/>
       <c r="D266" s="6"/>
       <c r="E266" s="6"/>
       <c r="F266" s="6"/>
@@ -6507,9 +6671,9 @@
       <c r="J266" s="14"/>
     </row>
     <row r="267" ht="21" customHeight="1">
-      <c r="A267" s="20"/>
-      <c r="B267" s="20"/>
-      <c r="C267" s="20"/>
+      <c r="A267" s="19"/>
+      <c r="B267" s="19"/>
+      <c r="C267" s="19"/>
       <c r="D267" s="6"/>
       <c r="E267" s="6"/>
       <c r="F267" s="6"/>
@@ -6519,9 +6683,9 @@
       <c r="J267" s="12"/>
     </row>
     <row r="268" ht="21" customHeight="1">
-      <c r="A268" s="20"/>
-      <c r="B268" s="20"/>
-      <c r="C268" s="20"/>
+      <c r="A268" s="19"/>
+      <c r="B268" s="19"/>
+      <c r="C268" s="19"/>
       <c r="D268" s="6"/>
       <c r="E268" s="6"/>
       <c r="F268" s="6"/>
@@ -6531,9 +6695,9 @@
       <c r="J268" s="14"/>
     </row>
     <row r="269" ht="21" customHeight="1">
-      <c r="A269" s="20"/>
-      <c r="B269" s="20"/>
-      <c r="C269" s="20"/>
+      <c r="A269" s="19"/>
+      <c r="B269" s="19"/>
+      <c r="C269" s="19"/>
       <c r="D269" s="6"/>
       <c r="E269" s="6"/>
       <c r="F269" s="6"/>
@@ -6543,9 +6707,9 @@
       <c r="J269" s="12"/>
     </row>
     <row r="270" ht="21" customHeight="1">
-      <c r="A270" s="20"/>
-      <c r="B270" s="20"/>
-      <c r="C270" s="20"/>
+      <c r="A270" s="19"/>
+      <c r="B270" s="19"/>
+      <c r="C270" s="19"/>
       <c r="D270" s="6"/>
       <c r="E270" s="6"/>
       <c r="F270" s="6"/>
@@ -6555,9 +6719,9 @@
       <c r="J270" s="14"/>
     </row>
     <row r="271" ht="21" customHeight="1">
-      <c r="A271" s="20"/>
-      <c r="B271" s="20"/>
-      <c r="C271" s="20"/>
+      <c r="A271" s="19"/>
+      <c r="B271" s="19"/>
+      <c r="C271" s="19"/>
       <c r="D271" s="6"/>
       <c r="E271" s="6"/>
       <c r="F271" s="6"/>
@@ -6567,9 +6731,9 @@
       <c r="J271" s="7"/>
     </row>
     <row r="272" ht="21" customHeight="1">
-      <c r="A272" s="20"/>
-      <c r="B272" s="20"/>
-      <c r="C272" s="20"/>
+      <c r="A272" s="19"/>
+      <c r="B272" s="19"/>
+      <c r="C272" s="19"/>
       <c r="D272" s="6"/>
       <c r="E272" s="6"/>
       <c r="F272" s="6"/>
@@ -6579,9 +6743,9 @@
       <c r="J272" s="12"/>
     </row>
     <row r="273" ht="21" customHeight="1">
-      <c r="A273" s="20"/>
-      <c r="B273" s="20"/>
-      <c r="C273" s="20"/>
+      <c r="A273" s="19"/>
+      <c r="B273" s="19"/>
+      <c r="C273" s="19"/>
       <c r="D273" s="6"/>
       <c r="E273" s="6"/>
       <c r="F273" s="6"/>
@@ -6591,21 +6755,21 @@
       <c r="J273" s="13"/>
     </row>
     <row r="274" ht="20.7" customHeight="1">
-      <c r="A274" s="20"/>
-      <c r="B274" s="20"/>
-      <c r="C274" s="20"/>
-      <c r="D274" s="20"/>
-      <c r="E274" s="20"/>
-      <c r="F274" s="20"/>
-      <c r="G274" s="20"/>
+      <c r="A274" s="19"/>
+      <c r="B274" s="19"/>
+      <c r="C274" s="19"/>
+      <c r="D274" s="19"/>
+      <c r="E274" s="19"/>
+      <c r="F274" s="19"/>
+      <c r="G274" s="19"/>
       <c r="H274" s="6"/>
-      <c r="I274" s="20"/>
-      <c r="J274" s="21"/>
+      <c r="I274" s="19"/>
+      <c r="J274" s="22"/>
     </row>
     <row r="275" ht="21" customHeight="1">
-      <c r="A275" s="20"/>
-      <c r="B275" s="20"/>
-      <c r="C275" s="20"/>
+      <c r="A275" s="19"/>
+      <c r="B275" s="19"/>
+      <c r="C275" s="19"/>
       <c r="D275" s="6"/>
       <c r="E275" s="6"/>
       <c r="F275" s="6"/>
@@ -6615,9 +6779,9 @@
       <c r="J275" s="7"/>
     </row>
     <row r="276" ht="21" customHeight="1">
-      <c r="A276" s="20"/>
-      <c r="B276" s="20"/>
-      <c r="C276" s="20"/>
+      <c r="A276" s="19"/>
+      <c r="B276" s="19"/>
+      <c r="C276" s="19"/>
       <c r="D276" s="6"/>
       <c r="E276" s="6"/>
       <c r="F276" s="6"/>
@@ -6627,9 +6791,9 @@
       <c r="J276" s="7"/>
     </row>
     <row r="277" ht="21" customHeight="1">
-      <c r="A277" s="20"/>
-      <c r="B277" s="20"/>
-      <c r="C277" s="20"/>
+      <c r="A277" s="19"/>
+      <c r="B277" s="19"/>
+      <c r="C277" s="19"/>
       <c r="D277" s="6"/>
       <c r="E277" s="6"/>
       <c r="F277" s="6"/>
@@ -6641,7 +6805,7 @@
     <row r="278" ht="21" customHeight="1">
       <c r="A278" s="26"/>
       <c r="B278" s="26"/>
-      <c r="C278" s="20"/>
+      <c r="C278" s="19"/>
       <c r="D278" s="6"/>
       <c r="E278" s="6"/>
       <c r="F278" s="6"/>
@@ -6653,7 +6817,7 @@
     <row r="279" ht="21" customHeight="1">
       <c r="A279" s="27"/>
       <c r="B279" s="27"/>
-      <c r="C279" s="25"/>
+      <c r="C279" s="24"/>
       <c r="D279" s="6"/>
       <c r="E279" s="6"/>
       <c r="F279" s="6"/>
@@ -6665,7 +6829,7 @@
     <row r="280" ht="21" customHeight="1">
       <c r="A280" s="27"/>
       <c r="B280" s="27"/>
-      <c r="C280" s="25"/>
+      <c r="C280" s="24"/>
       <c r="D280" s="6"/>
       <c r="E280" s="6"/>
       <c r="F280" s="6"/>
@@ -6675,9 +6839,9 @@
       <c r="J280" s="12"/>
     </row>
     <row r="281" ht="21" customHeight="1">
-      <c r="A281" s="29"/>
-      <c r="B281" s="29"/>
-      <c r="C281" s="20"/>
+      <c r="A281" s="28"/>
+      <c r="B281" s="28"/>
+      <c r="C281" s="19"/>
       <c r="D281" s="6"/>
       <c r="E281" s="6"/>
       <c r="F281" s="6"/>
@@ -6687,9 +6851,9 @@
       <c r="J281" s="14"/>
     </row>
     <row r="282" ht="21" customHeight="1">
-      <c r="A282" s="20"/>
-      <c r="B282" s="20"/>
-      <c r="C282" s="20"/>
+      <c r="A282" s="19"/>
+      <c r="B282" s="19"/>
+      <c r="C282" s="19"/>
       <c r="D282" s="6"/>
       <c r="E282" s="6"/>
       <c r="F282" s="6"/>
@@ -6699,9 +6863,9 @@
       <c r="J282" s="7"/>
     </row>
     <row r="283" ht="21" customHeight="1">
-      <c r="A283" s="20"/>
-      <c r="B283" s="20"/>
-      <c r="C283" s="20"/>
+      <c r="A283" s="19"/>
+      <c r="B283" s="19"/>
+      <c r="C283" s="19"/>
       <c r="D283" s="6"/>
       <c r="E283" s="6"/>
       <c r="F283" s="6"/>
@@ -6711,9 +6875,9 @@
       <c r="J283" s="12"/>
     </row>
     <row r="284" ht="21" customHeight="1">
-      <c r="A284" s="20"/>
-      <c r="B284" s="20"/>
-      <c r="C284" s="20"/>
+      <c r="A284" s="19"/>
+      <c r="B284" s="19"/>
+      <c r="C284" s="19"/>
       <c r="D284" s="6"/>
       <c r="E284" s="6"/>
       <c r="F284" s="6"/>
@@ -6723,9 +6887,9 @@
       <c r="J284" s="14"/>
     </row>
     <row r="285" ht="21" customHeight="1">
-      <c r="A285" s="20"/>
-      <c r="B285" s="20"/>
-      <c r="C285" s="20"/>
+      <c r="A285" s="19"/>
+      <c r="B285" s="19"/>
+      <c r="C285" s="19"/>
       <c r="D285" s="6"/>
       <c r="E285" s="6"/>
       <c r="F285" s="6"/>
@@ -6735,9 +6899,9 @@
       <c r="J285" s="7"/>
     </row>
     <row r="286" ht="21" customHeight="1">
-      <c r="A286" s="20"/>
-      <c r="B286" s="20"/>
-      <c r="C286" s="20"/>
+      <c r="A286" s="19"/>
+      <c r="B286" s="19"/>
+      <c r="C286" s="19"/>
       <c r="D286" s="6"/>
       <c r="E286" s="6"/>
       <c r="F286" s="6"/>
@@ -6747,9 +6911,9 @@
       <c r="J286" s="12"/>
     </row>
     <row r="287" ht="21" customHeight="1">
-      <c r="A287" s="20"/>
-      <c r="B287" s="20"/>
-      <c r="C287" s="20"/>
+      <c r="A287" s="19"/>
+      <c r="B287" s="19"/>
+      <c r="C287" s="19"/>
       <c r="D287" s="6"/>
       <c r="E287" s="6"/>
       <c r="F287" s="6"/>
@@ -6759,9 +6923,9 @@
       <c r="J287" s="14"/>
     </row>
     <row r="288" ht="21" customHeight="1">
-      <c r="A288" s="20"/>
-      <c r="B288" s="20"/>
-      <c r="C288" s="20"/>
+      <c r="A288" s="19"/>
+      <c r="B288" s="19"/>
+      <c r="C288" s="19"/>
       <c r="D288" s="6"/>
       <c r="E288" s="6"/>
       <c r="F288" s="6"/>
@@ -6771,9 +6935,9 @@
       <c r="J288" s="7"/>
     </row>
     <row r="289" ht="21" customHeight="1">
-      <c r="A289" s="20"/>
-      <c r="B289" s="20"/>
-      <c r="C289" s="20"/>
+      <c r="A289" s="19"/>
+      <c r="B289" s="19"/>
+      <c r="C289" s="19"/>
       <c r="D289" s="6"/>
       <c r="E289" s="6"/>
       <c r="F289" s="6"/>
@@ -6783,9 +6947,9 @@
       <c r="J289" s="7"/>
     </row>
     <row r="290" ht="21" customHeight="1">
-      <c r="A290" s="20"/>
-      <c r="B290" s="20"/>
-      <c r="C290" s="20"/>
+      <c r="A290" s="19"/>
+      <c r="B290" s="19"/>
+      <c r="C290" s="19"/>
       <c r="D290" s="6"/>
       <c r="E290" s="6"/>
       <c r="F290" s="6"/>
@@ -6795,9 +6959,9 @@
       <c r="J290" s="7"/>
     </row>
     <row r="291" ht="21" customHeight="1">
-      <c r="A291" s="20"/>
-      <c r="B291" s="20"/>
-      <c r="C291" s="20"/>
+      <c r="A291" s="19"/>
+      <c r="B291" s="19"/>
+      <c r="C291" s="19"/>
       <c r="D291" s="6"/>
       <c r="E291" s="6"/>
       <c r="F291" s="6"/>
@@ -6807,9 +6971,9 @@
       <c r="J291" s="7"/>
     </row>
     <row r="292" ht="21" customHeight="1">
-      <c r="A292" s="20"/>
-      <c r="B292" s="20"/>
-      <c r="C292" s="20"/>
+      <c r="A292" s="19"/>
+      <c r="B292" s="19"/>
+      <c r="C292" s="19"/>
       <c r="D292" s="6"/>
       <c r="E292" s="6"/>
       <c r="F292" s="6"/>
@@ -6821,7 +6985,7 @@
     <row r="293" ht="21" customHeight="1">
       <c r="A293" s="26"/>
       <c r="B293" s="26"/>
-      <c r="C293" s="20"/>
+      <c r="C293" s="19"/>
       <c r="D293" s="6"/>
       <c r="E293" s="6"/>
       <c r="F293" s="6"/>
@@ -6833,7 +6997,7 @@
     <row r="294" ht="21" customHeight="1">
       <c r="A294" s="27"/>
       <c r="B294" s="27"/>
-      <c r="C294" s="25"/>
+      <c r="C294" s="24"/>
       <c r="D294" s="6"/>
       <c r="E294" s="6"/>
       <c r="F294" s="6"/>
@@ -6843,21 +7007,21 @@
       <c r="J294" s="12"/>
     </row>
     <row r="295" ht="20.7" customHeight="1">
-      <c r="A295" s="29"/>
-      <c r="B295" s="29"/>
-      <c r="C295" s="20"/>
-      <c r="D295" s="20"/>
-      <c r="E295" s="20"/>
-      <c r="F295" s="20"/>
-      <c r="G295" s="20"/>
+      <c r="A295" s="28"/>
+      <c r="B295" s="28"/>
+      <c r="C295" s="19"/>
+      <c r="D295" s="19"/>
+      <c r="E295" s="19"/>
+      <c r="F295" s="19"/>
+      <c r="G295" s="19"/>
       <c r="H295" s="6"/>
-      <c r="I295" s="20"/>
-      <c r="J295" s="21"/>
+      <c r="I295" s="19"/>
+      <c r="J295" s="22"/>
     </row>
     <row r="296" ht="21" customHeight="1">
-      <c r="A296" s="20"/>
-      <c r="B296" s="20"/>
-      <c r="C296" s="20"/>
+      <c r="A296" s="19"/>
+      <c r="B296" s="19"/>
+      <c r="C296" s="19"/>
       <c r="D296" s="6"/>
       <c r="E296" s="6"/>
       <c r="F296" s="6"/>
@@ -6867,9 +7031,9 @@
       <c r="J296" s="7"/>
     </row>
     <row r="297" ht="21" customHeight="1">
-      <c r="A297" s="20"/>
-      <c r="B297" s="20"/>
-      <c r="C297" s="20"/>
+      <c r="A297" s="19"/>
+      <c r="B297" s="19"/>
+      <c r="C297" s="19"/>
       <c r="D297" s="6"/>
       <c r="E297" s="6"/>
       <c r="F297" s="6"/>
@@ -6879,9 +7043,9 @@
       <c r="J297" s="7"/>
     </row>
     <row r="298" ht="21" customHeight="1">
-      <c r="A298" s="20"/>
-      <c r="B298" s="20"/>
-      <c r="C298" s="20"/>
+      <c r="A298" s="19"/>
+      <c r="B298" s="19"/>
+      <c r="C298" s="19"/>
       <c r="D298" s="6"/>
       <c r="E298" s="6"/>
       <c r="F298" s="6"/>
@@ -6891,9 +7055,9 @@
       <c r="J298" s="7"/>
     </row>
     <row r="299" ht="21" customHeight="1">
-      <c r="A299" s="20"/>
-      <c r="B299" s="20"/>
-      <c r="C299" s="20"/>
+      <c r="A299" s="19"/>
+      <c r="B299" s="19"/>
+      <c r="C299" s="19"/>
       <c r="D299" s="6"/>
       <c r="E299" s="6"/>
       <c r="F299" s="6"/>
@@ -6905,7 +7069,7 @@
     <row r="300" ht="21" customHeight="1">
       <c r="A300" s="26"/>
       <c r="B300" s="26"/>
-      <c r="C300" s="20"/>
+      <c r="C300" s="19"/>
       <c r="D300" s="6"/>
       <c r="E300" s="6"/>
       <c r="F300" s="6"/>
@@ -6917,7 +7081,7 @@
     <row r="301" ht="21" customHeight="1">
       <c r="A301" s="27"/>
       <c r="B301" s="27"/>
-      <c r="C301" s="25"/>
+      <c r="C301" s="24"/>
       <c r="D301" s="6"/>
       <c r="E301" s="6"/>
       <c r="F301" s="6"/>
@@ -6927,9 +7091,9 @@
       <c r="J301" s="7"/>
     </row>
     <row r="302" ht="21" customHeight="1">
-      <c r="A302" s="29"/>
-      <c r="B302" s="29"/>
-      <c r="C302" s="20"/>
+      <c r="A302" s="28"/>
+      <c r="B302" s="28"/>
+      <c r="C302" s="19"/>
       <c r="D302" s="6"/>
       <c r="E302" s="6"/>
       <c r="F302" s="6"/>
@@ -6939,9 +7103,9 @@
       <c r="J302" s="12"/>
     </row>
     <row r="303" ht="21" customHeight="1">
-      <c r="A303" s="20"/>
-      <c r="B303" s="20"/>
-      <c r="C303" s="20"/>
+      <c r="A303" s="19"/>
+      <c r="B303" s="19"/>
+      <c r="C303" s="19"/>
       <c r="D303" s="6"/>
       <c r="E303" s="6"/>
       <c r="F303" s="6"/>
@@ -6951,9 +7115,9 @@
       <c r="J303" s="14"/>
     </row>
     <row r="304" ht="21" customHeight="1">
-      <c r="A304" s="20"/>
-      <c r="B304" s="20"/>
-      <c r="C304" s="20"/>
+      <c r="A304" s="19"/>
+      <c r="B304" s="19"/>
+      <c r="C304" s="19"/>
       <c r="D304" s="6"/>
       <c r="E304" s="6"/>
       <c r="F304" s="6"/>
@@ -6963,33 +7127,33 @@
       <c r="J304" s="12"/>
     </row>
     <row r="305" ht="20.35" customHeight="1">
-      <c r="A305" s="20"/>
-      <c r="B305" s="20"/>
-      <c r="C305" s="20"/>
-      <c r="D305" s="20"/>
-      <c r="E305" s="20"/>
-      <c r="F305" s="20"/>
-      <c r="G305" s="20"/>
+      <c r="A305" s="19"/>
+      <c r="B305" s="19"/>
+      <c r="C305" s="19"/>
+      <c r="D305" s="19"/>
+      <c r="E305" s="19"/>
+      <c r="F305" s="19"/>
+      <c r="G305" s="19"/>
       <c r="H305" s="6"/>
-      <c r="I305" s="20"/>
-      <c r="J305" s="22"/>
+      <c r="I305" s="19"/>
+      <c r="J305" s="20"/>
     </row>
     <row r="306" ht="20.35" customHeight="1">
-      <c r="A306" s="20"/>
-      <c r="B306" s="20"/>
-      <c r="C306" s="20"/>
-      <c r="D306" s="20"/>
-      <c r="E306" s="20"/>
-      <c r="F306" s="20"/>
-      <c r="G306" s="20"/>
+      <c r="A306" s="19"/>
+      <c r="B306" s="19"/>
+      <c r="C306" s="19"/>
+      <c r="D306" s="19"/>
+      <c r="E306" s="19"/>
+      <c r="F306" s="19"/>
+      <c r="G306" s="19"/>
       <c r="H306" s="6"/>
-      <c r="I306" s="20"/>
-      <c r="J306" s="21"/>
+      <c r="I306" s="19"/>
+      <c r="J306" s="22"/>
     </row>
     <row r="307" ht="21" customHeight="1">
-      <c r="A307" s="20"/>
-      <c r="B307" s="20"/>
-      <c r="C307" s="20"/>
+      <c r="A307" s="19"/>
+      <c r="B307" s="19"/>
+      <c r="C307" s="19"/>
       <c r="D307" s="6"/>
       <c r="E307" s="6"/>
       <c r="F307" s="6"/>
@@ -6999,9 +7163,9 @@
       <c r="J307" s="12"/>
     </row>
     <row r="308" ht="21" customHeight="1">
-      <c r="A308" s="20"/>
-      <c r="B308" s="20"/>
-      <c r="C308" s="20"/>
+      <c r="A308" s="19"/>
+      <c r="B308" s="19"/>
+      <c r="C308" s="19"/>
       <c r="D308" s="6"/>
       <c r="E308" s="6"/>
       <c r="F308" s="6"/>
@@ -7011,9 +7175,9 @@
       <c r="J308" s="14"/>
     </row>
     <row r="309" ht="21" customHeight="1">
-      <c r="A309" s="20"/>
-      <c r="B309" s="20"/>
-      <c r="C309" s="20"/>
+      <c r="A309" s="19"/>
+      <c r="B309" s="19"/>
+      <c r="C309" s="19"/>
       <c r="D309" s="6"/>
       <c r="E309" s="6"/>
       <c r="F309" s="6"/>
@@ -7023,9 +7187,9 @@
       <c r="J309" s="12"/>
     </row>
     <row r="310" ht="21" customHeight="1">
-      <c r="A310" s="20"/>
-      <c r="B310" s="20"/>
-      <c r="C310" s="20"/>
+      <c r="A310" s="19"/>
+      <c r="B310" s="19"/>
+      <c r="C310" s="19"/>
       <c r="D310" s="6"/>
       <c r="E310" s="6"/>
       <c r="F310" s="6"/>
@@ -7035,21 +7199,21 @@
       <c r="J310" s="14"/>
     </row>
     <row r="311" ht="21" customHeight="1">
-      <c r="A311" s="20"/>
-      <c r="B311" s="20"/>
-      <c r="C311" s="20"/>
-      <c r="D311" s="20"/>
-      <c r="E311" s="20"/>
-      <c r="F311" s="20"/>
-      <c r="G311" s="20"/>
+      <c r="A311" s="19"/>
+      <c r="B311" s="19"/>
+      <c r="C311" s="19"/>
+      <c r="D311" s="19"/>
+      <c r="E311" s="19"/>
+      <c r="F311" s="19"/>
+      <c r="G311" s="19"/>
       <c r="H311" s="6"/>
-      <c r="I311" s="20"/>
+      <c r="I311" s="19"/>
       <c r="J311" s="7"/>
     </row>
     <row r="312" ht="21" customHeight="1">
-      <c r="A312" s="20"/>
-      <c r="B312" s="20"/>
-      <c r="C312" s="20"/>
+      <c r="A312" s="19"/>
+      <c r="B312" s="19"/>
+      <c r="C312" s="19"/>
       <c r="D312" s="6"/>
       <c r="E312" s="6"/>
       <c r="F312" s="6"/>
@@ -7059,9 +7223,9 @@
       <c r="J312" s="7"/>
     </row>
     <row r="313" ht="21" customHeight="1">
-      <c r="A313" s="20"/>
-      <c r="B313" s="20"/>
-      <c r="C313" s="20"/>
+      <c r="A313" s="19"/>
+      <c r="B313" s="19"/>
+      <c r="C313" s="19"/>
       <c r="D313" s="6"/>
       <c r="E313" s="6"/>
       <c r="F313" s="6"/>
@@ -7071,21 +7235,21 @@
       <c r="J313" s="12"/>
     </row>
     <row r="314" ht="20.7" customHeight="1">
-      <c r="A314" s="20"/>
-      <c r="B314" s="20"/>
-      <c r="C314" s="20"/>
-      <c r="D314" s="20"/>
-      <c r="E314" s="20"/>
-      <c r="F314" s="20"/>
-      <c r="G314" s="20"/>
+      <c r="A314" s="19"/>
+      <c r="B314" s="19"/>
+      <c r="C314" s="19"/>
+      <c r="D314" s="19"/>
+      <c r="E314" s="19"/>
+      <c r="F314" s="19"/>
+      <c r="G314" s="19"/>
       <c r="H314" s="6"/>
-      <c r="I314" s="20"/>
-      <c r="J314" s="21"/>
+      <c r="I314" s="19"/>
+      <c r="J314" s="22"/>
     </row>
     <row r="315" ht="21" customHeight="1">
-      <c r="A315" s="20"/>
-      <c r="B315" s="20"/>
-      <c r="C315" s="20"/>
+      <c r="A315" s="19"/>
+      <c r="B315" s="19"/>
+      <c r="C315" s="19"/>
       <c r="D315" s="6"/>
       <c r="E315" s="6"/>
       <c r="F315" s="6"/>
@@ -7095,9 +7259,9 @@
       <c r="J315" s="7"/>
     </row>
     <row r="316" ht="21" customHeight="1">
-      <c r="A316" s="20"/>
-      <c r="B316" s="20"/>
-      <c r="C316" s="20"/>
+      <c r="A316" s="19"/>
+      <c r="B316" s="19"/>
+      <c r="C316" s="19"/>
       <c r="D316" s="6"/>
       <c r="E316" s="6"/>
       <c r="F316" s="6"/>
@@ -7107,9 +7271,9 @@
       <c r="J316" s="7"/>
     </row>
     <row r="317" ht="21" customHeight="1">
-      <c r="A317" s="20"/>
-      <c r="B317" s="20"/>
-      <c r="C317" s="20"/>
+      <c r="A317" s="19"/>
+      <c r="B317" s="19"/>
+      <c r="C317" s="19"/>
       <c r="D317" s="6"/>
       <c r="E317" s="6"/>
       <c r="F317" s="6"/>
@@ -7119,9 +7283,9 @@
       <c r="J317" s="12"/>
     </row>
     <row r="318" ht="21" customHeight="1">
-      <c r="A318" s="20"/>
-      <c r="B318" s="20"/>
-      <c r="C318" s="20"/>
+      <c r="A318" s="19"/>
+      <c r="B318" s="19"/>
+      <c r="C318" s="19"/>
       <c r="D318" s="6"/>
       <c r="E318" s="6"/>
       <c r="F318" s="6"/>
@@ -7131,9 +7295,9 @@
       <c r="J318" s="14"/>
     </row>
     <row r="319" ht="21" customHeight="1">
-      <c r="A319" s="20"/>
-      <c r="B319" s="20"/>
-      <c r="C319" s="20"/>
+      <c r="A319" s="19"/>
+      <c r="B319" s="19"/>
+      <c r="C319" s="19"/>
       <c r="D319" s="6"/>
       <c r="E319" s="6"/>
       <c r="F319" s="6"/>
@@ -7143,9 +7307,9 @@
       <c r="J319" s="7"/>
     </row>
     <row r="320" ht="21" customHeight="1">
-      <c r="A320" s="20"/>
-      <c r="B320" s="20"/>
-      <c r="C320" s="20"/>
+      <c r="A320" s="19"/>
+      <c r="B320" s="19"/>
+      <c r="C320" s="19"/>
       <c r="D320" s="6"/>
       <c r="E320" s="6"/>
       <c r="F320" s="6"/>
@@ -7155,9 +7319,9 @@
       <c r="J320" s="7"/>
     </row>
     <row r="321" ht="21" customHeight="1">
-      <c r="A321" s="20"/>
-      <c r="B321" s="20"/>
-      <c r="C321" s="20"/>
+      <c r="A321" s="19"/>
+      <c r="B321" s="19"/>
+      <c r="C321" s="19"/>
       <c r="D321" s="6"/>
       <c r="E321" s="6"/>
       <c r="F321" s="6"/>
@@ -7167,9 +7331,9 @@
       <c r="J321" s="7"/>
     </row>
     <row r="322" ht="21" customHeight="1">
-      <c r="A322" s="20"/>
-      <c r="B322" s="20"/>
-      <c r="C322" s="20"/>
+      <c r="A322" s="19"/>
+      <c r="B322" s="19"/>
+      <c r="C322" s="19"/>
       <c r="D322" s="6"/>
       <c r="E322" s="6"/>
       <c r="F322" s="6"/>
@@ -7181,7 +7345,7 @@
     <row r="323" ht="21" customHeight="1">
       <c r="A323" s="26"/>
       <c r="B323" s="26"/>
-      <c r="C323" s="20"/>
+      <c r="C323" s="19"/>
       <c r="D323" s="6"/>
       <c r="E323" s="6"/>
       <c r="F323" s="6"/>
@@ -7193,7 +7357,7 @@
     <row r="324" ht="21" customHeight="1">
       <c r="A324" s="27"/>
       <c r="B324" s="27"/>
-      <c r="C324" s="25"/>
+      <c r="C324" s="24"/>
       <c r="D324" s="6"/>
       <c r="E324" s="6"/>
       <c r="F324" s="6"/>
@@ -7205,7 +7369,7 @@
     <row r="325" ht="21" customHeight="1">
       <c r="A325" s="27"/>
       <c r="B325" s="27"/>
-      <c r="C325" s="25"/>
+      <c r="C325" s="24"/>
       <c r="D325" s="6"/>
       <c r="E325" s="6"/>
       <c r="F325" s="6"/>
@@ -7217,7 +7381,7 @@
     <row r="326" ht="21" customHeight="1">
       <c r="A326" s="27"/>
       <c r="B326" s="27"/>
-      <c r="C326" s="25"/>
+      <c r="C326" s="24"/>
       <c r="D326" s="6"/>
       <c r="E326" s="6"/>
       <c r="F326" s="6"/>
@@ -7227,9 +7391,9 @@
       <c r="J326" s="12"/>
     </row>
     <row r="327" ht="21" customHeight="1">
-      <c r="A327" s="29"/>
-      <c r="B327" s="29"/>
-      <c r="C327" s="20"/>
+      <c r="A327" s="28"/>
+      <c r="B327" s="28"/>
+      <c r="C327" s="19"/>
       <c r="D327" s="6"/>
       <c r="E327" s="6"/>
       <c r="F327" s="6"/>
@@ -7239,9 +7403,9 @@
       <c r="J327" s="14"/>
     </row>
     <row r="328" ht="21" customHeight="1">
-      <c r="A328" s="20"/>
-      <c r="B328" s="20"/>
-      <c r="C328" s="20"/>
+      <c r="A328" s="19"/>
+      <c r="B328" s="19"/>
+      <c r="C328" s="19"/>
       <c r="D328" s="6"/>
       <c r="E328" s="6"/>
       <c r="F328" s="6"/>
@@ -7251,9 +7415,9 @@
       <c r="J328" s="7"/>
     </row>
     <row r="329" ht="21" customHeight="1">
-      <c r="A329" s="20"/>
-      <c r="B329" s="20"/>
-      <c r="C329" s="20"/>
+      <c r="A329" s="19"/>
+      <c r="B329" s="19"/>
+      <c r="C329" s="19"/>
       <c r="D329" s="6"/>
       <c r="E329" s="6"/>
       <c r="F329" s="6"/>
@@ -7263,9 +7427,9 @@
       <c r="J329" s="7"/>
     </row>
     <row r="330" ht="21" customHeight="1">
-      <c r="A330" s="20"/>
-      <c r="B330" s="20"/>
-      <c r="C330" s="20"/>
+      <c r="A330" s="19"/>
+      <c r="B330" s="19"/>
+      <c r="C330" s="19"/>
       <c r="D330" s="6"/>
       <c r="E330" s="6"/>
       <c r="F330" s="6"/>
@@ -7275,9 +7439,9 @@
       <c r="J330" s="7"/>
     </row>
     <row r="331" ht="21" customHeight="1">
-      <c r="A331" s="20"/>
-      <c r="B331" s="20"/>
-      <c r="C331" s="20"/>
+      <c r="A331" s="19"/>
+      <c r="B331" s="19"/>
+      <c r="C331" s="19"/>
       <c r="D331" s="6"/>
       <c r="E331" s="6"/>
       <c r="F331" s="6"/>
@@ -7287,9 +7451,9 @@
       <c r="J331" s="12"/>
     </row>
     <row r="332" ht="21" customHeight="1">
-      <c r="A332" s="20"/>
-      <c r="B332" s="20"/>
-      <c r="C332" s="20"/>
+      <c r="A332" s="19"/>
+      <c r="B332" s="19"/>
+      <c r="C332" s="19"/>
       <c r="D332" s="6"/>
       <c r="E332" s="6"/>
       <c r="F332" s="6"/>
@@ -7301,19 +7465,19 @@
     <row r="333" ht="20.7" customHeight="1">
       <c r="A333" s="26"/>
       <c r="B333" s="26"/>
-      <c r="C333" s="20"/>
-      <c r="D333" s="20"/>
-      <c r="E333" s="20"/>
-      <c r="F333" s="20"/>
-      <c r="G333" s="20"/>
+      <c r="C333" s="19"/>
+      <c r="D333" s="19"/>
+      <c r="E333" s="19"/>
+      <c r="F333" s="19"/>
+      <c r="G333" s="19"/>
       <c r="H333" s="6"/>
-      <c r="I333" s="20"/>
-      <c r="J333" s="21"/>
+      <c r="I333" s="19"/>
+      <c r="J333" s="22"/>
     </row>
     <row r="334" ht="21" customHeight="1">
       <c r="A334" s="27"/>
       <c r="B334" s="27"/>
-      <c r="C334" s="25"/>
+      <c r="C334" s="24"/>
       <c r="D334" s="6"/>
       <c r="E334" s="6"/>
       <c r="F334" s="6"/>
@@ -7325,7 +7489,7 @@
     <row r="335" ht="21" customHeight="1">
       <c r="A335" s="27"/>
       <c r="B335" s="27"/>
-      <c r="C335" s="25"/>
+      <c r="C335" s="24"/>
       <c r="D335" s="6"/>
       <c r="E335" s="6"/>
       <c r="F335" s="6"/>
@@ -7335,9 +7499,9 @@
       <c r="J335" s="12"/>
     </row>
     <row r="336" ht="21" customHeight="1">
-      <c r="A336" s="29"/>
-      <c r="B336" s="29"/>
-      <c r="C336" s="20"/>
+      <c r="A336" s="28"/>
+      <c r="B336" s="28"/>
+      <c r="C336" s="19"/>
       <c r="D336" s="6"/>
       <c r="E336" s="6"/>
       <c r="F336" s="6"/>
@@ -7347,9 +7511,9 @@
       <c r="J336" s="14"/>
     </row>
     <row r="337" ht="21" customHeight="1">
-      <c r="A337" s="20"/>
-      <c r="B337" s="20"/>
-      <c r="C337" s="20"/>
+      <c r="A337" s="19"/>
+      <c r="B337" s="19"/>
+      <c r="C337" s="19"/>
       <c r="D337" s="6"/>
       <c r="E337" s="6"/>
       <c r="F337" s="6"/>
@@ -7359,9 +7523,9 @@
       <c r="J337" s="7"/>
     </row>
     <row r="338" ht="21" customHeight="1">
-      <c r="A338" s="20"/>
-      <c r="B338" s="20"/>
-      <c r="C338" s="20"/>
+      <c r="A338" s="19"/>
+      <c r="B338" s="19"/>
+      <c r="C338" s="19"/>
       <c r="D338" s="6"/>
       <c r="E338" s="6"/>
       <c r="F338" s="6"/>
@@ -7371,9 +7535,9 @@
       <c r="J338" s="7"/>
     </row>
     <row r="339" ht="21" customHeight="1">
-      <c r="A339" s="20"/>
-      <c r="B339" s="20"/>
-      <c r="C339" s="20"/>
+      <c r="A339" s="19"/>
+      <c r="B339" s="19"/>
+      <c r="C339" s="19"/>
       <c r="D339" s="6"/>
       <c r="E339" s="6"/>
       <c r="F339" s="6"/>
@@ -7383,9 +7547,9 @@
       <c r="J339" s="12"/>
     </row>
     <row r="340" ht="21" customHeight="1">
-      <c r="A340" s="20"/>
-      <c r="B340" s="20"/>
-      <c r="C340" s="20"/>
+      <c r="A340" s="19"/>
+      <c r="B340" s="19"/>
+      <c r="C340" s="19"/>
       <c r="D340" s="6"/>
       <c r="E340" s="6"/>
       <c r="F340" s="6"/>
@@ -7395,9 +7559,9 @@
       <c r="J340" s="14"/>
     </row>
     <row r="341" ht="21" customHeight="1">
-      <c r="A341" s="20"/>
-      <c r="B341" s="20"/>
-      <c r="C341" s="20"/>
+      <c r="A341" s="19"/>
+      <c r="B341" s="19"/>
+      <c r="C341" s="19"/>
       <c r="D341" s="6"/>
       <c r="E341" s="6"/>
       <c r="F341" s="6"/>
@@ -7407,9 +7571,9 @@
       <c r="J341" s="7"/>
     </row>
     <row r="342" ht="21" customHeight="1">
-      <c r="A342" s="20"/>
-      <c r="B342" s="20"/>
-      <c r="C342" s="20"/>
+      <c r="A342" s="19"/>
+      <c r="B342" s="19"/>
+      <c r="C342" s="19"/>
       <c r="D342" s="6"/>
       <c r="E342" s="6"/>
       <c r="F342" s="6"/>
@@ -7419,9 +7583,9 @@
       <c r="J342" s="7"/>
     </row>
     <row r="343" ht="21" customHeight="1">
-      <c r="A343" s="20"/>
-      <c r="B343" s="20"/>
-      <c r="C343" s="20"/>
+      <c r="A343" s="19"/>
+      <c r="B343" s="19"/>
+      <c r="C343" s="19"/>
       <c r="D343" s="6"/>
       <c r="E343" s="6"/>
       <c r="F343" s="6"/>
@@ -7431,9 +7595,9 @@
       <c r="J343" s="7"/>
     </row>
     <row r="344" ht="21" customHeight="1">
-      <c r="A344" s="20"/>
-      <c r="B344" s="20"/>
-      <c r="C344" s="20"/>
+      <c r="A344" s="19"/>
+      <c r="B344" s="19"/>
+      <c r="C344" s="19"/>
       <c r="D344" s="6"/>
       <c r="E344" s="6"/>
       <c r="F344" s="6"/>
@@ -7445,7 +7609,7 @@
     <row r="345" ht="21" customHeight="1">
       <c r="A345" s="26"/>
       <c r="B345" s="26"/>
-      <c r="C345" s="20"/>
+      <c r="C345" s="19"/>
       <c r="D345" s="6"/>
       <c r="E345" s="6"/>
       <c r="F345" s="6"/>
@@ -7457,7 +7621,7 @@
     <row r="346" ht="21" customHeight="1">
       <c r="A346" s="27"/>
       <c r="B346" s="27"/>
-      <c r="C346" s="25"/>
+      <c r="C346" s="24"/>
       <c r="D346" s="6"/>
       <c r="E346" s="6"/>
       <c r="F346" s="6"/>
@@ -7467,9 +7631,9 @@
       <c r="J346" s="12"/>
     </row>
     <row r="347" ht="21" customHeight="1">
-      <c r="A347" s="29"/>
-      <c r="B347" s="29"/>
-      <c r="C347" s="20"/>
+      <c r="A347" s="28"/>
+      <c r="B347" s="28"/>
+      <c r="C347" s="19"/>
       <c r="D347" s="6"/>
       <c r="E347" s="6"/>
       <c r="F347" s="6"/>
@@ -7479,9 +7643,9 @@
       <c r="J347" s="14"/>
     </row>
     <row r="348" ht="21" customHeight="1">
-      <c r="A348" s="20"/>
-      <c r="B348" s="20"/>
-      <c r="C348" s="20"/>
+      <c r="A348" s="19"/>
+      <c r="B348" s="19"/>
+      <c r="C348" s="19"/>
       <c r="D348" s="6"/>
       <c r="E348" s="6"/>
       <c r="F348" s="6"/>
@@ -7491,9 +7655,9 @@
       <c r="J348" s="12"/>
     </row>
     <row r="349" ht="21" customHeight="1">
-      <c r="A349" s="20"/>
-      <c r="B349" s="20"/>
-      <c r="C349" s="20"/>
+      <c r="A349" s="19"/>
+      <c r="B349" s="19"/>
+      <c r="C349" s="19"/>
       <c r="D349" s="6"/>
       <c r="E349" s="6"/>
       <c r="F349" s="6"/>
@@ -7503,9 +7667,9 @@
       <c r="J349" s="14"/>
     </row>
     <row r="350" ht="21" customHeight="1">
-      <c r="A350" s="20"/>
-      <c r="B350" s="20"/>
-      <c r="C350" s="20"/>
+      <c r="A350" s="19"/>
+      <c r="B350" s="19"/>
+      <c r="C350" s="19"/>
       <c r="D350" s="6"/>
       <c r="E350" s="6"/>
       <c r="F350" s="6"/>
@@ -7515,9 +7679,9 @@
       <c r="J350" s="7"/>
     </row>
     <row r="351" ht="21" customHeight="1">
-      <c r="A351" s="20"/>
-      <c r="B351" s="20"/>
-      <c r="C351" s="20"/>
+      <c r="A351" s="19"/>
+      <c r="B351" s="19"/>
+      <c r="C351" s="19"/>
       <c r="D351" s="6"/>
       <c r="E351" s="6"/>
       <c r="F351" s="6"/>
@@ -7527,9 +7691,9 @@
       <c r="J351" s="7"/>
     </row>
     <row r="352" ht="21" customHeight="1">
-      <c r="A352" s="20"/>
-      <c r="B352" s="20"/>
-      <c r="C352" s="20"/>
+      <c r="A352" s="19"/>
+      <c r="B352" s="19"/>
+      <c r="C352" s="19"/>
       <c r="D352" s="6"/>
       <c r="E352" s="6"/>
       <c r="F352" s="6"/>
@@ -7539,9 +7703,9 @@
       <c r="J352" s="7"/>
     </row>
     <row r="353" ht="21" customHeight="1">
-      <c r="A353" s="20"/>
-      <c r="B353" s="20"/>
-      <c r="C353" s="20"/>
+      <c r="A353" s="19"/>
+      <c r="B353" s="19"/>
+      <c r="C353" s="19"/>
       <c r="D353" s="6"/>
       <c r="E353" s="6"/>
       <c r="F353" s="6"/>
@@ -7551,9 +7715,9 @@
       <c r="J353" s="12"/>
     </row>
     <row r="354" ht="21" customHeight="1">
-      <c r="A354" s="20"/>
-      <c r="B354" s="20"/>
-      <c r="C354" s="20"/>
+      <c r="A354" s="19"/>
+      <c r="B354" s="19"/>
+      <c r="C354" s="19"/>
       <c r="D354" s="6"/>
       <c r="E354" s="6"/>
       <c r="F354" s="6"/>
@@ -7563,9 +7727,9 @@
       <c r="J354" s="14"/>
     </row>
     <row r="355" ht="21" customHeight="1">
-      <c r="A355" s="20"/>
-      <c r="B355" s="20"/>
-      <c r="C355" s="20"/>
+      <c r="A355" s="19"/>
+      <c r="B355" s="19"/>
+      <c r="C355" s="19"/>
       <c r="D355" s="6"/>
       <c r="E355" s="6"/>
       <c r="F355" s="6"/>

--- a/cw12022023.xlsx
+++ b/cw12022023.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="357">
   <si>
     <t>Surname</t>
   </si>
@@ -166,6 +166,12 @@
     <t>H220422M</t>
   </si>
   <si>
+    <t>Chiona</t>
+  </si>
+  <si>
+    <t>H220001E</t>
+  </si>
+  <si>
     <t>Chipembe</t>
   </si>
   <si>
@@ -196,6 +202,12 @@
     <t>H220523Y</t>
   </si>
   <si>
+    <t>Chiuswa</t>
+  </si>
+  <si>
+    <t>H220651M</t>
+  </si>
+  <si>
     <t>Dafter</t>
   </si>
   <si>
@@ -265,12 +277,30 @@
     <t>H220527A</t>
   </si>
   <si>
+    <t>Jachah</t>
+  </si>
+  <si>
+    <t>H220068Z</t>
+  </si>
+  <si>
+    <t>Jazi</t>
+  </si>
+  <si>
+    <t>H220609H</t>
+  </si>
+  <si>
     <t>Jinga</t>
   </si>
   <si>
     <t>H210570T</t>
   </si>
   <si>
+    <t>Jiriengwa</t>
+  </si>
+  <si>
+    <t>H220128A</t>
+  </si>
+  <si>
     <t>Jonasi</t>
   </si>
   <si>
@@ -283,6 +313,12 @@
     <t>H190340F</t>
   </si>
   <si>
+    <t>Kadyamurandu</t>
+  </si>
+  <si>
+    <t>H220437Q</t>
+  </si>
+  <si>
     <t>Kandi</t>
   </si>
   <si>
@@ -301,6 +337,12 @@
     <t>H220000V</t>
   </si>
   <si>
+    <t>Karuma</t>
+  </si>
+  <si>
+    <t>H220201A</t>
+  </si>
+  <si>
     <t>Kashiri</t>
   </si>
   <si>
@@ -337,12 +379,24 @@
     <t>H220098M</t>
   </si>
   <si>
+    <t>Machiri</t>
+  </si>
+  <si>
+    <t>H2204573</t>
+  </si>
+  <si>
     <t>Machote</t>
   </si>
   <si>
     <t>H220027Z</t>
   </si>
   <si>
+    <t>Madamombe</t>
+  </si>
+  <si>
+    <t>H220452T</t>
+  </si>
+  <si>
     <t>Madhende</t>
   </si>
   <si>
@@ -367,6 +421,12 @@
     <t>H220694Y</t>
   </si>
   <si>
+    <t>Majoni</t>
+  </si>
+  <si>
+    <t>H220083G</t>
+  </si>
+  <si>
     <t>Makanje</t>
   </si>
   <si>
@@ -379,12 +439,30 @@
     <t>H220032F</t>
   </si>
   <si>
+    <t>Makaye</t>
+  </si>
+  <si>
+    <t>H220206Y</t>
+  </si>
+  <si>
+    <t>Makope</t>
+  </si>
+  <si>
+    <t>H220487J</t>
+  </si>
+  <si>
     <t>Makuyana</t>
   </si>
   <si>
     <t>H210581E</t>
   </si>
   <si>
+    <t>Mambara</t>
+  </si>
+  <si>
+    <t>H220347T</t>
+  </si>
+  <si>
     <t>Mambayo</t>
   </si>
   <si>
@@ -397,12 +475,24 @@
     <t>H220186G</t>
   </si>
   <si>
+    <t>Mandava</t>
+  </si>
+  <si>
+    <t>H220178M</t>
+  </si>
+  <si>
     <t>Mandaza</t>
   </si>
   <si>
     <t>H220491V</t>
   </si>
   <si>
+    <t>Mandebvu</t>
+  </si>
+  <si>
+    <t>H220328C</t>
+  </si>
+  <si>
     <t>Mangozhu</t>
   </si>
   <si>
@@ -463,6 +553,12 @@
     <t>H220568A</t>
   </si>
   <si>
+    <t>Masocha</t>
+  </si>
+  <si>
+    <t>H220090R</t>
+  </si>
+  <si>
     <t>Masuku</t>
   </si>
   <si>
@@ -475,12 +571,30 @@
     <t>H220637E</t>
   </si>
   <si>
+    <t>Masvosva</t>
+  </si>
+  <si>
+    <t>H220060M</t>
+  </si>
+  <si>
     <t>Matambanadzo</t>
   </si>
   <si>
     <t>H220279B</t>
   </si>
   <si>
+    <t>Matema</t>
+  </si>
+  <si>
+    <t>H220020W</t>
+  </si>
+  <si>
+    <t>Matipangamise</t>
+  </si>
+  <si>
+    <t>H220043B</t>
+  </si>
+  <si>
     <t>Matongo</t>
   </si>
   <si>
@@ -529,6 +643,12 @@
     <t>H220217E</t>
   </si>
   <si>
+    <t>Mhakure</t>
+  </si>
+  <si>
+    <t>H220401M</t>
+  </si>
+  <si>
     <t>Mhandu</t>
   </si>
   <si>
@@ -553,6 +673,9 @@
     <t>H220642T</t>
   </si>
   <si>
+    <t>H220635Y</t>
+  </si>
+  <si>
     <t>Mtendi</t>
   </si>
   <si>
@@ -565,6 +688,12 @@
     <t>H220584B</t>
   </si>
   <si>
+    <t>Muchena</t>
+  </si>
+  <si>
+    <t>H220107E</t>
+  </si>
+  <si>
     <t>Mudekwa</t>
   </si>
   <si>
@@ -583,6 +712,12 @@
     <t>H220123C</t>
   </si>
   <si>
+    <t>Mukwashi</t>
+  </si>
+  <si>
+    <t>H220438T</t>
+  </si>
+  <si>
     <t>Munhutu</t>
   </si>
   <si>
@@ -649,6 +784,12 @@
     <t>H220267R</t>
   </si>
   <si>
+    <t>Mutaramutswa</t>
+  </si>
+  <si>
+    <t>H220543P</t>
+  </si>
+  <si>
     <t>Mutasa</t>
   </si>
   <si>
@@ -661,6 +802,12 @@
     <t>H220309Z</t>
   </si>
   <si>
+    <t>Muwisa</t>
+  </si>
+  <si>
+    <t>H220297X</t>
+  </si>
+  <si>
     <t>Muzvimwe</t>
   </si>
   <si>
@@ -679,18 +826,48 @@
     <t>H220200V</t>
   </si>
   <si>
+    <t>Ndebele</t>
+  </si>
+  <si>
+    <t>H220731A</t>
+  </si>
+  <si>
     <t>Ndige</t>
   </si>
   <si>
     <t>H220676Q</t>
   </si>
   <si>
+    <t>Ndlovu</t>
+  </si>
+  <si>
+    <t>H220403P</t>
+  </si>
+  <si>
+    <t>Nemadziva</t>
+  </si>
+  <si>
+    <t>H220601Q</t>
+  </si>
+  <si>
+    <t>Ngocha</t>
+  </si>
+  <si>
+    <t>H220367F</t>
+  </si>
+  <si>
     <t>Ngoromani</t>
   </si>
   <si>
     <t>H220579F</t>
   </si>
   <si>
+    <t>Ngulube</t>
+  </si>
+  <si>
+    <t>H220205A</t>
+  </si>
+  <si>
     <t>Nhambu</t>
   </si>
   <si>
@@ -709,6 +886,12 @@
     <t>H210240M</t>
   </si>
   <si>
+    <t>Nyamano</t>
+  </si>
+  <si>
+    <t>H220570X</t>
+  </si>
+  <si>
     <t>Nyamaropa</t>
   </si>
   <si>
@@ -721,6 +904,12 @@
     <t>H220486J</t>
   </si>
   <si>
+    <t>Nyawuri</t>
+  </si>
+  <si>
+    <t>H220188W</t>
+  </si>
+  <si>
     <t>Nyikayaramba</t>
   </si>
   <si>
@@ -757,6 +946,18 @@
     <t>H220003C</t>
   </si>
   <si>
+    <t>Phiri</t>
+  </si>
+  <si>
+    <t>H220305R</t>
+  </si>
+  <si>
+    <t>Pomborokani</t>
+  </si>
+  <si>
+    <t>H220485J</t>
+  </si>
+  <si>
     <t>Ratinina</t>
   </si>
   <si>
@@ -809,6 +1010,12 @@
   </si>
   <si>
     <t>H220448M</t>
+  </si>
+  <si>
+    <t>Tambudzai</t>
+  </si>
+  <si>
+    <t>H220012M</t>
   </si>
   <si>
     <t>Tarindwa</t>
@@ -2408,7 +2615,9 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
+      <c r="H3" s="6">
+        <v>0</v>
+      </c>
       <c r="I3" s="6"/>
       <c r="J3" s="7"/>
     </row>
@@ -2448,7 +2657,9 @@
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
+      <c r="H5" s="6">
+        <v>0.722222222222222</v>
+      </c>
       <c r="I5" s="6"/>
       <c r="J5" s="7"/>
     </row>
@@ -2508,7 +2719,9 @@
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
+      <c r="H8" s="6">
+        <v>0.777777777777778</v>
+      </c>
       <c r="I8" s="6"/>
       <c r="J8" s="7"/>
     </row>
@@ -2628,7 +2841,9 @@
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+      <c r="H14" s="6">
+        <v>0.75</v>
+      </c>
       <c r="I14" s="6"/>
       <c r="J14" s="14"/>
     </row>
@@ -2728,115 +2943,115 @@
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
+      <c r="H19" s="6">
+        <v>0</v>
+      </c>
       <c r="I19" s="6"/>
-      <c r="J19" s="13"/>
-    </row>
-    <row r="20" ht="20.7" customHeight="1">
-      <c r="A20" t="s" s="4">
+      <c r="J19" s="14"/>
+    </row>
+    <row r="20" ht="21" customHeight="1">
+      <c r="A20" t="s" s="5">
         <v>51</v>
       </c>
-      <c r="B20" t="s" s="4">
+      <c r="B20" t="s" s="5">
         <v>52</v>
       </c>
-      <c r="C20" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D20" s="21">
-        <v>0.666666666666667</v>
-      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
       <c r="E20" s="19"/>
       <c r="F20" s="19"/>
       <c r="G20" s="19"/>
       <c r="H20" s="6">
+        <v>0.722222222222222</v>
+      </c>
+      <c r="I20" s="19"/>
+      <c r="J20" s="12"/>
+    </row>
+    <row r="21" ht="20.7" customHeight="1">
+      <c r="A21" t="s" s="4">
+        <v>53</v>
+      </c>
+      <c r="B21" t="s" s="4">
+        <v>54</v>
+      </c>
+      <c r="C21" t="s" s="5">
+        <v>18</v>
+      </c>
+      <c r="D21" s="21">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="6">
         <v>0.805555555555556</v>
       </c>
-      <c r="I20" s="19"/>
-      <c r="J20" s="22"/>
-    </row>
-    <row r="21" ht="21" customHeight="1">
-      <c r="A21" t="s" s="9">
-        <v>53</v>
-      </c>
-      <c r="B21" t="s" s="9">
-        <v>54</v>
-      </c>
-      <c r="C21" t="s" s="10">
+      <c r="I21" s="19"/>
+      <c r="J21" s="22"/>
+    </row>
+    <row r="22" ht="21" customHeight="1">
+      <c r="A22" t="s" s="9">
+        <v>55</v>
+      </c>
+      <c r="B22" t="s" s="9">
+        <v>56</v>
+      </c>
+      <c r="C22" t="s" s="10">
         <v>21</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D22" s="6">
         <v>0.880952380952381</v>
-      </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="I21" s="6"/>
-      <c r="J21" s="7"/>
-    </row>
-    <row r="22" ht="21" customHeight="1">
-      <c r="A22" t="s" s="4">
-        <v>55</v>
-      </c>
-      <c r="B22" t="s" s="4">
-        <v>56</v>
-      </c>
-      <c r="C22" t="s" s="5">
-        <v>15</v>
-      </c>
-      <c r="D22" s="6">
-        <v>0.666666666666667</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
+      <c r="H22" s="6">
+        <v>0.75</v>
+      </c>
       <c r="I22" s="6"/>
-      <c r="J22" s="12"/>
-    </row>
-    <row r="23" ht="20.7" customHeight="1">
-      <c r="A23" t="s" s="8">
+      <c r="J22" s="7"/>
+    </row>
+    <row r="23" ht="21" customHeight="1">
+      <c r="A23" t="s" s="4">
         <v>57</v>
       </c>
-      <c r="B23" t="s" s="8">
+      <c r="B23" t="s" s="4">
         <v>58</v>
       </c>
       <c r="C23" t="s" s="5">
+        <v>15</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="12"/>
+    </row>
+    <row r="24" ht="20.7" customHeight="1">
+      <c r="A24" t="s" s="8">
+        <v>59</v>
+      </c>
+      <c r="B24" t="s" s="8">
+        <v>60</v>
+      </c>
+      <c r="C24" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="6">
-        <v>0.805555555555556</v>
-      </c>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
-    </row>
-    <row r="24" ht="20.7" customHeight="1">
-      <c r="A24" t="s" s="5">
-        <v>59</v>
-      </c>
-      <c r="B24" t="s" s="5">
-        <v>60</v>
-      </c>
-      <c r="C24" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="D24" s="6">
-        <v>0.214285714285714</v>
-      </c>
+      <c r="D24" s="19"/>
       <c r="E24" s="19"/>
       <c r="F24" s="19"/>
       <c r="G24" s="19"/>
-      <c r="H24" s="6"/>
+      <c r="H24" s="6">
+        <v>0.805555555555556</v>
+      </c>
       <c r="I24" s="19"/>
-      <c r="J24" s="22"/>
-    </row>
-    <row r="25" ht="21" customHeight="1">
+      <c r="J24" s="20"/>
+    </row>
+    <row r="25" ht="20.7" customHeight="1">
       <c r="A25" t="s" s="5">
         <v>61</v>
       </c>
@@ -2844,281 +3059,285 @@
         <v>62</v>
       </c>
       <c r="C25" t="s" s="5">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D25" s="6">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="7"/>
+        <v>0.214285714285714</v>
+      </c>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="6">
+        <v>0</v>
+      </c>
+      <c r="I25" s="19"/>
+      <c r="J25" s="22"/>
     </row>
     <row r="26" ht="21" customHeight="1">
-      <c r="A26" t="s" s="4">
+      <c r="A26" t="s" s="5">
         <v>63</v>
       </c>
-      <c r="B26" t="s" s="4">
+      <c r="B26" t="s" s="5">
         <v>64</v>
       </c>
       <c r="C26" t="s" s="5">
-        <v>65</v>
-      </c>
-      <c r="D26" s="6">
-        <v>0.904761904761905</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
+      <c r="H26" s="6">
+        <v>0.305555555555556</v>
+      </c>
       <c r="I26" s="6"/>
-      <c r="J26" s="12"/>
+      <c r="J26" s="7"/>
     </row>
     <row r="27" ht="21" customHeight="1">
-      <c r="A27" t="s" s="23">
+      <c r="A27" t="s" s="5">
+        <v>65</v>
+      </c>
+      <c r="B27" t="s" s="5">
         <v>66</v>
       </c>
-      <c r="B27" t="s" s="23">
-        <v>67</v>
-      </c>
       <c r="C27" t="s" s="5">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D27" s="6">
-        <v>0.595238095238095</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
-      <c r="J27" s="13"/>
+      <c r="J27" s="7"/>
     </row>
     <row r="28" ht="21" customHeight="1">
-      <c r="A28" t="s" s="8">
+      <c r="A28" t="s" s="4">
+        <v>67</v>
+      </c>
+      <c r="B28" t="s" s="4">
         <v>68</v>
       </c>
-      <c r="B28" t="s" s="8">
+      <c r="C28" t="s" s="5">
         <v>69</v>
       </c>
-      <c r="C28" t="s" s="5">
-        <v>18</v>
-      </c>
       <c r="D28" s="6">
-        <v>0.571428571428571</v>
+        <v>0.904761904761905</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
-      <c r="H28" s="6">
-        <v>0.777777777777778</v>
-      </c>
+      <c r="H28" s="6"/>
       <c r="I28" s="6"/>
-      <c r="J28" s="13"/>
-    </row>
-    <row r="29" ht="20.7" customHeight="1">
-      <c r="A29" t="s" s="4">
+      <c r="J28" s="12"/>
+    </row>
+    <row r="29" ht="21" customHeight="1">
+      <c r="A29" t="s" s="23">
         <v>70</v>
       </c>
-      <c r="B29" t="s" s="4">
+      <c r="B29" t="s" s="23">
         <v>71</v>
       </c>
       <c r="C29" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
+        <v>69</v>
+      </c>
+      <c r="D29" s="6">
+        <v>0.595238095238095</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
       <c r="H29" s="6">
-        <v>0.777777777777778</v>
-      </c>
-      <c r="I29" s="19"/>
-      <c r="J29" s="22"/>
+        <v>0.75</v>
+      </c>
+      <c r="I29" s="6"/>
+      <c r="J29" s="13"/>
     </row>
     <row r="30" ht="21" customHeight="1">
-      <c r="A30" t="s" s="9">
+      <c r="A30" t="s" s="8">
         <v>72</v>
       </c>
-      <c r="B30" t="s" s="9">
+      <c r="B30" t="s" s="8">
         <v>73</v>
       </c>
-      <c r="C30" t="s" s="10">
-        <v>46</v>
+      <c r="C30" t="s" s="5">
+        <v>18</v>
       </c>
       <c r="D30" s="6">
-        <v>0.761904761904762</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
+      <c r="H30" s="6">
+        <v>0.777777777777778</v>
+      </c>
       <c r="I30" s="6"/>
-      <c r="J30" s="7"/>
-    </row>
-    <row r="31" ht="21" customHeight="1">
-      <c r="A31" t="s" s="5">
+      <c r="J30" s="13"/>
+    </row>
+    <row r="31" ht="20.7" customHeight="1">
+      <c r="A31" t="s" s="4">
         <v>74</v>
       </c>
-      <c r="B31" t="s" s="5">
+      <c r="B31" t="s" s="4">
         <v>75</v>
       </c>
       <c r="C31" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D31" s="6">
-        <v>0.571428571428571</v>
-      </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
       <c r="H31" s="6">
-        <v>0.555555555555556</v>
-      </c>
-      <c r="I31" s="6"/>
-      <c r="J31" s="7"/>
+        <v>0.777777777777778</v>
+      </c>
+      <c r="I31" s="19"/>
+      <c r="J31" s="22"/>
     </row>
     <row r="32" ht="21" customHeight="1">
-      <c r="A32" t="s" s="5">
+      <c r="A32" t="s" s="9">
         <v>76</v>
       </c>
-      <c r="B32" t="s" s="5">
+      <c r="B32" t="s" s="9">
         <v>77</v>
       </c>
-      <c r="C32" t="s" s="5">
-        <v>12</v>
+      <c r="C32" t="s" s="10">
+        <v>46</v>
       </c>
       <c r="D32" s="6">
-        <v>0.476190476190476</v>
+        <v>0.761904761904762</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
-      <c r="J32" s="12"/>
-    </row>
-    <row r="33" ht="20.35" customHeight="1">
-      <c r="A33" t="s" s="4">
+      <c r="J32" s="7"/>
+    </row>
+    <row r="33" ht="21" customHeight="1">
+      <c r="A33" t="s" s="5">
         <v>78</v>
       </c>
-      <c r="B33" t="s" s="4">
+      <c r="B33" t="s" s="5">
         <v>79</v>
       </c>
       <c r="C33" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
+      <c r="D33" s="6">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
       <c r="H33" s="6">
-        <v>0.777777777777778</v>
-      </c>
-      <c r="I33" s="19"/>
-      <c r="J33" s="22"/>
+        <v>0.555555555555556</v>
+      </c>
+      <c r="I33" s="6"/>
+      <c r="J33" s="7"/>
     </row>
     <row r="34" ht="21" customHeight="1">
-      <c r="A34" t="s" s="11">
+      <c r="A34" t="s" s="5">
         <v>80</v>
       </c>
-      <c r="B34" t="s" s="11">
+      <c r="B34" t="s" s="5">
         <v>81</v>
       </c>
-      <c r="C34" t="s" s="10">
-        <v>18</v>
-      </c>
-      <c r="D34" s="6"/>
+      <c r="C34" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D34" s="6">
+        <v>0.476190476190476</v>
+      </c>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
-      <c r="H34" s="6">
-        <v>0.75</v>
-      </c>
+      <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="12"/>
     </row>
-    <row r="35" ht="21" customHeight="1">
-      <c r="A35" t="s" s="8">
+    <row r="35" ht="20.35" customHeight="1">
+      <c r="A35" t="s" s="4">
         <v>82</v>
       </c>
-      <c r="B35" t="s" s="8">
+      <c r="B35" t="s" s="4">
         <v>83</v>
       </c>
       <c r="C35" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
       <c r="H35" s="6">
+        <v>0.777777777777778</v>
+      </c>
+      <c r="I35" s="19"/>
+      <c r="J35" s="22"/>
+    </row>
+    <row r="36" ht="21" customHeight="1">
+      <c r="A36" t="s" s="11">
+        <v>84</v>
+      </c>
+      <c r="B36" t="s" s="11">
+        <v>85</v>
+      </c>
+      <c r="C36" t="s" s="10">
+        <v>18</v>
+      </c>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6">
         <v>0.75</v>
       </c>
-      <c r="I35" s="6"/>
-      <c r="J35" s="13"/>
-    </row>
-    <row r="36" ht="20.7" customHeight="1">
-      <c r="A36" t="s" s="5">
-        <v>84</v>
-      </c>
-      <c r="B36" t="s" s="5">
-        <v>85</v>
-      </c>
-      <c r="C36" t="s" s="5">
-        <v>46</v>
-      </c>
-      <c r="D36" s="21">
-        <v>0.80952380952381</v>
-      </c>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="22"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="12"/>
     </row>
     <row r="37" ht="21" customHeight="1">
-      <c r="A37" t="s" s="4">
+      <c r="A37" t="s" s="23">
         <v>86</v>
       </c>
-      <c r="B37" t="s" s="4">
+      <c r="B37" t="s" s="23">
         <v>87</v>
       </c>
       <c r="C37" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D37" s="6">
-        <v>0.714285714285714</v>
-      </c>
+      <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6">
-        <v>0.694444444444444</v>
+        <v>0.75</v>
       </c>
       <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
+      <c r="J37" s="13"/>
     </row>
     <row r="38" ht="21" customHeight="1">
-      <c r="A38" t="s" s="9">
+      <c r="A38" t="s" s="8">
         <v>88</v>
       </c>
-      <c r="B38" t="s" s="9">
+      <c r="B38" t="s" s="8">
         <v>89</v>
       </c>
-      <c r="C38" s="24"/>
+      <c r="C38" t="s" s="5">
+        <v>18</v>
+      </c>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6">
-        <v>0.694444444444444</v>
+        <v>0.805555555555556</v>
       </c>
       <c r="I38" s="6"/>
-      <c r="J38" s="7"/>
+      <c r="J38" s="14"/>
     </row>
     <row r="39" ht="21" customHeight="1">
       <c r="A39" t="s" s="5">
@@ -3128,19 +3347,19 @@
         <v>91</v>
       </c>
       <c r="C39" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D39" s="6">
-        <v>0.619047619047619</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
+      <c r="H39" s="6">
+        <v>0</v>
+      </c>
       <c r="I39" s="6"/>
       <c r="J39" s="12"/>
     </row>
-    <row r="40" ht="21" customHeight="1">
+    <row r="40" ht="20.7" customHeight="1">
       <c r="A40" t="s" s="4">
         <v>92</v>
       </c>
@@ -3148,75 +3367,75 @@
         <v>93</v>
       </c>
       <c r="C40" t="s" s="5">
-        <v>15</v>
-      </c>
-      <c r="D40" s="6">
-        <v>0.595238095238095</v>
-      </c>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
+        <v>46</v>
+      </c>
+      <c r="D40" s="21">
+        <v>0.80952380952381</v>
+      </c>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
       <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="13"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="20"/>
     </row>
     <row r="41" ht="21" customHeight="1">
-      <c r="A41" t="s" s="8">
+      <c r="A41" t="s" s="9">
         <v>94</v>
       </c>
-      <c r="B41" t="s" s="8">
+      <c r="B41" t="s" s="9">
         <v>95</v>
       </c>
-      <c r="C41" t="s" s="5">
-        <v>18</v>
+      <c r="C41" t="s" s="10">
+        <v>69</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
       <c r="H41" s="6">
-        <v>0.777777777777778</v>
+        <v>0.75</v>
       </c>
       <c r="I41" s="6"/>
       <c r="J41" s="14"/>
     </row>
     <row r="42" ht="21" customHeight="1">
-      <c r="A42" t="s" s="5">
+      <c r="A42" t="s" s="4">
         <v>96</v>
       </c>
-      <c r="B42" t="s" s="5">
+      <c r="B42" t="s" s="4">
         <v>97</v>
       </c>
       <c r="C42" t="s" s="5">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D42" s="6">
-        <v>0.69047619047619</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
+      <c r="H42" s="6">
+        <v>0.694444444444444</v>
+      </c>
       <c r="I42" s="6"/>
       <c r="J42" s="7"/>
     </row>
     <row r="43" ht="21" customHeight="1">
-      <c r="A43" t="s" s="5">
+      <c r="A43" t="s" s="9">
         <v>98</v>
       </c>
-      <c r="B43" t="s" s="5">
+      <c r="B43" t="s" s="9">
         <v>99</v>
       </c>
-      <c r="C43" t="s" s="5">
-        <v>46</v>
-      </c>
-      <c r="D43" s="6">
-        <v>0.619047619047619</v>
-      </c>
+      <c r="C43" s="24"/>
+      <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
+      <c r="H43" s="6">
+        <v>0.694444444444444</v>
+      </c>
       <c r="I43" s="6"/>
       <c r="J43" s="7"/>
     </row>
@@ -3228,15 +3447,15 @@
         <v>101</v>
       </c>
       <c r="C44" t="s" s="5">
-        <v>65</v>
-      </c>
-      <c r="D44" s="6">
-        <v>0.80952380952381</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
+      <c r="H44" s="6">
+        <v>0.805555555555556</v>
+      </c>
       <c r="I44" s="6"/>
       <c r="J44" s="7"/>
     </row>
@@ -3247,58 +3466,60 @@
       <c r="B45" t="s" s="5">
         <v>103</v>
       </c>
-      <c r="C45" s="19"/>
-      <c r="D45" s="6"/>
+      <c r="C45" t="s" s="5">
+        <v>18</v>
+      </c>
+      <c r="D45" s="6">
+        <v>0.619047619047619</v>
+      </c>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="6">
-        <v>0.694444444444444</v>
-      </c>
+      <c r="H45" s="6"/>
       <c r="I45" s="6"/>
-      <c r="J45" s="7"/>
+      <c r="J45" s="12"/>
     </row>
     <row r="46" ht="21" customHeight="1">
-      <c r="A46" t="s" s="5">
+      <c r="A46" t="s" s="4">
         <v>104</v>
       </c>
-      <c r="B46" t="s" s="5">
+      <c r="B46" t="s" s="4">
         <v>105</v>
       </c>
       <c r="C46" t="s" s="5">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="D46" s="6">
-        <v>0.761904761904762</v>
+        <v>0.595238095238095</v>
       </c>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
-      <c r="J46" s="7"/>
+      <c r="J46" s="13"/>
     </row>
     <row r="47" ht="21" customHeight="1">
-      <c r="A47" t="s" s="5">
+      <c r="A47" t="s" s="8">
         <v>106</v>
       </c>
-      <c r="B47" t="s" s="5">
+      <c r="B47" t="s" s="8">
         <v>107</v>
       </c>
       <c r="C47" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="D47" s="6">
-        <v>0.714285714285714</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D47" s="6"/>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
+      <c r="H47" s="6">
+        <v>0.777777777777778</v>
+      </c>
       <c r="I47" s="6"/>
-      <c r="J47" s="12"/>
-    </row>
-    <row r="48" ht="20.7" customHeight="1">
+      <c r="J47" s="14"/>
+    </row>
+    <row r="48" ht="21" customHeight="1">
       <c r="A48" t="s" s="5">
         <v>108</v>
       </c>
@@ -3306,17 +3527,17 @@
         <v>109</v>
       </c>
       <c r="C48" t="s" s="5">
-        <v>65</v>
-      </c>
-      <c r="D48" s="25">
-        <v>0.857142857142857</v>
-      </c>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="22"/>
+        <v>21</v>
+      </c>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6">
+        <v>0.722222222222222</v>
+      </c>
+      <c r="I48" s="6"/>
+      <c r="J48" s="7"/>
     </row>
     <row r="49" ht="21" customHeight="1">
       <c r="A49" t="s" s="5">
@@ -3326,17 +3547,17 @@
         <v>111</v>
       </c>
       <c r="C49" t="s" s="5">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D49" s="6">
-        <v>0.452380952380952</v>
+        <v>0.69047619047619</v>
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
-      <c r="J49" s="12"/>
+      <c r="J49" s="7"/>
     </row>
     <row r="50" ht="21" customHeight="1">
       <c r="A50" t="s" s="5">
@@ -3346,17 +3567,17 @@
         <v>113</v>
       </c>
       <c r="C50" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D50" s="6"/>
+        <v>46</v>
+      </c>
+      <c r="D50" s="6">
+        <v>0.619047619047619</v>
+      </c>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
-      <c r="H50" s="6">
-        <v>0.777777777777778</v>
-      </c>
+      <c r="H50" s="6"/>
       <c r="I50" s="6"/>
-      <c r="J50" s="13"/>
+      <c r="J50" s="7"/>
     </row>
     <row r="51" ht="21" customHeight="1">
       <c r="A51" t="s" s="5">
@@ -3366,50 +3587,48 @@
         <v>115</v>
       </c>
       <c r="C51" t="s" s="5">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="D51" s="6">
-        <v>0.619047619047619</v>
+        <v>0.80952380952381</v>
       </c>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
-      <c r="J51" s="14"/>
+      <c r="J51" s="7"/>
     </row>
     <row r="52" ht="21" customHeight="1">
-      <c r="A52" t="s" s="4">
+      <c r="A52" t="s" s="5">
         <v>116</v>
       </c>
-      <c r="B52" t="s" s="4">
+      <c r="B52" t="s" s="5">
         <v>117</v>
       </c>
-      <c r="C52" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D52" s="6">
-        <v>0.619047619047619</v>
-      </c>
+      <c r="C52" s="19"/>
+      <c r="D52" s="6"/>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
+      <c r="H52" s="6">
+        <v>0.694444444444444</v>
+      </c>
       <c r="I52" s="6"/>
       <c r="J52" s="7"/>
     </row>
     <row r="53" ht="21" customHeight="1">
-      <c r="A53" t="s" s="11">
+      <c r="A53" t="s" s="5">
         <v>118</v>
       </c>
-      <c r="B53" t="s" s="11">
+      <c r="B53" t="s" s="5">
         <v>119</v>
       </c>
-      <c r="C53" t="s" s="10">
-        <v>65</v>
+      <c r="C53" t="s" s="5">
+        <v>46</v>
       </c>
       <c r="D53" s="6">
-        <v>0.5238095238095239</v>
+        <v>0.761904761904762</v>
       </c>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
@@ -3419,22 +3638,22 @@
       <c r="J53" s="7"/>
     </row>
     <row r="54" ht="21" customHeight="1">
-      <c r="A54" t="s" s="8">
+      <c r="A54" t="s" s="5">
         <v>120</v>
       </c>
-      <c r="B54" t="s" s="8">
+      <c r="B54" t="s" s="5">
         <v>121</v>
       </c>
       <c r="C54" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="D54" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="D54" s="6">
+        <v>0.714285714285714</v>
+      </c>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
-      <c r="H54" s="6">
-        <v>0.75</v>
-      </c>
+      <c r="H54" s="6"/>
       <c r="I54" s="6"/>
       <c r="J54" s="7"/>
     </row>
@@ -3446,19 +3665,19 @@
         <v>123</v>
       </c>
       <c r="C55" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D55" s="6">
-        <v>0.833333333333333</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D55" s="6"/>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
+      <c r="H55" s="6">
+        <v>0.75</v>
+      </c>
       <c r="I55" s="6"/>
       <c r="J55" s="12"/>
     </row>
-    <row r="56" ht="21" customHeight="1">
+    <row r="56" ht="20.7" customHeight="1">
       <c r="A56" t="s" s="4">
         <v>124</v>
       </c>
@@ -3466,17 +3685,17 @@
         <v>125</v>
       </c>
       <c r="C56" t="s" s="5">
-        <v>15</v>
-      </c>
-      <c r="D56" s="6">
-        <v>0.595238095238095</v>
-      </c>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
+        <v>69</v>
+      </c>
+      <c r="D56" s="25">
+        <v>0.857142857142857</v>
+      </c>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
       <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="14"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="22"/>
     </row>
     <row r="57" ht="21" customHeight="1">
       <c r="A57" t="s" s="9">
@@ -3486,57 +3705,57 @@
         <v>127</v>
       </c>
       <c r="C57" t="s" s="10">
-        <v>12</v>
-      </c>
-      <c r="D57" s="6">
-        <v>0.5</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D57" s="6"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
+      <c r="H57" s="6">
+        <v>0.75</v>
+      </c>
       <c r="I57" s="6"/>
-      <c r="J57" s="12"/>
+      <c r="J57" s="7"/>
     </row>
     <row r="58" ht="21" customHeight="1">
-      <c r="A58" t="s" s="4">
+      <c r="A58" t="s" s="5">
         <v>128</v>
       </c>
-      <c r="B58" t="s" s="4">
+      <c r="B58" t="s" s="5">
         <v>129</v>
       </c>
       <c r="C58" t="s" s="5">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="D58" s="6">
-        <v>0.69047619047619</v>
+        <v>0.452380952380952</v>
       </c>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
-      <c r="J58" s="14"/>
+      <c r="J58" s="12"/>
     </row>
     <row r="59" ht="21" customHeight="1">
-      <c r="A59" t="s" s="8">
+      <c r="A59" t="s" s="5">
         <v>130</v>
       </c>
-      <c r="B59" t="s" s="8">
+      <c r="B59" t="s" s="5">
         <v>131</v>
       </c>
       <c r="C59" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="D59" s="6">
-        <v>0.571428571428571</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D59" s="6"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
+      <c r="H59" s="6">
+        <v>0.777777777777778</v>
+      </c>
       <c r="I59" s="6"/>
-      <c r="J59" s="7"/>
+      <c r="J59" s="13"/>
     </row>
     <row r="60" ht="21" customHeight="1">
       <c r="A60" t="s" s="5">
@@ -3545,122 +3764,122 @@
       <c r="B60" t="s" s="5">
         <v>133</v>
       </c>
-      <c r="C60" s="19"/>
-      <c r="D60" s="6"/>
+      <c r="C60" t="s" s="5">
+        <v>46</v>
+      </c>
+      <c r="D60" s="6">
+        <v>0.619047619047619</v>
+      </c>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
-      <c r="H60" s="6">
-        <v>0.694444444444444</v>
-      </c>
+      <c r="H60" s="6"/>
       <c r="I60" s="6"/>
-      <c r="J60" s="12"/>
-    </row>
-    <row r="61" ht="20.7" customHeight="1">
-      <c r="A61" t="s" s="5">
+      <c r="J60" s="14"/>
+    </row>
+    <row r="61" ht="21" customHeight="1">
+      <c r="A61" t="s" s="4">
         <v>134</v>
       </c>
-      <c r="B61" t="s" s="5">
+      <c r="B61" t="s" s="4">
         <v>135</v>
       </c>
       <c r="C61" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="D61" s="21">
-        <v>0.5238095238095239</v>
-      </c>
-      <c r="E61" s="19"/>
-      <c r="F61" s="19"/>
-      <c r="G61" s="19"/>
+        <v>18</v>
+      </c>
+      <c r="D61" s="6">
+        <v>0.619047619047619</v>
+      </c>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
       <c r="H61" s="6">
-        <v>0.777777777777778</v>
-      </c>
-      <c r="I61" s="19"/>
-      <c r="J61" s="22"/>
+        <v>0.416666666666667</v>
+      </c>
+      <c r="I61" s="6"/>
+      <c r="J61" s="7"/>
     </row>
     <row r="62" ht="21" customHeight="1">
-      <c r="A62" t="s" s="5">
+      <c r="A62" t="s" s="11">
         <v>136</v>
       </c>
-      <c r="B62" t="s" s="5">
+      <c r="B62" t="s" s="11">
         <v>137</v>
       </c>
-      <c r="C62" t="s" s="5">
-        <v>15</v>
-      </c>
-      <c r="D62" s="6">
-        <v>0.666666666666667</v>
-      </c>
+      <c r="C62" t="s" s="10">
+        <v>69</v>
+      </c>
+      <c r="D62" s="6"/>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
+      <c r="H62" s="6">
+        <v>0.75</v>
+      </c>
       <c r="I62" s="6"/>
       <c r="J62" s="7"/>
     </row>
     <row r="63" ht="21" customHeight="1">
-      <c r="A63" t="s" s="5">
+      <c r="A63" t="s" s="11">
         <v>138</v>
       </c>
-      <c r="B63" t="s" s="5">
+      <c r="B63" t="s" s="11">
         <v>139</v>
       </c>
-      <c r="C63" t="s" s="5">
-        <v>18</v>
+      <c r="C63" t="s" s="10">
+        <v>69</v>
       </c>
       <c r="D63" s="6">
-        <v>0.833333333333333</v>
+        <v>0.5238095238095239</v>
       </c>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
-      <c r="H63" s="6">
-        <v>0.694444444444444</v>
-      </c>
+      <c r="H63" s="6"/>
       <c r="I63" s="6"/>
-      <c r="J63" s="12"/>
-    </row>
-    <row r="64" ht="20.05" customHeight="1">
-      <c r="A64" t="s" s="5">
+      <c r="J63" s="7"/>
+    </row>
+    <row r="64" ht="21" customHeight="1">
+      <c r="A64" t="s" s="23">
         <v>140</v>
       </c>
-      <c r="B64" t="s" s="5">
+      <c r="B64" t="s" s="23">
         <v>141</v>
       </c>
       <c r="C64" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D64" s="19"/>
-      <c r="E64" s="19"/>
-      <c r="F64" s="19"/>
-      <c r="G64" s="19"/>
+        <v>21</v>
+      </c>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
       <c r="H64" s="6">
-        <v>0.777777777777778</v>
-      </c>
-      <c r="I64" s="19"/>
-      <c r="J64" s="22"/>
+        <v>0.75</v>
+      </c>
+      <c r="I64" s="6"/>
+      <c r="J64" s="7"/>
     </row>
     <row r="65" ht="21" customHeight="1">
-      <c r="A65" t="s" s="5">
+      <c r="A65" t="s" s="9">
         <v>142</v>
       </c>
-      <c r="B65" t="s" s="5">
+      <c r="B65" t="s" s="9">
         <v>143</v>
       </c>
-      <c r="C65" t="s" s="5">
-        <v>18</v>
+      <c r="C65" t="s" s="10">
+        <v>15</v>
       </c>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
       <c r="H65" s="6">
-        <v>0.555555555555556</v>
+        <v>0</v>
       </c>
       <c r="I65" s="6"/>
-      <c r="J65" s="12"/>
-    </row>
-    <row r="66" ht="20.7" customHeight="1">
+      <c r="J65" s="7"/>
+    </row>
+    <row r="66" ht="21" customHeight="1">
       <c r="A66" t="s" s="5">
         <v>144</v>
       </c>
@@ -3668,17 +3887,17 @@
         <v>145</v>
       </c>
       <c r="C66" t="s" s="5">
-        <v>65</v>
-      </c>
-      <c r="D66" s="21">
-        <v>0.452380952380952</v>
-      </c>
-      <c r="E66" s="19"/>
-      <c r="F66" s="19"/>
-      <c r="G66" s="19"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="20"/>
+        <v>21</v>
+      </c>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6">
+        <v>0</v>
+      </c>
+      <c r="I66" s="6"/>
+      <c r="J66" s="7"/>
     </row>
     <row r="67" ht="21" customHeight="1">
       <c r="A67" t="s" s="5">
@@ -3688,19 +3907,17 @@
         <v>147</v>
       </c>
       <c r="C67" t="s" s="5">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D67" s="6">
-        <v>0.5</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
-      <c r="H67" s="6">
-        <v>0.75</v>
-      </c>
+      <c r="H67" s="6"/>
       <c r="I67" s="6"/>
-      <c r="J67" s="14"/>
+      <c r="J67" s="7"/>
     </row>
     <row r="68" ht="21" customHeight="1">
       <c r="A68" t="s" s="5">
@@ -3710,97 +3927,101 @@
         <v>149</v>
       </c>
       <c r="C68" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="D68" s="6">
-        <v>0.595238095238095</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D68" s="6"/>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
+      <c r="H68" s="6">
+        <v>0.416666666666667</v>
+      </c>
       <c r="I68" s="6"/>
-      <c r="J68" s="7"/>
+      <c r="J68" s="12"/>
     </row>
     <row r="69" ht="21" customHeight="1">
-      <c r="A69" t="s" s="5">
+      <c r="A69" t="s" s="4">
         <v>150</v>
       </c>
-      <c r="B69" t="s" s="5">
+      <c r="B69" t="s" s="4">
         <v>151</v>
       </c>
       <c r="C69" t="s" s="5">
-        <v>65</v>
-      </c>
-      <c r="D69" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="D69" s="6">
+        <v>0.595238095238095</v>
+      </c>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
-      <c r="H69" s="6">
-        <v>0.777777777777778</v>
-      </c>
+      <c r="H69" s="6"/>
       <c r="I69" s="6"/>
-      <c r="J69" s="7"/>
+      <c r="J69" s="14"/>
     </row>
     <row r="70" ht="21" customHeight="1">
-      <c r="A70" t="s" s="5">
+      <c r="A70" t="s" s="9">
         <v>152</v>
       </c>
-      <c r="B70" t="s" s="5">
+      <c r="B70" t="s" s="9">
         <v>153</v>
       </c>
-      <c r="C70" s="19"/>
-      <c r="D70" s="6"/>
+      <c r="C70" t="s" s="10">
+        <v>12</v>
+      </c>
+      <c r="D70" s="6">
+        <v>0.5</v>
+      </c>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
-      <c r="H70" s="6">
-        <v>0.388888888888889</v>
-      </c>
+      <c r="H70" s="6"/>
       <c r="I70" s="6"/>
-      <c r="J70" s="12"/>
+      <c r="J70" s="7"/>
     </row>
     <row r="71" ht="21" customHeight="1">
-      <c r="A71" t="s" s="4">
+      <c r="A71" t="s" s="5">
         <v>154</v>
       </c>
-      <c r="B71" t="s" s="4">
+      <c r="B71" t="s" s="5">
         <v>155</v>
       </c>
       <c r="C71" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="D71" s="6">
-        <v>0.642857142857143</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D71" s="6"/>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
-      <c r="H71" s="6"/>
+      <c r="H71" s="6">
+        <v>0</v>
+      </c>
       <c r="I71" s="6"/>
-      <c r="J71" s="13"/>
+      <c r="J71" s="12"/>
     </row>
     <row r="72" ht="21" customHeight="1">
-      <c r="A72" t="s" s="8">
+      <c r="A72" t="s" s="5">
         <v>156</v>
       </c>
-      <c r="B72" t="s" s="8">
+      <c r="B72" t="s" s="5">
         <v>157</v>
       </c>
       <c r="C72" t="s" s="5">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D72" s="6">
-        <v>0.619047619047619</v>
+        <v>0.69047619047619</v>
       </c>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
-      <c r="H72" s="6"/>
+      <c r="H72" s="6">
+        <v>0.805555555555556</v>
+      </c>
       <c r="I72" s="6"/>
-      <c r="J72" s="13"/>
-    </row>
-    <row r="73" ht="20.7" customHeight="1">
+      <c r="J72" s="14"/>
+    </row>
+    <row r="73" ht="21" customHeight="1">
       <c r="A73" t="s" s="4">
         <v>158</v>
       </c>
@@ -3808,35 +4029,39 @@
         <v>159</v>
       </c>
       <c r="C73" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6">
+        <v>0.777777777777778</v>
+      </c>
+      <c r="I73" s="6"/>
+      <c r="J73" s="7"/>
+    </row>
+    <row r="74" ht="21" customHeight="1">
+      <c r="A74" t="s" s="8">
+        <v>160</v>
+      </c>
+      <c r="B74" t="s" s="8">
+        <v>161</v>
+      </c>
+      <c r="C74" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="D73" s="25">
-        <v>0.595238095238095</v>
-      </c>
-      <c r="E73" s="19"/>
-      <c r="F73" s="19"/>
-      <c r="G73" s="19"/>
-      <c r="H73" s="6"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="22"/>
-    </row>
-    <row r="74" ht="21" customHeight="1">
-      <c r="A74" t="s" s="9">
-        <v>160</v>
-      </c>
-      <c r="B74" t="s" s="9">
-        <v>161</v>
-      </c>
-      <c r="C74" s="24"/>
       <c r="D74" s="6">
-        <v>0.80952380952381</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
-      <c r="H74" s="6"/>
+      <c r="H74" s="6">
+        <v>0.722222222222222</v>
+      </c>
       <c r="I74" s="6"/>
-      <c r="J74" s="12"/>
+      <c r="J74" s="7"/>
     </row>
     <row r="75" ht="21" customHeight="1">
       <c r="A75" t="s" s="5">
@@ -3845,60 +4070,60 @@
       <c r="B75" t="s" s="5">
         <v>163</v>
       </c>
-      <c r="C75" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D75" s="6">
-        <v>0.738095238095238</v>
-      </c>
+      <c r="C75" s="19"/>
+      <c r="D75" s="6"/>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
       <c r="H75" s="6">
-        <v>0.861111111111111</v>
+        <v>0.694444444444444</v>
       </c>
       <c r="I75" s="6"/>
-      <c r="J75" s="14"/>
-    </row>
-    <row r="76" ht="21" customHeight="1">
-      <c r="A76" t="s" s="4">
+      <c r="J75" s="12"/>
+    </row>
+    <row r="76" ht="20.7" customHeight="1">
+      <c r="A76" t="s" s="5">
         <v>164</v>
       </c>
-      <c r="B76" t="s" s="4">
+      <c r="B76" t="s" s="5">
         <v>165</v>
       </c>
       <c r="C76" t="s" s="5">
-        <v>65</v>
-      </c>
-      <c r="D76" s="6">
-        <v>0.738095238095238</v>
-      </c>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="6"/>
-      <c r="H76" s="6"/>
-      <c r="I76" s="6"/>
-      <c r="J76" s="12"/>
+        <v>21</v>
+      </c>
+      <c r="D76" s="21">
+        <v>0.5238095238095239</v>
+      </c>
+      <c r="E76" s="19"/>
+      <c r="F76" s="19"/>
+      <c r="G76" s="19"/>
+      <c r="H76" s="6">
+        <v>0.777777777777778</v>
+      </c>
+      <c r="I76" s="19"/>
+      <c r="J76" s="22"/>
     </row>
     <row r="77" ht="21" customHeight="1">
-      <c r="A77" t="s" s="8">
+      <c r="A77" t="s" s="5">
         <v>166</v>
       </c>
-      <c r="B77" t="s" s="8">
+      <c r="B77" t="s" s="5">
         <v>167</v>
       </c>
       <c r="C77" t="s" s="5">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D77" s="6">
-        <v>0.452380952380952</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
-      <c r="H77" s="6"/>
+      <c r="H77" s="6">
+        <v>0</v>
+      </c>
       <c r="I77" s="6"/>
-      <c r="J77" s="14"/>
+      <c r="J77" s="7"/>
     </row>
     <row r="78" ht="21" customHeight="1">
       <c r="A78" t="s" s="5">
@@ -3911,45 +4136,45 @@
         <v>18</v>
       </c>
       <c r="D78" s="6">
-        <v>0.857142857142857</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
       <c r="H78" s="6">
-        <v>0.861111111111111</v>
+        <v>0.694444444444444</v>
       </c>
       <c r="I78" s="6"/>
-      <c r="J78" s="7"/>
-    </row>
-    <row r="79" ht="21" customHeight="1">
-      <c r="A79" t="s" s="4">
+      <c r="J78" s="12"/>
+    </row>
+    <row r="79" ht="20.05" customHeight="1">
+      <c r="A79" t="s" s="5">
         <v>170</v>
       </c>
-      <c r="B79" t="s" s="4">
+      <c r="B79" t="s" s="5">
         <v>171</v>
       </c>
       <c r="C79" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
-      <c r="G79" s="6"/>
+      <c r="D79" s="19"/>
+      <c r="E79" s="19"/>
+      <c r="F79" s="19"/>
+      <c r="G79" s="19"/>
       <c r="H79" s="6">
         <v>0.777777777777778</v>
       </c>
-      <c r="I79" s="6"/>
-      <c r="J79" s="7"/>
+      <c r="I79" s="19"/>
+      <c r="J79" s="22"/>
     </row>
     <row r="80" ht="21" customHeight="1">
-      <c r="A80" t="s" s="9">
+      <c r="A80" t="s" s="5">
         <v>172</v>
       </c>
-      <c r="B80" t="s" s="9">
+      <c r="B80" t="s" s="5">
         <v>173</v>
       </c>
-      <c r="C80" t="s" s="10">
+      <c r="C80" t="s" s="5">
         <v>18</v>
       </c>
       <c r="D80" s="6"/>
@@ -3957,50 +4182,52 @@
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
       <c r="H80" s="6">
-        <v>0.75</v>
+        <v>0.555555555555556</v>
       </c>
       <c r="I80" s="6"/>
-      <c r="J80" s="7"/>
-    </row>
-    <row r="81" ht="21" customHeight="1">
-      <c r="A81" t="s" s="4">
+      <c r="J80" s="12"/>
+    </row>
+    <row r="81" ht="20.7" customHeight="1">
+      <c r="A81" t="s" s="5">
         <v>174</v>
       </c>
-      <c r="B81" t="s" s="4">
+      <c r="B81" t="s" s="5">
         <v>175</v>
       </c>
       <c r="C81" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D81" s="6">
-        <v>0.738095238095238</v>
-      </c>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
-      <c r="G81" s="6"/>
+        <v>69</v>
+      </c>
+      <c r="D81" s="21">
+        <v>0.452380952380952</v>
+      </c>
+      <c r="E81" s="19"/>
+      <c r="F81" s="19"/>
+      <c r="G81" s="19"/>
       <c r="H81" s="6"/>
-      <c r="I81" s="6"/>
-      <c r="J81" s="7"/>
+      <c r="I81" s="19"/>
+      <c r="J81" s="20"/>
     </row>
     <row r="82" ht="21" customHeight="1">
-      <c r="A82" t="s" s="9">
+      <c r="A82" t="s" s="5">
         <v>176</v>
       </c>
-      <c r="B82" t="s" s="9">
+      <c r="B82" t="s" s="5">
         <v>177</v>
       </c>
-      <c r="C82" t="s" s="10">
-        <v>18</v>
-      </c>
-      <c r="D82" s="6"/>
+      <c r="C82" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="D82" s="6">
+        <v>0.5</v>
+      </c>
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
       <c r="H82" s="6">
-        <v>0.805555555555556</v>
+        <v>0.75</v>
       </c>
       <c r="I82" s="6"/>
-      <c r="J82" s="7"/>
+      <c r="J82" s="14"/>
     </row>
     <row r="83" ht="21" customHeight="1">
       <c r="A83" t="s" s="5">
@@ -4010,19 +4237,21 @@
         <v>179</v>
       </c>
       <c r="C83" t="s" s="5">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D83" s="6">
-        <v>0.738095238095238</v>
+        <v>0.595238095238095</v>
       </c>
       <c r="E83" s="6"/>
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
-      <c r="H83" s="6"/>
+      <c r="H83" s="6">
+        <v>0.75</v>
+      </c>
       <c r="I83" s="6"/>
-      <c r="J83" s="12"/>
-    </row>
-    <row r="84" ht="20.7" customHeight="1">
+      <c r="J83" s="7"/>
+    </row>
+    <row r="84" ht="21" customHeight="1">
       <c r="A84" t="s" s="5">
         <v>180</v>
       </c>
@@ -4030,19 +4259,17 @@
         <v>181</v>
       </c>
       <c r="C84" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D84" s="25">
-        <v>0.476190476190476</v>
-      </c>
-      <c r="E84" s="19"/>
-      <c r="F84" s="19"/>
-      <c r="G84" s="19"/>
+        <v>15</v>
+      </c>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
       <c r="H84" s="6">
-        <v>0.555555555555556</v>
-      </c>
-      <c r="I84" s="19"/>
-      <c r="J84" s="20"/>
+        <v>0</v>
+      </c>
+      <c r="I84" s="6"/>
+      <c r="J84" s="7"/>
     </row>
     <row r="85" ht="21" customHeight="1">
       <c r="A85" t="s" s="5">
@@ -4052,19 +4279,17 @@
         <v>183</v>
       </c>
       <c r="C85" t="s" s="5">
-        <v>46</v>
-      </c>
-      <c r="D85" s="6">
-        <v>0.833333333333333</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="D85" s="6"/>
       <c r="E85" s="6"/>
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
       <c r="H85" s="6">
-        <v>0.39</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I85" s="6"/>
-      <c r="J85" s="14"/>
+      <c r="J85" s="7"/>
     </row>
     <row r="86" ht="21" customHeight="1">
       <c r="A86" t="s" s="5">
@@ -4073,16 +4298,14 @@
       <c r="B86" t="s" s="5">
         <v>185</v>
       </c>
-      <c r="C86" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="D86" s="6">
-        <v>0.714285714285714</v>
-      </c>
+      <c r="C86" s="19"/>
+      <c r="D86" s="6"/>
       <c r="E86" s="6"/>
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
-      <c r="H86" s="6"/>
+      <c r="H86" s="6">
+        <v>0.388888888888889</v>
+      </c>
       <c r="I86" s="6"/>
       <c r="J86" s="7"/>
     </row>
@@ -4094,139 +4317,143 @@
         <v>187</v>
       </c>
       <c r="C87" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="D87" s="6">
-        <v>0.69047619047619</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D87" s="6"/>
       <c r="E87" s="6"/>
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
-      <c r="H87" s="6"/>
+      <c r="H87" s="6">
+        <v>0</v>
+      </c>
       <c r="I87" s="6"/>
-      <c r="J87" s="7"/>
+      <c r="J87" s="12"/>
     </row>
     <row r="88" ht="21" customHeight="1">
-      <c r="A88" t="s" s="5">
+      <c r="A88" t="s" s="4">
         <v>188</v>
       </c>
-      <c r="B88" t="s" s="5">
+      <c r="B88" t="s" s="4">
         <v>189</v>
       </c>
       <c r="C88" t="s" s="5">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D88" s="6">
-        <v>0.785714285714286</v>
+        <v>0.642857142857143</v>
       </c>
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
-      <c r="H88" s="6">
-        <v>0.75</v>
-      </c>
+      <c r="H88" s="6"/>
       <c r="I88" s="6"/>
-      <c r="J88" s="12"/>
-    </row>
-    <row r="89" ht="20.7" customHeight="1">
-      <c r="A89" t="s" s="5">
+      <c r="J88" s="13"/>
+    </row>
+    <row r="89" ht="21" customHeight="1">
+      <c r="A89" t="s" s="8">
         <v>190</v>
       </c>
-      <c r="B89" t="s" s="5">
+      <c r="B89" t="s" s="8">
         <v>191</v>
       </c>
       <c r="C89" t="s" s="5">
-        <v>46</v>
-      </c>
-      <c r="D89" s="21">
-        <v>0.619047619047619</v>
-      </c>
-      <c r="E89" s="19"/>
-      <c r="F89" s="19"/>
-      <c r="G89" s="19"/>
-      <c r="H89" s="6"/>
-      <c r="I89" s="19"/>
-      <c r="J89" s="22"/>
+        <v>12</v>
+      </c>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="6">
+        <v>0.777777777777778</v>
+      </c>
+      <c r="I89" s="6"/>
+      <c r="J89" s="14"/>
     </row>
     <row r="90" ht="21" customHeight="1">
-      <c r="A90" t="s" s="5">
+      <c r="A90" t="s" s="4">
         <v>192</v>
       </c>
-      <c r="B90" t="s" s="5">
+      <c r="B90" t="s" s="4">
         <v>193</v>
       </c>
       <c r="C90" t="s" s="5">
-        <v>65</v>
-      </c>
-      <c r="D90" s="6">
-        <v>0.904761904761905</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="D90" s="6"/>
       <c r="E90" s="6"/>
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
-      <c r="H90" s="6"/>
+      <c r="H90" s="6">
+        <v>0.75</v>
+      </c>
       <c r="I90" s="6"/>
-      <c r="J90" s="7"/>
+      <c r="J90" s="12"/>
     </row>
     <row r="91" ht="21" customHeight="1">
-      <c r="A91" t="s" s="5">
+      <c r="A91" t="s" s="8">
         <v>194</v>
       </c>
-      <c r="B91" t="s" s="5">
+      <c r="B91" t="s" s="8">
         <v>195</v>
       </c>
       <c r="C91" t="s" s="5">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D91" s="6">
-        <v>0.714285714285714</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="E91" s="6"/>
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
       <c r="H91" s="6"/>
       <c r="I91" s="6"/>
-      <c r="J91" s="7"/>
-    </row>
-    <row r="92" ht="21" customHeight="1">
-      <c r="A92" t="s" s="5">
+      <c r="J91" s="13"/>
+    </row>
+    <row r="92" ht="20.7" customHeight="1">
+      <c r="A92" t="s" s="4">
         <v>196</v>
       </c>
-      <c r="B92" t="s" s="5">
+      <c r="B92" t="s" s="4">
         <v>197</v>
       </c>
       <c r="C92" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="D92" s="6"/>
-      <c r="E92" s="6"/>
-      <c r="F92" s="6"/>
-      <c r="G92" s="6"/>
+      <c r="D92" s="25">
+        <v>0.595238095238095</v>
+      </c>
+      <c r="E92" s="19"/>
+      <c r="F92" s="19"/>
+      <c r="G92" s="19"/>
       <c r="H92" s="6">
-        <v>0.777777777777778</v>
-      </c>
-      <c r="I92" s="6"/>
-      <c r="J92" s="7"/>
+        <v>0.75</v>
+      </c>
+      <c r="I92" s="19"/>
+      <c r="J92" s="22"/>
     </row>
     <row r="93" ht="21" customHeight="1">
-      <c r="A93" t="s" s="5">
+      <c r="A93" t="s" s="9">
         <v>198</v>
       </c>
-      <c r="B93" t="s" s="5">
+      <c r="B93" t="s" s="9">
         <v>199</v>
       </c>
-      <c r="C93" s="19"/>
-      <c r="D93" s="6"/>
+      <c r="C93" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="D93" s="6">
+        <v>0.80952380952381</v>
+      </c>
       <c r="E93" s="6"/>
       <c r="F93" s="6"/>
       <c r="G93" s="6"/>
       <c r="H93" s="6">
-        <v>0.388888888888889</v>
+        <v>0.75</v>
       </c>
       <c r="I93" s="6"/>
       <c r="J93" s="12"/>
     </row>
-    <row r="94" ht="20.7" customHeight="1">
+    <row r="94" ht="21" customHeight="1">
       <c r="A94" t="s" s="5">
         <v>200</v>
       </c>
@@ -4236,30 +4463,30 @@
       <c r="C94" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D94" s="25">
-        <v>0.642857142857143</v>
-      </c>
-      <c r="E94" s="19"/>
-      <c r="F94" s="19"/>
-      <c r="G94" s="19"/>
+      <c r="D94" s="6">
+        <v>0.738095238095238</v>
+      </c>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
       <c r="H94" s="6">
         <v>0.861111111111111</v>
       </c>
-      <c r="I94" s="19"/>
-      <c r="J94" s="22"/>
+      <c r="I94" s="6"/>
+      <c r="J94" s="14"/>
     </row>
     <row r="95" ht="21" customHeight="1">
-      <c r="A95" t="s" s="5">
+      <c r="A95" t="s" s="4">
         <v>202</v>
       </c>
-      <c r="B95" t="s" s="5">
+      <c r="B95" t="s" s="4">
         <v>203</v>
       </c>
       <c r="C95" t="s" s="5">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="D95" s="6">
-        <v>0.619047619047619</v>
+        <v>0.738095238095238</v>
       </c>
       <c r="E95" s="6"/>
       <c r="F95" s="6"/>
@@ -4269,17 +4496,17 @@
       <c r="J95" s="12"/>
     </row>
     <row r="96" ht="21" customHeight="1">
-      <c r="A96" t="s" s="5">
+      <c r="A96" t="s" s="8">
         <v>204</v>
       </c>
-      <c r="B96" t="s" s="5">
+      <c r="B96" t="s" s="8">
         <v>205</v>
       </c>
       <c r="C96" t="s" s="5">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="D96" s="6">
-        <v>0.666666666666667</v>
+        <v>0.452380952380952</v>
       </c>
       <c r="E96" s="6"/>
       <c r="F96" s="6"/>
@@ -4289,243 +4516,241 @@
       <c r="J96" s="14"/>
     </row>
     <row r="97" ht="21" customHeight="1">
-      <c r="A97" t="s" s="4">
+      <c r="A97" t="s" s="5">
         <v>206</v>
       </c>
-      <c r="B97" t="s" s="4">
+      <c r="B97" t="s" s="5">
         <v>207</v>
       </c>
       <c r="C97" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D97" s="6"/>
+      <c r="D97" s="6">
+        <v>0.857142857142857</v>
+      </c>
       <c r="E97" s="6"/>
       <c r="F97" s="6"/>
       <c r="G97" s="6"/>
       <c r="H97" s="6">
-        <v>0.777777777777778</v>
+        <v>0.861111111111111</v>
       </c>
       <c r="I97" s="6"/>
-      <c r="J97" s="12"/>
+      <c r="J97" s="7"/>
     </row>
     <row r="98" ht="21" customHeight="1">
-      <c r="A98" t="s" s="23">
+      <c r="A98" t="s" s="5">
         <v>208</v>
       </c>
-      <c r="B98" t="s" s="23">
+      <c r="B98" t="s" s="5">
         <v>209</v>
       </c>
       <c r="C98" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="D98" s="6">
-        <v>0.714285714285714</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D98" s="6"/>
       <c r="E98" s="6"/>
       <c r="F98" s="6"/>
       <c r="G98" s="6"/>
-      <c r="H98" s="6"/>
+      <c r="H98" s="6">
+        <v>0.777777777777778</v>
+      </c>
       <c r="I98" s="6"/>
-      <c r="J98" s="13"/>
+      <c r="J98" s="7"/>
     </row>
     <row r="99" ht="21" customHeight="1">
-      <c r="A99" t="s" s="8">
+      <c r="A99" t="s" s="4">
         <v>210</v>
       </c>
-      <c r="B99" t="s" s="8">
+      <c r="B99" t="s" s="4">
         <v>211</v>
       </c>
-      <c r="C99" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="D99" s="6">
-        <v>0.80952380952381</v>
-      </c>
+      <c r="C99" s="19"/>
+      <c r="D99" s="6"/>
       <c r="E99" s="6"/>
       <c r="F99" s="6"/>
       <c r="G99" s="6"/>
       <c r="H99" s="6">
-        <v>0.777777777777778</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="I99" s="6"/>
-      <c r="J99" s="13"/>
-    </row>
-    <row r="100" ht="20.35" customHeight="1">
-      <c r="A100" t="s" s="4">
+      <c r="J99" s="7"/>
+    </row>
+    <row r="100" ht="21" customHeight="1">
+      <c r="A100" t="s" s="9">
         <v>212</v>
       </c>
-      <c r="B100" t="s" s="4">
+      <c r="B100" t="s" s="9">
         <v>213</v>
       </c>
-      <c r="C100" t="s" s="5">
+      <c r="C100" t="s" s="10">
         <v>18</v>
       </c>
-      <c r="D100" s="19"/>
-      <c r="E100" s="19"/>
-      <c r="F100" s="19"/>
-      <c r="G100" s="19"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6"/>
+      <c r="G100" s="6"/>
       <c r="H100" s="6">
-        <v>0.777777777777778</v>
-      </c>
-      <c r="I100" s="19"/>
-      <c r="J100" s="20"/>
+        <v>0.75</v>
+      </c>
+      <c r="I100" s="6"/>
+      <c r="J100" s="7"/>
     </row>
     <row r="101" ht="21" customHeight="1">
-      <c r="A101" t="s" s="8">
+      <c r="A101" t="s" s="4">
         <v>214</v>
       </c>
-      <c r="B101" t="s" s="8">
+      <c r="B101" t="s" s="4">
         <v>215</v>
       </c>
       <c r="C101" t="s" s="5">
         <v>18</v>
       </c>
       <c r="D101" s="6">
-        <v>0.857142857142857</v>
+        <v>0.738095238095238</v>
       </c>
       <c r="E101" s="6"/>
       <c r="F101" s="6"/>
       <c r="G101" s="6"/>
       <c r="H101" s="6">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="I101" s="6"/>
+      <c r="J101" s="7"/>
+    </row>
+    <row r="102" ht="21" customHeight="1">
+      <c r="A102" t="s" s="9">
+        <v>216</v>
+      </c>
+      <c r="B102" t="s" s="9">
+        <v>217</v>
+      </c>
+      <c r="C102" t="s" s="10">
+        <v>18</v>
+      </c>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="6"/>
+      <c r="G102" s="6"/>
+      <c r="H102" s="6">
         <v>0.805555555555556</v>
       </c>
-      <c r="I101" s="6"/>
-      <c r="J101" s="13"/>
-    </row>
-    <row r="102" ht="20.7" customHeight="1">
-      <c r="A102" t="s" s="4">
-        <v>216</v>
-      </c>
-      <c r="B102" t="s" s="4">
-        <v>217</v>
-      </c>
-      <c r="C102" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="D102" s="25">
+      <c r="I102" s="6"/>
+      <c r="J102" s="7"/>
+    </row>
+    <row r="103" ht="21" customHeight="1">
+      <c r="A103" t="s" s="5">
+        <v>218</v>
+      </c>
+      <c r="B103" t="s" s="5">
+        <v>219</v>
+      </c>
+      <c r="C103" t="s" s="5">
+        <v>18</v>
+      </c>
+      <c r="D103" s="6">
         <v>0.738095238095238</v>
-      </c>
-      <c r="E102" s="19"/>
-      <c r="F102" s="19"/>
-      <c r="G102" s="19"/>
-      <c r="H102" s="6"/>
-      <c r="I102" s="19"/>
-      <c r="J102" s="22"/>
-    </row>
-    <row r="103" ht="21" customHeight="1">
-      <c r="A103" t="s" s="9">
-        <v>218</v>
-      </c>
-      <c r="B103" t="s" s="9">
-        <v>219</v>
-      </c>
-      <c r="C103" t="s" s="10">
-        <v>18</v>
-      </c>
-      <c r="D103" s="6">
-        <v>0.952380952380952</v>
       </c>
       <c r="E103" s="6"/>
       <c r="F103" s="6"/>
       <c r="G103" s="6"/>
-      <c r="H103" s="6">
-        <v>0.777777777777778</v>
-      </c>
+      <c r="H103" s="6"/>
       <c r="I103" s="6"/>
       <c r="J103" s="7"/>
     </row>
     <row r="104" ht="21" customHeight="1">
-      <c r="A104" t="s" s="4">
+      <c r="A104" t="s" s="5">
+        <v>218</v>
+      </c>
+      <c r="B104" t="s" s="5">
         <v>220</v>
       </c>
-      <c r="B104" t="s" s="4">
-        <v>221</v>
-      </c>
       <c r="C104" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="D104" s="6">
-        <v>0.571428571428571</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D104" s="6"/>
       <c r="E104" s="6"/>
       <c r="F104" s="6"/>
       <c r="G104" s="6"/>
-      <c r="H104" s="6"/>
+      <c r="H104" s="6">
+        <v>0.416666666666667</v>
+      </c>
       <c r="I104" s="6"/>
       <c r="J104" s="12"/>
     </row>
-    <row r="105" ht="21" customHeight="1">
-      <c r="A105" t="s" s="8">
+    <row r="105" ht="20.7" customHeight="1">
+      <c r="A105" t="s" s="5">
+        <v>221</v>
+      </c>
+      <c r="B105" t="s" s="5">
         <v>222</v>
       </c>
-      <c r="B105" t="s" s="8">
-        <v>223</v>
-      </c>
       <c r="C105" t="s" s="5">
-        <v>65</v>
-      </c>
-      <c r="D105" s="6">
-        <v>0.761904761904762</v>
-      </c>
-      <c r="E105" s="6"/>
-      <c r="F105" s="6"/>
-      <c r="G105" s="6"/>
-      <c r="H105" s="6"/>
-      <c r="I105" s="6"/>
-      <c r="J105" s="14"/>
+        <v>18</v>
+      </c>
+      <c r="D105" s="25">
+        <v>0.476190476190476</v>
+      </c>
+      <c r="E105" s="19"/>
+      <c r="F105" s="19"/>
+      <c r="G105" s="19"/>
+      <c r="H105" s="6">
+        <v>0.555555555555556</v>
+      </c>
+      <c r="I105" s="19"/>
+      <c r="J105" s="20"/>
     </row>
     <row r="106" ht="21" customHeight="1">
       <c r="A106" t="s" s="5">
+        <v>223</v>
+      </c>
+      <c r="B106" t="s" s="5">
         <v>224</v>
       </c>
-      <c r="B106" t="s" s="5">
-        <v>225</v>
-      </c>
       <c r="C106" t="s" s="5">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="D106" s="6">
-        <v>0.904761904761905</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E106" s="6"/>
       <c r="F106" s="6"/>
       <c r="G106" s="6"/>
-      <c r="H106" s="6"/>
+      <c r="H106" s="6">
+        <v>0.39</v>
+      </c>
       <c r="I106" s="6"/>
-      <c r="J106" s="12"/>
-    </row>
-    <row r="107" ht="20.7" customHeight="1">
+      <c r="J106" s="14"/>
+    </row>
+    <row r="107" ht="21" customHeight="1">
       <c r="A107" t="s" s="5">
+        <v>225</v>
+      </c>
+      <c r="B107" t="s" s="5">
         <v>226</v>
       </c>
-      <c r="B107" t="s" s="5">
+      <c r="C107" s="19"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6"/>
+      <c r="G107" s="6"/>
+      <c r="H107" s="6">
+        <v>0.722222222222222</v>
+      </c>
+      <c r="I107" s="6"/>
+      <c r="J107" s="7"/>
+    </row>
+    <row r="108" ht="21" customHeight="1">
+      <c r="A108" t="s" s="5">
         <v>227</v>
       </c>
-      <c r="C107" t="s" s="5">
-        <v>46</v>
-      </c>
-      <c r="D107" s="25">
-        <v>0.69047619047619</v>
-      </c>
-      <c r="E107" s="19"/>
-      <c r="F107" s="19"/>
-      <c r="G107" s="19"/>
-      <c r="H107" s="6"/>
-      <c r="I107" s="19"/>
-      <c r="J107" s="22"/>
-    </row>
-    <row r="108" ht="21" customHeight="1">
-      <c r="A108" t="s" s="4">
+      <c r="B108" t="s" s="5">
         <v>228</v>
       </c>
-      <c r="B108" t="s" s="4">
-        <v>229</v>
-      </c>
       <c r="C108" t="s" s="5">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="D108" s="6">
-        <v>0.619047619047619</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="E108" s="6"/>
       <c r="F108" s="6"/>
@@ -4535,17 +4760,17 @@
       <c r="J108" s="7"/>
     </row>
     <row r="109" ht="21" customHeight="1">
-      <c r="A109" t="s" s="9">
+      <c r="A109" t="s" s="5">
+        <v>229</v>
+      </c>
+      <c r="B109" t="s" s="5">
         <v>230</v>
       </c>
-      <c r="B109" t="s" s="9">
-        <v>231</v>
-      </c>
-      <c r="C109" t="s" s="10">
-        <v>65</v>
+      <c r="C109" t="s" s="5">
+        <v>12</v>
       </c>
       <c r="D109" s="6">
-        <v>0.571428571428571</v>
+        <v>0.69047619047619</v>
       </c>
       <c r="E109" s="6"/>
       <c r="F109" s="6"/>
@@ -4555,77 +4780,79 @@
       <c r="J109" s="7"/>
     </row>
     <row r="110" ht="21" customHeight="1">
-      <c r="A110" t="s" s="4">
+      <c r="A110" t="s" s="5">
+        <v>231</v>
+      </c>
+      <c r="B110" t="s" s="5">
         <v>232</v>
       </c>
-      <c r="B110" t="s" s="4">
-        <v>233</v>
-      </c>
       <c r="C110" t="s" s="5">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D110" s="6">
-        <v>0.857142857142857</v>
+        <v>0.785714285714286</v>
       </c>
       <c r="E110" s="6"/>
       <c r="F110" s="6"/>
       <c r="G110" s="6"/>
-      <c r="H110" s="6"/>
+      <c r="H110" s="6">
+        <v>0.75</v>
+      </c>
       <c r="I110" s="6"/>
       <c r="J110" s="12"/>
     </row>
     <row r="111" ht="21" customHeight="1">
-      <c r="A111" t="s" s="9">
+      <c r="A111" t="s" s="5">
+        <v>233</v>
+      </c>
+      <c r="B111" t="s" s="5">
         <v>234</v>
       </c>
-      <c r="B111" t="s" s="9">
-        <v>235</v>
-      </c>
-      <c r="C111" t="s" s="10">
-        <v>21</v>
+      <c r="C111" t="s" s="5">
+        <v>12</v>
       </c>
       <c r="D111" s="6"/>
       <c r="E111" s="6"/>
       <c r="F111" s="6"/>
       <c r="G111" s="6"/>
       <c r="H111" s="6">
-        <v>0.75</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I111" s="6"/>
-      <c r="J111" s="14"/>
-    </row>
-    <row r="112" ht="21" customHeight="1">
+      <c r="J111" s="13"/>
+    </row>
+    <row r="112" ht="20.7" customHeight="1">
       <c r="A112" t="s" s="5">
+        <v>235</v>
+      </c>
+      <c r="B112" t="s" s="5">
         <v>236</v>
       </c>
-      <c r="B112" t="s" s="5">
-        <v>237</v>
-      </c>
       <c r="C112" t="s" s="5">
-        <v>65</v>
-      </c>
-      <c r="D112" s="6">
-        <v>0.785714285714286</v>
-      </c>
-      <c r="E112" s="6"/>
-      <c r="F112" s="6"/>
-      <c r="G112" s="6"/>
+        <v>46</v>
+      </c>
+      <c r="D112" s="21">
+        <v>0.619047619047619</v>
+      </c>
+      <c r="E112" s="19"/>
+      <c r="F112" s="19"/>
+      <c r="G112" s="19"/>
       <c r="H112" s="6"/>
-      <c r="I112" s="6"/>
-      <c r="J112" s="7"/>
+      <c r="I112" s="19"/>
+      <c r="J112" s="22"/>
     </row>
     <row r="113" ht="21" customHeight="1">
       <c r="A113" t="s" s="5">
+        <v>237</v>
+      </c>
+      <c r="B113" t="s" s="5">
         <v>238</v>
       </c>
-      <c r="B113" t="s" s="5">
-        <v>239</v>
-      </c>
       <c r="C113" t="s" s="5">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D113" s="6">
-        <v>1</v>
+        <v>0.904761904761905</v>
       </c>
       <c r="E113" s="6"/>
       <c r="F113" s="6"/>
@@ -4635,17 +4862,17 @@
       <c r="J113" s="7"/>
     </row>
     <row r="114" ht="21" customHeight="1">
-      <c r="A114" t="s" s="4">
+      <c r="A114" t="s" s="5">
+        <v>239</v>
+      </c>
+      <c r="B114" t="s" s="5">
         <v>240</v>
-      </c>
-      <c r="B114" t="s" s="4">
-        <v>241</v>
       </c>
       <c r="C114" t="s" s="5">
         <v>12</v>
       </c>
       <c r="D114" s="6">
-        <v>0.785714285714286</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="E114" s="6"/>
       <c r="F114" s="6"/>
@@ -4655,113 +4882,113 @@
       <c r="J114" s="7"/>
     </row>
     <row r="115" ht="21" customHeight="1">
-      <c r="A115" t="s" s="9">
+      <c r="A115" t="s" s="5">
+        <v>241</v>
+      </c>
+      <c r="B115" t="s" s="5">
         <v>242</v>
       </c>
-      <c r="B115" t="s" s="9">
-        <v>243</v>
-      </c>
-      <c r="C115" t="s" s="10">
-        <v>46</v>
-      </c>
-      <c r="D115" s="6">
-        <v>0.738095238095238</v>
-      </c>
+      <c r="C115" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="D115" s="6"/>
       <c r="E115" s="6"/>
       <c r="F115" s="6"/>
       <c r="G115" s="6"/>
       <c r="H115" s="6">
-        <v>0.388888888888889</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I115" s="6"/>
       <c r="J115" s="7"/>
     </row>
     <row r="116" ht="21" customHeight="1">
       <c r="A116" t="s" s="5">
+        <v>243</v>
+      </c>
+      <c r="B116" t="s" s="5">
         <v>244</v>
       </c>
-      <c r="B116" t="s" s="5">
-        <v>245</v>
-      </c>
-      <c r="C116" t="s" s="5">
-        <v>65</v>
-      </c>
-      <c r="D116" s="6">
-        <v>0.785714285714286</v>
-      </c>
+      <c r="C116" s="19"/>
+      <c r="D116" s="6"/>
       <c r="E116" s="6"/>
       <c r="F116" s="6"/>
       <c r="G116" s="6"/>
-      <c r="H116" s="6"/>
+      <c r="H116" s="6">
+        <v>0.388888888888889</v>
+      </c>
       <c r="I116" s="6"/>
       <c r="J116" s="12"/>
     </row>
     <row r="117" ht="20.7" customHeight="1">
       <c r="A117" t="s" s="5">
+        <v>245</v>
+      </c>
+      <c r="B117" t="s" s="5">
         <v>246</v>
       </c>
-      <c r="B117" t="s" s="5">
-        <v>247</v>
-      </c>
       <c r="C117" t="s" s="5">
-        <v>65</v>
-      </c>
-      <c r="D117" s="21">
-        <v>0.833333333333333</v>
+        <v>18</v>
+      </c>
+      <c r="D117" s="25">
+        <v>0.642857142857143</v>
       </c>
       <c r="E117" s="19"/>
       <c r="F117" s="19"/>
       <c r="G117" s="19"/>
-      <c r="H117" s="6"/>
+      <c r="H117" s="6">
+        <v>0.861111111111111</v>
+      </c>
       <c r="I117" s="19"/>
       <c r="J117" s="22"/>
     </row>
     <row r="118" ht="21" customHeight="1">
       <c r="A118" t="s" s="5">
+        <v>247</v>
+      </c>
+      <c r="B118" t="s" s="5">
         <v>248</v>
       </c>
-      <c r="B118" t="s" s="5">
-        <v>249</v>
-      </c>
       <c r="C118" t="s" s="5">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D118" s="6">
-        <v>0.880952380952381</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="E118" s="6"/>
       <c r="F118" s="6"/>
       <c r="G118" s="6"/>
-      <c r="H118" s="6"/>
+      <c r="H118" s="6">
+        <v>0.805555555555556</v>
+      </c>
       <c r="I118" s="6"/>
-      <c r="J118" s="7"/>
+      <c r="J118" s="12"/>
     </row>
     <row r="119" ht="21" customHeight="1">
       <c r="A119" t="s" s="5">
+        <v>249</v>
+      </c>
+      <c r="B119" t="s" s="5">
         <v>250</v>
       </c>
-      <c r="B119" t="s" s="5">
-        <v>251</v>
-      </c>
       <c r="C119" t="s" s="5">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="D119" s="6">
-        <v>0.714285714285714</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="E119" s="6"/>
       <c r="F119" s="6"/>
       <c r="G119" s="6"/>
       <c r="H119" s="6"/>
       <c r="I119" s="6"/>
-      <c r="J119" s="7"/>
+      <c r="J119" s="14"/>
     </row>
     <row r="120" ht="21" customHeight="1">
-      <c r="A120" t="s" s="5">
+      <c r="A120" t="s" s="4">
+        <v>251</v>
+      </c>
+      <c r="B120" t="s" s="4">
         <v>252</v>
-      </c>
-      <c r="B120" t="s" s="5">
-        <v>253</v>
       </c>
       <c r="C120" t="s" s="5">
         <v>18</v>
@@ -4774,359 +5001,371 @@
         <v>0.777777777777778</v>
       </c>
       <c r="I120" s="6"/>
-      <c r="J120" s="7"/>
+      <c r="J120" s="12"/>
     </row>
     <row r="121" ht="21" customHeight="1">
-      <c r="A121" t="s" s="4">
+      <c r="A121" t="s" s="23">
+        <v>253</v>
+      </c>
+      <c r="B121" t="s" s="23">
         <v>254</v>
       </c>
-      <c r="B121" t="s" s="4">
-        <v>255</v>
-      </c>
       <c r="C121" t="s" s="5">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D121" s="6">
-        <v>0.666666666666667</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="E121" s="6"/>
       <c r="F121" s="6"/>
       <c r="G121" s="6"/>
       <c r="H121" s="6"/>
       <c r="I121" s="6"/>
-      <c r="J121" s="7"/>
+      <c r="J121" s="13"/>
     </row>
     <row r="122" ht="21" customHeight="1">
-      <c r="A122" t="s" s="9">
+      <c r="A122" t="s" s="8">
+        <v>255</v>
+      </c>
+      <c r="B122" t="s" s="8">
         <v>256</v>
       </c>
-      <c r="B122" t="s" s="9">
-        <v>257</v>
-      </c>
-      <c r="C122" t="s" s="10">
-        <v>46</v>
+      <c r="C122" t="s" s="5">
+        <v>21</v>
       </c>
       <c r="D122" s="6">
-        <v>0.666666666666667</v>
+        <v>0.80952380952381</v>
       </c>
       <c r="E122" s="6"/>
       <c r="F122" s="6"/>
       <c r="G122" s="6"/>
-      <c r="H122" s="6"/>
+      <c r="H122" s="6">
+        <v>0.777777777777778</v>
+      </c>
       <c r="I122" s="6"/>
-      <c r="J122" s="7"/>
+      <c r="J122" s="14"/>
     </row>
     <row r="123" ht="21" customHeight="1">
-      <c r="A123" t="s" s="4">
+      <c r="A123" t="s" s="5">
+        <v>257</v>
+      </c>
+      <c r="B123" t="s" s="5">
         <v>258</v>
       </c>
-      <c r="B123" t="s" s="4">
-        <v>259</v>
-      </c>
       <c r="C123" t="s" s="5">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D123" s="6"/>
       <c r="E123" s="6"/>
       <c r="F123" s="6"/>
       <c r="G123" s="6"/>
       <c r="H123" s="6">
-        <v>0.555555555555556</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="I123" s="6"/>
-      <c r="J123" s="7"/>
-    </row>
-    <row r="124" ht="21" customHeight="1">
-      <c r="A124" t="s" s="9">
+      <c r="J123" s="12"/>
+    </row>
+    <row r="124" ht="20.35" customHeight="1">
+      <c r="A124" t="s" s="4">
+        <v>259</v>
+      </c>
+      <c r="B124" t="s" s="4">
         <v>260</v>
       </c>
-      <c r="B124" t="s" s="9">
+      <c r="C124" t="s" s="5">
+        <v>18</v>
+      </c>
+      <c r="D124" s="19"/>
+      <c r="E124" s="19"/>
+      <c r="F124" s="19"/>
+      <c r="G124" s="19"/>
+      <c r="H124" s="6">
+        <v>0.777777777777778</v>
+      </c>
+      <c r="I124" s="19"/>
+      <c r="J124" s="20"/>
+    </row>
+    <row r="125" ht="21" customHeight="1">
+      <c r="A125" t="s" s="8">
         <v>261</v>
       </c>
-      <c r="C124" t="s" s="10">
-        <v>15</v>
-      </c>
-      <c r="D124" s="6">
-        <v>0.80952380952381</v>
-      </c>
-      <c r="E124" s="6"/>
-      <c r="F124" s="6"/>
-      <c r="G124" s="6"/>
-      <c r="H124" s="6"/>
-      <c r="I124" s="6"/>
-      <c r="J124" s="12"/>
-    </row>
-    <row r="125" ht="21" customHeight="1">
-      <c r="A125" t="s" s="5">
+      <c r="B125" t="s" s="8">
         <v>262</v>
       </c>
-      <c r="B125" t="s" s="5">
-        <v>263</v>
-      </c>
       <c r="C125" t="s" s="5">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="D125" s="6">
-        <v>0.571428571428571</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="E125" s="6"/>
       <c r="F125" s="6"/>
       <c r="G125" s="6"/>
-      <c r="H125" s="6"/>
+      <c r="H125" s="6">
+        <v>0.805555555555556</v>
+      </c>
       <c r="I125" s="6"/>
       <c r="J125" s="14"/>
     </row>
     <row r="126" ht="21" customHeight="1">
       <c r="A126" t="s" s="5">
+        <v>263</v>
+      </c>
+      <c r="B126" t="s" s="5">
         <v>264</v>
       </c>
-      <c r="B126" t="s" s="5">
-        <v>265</v>
-      </c>
       <c r="C126" t="s" s="5">
-        <v>65</v>
-      </c>
-      <c r="D126" s="6">
-        <v>0.833333333333333</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D126" s="6"/>
       <c r="E126" s="6"/>
       <c r="F126" s="6"/>
       <c r="G126" s="6"/>
-      <c r="H126" s="6"/>
+      <c r="H126" s="6">
+        <v>0.305555555555556</v>
+      </c>
       <c r="I126" s="6"/>
-      <c r="J126" s="7"/>
-    </row>
-    <row r="127" ht="21" customHeight="1">
-      <c r="A127" t="s" s="5">
+      <c r="J126" s="12"/>
+    </row>
+    <row r="127" ht="20.7" customHeight="1">
+      <c r="A127" t="s" s="4">
+        <v>265</v>
+      </c>
+      <c r="B127" t="s" s="4">
         <v>266</v>
       </c>
-      <c r="B127" t="s" s="5">
+      <c r="C127" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D127" s="25">
+        <v>0.738095238095238</v>
+      </c>
+      <c r="E127" s="19"/>
+      <c r="F127" s="19"/>
+      <c r="G127" s="19"/>
+      <c r="H127" s="6">
+        <v>0.777777777777778</v>
+      </c>
+      <c r="I127" s="19"/>
+      <c r="J127" s="22"/>
+    </row>
+    <row r="128" ht="21" customHeight="1">
+      <c r="A128" t="s" s="9">
         <v>267</v>
       </c>
-      <c r="C127" t="s" s="5">
-        <v>65</v>
-      </c>
-      <c r="D127" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="E127" s="6"/>
-      <c r="F127" s="6"/>
-      <c r="G127" s="6"/>
-      <c r="H127" s="6"/>
-      <c r="I127" s="6"/>
-      <c r="J127" s="7"/>
-    </row>
-    <row r="128" ht="21" customHeight="1">
-      <c r="A128" t="s" s="5">
+      <c r="B128" t="s" s="9">
         <v>268</v>
       </c>
-      <c r="B128" t="s" s="5">
-        <v>269</v>
-      </c>
-      <c r="C128" t="s" s="5">
-        <v>46</v>
+      <c r="C128" t="s" s="10">
+        <v>18</v>
       </c>
       <c r="D128" s="6">
-        <v>0.642857142857143</v>
+        <v>0.952380952380952</v>
       </c>
       <c r="E128" s="6"/>
       <c r="F128" s="6"/>
       <c r="G128" s="6"/>
       <c r="H128" s="6">
-        <v>0.388888888888889</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I128" s="6"/>
-      <c r="J128" s="12"/>
+      <c r="J128" s="7"/>
     </row>
     <row r="129" ht="21" customHeight="1">
       <c r="A129" t="s" s="5">
+        <v>269</v>
+      </c>
+      <c r="B129" t="s" s="5">
         <v>270</v>
       </c>
-      <c r="B129" t="s" s="5">
-        <v>271</v>
-      </c>
       <c r="C129" t="s" s="5">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D129" s="6">
-        <v>0.666666666666667</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="E129" s="6"/>
       <c r="F129" s="6"/>
       <c r="G129" s="6"/>
       <c r="H129" s="6"/>
       <c r="I129" s="6"/>
-      <c r="J129" s="14"/>
+      <c r="J129" s="7"/>
     </row>
     <row r="130" ht="21" customHeight="1">
-      <c r="A130" t="s" s="5">
+      <c r="A130" t="s" s="4">
+        <v>271</v>
+      </c>
+      <c r="B130" t="s" s="4">
         <v>272</v>
       </c>
-      <c r="B130" t="s" s="5">
-        <v>273</v>
-      </c>
       <c r="C130" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D130" s="6">
-        <v>0.595238095238095</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D130" s="6"/>
       <c r="E130" s="6"/>
       <c r="F130" s="6"/>
       <c r="G130" s="6"/>
-      <c r="H130" s="6"/>
+      <c r="H130" s="6">
+        <v>0</v>
+      </c>
       <c r="I130" s="6"/>
-      <c r="J130" s="7"/>
+      <c r="J130" s="12"/>
     </row>
     <row r="131" ht="21" customHeight="1">
-      <c r="A131" t="s" s="5">
+      <c r="A131" t="s" s="23">
+        <v>273</v>
+      </c>
+      <c r="B131" t="s" s="23">
         <v>274</v>
       </c>
-      <c r="B131" t="s" s="5">
-        <v>275</v>
-      </c>
       <c r="C131" t="s" s="5">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="D131" s="6">
-        <v>0.547619047619048</v>
+        <v>0.761904761904762</v>
       </c>
       <c r="E131" s="6"/>
       <c r="F131" s="6"/>
       <c r="G131" s="6"/>
       <c r="H131" s="6"/>
       <c r="I131" s="6"/>
-      <c r="J131" s="12"/>
+      <c r="J131" s="13"/>
     </row>
     <row r="132" ht="21" customHeight="1">
-      <c r="A132" t="s" s="5">
+      <c r="A132" t="s" s="8">
+        <v>275</v>
+      </c>
+      <c r="B132" t="s" s="8">
         <v>276</v>
       </c>
-      <c r="B132" t="s" s="5">
-        <v>277</v>
-      </c>
       <c r="C132" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D132" s="6">
-        <v>0.761904761904762</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D132" s="6"/>
       <c r="E132" s="6"/>
       <c r="F132" s="6"/>
       <c r="G132" s="6"/>
       <c r="H132" s="6">
-        <v>0.861111111111111</v>
+        <v>0.75</v>
       </c>
       <c r="I132" s="6"/>
-      <c r="J132" s="14"/>
-    </row>
-    <row r="133" ht="21" customHeight="1">
+      <c r="J132" s="13"/>
+    </row>
+    <row r="133" ht="20.7" customHeight="1">
       <c r="A133" t="s" s="4">
+        <v>277</v>
+      </c>
+      <c r="B133" t="s" s="4">
         <v>278</v>
       </c>
-      <c r="B133" t="s" s="4">
+      <c r="C133" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="D133" s="19"/>
+      <c r="E133" s="19"/>
+      <c r="F133" s="19"/>
+      <c r="G133" s="19"/>
+      <c r="H133" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="I133" s="19"/>
+      <c r="J133" s="22"/>
+    </row>
+    <row r="134" ht="21" customHeight="1">
+      <c r="A134" t="s" s="9">
         <v>279</v>
       </c>
-      <c r="C133" t="s" s="5">
-        <v>65</v>
-      </c>
-      <c r="D133" s="6">
-        <v>0.571428571428571</v>
-      </c>
-      <c r="E133" s="6"/>
-      <c r="F133" s="6"/>
-      <c r="G133" s="6"/>
-      <c r="H133" s="6"/>
-      <c r="I133" s="6"/>
-      <c r="J133" s="12"/>
-    </row>
-    <row r="134" ht="21" customHeight="1">
-      <c r="A134" t="s" s="23">
+      <c r="B134" t="s" s="9">
         <v>280</v>
       </c>
-      <c r="B134" t="s" s="23">
-        <v>281</v>
-      </c>
-      <c r="C134" t="s" s="5">
-        <v>21</v>
+      <c r="C134" t="s" s="10">
+        <v>18</v>
       </c>
       <c r="D134" s="6"/>
       <c r="E134" s="6"/>
       <c r="F134" s="6"/>
       <c r="G134" s="6"/>
       <c r="H134" s="6">
-        <v>0.777777777777778</v>
+        <v>0.805555555555556</v>
       </c>
       <c r="I134" s="6"/>
-      <c r="J134" s="14"/>
+      <c r="J134" s="7"/>
     </row>
     <row r="135" ht="21" customHeight="1">
-      <c r="A135" t="s" s="9">
+      <c r="A135" t="s" s="4">
+        <v>281</v>
+      </c>
+      <c r="B135" t="s" s="4">
         <v>282</v>
       </c>
-      <c r="B135" t="s" s="9">
-        <v>283</v>
-      </c>
-      <c r="C135" t="s" s="10">
-        <v>18</v>
+      <c r="C135" t="s" s="5">
+        <v>21</v>
       </c>
       <c r="D135" s="6">
-        <v>0.285714285714286</v>
+        <v>0.904761904761905</v>
       </c>
       <c r="E135" s="6"/>
       <c r="F135" s="6"/>
       <c r="G135" s="6"/>
       <c r="H135" s="6">
-        <v>0.805555555555556</v>
+        <v>0.75</v>
       </c>
       <c r="I135" s="6"/>
       <c r="J135" s="7"/>
     </row>
     <row r="136" ht="21" customHeight="1">
-      <c r="A136" t="s" s="5">
+      <c r="A136" t="s" s="9">
+        <v>283</v>
+      </c>
+      <c r="B136" t="s" s="9">
         <v>284</v>
       </c>
-      <c r="B136" t="s" s="5">
-        <v>285</v>
-      </c>
-      <c r="C136" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="D136" s="6">
-        <v>0.30952380952381</v>
-      </c>
+      <c r="C136" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="D136" s="6"/>
       <c r="E136" s="6"/>
       <c r="F136" s="6"/>
       <c r="G136" s="6"/>
-      <c r="H136" s="6"/>
+      <c r="H136" s="6">
+        <v>0.722222222222222</v>
+      </c>
       <c r="I136" s="6"/>
-      <c r="J136" s="7"/>
-    </row>
-    <row r="137" ht="21" customHeight="1">
+      <c r="J136" s="12"/>
+    </row>
+    <row r="137" ht="20.7" customHeight="1">
       <c r="A137" t="s" s="5">
+        <v>285</v>
+      </c>
+      <c r="B137" t="s" s="5">
         <v>286</v>
       </c>
-      <c r="B137" t="s" s="5">
+      <c r="C137" t="s" s="5">
+        <v>46</v>
+      </c>
+      <c r="D137" s="25">
+        <v>0.69047619047619</v>
+      </c>
+      <c r="E137" s="19"/>
+      <c r="F137" s="19"/>
+      <c r="G137" s="19"/>
+      <c r="H137" s="6"/>
+      <c r="I137" s="19"/>
+      <c r="J137" s="22"/>
+    </row>
+    <row r="138" ht="21" customHeight="1">
+      <c r="A138" t="s" s="4">
         <v>287</v>
       </c>
-      <c r="C137" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D137" s="6"/>
-      <c r="E137" s="6"/>
-      <c r="F137" s="6"/>
-      <c r="G137" s="6"/>
-      <c r="H137" s="6">
-        <v>0.861111111111111</v>
-      </c>
-      <c r="I137" s="6"/>
-      <c r="J137" s="7"/>
-    </row>
-    <row r="138" ht="21" customHeight="1">
-      <c r="A138" s="26"/>
-      <c r="B138" s="26"/>
-      <c r="C138" s="19"/>
-      <c r="D138" s="6"/>
+      <c r="B138" t="s" s="4">
+        <v>288</v>
+      </c>
+      <c r="C138" t="s" s="5">
+        <v>46</v>
+      </c>
+      <c r="D138" s="6">
+        <v>0.619047619047619</v>
+      </c>
       <c r="E138" s="6"/>
       <c r="F138" s="6"/>
       <c r="G138" s="6"/>
@@ -5135,118 +5374,200 @@
       <c r="J138" s="7"/>
     </row>
     <row r="139" ht="21" customHeight="1">
-      <c r="A139" s="27"/>
-      <c r="B139" s="27"/>
-      <c r="C139" s="24"/>
-      <c r="D139" s="6"/>
+      <c r="A139" t="s" s="9">
+        <v>289</v>
+      </c>
+      <c r="B139" t="s" s="9">
+        <v>290</v>
+      </c>
+      <c r="C139" t="s" s="10">
+        <v>69</v>
+      </c>
+      <c r="D139" s="6">
+        <v>0.571428571428571</v>
+      </c>
       <c r="E139" s="6"/>
       <c r="F139" s="6"/>
       <c r="G139" s="6"/>
       <c r="H139" s="6"/>
       <c r="I139" s="6"/>
-      <c r="J139" s="12"/>
+      <c r="J139" s="7"/>
     </row>
     <row r="140" ht="21" customHeight="1">
-      <c r="A140" s="28"/>
-      <c r="B140" s="28"/>
-      <c r="C140" s="19"/>
+      <c r="A140" t="s" s="5">
+        <v>291</v>
+      </c>
+      <c r="B140" t="s" s="5">
+        <v>292</v>
+      </c>
+      <c r="C140" t="s" s="5">
+        <v>21</v>
+      </c>
       <c r="D140" s="6"/>
       <c r="E140" s="6"/>
       <c r="F140" s="6"/>
       <c r="G140" s="6"/>
-      <c r="H140" s="6"/>
+      <c r="H140" s="6">
+        <v>0.75</v>
+      </c>
       <c r="I140" s="6"/>
-      <c r="J140" s="14"/>
+      <c r="J140" s="7"/>
     </row>
     <row r="141" ht="21" customHeight="1">
-      <c r="A141" s="19"/>
-      <c r="B141" s="19"/>
-      <c r="C141" s="19"/>
-      <c r="D141" s="6"/>
+      <c r="A141" t="s" s="4">
+        <v>293</v>
+      </c>
+      <c r="B141" t="s" s="4">
+        <v>294</v>
+      </c>
+      <c r="C141" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D141" s="6">
+        <v>0.857142857142857</v>
+      </c>
       <c r="E141" s="6"/>
       <c r="F141" s="6"/>
       <c r="G141" s="6"/>
       <c r="H141" s="6"/>
       <c r="I141" s="6"/>
-      <c r="J141" s="7"/>
+      <c r="J141" s="12"/>
     </row>
     <row r="142" ht="21" customHeight="1">
-      <c r="A142" s="19"/>
-      <c r="B142" s="19"/>
-      <c r="C142" s="19"/>
+      <c r="A142" t="s" s="9">
+        <v>295</v>
+      </c>
+      <c r="B142" t="s" s="9">
+        <v>296</v>
+      </c>
+      <c r="C142" t="s" s="10">
+        <v>21</v>
+      </c>
       <c r="D142" s="6"/>
       <c r="E142" s="6"/>
       <c r="F142" s="6"/>
       <c r="G142" s="6"/>
-      <c r="H142" s="6"/>
+      <c r="H142" s="6">
+        <v>0.75</v>
+      </c>
       <c r="I142" s="6"/>
-      <c r="J142" s="7"/>
+      <c r="J142" s="14"/>
     </row>
     <row r="143" ht="21" customHeight="1">
-      <c r="A143" s="26"/>
-      <c r="B143" s="26"/>
-      <c r="C143" s="19"/>
+      <c r="A143" t="s" s="5">
+        <v>297</v>
+      </c>
+      <c r="B143" t="s" s="5">
+        <v>298</v>
+      </c>
+      <c r="C143" t="s" s="5">
+        <v>21</v>
+      </c>
       <c r="D143" s="6"/>
       <c r="E143" s="6"/>
       <c r="F143" s="6"/>
       <c r="G143" s="6"/>
-      <c r="H143" s="6"/>
+      <c r="H143" s="6">
+        <v>0</v>
+      </c>
       <c r="I143" s="6"/>
-      <c r="J143" s="12"/>
+      <c r="J143" s="7"/>
     </row>
     <row r="144" ht="21" customHeight="1">
-      <c r="A144" s="27"/>
-      <c r="B144" s="27"/>
-      <c r="C144" s="24"/>
-      <c r="D144" s="6"/>
+      <c r="A144" t="s" s="5">
+        <v>299</v>
+      </c>
+      <c r="B144" t="s" s="5">
+        <v>300</v>
+      </c>
+      <c r="C144" t="s" s="5">
+        <v>69</v>
+      </c>
+      <c r="D144" s="6">
+        <v>0.785714285714286</v>
+      </c>
       <c r="E144" s="6"/>
       <c r="F144" s="6"/>
       <c r="G144" s="6"/>
       <c r="H144" s="6"/>
       <c r="I144" s="6"/>
-      <c r="J144" s="13"/>
+      <c r="J144" s="7"/>
     </row>
     <row r="145" ht="21" customHeight="1">
-      <c r="A145" s="29"/>
-      <c r="B145" s="29"/>
-      <c r="C145" s="19"/>
-      <c r="D145" s="6"/>
+      <c r="A145" t="s" s="5">
+        <v>301</v>
+      </c>
+      <c r="B145" t="s" s="5">
+        <v>302</v>
+      </c>
+      <c r="C145" t="s" s="5">
+        <v>69</v>
+      </c>
+      <c r="D145" s="6">
+        <v>1</v>
+      </c>
       <c r="E145" s="6"/>
       <c r="F145" s="6"/>
       <c r="G145" s="6"/>
       <c r="H145" s="6"/>
       <c r="I145" s="6"/>
-      <c r="J145" s="14"/>
+      <c r="J145" s="7"/>
     </row>
     <row r="146" ht="21" customHeight="1">
-      <c r="A146" s="27"/>
-      <c r="B146" s="27"/>
-      <c r="C146" s="24"/>
-      <c r="D146" s="6"/>
+      <c r="A146" t="s" s="4">
+        <v>303</v>
+      </c>
+      <c r="B146" t="s" s="4">
+        <v>304</v>
+      </c>
+      <c r="C146" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D146" s="6">
+        <v>0.785714285714286</v>
+      </c>
       <c r="E146" s="6"/>
       <c r="F146" s="6"/>
       <c r="G146" s="6"/>
       <c r="H146" s="6"/>
       <c r="I146" s="6"/>
-      <c r="J146" s="12"/>
+      <c r="J146" s="7"/>
     </row>
     <row r="147" ht="21" customHeight="1">
-      <c r="A147" s="28"/>
-      <c r="B147" s="28"/>
-      <c r="C147" s="19"/>
-      <c r="D147" s="6"/>
+      <c r="A147" t="s" s="9">
+        <v>305</v>
+      </c>
+      <c r="B147" t="s" s="9">
+        <v>306</v>
+      </c>
+      <c r="C147" t="s" s="10">
+        <v>46</v>
+      </c>
+      <c r="D147" s="6">
+        <v>0.738095238095238</v>
+      </c>
       <c r="E147" s="6"/>
       <c r="F147" s="6"/>
       <c r="G147" s="6"/>
-      <c r="H147" s="6"/>
+      <c r="H147" s="6">
+        <v>0.388888888888889</v>
+      </c>
       <c r="I147" s="6"/>
-      <c r="J147" s="14"/>
+      <c r="J147" s="7"/>
     </row>
     <row r="148" ht="21" customHeight="1">
-      <c r="A148" s="19"/>
-      <c r="B148" s="19"/>
-      <c r="C148" s="19"/>
-      <c r="D148" s="6"/>
+      <c r="A148" t="s" s="5">
+        <v>307</v>
+      </c>
+      <c r="B148" t="s" s="5">
+        <v>308</v>
+      </c>
+      <c r="C148" t="s" s="5">
+        <v>69</v>
+      </c>
+      <c r="D148" s="6">
+        <v>0.785714285714286</v>
+      </c>
       <c r="E148" s="6"/>
       <c r="F148" s="6"/>
       <c r="G148" s="6"/>
@@ -5254,59 +5575,101 @@
       <c r="I148" s="6"/>
       <c r="J148" s="12"/>
     </row>
-    <row r="149" ht="21" customHeight="1">
-      <c r="A149" s="26"/>
-      <c r="B149" s="26"/>
-      <c r="C149" s="19"/>
-      <c r="D149" s="6"/>
-      <c r="E149" s="6"/>
-      <c r="F149" s="6"/>
-      <c r="G149" s="6"/>
+    <row r="149" ht="20.7" customHeight="1">
+      <c r="A149" t="s" s="4">
+        <v>309</v>
+      </c>
+      <c r="B149" t="s" s="4">
+        <v>310</v>
+      </c>
+      <c r="C149" t="s" s="5">
+        <v>69</v>
+      </c>
+      <c r="D149" s="21">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E149" s="19"/>
+      <c r="F149" s="19"/>
+      <c r="G149" s="19"/>
       <c r="H149" s="6"/>
-      <c r="I149" s="6"/>
-      <c r="J149" s="14"/>
+      <c r="I149" s="19"/>
+      <c r="J149" s="20"/>
     </row>
     <row r="150" ht="21" customHeight="1">
-      <c r="A150" s="27"/>
-      <c r="B150" s="27"/>
-      <c r="C150" s="24"/>
+      <c r="A150" t="s" s="23">
+        <v>311</v>
+      </c>
+      <c r="B150" t="s" s="23">
+        <v>312</v>
+      </c>
+      <c r="C150" t="s" s="5">
+        <v>69</v>
+      </c>
       <c r="D150" s="6"/>
       <c r="E150" s="6"/>
       <c r="F150" s="6"/>
       <c r="G150" s="6"/>
-      <c r="H150" s="6"/>
+      <c r="H150" s="6">
+        <v>0.75</v>
+      </c>
       <c r="I150" s="6"/>
-      <c r="J150" s="12"/>
+      <c r="J150" s="13"/>
     </row>
     <row r="151" ht="21" customHeight="1">
-      <c r="A151" s="28"/>
-      <c r="B151" s="28"/>
-      <c r="C151" s="19"/>
+      <c r="A151" t="s" s="8">
+        <v>313</v>
+      </c>
+      <c r="B151" t="s" s="8">
+        <v>314</v>
+      </c>
+      <c r="C151" t="s" s="5">
+        <v>15</v>
+      </c>
       <c r="D151" s="6"/>
       <c r="E151" s="6"/>
       <c r="F151" s="6"/>
       <c r="G151" s="6"/>
-      <c r="H151" s="6"/>
+      <c r="H151" s="6">
+        <v>0</v>
+      </c>
       <c r="I151" s="6"/>
-      <c r="J151" s="13"/>
-    </row>
-    <row r="152" ht="20.7" customHeight="1">
-      <c r="A152" s="19"/>
-      <c r="B152" s="19"/>
-      <c r="C152" s="19"/>
-      <c r="D152" s="19"/>
-      <c r="E152" s="19"/>
-      <c r="F152" s="19"/>
-      <c r="G152" s="19"/>
-      <c r="H152" s="6"/>
-      <c r="I152" s="19"/>
-      <c r="J152" s="22"/>
+      <c r="J151" s="14"/>
+    </row>
+    <row r="152" ht="21" customHeight="1">
+      <c r="A152" t="s" s="5">
+        <v>315</v>
+      </c>
+      <c r="B152" t="s" s="5">
+        <v>316</v>
+      </c>
+      <c r="C152" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="D152" s="6">
+        <v>0.880952380952381</v>
+      </c>
+      <c r="E152" s="6"/>
+      <c r="F152" s="6"/>
+      <c r="G152" s="6"/>
+      <c r="H152" s="6">
+        <v>0.722222222222222</v>
+      </c>
+      <c r="I152" s="6"/>
+      <c r="J152" s="7"/>
     </row>
     <row r="153" ht="21" customHeight="1">
-      <c r="A153" s="19"/>
-      <c r="B153" s="19"/>
-      <c r="C153" s="19"/>
-      <c r="D153" s="6"/>
+      <c r="A153" t="s" s="5">
+        <v>317</v>
+      </c>
+      <c r="B153" t="s" s="5">
+        <v>318</v>
+      </c>
+      <c r="C153" t="s" s="5">
+        <v>46</v>
+      </c>
+      <c r="D153" s="6">
+        <v>0.714285714285714</v>
+      </c>
       <c r="E153" s="6"/>
       <c r="F153" s="6"/>
       <c r="G153" s="6"/>
@@ -5315,34 +5678,58 @@
       <c r="J153" s="7"/>
     </row>
     <row r="154" ht="21" customHeight="1">
-      <c r="A154" s="19"/>
-      <c r="B154" s="19"/>
-      <c r="C154" s="19"/>
+      <c r="A154" t="s" s="5">
+        <v>319</v>
+      </c>
+      <c r="B154" t="s" s="5">
+        <v>320</v>
+      </c>
+      <c r="C154" t="s" s="5">
+        <v>18</v>
+      </c>
       <c r="D154" s="6"/>
       <c r="E154" s="6"/>
       <c r="F154" s="6"/>
       <c r="G154" s="6"/>
-      <c r="H154" s="6"/>
+      <c r="H154" s="6">
+        <v>0.777777777777778</v>
+      </c>
       <c r="I154" s="6"/>
       <c r="J154" s="7"/>
     </row>
     <row r="155" ht="21" customHeight="1">
-      <c r="A155" s="19"/>
-      <c r="B155" s="19"/>
-      <c r="C155" s="19"/>
-      <c r="D155" s="19"/>
-      <c r="E155" s="19"/>
-      <c r="F155" s="19"/>
-      <c r="G155" s="19"/>
+      <c r="A155" t="s" s="4">
+        <v>321</v>
+      </c>
+      <c r="B155" t="s" s="4">
+        <v>322</v>
+      </c>
+      <c r="C155" t="s" s="5">
+        <v>69</v>
+      </c>
+      <c r="D155" s="6">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="E155" s="6"/>
+      <c r="F155" s="6"/>
+      <c r="G155" s="6"/>
       <c r="H155" s="6"/>
-      <c r="I155" s="19"/>
+      <c r="I155" s="6"/>
       <c r="J155" s="7"/>
     </row>
     <row r="156" ht="21" customHeight="1">
-      <c r="A156" s="19"/>
-      <c r="B156" s="19"/>
-      <c r="C156" s="19"/>
-      <c r="D156" s="6"/>
+      <c r="A156" t="s" s="9">
+        <v>323</v>
+      </c>
+      <c r="B156" t="s" s="9">
+        <v>324</v>
+      </c>
+      <c r="C156" t="s" s="10">
+        <v>46</v>
+      </c>
+      <c r="D156" s="6">
+        <v>0.666666666666667</v>
+      </c>
       <c r="E156" s="6"/>
       <c r="F156" s="6"/>
       <c r="G156" s="6"/>
@@ -5351,178 +5738,308 @@
       <c r="J156" s="7"/>
     </row>
     <row r="157" ht="21" customHeight="1">
-      <c r="A157" s="19"/>
-      <c r="B157" s="19"/>
-      <c r="C157" s="19"/>
+      <c r="A157" t="s" s="4">
+        <v>325</v>
+      </c>
+      <c r="B157" t="s" s="4">
+        <v>326</v>
+      </c>
+      <c r="C157" t="s" s="5">
+        <v>18</v>
+      </c>
       <c r="D157" s="6"/>
       <c r="E157" s="6"/>
       <c r="F157" s="6"/>
       <c r="G157" s="6"/>
-      <c r="H157" s="6"/>
+      <c r="H157" s="6">
+        <v>0.555555555555556</v>
+      </c>
       <c r="I157" s="6"/>
       <c r="J157" s="7"/>
     </row>
     <row r="158" ht="21" customHeight="1">
-      <c r="A158" s="19"/>
-      <c r="B158" s="19"/>
-      <c r="C158" s="19"/>
-      <c r="D158" s="6"/>
+      <c r="A158" t="s" s="9">
+        <v>327</v>
+      </c>
+      <c r="B158" t="s" s="9">
+        <v>328</v>
+      </c>
+      <c r="C158" t="s" s="10">
+        <v>15</v>
+      </c>
+      <c r="D158" s="6">
+        <v>0.80952380952381</v>
+      </c>
       <c r="E158" s="6"/>
       <c r="F158" s="6"/>
       <c r="G158" s="6"/>
-      <c r="H158" s="6"/>
+      <c r="H158" s="6">
+        <v>0</v>
+      </c>
       <c r="I158" s="6"/>
-      <c r="J158" s="7"/>
+      <c r="J158" s="12"/>
     </row>
     <row r="159" ht="21" customHeight="1">
-      <c r="A159" s="19"/>
-      <c r="B159" s="19"/>
-      <c r="C159" s="19"/>
-      <c r="D159" s="6"/>
+      <c r="A159" t="s" s="5">
+        <v>329</v>
+      </c>
+      <c r="B159" t="s" s="5">
+        <v>330</v>
+      </c>
+      <c r="C159" t="s" s="5">
+        <v>46</v>
+      </c>
+      <c r="D159" s="6">
+        <v>0.571428571428571</v>
+      </c>
       <c r="E159" s="6"/>
       <c r="F159" s="6"/>
       <c r="G159" s="6"/>
       <c r="H159" s="6"/>
       <c r="I159" s="6"/>
-      <c r="J159" s="7"/>
+      <c r="J159" s="14"/>
     </row>
     <row r="160" ht="21" customHeight="1">
-      <c r="A160" s="19"/>
-      <c r="B160" s="19"/>
-      <c r="C160" s="19"/>
-      <c r="D160" s="6"/>
+      <c r="A160" t="s" s="4">
+        <v>331</v>
+      </c>
+      <c r="B160" t="s" s="4">
+        <v>332</v>
+      </c>
+      <c r="C160" t="s" s="5">
+        <v>69</v>
+      </c>
+      <c r="D160" s="6">
+        <v>0.833333333333333</v>
+      </c>
       <c r="E160" s="6"/>
       <c r="F160" s="6"/>
       <c r="G160" s="6"/>
       <c r="H160" s="6"/>
       <c r="I160" s="6"/>
-      <c r="J160" s="7"/>
+      <c r="J160" s="12"/>
     </row>
     <row r="161" ht="21" customHeight="1">
-      <c r="A161" s="26"/>
-      <c r="B161" s="26"/>
-      <c r="C161" s="19"/>
+      <c r="A161" t="s" s="8">
+        <v>333</v>
+      </c>
+      <c r="B161" t="s" s="8">
+        <v>334</v>
+      </c>
+      <c r="C161" t="s" s="5">
+        <v>21</v>
+      </c>
       <c r="D161" s="6"/>
       <c r="E161" s="6"/>
       <c r="F161" s="6"/>
       <c r="G161" s="6"/>
-      <c r="H161" s="6"/>
+      <c r="H161" s="6">
+        <v>0.722222222222222</v>
+      </c>
       <c r="I161" s="6"/>
-      <c r="J161" s="7"/>
+      <c r="J161" s="14"/>
     </row>
     <row r="162" ht="21" customHeight="1">
-      <c r="A162" s="27"/>
-      <c r="B162" s="27"/>
-      <c r="C162" s="24"/>
-      <c r="D162" s="6"/>
+      <c r="A162" t="s" s="5">
+        <v>335</v>
+      </c>
+      <c r="B162" t="s" s="5">
+        <v>336</v>
+      </c>
+      <c r="C162" t="s" s="5">
+        <v>69</v>
+      </c>
+      <c r="D162" s="6">
+        <v>0.5</v>
+      </c>
       <c r="E162" s="6"/>
       <c r="F162" s="6"/>
       <c r="G162" s="6"/>
       <c r="H162" s="6"/>
       <c r="I162" s="6"/>
-      <c r="J162" s="12"/>
+      <c r="J162" s="7"/>
     </row>
     <row r="163" ht="21" customHeight="1">
-      <c r="A163" s="28"/>
-      <c r="B163" s="28"/>
-      <c r="C163" s="19"/>
-      <c r="D163" s="6"/>
+      <c r="A163" t="s" s="5">
+        <v>337</v>
+      </c>
+      <c r="B163" t="s" s="5">
+        <v>338</v>
+      </c>
+      <c r="C163" t="s" s="5">
+        <v>46</v>
+      </c>
+      <c r="D163" s="6">
+        <v>0.642857142857143</v>
+      </c>
       <c r="E163" s="6"/>
       <c r="F163" s="6"/>
       <c r="G163" s="6"/>
-      <c r="H163" s="6"/>
+      <c r="H163" s="6">
+        <v>0.388888888888889</v>
+      </c>
       <c r="I163" s="6"/>
-      <c r="J163" s="14"/>
+      <c r="J163" s="12"/>
     </row>
     <row r="164" ht="21" customHeight="1">
-      <c r="A164" s="19"/>
-      <c r="B164" s="19"/>
-      <c r="C164" s="19"/>
-      <c r="D164" s="6"/>
+      <c r="A164" t="s" s="5">
+        <v>339</v>
+      </c>
+      <c r="B164" t="s" s="5">
+        <v>340</v>
+      </c>
+      <c r="C164" t="s" s="5">
+        <v>18</v>
+      </c>
+      <c r="D164" s="6">
+        <v>0.666666666666667</v>
+      </c>
       <c r="E164" s="6"/>
       <c r="F164" s="6"/>
       <c r="G164" s="6"/>
       <c r="H164" s="6"/>
       <c r="I164" s="6"/>
-      <c r="J164" s="7"/>
+      <c r="J164" s="14"/>
     </row>
     <row r="165" ht="21" customHeight="1">
-      <c r="A165" s="19"/>
-      <c r="B165" s="19"/>
-      <c r="C165" s="19"/>
-      <c r="D165" s="6"/>
+      <c r="A165" t="s" s="5">
+        <v>341</v>
+      </c>
+      <c r="B165" t="s" s="5">
+        <v>342</v>
+      </c>
+      <c r="C165" t="s" s="5">
+        <v>18</v>
+      </c>
+      <c r="D165" s="6">
+        <v>0.595238095238095</v>
+      </c>
       <c r="E165" s="6"/>
       <c r="F165" s="6"/>
       <c r="G165" s="6"/>
-      <c r="H165" s="6"/>
+      <c r="H165" s="6">
+        <v>0.416666666666667</v>
+      </c>
       <c r="I165" s="6"/>
       <c r="J165" s="7"/>
     </row>
     <row r="166" ht="21" customHeight="1">
-      <c r="A166" s="26"/>
-      <c r="B166" s="26"/>
-      <c r="C166" s="19"/>
-      <c r="D166" s="6"/>
+      <c r="A166" t="s" s="5">
+        <v>343</v>
+      </c>
+      <c r="B166" t="s" s="5">
+        <v>344</v>
+      </c>
+      <c r="C166" t="s" s="5">
+        <v>46</v>
+      </c>
+      <c r="D166" s="6">
+        <v>0.547619047619048</v>
+      </c>
       <c r="E166" s="6"/>
       <c r="F166" s="6"/>
       <c r="G166" s="6"/>
       <c r="H166" s="6"/>
       <c r="I166" s="6"/>
-      <c r="J166" s="7"/>
+      <c r="J166" s="12"/>
     </row>
     <row r="167" ht="21" customHeight="1">
-      <c r="A167" s="27"/>
-      <c r="B167" s="27"/>
-      <c r="C167" s="24"/>
-      <c r="D167" s="6"/>
+      <c r="A167" t="s" s="5">
+        <v>345</v>
+      </c>
+      <c r="B167" t="s" s="5">
+        <v>346</v>
+      </c>
+      <c r="C167" t="s" s="5">
+        <v>18</v>
+      </c>
+      <c r="D167" s="6">
+        <v>0.761904761904762</v>
+      </c>
       <c r="E167" s="6"/>
       <c r="F167" s="6"/>
       <c r="G167" s="6"/>
-      <c r="H167" s="6"/>
+      <c r="H167" s="6">
+        <v>0.861111111111111</v>
+      </c>
       <c r="I167" s="6"/>
-      <c r="J167" s="12"/>
+      <c r="J167" s="14"/>
     </row>
     <row r="168" ht="21" customHeight="1">
-      <c r="A168" s="28"/>
-      <c r="B168" s="28"/>
-      <c r="C168" s="19"/>
-      <c r="D168" s="6"/>
+      <c r="A168" t="s" s="4">
+        <v>347</v>
+      </c>
+      <c r="B168" t="s" s="4">
+        <v>348</v>
+      </c>
+      <c r="C168" t="s" s="5">
+        <v>69</v>
+      </c>
+      <c r="D168" s="6">
+        <v>0.571428571428571</v>
+      </c>
       <c r="E168" s="6"/>
       <c r="F168" s="6"/>
       <c r="G168" s="6"/>
       <c r="H168" s="6"/>
       <c r="I168" s="6"/>
-      <c r="J168" s="14"/>
+      <c r="J168" s="12"/>
     </row>
     <row r="169" ht="21" customHeight="1">
-      <c r="A169" s="19"/>
-      <c r="B169" s="19"/>
-      <c r="C169" s="19"/>
+      <c r="A169" t="s" s="23">
+        <v>349</v>
+      </c>
+      <c r="B169" t="s" s="23">
+        <v>350</v>
+      </c>
+      <c r="C169" t="s" s="5">
+        <v>21</v>
+      </c>
       <c r="D169" s="6"/>
       <c r="E169" s="6"/>
       <c r="F169" s="6"/>
       <c r="G169" s="6"/>
-      <c r="H169" s="6"/>
+      <c r="H169" s="6">
+        <v>0.777777777777778</v>
+      </c>
       <c r="I169" s="6"/>
-      <c r="J169" s="7"/>
+      <c r="J169" s="14"/>
     </row>
     <row r="170" ht="21" customHeight="1">
-      <c r="A170" s="19"/>
-      <c r="B170" s="19"/>
-      <c r="C170" s="19"/>
-      <c r="D170" s="6"/>
+      <c r="A170" t="s" s="9">
+        <v>351</v>
+      </c>
+      <c r="B170" t="s" s="9">
+        <v>352</v>
+      </c>
+      <c r="C170" t="s" s="10">
+        <v>18</v>
+      </c>
+      <c r="D170" s="6">
+        <v>0.285714285714286</v>
+      </c>
       <c r="E170" s="6"/>
       <c r="F170" s="6"/>
       <c r="G170" s="6"/>
-      <c r="H170" s="6"/>
+      <c r="H170" s="6">
+        <v>0.805555555555556</v>
+      </c>
       <c r="I170" s="6"/>
       <c r="J170" s="7"/>
     </row>
     <row r="171" ht="21" customHeight="1">
-      <c r="A171" s="19"/>
-      <c r="B171" s="19"/>
-      <c r="C171" s="19"/>
-      <c r="D171" s="6"/>
+      <c r="A171" t="s" s="5">
+        <v>353</v>
+      </c>
+      <c r="B171" t="s" s="5">
+        <v>354</v>
+      </c>
+      <c r="C171" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D171" s="6">
+        <v>0.30952380952381</v>
+      </c>
       <c r="E171" s="6"/>
       <c r="F171" s="6"/>
       <c r="G171" s="6"/>
@@ -5531,14 +6048,22 @@
       <c r="J171" s="7"/>
     </row>
     <row r="172" ht="21" customHeight="1">
-      <c r="A172" s="19"/>
-      <c r="B172" s="19"/>
-      <c r="C172" s="19"/>
+      <c r="A172" t="s" s="5">
+        <v>355</v>
+      </c>
+      <c r="B172" t="s" s="5">
+        <v>356</v>
+      </c>
+      <c r="C172" t="s" s="5">
+        <v>18</v>
+      </c>
       <c r="D172" s="6"/>
       <c r="E172" s="6"/>
       <c r="F172" s="6"/>
       <c r="G172" s="6"/>
-      <c r="H172" s="6"/>
+      <c r="H172" s="6">
+        <v>0.861111111111111</v>
+      </c>
       <c r="I172" s="6"/>
       <c r="J172" s="7"/>
     </row>

--- a/cw12022023.xlsx
+++ b/cw12022023.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="475">
   <si>
     <t>Surname</t>
   </si>
@@ -79,42 +79,99 @@
     <t>HEIM</t>
   </si>
   <si>
+    <t>Bungu</t>
+  </si>
+  <si>
+    <t>H220509Q</t>
+  </si>
+  <si>
+    <t>Bvuma</t>
+  </si>
+  <si>
+    <t>H220256G</t>
+  </si>
+  <si>
     <t>Chabata</t>
   </si>
   <si>
     <t>H220423M</t>
   </si>
   <si>
+    <t>Chabuta</t>
+  </si>
+  <si>
+    <t>H190790H</t>
+  </si>
+  <si>
+    <t>Chagonda</t>
+  </si>
+  <si>
+    <t>H220526F</t>
+  </si>
+  <si>
     <t>Chagorerino</t>
   </si>
   <si>
     <t>H200481F</t>
   </si>
   <si>
+    <t xml:space="preserve">Chaka </t>
+  </si>
+  <si>
+    <t>H220166G</t>
+  </si>
+  <si>
+    <t>HEBE</t>
+  </si>
+  <si>
     <t>Chakanyuka</t>
   </si>
   <si>
     <t>H220658E</t>
   </si>
   <si>
+    <t>Chapoterera</t>
+  </si>
+  <si>
+    <t>H220353N</t>
+  </si>
+  <si>
     <t>Charadza</t>
   </si>
   <si>
     <t>H220379Y</t>
   </si>
   <si>
+    <t>Charuma</t>
+  </si>
+  <si>
+    <t>H220336J</t>
+  </si>
+  <si>
     <t>Charumbwidza</t>
   </si>
   <si>
     <t>H190837V</t>
   </si>
   <si>
+    <t>Cheleya</t>
+  </si>
+  <si>
+    <t>H220059R</t>
+  </si>
+  <si>
     <t>Chibvuri</t>
   </si>
   <si>
     <t>H220444P</t>
   </si>
   <si>
+    <t>Chidemo</t>
+  </si>
+  <si>
+    <t>H220324F</t>
+  </si>
+  <si>
     <t>Chidhakwa</t>
   </si>
   <si>
@@ -124,7 +181,7 @@
     <t>Chihwanda</t>
   </si>
   <si>
-    <t>H220194</t>
+    <t>H220194G</t>
   </si>
   <si>
     <t>Chikwaka</t>
@@ -133,6 +190,12 @@
     <t>H220511A</t>
   </si>
   <si>
+    <t>Chimbidzi</t>
+  </si>
+  <si>
+    <t>H220212C</t>
+  </si>
+  <si>
     <t>Chinavamwe</t>
   </si>
   <si>
@@ -160,6 +223,12 @@
     <t>H220101H</t>
   </si>
   <si>
+    <t>Chinyau</t>
+  </si>
+  <si>
+    <t>H220222Z</t>
+  </si>
+  <si>
     <t>Chinyerere</t>
   </si>
   <si>
@@ -172,18 +241,36 @@
     <t>H220001E</t>
   </si>
   <si>
+    <t xml:space="preserve">Chiota </t>
+  </si>
+  <si>
+    <t>H220067T</t>
+  </si>
+  <si>
     <t>Chipembe</t>
   </si>
   <si>
     <t>H220620N</t>
   </si>
   <si>
+    <t>Chiswe</t>
+  </si>
+  <si>
+    <t>H210412V</t>
+  </si>
+  <si>
     <t>Chitando</t>
   </si>
   <si>
     <t>H220360N</t>
   </si>
   <si>
+    <t>Chitevere</t>
+  </si>
+  <si>
+    <t>H220674M</t>
+  </si>
+  <si>
     <t>Chitiki</t>
   </si>
   <si>
@@ -208,6 +295,18 @@
     <t>H220651M</t>
   </si>
   <si>
+    <t>Chiwanza</t>
+  </si>
+  <si>
+    <t>H220549N</t>
+  </si>
+  <si>
+    <t>Chuma</t>
+  </si>
+  <si>
+    <t>H220457W</t>
+  </si>
+  <si>
     <t>Dafter</t>
   </si>
   <si>
@@ -220,7 +319,10 @@
     <t>H220051G</t>
   </si>
   <si>
-    <t>HEBE</t>
+    <t>Dewa</t>
+  </si>
+  <si>
+    <t>H210384J</t>
   </si>
   <si>
     <t>Dhliwayo</t>
@@ -247,12 +349,30 @@
     <t>H220518Y</t>
   </si>
   <si>
+    <t>Fumani</t>
+  </si>
+  <si>
+    <t>H170392Z</t>
+  </si>
+  <si>
+    <t>Gamuchirayi</t>
+  </si>
+  <si>
+    <t>H220031Q</t>
+  </si>
+  <si>
     <t>Garan’anga</t>
   </si>
   <si>
     <t>H220190J</t>
   </si>
   <si>
+    <t>Gondo</t>
+  </si>
+  <si>
+    <t>H220041C</t>
+  </si>
+  <si>
     <t>Govera</t>
   </si>
   <si>
@@ -307,6 +427,12 @@
     <t>H220126G</t>
   </si>
   <si>
+    <t>Jongororo</t>
+  </si>
+  <si>
+    <t>H220368J</t>
+  </si>
+  <si>
     <t>Kaboti</t>
   </si>
   <si>
@@ -325,7 +451,7 @@
     <t>H220602N</t>
   </si>
   <si>
-    <t>Kanengini</t>
+    <t>Kanengoni</t>
   </si>
   <si>
     <t>H220385Y</t>
@@ -349,6 +475,12 @@
     <t>H220177A</t>
   </si>
   <si>
+    <t>Kazamula</t>
+  </si>
+  <si>
+    <t>H220355Y</t>
+  </si>
+  <si>
     <t>Kazembe</t>
   </si>
   <si>
@@ -361,6 +493,12 @@
     <t>H220285F</t>
   </si>
   <si>
+    <t>Komborai</t>
+  </si>
+  <si>
+    <t>H220226E</t>
+  </si>
+  <si>
     <t>Lungu</t>
   </si>
   <si>
@@ -385,6 +523,12 @@
     <t>H2204573</t>
   </si>
   <si>
+    <t>Machongwe</t>
+  </si>
+  <si>
+    <t>H220433E</t>
+  </si>
+  <si>
     <t>Machote</t>
   </si>
   <si>
@@ -415,12 +559,24 @@
     <t>H220621R</t>
   </si>
   <si>
+    <t>Madzorera</t>
+  </si>
+  <si>
+    <t>H220382F</t>
+  </si>
+  <si>
     <t>Madzowere</t>
   </si>
   <si>
     <t>H220694Y</t>
   </si>
   <si>
+    <t>Magwati</t>
+  </si>
+  <si>
+    <t>H220318R</t>
+  </si>
+  <si>
     <t>Majoni</t>
   </si>
   <si>
@@ -493,6 +649,12 @@
     <t>H220328C</t>
   </si>
   <si>
+    <t>Mangava</t>
+  </si>
+  <si>
+    <t>H190623E</t>
+  </si>
+  <si>
     <t>Mangozhu</t>
   </si>
   <si>
@@ -505,12 +667,24 @@
     <t>H220525Z</t>
   </si>
   <si>
+    <t>Mapfururi</t>
+  </si>
+  <si>
+    <t>H220505N</t>
+  </si>
+  <si>
     <t>Maponde</t>
   </si>
   <si>
     <t>H220207F</t>
   </si>
   <si>
+    <t>Marabowa</t>
+  </si>
+  <si>
+    <t>H220468M</t>
+  </si>
+  <si>
     <t>Marezva</t>
   </si>
   <si>
@@ -595,18 +769,36 @@
     <t>H220043B</t>
   </si>
   <si>
+    <t>Matizha</t>
+  </si>
+  <si>
+    <t>H190838E</t>
+  </si>
+  <si>
     <t>Matongo</t>
   </si>
   <si>
     <t>H220214Y</t>
   </si>
   <si>
+    <t>Matsweru</t>
+  </si>
+  <si>
+    <t>H220172C</t>
+  </si>
+  <si>
     <t>Maushe</t>
   </si>
   <si>
     <t>H220490J</t>
   </si>
   <si>
+    <t>Mawodza</t>
+  </si>
+  <si>
+    <t>H220334Z</t>
+  </si>
+  <si>
     <t>Mawodzeka</t>
   </si>
   <si>
@@ -661,6 +853,12 @@
     <t>H220093Z</t>
   </si>
   <si>
+    <t>Midzi</t>
+  </si>
+  <si>
+    <t>H220587P</t>
+  </si>
+  <si>
     <t>Million</t>
   </si>
   <si>
@@ -706,6 +904,12 @@
     <t>H220112F</t>
   </si>
   <si>
+    <t>Mugomeza</t>
+  </si>
+  <si>
+    <t>H220160C</t>
+  </si>
+  <si>
     <t>Mukungwa</t>
   </si>
   <si>
@@ -730,24 +934,48 @@
     <t>H220159P</t>
   </si>
   <si>
+    <t>Munondo</t>
+  </si>
+  <si>
+    <t>H220048G</t>
+  </si>
+  <si>
     <t>Munqitshwa</t>
   </si>
   <si>
     <t>H220598P</t>
   </si>
   <si>
+    <t xml:space="preserve">Munyani </t>
+  </si>
+  <si>
+    <t>H220234Z</t>
+  </si>
+  <si>
     <t>Mupfudze</t>
   </si>
   <si>
     <t>H220559Y</t>
   </si>
   <si>
+    <t>Mupinga</t>
+  </si>
+  <si>
+    <t>H220296G</t>
+  </si>
+  <si>
     <t>Mupini</t>
   </si>
   <si>
     <t>H220687H</t>
   </si>
   <si>
+    <t>Muradzvi</t>
+  </si>
+  <si>
+    <t>H210180N</t>
+  </si>
+  <si>
     <t>Muraicho</t>
   </si>
   <si>
@@ -772,6 +1000,12 @@
     <t>H220092N</t>
   </si>
   <si>
+    <t>Mutamba</t>
+  </si>
+  <si>
+    <t>H220262P</t>
+  </si>
+  <si>
     <t>Mutambirwa</t>
   </si>
   <si>
@@ -796,18 +1030,54 @@
     <t>H220409J</t>
   </si>
   <si>
+    <t>Mutsvairo</t>
+  </si>
+  <si>
+    <t>H220540E</t>
+  </si>
+  <si>
     <t>Mutubuki</t>
   </si>
   <si>
     <t>H220309Z</t>
   </si>
   <si>
+    <t>Mutukudzi</t>
+  </si>
+  <si>
+    <t>H220113B</t>
+  </si>
+  <si>
+    <t>Mutwira</t>
+  </si>
+  <si>
+    <t>H220578V</t>
+  </si>
+  <si>
     <t>Muwisa</t>
   </si>
   <si>
     <t>H220297X</t>
   </si>
   <si>
+    <t>Muyambo</t>
+  </si>
+  <si>
+    <t>H210472M</t>
+  </si>
+  <si>
+    <t>Muza</t>
+  </si>
+  <si>
+    <t>H210603F</t>
+  </si>
+  <si>
+    <t>Muzuka</t>
+  </si>
+  <si>
+    <t>H220458Z</t>
+  </si>
+  <si>
     <t>Muzvimwe</t>
   </si>
   <si>
@@ -832,6 +1102,9 @@
     <t>H220731A</t>
   </si>
   <si>
+    <t>H220633H</t>
+  </si>
+  <si>
     <t>Ndige</t>
   </si>
   <si>
@@ -850,6 +1123,12 @@
     <t>H220601Q</t>
   </si>
   <si>
+    <t>Nematiyere</t>
+  </si>
+  <si>
+    <t>H220257E</t>
+  </si>
+  <si>
     <t>Ngocha</t>
   </si>
   <si>
@@ -898,6 +1177,12 @@
     <t>H220061Q</t>
   </si>
   <si>
+    <t>Nyamashuka</t>
+  </si>
+  <si>
+    <t>H180117M</t>
+  </si>
+  <si>
     <t>Nyathi</t>
   </si>
   <si>
@@ -925,9 +1210,6 @@
     <t>Padziri</t>
   </si>
   <si>
-    <t>H220031Q</t>
-  </si>
-  <si>
     <t>Paganga</t>
   </si>
   <si>
@@ -970,12 +1252,36 @@
     <t>H220639Y</t>
   </si>
   <si>
+    <t>Rwizi</t>
+  </si>
+  <si>
+    <t>H220588C</t>
+  </si>
+  <si>
+    <t>Sasa</t>
+  </si>
+  <si>
+    <t>H220308C</t>
+  </si>
+  <si>
+    <t>Sengedza</t>
+  </si>
+  <si>
+    <t>H220684P</t>
+  </si>
+  <si>
     <t>Shambira</t>
   </si>
   <si>
     <t>H220168Y</t>
   </si>
   <si>
+    <t>Shumba</t>
+  </si>
+  <si>
+    <t>H220245Q</t>
+  </si>
+  <si>
     <t>Sikumba</t>
   </si>
   <si>
@@ -1036,25 +1342,61 @@
     <t>H220581X</t>
   </si>
   <si>
+    <t>Tekenende</t>
+  </si>
+  <si>
+    <t>H220053M</t>
+  </si>
+  <si>
+    <t>Tichapondwa</t>
+  </si>
+  <si>
+    <t>H220459T</t>
+  </si>
+  <si>
     <t>Tizirai</t>
   </si>
   <si>
     <t>H220514E</t>
   </si>
   <si>
+    <t>Tsodzo</t>
+  </si>
+  <si>
+    <t>H220236M</t>
+  </si>
+  <si>
     <t>Tsoka</t>
   </si>
   <si>
     <t>H220500Y</t>
   </si>
   <si>
+    <t>Vurayai</t>
+  </si>
+  <si>
+    <t>H220102X</t>
+  </si>
+  <si>
     <t>Wilson</t>
   </si>
   <si>
     <t>H220173N</t>
   </si>
   <si>
-    <t>Zhorizhi</t>
+    <t>Zengeya</t>
+  </si>
+  <si>
+    <t>H170243Q</t>
+  </si>
+  <si>
+    <t>Zenya</t>
+  </si>
+  <si>
+    <t>H220275N</t>
+  </si>
+  <si>
+    <t>Zhirizhi</t>
   </si>
   <si>
     <t>H220054M</t>
@@ -1072,10 +1414,22 @@
     <t>H220405P</t>
   </si>
   <si>
+    <t>Zireva</t>
+  </si>
+  <si>
+    <t>H220682P</t>
+  </si>
+  <si>
     <t>Zorounye</t>
   </si>
   <si>
     <t>H220599P</t>
+  </si>
+  <si>
+    <t>Zungundi</t>
+  </si>
+  <si>
+    <t>H220547T</t>
   </si>
   <si>
     <t>Zvivanashe</t>
@@ -1126,14 +1480,14 @@
       <name val="Georgia"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Roboto Regular"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1247,6 +1601,21 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="8"/>
       </left>
       <right style="thin">
@@ -1256,7 +1625,7 @@
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1284,21 +1653,6 @@
       </right>
       <top style="thin">
         <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
       </top>
       <bottom style="thin">
         <color indexed="10"/>
@@ -1384,16 +1738,7 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="2" fontId="5" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1401,6 +1746,24 @@
     </xf>
     <xf numFmtId="2" fontId="5" fillId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
@@ -1411,25 +1774,16 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="59" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1438,7 +1792,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2595,7 +2949,9 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
+      <c r="H2" s="6">
+        <v>0.638888888888889</v>
+      </c>
       <c r="I2" s="6"/>
       <c r="J2" s="7"/>
     </row>
@@ -2637,7 +2993,9 @@
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
+      <c r="H4" s="6">
+        <v>0.777777777777778</v>
+      </c>
       <c r="I4" s="6"/>
       <c r="J4" s="7"/>
     </row>
@@ -2661,60 +3019,60 @@
         <v>0.722222222222222</v>
       </c>
       <c r="I5" s="6"/>
-      <c r="J5" s="7"/>
+      <c r="J5" s="9"/>
     </row>
     <row r="6" ht="21" customHeight="1">
-      <c r="A6" t="s" s="4">
+      <c r="A6" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="B6" t="s" s="4">
+      <c r="B6" t="s" s="5">
         <v>23</v>
       </c>
       <c r="C6" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D6" s="6">
-        <v>0.714285714285714</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
+      <c r="H6" s="6">
+        <v>0.861111111111111</v>
+      </c>
       <c r="I6" s="6"/>
-      <c r="J6" s="7"/>
+      <c r="J6" s="10"/>
     </row>
     <row r="7" ht="21" customHeight="1">
-      <c r="A7" t="s" s="9">
+      <c r="A7" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="B7" t="s" s="9">
+      <c r="B7" t="s" s="5">
         <v>25</v>
       </c>
-      <c r="C7" t="s" s="10">
+      <c r="C7" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="D7" s="6">
-        <v>0.880952380952381</v>
-      </c>
+      <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
+      <c r="H7" s="6">
+        <v>0.777777777777778</v>
+      </c>
       <c r="I7" s="6"/>
-      <c r="J7" s="7"/>
+      <c r="J7" s="11"/>
     </row>
     <row r="8" ht="21" customHeight="1">
-      <c r="A8" t="s" s="4">
+      <c r="A8" t="s" s="5">
         <v>26</v>
       </c>
-      <c r="B8" t="s" s="4">
+      <c r="B8" t="s" s="5">
         <v>27</v>
       </c>
       <c r="C8" t="s" s="5">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D8" s="6">
-        <v>0.833333333333333</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -2723,99 +3081,105 @@
         <v>0.777777777777778</v>
       </c>
       <c r="I8" s="6"/>
-      <c r="J8" s="7"/>
-    </row>
-    <row r="9" ht="21" customHeight="1">
-      <c r="A9" t="s" s="11">
+      <c r="J8" s="9"/>
+    </row>
+    <row r="9" ht="20.7" customHeight="1">
+      <c r="A9" t="s" s="5">
         <v>28</v>
       </c>
-      <c r="B9" t="s" s="11">
+      <c r="B9" t="s" s="5">
         <v>29</v>
       </c>
-      <c r="C9" t="s" s="10">
+      <c r="C9" t="s" s="5">
+        <v>15</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="6">
+        <v>0.361111111111111</v>
+      </c>
+      <c r="I9" s="12"/>
+      <c r="J9" s="13"/>
+    </row>
+    <row r="10" ht="20.7" customHeight="1">
+      <c r="A10" t="s" s="4">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s" s="4">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="D9" s="6">
-        <v>0.80952380952381</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="7"/>
-    </row>
-    <row r="10" ht="21" customHeight="1">
-      <c r="A10" t="s" s="9">
-        <v>30</v>
-      </c>
-      <c r="B10" t="s" s="9">
-        <v>31</v>
-      </c>
-      <c r="C10" t="s" s="10">
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="6">
+        <v>0.722222222222222</v>
+      </c>
+      <c r="I10" s="12"/>
+      <c r="J10" s="14"/>
+    </row>
+    <row r="11" ht="21" customHeight="1">
+      <c r="A11" t="s" s="15">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s" s="15">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s" s="16">
         <v>15</v>
       </c>
-      <c r="D10" s="6">
-        <v>0.714285714285714</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="7"/>
-    </row>
-    <row r="11" ht="21" customHeight="1">
-      <c r="A11" t="s" s="5">
-        <v>32</v>
-      </c>
-      <c r="B11" t="s" s="5">
-        <v>33</v>
-      </c>
-      <c r="C11" t="s" s="5">
-        <v>12</v>
-      </c>
       <c r="D11" s="6">
-        <v>0.642857142857143</v>
+        <v>0.880952380952381</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
+      <c r="H11" s="6">
+        <v>0.777777777777778</v>
+      </c>
       <c r="I11" s="6"/>
       <c r="J11" s="7"/>
     </row>
     <row r="12" ht="21" customHeight="1">
-      <c r="A12" t="s" s="4">
+      <c r="A12" t="s" s="17">
         <v>34</v>
       </c>
-      <c r="B12" t="s" s="4">
+      <c r="B12" t="s" s="17">
         <v>35</v>
       </c>
-      <c r="C12" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D12" s="6"/>
+      <c r="C12" t="s" s="16">
+        <v>36</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0.5238095238095239</v>
+      </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6">
-        <v>0.777777777777778</v>
+        <v>0.75</v>
       </c>
       <c r="I12" s="6"/>
-      <c r="J12" s="12"/>
+      <c r="J12" s="7"/>
     </row>
     <row r="13" ht="21" customHeight="1">
-      <c r="A13" t="s" s="9">
-        <v>36</v>
-      </c>
-      <c r="B13" t="s" s="9">
+      <c r="A13" t="s" s="5">
         <v>37</v>
       </c>
-      <c r="C13" t="s" s="10">
-        <v>18</v>
-      </c>
-      <c r="D13" s="6"/>
+      <c r="B13" t="s" s="5">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0.833333333333333</v>
+      </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
@@ -2823,21 +3187,19 @@
         <v>0.777777777777778</v>
       </c>
       <c r="I13" s="6"/>
-      <c r="J13" s="13"/>
+      <c r="J13" s="9"/>
     </row>
     <row r="14" ht="21" customHeight="1">
-      <c r="A14" t="s" s="5">
-        <v>38</v>
-      </c>
-      <c r="B14" t="s" s="5">
+      <c r="A14" t="s" s="4">
         <v>39</v>
       </c>
+      <c r="B14" t="s" s="4">
+        <v>40</v>
+      </c>
       <c r="C14" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="D14" s="6">
-        <v>0.285714285714286</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
@@ -2845,129 +3207,135 @@
         <v>0.75</v>
       </c>
       <c r="I14" s="6"/>
-      <c r="J14" s="14"/>
+      <c r="J14" s="11"/>
     </row>
     <row r="15" ht="21" customHeight="1">
-      <c r="A15" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B15" t="s" s="4">
+      <c r="A15" t="s" s="17">
         <v>41</v>
       </c>
-      <c r="C15" t="s" s="5">
+      <c r="B15" t="s" s="17">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s" s="16">
         <v>12</v>
       </c>
       <c r="D15" s="6">
-        <v>0.69047619047619</v>
+        <v>0.80952380952381</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
+      <c r="H15" s="6">
+        <v>0.722222222222222</v>
+      </c>
       <c r="I15" s="6"/>
       <c r="J15" s="7"/>
     </row>
     <row r="16" ht="21" customHeight="1">
-      <c r="A16" t="s" s="11">
-        <v>42</v>
-      </c>
-      <c r="B16" t="s" s="11">
+      <c r="A16" t="s" s="4">
         <v>43</v>
       </c>
-      <c r="C16" t="s" s="15">
+      <c r="B16" t="s" s="4">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="D16" s="16">
-        <v>0.761904761904762</v>
-      </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6">
+        <v>0.805555555555556</v>
+      </c>
+      <c r="I16" s="6"/>
       <c r="J16" s="7"/>
     </row>
     <row r="17" ht="21" customHeight="1">
-      <c r="A17" t="s" s="9">
-        <v>44</v>
-      </c>
-      <c r="B17" t="s" s="9">
+      <c r="A17" t="s" s="17">
         <v>45</v>
       </c>
-      <c r="C17" t="s" s="17">
+      <c r="B17" t="s" s="17">
         <v>46</v>
       </c>
-      <c r="D17" s="18">
-        <v>0.738095238095238</v>
-      </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="12"/>
-    </row>
-    <row r="18" ht="20.7" customHeight="1">
-      <c r="A18" t="s" s="4">
+      <c r="C17" t="s" s="16">
+        <v>15</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0.714285714285714</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6">
+        <v>0</v>
+      </c>
+      <c r="I17" s="6"/>
+      <c r="J17" s="7"/>
+    </row>
+    <row r="18" ht="21" customHeight="1">
+      <c r="A18" t="s" s="5">
         <v>47</v>
       </c>
-      <c r="B18" t="s" s="4">
+      <c r="B18" t="s" s="5">
         <v>48</v>
       </c>
       <c r="C18" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
+        <v>36</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
       <c r="H18" s="6">
         <v>0.777777777777778</v>
       </c>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="7"/>
     </row>
     <row r="19" ht="21" customHeight="1">
-      <c r="A19" t="s" s="8">
+      <c r="A19" t="s" s="4">
         <v>49</v>
       </c>
-      <c r="B19" t="s" s="8">
+      <c r="B19" t="s" s="4">
         <v>50</v>
       </c>
       <c r="C19" t="s" s="5">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D19" s="6">
-        <v>0.595238095238095</v>
+        <v>0.642857142857143</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6">
-        <v>0</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="I19" s="6"/>
-      <c r="J19" s="14"/>
+      <c r="J19" s="9"/>
     </row>
     <row r="20" ht="21" customHeight="1">
-      <c r="A20" t="s" s="5">
+      <c r="A20" t="s" s="8">
         <v>51</v>
       </c>
-      <c r="B20" t="s" s="5">
+      <c r="B20" t="s" s="8">
         <v>52</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
+      <c r="C20" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
       <c r="H20" s="6">
-        <v>0.722222222222222</v>
-      </c>
-      <c r="I20" s="19"/>
-      <c r="J20" s="12"/>
-    </row>
-    <row r="21" ht="20.7" customHeight="1">
+        <v>0.777777777777778</v>
+      </c>
+      <c r="I20" s="6"/>
+      <c r="J20" s="11"/>
+    </row>
+    <row r="21" ht="21" customHeight="1">
       <c r="A21" t="s" s="4">
         <v>53</v>
       </c>
@@ -2977,183 +3345,187 @@
       <c r="C21" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="6">
         <v>0.666666666666667</v>
       </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
       <c r="H21" s="6">
-        <v>0.805555555555556</v>
-      </c>
-      <c r="I21" s="19"/>
-      <c r="J21" s="22"/>
+        <v>0.777777777777778</v>
+      </c>
+      <c r="I21" s="6"/>
+      <c r="J21" s="9"/>
     </row>
     <row r="22" ht="21" customHeight="1">
-      <c r="A22" t="s" s="9">
+      <c r="A22" t="s" s="17">
         <v>55</v>
       </c>
-      <c r="B22" t="s" s="9">
+      <c r="B22" t="s" s="17">
         <v>56</v>
       </c>
-      <c r="C22" t="s" s="10">
-        <v>21</v>
+      <c r="C22" t="s" s="16">
+        <v>18</v>
       </c>
       <c r="D22" s="6">
-        <v>0.880952380952381</v>
+        <v>0.952380952380952</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6">
-        <v>0.75</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I22" s="6"/>
-      <c r="J22" s="7"/>
+      <c r="J22" s="10"/>
     </row>
     <row r="23" ht="21" customHeight="1">
-      <c r="A23" t="s" s="4">
+      <c r="A23" t="s" s="5">
         <v>57</v>
       </c>
-      <c r="B23" t="s" s="4">
+      <c r="B23" t="s" s="5">
         <v>58</v>
       </c>
       <c r="C23" t="s" s="5">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D23" s="6">
-        <v>0.666666666666667</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
+      <c r="H23" s="6">
+        <v>0.75</v>
+      </c>
       <c r="I23" s="6"/>
-      <c r="J23" s="12"/>
-    </row>
-    <row r="24" ht="20.7" customHeight="1">
-      <c r="A24" t="s" s="8">
+      <c r="J23" s="11"/>
+    </row>
+    <row r="24" ht="21" customHeight="1">
+      <c r="A24" t="s" s="5">
         <v>59</v>
       </c>
-      <c r="B24" t="s" s="8">
+      <c r="B24" t="s" s="5">
         <v>60</v>
       </c>
       <c r="C24" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
+        <v>12</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
       <c r="H24" s="6">
         <v>0.805555555555556</v>
       </c>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
-    </row>
-    <row r="25" ht="20.7" customHeight="1">
-      <c r="A25" t="s" s="5">
+      <c r="I24" s="6"/>
+      <c r="J24" s="7"/>
+    </row>
+    <row r="25" ht="21" customHeight="1">
+      <c r="A25" t="s" s="4">
         <v>61</v>
       </c>
-      <c r="B25" t="s" s="5">
+      <c r="B25" t="s" s="4">
         <v>62</v>
       </c>
       <c r="C25" t="s" s="5">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D25" s="6">
-        <v>0.214285714285714</v>
-      </c>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
+        <v>0.69047619047619</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
       <c r="H25" s="6">
-        <v>0</v>
-      </c>
-      <c r="I25" s="19"/>
-      <c r="J25" s="22"/>
+        <v>0.722222222222222</v>
+      </c>
+      <c r="I25" s="6"/>
+      <c r="J25" s="7"/>
     </row>
     <row r="26" ht="21" customHeight="1">
-      <c r="A26" t="s" s="5">
+      <c r="A26" t="s" s="15">
         <v>63</v>
       </c>
-      <c r="B26" t="s" s="5">
+      <c r="B26" t="s" s="15">
         <v>64</v>
       </c>
-      <c r="C26" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6">
-        <v>0.305555555555556</v>
-      </c>
-      <c r="I26" s="6"/>
+      <c r="C26" t="s" s="18">
+        <v>12</v>
+      </c>
+      <c r="D26" s="19">
+        <v>0.761904761904762</v>
+      </c>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19">
+        <v>0.638888888888889</v>
+      </c>
+      <c r="I26" s="19"/>
       <c r="J26" s="7"/>
     </row>
     <row r="27" ht="21" customHeight="1">
-      <c r="A27" t="s" s="5">
+      <c r="A27" t="s" s="17">
         <v>65</v>
       </c>
-      <c r="B27" t="s" s="5">
+      <c r="B27" t="s" s="17">
         <v>66</v>
       </c>
-      <c r="C27" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="D27" s="6">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="7"/>
-    </row>
-    <row r="28" ht="21" customHeight="1">
-      <c r="A28" t="s" s="4">
+      <c r="C27" t="s" s="20">
         <v>67</v>
       </c>
-      <c r="B28" t="s" s="4">
+      <c r="D27" s="21">
+        <v>0.738095238095238</v>
+      </c>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21">
+        <v>0.694444444444444</v>
+      </c>
+      <c r="I27" s="21"/>
+      <c r="J27" s="9"/>
+    </row>
+    <row r="28" ht="20.7" customHeight="1">
+      <c r="A28" t="s" s="5">
         <v>68</v>
       </c>
+      <c r="B28" t="s" s="5">
+        <v>69</v>
+      </c>
       <c r="C28" t="s" s="5">
-        <v>69</v>
-      </c>
-      <c r="D28" s="6">
-        <v>0.904761904761905</v>
-      </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="12"/>
+        <v>18</v>
+      </c>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="6">
+        <v>0.777777777777778</v>
+      </c>
+      <c r="I28" s="12"/>
+      <c r="J28" s="14"/>
     </row>
     <row r="29" ht="21" customHeight="1">
-      <c r="A29" t="s" s="23">
+      <c r="A29" t="s" s="4">
         <v>70</v>
       </c>
-      <c r="B29" t="s" s="23">
+      <c r="B29" t="s" s="4">
         <v>71</v>
       </c>
       <c r="C29" t="s" s="5">
-        <v>69</v>
-      </c>
-      <c r="D29" s="6">
-        <v>0.595238095238095</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6">
-        <v>0.75</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I29" s="6"/>
-      <c r="J29" s="13"/>
+      <c r="J29" s="9"/>
     </row>
     <row r="30" ht="21" customHeight="1">
       <c r="A30" t="s" s="8">
@@ -3163,61 +3535,59 @@
         <v>73</v>
       </c>
       <c r="C30" t="s" s="5">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D30" s="6">
-        <v>0.571428571428571</v>
+        <v>0.595238095238095</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6">
-        <v>0.777777777777778</v>
+        <v>0</v>
       </c>
       <c r="I30" s="6"/>
-      <c r="J30" s="13"/>
-    </row>
-    <row r="31" ht="20.7" customHeight="1">
-      <c r="A31" t="s" s="4">
+      <c r="J30" s="11"/>
+    </row>
+    <row r="31" ht="21" customHeight="1">
+      <c r="A31" t="s" s="5">
         <v>74</v>
       </c>
-      <c r="B31" t="s" s="4">
+      <c r="B31" t="s" s="5">
         <v>75</v>
       </c>
-      <c r="C31" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
       <c r="H31" s="6">
-        <v>0.777777777777778</v>
-      </c>
-      <c r="I31" s="19"/>
-      <c r="J31" s="22"/>
+        <v>0.722222222222222</v>
+      </c>
+      <c r="I31" s="12"/>
+      <c r="J31" s="7"/>
     </row>
     <row r="32" ht="21" customHeight="1">
-      <c r="A32" t="s" s="9">
+      <c r="A32" t="s" s="5">
         <v>76</v>
       </c>
-      <c r="B32" t="s" s="9">
+      <c r="B32" t="s" s="5">
         <v>77</v>
       </c>
-      <c r="C32" t="s" s="10">
-        <v>46</v>
-      </c>
-      <c r="D32" s="6">
-        <v>0.761904761904762</v>
-      </c>
+      <c r="C32" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
+      <c r="H32" s="6">
+        <v>0.75</v>
+      </c>
       <c r="I32" s="6"/>
-      <c r="J32" s="7"/>
-    </row>
-    <row r="33" ht="21" customHeight="1">
+      <c r="J32" s="9"/>
+    </row>
+    <row r="33" ht="20.7" customHeight="1">
       <c r="A33" t="s" s="5">
         <v>78</v>
       </c>
@@ -3227,99 +3597,101 @@
       <c r="C33" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D33" s="6">
-        <v>0.571428571428571</v>
-      </c>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
+      <c r="D33" s="22">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
       <c r="H33" s="6">
-        <v>0.555555555555556</v>
-      </c>
-      <c r="I33" s="6"/>
-      <c r="J33" s="7"/>
+        <v>0.805555555555556</v>
+      </c>
+      <c r="I33" s="12"/>
+      <c r="J33" s="14"/>
     </row>
     <row r="34" ht="21" customHeight="1">
-      <c r="A34" t="s" s="5">
+      <c r="A34" t="s" s="4">
         <v>80</v>
       </c>
-      <c r="B34" t="s" s="5">
+      <c r="B34" t="s" s="4">
         <v>81</v>
       </c>
       <c r="C34" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="D34" s="6">
-        <v>0.476190476190476</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
+      <c r="H34" s="6">
+        <v>0.777777777777778</v>
+      </c>
       <c r="I34" s="6"/>
-      <c r="J34" s="12"/>
-    </row>
-    <row r="35" ht="20.35" customHeight="1">
-      <c r="A35" t="s" s="4">
+      <c r="J34" s="7"/>
+    </row>
+    <row r="35" ht="21" customHeight="1">
+      <c r="A35" t="s" s="15">
         <v>82</v>
       </c>
-      <c r="B35" t="s" s="4">
+      <c r="B35" t="s" s="15">
         <v>83</v>
       </c>
-      <c r="C35" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
+      <c r="C35" t="s" s="16">
+        <v>21</v>
+      </c>
+      <c r="D35" s="6">
+        <v>0.880952380952381</v>
+      </c>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
       <c r="H35" s="6">
-        <v>0.777777777777778</v>
-      </c>
-      <c r="I35" s="19"/>
-      <c r="J35" s="22"/>
+        <v>0.75</v>
+      </c>
+      <c r="I35" s="6"/>
+      <c r="J35" s="9"/>
     </row>
     <row r="36" ht="21" customHeight="1">
-      <c r="A36" t="s" s="11">
+      <c r="A36" t="s" s="8">
         <v>84</v>
       </c>
-      <c r="B36" t="s" s="11">
+      <c r="B36" t="s" s="8">
         <v>85</v>
       </c>
-      <c r="C36" t="s" s="10">
-        <v>18</v>
-      </c>
+      <c r="C36" s="12"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6">
-        <v>0.75</v>
+        <v>0.638888888888889</v>
       </c>
       <c r="I36" s="6"/>
-      <c r="J36" s="12"/>
+      <c r="J36" s="11"/>
     </row>
     <row r="37" ht="21" customHeight="1">
-      <c r="A37" t="s" s="23">
+      <c r="A37" t="s" s="4">
         <v>86</v>
       </c>
-      <c r="B37" t="s" s="23">
+      <c r="B37" t="s" s="4">
         <v>87</v>
       </c>
       <c r="C37" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D37" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="D37" s="6">
+        <v>0.666666666666667</v>
+      </c>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="I37" s="6"/>
-      <c r="J37" s="13"/>
-    </row>
-    <row r="38" ht="21" customHeight="1">
+      <c r="J37" s="9"/>
+    </row>
+    <row r="38" ht="20.7" customHeight="1">
       <c r="A38" t="s" s="8">
         <v>88</v>
       </c>
@@ -3329,17 +3701,17 @@
       <c r="C38" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
       <c r="H38" s="6">
         <v>0.805555555555556</v>
       </c>
-      <c r="I38" s="6"/>
-      <c r="J38" s="14"/>
-    </row>
-    <row r="39" ht="21" customHeight="1">
+      <c r="I38" s="12"/>
+      <c r="J38" s="13"/>
+    </row>
+    <row r="39" ht="20.7" customHeight="1">
       <c r="A39" t="s" s="5">
         <v>90</v>
       </c>
@@ -3347,19 +3719,21 @@
         <v>91</v>
       </c>
       <c r="C39" t="s" s="5">
-        <v>15</v>
-      </c>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="D39" s="6">
+        <v>0.214285714285714</v>
+      </c>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
       <c r="H39" s="6">
         <v>0</v>
       </c>
-      <c r="I39" s="6"/>
-      <c r="J39" s="12"/>
-    </row>
-    <row r="40" ht="20.7" customHeight="1">
+      <c r="I39" s="12"/>
+      <c r="J39" s="14"/>
+    </row>
+    <row r="40" ht="21" customHeight="1">
       <c r="A40" t="s" s="4">
         <v>92</v>
       </c>
@@ -3367,74 +3741,80 @@
         <v>93</v>
       </c>
       <c r="C40" t="s" s="5">
-        <v>46</v>
-      </c>
-      <c r="D40" s="21">
-        <v>0.80952380952381</v>
-      </c>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
+        <v>21</v>
+      </c>
+      <c r="D40" s="6">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6">
+        <v>0.305555555555556</v>
+      </c>
+      <c r="I40" s="6"/>
+      <c r="J40" s="7"/>
     </row>
     <row r="41" ht="21" customHeight="1">
-      <c r="A41" t="s" s="9">
+      <c r="A41" t="s" s="17">
         <v>94</v>
       </c>
-      <c r="B41" t="s" s="9">
+      <c r="B41" t="s" s="17">
         <v>95</v>
       </c>
-      <c r="C41" t="s" s="10">
-        <v>69</v>
+      <c r="C41" t="s" s="16">
+        <v>12</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
       <c r="H41" s="6">
-        <v>0.75</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I41" s="6"/>
-      <c r="J41" s="14"/>
+      <c r="J41" s="7"/>
     </row>
     <row r="42" ht="21" customHeight="1">
-      <c r="A42" t="s" s="4">
+      <c r="A42" t="s" s="5">
         <v>96</v>
       </c>
-      <c r="B42" t="s" s="4">
+      <c r="B42" t="s" s="5">
         <v>97</v>
       </c>
       <c r="C42" t="s" s="5">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D42" s="6">
-        <v>0.714285714285714</v>
+        <v>0.80952380952381</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
       <c r="H42" s="6">
-        <v>0.694444444444444</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I42" s="6"/>
       <c r="J42" s="7"/>
     </row>
     <row r="43" ht="21" customHeight="1">
-      <c r="A43" t="s" s="9">
+      <c r="A43" t="s" s="5">
         <v>98</v>
       </c>
-      <c r="B43" t="s" s="9">
+      <c r="B43" t="s" s="5">
         <v>99</v>
       </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="6"/>
+      <c r="C43" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D43" s="6">
+        <v>0.833333333333333</v>
+      </c>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6">
-        <v>0.694444444444444</v>
+        <v>0.861111111111111</v>
       </c>
       <c r="I43" s="6"/>
       <c r="J43" s="7"/>
@@ -3447,47 +3827,49 @@
         <v>101</v>
       </c>
       <c r="C44" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D44" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="D44" s="6">
+        <v>0.904761904761905</v>
+      </c>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="H44" s="6">
-        <v>0.805555555555556</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I44" s="6"/>
       <c r="J44" s="7"/>
     </row>
     <row r="45" ht="21" customHeight="1">
-      <c r="A45" t="s" s="5">
+      <c r="A45" t="s" s="4">
         <v>102</v>
       </c>
-      <c r="B45" t="s" s="5">
+      <c r="B45" t="s" s="4">
         <v>103</v>
       </c>
       <c r="C45" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D45" s="6">
-        <v>0.619047619047619</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
+      <c r="H45" s="6">
+        <v>0.361111111111111</v>
+      </c>
       <c r="I45" s="6"/>
-      <c r="J45" s="12"/>
+      <c r="J45" s="9"/>
     </row>
     <row r="46" ht="21" customHeight="1">
-      <c r="A46" t="s" s="4">
+      <c r="A46" t="s" s="23">
         <v>104</v>
       </c>
-      <c r="B46" t="s" s="4">
+      <c r="B46" t="s" s="23">
         <v>105</v>
       </c>
       <c r="C46" t="s" s="5">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D46" s="6">
         <v>0.595238095238095</v>
@@ -3495,9 +3877,11 @@
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
+      <c r="H46" s="6">
+        <v>0.75</v>
+      </c>
       <c r="I46" s="6"/>
-      <c r="J46" s="13"/>
+      <c r="J46" s="10"/>
     </row>
     <row r="47" ht="21" customHeight="1">
       <c r="A47" t="s" s="8">
@@ -3509,7 +3893,9 @@
       <c r="C47" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D47" s="6"/>
+      <c r="D47" s="6">
+        <v>0.571428571428571</v>
+      </c>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
@@ -3517,45 +3903,47 @@
         <v>0.777777777777778</v>
       </c>
       <c r="I47" s="6"/>
-      <c r="J47" s="14"/>
-    </row>
-    <row r="48" ht="21" customHeight="1">
-      <c r="A48" t="s" s="5">
+      <c r="J47" s="10"/>
+    </row>
+    <row r="48" ht="20.7" customHeight="1">
+      <c r="A48" t="s" s="4">
         <v>108</v>
       </c>
-      <c r="B48" t="s" s="5">
+      <c r="B48" t="s" s="4">
         <v>109</v>
       </c>
       <c r="C48" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
       <c r="H48" s="6">
-        <v>0.722222222222222</v>
-      </c>
-      <c r="I48" s="6"/>
-      <c r="J48" s="7"/>
+        <v>0.777777777777778</v>
+      </c>
+      <c r="I48" s="12"/>
+      <c r="J48" s="14"/>
     </row>
     <row r="49" ht="21" customHeight="1">
-      <c r="A49" t="s" s="5">
+      <c r="A49" t="s" s="17">
         <v>110</v>
       </c>
-      <c r="B49" t="s" s="5">
+      <c r="B49" t="s" s="17">
         <v>111</v>
       </c>
-      <c r="C49" t="s" s="5">
-        <v>12</v>
+      <c r="C49" t="s" s="16">
+        <v>67</v>
       </c>
       <c r="D49" s="6">
-        <v>0.69047619047619</v>
+        <v>0.761904761904762</v>
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
+      <c r="H49" s="6">
+        <v>0.694444444444444</v>
+      </c>
       <c r="I49" s="6"/>
       <c r="J49" s="7"/>
     </row>
@@ -3567,15 +3955,17 @@
         <v>113</v>
       </c>
       <c r="C50" t="s" s="5">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="D50" s="6">
-        <v>0.619047619047619</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
+      <c r="H50" s="6">
+        <v>0</v>
+      </c>
       <c r="I50" s="6"/>
       <c r="J50" s="7"/>
     </row>
@@ -3587,55 +3977,59 @@
         <v>115</v>
       </c>
       <c r="C51" t="s" s="5">
-        <v>69</v>
-      </c>
-      <c r="D51" s="6">
-        <v>0.80952380952381</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D51" s="6"/>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
+      <c r="H51" s="6">
+        <v>0.777777777777778</v>
+      </c>
       <c r="I51" s="6"/>
       <c r="J51" s="7"/>
     </row>
     <row r="52" ht="21" customHeight="1">
-      <c r="A52" t="s" s="5">
+      <c r="A52" t="s" s="4">
         <v>116</v>
       </c>
-      <c r="B52" t="s" s="5">
+      <c r="B52" t="s" s="4">
         <v>117</v>
       </c>
-      <c r="C52" s="19"/>
-      <c r="D52" s="6"/>
+      <c r="C52" t="s" s="5">
+        <v>18</v>
+      </c>
+      <c r="D52" s="6">
+        <v>0.571428571428571</v>
+      </c>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
       <c r="H52" s="6">
-        <v>0.694444444444444</v>
+        <v>0.555555555555556</v>
       </c>
       <c r="I52" s="6"/>
-      <c r="J52" s="7"/>
+      <c r="J52" s="9"/>
     </row>
     <row r="53" ht="21" customHeight="1">
-      <c r="A53" t="s" s="5">
+      <c r="A53" t="s" s="8">
         <v>118</v>
       </c>
-      <c r="B53" t="s" s="5">
+      <c r="B53" t="s" s="8">
         <v>119</v>
       </c>
       <c r="C53" t="s" s="5">
-        <v>46</v>
-      </c>
-      <c r="D53" s="6">
-        <v>0.761904761904762</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D53" s="6"/>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
+      <c r="H53" s="6">
+        <v>0.777777777777778</v>
+      </c>
       <c r="I53" s="6"/>
-      <c r="J53" s="7"/>
+      <c r="J53" s="11"/>
     </row>
     <row r="54" ht="21" customHeight="1">
       <c r="A54" t="s" s="5">
@@ -3648,64 +4042,66 @@
         <v>12</v>
       </c>
       <c r="D54" s="6">
-        <v>0.714285714285714</v>
+        <v>0.476190476190476</v>
       </c>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
+      <c r="H54" s="6">
+        <v>0.75</v>
+      </c>
       <c r="I54" s="6"/>
-      <c r="J54" s="7"/>
-    </row>
-    <row r="55" ht="21" customHeight="1">
-      <c r="A55" t="s" s="5">
+      <c r="J54" s="9"/>
+    </row>
+    <row r="55" ht="20.35" customHeight="1">
+      <c r="A55" t="s" s="4">
         <v>122</v>
       </c>
-      <c r="B55" t="s" s="5">
+      <c r="B55" t="s" s="4">
         <v>123</v>
       </c>
       <c r="C55" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
       <c r="H55" s="6">
+        <v>0.777777777777778</v>
+      </c>
+      <c r="I55" s="12"/>
+      <c r="J55" s="14"/>
+    </row>
+    <row r="56" ht="21" customHeight="1">
+      <c r="A56" t="s" s="15">
+        <v>124</v>
+      </c>
+      <c r="B56" t="s" s="15">
+        <v>125</v>
+      </c>
+      <c r="C56" t="s" s="16">
+        <v>18</v>
+      </c>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6">
         <v>0.75</v>
       </c>
-      <c r="I55" s="6"/>
-      <c r="J55" s="12"/>
-    </row>
-    <row r="56" ht="20.7" customHeight="1">
-      <c r="A56" t="s" s="4">
-        <v>124</v>
-      </c>
-      <c r="B56" t="s" s="4">
-        <v>125</v>
-      </c>
-      <c r="C56" t="s" s="5">
-        <v>69</v>
-      </c>
-      <c r="D56" s="25">
-        <v>0.857142857142857</v>
-      </c>
-      <c r="E56" s="19"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="19"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="22"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="9"/>
     </row>
     <row r="57" ht="21" customHeight="1">
-      <c r="A57" t="s" s="9">
+      <c r="A57" t="s" s="23">
         <v>126</v>
       </c>
-      <c r="B57" t="s" s="9">
+      <c r="B57" t="s" s="23">
         <v>127</v>
       </c>
-      <c r="C57" t="s" s="10">
-        <v>21</v>
+      <c r="C57" t="s" s="5">
+        <v>18</v>
       </c>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
@@ -3715,27 +4111,27 @@
         <v>0.75</v>
       </c>
       <c r="I57" s="6"/>
-      <c r="J57" s="7"/>
+      <c r="J57" s="10"/>
     </row>
     <row r="58" ht="21" customHeight="1">
-      <c r="A58" t="s" s="5">
+      <c r="A58" t="s" s="8">
         <v>128</v>
       </c>
-      <c r="B58" t="s" s="5">
+      <c r="B58" t="s" s="8">
         <v>129</v>
       </c>
       <c r="C58" t="s" s="5">
-        <v>69</v>
-      </c>
-      <c r="D58" s="6">
-        <v>0.452380952380952</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D58" s="6"/>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
+      <c r="H58" s="6">
+        <v>0.805555555555556</v>
+      </c>
       <c r="I58" s="6"/>
-      <c r="J58" s="12"/>
+      <c r="J58" s="11"/>
     </row>
     <row r="59" ht="21" customHeight="1">
       <c r="A59" t="s" s="5">
@@ -3745,136 +4141,136 @@
         <v>131</v>
       </c>
       <c r="C59" t="s" s="5">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
       <c r="H59" s="6">
-        <v>0.777777777777778</v>
+        <v>0</v>
       </c>
       <c r="I59" s="6"/>
-      <c r="J59" s="13"/>
-    </row>
-    <row r="60" ht="21" customHeight="1">
-      <c r="A60" t="s" s="5">
+      <c r="J59" s="9"/>
+    </row>
+    <row r="60" ht="20.7" customHeight="1">
+      <c r="A60" t="s" s="4">
         <v>132</v>
       </c>
-      <c r="B60" t="s" s="5">
+      <c r="B60" t="s" s="4">
         <v>133</v>
       </c>
       <c r="C60" t="s" s="5">
-        <v>46</v>
-      </c>
-      <c r="D60" s="6">
-        <v>0.619047619047619</v>
-      </c>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="14"/>
+        <v>67</v>
+      </c>
+      <c r="D60" s="22">
+        <v>0.80952380952381</v>
+      </c>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="6">
+        <v>0</v>
+      </c>
+      <c r="I60" s="12"/>
+      <c r="J60" s="13"/>
     </row>
     <row r="61" ht="21" customHeight="1">
-      <c r="A61" t="s" s="4">
+      <c r="A61" t="s" s="17">
         <v>134</v>
       </c>
-      <c r="B61" t="s" s="4">
+      <c r="B61" t="s" s="17">
         <v>135</v>
       </c>
-      <c r="C61" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D61" s="6">
-        <v>0.619047619047619</v>
-      </c>
+      <c r="C61" t="s" s="16">
+        <v>36</v>
+      </c>
+      <c r="D61" s="6"/>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
       <c r="H61" s="6">
-        <v>0.416666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="I61" s="6"/>
-      <c r="J61" s="7"/>
+      <c r="J61" s="11"/>
     </row>
     <row r="62" ht="21" customHeight="1">
-      <c r="A62" t="s" s="11">
+      <c r="A62" t="s" s="5">
         <v>136</v>
       </c>
-      <c r="B62" t="s" s="11">
+      <c r="B62" t="s" s="5">
         <v>137</v>
       </c>
-      <c r="C62" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="D62" s="6"/>
+      <c r="C62" t="s" s="5">
+        <v>18</v>
+      </c>
+      <c r="D62" s="6">
+        <v>0.714285714285714</v>
+      </c>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
       <c r="H62" s="6">
-        <v>0.75</v>
+        <v>0.694444444444444</v>
       </c>
       <c r="I62" s="6"/>
       <c r="J62" s="7"/>
     </row>
     <row r="63" ht="21" customHeight="1">
-      <c r="A63" t="s" s="11">
+      <c r="A63" t="s" s="4">
         <v>138</v>
       </c>
-      <c r="B63" t="s" s="11">
+      <c r="B63" t="s" s="4">
         <v>139</v>
       </c>
-      <c r="C63" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="D63" s="6">
-        <v>0.5238095238095239</v>
-      </c>
+      <c r="C63" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="D63" s="6"/>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
+      <c r="H63" s="6">
+        <v>0.777777777777778</v>
+      </c>
       <c r="I63" s="6"/>
       <c r="J63" s="7"/>
     </row>
     <row r="64" ht="21" customHeight="1">
-      <c r="A64" t="s" s="23">
+      <c r="A64" t="s" s="17">
         <v>140</v>
       </c>
-      <c r="B64" t="s" s="23">
+      <c r="B64" t="s" s="17">
         <v>141</v>
       </c>
-      <c r="C64" t="s" s="5">
-        <v>21</v>
-      </c>
+      <c r="C64" s="24"/>
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
       <c r="H64" s="6">
-        <v>0.75</v>
+        <v>0.694444444444444</v>
       </c>
       <c r="I64" s="6"/>
       <c r="J64" s="7"/>
     </row>
     <row r="65" ht="21" customHeight="1">
-      <c r="A65" t="s" s="9">
+      <c r="A65" t="s" s="5">
         <v>142</v>
       </c>
-      <c r="B65" t="s" s="9">
+      <c r="B65" t="s" s="5">
         <v>143</v>
       </c>
-      <c r="C65" t="s" s="10">
-        <v>15</v>
+      <c r="C65" t="s" s="5">
+        <v>18</v>
       </c>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
       <c r="H65" s="6">
-        <v>0</v>
+        <v>0.805555555555556</v>
       </c>
       <c r="I65" s="6"/>
       <c r="J65" s="7"/>
@@ -3887,43 +4283,47 @@
         <v>145</v>
       </c>
       <c r="C66" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="D66" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="D66" s="6">
+        <v>0.619047619047619</v>
+      </c>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
       <c r="H66" s="6">
-        <v>0</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I66" s="6"/>
-      <c r="J66" s="7"/>
+      <c r="J66" s="9"/>
     </row>
     <row r="67" ht="21" customHeight="1">
-      <c r="A67" t="s" s="5">
+      <c r="A67" t="s" s="4">
         <v>146</v>
       </c>
-      <c r="B67" t="s" s="5">
+      <c r="B67" t="s" s="4">
         <v>147</v>
       </c>
       <c r="C67" t="s" s="5">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D67" s="6">
-        <v>0.833333333333333</v>
+        <v>0.595238095238095</v>
       </c>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
-      <c r="H67" s="6"/>
+      <c r="H67" s="6">
+        <v>0.777777777777778</v>
+      </c>
       <c r="I67" s="6"/>
-      <c r="J67" s="7"/>
+      <c r="J67" s="10"/>
     </row>
     <row r="68" ht="21" customHeight="1">
-      <c r="A68" t="s" s="5">
+      <c r="A68" t="s" s="8">
         <v>148</v>
       </c>
-      <c r="B68" t="s" s="5">
+      <c r="B68" t="s" s="8">
         <v>149</v>
       </c>
       <c r="C68" t="s" s="5">
@@ -3934,70 +4334,72 @@
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
       <c r="H68" s="6">
-        <v>0.416666666666667</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I68" s="6"/>
-      <c r="J68" s="12"/>
+      <c r="J68" s="11"/>
     </row>
     <row r="69" ht="21" customHeight="1">
-      <c r="A69" t="s" s="4">
+      <c r="A69" t="s" s="5">
         <v>150</v>
       </c>
-      <c r="B69" t="s" s="4">
+      <c r="B69" t="s" s="5">
         <v>151</v>
       </c>
       <c r="C69" t="s" s="5">
-        <v>15</v>
-      </c>
-      <c r="D69" s="6">
-        <v>0.595238095238095</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D69" s="6"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
-      <c r="H69" s="6"/>
+      <c r="H69" s="6">
+        <v>0.722222222222222</v>
+      </c>
       <c r="I69" s="6"/>
-      <c r="J69" s="14"/>
+      <c r="J69" s="7"/>
     </row>
     <row r="70" ht="21" customHeight="1">
-      <c r="A70" t="s" s="9">
+      <c r="A70" t="s" s="4">
         <v>152</v>
       </c>
-      <c r="B70" t="s" s="9">
+      <c r="B70" t="s" s="4">
         <v>153</v>
       </c>
-      <c r="C70" t="s" s="10">
+      <c r="C70" t="s" s="5">
         <v>12</v>
       </c>
       <c r="D70" s="6">
-        <v>0.5</v>
+        <v>0.69047619047619</v>
       </c>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
+      <c r="H70" s="6">
+        <v>0.722222222222222</v>
+      </c>
       <c r="I70" s="6"/>
       <c r="J70" s="7"/>
     </row>
     <row r="71" ht="21" customHeight="1">
-      <c r="A71" t="s" s="5">
+      <c r="A71" t="s" s="17">
         <v>154</v>
       </c>
-      <c r="B71" t="s" s="5">
+      <c r="B71" t="s" s="17">
         <v>155</v>
       </c>
-      <c r="C71" t="s" s="5">
-        <v>15</v>
+      <c r="C71" t="s" s="16">
+        <v>12</v>
       </c>
       <c r="D71" s="6"/>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
       <c r="H71" s="6">
-        <v>0</v>
+        <v>0.638888888888889</v>
       </c>
       <c r="I71" s="6"/>
-      <c r="J71" s="12"/>
+      <c r="J71" s="7"/>
     </row>
     <row r="72" ht="21" customHeight="1">
       <c r="A72" t="s" s="5">
@@ -4007,31 +4409,33 @@
         <v>157</v>
       </c>
       <c r="C72" t="s" s="5">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="D72" s="6">
-        <v>0.69047619047619</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
       <c r="H72" s="6">
-        <v>0.805555555555556</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="I72" s="6"/>
-      <c r="J72" s="14"/>
+      <c r="J72" s="7"/>
     </row>
     <row r="73" ht="21" customHeight="1">
-      <c r="A73" t="s" s="4">
+      <c r="A73" t="s" s="5">
         <v>158</v>
       </c>
-      <c r="B73" t="s" s="4">
+      <c r="B73" t="s" s="5">
         <v>159</v>
       </c>
       <c r="C73" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="D73" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="D73" s="6">
+        <v>0.80952380952381</v>
+      </c>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
@@ -4042,18 +4446,16 @@
       <c r="J73" s="7"/>
     </row>
     <row r="74" ht="21" customHeight="1">
-      <c r="A74" t="s" s="8">
+      <c r="A74" t="s" s="5">
         <v>160</v>
       </c>
-      <c r="B74" t="s" s="8">
+      <c r="B74" t="s" s="5">
         <v>161</v>
       </c>
       <c r="C74" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="D74" s="6">
-        <v>0.571428571428571</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D74" s="6"/>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
@@ -4070,7 +4472,7 @@
       <c r="B75" t="s" s="5">
         <v>163</v>
       </c>
-      <c r="C75" s="19"/>
+      <c r="C75" s="12"/>
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
@@ -4079,9 +4481,9 @@
         <v>0.694444444444444</v>
       </c>
       <c r="I75" s="6"/>
-      <c r="J75" s="12"/>
-    </row>
-    <row r="76" ht="20.7" customHeight="1">
+      <c r="J75" s="7"/>
+    </row>
+    <row r="76" ht="21" customHeight="1">
       <c r="A76" t="s" s="5">
         <v>164</v>
       </c>
@@ -4089,19 +4491,19 @@
         <v>165</v>
       </c>
       <c r="C76" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="D76" s="21">
-        <v>0.5238095238095239</v>
-      </c>
-      <c r="E76" s="19"/>
-      <c r="F76" s="19"/>
-      <c r="G76" s="19"/>
+        <v>67</v>
+      </c>
+      <c r="D76" s="6">
+        <v>0.761904761904762</v>
+      </c>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
       <c r="H76" s="6">
-        <v>0.777777777777778</v>
-      </c>
-      <c r="I76" s="19"/>
-      <c r="J76" s="22"/>
+        <v>0.722222222222222</v>
+      </c>
+      <c r="I76" s="6"/>
+      <c r="J76" s="7"/>
     </row>
     <row r="77" ht="21" customHeight="1">
       <c r="A77" t="s" s="5">
@@ -4111,16 +4513,16 @@
         <v>167</v>
       </c>
       <c r="C77" t="s" s="5">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D77" s="6">
-        <v>0.666666666666667</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
       <c r="H77" s="6">
-        <v>0</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="I77" s="6"/>
       <c r="J77" s="7"/>
@@ -4133,79 +4535,77 @@
         <v>169</v>
       </c>
       <c r="C78" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D78" s="6">
-        <v>0.833333333333333</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D78" s="6"/>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
       <c r="H78" s="6">
-        <v>0.694444444444444</v>
+        <v>0.75</v>
       </c>
       <c r="I78" s="6"/>
-      <c r="J78" s="12"/>
-    </row>
-    <row r="79" ht="20.05" customHeight="1">
+      <c r="J78" s="7"/>
+    </row>
+    <row r="79" ht="21" customHeight="1">
       <c r="A79" t="s" s="5">
         <v>170</v>
       </c>
       <c r="B79" t="s" s="5">
         <v>171</v>
       </c>
-      <c r="C79" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D79" s="19"/>
-      <c r="E79" s="19"/>
-      <c r="F79" s="19"/>
-      <c r="G79" s="19"/>
+      <c r="C79" s="12"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
       <c r="H79" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="I79" s="6"/>
+      <c r="J79" s="9"/>
+    </row>
+    <row r="80" ht="20.7" customHeight="1">
+      <c r="A80" t="s" s="4">
+        <v>172</v>
+      </c>
+      <c r="B80" t="s" s="4">
+        <v>173</v>
+      </c>
+      <c r="C80" t="s" s="5">
+        <v>36</v>
+      </c>
+      <c r="D80" s="25">
+        <v>0.857142857142857</v>
+      </c>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="6">
         <v>0.777777777777778</v>
       </c>
-      <c r="I79" s="19"/>
-      <c r="J79" s="22"/>
-    </row>
-    <row r="80" ht="21" customHeight="1">
-      <c r="A80" t="s" s="5">
-        <v>172</v>
-      </c>
-      <c r="B80" t="s" s="5">
-        <v>173</v>
-      </c>
-      <c r="C80" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
-      <c r="H80" s="6">
-        <v>0.555555555555556</v>
-      </c>
-      <c r="I80" s="6"/>
-      <c r="J80" s="12"/>
-    </row>
-    <row r="81" ht="20.7" customHeight="1">
-      <c r="A81" t="s" s="5">
+      <c r="I80" s="12"/>
+      <c r="J80" s="14"/>
+    </row>
+    <row r="81" ht="21" customHeight="1">
+      <c r="A81" t="s" s="17">
         <v>174</v>
       </c>
-      <c r="B81" t="s" s="5">
+      <c r="B81" t="s" s="17">
         <v>175</v>
       </c>
-      <c r="C81" t="s" s="5">
-        <v>69</v>
-      </c>
-      <c r="D81" s="21">
-        <v>0.452380952380952</v>
-      </c>
-      <c r="E81" s="19"/>
-      <c r="F81" s="19"/>
-      <c r="G81" s="19"/>
-      <c r="H81" s="6"/>
-      <c r="I81" s="19"/>
-      <c r="J81" s="20"/>
+      <c r="C81" t="s" s="16">
+        <v>21</v>
+      </c>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="I81" s="6"/>
+      <c r="J81" s="7"/>
     </row>
     <row r="82" ht="21" customHeight="1">
       <c r="A82" t="s" s="5">
@@ -4215,19 +4615,19 @@
         <v>177</v>
       </c>
       <c r="C82" t="s" s="5">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D82" s="6">
-        <v>0.5</v>
+        <v>0.452380952380952</v>
       </c>
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
       <c r="H82" s="6">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="I82" s="6"/>
-      <c r="J82" s="14"/>
+      <c r="J82" s="9"/>
     </row>
     <row r="83" ht="21" customHeight="1">
       <c r="A83" t="s" s="5">
@@ -4237,56 +4637,54 @@
         <v>179</v>
       </c>
       <c r="C83" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="D83" s="6">
-        <v>0.595238095238095</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D83" s="6"/>
       <c r="E83" s="6"/>
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
       <c r="H83" s="6">
-        <v>0.75</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I83" s="6"/>
-      <c r="J83" s="7"/>
+      <c r="J83" s="10"/>
     </row>
     <row r="84" ht="21" customHeight="1">
-      <c r="A84" t="s" s="5">
+      <c r="A84" t="s" s="4">
         <v>180</v>
       </c>
-      <c r="B84" t="s" s="5">
+      <c r="B84" t="s" s="4">
         <v>181</v>
       </c>
       <c r="C84" t="s" s="5">
-        <v>15</v>
-      </c>
-      <c r="D84" s="6"/>
+        <v>67</v>
+      </c>
+      <c r="D84" s="6">
+        <v>0.619047619047619</v>
+      </c>
       <c r="E84" s="6"/>
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
       <c r="H84" s="6">
-        <v>0</v>
+        <v>0.694444444444444</v>
       </c>
       <c r="I84" s="6"/>
-      <c r="J84" s="7"/>
+      <c r="J84" s="11"/>
     </row>
     <row r="85" ht="21" customHeight="1">
-      <c r="A85" t="s" s="5">
+      <c r="A85" t="s" s="17">
         <v>182</v>
       </c>
-      <c r="B85" t="s" s="5">
+      <c r="B85" t="s" s="17">
         <v>183</v>
       </c>
-      <c r="C85" t="s" s="5">
-        <v>69</v>
-      </c>
+      <c r="C85" s="24"/>
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
       <c r="H85" s="6">
-        <v>0.777777777777778</v>
+        <v>0.638888888888889</v>
       </c>
       <c r="I85" s="6"/>
       <c r="J85" s="7"/>
@@ -4298,88 +4696,94 @@
       <c r="B86" t="s" s="5">
         <v>185</v>
       </c>
-      <c r="C86" s="19"/>
-      <c r="D86" s="6"/>
+      <c r="C86" t="s" s="5">
+        <v>18</v>
+      </c>
+      <c r="D86" s="6">
+        <v>0.619047619047619</v>
+      </c>
       <c r="E86" s="6"/>
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
       <c r="H86" s="6">
-        <v>0.388888888888889</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="I86" s="6"/>
       <c r="J86" s="7"/>
     </row>
     <row r="87" ht="21" customHeight="1">
-      <c r="A87" t="s" s="5">
+      <c r="A87" t="s" s="4">
         <v>186</v>
       </c>
-      <c r="B87" t="s" s="5">
+      <c r="B87" t="s" s="4">
         <v>187</v>
       </c>
-      <c r="C87" t="s" s="5">
-        <v>21</v>
-      </c>
+      <c r="C87" s="12"/>
       <c r="D87" s="6"/>
       <c r="E87" s="6"/>
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
       <c r="H87" s="6">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="I87" s="6"/>
-      <c r="J87" s="12"/>
+      <c r="J87" s="7"/>
     </row>
     <row r="88" ht="21" customHeight="1">
-      <c r="A88" t="s" s="4">
+      <c r="A88" t="s" s="15">
         <v>188</v>
       </c>
-      <c r="B88" t="s" s="4">
+      <c r="B88" t="s" s="15">
         <v>189</v>
       </c>
-      <c r="C88" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="D88" s="6">
-        <v>0.642857142857143</v>
-      </c>
+      <c r="C88" t="s" s="16">
+        <v>36</v>
+      </c>
+      <c r="D88" s="6"/>
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
-      <c r="H88" s="6"/>
+      <c r="H88" s="6">
+        <v>0.75</v>
+      </c>
       <c r="I88" s="6"/>
-      <c r="J88" s="13"/>
+      <c r="J88" s="7"/>
     </row>
     <row r="89" ht="21" customHeight="1">
-      <c r="A89" t="s" s="8">
+      <c r="A89" t="s" s="15">
         <v>190</v>
       </c>
-      <c r="B89" t="s" s="8">
+      <c r="B89" t="s" s="15">
         <v>191</v>
       </c>
-      <c r="C89" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="D89" s="6"/>
+      <c r="C89" t="s" s="16">
+        <v>36</v>
+      </c>
+      <c r="D89" s="6">
+        <v>0.5238095238095239</v>
+      </c>
       <c r="E89" s="6"/>
       <c r="F89" s="6"/>
       <c r="G89" s="6"/>
       <c r="H89" s="6">
-        <v>0.777777777777778</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="I89" s="6"/>
-      <c r="J89" s="14"/>
+      <c r="J89" s="7"/>
     </row>
     <row r="90" ht="21" customHeight="1">
-      <c r="A90" t="s" s="4">
+      <c r="A90" t="s" s="23">
         <v>192</v>
       </c>
-      <c r="B90" t="s" s="4">
+      <c r="B90" t="s" s="23">
         <v>193</v>
       </c>
       <c r="C90" t="s" s="5">
-        <v>69</v>
-      </c>
-      <c r="D90" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="D90" s="6">
+        <v>0.666666666666667</v>
+      </c>
       <c r="E90" s="6"/>
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
@@ -4387,62 +4791,60 @@
         <v>0.75</v>
       </c>
       <c r="I90" s="6"/>
-      <c r="J90" s="12"/>
+      <c r="J90" s="7"/>
     </row>
     <row r="91" ht="21" customHeight="1">
-      <c r="A91" t="s" s="8">
+      <c r="A91" t="s" s="17">
         <v>194</v>
       </c>
-      <c r="B91" t="s" s="8">
+      <c r="B91" t="s" s="17">
         <v>195</v>
       </c>
-      <c r="C91" t="s" s="5">
+      <c r="C91" t="s" s="16">
         <v>15</v>
       </c>
-      <c r="D91" s="6">
-        <v>0.619047619047619</v>
-      </c>
+      <c r="D91" s="6"/>
       <c r="E91" s="6"/>
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
-      <c r="H91" s="6"/>
+      <c r="H91" s="6">
+        <v>0</v>
+      </c>
       <c r="I91" s="6"/>
-      <c r="J91" s="13"/>
-    </row>
-    <row r="92" ht="20.7" customHeight="1">
-      <c r="A92" t="s" s="4">
+      <c r="J91" s="7"/>
+    </row>
+    <row r="92" ht="21" customHeight="1">
+      <c r="A92" t="s" s="5">
         <v>196</v>
       </c>
-      <c r="B92" t="s" s="4">
+      <c r="B92" t="s" s="5">
         <v>197</v>
       </c>
       <c r="C92" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="D92" s="25">
-        <v>0.595238095238095</v>
-      </c>
-      <c r="E92" s="19"/>
-      <c r="F92" s="19"/>
-      <c r="G92" s="19"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="6"/>
       <c r="H92" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="I92" s="19"/>
-      <c r="J92" s="22"/>
+        <v>0</v>
+      </c>
+      <c r="I92" s="6"/>
+      <c r="J92" s="7"/>
     </row>
     <row r="93" ht="21" customHeight="1">
-      <c r="A93" t="s" s="9">
+      <c r="A93" t="s" s="5">
         <v>198</v>
       </c>
-      <c r="B93" t="s" s="9">
+      <c r="B93" t="s" s="5">
         <v>199</v>
       </c>
-      <c r="C93" t="s" s="10">
-        <v>21</v>
+      <c r="C93" t="s" s="5">
+        <v>18</v>
       </c>
       <c r="D93" s="6">
-        <v>0.80952380952381</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E93" s="6"/>
       <c r="F93" s="6"/>
@@ -4451,7 +4853,7 @@
         <v>0.75</v>
       </c>
       <c r="I93" s="6"/>
-      <c r="J93" s="12"/>
+      <c r="J93" s="7"/>
     </row>
     <row r="94" ht="21" customHeight="1">
       <c r="A94" t="s" s="5">
@@ -4463,17 +4865,15 @@
       <c r="C94" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D94" s="6">
-        <v>0.738095238095238</v>
-      </c>
+      <c r="D94" s="6"/>
       <c r="E94" s="6"/>
       <c r="F94" s="6"/>
       <c r="G94" s="6"/>
       <c r="H94" s="6">
-        <v>0.861111111111111</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="I94" s="6"/>
-      <c r="J94" s="14"/>
+      <c r="J94" s="9"/>
     </row>
     <row r="95" ht="21" customHeight="1">
       <c r="A95" t="s" s="4">
@@ -4483,37 +4883,41 @@
         <v>203</v>
       </c>
       <c r="C95" t="s" s="5">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="D95" s="6">
-        <v>0.738095238095238</v>
+        <v>0.595238095238095</v>
       </c>
       <c r="E95" s="6"/>
       <c r="F95" s="6"/>
       <c r="G95" s="6"/>
-      <c r="H95" s="6"/>
+      <c r="H95" s="6">
+        <v>0.777777777777778</v>
+      </c>
       <c r="I95" s="6"/>
-      <c r="J95" s="12"/>
+      <c r="J95" s="11"/>
     </row>
     <row r="96" ht="21" customHeight="1">
-      <c r="A96" t="s" s="8">
+      <c r="A96" t="s" s="17">
         <v>204</v>
       </c>
-      <c r="B96" t="s" s="8">
+      <c r="B96" t="s" s="17">
         <v>205</v>
       </c>
-      <c r="C96" t="s" s="5">
-        <v>18</v>
+      <c r="C96" t="s" s="16">
+        <v>12</v>
       </c>
       <c r="D96" s="6">
-        <v>0.452380952380952</v>
+        <v>0.5</v>
       </c>
       <c r="E96" s="6"/>
       <c r="F96" s="6"/>
       <c r="G96" s="6"/>
-      <c r="H96" s="6"/>
+      <c r="H96" s="6">
+        <v>0.722222222222222</v>
+      </c>
       <c r="I96" s="6"/>
-      <c r="J96" s="14"/>
+      <c r="J96" s="7"/>
     </row>
     <row r="97" ht="21" customHeight="1">
       <c r="A97" t="s" s="5">
@@ -4523,19 +4927,17 @@
         <v>207</v>
       </c>
       <c r="C97" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D97" s="6">
-        <v>0.857142857142857</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D97" s="6"/>
       <c r="E97" s="6"/>
       <c r="F97" s="6"/>
       <c r="G97" s="6"/>
       <c r="H97" s="6">
-        <v>0.861111111111111</v>
+        <v>0</v>
       </c>
       <c r="I97" s="6"/>
-      <c r="J97" s="7"/>
+      <c r="J97" s="9"/>
     </row>
     <row r="98" ht="21" customHeight="1">
       <c r="A98" t="s" s="5">
@@ -4547,92 +4949,96 @@
       <c r="C98" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D98" s="6"/>
+      <c r="D98" s="6">
+        <v>0.69047619047619</v>
+      </c>
       <c r="E98" s="6"/>
       <c r="F98" s="6"/>
       <c r="G98" s="6"/>
       <c r="H98" s="6">
-        <v>0.777777777777778</v>
+        <v>0.805555555555556</v>
       </c>
       <c r="I98" s="6"/>
-      <c r="J98" s="7"/>
+      <c r="J98" s="11"/>
     </row>
     <row r="99" ht="21" customHeight="1">
-      <c r="A99" t="s" s="4">
+      <c r="A99" t="s" s="5">
         <v>210</v>
       </c>
-      <c r="B99" t="s" s="4">
+      <c r="B99" t="s" s="5">
         <v>211</v>
       </c>
-      <c r="C99" s="19"/>
-      <c r="D99" s="6"/>
+      <c r="C99" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D99" s="6">
+        <v>0.857142857142857</v>
+      </c>
       <c r="E99" s="6"/>
       <c r="F99" s="6"/>
       <c r="G99" s="6"/>
       <c r="H99" s="6">
-        <v>0.722222222222222</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I99" s="6"/>
       <c r="J99" s="7"/>
     </row>
     <row r="100" ht="21" customHeight="1">
-      <c r="A100" t="s" s="9">
+      <c r="A100" t="s" s="4">
         <v>212</v>
       </c>
-      <c r="B100" t="s" s="9">
+      <c r="B100" t="s" s="4">
         <v>213</v>
       </c>
-      <c r="C100" t="s" s="10">
-        <v>18</v>
+      <c r="C100" t="s" s="5">
+        <v>15</v>
       </c>
       <c r="D100" s="6"/>
       <c r="E100" s="6"/>
       <c r="F100" s="6"/>
       <c r="G100" s="6"/>
       <c r="H100" s="6">
-        <v>0.75</v>
+        <v>0.361111111111111</v>
       </c>
       <c r="I100" s="6"/>
       <c r="J100" s="7"/>
     </row>
     <row r="101" ht="21" customHeight="1">
-      <c r="A101" t="s" s="4">
+      <c r="A101" t="s" s="8">
         <v>214</v>
       </c>
-      <c r="B101" t="s" s="4">
+      <c r="B101" t="s" s="8">
         <v>215</v>
       </c>
       <c r="C101" t="s" s="5">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D101" s="6">
-        <v>0.738095238095238</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="E101" s="6"/>
       <c r="F101" s="6"/>
       <c r="G101" s="6"/>
       <c r="H101" s="6">
-        <v>0.416666666666667</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="I101" s="6"/>
       <c r="J101" s="7"/>
     </row>
     <row r="102" ht="21" customHeight="1">
-      <c r="A102" t="s" s="9">
+      <c r="A102" t="s" s="5">
         <v>216</v>
       </c>
-      <c r="B102" t="s" s="9">
+      <c r="B102" t="s" s="5">
         <v>217</v>
       </c>
-      <c r="C102" t="s" s="10">
-        <v>18</v>
-      </c>
+      <c r="C102" s="12"/>
       <c r="D102" s="6"/>
       <c r="E102" s="6"/>
       <c r="F102" s="6"/>
       <c r="G102" s="6"/>
       <c r="H102" s="6">
-        <v>0.805555555555556</v>
+        <v>0.694444444444444</v>
       </c>
       <c r="I102" s="6"/>
       <c r="J102" s="7"/>
@@ -4645,601 +5051,609 @@
         <v>219</v>
       </c>
       <c r="C103" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D103" s="6">
-        <v>0.738095238095238</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D103" s="6"/>
       <c r="E103" s="6"/>
       <c r="F103" s="6"/>
       <c r="G103" s="6"/>
-      <c r="H103" s="6"/>
+      <c r="H103" s="6">
+        <v>0.777777777777778</v>
+      </c>
       <c r="I103" s="6"/>
-      <c r="J103" s="7"/>
-    </row>
-    <row r="104" ht="21" customHeight="1">
+      <c r="J103" s="9"/>
+    </row>
+    <row r="104" ht="20.7" customHeight="1">
       <c r="A104" t="s" s="5">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B104" t="s" s="5">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C104" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D104" s="6"/>
-      <c r="E104" s="6"/>
-      <c r="F104" s="6"/>
-      <c r="G104" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="D104" s="22">
+        <v>0.5238095238095239</v>
+      </c>
+      <c r="E104" s="12"/>
+      <c r="F104" s="12"/>
+      <c r="G104" s="12"/>
       <c r="H104" s="6">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="I104" s="6"/>
-      <c r="J104" s="12"/>
+        <v>0.777777777777778</v>
+      </c>
+      <c r="I104" s="12"/>
+      <c r="J104" s="13"/>
     </row>
     <row r="105" ht="20.7" customHeight="1">
       <c r="A105" t="s" s="5">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B105" t="s" s="5">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C105" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D105" s="25">
-        <v>0.476190476190476</v>
-      </c>
-      <c r="E105" s="19"/>
-      <c r="F105" s="19"/>
-      <c r="G105" s="19"/>
+        <v>12</v>
+      </c>
+      <c r="D105" s="12"/>
+      <c r="E105" s="12"/>
+      <c r="F105" s="12"/>
+      <c r="G105" s="12"/>
       <c r="H105" s="6">
-        <v>0.555555555555556</v>
-      </c>
-      <c r="I105" s="19"/>
-      <c r="J105" s="20"/>
+        <v>0.638888888888889</v>
+      </c>
+      <c r="I105" s="12"/>
+      <c r="J105" s="14"/>
     </row>
     <row r="106" ht="21" customHeight="1">
       <c r="A106" t="s" s="5">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B106" t="s" s="5">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C106" t="s" s="5">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="D106" s="6">
-        <v>0.833333333333333</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="E106" s="6"/>
       <c r="F106" s="6"/>
       <c r="G106" s="6"/>
       <c r="H106" s="6">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="I106" s="6"/>
-      <c r="J106" s="14"/>
+      <c r="J106" s="7"/>
     </row>
     <row r="107" ht="21" customHeight="1">
       <c r="A107" t="s" s="5">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B107" t="s" s="5">
-        <v>226</v>
-      </c>
-      <c r="C107" s="19"/>
-      <c r="D107" s="6"/>
+        <v>227</v>
+      </c>
+      <c r="C107" t="s" s="5">
+        <v>18</v>
+      </c>
+      <c r="D107" s="6">
+        <v>0.833333333333333</v>
+      </c>
       <c r="E107" s="6"/>
       <c r="F107" s="6"/>
       <c r="G107" s="6"/>
       <c r="H107" s="6">
-        <v>0.722222222222222</v>
+        <v>0.694444444444444</v>
       </c>
       <c r="I107" s="6"/>
-      <c r="J107" s="7"/>
-    </row>
-    <row r="108" ht="21" customHeight="1">
+      <c r="J107" s="9"/>
+    </row>
+    <row r="108" ht="20.05" customHeight="1">
       <c r="A108" t="s" s="5">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B108" t="s" s="5">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C108" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="D108" s="6">
-        <v>0.714285714285714</v>
-      </c>
-      <c r="E108" s="6"/>
-      <c r="F108" s="6"/>
-      <c r="G108" s="6"/>
-      <c r="H108" s="6"/>
-      <c r="I108" s="6"/>
-      <c r="J108" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="D108" s="12"/>
+      <c r="E108" s="12"/>
+      <c r="F108" s="12"/>
+      <c r="G108" s="12"/>
+      <c r="H108" s="6">
+        <v>0.777777777777778</v>
+      </c>
+      <c r="I108" s="12"/>
+      <c r="J108" s="14"/>
     </row>
     <row r="109" ht="21" customHeight="1">
       <c r="A109" t="s" s="5">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B109" t="s" s="5">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C109" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="D109" s="6">
-        <v>0.69047619047619</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D109" s="6"/>
       <c r="E109" s="6"/>
       <c r="F109" s="6"/>
       <c r="G109" s="6"/>
-      <c r="H109" s="6"/>
+      <c r="H109" s="6">
+        <v>0.555555555555556</v>
+      </c>
       <c r="I109" s="6"/>
-      <c r="J109" s="7"/>
-    </row>
-    <row r="110" ht="21" customHeight="1">
+      <c r="J109" s="9"/>
+    </row>
+    <row r="110" ht="20.7" customHeight="1">
       <c r="A110" t="s" s="5">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B110" t="s" s="5">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C110" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="D110" s="6">
-        <v>0.785714285714286</v>
-      </c>
-      <c r="E110" s="6"/>
-      <c r="F110" s="6"/>
-      <c r="G110" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="D110" s="22">
+        <v>0.452380952380952</v>
+      </c>
+      <c r="E110" s="12"/>
+      <c r="F110" s="12"/>
+      <c r="G110" s="12"/>
       <c r="H110" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="I110" s="6"/>
-      <c r="J110" s="12"/>
+        <v>0.888888888888889</v>
+      </c>
+      <c r="I110" s="12"/>
+      <c r="J110" s="13"/>
     </row>
     <row r="111" ht="21" customHeight="1">
       <c r="A111" t="s" s="5">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B111" t="s" s="5">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C111" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="D111" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="D111" s="6">
+        <v>0.5</v>
+      </c>
       <c r="E111" s="6"/>
       <c r="F111" s="6"/>
       <c r="G111" s="6"/>
       <c r="H111" s="6">
-        <v>0.777777777777778</v>
+        <v>0.75</v>
       </c>
       <c r="I111" s="6"/>
-      <c r="J111" s="13"/>
-    </row>
-    <row r="112" ht="20.7" customHeight="1">
+      <c r="J111" s="11"/>
+    </row>
+    <row r="112" ht="21" customHeight="1">
       <c r="A112" t="s" s="5">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B112" t="s" s="5">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C112" t="s" s="5">
-        <v>46</v>
-      </c>
-      <c r="D112" s="21">
-        <v>0.619047619047619</v>
-      </c>
-      <c r="E112" s="19"/>
-      <c r="F112" s="19"/>
-      <c r="G112" s="19"/>
-      <c r="H112" s="6"/>
-      <c r="I112" s="19"/>
-      <c r="J112" s="22"/>
+        <v>21</v>
+      </c>
+      <c r="D112" s="6">
+        <v>0.595238095238095</v>
+      </c>
+      <c r="E112" s="6"/>
+      <c r="F112" s="6"/>
+      <c r="G112" s="6"/>
+      <c r="H112" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="I112" s="6"/>
+      <c r="J112" s="7"/>
     </row>
     <row r="113" ht="21" customHeight="1">
       <c r="A113" t="s" s="5">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B113" t="s" s="5">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C113" t="s" s="5">
-        <v>69</v>
-      </c>
-      <c r="D113" s="6">
-        <v>0.904761904761905</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D113" s="6"/>
       <c r="E113" s="6"/>
       <c r="F113" s="6"/>
       <c r="G113" s="6"/>
-      <c r="H113" s="6"/>
+      <c r="H113" s="6">
+        <v>0</v>
+      </c>
       <c r="I113" s="6"/>
       <c r="J113" s="7"/>
     </row>
     <row r="114" ht="21" customHeight="1">
       <c r="A114" t="s" s="5">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B114" t="s" s="5">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C114" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="D114" s="6">
-        <v>0.714285714285714</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="D114" s="6"/>
       <c r="E114" s="6"/>
       <c r="F114" s="6"/>
       <c r="G114" s="6"/>
-      <c r="H114" s="6"/>
+      <c r="H114" s="6">
+        <v>0.777777777777778</v>
+      </c>
       <c r="I114" s="6"/>
       <c r="J114" s="7"/>
     </row>
     <row r="115" ht="21" customHeight="1">
       <c r="A115" t="s" s="5">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B115" t="s" s="5">
-        <v>242</v>
-      </c>
-      <c r="C115" t="s" s="5">
-        <v>21</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="C115" s="12"/>
       <c r="D115" s="6"/>
       <c r="E115" s="6"/>
       <c r="F115" s="6"/>
       <c r="G115" s="6"/>
       <c r="H115" s="6">
-        <v>0.777777777777778</v>
+        <v>0.388888888888889</v>
       </c>
       <c r="I115" s="6"/>
       <c r="J115" s="7"/>
     </row>
     <row r="116" ht="21" customHeight="1">
       <c r="A116" t="s" s="5">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B116" t="s" s="5">
-        <v>244</v>
-      </c>
-      <c r="C116" s="19"/>
+        <v>245</v>
+      </c>
+      <c r="C116" t="s" s="5">
+        <v>21</v>
+      </c>
       <c r="D116" s="6"/>
       <c r="E116" s="6"/>
       <c r="F116" s="6"/>
       <c r="G116" s="6"/>
       <c r="H116" s="6">
-        <v>0.388888888888889</v>
+        <v>0</v>
       </c>
       <c r="I116" s="6"/>
-      <c r="J116" s="12"/>
-    </row>
-    <row r="117" ht="20.7" customHeight="1">
-      <c r="A117" t="s" s="5">
-        <v>245</v>
-      </c>
-      <c r="B117" t="s" s="5">
+      <c r="J116" s="9"/>
+    </row>
+    <row r="117" ht="21" customHeight="1">
+      <c r="A117" t="s" s="4">
         <v>246</v>
       </c>
+      <c r="B117" t="s" s="4">
+        <v>247</v>
+      </c>
       <c r="C117" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D117" s="25">
+        <v>12</v>
+      </c>
+      <c r="D117" s="6">
         <v>0.642857142857143</v>
       </c>
-      <c r="E117" s="19"/>
-      <c r="F117" s="19"/>
-      <c r="G117" s="19"/>
+      <c r="E117" s="6"/>
+      <c r="F117" s="6"/>
+      <c r="G117" s="6"/>
       <c r="H117" s="6">
-        <v>0.861111111111111</v>
-      </c>
-      <c r="I117" s="19"/>
-      <c r="J117" s="22"/>
+        <v>0.75</v>
+      </c>
+      <c r="I117" s="6"/>
+      <c r="J117" s="10"/>
     </row>
     <row r="118" ht="21" customHeight="1">
-      <c r="A118" t="s" s="5">
-        <v>247</v>
-      </c>
-      <c r="B118" t="s" s="5">
+      <c r="A118" t="s" s="8">
         <v>248</v>
       </c>
+      <c r="B118" t="s" s="8">
+        <v>249</v>
+      </c>
       <c r="C118" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D118" s="6">
-        <v>0.619047619047619</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D118" s="6"/>
       <c r="E118" s="6"/>
       <c r="F118" s="6"/>
       <c r="G118" s="6"/>
       <c r="H118" s="6">
-        <v>0.805555555555556</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I118" s="6"/>
-      <c r="J118" s="12"/>
+      <c r="J118" s="11"/>
     </row>
     <row r="119" ht="21" customHeight="1">
       <c r="A119" t="s" s="5">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B119" t="s" s="5">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C119" t="s" s="5">
-        <v>69</v>
-      </c>
-      <c r="D119" s="6">
-        <v>0.666666666666667</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="D119" s="6"/>
       <c r="E119" s="6"/>
       <c r="F119" s="6"/>
       <c r="G119" s="6"/>
-      <c r="H119" s="6"/>
+      <c r="H119" s="6">
+        <v>0.75</v>
+      </c>
       <c r="I119" s="6"/>
-      <c r="J119" s="14"/>
+      <c r="J119" s="7"/>
     </row>
     <row r="120" ht="21" customHeight="1">
       <c r="A120" t="s" s="4">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B120" t="s" s="4">
-        <v>252</v>
-      </c>
-      <c r="C120" t="s" s="5">
-        <v>18</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="C120" s="12"/>
       <c r="D120" s="6"/>
       <c r="E120" s="6"/>
       <c r="F120" s="6"/>
       <c r="G120" s="6"/>
       <c r="H120" s="6">
-        <v>0.777777777777778</v>
+        <v>0.75</v>
       </c>
       <c r="I120" s="6"/>
-      <c r="J120" s="12"/>
+      <c r="J120" s="9"/>
     </row>
     <row r="121" ht="21" customHeight="1">
       <c r="A121" t="s" s="23">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B121" t="s" s="23">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C121" t="s" s="5">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D121" s="6">
-        <v>0.714285714285714</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="E121" s="6"/>
       <c r="F121" s="6"/>
       <c r="G121" s="6"/>
-      <c r="H121" s="6"/>
+      <c r="H121" s="6">
+        <v>0.777777777777778</v>
+      </c>
       <c r="I121" s="6"/>
-      <c r="J121" s="13"/>
+      <c r="J121" s="10"/>
     </row>
     <row r="122" ht="21" customHeight="1">
       <c r="A122" t="s" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B122" t="s" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C122" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="D122" s="6">
-        <v>0.80952380952381</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="D122" s="6"/>
       <c r="E122" s="6"/>
       <c r="F122" s="6"/>
       <c r="G122" s="6"/>
       <c r="H122" s="6">
-        <v>0.777777777777778</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="I122" s="6"/>
-      <c r="J122" s="14"/>
-    </row>
-    <row r="123" ht="21" customHeight="1">
+      <c r="J122" s="10"/>
+    </row>
+    <row r="123" ht="20.7" customHeight="1">
       <c r="A123" t="s" s="5">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B123" t="s" s="5">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C123" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="D123" s="6"/>
-      <c r="E123" s="6"/>
-      <c r="F123" s="6"/>
-      <c r="G123" s="6"/>
+      <c r="D123" s="25">
+        <v>0.595238095238095</v>
+      </c>
+      <c r="E123" s="12"/>
+      <c r="F123" s="12"/>
+      <c r="G123" s="12"/>
       <c r="H123" s="6">
-        <v>0.722222222222222</v>
-      </c>
-      <c r="I123" s="6"/>
-      <c r="J123" s="12"/>
-    </row>
-    <row r="124" ht="20.35" customHeight="1">
+        <v>0.75</v>
+      </c>
+      <c r="I123" s="12"/>
+      <c r="J123" s="13"/>
+    </row>
+    <row r="124" ht="21" customHeight="1">
       <c r="A124" t="s" s="4">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B124" t="s" s="4">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C124" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D124" s="19"/>
-      <c r="E124" s="19"/>
-      <c r="F124" s="19"/>
-      <c r="G124" s="19"/>
+        <v>12</v>
+      </c>
+      <c r="D124" s="6"/>
+      <c r="E124" s="6"/>
+      <c r="F124" s="6"/>
+      <c r="G124" s="6"/>
       <c r="H124" s="6">
-        <v>0.777777777777778</v>
-      </c>
-      <c r="I124" s="19"/>
-      <c r="J124" s="20"/>
+        <v>0.805555555555556</v>
+      </c>
+      <c r="I124" s="6"/>
+      <c r="J124" s="11"/>
     </row>
     <row r="125" ht="21" customHeight="1">
-      <c r="A125" t="s" s="8">
-        <v>261</v>
-      </c>
-      <c r="B125" t="s" s="8">
+      <c r="A125" t="s" s="17">
         <v>262</v>
       </c>
-      <c r="C125" t="s" s="5">
-        <v>18</v>
+      <c r="B125" t="s" s="17">
+        <v>263</v>
+      </c>
+      <c r="C125" t="s" s="16">
+        <v>21</v>
       </c>
       <c r="D125" s="6">
-        <v>0.857142857142857</v>
+        <v>0.80952380952381</v>
       </c>
       <c r="E125" s="6"/>
       <c r="F125" s="6"/>
       <c r="G125" s="6"/>
       <c r="H125" s="6">
-        <v>0.805555555555556</v>
+        <v>0.75</v>
       </c>
       <c r="I125" s="6"/>
-      <c r="J125" s="14"/>
+      <c r="J125" s="9"/>
     </row>
     <row r="126" ht="21" customHeight="1">
       <c r="A126" t="s" s="5">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B126" t="s" s="5">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C126" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="D126" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="D126" s="6">
+        <v>0.738095238095238</v>
+      </c>
       <c r="E126" s="6"/>
       <c r="F126" s="6"/>
       <c r="G126" s="6"/>
       <c r="H126" s="6">
-        <v>0.305555555555556</v>
+        <v>0.861111111111111</v>
       </c>
       <c r="I126" s="6"/>
-      <c r="J126" s="12"/>
-    </row>
-    <row r="127" ht="20.7" customHeight="1">
+      <c r="J126" s="11"/>
+    </row>
+    <row r="127" ht="21" customHeight="1">
       <c r="A127" t="s" s="4">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B127" t="s" s="4">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C127" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="D127" s="25">
+        <v>36</v>
+      </c>
+      <c r="D127" s="6">
         <v>0.738095238095238</v>
       </c>
-      <c r="E127" s="19"/>
-      <c r="F127" s="19"/>
-      <c r="G127" s="19"/>
+      <c r="E127" s="6"/>
+      <c r="F127" s="6"/>
+      <c r="G127" s="6"/>
       <c r="H127" s="6">
-        <v>0.777777777777778</v>
-      </c>
-      <c r="I127" s="19"/>
-      <c r="J127" s="22"/>
+        <v>0.805555555555556</v>
+      </c>
+      <c r="I127" s="6"/>
+      <c r="J127" s="9"/>
     </row>
     <row r="128" ht="21" customHeight="1">
-      <c r="A128" t="s" s="9">
-        <v>267</v>
-      </c>
-      <c r="B128" t="s" s="9">
+      <c r="A128" t="s" s="8">
         <v>268</v>
       </c>
-      <c r="C128" t="s" s="10">
+      <c r="B128" t="s" s="8">
+        <v>269</v>
+      </c>
+      <c r="C128" t="s" s="5">
         <v>18</v>
       </c>
       <c r="D128" s="6">
-        <v>0.952380952380952</v>
+        <v>0.452380952380952</v>
       </c>
       <c r="E128" s="6"/>
       <c r="F128" s="6"/>
       <c r="G128" s="6"/>
       <c r="H128" s="6">
-        <v>0.777777777777778</v>
+        <v>0.361111111111111</v>
       </c>
       <c r="I128" s="6"/>
-      <c r="J128" s="7"/>
+      <c r="J128" s="11"/>
     </row>
     <row r="129" ht="21" customHeight="1">
       <c r="A129" t="s" s="5">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B129" t="s" s="5">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C129" t="s" s="5">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D129" s="6">
-        <v>0.571428571428571</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="E129" s="6"/>
       <c r="F129" s="6"/>
       <c r="G129" s="6"/>
-      <c r="H129" s="6"/>
+      <c r="H129" s="6">
+        <v>0.861111111111111</v>
+      </c>
       <c r="I129" s="6"/>
       <c r="J129" s="7"/>
     </row>
     <row r="130" ht="21" customHeight="1">
-      <c r="A130" t="s" s="4">
-        <v>271</v>
-      </c>
-      <c r="B130" t="s" s="4">
+      <c r="A130" t="s" s="5">
         <v>272</v>
       </c>
+      <c r="B130" t="s" s="5">
+        <v>273</v>
+      </c>
       <c r="C130" t="s" s="5">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D130" s="6"/>
       <c r="E130" s="6"/>
       <c r="F130" s="6"/>
       <c r="G130" s="6"/>
       <c r="H130" s="6">
-        <v>0</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I130" s="6"/>
-      <c r="J130" s="12"/>
+      <c r="J130" s="7"/>
     </row>
     <row r="131" ht="21" customHeight="1">
-      <c r="A131" t="s" s="23">
-        <v>273</v>
-      </c>
-      <c r="B131" t="s" s="23">
+      <c r="A131" t="s" s="4">
         <v>274</v>
       </c>
-      <c r="C131" t="s" s="5">
-        <v>69</v>
-      </c>
-      <c r="D131" s="6">
-        <v>0.761904761904762</v>
-      </c>
+      <c r="B131" t="s" s="4">
+        <v>275</v>
+      </c>
+      <c r="C131" s="12"/>
+      <c r="D131" s="6"/>
       <c r="E131" s="6"/>
       <c r="F131" s="6"/>
       <c r="G131" s="6"/>
-      <c r="H131" s="6"/>
+      <c r="H131" s="6">
+        <v>0.722222222222222</v>
+      </c>
       <c r="I131" s="6"/>
-      <c r="J131" s="13"/>
+      <c r="J131" s="7"/>
     </row>
     <row r="132" ht="21" customHeight="1">
-      <c r="A132" t="s" s="8">
-        <v>275</v>
-      </c>
-      <c r="B132" t="s" s="8">
+      <c r="A132" t="s" s="17">
         <v>276</v>
       </c>
-      <c r="C132" t="s" s="5">
-        <v>21</v>
+      <c r="B132" t="s" s="17">
+        <v>277</v>
+      </c>
+      <c r="C132" t="s" s="16">
+        <v>18</v>
       </c>
       <c r="D132" s="6"/>
       <c r="E132" s="6"/>
@@ -5249,149 +5663,153 @@
         <v>0.75</v>
       </c>
       <c r="I132" s="6"/>
-      <c r="J132" s="13"/>
-    </row>
-    <row r="133" ht="20.7" customHeight="1">
-      <c r="A133" t="s" s="4">
-        <v>277</v>
-      </c>
-      <c r="B133" t="s" s="4">
+      <c r="J132" s="7"/>
+    </row>
+    <row r="133" ht="21" customHeight="1">
+      <c r="A133" t="s" s="5">
         <v>278</v>
       </c>
+      <c r="B133" t="s" s="5">
+        <v>279</v>
+      </c>
       <c r="C133" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="D133" s="19"/>
-      <c r="E133" s="19"/>
-      <c r="F133" s="19"/>
-      <c r="G133" s="19"/>
+        <v>18</v>
+      </c>
+      <c r="D133" s="6">
+        <v>0.738095238095238</v>
+      </c>
+      <c r="E133" s="6"/>
+      <c r="F133" s="6"/>
+      <c r="G133" s="6"/>
       <c r="H133" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="I133" s="19"/>
-      <c r="J133" s="22"/>
+        <v>0.416666666666667</v>
+      </c>
+      <c r="I133" s="6"/>
+      <c r="J133" s="7"/>
     </row>
     <row r="134" ht="21" customHeight="1">
-      <c r="A134" t="s" s="9">
-        <v>279</v>
-      </c>
-      <c r="B134" t="s" s="9">
+      <c r="A134" t="s" s="4">
         <v>280</v>
       </c>
-      <c r="C134" t="s" s="10">
-        <v>18</v>
-      </c>
+      <c r="B134" t="s" s="4">
+        <v>281</v>
+      </c>
+      <c r="C134" s="12"/>
       <c r="D134" s="6"/>
       <c r="E134" s="6"/>
       <c r="F134" s="6"/>
       <c r="G134" s="6"/>
       <c r="H134" s="6">
-        <v>0.805555555555556</v>
+        <v>0.75</v>
       </c>
       <c r="I134" s="6"/>
       <c r="J134" s="7"/>
     </row>
     <row r="135" ht="21" customHeight="1">
-      <c r="A135" t="s" s="4">
-        <v>281</v>
-      </c>
-      <c r="B135" t="s" s="4">
+      <c r="A135" t="s" s="17">
         <v>282</v>
       </c>
-      <c r="C135" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="D135" s="6">
-        <v>0.904761904761905</v>
-      </c>
+      <c r="B135" t="s" s="17">
+        <v>283</v>
+      </c>
+      <c r="C135" t="s" s="16">
+        <v>18</v>
+      </c>
+      <c r="D135" s="6"/>
       <c r="E135" s="6"/>
       <c r="F135" s="6"/>
       <c r="G135" s="6"/>
       <c r="H135" s="6">
-        <v>0.75</v>
+        <v>0.805555555555556</v>
       </c>
       <c r="I135" s="6"/>
       <c r="J135" s="7"/>
     </row>
     <row r="136" ht="21" customHeight="1">
-      <c r="A136" t="s" s="9">
-        <v>283</v>
-      </c>
-      <c r="B136" t="s" s="9">
+      <c r="A136" t="s" s="5">
         <v>284</v>
       </c>
-      <c r="C136" t="s" s="10">
-        <v>21</v>
-      </c>
-      <c r="D136" s="6"/>
+      <c r="B136" t="s" s="5">
+        <v>285</v>
+      </c>
+      <c r="C136" t="s" s="5">
+        <v>18</v>
+      </c>
+      <c r="D136" s="6">
+        <v>0.738095238095238</v>
+      </c>
       <c r="E136" s="6"/>
       <c r="F136" s="6"/>
       <c r="G136" s="6"/>
       <c r="H136" s="6">
-        <v>0.722222222222222</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I136" s="6"/>
-      <c r="J136" s="12"/>
-    </row>
-    <row r="137" ht="20.7" customHeight="1">
+      <c r="J136" s="7"/>
+    </row>
+    <row r="137" ht="21" customHeight="1">
       <c r="A137" t="s" s="5">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B137" t="s" s="5">
         <v>286</v>
       </c>
       <c r="C137" t="s" s="5">
-        <v>46</v>
-      </c>
-      <c r="D137" s="25">
-        <v>0.69047619047619</v>
-      </c>
-      <c r="E137" s="19"/>
-      <c r="F137" s="19"/>
-      <c r="G137" s="19"/>
-      <c r="H137" s="6"/>
-      <c r="I137" s="19"/>
-      <c r="J137" s="22"/>
-    </row>
-    <row r="138" ht="21" customHeight="1">
-      <c r="A138" t="s" s="4">
+        <v>18</v>
+      </c>
+      <c r="D137" s="6"/>
+      <c r="E137" s="6"/>
+      <c r="F137" s="6"/>
+      <c r="G137" s="6"/>
+      <c r="H137" s="6">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="I137" s="6"/>
+      <c r="J137" s="9"/>
+    </row>
+    <row r="138" ht="20.7" customHeight="1">
+      <c r="A138" t="s" s="5">
         <v>287</v>
       </c>
-      <c r="B138" t="s" s="4">
+      <c r="B138" t="s" s="5">
         <v>288</v>
       </c>
       <c r="C138" t="s" s="5">
-        <v>46</v>
-      </c>
-      <c r="D138" s="6">
-        <v>0.619047619047619</v>
-      </c>
-      <c r="E138" s="6"/>
-      <c r="F138" s="6"/>
-      <c r="G138" s="6"/>
-      <c r="H138" s="6"/>
-      <c r="I138" s="6"/>
-      <c r="J138" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="D138" s="25">
+        <v>0.476190476190476</v>
+      </c>
+      <c r="E138" s="12"/>
+      <c r="F138" s="12"/>
+      <c r="G138" s="12"/>
+      <c r="H138" s="6">
+        <v>0.555555555555556</v>
+      </c>
+      <c r="I138" s="12"/>
+      <c r="J138" s="13"/>
     </row>
     <row r="139" ht="21" customHeight="1">
-      <c r="A139" t="s" s="9">
+      <c r="A139" t="s" s="5">
         <v>289</v>
       </c>
-      <c r="B139" t="s" s="9">
+      <c r="B139" t="s" s="5">
         <v>290</v>
       </c>
-      <c r="C139" t="s" s="10">
-        <v>69</v>
+      <c r="C139" t="s" s="5">
+        <v>67</v>
       </c>
       <c r="D139" s="6">
-        <v>0.571428571428571</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E139" s="6"/>
       <c r="F139" s="6"/>
       <c r="G139" s="6"/>
-      <c r="H139" s="6"/>
+      <c r="H139" s="6">
+        <v>0.39</v>
+      </c>
       <c r="I139" s="6"/>
-      <c r="J139" s="7"/>
+      <c r="J139" s="11"/>
     </row>
     <row r="140" ht="21" customHeight="1">
       <c r="A140" t="s" s="5">
@@ -5400,58 +5818,60 @@
       <c r="B140" t="s" s="5">
         <v>292</v>
       </c>
-      <c r="C140" t="s" s="5">
-        <v>21</v>
-      </c>
+      <c r="C140" s="12"/>
       <c r="D140" s="6"/>
       <c r="E140" s="6"/>
       <c r="F140" s="6"/>
       <c r="G140" s="6"/>
       <c r="H140" s="6">
-        <v>0.75</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="I140" s="6"/>
       <c r="J140" s="7"/>
     </row>
     <row r="141" ht="21" customHeight="1">
-      <c r="A141" t="s" s="4">
+      <c r="A141" t="s" s="5">
         <v>293</v>
       </c>
-      <c r="B141" t="s" s="4">
+      <c r="B141" t="s" s="5">
         <v>294</v>
       </c>
       <c r="C141" t="s" s="5">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D141" s="6">
-        <v>0.857142857142857</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="E141" s="6"/>
       <c r="F141" s="6"/>
       <c r="G141" s="6"/>
-      <c r="H141" s="6"/>
+      <c r="H141" s="6">
+        <v>0.777777777777778</v>
+      </c>
       <c r="I141" s="6"/>
-      <c r="J141" s="12"/>
+      <c r="J141" s="7"/>
     </row>
     <row r="142" ht="21" customHeight="1">
-      <c r="A142" t="s" s="9">
+      <c r="A142" t="s" s="5">
         <v>295</v>
       </c>
-      <c r="B142" t="s" s="9">
+      <c r="B142" t="s" s="5">
         <v>296</v>
       </c>
-      <c r="C142" t="s" s="10">
-        <v>21</v>
-      </c>
-      <c r="D142" s="6"/>
+      <c r="C142" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D142" s="6">
+        <v>0.69047619047619</v>
+      </c>
       <c r="E142" s="6"/>
       <c r="F142" s="6"/>
       <c r="G142" s="6"/>
       <c r="H142" s="6">
-        <v>0.75</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I142" s="6"/>
-      <c r="J142" s="14"/>
+      <c r="J142" s="7"/>
     </row>
     <row r="143" ht="21" customHeight="1">
       <c r="A143" t="s" s="5">
@@ -5461,14 +5881,14 @@
         <v>298</v>
       </c>
       <c r="C143" t="s" s="5">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D143" s="6"/>
       <c r="E143" s="6"/>
       <c r="F143" s="6"/>
       <c r="G143" s="6"/>
       <c r="H143" s="6">
-        <v>0</v>
+        <v>0.805555555555556</v>
       </c>
       <c r="I143" s="6"/>
       <c r="J143" s="7"/>
@@ -5481,7 +5901,7 @@
         <v>300</v>
       </c>
       <c r="C144" t="s" s="5">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="D144" s="6">
         <v>0.785714285714286</v>
@@ -5489,9 +5909,11 @@
       <c r="E144" s="6"/>
       <c r="F144" s="6"/>
       <c r="G144" s="6"/>
-      <c r="H144" s="6"/>
+      <c r="H144" s="6">
+        <v>0.75</v>
+      </c>
       <c r="I144" s="6"/>
-      <c r="J144" s="7"/>
+      <c r="J144" s="9"/>
     </row>
     <row r="145" ht="21" customHeight="1">
       <c r="A145" t="s" s="5">
@@ -5501,139 +5923,145 @@
         <v>302</v>
       </c>
       <c r="C145" t="s" s="5">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="D145" s="6">
-        <v>1</v>
+        <v>0.880952380952381</v>
       </c>
       <c r="E145" s="6"/>
       <c r="F145" s="6"/>
       <c r="G145" s="6"/>
-      <c r="H145" s="6"/>
+      <c r="H145" s="6">
+        <v>0.777777777777778</v>
+      </c>
       <c r="I145" s="6"/>
-      <c r="J145" s="7"/>
-    </row>
-    <row r="146" ht="21" customHeight="1">
-      <c r="A146" t="s" s="4">
+      <c r="J145" s="10"/>
+    </row>
+    <row r="146" ht="20.7" customHeight="1">
+      <c r="A146" t="s" s="5">
         <v>303</v>
       </c>
-      <c r="B146" t="s" s="4">
+      <c r="B146" t="s" s="5">
         <v>304</v>
       </c>
       <c r="C146" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="D146" s="6">
-        <v>0.785714285714286</v>
-      </c>
-      <c r="E146" s="6"/>
-      <c r="F146" s="6"/>
-      <c r="G146" s="6"/>
-      <c r="H146" s="6"/>
-      <c r="I146" s="6"/>
-      <c r="J146" s="7"/>
+        <v>67</v>
+      </c>
+      <c r="D146" s="22">
+        <v>0.619047619047619</v>
+      </c>
+      <c r="E146" s="12"/>
+      <c r="F146" s="12"/>
+      <c r="G146" s="12"/>
+      <c r="H146" s="6">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="I146" s="12"/>
+      <c r="J146" s="14"/>
     </row>
     <row r="147" ht="21" customHeight="1">
-      <c r="A147" t="s" s="9">
+      <c r="A147" t="s" s="4">
         <v>305</v>
       </c>
-      <c r="B147" t="s" s="9">
+      <c r="B147" t="s" s="4">
         <v>306</v>
       </c>
-      <c r="C147" t="s" s="10">
-        <v>46</v>
+      <c r="C147" t="s" s="5">
+        <v>36</v>
       </c>
       <c r="D147" s="6">
-        <v>0.738095238095238</v>
+        <v>0.904761904761905</v>
       </c>
       <c r="E147" s="6"/>
       <c r="F147" s="6"/>
       <c r="G147" s="6"/>
       <c r="H147" s="6">
-        <v>0.388888888888889</v>
+        <v>0.75</v>
       </c>
       <c r="I147" s="6"/>
       <c r="J147" s="7"/>
     </row>
     <row r="148" ht="21" customHeight="1">
-      <c r="A148" t="s" s="5">
+      <c r="A148" t="s" s="8">
         <v>307</v>
       </c>
-      <c r="B148" t="s" s="5">
+      <c r="B148" t="s" s="8">
         <v>308</v>
       </c>
-      <c r="C148" t="s" s="5">
-        <v>69</v>
-      </c>
-      <c r="D148" s="6">
-        <v>0.785714285714286</v>
-      </c>
+      <c r="C148" s="12"/>
+      <c r="D148" s="6"/>
       <c r="E148" s="6"/>
       <c r="F148" s="6"/>
       <c r="G148" s="6"/>
-      <c r="H148" s="6"/>
+      <c r="H148" s="6">
+        <v>0.75</v>
+      </c>
       <c r="I148" s="6"/>
-      <c r="J148" s="12"/>
-    </row>
-    <row r="149" ht="20.7" customHeight="1">
-      <c r="A149" t="s" s="4">
+      <c r="J148" s="7"/>
+    </row>
+    <row r="149" ht="21" customHeight="1">
+      <c r="A149" t="s" s="5">
         <v>309</v>
       </c>
-      <c r="B149" t="s" s="4">
+      <c r="B149" t="s" s="5">
         <v>310</v>
       </c>
       <c r="C149" t="s" s="5">
-        <v>69</v>
-      </c>
-      <c r="D149" s="21">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E149" s="19"/>
-      <c r="F149" s="19"/>
-      <c r="G149" s="19"/>
-      <c r="H149" s="6"/>
-      <c r="I149" s="19"/>
-      <c r="J149" s="20"/>
+        <v>12</v>
+      </c>
+      <c r="D149" s="6">
+        <v>0.714285714285714</v>
+      </c>
+      <c r="E149" s="6"/>
+      <c r="F149" s="6"/>
+      <c r="G149" s="6"/>
+      <c r="H149" s="6">
+        <v>0.722222222222222</v>
+      </c>
+      <c r="I149" s="6"/>
+      <c r="J149" s="9"/>
     </row>
     <row r="150" ht="21" customHeight="1">
-      <c r="A150" t="s" s="23">
+      <c r="A150" t="s" s="5">
         <v>311</v>
       </c>
-      <c r="B150" t="s" s="23">
+      <c r="B150" t="s" s="5">
         <v>312</v>
       </c>
       <c r="C150" t="s" s="5">
-        <v>69</v>
-      </c>
-      <c r="D150" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="D150" s="6">
+        <v>0.785714285714286</v>
+      </c>
       <c r="E150" s="6"/>
       <c r="F150" s="6"/>
       <c r="G150" s="6"/>
       <c r="H150" s="6">
-        <v>0.75</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I150" s="6"/>
-      <c r="J150" s="13"/>
+      <c r="J150" s="11"/>
     </row>
     <row r="151" ht="21" customHeight="1">
-      <c r="A151" t="s" s="8">
+      <c r="A151" t="s" s="5">
         <v>313</v>
       </c>
-      <c r="B151" t="s" s="8">
+      <c r="B151" t="s" s="5">
         <v>314</v>
       </c>
       <c r="C151" t="s" s="5">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D151" s="6"/>
       <c r="E151" s="6"/>
       <c r="F151" s="6"/>
       <c r="G151" s="6"/>
       <c r="H151" s="6">
-        <v>0</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I151" s="6"/>
-      <c r="J151" s="14"/>
+      <c r="J151" s="7"/>
     </row>
     <row r="152" ht="21" customHeight="1">
       <c r="A152" t="s" s="5">
@@ -5643,16 +6071,14 @@
         <v>316</v>
       </c>
       <c r="C152" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="D152" s="6">
-        <v>0.880952380952381</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D152" s="6"/>
       <c r="E152" s="6"/>
       <c r="F152" s="6"/>
       <c r="G152" s="6"/>
       <c r="H152" s="6">
-        <v>0.722222222222222</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I152" s="6"/>
       <c r="J152" s="7"/>
@@ -5664,16 +6090,14 @@
       <c r="B153" t="s" s="5">
         <v>318</v>
       </c>
-      <c r="C153" t="s" s="5">
-        <v>46</v>
-      </c>
-      <c r="D153" s="6">
-        <v>0.714285714285714</v>
-      </c>
+      <c r="C153" s="12"/>
+      <c r="D153" s="6"/>
       <c r="E153" s="6"/>
       <c r="F153" s="6"/>
       <c r="G153" s="6"/>
-      <c r="H153" s="6"/>
+      <c r="H153" s="6">
+        <v>0.388888888888889</v>
+      </c>
       <c r="I153" s="6"/>
       <c r="J153" s="7"/>
     </row>
@@ -5685,139 +6109,145 @@
         <v>320</v>
       </c>
       <c r="C154" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D154" s="6"/>
+        <v>67</v>
+      </c>
+      <c r="D154" s="6">
+        <v>0.785714285714286</v>
+      </c>
       <c r="E154" s="6"/>
       <c r="F154" s="6"/>
       <c r="G154" s="6"/>
       <c r="H154" s="6">
-        <v>0.777777777777778</v>
+        <v>0</v>
       </c>
       <c r="I154" s="6"/>
-      <c r="J154" s="7"/>
-    </row>
-    <row r="155" ht="21" customHeight="1">
-      <c r="A155" t="s" s="4">
+      <c r="J154" s="9"/>
+    </row>
+    <row r="155" ht="20.7" customHeight="1">
+      <c r="A155" t="s" s="5">
         <v>321</v>
       </c>
-      <c r="B155" t="s" s="4">
+      <c r="B155" t="s" s="5">
         <v>322</v>
       </c>
       <c r="C155" t="s" s="5">
-        <v>69</v>
-      </c>
-      <c r="D155" s="6">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="E155" s="6"/>
-      <c r="F155" s="6"/>
-      <c r="G155" s="6"/>
-      <c r="H155" s="6"/>
-      <c r="I155" s="6"/>
-      <c r="J155" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="D155" s="25">
+        <v>0.642857142857143</v>
+      </c>
+      <c r="E155" s="12"/>
+      <c r="F155" s="12"/>
+      <c r="G155" s="12"/>
+      <c r="H155" s="6">
+        <v>0.861111111111111</v>
+      </c>
+      <c r="I155" s="12"/>
+      <c r="J155" s="14"/>
     </row>
     <row r="156" ht="21" customHeight="1">
-      <c r="A156" t="s" s="9">
+      <c r="A156" t="s" s="5">
         <v>323</v>
       </c>
-      <c r="B156" t="s" s="9">
+      <c r="B156" t="s" s="5">
         <v>324</v>
       </c>
-      <c r="C156" t="s" s="10">
-        <v>46</v>
+      <c r="C156" t="s" s="5">
+        <v>18</v>
       </c>
       <c r="D156" s="6">
-        <v>0.666666666666667</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="E156" s="6"/>
       <c r="F156" s="6"/>
       <c r="G156" s="6"/>
-      <c r="H156" s="6"/>
+      <c r="H156" s="6">
+        <v>0.805555555555556</v>
+      </c>
       <c r="I156" s="6"/>
-      <c r="J156" s="7"/>
+      <c r="J156" s="9"/>
     </row>
     <row r="157" ht="21" customHeight="1">
-      <c r="A157" t="s" s="4">
+      <c r="A157" t="s" s="5">
         <v>325</v>
       </c>
-      <c r="B157" t="s" s="4">
+      <c r="B157" t="s" s="5">
         <v>326</v>
       </c>
       <c r="C157" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D157" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="D157" s="6">
+        <v>0.666666666666667</v>
+      </c>
       <c r="E157" s="6"/>
       <c r="F157" s="6"/>
       <c r="G157" s="6"/>
       <c r="H157" s="6">
-        <v>0.555555555555556</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="I157" s="6"/>
-      <c r="J157" s="7"/>
+      <c r="J157" s="11"/>
     </row>
     <row r="158" ht="21" customHeight="1">
-      <c r="A158" t="s" s="9">
+      <c r="A158" t="s" s="5">
         <v>327</v>
       </c>
-      <c r="B158" t="s" s="9">
+      <c r="B158" t="s" s="5">
         <v>328</v>
       </c>
-      <c r="C158" t="s" s="10">
-        <v>15</v>
-      </c>
-      <c r="D158" s="6">
-        <v>0.80952380952381</v>
-      </c>
+      <c r="C158" t="s" s="5">
+        <v>18</v>
+      </c>
+      <c r="D158" s="6"/>
       <c r="E158" s="6"/>
       <c r="F158" s="6"/>
       <c r="G158" s="6"/>
       <c r="H158" s="6">
-        <v>0</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I158" s="6"/>
-      <c r="J158" s="12"/>
+      <c r="J158" s="7"/>
     </row>
     <row r="159" ht="21" customHeight="1">
-      <c r="A159" t="s" s="5">
+      <c r="A159" t="s" s="4">
         <v>329</v>
       </c>
-      <c r="B159" t="s" s="5">
+      <c r="B159" t="s" s="4">
         <v>330</v>
       </c>
-      <c r="C159" t="s" s="5">
-        <v>46</v>
-      </c>
-      <c r="D159" s="6">
-        <v>0.571428571428571</v>
-      </c>
+      <c r="C159" s="12"/>
+      <c r="D159" s="6"/>
       <c r="E159" s="6"/>
       <c r="F159" s="6"/>
       <c r="G159" s="6"/>
-      <c r="H159" s="6"/>
+      <c r="H159" s="6">
+        <v>0.75</v>
+      </c>
       <c r="I159" s="6"/>
-      <c r="J159" s="14"/>
+      <c r="J159" s="9"/>
     </row>
     <row r="160" ht="21" customHeight="1">
-      <c r="A160" t="s" s="4">
+      <c r="A160" t="s" s="23">
         <v>331</v>
       </c>
-      <c r="B160" t="s" s="4">
+      <c r="B160" t="s" s="23">
         <v>332</v>
       </c>
       <c r="C160" t="s" s="5">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="D160" s="6">
-        <v>0.833333333333333</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="E160" s="6"/>
       <c r="F160" s="6"/>
       <c r="G160" s="6"/>
-      <c r="H160" s="6"/>
+      <c r="H160" s="6">
+        <v>0.861111111111111</v>
+      </c>
       <c r="I160" s="6"/>
-      <c r="J160" s="12"/>
+      <c r="J160" s="10"/>
     </row>
     <row r="161" ht="21" customHeight="1">
       <c r="A161" t="s" s="8">
@@ -5829,15 +6259,17 @@
       <c r="C161" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="D161" s="6"/>
+      <c r="D161" s="6">
+        <v>0.80952380952381</v>
+      </c>
       <c r="E161" s="6"/>
       <c r="F161" s="6"/>
       <c r="G161" s="6"/>
       <c r="H161" s="6">
-        <v>0.722222222222222</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I161" s="6"/>
-      <c r="J161" s="14"/>
+      <c r="J161" s="11"/>
     </row>
     <row r="162" ht="21" customHeight="1">
       <c r="A162" t="s" s="5">
@@ -5847,19 +6279,19 @@
         <v>336</v>
       </c>
       <c r="C162" t="s" s="5">
-        <v>69</v>
-      </c>
-      <c r="D162" s="6">
-        <v>0.5</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D162" s="6"/>
       <c r="E162" s="6"/>
       <c r="F162" s="6"/>
       <c r="G162" s="6"/>
-      <c r="H162" s="6"/>
+      <c r="H162" s="6">
+        <v>0.722222222222222</v>
+      </c>
       <c r="I162" s="6"/>
-      <c r="J162" s="7"/>
-    </row>
-    <row r="163" ht="21" customHeight="1">
+      <c r="J162" s="9"/>
+    </row>
+    <row r="163" ht="20.35" customHeight="1">
       <c r="A163" t="s" s="5">
         <v>337</v>
       </c>
@@ -5867,81 +6299,79 @@
         <v>338</v>
       </c>
       <c r="C163" t="s" s="5">
-        <v>46</v>
-      </c>
-      <c r="D163" s="6">
-        <v>0.642857142857143</v>
-      </c>
-      <c r="E163" s="6"/>
-      <c r="F163" s="6"/>
-      <c r="G163" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="D163" s="12"/>
+      <c r="E163" s="12"/>
+      <c r="F163" s="12"/>
+      <c r="G163" s="12"/>
       <c r="H163" s="6">
-        <v>0.388888888888889</v>
-      </c>
-      <c r="I163" s="6"/>
-      <c r="J163" s="12"/>
+        <v>0.777777777777778</v>
+      </c>
+      <c r="I163" s="12"/>
+      <c r="J163" s="14"/>
     </row>
     <row r="164" ht="21" customHeight="1">
-      <c r="A164" t="s" s="5">
+      <c r="A164" t="s" s="4">
         <v>339</v>
       </c>
-      <c r="B164" t="s" s="5">
+      <c r="B164" t="s" s="4">
         <v>340</v>
       </c>
       <c r="C164" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D164" s="6">
-        <v>0.666666666666667</v>
-      </c>
+      <c r="D164" s="6"/>
       <c r="E164" s="6"/>
       <c r="F164" s="6"/>
       <c r="G164" s="6"/>
-      <c r="H164" s="6"/>
+      <c r="H164" s="6">
+        <v>0.777777777777778</v>
+      </c>
       <c r="I164" s="6"/>
-      <c r="J164" s="14"/>
+      <c r="J164" s="9"/>
     </row>
     <row r="165" ht="21" customHeight="1">
-      <c r="A165" t="s" s="5">
+      <c r="A165" t="s" s="23">
         <v>341</v>
       </c>
-      <c r="B165" t="s" s="5">
+      <c r="B165" t="s" s="23">
         <v>342</v>
       </c>
       <c r="C165" t="s" s="5">
         <v>18</v>
       </c>
       <c r="D165" s="6">
-        <v>0.595238095238095</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="E165" s="6"/>
       <c r="F165" s="6"/>
       <c r="G165" s="6"/>
       <c r="H165" s="6">
-        <v>0.416666666666667</v>
+        <v>0.805555555555556</v>
       </c>
       <c r="I165" s="6"/>
-      <c r="J165" s="7"/>
+      <c r="J165" s="11"/>
     </row>
     <row r="166" ht="21" customHeight="1">
-      <c r="A166" t="s" s="5">
+      <c r="A166" t="s" s="8">
         <v>343</v>
       </c>
-      <c r="B166" t="s" s="5">
+      <c r="B166" t="s" s="8">
         <v>344</v>
       </c>
       <c r="C166" t="s" s="5">
-        <v>46</v>
-      </c>
-      <c r="D166" s="6">
-        <v>0.547619047619048</v>
-      </c>
-      <c r="E166" s="6"/>
-      <c r="F166" s="6"/>
-      <c r="G166" s="6"/>
-      <c r="H166" s="6"/>
-      <c r="I166" s="6"/>
-      <c r="J166" s="12"/>
+        <v>12</v>
+      </c>
+      <c r="D166" s="12"/>
+      <c r="E166" s="12"/>
+      <c r="F166" s="12"/>
+      <c r="G166" s="12"/>
+      <c r="H166" s="6">
+        <v>0.638888888888889</v>
+      </c>
+      <c r="I166" s="12"/>
+      <c r="J166" s="7"/>
     </row>
     <row r="167" ht="21" customHeight="1">
       <c r="A167" t="s" s="5">
@@ -5950,20 +6380,16 @@
       <c r="B167" t="s" s="5">
         <v>346</v>
       </c>
-      <c r="C167" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D167" s="6">
-        <v>0.761904761904762</v>
-      </c>
+      <c r="C167" s="12"/>
+      <c r="D167" s="6"/>
       <c r="E167" s="6"/>
       <c r="F167" s="6"/>
       <c r="G167" s="6"/>
       <c r="H167" s="6">
-        <v>0.861111111111111</v>
+        <v>0.75</v>
       </c>
       <c r="I167" s="6"/>
-      <c r="J167" s="14"/>
+      <c r="J167" s="7"/>
     </row>
     <row r="168" ht="21" customHeight="1">
       <c r="A168" t="s" s="4">
@@ -5973,59 +6399,59 @@
         <v>348</v>
       </c>
       <c r="C168" t="s" s="5">
-        <v>69</v>
-      </c>
-      <c r="D168" s="6">
-        <v>0.571428571428571</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D168" s="6"/>
       <c r="E168" s="6"/>
       <c r="F168" s="6"/>
       <c r="G168" s="6"/>
-      <c r="H168" s="6"/>
+      <c r="H168" s="6">
+        <v>0.305555555555556</v>
+      </c>
       <c r="I168" s="6"/>
-      <c r="J168" s="12"/>
+      <c r="J168" s="9"/>
     </row>
     <row r="169" ht="21" customHeight="1">
-      <c r="A169" t="s" s="23">
+      <c r="A169" t="s" s="15">
         <v>349</v>
       </c>
-      <c r="B169" t="s" s="23">
+      <c r="B169" t="s" s="15">
         <v>350</v>
       </c>
-      <c r="C169" t="s" s="5">
-        <v>21</v>
+      <c r="C169" t="s" s="16">
+        <v>36</v>
       </c>
       <c r="D169" s="6"/>
       <c r="E169" s="6"/>
       <c r="F169" s="6"/>
       <c r="G169" s="6"/>
       <c r="H169" s="6">
-        <v>0.777777777777778</v>
+        <v>0.805555555555556</v>
       </c>
       <c r="I169" s="6"/>
-      <c r="J169" s="14"/>
+      <c r="J169" s="10"/>
     </row>
     <row r="170" ht="21" customHeight="1">
-      <c r="A170" t="s" s="9">
+      <c r="A170" t="s" s="8">
         <v>351</v>
       </c>
-      <c r="B170" t="s" s="9">
+      <c r="B170" t="s" s="8">
         <v>352</v>
       </c>
-      <c r="C170" t="s" s="10">
-        <v>18</v>
+      <c r="C170" t="s" s="5">
+        <v>67</v>
       </c>
       <c r="D170" s="6">
-        <v>0.285714285714286</v>
+        <v>0.694444444444444</v>
       </c>
       <c r="E170" s="6"/>
       <c r="F170" s="6"/>
       <c r="G170" s="6"/>
       <c r="H170" s="6">
-        <v>0.805555555555556</v>
+        <v>0</v>
       </c>
       <c r="I170" s="6"/>
-      <c r="J170" s="7"/>
+      <c r="J170" s="11"/>
     </row>
     <row r="171" ht="21" customHeight="1">
       <c r="A171" t="s" s="5">
@@ -6037,760 +6463,1304 @@
       <c r="C171" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="D171" s="6">
-        <v>0.30952380952381</v>
-      </c>
+      <c r="D171" s="6"/>
       <c r="E171" s="6"/>
       <c r="F171" s="6"/>
       <c r="G171" s="6"/>
-      <c r="H171" s="6"/>
+      <c r="H171" s="6">
+        <v>0.777777777777778</v>
+      </c>
       <c r="I171" s="6"/>
-      <c r="J171" s="7"/>
-    </row>
-    <row r="172" ht="21" customHeight="1">
-      <c r="A172" t="s" s="5">
+      <c r="J171" s="9"/>
+    </row>
+    <row r="172" ht="20.7" customHeight="1">
+      <c r="A172" t="s" s="4">
         <v>355</v>
       </c>
-      <c r="B172" t="s" s="5">
+      <c r="B172" t="s" s="4">
         <v>356</v>
       </c>
       <c r="C172" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D172" s="25">
+        <v>0.738095238095238</v>
+      </c>
+      <c r="E172" s="12"/>
+      <c r="F172" s="12"/>
+      <c r="G172" s="12"/>
+      <c r="H172" s="6">
+        <v>0.777777777777778</v>
+      </c>
+      <c r="I172" s="12"/>
+      <c r="J172" s="14"/>
+    </row>
+    <row r="173" ht="21" customHeight="1">
+      <c r="A173" t="s" s="17">
+        <v>357</v>
+      </c>
+      <c r="B173" t="s" s="17">
+        <v>358</v>
+      </c>
+      <c r="C173" t="s" s="16">
         <v>18</v>
       </c>
-      <c r="D172" s="6"/>
-      <c r="E172" s="6"/>
-      <c r="F172" s="6"/>
-      <c r="G172" s="6"/>
-      <c r="H172" s="6">
-        <v>0.861111111111111</v>
-      </c>
-      <c r="I172" s="6"/>
-      <c r="J172" s="7"/>
-    </row>
-    <row r="173" ht="21" customHeight="1">
-      <c r="A173" s="19"/>
-      <c r="B173" s="19"/>
-      <c r="C173" s="19"/>
-      <c r="D173" s="6"/>
+      <c r="D173" s="6">
+        <v>0.952380952380952</v>
+      </c>
       <c r="E173" s="6"/>
       <c r="F173" s="6"/>
       <c r="G173" s="6"/>
-      <c r="H173" s="6"/>
+      <c r="H173" s="6">
+        <v>0.777777777777778</v>
+      </c>
       <c r="I173" s="6"/>
       <c r="J173" s="7"/>
     </row>
     <row r="174" ht="21" customHeight="1">
-      <c r="A174" s="19"/>
-      <c r="B174" s="19"/>
-      <c r="C174" s="19"/>
-      <c r="D174" s="6"/>
+      <c r="A174" t="s" s="5">
+        <v>359</v>
+      </c>
+      <c r="B174" t="s" s="5">
+        <v>360</v>
+      </c>
+      <c r="C174" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D174" s="6">
+        <v>0.571428571428571</v>
+      </c>
       <c r="E174" s="6"/>
       <c r="F174" s="6"/>
       <c r="G174" s="6"/>
-      <c r="H174" s="6"/>
+      <c r="H174" s="6">
+        <v>0.722222222222222</v>
+      </c>
       <c r="I174" s="6"/>
       <c r="J174" s="7"/>
     </row>
     <row r="175" ht="21" customHeight="1">
-      <c r="A175" s="19"/>
-      <c r="B175" s="19"/>
-      <c r="C175" s="19"/>
-      <c r="D175" s="6"/>
+      <c r="A175" t="s" s="5">
+        <v>361</v>
+      </c>
+      <c r="B175" t="s" s="5">
+        <v>362</v>
+      </c>
+      <c r="C175" t="s" s="5">
+        <v>15</v>
+      </c>
+      <c r="D175" s="6">
+        <v>0.357142857142857</v>
+      </c>
       <c r="E175" s="6"/>
       <c r="F175" s="6"/>
       <c r="G175" s="6"/>
-      <c r="H175" s="6"/>
+      <c r="H175" s="6">
+        <v>0</v>
+      </c>
       <c r="I175" s="6"/>
-      <c r="J175" s="12"/>
+      <c r="J175" s="7"/>
     </row>
     <row r="176" ht="21" customHeight="1">
-      <c r="A176" s="19"/>
-      <c r="B176" s="19"/>
-      <c r="C176" s="19"/>
+      <c r="A176" t="s" s="4">
+        <v>361</v>
+      </c>
+      <c r="B176" t="s" s="4">
+        <v>363</v>
+      </c>
+      <c r="C176" s="12"/>
       <c r="D176" s="6"/>
       <c r="E176" s="6"/>
       <c r="F176" s="6"/>
       <c r="G176" s="6"/>
-      <c r="H176" s="6"/>
+      <c r="H176" s="6">
+        <v>0.638888888888889</v>
+      </c>
       <c r="I176" s="6"/>
-      <c r="J176" s="14"/>
+      <c r="J176" s="9"/>
     </row>
     <row r="177" ht="21" customHeight="1">
-      <c r="A177" s="19"/>
-      <c r="B177" s="19"/>
-      <c r="C177" s="19"/>
-      <c r="D177" s="6"/>
+      <c r="A177" t="s" s="23">
+        <v>364</v>
+      </c>
+      <c r="B177" t="s" s="23">
+        <v>365</v>
+      </c>
+      <c r="C177" t="s" s="5">
+        <v>36</v>
+      </c>
+      <c r="D177" s="6">
+        <v>0.761904761904762</v>
+      </c>
       <c r="E177" s="6"/>
       <c r="F177" s="6"/>
       <c r="G177" s="6"/>
-      <c r="H177" s="6"/>
+      <c r="H177" s="6">
+        <v>0.888888888888889</v>
+      </c>
       <c r="I177" s="6"/>
-      <c r="J177" s="7"/>
+      <c r="J177" s="10"/>
     </row>
     <row r="178" ht="21" customHeight="1">
-      <c r="A178" s="19"/>
-      <c r="B178" s="19"/>
-      <c r="C178" s="19"/>
+      <c r="A178" t="s" s="8">
+        <v>366</v>
+      </c>
+      <c r="B178" t="s" s="8">
+        <v>367</v>
+      </c>
+      <c r="C178" t="s" s="5">
+        <v>21</v>
+      </c>
       <c r="D178" s="6"/>
       <c r="E178" s="6"/>
       <c r="F178" s="6"/>
       <c r="G178" s="6"/>
-      <c r="H178" s="6"/>
+      <c r="H178" s="6">
+        <v>0.75</v>
+      </c>
       <c r="I178" s="6"/>
-      <c r="J178" s="7"/>
-    </row>
-    <row r="179" ht="21" customHeight="1">
-      <c r="A179" s="19"/>
-      <c r="B179" s="19"/>
-      <c r="C179" s="19"/>
-      <c r="D179" s="6"/>
-      <c r="E179" s="6"/>
-      <c r="F179" s="6"/>
-      <c r="G179" s="6"/>
-      <c r="H179" s="6"/>
-      <c r="I179" s="6"/>
-      <c r="J179" s="7"/>
+      <c r="J178" s="10"/>
+    </row>
+    <row r="179" ht="20.7" customHeight="1">
+      <c r="A179" t="s" s="5">
+        <v>368</v>
+      </c>
+      <c r="B179" t="s" s="5">
+        <v>369</v>
+      </c>
+      <c r="C179" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="D179" s="12"/>
+      <c r="E179" s="12"/>
+      <c r="F179" s="12"/>
+      <c r="G179" s="12"/>
+      <c r="H179" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="I179" s="12"/>
+      <c r="J179" s="14"/>
     </row>
     <row r="180" ht="21" customHeight="1">
-      <c r="A180" s="19"/>
-      <c r="B180" s="19"/>
-      <c r="C180" s="19"/>
+      <c r="A180" t="s" s="4">
+        <v>370</v>
+      </c>
+      <c r="B180" t="s" s="4">
+        <v>371</v>
+      </c>
+      <c r="C180" t="s" s="5">
+        <v>12</v>
+      </c>
       <c r="D180" s="6"/>
       <c r="E180" s="6"/>
       <c r="F180" s="6"/>
       <c r="G180" s="6"/>
-      <c r="H180" s="6"/>
+      <c r="H180" s="6">
+        <v>0.861111111111111</v>
+      </c>
       <c r="I180" s="6"/>
       <c r="J180" s="7"/>
     </row>
     <row r="181" ht="21" customHeight="1">
-      <c r="A181" s="19"/>
-      <c r="B181" s="19"/>
-      <c r="C181" s="19"/>
+      <c r="A181" t="s" s="17">
+        <v>372</v>
+      </c>
+      <c r="B181" t="s" s="17">
+        <v>373</v>
+      </c>
+      <c r="C181" t="s" s="16">
+        <v>18</v>
+      </c>
       <c r="D181" s="6"/>
       <c r="E181" s="6"/>
       <c r="F181" s="6"/>
       <c r="G181" s="6"/>
-      <c r="H181" s="6"/>
+      <c r="H181" s="6">
+        <v>0.805555555555556</v>
+      </c>
       <c r="I181" s="6"/>
       <c r="J181" s="7"/>
     </row>
     <row r="182" ht="21" customHeight="1">
-      <c r="A182" s="19"/>
-      <c r="B182" s="19"/>
-      <c r="C182" s="19"/>
-      <c r="D182" s="6"/>
+      <c r="A182" t="s" s="4">
+        <v>374</v>
+      </c>
+      <c r="B182" t="s" s="4">
+        <v>375</v>
+      </c>
+      <c r="C182" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="D182" s="6">
+        <v>0.904761904761905</v>
+      </c>
       <c r="E182" s="6"/>
       <c r="F182" s="6"/>
       <c r="G182" s="6"/>
-      <c r="H182" s="6"/>
+      <c r="H182" s="6">
+        <v>0.75</v>
+      </c>
       <c r="I182" s="6"/>
-      <c r="J182" s="12"/>
+      <c r="J182" s="7"/>
     </row>
     <row r="183" ht="21" customHeight="1">
-      <c r="A183" s="26"/>
-      <c r="B183" s="26"/>
-      <c r="C183" s="19"/>
-      <c r="D183" s="6"/>
+      <c r="A183" t="s" s="17">
+        <v>376</v>
+      </c>
+      <c r="B183" t="s" s="17">
+        <v>377</v>
+      </c>
+      <c r="C183" t="s" s="16">
+        <v>21</v>
+      </c>
+      <c r="D183" s="6">
+        <v>0.861111111111111</v>
+      </c>
       <c r="E183" s="6"/>
       <c r="F183" s="6"/>
       <c r="G183" s="6"/>
-      <c r="H183" s="6"/>
+      <c r="H183" s="6">
+        <v>0.722222222222222</v>
+      </c>
       <c r="I183" s="6"/>
-      <c r="J183" s="14"/>
-    </row>
-    <row r="184" ht="21" customHeight="1">
-      <c r="A184" s="27"/>
-      <c r="B184" s="27"/>
-      <c r="C184" s="24"/>
-      <c r="D184" s="6"/>
-      <c r="E184" s="6"/>
-      <c r="F184" s="6"/>
-      <c r="G184" s="6"/>
-      <c r="H184" s="6"/>
-      <c r="I184" s="6"/>
-      <c r="J184" s="7"/>
+      <c r="J183" s="9"/>
+    </row>
+    <row r="184" ht="20.7" customHeight="1">
+      <c r="A184" t="s" s="5">
+        <v>378</v>
+      </c>
+      <c r="B184" t="s" s="5">
+        <v>379</v>
+      </c>
+      <c r="C184" t="s" s="5">
+        <v>67</v>
+      </c>
+      <c r="D184" s="25">
+        <v>0.69047619047619</v>
+      </c>
+      <c r="E184" s="12"/>
+      <c r="F184" s="12"/>
+      <c r="G184" s="12"/>
+      <c r="H184" s="6">
+        <v>0.722222222222222</v>
+      </c>
+      <c r="I184" s="12"/>
+      <c r="J184" s="14"/>
     </row>
     <row r="185" ht="21" customHeight="1">
-      <c r="A185" s="28"/>
-      <c r="B185" s="28"/>
-      <c r="C185" s="19"/>
-      <c r="D185" s="6"/>
+      <c r="A185" t="s" s="4">
+        <v>380</v>
+      </c>
+      <c r="B185" t="s" s="4">
+        <v>381</v>
+      </c>
+      <c r="C185" t="s" s="5">
+        <v>67</v>
+      </c>
+      <c r="D185" s="6">
+        <v>0.619047619047619</v>
+      </c>
       <c r="E185" s="6"/>
       <c r="F185" s="6"/>
       <c r="G185" s="6"/>
-      <c r="H185" s="6"/>
+      <c r="H185" s="6">
+        <v>0.722222222222222</v>
+      </c>
       <c r="I185" s="6"/>
-      <c r="J185" s="12"/>
+      <c r="J185" s="7"/>
     </row>
     <row r="186" ht="21" customHeight="1">
-      <c r="A186" s="19"/>
-      <c r="B186" s="19"/>
-      <c r="C186" s="19"/>
-      <c r="D186" s="6"/>
+      <c r="A186" t="s" s="17">
+        <v>382</v>
+      </c>
+      <c r="B186" t="s" s="17">
+        <v>383</v>
+      </c>
+      <c r="C186" t="s" s="16">
+        <v>36</v>
+      </c>
+      <c r="D186" s="6">
+        <v>0.571428571428571</v>
+      </c>
       <c r="E186" s="6"/>
       <c r="F186" s="6"/>
       <c r="G186" s="6"/>
-      <c r="H186" s="6"/>
+      <c r="H186" s="6">
+        <v>0.666666666666667</v>
+      </c>
       <c r="I186" s="6"/>
-      <c r="J186" s="14"/>
+      <c r="J186" s="7"/>
     </row>
     <row r="187" ht="21" customHeight="1">
-      <c r="A187" s="19"/>
-      <c r="B187" s="19"/>
-      <c r="C187" s="19"/>
+      <c r="A187" t="s" s="5">
+        <v>384</v>
+      </c>
+      <c r="B187" t="s" s="5">
+        <v>385</v>
+      </c>
+      <c r="C187" t="s" s="5">
+        <v>21</v>
+      </c>
       <c r="D187" s="6"/>
       <c r="E187" s="6"/>
       <c r="F187" s="6"/>
       <c r="G187" s="6"/>
-      <c r="H187" s="6"/>
+      <c r="H187" s="6">
+        <v>0.75</v>
+      </c>
       <c r="I187" s="6"/>
-      <c r="J187" s="12"/>
+      <c r="J187" s="7"/>
     </row>
     <row r="188" ht="21" customHeight="1">
-      <c r="A188" s="19"/>
-      <c r="B188" s="19"/>
-      <c r="C188" s="19"/>
-      <c r="D188" s="6"/>
+      <c r="A188" t="s" s="4">
+        <v>386</v>
+      </c>
+      <c r="B188" t="s" s="4">
+        <v>387</v>
+      </c>
+      <c r="C188" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D188" s="6">
+        <v>0.857142857142857</v>
+      </c>
       <c r="E188" s="6"/>
       <c r="F188" s="6"/>
       <c r="G188" s="6"/>
-      <c r="H188" s="6"/>
+      <c r="H188" s="6">
+        <v>0.805555555555556</v>
+      </c>
       <c r="I188" s="6"/>
-      <c r="J188" s="13"/>
-    </row>
-    <row r="189" ht="20.7" customHeight="1">
-      <c r="A189" s="19"/>
-      <c r="B189" s="19"/>
-      <c r="C189" s="19"/>
-      <c r="D189" s="19"/>
-      <c r="E189" s="19"/>
-      <c r="F189" s="19"/>
-      <c r="G189" s="19"/>
-      <c r="H189" s="6"/>
-      <c r="I189" s="19"/>
-      <c r="J189" s="22"/>
+      <c r="J188" s="7"/>
+    </row>
+    <row r="189" ht="21" customHeight="1">
+      <c r="A189" t="s" s="15">
+        <v>388</v>
+      </c>
+      <c r="B189" t="s" s="15">
+        <v>389</v>
+      </c>
+      <c r="C189" t="s" s="16">
+        <v>12</v>
+      </c>
+      <c r="D189" s="6"/>
+      <c r="E189" s="6"/>
+      <c r="F189" s="6"/>
+      <c r="G189" s="6"/>
+      <c r="H189" s="6">
+        <v>0.861111111111111</v>
+      </c>
+      <c r="I189" s="6"/>
+      <c r="J189" s="9"/>
     </row>
     <row r="190" ht="21" customHeight="1">
-      <c r="A190" s="19"/>
-      <c r="B190" s="19"/>
-      <c r="C190" s="19"/>
+      <c r="A190" t="s" s="17">
+        <v>390</v>
+      </c>
+      <c r="B190" t="s" s="17">
+        <v>391</v>
+      </c>
+      <c r="C190" t="s" s="16">
+        <v>21</v>
+      </c>
       <c r="D190" s="6"/>
       <c r="E190" s="6"/>
       <c r="F190" s="6"/>
       <c r="G190" s="6"/>
-      <c r="H190" s="6"/>
+      <c r="H190" s="6">
+        <v>0.75</v>
+      </c>
       <c r="I190" s="6"/>
-      <c r="J190" s="12"/>
-    </row>
-    <row r="191" ht="20.7" customHeight="1">
-      <c r="A191" s="19"/>
-      <c r="B191" s="19"/>
-      <c r="C191" s="19"/>
-      <c r="D191" s="19"/>
-      <c r="E191" s="19"/>
-      <c r="F191" s="19"/>
-      <c r="G191" s="19"/>
-      <c r="H191" s="6"/>
-      <c r="I191" s="19"/>
-      <c r="J191" s="22"/>
+      <c r="J190" s="11"/>
+    </row>
+    <row r="191" ht="21" customHeight="1">
+      <c r="A191" t="s" s="5">
+        <v>392</v>
+      </c>
+      <c r="B191" t="s" s="5">
+        <v>393</v>
+      </c>
+      <c r="C191" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="D191" s="6"/>
+      <c r="E191" s="6"/>
+      <c r="F191" s="6"/>
+      <c r="G191" s="6"/>
+      <c r="H191" s="6">
+        <v>0</v>
+      </c>
+      <c r="I191" s="6"/>
+      <c r="J191" s="7"/>
     </row>
     <row r="192" ht="21" customHeight="1">
-      <c r="A192" s="19"/>
-      <c r="B192" s="19"/>
-      <c r="C192" s="19"/>
-      <c r="D192" s="6"/>
+      <c r="A192" t="s" s="5">
+        <v>394</v>
+      </c>
+      <c r="B192" t="s" s="5">
+        <v>395</v>
+      </c>
+      <c r="C192" t="s" s="5">
+        <v>36</v>
+      </c>
+      <c r="D192" s="6">
+        <v>0.785714285714286</v>
+      </c>
       <c r="E192" s="6"/>
       <c r="F192" s="6"/>
       <c r="G192" s="6"/>
-      <c r="H192" s="6"/>
+      <c r="H192" s="6">
+        <v>0.777777777777778</v>
+      </c>
       <c r="I192" s="6"/>
       <c r="J192" s="7"/>
     </row>
     <row r="193" ht="21" customHeight="1">
-      <c r="A193" s="19"/>
-      <c r="B193" s="19"/>
-      <c r="C193" s="19"/>
-      <c r="D193" s="6"/>
+      <c r="A193" t="s" s="5">
+        <v>396</v>
+      </c>
+      <c r="B193" t="s" s="5">
+        <v>397</v>
+      </c>
+      <c r="C193" t="s" s="5">
+        <v>36</v>
+      </c>
+      <c r="D193" s="6">
+        <v>1</v>
+      </c>
       <c r="E193" s="6"/>
       <c r="F193" s="6"/>
       <c r="G193" s="6"/>
-      <c r="H193" s="6"/>
+      <c r="H193" s="6">
+        <v>0.777777777777778</v>
+      </c>
       <c r="I193" s="6"/>
       <c r="J193" s="7"/>
     </row>
     <row r="194" ht="21" customHeight="1">
-      <c r="A194" s="19"/>
-      <c r="B194" s="19"/>
-      <c r="C194" s="19"/>
-      <c r="D194" s="6"/>
+      <c r="A194" t="s" s="4">
+        <v>398</v>
+      </c>
+      <c r="B194" t="s" s="4">
+        <v>115</v>
+      </c>
+      <c r="C194" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D194" s="6">
+        <v>0.785714285714286</v>
+      </c>
       <c r="E194" s="6"/>
       <c r="F194" s="6"/>
       <c r="G194" s="6"/>
-      <c r="H194" s="6"/>
+      <c r="H194" s="6">
+        <v>0</v>
+      </c>
       <c r="I194" s="6"/>
       <c r="J194" s="7"/>
     </row>
     <row r="195" ht="21" customHeight="1">
-      <c r="A195" s="19"/>
-      <c r="B195" s="19"/>
-      <c r="C195" s="19"/>
-      <c r="D195" s="6"/>
+      <c r="A195" t="s" s="17">
+        <v>399</v>
+      </c>
+      <c r="B195" t="s" s="17">
+        <v>400</v>
+      </c>
+      <c r="C195" t="s" s="16">
+        <v>67</v>
+      </c>
+      <c r="D195" s="6">
+        <v>0.738095238095238</v>
+      </c>
       <c r="E195" s="6"/>
       <c r="F195" s="6"/>
       <c r="G195" s="6"/>
-      <c r="H195" s="6"/>
+      <c r="H195" s="6">
+        <v>0.388888888888889</v>
+      </c>
       <c r="I195" s="6"/>
       <c r="J195" s="7"/>
     </row>
     <row r="196" ht="21" customHeight="1">
-      <c r="A196" s="19"/>
-      <c r="B196" s="19"/>
-      <c r="C196" s="19"/>
-      <c r="D196" s="6"/>
+      <c r="A196" t="s" s="5">
+        <v>401</v>
+      </c>
+      <c r="B196" t="s" s="5">
+        <v>402</v>
+      </c>
+      <c r="C196" t="s" s="5">
+        <v>36</v>
+      </c>
+      <c r="D196" s="6">
+        <v>0.785714285714286</v>
+      </c>
       <c r="E196" s="6"/>
       <c r="F196" s="6"/>
       <c r="G196" s="6"/>
-      <c r="H196" s="6"/>
+      <c r="H196" s="6">
+        <v>0.777777777777778</v>
+      </c>
       <c r="I196" s="6"/>
-      <c r="J196" s="7"/>
-    </row>
-    <row r="197" ht="21" customHeight="1">
-      <c r="A197" s="19"/>
-      <c r="B197" s="19"/>
-      <c r="C197" s="19"/>
-      <c r="D197" s="6"/>
-      <c r="E197" s="6"/>
-      <c r="F197" s="6"/>
-      <c r="G197" s="6"/>
-      <c r="H197" s="6"/>
-      <c r="I197" s="6"/>
-      <c r="J197" s="12"/>
+      <c r="J196" s="9"/>
+    </row>
+    <row r="197" ht="20.7" customHeight="1">
+      <c r="A197" t="s" s="4">
+        <v>403</v>
+      </c>
+      <c r="B197" t="s" s="4">
+        <v>404</v>
+      </c>
+      <c r="C197" t="s" s="5">
+        <v>36</v>
+      </c>
+      <c r="D197" s="22">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E197" s="12"/>
+      <c r="F197" s="12"/>
+      <c r="G197" s="12"/>
+      <c r="H197" s="6">
+        <v>0.888888888888889</v>
+      </c>
+      <c r="I197" s="12"/>
+      <c r="J197" s="13"/>
     </row>
     <row r="198" ht="21" customHeight="1">
-      <c r="A198" s="19"/>
-      <c r="B198" s="19"/>
-      <c r="C198" s="19"/>
+      <c r="A198" t="s" s="23">
+        <v>405</v>
+      </c>
+      <c r="B198" t="s" s="23">
+        <v>406</v>
+      </c>
+      <c r="C198" t="s" s="5">
+        <v>36</v>
+      </c>
       <c r="D198" s="6"/>
       <c r="E198" s="6"/>
       <c r="F198" s="6"/>
       <c r="G198" s="6"/>
-      <c r="H198" s="6"/>
+      <c r="H198" s="6">
+        <v>0.75</v>
+      </c>
       <c r="I198" s="6"/>
-      <c r="J198" s="14"/>
+      <c r="J198" s="10"/>
     </row>
     <row r="199" ht="21" customHeight="1">
-      <c r="A199" s="26"/>
-      <c r="B199" s="26"/>
-      <c r="C199" s="19"/>
+      <c r="A199" t="s" s="8">
+        <v>407</v>
+      </c>
+      <c r="B199" t="s" s="8">
+        <v>408</v>
+      </c>
+      <c r="C199" t="s" s="5">
+        <v>15</v>
+      </c>
       <c r="D199" s="6"/>
       <c r="E199" s="6"/>
       <c r="F199" s="6"/>
       <c r="G199" s="6"/>
-      <c r="H199" s="6"/>
+      <c r="H199" s="6">
+        <v>0</v>
+      </c>
       <c r="I199" s="6"/>
-      <c r="J199" s="7"/>
+      <c r="J199" s="11"/>
     </row>
     <row r="200" ht="21" customHeight="1">
-      <c r="A200" s="27"/>
-      <c r="B200" s="27"/>
-      <c r="C200" s="24"/>
-      <c r="D200" s="6"/>
+      <c r="A200" t="s" s="5">
+        <v>409</v>
+      </c>
+      <c r="B200" t="s" s="5">
+        <v>410</v>
+      </c>
+      <c r="C200" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="D200" s="6">
+        <v>0.880952380952381</v>
+      </c>
       <c r="E200" s="6"/>
       <c r="F200" s="6"/>
       <c r="G200" s="6"/>
-      <c r="H200" s="6"/>
+      <c r="H200" s="6">
+        <v>0.722222222222222</v>
+      </c>
       <c r="I200" s="6"/>
-      <c r="J200" s="12"/>
+      <c r="J200" s="7"/>
     </row>
     <row r="201" ht="21" customHeight="1">
-      <c r="A201" s="28"/>
-      <c r="B201" s="28"/>
-      <c r="C201" s="19"/>
-      <c r="D201" s="6"/>
+      <c r="A201" t="s" s="5">
+        <v>411</v>
+      </c>
+      <c r="B201" t="s" s="5">
+        <v>412</v>
+      </c>
+      <c r="C201" t="s" s="5">
+        <v>67</v>
+      </c>
+      <c r="D201" s="6">
+        <v>0.714285714285714</v>
+      </c>
       <c r="E201" s="6"/>
       <c r="F201" s="6"/>
       <c r="G201" s="6"/>
-      <c r="H201" s="6"/>
+      <c r="H201" s="6">
+        <v>0</v>
+      </c>
       <c r="I201" s="6"/>
-      <c r="J201" s="14"/>
+      <c r="J201" s="7"/>
     </row>
     <row r="202" ht="21" customHeight="1">
-      <c r="A202" s="19"/>
-      <c r="B202" s="19"/>
-      <c r="C202" s="19"/>
+      <c r="A202" t="s" s="5">
+        <v>413</v>
+      </c>
+      <c r="B202" t="s" s="5">
+        <v>414</v>
+      </c>
+      <c r="C202" t="s" s="5">
+        <v>12</v>
+      </c>
       <c r="D202" s="6"/>
       <c r="E202" s="6"/>
       <c r="F202" s="6"/>
       <c r="G202" s="6"/>
-      <c r="H202" s="6"/>
+      <c r="H202" s="6">
+        <v>0.75</v>
+      </c>
       <c r="I202" s="6"/>
       <c r="J202" s="7"/>
     </row>
     <row r="203" ht="21" customHeight="1">
-      <c r="A203" s="19"/>
-      <c r="B203" s="19"/>
-      <c r="C203" s="19"/>
+      <c r="A203" t="s" s="5">
+        <v>415</v>
+      </c>
+      <c r="B203" t="s" s="5">
+        <v>416</v>
+      </c>
+      <c r="C203" t="s" s="5">
+        <v>36</v>
+      </c>
       <c r="D203" s="6"/>
       <c r="E203" s="6"/>
       <c r="F203" s="6"/>
       <c r="G203" s="6"/>
-      <c r="H203" s="6"/>
+      <c r="H203" s="6">
+        <v>0.805555555555556</v>
+      </c>
       <c r="I203" s="6"/>
-      <c r="J203" s="7"/>
+      <c r="J203" s="9"/>
     </row>
     <row r="204" ht="21" customHeight="1">
-      <c r="A204" s="19"/>
-      <c r="B204" s="19"/>
-      <c r="C204" s="19"/>
+      <c r="A204" t="s" s="5">
+        <v>417</v>
+      </c>
+      <c r="B204" t="s" s="5">
+        <v>418</v>
+      </c>
+      <c r="C204" s="12"/>
       <c r="D204" s="6"/>
       <c r="E204" s="6"/>
       <c r="F204" s="6"/>
       <c r="G204" s="6"/>
-      <c r="H204" s="6"/>
+      <c r="H204" s="6">
+        <v>0.694444444444444</v>
+      </c>
       <c r="I204" s="6"/>
-      <c r="J204" s="12"/>
-    </row>
-    <row r="205" ht="20.7" customHeight="1">
-      <c r="A205" s="19"/>
-      <c r="B205" s="19"/>
-      <c r="C205" s="19"/>
-      <c r="D205" s="19"/>
-      <c r="E205" s="19"/>
-      <c r="F205" s="19"/>
-      <c r="G205" s="19"/>
-      <c r="H205" s="6"/>
-      <c r="I205" s="19"/>
-      <c r="J205" s="22"/>
+      <c r="J204" s="11"/>
+    </row>
+    <row r="205" ht="21" customHeight="1">
+      <c r="A205" t="s" s="4">
+        <v>419</v>
+      </c>
+      <c r="B205" t="s" s="4">
+        <v>420</v>
+      </c>
+      <c r="C205" t="s" s="5">
+        <v>18</v>
+      </c>
+      <c r="D205" s="6"/>
+      <c r="E205" s="6"/>
+      <c r="F205" s="6"/>
+      <c r="G205" s="6"/>
+      <c r="H205" s="6">
+        <v>0.777777777777778</v>
+      </c>
+      <c r="I205" s="6"/>
+      <c r="J205" s="7"/>
     </row>
     <row r="206" ht="21" customHeight="1">
-      <c r="A206" s="19"/>
-      <c r="B206" s="19"/>
-      <c r="C206" s="19"/>
-      <c r="D206" s="6"/>
+      <c r="A206" t="s" s="17">
+        <v>421</v>
+      </c>
+      <c r="B206" t="s" s="17">
+        <v>422</v>
+      </c>
+      <c r="C206" t="s" s="16">
+        <v>15</v>
+      </c>
+      <c r="D206" s="6">
+        <v>0.642857142857143</v>
+      </c>
       <c r="E206" s="6"/>
       <c r="F206" s="6"/>
       <c r="G206" s="6"/>
-      <c r="H206" s="6"/>
+      <c r="H206" s="6">
+        <v>0</v>
+      </c>
       <c r="I206" s="6"/>
       <c r="J206" s="7"/>
     </row>
     <row r="207" ht="21" customHeight="1">
-      <c r="A207" s="19"/>
-      <c r="B207" s="19"/>
-      <c r="C207" s="19"/>
-      <c r="D207" s="6"/>
+      <c r="A207" t="s" s="4">
+        <v>423</v>
+      </c>
+      <c r="B207" t="s" s="4">
+        <v>424</v>
+      </c>
+      <c r="C207" t="s" s="5">
+        <v>36</v>
+      </c>
+      <c r="D207" s="6">
+        <v>0.666666666666667</v>
+      </c>
       <c r="E207" s="6"/>
       <c r="F207" s="6"/>
       <c r="G207" s="6"/>
-      <c r="H207" s="6"/>
+      <c r="H207" s="6">
+        <v>0.777777777777778</v>
+      </c>
       <c r="I207" s="6"/>
       <c r="J207" s="7"/>
     </row>
     <row r="208" ht="21" customHeight="1">
-      <c r="A208" s="19"/>
-      <c r="B208" s="19"/>
-      <c r="C208" s="19"/>
-      <c r="D208" s="6"/>
+      <c r="A208" t="s" s="17">
+        <v>425</v>
+      </c>
+      <c r="B208" t="s" s="17">
+        <v>426</v>
+      </c>
+      <c r="C208" t="s" s="16">
+        <v>67</v>
+      </c>
+      <c r="D208" s="6">
+        <v>0.666666666666667</v>
+      </c>
       <c r="E208" s="6"/>
       <c r="F208" s="6"/>
       <c r="G208" s="6"/>
-      <c r="H208" s="6"/>
+      <c r="H208" s="6">
+        <v>0.694444444444444</v>
+      </c>
       <c r="I208" s="6"/>
-      <c r="J208" s="12"/>
+      <c r="J208" s="7"/>
     </row>
     <row r="209" ht="21" customHeight="1">
-      <c r="A209" s="19"/>
-      <c r="B209" s="19"/>
-      <c r="C209" s="19"/>
+      <c r="A209" t="s" s="4">
+        <v>427</v>
+      </c>
+      <c r="B209" t="s" s="4">
+        <v>428</v>
+      </c>
+      <c r="C209" t="s" s="5">
+        <v>18</v>
+      </c>
       <c r="D209" s="6"/>
       <c r="E209" s="6"/>
       <c r="F209" s="6"/>
       <c r="G209" s="6"/>
-      <c r="H209" s="6"/>
+      <c r="H209" s="6">
+        <v>0.555555555555556</v>
+      </c>
       <c r="I209" s="6"/>
-      <c r="J209" s="14"/>
+      <c r="J209" s="7"/>
     </row>
     <row r="210" ht="21" customHeight="1">
-      <c r="A210" s="19"/>
-      <c r="B210" s="19"/>
-      <c r="C210" s="19"/>
-      <c r="D210" s="6"/>
+      <c r="A210" t="s" s="17">
+        <v>429</v>
+      </c>
+      <c r="B210" t="s" s="17">
+        <v>430</v>
+      </c>
+      <c r="C210" t="s" s="16">
+        <v>15</v>
+      </c>
+      <c r="D210" s="6">
+        <v>0.80952380952381</v>
+      </c>
       <c r="E210" s="6"/>
       <c r="F210" s="6"/>
       <c r="G210" s="6"/>
-      <c r="H210" s="6"/>
+      <c r="H210" s="6">
+        <v>0</v>
+      </c>
       <c r="I210" s="6"/>
-      <c r="J210" s="12"/>
+      <c r="J210" s="9"/>
     </row>
     <row r="211" ht="21" customHeight="1">
-      <c r="A211" s="26"/>
-      <c r="B211" s="26"/>
-      <c r="C211" s="19"/>
-      <c r="D211" s="6"/>
+      <c r="A211" t="s" s="5">
+        <v>431</v>
+      </c>
+      <c r="B211" t="s" s="5">
+        <v>432</v>
+      </c>
+      <c r="C211" t="s" s="5">
+        <v>67</v>
+      </c>
+      <c r="D211" s="6">
+        <v>0.571428571428571</v>
+      </c>
       <c r="E211" s="6"/>
       <c r="F211" s="6"/>
       <c r="G211" s="6"/>
-      <c r="H211" s="6"/>
+      <c r="H211" s="6">
+        <v>0</v>
+      </c>
       <c r="I211" s="6"/>
-      <c r="J211" s="14"/>
+      <c r="J211" s="11"/>
     </row>
     <row r="212" ht="21" customHeight="1">
-      <c r="A212" s="27"/>
-      <c r="B212" s="27"/>
-      <c r="C212" s="24"/>
-      <c r="D212" s="6"/>
+      <c r="A212" t="s" s="4">
+        <v>433</v>
+      </c>
+      <c r="B212" t="s" s="4">
+        <v>434</v>
+      </c>
+      <c r="C212" t="s" s="5">
+        <v>36</v>
+      </c>
+      <c r="D212" s="6">
+        <v>0.833333333333333</v>
+      </c>
       <c r="E212" s="6"/>
       <c r="F212" s="6"/>
       <c r="G212" s="6"/>
-      <c r="H212" s="6"/>
+      <c r="H212" s="6">
+        <v>0.75</v>
+      </c>
       <c r="I212" s="6"/>
-      <c r="J212" s="12"/>
+      <c r="J212" s="9"/>
     </row>
     <row r="213" ht="21" customHeight="1">
-      <c r="A213" s="28"/>
-      <c r="B213" s="28"/>
-      <c r="C213" s="19"/>
+      <c r="A213" t="s" s="8">
+        <v>435</v>
+      </c>
+      <c r="B213" t="s" s="8">
+        <v>436</v>
+      </c>
+      <c r="C213" t="s" s="5">
+        <v>21</v>
+      </c>
       <c r="D213" s="6"/>
       <c r="E213" s="6"/>
       <c r="F213" s="6"/>
       <c r="G213" s="6"/>
-      <c r="H213" s="6"/>
+      <c r="H213" s="6">
+        <v>0.722222222222222</v>
+      </c>
       <c r="I213" s="6"/>
-      <c r="J213" s="14"/>
+      <c r="J213" s="11"/>
     </row>
     <row r="214" ht="21" customHeight="1">
-      <c r="A214" s="19"/>
-      <c r="B214" s="19"/>
-      <c r="C214" s="19"/>
-      <c r="D214" s="6"/>
+      <c r="A214" t="s" s="5">
+        <v>437</v>
+      </c>
+      <c r="B214" t="s" s="5">
+        <v>438</v>
+      </c>
+      <c r="C214" t="s" s="5">
+        <v>36</v>
+      </c>
+      <c r="D214" s="6">
+        <v>0.5</v>
+      </c>
       <c r="E214" s="6"/>
       <c r="F214" s="6"/>
       <c r="G214" s="6"/>
-      <c r="H214" s="6"/>
+      <c r="H214" s="6">
+        <v>0</v>
+      </c>
       <c r="I214" s="6"/>
       <c r="J214" s="7"/>
     </row>
     <row r="215" ht="21" customHeight="1">
-      <c r="A215" s="26"/>
-      <c r="B215" s="26"/>
-      <c r="C215" s="19"/>
-      <c r="D215" s="6"/>
+      <c r="A215" t="s" s="5">
+        <v>439</v>
+      </c>
+      <c r="B215" t="s" s="5">
+        <v>440</v>
+      </c>
+      <c r="C215" t="s" s="5">
+        <v>67</v>
+      </c>
+      <c r="D215" s="6">
+        <v>0.642857142857143</v>
+      </c>
       <c r="E215" s="6"/>
       <c r="F215" s="6"/>
       <c r="G215" s="6"/>
-      <c r="H215" s="6"/>
+      <c r="H215" s="6">
+        <v>0.388888888888889</v>
+      </c>
       <c r="I215" s="6"/>
-      <c r="J215" s="12"/>
+      <c r="J215" s="9"/>
     </row>
     <row r="216" ht="21" customHeight="1">
-      <c r="A216" s="27"/>
-      <c r="B216" s="27"/>
-      <c r="C216" s="24"/>
-      <c r="D216" s="6"/>
+      <c r="A216" t="s" s="5">
+        <v>441</v>
+      </c>
+      <c r="B216" t="s" s="5">
+        <v>442</v>
+      </c>
+      <c r="C216" t="s" s="5">
+        <v>18</v>
+      </c>
+      <c r="D216" s="6">
+        <v>0.666666666666667</v>
+      </c>
       <c r="E216" s="6"/>
       <c r="F216" s="6"/>
       <c r="G216" s="6"/>
-      <c r="H216" s="6"/>
+      <c r="H216" s="6">
+        <v>0.75</v>
+      </c>
       <c r="I216" s="6"/>
-      <c r="J216" s="13"/>
-    </row>
-    <row r="217" ht="21" customHeight="1">
-      <c r="A217" s="28"/>
-      <c r="B217" s="28"/>
-      <c r="C217" s="19"/>
-      <c r="D217" s="6"/>
-      <c r="E217" s="6"/>
-      <c r="F217" s="6"/>
-      <c r="G217" s="6"/>
-      <c r="H217" s="6"/>
-      <c r="I217" s="6"/>
-      <c r="J217" s="14"/>
+      <c r="J216" s="10"/>
+    </row>
+    <row r="217" ht="20.7" customHeight="1">
+      <c r="A217" t="s" s="4">
+        <v>443</v>
+      </c>
+      <c r="B217" t="s" s="4">
+        <v>444</v>
+      </c>
+      <c r="C217" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D217" s="12"/>
+      <c r="E217" s="12"/>
+      <c r="F217" s="12"/>
+      <c r="G217" s="12"/>
+      <c r="H217" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="I217" s="12"/>
+      <c r="J217" s="13"/>
     </row>
     <row r="218" ht="21" customHeight="1">
-      <c r="A218" s="19"/>
-      <c r="B218" s="19"/>
-      <c r="C218" s="19"/>
+      <c r="A218" t="s" s="8">
+        <v>445</v>
+      </c>
+      <c r="B218" t="s" s="8">
+        <v>446</v>
+      </c>
+      <c r="C218" s="12"/>
       <c r="D218" s="6"/>
       <c r="E218" s="6"/>
       <c r="F218" s="6"/>
       <c r="G218" s="6"/>
-      <c r="H218" s="6"/>
+      <c r="H218" s="6">
+        <v>0.666666666666667</v>
+      </c>
       <c r="I218" s="6"/>
-      <c r="J218" s="7"/>
+      <c r="J218" s="11"/>
     </row>
     <row r="219" ht="21" customHeight="1">
-      <c r="A219" s="26"/>
-      <c r="B219" s="26"/>
-      <c r="C219" s="19"/>
-      <c r="D219" s="6"/>
+      <c r="A219" t="s" s="5">
+        <v>447</v>
+      </c>
+      <c r="B219" t="s" s="5">
+        <v>448</v>
+      </c>
+      <c r="C219" t="s" s="5">
+        <v>18</v>
+      </c>
+      <c r="D219" s="6">
+        <v>0.595238095238095</v>
+      </c>
       <c r="E219" s="6"/>
       <c r="F219" s="6"/>
       <c r="G219" s="6"/>
-      <c r="H219" s="6"/>
+      <c r="H219" s="6">
+        <v>0.416666666666667</v>
+      </c>
       <c r="I219" s="6"/>
       <c r="J219" s="7"/>
     </row>
     <row r="220" ht="21" customHeight="1">
-      <c r="A220" s="27"/>
-      <c r="B220" s="27"/>
-      <c r="C220" s="24"/>
-      <c r="D220" s="6"/>
+      <c r="A220" t="s" s="5">
+        <v>449</v>
+      </c>
+      <c r="B220" t="s" s="5">
+        <v>450</v>
+      </c>
+      <c r="C220" t="s" s="5">
+        <v>15</v>
+      </c>
+      <c r="D220" s="6">
+        <v>0.547619047619048</v>
+      </c>
       <c r="E220" s="6"/>
       <c r="F220" s="6"/>
       <c r="G220" s="6"/>
-      <c r="H220" s="6"/>
+      <c r="H220" s="6">
+        <v>0.777777777777778</v>
+      </c>
       <c r="I220" s="6"/>
-      <c r="J220" s="12"/>
+      <c r="J220" s="7"/>
     </row>
     <row r="221" ht="21" customHeight="1">
-      <c r="A221" s="29"/>
-      <c r="B221" s="29"/>
-      <c r="C221" s="19"/>
-      <c r="D221" s="6"/>
+      <c r="A221" t="s" s="5">
+        <v>451</v>
+      </c>
+      <c r="B221" t="s" s="5">
+        <v>452</v>
+      </c>
+      <c r="C221" t="s" s="5">
+        <v>67</v>
+      </c>
+      <c r="D221" s="6">
+        <v>0.547619047619048</v>
+      </c>
       <c r="E221" s="6"/>
       <c r="F221" s="6"/>
       <c r="G221" s="6"/>
-      <c r="H221" s="6"/>
+      <c r="H221" s="6">
+        <v>0.666666666666667</v>
+      </c>
       <c r="I221" s="6"/>
-      <c r="J221" s="14"/>
-    </row>
-    <row r="222" ht="21" customHeight="1">
-      <c r="A222" s="27"/>
-      <c r="B222" s="27"/>
-      <c r="C222" s="24"/>
-      <c r="D222" s="6"/>
-      <c r="E222" s="6"/>
-      <c r="F222" s="6"/>
-      <c r="G222" s="6"/>
-      <c r="H222" s="6"/>
-      <c r="I222" s="6"/>
-      <c r="J222" s="12"/>
+      <c r="J221" s="9"/>
+    </row>
+    <row r="222" ht="20.7" customHeight="1">
+      <c r="A222" t="s" s="5">
+        <v>453</v>
+      </c>
+      <c r="B222" t="s" s="5">
+        <v>454</v>
+      </c>
+      <c r="C222" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="D222" s="22">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E222" s="12"/>
+      <c r="F222" s="12"/>
+      <c r="G222" s="12"/>
+      <c r="H222" s="6">
+        <v>0.638888888888889</v>
+      </c>
+      <c r="I222" s="12"/>
+      <c r="J222" s="13"/>
     </row>
     <row r="223" ht="21" customHeight="1">
-      <c r="A223" s="28"/>
-      <c r="B223" s="28"/>
-      <c r="C223" s="19"/>
-      <c r="D223" s="6"/>
+      <c r="A223" t="s" s="5">
+        <v>455</v>
+      </c>
+      <c r="B223" t="s" s="5">
+        <v>456</v>
+      </c>
+      <c r="C223" t="s" s="5">
+        <v>18</v>
+      </c>
+      <c r="D223" s="6">
+        <v>0.761904761904762</v>
+      </c>
       <c r="E223" s="6"/>
       <c r="F223" s="6"/>
       <c r="G223" s="6"/>
-      <c r="H223" s="6"/>
+      <c r="H223" s="6">
+        <v>0.861111111111111</v>
+      </c>
       <c r="I223" s="6"/>
-      <c r="J223" s="13"/>
-    </row>
-    <row r="224" ht="20.7" customHeight="1">
-      <c r="A224" s="19"/>
-      <c r="B224" s="19"/>
-      <c r="C224" s="19"/>
-      <c r="D224" s="19"/>
-      <c r="E224" s="19"/>
-      <c r="F224" s="19"/>
-      <c r="G224" s="19"/>
-      <c r="H224" s="6"/>
-      <c r="I224" s="19"/>
-      <c r="J224" s="22"/>
+      <c r="J223" s="10"/>
+    </row>
+    <row r="224" ht="21" customHeight="1">
+      <c r="A224" t="s" s="5">
+        <v>457</v>
+      </c>
+      <c r="B224" t="s" s="5">
+        <v>458</v>
+      </c>
+      <c r="C224" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D224" s="6"/>
+      <c r="E224" s="6"/>
+      <c r="F224" s="6"/>
+      <c r="G224" s="6"/>
+      <c r="H224" s="6">
+        <v>0.611111111111111</v>
+      </c>
+      <c r="I224" s="6"/>
+      <c r="J224" s="11"/>
     </row>
     <row r="225" ht="21" customHeight="1">
-      <c r="A225" s="19"/>
-      <c r="B225" s="19"/>
-      <c r="C225" s="19"/>
+      <c r="A225" t="s" s="5">
+        <v>459</v>
+      </c>
+      <c r="B225" t="s" s="5">
+        <v>460</v>
+      </c>
+      <c r="C225" t="s" s="5">
+        <v>12</v>
+      </c>
       <c r="D225" s="6"/>
       <c r="E225" s="6"/>
       <c r="F225" s="6"/>
       <c r="G225" s="6"/>
-      <c r="H225" s="6"/>
+      <c r="H225" s="6">
+        <v>0.777777777777778</v>
+      </c>
       <c r="I225" s="6"/>
-      <c r="J225" s="12"/>
-    </row>
-    <row r="226" ht="20.7" customHeight="1">
-      <c r="A226" s="26"/>
-      <c r="B226" s="26"/>
-      <c r="C226" s="19"/>
-      <c r="D226" s="19"/>
-      <c r="E226" s="19"/>
-      <c r="F226" s="19"/>
-      <c r="G226" s="19"/>
-      <c r="H226" s="6"/>
-      <c r="I226" s="19"/>
-      <c r="J226" s="22"/>
+      <c r="J225" s="7"/>
+    </row>
+    <row r="226" ht="21" customHeight="1">
+      <c r="A226" t="s" s="4">
+        <v>461</v>
+      </c>
+      <c r="B226" t="s" s="4">
+        <v>462</v>
+      </c>
+      <c r="C226" t="s" s="5">
+        <v>36</v>
+      </c>
+      <c r="D226" s="6">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="E226" s="6"/>
+      <c r="F226" s="6"/>
+      <c r="G226" s="6"/>
+      <c r="H226" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="I226" s="6"/>
+      <c r="J226" s="9"/>
     </row>
     <row r="227" ht="21" customHeight="1">
-      <c r="A227" s="27"/>
-      <c r="B227" s="27"/>
-      <c r="C227" s="24"/>
+      <c r="A227" t="s" s="23">
+        <v>463</v>
+      </c>
+      <c r="B227" t="s" s="23">
+        <v>464</v>
+      </c>
+      <c r="C227" t="s" s="5">
+        <v>21</v>
+      </c>
       <c r="D227" s="6"/>
       <c r="E227" s="6"/>
       <c r="F227" s="6"/>
       <c r="G227" s="6"/>
-      <c r="H227" s="6"/>
+      <c r="H227" s="6">
+        <v>0.777777777777778</v>
+      </c>
       <c r="I227" s="6"/>
-      <c r="J227" s="7"/>
+      <c r="J227" s="11"/>
     </row>
     <row r="228" ht="21" customHeight="1">
-      <c r="A228" s="29"/>
-      <c r="B228" s="29"/>
-      <c r="C228" s="19"/>
-      <c r="D228" s="19"/>
-      <c r="E228" s="19"/>
-      <c r="F228" s="19"/>
-      <c r="G228" s="19"/>
-      <c r="H228" s="6"/>
-      <c r="I228" s="19"/>
+      <c r="A228" t="s" s="15">
+        <v>465</v>
+      </c>
+      <c r="B228" t="s" s="15">
+        <v>466</v>
+      </c>
+      <c r="C228" t="s" s="16">
+        <v>18</v>
+      </c>
+      <c r="D228" s="6">
+        <v>0.285714285714286</v>
+      </c>
+      <c r="E228" s="6"/>
+      <c r="F228" s="6"/>
+      <c r="G228" s="6"/>
+      <c r="H228" s="6">
+        <v>0.805555555555556</v>
+      </c>
+      <c r="I228" s="6"/>
       <c r="J228" s="7"/>
     </row>
     <row r="229" ht="21" customHeight="1">
-      <c r="A229" s="27"/>
-      <c r="B229" s="27"/>
-      <c r="C229" s="24"/>
+      <c r="A229" t="s" s="17">
+        <v>467</v>
+      </c>
+      <c r="B229" t="s" s="17">
+        <v>468</v>
+      </c>
+      <c r="C229" t="s" s="16">
+        <v>15</v>
+      </c>
       <c r="D229" s="6"/>
       <c r="E229" s="6"/>
       <c r="F229" s="6"/>
       <c r="G229" s="6"/>
-      <c r="H229" s="6"/>
+      <c r="H229" s="6">
+        <v>0.777777777777778</v>
+      </c>
       <c r="I229" s="6"/>
-      <c r="J229" s="12"/>
+      <c r="J229" s="7"/>
     </row>
     <row r="230" ht="21" customHeight="1">
-      <c r="A230" s="28"/>
-      <c r="B230" s="28"/>
-      <c r="C230" s="19"/>
-      <c r="D230" s="6"/>
+      <c r="A230" t="s" s="5">
+        <v>469</v>
+      </c>
+      <c r="B230" t="s" s="5">
+        <v>470</v>
+      </c>
+      <c r="C230" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D230" s="6">
+        <v>0.30952380952381</v>
+      </c>
       <c r="E230" s="6"/>
       <c r="F230" s="6"/>
       <c r="G230" s="6"/>
-      <c r="H230" s="6"/>
+      <c r="H230" s="6">
+        <v>0.638888888888889</v>
+      </c>
       <c r="I230" s="6"/>
-      <c r="J230" s="14"/>
+      <c r="J230" s="7"/>
     </row>
     <row r="231" ht="21" customHeight="1">
-      <c r="A231" s="19"/>
-      <c r="B231" s="19"/>
-      <c r="C231" s="19"/>
+      <c r="A231" t="s" s="5">
+        <v>471</v>
+      </c>
+      <c r="B231" t="s" s="5">
+        <v>472</v>
+      </c>
+      <c r="C231" s="12"/>
       <c r="D231" s="6"/>
       <c r="E231" s="6"/>
       <c r="F231" s="6"/>
       <c r="G231" s="6"/>
-      <c r="H231" s="6"/>
+      <c r="H231" s="6">
+        <v>0.666666666666667</v>
+      </c>
       <c r="I231" s="6"/>
       <c r="J231" s="7"/>
     </row>
     <row r="232" ht="21" customHeight="1">
-      <c r="A232" s="19"/>
-      <c r="B232" s="19"/>
-      <c r="C232" s="19"/>
+      <c r="A232" t="s" s="5">
+        <v>473</v>
+      </c>
+      <c r="B232" t="s" s="5">
+        <v>474</v>
+      </c>
+      <c r="C232" t="s" s="5">
+        <v>18</v>
+      </c>
       <c r="D232" s="6"/>
       <c r="E232" s="6"/>
       <c r="F232" s="6"/>
       <c r="G232" s="6"/>
-      <c r="H232" s="6"/>
+      <c r="H232" s="6">
+        <v>0.861111111111111</v>
+      </c>
       <c r="I232" s="6"/>
       <c r="J232" s="7"/>
     </row>
     <row r="233" ht="21" customHeight="1">
-      <c r="A233" s="19"/>
-      <c r="B233" s="19"/>
-      <c r="C233" s="19"/>
+      <c r="A233" s="12"/>
+      <c r="B233" s="12"/>
+      <c r="C233" s="12"/>
       <c r="D233" s="6"/>
       <c r="E233" s="6"/>
       <c r="F233" s="6"/>
@@ -6800,28 +7770,28 @@
       <c r="J233" s="7"/>
     </row>
     <row r="234" ht="21" customHeight="1">
-      <c r="A234" s="19"/>
-      <c r="B234" s="19"/>
-      <c r="C234" s="19"/>
+      <c r="A234" s="12"/>
+      <c r="B234" s="12"/>
+      <c r="C234" s="12"/>
       <c r="D234" s="6"/>
       <c r="E234" s="6"/>
       <c r="F234" s="6"/>
       <c r="G234" s="6"/>
       <c r="H234" s="6"/>
       <c r="I234" s="6"/>
-      <c r="J234" s="12"/>
+      <c r="J234" s="9"/>
     </row>
     <row r="235" ht="21" customHeight="1">
       <c r="A235" s="26"/>
       <c r="B235" s="26"/>
-      <c r="C235" s="19"/>
+      <c r="C235" s="12"/>
       <c r="D235" s="6"/>
       <c r="E235" s="6"/>
       <c r="F235" s="6"/>
       <c r="G235" s="6"/>
       <c r="H235" s="6"/>
       <c r="I235" s="6"/>
-      <c r="J235" s="14"/>
+      <c r="J235" s="11"/>
     </row>
     <row r="236" ht="21" customHeight="1">
       <c r="A236" s="27"/>
@@ -6833,24 +7803,24 @@
       <c r="G236" s="6"/>
       <c r="H236" s="6"/>
       <c r="I236" s="6"/>
-      <c r="J236" s="12"/>
+      <c r="J236" s="9"/>
     </row>
     <row r="237" ht="21" customHeight="1">
       <c r="A237" s="28"/>
       <c r="B237" s="28"/>
-      <c r="C237" s="19"/>
+      <c r="C237" s="12"/>
       <c r="D237" s="6"/>
       <c r="E237" s="6"/>
       <c r="F237" s="6"/>
       <c r="G237" s="6"/>
       <c r="H237" s="6"/>
       <c r="I237" s="6"/>
-      <c r="J237" s="14"/>
+      <c r="J237" s="11"/>
     </row>
     <row r="238" ht="21" customHeight="1">
       <c r="A238" s="26"/>
       <c r="B238" s="26"/>
-      <c r="C238" s="19"/>
+      <c r="C238" s="12"/>
       <c r="D238" s="6"/>
       <c r="E238" s="6"/>
       <c r="F238" s="6"/>
@@ -6881,19 +7851,19 @@
       <c r="G240" s="6"/>
       <c r="H240" s="6"/>
       <c r="I240" s="6"/>
-      <c r="J240" s="12"/>
+      <c r="J240" s="9"/>
     </row>
     <row r="241" ht="21" customHeight="1">
       <c r="A241" s="29"/>
       <c r="B241" s="29"/>
-      <c r="C241" s="19"/>
+      <c r="C241" s="12"/>
       <c r="D241" s="6"/>
       <c r="E241" s="6"/>
       <c r="F241" s="6"/>
       <c r="G241" s="6"/>
       <c r="H241" s="6"/>
       <c r="I241" s="6"/>
-      <c r="J241" s="14"/>
+      <c r="J241" s="11"/>
     </row>
     <row r="242" ht="21" customHeight="1">
       <c r="A242" s="27"/>
@@ -6905,24 +7875,24 @@
       <c r="G242" s="6"/>
       <c r="H242" s="6"/>
       <c r="I242" s="6"/>
-      <c r="J242" s="12"/>
+      <c r="J242" s="9"/>
     </row>
     <row r="243" ht="21" customHeight="1">
       <c r="A243" s="28"/>
       <c r="B243" s="28"/>
-      <c r="C243" s="19"/>
+      <c r="C243" s="12"/>
       <c r="D243" s="6"/>
       <c r="E243" s="6"/>
       <c r="F243" s="6"/>
       <c r="G243" s="6"/>
       <c r="H243" s="6"/>
       <c r="I243" s="6"/>
-      <c r="J243" s="14"/>
+      <c r="J243" s="11"/>
     </row>
     <row r="244" ht="21" customHeight="1">
-      <c r="A244" s="19"/>
-      <c r="B244" s="19"/>
-      <c r="C244" s="19"/>
+      <c r="A244" s="12"/>
+      <c r="B244" s="12"/>
+      <c r="C244" s="12"/>
       <c r="D244" s="6"/>
       <c r="E244" s="6"/>
       <c r="F244" s="6"/>
@@ -6932,9 +7902,9 @@
       <c r="J244" s="7"/>
     </row>
     <row r="245" ht="21" customHeight="1">
-      <c r="A245" s="19"/>
-      <c r="B245" s="19"/>
-      <c r="C245" s="19"/>
+      <c r="A245" s="12"/>
+      <c r="B245" s="12"/>
+      <c r="C245" s="12"/>
       <c r="D245" s="6"/>
       <c r="E245" s="6"/>
       <c r="F245" s="6"/>
@@ -6944,9 +7914,9 @@
       <c r="J245" s="7"/>
     </row>
     <row r="246" ht="21" customHeight="1">
-      <c r="A246" s="19"/>
-      <c r="B246" s="19"/>
-      <c r="C246" s="19"/>
+      <c r="A246" s="12"/>
+      <c r="B246" s="12"/>
+      <c r="C246" s="12"/>
       <c r="D246" s="6"/>
       <c r="E246" s="6"/>
       <c r="F246" s="6"/>
@@ -6956,9 +7926,9 @@
       <c r="J246" s="7"/>
     </row>
     <row r="247" ht="21" customHeight="1">
-      <c r="A247" s="19"/>
-      <c r="B247" s="19"/>
-      <c r="C247" s="19"/>
+      <c r="A247" s="12"/>
+      <c r="B247" s="12"/>
+      <c r="C247" s="12"/>
       <c r="D247" s="6"/>
       <c r="E247" s="6"/>
       <c r="F247" s="6"/>
@@ -6968,88 +7938,88 @@
       <c r="J247" s="7"/>
     </row>
     <row r="248" ht="21" customHeight="1">
-      <c r="A248" s="19"/>
-      <c r="B248" s="19"/>
-      <c r="C248" s="19"/>
+      <c r="A248" s="12"/>
+      <c r="B248" s="12"/>
+      <c r="C248" s="12"/>
       <c r="D248" s="6"/>
       <c r="E248" s="6"/>
       <c r="F248" s="6"/>
       <c r="G248" s="6"/>
       <c r="H248" s="6"/>
       <c r="I248" s="6"/>
-      <c r="J248" s="12"/>
+      <c r="J248" s="9"/>
     </row>
     <row r="249" ht="20.35" customHeight="1">
-      <c r="A249" s="19"/>
-      <c r="B249" s="19"/>
-      <c r="C249" s="19"/>
-      <c r="D249" s="19"/>
-      <c r="E249" s="19"/>
-      <c r="F249" s="19"/>
-      <c r="G249" s="19"/>
+      <c r="A249" s="12"/>
+      <c r="B249" s="12"/>
+      <c r="C249" s="12"/>
+      <c r="D249" s="12"/>
+      <c r="E249" s="12"/>
+      <c r="F249" s="12"/>
+      <c r="G249" s="12"/>
       <c r="H249" s="6"/>
-      <c r="I249" s="19"/>
-      <c r="J249" s="20"/>
+      <c r="I249" s="12"/>
+      <c r="J249" s="13"/>
     </row>
     <row r="250" ht="20.35" customHeight="1">
-      <c r="A250" s="19"/>
-      <c r="B250" s="19"/>
-      <c r="C250" s="19"/>
-      <c r="D250" s="19"/>
-      <c r="E250" s="19"/>
-      <c r="F250" s="19"/>
-      <c r="G250" s="19"/>
+      <c r="A250" s="12"/>
+      <c r="B250" s="12"/>
+      <c r="C250" s="12"/>
+      <c r="D250" s="12"/>
+      <c r="E250" s="12"/>
+      <c r="F250" s="12"/>
+      <c r="G250" s="12"/>
       <c r="H250" s="6"/>
-      <c r="I250" s="19"/>
-      <c r="J250" s="22"/>
+      <c r="I250" s="12"/>
+      <c r="J250" s="14"/>
     </row>
     <row r="251" ht="21" customHeight="1">
-      <c r="A251" s="19"/>
-      <c r="B251" s="19"/>
-      <c r="C251" s="19"/>
+      <c r="A251" s="12"/>
+      <c r="B251" s="12"/>
+      <c r="C251" s="12"/>
       <c r="D251" s="6"/>
       <c r="E251" s="6"/>
       <c r="F251" s="6"/>
       <c r="G251" s="6"/>
       <c r="H251" s="6"/>
       <c r="I251" s="6"/>
-      <c r="J251" s="12"/>
+      <c r="J251" s="9"/>
     </row>
     <row r="252" ht="20.35" customHeight="1">
-      <c r="A252" s="19"/>
-      <c r="B252" s="19"/>
-      <c r="C252" s="19"/>
-      <c r="D252" s="19"/>
-      <c r="E252" s="19"/>
-      <c r="F252" s="19"/>
-      <c r="G252" s="19"/>
+      <c r="A252" s="12"/>
+      <c r="B252" s="12"/>
+      <c r="C252" s="12"/>
+      <c r="D252" s="12"/>
+      <c r="E252" s="12"/>
+      <c r="F252" s="12"/>
+      <c r="G252" s="12"/>
       <c r="H252" s="6"/>
-      <c r="I252" s="19"/>
-      <c r="J252" s="20"/>
+      <c r="I252" s="12"/>
+      <c r="J252" s="13"/>
     </row>
     <row r="253" ht="20.05" customHeight="1">
-      <c r="A253" s="19"/>
-      <c r="B253" s="19"/>
-      <c r="C253" s="19"/>
-      <c r="D253" s="19"/>
-      <c r="E253" s="19"/>
-      <c r="F253" s="19"/>
-      <c r="G253" s="19"/>
+      <c r="A253" s="12"/>
+      <c r="B253" s="12"/>
+      <c r="C253" s="12"/>
+      <c r="D253" s="12"/>
+      <c r="E253" s="12"/>
+      <c r="F253" s="12"/>
+      <c r="G253" s="12"/>
       <c r="H253" s="6"/>
-      <c r="I253" s="19"/>
-      <c r="J253" s="20"/>
+      <c r="I253" s="12"/>
+      <c r="J253" s="13"/>
     </row>
     <row r="254" ht="20.35" customHeight="1">
       <c r="A254" s="26"/>
       <c r="B254" s="26"/>
-      <c r="C254" s="19"/>
-      <c r="D254" s="19"/>
-      <c r="E254" s="19"/>
-      <c r="F254" s="19"/>
-      <c r="G254" s="19"/>
+      <c r="C254" s="12"/>
+      <c r="D254" s="12"/>
+      <c r="E254" s="12"/>
+      <c r="F254" s="12"/>
+      <c r="G254" s="12"/>
       <c r="H254" s="6"/>
-      <c r="I254" s="19"/>
-      <c r="J254" s="22"/>
+      <c r="I254" s="12"/>
+      <c r="J254" s="14"/>
     </row>
     <row r="255" ht="21" customHeight="1">
       <c r="A255" s="27"/>
@@ -7061,24 +8031,24 @@
       <c r="G255" s="6"/>
       <c r="H255" s="6"/>
       <c r="I255" s="6"/>
-      <c r="J255" s="12"/>
+      <c r="J255" s="9"/>
     </row>
     <row r="256" ht="20.7" customHeight="1">
       <c r="A256" s="28"/>
       <c r="B256" s="28"/>
-      <c r="C256" s="19"/>
-      <c r="D256" s="19"/>
-      <c r="E256" s="19"/>
-      <c r="F256" s="19"/>
-      <c r="G256" s="19"/>
+      <c r="C256" s="12"/>
+      <c r="D256" s="12"/>
+      <c r="E256" s="12"/>
+      <c r="F256" s="12"/>
+      <c r="G256" s="12"/>
       <c r="H256" s="6"/>
-      <c r="I256" s="19"/>
-      <c r="J256" s="22"/>
+      <c r="I256" s="12"/>
+      <c r="J256" s="14"/>
     </row>
     <row r="257" ht="21" customHeight="1">
       <c r="A257" s="26"/>
       <c r="B257" s="26"/>
-      <c r="C257" s="19"/>
+      <c r="C257" s="12"/>
       <c r="D257" s="6"/>
       <c r="E257" s="6"/>
       <c r="F257" s="6"/>
@@ -7097,24 +8067,24 @@
       <c r="G258" s="6"/>
       <c r="H258" s="6"/>
       <c r="I258" s="6"/>
-      <c r="J258" s="12"/>
+      <c r="J258" s="9"/>
     </row>
     <row r="259" ht="21" customHeight="1">
       <c r="A259" s="28"/>
       <c r="B259" s="28"/>
-      <c r="C259" s="19"/>
+      <c r="C259" s="12"/>
       <c r="D259" s="6"/>
       <c r="E259" s="6"/>
       <c r="F259" s="6"/>
       <c r="G259" s="6"/>
       <c r="H259" s="6"/>
       <c r="I259" s="6"/>
-      <c r="J259" s="14"/>
+      <c r="J259" s="11"/>
     </row>
     <row r="260" ht="21" customHeight="1">
-      <c r="A260" s="19"/>
-      <c r="B260" s="19"/>
-      <c r="C260" s="19"/>
+      <c r="A260" s="12"/>
+      <c r="B260" s="12"/>
+      <c r="C260" s="12"/>
       <c r="D260" s="6"/>
       <c r="E260" s="6"/>
       <c r="F260" s="6"/>
@@ -7126,7 +8096,7 @@
     <row r="261" ht="21" customHeight="1">
       <c r="A261" s="26"/>
       <c r="B261" s="26"/>
-      <c r="C261" s="19"/>
+      <c r="C261" s="12"/>
       <c r="D261" s="6"/>
       <c r="E261" s="6"/>
       <c r="F261" s="6"/>
@@ -7162,91 +8132,91 @@
     <row r="264" ht="21" customHeight="1">
       <c r="A264" s="28"/>
       <c r="B264" s="28"/>
-      <c r="C264" s="19"/>
+      <c r="C264" s="12"/>
       <c r="D264" s="6"/>
       <c r="E264" s="6"/>
       <c r="F264" s="6"/>
       <c r="G264" s="6"/>
       <c r="H264" s="6"/>
       <c r="I264" s="6"/>
-      <c r="J264" s="12"/>
+      <c r="J264" s="9"/>
     </row>
     <row r="265" ht="21" customHeight="1">
-      <c r="A265" s="19"/>
-      <c r="B265" s="19"/>
-      <c r="C265" s="19"/>
+      <c r="A265" s="12"/>
+      <c r="B265" s="12"/>
+      <c r="C265" s="12"/>
       <c r="D265" s="6"/>
       <c r="E265" s="6"/>
       <c r="F265" s="6"/>
       <c r="G265" s="6"/>
       <c r="H265" s="6"/>
       <c r="I265" s="6"/>
-      <c r="J265" s="13"/>
+      <c r="J265" s="10"/>
     </row>
     <row r="266" ht="21" customHeight="1">
-      <c r="A266" s="19"/>
-      <c r="B266" s="19"/>
-      <c r="C266" s="19"/>
+      <c r="A266" s="12"/>
+      <c r="B266" s="12"/>
+      <c r="C266" s="12"/>
       <c r="D266" s="6"/>
       <c r="E266" s="6"/>
       <c r="F266" s="6"/>
       <c r="G266" s="6"/>
       <c r="H266" s="6"/>
       <c r="I266" s="6"/>
-      <c r="J266" s="14"/>
+      <c r="J266" s="11"/>
     </row>
     <row r="267" ht="21" customHeight="1">
-      <c r="A267" s="19"/>
-      <c r="B267" s="19"/>
-      <c r="C267" s="19"/>
+      <c r="A267" s="12"/>
+      <c r="B267" s="12"/>
+      <c r="C267" s="12"/>
       <c r="D267" s="6"/>
       <c r="E267" s="6"/>
       <c r="F267" s="6"/>
       <c r="G267" s="6"/>
       <c r="H267" s="6"/>
       <c r="I267" s="6"/>
-      <c r="J267" s="12"/>
+      <c r="J267" s="9"/>
     </row>
     <row r="268" ht="21" customHeight="1">
-      <c r="A268" s="19"/>
-      <c r="B268" s="19"/>
-      <c r="C268" s="19"/>
+      <c r="A268" s="12"/>
+      <c r="B268" s="12"/>
+      <c r="C268" s="12"/>
       <c r="D268" s="6"/>
       <c r="E268" s="6"/>
       <c r="F268" s="6"/>
       <c r="G268" s="6"/>
       <c r="H268" s="6"/>
       <c r="I268" s="6"/>
-      <c r="J268" s="14"/>
+      <c r="J268" s="11"/>
     </row>
     <row r="269" ht="21" customHeight="1">
-      <c r="A269" s="19"/>
-      <c r="B269" s="19"/>
-      <c r="C269" s="19"/>
+      <c r="A269" s="12"/>
+      <c r="B269" s="12"/>
+      <c r="C269" s="12"/>
       <c r="D269" s="6"/>
       <c r="E269" s="6"/>
       <c r="F269" s="6"/>
       <c r="G269" s="6"/>
       <c r="H269" s="6"/>
       <c r="I269" s="6"/>
-      <c r="J269" s="12"/>
+      <c r="J269" s="9"/>
     </row>
     <row r="270" ht="21" customHeight="1">
-      <c r="A270" s="19"/>
-      <c r="B270" s="19"/>
-      <c r="C270" s="19"/>
+      <c r="A270" s="12"/>
+      <c r="B270" s="12"/>
+      <c r="C270" s="12"/>
       <c r="D270" s="6"/>
       <c r="E270" s="6"/>
       <c r="F270" s="6"/>
       <c r="G270" s="6"/>
       <c r="H270" s="6"/>
       <c r="I270" s="6"/>
-      <c r="J270" s="14"/>
+      <c r="J270" s="11"/>
     </row>
     <row r="271" ht="21" customHeight="1">
-      <c r="A271" s="19"/>
-      <c r="B271" s="19"/>
-      <c r="C271" s="19"/>
+      <c r="A271" s="12"/>
+      <c r="B271" s="12"/>
+      <c r="C271" s="12"/>
       <c r="D271" s="6"/>
       <c r="E271" s="6"/>
       <c r="F271" s="6"/>
@@ -7256,45 +8226,45 @@
       <c r="J271" s="7"/>
     </row>
     <row r="272" ht="21" customHeight="1">
-      <c r="A272" s="19"/>
-      <c r="B272" s="19"/>
-      <c r="C272" s="19"/>
+      <c r="A272" s="12"/>
+      <c r="B272" s="12"/>
+      <c r="C272" s="12"/>
       <c r="D272" s="6"/>
       <c r="E272" s="6"/>
       <c r="F272" s="6"/>
       <c r="G272" s="6"/>
       <c r="H272" s="6"/>
       <c r="I272" s="6"/>
-      <c r="J272" s="12"/>
+      <c r="J272" s="9"/>
     </row>
     <row r="273" ht="21" customHeight="1">
-      <c r="A273" s="19"/>
-      <c r="B273" s="19"/>
-      <c r="C273" s="19"/>
+      <c r="A273" s="12"/>
+      <c r="B273" s="12"/>
+      <c r="C273" s="12"/>
       <c r="D273" s="6"/>
       <c r="E273" s="6"/>
       <c r="F273" s="6"/>
       <c r="G273" s="6"/>
       <c r="H273" s="6"/>
       <c r="I273" s="6"/>
-      <c r="J273" s="13"/>
+      <c r="J273" s="10"/>
     </row>
     <row r="274" ht="20.7" customHeight="1">
-      <c r="A274" s="19"/>
-      <c r="B274" s="19"/>
-      <c r="C274" s="19"/>
-      <c r="D274" s="19"/>
-      <c r="E274" s="19"/>
-      <c r="F274" s="19"/>
-      <c r="G274" s="19"/>
+      <c r="A274" s="12"/>
+      <c r="B274" s="12"/>
+      <c r="C274" s="12"/>
+      <c r="D274" s="12"/>
+      <c r="E274" s="12"/>
+      <c r="F274" s="12"/>
+      <c r="G274" s="12"/>
       <c r="H274" s="6"/>
-      <c r="I274" s="19"/>
-      <c r="J274" s="22"/>
+      <c r="I274" s="12"/>
+      <c r="J274" s="14"/>
     </row>
     <row r="275" ht="21" customHeight="1">
-      <c r="A275" s="19"/>
-      <c r="B275" s="19"/>
-      <c r="C275" s="19"/>
+      <c r="A275" s="12"/>
+      <c r="B275" s="12"/>
+      <c r="C275" s="12"/>
       <c r="D275" s="6"/>
       <c r="E275" s="6"/>
       <c r="F275" s="6"/>
@@ -7304,9 +8274,9 @@
       <c r="J275" s="7"/>
     </row>
     <row r="276" ht="21" customHeight="1">
-      <c r="A276" s="19"/>
-      <c r="B276" s="19"/>
-      <c r="C276" s="19"/>
+      <c r="A276" s="12"/>
+      <c r="B276" s="12"/>
+      <c r="C276" s="12"/>
       <c r="D276" s="6"/>
       <c r="E276" s="6"/>
       <c r="F276" s="6"/>
@@ -7316,9 +8286,9 @@
       <c r="J276" s="7"/>
     </row>
     <row r="277" ht="21" customHeight="1">
-      <c r="A277" s="19"/>
-      <c r="B277" s="19"/>
-      <c r="C277" s="19"/>
+      <c r="A277" s="12"/>
+      <c r="B277" s="12"/>
+      <c r="C277" s="12"/>
       <c r="D277" s="6"/>
       <c r="E277" s="6"/>
       <c r="F277" s="6"/>
@@ -7330,7 +8300,7 @@
     <row r="278" ht="21" customHeight="1">
       <c r="A278" s="26"/>
       <c r="B278" s="26"/>
-      <c r="C278" s="19"/>
+      <c r="C278" s="12"/>
       <c r="D278" s="6"/>
       <c r="E278" s="6"/>
       <c r="F278" s="6"/>
@@ -7361,24 +8331,24 @@
       <c r="G280" s="6"/>
       <c r="H280" s="6"/>
       <c r="I280" s="6"/>
-      <c r="J280" s="12"/>
+      <c r="J280" s="9"/>
     </row>
     <row r="281" ht="21" customHeight="1">
       <c r="A281" s="28"/>
       <c r="B281" s="28"/>
-      <c r="C281" s="19"/>
+      <c r="C281" s="12"/>
       <c r="D281" s="6"/>
       <c r="E281" s="6"/>
       <c r="F281" s="6"/>
       <c r="G281" s="6"/>
       <c r="H281" s="6"/>
       <c r="I281" s="6"/>
-      <c r="J281" s="14"/>
+      <c r="J281" s="11"/>
     </row>
     <row r="282" ht="21" customHeight="1">
-      <c r="A282" s="19"/>
-      <c r="B282" s="19"/>
-      <c r="C282" s="19"/>
+      <c r="A282" s="12"/>
+      <c r="B282" s="12"/>
+      <c r="C282" s="12"/>
       <c r="D282" s="6"/>
       <c r="E282" s="6"/>
       <c r="F282" s="6"/>
@@ -7388,33 +8358,33 @@
       <c r="J282" s="7"/>
     </row>
     <row r="283" ht="21" customHeight="1">
-      <c r="A283" s="19"/>
-      <c r="B283" s="19"/>
-      <c r="C283" s="19"/>
+      <c r="A283" s="12"/>
+      <c r="B283" s="12"/>
+      <c r="C283" s="12"/>
       <c r="D283" s="6"/>
       <c r="E283" s="6"/>
       <c r="F283" s="6"/>
       <c r="G283" s="6"/>
       <c r="H283" s="6"/>
       <c r="I283" s="6"/>
-      <c r="J283" s="12"/>
+      <c r="J283" s="9"/>
     </row>
     <row r="284" ht="21" customHeight="1">
-      <c r="A284" s="19"/>
-      <c r="B284" s="19"/>
-      <c r="C284" s="19"/>
+      <c r="A284" s="12"/>
+      <c r="B284" s="12"/>
+      <c r="C284" s="12"/>
       <c r="D284" s="6"/>
       <c r="E284" s="6"/>
       <c r="F284" s="6"/>
       <c r="G284" s="6"/>
       <c r="H284" s="6"/>
       <c r="I284" s="6"/>
-      <c r="J284" s="14"/>
+      <c r="J284" s="11"/>
     </row>
     <row r="285" ht="21" customHeight="1">
-      <c r="A285" s="19"/>
-      <c r="B285" s="19"/>
-      <c r="C285" s="19"/>
+      <c r="A285" s="12"/>
+      <c r="B285" s="12"/>
+      <c r="C285" s="12"/>
       <c r="D285" s="6"/>
       <c r="E285" s="6"/>
       <c r="F285" s="6"/>
@@ -7424,33 +8394,33 @@
       <c r="J285" s="7"/>
     </row>
     <row r="286" ht="21" customHeight="1">
-      <c r="A286" s="19"/>
-      <c r="B286" s="19"/>
-      <c r="C286" s="19"/>
+      <c r="A286" s="12"/>
+      <c r="B286" s="12"/>
+      <c r="C286" s="12"/>
       <c r="D286" s="6"/>
       <c r="E286" s="6"/>
       <c r="F286" s="6"/>
       <c r="G286" s="6"/>
       <c r="H286" s="6"/>
       <c r="I286" s="6"/>
-      <c r="J286" s="12"/>
+      <c r="J286" s="9"/>
     </row>
     <row r="287" ht="21" customHeight="1">
-      <c r="A287" s="19"/>
-      <c r="B287" s="19"/>
-      <c r="C287" s="19"/>
+      <c r="A287" s="12"/>
+      <c r="B287" s="12"/>
+      <c r="C287" s="12"/>
       <c r="D287" s="6"/>
       <c r="E287" s="6"/>
       <c r="F287" s="6"/>
       <c r="G287" s="6"/>
       <c r="H287" s="6"/>
       <c r="I287" s="6"/>
-      <c r="J287" s="14"/>
+      <c r="J287" s="11"/>
     </row>
     <row r="288" ht="21" customHeight="1">
-      <c r="A288" s="19"/>
-      <c r="B288" s="19"/>
-      <c r="C288" s="19"/>
+      <c r="A288" s="12"/>
+      <c r="B288" s="12"/>
+      <c r="C288" s="12"/>
       <c r="D288" s="6"/>
       <c r="E288" s="6"/>
       <c r="F288" s="6"/>
@@ -7460,9 +8430,9 @@
       <c r="J288" s="7"/>
     </row>
     <row r="289" ht="21" customHeight="1">
-      <c r="A289" s="19"/>
-      <c r="B289" s="19"/>
-      <c r="C289" s="19"/>
+      <c r="A289" s="12"/>
+      <c r="B289" s="12"/>
+      <c r="C289" s="12"/>
       <c r="D289" s="6"/>
       <c r="E289" s="6"/>
       <c r="F289" s="6"/>
@@ -7472,9 +8442,9 @@
       <c r="J289" s="7"/>
     </row>
     <row r="290" ht="21" customHeight="1">
-      <c r="A290" s="19"/>
-      <c r="B290" s="19"/>
-      <c r="C290" s="19"/>
+      <c r="A290" s="12"/>
+      <c r="B290" s="12"/>
+      <c r="C290" s="12"/>
       <c r="D290" s="6"/>
       <c r="E290" s="6"/>
       <c r="F290" s="6"/>
@@ -7484,9 +8454,9 @@
       <c r="J290" s="7"/>
     </row>
     <row r="291" ht="21" customHeight="1">
-      <c r="A291" s="19"/>
-      <c r="B291" s="19"/>
-      <c r="C291" s="19"/>
+      <c r="A291" s="12"/>
+      <c r="B291" s="12"/>
+      <c r="C291" s="12"/>
       <c r="D291" s="6"/>
       <c r="E291" s="6"/>
       <c r="F291" s="6"/>
@@ -7496,9 +8466,9 @@
       <c r="J291" s="7"/>
     </row>
     <row r="292" ht="21" customHeight="1">
-      <c r="A292" s="19"/>
-      <c r="B292" s="19"/>
-      <c r="C292" s="19"/>
+      <c r="A292" s="12"/>
+      <c r="B292" s="12"/>
+      <c r="C292" s="12"/>
       <c r="D292" s="6"/>
       <c r="E292" s="6"/>
       <c r="F292" s="6"/>
@@ -7510,7 +8480,7 @@
     <row r="293" ht="21" customHeight="1">
       <c r="A293" s="26"/>
       <c r="B293" s="26"/>
-      <c r="C293" s="19"/>
+      <c r="C293" s="12"/>
       <c r="D293" s="6"/>
       <c r="E293" s="6"/>
       <c r="F293" s="6"/>
@@ -7529,24 +8499,24 @@
       <c r="G294" s="6"/>
       <c r="H294" s="6"/>
       <c r="I294" s="6"/>
-      <c r="J294" s="12"/>
+      <c r="J294" s="9"/>
     </row>
     <row r="295" ht="20.7" customHeight="1">
       <c r="A295" s="28"/>
       <c r="B295" s="28"/>
-      <c r="C295" s="19"/>
-      <c r="D295" s="19"/>
-      <c r="E295" s="19"/>
-      <c r="F295" s="19"/>
-      <c r="G295" s="19"/>
+      <c r="C295" s="12"/>
+      <c r="D295" s="12"/>
+      <c r="E295" s="12"/>
+      <c r="F295" s="12"/>
+      <c r="G295" s="12"/>
       <c r="H295" s="6"/>
-      <c r="I295" s="19"/>
-      <c r="J295" s="22"/>
+      <c r="I295" s="12"/>
+      <c r="J295" s="14"/>
     </row>
     <row r="296" ht="21" customHeight="1">
-      <c r="A296" s="19"/>
-      <c r="B296" s="19"/>
-      <c r="C296" s="19"/>
+      <c r="A296" s="12"/>
+      <c r="B296" s="12"/>
+      <c r="C296" s="12"/>
       <c r="D296" s="6"/>
       <c r="E296" s="6"/>
       <c r="F296" s="6"/>
@@ -7556,9 +8526,9 @@
       <c r="J296" s="7"/>
     </row>
     <row r="297" ht="21" customHeight="1">
-      <c r="A297" s="19"/>
-      <c r="B297" s="19"/>
-      <c r="C297" s="19"/>
+      <c r="A297" s="12"/>
+      <c r="B297" s="12"/>
+      <c r="C297" s="12"/>
       <c r="D297" s="6"/>
       <c r="E297" s="6"/>
       <c r="F297" s="6"/>
@@ -7568,9 +8538,9 @@
       <c r="J297" s="7"/>
     </row>
     <row r="298" ht="21" customHeight="1">
-      <c r="A298" s="19"/>
-      <c r="B298" s="19"/>
-      <c r="C298" s="19"/>
+      <c r="A298" s="12"/>
+      <c r="B298" s="12"/>
+      <c r="C298" s="12"/>
       <c r="D298" s="6"/>
       <c r="E298" s="6"/>
       <c r="F298" s="6"/>
@@ -7580,28 +8550,28 @@
       <c r="J298" s="7"/>
     </row>
     <row r="299" ht="21" customHeight="1">
-      <c r="A299" s="19"/>
-      <c r="B299" s="19"/>
-      <c r="C299" s="19"/>
+      <c r="A299" s="12"/>
+      <c r="B299" s="12"/>
+      <c r="C299" s="12"/>
       <c r="D299" s="6"/>
       <c r="E299" s="6"/>
       <c r="F299" s="6"/>
       <c r="G299" s="6"/>
       <c r="H299" s="6"/>
       <c r="I299" s="6"/>
-      <c r="J299" s="12"/>
+      <c r="J299" s="9"/>
     </row>
     <row r="300" ht="21" customHeight="1">
       <c r="A300" s="26"/>
       <c r="B300" s="26"/>
-      <c r="C300" s="19"/>
+      <c r="C300" s="12"/>
       <c r="D300" s="6"/>
       <c r="E300" s="6"/>
       <c r="F300" s="6"/>
       <c r="G300" s="6"/>
       <c r="H300" s="6"/>
       <c r="I300" s="6"/>
-      <c r="J300" s="14"/>
+      <c r="J300" s="11"/>
     </row>
     <row r="301" ht="21" customHeight="1">
       <c r="A301" s="27"/>
@@ -7618,127 +8588,127 @@
     <row r="302" ht="21" customHeight="1">
       <c r="A302" s="28"/>
       <c r="B302" s="28"/>
-      <c r="C302" s="19"/>
+      <c r="C302" s="12"/>
       <c r="D302" s="6"/>
       <c r="E302" s="6"/>
       <c r="F302" s="6"/>
       <c r="G302" s="6"/>
       <c r="H302" s="6"/>
       <c r="I302" s="6"/>
-      <c r="J302" s="12"/>
+      <c r="J302" s="9"/>
     </row>
     <row r="303" ht="21" customHeight="1">
-      <c r="A303" s="19"/>
-      <c r="B303" s="19"/>
-      <c r="C303" s="19"/>
+      <c r="A303" s="12"/>
+      <c r="B303" s="12"/>
+      <c r="C303" s="12"/>
       <c r="D303" s="6"/>
       <c r="E303" s="6"/>
       <c r="F303" s="6"/>
       <c r="G303" s="6"/>
       <c r="H303" s="6"/>
       <c r="I303" s="6"/>
-      <c r="J303" s="14"/>
+      <c r="J303" s="11"/>
     </row>
     <row r="304" ht="21" customHeight="1">
-      <c r="A304" s="19"/>
-      <c r="B304" s="19"/>
-      <c r="C304" s="19"/>
+      <c r="A304" s="12"/>
+      <c r="B304" s="12"/>
+      <c r="C304" s="12"/>
       <c r="D304" s="6"/>
       <c r="E304" s="6"/>
       <c r="F304" s="6"/>
       <c r="G304" s="6"/>
       <c r="H304" s="6"/>
       <c r="I304" s="6"/>
-      <c r="J304" s="12"/>
+      <c r="J304" s="9"/>
     </row>
     <row r="305" ht="20.35" customHeight="1">
-      <c r="A305" s="19"/>
-      <c r="B305" s="19"/>
-      <c r="C305" s="19"/>
-      <c r="D305" s="19"/>
-      <c r="E305" s="19"/>
-      <c r="F305" s="19"/>
-      <c r="G305" s="19"/>
+      <c r="A305" s="12"/>
+      <c r="B305" s="12"/>
+      <c r="C305" s="12"/>
+      <c r="D305" s="12"/>
+      <c r="E305" s="12"/>
+      <c r="F305" s="12"/>
+      <c r="G305" s="12"/>
       <c r="H305" s="6"/>
-      <c r="I305" s="19"/>
-      <c r="J305" s="20"/>
+      <c r="I305" s="12"/>
+      <c r="J305" s="13"/>
     </row>
     <row r="306" ht="20.35" customHeight="1">
-      <c r="A306" s="19"/>
-      <c r="B306" s="19"/>
-      <c r="C306" s="19"/>
-      <c r="D306" s="19"/>
-      <c r="E306" s="19"/>
-      <c r="F306" s="19"/>
-      <c r="G306" s="19"/>
+      <c r="A306" s="12"/>
+      <c r="B306" s="12"/>
+      <c r="C306" s="12"/>
+      <c r="D306" s="12"/>
+      <c r="E306" s="12"/>
+      <c r="F306" s="12"/>
+      <c r="G306" s="12"/>
       <c r="H306" s="6"/>
-      <c r="I306" s="19"/>
-      <c r="J306" s="22"/>
+      <c r="I306" s="12"/>
+      <c r="J306" s="14"/>
     </row>
     <row r="307" ht="21" customHeight="1">
-      <c r="A307" s="19"/>
-      <c r="B307" s="19"/>
-      <c r="C307" s="19"/>
+      <c r="A307" s="12"/>
+      <c r="B307" s="12"/>
+      <c r="C307" s="12"/>
       <c r="D307" s="6"/>
       <c r="E307" s="6"/>
       <c r="F307" s="6"/>
       <c r="G307" s="6"/>
       <c r="H307" s="6"/>
       <c r="I307" s="6"/>
-      <c r="J307" s="12"/>
+      <c r="J307" s="9"/>
     </row>
     <row r="308" ht="21" customHeight="1">
-      <c r="A308" s="19"/>
-      <c r="B308" s="19"/>
-      <c r="C308" s="19"/>
+      <c r="A308" s="12"/>
+      <c r="B308" s="12"/>
+      <c r="C308" s="12"/>
       <c r="D308" s="6"/>
       <c r="E308" s="6"/>
       <c r="F308" s="6"/>
       <c r="G308" s="6"/>
       <c r="H308" s="6"/>
       <c r="I308" s="6"/>
-      <c r="J308" s="14"/>
+      <c r="J308" s="11"/>
     </row>
     <row r="309" ht="21" customHeight="1">
-      <c r="A309" s="19"/>
-      <c r="B309" s="19"/>
-      <c r="C309" s="19"/>
+      <c r="A309" s="12"/>
+      <c r="B309" s="12"/>
+      <c r="C309" s="12"/>
       <c r="D309" s="6"/>
       <c r="E309" s="6"/>
       <c r="F309" s="6"/>
       <c r="G309" s="6"/>
       <c r="H309" s="6"/>
       <c r="I309" s="6"/>
-      <c r="J309" s="12"/>
+      <c r="J309" s="9"/>
     </row>
     <row r="310" ht="21" customHeight="1">
-      <c r="A310" s="19"/>
-      <c r="B310" s="19"/>
-      <c r="C310" s="19"/>
+      <c r="A310" s="12"/>
+      <c r="B310" s="12"/>
+      <c r="C310" s="12"/>
       <c r="D310" s="6"/>
       <c r="E310" s="6"/>
       <c r="F310" s="6"/>
       <c r="G310" s="6"/>
       <c r="H310" s="6"/>
       <c r="I310" s="6"/>
-      <c r="J310" s="14"/>
+      <c r="J310" s="11"/>
     </row>
     <row r="311" ht="21" customHeight="1">
-      <c r="A311" s="19"/>
-      <c r="B311" s="19"/>
-      <c r="C311" s="19"/>
-      <c r="D311" s="19"/>
-      <c r="E311" s="19"/>
-      <c r="F311" s="19"/>
-      <c r="G311" s="19"/>
+      <c r="A311" s="12"/>
+      <c r="B311" s="12"/>
+      <c r="C311" s="12"/>
+      <c r="D311" s="12"/>
+      <c r="E311" s="12"/>
+      <c r="F311" s="12"/>
+      <c r="G311" s="12"/>
       <c r="H311" s="6"/>
-      <c r="I311" s="19"/>
+      <c r="I311" s="12"/>
       <c r="J311" s="7"/>
     </row>
     <row r="312" ht="21" customHeight="1">
-      <c r="A312" s="19"/>
-      <c r="B312" s="19"/>
-      <c r="C312" s="19"/>
+      <c r="A312" s="12"/>
+      <c r="B312" s="12"/>
+      <c r="C312" s="12"/>
       <c r="D312" s="6"/>
       <c r="E312" s="6"/>
       <c r="F312" s="6"/>
@@ -7748,33 +8718,33 @@
       <c r="J312" s="7"/>
     </row>
     <row r="313" ht="21" customHeight="1">
-      <c r="A313" s="19"/>
-      <c r="B313" s="19"/>
-      <c r="C313" s="19"/>
+      <c r="A313" s="12"/>
+      <c r="B313" s="12"/>
+      <c r="C313" s="12"/>
       <c r="D313" s="6"/>
       <c r="E313" s="6"/>
       <c r="F313" s="6"/>
       <c r="G313" s="6"/>
       <c r="H313" s="6"/>
       <c r="I313" s="6"/>
-      <c r="J313" s="12"/>
+      <c r="J313" s="9"/>
     </row>
     <row r="314" ht="20.7" customHeight="1">
-      <c r="A314" s="19"/>
-      <c r="B314" s="19"/>
-      <c r="C314" s="19"/>
-      <c r="D314" s="19"/>
-      <c r="E314" s="19"/>
-      <c r="F314" s="19"/>
-      <c r="G314" s="19"/>
+      <c r="A314" s="12"/>
+      <c r="B314" s="12"/>
+      <c r="C314" s="12"/>
+      <c r="D314" s="12"/>
+      <c r="E314" s="12"/>
+      <c r="F314" s="12"/>
+      <c r="G314" s="12"/>
       <c r="H314" s="6"/>
-      <c r="I314" s="19"/>
-      <c r="J314" s="22"/>
+      <c r="I314" s="12"/>
+      <c r="J314" s="14"/>
     </row>
     <row r="315" ht="21" customHeight="1">
-      <c r="A315" s="19"/>
-      <c r="B315" s="19"/>
-      <c r="C315" s="19"/>
+      <c r="A315" s="12"/>
+      <c r="B315" s="12"/>
+      <c r="C315" s="12"/>
       <c r="D315" s="6"/>
       <c r="E315" s="6"/>
       <c r="F315" s="6"/>
@@ -7784,9 +8754,9 @@
       <c r="J315" s="7"/>
     </row>
     <row r="316" ht="21" customHeight="1">
-      <c r="A316" s="19"/>
-      <c r="B316" s="19"/>
-      <c r="C316" s="19"/>
+      <c r="A316" s="12"/>
+      <c r="B316" s="12"/>
+      <c r="C316" s="12"/>
       <c r="D316" s="6"/>
       <c r="E316" s="6"/>
       <c r="F316" s="6"/>
@@ -7796,33 +8766,33 @@
       <c r="J316" s="7"/>
     </row>
     <row r="317" ht="21" customHeight="1">
-      <c r="A317" s="19"/>
-      <c r="B317" s="19"/>
-      <c r="C317" s="19"/>
+      <c r="A317" s="12"/>
+      <c r="B317" s="12"/>
+      <c r="C317" s="12"/>
       <c r="D317" s="6"/>
       <c r="E317" s="6"/>
       <c r="F317" s="6"/>
       <c r="G317" s="6"/>
       <c r="H317" s="6"/>
       <c r="I317" s="6"/>
-      <c r="J317" s="12"/>
+      <c r="J317" s="9"/>
     </row>
     <row r="318" ht="21" customHeight="1">
-      <c r="A318" s="19"/>
-      <c r="B318" s="19"/>
-      <c r="C318" s="19"/>
+      <c r="A318" s="12"/>
+      <c r="B318" s="12"/>
+      <c r="C318" s="12"/>
       <c r="D318" s="6"/>
       <c r="E318" s="6"/>
       <c r="F318" s="6"/>
       <c r="G318" s="6"/>
       <c r="H318" s="6"/>
       <c r="I318" s="6"/>
-      <c r="J318" s="14"/>
+      <c r="J318" s="11"/>
     </row>
     <row r="319" ht="21" customHeight="1">
-      <c r="A319" s="19"/>
-      <c r="B319" s="19"/>
-      <c r="C319" s="19"/>
+      <c r="A319" s="12"/>
+      <c r="B319" s="12"/>
+      <c r="C319" s="12"/>
       <c r="D319" s="6"/>
       <c r="E319" s="6"/>
       <c r="F319" s="6"/>
@@ -7832,9 +8802,9 @@
       <c r="J319" s="7"/>
     </row>
     <row r="320" ht="21" customHeight="1">
-      <c r="A320" s="19"/>
-      <c r="B320" s="19"/>
-      <c r="C320" s="19"/>
+      <c r="A320" s="12"/>
+      <c r="B320" s="12"/>
+      <c r="C320" s="12"/>
       <c r="D320" s="6"/>
       <c r="E320" s="6"/>
       <c r="F320" s="6"/>
@@ -7844,9 +8814,9 @@
       <c r="J320" s="7"/>
     </row>
     <row r="321" ht="21" customHeight="1">
-      <c r="A321" s="19"/>
-      <c r="B321" s="19"/>
-      <c r="C321" s="19"/>
+      <c r="A321" s="12"/>
+      <c r="B321" s="12"/>
+      <c r="C321" s="12"/>
       <c r="D321" s="6"/>
       <c r="E321" s="6"/>
       <c r="F321" s="6"/>
@@ -7856,9 +8826,9 @@
       <c r="J321" s="7"/>
     </row>
     <row r="322" ht="21" customHeight="1">
-      <c r="A322" s="19"/>
-      <c r="B322" s="19"/>
-      <c r="C322" s="19"/>
+      <c r="A322" s="12"/>
+      <c r="B322" s="12"/>
+      <c r="C322" s="12"/>
       <c r="D322" s="6"/>
       <c r="E322" s="6"/>
       <c r="F322" s="6"/>
@@ -7870,7 +8840,7 @@
     <row r="323" ht="21" customHeight="1">
       <c r="A323" s="26"/>
       <c r="B323" s="26"/>
-      <c r="C323" s="19"/>
+      <c r="C323" s="12"/>
       <c r="D323" s="6"/>
       <c r="E323" s="6"/>
       <c r="F323" s="6"/>
@@ -7913,24 +8883,24 @@
       <c r="G326" s="6"/>
       <c r="H326" s="6"/>
       <c r="I326" s="6"/>
-      <c r="J326" s="12"/>
+      <c r="J326" s="9"/>
     </row>
     <row r="327" ht="21" customHeight="1">
       <c r="A327" s="28"/>
       <c r="B327" s="28"/>
-      <c r="C327" s="19"/>
+      <c r="C327" s="12"/>
       <c r="D327" s="6"/>
       <c r="E327" s="6"/>
       <c r="F327" s="6"/>
       <c r="G327" s="6"/>
       <c r="H327" s="6"/>
       <c r="I327" s="6"/>
-      <c r="J327" s="14"/>
+      <c r="J327" s="11"/>
     </row>
     <row r="328" ht="21" customHeight="1">
-      <c r="A328" s="19"/>
-      <c r="B328" s="19"/>
-      <c r="C328" s="19"/>
+      <c r="A328" s="12"/>
+      <c r="B328" s="12"/>
+      <c r="C328" s="12"/>
       <c r="D328" s="6"/>
       <c r="E328" s="6"/>
       <c r="F328" s="6"/>
@@ -7940,9 +8910,9 @@
       <c r="J328" s="7"/>
     </row>
     <row r="329" ht="21" customHeight="1">
-      <c r="A329" s="19"/>
-      <c r="B329" s="19"/>
-      <c r="C329" s="19"/>
+      <c r="A329" s="12"/>
+      <c r="B329" s="12"/>
+      <c r="C329" s="12"/>
       <c r="D329" s="6"/>
       <c r="E329" s="6"/>
       <c r="F329" s="6"/>
@@ -7952,9 +8922,9 @@
       <c r="J329" s="7"/>
     </row>
     <row r="330" ht="21" customHeight="1">
-      <c r="A330" s="19"/>
-      <c r="B330" s="19"/>
-      <c r="C330" s="19"/>
+      <c r="A330" s="12"/>
+      <c r="B330" s="12"/>
+      <c r="C330" s="12"/>
       <c r="D330" s="6"/>
       <c r="E330" s="6"/>
       <c r="F330" s="6"/>
@@ -7964,40 +8934,40 @@
       <c r="J330" s="7"/>
     </row>
     <row r="331" ht="21" customHeight="1">
-      <c r="A331" s="19"/>
-      <c r="B331" s="19"/>
-      <c r="C331" s="19"/>
+      <c r="A331" s="12"/>
+      <c r="B331" s="12"/>
+      <c r="C331" s="12"/>
       <c r="D331" s="6"/>
       <c r="E331" s="6"/>
       <c r="F331" s="6"/>
       <c r="G331" s="6"/>
       <c r="H331" s="6"/>
       <c r="I331" s="6"/>
-      <c r="J331" s="12"/>
+      <c r="J331" s="9"/>
     </row>
     <row r="332" ht="21" customHeight="1">
-      <c r="A332" s="19"/>
-      <c r="B332" s="19"/>
-      <c r="C332" s="19"/>
+      <c r="A332" s="12"/>
+      <c r="B332" s="12"/>
+      <c r="C332" s="12"/>
       <c r="D332" s="6"/>
       <c r="E332" s="6"/>
       <c r="F332" s="6"/>
       <c r="G332" s="6"/>
       <c r="H332" s="6"/>
       <c r="I332" s="6"/>
-      <c r="J332" s="13"/>
+      <c r="J332" s="10"/>
     </row>
     <row r="333" ht="20.7" customHeight="1">
       <c r="A333" s="26"/>
       <c r="B333" s="26"/>
-      <c r="C333" s="19"/>
-      <c r="D333" s="19"/>
-      <c r="E333" s="19"/>
-      <c r="F333" s="19"/>
-      <c r="G333" s="19"/>
+      <c r="C333" s="12"/>
+      <c r="D333" s="12"/>
+      <c r="E333" s="12"/>
+      <c r="F333" s="12"/>
+      <c r="G333" s="12"/>
       <c r="H333" s="6"/>
-      <c r="I333" s="19"/>
-      <c r="J333" s="22"/>
+      <c r="I333" s="12"/>
+      <c r="J333" s="14"/>
     </row>
     <row r="334" ht="21" customHeight="1">
       <c r="A334" s="27"/>
@@ -8021,24 +8991,24 @@
       <c r="G335" s="6"/>
       <c r="H335" s="6"/>
       <c r="I335" s="6"/>
-      <c r="J335" s="12"/>
+      <c r="J335" s="9"/>
     </row>
     <row r="336" ht="21" customHeight="1">
       <c r="A336" s="28"/>
       <c r="B336" s="28"/>
-      <c r="C336" s="19"/>
+      <c r="C336" s="12"/>
       <c r="D336" s="6"/>
       <c r="E336" s="6"/>
       <c r="F336" s="6"/>
       <c r="G336" s="6"/>
       <c r="H336" s="6"/>
       <c r="I336" s="6"/>
-      <c r="J336" s="14"/>
+      <c r="J336" s="11"/>
     </row>
     <row r="337" ht="21" customHeight="1">
-      <c r="A337" s="19"/>
-      <c r="B337" s="19"/>
-      <c r="C337" s="19"/>
+      <c r="A337" s="12"/>
+      <c r="B337" s="12"/>
+      <c r="C337" s="12"/>
       <c r="D337" s="6"/>
       <c r="E337" s="6"/>
       <c r="F337" s="6"/>
@@ -8048,9 +9018,9 @@
       <c r="J337" s="7"/>
     </row>
     <row r="338" ht="21" customHeight="1">
-      <c r="A338" s="19"/>
-      <c r="B338" s="19"/>
-      <c r="C338" s="19"/>
+      <c r="A338" s="12"/>
+      <c r="B338" s="12"/>
+      <c r="C338" s="12"/>
       <c r="D338" s="6"/>
       <c r="E338" s="6"/>
       <c r="F338" s="6"/>
@@ -8060,33 +9030,33 @@
       <c r="J338" s="7"/>
     </row>
     <row r="339" ht="21" customHeight="1">
-      <c r="A339" s="19"/>
-      <c r="B339" s="19"/>
-      <c r="C339" s="19"/>
+      <c r="A339" s="12"/>
+      <c r="B339" s="12"/>
+      <c r="C339" s="12"/>
       <c r="D339" s="6"/>
       <c r="E339" s="6"/>
       <c r="F339" s="6"/>
       <c r="G339" s="6"/>
       <c r="H339" s="6"/>
       <c r="I339" s="6"/>
-      <c r="J339" s="12"/>
+      <c r="J339" s="9"/>
     </row>
     <row r="340" ht="21" customHeight="1">
-      <c r="A340" s="19"/>
-      <c r="B340" s="19"/>
-      <c r="C340" s="19"/>
+      <c r="A340" s="12"/>
+      <c r="B340" s="12"/>
+      <c r="C340" s="12"/>
       <c r="D340" s="6"/>
       <c r="E340" s="6"/>
       <c r="F340" s="6"/>
       <c r="G340" s="6"/>
       <c r="H340" s="6"/>
       <c r="I340" s="6"/>
-      <c r="J340" s="14"/>
+      <c r="J340" s="11"/>
     </row>
     <row r="341" ht="21" customHeight="1">
-      <c r="A341" s="19"/>
-      <c r="B341" s="19"/>
-      <c r="C341" s="19"/>
+      <c r="A341" s="12"/>
+      <c r="B341" s="12"/>
+      <c r="C341" s="12"/>
       <c r="D341" s="6"/>
       <c r="E341" s="6"/>
       <c r="F341" s="6"/>
@@ -8096,9 +9066,9 @@
       <c r="J341" s="7"/>
     </row>
     <row r="342" ht="21" customHeight="1">
-      <c r="A342" s="19"/>
-      <c r="B342" s="19"/>
-      <c r="C342" s="19"/>
+      <c r="A342" s="12"/>
+      <c r="B342" s="12"/>
+      <c r="C342" s="12"/>
       <c r="D342" s="6"/>
       <c r="E342" s="6"/>
       <c r="F342" s="6"/>
@@ -8108,9 +9078,9 @@
       <c r="J342" s="7"/>
     </row>
     <row r="343" ht="21" customHeight="1">
-      <c r="A343" s="19"/>
-      <c r="B343" s="19"/>
-      <c r="C343" s="19"/>
+      <c r="A343" s="12"/>
+      <c r="B343" s="12"/>
+      <c r="C343" s="12"/>
       <c r="D343" s="6"/>
       <c r="E343" s="6"/>
       <c r="F343" s="6"/>
@@ -8120,28 +9090,28 @@
       <c r="J343" s="7"/>
     </row>
     <row r="344" ht="21" customHeight="1">
-      <c r="A344" s="19"/>
-      <c r="B344" s="19"/>
-      <c r="C344" s="19"/>
+      <c r="A344" s="12"/>
+      <c r="B344" s="12"/>
+      <c r="C344" s="12"/>
       <c r="D344" s="6"/>
       <c r="E344" s="6"/>
       <c r="F344" s="6"/>
       <c r="G344" s="6"/>
       <c r="H344" s="6"/>
       <c r="I344" s="6"/>
-      <c r="J344" s="12"/>
+      <c r="J344" s="9"/>
     </row>
     <row r="345" ht="21" customHeight="1">
       <c r="A345" s="26"/>
       <c r="B345" s="26"/>
-      <c r="C345" s="19"/>
+      <c r="C345" s="12"/>
       <c r="D345" s="6"/>
       <c r="E345" s="6"/>
       <c r="F345" s="6"/>
       <c r="G345" s="6"/>
       <c r="H345" s="6"/>
       <c r="I345" s="6"/>
-      <c r="J345" s="14"/>
+      <c r="J345" s="11"/>
     </row>
     <row r="346" ht="21" customHeight="1">
       <c r="A346" s="27"/>
@@ -8153,48 +9123,48 @@
       <c r="G346" s="6"/>
       <c r="H346" s="6"/>
       <c r="I346" s="6"/>
-      <c r="J346" s="12"/>
+      <c r="J346" s="9"/>
     </row>
     <row r="347" ht="21" customHeight="1">
       <c r="A347" s="28"/>
       <c r="B347" s="28"/>
-      <c r="C347" s="19"/>
+      <c r="C347" s="12"/>
       <c r="D347" s="6"/>
       <c r="E347" s="6"/>
       <c r="F347" s="6"/>
       <c r="G347" s="6"/>
       <c r="H347" s="6"/>
       <c r="I347" s="6"/>
-      <c r="J347" s="14"/>
+      <c r="J347" s="11"/>
     </row>
     <row r="348" ht="21" customHeight="1">
-      <c r="A348" s="19"/>
-      <c r="B348" s="19"/>
-      <c r="C348" s="19"/>
+      <c r="A348" s="12"/>
+      <c r="B348" s="12"/>
+      <c r="C348" s="12"/>
       <c r="D348" s="6"/>
       <c r="E348" s="6"/>
       <c r="F348" s="6"/>
       <c r="G348" s="6"/>
       <c r="H348" s="6"/>
       <c r="I348" s="6"/>
-      <c r="J348" s="12"/>
+      <c r="J348" s="9"/>
     </row>
     <row r="349" ht="21" customHeight="1">
-      <c r="A349" s="19"/>
-      <c r="B349" s="19"/>
-      <c r="C349" s="19"/>
+      <c r="A349" s="12"/>
+      <c r="B349" s="12"/>
+      <c r="C349" s="12"/>
       <c r="D349" s="6"/>
       <c r="E349" s="6"/>
       <c r="F349" s="6"/>
       <c r="G349" s="6"/>
       <c r="H349" s="6"/>
       <c r="I349" s="6"/>
-      <c r="J349" s="14"/>
+      <c r="J349" s="11"/>
     </row>
     <row r="350" ht="21" customHeight="1">
-      <c r="A350" s="19"/>
-      <c r="B350" s="19"/>
-      <c r="C350" s="19"/>
+      <c r="A350" s="12"/>
+      <c r="B350" s="12"/>
+      <c r="C350" s="12"/>
       <c r="D350" s="6"/>
       <c r="E350" s="6"/>
       <c r="F350" s="6"/>
@@ -8204,9 +9174,9 @@
       <c r="J350" s="7"/>
     </row>
     <row r="351" ht="21" customHeight="1">
-      <c r="A351" s="19"/>
-      <c r="B351" s="19"/>
-      <c r="C351" s="19"/>
+      <c r="A351" s="12"/>
+      <c r="B351" s="12"/>
+      <c r="C351" s="12"/>
       <c r="D351" s="6"/>
       <c r="E351" s="6"/>
       <c r="F351" s="6"/>
@@ -8216,9 +9186,9 @@
       <c r="J351" s="7"/>
     </row>
     <row r="352" ht="21" customHeight="1">
-      <c r="A352" s="19"/>
-      <c r="B352" s="19"/>
-      <c r="C352" s="19"/>
+      <c r="A352" s="12"/>
+      <c r="B352" s="12"/>
+      <c r="C352" s="12"/>
       <c r="D352" s="6"/>
       <c r="E352" s="6"/>
       <c r="F352" s="6"/>
@@ -8228,40 +9198,40 @@
       <c r="J352" s="7"/>
     </row>
     <row r="353" ht="21" customHeight="1">
-      <c r="A353" s="19"/>
-      <c r="B353" s="19"/>
-      <c r="C353" s="19"/>
+      <c r="A353" s="12"/>
+      <c r="B353" s="12"/>
+      <c r="C353" s="12"/>
       <c r="D353" s="6"/>
       <c r="E353" s="6"/>
       <c r="F353" s="6"/>
       <c r="G353" s="6"/>
       <c r="H353" s="6"/>
       <c r="I353" s="6"/>
-      <c r="J353" s="12"/>
+      <c r="J353" s="9"/>
     </row>
     <row r="354" ht="21" customHeight="1">
-      <c r="A354" s="19"/>
-      <c r="B354" s="19"/>
-      <c r="C354" s="19"/>
+      <c r="A354" s="12"/>
+      <c r="B354" s="12"/>
+      <c r="C354" s="12"/>
       <c r="D354" s="6"/>
       <c r="E354" s="6"/>
       <c r="F354" s="6"/>
       <c r="G354" s="6"/>
       <c r="H354" s="6"/>
       <c r="I354" s="6"/>
-      <c r="J354" s="14"/>
+      <c r="J354" s="11"/>
     </row>
     <row r="355" ht="21" customHeight="1">
-      <c r="A355" s="19"/>
-      <c r="B355" s="19"/>
-      <c r="C355" s="19"/>
+      <c r="A355" s="12"/>
+      <c r="B355" s="12"/>
+      <c r="C355" s="12"/>
       <c r="D355" s="6"/>
       <c r="E355" s="6"/>
       <c r="F355" s="6"/>
       <c r="G355" s="6"/>
       <c r="H355" s="6"/>
       <c r="I355" s="6"/>
-      <c r="J355" s="12"/>
+      <c r="J355" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/cw12022023.xlsx
+++ b/cw12022023.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="483">
   <si>
     <t>Surname</t>
   </si>
@@ -253,6 +253,12 @@
     <t>H220620N</t>
   </si>
   <si>
+    <t>Chiramba</t>
+  </si>
+  <si>
+    <t>H220150G</t>
+  </si>
+  <si>
     <t>Chiswe</t>
   </si>
   <si>
@@ -388,7 +394,7 @@
     <t>Hamandishe</t>
   </si>
   <si>
-    <t>H220298H</t>
+    <t>H220289H</t>
   </si>
   <si>
     <t>Hunda</t>
@@ -1054,6 +1060,12 @@
     <t>H220578V</t>
   </si>
   <si>
+    <t>Muusha</t>
+  </si>
+  <si>
+    <t>H220338H</t>
+  </si>
+  <si>
     <t>Muwisa</t>
   </si>
   <si>
@@ -1228,6 +1240,12 @@
     <t>H220003C</t>
   </si>
   <si>
+    <t>Pepukani</t>
+  </si>
+  <si>
+    <t>H210706T</t>
+  </si>
+  <si>
     <t>Phiri</t>
   </si>
   <si>
@@ -1240,6 +1258,12 @@
     <t>H220485J</t>
   </si>
   <si>
+    <t>Ranganai</t>
+  </si>
+  <si>
+    <t>H220164N</t>
+  </si>
+  <si>
     <t>Ratinina</t>
   </si>
   <si>
@@ -1432,7 +1456,7 @@
     <t>H220547T</t>
   </si>
   <si>
-    <t>Zvivanashe</t>
+    <t>Zvinavashe</t>
   </si>
   <si>
     <t>H220208H</t>
@@ -1753,6 +1777,9 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="59" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1777,9 +1804,6 @@
     <xf numFmtId="2" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1789,14 +1813,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
@@ -3031,7 +3055,9 @@
       <c r="C6" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="6">
+        <v>0.642857142857143</v>
+      </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -3113,7 +3139,9 @@
       <c r="C10" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="D10" s="12"/>
+      <c r="D10" s="14">
+        <v>0.666666666666667</v>
+      </c>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -3121,16 +3149,16 @@
         <v>0.722222222222222</v>
       </c>
       <c r="I10" s="12"/>
-      <c r="J10" s="14"/>
+      <c r="J10" s="15"/>
     </row>
     <row r="11" ht="21" customHeight="1">
-      <c r="A11" t="s" s="15">
+      <c r="A11" t="s" s="16">
         <v>32</v>
       </c>
-      <c r="B11" t="s" s="15">
+      <c r="B11" t="s" s="16">
         <v>33</v>
       </c>
-      <c r="C11" t="s" s="16">
+      <c r="C11" t="s" s="17">
         <v>15</v>
       </c>
       <c r="D11" s="6">
@@ -3146,13 +3174,13 @@
       <c r="J11" s="7"/>
     </row>
     <row r="12" ht="21" customHeight="1">
-      <c r="A12" t="s" s="17">
+      <c r="A12" t="s" s="18">
         <v>34</v>
       </c>
-      <c r="B12" t="s" s="17">
+      <c r="B12" t="s" s="18">
         <v>35</v>
       </c>
-      <c r="C12" t="s" s="16">
+      <c r="C12" t="s" s="17">
         <v>36</v>
       </c>
       <c r="D12" s="6">
@@ -3199,7 +3227,9 @@
       <c r="C14" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="D14" s="6"/>
+      <c r="D14" s="6">
+        <v>0.928571428571429</v>
+      </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
@@ -3210,13 +3240,13 @@
       <c r="J14" s="11"/>
     </row>
     <row r="15" ht="21" customHeight="1">
-      <c r="A15" t="s" s="17">
+      <c r="A15" t="s" s="18">
         <v>41</v>
       </c>
-      <c r="B15" t="s" s="17">
+      <c r="B15" t="s" s="18">
         <v>42</v>
       </c>
-      <c r="C15" t="s" s="16">
+      <c r="C15" t="s" s="17">
         <v>12</v>
       </c>
       <c r="D15" s="6">
@@ -3241,7 +3271,9 @@
       <c r="C16" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="D16" s="6"/>
+      <c r="D16" s="6">
+        <v>0.476190476190476</v>
+      </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
@@ -3252,13 +3284,13 @@
       <c r="J16" s="7"/>
     </row>
     <row r="17" ht="21" customHeight="1">
-      <c r="A17" t="s" s="17">
+      <c r="A17" t="s" s="18">
         <v>45</v>
       </c>
-      <c r="B17" t="s" s="17">
+      <c r="B17" t="s" s="18">
         <v>46</v>
       </c>
-      <c r="C17" t="s" s="16">
+      <c r="C17" t="s" s="17">
         <v>15</v>
       </c>
       <c r="D17" s="6">
@@ -3325,7 +3357,9 @@
       <c r="C20" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="D20" s="6"/>
+      <c r="D20" s="6">
+        <v>0.785714285714286</v>
+      </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
@@ -3358,13 +3392,13 @@
       <c r="J21" s="9"/>
     </row>
     <row r="22" ht="21" customHeight="1">
-      <c r="A22" t="s" s="17">
+      <c r="A22" t="s" s="18">
         <v>55</v>
       </c>
-      <c r="B22" t="s" s="17">
+      <c r="B22" t="s" s="18">
         <v>56</v>
       </c>
-      <c r="C22" t="s" s="16">
+      <c r="C22" t="s" s="17">
         <v>18</v>
       </c>
       <c r="D22" s="6">
@@ -3411,7 +3445,9 @@
       <c r="C24" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="D24" s="6"/>
+      <c r="D24" s="6">
+        <v>0.904761904761905</v>
+      </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
@@ -3444,47 +3480,47 @@
       <c r="J25" s="7"/>
     </row>
     <row r="26" ht="21" customHeight="1">
-      <c r="A26" t="s" s="15">
+      <c r="A26" t="s" s="16">
         <v>63</v>
       </c>
-      <c r="B26" t="s" s="15">
+      <c r="B26" t="s" s="16">
         <v>64</v>
       </c>
-      <c r="C26" t="s" s="18">
+      <c r="C26" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="D26" s="19">
+      <c r="D26" s="20">
         <v>0.761904761904762</v>
       </c>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19">
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20">
         <v>0.638888888888889</v>
       </c>
-      <c r="I26" s="19"/>
+      <c r="I26" s="20"/>
       <c r="J26" s="7"/>
     </row>
     <row r="27" ht="21" customHeight="1">
-      <c r="A27" t="s" s="17">
+      <c r="A27" t="s" s="18">
         <v>65</v>
       </c>
-      <c r="B27" t="s" s="17">
+      <c r="B27" t="s" s="18">
         <v>66</v>
       </c>
-      <c r="C27" t="s" s="20">
+      <c r="C27" t="s" s="21">
         <v>67</v>
       </c>
-      <c r="D27" s="21">
+      <c r="D27" s="22">
         <v>0.738095238095238</v>
       </c>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21">
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22">
         <v>0.694444444444444</v>
       </c>
-      <c r="I27" s="21"/>
+      <c r="I27" s="22"/>
       <c r="J27" s="9"/>
     </row>
     <row r="28" ht="20.7" customHeight="1">
@@ -3497,7 +3533,9 @@
       <c r="C28" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D28" s="12"/>
+      <c r="D28" s="14">
+        <v>0.69047619047619</v>
+      </c>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
       <c r="G28" s="12"/>
@@ -3505,7 +3543,7 @@
         <v>0.777777777777778</v>
       </c>
       <c r="I28" s="12"/>
-      <c r="J28" s="14"/>
+      <c r="J28" s="15"/>
     </row>
     <row r="29" ht="21" customHeight="1">
       <c r="A29" t="s" s="4">
@@ -3517,7 +3555,9 @@
       <c r="C29" t="s" s="5">
         <v>36</v>
       </c>
-      <c r="D29" s="6"/>
+      <c r="D29" s="6">
+        <v>0.785714285714286</v>
+      </c>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
@@ -3556,8 +3596,12 @@
       <c r="B31" t="s" s="5">
         <v>75</v>
       </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
+      <c r="C31" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="D31" s="14">
+        <v>0.880952380952381</v>
+      </c>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
@@ -3577,7 +3621,9 @@
       <c r="C32" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="D32" s="6"/>
+      <c r="D32" s="6">
+        <v>0.880952380952381</v>
+      </c>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
@@ -3597,7 +3643,7 @@
       <c r="C33" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D33" s="22">
+      <c r="D33" s="14">
         <v>0.666666666666667</v>
       </c>
       <c r="E33" s="12"/>
@@ -3607,187 +3653,187 @@
         <v>0.805555555555556</v>
       </c>
       <c r="I33" s="12"/>
-      <c r="J33" s="14"/>
+      <c r="J33" s="13"/>
     </row>
     <row r="34" ht="21" customHeight="1">
-      <c r="A34" t="s" s="4">
+      <c r="A34" t="s" s="5">
         <v>80</v>
       </c>
-      <c r="B34" t="s" s="4">
+      <c r="B34" t="s" s="5">
         <v>81</v>
       </c>
       <c r="C34" t="s" s="5">
-        <v>15</v>
-      </c>
-      <c r="D34" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="D34" s="6">
+        <v>0.30952380952381</v>
+      </c>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6">
-        <v>0.777777777777778</v>
+        <v>0</v>
       </c>
       <c r="I34" s="6"/>
-      <c r="J34" s="7"/>
+      <c r="J34" s="11"/>
     </row>
     <row r="35" ht="21" customHeight="1">
-      <c r="A35" t="s" s="15">
+      <c r="A35" t="s" s="4">
         <v>82</v>
       </c>
-      <c r="B35" t="s" s="15">
+      <c r="B35" t="s" s="4">
         <v>83</v>
       </c>
-      <c r="C35" t="s" s="16">
-        <v>21</v>
-      </c>
-      <c r="D35" s="6">
-        <v>0.880952380952381</v>
-      </c>
+      <c r="C35" t="s" s="5">
+        <v>15</v>
+      </c>
+      <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6">
-        <v>0.75</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I35" s="6"/>
-      <c r="J35" s="9"/>
+      <c r="J35" s="7"/>
     </row>
     <row r="36" ht="21" customHeight="1">
-      <c r="A36" t="s" s="8">
+      <c r="A36" t="s" s="16">
         <v>84</v>
       </c>
-      <c r="B36" t="s" s="8">
+      <c r="B36" t="s" s="16">
         <v>85</v>
       </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="6"/>
+      <c r="C36" t="s" s="17">
+        <v>21</v>
+      </c>
+      <c r="D36" s="6">
+        <v>0.880952380952381</v>
+      </c>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6">
-        <v>0.638888888888889</v>
+        <v>0.75</v>
       </c>
       <c r="I36" s="6"/>
-      <c r="J36" s="11"/>
+      <c r="J36" s="9"/>
     </row>
     <row r="37" ht="21" customHeight="1">
-      <c r="A37" t="s" s="4">
+      <c r="A37" t="s" s="8">
         <v>86</v>
       </c>
-      <c r="B37" t="s" s="4">
+      <c r="B37" t="s" s="8">
         <v>87</v>
       </c>
-      <c r="C37" t="s" s="5">
-        <v>15</v>
-      </c>
-      <c r="D37" s="6">
-        <v>0.666666666666667</v>
-      </c>
+      <c r="C37" s="12"/>
+      <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6">
+        <v>0.638888888888889</v>
+      </c>
+      <c r="I37" s="6"/>
+      <c r="J37" s="11"/>
+    </row>
+    <row r="38" ht="21" customHeight="1">
+      <c r="A38" t="s" s="4">
+        <v>88</v>
+      </c>
+      <c r="B38" t="s" s="4">
+        <v>89</v>
+      </c>
+      <c r="C38" t="s" s="5">
+        <v>15</v>
+      </c>
+      <c r="D38" s="6">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6">
         <v>0</v>
       </c>
-      <c r="I37" s="6"/>
-      <c r="J37" s="9"/>
-    </row>
-    <row r="38" ht="20.7" customHeight="1">
-      <c r="A38" t="s" s="8">
-        <v>88</v>
-      </c>
-      <c r="B38" t="s" s="8">
-        <v>89</v>
-      </c>
-      <c r="C38" t="s" s="5">
+      <c r="I38" s="6"/>
+      <c r="J38" s="9"/>
+    </row>
+    <row r="39" ht="20.7" customHeight="1">
+      <c r="A39" t="s" s="8">
+        <v>90</v>
+      </c>
+      <c r="B39" t="s" s="8">
+        <v>91</v>
+      </c>
+      <c r="C39" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="6">
-        <v>0.805555555555556</v>
-      </c>
-      <c r="I38" s="12"/>
-      <c r="J38" s="13"/>
-    </row>
-    <row r="39" ht="20.7" customHeight="1">
-      <c r="A39" t="s" s="5">
-        <v>90</v>
-      </c>
-      <c r="B39" t="s" s="5">
-        <v>91</v>
-      </c>
-      <c r="C39" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="D39" s="6">
-        <v>0.214285714285714</v>
-      </c>
+      <c r="D39" s="12"/>
       <c r="E39" s="12"/>
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
       <c r="H39" s="6">
-        <v>0</v>
+        <v>0.805555555555556</v>
       </c>
       <c r="I39" s="12"/>
-      <c r="J39" s="14"/>
-    </row>
-    <row r="40" ht="21" customHeight="1">
-      <c r="A40" t="s" s="4">
+      <c r="J39" s="13"/>
+    </row>
+    <row r="40" ht="20.7" customHeight="1">
+      <c r="A40" t="s" s="5">
         <v>92</v>
       </c>
-      <c r="B40" t="s" s="4">
+      <c r="B40" t="s" s="5">
         <v>93</v>
       </c>
       <c r="C40" t="s" s="5">
         <v>21</v>
       </c>
       <c r="D40" s="6">
+        <v>0.214285714285714</v>
+      </c>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="6">
+        <v>0</v>
+      </c>
+      <c r="I40" s="12"/>
+      <c r="J40" s="15"/>
+    </row>
+    <row r="41" ht="21" customHeight="1">
+      <c r="A41" t="s" s="4">
+        <v>94</v>
+      </c>
+      <c r="B41" t="s" s="4">
+        <v>95</v>
+      </c>
+      <c r="C41" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="D41" s="6">
         <v>0.833333333333333</v>
       </c>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6">
-        <v>0.305555555555556</v>
-      </c>
-      <c r="I40" s="6"/>
-      <c r="J40" s="7"/>
-    </row>
-    <row r="41" ht="21" customHeight="1">
-      <c r="A41" t="s" s="17">
-        <v>94</v>
-      </c>
-      <c r="B41" t="s" s="17">
-        <v>95</v>
-      </c>
-      <c r="C41" t="s" s="16">
-        <v>12</v>
-      </c>
-      <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
       <c r="H41" s="6">
-        <v>0.777777777777778</v>
+        <v>0.305555555555556</v>
       </c>
       <c r="I41" s="6"/>
       <c r="J41" s="7"/>
     </row>
     <row r="42" ht="21" customHeight="1">
-      <c r="A42" t="s" s="5">
+      <c r="A42" t="s" s="18">
         <v>96</v>
       </c>
-      <c r="B42" t="s" s="5">
+      <c r="B42" t="s" s="18">
         <v>97</v>
       </c>
-      <c r="C42" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="D42" s="6">
-        <v>0.80952380952381</v>
-      </c>
+      <c r="C42" t="s" s="17">
+        <v>12</v>
+      </c>
+      <c r="D42" s="6"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
@@ -3805,16 +3851,16 @@
         <v>99</v>
       </c>
       <c r="C43" t="s" s="5">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D43" s="6">
-        <v>0.833333333333333</v>
+        <v>0.80952380952381</v>
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6">
-        <v>0.861111111111111</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I43" s="6"/>
       <c r="J43" s="7"/>
@@ -3827,144 +3873,146 @@
         <v>101</v>
       </c>
       <c r="C44" t="s" s="5">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D44" s="6">
-        <v>0.904761904761905</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="H44" s="6">
-        <v>0.777777777777778</v>
+        <v>0.861111111111111</v>
       </c>
       <c r="I44" s="6"/>
       <c r="J44" s="7"/>
     </row>
     <row r="45" ht="21" customHeight="1">
-      <c r="A45" t="s" s="4">
+      <c r="A45" t="s" s="5">
         <v>102</v>
       </c>
-      <c r="B45" t="s" s="4">
+      <c r="B45" t="s" s="5">
         <v>103</v>
       </c>
       <c r="C45" t="s" s="5">
-        <v>15</v>
-      </c>
-      <c r="D45" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="D45" s="6">
+        <v>0.904761904761905</v>
+      </c>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6">
-        <v>0.361111111111111</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I45" s="6"/>
-      <c r="J45" s="9"/>
+      <c r="J45" s="7"/>
     </row>
     <row r="46" ht="21" customHeight="1">
-      <c r="A46" t="s" s="23">
+      <c r="A46" t="s" s="4">
         <v>104</v>
       </c>
-      <c r="B46" t="s" s="23">
+      <c r="B46" t="s" s="4">
         <v>105</v>
       </c>
       <c r="C46" t="s" s="5">
-        <v>36</v>
-      </c>
-      <c r="D46" s="6">
-        <v>0.595238095238095</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6">
-        <v>0.75</v>
+        <v>0.361111111111111</v>
       </c>
       <c r="I46" s="6"/>
-      <c r="J46" s="10"/>
+      <c r="J46" s="9"/>
     </row>
     <row r="47" ht="21" customHeight="1">
-      <c r="A47" t="s" s="8">
+      <c r="A47" t="s" s="23">
         <v>106</v>
       </c>
-      <c r="B47" t="s" s="8">
+      <c r="B47" t="s" s="23">
         <v>107</v>
       </c>
       <c r="C47" t="s" s="5">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D47" s="6">
-        <v>0.571428571428571</v>
+        <v>0.595238095238095</v>
       </c>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
       <c r="H47" s="6">
-        <v>0.777777777777778</v>
+        <v>0.75</v>
       </c>
       <c r="I47" s="6"/>
       <c r="J47" s="10"/>
     </row>
-    <row r="48" ht="20.7" customHeight="1">
-      <c r="A48" t="s" s="4">
+    <row r="48" ht="21" customHeight="1">
+      <c r="A48" t="s" s="8">
         <v>108</v>
       </c>
-      <c r="B48" t="s" s="4">
+      <c r="B48" t="s" s="8">
         <v>109</v>
       </c>
       <c r="C48" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
+        <v>18</v>
+      </c>
+      <c r="D48" s="6">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
       <c r="H48" s="6">
         <v>0.777777777777778</v>
       </c>
-      <c r="I48" s="12"/>
-      <c r="J48" s="14"/>
-    </row>
-    <row r="49" ht="21" customHeight="1">
-      <c r="A49" t="s" s="17">
+      <c r="I48" s="6"/>
+      <c r="J48" s="10"/>
+    </row>
+    <row r="49" ht="20.7" customHeight="1">
+      <c r="A49" t="s" s="4">
         <v>110</v>
       </c>
-      <c r="B49" t="s" s="17">
+      <c r="B49" t="s" s="4">
         <v>111</v>
       </c>
-      <c r="C49" t="s" s="16">
+      <c r="C49" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="D49" s="14">
+        <v>0.595238095238095</v>
+      </c>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="6">
+        <v>0.777777777777778</v>
+      </c>
+      <c r="I49" s="12"/>
+      <c r="J49" s="15"/>
+    </row>
+    <row r="50" ht="21" customHeight="1">
+      <c r="A50" t="s" s="18">
+        <v>112</v>
+      </c>
+      <c r="B50" t="s" s="18">
+        <v>113</v>
+      </c>
+      <c r="C50" t="s" s="17">
         <v>67</v>
       </c>
-      <c r="D49" s="6">
+      <c r="D50" s="6">
         <v>0.761904761904762</v>
-      </c>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6">
-        <v>0.694444444444444</v>
-      </c>
-      <c r="I49" s="6"/>
-      <c r="J49" s="7"/>
-    </row>
-    <row r="50" ht="21" customHeight="1">
-      <c r="A50" t="s" s="5">
-        <v>112</v>
-      </c>
-      <c r="B50" t="s" s="5">
-        <v>113</v>
-      </c>
-      <c r="C50" t="s" s="5">
-        <v>67</v>
-      </c>
-      <c r="D50" s="6">
-        <v>0.833333333333333</v>
       </c>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6">
-        <v>0</v>
+        <v>0.694444444444444</v>
       </c>
       <c r="I50" s="6"/>
       <c r="J50" s="7"/>
@@ -3977,133 +4025,141 @@
         <v>115</v>
       </c>
       <c r="C51" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="D51" s="6"/>
+        <v>67</v>
+      </c>
+      <c r="D51" s="6">
+        <v>0.833333333333333</v>
+      </c>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
       <c r="H51" s="6">
-        <v>0.777777777777778</v>
+        <v>0</v>
       </c>
       <c r="I51" s="6"/>
       <c r="J51" s="7"/>
     </row>
     <row r="52" ht="21" customHeight="1">
-      <c r="A52" t="s" s="4">
+      <c r="A52" t="s" s="5">
         <v>116</v>
       </c>
-      <c r="B52" t="s" s="4">
+      <c r="B52" t="s" s="5">
         <v>117</v>
       </c>
       <c r="C52" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D52" s="6">
-        <v>0.571428571428571</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D52" s="6"/>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
       <c r="H52" s="6">
-        <v>0.555555555555556</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I52" s="6"/>
-      <c r="J52" s="9"/>
+      <c r="J52" s="7"/>
     </row>
     <row r="53" ht="21" customHeight="1">
-      <c r="A53" t="s" s="8">
+      <c r="A53" t="s" s="4">
         <v>118</v>
       </c>
-      <c r="B53" t="s" s="8">
+      <c r="B53" t="s" s="4">
         <v>119</v>
       </c>
       <c r="C53" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="D53" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="D53" s="6">
+        <v>0.571428571428571</v>
+      </c>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6">
-        <v>0.777777777777778</v>
+        <v>0.555555555555556</v>
       </c>
       <c r="I53" s="6"/>
-      <c r="J53" s="11"/>
+      <c r="J53" s="9"/>
     </row>
     <row r="54" ht="21" customHeight="1">
-      <c r="A54" t="s" s="5">
+      <c r="A54" t="s" s="8">
         <v>120</v>
       </c>
-      <c r="B54" t="s" s="5">
+      <c r="B54" t="s" s="8">
         <v>121</v>
       </c>
       <c r="C54" t="s" s="5">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D54" s="6">
-        <v>0.476190476190476</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
       <c r="H54" s="6">
+        <v>0.777777777777778</v>
+      </c>
+      <c r="I54" s="6"/>
+      <c r="J54" s="11"/>
+    </row>
+    <row r="55" ht="21" customHeight="1">
+      <c r="A55" t="s" s="5">
+        <v>122</v>
+      </c>
+      <c r="B55" t="s" s="5">
+        <v>123</v>
+      </c>
+      <c r="C55" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D55" s="6">
+        <v>0.476190476190476</v>
+      </c>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6">
         <v>0.75</v>
       </c>
-      <c r="I54" s="6"/>
-      <c r="J54" s="9"/>
-    </row>
-    <row r="55" ht="20.35" customHeight="1">
-      <c r="A55" t="s" s="4">
-        <v>122</v>
-      </c>
-      <c r="B55" t="s" s="4">
-        <v>123</v>
-      </c>
-      <c r="C55" t="s" s="5">
+      <c r="I55" s="6"/>
+      <c r="J55" s="9"/>
+    </row>
+    <row r="56" ht="20.35" customHeight="1">
+      <c r="A56" t="s" s="4">
+        <v>124</v>
+      </c>
+      <c r="B56" t="s" s="4">
+        <v>125</v>
+      </c>
+      <c r="C56" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="6">
+      <c r="D56" s="14">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="6">
         <v>0.777777777777778</v>
       </c>
-      <c r="I55" s="12"/>
-      <c r="J55" s="14"/>
-    </row>
-    <row r="56" ht="21" customHeight="1">
-      <c r="A56" t="s" s="15">
-        <v>124</v>
-      </c>
-      <c r="B56" t="s" s="15">
-        <v>125</v>
-      </c>
-      <c r="C56" t="s" s="16">
+      <c r="I56" s="12"/>
+      <c r="J56" s="15"/>
+    </row>
+    <row r="57" ht="21" customHeight="1">
+      <c r="A57" t="s" s="16">
+        <v>126</v>
+      </c>
+      <c r="B57" t="s" s="16">
+        <v>127</v>
+      </c>
+      <c r="C57" t="s" s="17">
         <v>18</v>
       </c>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="I56" s="6"/>
-      <c r="J56" s="9"/>
-    </row>
-    <row r="57" ht="21" customHeight="1">
-      <c r="A57" t="s" s="23">
-        <v>126</v>
-      </c>
-      <c r="B57" t="s" s="23">
-        <v>127</v>
-      </c>
-      <c r="C57" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D57" s="6"/>
+      <c r="D57" s="6">
+        <v>0.69047619047619</v>
+      </c>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
@@ -4111,13 +4167,13 @@
         <v>0.75</v>
       </c>
       <c r="I57" s="6"/>
-      <c r="J57" s="10"/>
+      <c r="J57" s="9"/>
     </row>
     <row r="58" ht="21" customHeight="1">
-      <c r="A58" t="s" s="8">
+      <c r="A58" t="s" s="23">
         <v>128</v>
       </c>
-      <c r="B58" t="s" s="8">
+      <c r="B58" t="s" s="23">
         <v>129</v>
       </c>
       <c r="C58" t="s" s="5">
@@ -4128,149 +4184,149 @@
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
       <c r="H58" s="6">
-        <v>0.805555555555556</v>
+        <v>0.75</v>
       </c>
       <c r="I58" s="6"/>
-      <c r="J58" s="11"/>
+      <c r="J58" s="10"/>
     </row>
     <row r="59" ht="21" customHeight="1">
-      <c r="A59" t="s" s="5">
+      <c r="A59" t="s" s="8">
         <v>130</v>
       </c>
-      <c r="B59" t="s" s="5">
+      <c r="B59" t="s" s="8">
         <v>131</v>
       </c>
       <c r="C59" t="s" s="5">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
       <c r="H59" s="6">
-        <v>0</v>
+        <v>0.805555555555556</v>
       </c>
       <c r="I59" s="6"/>
-      <c r="J59" s="9"/>
-    </row>
-    <row r="60" ht="20.7" customHeight="1">
-      <c r="A60" t="s" s="4">
+      <c r="J59" s="11"/>
+    </row>
+    <row r="60" ht="21" customHeight="1">
+      <c r="A60" t="s" s="5">
         <v>132</v>
       </c>
-      <c r="B60" t="s" s="4">
+      <c r="B60" t="s" s="5">
         <v>133</v>
       </c>
       <c r="C60" t="s" s="5">
-        <v>67</v>
-      </c>
-      <c r="D60" s="22">
-        <v>0.80952380952381</v>
-      </c>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
+        <v>15</v>
+      </c>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
       <c r="H60" s="6">
         <v>0</v>
       </c>
-      <c r="I60" s="12"/>
-      <c r="J60" s="13"/>
-    </row>
-    <row r="61" ht="21" customHeight="1">
-      <c r="A61" t="s" s="17">
+      <c r="I60" s="6"/>
+      <c r="J60" s="9"/>
+    </row>
+    <row r="61" ht="20.7" customHeight="1">
+      <c r="A61" t="s" s="4">
         <v>134</v>
       </c>
-      <c r="B61" t="s" s="17">
+      <c r="B61" t="s" s="4">
         <v>135</v>
       </c>
-      <c r="C61" t="s" s="16">
+      <c r="C61" t="s" s="5">
+        <v>67</v>
+      </c>
+      <c r="D61" s="14">
+        <v>0.80952380952381</v>
+      </c>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="6">
+        <v>0</v>
+      </c>
+      <c r="I61" s="12"/>
+      <c r="J61" s="13"/>
+    </row>
+    <row r="62" ht="21" customHeight="1">
+      <c r="A62" t="s" s="18">
+        <v>136</v>
+      </c>
+      <c r="B62" t="s" s="18">
+        <v>137</v>
+      </c>
+      <c r="C62" t="s" s="17">
         <v>36</v>
       </c>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="I61" s="6"/>
-      <c r="J61" s="11"/>
-    </row>
-    <row r="62" ht="21" customHeight="1">
-      <c r="A62" t="s" s="5">
-        <v>136</v>
-      </c>
-      <c r="B62" t="s" s="5">
-        <v>137</v>
-      </c>
-      <c r="C62" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D62" s="6">
-        <v>0.714285714285714</v>
-      </c>
+      <c r="D62" s="6"/>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
       <c r="H62" s="6">
-        <v>0.694444444444444</v>
+        <v>0.75</v>
       </c>
       <c r="I62" s="6"/>
-      <c r="J62" s="7"/>
+      <c r="J62" s="11"/>
     </row>
     <row r="63" ht="21" customHeight="1">
-      <c r="A63" t="s" s="4">
+      <c r="A63" t="s" s="5">
         <v>138</v>
       </c>
-      <c r="B63" t="s" s="4">
+      <c r="B63" t="s" s="5">
         <v>139</v>
       </c>
       <c r="C63" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="D63" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="D63" s="6">
+        <v>0.714285714285714</v>
+      </c>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6">
-        <v>0.777777777777778</v>
+        <v>0.694444444444444</v>
       </c>
       <c r="I63" s="6"/>
       <c r="J63" s="7"/>
     </row>
     <row r="64" ht="21" customHeight="1">
-      <c r="A64" t="s" s="17">
+      <c r="A64" t="s" s="4">
         <v>140</v>
       </c>
-      <c r="B64" t="s" s="17">
+      <c r="B64" t="s" s="4">
         <v>141</v>
       </c>
-      <c r="C64" s="24"/>
+      <c r="C64" t="s" s="5">
+        <v>21</v>
+      </c>
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
       <c r="H64" s="6">
-        <v>0.694444444444444</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I64" s="6"/>
       <c r="J64" s="7"/>
     </row>
     <row r="65" ht="21" customHeight="1">
-      <c r="A65" t="s" s="5">
+      <c r="A65" t="s" s="18">
         <v>142</v>
       </c>
-      <c r="B65" t="s" s="5">
+      <c r="B65" t="s" s="18">
         <v>143</v>
       </c>
-      <c r="C65" t="s" s="5">
-        <v>18</v>
-      </c>
+      <c r="C65" s="24"/>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
       <c r="H65" s="6">
-        <v>0.805555555555556</v>
+        <v>0.694444444444444</v>
       </c>
       <c r="I65" s="6"/>
       <c r="J65" s="7"/>
@@ -4285,30 +4341,28 @@
       <c r="C66" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D66" s="6">
-        <v>0.619047619047619</v>
-      </c>
+      <c r="D66" s="6"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
       <c r="H66" s="6">
-        <v>0.777777777777778</v>
+        <v>0.805555555555556</v>
       </c>
       <c r="I66" s="6"/>
-      <c r="J66" s="9"/>
+      <c r="J66" s="7"/>
     </row>
     <row r="67" ht="21" customHeight="1">
-      <c r="A67" t="s" s="4">
+      <c r="A67" t="s" s="5">
         <v>146</v>
       </c>
-      <c r="B67" t="s" s="4">
+      <c r="B67" t="s" s="5">
         <v>147</v>
       </c>
       <c r="C67" t="s" s="5">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D67" s="6">
-        <v>0.595238095238095</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
@@ -4317,19 +4371,21 @@
         <v>0.777777777777778</v>
       </c>
       <c r="I67" s="6"/>
-      <c r="J67" s="10"/>
+      <c r="J67" s="9"/>
     </row>
     <row r="68" ht="21" customHeight="1">
-      <c r="A68" t="s" s="8">
+      <c r="A68" t="s" s="4">
         <v>148</v>
       </c>
-      <c r="B68" t="s" s="8">
+      <c r="B68" t="s" s="4">
         <v>149</v>
       </c>
       <c r="C68" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D68" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="D68" s="6">
+        <v>0.595238095238095</v>
+      </c>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
@@ -4337,41 +4393,39 @@
         <v>0.777777777777778</v>
       </c>
       <c r="I68" s="6"/>
-      <c r="J68" s="11"/>
+      <c r="J68" s="10"/>
     </row>
     <row r="69" ht="21" customHeight="1">
-      <c r="A69" t="s" s="5">
+      <c r="A69" t="s" s="8">
         <v>150</v>
       </c>
-      <c r="B69" t="s" s="5">
+      <c r="B69" t="s" s="8">
         <v>151</v>
       </c>
       <c r="C69" t="s" s="5">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
       <c r="H69" s="6">
-        <v>0.722222222222222</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I69" s="6"/>
-      <c r="J69" s="7"/>
+      <c r="J69" s="11"/>
     </row>
     <row r="70" ht="21" customHeight="1">
-      <c r="A70" t="s" s="4">
+      <c r="A70" t="s" s="5">
         <v>152</v>
       </c>
-      <c r="B70" t="s" s="4">
+      <c r="B70" t="s" s="5">
         <v>153</v>
       </c>
       <c r="C70" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="D70" s="6">
-        <v>0.69047619047619</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D70" s="6"/>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
@@ -4382,43 +4436,43 @@
       <c r="J70" s="7"/>
     </row>
     <row r="71" ht="21" customHeight="1">
-      <c r="A71" t="s" s="17">
+      <c r="A71" t="s" s="4">
         <v>154</v>
       </c>
-      <c r="B71" t="s" s="17">
+      <c r="B71" t="s" s="4">
         <v>155</v>
       </c>
-      <c r="C71" t="s" s="16">
+      <c r="C71" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="D71" s="6"/>
+      <c r="D71" s="6">
+        <v>0.69047619047619</v>
+      </c>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
       <c r="H71" s="6">
-        <v>0.638888888888889</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="I71" s="6"/>
       <c r="J71" s="7"/>
     </row>
     <row r="72" ht="21" customHeight="1">
-      <c r="A72" t="s" s="5">
+      <c r="A72" t="s" s="18">
         <v>156</v>
       </c>
-      <c r="B72" t="s" s="5">
+      <c r="B72" t="s" s="18">
         <v>157</v>
       </c>
-      <c r="C72" t="s" s="5">
-        <v>67</v>
-      </c>
-      <c r="D72" s="6">
-        <v>0.619047619047619</v>
-      </c>
+      <c r="C72" t="s" s="17">
+        <v>12</v>
+      </c>
+      <c r="D72" s="6"/>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
       <c r="H72" s="6">
-        <v>0.666666666666667</v>
+        <v>0.638888888888889</v>
       </c>
       <c r="I72" s="6"/>
       <c r="J72" s="7"/>
@@ -4431,16 +4485,16 @@
         <v>159</v>
       </c>
       <c r="C73" t="s" s="5">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="D73" s="6">
-        <v>0.80952380952381</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
       <c r="H73" s="6">
-        <v>0.777777777777778</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="I73" s="6"/>
       <c r="J73" s="7"/>
@@ -4453,14 +4507,16 @@
         <v>161</v>
       </c>
       <c r="C74" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="D74" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="D74" s="6">
+        <v>0.80952380952381</v>
+      </c>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
       <c r="H74" s="6">
-        <v>0.722222222222222</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I74" s="6"/>
       <c r="J74" s="7"/>
@@ -4472,13 +4528,17 @@
       <c r="B75" t="s" s="5">
         <v>163</v>
       </c>
-      <c r="C75" s="12"/>
-      <c r="D75" s="6"/>
+      <c r="C75" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D75" s="6">
+        <v>0.857142857142857</v>
+      </c>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
       <c r="H75" s="6">
-        <v>0.694444444444444</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="I75" s="6"/>
       <c r="J75" s="7"/>
@@ -4491,16 +4551,16 @@
         <v>165</v>
       </c>
       <c r="C76" t="s" s="5">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="D76" s="6">
-        <v>0.761904761904762</v>
+        <v>0.738095238095238</v>
       </c>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
       <c r="H76" s="6">
-        <v>0.722222222222222</v>
+        <v>0.694444444444444</v>
       </c>
       <c r="I76" s="6"/>
       <c r="J76" s="7"/>
@@ -4513,10 +4573,10 @@
         <v>167</v>
       </c>
       <c r="C77" t="s" s="5">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D77" s="6">
-        <v>0.714285714285714</v>
+        <v>0.761904761904762</v>
       </c>
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
@@ -4535,14 +4595,16 @@
         <v>169</v>
       </c>
       <c r="C78" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="D78" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="D78" s="6">
+        <v>0.714285714285714</v>
+      </c>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
       <c r="H78" s="6">
-        <v>0.75</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="I78" s="6"/>
       <c r="J78" s="7"/>
@@ -4554,7 +4616,9 @@
       <c r="B79" t="s" s="5">
         <v>171</v>
       </c>
-      <c r="C79" s="12"/>
+      <c r="C79" t="s" s="5">
+        <v>21</v>
+      </c>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
@@ -4563,71 +4627,67 @@
         <v>0.75</v>
       </c>
       <c r="I79" s="6"/>
-      <c r="J79" s="9"/>
-    </row>
-    <row r="80" ht="20.7" customHeight="1">
-      <c r="A80" t="s" s="4">
+      <c r="J79" s="7"/>
+    </row>
+    <row r="80" ht="21" customHeight="1">
+      <c r="A80" t="s" s="5">
         <v>172</v>
       </c>
-      <c r="B80" t="s" s="4">
+      <c r="B80" t="s" s="5">
         <v>173</v>
       </c>
-      <c r="C80" t="s" s="5">
+      <c r="C80" s="12"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="I80" s="6"/>
+      <c r="J80" s="9"/>
+    </row>
+    <row r="81" ht="20.7" customHeight="1">
+      <c r="A81" t="s" s="4">
+        <v>174</v>
+      </c>
+      <c r="B81" t="s" s="4">
+        <v>175</v>
+      </c>
+      <c r="C81" t="s" s="5">
         <v>36</v>
       </c>
-      <c r="D80" s="25">
+      <c r="D81" s="25">
         <v>0.857142857142857</v>
       </c>
-      <c r="E80" s="12"/>
-      <c r="F80" s="12"/>
-      <c r="G80" s="12"/>
-      <c r="H80" s="6">
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="12"/>
+      <c r="H81" s="6">
         <v>0.777777777777778</v>
       </c>
-      <c r="I80" s="12"/>
-      <c r="J80" s="14"/>
-    </row>
-    <row r="81" ht="21" customHeight="1">
-      <c r="A81" t="s" s="17">
-        <v>174</v>
-      </c>
-      <c r="B81" t="s" s="17">
-        <v>175</v>
-      </c>
-      <c r="C81" t="s" s="16">
+      <c r="I81" s="12"/>
+      <c r="J81" s="15"/>
+    </row>
+    <row r="82" ht="21" customHeight="1">
+      <c r="A82" t="s" s="18">
+        <v>176</v>
+      </c>
+      <c r="B82" t="s" s="18">
+        <v>177</v>
+      </c>
+      <c r="C82" t="s" s="17">
         <v>21</v>
       </c>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
-      <c r="G81" s="6"/>
-      <c r="H81" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="I81" s="6"/>
-      <c r="J81" s="7"/>
-    </row>
-    <row r="82" ht="21" customHeight="1">
-      <c r="A82" t="s" s="5">
-        <v>176</v>
-      </c>
-      <c r="B82" t="s" s="5">
-        <v>177</v>
-      </c>
-      <c r="C82" t="s" s="5">
-        <v>36</v>
-      </c>
-      <c r="D82" s="6">
-        <v>0.452380952380952</v>
-      </c>
+      <c r="D82" s="6"/>
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
       <c r="H82" s="6">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="I82" s="6"/>
-      <c r="J82" s="9"/>
+      <c r="J82" s="7"/>
     </row>
     <row r="83" ht="21" customHeight="1">
       <c r="A83" t="s" s="5">
@@ -4637,109 +4697,121 @@
         <v>179</v>
       </c>
       <c r="C83" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D83" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="D83" s="6">
+        <v>0.452380952380952</v>
+      </c>
       <c r="E83" s="6"/>
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
       <c r="H83" s="6">
-        <v>0.777777777777778</v>
+        <v>0</v>
       </c>
       <c r="I83" s="6"/>
-      <c r="J83" s="10"/>
+      <c r="J83" s="9"/>
     </row>
     <row r="84" ht="21" customHeight="1">
-      <c r="A84" t="s" s="4">
+      <c r="A84" t="s" s="5">
         <v>180</v>
       </c>
-      <c r="B84" t="s" s="4">
+      <c r="B84" t="s" s="5">
         <v>181</v>
       </c>
       <c r="C84" t="s" s="5">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="D84" s="6">
-        <v>0.619047619047619</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="E84" s="6"/>
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
       <c r="H84" s="6">
-        <v>0.694444444444444</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I84" s="6"/>
-      <c r="J84" s="11"/>
+      <c r="J84" s="10"/>
     </row>
     <row r="85" ht="21" customHeight="1">
-      <c r="A85" t="s" s="17">
+      <c r="A85" t="s" s="4">
         <v>182</v>
       </c>
-      <c r="B85" t="s" s="17">
+      <c r="B85" t="s" s="4">
         <v>183</v>
       </c>
-      <c r="C85" s="24"/>
-      <c r="D85" s="6"/>
+      <c r="C85" t="s" s="5">
+        <v>67</v>
+      </c>
+      <c r="D85" s="6">
+        <v>0.619047619047619</v>
+      </c>
       <c r="E85" s="6"/>
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
       <c r="H85" s="6">
-        <v>0.638888888888889</v>
+        <v>0.694444444444444</v>
       </c>
       <c r="I85" s="6"/>
-      <c r="J85" s="7"/>
+      <c r="J85" s="11"/>
     </row>
     <row r="86" ht="21" customHeight="1">
-      <c r="A86" t="s" s="5">
+      <c r="A86" t="s" s="18">
         <v>184</v>
       </c>
-      <c r="B86" t="s" s="5">
+      <c r="B86" t="s" s="18">
         <v>185</v>
       </c>
-      <c r="C86" t="s" s="5">
-        <v>18</v>
+      <c r="C86" t="s" s="17">
+        <v>21</v>
       </c>
       <c r="D86" s="6">
-        <v>0.619047619047619</v>
+        <v>0.69047619047619</v>
       </c>
       <c r="E86" s="6"/>
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
       <c r="H86" s="6">
-        <v>0.416666666666667</v>
+        <v>0.638888888888889</v>
       </c>
       <c r="I86" s="6"/>
       <c r="J86" s="7"/>
     </row>
     <row r="87" ht="21" customHeight="1">
-      <c r="A87" t="s" s="4">
+      <c r="A87" t="s" s="5">
         <v>186</v>
       </c>
-      <c r="B87" t="s" s="4">
+      <c r="B87" t="s" s="5">
         <v>187</v>
       </c>
-      <c r="C87" s="12"/>
-      <c r="D87" s="6"/>
+      <c r="C87" t="s" s="5">
+        <v>18</v>
+      </c>
+      <c r="D87" s="6">
+        <v>0.619047619047619</v>
+      </c>
       <c r="E87" s="6"/>
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
       <c r="H87" s="6">
-        <v>0.75</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="I87" s="6"/>
       <c r="J87" s="7"/>
     </row>
     <row r="88" ht="21" customHeight="1">
-      <c r="A88" t="s" s="15">
+      <c r="A88" t="s" s="4">
         <v>188</v>
       </c>
-      <c r="B88" t="s" s="15">
+      <c r="B88" t="s" s="4">
         <v>189</v>
       </c>
-      <c r="C88" t="s" s="16">
-        <v>36</v>
-      </c>
-      <c r="D88" s="6"/>
+      <c r="C88" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D88" s="6">
+        <v>0.785714285714286</v>
+      </c>
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
@@ -4750,78 +4822,80 @@
       <c r="J88" s="7"/>
     </row>
     <row r="89" ht="21" customHeight="1">
-      <c r="A89" t="s" s="15">
+      <c r="A89" t="s" s="16">
         <v>190</v>
       </c>
-      <c r="B89" t="s" s="15">
+      <c r="B89" t="s" s="16">
         <v>191</v>
       </c>
-      <c r="C89" t="s" s="16">
+      <c r="C89" t="s" s="17">
         <v>36</v>
       </c>
       <c r="D89" s="6">
-        <v>0.5238095238095239</v>
+        <v>0.642857142857143</v>
       </c>
       <c r="E89" s="6"/>
       <c r="F89" s="6"/>
       <c r="G89" s="6"/>
       <c r="H89" s="6">
-        <v>0.888888888888889</v>
+        <v>0.75</v>
       </c>
       <c r="I89" s="6"/>
       <c r="J89" s="7"/>
     </row>
     <row r="90" ht="21" customHeight="1">
-      <c r="A90" t="s" s="23">
+      <c r="A90" t="s" s="16">
         <v>192</v>
       </c>
-      <c r="B90" t="s" s="23">
+      <c r="B90" t="s" s="16">
         <v>193</v>
       </c>
-      <c r="C90" t="s" s="5">
-        <v>21</v>
+      <c r="C90" t="s" s="17">
+        <v>36</v>
       </c>
       <c r="D90" s="6">
-        <v>0.666666666666667</v>
+        <v>0.5238095238095239</v>
       </c>
       <c r="E90" s="6"/>
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
       <c r="H90" s="6">
-        <v>0.75</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="I90" s="6"/>
       <c r="J90" s="7"/>
     </row>
     <row r="91" ht="21" customHeight="1">
-      <c r="A91" t="s" s="17">
+      <c r="A91" t="s" s="23">
         <v>194</v>
       </c>
-      <c r="B91" t="s" s="17">
+      <c r="B91" t="s" s="23">
         <v>195</v>
       </c>
-      <c r="C91" t="s" s="16">
-        <v>15</v>
-      </c>
-      <c r="D91" s="6"/>
+      <c r="C91" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="D91" s="6">
+        <v>0.666666666666667</v>
+      </c>
       <c r="E91" s="6"/>
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
       <c r="H91" s="6">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="I91" s="6"/>
       <c r="J91" s="7"/>
     </row>
     <row r="92" ht="21" customHeight="1">
-      <c r="A92" t="s" s="5">
+      <c r="A92" t="s" s="18">
         <v>196</v>
       </c>
-      <c r="B92" t="s" s="5">
+      <c r="B92" t="s" s="18">
         <v>197</v>
       </c>
-      <c r="C92" t="s" s="5">
-        <v>21</v>
+      <c r="C92" t="s" s="17">
+        <v>15</v>
       </c>
       <c r="D92" s="6"/>
       <c r="E92" s="6"/>
@@ -4841,16 +4915,14 @@
         <v>199</v>
       </c>
       <c r="C93" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D93" s="6">
-        <v>0.833333333333333</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D93" s="6"/>
       <c r="E93" s="6"/>
       <c r="F93" s="6"/>
       <c r="G93" s="6"/>
       <c r="H93" s="6">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="I93" s="6"/>
       <c r="J93" s="7"/>
@@ -4865,79 +4937,81 @@
       <c r="C94" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D94" s="6"/>
+      <c r="D94" s="6">
+        <v>0.833333333333333</v>
+      </c>
       <c r="E94" s="6"/>
       <c r="F94" s="6"/>
       <c r="G94" s="6"/>
       <c r="H94" s="6">
-        <v>0.416666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="I94" s="6"/>
-      <c r="J94" s="9"/>
+      <c r="J94" s="7"/>
     </row>
     <row r="95" ht="21" customHeight="1">
-      <c r="A95" t="s" s="4">
+      <c r="A95" t="s" s="5">
         <v>202</v>
       </c>
-      <c r="B95" t="s" s="4">
+      <c r="B95" t="s" s="5">
         <v>203</v>
       </c>
       <c r="C95" t="s" s="5">
-        <v>15</v>
-      </c>
-      <c r="D95" s="6">
-        <v>0.595238095238095</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D95" s="6"/>
       <c r="E95" s="6"/>
       <c r="F95" s="6"/>
       <c r="G95" s="6"/>
       <c r="H95" s="6">
-        <v>0.777777777777778</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="I95" s="6"/>
-      <c r="J95" s="11"/>
+      <c r="J95" s="9"/>
     </row>
     <row r="96" ht="21" customHeight="1">
-      <c r="A96" t="s" s="17">
+      <c r="A96" t="s" s="4">
         <v>204</v>
       </c>
-      <c r="B96" t="s" s="17">
+      <c r="B96" t="s" s="4">
         <v>205</v>
       </c>
-      <c r="C96" t="s" s="16">
-        <v>12</v>
+      <c r="C96" t="s" s="5">
+        <v>15</v>
       </c>
       <c r="D96" s="6">
-        <v>0.5</v>
+        <v>0.595238095238095</v>
       </c>
       <c r="E96" s="6"/>
       <c r="F96" s="6"/>
       <c r="G96" s="6"/>
       <c r="H96" s="6">
-        <v>0.722222222222222</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I96" s="6"/>
-      <c r="J96" s="7"/>
+      <c r="J96" s="11"/>
     </row>
     <row r="97" ht="21" customHeight="1">
-      <c r="A97" t="s" s="5">
+      <c r="A97" t="s" s="18">
         <v>206</v>
       </c>
-      <c r="B97" t="s" s="5">
+      <c r="B97" t="s" s="18">
         <v>207</v>
       </c>
-      <c r="C97" t="s" s="5">
-        <v>15</v>
-      </c>
-      <c r="D97" s="6"/>
+      <c r="C97" t="s" s="17">
+        <v>12</v>
+      </c>
+      <c r="D97" s="6">
+        <v>0.5</v>
+      </c>
       <c r="E97" s="6"/>
       <c r="F97" s="6"/>
       <c r="G97" s="6"/>
       <c r="H97" s="6">
-        <v>0</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="I97" s="6"/>
-      <c r="J97" s="9"/>
+      <c r="J97" s="7"/>
     </row>
     <row r="98" ht="21" customHeight="1">
       <c r="A98" t="s" s="5">
@@ -4947,19 +5021,17 @@
         <v>209</v>
       </c>
       <c r="C98" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D98" s="6">
-        <v>0.69047619047619</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D98" s="6"/>
       <c r="E98" s="6"/>
       <c r="F98" s="6"/>
       <c r="G98" s="6"/>
       <c r="H98" s="6">
-        <v>0.805555555555556</v>
+        <v>0</v>
       </c>
       <c r="I98" s="6"/>
-      <c r="J98" s="11"/>
+      <c r="J98" s="9"/>
     </row>
     <row r="99" ht="21" customHeight="1">
       <c r="A99" t="s" s="5">
@@ -4969,76 +5041,82 @@
         <v>211</v>
       </c>
       <c r="C99" t="s" s="5">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D99" s="6">
-        <v>0.857142857142857</v>
+        <v>0.69047619047619</v>
       </c>
       <c r="E99" s="6"/>
       <c r="F99" s="6"/>
       <c r="G99" s="6"/>
       <c r="H99" s="6">
-        <v>0.777777777777778</v>
+        <v>0.805555555555556</v>
       </c>
       <c r="I99" s="6"/>
-      <c r="J99" s="7"/>
+      <c r="J99" s="11"/>
     </row>
     <row r="100" ht="21" customHeight="1">
-      <c r="A100" t="s" s="4">
+      <c r="A100" t="s" s="5">
         <v>212</v>
       </c>
-      <c r="B100" t="s" s="4">
+      <c r="B100" t="s" s="5">
         <v>213</v>
       </c>
       <c r="C100" t="s" s="5">
-        <v>15</v>
-      </c>
-      <c r="D100" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="D100" s="6">
+        <v>0.857142857142857</v>
+      </c>
       <c r="E100" s="6"/>
       <c r="F100" s="6"/>
       <c r="G100" s="6"/>
       <c r="H100" s="6">
-        <v>0.361111111111111</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I100" s="6"/>
       <c r="J100" s="7"/>
     </row>
     <row r="101" ht="21" customHeight="1">
-      <c r="A101" t="s" s="8">
+      <c r="A101" t="s" s="4">
         <v>214</v>
       </c>
-      <c r="B101" t="s" s="8">
+      <c r="B101" t="s" s="4">
         <v>215</v>
       </c>
       <c r="C101" t="s" s="5">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D101" s="6">
-        <v>0.571428571428571</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="E101" s="6"/>
       <c r="F101" s="6"/>
       <c r="G101" s="6"/>
       <c r="H101" s="6">
-        <v>0.722222222222222</v>
+        <v>0.361111111111111</v>
       </c>
       <c r="I101" s="6"/>
       <c r="J101" s="7"/>
     </row>
     <row r="102" ht="21" customHeight="1">
-      <c r="A102" t="s" s="5">
+      <c r="A102" t="s" s="8">
         <v>216</v>
       </c>
-      <c r="B102" t="s" s="5">
+      <c r="B102" t="s" s="8">
         <v>217</v>
       </c>
-      <c r="C102" s="12"/>
-      <c r="D102" s="6"/>
+      <c r="C102" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="D102" s="6">
+        <v>0.571428571428571</v>
+      </c>
       <c r="E102" s="6"/>
       <c r="F102" s="6"/>
       <c r="G102" s="6"/>
       <c r="H102" s="6">
-        <v>0.694444444444444</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="I102" s="6"/>
       <c r="J102" s="7"/>
@@ -5050,20 +5128,18 @@
       <c r="B103" t="s" s="5">
         <v>219</v>
       </c>
-      <c r="C103" t="s" s="5">
-        <v>21</v>
-      </c>
+      <c r="C103" s="12"/>
       <c r="D103" s="6"/>
       <c r="E103" s="6"/>
       <c r="F103" s="6"/>
       <c r="G103" s="6"/>
       <c r="H103" s="6">
-        <v>0.777777777777778</v>
+        <v>0.694444444444444</v>
       </c>
       <c r="I103" s="6"/>
-      <c r="J103" s="9"/>
-    </row>
-    <row r="104" ht="20.7" customHeight="1">
+      <c r="J103" s="7"/>
+    </row>
+    <row r="104" ht="21" customHeight="1">
       <c r="A104" t="s" s="5">
         <v>220</v>
       </c>
@@ -5073,17 +5149,15 @@
       <c r="C104" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="D104" s="22">
-        <v>0.5238095238095239</v>
-      </c>
-      <c r="E104" s="12"/>
-      <c r="F104" s="12"/>
-      <c r="G104" s="12"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="6"/>
+      <c r="G104" s="6"/>
       <c r="H104" s="6">
         <v>0.777777777777778</v>
       </c>
-      <c r="I104" s="12"/>
-      <c r="J104" s="13"/>
+      <c r="I104" s="6"/>
+      <c r="J104" s="9"/>
     </row>
     <row r="105" ht="20.7" customHeight="1">
       <c r="A105" t="s" s="5">
@@ -5093,19 +5167,21 @@
         <v>223</v>
       </c>
       <c r="C105" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="D105" s="12"/>
+        <v>21</v>
+      </c>
+      <c r="D105" s="14">
+        <v>0.5238095238095239</v>
+      </c>
       <c r="E105" s="12"/>
       <c r="F105" s="12"/>
       <c r="G105" s="12"/>
       <c r="H105" s="6">
-        <v>0.638888888888889</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I105" s="12"/>
-      <c r="J105" s="14"/>
-    </row>
-    <row r="106" ht="21" customHeight="1">
+      <c r="J105" s="13"/>
+    </row>
+    <row r="106" ht="20.7" customHeight="1">
       <c r="A106" t="s" s="5">
         <v>224</v>
       </c>
@@ -5113,19 +5189,17 @@
         <v>225</v>
       </c>
       <c r="C106" t="s" s="5">
-        <v>15</v>
-      </c>
-      <c r="D106" s="6">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="E106" s="6"/>
-      <c r="F106" s="6"/>
-      <c r="G106" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="D106" s="12"/>
+      <c r="E106" s="12"/>
+      <c r="F106" s="12"/>
+      <c r="G106" s="12"/>
       <c r="H106" s="6">
-        <v>0</v>
-      </c>
-      <c r="I106" s="6"/>
-      <c r="J106" s="7"/>
+        <v>0.638888888888889</v>
+      </c>
+      <c r="I106" s="12"/>
+      <c r="J106" s="15"/>
     </row>
     <row r="107" ht="21" customHeight="1">
       <c r="A107" t="s" s="5">
@@ -5135,21 +5209,21 @@
         <v>227</v>
       </c>
       <c r="C107" t="s" s="5">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D107" s="6">
-        <v>0.833333333333333</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="E107" s="6"/>
       <c r="F107" s="6"/>
       <c r="G107" s="6"/>
       <c r="H107" s="6">
-        <v>0.694444444444444</v>
+        <v>0</v>
       </c>
       <c r="I107" s="6"/>
-      <c r="J107" s="9"/>
-    </row>
-    <row r="108" ht="20.05" customHeight="1">
+      <c r="J107" s="7"/>
+    </row>
+    <row r="108" ht="21" customHeight="1">
       <c r="A108" t="s" s="5">
         <v>228</v>
       </c>
@@ -5159,17 +5233,19 @@
       <c r="C108" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D108" s="12"/>
-      <c r="E108" s="12"/>
-      <c r="F108" s="12"/>
-      <c r="G108" s="12"/>
+      <c r="D108" s="6">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E108" s="6"/>
+      <c r="F108" s="6"/>
+      <c r="G108" s="6"/>
       <c r="H108" s="6">
-        <v>0.777777777777778</v>
-      </c>
-      <c r="I108" s="12"/>
-      <c r="J108" s="14"/>
-    </row>
-    <row r="109" ht="21" customHeight="1">
+        <v>0.694444444444444</v>
+      </c>
+      <c r="I108" s="6"/>
+      <c r="J108" s="9"/>
+    </row>
+    <row r="109" ht="20.05" customHeight="1">
       <c r="A109" t="s" s="5">
         <v>230</v>
       </c>
@@ -5179,17 +5255,17 @@
       <c r="C109" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D109" s="6"/>
-      <c r="E109" s="6"/>
-      <c r="F109" s="6"/>
-      <c r="G109" s="6"/>
+      <c r="D109" s="12"/>
+      <c r="E109" s="12"/>
+      <c r="F109" s="12"/>
+      <c r="G109" s="12"/>
       <c r="H109" s="6">
-        <v>0.555555555555556</v>
-      </c>
-      <c r="I109" s="6"/>
-      <c r="J109" s="9"/>
-    </row>
-    <row r="110" ht="20.7" customHeight="1">
+        <v>0.777777777777778</v>
+      </c>
+      <c r="I109" s="12"/>
+      <c r="J109" s="15"/>
+    </row>
+    <row r="110" ht="21" customHeight="1">
       <c r="A110" t="s" s="5">
         <v>232</v>
       </c>
@@ -5197,21 +5273,19 @@
         <v>233</v>
       </c>
       <c r="C110" t="s" s="5">
-        <v>36</v>
-      </c>
-      <c r="D110" s="22">
-        <v>0.452380952380952</v>
-      </c>
-      <c r="E110" s="12"/>
-      <c r="F110" s="12"/>
-      <c r="G110" s="12"/>
+        <v>18</v>
+      </c>
+      <c r="D110" s="6"/>
+      <c r="E110" s="6"/>
+      <c r="F110" s="6"/>
+      <c r="G110" s="6"/>
       <c r="H110" s="6">
-        <v>0.888888888888889</v>
-      </c>
-      <c r="I110" s="12"/>
-      <c r="J110" s="13"/>
-    </row>
-    <row r="111" ht="21" customHeight="1">
+        <v>0.555555555555556</v>
+      </c>
+      <c r="I110" s="6"/>
+      <c r="J110" s="9"/>
+    </row>
+    <row r="111" ht="20.7" customHeight="1">
       <c r="A111" t="s" s="5">
         <v>234</v>
       </c>
@@ -5219,19 +5293,19 @@
         <v>235</v>
       </c>
       <c r="C111" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="D111" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="E111" s="6"/>
-      <c r="F111" s="6"/>
-      <c r="G111" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="D111" s="14">
+        <v>0.452380952380952</v>
+      </c>
+      <c r="E111" s="12"/>
+      <c r="F111" s="12"/>
+      <c r="G111" s="12"/>
       <c r="H111" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="I111" s="6"/>
-      <c r="J111" s="11"/>
+        <v>0.888888888888889</v>
+      </c>
+      <c r="I111" s="12"/>
+      <c r="J111" s="13"/>
     </row>
     <row r="112" ht="21" customHeight="1">
       <c r="A112" t="s" s="5">
@@ -5244,7 +5318,7 @@
         <v>21</v>
       </c>
       <c r="D112" s="6">
-        <v>0.595238095238095</v>
+        <v>0.5</v>
       </c>
       <c r="E112" s="6"/>
       <c r="F112" s="6"/>
@@ -5253,7 +5327,7 @@
         <v>0.75</v>
       </c>
       <c r="I112" s="6"/>
-      <c r="J112" s="7"/>
+      <c r="J112" s="11"/>
     </row>
     <row r="113" ht="21" customHeight="1">
       <c r="A113" t="s" s="5">
@@ -5263,14 +5337,16 @@
         <v>239</v>
       </c>
       <c r="C113" t="s" s="5">
-        <v>15</v>
-      </c>
-      <c r="D113" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="D113" s="6">
+        <v>0.595238095238095</v>
+      </c>
       <c r="E113" s="6"/>
       <c r="F113" s="6"/>
       <c r="G113" s="6"/>
       <c r="H113" s="6">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="I113" s="6"/>
       <c r="J113" s="7"/>
@@ -5283,14 +5359,14 @@
         <v>241</v>
       </c>
       <c r="C114" t="s" s="5">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D114" s="6"/>
       <c r="E114" s="6"/>
       <c r="F114" s="6"/>
       <c r="G114" s="6"/>
       <c r="H114" s="6">
-        <v>0.777777777777778</v>
+        <v>0</v>
       </c>
       <c r="I114" s="6"/>
       <c r="J114" s="7"/>
@@ -5302,13 +5378,15 @@
       <c r="B115" t="s" s="5">
         <v>243</v>
       </c>
-      <c r="C115" s="12"/>
+      <c r="C115" t="s" s="5">
+        <v>36</v>
+      </c>
       <c r="D115" s="6"/>
       <c r="E115" s="6"/>
       <c r="F115" s="6"/>
       <c r="G115" s="6"/>
       <c r="H115" s="6">
-        <v>0.388888888888889</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I115" s="6"/>
       <c r="J115" s="7"/>
@@ -5320,89 +5398,91 @@
       <c r="B116" t="s" s="5">
         <v>245</v>
       </c>
-      <c r="C116" t="s" s="5">
-        <v>21</v>
-      </c>
+      <c r="C116" s="12"/>
       <c r="D116" s="6"/>
       <c r="E116" s="6"/>
       <c r="F116" s="6"/>
       <c r="G116" s="6"/>
       <c r="H116" s="6">
-        <v>0</v>
+        <v>0.388888888888889</v>
       </c>
       <c r="I116" s="6"/>
-      <c r="J116" s="9"/>
+      <c r="J116" s="7"/>
     </row>
     <row r="117" ht="21" customHeight="1">
-      <c r="A117" t="s" s="4">
+      <c r="A117" t="s" s="5">
         <v>246</v>
       </c>
-      <c r="B117" t="s" s="4">
+      <c r="B117" t="s" s="5">
         <v>247</v>
       </c>
       <c r="C117" t="s" s="5">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D117" s="6">
-        <v>0.642857142857143</v>
+        <v>0.69047619047619</v>
       </c>
       <c r="E117" s="6"/>
       <c r="F117" s="6"/>
       <c r="G117" s="6"/>
       <c r="H117" s="6">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="I117" s="6"/>
-      <c r="J117" s="10"/>
+      <c r="J117" s="9"/>
     </row>
     <row r="118" ht="21" customHeight="1">
-      <c r="A118" t="s" s="8">
+      <c r="A118" t="s" s="4">
         <v>248</v>
       </c>
-      <c r="B118" t="s" s="8">
+      <c r="B118" t="s" s="4">
         <v>249</v>
       </c>
       <c r="C118" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="D118" s="6"/>
+      <c r="D118" s="6">
+        <v>0.642857142857143</v>
+      </c>
       <c r="E118" s="6"/>
       <c r="F118" s="6"/>
       <c r="G118" s="6"/>
       <c r="H118" s="6">
-        <v>0.777777777777778</v>
+        <v>0.75</v>
       </c>
       <c r="I118" s="6"/>
-      <c r="J118" s="11"/>
+      <c r="J118" s="10"/>
     </row>
     <row r="119" ht="21" customHeight="1">
-      <c r="A119" t="s" s="5">
+      <c r="A119" t="s" s="8">
         <v>250</v>
       </c>
-      <c r="B119" t="s" s="5">
+      <c r="B119" t="s" s="8">
         <v>251</v>
       </c>
       <c r="C119" t="s" s="5">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D119" s="6"/>
       <c r="E119" s="6"/>
       <c r="F119" s="6"/>
       <c r="G119" s="6"/>
       <c r="H119" s="6">
-        <v>0.75</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I119" s="6"/>
-      <c r="J119" s="7"/>
+      <c r="J119" s="11"/>
     </row>
     <row r="120" ht="21" customHeight="1">
-      <c r="A120" t="s" s="4">
+      <c r="A120" t="s" s="5">
         <v>252</v>
       </c>
-      <c r="B120" t="s" s="4">
+      <c r="B120" t="s" s="5">
         <v>253</v>
       </c>
-      <c r="C120" s="12"/>
+      <c r="C120" t="s" s="5">
+        <v>36</v>
+      </c>
       <c r="D120" s="6"/>
       <c r="E120" s="6"/>
       <c r="F120" s="6"/>
@@ -5411,145 +5491,143 @@
         <v>0.75</v>
       </c>
       <c r="I120" s="6"/>
-      <c r="J120" s="9"/>
+      <c r="J120" s="7"/>
     </row>
     <row r="121" ht="21" customHeight="1">
-      <c r="A121" t="s" s="23">
+      <c r="A121" t="s" s="4">
         <v>254</v>
       </c>
-      <c r="B121" t="s" s="23">
+      <c r="B121" t="s" s="4">
         <v>255</v>
       </c>
-      <c r="C121" t="s" s="5">
-        <v>15</v>
-      </c>
-      <c r="D121" s="6">
-        <v>0.619047619047619</v>
-      </c>
+      <c r="C121" s="12"/>
+      <c r="D121" s="6"/>
       <c r="E121" s="6"/>
       <c r="F121" s="6"/>
       <c r="G121" s="6"/>
       <c r="H121" s="6">
-        <v>0.777777777777778</v>
+        <v>0.75</v>
       </c>
       <c r="I121" s="6"/>
-      <c r="J121" s="10"/>
+      <c r="J121" s="9"/>
     </row>
     <row r="122" ht="21" customHeight="1">
-      <c r="A122" t="s" s="8">
+      <c r="A122" t="s" s="23">
         <v>256</v>
       </c>
-      <c r="B122" t="s" s="8">
+      <c r="B122" t="s" s="23">
         <v>257</v>
       </c>
       <c r="C122" t="s" s="5">
-        <v>67</v>
-      </c>
-      <c r="D122" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="D122" s="6">
+        <v>0.619047619047619</v>
+      </c>
       <c r="E122" s="6"/>
       <c r="F122" s="6"/>
       <c r="G122" s="6"/>
       <c r="H122" s="6">
-        <v>0.722222222222222</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I122" s="6"/>
       <c r="J122" s="10"/>
     </row>
-    <row r="123" ht="20.7" customHeight="1">
-      <c r="A123" t="s" s="5">
+    <row r="123" ht="21" customHeight="1">
+      <c r="A123" t="s" s="8">
         <v>258</v>
       </c>
-      <c r="B123" t="s" s="5">
+      <c r="B123" t="s" s="8">
         <v>259</v>
       </c>
       <c r="C123" t="s" s="5">
+        <v>67</v>
+      </c>
+      <c r="D123" s="6"/>
+      <c r="E123" s="6"/>
+      <c r="F123" s="6"/>
+      <c r="G123" s="6"/>
+      <c r="H123" s="6">
+        <v>0.722222222222222</v>
+      </c>
+      <c r="I123" s="6"/>
+      <c r="J123" s="10"/>
+    </row>
+    <row r="124" ht="20.7" customHeight="1">
+      <c r="A124" t="s" s="5">
+        <v>260</v>
+      </c>
+      <c r="B124" t="s" s="5">
+        <v>261</v>
+      </c>
+      <c r="C124" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="D123" s="25">
+      <c r="D124" s="25">
         <v>0.595238095238095</v>
       </c>
-      <c r="E123" s="12"/>
-      <c r="F123" s="12"/>
-      <c r="G123" s="12"/>
-      <c r="H123" s="6">
+      <c r="E124" s="12"/>
+      <c r="F124" s="12"/>
+      <c r="G124" s="12"/>
+      <c r="H124" s="6">
         <v>0.75</v>
       </c>
-      <c r="I123" s="12"/>
-      <c r="J123" s="13"/>
-    </row>
-    <row r="124" ht="21" customHeight="1">
-      <c r="A124" t="s" s="4">
-        <v>260</v>
-      </c>
-      <c r="B124" t="s" s="4">
-        <v>261</v>
-      </c>
-      <c r="C124" t="s" s="5">
+      <c r="I124" s="12"/>
+      <c r="J124" s="13"/>
+    </row>
+    <row r="125" ht="21" customHeight="1">
+      <c r="A125" t="s" s="4">
+        <v>262</v>
+      </c>
+      <c r="B125" t="s" s="4">
+        <v>263</v>
+      </c>
+      <c r="C125" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="D124" s="6"/>
-      <c r="E124" s="6"/>
-      <c r="F124" s="6"/>
-      <c r="G124" s="6"/>
-      <c r="H124" s="6">
-        <v>0.805555555555556</v>
-      </c>
-      <c r="I124" s="6"/>
-      <c r="J124" s="11"/>
-    </row>
-    <row r="125" ht="21" customHeight="1">
-      <c r="A125" t="s" s="17">
-        <v>262</v>
-      </c>
-      <c r="B125" t="s" s="17">
-        <v>263</v>
-      </c>
-      <c r="C125" t="s" s="16">
-        <v>21</v>
-      </c>
       <c r="D125" s="6">
-        <v>0.80952380952381</v>
+        <v>0.69047619047619</v>
       </c>
       <c r="E125" s="6"/>
       <c r="F125" s="6"/>
       <c r="G125" s="6"/>
       <c r="H125" s="6">
-        <v>0.75</v>
+        <v>0.805555555555556</v>
       </c>
       <c r="I125" s="6"/>
-      <c r="J125" s="9"/>
+      <c r="J125" s="11"/>
     </row>
     <row r="126" ht="21" customHeight="1">
-      <c r="A126" t="s" s="5">
+      <c r="A126" t="s" s="18">
         <v>264</v>
       </c>
-      <c r="B126" t="s" s="5">
+      <c r="B126" t="s" s="18">
         <v>265</v>
       </c>
-      <c r="C126" t="s" s="5">
-        <v>18</v>
+      <c r="C126" t="s" s="17">
+        <v>21</v>
       </c>
       <c r="D126" s="6">
-        <v>0.738095238095238</v>
+        <v>0.80952380952381</v>
       </c>
       <c r="E126" s="6"/>
       <c r="F126" s="6"/>
       <c r="G126" s="6"/>
       <c r="H126" s="6">
-        <v>0.861111111111111</v>
+        <v>0.75</v>
       </c>
       <c r="I126" s="6"/>
-      <c r="J126" s="11"/>
+      <c r="J126" s="9"/>
     </row>
     <row r="127" ht="21" customHeight="1">
-      <c r="A127" t="s" s="4">
+      <c r="A127" t="s" s="5">
         <v>266</v>
       </c>
-      <c r="B127" t="s" s="4">
+      <c r="B127" t="s" s="5">
         <v>267</v>
       </c>
       <c r="C127" t="s" s="5">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D127" s="6">
         <v>0.738095238095238</v>
@@ -5558,54 +5636,54 @@
       <c r="F127" s="6"/>
       <c r="G127" s="6"/>
       <c r="H127" s="6">
-        <v>0.805555555555556</v>
+        <v>0.861111111111111</v>
       </c>
       <c r="I127" s="6"/>
-      <c r="J127" s="9"/>
+      <c r="J127" s="11"/>
     </row>
     <row r="128" ht="21" customHeight="1">
-      <c r="A128" t="s" s="8">
+      <c r="A128" t="s" s="4">
         <v>268</v>
       </c>
-      <c r="B128" t="s" s="8">
+      <c r="B128" t="s" s="4">
         <v>269</v>
       </c>
       <c r="C128" t="s" s="5">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D128" s="6">
-        <v>0.452380952380952</v>
+        <v>0.738095238095238</v>
       </c>
       <c r="E128" s="6"/>
       <c r="F128" s="6"/>
       <c r="G128" s="6"/>
       <c r="H128" s="6">
-        <v>0.361111111111111</v>
+        <v>0.805555555555556</v>
       </c>
       <c r="I128" s="6"/>
-      <c r="J128" s="11"/>
+      <c r="J128" s="9"/>
     </row>
     <row r="129" ht="21" customHeight="1">
-      <c r="A129" t="s" s="5">
+      <c r="A129" t="s" s="8">
         <v>270</v>
       </c>
-      <c r="B129" t="s" s="5">
+      <c r="B129" t="s" s="8">
         <v>271</v>
       </c>
       <c r="C129" t="s" s="5">
         <v>18</v>
       </c>
       <c r="D129" s="6">
-        <v>0.857142857142857</v>
+        <v>0.452380952380952</v>
       </c>
       <c r="E129" s="6"/>
       <c r="F129" s="6"/>
       <c r="G129" s="6"/>
       <c r="H129" s="6">
-        <v>0.861111111111111</v>
+        <v>0.361111111111111</v>
       </c>
       <c r="I129" s="6"/>
-      <c r="J129" s="7"/>
+      <c r="J129" s="11"/>
     </row>
     <row r="130" ht="21" customHeight="1">
       <c r="A130" t="s" s="5">
@@ -5617,122 +5695,130 @@
       <c r="C130" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D130" s="6"/>
+      <c r="D130" s="6">
+        <v>0.857142857142857</v>
+      </c>
       <c r="E130" s="6"/>
       <c r="F130" s="6"/>
       <c r="G130" s="6"/>
       <c r="H130" s="6">
-        <v>0.777777777777778</v>
+        <v>0.861111111111111</v>
       </c>
       <c r="I130" s="6"/>
       <c r="J130" s="7"/>
     </row>
     <row r="131" ht="21" customHeight="1">
-      <c r="A131" t="s" s="4">
+      <c r="A131" t="s" s="5">
         <v>274</v>
       </c>
-      <c r="B131" t="s" s="4">
+      <c r="B131" t="s" s="5">
         <v>275</v>
       </c>
-      <c r="C131" s="12"/>
+      <c r="C131" t="s" s="5">
+        <v>18</v>
+      </c>
       <c r="D131" s="6"/>
       <c r="E131" s="6"/>
       <c r="F131" s="6"/>
       <c r="G131" s="6"/>
       <c r="H131" s="6">
-        <v>0.722222222222222</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I131" s="6"/>
       <c r="J131" s="7"/>
     </row>
     <row r="132" ht="21" customHeight="1">
-      <c r="A132" t="s" s="17">
+      <c r="A132" t="s" s="4">
         <v>276</v>
       </c>
-      <c r="B132" t="s" s="17">
+      <c r="B132" t="s" s="4">
         <v>277</v>
       </c>
-      <c r="C132" t="s" s="16">
-        <v>18</v>
-      </c>
-      <c r="D132" s="6"/>
+      <c r="C132" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="D132" s="6">
+        <v>0.428571428571429</v>
+      </c>
       <c r="E132" s="6"/>
       <c r="F132" s="6"/>
       <c r="G132" s="6"/>
       <c r="H132" s="6">
-        <v>0.75</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="I132" s="6"/>
       <c r="J132" s="7"/>
     </row>
     <row r="133" ht="21" customHeight="1">
-      <c r="A133" t="s" s="5">
+      <c r="A133" t="s" s="18">
         <v>278</v>
       </c>
-      <c r="B133" t="s" s="5">
+      <c r="B133" t="s" s="18">
         <v>279</v>
       </c>
-      <c r="C133" t="s" s="5">
+      <c r="C133" t="s" s="17">
         <v>18</v>
       </c>
       <c r="D133" s="6">
-        <v>0.738095238095238</v>
+        <v>0.476190476190476</v>
       </c>
       <c r="E133" s="6"/>
       <c r="F133" s="6"/>
       <c r="G133" s="6"/>
       <c r="H133" s="6">
-        <v>0.416666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="I133" s="6"/>
       <c r="J133" s="7"/>
     </row>
     <row r="134" ht="21" customHeight="1">
-      <c r="A134" t="s" s="4">
+      <c r="A134" t="s" s="5">
         <v>280</v>
       </c>
-      <c r="B134" t="s" s="4">
+      <c r="B134" t="s" s="5">
         <v>281</v>
       </c>
-      <c r="C134" s="12"/>
-      <c r="D134" s="6"/>
+      <c r="C134" t="s" s="5">
+        <v>18</v>
+      </c>
+      <c r="D134" s="6">
+        <v>0.738095238095238</v>
+      </c>
       <c r="E134" s="6"/>
       <c r="F134" s="6"/>
       <c r="G134" s="6"/>
       <c r="H134" s="6">
-        <v>0.75</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="I134" s="6"/>
       <c r="J134" s="7"/>
     </row>
     <row r="135" ht="21" customHeight="1">
-      <c r="A135" t="s" s="17">
+      <c r="A135" t="s" s="4">
         <v>282</v>
       </c>
-      <c r="B135" t="s" s="17">
+      <c r="B135" t="s" s="4">
         <v>283</v>
       </c>
-      <c r="C135" t="s" s="16">
-        <v>18</v>
-      </c>
+      <c r="C135" s="12"/>
       <c r="D135" s="6"/>
       <c r="E135" s="6"/>
       <c r="F135" s="6"/>
       <c r="G135" s="6"/>
       <c r="H135" s="6">
-        <v>0.805555555555556</v>
+        <v>0.75</v>
       </c>
       <c r="I135" s="6"/>
       <c r="J135" s="7"/>
     </row>
     <row r="136" ht="21" customHeight="1">
-      <c r="A136" t="s" s="5">
+      <c r="A136" t="s" s="18">
         <v>284</v>
       </c>
-      <c r="B136" t="s" s="5">
+      <c r="B136" t="s" s="18">
         <v>285</v>
       </c>
-      <c r="C136" t="s" s="5">
+      <c r="C136" t="s" s="17">
         <v>18</v>
       </c>
       <c r="D136" s="6">
@@ -5742,34 +5828,36 @@
       <c r="F136" s="6"/>
       <c r="G136" s="6"/>
       <c r="H136" s="6">
-        <v>0.777777777777778</v>
+        <v>0.805555555555556</v>
       </c>
       <c r="I136" s="6"/>
       <c r="J136" s="7"/>
     </row>
     <row r="137" ht="21" customHeight="1">
       <c r="A137" t="s" s="5">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B137" t="s" s="5">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C137" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D137" s="6"/>
+      <c r="D137" s="6">
+        <v>0.738095238095238</v>
+      </c>
       <c r="E137" s="6"/>
       <c r="F137" s="6"/>
       <c r="G137" s="6"/>
       <c r="H137" s="6">
-        <v>0.416666666666667</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I137" s="6"/>
-      <c r="J137" s="9"/>
-    </row>
-    <row r="138" ht="20.7" customHeight="1">
+      <c r="J137" s="7"/>
+    </row>
+    <row r="138" ht="21" customHeight="1">
       <c r="A138" t="s" s="5">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B138" t="s" s="5">
         <v>288</v>
@@ -5777,19 +5865,17 @@
       <c r="C138" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D138" s="25">
-        <v>0.476190476190476</v>
-      </c>
-      <c r="E138" s="12"/>
-      <c r="F138" s="12"/>
-      <c r="G138" s="12"/>
+      <c r="D138" s="6"/>
+      <c r="E138" s="6"/>
+      <c r="F138" s="6"/>
+      <c r="G138" s="6"/>
       <c r="H138" s="6">
-        <v>0.555555555555556</v>
-      </c>
-      <c r="I138" s="12"/>
-      <c r="J138" s="13"/>
-    </row>
-    <row r="139" ht="21" customHeight="1">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="I138" s="6"/>
+      <c r="J138" s="9"/>
+    </row>
+    <row r="139" ht="20.7" customHeight="1">
       <c r="A139" t="s" s="5">
         <v>289</v>
       </c>
@@ -5797,19 +5883,19 @@
         <v>290</v>
       </c>
       <c r="C139" t="s" s="5">
-        <v>67</v>
-      </c>
-      <c r="D139" s="6">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E139" s="6"/>
-      <c r="F139" s="6"/>
-      <c r="G139" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="D139" s="25">
+        <v>0.476190476190476</v>
+      </c>
+      <c r="E139" s="12"/>
+      <c r="F139" s="12"/>
+      <c r="G139" s="12"/>
       <c r="H139" s="6">
-        <v>0.39</v>
-      </c>
-      <c r="I139" s="6"/>
-      <c r="J139" s="11"/>
+        <v>0.555555555555556</v>
+      </c>
+      <c r="I139" s="12"/>
+      <c r="J139" s="13"/>
     </row>
     <row r="140" ht="21" customHeight="1">
       <c r="A140" t="s" s="5">
@@ -5818,16 +5904,20 @@
       <c r="B140" t="s" s="5">
         <v>292</v>
       </c>
-      <c r="C140" s="12"/>
-      <c r="D140" s="6"/>
+      <c r="C140" t="s" s="5">
+        <v>67</v>
+      </c>
+      <c r="D140" s="6">
+        <v>0.833333333333333</v>
+      </c>
       <c r="E140" s="6"/>
       <c r="F140" s="6"/>
       <c r="G140" s="6"/>
       <c r="H140" s="6">
-        <v>0.722222222222222</v>
+        <v>0.39</v>
       </c>
       <c r="I140" s="6"/>
-      <c r="J140" s="7"/>
+      <c r="J140" s="11"/>
     </row>
     <row r="141" ht="21" customHeight="1">
       <c r="A141" t="s" s="5">
@@ -5840,13 +5930,13 @@
         <v>21</v>
       </c>
       <c r="D141" s="6">
-        <v>0.714285714285714</v>
+        <v>0.785714285714286</v>
       </c>
       <c r="E141" s="6"/>
       <c r="F141" s="6"/>
       <c r="G141" s="6"/>
       <c r="H141" s="6">
-        <v>0.777777777777778</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="I141" s="6"/>
       <c r="J141" s="7"/>
@@ -5859,10 +5949,10 @@
         <v>296</v>
       </c>
       <c r="C142" t="s" s="5">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D142" s="6">
-        <v>0.69047619047619</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="E142" s="6"/>
       <c r="F142" s="6"/>
@@ -5883,12 +5973,14 @@
       <c r="C143" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="D143" s="6"/>
+      <c r="D143" s="6">
+        <v>0.69047619047619</v>
+      </c>
       <c r="E143" s="6"/>
       <c r="F143" s="6"/>
       <c r="G143" s="6"/>
       <c r="H143" s="6">
-        <v>0.805555555555556</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I143" s="6"/>
       <c r="J143" s="7"/>
@@ -5901,19 +5993,17 @@
         <v>300</v>
       </c>
       <c r="C144" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="D144" s="6">
-        <v>0.785714285714286</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D144" s="6"/>
       <c r="E144" s="6"/>
       <c r="F144" s="6"/>
       <c r="G144" s="6"/>
       <c r="H144" s="6">
-        <v>0.75</v>
+        <v>0.805555555555556</v>
       </c>
       <c r="I144" s="6"/>
-      <c r="J144" s="9"/>
+      <c r="J144" s="7"/>
     </row>
     <row r="145" ht="21" customHeight="1">
       <c r="A145" t="s" s="5">
@@ -5923,21 +6013,21 @@
         <v>302</v>
       </c>
       <c r="C145" t="s" s="5">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D145" s="6">
-        <v>0.880952380952381</v>
+        <v>0.785714285714286</v>
       </c>
       <c r="E145" s="6"/>
       <c r="F145" s="6"/>
       <c r="G145" s="6"/>
       <c r="H145" s="6">
-        <v>0.777777777777778</v>
+        <v>0.75</v>
       </c>
       <c r="I145" s="6"/>
-      <c r="J145" s="10"/>
-    </row>
-    <row r="146" ht="20.7" customHeight="1">
+      <c r="J145" s="9"/>
+    </row>
+    <row r="146" ht="21" customHeight="1">
       <c r="A146" t="s" s="5">
         <v>303</v>
       </c>
@@ -5945,51 +6035,55 @@
         <v>304</v>
       </c>
       <c r="C146" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D146" s="6">
+        <v>0.880952380952381</v>
+      </c>
+      <c r="E146" s="6"/>
+      <c r="F146" s="6"/>
+      <c r="G146" s="6"/>
+      <c r="H146" s="6">
+        <v>0.777777777777778</v>
+      </c>
+      <c r="I146" s="6"/>
+      <c r="J146" s="10"/>
+    </row>
+    <row r="147" ht="20.7" customHeight="1">
+      <c r="A147" t="s" s="5">
+        <v>305</v>
+      </c>
+      <c r="B147" t="s" s="5">
+        <v>306</v>
+      </c>
+      <c r="C147" t="s" s="5">
         <v>67</v>
       </c>
-      <c r="D146" s="22">
+      <c r="D147" s="14">
         <v>0.619047619047619</v>
       </c>
-      <c r="E146" s="12"/>
-      <c r="F146" s="12"/>
-      <c r="G146" s="12"/>
-      <c r="H146" s="6">
+      <c r="E147" s="12"/>
+      <c r="F147" s="12"/>
+      <c r="G147" s="12"/>
+      <c r="H147" s="6">
         <v>0.666666666666667</v>
       </c>
-      <c r="I146" s="12"/>
-      <c r="J146" s="14"/>
-    </row>
-    <row r="147" ht="21" customHeight="1">
-      <c r="A147" t="s" s="4">
-        <v>305</v>
-      </c>
-      <c r="B147" t="s" s="4">
-        <v>306</v>
-      </c>
-      <c r="C147" t="s" s="5">
+      <c r="I147" s="12"/>
+      <c r="J147" s="15"/>
+    </row>
+    <row r="148" ht="21" customHeight="1">
+      <c r="A148" t="s" s="4">
+        <v>307</v>
+      </c>
+      <c r="B148" t="s" s="4">
+        <v>308</v>
+      </c>
+      <c r="C148" t="s" s="5">
         <v>36</v>
       </c>
-      <c r="D147" s="6">
+      <c r="D148" s="6">
         <v>0.904761904761905</v>
       </c>
-      <c r="E147" s="6"/>
-      <c r="F147" s="6"/>
-      <c r="G147" s="6"/>
-      <c r="H147" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="I147" s="6"/>
-      <c r="J147" s="7"/>
-    </row>
-    <row r="148" ht="21" customHeight="1">
-      <c r="A148" t="s" s="8">
-        <v>307</v>
-      </c>
-      <c r="B148" t="s" s="8">
-        <v>308</v>
-      </c>
-      <c r="C148" s="12"/>
-      <c r="D148" s="6"/>
       <c r="E148" s="6"/>
       <c r="F148" s="6"/>
       <c r="G148" s="6"/>
@@ -6000,26 +6094,22 @@
       <c r="J148" s="7"/>
     </row>
     <row r="149" ht="21" customHeight="1">
-      <c r="A149" t="s" s="5">
+      <c r="A149" t="s" s="8">
         <v>309</v>
       </c>
-      <c r="B149" t="s" s="5">
+      <c r="B149" t="s" s="8">
         <v>310</v>
       </c>
-      <c r="C149" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="D149" s="6">
-        <v>0.714285714285714</v>
-      </c>
+      <c r="C149" s="12"/>
+      <c r="D149" s="6"/>
       <c r="E149" s="6"/>
       <c r="F149" s="6"/>
       <c r="G149" s="6"/>
       <c r="H149" s="6">
-        <v>0.722222222222222</v>
+        <v>0.75</v>
       </c>
       <c r="I149" s="6"/>
-      <c r="J149" s="9"/>
+      <c r="J149" s="7"/>
     </row>
     <row r="150" ht="21" customHeight="1">
       <c r="A150" t="s" s="5">
@@ -6029,19 +6119,19 @@
         <v>312</v>
       </c>
       <c r="C150" t="s" s="5">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D150" s="6">
-        <v>0.785714285714286</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="E150" s="6"/>
       <c r="F150" s="6"/>
       <c r="G150" s="6"/>
       <c r="H150" s="6">
-        <v>0.777777777777778</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="I150" s="6"/>
-      <c r="J150" s="11"/>
+      <c r="J150" s="9"/>
     </row>
     <row r="151" ht="21" customHeight="1">
       <c r="A151" t="s" s="5">
@@ -6051,9 +6141,11 @@
         <v>314</v>
       </c>
       <c r="C151" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="D151" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="D151" s="6">
+        <v>0.785714285714286</v>
+      </c>
       <c r="E151" s="6"/>
       <c r="F151" s="6"/>
       <c r="G151" s="6"/>
@@ -6061,7 +6153,7 @@
         <v>0.777777777777778</v>
       </c>
       <c r="I151" s="6"/>
-      <c r="J151" s="7"/>
+      <c r="J151" s="11"/>
     </row>
     <row r="152" ht="21" customHeight="1">
       <c r="A152" t="s" s="5">
@@ -6071,7 +6163,7 @@
         <v>316</v>
       </c>
       <c r="C152" t="s" s="5">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D152" s="6"/>
       <c r="E152" s="6"/>
@@ -6090,13 +6182,15 @@
       <c r="B153" t="s" s="5">
         <v>318</v>
       </c>
-      <c r="C153" s="12"/>
+      <c r="C153" t="s" s="5">
+        <v>15</v>
+      </c>
       <c r="D153" s="6"/>
       <c r="E153" s="6"/>
       <c r="F153" s="6"/>
       <c r="G153" s="6"/>
       <c r="H153" s="6">
-        <v>0.388888888888889</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I153" s="6"/>
       <c r="J153" s="7"/>
@@ -6108,22 +6202,18 @@
       <c r="B154" t="s" s="5">
         <v>320</v>
       </c>
-      <c r="C154" t="s" s="5">
-        <v>67</v>
-      </c>
-      <c r="D154" s="6">
-        <v>0.785714285714286</v>
-      </c>
+      <c r="C154" s="12"/>
+      <c r="D154" s="6"/>
       <c r="E154" s="6"/>
       <c r="F154" s="6"/>
       <c r="G154" s="6"/>
       <c r="H154" s="6">
-        <v>0</v>
+        <v>0.388888888888889</v>
       </c>
       <c r="I154" s="6"/>
-      <c r="J154" s="9"/>
-    </row>
-    <row r="155" ht="20.7" customHeight="1">
+      <c r="J154" s="7"/>
+    </row>
+    <row r="155" ht="21" customHeight="1">
       <c r="A155" t="s" s="5">
         <v>321</v>
       </c>
@@ -6131,21 +6221,21 @@
         <v>322</v>
       </c>
       <c r="C155" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D155" s="25">
-        <v>0.642857142857143</v>
-      </c>
-      <c r="E155" s="12"/>
-      <c r="F155" s="12"/>
-      <c r="G155" s="12"/>
+        <v>67</v>
+      </c>
+      <c r="D155" s="6">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="E155" s="6"/>
+      <c r="F155" s="6"/>
+      <c r="G155" s="6"/>
       <c r="H155" s="6">
-        <v>0.861111111111111</v>
-      </c>
-      <c r="I155" s="12"/>
-      <c r="J155" s="14"/>
-    </row>
-    <row r="156" ht="21" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="I155" s="6"/>
+      <c r="J155" s="9"/>
+    </row>
+    <row r="156" ht="20.7" customHeight="1">
       <c r="A156" t="s" s="5">
         <v>323</v>
       </c>
@@ -6155,17 +6245,17 @@
       <c r="C156" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D156" s="6">
-        <v>0.619047619047619</v>
-      </c>
-      <c r="E156" s="6"/>
-      <c r="F156" s="6"/>
-      <c r="G156" s="6"/>
+      <c r="D156" s="25">
+        <v>0.642857142857143</v>
+      </c>
+      <c r="E156" s="12"/>
+      <c r="F156" s="12"/>
+      <c r="G156" s="12"/>
       <c r="H156" s="6">
-        <v>0.805555555555556</v>
-      </c>
-      <c r="I156" s="6"/>
-      <c r="J156" s="9"/>
+        <v>0.861111111111111</v>
+      </c>
+      <c r="I156" s="12"/>
+      <c r="J156" s="15"/>
     </row>
     <row r="157" ht="21" customHeight="1">
       <c r="A157" t="s" s="5">
@@ -6175,19 +6265,19 @@
         <v>326</v>
       </c>
       <c r="C157" t="s" s="5">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D157" s="6">
-        <v>0.666666666666667</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="E157" s="6"/>
       <c r="F157" s="6"/>
       <c r="G157" s="6"/>
       <c r="H157" s="6">
-        <v>0.888888888888889</v>
+        <v>0.805555555555556</v>
       </c>
       <c r="I157" s="6"/>
-      <c r="J157" s="11"/>
+      <c r="J157" s="9"/>
     </row>
     <row r="158" ht="21" customHeight="1">
       <c r="A158" t="s" s="5">
@@ -6197,101 +6287,105 @@
         <v>328</v>
       </c>
       <c r="C158" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D158" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="D158" s="6">
+        <v>0.666666666666667</v>
+      </c>
       <c r="E158" s="6"/>
       <c r="F158" s="6"/>
       <c r="G158" s="6"/>
       <c r="H158" s="6">
-        <v>0.777777777777778</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="I158" s="6"/>
-      <c r="J158" s="7"/>
+      <c r="J158" s="11"/>
     </row>
     <row r="159" ht="21" customHeight="1">
-      <c r="A159" t="s" s="4">
+      <c r="A159" t="s" s="5">
         <v>329</v>
       </c>
-      <c r="B159" t="s" s="4">
+      <c r="B159" t="s" s="5">
         <v>330</v>
       </c>
-      <c r="C159" s="12"/>
-      <c r="D159" s="6"/>
+      <c r="C159" t="s" s="5">
+        <v>18</v>
+      </c>
+      <c r="D159" s="6">
+        <v>0.714285714285714</v>
+      </c>
       <c r="E159" s="6"/>
       <c r="F159" s="6"/>
       <c r="G159" s="6"/>
       <c r="H159" s="6">
-        <v>0.75</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I159" s="6"/>
-      <c r="J159" s="9"/>
+      <c r="J159" s="7"/>
     </row>
     <row r="160" ht="21" customHeight="1">
-      <c r="A160" t="s" s="23">
+      <c r="A160" t="s" s="4">
         <v>331</v>
       </c>
-      <c r="B160" t="s" s="23">
+      <c r="B160" t="s" s="4">
         <v>332</v>
       </c>
-      <c r="C160" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="D160" s="6">
-        <v>0.714285714285714</v>
-      </c>
+      <c r="C160" s="12"/>
+      <c r="D160" s="6"/>
       <c r="E160" s="6"/>
       <c r="F160" s="6"/>
       <c r="G160" s="6"/>
       <c r="H160" s="6">
-        <v>0.861111111111111</v>
+        <v>0.75</v>
       </c>
       <c r="I160" s="6"/>
-      <c r="J160" s="10"/>
+      <c r="J160" s="9"/>
     </row>
     <row r="161" ht="21" customHeight="1">
-      <c r="A161" t="s" s="8">
+      <c r="A161" t="s" s="23">
         <v>333</v>
       </c>
-      <c r="B161" t="s" s="8">
+      <c r="B161" t="s" s="23">
         <v>334</v>
       </c>
       <c r="C161" t="s" s="5">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D161" s="6">
-        <v>0.80952380952381</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="E161" s="6"/>
       <c r="F161" s="6"/>
       <c r="G161" s="6"/>
       <c r="H161" s="6">
-        <v>0.777777777777778</v>
+        <v>0.861111111111111</v>
       </c>
       <c r="I161" s="6"/>
-      <c r="J161" s="11"/>
+      <c r="J161" s="10"/>
     </row>
     <row r="162" ht="21" customHeight="1">
-      <c r="A162" t="s" s="5">
+      <c r="A162" t="s" s="8">
         <v>335</v>
       </c>
-      <c r="B162" t="s" s="5">
+      <c r="B162" t="s" s="8">
         <v>336</v>
       </c>
       <c r="C162" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="D162" s="6"/>
+      <c r="D162" s="6">
+        <v>0.80952380952381</v>
+      </c>
       <c r="E162" s="6"/>
       <c r="F162" s="6"/>
       <c r="G162" s="6"/>
       <c r="H162" s="6">
-        <v>0.722222222222222</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I162" s="6"/>
-      <c r="J162" s="9"/>
-    </row>
-    <row r="163" ht="20.35" customHeight="1">
+      <c r="J162" s="11"/>
+    </row>
+    <row r="163" ht="21" customHeight="1">
       <c r="A163" t="s" s="5">
         <v>337</v>
       </c>
@@ -6299,96 +6393,104 @@
         <v>338</v>
       </c>
       <c r="C163" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D163" s="12"/>
-      <c r="E163" s="12"/>
-      <c r="F163" s="12"/>
-      <c r="G163" s="12"/>
+        <v>21</v>
+      </c>
+      <c r="D163" s="6">
+        <v>0.69047619047619</v>
+      </c>
+      <c r="E163" s="6"/>
+      <c r="F163" s="6"/>
+      <c r="G163" s="6"/>
       <c r="H163" s="6">
-        <v>0.777777777777778</v>
-      </c>
-      <c r="I163" s="12"/>
-      <c r="J163" s="14"/>
-    </row>
-    <row r="164" ht="21" customHeight="1">
-      <c r="A164" t="s" s="4">
+        <v>0.722222222222222</v>
+      </c>
+      <c r="I163" s="6"/>
+      <c r="J163" s="9"/>
+    </row>
+    <row r="164" ht="20.35" customHeight="1">
+      <c r="A164" t="s" s="5">
         <v>339</v>
       </c>
-      <c r="B164" t="s" s="4">
+      <c r="B164" t="s" s="5">
         <v>340</v>
       </c>
       <c r="C164" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D164" s="6"/>
-      <c r="E164" s="6"/>
-      <c r="F164" s="6"/>
-      <c r="G164" s="6"/>
+      <c r="D164" s="12"/>
+      <c r="E164" s="12"/>
+      <c r="F164" s="12"/>
+      <c r="G164" s="12"/>
       <c r="H164" s="6">
         <v>0.777777777777778</v>
       </c>
-      <c r="I164" s="6"/>
-      <c r="J164" s="9"/>
+      <c r="I164" s="12"/>
+      <c r="J164" s="15"/>
     </row>
     <row r="165" ht="21" customHeight="1">
-      <c r="A165" t="s" s="23">
+      <c r="A165" t="s" s="4">
         <v>341</v>
       </c>
-      <c r="B165" t="s" s="23">
+      <c r="B165" t="s" s="4">
         <v>342</v>
       </c>
       <c r="C165" t="s" s="5">
         <v>18</v>
       </c>
       <c r="D165" s="6">
-        <v>0.857142857142857</v>
+        <v>0.69047619047619</v>
       </c>
       <c r="E165" s="6"/>
       <c r="F165" s="6"/>
       <c r="G165" s="6"/>
       <c r="H165" s="6">
+        <v>0.777777777777778</v>
+      </c>
+      <c r="I165" s="6"/>
+      <c r="J165" s="9"/>
+    </row>
+    <row r="166" ht="21" customHeight="1">
+      <c r="A166" t="s" s="23">
+        <v>343</v>
+      </c>
+      <c r="B166" t="s" s="23">
+        <v>344</v>
+      </c>
+      <c r="C166" t="s" s="5">
+        <v>18</v>
+      </c>
+      <c r="D166" s="6">
+        <v>0.857142857142857</v>
+      </c>
+      <c r="E166" s="6"/>
+      <c r="F166" s="6"/>
+      <c r="G166" s="6"/>
+      <c r="H166" s="6">
         <v>0.805555555555556</v>
       </c>
-      <c r="I165" s="6"/>
-      <c r="J165" s="11"/>
-    </row>
-    <row r="166" ht="21" customHeight="1">
-      <c r="A166" t="s" s="8">
-        <v>343</v>
-      </c>
-      <c r="B166" t="s" s="8">
-        <v>344</v>
-      </c>
-      <c r="C166" t="s" s="5">
+      <c r="I166" s="6"/>
+      <c r="J166" s="11"/>
+    </row>
+    <row r="167" ht="21" customHeight="1">
+      <c r="A167" t="s" s="8">
+        <v>345</v>
+      </c>
+      <c r="B167" t="s" s="8">
+        <v>346</v>
+      </c>
+      <c r="C167" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="D166" s="12"/>
-      <c r="E166" s="12"/>
-      <c r="F166" s="12"/>
-      <c r="G166" s="12"/>
-      <c r="H166" s="6">
+      <c r="D167" s="14">
+        <v>0.619047619047619</v>
+      </c>
+      <c r="E167" s="12"/>
+      <c r="F167" s="12"/>
+      <c r="G167" s="12"/>
+      <c r="H167" s="6">
         <v>0.638888888888889</v>
       </c>
-      <c r="I166" s="12"/>
-      <c r="J166" s="7"/>
-    </row>
-    <row r="167" ht="21" customHeight="1">
-      <c r="A167" t="s" s="5">
-        <v>345</v>
-      </c>
-      <c r="B167" t="s" s="5">
-        <v>346</v>
-      </c>
-      <c r="C167" s="12"/>
-      <c r="D167" s="6"/>
-      <c r="E167" s="6"/>
-      <c r="F167" s="6"/>
-      <c r="G167" s="6"/>
-      <c r="H167" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="I167" s="6"/>
+      <c r="I167" s="12"/>
       <c r="J167" s="7"/>
     </row>
     <row r="168" ht="21" customHeight="1">
@@ -6398,115 +6500,113 @@
       <c r="B168" t="s" s="4">
         <v>348</v>
       </c>
-      <c r="C168" t="s" s="5">
-        <v>21</v>
-      </c>
+      <c r="C168" s="12"/>
       <c r="D168" s="6"/>
       <c r="E168" s="6"/>
       <c r="F168" s="6"/>
       <c r="G168" s="6"/>
       <c r="H168" s="6">
-        <v>0.305555555555556</v>
+        <v>0.75</v>
       </c>
       <c r="I168" s="6"/>
-      <c r="J168" s="9"/>
+      <c r="J168" s="7"/>
     </row>
     <row r="169" ht="21" customHeight="1">
-      <c r="A169" t="s" s="15">
+      <c r="A169" t="s" s="18">
         <v>349</v>
       </c>
-      <c r="B169" t="s" s="15">
+      <c r="B169" t="s" s="18">
         <v>350</v>
       </c>
-      <c r="C169" t="s" s="16">
-        <v>36</v>
-      </c>
-      <c r="D169" s="6"/>
+      <c r="C169" t="s" s="17">
+        <v>21</v>
+      </c>
+      <c r="D169" s="6">
+        <v>0.714285714285714</v>
+      </c>
       <c r="E169" s="6"/>
       <c r="F169" s="6"/>
       <c r="G169" s="6"/>
       <c r="H169" s="6">
-        <v>0.805555555555556</v>
+        <v>0</v>
       </c>
       <c r="I169" s="6"/>
-      <c r="J169" s="10"/>
+      <c r="J169" s="7"/>
     </row>
     <row r="170" ht="21" customHeight="1">
-      <c r="A170" t="s" s="8">
+      <c r="A170" t="s" s="4">
         <v>351</v>
       </c>
-      <c r="B170" t="s" s="8">
+      <c r="B170" t="s" s="4">
         <v>352</v>
       </c>
       <c r="C170" t="s" s="5">
-        <v>67</v>
-      </c>
-      <c r="D170" s="6">
-        <v>0.694444444444444</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D170" s="6"/>
       <c r="E170" s="6"/>
       <c r="F170" s="6"/>
       <c r="G170" s="6"/>
       <c r="H170" s="6">
-        <v>0</v>
+        <v>0.305555555555556</v>
       </c>
       <c r="I170" s="6"/>
-      <c r="J170" s="11"/>
+      <c r="J170" s="9"/>
     </row>
     <row r="171" ht="21" customHeight="1">
-      <c r="A171" t="s" s="5">
+      <c r="A171" t="s" s="16">
         <v>353</v>
       </c>
-      <c r="B171" t="s" s="5">
+      <c r="B171" t="s" s="16">
         <v>354</v>
       </c>
-      <c r="C171" t="s" s="5">
-        <v>12</v>
+      <c r="C171" t="s" s="17">
+        <v>36</v>
       </c>
       <c r="D171" s="6"/>
       <c r="E171" s="6"/>
       <c r="F171" s="6"/>
       <c r="G171" s="6"/>
       <c r="H171" s="6">
-        <v>0.777777777777778</v>
+        <v>0.805555555555556</v>
       </c>
       <c r="I171" s="6"/>
-      <c r="J171" s="9"/>
-    </row>
-    <row r="172" ht="20.7" customHeight="1">
-      <c r="A172" t="s" s="4">
+      <c r="J171" s="10"/>
+    </row>
+    <row r="172" ht="21" customHeight="1">
+      <c r="A172" t="s" s="8">
         <v>355</v>
       </c>
-      <c r="B172" t="s" s="4">
+      <c r="B172" t="s" s="8">
         <v>356</v>
       </c>
       <c r="C172" t="s" s="5">
+        <v>67</v>
+      </c>
+      <c r="D172" s="6">
+        <v>0.694444444444444</v>
+      </c>
+      <c r="E172" s="6"/>
+      <c r="F172" s="6"/>
+      <c r="G172" s="6"/>
+      <c r="H172" s="6">
+        <v>0</v>
+      </c>
+      <c r="I172" s="6"/>
+      <c r="J172" s="11"/>
+    </row>
+    <row r="173" ht="21" customHeight="1">
+      <c r="A173" t="s" s="5">
+        <v>357</v>
+      </c>
+      <c r="B173" t="s" s="5">
+        <v>358</v>
+      </c>
+      <c r="C173" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="D172" s="25">
-        <v>0.738095238095238</v>
-      </c>
-      <c r="E172" s="12"/>
-      <c r="F172" s="12"/>
-      <c r="G172" s="12"/>
-      <c r="H172" s="6">
-        <v>0.777777777777778</v>
-      </c>
-      <c r="I172" s="12"/>
-      <c r="J172" s="14"/>
-    </row>
-    <row r="173" ht="21" customHeight="1">
-      <c r="A173" t="s" s="17">
-        <v>357</v>
-      </c>
-      <c r="B173" t="s" s="17">
-        <v>358</v>
-      </c>
-      <c r="C173" t="s" s="16">
-        <v>18</v>
-      </c>
       <c r="D173" s="6">
-        <v>0.952380952380952</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="E173" s="6"/>
       <c r="F173" s="6"/>
@@ -6515,171 +6615,177 @@
         <v>0.777777777777778</v>
       </c>
       <c r="I173" s="6"/>
-      <c r="J173" s="7"/>
-    </row>
-    <row r="174" ht="21" customHeight="1">
-      <c r="A174" t="s" s="5">
+      <c r="J173" s="9"/>
+    </row>
+    <row r="174" ht="20.7" customHeight="1">
+      <c r="A174" t="s" s="4">
         <v>359</v>
       </c>
-      <c r="B174" t="s" s="5">
+      <c r="B174" t="s" s="4">
         <v>360</v>
       </c>
       <c r="C174" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="D174" s="6">
-        <v>0.571428571428571</v>
-      </c>
-      <c r="E174" s="6"/>
-      <c r="F174" s="6"/>
-      <c r="G174" s="6"/>
+      <c r="D174" s="25">
+        <v>0.738095238095238</v>
+      </c>
+      <c r="E174" s="12"/>
+      <c r="F174" s="12"/>
+      <c r="G174" s="12"/>
       <c r="H174" s="6">
-        <v>0.722222222222222</v>
-      </c>
-      <c r="I174" s="6"/>
-      <c r="J174" s="7"/>
+        <v>0.777777777777778</v>
+      </c>
+      <c r="I174" s="12"/>
+      <c r="J174" s="15"/>
     </row>
     <row r="175" ht="21" customHeight="1">
-      <c r="A175" t="s" s="5">
+      <c r="A175" t="s" s="18">
         <v>361</v>
       </c>
-      <c r="B175" t="s" s="5">
+      <c r="B175" t="s" s="18">
         <v>362</v>
       </c>
-      <c r="C175" t="s" s="5">
-        <v>15</v>
+      <c r="C175" t="s" s="17">
+        <v>18</v>
       </c>
       <c r="D175" s="6">
-        <v>0.357142857142857</v>
+        <v>0.952380952380952</v>
       </c>
       <c r="E175" s="6"/>
       <c r="F175" s="6"/>
       <c r="G175" s="6"/>
       <c r="H175" s="6">
-        <v>0</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I175" s="6"/>
       <c r="J175" s="7"/>
     </row>
     <row r="176" ht="21" customHeight="1">
-      <c r="A176" t="s" s="4">
-        <v>361</v>
-      </c>
-      <c r="B176" t="s" s="4">
+      <c r="A176" t="s" s="5">
         <v>363</v>
       </c>
-      <c r="C176" s="12"/>
-      <c r="D176" s="6"/>
+      <c r="B176" t="s" s="5">
+        <v>364</v>
+      </c>
+      <c r="C176" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D176" s="6">
+        <v>0.571428571428571</v>
+      </c>
       <c r="E176" s="6"/>
       <c r="F176" s="6"/>
       <c r="G176" s="6"/>
       <c r="H176" s="6">
-        <v>0.638888888888889</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="I176" s="6"/>
-      <c r="J176" s="9"/>
+      <c r="J176" s="7"/>
     </row>
     <row r="177" ht="21" customHeight="1">
-      <c r="A177" t="s" s="23">
-        <v>364</v>
-      </c>
-      <c r="B177" t="s" s="23">
+      <c r="A177" t="s" s="5">
         <v>365</v>
       </c>
+      <c r="B177" t="s" s="5">
+        <v>366</v>
+      </c>
       <c r="C177" t="s" s="5">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D177" s="6">
-        <v>0.761904761904762</v>
+        <v>0.357142857142857</v>
       </c>
       <c r="E177" s="6"/>
       <c r="F177" s="6"/>
       <c r="G177" s="6"/>
       <c r="H177" s="6">
-        <v>0.888888888888889</v>
+        <v>0</v>
       </c>
       <c r="I177" s="6"/>
-      <c r="J177" s="10"/>
+      <c r="J177" s="7"/>
     </row>
     <row r="178" ht="21" customHeight="1">
-      <c r="A178" t="s" s="8">
-        <v>366</v>
-      </c>
-      <c r="B178" t="s" s="8">
+      <c r="A178" t="s" s="4">
+        <v>365</v>
+      </c>
+      <c r="B178" t="s" s="4">
         <v>367</v>
       </c>
-      <c r="C178" t="s" s="5">
-        <v>21</v>
-      </c>
+      <c r="C178" s="12"/>
       <c r="D178" s="6"/>
       <c r="E178" s="6"/>
       <c r="F178" s="6"/>
       <c r="G178" s="6"/>
       <c r="H178" s="6">
-        <v>0.75</v>
+        <v>0.638888888888889</v>
       </c>
       <c r="I178" s="6"/>
-      <c r="J178" s="10"/>
-    </row>
-    <row r="179" ht="20.7" customHeight="1">
-      <c r="A179" t="s" s="5">
+      <c r="J178" s="9"/>
+    </row>
+    <row r="179" ht="21" customHeight="1">
+      <c r="A179" t="s" s="23">
         <v>368</v>
       </c>
-      <c r="B179" t="s" s="5">
+      <c r="B179" t="s" s="23">
         <v>369</v>
       </c>
       <c r="C179" t="s" s="5">
+        <v>36</v>
+      </c>
+      <c r="D179" s="6">
+        <v>0.761904761904762</v>
+      </c>
+      <c r="E179" s="6"/>
+      <c r="F179" s="6"/>
+      <c r="G179" s="6"/>
+      <c r="H179" s="6">
+        <v>0.888888888888889</v>
+      </c>
+      <c r="I179" s="6"/>
+      <c r="J179" s="10"/>
+    </row>
+    <row r="180" ht="21" customHeight="1">
+      <c r="A180" t="s" s="8">
+        <v>370</v>
+      </c>
+      <c r="B180" t="s" s="8">
+        <v>371</v>
+      </c>
+      <c r="C180" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="D179" s="12"/>
-      <c r="E179" s="12"/>
-      <c r="F179" s="12"/>
-      <c r="G179" s="12"/>
-      <c r="H179" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="I179" s="12"/>
-      <c r="J179" s="14"/>
-    </row>
-    <row r="180" ht="21" customHeight="1">
-      <c r="A180" t="s" s="4">
-        <v>370</v>
-      </c>
-      <c r="B180" t="s" s="4">
-        <v>371</v>
-      </c>
-      <c r="C180" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="D180" s="6"/>
+      <c r="D180" s="6">
+        <v>0.619047619047619</v>
+      </c>
       <c r="E180" s="6"/>
       <c r="F180" s="6"/>
       <c r="G180" s="6"/>
       <c r="H180" s="6">
-        <v>0.861111111111111</v>
+        <v>0.75</v>
       </c>
       <c r="I180" s="6"/>
-      <c r="J180" s="7"/>
-    </row>
-    <row r="181" ht="21" customHeight="1">
-      <c r="A181" t="s" s="17">
+      <c r="J180" s="10"/>
+    </row>
+    <row r="181" ht="20.7" customHeight="1">
+      <c r="A181" t="s" s="5">
         <v>372</v>
       </c>
-      <c r="B181" t="s" s="17">
+      <c r="B181" t="s" s="5">
         <v>373</v>
       </c>
-      <c r="C181" t="s" s="16">
-        <v>18</v>
-      </c>
-      <c r="D181" s="6"/>
-      <c r="E181" s="6"/>
-      <c r="F181" s="6"/>
-      <c r="G181" s="6"/>
+      <c r="C181" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="D181" s="12"/>
+      <c r="E181" s="12"/>
+      <c r="F181" s="12"/>
+      <c r="G181" s="12"/>
       <c r="H181" s="6">
-        <v>0.805555555555556</v>
-      </c>
-      <c r="I181" s="6"/>
-      <c r="J181" s="7"/>
+        <v>0.75</v>
+      </c>
+      <c r="I181" s="12"/>
+      <c r="J181" s="15"/>
     </row>
     <row r="182" ht="21" customHeight="1">
       <c r="A182" t="s" s="4">
@@ -6689,76 +6795,74 @@
         <v>375</v>
       </c>
       <c r="C182" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="D182" s="6">
-        <v>0.904761904761905</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D182" s="6"/>
       <c r="E182" s="6"/>
       <c r="F182" s="6"/>
       <c r="G182" s="6"/>
       <c r="H182" s="6">
-        <v>0.75</v>
+        <v>0.861111111111111</v>
       </c>
       <c r="I182" s="6"/>
       <c r="J182" s="7"/>
     </row>
     <row r="183" ht="21" customHeight="1">
-      <c r="A183" t="s" s="17">
+      <c r="A183" t="s" s="18">
         <v>376</v>
       </c>
-      <c r="B183" t="s" s="17">
+      <c r="B183" t="s" s="18">
         <v>377</v>
       </c>
-      <c r="C183" t="s" s="16">
-        <v>21</v>
+      <c r="C183" t="s" s="17">
+        <v>18</v>
       </c>
       <c r="D183" s="6">
-        <v>0.861111111111111</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="E183" s="6"/>
       <c r="F183" s="6"/>
       <c r="G183" s="6"/>
       <c r="H183" s="6">
-        <v>0.722222222222222</v>
+        <v>0.805555555555556</v>
       </c>
       <c r="I183" s="6"/>
-      <c r="J183" s="9"/>
-    </row>
-    <row r="184" ht="20.7" customHeight="1">
-      <c r="A184" t="s" s="5">
+      <c r="J183" s="7"/>
+    </row>
+    <row r="184" ht="21" customHeight="1">
+      <c r="A184" t="s" s="4">
         <v>378</v>
       </c>
-      <c r="B184" t="s" s="5">
+      <c r="B184" t="s" s="4">
         <v>379</v>
       </c>
       <c r="C184" t="s" s="5">
-        <v>67</v>
-      </c>
-      <c r="D184" s="25">
-        <v>0.69047619047619</v>
-      </c>
-      <c r="E184" s="12"/>
-      <c r="F184" s="12"/>
-      <c r="G184" s="12"/>
+        <v>21</v>
+      </c>
+      <c r="D184" s="6">
+        <v>0.904761904761905</v>
+      </c>
+      <c r="E184" s="6"/>
+      <c r="F184" s="6"/>
+      <c r="G184" s="6"/>
       <c r="H184" s="6">
-        <v>0.722222222222222</v>
-      </c>
-      <c r="I184" s="12"/>
-      <c r="J184" s="14"/>
+        <v>0.75</v>
+      </c>
+      <c r="I184" s="6"/>
+      <c r="J184" s="7"/>
     </row>
     <row r="185" ht="21" customHeight="1">
-      <c r="A185" t="s" s="4">
+      <c r="A185" t="s" s="18">
         <v>380</v>
       </c>
-      <c r="B185" t="s" s="4">
+      <c r="B185" t="s" s="18">
         <v>381</v>
       </c>
-      <c r="C185" t="s" s="5">
-        <v>67</v>
+      <c r="C185" t="s" s="17">
+        <v>21</v>
       </c>
       <c r="D185" s="6">
-        <v>0.619047619047619</v>
+        <v>0.861111111111111</v>
       </c>
       <c r="E185" s="6"/>
       <c r="F185" s="6"/>
@@ -6767,153 +6871,159 @@
         <v>0.722222222222222</v>
       </c>
       <c r="I185" s="6"/>
-      <c r="J185" s="7"/>
-    </row>
-    <row r="186" ht="21" customHeight="1">
-      <c r="A186" t="s" s="17">
+      <c r="J185" s="9"/>
+    </row>
+    <row r="186" ht="20.7" customHeight="1">
+      <c r="A186" t="s" s="5">
         <v>382</v>
       </c>
-      <c r="B186" t="s" s="17">
+      <c r="B186" t="s" s="5">
         <v>383</v>
       </c>
-      <c r="C186" t="s" s="16">
-        <v>36</v>
-      </c>
-      <c r="D186" s="6">
-        <v>0.571428571428571</v>
-      </c>
-      <c r="E186" s="6"/>
-      <c r="F186" s="6"/>
-      <c r="G186" s="6"/>
+      <c r="C186" t="s" s="5">
+        <v>67</v>
+      </c>
+      <c r="D186" s="25">
+        <v>0.69047619047619</v>
+      </c>
+      <c r="E186" s="12"/>
+      <c r="F186" s="12"/>
+      <c r="G186" s="12"/>
       <c r="H186" s="6">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="I186" s="6"/>
-      <c r="J186" s="7"/>
+        <v>0.722222222222222</v>
+      </c>
+      <c r="I186" s="12"/>
+      <c r="J186" s="15"/>
     </row>
     <row r="187" ht="21" customHeight="1">
-      <c r="A187" t="s" s="5">
+      <c r="A187" t="s" s="4">
         <v>384</v>
       </c>
-      <c r="B187" t="s" s="5">
+      <c r="B187" t="s" s="4">
         <v>385</v>
       </c>
       <c r="C187" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="D187" s="6"/>
+        <v>67</v>
+      </c>
+      <c r="D187" s="6">
+        <v>0.619047619047619</v>
+      </c>
       <c r="E187" s="6"/>
       <c r="F187" s="6"/>
       <c r="G187" s="6"/>
       <c r="H187" s="6">
-        <v>0.75</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="I187" s="6"/>
       <c r="J187" s="7"/>
     </row>
     <row r="188" ht="21" customHeight="1">
-      <c r="A188" t="s" s="4">
+      <c r="A188" t="s" s="18">
         <v>386</v>
       </c>
-      <c r="B188" t="s" s="4">
+      <c r="B188" t="s" s="18">
         <v>387</v>
       </c>
-      <c r="C188" t="s" s="5">
-        <v>12</v>
+      <c r="C188" t="s" s="17">
+        <v>36</v>
       </c>
       <c r="D188" s="6">
-        <v>0.857142857142857</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="E188" s="6"/>
       <c r="F188" s="6"/>
       <c r="G188" s="6"/>
       <c r="H188" s="6">
-        <v>0.805555555555556</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="I188" s="6"/>
       <c r="J188" s="7"/>
     </row>
     <row r="189" ht="21" customHeight="1">
-      <c r="A189" t="s" s="15">
+      <c r="A189" t="s" s="5">
         <v>388</v>
       </c>
-      <c r="B189" t="s" s="15">
+      <c r="B189" t="s" s="5">
         <v>389</v>
       </c>
-      <c r="C189" t="s" s="16">
-        <v>12</v>
-      </c>
-      <c r="D189" s="6"/>
+      <c r="C189" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="D189" s="6">
+        <v>0.571428571428571</v>
+      </c>
       <c r="E189" s="6"/>
       <c r="F189" s="6"/>
       <c r="G189" s="6"/>
       <c r="H189" s="6">
-        <v>0.861111111111111</v>
+        <v>0.75</v>
       </c>
       <c r="I189" s="6"/>
-      <c r="J189" s="9"/>
+      <c r="J189" s="7"/>
     </row>
     <row r="190" ht="21" customHeight="1">
-      <c r="A190" t="s" s="17">
+      <c r="A190" t="s" s="4">
         <v>390</v>
       </c>
-      <c r="B190" t="s" s="17">
+      <c r="B190" t="s" s="4">
         <v>391</v>
       </c>
-      <c r="C190" t="s" s="16">
-        <v>21</v>
-      </c>
-      <c r="D190" s="6"/>
+      <c r="C190" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D190" s="6">
+        <v>0.857142857142857</v>
+      </c>
       <c r="E190" s="6"/>
       <c r="F190" s="6"/>
       <c r="G190" s="6"/>
       <c r="H190" s="6">
-        <v>0.75</v>
+        <v>0.805555555555556</v>
       </c>
       <c r="I190" s="6"/>
-      <c r="J190" s="11"/>
+      <c r="J190" s="7"/>
     </row>
     <row r="191" ht="21" customHeight="1">
-      <c r="A191" t="s" s="5">
+      <c r="A191" t="s" s="16">
         <v>392</v>
       </c>
-      <c r="B191" t="s" s="5">
+      <c r="B191" t="s" s="16">
         <v>393</v>
       </c>
-      <c r="C191" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="D191" s="6"/>
+      <c r="C191" t="s" s="17">
+        <v>12</v>
+      </c>
+      <c r="D191" s="6">
+        <v>0.80952380952381</v>
+      </c>
       <c r="E191" s="6"/>
       <c r="F191" s="6"/>
       <c r="G191" s="6"/>
       <c r="H191" s="6">
-        <v>0</v>
+        <v>0.861111111111111</v>
       </c>
       <c r="I191" s="6"/>
-      <c r="J191" s="7"/>
+      <c r="J191" s="9"/>
     </row>
     <row r="192" ht="21" customHeight="1">
-      <c r="A192" t="s" s="5">
+      <c r="A192" t="s" s="18">
         <v>394</v>
       </c>
-      <c r="B192" t="s" s="5">
+      <c r="B192" t="s" s="18">
         <v>395</v>
       </c>
-      <c r="C192" t="s" s="5">
-        <v>36</v>
-      </c>
-      <c r="D192" s="6">
-        <v>0.785714285714286</v>
-      </c>
+      <c r="C192" t="s" s="17">
+        <v>21</v>
+      </c>
+      <c r="D192" s="6"/>
       <c r="E192" s="6"/>
       <c r="F192" s="6"/>
       <c r="G192" s="6"/>
       <c r="H192" s="6">
-        <v>0.777777777777778</v>
+        <v>0.75</v>
       </c>
       <c r="I192" s="6"/>
-      <c r="J192" s="7"/>
+      <c r="J192" s="11"/>
     </row>
     <row r="193" ht="21" customHeight="1">
       <c r="A193" t="s" s="5">
@@ -6923,29 +7033,29 @@
         <v>397</v>
       </c>
       <c r="C193" t="s" s="5">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D193" s="6">
-        <v>1</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="E193" s="6"/>
       <c r="F193" s="6"/>
       <c r="G193" s="6"/>
       <c r="H193" s="6">
-        <v>0.777777777777778</v>
+        <v>0</v>
       </c>
       <c r="I193" s="6"/>
       <c r="J193" s="7"/>
     </row>
     <row r="194" ht="21" customHeight="1">
-      <c r="A194" t="s" s="4">
+      <c r="A194" t="s" s="5">
         <v>398</v>
       </c>
-      <c r="B194" t="s" s="4">
-        <v>115</v>
+      <c r="B194" t="s" s="5">
+        <v>399</v>
       </c>
       <c r="C194" t="s" s="5">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D194" s="6">
         <v>0.785714285714286</v>
@@ -6954,42 +7064,42 @@
       <c r="F194" s="6"/>
       <c r="G194" s="6"/>
       <c r="H194" s="6">
-        <v>0</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I194" s="6"/>
       <c r="J194" s="7"/>
     </row>
     <row r="195" ht="21" customHeight="1">
-      <c r="A195" t="s" s="17">
-        <v>399</v>
-      </c>
-      <c r="B195" t="s" s="17">
+      <c r="A195" t="s" s="5">
         <v>400</v>
       </c>
-      <c r="C195" t="s" s="16">
-        <v>67</v>
+      <c r="B195" t="s" s="5">
+        <v>401</v>
+      </c>
+      <c r="C195" t="s" s="5">
+        <v>36</v>
       </c>
       <c r="D195" s="6">
-        <v>0.738095238095238</v>
+        <v>1</v>
       </c>
       <c r="E195" s="6"/>
       <c r="F195" s="6"/>
       <c r="G195" s="6"/>
       <c r="H195" s="6">
-        <v>0.388888888888889</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I195" s="6"/>
       <c r="J195" s="7"/>
     </row>
     <row r="196" ht="21" customHeight="1">
-      <c r="A196" t="s" s="5">
-        <v>401</v>
-      </c>
-      <c r="B196" t="s" s="5">
+      <c r="A196" t="s" s="4">
         <v>402</v>
       </c>
+      <c r="B196" t="s" s="4">
+        <v>117</v>
+      </c>
       <c r="C196" t="s" s="5">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D196" s="6">
         <v>0.785714285714286</v>
@@ -6998,136 +7108,138 @@
       <c r="F196" s="6"/>
       <c r="G196" s="6"/>
       <c r="H196" s="6">
-        <v>0.777777777777778</v>
+        <v>0</v>
       </c>
       <c r="I196" s="6"/>
-      <c r="J196" s="9"/>
-    </row>
-    <row r="197" ht="20.7" customHeight="1">
-      <c r="A197" t="s" s="4">
+      <c r="J196" s="7"/>
+    </row>
+    <row r="197" ht="21" customHeight="1">
+      <c r="A197" t="s" s="18">
         <v>403</v>
       </c>
-      <c r="B197" t="s" s="4">
+      <c r="B197" t="s" s="18">
         <v>404</v>
       </c>
-      <c r="C197" t="s" s="5">
-        <v>36</v>
-      </c>
-      <c r="D197" s="22">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E197" s="12"/>
-      <c r="F197" s="12"/>
-      <c r="G197" s="12"/>
+      <c r="C197" t="s" s="17">
+        <v>67</v>
+      </c>
+      <c r="D197" s="6">
+        <v>0.738095238095238</v>
+      </c>
+      <c r="E197" s="6"/>
+      <c r="F197" s="6"/>
+      <c r="G197" s="6"/>
       <c r="H197" s="6">
-        <v>0.888888888888889</v>
-      </c>
-      <c r="I197" s="12"/>
-      <c r="J197" s="13"/>
+        <v>0.388888888888889</v>
+      </c>
+      <c r="I197" s="6"/>
+      <c r="J197" s="7"/>
     </row>
     <row r="198" ht="21" customHeight="1">
-      <c r="A198" t="s" s="23">
+      <c r="A198" t="s" s="5">
         <v>405</v>
       </c>
-      <c r="B198" t="s" s="23">
+      <c r="B198" t="s" s="5">
         <v>406</v>
       </c>
       <c r="C198" t="s" s="5">
         <v>36</v>
       </c>
-      <c r="D198" s="6"/>
+      <c r="D198" s="6">
+        <v>0.785714285714286</v>
+      </c>
       <c r="E198" s="6"/>
       <c r="F198" s="6"/>
       <c r="G198" s="6"/>
       <c r="H198" s="6">
-        <v>0.75</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I198" s="6"/>
-      <c r="J198" s="10"/>
-    </row>
-    <row r="199" ht="21" customHeight="1">
-      <c r="A199" t="s" s="8">
+      <c r="J198" s="9"/>
+    </row>
+    <row r="199" ht="20.7" customHeight="1">
+      <c r="A199" t="s" s="5">
         <v>407</v>
       </c>
-      <c r="B199" t="s" s="8">
+      <c r="B199" t="s" s="5">
         <v>408</v>
       </c>
       <c r="C199" t="s" s="5">
-        <v>15</v>
-      </c>
-      <c r="D199" s="6"/>
-      <c r="E199" s="6"/>
-      <c r="F199" s="6"/>
-      <c r="G199" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="D199" s="14">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E199" s="12"/>
+      <c r="F199" s="12"/>
+      <c r="G199" s="12"/>
       <c r="H199" s="6">
-        <v>0</v>
-      </c>
-      <c r="I199" s="6"/>
-      <c r="J199" s="11"/>
+        <v>0.888888888888889</v>
+      </c>
+      <c r="I199" s="12"/>
+      <c r="J199" s="15"/>
     </row>
     <row r="200" ht="21" customHeight="1">
-      <c r="A200" t="s" s="5">
+      <c r="A200" t="s" s="4">
         <v>409</v>
       </c>
-      <c r="B200" t="s" s="5">
+      <c r="B200" t="s" s="4">
         <v>410</v>
       </c>
       <c r="C200" t="s" s="5">
         <v>21</v>
       </c>
       <c r="D200" s="6">
-        <v>0.880952380952381</v>
+        <v>0.761904761904762</v>
       </c>
       <c r="E200" s="6"/>
       <c r="F200" s="6"/>
       <c r="G200" s="6"/>
       <c r="H200" s="6">
-        <v>0.722222222222222</v>
+        <v>0</v>
       </c>
       <c r="I200" s="6"/>
-      <c r="J200" s="7"/>
+      <c r="J200" s="9"/>
     </row>
     <row r="201" ht="21" customHeight="1">
-      <c r="A201" t="s" s="5">
+      <c r="A201" t="s" s="23">
         <v>411</v>
       </c>
-      <c r="B201" t="s" s="5">
+      <c r="B201" t="s" s="23">
         <v>412</v>
       </c>
       <c r="C201" t="s" s="5">
-        <v>67</v>
-      </c>
-      <c r="D201" s="6">
-        <v>0.714285714285714</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="D201" s="6"/>
       <c r="E201" s="6"/>
       <c r="F201" s="6"/>
       <c r="G201" s="6"/>
       <c r="H201" s="6">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="I201" s="6"/>
-      <c r="J201" s="7"/>
+      <c r="J201" s="10"/>
     </row>
     <row r="202" ht="21" customHeight="1">
-      <c r="A202" t="s" s="5">
+      <c r="A202" t="s" s="8">
         <v>413</v>
       </c>
-      <c r="B202" t="s" s="5">
+      <c r="B202" t="s" s="8">
         <v>414</v>
       </c>
       <c r="C202" t="s" s="5">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D202" s="6"/>
       <c r="E202" s="6"/>
       <c r="F202" s="6"/>
       <c r="G202" s="6"/>
       <c r="H202" s="6">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="I202" s="6"/>
-      <c r="J202" s="7"/>
+      <c r="J202" s="11"/>
     </row>
     <row r="203" ht="21" customHeight="1">
       <c r="A203" t="s" s="5">
@@ -7137,17 +7249,19 @@
         <v>416</v>
       </c>
       <c r="C203" t="s" s="5">
-        <v>36</v>
-      </c>
-      <c r="D203" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="D203" s="6">
+        <v>0.571428571428571</v>
+      </c>
       <c r="E203" s="6"/>
       <c r="F203" s="6"/>
       <c r="G203" s="6"/>
       <c r="H203" s="6">
-        <v>0.805555555555556</v>
+        <v>0</v>
       </c>
       <c r="I203" s="6"/>
-      <c r="J203" s="9"/>
+      <c r="J203" s="7"/>
     </row>
     <row r="204" ht="21" customHeight="1">
       <c r="A204" t="s" s="5">
@@ -7156,94 +7270,94 @@
       <c r="B204" t="s" s="5">
         <v>418</v>
       </c>
-      <c r="C204" s="12"/>
-      <c r="D204" s="6"/>
+      <c r="C204" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="D204" s="6">
+        <v>0.880952380952381</v>
+      </c>
       <c r="E204" s="6"/>
       <c r="F204" s="6"/>
       <c r="G204" s="6"/>
       <c r="H204" s="6">
-        <v>0.694444444444444</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="I204" s="6"/>
-      <c r="J204" s="11"/>
+      <c r="J204" s="7"/>
     </row>
     <row r="205" ht="21" customHeight="1">
-      <c r="A205" t="s" s="4">
+      <c r="A205" t="s" s="5">
         <v>419</v>
       </c>
-      <c r="B205" t="s" s="4">
+      <c r="B205" t="s" s="5">
         <v>420</v>
       </c>
       <c r="C205" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D205" s="6"/>
+        <v>67</v>
+      </c>
+      <c r="D205" s="6">
+        <v>0.714285714285714</v>
+      </c>
       <c r="E205" s="6"/>
       <c r="F205" s="6"/>
       <c r="G205" s="6"/>
       <c r="H205" s="6">
-        <v>0.777777777777778</v>
+        <v>0</v>
       </c>
       <c r="I205" s="6"/>
       <c r="J205" s="7"/>
     </row>
     <row r="206" ht="21" customHeight="1">
-      <c r="A206" t="s" s="17">
+      <c r="A206" t="s" s="5">
         <v>421</v>
       </c>
-      <c r="B206" t="s" s="17">
+      <c r="B206" t="s" s="5">
         <v>422</v>
       </c>
-      <c r="C206" t="s" s="16">
-        <v>15</v>
-      </c>
-      <c r="D206" s="6">
-        <v>0.642857142857143</v>
-      </c>
+      <c r="C206" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D206" s="6"/>
       <c r="E206" s="6"/>
       <c r="F206" s="6"/>
       <c r="G206" s="6"/>
       <c r="H206" s="6">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="I206" s="6"/>
       <c r="J206" s="7"/>
     </row>
     <row r="207" ht="21" customHeight="1">
-      <c r="A207" t="s" s="4">
+      <c r="A207" t="s" s="5">
         <v>423</v>
       </c>
-      <c r="B207" t="s" s="4">
+      <c r="B207" t="s" s="5">
         <v>424</v>
       </c>
       <c r="C207" t="s" s="5">
         <v>36</v>
       </c>
       <c r="D207" s="6">
-        <v>0.666666666666667</v>
+        <v>0.761904761904762</v>
       </c>
       <c r="E207" s="6"/>
       <c r="F207" s="6"/>
       <c r="G207" s="6"/>
       <c r="H207" s="6">
-        <v>0.777777777777778</v>
+        <v>0.805555555555556</v>
       </c>
       <c r="I207" s="6"/>
-      <c r="J207" s="7"/>
+      <c r="J207" s="9"/>
     </row>
     <row r="208" ht="21" customHeight="1">
-      <c r="A208" t="s" s="17">
+      <c r="A208" t="s" s="5">
         <v>425</v>
       </c>
-      <c r="B208" t="s" s="17">
+      <c r="B208" t="s" s="5">
         <v>426</v>
       </c>
-      <c r="C208" t="s" s="16">
-        <v>67</v>
-      </c>
-      <c r="D208" s="6">
-        <v>0.666666666666667</v>
-      </c>
+      <c r="C208" s="12"/>
+      <c r="D208" s="6"/>
       <c r="E208" s="6"/>
       <c r="F208" s="6"/>
       <c r="G208" s="6"/>
@@ -7251,7 +7365,7 @@
         <v>0.694444444444444</v>
       </c>
       <c r="I208" s="6"/>
-      <c r="J208" s="7"/>
+      <c r="J208" s="11"/>
     </row>
     <row r="209" ht="21" customHeight="1">
       <c r="A209" t="s" s="4">
@@ -7268,23 +7382,23 @@
       <c r="F209" s="6"/>
       <c r="G209" s="6"/>
       <c r="H209" s="6">
-        <v>0.555555555555556</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I209" s="6"/>
       <c r="J209" s="7"/>
     </row>
     <row r="210" ht="21" customHeight="1">
-      <c r="A210" t="s" s="17">
+      <c r="A210" t="s" s="18">
         <v>429</v>
       </c>
-      <c r="B210" t="s" s="17">
+      <c r="B210" t="s" s="18">
         <v>430</v>
       </c>
-      <c r="C210" t="s" s="16">
+      <c r="C210" t="s" s="17">
         <v>15</v>
       </c>
       <c r="D210" s="6">
-        <v>0.80952380952381</v>
+        <v>0.642857142857143</v>
       </c>
       <c r="E210" s="6"/>
       <c r="F210" s="6"/>
@@ -7293,84 +7407,86 @@
         <v>0</v>
       </c>
       <c r="I210" s="6"/>
-      <c r="J210" s="9"/>
+      <c r="J210" s="7"/>
     </row>
     <row r="211" ht="21" customHeight="1">
-      <c r="A211" t="s" s="5">
+      <c r="A211" t="s" s="4">
         <v>431</v>
       </c>
-      <c r="B211" t="s" s="5">
+      <c r="B211" t="s" s="4">
         <v>432</v>
       </c>
       <c r="C211" t="s" s="5">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="D211" s="6">
-        <v>0.571428571428571</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="E211" s="6"/>
       <c r="F211" s="6"/>
       <c r="G211" s="6"/>
       <c r="H211" s="6">
-        <v>0</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I211" s="6"/>
-      <c r="J211" s="11"/>
+      <c r="J211" s="7"/>
     </row>
     <row r="212" ht="21" customHeight="1">
-      <c r="A212" t="s" s="4">
+      <c r="A212" t="s" s="18">
         <v>433</v>
       </c>
-      <c r="B212" t="s" s="4">
+      <c r="B212" t="s" s="18">
         <v>434</v>
       </c>
-      <c r="C212" t="s" s="5">
-        <v>36</v>
+      <c r="C212" t="s" s="17">
+        <v>67</v>
       </c>
       <c r="D212" s="6">
-        <v>0.833333333333333</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="E212" s="6"/>
       <c r="F212" s="6"/>
       <c r="G212" s="6"/>
       <c r="H212" s="6">
-        <v>0.75</v>
+        <v>0.694444444444444</v>
       </c>
       <c r="I212" s="6"/>
-      <c r="J212" s="9"/>
+      <c r="J212" s="7"/>
     </row>
     <row r="213" ht="21" customHeight="1">
-      <c r="A213" t="s" s="8">
+      <c r="A213" t="s" s="4">
         <v>435</v>
       </c>
-      <c r="B213" t="s" s="8">
+      <c r="B213" t="s" s="4">
         <v>436</v>
       </c>
       <c r="C213" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="D213" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="D213" s="6">
+        <v>0.785714285714286</v>
+      </c>
       <c r="E213" s="6"/>
       <c r="F213" s="6"/>
       <c r="G213" s="6"/>
       <c r="H213" s="6">
-        <v>0.722222222222222</v>
+        <v>0.555555555555556</v>
       </c>
       <c r="I213" s="6"/>
-      <c r="J213" s="11"/>
+      <c r="J213" s="7"/>
     </row>
     <row r="214" ht="21" customHeight="1">
-      <c r="A214" t="s" s="5">
+      <c r="A214" t="s" s="18">
         <v>437</v>
       </c>
-      <c r="B214" t="s" s="5">
+      <c r="B214" t="s" s="18">
         <v>438</v>
       </c>
-      <c r="C214" t="s" s="5">
-        <v>36</v>
+      <c r="C214" t="s" s="17">
+        <v>15</v>
       </c>
       <c r="D214" s="6">
-        <v>0.5</v>
+        <v>0.80952380952381</v>
       </c>
       <c r="E214" s="6"/>
       <c r="F214" s="6"/>
@@ -7379,7 +7495,7 @@
         <v>0</v>
       </c>
       <c r="I214" s="6"/>
-      <c r="J214" s="7"/>
+      <c r="J214" s="9"/>
     </row>
     <row r="215" ht="21" customHeight="1">
       <c r="A215" t="s" s="5">
@@ -7392,29 +7508,29 @@
         <v>67</v>
       </c>
       <c r="D215" s="6">
-        <v>0.642857142857143</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="E215" s="6"/>
       <c r="F215" s="6"/>
       <c r="G215" s="6"/>
       <c r="H215" s="6">
-        <v>0.388888888888889</v>
+        <v>0</v>
       </c>
       <c r="I215" s="6"/>
-      <c r="J215" s="9"/>
+      <c r="J215" s="11"/>
     </row>
     <row r="216" ht="21" customHeight="1">
-      <c r="A216" t="s" s="5">
+      <c r="A216" t="s" s="4">
         <v>441</v>
       </c>
-      <c r="B216" t="s" s="5">
+      <c r="B216" t="s" s="4">
         <v>442</v>
       </c>
       <c r="C216" t="s" s="5">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D216" s="6">
-        <v>0.666666666666667</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E216" s="6"/>
       <c r="F216" s="6"/>
@@ -7423,45 +7539,49 @@
         <v>0.75</v>
       </c>
       <c r="I216" s="6"/>
-      <c r="J216" s="10"/>
-    </row>
-    <row r="217" ht="20.7" customHeight="1">
-      <c r="A217" t="s" s="4">
+      <c r="J216" s="9"/>
+    </row>
+    <row r="217" ht="21" customHeight="1">
+      <c r="A217" t="s" s="8">
         <v>443</v>
       </c>
-      <c r="B217" t="s" s="4">
+      <c r="B217" t="s" s="8">
         <v>444</v>
       </c>
       <c r="C217" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="D217" s="12"/>
-      <c r="E217" s="12"/>
-      <c r="F217" s="12"/>
-      <c r="G217" s="12"/>
+        <v>21</v>
+      </c>
+      <c r="D217" s="6"/>
+      <c r="E217" s="6"/>
+      <c r="F217" s="6"/>
+      <c r="G217" s="6"/>
       <c r="H217" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="I217" s="12"/>
-      <c r="J217" s="13"/>
+        <v>0.722222222222222</v>
+      </c>
+      <c r="I217" s="6"/>
+      <c r="J217" s="11"/>
     </row>
     <row r="218" ht="21" customHeight="1">
-      <c r="A218" t="s" s="8">
+      <c r="A218" t="s" s="5">
         <v>445</v>
       </c>
-      <c r="B218" t="s" s="8">
+      <c r="B218" t="s" s="5">
         <v>446</v>
       </c>
-      <c r="C218" s="12"/>
-      <c r="D218" s="6"/>
+      <c r="C218" t="s" s="5">
+        <v>36</v>
+      </c>
+      <c r="D218" s="6">
+        <v>0.5</v>
+      </c>
       <c r="E218" s="6"/>
       <c r="F218" s="6"/>
       <c r="G218" s="6"/>
       <c r="H218" s="6">
-        <v>0.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="I218" s="6"/>
-      <c r="J218" s="11"/>
+      <c r="J218" s="7"/>
     </row>
     <row r="219" ht="21" customHeight="1">
       <c r="A219" t="s" s="5">
@@ -7471,19 +7591,19 @@
         <v>448</v>
       </c>
       <c r="C219" t="s" s="5">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="D219" s="6">
-        <v>0.595238095238095</v>
+        <v>0.642857142857143</v>
       </c>
       <c r="E219" s="6"/>
       <c r="F219" s="6"/>
       <c r="G219" s="6"/>
       <c r="H219" s="6">
-        <v>0.416666666666667</v>
+        <v>0.388888888888889</v>
       </c>
       <c r="I219" s="6"/>
-      <c r="J219" s="7"/>
+      <c r="J219" s="9"/>
     </row>
     <row r="220" ht="21" customHeight="1">
       <c r="A220" t="s" s="5">
@@ -7493,63 +7613,57 @@
         <v>450</v>
       </c>
       <c r="C220" t="s" s="5">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D220" s="6">
-        <v>0.547619047619048</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="E220" s="6"/>
       <c r="F220" s="6"/>
       <c r="G220" s="6"/>
       <c r="H220" s="6">
-        <v>0.777777777777778</v>
+        <v>0.75</v>
       </c>
       <c r="I220" s="6"/>
-      <c r="J220" s="7"/>
-    </row>
-    <row r="221" ht="21" customHeight="1">
-      <c r="A221" t="s" s="5">
+      <c r="J220" s="10"/>
+    </row>
+    <row r="221" ht="20.7" customHeight="1">
+      <c r="A221" t="s" s="4">
         <v>451</v>
       </c>
-      <c r="B221" t="s" s="5">
+      <c r="B221" t="s" s="4">
         <v>452</v>
       </c>
       <c r="C221" t="s" s="5">
-        <v>67</v>
-      </c>
-      <c r="D221" s="6">
-        <v>0.547619047619048</v>
-      </c>
-      <c r="E221" s="6"/>
-      <c r="F221" s="6"/>
-      <c r="G221" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="D221" s="12"/>
+      <c r="E221" s="12"/>
+      <c r="F221" s="12"/>
+      <c r="G221" s="12"/>
       <c r="H221" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="I221" s="12"/>
+      <c r="J221" s="13"/>
+    </row>
+    <row r="222" ht="21" customHeight="1">
+      <c r="A222" t="s" s="8">
+        <v>453</v>
+      </c>
+      <c r="B222" t="s" s="8">
+        <v>454</v>
+      </c>
+      <c r="C222" s="12"/>
+      <c r="D222" s="6"/>
+      <c r="E222" s="6"/>
+      <c r="F222" s="6"/>
+      <c r="G222" s="6"/>
+      <c r="H222" s="6">
         <v>0.666666666666667</v>
       </c>
-      <c r="I221" s="6"/>
-      <c r="J221" s="9"/>
-    </row>
-    <row r="222" ht="20.7" customHeight="1">
-      <c r="A222" t="s" s="5">
-        <v>453</v>
-      </c>
-      <c r="B222" t="s" s="5">
-        <v>454</v>
-      </c>
-      <c r="C222" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="D222" s="22">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E222" s="12"/>
-      <c r="F222" s="12"/>
-      <c r="G222" s="12"/>
-      <c r="H222" s="6">
-        <v>0.638888888888889</v>
-      </c>
-      <c r="I222" s="12"/>
-      <c r="J222" s="13"/>
+      <c r="I222" s="6"/>
+      <c r="J222" s="11"/>
     </row>
     <row r="223" ht="21" customHeight="1">
       <c r="A223" t="s" s="5">
@@ -7562,16 +7676,16 @@
         <v>18</v>
       </c>
       <c r="D223" s="6">
-        <v>0.761904761904762</v>
+        <v>0.595238095238095</v>
       </c>
       <c r="E223" s="6"/>
       <c r="F223" s="6"/>
       <c r="G223" s="6"/>
       <c r="H223" s="6">
-        <v>0.861111111111111</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="I223" s="6"/>
-      <c r="J223" s="10"/>
+      <c r="J223" s="7"/>
     </row>
     <row r="224" ht="21" customHeight="1">
       <c r="A224" t="s" s="5">
@@ -7581,17 +7695,19 @@
         <v>458</v>
       </c>
       <c r="C224" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="D224" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="D224" s="6">
+        <v>0.547619047619048</v>
+      </c>
       <c r="E224" s="6"/>
       <c r="F224" s="6"/>
       <c r="G224" s="6"/>
       <c r="H224" s="6">
-        <v>0.611111111111111</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I224" s="6"/>
-      <c r="J224" s="11"/>
+      <c r="J224" s="7"/>
     </row>
     <row r="225" ht="21" customHeight="1">
       <c r="A225" t="s" s="5">
@@ -7601,91 +7717,93 @@
         <v>460</v>
       </c>
       <c r="C225" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="D225" s="6"/>
+        <v>67</v>
+      </c>
+      <c r="D225" s="6">
+        <v>0.547619047619048</v>
+      </c>
       <c r="E225" s="6"/>
       <c r="F225" s="6"/>
       <c r="G225" s="6"/>
       <c r="H225" s="6">
-        <v>0.777777777777778</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="I225" s="6"/>
-      <c r="J225" s="7"/>
-    </row>
-    <row r="226" ht="21" customHeight="1">
-      <c r="A226" t="s" s="4">
+      <c r="J225" s="9"/>
+    </row>
+    <row r="226" ht="20.7" customHeight="1">
+      <c r="A226" t="s" s="5">
         <v>461</v>
       </c>
-      <c r="B226" t="s" s="4">
+      <c r="B226" t="s" s="5">
         <v>462</v>
       </c>
       <c r="C226" t="s" s="5">
-        <v>36</v>
-      </c>
-      <c r="D226" s="6">
-        <v>0.571428571428571</v>
-      </c>
-      <c r="E226" s="6"/>
-      <c r="F226" s="6"/>
-      <c r="G226" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="D226" s="14">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E226" s="12"/>
+      <c r="F226" s="12"/>
+      <c r="G226" s="12"/>
       <c r="H226" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="I226" s="6"/>
-      <c r="J226" s="9"/>
+        <v>0.638888888888889</v>
+      </c>
+      <c r="I226" s="12"/>
+      <c r="J226" s="13"/>
     </row>
     <row r="227" ht="21" customHeight="1">
-      <c r="A227" t="s" s="23">
+      <c r="A227" t="s" s="5">
         <v>463</v>
       </c>
-      <c r="B227" t="s" s="23">
+      <c r="B227" t="s" s="5">
         <v>464</v>
       </c>
       <c r="C227" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="D227" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="D227" s="6">
+        <v>0.761904761904762</v>
+      </c>
       <c r="E227" s="6"/>
       <c r="F227" s="6"/>
       <c r="G227" s="6"/>
       <c r="H227" s="6">
-        <v>0.777777777777778</v>
+        <v>0.861111111111111</v>
       </c>
       <c r="I227" s="6"/>
-      <c r="J227" s="11"/>
+      <c r="J227" s="10"/>
     </row>
     <row r="228" ht="21" customHeight="1">
-      <c r="A228" t="s" s="15">
+      <c r="A228" t="s" s="5">
         <v>465</v>
       </c>
-      <c r="B228" t="s" s="15">
+      <c r="B228" t="s" s="5">
         <v>466</v>
       </c>
-      <c r="C228" t="s" s="16">
-        <v>18</v>
-      </c>
-      <c r="D228" s="6">
-        <v>0.285714285714286</v>
-      </c>
+      <c r="C228" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D228" s="6"/>
       <c r="E228" s="6"/>
       <c r="F228" s="6"/>
       <c r="G228" s="6"/>
       <c r="H228" s="6">
-        <v>0.805555555555556</v>
+        <v>0.611111111111111</v>
       </c>
       <c r="I228" s="6"/>
-      <c r="J228" s="7"/>
+      <c r="J228" s="11"/>
     </row>
     <row r="229" ht="21" customHeight="1">
-      <c r="A229" t="s" s="17">
+      <c r="A229" t="s" s="5">
         <v>467</v>
       </c>
-      <c r="B229" t="s" s="17">
+      <c r="B229" t="s" s="5">
         <v>468</v>
       </c>
-      <c r="C229" t="s" s="16">
-        <v>15</v>
+      <c r="C229" t="s" s="5">
+        <v>12</v>
       </c>
       <c r="D229" s="6"/>
       <c r="E229" s="6"/>
@@ -7698,116 +7816,156 @@
       <c r="J229" s="7"/>
     </row>
     <row r="230" ht="21" customHeight="1">
-      <c r="A230" t="s" s="5">
+      <c r="A230" t="s" s="4">
         <v>469</v>
       </c>
-      <c r="B230" t="s" s="5">
+      <c r="B230" t="s" s="4">
         <v>470</v>
       </c>
       <c r="C230" t="s" s="5">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D230" s="6">
-        <v>0.30952380952381</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="E230" s="6"/>
       <c r="F230" s="6"/>
       <c r="G230" s="6"/>
       <c r="H230" s="6">
-        <v>0.638888888888889</v>
+        <v>0.75</v>
       </c>
       <c r="I230" s="6"/>
-      <c r="J230" s="7"/>
+      <c r="J230" s="9"/>
     </row>
     <row r="231" ht="21" customHeight="1">
-      <c r="A231" t="s" s="5">
+      <c r="A231" t="s" s="23">
         <v>471</v>
       </c>
-      <c r="B231" t="s" s="5">
+      <c r="B231" t="s" s="23">
         <v>472</v>
       </c>
-      <c r="C231" s="12"/>
-      <c r="D231" s="6"/>
+      <c r="C231" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="D231" s="6">
+        <v>0.738095238095238</v>
+      </c>
       <c r="E231" s="6"/>
       <c r="F231" s="6"/>
       <c r="G231" s="6"/>
       <c r="H231" s="6">
-        <v>0.666666666666667</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I231" s="6"/>
-      <c r="J231" s="7"/>
+      <c r="J231" s="11"/>
     </row>
     <row r="232" ht="21" customHeight="1">
-      <c r="A232" t="s" s="5">
+      <c r="A232" t="s" s="16">
         <v>473</v>
       </c>
-      <c r="B232" t="s" s="5">
+      <c r="B232" t="s" s="16">
         <v>474</v>
       </c>
-      <c r="C232" t="s" s="5">
+      <c r="C232" t="s" s="17">
         <v>18</v>
       </c>
-      <c r="D232" s="6"/>
+      <c r="D232" s="6">
+        <v>0.285714285714286</v>
+      </c>
       <c r="E232" s="6"/>
       <c r="F232" s="6"/>
       <c r="G232" s="6"/>
       <c r="H232" s="6">
-        <v>0.861111111111111</v>
+        <v>0.805555555555556</v>
       </c>
       <c r="I232" s="6"/>
       <c r="J232" s="7"/>
     </row>
     <row r="233" ht="21" customHeight="1">
-      <c r="A233" s="12"/>
-      <c r="B233" s="12"/>
-      <c r="C233" s="12"/>
+      <c r="A233" t="s" s="18">
+        <v>475</v>
+      </c>
+      <c r="B233" t="s" s="18">
+        <v>476</v>
+      </c>
+      <c r="C233" t="s" s="17">
+        <v>15</v>
+      </c>
       <c r="D233" s="6"/>
       <c r="E233" s="6"/>
       <c r="F233" s="6"/>
       <c r="G233" s="6"/>
-      <c r="H233" s="6"/>
+      <c r="H233" s="6">
+        <v>0.777777777777778</v>
+      </c>
       <c r="I233" s="6"/>
       <c r="J233" s="7"/>
     </row>
     <row r="234" ht="21" customHeight="1">
-      <c r="A234" s="12"/>
-      <c r="B234" s="12"/>
-      <c r="C234" s="12"/>
-      <c r="D234" s="6"/>
+      <c r="A234" t="s" s="5">
+        <v>477</v>
+      </c>
+      <c r="B234" t="s" s="5">
+        <v>478</v>
+      </c>
+      <c r="C234" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D234" s="6">
+        <v>0.30952380952381</v>
+      </c>
       <c r="E234" s="6"/>
       <c r="F234" s="6"/>
       <c r="G234" s="6"/>
-      <c r="H234" s="6"/>
+      <c r="H234" s="6">
+        <v>0.638888888888889</v>
+      </c>
       <c r="I234" s="6"/>
-      <c r="J234" s="9"/>
+      <c r="J234" s="7"/>
     </row>
     <row r="235" ht="21" customHeight="1">
-      <c r="A235" s="26"/>
-      <c r="B235" s="26"/>
+      <c r="A235" t="s" s="5">
+        <v>479</v>
+      </c>
+      <c r="B235" t="s" s="5">
+        <v>480</v>
+      </c>
       <c r="C235" s="12"/>
       <c r="D235" s="6"/>
       <c r="E235" s="6"/>
       <c r="F235" s="6"/>
       <c r="G235" s="6"/>
-      <c r="H235" s="6"/>
+      <c r="H235" s="6">
+        <v>0.666666666666667</v>
+      </c>
       <c r="I235" s="6"/>
-      <c r="J235" s="11"/>
+      <c r="J235" s="7"/>
     </row>
     <row r="236" ht="21" customHeight="1">
-      <c r="A236" s="27"/>
-      <c r="B236" s="27"/>
-      <c r="C236" s="24"/>
-      <c r="D236" s="6"/>
+      <c r="A236" t="s" s="4">
+        <v>481</v>
+      </c>
+      <c r="B236" t="s" s="4">
+        <v>482</v>
+      </c>
+      <c r="C236" t="s" s="5">
+        <v>18</v>
+      </c>
+      <c r="D236" s="6">
+        <v>0.904761904761905</v>
+      </c>
       <c r="E236" s="6"/>
       <c r="F236" s="6"/>
       <c r="G236" s="6"/>
-      <c r="H236" s="6"/>
+      <c r="H236" s="6">
+        <v>0.861111111111111</v>
+      </c>
       <c r="I236" s="6"/>
       <c r="J236" s="9"/>
     </row>
     <row r="237" ht="21" customHeight="1">
-      <c r="A237" s="28"/>
-      <c r="B237" s="28"/>
+      <c r="A237" s="26"/>
+      <c r="B237" s="26"/>
       <c r="C237" s="12"/>
       <c r="D237" s="6"/>
       <c r="E237" s="6"/>
@@ -7818,8 +7976,8 @@
       <c r="J237" s="11"/>
     </row>
     <row r="238" ht="21" customHeight="1">
-      <c r="A238" s="26"/>
-      <c r="B238" s="26"/>
+      <c r="A238" s="27"/>
+      <c r="B238" s="27"/>
       <c r="C238" s="12"/>
       <c r="D238" s="6"/>
       <c r="E238" s="6"/>
@@ -7830,8 +7988,8 @@
       <c r="J238" s="7"/>
     </row>
     <row r="239" ht="21" customHeight="1">
-      <c r="A239" s="27"/>
-      <c r="B239" s="27"/>
+      <c r="A239" s="28"/>
+      <c r="B239" s="28"/>
       <c r="C239" s="24"/>
       <c r="D239" s="6"/>
       <c r="E239" s="6"/>
@@ -7842,8 +8000,8 @@
       <c r="J239" s="7"/>
     </row>
     <row r="240" ht="21" customHeight="1">
-      <c r="A240" s="27"/>
-      <c r="B240" s="27"/>
+      <c r="A240" s="28"/>
+      <c r="B240" s="28"/>
       <c r="C240" s="24"/>
       <c r="D240" s="6"/>
       <c r="E240" s="6"/>
@@ -7866,8 +8024,8 @@
       <c r="J241" s="11"/>
     </row>
     <row r="242" ht="21" customHeight="1">
-      <c r="A242" s="27"/>
-      <c r="B242" s="27"/>
+      <c r="A242" s="28"/>
+      <c r="B242" s="28"/>
       <c r="C242" s="24"/>
       <c r="D242" s="6"/>
       <c r="E242" s="6"/>
@@ -7878,8 +8036,8 @@
       <c r="J242" s="9"/>
     </row>
     <row r="243" ht="21" customHeight="1">
-      <c r="A243" s="28"/>
-      <c r="B243" s="28"/>
+      <c r="A243" s="26"/>
+      <c r="B243" s="26"/>
       <c r="C243" s="12"/>
       <c r="D243" s="6"/>
       <c r="E243" s="6"/>
@@ -7971,7 +8129,7 @@
       <c r="G250" s="12"/>
       <c r="H250" s="6"/>
       <c r="I250" s="12"/>
-      <c r="J250" s="14"/>
+      <c r="J250" s="15"/>
     </row>
     <row r="251" ht="21" customHeight="1">
       <c r="A251" s="12"/>
@@ -8010,8 +8168,8 @@
       <c r="J253" s="13"/>
     </row>
     <row r="254" ht="20.35" customHeight="1">
-      <c r="A254" s="26"/>
-      <c r="B254" s="26"/>
+      <c r="A254" s="27"/>
+      <c r="B254" s="27"/>
       <c r="C254" s="12"/>
       <c r="D254" s="12"/>
       <c r="E254" s="12"/>
@@ -8019,11 +8177,11 @@
       <c r="G254" s="12"/>
       <c r="H254" s="6"/>
       <c r="I254" s="12"/>
-      <c r="J254" s="14"/>
+      <c r="J254" s="15"/>
     </row>
     <row r="255" ht="21" customHeight="1">
-      <c r="A255" s="27"/>
-      <c r="B255" s="27"/>
+      <c r="A255" s="28"/>
+      <c r="B255" s="28"/>
       <c r="C255" s="24"/>
       <c r="D255" s="6"/>
       <c r="E255" s="6"/>
@@ -8034,8 +8192,8 @@
       <c r="J255" s="9"/>
     </row>
     <row r="256" ht="20.7" customHeight="1">
-      <c r="A256" s="28"/>
-      <c r="B256" s="28"/>
+      <c r="A256" s="26"/>
+      <c r="B256" s="26"/>
       <c r="C256" s="12"/>
       <c r="D256" s="12"/>
       <c r="E256" s="12"/>
@@ -8043,11 +8201,11 @@
       <c r="G256" s="12"/>
       <c r="H256" s="6"/>
       <c r="I256" s="12"/>
-      <c r="J256" s="14"/>
+      <c r="J256" s="15"/>
     </row>
     <row r="257" ht="21" customHeight="1">
-      <c r="A257" s="26"/>
-      <c r="B257" s="26"/>
+      <c r="A257" s="27"/>
+      <c r="B257" s="27"/>
       <c r="C257" s="12"/>
       <c r="D257" s="6"/>
       <c r="E257" s="6"/>
@@ -8058,8 +8216,8 @@
       <c r="J257" s="7"/>
     </row>
     <row r="258" ht="21" customHeight="1">
-      <c r="A258" s="27"/>
-      <c r="B258" s="27"/>
+      <c r="A258" s="28"/>
+      <c r="B258" s="28"/>
       <c r="C258" s="24"/>
       <c r="D258" s="6"/>
       <c r="E258" s="6"/>
@@ -8070,8 +8228,8 @@
       <c r="J258" s="9"/>
     </row>
     <row r="259" ht="21" customHeight="1">
-      <c r="A259" s="28"/>
-      <c r="B259" s="28"/>
+      <c r="A259" s="26"/>
+      <c r="B259" s="26"/>
       <c r="C259" s="12"/>
       <c r="D259" s="6"/>
       <c r="E259" s="6"/>
@@ -8094,8 +8252,8 @@
       <c r="J260" s="7"/>
     </row>
     <row r="261" ht="21" customHeight="1">
-      <c r="A261" s="26"/>
-      <c r="B261" s="26"/>
+      <c r="A261" s="27"/>
+      <c r="B261" s="27"/>
       <c r="C261" s="12"/>
       <c r="D261" s="6"/>
       <c r="E261" s="6"/>
@@ -8106,8 +8264,8 @@
       <c r="J261" s="7"/>
     </row>
     <row r="262" ht="21" customHeight="1">
-      <c r="A262" s="27"/>
-      <c r="B262" s="27"/>
+      <c r="A262" s="28"/>
+      <c r="B262" s="28"/>
       <c r="C262" s="24"/>
       <c r="D262" s="6"/>
       <c r="E262" s="6"/>
@@ -8118,8 +8276,8 @@
       <c r="J262" s="7"/>
     </row>
     <row r="263" ht="21" customHeight="1">
-      <c r="A263" s="27"/>
-      <c r="B263" s="27"/>
+      <c r="A263" s="28"/>
+      <c r="B263" s="28"/>
       <c r="C263" s="24"/>
       <c r="D263" s="6"/>
       <c r="E263" s="6"/>
@@ -8130,8 +8288,8 @@
       <c r="J263" s="7"/>
     </row>
     <row r="264" ht="21" customHeight="1">
-      <c r="A264" s="28"/>
-      <c r="B264" s="28"/>
+      <c r="A264" s="26"/>
+      <c r="B264" s="26"/>
       <c r="C264" s="12"/>
       <c r="D264" s="6"/>
       <c r="E264" s="6"/>
@@ -8259,7 +8417,7 @@
       <c r="G274" s="12"/>
       <c r="H274" s="6"/>
       <c r="I274" s="12"/>
-      <c r="J274" s="14"/>
+      <c r="J274" s="15"/>
     </row>
     <row r="275" ht="21" customHeight="1">
       <c r="A275" s="12"/>
@@ -8298,8 +8456,8 @@
       <c r="J277" s="7"/>
     </row>
     <row r="278" ht="21" customHeight="1">
-      <c r="A278" s="26"/>
-      <c r="B278" s="26"/>
+      <c r="A278" s="27"/>
+      <c r="B278" s="27"/>
       <c r="C278" s="12"/>
       <c r="D278" s="6"/>
       <c r="E278" s="6"/>
@@ -8310,8 +8468,8 @@
       <c r="J278" s="7"/>
     </row>
     <row r="279" ht="21" customHeight="1">
-      <c r="A279" s="27"/>
-      <c r="B279" s="27"/>
+      <c r="A279" s="28"/>
+      <c r="B279" s="28"/>
       <c r="C279" s="24"/>
       <c r="D279" s="6"/>
       <c r="E279" s="6"/>
@@ -8322,8 +8480,8 @@
       <c r="J279" s="7"/>
     </row>
     <row r="280" ht="21" customHeight="1">
-      <c r="A280" s="27"/>
-      <c r="B280" s="27"/>
+      <c r="A280" s="28"/>
+      <c r="B280" s="28"/>
       <c r="C280" s="24"/>
       <c r="D280" s="6"/>
       <c r="E280" s="6"/>
@@ -8334,8 +8492,8 @@
       <c r="J280" s="9"/>
     </row>
     <row r="281" ht="21" customHeight="1">
-      <c r="A281" s="28"/>
-      <c r="B281" s="28"/>
+      <c r="A281" s="26"/>
+      <c r="B281" s="26"/>
       <c r="C281" s="12"/>
       <c r="D281" s="6"/>
       <c r="E281" s="6"/>
@@ -8478,8 +8636,8 @@
       <c r="J292" s="7"/>
     </row>
     <row r="293" ht="21" customHeight="1">
-      <c r="A293" s="26"/>
-      <c r="B293" s="26"/>
+      <c r="A293" s="27"/>
+      <c r="B293" s="27"/>
       <c r="C293" s="12"/>
       <c r="D293" s="6"/>
       <c r="E293" s="6"/>
@@ -8490,8 +8648,8 @@
       <c r="J293" s="7"/>
     </row>
     <row r="294" ht="21" customHeight="1">
-      <c r="A294" s="27"/>
-      <c r="B294" s="27"/>
+      <c r="A294" s="28"/>
+      <c r="B294" s="28"/>
       <c r="C294" s="24"/>
       <c r="D294" s="6"/>
       <c r="E294" s="6"/>
@@ -8502,8 +8660,8 @@
       <c r="J294" s="9"/>
     </row>
     <row r="295" ht="20.7" customHeight="1">
-      <c r="A295" s="28"/>
-      <c r="B295" s="28"/>
+      <c r="A295" s="26"/>
+      <c r="B295" s="26"/>
       <c r="C295" s="12"/>
       <c r="D295" s="12"/>
       <c r="E295" s="12"/>
@@ -8511,7 +8669,7 @@
       <c r="G295" s="12"/>
       <c r="H295" s="6"/>
       <c r="I295" s="12"/>
-      <c r="J295" s="14"/>
+      <c r="J295" s="15"/>
     </row>
     <row r="296" ht="21" customHeight="1">
       <c r="A296" s="12"/>
@@ -8562,8 +8720,8 @@
       <c r="J299" s="9"/>
     </row>
     <row r="300" ht="21" customHeight="1">
-      <c r="A300" s="26"/>
-      <c r="B300" s="26"/>
+      <c r="A300" s="27"/>
+      <c r="B300" s="27"/>
       <c r="C300" s="12"/>
       <c r="D300" s="6"/>
       <c r="E300" s="6"/>
@@ -8574,8 +8732,8 @@
       <c r="J300" s="11"/>
     </row>
     <row r="301" ht="21" customHeight="1">
-      <c r="A301" s="27"/>
-      <c r="B301" s="27"/>
+      <c r="A301" s="28"/>
+      <c r="B301" s="28"/>
       <c r="C301" s="24"/>
       <c r="D301" s="6"/>
       <c r="E301" s="6"/>
@@ -8586,8 +8744,8 @@
       <c r="J301" s="7"/>
     </row>
     <row r="302" ht="21" customHeight="1">
-      <c r="A302" s="28"/>
-      <c r="B302" s="28"/>
+      <c r="A302" s="26"/>
+      <c r="B302" s="26"/>
       <c r="C302" s="12"/>
       <c r="D302" s="6"/>
       <c r="E302" s="6"/>
@@ -8643,7 +8801,7 @@
       <c r="G306" s="12"/>
       <c r="H306" s="6"/>
       <c r="I306" s="12"/>
-      <c r="J306" s="14"/>
+      <c r="J306" s="15"/>
     </row>
     <row r="307" ht="21" customHeight="1">
       <c r="A307" s="12"/>
@@ -8739,7 +8897,7 @@
       <c r="G314" s="12"/>
       <c r="H314" s="6"/>
       <c r="I314" s="12"/>
-      <c r="J314" s="14"/>
+      <c r="J314" s="15"/>
     </row>
     <row r="315" ht="21" customHeight="1">
       <c r="A315" s="12"/>
@@ -8838,8 +8996,8 @@
       <c r="J322" s="7"/>
     </row>
     <row r="323" ht="21" customHeight="1">
-      <c r="A323" s="26"/>
-      <c r="B323" s="26"/>
+      <c r="A323" s="27"/>
+      <c r="B323" s="27"/>
       <c r="C323" s="12"/>
       <c r="D323" s="6"/>
       <c r="E323" s="6"/>
@@ -8850,8 +9008,8 @@
       <c r="J323" s="7"/>
     </row>
     <row r="324" ht="21" customHeight="1">
-      <c r="A324" s="27"/>
-      <c r="B324" s="27"/>
+      <c r="A324" s="28"/>
+      <c r="B324" s="28"/>
       <c r="C324" s="24"/>
       <c r="D324" s="6"/>
       <c r="E324" s="6"/>
@@ -8862,8 +9020,8 @@
       <c r="J324" s="7"/>
     </row>
     <row r="325" ht="21" customHeight="1">
-      <c r="A325" s="27"/>
-      <c r="B325" s="27"/>
+      <c r="A325" s="28"/>
+      <c r="B325" s="28"/>
       <c r="C325" s="24"/>
       <c r="D325" s="6"/>
       <c r="E325" s="6"/>
@@ -8874,8 +9032,8 @@
       <c r="J325" s="7"/>
     </row>
     <row r="326" ht="21" customHeight="1">
-      <c r="A326" s="27"/>
-      <c r="B326" s="27"/>
+      <c r="A326" s="28"/>
+      <c r="B326" s="28"/>
       <c r="C326" s="24"/>
       <c r="D326" s="6"/>
       <c r="E326" s="6"/>
@@ -8886,8 +9044,8 @@
       <c r="J326" s="9"/>
     </row>
     <row r="327" ht="21" customHeight="1">
-      <c r="A327" s="28"/>
-      <c r="B327" s="28"/>
+      <c r="A327" s="26"/>
+      <c r="B327" s="26"/>
       <c r="C327" s="12"/>
       <c r="D327" s="6"/>
       <c r="E327" s="6"/>
@@ -8958,8 +9116,8 @@
       <c r="J332" s="10"/>
     </row>
     <row r="333" ht="20.7" customHeight="1">
-      <c r="A333" s="26"/>
-      <c r="B333" s="26"/>
+      <c r="A333" s="27"/>
+      <c r="B333" s="27"/>
       <c r="C333" s="12"/>
       <c r="D333" s="12"/>
       <c r="E333" s="12"/>
@@ -8967,11 +9125,11 @@
       <c r="G333" s="12"/>
       <c r="H333" s="6"/>
       <c r="I333" s="12"/>
-      <c r="J333" s="14"/>
+      <c r="J333" s="15"/>
     </row>
     <row r="334" ht="21" customHeight="1">
-      <c r="A334" s="27"/>
-      <c r="B334" s="27"/>
+      <c r="A334" s="28"/>
+      <c r="B334" s="28"/>
       <c r="C334" s="24"/>
       <c r="D334" s="6"/>
       <c r="E334" s="6"/>
@@ -8982,8 +9140,8 @@
       <c r="J334" s="7"/>
     </row>
     <row r="335" ht="21" customHeight="1">
-      <c r="A335" s="27"/>
-      <c r="B335" s="27"/>
+      <c r="A335" s="28"/>
+      <c r="B335" s="28"/>
       <c r="C335" s="24"/>
       <c r="D335" s="6"/>
       <c r="E335" s="6"/>
@@ -8994,8 +9152,8 @@
       <c r="J335" s="9"/>
     </row>
     <row r="336" ht="21" customHeight="1">
-      <c r="A336" s="28"/>
-      <c r="B336" s="28"/>
+      <c r="A336" s="26"/>
+      <c r="B336" s="26"/>
       <c r="C336" s="12"/>
       <c r="D336" s="6"/>
       <c r="E336" s="6"/>
@@ -9102,8 +9260,8 @@
       <c r="J344" s="9"/>
     </row>
     <row r="345" ht="21" customHeight="1">
-      <c r="A345" s="26"/>
-      <c r="B345" s="26"/>
+      <c r="A345" s="27"/>
+      <c r="B345" s="27"/>
       <c r="C345" s="12"/>
       <c r="D345" s="6"/>
       <c r="E345" s="6"/>
@@ -9114,8 +9272,8 @@
       <c r="J345" s="11"/>
     </row>
     <row r="346" ht="21" customHeight="1">
-      <c r="A346" s="27"/>
-      <c r="B346" s="27"/>
+      <c r="A346" s="28"/>
+      <c r="B346" s="28"/>
       <c r="C346" s="24"/>
       <c r="D346" s="6"/>
       <c r="E346" s="6"/>
@@ -9126,8 +9284,8 @@
       <c r="J346" s="9"/>
     </row>
     <row r="347" ht="21" customHeight="1">
-      <c r="A347" s="28"/>
-      <c r="B347" s="28"/>
+      <c r="A347" s="26"/>
+      <c r="B347" s="26"/>
       <c r="C347" s="12"/>
       <c r="D347" s="6"/>
       <c r="E347" s="6"/>

--- a/cw12022023.xlsx
+++ b/cw12022023.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="489">
   <si>
     <t>Surname</t>
   </si>
@@ -319,6 +319,12 @@
     <t>H220161M</t>
   </si>
   <si>
+    <t>Dandira</t>
+  </si>
+  <si>
+    <t>H220322P</t>
+  </si>
+  <si>
     <t>Dendera</t>
   </si>
   <si>
@@ -526,7 +532,7 @@
     <t>Machiri</t>
   </si>
   <si>
-    <t>H2204573</t>
+    <t>H220453Z</t>
   </si>
   <si>
     <t>Machongwe</t>
@@ -607,6 +613,12 @@
     <t>H220206Y</t>
   </si>
   <si>
+    <t>Makichi</t>
+  </si>
+  <si>
+    <t>H210274H</t>
+  </si>
+  <si>
     <t>Makope</t>
   </si>
   <si>
@@ -1036,6 +1048,12 @@
     <t>H220409J</t>
   </si>
   <si>
+    <t>Muteera</t>
+  </si>
+  <si>
+    <t>H190440Z</t>
+  </si>
+  <si>
     <t>Mutsvairo</t>
   </si>
   <si>
@@ -1450,10 +1468,10 @@
     <t>H220599P</t>
   </si>
   <si>
-    <t>Zungundi</t>
-  </si>
-  <si>
-    <t>H220547T</t>
+    <t>Zungunde</t>
+  </si>
+  <si>
+    <t>H220547N</t>
   </si>
   <si>
     <t>Zvinavashe</t>
@@ -1813,16 +1831,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3077,7 +3095,9 @@
       <c r="C7" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="6">
+        <v>0.714285714285714</v>
+      </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -3687,7 +3707,9 @@
       <c r="C35" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="D35" s="6"/>
+      <c r="D35" s="6">
+        <v>0.880952380952381</v>
+      </c>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
@@ -3769,7 +3791,9 @@
       <c r="C39" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D39" s="12"/>
+      <c r="D39" s="14">
+        <v>0.761904761904762</v>
+      </c>
       <c r="E39" s="12"/>
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
@@ -3833,7 +3857,9 @@
       <c r="C42" t="s" s="17">
         <v>12</v>
       </c>
-      <c r="D42" s="6"/>
+      <c r="D42" s="6">
+        <v>0.595238095238095</v>
+      </c>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
@@ -3866,10 +3892,10 @@
       <c r="J43" s="7"/>
     </row>
     <row r="44" ht="21" customHeight="1">
-      <c r="A44" t="s" s="5">
+      <c r="A44" t="s" s="4">
         <v>100</v>
       </c>
-      <c r="B44" t="s" s="5">
+      <c r="B44" t="s" s="4">
         <v>101</v>
       </c>
       <c r="C44" t="s" s="5">
@@ -3888,153 +3914,155 @@
       <c r="J44" s="7"/>
     </row>
     <row r="45" ht="21" customHeight="1">
-      <c r="A45" t="s" s="5">
+      <c r="A45" t="s" s="18">
         <v>102</v>
       </c>
-      <c r="B45" t="s" s="5">
+      <c r="B45" t="s" s="18">
         <v>103</v>
       </c>
-      <c r="C45" t="s" s="5">
-        <v>36</v>
+      <c r="C45" t="s" s="17">
+        <v>18</v>
       </c>
       <c r="D45" s="6">
-        <v>0.904761904761905</v>
+        <v>0.5238095238095239</v>
       </c>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6">
-        <v>0.777777777777778</v>
+        <v>0</v>
       </c>
       <c r="I45" s="6"/>
       <c r="J45" s="7"/>
     </row>
     <row r="46" ht="21" customHeight="1">
-      <c r="A46" t="s" s="4">
+      <c r="A46" t="s" s="5">
         <v>104</v>
       </c>
-      <c r="B46" t="s" s="4">
+      <c r="B46" t="s" s="5">
         <v>105</v>
       </c>
       <c r="C46" t="s" s="5">
-        <v>15</v>
-      </c>
-      <c r="D46" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="D46" s="6">
+        <v>0.904761904761905</v>
+      </c>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6">
-        <v>0.361111111111111</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I46" s="6"/>
-      <c r="J46" s="9"/>
+      <c r="J46" s="7"/>
     </row>
     <row r="47" ht="21" customHeight="1">
-      <c r="A47" t="s" s="23">
+      <c r="A47" t="s" s="4">
         <v>106</v>
       </c>
-      <c r="B47" t="s" s="23">
+      <c r="B47" t="s" s="4">
         <v>107</v>
       </c>
       <c r="C47" t="s" s="5">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D47" s="6">
-        <v>0.595238095238095</v>
+        <v>0.5238095238095239</v>
       </c>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
       <c r="H47" s="6">
-        <v>0.75</v>
+        <v>0.361111111111111</v>
       </c>
       <c r="I47" s="6"/>
-      <c r="J47" s="10"/>
+      <c r="J47" s="9"/>
     </row>
     <row r="48" ht="21" customHeight="1">
-      <c r="A48" t="s" s="8">
+      <c r="A48" t="s" s="23">
         <v>108</v>
       </c>
-      <c r="B48" t="s" s="8">
+      <c r="B48" t="s" s="23">
         <v>109</v>
       </c>
       <c r="C48" t="s" s="5">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D48" s="6">
-        <v>0.571428571428571</v>
+        <v>0.595238095238095</v>
       </c>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
       <c r="H48" s="6">
-        <v>0.777777777777778</v>
+        <v>0.75</v>
       </c>
       <c r="I48" s="6"/>
       <c r="J48" s="10"/>
     </row>
-    <row r="49" ht="20.7" customHeight="1">
-      <c r="A49" t="s" s="4">
+    <row r="49" ht="21" customHeight="1">
+      <c r="A49" t="s" s="8">
         <v>110</v>
       </c>
-      <c r="B49" t="s" s="4">
+      <c r="B49" t="s" s="8">
         <v>111</v>
       </c>
       <c r="C49" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="D49" s="14">
-        <v>0.595238095238095</v>
-      </c>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
+        <v>18</v>
+      </c>
+      <c r="D49" s="6">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
       <c r="H49" s="6">
         <v>0.777777777777778</v>
       </c>
-      <c r="I49" s="12"/>
-      <c r="J49" s="15"/>
-    </row>
-    <row r="50" ht="21" customHeight="1">
-      <c r="A50" t="s" s="18">
+      <c r="I49" s="6"/>
+      <c r="J49" s="10"/>
+    </row>
+    <row r="50" ht="20.7" customHeight="1">
+      <c r="A50" t="s" s="4">
         <v>112</v>
       </c>
-      <c r="B50" t="s" s="18">
+      <c r="B50" t="s" s="4">
         <v>113</v>
       </c>
-      <c r="C50" t="s" s="17">
+      <c r="C50" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="D50" s="14">
+        <v>0.595238095238095</v>
+      </c>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="6">
+        <v>0.777777777777778</v>
+      </c>
+      <c r="I50" s="12"/>
+      <c r="J50" s="15"/>
+    </row>
+    <row r="51" ht="21" customHeight="1">
+      <c r="A51" t="s" s="18">
+        <v>114</v>
+      </c>
+      <c r="B51" t="s" s="18">
+        <v>115</v>
+      </c>
+      <c r="C51" t="s" s="17">
         <v>67</v>
       </c>
-      <c r="D50" s="6">
+      <c r="D51" s="6">
         <v>0.761904761904762</v>
-      </c>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6">
-        <v>0.694444444444444</v>
-      </c>
-      <c r="I50" s="6"/>
-      <c r="J50" s="7"/>
-    </row>
-    <row r="51" ht="21" customHeight="1">
-      <c r="A51" t="s" s="5">
-        <v>114</v>
-      </c>
-      <c r="B51" t="s" s="5">
-        <v>115</v>
-      </c>
-      <c r="C51" t="s" s="5">
-        <v>67</v>
-      </c>
-      <c r="D51" s="6">
-        <v>0.833333333333333</v>
       </c>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
       <c r="H51" s="6">
-        <v>0</v>
+        <v>0.694444444444444</v>
       </c>
       <c r="I51" s="6"/>
       <c r="J51" s="7"/>
@@ -4047,139 +4075,141 @@
         <v>117</v>
       </c>
       <c r="C52" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="D52" s="6"/>
+        <v>67</v>
+      </c>
+      <c r="D52" s="6">
+        <v>0.833333333333333</v>
+      </c>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
       <c r="H52" s="6">
-        <v>0.777777777777778</v>
+        <v>0</v>
       </c>
       <c r="I52" s="6"/>
       <c r="J52" s="7"/>
     </row>
     <row r="53" ht="21" customHeight="1">
-      <c r="A53" t="s" s="4">
+      <c r="A53" t="s" s="5">
         <v>118</v>
       </c>
-      <c r="B53" t="s" s="4">
+      <c r="B53" t="s" s="5">
         <v>119</v>
       </c>
       <c r="C53" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D53" s="6">
-        <v>0.571428571428571</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D53" s="6"/>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6">
-        <v>0.555555555555556</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I53" s="6"/>
-      <c r="J53" s="9"/>
+      <c r="J53" s="7"/>
     </row>
     <row r="54" ht="21" customHeight="1">
-      <c r="A54" t="s" s="8">
+      <c r="A54" t="s" s="4">
         <v>120</v>
       </c>
-      <c r="B54" t="s" s="8">
+      <c r="B54" t="s" s="4">
         <v>121</v>
       </c>
       <c r="C54" t="s" s="5">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D54" s="6">
-        <v>0.714285714285714</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
       <c r="H54" s="6">
-        <v>0.777777777777778</v>
+        <v>0.555555555555556</v>
       </c>
       <c r="I54" s="6"/>
-      <c r="J54" s="11"/>
+      <c r="J54" s="9"/>
     </row>
     <row r="55" ht="21" customHeight="1">
-      <c r="A55" t="s" s="5">
+      <c r="A55" t="s" s="8">
         <v>122</v>
       </c>
-      <c r="B55" t="s" s="5">
+      <c r="B55" t="s" s="8">
         <v>123</v>
       </c>
       <c r="C55" t="s" s="5">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D55" s="6">
-        <v>0.476190476190476</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
       <c r="H55" s="6">
+        <v>0.777777777777778</v>
+      </c>
+      <c r="I55" s="6"/>
+      <c r="J55" s="11"/>
+    </row>
+    <row r="56" ht="21" customHeight="1">
+      <c r="A56" t="s" s="5">
+        <v>124</v>
+      </c>
+      <c r="B56" t="s" s="5">
+        <v>125</v>
+      </c>
+      <c r="C56" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D56" s="6">
+        <v>0.476190476190476</v>
+      </c>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6">
         <v>0.75</v>
       </c>
-      <c r="I55" s="6"/>
-      <c r="J55" s="9"/>
-    </row>
-    <row r="56" ht="20.35" customHeight="1">
-      <c r="A56" t="s" s="4">
-        <v>124</v>
-      </c>
-      <c r="B56" t="s" s="4">
-        <v>125</v>
-      </c>
-      <c r="C56" t="s" s="5">
+      <c r="I56" s="6"/>
+      <c r="J56" s="9"/>
+    </row>
+    <row r="57" ht="20.35" customHeight="1">
+      <c r="A57" t="s" s="4">
+        <v>126</v>
+      </c>
+      <c r="B57" t="s" s="4">
+        <v>127</v>
+      </c>
+      <c r="C57" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D56" s="14">
+      <c r="D57" s="14">
         <v>0.666666666666667</v>
       </c>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="6">
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="6">
         <v>0.777777777777778</v>
       </c>
-      <c r="I56" s="12"/>
-      <c r="J56" s="15"/>
-    </row>
-    <row r="57" ht="21" customHeight="1">
-      <c r="A57" t="s" s="16">
-        <v>126</v>
-      </c>
-      <c r="B57" t="s" s="16">
-        <v>127</v>
-      </c>
-      <c r="C57" t="s" s="17">
+      <c r="I57" s="12"/>
+      <c r="J57" s="15"/>
+    </row>
+    <row r="58" ht="21" customHeight="1">
+      <c r="A58" t="s" s="16">
+        <v>128</v>
+      </c>
+      <c r="B58" t="s" s="16">
+        <v>129</v>
+      </c>
+      <c r="C58" t="s" s="17">
         <v>18</v>
       </c>
-      <c r="D57" s="6">
+      <c r="D58" s="6">
         <v>0.69047619047619</v>
       </c>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="I57" s="6"/>
-      <c r="J57" s="9"/>
-    </row>
-    <row r="58" ht="21" customHeight="1">
-      <c r="A58" t="s" s="23">
-        <v>128</v>
-      </c>
-      <c r="B58" t="s" s="23">
-        <v>129</v>
-      </c>
-      <c r="C58" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D58" s="6"/>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
@@ -4187,13 +4217,13 @@
         <v>0.75</v>
       </c>
       <c r="I58" s="6"/>
-      <c r="J58" s="10"/>
+      <c r="J58" s="9"/>
     </row>
     <row r="59" ht="21" customHeight="1">
-      <c r="A59" t="s" s="8">
+      <c r="A59" t="s" s="23">
         <v>130</v>
       </c>
-      <c r="B59" t="s" s="8">
+      <c r="B59" t="s" s="23">
         <v>131</v>
       </c>
       <c r="C59" t="s" s="5">
@@ -4204,149 +4234,153 @@
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
       <c r="H59" s="6">
-        <v>0.805555555555556</v>
+        <v>0.75</v>
       </c>
       <c r="I59" s="6"/>
-      <c r="J59" s="11"/>
+      <c r="J59" s="10"/>
     </row>
     <row r="60" ht="21" customHeight="1">
-      <c r="A60" t="s" s="5">
+      <c r="A60" t="s" s="8">
         <v>132</v>
       </c>
-      <c r="B60" t="s" s="5">
+      <c r="B60" t="s" s="8">
         <v>133</v>
       </c>
       <c r="C60" t="s" s="5">
-        <v>15</v>
-      </c>
-      <c r="D60" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="D60" s="6">
+        <v>0.5238095238095239</v>
+      </c>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
       <c r="H60" s="6">
-        <v>0</v>
+        <v>0.805555555555556</v>
       </c>
       <c r="I60" s="6"/>
-      <c r="J60" s="9"/>
-    </row>
-    <row r="61" ht="20.7" customHeight="1">
-      <c r="A61" t="s" s="4">
+      <c r="J60" s="11"/>
+    </row>
+    <row r="61" ht="21" customHeight="1">
+      <c r="A61" t="s" s="5">
         <v>134</v>
       </c>
-      <c r="B61" t="s" s="4">
+      <c r="B61" t="s" s="5">
         <v>135</v>
       </c>
       <c r="C61" t="s" s="5">
-        <v>67</v>
-      </c>
-      <c r="D61" s="14">
-        <v>0.80952380952381</v>
-      </c>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
+        <v>15</v>
+      </c>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
       <c r="H61" s="6">
         <v>0</v>
       </c>
-      <c r="I61" s="12"/>
-      <c r="J61" s="13"/>
-    </row>
-    <row r="62" ht="21" customHeight="1">
-      <c r="A62" t="s" s="18">
+      <c r="I61" s="6"/>
+      <c r="J61" s="9"/>
+    </row>
+    <row r="62" ht="20.7" customHeight="1">
+      <c r="A62" t="s" s="4">
         <v>136</v>
       </c>
-      <c r="B62" t="s" s="18">
+      <c r="B62" t="s" s="4">
         <v>137</v>
       </c>
-      <c r="C62" t="s" s="17">
+      <c r="C62" t="s" s="5">
+        <v>67</v>
+      </c>
+      <c r="D62" s="14">
+        <v>0.80952380952381</v>
+      </c>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="6">
+        <v>0</v>
+      </c>
+      <c r="I62" s="12"/>
+      <c r="J62" s="13"/>
+    </row>
+    <row r="63" ht="21" customHeight="1">
+      <c r="A63" t="s" s="18">
+        <v>138</v>
+      </c>
+      <c r="B63" t="s" s="18">
+        <v>139</v>
+      </c>
+      <c r="C63" t="s" s="17">
         <v>36</v>
       </c>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="I62" s="6"/>
-      <c r="J62" s="11"/>
-    </row>
-    <row r="63" ht="21" customHeight="1">
-      <c r="A63" t="s" s="5">
-        <v>138</v>
-      </c>
-      <c r="B63" t="s" s="5">
-        <v>139</v>
-      </c>
-      <c r="C63" t="s" s="5">
-        <v>18</v>
-      </c>
       <c r="D63" s="6">
-        <v>0.714285714285714</v>
+        <v>0.5238095238095239</v>
       </c>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6">
-        <v>0.694444444444444</v>
+        <v>0.75</v>
       </c>
       <c r="I63" s="6"/>
-      <c r="J63" s="7"/>
+      <c r="J63" s="11"/>
     </row>
     <row r="64" ht="21" customHeight="1">
-      <c r="A64" t="s" s="4">
+      <c r="A64" t="s" s="5">
         <v>140</v>
       </c>
-      <c r="B64" t="s" s="4">
+      <c r="B64" t="s" s="5">
         <v>141</v>
       </c>
       <c r="C64" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="D64" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="D64" s="6">
+        <v>0.714285714285714</v>
+      </c>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
       <c r="H64" s="6">
-        <v>0.777777777777778</v>
+        <v>0.694444444444444</v>
       </c>
       <c r="I64" s="6"/>
       <c r="J64" s="7"/>
     </row>
     <row r="65" ht="21" customHeight="1">
-      <c r="A65" t="s" s="18">
+      <c r="A65" t="s" s="4">
         <v>142</v>
       </c>
-      <c r="B65" t="s" s="18">
+      <c r="B65" t="s" s="4">
         <v>143</v>
       </c>
-      <c r="C65" s="24"/>
+      <c r="C65" t="s" s="5">
+        <v>21</v>
+      </c>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
       <c r="H65" s="6">
-        <v>0.694444444444444</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I65" s="6"/>
       <c r="J65" s="7"/>
     </row>
     <row r="66" ht="21" customHeight="1">
-      <c r="A66" t="s" s="5">
+      <c r="A66" t="s" s="18">
         <v>144</v>
       </c>
-      <c r="B66" t="s" s="5">
+      <c r="B66" t="s" s="18">
         <v>145</v>
       </c>
-      <c r="C66" t="s" s="5">
-        <v>18</v>
-      </c>
+      <c r="C66" s="24"/>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
       <c r="H66" s="6">
-        <v>0.805555555555556</v>
+        <v>0.694444444444444</v>
       </c>
       <c r="I66" s="6"/>
       <c r="J66" s="7"/>
@@ -4361,30 +4395,28 @@
       <c r="C67" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D67" s="6">
-        <v>0.619047619047619</v>
-      </c>
+      <c r="D67" s="6"/>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
       <c r="H67" s="6">
-        <v>0.777777777777778</v>
+        <v>0.805555555555556</v>
       </c>
       <c r="I67" s="6"/>
-      <c r="J67" s="9"/>
+      <c r="J67" s="7"/>
     </row>
     <row r="68" ht="21" customHeight="1">
-      <c r="A68" t="s" s="4">
+      <c r="A68" t="s" s="5">
         <v>148</v>
       </c>
-      <c r="B68" t="s" s="4">
+      <c r="B68" t="s" s="5">
         <v>149</v>
       </c>
       <c r="C68" t="s" s="5">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D68" s="6">
-        <v>0.595238095238095</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
@@ -4393,19 +4425,21 @@
         <v>0.777777777777778</v>
       </c>
       <c r="I68" s="6"/>
-      <c r="J68" s="10"/>
+      <c r="J68" s="9"/>
     </row>
     <row r="69" ht="21" customHeight="1">
-      <c r="A69" t="s" s="8">
+      <c r="A69" t="s" s="4">
         <v>150</v>
       </c>
-      <c r="B69" t="s" s="8">
+      <c r="B69" t="s" s="4">
         <v>151</v>
       </c>
       <c r="C69" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D69" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="D69" s="6">
+        <v>0.595238095238095</v>
+      </c>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
@@ -4413,41 +4447,41 @@
         <v>0.777777777777778</v>
       </c>
       <c r="I69" s="6"/>
-      <c r="J69" s="11"/>
+      <c r="J69" s="10"/>
     </row>
     <row r="70" ht="21" customHeight="1">
-      <c r="A70" t="s" s="5">
+      <c r="A70" t="s" s="8">
         <v>152</v>
       </c>
-      <c r="B70" t="s" s="5">
+      <c r="B70" t="s" s="8">
         <v>153</v>
       </c>
       <c r="C70" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="D70" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="D70" s="6">
+        <v>0.785714285714286</v>
+      </c>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
       <c r="H70" s="6">
-        <v>0.722222222222222</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I70" s="6"/>
-      <c r="J70" s="7"/>
+      <c r="J70" s="11"/>
     </row>
     <row r="71" ht="21" customHeight="1">
-      <c r="A71" t="s" s="4">
+      <c r="A71" t="s" s="5">
         <v>154</v>
       </c>
-      <c r="B71" t="s" s="4">
+      <c r="B71" t="s" s="5">
         <v>155</v>
       </c>
       <c r="C71" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="D71" s="6">
-        <v>0.69047619047619</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D71" s="6"/>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
@@ -4458,43 +4492,45 @@
       <c r="J71" s="7"/>
     </row>
     <row r="72" ht="21" customHeight="1">
-      <c r="A72" t="s" s="18">
+      <c r="A72" t="s" s="4">
         <v>156</v>
       </c>
-      <c r="B72" t="s" s="18">
+      <c r="B72" t="s" s="4">
         <v>157</v>
       </c>
-      <c r="C72" t="s" s="17">
+      <c r="C72" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="D72" s="6"/>
+      <c r="D72" s="6">
+        <v>0.69047619047619</v>
+      </c>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
       <c r="H72" s="6">
-        <v>0.638888888888889</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="I72" s="6"/>
       <c r="J72" s="7"/>
     </row>
     <row r="73" ht="21" customHeight="1">
-      <c r="A73" t="s" s="5">
+      <c r="A73" t="s" s="18">
         <v>158</v>
       </c>
-      <c r="B73" t="s" s="5">
+      <c r="B73" t="s" s="18">
         <v>159</v>
       </c>
-      <c r="C73" t="s" s="5">
-        <v>67</v>
+      <c r="C73" t="s" s="17">
+        <v>12</v>
       </c>
       <c r="D73" s="6">
-        <v>0.619047619047619</v>
+        <v>0.69047619047619</v>
       </c>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
       <c r="H73" s="6">
-        <v>0.666666666666667</v>
+        <v>0.638888888888889</v>
       </c>
       <c r="I73" s="6"/>
       <c r="J73" s="7"/>
@@ -4507,16 +4543,16 @@
         <v>161</v>
       </c>
       <c r="C74" t="s" s="5">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="D74" s="6">
-        <v>0.80952380952381</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
       <c r="H74" s="6">
-        <v>0.777777777777778</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="I74" s="6"/>
       <c r="J74" s="7"/>
@@ -4529,16 +4565,16 @@
         <v>163</v>
       </c>
       <c r="C75" t="s" s="5">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D75" s="6">
-        <v>0.857142857142857</v>
+        <v>0.80952380952381</v>
       </c>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
       <c r="H75" s="6">
-        <v>0.722222222222222</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I75" s="6"/>
       <c r="J75" s="7"/>
@@ -4551,16 +4587,16 @@
         <v>165</v>
       </c>
       <c r="C76" t="s" s="5">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D76" s="6">
-        <v>0.738095238095238</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
       <c r="H76" s="6">
-        <v>0.694444444444444</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="I76" s="6"/>
       <c r="J76" s="7"/>
@@ -4573,16 +4609,16 @@
         <v>167</v>
       </c>
       <c r="C77" t="s" s="5">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="D77" s="6">
-        <v>0.761904761904762</v>
+        <v>0.738095238095238</v>
       </c>
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
       <c r="H77" s="6">
-        <v>0.722222222222222</v>
+        <v>0.694444444444444</v>
       </c>
       <c r="I77" s="6"/>
       <c r="J77" s="7"/>
@@ -4595,10 +4631,10 @@
         <v>169</v>
       </c>
       <c r="C78" t="s" s="5">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D78" s="6">
-        <v>0.714285714285714</v>
+        <v>0.761904761904762</v>
       </c>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
@@ -4617,14 +4653,16 @@
         <v>171</v>
       </c>
       <c r="C79" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="D79" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="D79" s="6">
+        <v>0.714285714285714</v>
+      </c>
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
       <c r="H79" s="6">
-        <v>0.75</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="I79" s="6"/>
       <c r="J79" s="7"/>
@@ -4636,8 +4674,12 @@
       <c r="B80" t="s" s="5">
         <v>173</v>
       </c>
-      <c r="C80" s="12"/>
-      <c r="D80" s="6"/>
+      <c r="C80" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="D80" s="6">
+        <v>0.880952380952381</v>
+      </c>
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
@@ -4645,71 +4687,67 @@
         <v>0.75</v>
       </c>
       <c r="I80" s="6"/>
-      <c r="J80" s="9"/>
-    </row>
-    <row r="81" ht="20.7" customHeight="1">
-      <c r="A81" t="s" s="4">
+      <c r="J80" s="7"/>
+    </row>
+    <row r="81" ht="21" customHeight="1">
+      <c r="A81" t="s" s="5">
         <v>174</v>
       </c>
-      <c r="B81" t="s" s="4">
+      <c r="B81" t="s" s="5">
         <v>175</v>
       </c>
-      <c r="C81" t="s" s="5">
+      <c r="C81" s="12"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="I81" s="6"/>
+      <c r="J81" s="9"/>
+    </row>
+    <row r="82" ht="20.7" customHeight="1">
+      <c r="A82" t="s" s="4">
+        <v>176</v>
+      </c>
+      <c r="B82" t="s" s="4">
+        <v>177</v>
+      </c>
+      <c r="C82" t="s" s="5">
         <v>36</v>
       </c>
-      <c r="D81" s="25">
+      <c r="D82" s="25">
         <v>0.857142857142857</v>
       </c>
-      <c r="E81" s="12"/>
-      <c r="F81" s="12"/>
-      <c r="G81" s="12"/>
-      <c r="H81" s="6">
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="12"/>
+      <c r="H82" s="6">
         <v>0.777777777777778</v>
       </c>
-      <c r="I81" s="12"/>
-      <c r="J81" s="15"/>
-    </row>
-    <row r="82" ht="21" customHeight="1">
-      <c r="A82" t="s" s="18">
-        <v>176</v>
-      </c>
-      <c r="B82" t="s" s="18">
-        <v>177</v>
-      </c>
-      <c r="C82" t="s" s="17">
+      <c r="I82" s="12"/>
+      <c r="J82" s="15"/>
+    </row>
+    <row r="83" ht="21" customHeight="1">
+      <c r="A83" t="s" s="18">
+        <v>178</v>
+      </c>
+      <c r="B83" t="s" s="18">
+        <v>179</v>
+      </c>
+      <c r="C83" t="s" s="17">
         <v>21</v>
       </c>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="I82" s="6"/>
-      <c r="J82" s="7"/>
-    </row>
-    <row r="83" ht="21" customHeight="1">
-      <c r="A83" t="s" s="5">
-        <v>178</v>
-      </c>
-      <c r="B83" t="s" s="5">
-        <v>179</v>
-      </c>
-      <c r="C83" t="s" s="5">
-        <v>36</v>
-      </c>
-      <c r="D83" s="6">
-        <v>0.452380952380952</v>
-      </c>
+      <c r="D83" s="6"/>
       <c r="E83" s="6"/>
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
       <c r="H83" s="6">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="I83" s="6"/>
-      <c r="J83" s="9"/>
+      <c r="J83" s="7"/>
     </row>
     <row r="84" ht="21" customHeight="1">
       <c r="A84" t="s" s="5">
@@ -4719,120 +4757,120 @@
         <v>181</v>
       </c>
       <c r="C84" t="s" s="5">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D84" s="6">
-        <v>0.857142857142857</v>
+        <v>0.452380952380952</v>
       </c>
       <c r="E84" s="6"/>
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
       <c r="H84" s="6">
-        <v>0.777777777777778</v>
+        <v>0</v>
       </c>
       <c r="I84" s="6"/>
-      <c r="J84" s="10"/>
+      <c r="J84" s="9"/>
     </row>
     <row r="85" ht="21" customHeight="1">
-      <c r="A85" t="s" s="4">
+      <c r="A85" t="s" s="5">
         <v>182</v>
       </c>
-      <c r="B85" t="s" s="4">
+      <c r="B85" t="s" s="5">
         <v>183</v>
       </c>
       <c r="C85" t="s" s="5">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="D85" s="6">
-        <v>0.619047619047619</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="E85" s="6"/>
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
       <c r="H85" s="6">
-        <v>0.694444444444444</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I85" s="6"/>
-      <c r="J85" s="11"/>
+      <c r="J85" s="10"/>
     </row>
     <row r="86" ht="21" customHeight="1">
-      <c r="A86" t="s" s="18">
+      <c r="A86" t="s" s="4">
         <v>184</v>
       </c>
-      <c r="B86" t="s" s="18">
+      <c r="B86" t="s" s="4">
         <v>185</v>
       </c>
-      <c r="C86" t="s" s="17">
-        <v>21</v>
+      <c r="C86" t="s" s="5">
+        <v>67</v>
       </c>
       <c r="D86" s="6">
-        <v>0.69047619047619</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="E86" s="6"/>
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
       <c r="H86" s="6">
-        <v>0.638888888888889</v>
+        <v>0.694444444444444</v>
       </c>
       <c r="I86" s="6"/>
-      <c r="J86" s="7"/>
+      <c r="J86" s="11"/>
     </row>
     <row r="87" ht="21" customHeight="1">
-      <c r="A87" t="s" s="5">
+      <c r="A87" t="s" s="18">
         <v>186</v>
       </c>
-      <c r="B87" t="s" s="5">
+      <c r="B87" t="s" s="18">
         <v>187</v>
       </c>
-      <c r="C87" t="s" s="5">
-        <v>18</v>
+      <c r="C87" t="s" s="17">
+        <v>21</v>
       </c>
       <c r="D87" s="6">
-        <v>0.619047619047619</v>
+        <v>0.69047619047619</v>
       </c>
       <c r="E87" s="6"/>
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
       <c r="H87" s="6">
-        <v>0.416666666666667</v>
+        <v>0.638888888888889</v>
       </c>
       <c r="I87" s="6"/>
       <c r="J87" s="7"/>
     </row>
     <row r="88" ht="21" customHeight="1">
-      <c r="A88" t="s" s="4">
+      <c r="A88" t="s" s="5">
         <v>188</v>
       </c>
-      <c r="B88" t="s" s="4">
+      <c r="B88" t="s" s="5">
         <v>189</v>
       </c>
       <c r="C88" t="s" s="5">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D88" s="6">
-        <v>0.785714285714286</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
       <c r="H88" s="6">
-        <v>0.75</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="I88" s="6"/>
       <c r="J88" s="7"/>
     </row>
     <row r="89" ht="21" customHeight="1">
-      <c r="A89" t="s" s="16">
+      <c r="A89" t="s" s="4">
         <v>190</v>
       </c>
-      <c r="B89" t="s" s="16">
+      <c r="B89" t="s" s="4">
         <v>191</v>
       </c>
-      <c r="C89" t="s" s="17">
-        <v>36</v>
+      <c r="C89" t="s" s="5">
+        <v>12</v>
       </c>
       <c r="D89" s="6">
-        <v>0.642857142857143</v>
+        <v>0.785714285714286</v>
       </c>
       <c r="E89" s="6"/>
       <c r="F89" s="6"/>
@@ -4854,68 +4892,70 @@
         <v>36</v>
       </c>
       <c r="D90" s="6">
-        <v>0.5238095238095239</v>
+        <v>0.642857142857143</v>
       </c>
       <c r="E90" s="6"/>
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
       <c r="H90" s="6">
-        <v>0.888888888888889</v>
+        <v>0.75</v>
       </c>
       <c r="I90" s="6"/>
       <c r="J90" s="7"/>
     </row>
     <row r="91" ht="21" customHeight="1">
-      <c r="A91" t="s" s="23">
+      <c r="A91" t="s" s="16">
         <v>194</v>
       </c>
-      <c r="B91" t="s" s="23">
+      <c r="B91" t="s" s="16">
         <v>195</v>
       </c>
-      <c r="C91" t="s" s="5">
-        <v>21</v>
+      <c r="C91" t="s" s="17">
+        <v>36</v>
       </c>
       <c r="D91" s="6">
-        <v>0.666666666666667</v>
+        <v>0.5238095238095239</v>
       </c>
       <c r="E91" s="6"/>
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
       <c r="H91" s="6">
-        <v>0.75</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="I91" s="6"/>
       <c r="J91" s="7"/>
     </row>
     <row r="92" ht="21" customHeight="1">
-      <c r="A92" t="s" s="18">
+      <c r="A92" t="s" s="23">
         <v>196</v>
       </c>
-      <c r="B92" t="s" s="18">
+      <c r="B92" t="s" s="23">
         <v>197</v>
       </c>
-      <c r="C92" t="s" s="17">
-        <v>15</v>
-      </c>
-      <c r="D92" s="6"/>
+      <c r="C92" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="D92" s="6">
+        <v>0.666666666666667</v>
+      </c>
       <c r="E92" s="6"/>
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
       <c r="H92" s="6">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="I92" s="6"/>
       <c r="J92" s="7"/>
     </row>
     <row r="93" ht="21" customHeight="1">
-      <c r="A93" t="s" s="5">
+      <c r="A93" t="s" s="18">
         <v>198</v>
       </c>
-      <c r="B93" t="s" s="5">
+      <c r="B93" t="s" s="18">
         <v>199</v>
       </c>
-      <c r="C93" t="s" s="5">
-        <v>21</v>
+      <c r="C93" t="s" s="17">
+        <v>15</v>
       </c>
       <c r="D93" s="6"/>
       <c r="E93" s="6"/>
@@ -4938,13 +4978,13 @@
         <v>18</v>
       </c>
       <c r="D94" s="6">
-        <v>0.833333333333333</v>
+        <v>0.928571428571429</v>
       </c>
       <c r="E94" s="6"/>
       <c r="F94" s="6"/>
       <c r="G94" s="6"/>
       <c r="H94" s="6">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="I94" s="6"/>
       <c r="J94" s="7"/>
@@ -4957,103 +4997,105 @@
         <v>203</v>
       </c>
       <c r="C95" t="s" s="5">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D95" s="6"/>
       <c r="E95" s="6"/>
       <c r="F95" s="6"/>
       <c r="G95" s="6"/>
       <c r="H95" s="6">
-        <v>0.416666666666667</v>
+        <v>0</v>
       </c>
       <c r="I95" s="6"/>
-      <c r="J95" s="9"/>
+      <c r="J95" s="7"/>
     </row>
     <row r="96" ht="21" customHeight="1">
-      <c r="A96" t="s" s="4">
+      <c r="A96" t="s" s="5">
         <v>204</v>
       </c>
-      <c r="B96" t="s" s="4">
+      <c r="B96" t="s" s="5">
         <v>205</v>
       </c>
       <c r="C96" t="s" s="5">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D96" s="6">
-        <v>0.595238095238095</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E96" s="6"/>
       <c r="F96" s="6"/>
       <c r="G96" s="6"/>
       <c r="H96" s="6">
-        <v>0.777777777777778</v>
+        <v>0.75</v>
       </c>
       <c r="I96" s="6"/>
-      <c r="J96" s="11"/>
+      <c r="J96" s="7"/>
     </row>
     <row r="97" ht="21" customHeight="1">
-      <c r="A97" t="s" s="18">
+      <c r="A97" t="s" s="5">
         <v>206</v>
       </c>
-      <c r="B97" t="s" s="18">
+      <c r="B97" t="s" s="5">
         <v>207</v>
       </c>
-      <c r="C97" t="s" s="17">
-        <v>12</v>
+      <c r="C97" t="s" s="5">
+        <v>18</v>
       </c>
       <c r="D97" s="6">
-        <v>0.5</v>
+        <v>0.738095238095238</v>
       </c>
       <c r="E97" s="6"/>
       <c r="F97" s="6"/>
       <c r="G97" s="6"/>
       <c r="H97" s="6">
-        <v>0.722222222222222</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="I97" s="6"/>
-      <c r="J97" s="7"/>
+      <c r="J97" s="9"/>
     </row>
     <row r="98" ht="21" customHeight="1">
-      <c r="A98" t="s" s="5">
+      <c r="A98" t="s" s="4">
         <v>208</v>
       </c>
-      <c r="B98" t="s" s="5">
+      <c r="B98" t="s" s="4">
         <v>209</v>
       </c>
       <c r="C98" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="D98" s="6"/>
+      <c r="D98" s="6">
+        <v>0.595238095238095</v>
+      </c>
       <c r="E98" s="6"/>
       <c r="F98" s="6"/>
       <c r="G98" s="6"/>
       <c r="H98" s="6">
-        <v>0</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I98" s="6"/>
-      <c r="J98" s="9"/>
+      <c r="J98" s="11"/>
     </row>
     <row r="99" ht="21" customHeight="1">
-      <c r="A99" t="s" s="5">
+      <c r="A99" t="s" s="18">
         <v>210</v>
       </c>
-      <c r="B99" t="s" s="5">
+      <c r="B99" t="s" s="18">
         <v>211</v>
       </c>
-      <c r="C99" t="s" s="5">
-        <v>18</v>
+      <c r="C99" t="s" s="17">
+        <v>12</v>
       </c>
       <c r="D99" s="6">
-        <v>0.69047619047619</v>
+        <v>0.5</v>
       </c>
       <c r="E99" s="6"/>
       <c r="F99" s="6"/>
       <c r="G99" s="6"/>
       <c r="H99" s="6">
-        <v>0.805555555555556</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="I99" s="6"/>
-      <c r="J99" s="11"/>
+      <c r="J99" s="7"/>
     </row>
     <row r="100" ht="21" customHeight="1">
       <c r="A100" t="s" s="5">
@@ -5063,103 +5105,107 @@
         <v>213</v>
       </c>
       <c r="C100" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="D100" s="6">
-        <v>0.857142857142857</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D100" s="6"/>
       <c r="E100" s="6"/>
       <c r="F100" s="6"/>
       <c r="G100" s="6"/>
       <c r="H100" s="6">
-        <v>0.777777777777778</v>
+        <v>0</v>
       </c>
       <c r="I100" s="6"/>
-      <c r="J100" s="7"/>
+      <c r="J100" s="9"/>
     </row>
     <row r="101" ht="21" customHeight="1">
-      <c r="A101" t="s" s="4">
+      <c r="A101" t="s" s="5">
         <v>214</v>
       </c>
-      <c r="B101" t="s" s="4">
+      <c r="B101" t="s" s="5">
         <v>215</v>
       </c>
       <c r="C101" t="s" s="5">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D101" s="6">
-        <v>0.285714285714286</v>
+        <v>0.69047619047619</v>
       </c>
       <c r="E101" s="6"/>
       <c r="F101" s="6"/>
       <c r="G101" s="6"/>
       <c r="H101" s="6">
-        <v>0.361111111111111</v>
+        <v>0.805555555555556</v>
       </c>
       <c r="I101" s="6"/>
-      <c r="J101" s="7"/>
+      <c r="J101" s="11"/>
     </row>
     <row r="102" ht="21" customHeight="1">
-      <c r="A102" t="s" s="8">
+      <c r="A102" t="s" s="5">
         <v>216</v>
       </c>
-      <c r="B102" t="s" s="8">
+      <c r="B102" t="s" s="5">
         <v>217</v>
       </c>
       <c r="C102" t="s" s="5">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D102" s="6">
-        <v>0.571428571428571</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="E102" s="6"/>
       <c r="F102" s="6"/>
       <c r="G102" s="6"/>
       <c r="H102" s="6">
-        <v>0.722222222222222</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I102" s="6"/>
       <c r="J102" s="7"/>
     </row>
     <row r="103" ht="21" customHeight="1">
-      <c r="A103" t="s" s="5">
+      <c r="A103" t="s" s="4">
         <v>218</v>
       </c>
-      <c r="B103" t="s" s="5">
+      <c r="B103" t="s" s="4">
         <v>219</v>
       </c>
-      <c r="C103" s="12"/>
-      <c r="D103" s="6"/>
+      <c r="C103" t="s" s="5">
+        <v>15</v>
+      </c>
+      <c r="D103" s="6">
+        <v>0.285714285714286</v>
+      </c>
       <c r="E103" s="6"/>
       <c r="F103" s="6"/>
       <c r="G103" s="6"/>
       <c r="H103" s="6">
-        <v>0.694444444444444</v>
+        <v>0.361111111111111</v>
       </c>
       <c r="I103" s="6"/>
       <c r="J103" s="7"/>
     </row>
     <row r="104" ht="21" customHeight="1">
-      <c r="A104" t="s" s="5">
+      <c r="A104" t="s" s="8">
         <v>220</v>
       </c>
-      <c r="B104" t="s" s="5">
+      <c r="B104" t="s" s="8">
         <v>221</v>
       </c>
       <c r="C104" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="D104" s="6"/>
+      <c r="D104" s="6">
+        <v>0.571428571428571</v>
+      </c>
       <c r="E104" s="6"/>
       <c r="F104" s="6"/>
       <c r="G104" s="6"/>
       <c r="H104" s="6">
-        <v>0.777777777777778</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="I104" s="6"/>
-      <c r="J104" s="9"/>
-    </row>
-    <row r="105" ht="20.7" customHeight="1">
+      <c r="J104" s="7"/>
+    </row>
+    <row r="105" ht="21" customHeight="1">
       <c r="A105" t="s" s="5">
         <v>222</v>
       </c>
@@ -5167,21 +5213,21 @@
         <v>223</v>
       </c>
       <c r="C105" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="D105" s="14">
-        <v>0.5238095238095239</v>
-      </c>
-      <c r="E105" s="12"/>
-      <c r="F105" s="12"/>
-      <c r="G105" s="12"/>
+        <v>18</v>
+      </c>
+      <c r="D105" s="6">
+        <v>0.69047619047619</v>
+      </c>
+      <c r="E105" s="6"/>
+      <c r="F105" s="6"/>
+      <c r="G105" s="6"/>
       <c r="H105" s="6">
-        <v>0.777777777777778</v>
-      </c>
-      <c r="I105" s="12"/>
-      <c r="J105" s="13"/>
-    </row>
-    <row r="106" ht="20.7" customHeight="1">
+        <v>0.694444444444444</v>
+      </c>
+      <c r="I105" s="6"/>
+      <c r="J105" s="7"/>
+    </row>
+    <row r="106" ht="21" customHeight="1">
       <c r="A106" t="s" s="5">
         <v>224</v>
       </c>
@@ -5189,19 +5235,19 @@
         <v>225</v>
       </c>
       <c r="C106" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="D106" s="12"/>
-      <c r="E106" s="12"/>
-      <c r="F106" s="12"/>
-      <c r="G106" s="12"/>
+        <v>21</v>
+      </c>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="6"/>
+      <c r="G106" s="6"/>
       <c r="H106" s="6">
-        <v>0.638888888888889</v>
-      </c>
-      <c r="I106" s="12"/>
-      <c r="J106" s="15"/>
-    </row>
-    <row r="107" ht="21" customHeight="1">
+        <v>0.777777777777778</v>
+      </c>
+      <c r="I106" s="6"/>
+      <c r="J106" s="9"/>
+    </row>
+    <row r="107" ht="20.7" customHeight="1">
       <c r="A107" t="s" s="5">
         <v>226</v>
       </c>
@@ -5209,21 +5255,21 @@
         <v>227</v>
       </c>
       <c r="C107" t="s" s="5">
-        <v>15</v>
-      </c>
-      <c r="D107" s="6">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="E107" s="6"/>
-      <c r="F107" s="6"/>
-      <c r="G107" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="D107" s="14">
+        <v>0.5238095238095239</v>
+      </c>
+      <c r="E107" s="12"/>
+      <c r="F107" s="12"/>
+      <c r="G107" s="12"/>
       <c r="H107" s="6">
-        <v>0</v>
-      </c>
-      <c r="I107" s="6"/>
-      <c r="J107" s="7"/>
-    </row>
-    <row r="108" ht="21" customHeight="1">
+        <v>0.777777777777778</v>
+      </c>
+      <c r="I107" s="12"/>
+      <c r="J107" s="13"/>
+    </row>
+    <row r="108" ht="20.7" customHeight="1">
       <c r="A108" t="s" s="5">
         <v>228</v>
       </c>
@@ -5231,21 +5277,21 @@
         <v>229</v>
       </c>
       <c r="C108" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D108" s="6">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E108" s="6"/>
-      <c r="F108" s="6"/>
-      <c r="G108" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="D108" s="14">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="E108" s="12"/>
+      <c r="F108" s="12"/>
+      <c r="G108" s="12"/>
       <c r="H108" s="6">
-        <v>0.694444444444444</v>
-      </c>
-      <c r="I108" s="6"/>
-      <c r="J108" s="9"/>
-    </row>
-    <row r="109" ht="20.05" customHeight="1">
+        <v>0.638888888888889</v>
+      </c>
+      <c r="I108" s="12"/>
+      <c r="J108" s="15"/>
+    </row>
+    <row r="109" ht="21" customHeight="1">
       <c r="A109" t="s" s="5">
         <v>230</v>
       </c>
@@ -5253,17 +5299,19 @@
         <v>231</v>
       </c>
       <c r="C109" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D109" s="12"/>
-      <c r="E109" s="12"/>
-      <c r="F109" s="12"/>
-      <c r="G109" s="12"/>
+        <v>15</v>
+      </c>
+      <c r="D109" s="6">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="E109" s="6"/>
+      <c r="F109" s="6"/>
+      <c r="G109" s="6"/>
       <c r="H109" s="6">
-        <v>0.777777777777778</v>
-      </c>
-      <c r="I109" s="12"/>
-      <c r="J109" s="15"/>
+        <v>0</v>
+      </c>
+      <c r="I109" s="6"/>
+      <c r="J109" s="7"/>
     </row>
     <row r="110" ht="21" customHeight="1">
       <c r="A110" t="s" s="5">
@@ -5275,17 +5323,19 @@
       <c r="C110" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D110" s="6"/>
+      <c r="D110" s="6">
+        <v>0.833333333333333</v>
+      </c>
       <c r="E110" s="6"/>
       <c r="F110" s="6"/>
       <c r="G110" s="6"/>
       <c r="H110" s="6">
-        <v>0.555555555555556</v>
+        <v>0.694444444444444</v>
       </c>
       <c r="I110" s="6"/>
       <c r="J110" s="9"/>
     </row>
-    <row r="111" ht="20.7" customHeight="1">
+    <row r="111" ht="20.05" customHeight="1">
       <c r="A111" t="s" s="5">
         <v>234</v>
       </c>
@@ -5293,19 +5343,17 @@
         <v>235</v>
       </c>
       <c r="C111" t="s" s="5">
-        <v>36</v>
-      </c>
-      <c r="D111" s="14">
-        <v>0.452380952380952</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D111" s="12"/>
       <c r="E111" s="12"/>
       <c r="F111" s="12"/>
       <c r="G111" s="12"/>
       <c r="H111" s="6">
-        <v>0.888888888888889</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I111" s="12"/>
-      <c r="J111" s="13"/>
+      <c r="J111" s="15"/>
     </row>
     <row r="112" ht="21" customHeight="1">
       <c r="A112" t="s" s="5">
@@ -5315,21 +5363,21 @@
         <v>237</v>
       </c>
       <c r="C112" t="s" s="5">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D112" s="6">
-        <v>0.5</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="E112" s="6"/>
       <c r="F112" s="6"/>
       <c r="G112" s="6"/>
       <c r="H112" s="6">
-        <v>0.75</v>
+        <v>0.555555555555556</v>
       </c>
       <c r="I112" s="6"/>
-      <c r="J112" s="11"/>
-    </row>
-    <row r="113" ht="21" customHeight="1">
+      <c r="J112" s="9"/>
+    </row>
+    <row r="113" ht="20.7" customHeight="1">
       <c r="A113" t="s" s="5">
         <v>238</v>
       </c>
@@ -5337,19 +5385,19 @@
         <v>239</v>
       </c>
       <c r="C113" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="D113" s="6">
-        <v>0.595238095238095</v>
-      </c>
-      <c r="E113" s="6"/>
-      <c r="F113" s="6"/>
-      <c r="G113" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="D113" s="14">
+        <v>0.452380952380952</v>
+      </c>
+      <c r="E113" s="12"/>
+      <c r="F113" s="12"/>
+      <c r="G113" s="12"/>
       <c r="H113" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="I113" s="6"/>
-      <c r="J113" s="7"/>
+        <v>0.888888888888889</v>
+      </c>
+      <c r="I113" s="12"/>
+      <c r="J113" s="13"/>
     </row>
     <row r="114" ht="21" customHeight="1">
       <c r="A114" t="s" s="5">
@@ -5359,17 +5407,19 @@
         <v>241</v>
       </c>
       <c r="C114" t="s" s="5">
-        <v>15</v>
-      </c>
-      <c r="D114" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="D114" s="6">
+        <v>0.5</v>
+      </c>
       <c r="E114" s="6"/>
       <c r="F114" s="6"/>
       <c r="G114" s="6"/>
       <c r="H114" s="6">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="I114" s="6"/>
-      <c r="J114" s="7"/>
+      <c r="J114" s="11"/>
     </row>
     <row r="115" ht="21" customHeight="1">
       <c r="A115" t="s" s="5">
@@ -5379,14 +5429,16 @@
         <v>243</v>
       </c>
       <c r="C115" t="s" s="5">
-        <v>36</v>
-      </c>
-      <c r="D115" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="D115" s="6">
+        <v>0.595238095238095</v>
+      </c>
       <c r="E115" s="6"/>
       <c r="F115" s="6"/>
       <c r="G115" s="6"/>
       <c r="H115" s="6">
-        <v>0.777777777777778</v>
+        <v>0.75</v>
       </c>
       <c r="I115" s="6"/>
       <c r="J115" s="7"/>
@@ -5398,13 +5450,17 @@
       <c r="B116" t="s" s="5">
         <v>245</v>
       </c>
-      <c r="C116" s="12"/>
-      <c r="D116" s="6"/>
+      <c r="C116" t="s" s="5">
+        <v>15</v>
+      </c>
+      <c r="D116" s="6">
+        <v>0.80952380952381</v>
+      </c>
       <c r="E116" s="6"/>
       <c r="F116" s="6"/>
       <c r="G116" s="6"/>
       <c r="H116" s="6">
-        <v>0.388888888888889</v>
+        <v>0</v>
       </c>
       <c r="I116" s="6"/>
       <c r="J116" s="7"/>
@@ -5417,73 +5473,75 @@
         <v>247</v>
       </c>
       <c r="C117" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="D117" s="6">
-        <v>0.69047619047619</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="D117" s="6"/>
       <c r="E117" s="6"/>
       <c r="F117" s="6"/>
       <c r="G117" s="6"/>
       <c r="H117" s="6">
-        <v>0</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I117" s="6"/>
-      <c r="J117" s="9"/>
+      <c r="J117" s="7"/>
     </row>
     <row r="118" ht="21" customHeight="1">
-      <c r="A118" t="s" s="4">
+      <c r="A118" t="s" s="5">
         <v>248</v>
       </c>
-      <c r="B118" t="s" s="4">
+      <c r="B118" t="s" s="5">
         <v>249</v>
       </c>
       <c r="C118" t="s" s="5">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D118" s="6">
-        <v>0.642857142857143</v>
+        <v>0.214285714285714</v>
       </c>
       <c r="E118" s="6"/>
       <c r="F118" s="6"/>
       <c r="G118" s="6"/>
       <c r="H118" s="6">
-        <v>0.75</v>
+        <v>0.388888888888889</v>
       </c>
       <c r="I118" s="6"/>
-      <c r="J118" s="10"/>
+      <c r="J118" s="7"/>
     </row>
     <row r="119" ht="21" customHeight="1">
-      <c r="A119" t="s" s="8">
+      <c r="A119" t="s" s="5">
         <v>250</v>
       </c>
-      <c r="B119" t="s" s="8">
+      <c r="B119" t="s" s="5">
         <v>251</v>
       </c>
       <c r="C119" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="D119" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="D119" s="6">
+        <v>0.69047619047619</v>
+      </c>
       <c r="E119" s="6"/>
       <c r="F119" s="6"/>
       <c r="G119" s="6"/>
       <c r="H119" s="6">
-        <v>0.777777777777778</v>
+        <v>0</v>
       </c>
       <c r="I119" s="6"/>
-      <c r="J119" s="11"/>
+      <c r="J119" s="9"/>
     </row>
     <row r="120" ht="21" customHeight="1">
-      <c r="A120" t="s" s="5">
+      <c r="A120" t="s" s="4">
         <v>252</v>
       </c>
-      <c r="B120" t="s" s="5">
+      <c r="B120" t="s" s="4">
         <v>253</v>
       </c>
       <c r="C120" t="s" s="5">
-        <v>36</v>
-      </c>
-      <c r="D120" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="D120" s="6">
+        <v>0.642857142857143</v>
+      </c>
       <c r="E120" s="6"/>
       <c r="F120" s="6"/>
       <c r="G120" s="6"/>
@@ -5491,317 +5549,321 @@
         <v>0.75</v>
       </c>
       <c r="I120" s="6"/>
-      <c r="J120" s="7"/>
+      <c r="J120" s="10"/>
     </row>
     <row r="121" ht="21" customHeight="1">
-      <c r="A121" t="s" s="4">
+      <c r="A121" t="s" s="8">
         <v>254</v>
       </c>
-      <c r="B121" t="s" s="4">
+      <c r="B121" t="s" s="8">
         <v>255</v>
       </c>
-      <c r="C121" s="12"/>
+      <c r="C121" t="s" s="5">
+        <v>12</v>
+      </c>
       <c r="D121" s="6"/>
       <c r="E121" s="6"/>
       <c r="F121" s="6"/>
       <c r="G121" s="6"/>
       <c r="H121" s="6">
-        <v>0.75</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I121" s="6"/>
-      <c r="J121" s="9"/>
+      <c r="J121" s="11"/>
     </row>
     <row r="122" ht="21" customHeight="1">
-      <c r="A122" t="s" s="23">
+      <c r="A122" t="s" s="5">
         <v>256</v>
       </c>
-      <c r="B122" t="s" s="23">
+      <c r="B122" t="s" s="5">
         <v>257</v>
       </c>
       <c r="C122" t="s" s="5">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D122" s="6">
-        <v>0.619047619047619</v>
+        <v>0.904761904761905</v>
       </c>
       <c r="E122" s="6"/>
       <c r="F122" s="6"/>
       <c r="G122" s="6"/>
       <c r="H122" s="6">
-        <v>0.777777777777778</v>
+        <v>0.75</v>
       </c>
       <c r="I122" s="6"/>
-      <c r="J122" s="10"/>
+      <c r="J122" s="7"/>
     </row>
     <row r="123" ht="21" customHeight="1">
-      <c r="A123" t="s" s="8">
+      <c r="A123" t="s" s="4">
         <v>258</v>
       </c>
-      <c r="B123" t="s" s="8">
+      <c r="B123" t="s" s="4">
         <v>259</v>
       </c>
-      <c r="C123" t="s" s="5">
-        <v>67</v>
-      </c>
+      <c r="C123" s="12"/>
       <c r="D123" s="6"/>
       <c r="E123" s="6"/>
       <c r="F123" s="6"/>
       <c r="G123" s="6"/>
       <c r="H123" s="6">
-        <v>0.722222222222222</v>
+        <v>0.75</v>
       </c>
       <c r="I123" s="6"/>
-      <c r="J123" s="10"/>
-    </row>
-    <row r="124" ht="20.7" customHeight="1">
-      <c r="A124" t="s" s="5">
+      <c r="J123" s="9"/>
+    </row>
+    <row r="124" ht="21" customHeight="1">
+      <c r="A124" t="s" s="23">
         <v>260</v>
       </c>
-      <c r="B124" t="s" s="5">
+      <c r="B124" t="s" s="23">
         <v>261</v>
       </c>
       <c r="C124" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="D124" s="25">
-        <v>0.595238095238095</v>
-      </c>
-      <c r="E124" s="12"/>
-      <c r="F124" s="12"/>
-      <c r="G124" s="12"/>
+        <v>15</v>
+      </c>
+      <c r="D124" s="6">
+        <v>0.619047619047619</v>
+      </c>
+      <c r="E124" s="6"/>
+      <c r="F124" s="6"/>
+      <c r="G124" s="6"/>
       <c r="H124" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="I124" s="12"/>
-      <c r="J124" s="13"/>
+        <v>0.777777777777778</v>
+      </c>
+      <c r="I124" s="6"/>
+      <c r="J124" s="10"/>
     </row>
     <row r="125" ht="21" customHeight="1">
-      <c r="A125" t="s" s="4">
+      <c r="A125" t="s" s="8">
         <v>262</v>
       </c>
-      <c r="B125" t="s" s="4">
+      <c r="B125" t="s" s="8">
         <v>263</v>
       </c>
       <c r="C125" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="D125" s="6">
-        <v>0.69047619047619</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="D125" s="6"/>
       <c r="E125" s="6"/>
       <c r="F125" s="6"/>
       <c r="G125" s="6"/>
       <c r="H125" s="6">
-        <v>0.805555555555556</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="I125" s="6"/>
-      <c r="J125" s="11"/>
-    </row>
-    <row r="126" ht="21" customHeight="1">
-      <c r="A126" t="s" s="18">
+      <c r="J125" s="10"/>
+    </row>
+    <row r="126" ht="20.7" customHeight="1">
+      <c r="A126" t="s" s="5">
         <v>264</v>
       </c>
-      <c r="B126" t="s" s="18">
+      <c r="B126" t="s" s="5">
         <v>265</v>
       </c>
-      <c r="C126" t="s" s="17">
+      <c r="C126" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="D126" s="6">
-        <v>0.80952380952381</v>
-      </c>
-      <c r="E126" s="6"/>
-      <c r="F126" s="6"/>
-      <c r="G126" s="6"/>
+      <c r="D126" s="25">
+        <v>0.595238095238095</v>
+      </c>
+      <c r="E126" s="12"/>
+      <c r="F126" s="12"/>
+      <c r="G126" s="12"/>
       <c r="H126" s="6">
         <v>0.75</v>
       </c>
-      <c r="I126" s="6"/>
-      <c r="J126" s="9"/>
+      <c r="I126" s="12"/>
+      <c r="J126" s="13"/>
     </row>
     <row r="127" ht="21" customHeight="1">
-      <c r="A127" t="s" s="5">
+      <c r="A127" t="s" s="4">
         <v>266</v>
       </c>
-      <c r="B127" t="s" s="5">
+      <c r="B127" t="s" s="4">
         <v>267</v>
       </c>
       <c r="C127" t="s" s="5">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D127" s="6">
-        <v>0.738095238095238</v>
+        <v>0.69047619047619</v>
       </c>
       <c r="E127" s="6"/>
       <c r="F127" s="6"/>
       <c r="G127" s="6"/>
       <c r="H127" s="6">
-        <v>0.861111111111111</v>
+        <v>0.805555555555556</v>
       </c>
       <c r="I127" s="6"/>
       <c r="J127" s="11"/>
     </row>
     <row r="128" ht="21" customHeight="1">
-      <c r="A128" t="s" s="4">
+      <c r="A128" t="s" s="18">
         <v>268</v>
       </c>
-      <c r="B128" t="s" s="4">
+      <c r="B128" t="s" s="18">
         <v>269</v>
       </c>
-      <c r="C128" t="s" s="5">
-        <v>36</v>
+      <c r="C128" t="s" s="17">
+        <v>21</v>
       </c>
       <c r="D128" s="6">
-        <v>0.738095238095238</v>
+        <v>0.80952380952381</v>
       </c>
       <c r="E128" s="6"/>
       <c r="F128" s="6"/>
       <c r="G128" s="6"/>
       <c r="H128" s="6">
-        <v>0.805555555555556</v>
+        <v>0.75</v>
       </c>
       <c r="I128" s="6"/>
       <c r="J128" s="9"/>
     </row>
     <row r="129" ht="21" customHeight="1">
-      <c r="A129" t="s" s="8">
+      <c r="A129" t="s" s="5">
         <v>270</v>
       </c>
-      <c r="B129" t="s" s="8">
+      <c r="B129" t="s" s="5">
         <v>271</v>
       </c>
       <c r="C129" t="s" s="5">
         <v>18</v>
       </c>
       <c r="D129" s="6">
-        <v>0.452380952380952</v>
+        <v>0.738095238095238</v>
       </c>
       <c r="E129" s="6"/>
       <c r="F129" s="6"/>
       <c r="G129" s="6"/>
       <c r="H129" s="6">
-        <v>0.361111111111111</v>
+        <v>0.861111111111111</v>
       </c>
       <c r="I129" s="6"/>
       <c r="J129" s="11"/>
     </row>
     <row r="130" ht="21" customHeight="1">
-      <c r="A130" t="s" s="5">
+      <c r="A130" t="s" s="4">
         <v>272</v>
       </c>
-      <c r="B130" t="s" s="5">
+      <c r="B130" t="s" s="4">
         <v>273</v>
       </c>
       <c r="C130" t="s" s="5">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D130" s="6">
-        <v>0.857142857142857</v>
+        <v>0.738095238095238</v>
       </c>
       <c r="E130" s="6"/>
       <c r="F130" s="6"/>
       <c r="G130" s="6"/>
       <c r="H130" s="6">
-        <v>0.861111111111111</v>
+        <v>0.805555555555556</v>
       </c>
       <c r="I130" s="6"/>
-      <c r="J130" s="7"/>
+      <c r="J130" s="9"/>
     </row>
     <row r="131" ht="21" customHeight="1">
-      <c r="A131" t="s" s="5">
+      <c r="A131" t="s" s="8">
         <v>274</v>
       </c>
-      <c r="B131" t="s" s="5">
+      <c r="B131" t="s" s="8">
         <v>275</v>
       </c>
       <c r="C131" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D131" s="6"/>
+      <c r="D131" s="6">
+        <v>0.452380952380952</v>
+      </c>
       <c r="E131" s="6"/>
       <c r="F131" s="6"/>
       <c r="G131" s="6"/>
       <c r="H131" s="6">
-        <v>0.777777777777778</v>
+        <v>0.361111111111111</v>
       </c>
       <c r="I131" s="6"/>
-      <c r="J131" s="7"/>
+      <c r="J131" s="11"/>
     </row>
     <row r="132" ht="21" customHeight="1">
-      <c r="A132" t="s" s="4">
+      <c r="A132" t="s" s="5">
         <v>276</v>
       </c>
-      <c r="B132" t="s" s="4">
+      <c r="B132" t="s" s="5">
         <v>277</v>
       </c>
       <c r="C132" t="s" s="5">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D132" s="6">
-        <v>0.428571428571429</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="E132" s="6"/>
       <c r="F132" s="6"/>
       <c r="G132" s="6"/>
       <c r="H132" s="6">
-        <v>0.722222222222222</v>
+        <v>0.861111111111111</v>
       </c>
       <c r="I132" s="6"/>
       <c r="J132" s="7"/>
     </row>
     <row r="133" ht="21" customHeight="1">
-      <c r="A133" t="s" s="18">
+      <c r="A133" t="s" s="5">
         <v>278</v>
       </c>
-      <c r="B133" t="s" s="18">
+      <c r="B133" t="s" s="5">
         <v>279</v>
       </c>
-      <c r="C133" t="s" s="17">
+      <c r="C133" t="s" s="5">
         <v>18</v>
       </c>
       <c r="D133" s="6">
-        <v>0.476190476190476</v>
+        <v>0.80952380952381</v>
       </c>
       <c r="E133" s="6"/>
       <c r="F133" s="6"/>
       <c r="G133" s="6"/>
       <c r="H133" s="6">
-        <v>0.75</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I133" s="6"/>
       <c r="J133" s="7"/>
     </row>
     <row r="134" ht="21" customHeight="1">
-      <c r="A134" t="s" s="5">
+      <c r="A134" t="s" s="4">
         <v>280</v>
       </c>
-      <c r="B134" t="s" s="5">
+      <c r="B134" t="s" s="4">
         <v>281</v>
       </c>
       <c r="C134" t="s" s="5">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D134" s="6">
-        <v>0.738095238095238</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="E134" s="6"/>
       <c r="F134" s="6"/>
       <c r="G134" s="6"/>
       <c r="H134" s="6">
-        <v>0.416666666666667</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="I134" s="6"/>
       <c r="J134" s="7"/>
     </row>
     <row r="135" ht="21" customHeight="1">
-      <c r="A135" t="s" s="4">
+      <c r="A135" t="s" s="18">
         <v>282</v>
       </c>
-      <c r="B135" t="s" s="4">
+      <c r="B135" t="s" s="18">
         <v>283</v>
       </c>
-      <c r="C135" s="12"/>
-      <c r="D135" s="6"/>
+      <c r="C135" t="s" s="17">
+        <v>18</v>
+      </c>
+      <c r="D135" s="6">
+        <v>0.476190476190476</v>
+      </c>
       <c r="E135" s="6"/>
       <c r="F135" s="6"/>
       <c r="G135" s="6"/>
@@ -5812,13 +5874,13 @@
       <c r="J135" s="7"/>
     </row>
     <row r="136" ht="21" customHeight="1">
-      <c r="A136" t="s" s="18">
+      <c r="A136" t="s" s="5">
         <v>284</v>
       </c>
-      <c r="B136" t="s" s="18">
+      <c r="B136" t="s" s="5">
         <v>285</v>
       </c>
-      <c r="C136" t="s" s="17">
+      <c r="C136" t="s" s="5">
         <v>18</v>
       </c>
       <c r="D136" s="6">
@@ -5828,98 +5890,94 @@
       <c r="F136" s="6"/>
       <c r="G136" s="6"/>
       <c r="H136" s="6">
-        <v>0.805555555555556</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="I136" s="6"/>
       <c r="J136" s="7"/>
     </row>
     <row r="137" ht="21" customHeight="1">
-      <c r="A137" t="s" s="5">
+      <c r="A137" t="s" s="4">
         <v>286</v>
       </c>
-      <c r="B137" t="s" s="5">
+      <c r="B137" t="s" s="4">
         <v>287</v>
       </c>
-      <c r="C137" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D137" s="6">
-        <v>0.738095238095238</v>
-      </c>
+      <c r="C137" s="12"/>
+      <c r="D137" s="6"/>
       <c r="E137" s="6"/>
       <c r="F137" s="6"/>
       <c r="G137" s="6"/>
       <c r="H137" s="6">
-        <v>0.777777777777778</v>
+        <v>0.75</v>
       </c>
       <c r="I137" s="6"/>
       <c r="J137" s="7"/>
     </row>
     <row r="138" ht="21" customHeight="1">
-      <c r="A138" t="s" s="5">
-        <v>286</v>
-      </c>
-      <c r="B138" t="s" s="5">
+      <c r="A138" t="s" s="18">
         <v>288</v>
       </c>
-      <c r="C138" t="s" s="5">
+      <c r="B138" t="s" s="18">
+        <v>289</v>
+      </c>
+      <c r="C138" t="s" s="17">
         <v>18</v>
       </c>
-      <c r="D138" s="6"/>
+      <c r="D138" s="6">
+        <v>0.738095238095238</v>
+      </c>
       <c r="E138" s="6"/>
       <c r="F138" s="6"/>
       <c r="G138" s="6"/>
       <c r="H138" s="6">
-        <v>0.416666666666667</v>
+        <v>0.805555555555556</v>
       </c>
       <c r="I138" s="6"/>
-      <c r="J138" s="9"/>
-    </row>
-    <row r="139" ht="20.7" customHeight="1">
+      <c r="J138" s="7"/>
+    </row>
+    <row r="139" ht="21" customHeight="1">
       <c r="A139" t="s" s="5">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B139" t="s" s="5">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C139" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D139" s="25">
-        <v>0.476190476190476</v>
-      </c>
-      <c r="E139" s="12"/>
-      <c r="F139" s="12"/>
-      <c r="G139" s="12"/>
+      <c r="D139" s="6">
+        <v>0.738095238095238</v>
+      </c>
+      <c r="E139" s="6"/>
+      <c r="F139" s="6"/>
+      <c r="G139" s="6"/>
       <c r="H139" s="6">
-        <v>0.555555555555556</v>
-      </c>
-      <c r="I139" s="12"/>
-      <c r="J139" s="13"/>
+        <v>0.777777777777778</v>
+      </c>
+      <c r="I139" s="6"/>
+      <c r="J139" s="7"/>
     </row>
     <row r="140" ht="21" customHeight="1">
       <c r="A140" t="s" s="5">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B140" t="s" s="5">
         <v>292</v>
       </c>
       <c r="C140" t="s" s="5">
-        <v>67</v>
-      </c>
-      <c r="D140" s="6">
-        <v>0.833333333333333</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D140" s="6"/>
       <c r="E140" s="6"/>
       <c r="F140" s="6"/>
       <c r="G140" s="6"/>
       <c r="H140" s="6">
-        <v>0.39</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="I140" s="6"/>
-      <c r="J140" s="11"/>
-    </row>
-    <row r="141" ht="21" customHeight="1">
+      <c r="J140" s="9"/>
+    </row>
+    <row r="141" ht="20.7" customHeight="1">
       <c r="A141" t="s" s="5">
         <v>293</v>
       </c>
@@ -5927,19 +5985,19 @@
         <v>294</v>
       </c>
       <c r="C141" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="D141" s="6">
-        <v>0.785714285714286</v>
-      </c>
-      <c r="E141" s="6"/>
-      <c r="F141" s="6"/>
-      <c r="G141" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="D141" s="25">
+        <v>0.476190476190476</v>
+      </c>
+      <c r="E141" s="12"/>
+      <c r="F141" s="12"/>
+      <c r="G141" s="12"/>
       <c r="H141" s="6">
-        <v>0.722222222222222</v>
-      </c>
-      <c r="I141" s="6"/>
-      <c r="J141" s="7"/>
+        <v>0.555555555555556</v>
+      </c>
+      <c r="I141" s="12"/>
+      <c r="J141" s="13"/>
     </row>
     <row r="142" ht="21" customHeight="1">
       <c r="A142" t="s" s="5">
@@ -5949,19 +6007,19 @@
         <v>296</v>
       </c>
       <c r="C142" t="s" s="5">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="D142" s="6">
-        <v>0.714285714285714</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E142" s="6"/>
       <c r="F142" s="6"/>
       <c r="G142" s="6"/>
       <c r="H142" s="6">
-        <v>0.777777777777778</v>
+        <v>0.39</v>
       </c>
       <c r="I142" s="6"/>
-      <c r="J142" s="7"/>
+      <c r="J142" s="11"/>
     </row>
     <row r="143" ht="21" customHeight="1">
       <c r="A143" t="s" s="5">
@@ -5971,16 +6029,16 @@
         <v>298</v>
       </c>
       <c r="C143" t="s" s="5">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D143" s="6">
-        <v>0.69047619047619</v>
+        <v>0.785714285714286</v>
       </c>
       <c r="E143" s="6"/>
       <c r="F143" s="6"/>
       <c r="G143" s="6"/>
       <c r="H143" s="6">
-        <v>0.777777777777778</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="I143" s="6"/>
       <c r="J143" s="7"/>
@@ -5993,14 +6051,16 @@
         <v>300</v>
       </c>
       <c r="C144" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="D144" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="D144" s="6">
+        <v>0.714285714285714</v>
+      </c>
       <c r="E144" s="6"/>
       <c r="F144" s="6"/>
       <c r="G144" s="6"/>
       <c r="H144" s="6">
-        <v>0.805555555555556</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I144" s="6"/>
       <c r="J144" s="7"/>
@@ -6013,19 +6073,19 @@
         <v>302</v>
       </c>
       <c r="C145" t="s" s="5">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D145" s="6">
-        <v>0.785714285714286</v>
+        <v>0.69047619047619</v>
       </c>
       <c r="E145" s="6"/>
       <c r="F145" s="6"/>
       <c r="G145" s="6"/>
       <c r="H145" s="6">
-        <v>0.75</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I145" s="6"/>
-      <c r="J145" s="9"/>
+      <c r="J145" s="7"/>
     </row>
     <row r="146" ht="21" customHeight="1">
       <c r="A146" t="s" s="5">
@@ -6038,18 +6098,18 @@
         <v>12</v>
       </c>
       <c r="D146" s="6">
-        <v>0.880952380952381</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E146" s="6"/>
       <c r="F146" s="6"/>
       <c r="G146" s="6"/>
       <c r="H146" s="6">
-        <v>0.777777777777778</v>
+        <v>0.805555555555556</v>
       </c>
       <c r="I146" s="6"/>
-      <c r="J146" s="10"/>
-    </row>
-    <row r="147" ht="20.7" customHeight="1">
+      <c r="J146" s="7"/>
+    </row>
+    <row r="147" ht="21" customHeight="1">
       <c r="A147" t="s" s="5">
         <v>305</v>
       </c>
@@ -6057,103 +6117,103 @@
         <v>306</v>
       </c>
       <c r="C147" t="s" s="5">
-        <v>67</v>
-      </c>
-      <c r="D147" s="14">
-        <v>0.619047619047619</v>
-      </c>
-      <c r="E147" s="12"/>
-      <c r="F147" s="12"/>
-      <c r="G147" s="12"/>
+        <v>21</v>
+      </c>
+      <c r="D147" s="6">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="E147" s="6"/>
+      <c r="F147" s="6"/>
+      <c r="G147" s="6"/>
       <c r="H147" s="6">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="I147" s="12"/>
-      <c r="J147" s="15"/>
+        <v>0.75</v>
+      </c>
+      <c r="I147" s="6"/>
+      <c r="J147" s="9"/>
     </row>
     <row r="148" ht="21" customHeight="1">
-      <c r="A148" t="s" s="4">
+      <c r="A148" t="s" s="5">
         <v>307</v>
       </c>
-      <c r="B148" t="s" s="4">
+      <c r="B148" t="s" s="5">
         <v>308</v>
       </c>
       <c r="C148" t="s" s="5">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D148" s="6">
-        <v>0.904761904761905</v>
+        <v>0.880952380952381</v>
       </c>
       <c r="E148" s="6"/>
       <c r="F148" s="6"/>
       <c r="G148" s="6"/>
       <c r="H148" s="6">
-        <v>0.75</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I148" s="6"/>
-      <c r="J148" s="7"/>
-    </row>
-    <row r="149" ht="21" customHeight="1">
-      <c r="A149" t="s" s="8">
+      <c r="J148" s="10"/>
+    </row>
+    <row r="149" ht="20.7" customHeight="1">
+      <c r="A149" t="s" s="5">
         <v>309</v>
       </c>
-      <c r="B149" t="s" s="8">
+      <c r="B149" t="s" s="5">
         <v>310</v>
       </c>
-      <c r="C149" s="12"/>
-      <c r="D149" s="6"/>
-      <c r="E149" s="6"/>
-      <c r="F149" s="6"/>
-      <c r="G149" s="6"/>
+      <c r="C149" t="s" s="5">
+        <v>67</v>
+      </c>
+      <c r="D149" s="14">
+        <v>0.619047619047619</v>
+      </c>
+      <c r="E149" s="12"/>
+      <c r="F149" s="12"/>
+      <c r="G149" s="12"/>
       <c r="H149" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="I149" s="6"/>
-      <c r="J149" s="7"/>
+        <v>0.666666666666667</v>
+      </c>
+      <c r="I149" s="12"/>
+      <c r="J149" s="15"/>
     </row>
     <row r="150" ht="21" customHeight="1">
-      <c r="A150" t="s" s="5">
+      <c r="A150" t="s" s="4">
         <v>311</v>
       </c>
-      <c r="B150" t="s" s="5">
+      <c r="B150" t="s" s="4">
         <v>312</v>
       </c>
       <c r="C150" t="s" s="5">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D150" s="6">
-        <v>0.714285714285714</v>
+        <v>0.904761904761905</v>
       </c>
       <c r="E150" s="6"/>
       <c r="F150" s="6"/>
       <c r="G150" s="6"/>
       <c r="H150" s="6">
-        <v>0.722222222222222</v>
+        <v>0.75</v>
       </c>
       <c r="I150" s="6"/>
-      <c r="J150" s="9"/>
+      <c r="J150" s="7"/>
     </row>
     <row r="151" ht="21" customHeight="1">
-      <c r="A151" t="s" s="5">
+      <c r="A151" t="s" s="8">
         <v>313</v>
       </c>
-      <c r="B151" t="s" s="5">
+      <c r="B151" t="s" s="8">
         <v>314</v>
       </c>
-      <c r="C151" t="s" s="5">
-        <v>15</v>
-      </c>
-      <c r="D151" s="6">
-        <v>0.785714285714286</v>
-      </c>
+      <c r="C151" s="12"/>
+      <c r="D151" s="6"/>
       <c r="E151" s="6"/>
       <c r="F151" s="6"/>
       <c r="G151" s="6"/>
       <c r="H151" s="6">
-        <v>0.777777777777778</v>
+        <v>0.75</v>
       </c>
       <c r="I151" s="6"/>
-      <c r="J151" s="11"/>
+      <c r="J151" s="7"/>
     </row>
     <row r="152" ht="21" customHeight="1">
       <c r="A152" t="s" s="5">
@@ -6163,17 +6223,19 @@
         <v>316</v>
       </c>
       <c r="C152" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="D152" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="D152" s="6">
+        <v>0.714285714285714</v>
+      </c>
       <c r="E152" s="6"/>
       <c r="F152" s="6"/>
       <c r="G152" s="6"/>
       <c r="H152" s="6">
-        <v>0.777777777777778</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="I152" s="6"/>
-      <c r="J152" s="7"/>
+      <c r="J152" s="9"/>
     </row>
     <row r="153" ht="21" customHeight="1">
       <c r="A153" t="s" s="5">
@@ -6185,7 +6247,9 @@
       <c r="C153" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="D153" s="6"/>
+      <c r="D153" s="6">
+        <v>0.785714285714286</v>
+      </c>
       <c r="E153" s="6"/>
       <c r="F153" s="6"/>
       <c r="G153" s="6"/>
@@ -6193,7 +6257,7 @@
         <v>0.777777777777778</v>
       </c>
       <c r="I153" s="6"/>
-      <c r="J153" s="7"/>
+      <c r="J153" s="11"/>
     </row>
     <row r="154" ht="21" customHeight="1">
       <c r="A154" t="s" s="5">
@@ -6202,13 +6266,15 @@
       <c r="B154" t="s" s="5">
         <v>320</v>
       </c>
-      <c r="C154" s="12"/>
+      <c r="C154" t="s" s="5">
+        <v>21</v>
+      </c>
       <c r="D154" s="6"/>
       <c r="E154" s="6"/>
       <c r="F154" s="6"/>
       <c r="G154" s="6"/>
       <c r="H154" s="6">
-        <v>0.388888888888889</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I154" s="6"/>
       <c r="J154" s="7"/>
@@ -6221,21 +6287,21 @@
         <v>322</v>
       </c>
       <c r="C155" t="s" s="5">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="D155" s="6">
-        <v>0.785714285714286</v>
+        <v>0.761904761904762</v>
       </c>
       <c r="E155" s="6"/>
       <c r="F155" s="6"/>
       <c r="G155" s="6"/>
       <c r="H155" s="6">
-        <v>0</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I155" s="6"/>
-      <c r="J155" s="9"/>
-    </row>
-    <row r="156" ht="20.7" customHeight="1">
+      <c r="J155" s="7"/>
+    </row>
+    <row r="156" ht="21" customHeight="1">
       <c r="A156" t="s" s="5">
         <v>323</v>
       </c>
@@ -6243,19 +6309,19 @@
         <v>324</v>
       </c>
       <c r="C156" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D156" s="25">
-        <v>0.642857142857143</v>
-      </c>
-      <c r="E156" s="12"/>
-      <c r="F156" s="12"/>
-      <c r="G156" s="12"/>
+        <v>67</v>
+      </c>
+      <c r="D156" s="6">
+        <v>0.80952380952381</v>
+      </c>
+      <c r="E156" s="6"/>
+      <c r="F156" s="6"/>
+      <c r="G156" s="6"/>
       <c r="H156" s="6">
-        <v>0.861111111111111</v>
-      </c>
-      <c r="I156" s="12"/>
-      <c r="J156" s="15"/>
+        <v>0.388888888888889</v>
+      </c>
+      <c r="I156" s="6"/>
+      <c r="J156" s="7"/>
     </row>
     <row r="157" ht="21" customHeight="1">
       <c r="A157" t="s" s="5">
@@ -6265,21 +6331,21 @@
         <v>326</v>
       </c>
       <c r="C157" t="s" s="5">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="D157" s="6">
-        <v>0.619047619047619</v>
+        <v>0.785714285714286</v>
       </c>
       <c r="E157" s="6"/>
       <c r="F157" s="6"/>
       <c r="G157" s="6"/>
       <c r="H157" s="6">
-        <v>0.805555555555556</v>
+        <v>0</v>
       </c>
       <c r="I157" s="6"/>
       <c r="J157" s="9"/>
     </row>
-    <row r="158" ht="21" customHeight="1">
+    <row r="158" ht="20.7" customHeight="1">
       <c r="A158" t="s" s="5">
         <v>327</v>
       </c>
@@ -6287,19 +6353,19 @@
         <v>328</v>
       </c>
       <c r="C158" t="s" s="5">
-        <v>36</v>
-      </c>
-      <c r="D158" s="6">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="E158" s="6"/>
-      <c r="F158" s="6"/>
-      <c r="G158" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="D158" s="25">
+        <v>0.642857142857143</v>
+      </c>
+      <c r="E158" s="12"/>
+      <c r="F158" s="12"/>
+      <c r="G158" s="12"/>
       <c r="H158" s="6">
-        <v>0.888888888888889</v>
-      </c>
-      <c r="I158" s="6"/>
-      <c r="J158" s="11"/>
+        <v>0.861111111111111</v>
+      </c>
+      <c r="I158" s="12"/>
+      <c r="J158" s="15"/>
     </row>
     <row r="159" ht="21" customHeight="1">
       <c r="A159" t="s" s="5">
@@ -6312,44 +6378,48 @@
         <v>18</v>
       </c>
       <c r="D159" s="6">
-        <v>0.714285714285714</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="E159" s="6"/>
       <c r="F159" s="6"/>
       <c r="G159" s="6"/>
       <c r="H159" s="6">
-        <v>0.777777777777778</v>
+        <v>0.805555555555556</v>
       </c>
       <c r="I159" s="6"/>
-      <c r="J159" s="7"/>
+      <c r="J159" s="9"/>
     </row>
     <row r="160" ht="21" customHeight="1">
-      <c r="A160" t="s" s="4">
+      <c r="A160" t="s" s="5">
         <v>331</v>
       </c>
-      <c r="B160" t="s" s="4">
+      <c r="B160" t="s" s="5">
         <v>332</v>
       </c>
-      <c r="C160" s="12"/>
-      <c r="D160" s="6"/>
+      <c r="C160" t="s" s="5">
+        <v>36</v>
+      </c>
+      <c r="D160" s="6">
+        <v>0.666666666666667</v>
+      </c>
       <c r="E160" s="6"/>
       <c r="F160" s="6"/>
       <c r="G160" s="6"/>
       <c r="H160" s="6">
-        <v>0.75</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="I160" s="6"/>
-      <c r="J160" s="9"/>
+      <c r="J160" s="11"/>
     </row>
     <row r="161" ht="21" customHeight="1">
-      <c r="A161" t="s" s="23">
+      <c r="A161" t="s" s="5">
         <v>333</v>
       </c>
-      <c r="B161" t="s" s="23">
+      <c r="B161" t="s" s="5">
         <v>334</v>
       </c>
       <c r="C161" t="s" s="5">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D161" s="6">
         <v>0.714285714285714</v>
@@ -6358,84 +6428,86 @@
       <c r="F161" s="6"/>
       <c r="G161" s="6"/>
       <c r="H161" s="6">
-        <v>0.861111111111111</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I161" s="6"/>
-      <c r="J161" s="10"/>
+      <c r="J161" s="7"/>
     </row>
     <row r="162" ht="21" customHeight="1">
-      <c r="A162" t="s" s="8">
+      <c r="A162" t="s" s="4">
         <v>335</v>
       </c>
-      <c r="B162" t="s" s="8">
+      <c r="B162" t="s" s="4">
         <v>336</v>
       </c>
       <c r="C162" t="s" s="5">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D162" s="6">
-        <v>0.80952380952381</v>
+        <v>0.738095238095238</v>
       </c>
       <c r="E162" s="6"/>
       <c r="F162" s="6"/>
       <c r="G162" s="6"/>
       <c r="H162" s="6">
-        <v>0.777777777777778</v>
+        <v>0.75</v>
       </c>
       <c r="I162" s="6"/>
-      <c r="J162" s="11"/>
+      <c r="J162" s="9"/>
     </row>
     <row r="163" ht="21" customHeight="1">
-      <c r="A163" t="s" s="5">
+      <c r="A163" t="s" s="23">
         <v>337</v>
       </c>
-      <c r="B163" t="s" s="5">
+      <c r="B163" t="s" s="23">
         <v>338</v>
       </c>
       <c r="C163" t="s" s="5">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D163" s="6">
-        <v>0.69047619047619</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="E163" s="6"/>
       <c r="F163" s="6"/>
       <c r="G163" s="6"/>
       <c r="H163" s="6">
-        <v>0.722222222222222</v>
+        <v>0.861111111111111</v>
       </c>
       <c r="I163" s="6"/>
-      <c r="J163" s="9"/>
-    </row>
-    <row r="164" ht="20.35" customHeight="1">
-      <c r="A164" t="s" s="5">
+      <c r="J163" s="10"/>
+    </row>
+    <row r="164" ht="21" customHeight="1">
+      <c r="A164" t="s" s="8">
         <v>339</v>
       </c>
-      <c r="B164" t="s" s="5">
+      <c r="B164" t="s" s="8">
         <v>340</v>
       </c>
       <c r="C164" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D164" s="12"/>
-      <c r="E164" s="12"/>
-      <c r="F164" s="12"/>
-      <c r="G164" s="12"/>
+        <v>21</v>
+      </c>
+      <c r="D164" s="6">
+        <v>0.80952380952381</v>
+      </c>
+      <c r="E164" s="6"/>
+      <c r="F164" s="6"/>
+      <c r="G164" s="6"/>
       <c r="H164" s="6">
         <v>0.777777777777778</v>
       </c>
-      <c r="I164" s="12"/>
-      <c r="J164" s="15"/>
+      <c r="I164" s="6"/>
+      <c r="J164" s="11"/>
     </row>
     <row r="165" ht="21" customHeight="1">
-      <c r="A165" t="s" s="4">
+      <c r="A165" t="s" s="5">
         <v>341</v>
       </c>
-      <c r="B165" t="s" s="4">
+      <c r="B165" t="s" s="5">
         <v>342</v>
       </c>
       <c r="C165" t="s" s="5">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D165" s="6">
         <v>0.69047619047619</v>
@@ -6444,32 +6516,32 @@
       <c r="F165" s="6"/>
       <c r="G165" s="6"/>
       <c r="H165" s="6">
-        <v>0.777777777777778</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="I165" s="6"/>
       <c r="J165" s="9"/>
     </row>
-    <row r="166" ht="21" customHeight="1">
-      <c r="A166" t="s" s="23">
+    <row r="166" ht="20.35" customHeight="1">
+      <c r="A166" t="s" s="4">
         <v>343</v>
       </c>
-      <c r="B166" t="s" s="23">
+      <c r="B166" t="s" s="4">
         <v>344</v>
       </c>
       <c r="C166" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D166" s="6">
-        <v>0.857142857142857</v>
-      </c>
-      <c r="E166" s="6"/>
-      <c r="F166" s="6"/>
-      <c r="G166" s="6"/>
+      <c r="D166" s="14">
+        <v>0.80952380952381</v>
+      </c>
+      <c r="E166" s="12"/>
+      <c r="F166" s="12"/>
+      <c r="G166" s="12"/>
       <c r="H166" s="6">
-        <v>0.805555555555556</v>
-      </c>
-      <c r="I166" s="6"/>
-      <c r="J166" s="11"/>
+        <v>0.777777777777778</v>
+      </c>
+      <c r="I166" s="12"/>
+      <c r="J166" s="13"/>
     </row>
     <row r="167" ht="21" customHeight="1">
       <c r="A167" t="s" s="8">
@@ -6479,19 +6551,19 @@
         <v>346</v>
       </c>
       <c r="C167" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="D167" s="14">
-        <v>0.619047619047619</v>
-      </c>
-      <c r="E167" s="12"/>
-      <c r="F167" s="12"/>
-      <c r="G167" s="12"/>
+        <v>21</v>
+      </c>
+      <c r="D167" s="6">
+        <v>0.904761904761905</v>
+      </c>
+      <c r="E167" s="6"/>
+      <c r="F167" s="6"/>
+      <c r="G167" s="6"/>
       <c r="H167" s="6">
-        <v>0.638888888888889</v>
-      </c>
-      <c r="I167" s="12"/>
-      <c r="J167" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="I167" s="6"/>
+      <c r="J167" s="11"/>
     </row>
     <row r="168" ht="21" customHeight="1">
       <c r="A168" t="s" s="4">
@@ -6500,91 +6572,99 @@
       <c r="B168" t="s" s="4">
         <v>348</v>
       </c>
-      <c r="C168" s="12"/>
-      <c r="D168" s="6"/>
+      <c r="C168" t="s" s="5">
+        <v>18</v>
+      </c>
+      <c r="D168" s="6">
+        <v>0.69047619047619</v>
+      </c>
       <c r="E168" s="6"/>
       <c r="F168" s="6"/>
       <c r="G168" s="6"/>
       <c r="H168" s="6">
-        <v>0.75</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I168" s="6"/>
-      <c r="J168" s="7"/>
+      <c r="J168" s="9"/>
     </row>
     <row r="169" ht="21" customHeight="1">
-      <c r="A169" t="s" s="18">
+      <c r="A169" t="s" s="23">
         <v>349</v>
       </c>
-      <c r="B169" t="s" s="18">
+      <c r="B169" t="s" s="23">
         <v>350</v>
       </c>
-      <c r="C169" t="s" s="17">
-        <v>21</v>
+      <c r="C169" t="s" s="5">
+        <v>18</v>
       </c>
       <c r="D169" s="6">
-        <v>0.714285714285714</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="E169" s="6"/>
       <c r="F169" s="6"/>
       <c r="G169" s="6"/>
       <c r="H169" s="6">
-        <v>0</v>
+        <v>0.805555555555556</v>
       </c>
       <c r="I169" s="6"/>
-      <c r="J169" s="7"/>
+      <c r="J169" s="11"/>
     </row>
     <row r="170" ht="21" customHeight="1">
-      <c r="A170" t="s" s="4">
+      <c r="A170" t="s" s="8">
         <v>351</v>
       </c>
-      <c r="B170" t="s" s="4">
+      <c r="B170" t="s" s="8">
         <v>352</v>
       </c>
       <c r="C170" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="D170" s="6"/>
-      <c r="E170" s="6"/>
-      <c r="F170" s="6"/>
-      <c r="G170" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="D170" s="14">
+        <v>0.619047619047619</v>
+      </c>
+      <c r="E170" s="12"/>
+      <c r="F170" s="12"/>
+      <c r="G170" s="12"/>
       <c r="H170" s="6">
-        <v>0.305555555555556</v>
-      </c>
-      <c r="I170" s="6"/>
-      <c r="J170" s="9"/>
+        <v>0.638888888888889</v>
+      </c>
+      <c r="I170" s="12"/>
+      <c r="J170" s="7"/>
     </row>
     <row r="171" ht="21" customHeight="1">
-      <c r="A171" t="s" s="16">
+      <c r="A171" t="s" s="4">
         <v>353</v>
       </c>
-      <c r="B171" t="s" s="16">
+      <c r="B171" t="s" s="4">
         <v>354</v>
       </c>
-      <c r="C171" t="s" s="17">
-        <v>36</v>
-      </c>
-      <c r="D171" s="6"/>
+      <c r="C171" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D171" s="6">
+        <v>0.5238095238095239</v>
+      </c>
       <c r="E171" s="6"/>
       <c r="F171" s="6"/>
       <c r="G171" s="6"/>
       <c r="H171" s="6">
-        <v>0.805555555555556</v>
+        <v>0.75</v>
       </c>
       <c r="I171" s="6"/>
-      <c r="J171" s="10"/>
+      <c r="J171" s="7"/>
     </row>
     <row r="172" ht="21" customHeight="1">
-      <c r="A172" t="s" s="8">
+      <c r="A172" t="s" s="18">
         <v>355</v>
       </c>
-      <c r="B172" t="s" s="8">
+      <c r="B172" t="s" s="18">
         <v>356</v>
       </c>
-      <c r="C172" t="s" s="5">
-        <v>67</v>
+      <c r="C172" t="s" s="17">
+        <v>21</v>
       </c>
       <c r="D172" s="6">
-        <v>0.694444444444444</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="E172" s="6"/>
       <c r="F172" s="6"/>
@@ -6593,73 +6673,71 @@
         <v>0</v>
       </c>
       <c r="I172" s="6"/>
-      <c r="J172" s="11"/>
+      <c r="J172" s="7"/>
     </row>
     <row r="173" ht="21" customHeight="1">
-      <c r="A173" t="s" s="5">
+      <c r="A173" t="s" s="4">
         <v>357</v>
       </c>
-      <c r="B173" t="s" s="5">
+      <c r="B173" t="s" s="4">
         <v>358</v>
       </c>
       <c r="C173" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="D173" s="6">
-        <v>0.714285714285714</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D173" s="6"/>
       <c r="E173" s="6"/>
       <c r="F173" s="6"/>
       <c r="G173" s="6"/>
       <c r="H173" s="6">
-        <v>0.777777777777778</v>
+        <v>0.305555555555556</v>
       </c>
       <c r="I173" s="6"/>
       <c r="J173" s="9"/>
     </row>
-    <row r="174" ht="20.7" customHeight="1">
-      <c r="A174" t="s" s="4">
+    <row r="174" ht="21" customHeight="1">
+      <c r="A174" t="s" s="16">
         <v>359</v>
       </c>
-      <c r="B174" t="s" s="4">
+      <c r="B174" t="s" s="16">
         <v>360</v>
       </c>
-      <c r="C174" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="D174" s="25">
-        <v>0.738095238095238</v>
-      </c>
-      <c r="E174" s="12"/>
-      <c r="F174" s="12"/>
-      <c r="G174" s="12"/>
+      <c r="C174" t="s" s="17">
+        <v>36</v>
+      </c>
+      <c r="D174" s="6">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="E174" s="6"/>
+      <c r="F174" s="6"/>
+      <c r="G174" s="6"/>
       <c r="H174" s="6">
-        <v>0.777777777777778</v>
-      </c>
-      <c r="I174" s="12"/>
-      <c r="J174" s="15"/>
+        <v>0.805555555555556</v>
+      </c>
+      <c r="I174" s="6"/>
+      <c r="J174" s="10"/>
     </row>
     <row r="175" ht="21" customHeight="1">
-      <c r="A175" t="s" s="18">
+      <c r="A175" t="s" s="8">
         <v>361</v>
       </c>
-      <c r="B175" t="s" s="18">
+      <c r="B175" t="s" s="8">
         <v>362</v>
       </c>
-      <c r="C175" t="s" s="17">
-        <v>18</v>
+      <c r="C175" t="s" s="5">
+        <v>67</v>
       </c>
       <c r="D175" s="6">
-        <v>0.952380952380952</v>
+        <v>0.694444444444444</v>
       </c>
       <c r="E175" s="6"/>
       <c r="F175" s="6"/>
       <c r="G175" s="6"/>
       <c r="H175" s="6">
-        <v>0.777777777777778</v>
+        <v>0</v>
       </c>
       <c r="I175" s="6"/>
-      <c r="J175" s="7"/>
+      <c r="J175" s="11"/>
     </row>
     <row r="176" ht="21" customHeight="1">
       <c r="A176" t="s" s="5">
@@ -6672,228 +6750,234 @@
         <v>12</v>
       </c>
       <c r="D176" s="6">
-        <v>0.571428571428571</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="E176" s="6"/>
       <c r="F176" s="6"/>
       <c r="G176" s="6"/>
       <c r="H176" s="6">
-        <v>0.722222222222222</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I176" s="6"/>
-      <c r="J176" s="7"/>
-    </row>
-    <row r="177" ht="21" customHeight="1">
-      <c r="A177" t="s" s="5">
+      <c r="J176" s="9"/>
+    </row>
+    <row r="177" ht="20.7" customHeight="1">
+      <c r="A177" t="s" s="4">
         <v>365</v>
       </c>
-      <c r="B177" t="s" s="5">
+      <c r="B177" t="s" s="4">
         <v>366</v>
       </c>
       <c r="C177" t="s" s="5">
-        <v>15</v>
-      </c>
-      <c r="D177" s="6">
-        <v>0.357142857142857</v>
-      </c>
-      <c r="E177" s="6"/>
-      <c r="F177" s="6"/>
-      <c r="G177" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="D177" s="25">
+        <v>0.738095238095238</v>
+      </c>
+      <c r="E177" s="12"/>
+      <c r="F177" s="12"/>
+      <c r="G177" s="12"/>
       <c r="H177" s="6">
-        <v>0</v>
-      </c>
-      <c r="I177" s="6"/>
-      <c r="J177" s="7"/>
+        <v>0.777777777777778</v>
+      </c>
+      <c r="I177" s="12"/>
+      <c r="J177" s="15"/>
     </row>
     <row r="178" ht="21" customHeight="1">
-      <c r="A178" t="s" s="4">
-        <v>365</v>
-      </c>
-      <c r="B178" t="s" s="4">
+      <c r="A178" t="s" s="18">
         <v>367</v>
       </c>
-      <c r="C178" s="12"/>
-      <c r="D178" s="6"/>
+      <c r="B178" t="s" s="18">
+        <v>368</v>
+      </c>
+      <c r="C178" t="s" s="17">
+        <v>18</v>
+      </c>
+      <c r="D178" s="6">
+        <v>0.952380952380952</v>
+      </c>
       <c r="E178" s="6"/>
       <c r="F178" s="6"/>
       <c r="G178" s="6"/>
       <c r="H178" s="6">
-        <v>0.638888888888889</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I178" s="6"/>
-      <c r="J178" s="9"/>
+      <c r="J178" s="7"/>
     </row>
     <row r="179" ht="21" customHeight="1">
-      <c r="A179" t="s" s="23">
-        <v>368</v>
-      </c>
-      <c r="B179" t="s" s="23">
+      <c r="A179" t="s" s="5">
         <v>369</v>
       </c>
+      <c r="B179" t="s" s="5">
+        <v>370</v>
+      </c>
       <c r="C179" t="s" s="5">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D179" s="6">
-        <v>0.761904761904762</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="E179" s="6"/>
       <c r="F179" s="6"/>
       <c r="G179" s="6"/>
       <c r="H179" s="6">
-        <v>0.888888888888889</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="I179" s="6"/>
-      <c r="J179" s="10"/>
+      <c r="J179" s="7"/>
     </row>
     <row r="180" ht="21" customHeight="1">
-      <c r="A180" t="s" s="8">
-        <v>370</v>
-      </c>
-      <c r="B180" t="s" s="8">
+      <c r="A180" t="s" s="5">
         <v>371</v>
       </c>
+      <c r="B180" t="s" s="5">
+        <v>372</v>
+      </c>
       <c r="C180" t="s" s="5">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D180" s="6">
-        <v>0.619047619047619</v>
+        <v>0.357142857142857</v>
       </c>
       <c r="E180" s="6"/>
       <c r="F180" s="6"/>
       <c r="G180" s="6"/>
       <c r="H180" s="6">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="I180" s="6"/>
-      <c r="J180" s="10"/>
-    </row>
-    <row r="181" ht="20.7" customHeight="1">
-      <c r="A181" t="s" s="5">
-        <v>372</v>
-      </c>
-      <c r="B181" t="s" s="5">
+      <c r="J180" s="7"/>
+    </row>
+    <row r="181" ht="21" customHeight="1">
+      <c r="A181" t="s" s="4">
+        <v>371</v>
+      </c>
+      <c r="B181" t="s" s="4">
         <v>373</v>
       </c>
       <c r="C181" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="D181" s="12"/>
-      <c r="E181" s="12"/>
-      <c r="F181" s="12"/>
-      <c r="G181" s="12"/>
+      <c r="D181" s="6">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="E181" s="6"/>
+      <c r="F181" s="6"/>
+      <c r="G181" s="6"/>
       <c r="H181" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="I181" s="12"/>
-      <c r="J181" s="15"/>
+        <v>0.638888888888889</v>
+      </c>
+      <c r="I181" s="6"/>
+      <c r="J181" s="9"/>
     </row>
     <row r="182" ht="21" customHeight="1">
-      <c r="A182" t="s" s="4">
+      <c r="A182" t="s" s="23">
         <v>374</v>
       </c>
-      <c r="B182" t="s" s="4">
+      <c r="B182" t="s" s="23">
         <v>375</v>
       </c>
       <c r="C182" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="D182" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="D182" s="6">
+        <v>0.761904761904762</v>
+      </c>
       <c r="E182" s="6"/>
       <c r="F182" s="6"/>
       <c r="G182" s="6"/>
       <c r="H182" s="6">
-        <v>0.861111111111111</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="I182" s="6"/>
-      <c r="J182" s="7"/>
+      <c r="J182" s="10"/>
     </row>
     <row r="183" ht="21" customHeight="1">
-      <c r="A183" t="s" s="18">
+      <c r="A183" t="s" s="8">
         <v>376</v>
       </c>
-      <c r="B183" t="s" s="18">
+      <c r="B183" t="s" s="8">
         <v>377</v>
       </c>
-      <c r="C183" t="s" s="17">
-        <v>18</v>
+      <c r="C183" t="s" s="5">
+        <v>21</v>
       </c>
       <c r="D183" s="6">
-        <v>0.666666666666667</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="E183" s="6"/>
       <c r="F183" s="6"/>
       <c r="G183" s="6"/>
       <c r="H183" s="6">
-        <v>0.805555555555556</v>
+        <v>0.75</v>
       </c>
       <c r="I183" s="6"/>
-      <c r="J183" s="7"/>
-    </row>
-    <row r="184" ht="21" customHeight="1">
-      <c r="A184" t="s" s="4">
+      <c r="J183" s="10"/>
+    </row>
+    <row r="184" ht="20.7" customHeight="1">
+      <c r="A184" t="s" s="5">
         <v>378</v>
       </c>
-      <c r="B184" t="s" s="4">
+      <c r="B184" t="s" s="5">
         <v>379</v>
       </c>
       <c r="C184" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="D184" s="6">
-        <v>0.904761904761905</v>
-      </c>
-      <c r="E184" s="6"/>
-      <c r="F184" s="6"/>
-      <c r="G184" s="6"/>
+      <c r="D184" s="12"/>
+      <c r="E184" s="12"/>
+      <c r="F184" s="12"/>
+      <c r="G184" s="12"/>
       <c r="H184" s="6">
         <v>0.75</v>
       </c>
-      <c r="I184" s="6"/>
-      <c r="J184" s="7"/>
+      <c r="I184" s="12"/>
+      <c r="J184" s="15"/>
     </row>
     <row r="185" ht="21" customHeight="1">
-      <c r="A185" t="s" s="18">
+      <c r="A185" t="s" s="4">
         <v>380</v>
       </c>
-      <c r="B185" t="s" s="18">
+      <c r="B185" t="s" s="4">
         <v>381</v>
       </c>
-      <c r="C185" t="s" s="17">
-        <v>21</v>
+      <c r="C185" t="s" s="5">
+        <v>12</v>
       </c>
       <c r="D185" s="6">
-        <v>0.861111111111111</v>
+        <v>0.80952380952381</v>
       </c>
       <c r="E185" s="6"/>
       <c r="F185" s="6"/>
       <c r="G185" s="6"/>
       <c r="H185" s="6">
-        <v>0.722222222222222</v>
+        <v>0.861111111111111</v>
       </c>
       <c r="I185" s="6"/>
-      <c r="J185" s="9"/>
-    </row>
-    <row r="186" ht="20.7" customHeight="1">
-      <c r="A186" t="s" s="5">
+      <c r="J185" s="7"/>
+    </row>
+    <row r="186" ht="21" customHeight="1">
+      <c r="A186" t="s" s="18">
         <v>382</v>
       </c>
-      <c r="B186" t="s" s="5">
+      <c r="B186" t="s" s="18">
         <v>383</v>
       </c>
-      <c r="C186" t="s" s="5">
-        <v>67</v>
-      </c>
-      <c r="D186" s="25">
-        <v>0.69047619047619</v>
-      </c>
-      <c r="E186" s="12"/>
-      <c r="F186" s="12"/>
-      <c r="G186" s="12"/>
+      <c r="C186" t="s" s="17">
+        <v>18</v>
+      </c>
+      <c r="D186" s="6">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="E186" s="6"/>
+      <c r="F186" s="6"/>
+      <c r="G186" s="6"/>
       <c r="H186" s="6">
-        <v>0.722222222222222</v>
-      </c>
-      <c r="I186" s="12"/>
-      <c r="J186" s="15"/>
+        <v>0.805555555555556</v>
+      </c>
+      <c r="I186" s="6"/>
+      <c r="J186" s="7"/>
     </row>
     <row r="187" ht="21" customHeight="1">
       <c r="A187" t="s" s="4">
@@ -6903,16 +6987,16 @@
         <v>385</v>
       </c>
       <c r="C187" t="s" s="5">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="D187" s="6">
-        <v>0.619047619047619</v>
+        <v>0.904761904761905</v>
       </c>
       <c r="E187" s="6"/>
       <c r="F187" s="6"/>
       <c r="G187" s="6"/>
       <c r="H187" s="6">
-        <v>0.722222222222222</v>
+        <v>0.75</v>
       </c>
       <c r="I187" s="6"/>
       <c r="J187" s="7"/>
@@ -6925,21 +7009,21 @@
         <v>387</v>
       </c>
       <c r="C188" t="s" s="17">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D188" s="6">
-        <v>0.571428571428571</v>
+        <v>0.861111111111111</v>
       </c>
       <c r="E188" s="6"/>
       <c r="F188" s="6"/>
       <c r="G188" s="6"/>
       <c r="H188" s="6">
-        <v>0.666666666666667</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="I188" s="6"/>
-      <c r="J188" s="7"/>
-    </row>
-    <row r="189" ht="21" customHeight="1">
+      <c r="J188" s="9"/>
+    </row>
+    <row r="189" ht="20.7" customHeight="1">
       <c r="A189" t="s" s="5">
         <v>388</v>
       </c>
@@ -6947,19 +7031,19 @@
         <v>389</v>
       </c>
       <c r="C189" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="D189" s="6">
-        <v>0.571428571428571</v>
-      </c>
-      <c r="E189" s="6"/>
-      <c r="F189" s="6"/>
-      <c r="G189" s="6"/>
+        <v>67</v>
+      </c>
+      <c r="D189" s="25">
+        <v>0.69047619047619</v>
+      </c>
+      <c r="E189" s="12"/>
+      <c r="F189" s="12"/>
+      <c r="G189" s="12"/>
       <c r="H189" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="I189" s="6"/>
-      <c r="J189" s="7"/>
+        <v>0.722222222222222</v>
+      </c>
+      <c r="I189" s="12"/>
+      <c r="J189" s="15"/>
     </row>
     <row r="190" ht="21" customHeight="1">
       <c r="A190" t="s" s="4">
@@ -6969,53 +7053,55 @@
         <v>391</v>
       </c>
       <c r="C190" t="s" s="5">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D190" s="6">
-        <v>0.857142857142857</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="E190" s="6"/>
       <c r="F190" s="6"/>
       <c r="G190" s="6"/>
       <c r="H190" s="6">
-        <v>0.805555555555556</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="I190" s="6"/>
       <c r="J190" s="7"/>
     </row>
     <row r="191" ht="21" customHeight="1">
-      <c r="A191" t="s" s="16">
+      <c r="A191" t="s" s="18">
         <v>392</v>
       </c>
-      <c r="B191" t="s" s="16">
+      <c r="B191" t="s" s="18">
         <v>393</v>
       </c>
       <c r="C191" t="s" s="17">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D191" s="6">
-        <v>0.80952380952381</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="E191" s="6"/>
       <c r="F191" s="6"/>
       <c r="G191" s="6"/>
       <c r="H191" s="6">
-        <v>0.861111111111111</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="I191" s="6"/>
-      <c r="J191" s="9"/>
+      <c r="J191" s="7"/>
     </row>
     <row r="192" ht="21" customHeight="1">
-      <c r="A192" t="s" s="18">
+      <c r="A192" t="s" s="5">
         <v>394</v>
       </c>
-      <c r="B192" t="s" s="18">
+      <c r="B192" t="s" s="5">
         <v>395</v>
       </c>
-      <c r="C192" t="s" s="17">
+      <c r="C192" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="D192" s="6"/>
+      <c r="D192" s="6">
+        <v>0.571428571428571</v>
+      </c>
       <c r="E192" s="6"/>
       <c r="F192" s="6"/>
       <c r="G192" s="6"/>
@@ -7023,86 +7109,84 @@
         <v>0.75</v>
       </c>
       <c r="I192" s="6"/>
-      <c r="J192" s="11"/>
+      <c r="J192" s="7"/>
     </row>
     <row r="193" ht="21" customHeight="1">
-      <c r="A193" t="s" s="5">
+      <c r="A193" t="s" s="4">
         <v>396</v>
       </c>
-      <c r="B193" t="s" s="5">
+      <c r="B193" t="s" s="4">
         <v>397</v>
       </c>
       <c r="C193" t="s" s="5">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D193" s="6">
-        <v>0.619047619047619</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="E193" s="6"/>
       <c r="F193" s="6"/>
       <c r="G193" s="6"/>
       <c r="H193" s="6">
-        <v>0</v>
+        <v>0.805555555555556</v>
       </c>
       <c r="I193" s="6"/>
       <c r="J193" s="7"/>
     </row>
     <row r="194" ht="21" customHeight="1">
-      <c r="A194" t="s" s="5">
+      <c r="A194" t="s" s="16">
         <v>398</v>
       </c>
-      <c r="B194" t="s" s="5">
+      <c r="B194" t="s" s="16">
         <v>399</v>
       </c>
-      <c r="C194" t="s" s="5">
-        <v>36</v>
+      <c r="C194" t="s" s="17">
+        <v>12</v>
       </c>
       <c r="D194" s="6">
-        <v>0.785714285714286</v>
+        <v>0.80952380952381</v>
       </c>
       <c r="E194" s="6"/>
       <c r="F194" s="6"/>
       <c r="G194" s="6"/>
       <c r="H194" s="6">
-        <v>0.777777777777778</v>
+        <v>0.861111111111111</v>
       </c>
       <c r="I194" s="6"/>
-      <c r="J194" s="7"/>
+      <c r="J194" s="9"/>
     </row>
     <row r="195" ht="21" customHeight="1">
-      <c r="A195" t="s" s="5">
+      <c r="A195" t="s" s="18">
         <v>400</v>
       </c>
-      <c r="B195" t="s" s="5">
+      <c r="B195" t="s" s="18">
         <v>401</v>
       </c>
-      <c r="C195" t="s" s="5">
-        <v>36</v>
-      </c>
-      <c r="D195" s="6">
-        <v>1</v>
-      </c>
+      <c r="C195" t="s" s="17">
+        <v>21</v>
+      </c>
+      <c r="D195" s="6"/>
       <c r="E195" s="6"/>
       <c r="F195" s="6"/>
       <c r="G195" s="6"/>
       <c r="H195" s="6">
-        <v>0.777777777777778</v>
+        <v>0.75</v>
       </c>
       <c r="I195" s="6"/>
-      <c r="J195" s="7"/>
+      <c r="J195" s="11"/>
     </row>
     <row r="196" ht="21" customHeight="1">
-      <c r="A196" t="s" s="4">
+      <c r="A196" t="s" s="5">
         <v>402</v>
       </c>
-      <c r="B196" t="s" s="4">
-        <v>117</v>
+      <c r="B196" t="s" s="5">
+        <v>403</v>
       </c>
       <c r="C196" t="s" s="5">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D196" s="6">
-        <v>0.785714285714286</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="E196" s="6"/>
       <c r="F196" s="6"/>
@@ -7114,39 +7198,39 @@
       <c r="J196" s="7"/>
     </row>
     <row r="197" ht="21" customHeight="1">
-      <c r="A197" t="s" s="18">
-        <v>403</v>
-      </c>
-      <c r="B197" t="s" s="18">
+      <c r="A197" t="s" s="5">
         <v>404</v>
       </c>
-      <c r="C197" t="s" s="17">
-        <v>67</v>
+      <c r="B197" t="s" s="5">
+        <v>405</v>
+      </c>
+      <c r="C197" t="s" s="5">
+        <v>36</v>
       </c>
       <c r="D197" s="6">
-        <v>0.738095238095238</v>
+        <v>0.785714285714286</v>
       </c>
       <c r="E197" s="6"/>
       <c r="F197" s="6"/>
       <c r="G197" s="6"/>
       <c r="H197" s="6">
-        <v>0.388888888888889</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I197" s="6"/>
       <c r="J197" s="7"/>
     </row>
     <row r="198" ht="21" customHeight="1">
       <c r="A198" t="s" s="5">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B198" t="s" s="5">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C198" t="s" s="5">
         <v>36</v>
       </c>
       <c r="D198" s="6">
-        <v>0.785714285714286</v>
+        <v>1</v>
       </c>
       <c r="E198" s="6"/>
       <c r="F198" s="6"/>
@@ -7155,104 +7239,108 @@
         <v>0.777777777777778</v>
       </c>
       <c r="I198" s="6"/>
-      <c r="J198" s="9"/>
-    </row>
-    <row r="199" ht="20.7" customHeight="1">
-      <c r="A199" t="s" s="5">
-        <v>407</v>
-      </c>
-      <c r="B199" t="s" s="5">
+      <c r="J198" s="7"/>
+    </row>
+    <row r="199" ht="21" customHeight="1">
+      <c r="A199" t="s" s="4">
         <v>408</v>
       </c>
+      <c r="B199" t="s" s="4">
+        <v>119</v>
+      </c>
       <c r="C199" t="s" s="5">
-        <v>36</v>
-      </c>
-      <c r="D199" s="14">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E199" s="12"/>
-      <c r="F199" s="12"/>
-      <c r="G199" s="12"/>
+        <v>12</v>
+      </c>
+      <c r="D199" s="6">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="E199" s="6"/>
+      <c r="F199" s="6"/>
+      <c r="G199" s="6"/>
       <c r="H199" s="6">
-        <v>0.888888888888889</v>
-      </c>
-      <c r="I199" s="12"/>
-      <c r="J199" s="15"/>
+        <v>0</v>
+      </c>
+      <c r="I199" s="6"/>
+      <c r="J199" s="7"/>
     </row>
     <row r="200" ht="21" customHeight="1">
-      <c r="A200" t="s" s="4">
+      <c r="A200" t="s" s="18">
         <v>409</v>
       </c>
-      <c r="B200" t="s" s="4">
+      <c r="B200" t="s" s="18">
         <v>410</v>
       </c>
-      <c r="C200" t="s" s="5">
-        <v>21</v>
+      <c r="C200" t="s" s="17">
+        <v>67</v>
       </c>
       <c r="D200" s="6">
-        <v>0.761904761904762</v>
+        <v>0.738095238095238</v>
       </c>
       <c r="E200" s="6"/>
       <c r="F200" s="6"/>
       <c r="G200" s="6"/>
       <c r="H200" s="6">
-        <v>0</v>
+        <v>0.388888888888889</v>
       </c>
       <c r="I200" s="6"/>
-      <c r="J200" s="9"/>
+      <c r="J200" s="7"/>
     </row>
     <row r="201" ht="21" customHeight="1">
-      <c r="A201" t="s" s="23">
+      <c r="A201" t="s" s="5">
         <v>411</v>
       </c>
-      <c r="B201" t="s" s="23">
+      <c r="B201" t="s" s="5">
         <v>412</v>
       </c>
       <c r="C201" t="s" s="5">
         <v>36</v>
       </c>
-      <c r="D201" s="6"/>
+      <c r="D201" s="6">
+        <v>0.785714285714286</v>
+      </c>
       <c r="E201" s="6"/>
       <c r="F201" s="6"/>
       <c r="G201" s="6"/>
       <c r="H201" s="6">
-        <v>0.75</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I201" s="6"/>
-      <c r="J201" s="10"/>
-    </row>
-    <row r="202" ht="21" customHeight="1">
-      <c r="A202" t="s" s="8">
+      <c r="J201" s="9"/>
+    </row>
+    <row r="202" ht="20.7" customHeight="1">
+      <c r="A202" t="s" s="5">
         <v>413</v>
       </c>
-      <c r="B202" t="s" s="8">
+      <c r="B202" t="s" s="5">
         <v>414</v>
       </c>
       <c r="C202" t="s" s="5">
-        <v>15</v>
-      </c>
-      <c r="D202" s="6"/>
-      <c r="E202" s="6"/>
-      <c r="F202" s="6"/>
-      <c r="G202" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="D202" s="14">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E202" s="12"/>
+      <c r="F202" s="12"/>
+      <c r="G202" s="12"/>
       <c r="H202" s="6">
-        <v>0</v>
-      </c>
-      <c r="I202" s="6"/>
-      <c r="J202" s="11"/>
+        <v>0.888888888888889</v>
+      </c>
+      <c r="I202" s="12"/>
+      <c r="J202" s="15"/>
     </row>
     <row r="203" ht="21" customHeight="1">
-      <c r="A203" t="s" s="5">
+      <c r="A203" t="s" s="4">
         <v>415</v>
       </c>
-      <c r="B203" t="s" s="5">
+      <c r="B203" t="s" s="4">
         <v>416</v>
       </c>
       <c r="C203" t="s" s="5">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D203" s="6">
-        <v>0.571428571428571</v>
+        <v>0.761904761904762</v>
       </c>
       <c r="E203" s="6"/>
       <c r="F203" s="6"/>
@@ -7261,43 +7349,41 @@
         <v>0</v>
       </c>
       <c r="I203" s="6"/>
-      <c r="J203" s="7"/>
+      <c r="J203" s="9"/>
     </row>
     <row r="204" ht="21" customHeight="1">
-      <c r="A204" t="s" s="5">
+      <c r="A204" t="s" s="23">
         <v>417</v>
       </c>
-      <c r="B204" t="s" s="5">
+      <c r="B204" t="s" s="23">
         <v>418</v>
       </c>
       <c r="C204" t="s" s="5">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D204" s="6">
-        <v>0.880952380952381</v>
+        <v>0.69047619047619</v>
       </c>
       <c r="E204" s="6"/>
       <c r="F204" s="6"/>
       <c r="G204" s="6"/>
       <c r="H204" s="6">
-        <v>0.722222222222222</v>
+        <v>0.75</v>
       </c>
       <c r="I204" s="6"/>
-      <c r="J204" s="7"/>
+      <c r="J204" s="10"/>
     </row>
     <row r="205" ht="21" customHeight="1">
-      <c r="A205" t="s" s="5">
+      <c r="A205" t="s" s="8">
         <v>419</v>
       </c>
-      <c r="B205" t="s" s="5">
+      <c r="B205" t="s" s="8">
         <v>420</v>
       </c>
       <c r="C205" t="s" s="5">
-        <v>67</v>
-      </c>
-      <c r="D205" s="6">
-        <v>0.714285714285714</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D205" s="6"/>
       <c r="E205" s="6"/>
       <c r="F205" s="6"/>
       <c r="G205" s="6"/>
@@ -7305,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="I205" s="6"/>
-      <c r="J205" s="7"/>
+      <c r="J205" s="11"/>
     </row>
     <row r="206" ht="21" customHeight="1">
       <c r="A206" t="s" s="5">
@@ -7315,14 +7401,16 @@
         <v>422</v>
       </c>
       <c r="C206" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="D206" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="D206" s="6">
+        <v>0.571428571428571</v>
+      </c>
       <c r="E206" s="6"/>
       <c r="F206" s="6"/>
       <c r="G206" s="6"/>
       <c r="H206" s="6">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="I206" s="6"/>
       <c r="J206" s="7"/>
@@ -7335,19 +7423,19 @@
         <v>424</v>
       </c>
       <c r="C207" t="s" s="5">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D207" s="6">
-        <v>0.761904761904762</v>
+        <v>0.880952380952381</v>
       </c>
       <c r="E207" s="6"/>
       <c r="F207" s="6"/>
       <c r="G207" s="6"/>
       <c r="H207" s="6">
-        <v>0.805555555555556</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="I207" s="6"/>
-      <c r="J207" s="9"/>
+      <c r="J207" s="7"/>
     </row>
     <row r="208" ht="21" customHeight="1">
       <c r="A208" t="s" s="5">
@@ -7356,168 +7444,168 @@
       <c r="B208" t="s" s="5">
         <v>426</v>
       </c>
-      <c r="C208" s="12"/>
-      <c r="D208" s="6"/>
+      <c r="C208" t="s" s="5">
+        <v>67</v>
+      </c>
+      <c r="D208" s="6">
+        <v>0.714285714285714</v>
+      </c>
       <c r="E208" s="6"/>
       <c r="F208" s="6"/>
       <c r="G208" s="6"/>
       <c r="H208" s="6">
-        <v>0.694444444444444</v>
+        <v>0</v>
       </c>
       <c r="I208" s="6"/>
-      <c r="J208" s="11"/>
+      <c r="J208" s="7"/>
     </row>
     <row r="209" ht="21" customHeight="1">
-      <c r="A209" t="s" s="4">
+      <c r="A209" t="s" s="5">
         <v>427</v>
       </c>
-      <c r="B209" t="s" s="4">
+      <c r="B209" t="s" s="5">
         <v>428</v>
       </c>
       <c r="C209" t="s" s="5">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D209" s="6"/>
       <c r="E209" s="6"/>
       <c r="F209" s="6"/>
       <c r="G209" s="6"/>
       <c r="H209" s="6">
-        <v>0.777777777777778</v>
+        <v>0.75</v>
       </c>
       <c r="I209" s="6"/>
       <c r="J209" s="7"/>
     </row>
     <row r="210" ht="21" customHeight="1">
-      <c r="A210" t="s" s="18">
+      <c r="A210" t="s" s="5">
         <v>429</v>
       </c>
-      <c r="B210" t="s" s="18">
+      <c r="B210" t="s" s="5">
         <v>430</v>
       </c>
-      <c r="C210" t="s" s="17">
-        <v>15</v>
+      <c r="C210" t="s" s="5">
+        <v>36</v>
       </c>
       <c r="D210" s="6">
-        <v>0.642857142857143</v>
+        <v>0.761904761904762</v>
       </c>
       <c r="E210" s="6"/>
       <c r="F210" s="6"/>
       <c r="G210" s="6"/>
       <c r="H210" s="6">
-        <v>0</v>
+        <v>0.805555555555556</v>
       </c>
       <c r="I210" s="6"/>
-      <c r="J210" s="7"/>
+      <c r="J210" s="9"/>
     </row>
     <row r="211" ht="21" customHeight="1">
-      <c r="A211" t="s" s="4">
+      <c r="A211" t="s" s="5">
         <v>431</v>
       </c>
-      <c r="B211" t="s" s="4">
+      <c r="B211" t="s" s="5">
         <v>432</v>
       </c>
-      <c r="C211" t="s" s="5">
-        <v>36</v>
-      </c>
-      <c r="D211" s="6">
-        <v>0.666666666666667</v>
-      </c>
+      <c r="C211" s="12"/>
+      <c r="D211" s="6"/>
       <c r="E211" s="6"/>
       <c r="F211" s="6"/>
       <c r="G211" s="6"/>
       <c r="H211" s="6">
-        <v>0.777777777777778</v>
+        <v>0.694444444444444</v>
       </c>
       <c r="I211" s="6"/>
-      <c r="J211" s="7"/>
+      <c r="J211" s="11"/>
     </row>
     <row r="212" ht="21" customHeight="1">
-      <c r="A212" t="s" s="18">
+      <c r="A212" t="s" s="4">
         <v>433</v>
       </c>
-      <c r="B212" t="s" s="18">
+      <c r="B212" t="s" s="4">
         <v>434</v>
       </c>
-      <c r="C212" t="s" s="17">
-        <v>67</v>
+      <c r="C212" t="s" s="5">
+        <v>18</v>
       </c>
       <c r="D212" s="6">
-        <v>0.666666666666667</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E212" s="6"/>
       <c r="F212" s="6"/>
       <c r="G212" s="6"/>
       <c r="H212" s="6">
-        <v>0.694444444444444</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I212" s="6"/>
       <c r="J212" s="7"/>
     </row>
     <row r="213" ht="21" customHeight="1">
-      <c r="A213" t="s" s="4">
+      <c r="A213" t="s" s="18">
         <v>435</v>
       </c>
-      <c r="B213" t="s" s="4">
+      <c r="B213" t="s" s="18">
         <v>436</v>
       </c>
-      <c r="C213" t="s" s="5">
-        <v>18</v>
+      <c r="C213" t="s" s="17">
+        <v>15</v>
       </c>
       <c r="D213" s="6">
-        <v>0.785714285714286</v>
+        <v>0.642857142857143</v>
       </c>
       <c r="E213" s="6"/>
       <c r="F213" s="6"/>
       <c r="G213" s="6"/>
       <c r="H213" s="6">
-        <v>0.555555555555556</v>
+        <v>0</v>
       </c>
       <c r="I213" s="6"/>
       <c r="J213" s="7"/>
     </row>
     <row r="214" ht="21" customHeight="1">
-      <c r="A214" t="s" s="18">
+      <c r="A214" t="s" s="4">
         <v>437</v>
       </c>
-      <c r="B214" t="s" s="18">
+      <c r="B214" t="s" s="4">
         <v>438</v>
       </c>
-      <c r="C214" t="s" s="17">
-        <v>15</v>
+      <c r="C214" t="s" s="5">
+        <v>36</v>
       </c>
       <c r="D214" s="6">
-        <v>0.80952380952381</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="E214" s="6"/>
       <c r="F214" s="6"/>
       <c r="G214" s="6"/>
       <c r="H214" s="6">
-        <v>0</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I214" s="6"/>
-      <c r="J214" s="9"/>
+      <c r="J214" s="7"/>
     </row>
     <row r="215" ht="21" customHeight="1">
-      <c r="A215" t="s" s="5">
+      <c r="A215" t="s" s="18">
         <v>439</v>
       </c>
-      <c r="B215" t="s" s="5">
+      <c r="B215" t="s" s="18">
         <v>440</v>
       </c>
-      <c r="C215" t="s" s="5">
+      <c r="C215" t="s" s="17">
         <v>67</v>
       </c>
       <c r="D215" s="6">
-        <v>0.571428571428571</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="E215" s="6"/>
       <c r="F215" s="6"/>
       <c r="G215" s="6"/>
       <c r="H215" s="6">
-        <v>0</v>
+        <v>0.694444444444444</v>
       </c>
       <c r="I215" s="6"/>
-      <c r="J215" s="11"/>
+      <c r="J215" s="7"/>
     </row>
     <row r="216" ht="21" customHeight="1">
       <c r="A216" t="s" s="4">
@@ -7527,39 +7615,41 @@
         <v>442</v>
       </c>
       <c r="C216" t="s" s="5">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D216" s="6">
-        <v>0.833333333333333</v>
+        <v>0.785714285714286</v>
       </c>
       <c r="E216" s="6"/>
       <c r="F216" s="6"/>
       <c r="G216" s="6"/>
       <c r="H216" s="6">
-        <v>0.75</v>
+        <v>0.555555555555556</v>
       </c>
       <c r="I216" s="6"/>
-      <c r="J216" s="9"/>
+      <c r="J216" s="7"/>
     </row>
     <row r="217" ht="21" customHeight="1">
-      <c r="A217" t="s" s="8">
+      <c r="A217" t="s" s="18">
         <v>443</v>
       </c>
-      <c r="B217" t="s" s="8">
+      <c r="B217" t="s" s="18">
         <v>444</v>
       </c>
-      <c r="C217" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="D217" s="6"/>
+      <c r="C217" t="s" s="17">
+        <v>15</v>
+      </c>
+      <c r="D217" s="6">
+        <v>0.80952380952381</v>
+      </c>
       <c r="E217" s="6"/>
       <c r="F217" s="6"/>
       <c r="G217" s="6"/>
       <c r="H217" s="6">
-        <v>0.722222222222222</v>
+        <v>0</v>
       </c>
       <c r="I217" s="6"/>
-      <c r="J217" s="11"/>
+      <c r="J217" s="9"/>
     </row>
     <row r="218" ht="21" customHeight="1">
       <c r="A218" t="s" s="5">
@@ -7569,10 +7659,10 @@
         <v>446</v>
       </c>
       <c r="C218" t="s" s="5">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="D218" s="6">
-        <v>0.5</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="E218" s="6"/>
       <c r="F218" s="6"/>
@@ -7581,89 +7671,93 @@
         <v>0</v>
       </c>
       <c r="I218" s="6"/>
-      <c r="J218" s="7"/>
+      <c r="J218" s="11"/>
     </row>
     <row r="219" ht="21" customHeight="1">
-      <c r="A219" t="s" s="5">
+      <c r="A219" t="s" s="4">
         <v>447</v>
       </c>
-      <c r="B219" t="s" s="5">
+      <c r="B219" t="s" s="4">
         <v>448</v>
       </c>
       <c r="C219" t="s" s="5">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="D219" s="6">
-        <v>0.642857142857143</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E219" s="6"/>
       <c r="F219" s="6"/>
       <c r="G219" s="6"/>
       <c r="H219" s="6">
-        <v>0.388888888888889</v>
+        <v>0.75</v>
       </c>
       <c r="I219" s="6"/>
       <c r="J219" s="9"/>
     </row>
     <row r="220" ht="21" customHeight="1">
-      <c r="A220" t="s" s="5">
+      <c r="A220" t="s" s="8">
         <v>449</v>
       </c>
-      <c r="B220" t="s" s="5">
+      <c r="B220" t="s" s="8">
         <v>450</v>
       </c>
       <c r="C220" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D220" s="6">
-        <v>0.666666666666667</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D220" s="6"/>
       <c r="E220" s="6"/>
       <c r="F220" s="6"/>
       <c r="G220" s="6"/>
       <c r="H220" s="6">
-        <v>0.75</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="I220" s="6"/>
-      <c r="J220" s="10"/>
-    </row>
-    <row r="221" ht="20.7" customHeight="1">
-      <c r="A221" t="s" s="4">
+      <c r="J220" s="11"/>
+    </row>
+    <row r="221" ht="21" customHeight="1">
+      <c r="A221" t="s" s="5">
         <v>451</v>
       </c>
-      <c r="B221" t="s" s="4">
+      <c r="B221" t="s" s="5">
         <v>452</v>
       </c>
       <c r="C221" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="D221" s="12"/>
-      <c r="E221" s="12"/>
-      <c r="F221" s="12"/>
-      <c r="G221" s="12"/>
+        <v>36</v>
+      </c>
+      <c r="D221" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E221" s="6"/>
+      <c r="F221" s="6"/>
+      <c r="G221" s="6"/>
       <c r="H221" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="I221" s="12"/>
-      <c r="J221" s="13"/>
+        <v>0</v>
+      </c>
+      <c r="I221" s="6"/>
+      <c r="J221" s="7"/>
     </row>
     <row r="222" ht="21" customHeight="1">
-      <c r="A222" t="s" s="8">
+      <c r="A222" t="s" s="5">
         <v>453</v>
       </c>
-      <c r="B222" t="s" s="8">
+      <c r="B222" t="s" s="5">
         <v>454</v>
       </c>
-      <c r="C222" s="12"/>
-      <c r="D222" s="6"/>
+      <c r="C222" t="s" s="5">
+        <v>67</v>
+      </c>
+      <c r="D222" s="6">
+        <v>0.642857142857143</v>
+      </c>
       <c r="E222" s="6"/>
       <c r="F222" s="6"/>
       <c r="G222" s="6"/>
       <c r="H222" s="6">
-        <v>0.666666666666667</v>
+        <v>0.388888888888889</v>
       </c>
       <c r="I222" s="6"/>
-      <c r="J222" s="11"/>
+      <c r="J222" s="9"/>
     </row>
     <row r="223" ht="21" customHeight="1">
       <c r="A223" t="s" s="5">
@@ -7676,52 +7770,46 @@
         <v>18</v>
       </c>
       <c r="D223" s="6">
-        <v>0.595238095238095</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="E223" s="6"/>
       <c r="F223" s="6"/>
       <c r="G223" s="6"/>
       <c r="H223" s="6">
-        <v>0.416666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="I223" s="6"/>
-      <c r="J223" s="7"/>
-    </row>
-    <row r="224" ht="21" customHeight="1">
-      <c r="A224" t="s" s="5">
+      <c r="J223" s="10"/>
+    </row>
+    <row r="224" ht="20.7" customHeight="1">
+      <c r="A224" t="s" s="4">
         <v>457</v>
       </c>
-      <c r="B224" t="s" s="5">
+      <c r="B224" t="s" s="4">
         <v>458</v>
       </c>
       <c r="C224" t="s" s="5">
-        <v>15</v>
-      </c>
-      <c r="D224" s="6">
-        <v>0.547619047619048</v>
-      </c>
-      <c r="E224" s="6"/>
-      <c r="F224" s="6"/>
-      <c r="G224" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="D224" s="12"/>
+      <c r="E224" s="12"/>
+      <c r="F224" s="12"/>
+      <c r="G224" s="12"/>
       <c r="H224" s="6">
-        <v>0.777777777777778</v>
-      </c>
-      <c r="I224" s="6"/>
-      <c r="J224" s="7"/>
+        <v>0.75</v>
+      </c>
+      <c r="I224" s="12"/>
+      <c r="J224" s="13"/>
     </row>
     <row r="225" ht="21" customHeight="1">
-      <c r="A225" t="s" s="5">
+      <c r="A225" t="s" s="8">
         <v>459</v>
       </c>
-      <c r="B225" t="s" s="5">
+      <c r="B225" t="s" s="8">
         <v>460</v>
       </c>
-      <c r="C225" t="s" s="5">
-        <v>67</v>
-      </c>
-      <c r="D225" s="6">
-        <v>0.547619047619048</v>
-      </c>
+      <c r="C225" s="12"/>
+      <c r="D225" s="6"/>
       <c r="E225" s="6"/>
       <c r="F225" s="6"/>
       <c r="G225" s="6"/>
@@ -7729,9 +7817,9 @@
         <v>0.666666666666667</v>
       </c>
       <c r="I225" s="6"/>
-      <c r="J225" s="9"/>
-    </row>
-    <row r="226" ht="20.7" customHeight="1">
+      <c r="J225" s="11"/>
+    </row>
+    <row r="226" ht="21" customHeight="1">
       <c r="A226" t="s" s="5">
         <v>461</v>
       </c>
@@ -7739,19 +7827,19 @@
         <v>462</v>
       </c>
       <c r="C226" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="D226" s="14">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E226" s="12"/>
-      <c r="F226" s="12"/>
-      <c r="G226" s="12"/>
+        <v>18</v>
+      </c>
+      <c r="D226" s="6">
+        <v>0.595238095238095</v>
+      </c>
+      <c r="E226" s="6"/>
+      <c r="F226" s="6"/>
+      <c r="G226" s="6"/>
       <c r="H226" s="6">
-        <v>0.638888888888889</v>
-      </c>
-      <c r="I226" s="12"/>
-      <c r="J226" s="13"/>
+        <v>0.416666666666667</v>
+      </c>
+      <c r="I226" s="6"/>
+      <c r="J226" s="7"/>
     </row>
     <row r="227" ht="21" customHeight="1">
       <c r="A227" t="s" s="5">
@@ -7761,19 +7849,19 @@
         <v>464</v>
       </c>
       <c r="C227" t="s" s="5">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D227" s="6">
-        <v>0.761904761904762</v>
+        <v>0.547619047619048</v>
       </c>
       <c r="E227" s="6"/>
       <c r="F227" s="6"/>
       <c r="G227" s="6"/>
       <c r="H227" s="6">
-        <v>0.861111111111111</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I227" s="6"/>
-      <c r="J227" s="10"/>
+      <c r="J227" s="7"/>
     </row>
     <row r="228" ht="21" customHeight="1">
       <c r="A228" t="s" s="5">
@@ -7783,19 +7871,21 @@
         <v>466</v>
       </c>
       <c r="C228" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="D228" s="6"/>
+        <v>67</v>
+      </c>
+      <c r="D228" s="6">
+        <v>0.547619047619048</v>
+      </c>
       <c r="E228" s="6"/>
       <c r="F228" s="6"/>
       <c r="G228" s="6"/>
       <c r="H228" s="6">
-        <v>0.611111111111111</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="I228" s="6"/>
-      <c r="J228" s="11"/>
-    </row>
-    <row r="229" ht="21" customHeight="1">
+      <c r="J228" s="9"/>
+    </row>
+    <row r="229" ht="20.7" customHeight="1">
       <c r="A229" t="s" s="5">
         <v>467</v>
       </c>
@@ -7803,205 +7893,239 @@
         <v>468</v>
       </c>
       <c r="C229" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="D229" s="6"/>
-      <c r="E229" s="6"/>
-      <c r="F229" s="6"/>
-      <c r="G229" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="D229" s="14">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E229" s="12"/>
+      <c r="F229" s="12"/>
+      <c r="G229" s="12"/>
       <c r="H229" s="6">
-        <v>0.777777777777778</v>
-      </c>
-      <c r="I229" s="6"/>
-      <c r="J229" s="7"/>
+        <v>0.638888888888889</v>
+      </c>
+      <c r="I229" s="12"/>
+      <c r="J229" s="13"/>
     </row>
     <row r="230" ht="21" customHeight="1">
-      <c r="A230" t="s" s="4">
+      <c r="A230" t="s" s="5">
         <v>469</v>
       </c>
-      <c r="B230" t="s" s="4">
+      <c r="B230" t="s" s="5">
         <v>470</v>
       </c>
       <c r="C230" t="s" s="5">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D230" s="6">
-        <v>0.571428571428571</v>
+        <v>0.761904761904762</v>
       </c>
       <c r="E230" s="6"/>
       <c r="F230" s="6"/>
       <c r="G230" s="6"/>
       <c r="H230" s="6">
-        <v>0.75</v>
+        <v>0.861111111111111</v>
       </c>
       <c r="I230" s="6"/>
-      <c r="J230" s="9"/>
+      <c r="J230" s="10"/>
     </row>
     <row r="231" ht="21" customHeight="1">
-      <c r="A231" t="s" s="23">
+      <c r="A231" t="s" s="5">
         <v>471</v>
       </c>
-      <c r="B231" t="s" s="23">
+      <c r="B231" t="s" s="5">
         <v>472</v>
       </c>
       <c r="C231" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="D231" s="6">
-        <v>0.738095238095238</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D231" s="6"/>
       <c r="E231" s="6"/>
       <c r="F231" s="6"/>
       <c r="G231" s="6"/>
       <c r="H231" s="6">
-        <v>0.777777777777778</v>
+        <v>0.611111111111111</v>
       </c>
       <c r="I231" s="6"/>
       <c r="J231" s="11"/>
     </row>
     <row r="232" ht="21" customHeight="1">
-      <c r="A232" t="s" s="16">
+      <c r="A232" t="s" s="5">
         <v>473</v>
       </c>
-      <c r="B232" t="s" s="16">
+      <c r="B232" t="s" s="5">
         <v>474</v>
       </c>
-      <c r="C232" t="s" s="17">
-        <v>18</v>
+      <c r="C232" t="s" s="5">
+        <v>12</v>
       </c>
       <c r="D232" s="6">
-        <v>0.285714285714286</v>
+        <v>0.595238095238095</v>
       </c>
       <c r="E232" s="6"/>
       <c r="F232" s="6"/>
       <c r="G232" s="6"/>
       <c r="H232" s="6">
-        <v>0.805555555555556</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I232" s="6"/>
       <c r="J232" s="7"/>
     </row>
     <row r="233" ht="21" customHeight="1">
-      <c r="A233" t="s" s="18">
+      <c r="A233" t="s" s="4">
         <v>475</v>
       </c>
-      <c r="B233" t="s" s="18">
+      <c r="B233" t="s" s="4">
         <v>476</v>
       </c>
-      <c r="C233" t="s" s="17">
-        <v>15</v>
-      </c>
-      <c r="D233" s="6"/>
+      <c r="C233" t="s" s="5">
+        <v>36</v>
+      </c>
+      <c r="D233" s="6">
+        <v>0.571428571428571</v>
+      </c>
       <c r="E233" s="6"/>
       <c r="F233" s="6"/>
       <c r="G233" s="6"/>
       <c r="H233" s="6">
-        <v>0.777777777777778</v>
+        <v>0.75</v>
       </c>
       <c r="I233" s="6"/>
-      <c r="J233" s="7"/>
+      <c r="J233" s="9"/>
     </row>
     <row r="234" ht="21" customHeight="1">
-      <c r="A234" t="s" s="5">
+      <c r="A234" t="s" s="23">
         <v>477</v>
       </c>
-      <c r="B234" t="s" s="5">
+      <c r="B234" t="s" s="23">
         <v>478</v>
       </c>
       <c r="C234" t="s" s="5">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D234" s="6">
-        <v>0.30952380952381</v>
+        <v>0.738095238095238</v>
       </c>
       <c r="E234" s="6"/>
       <c r="F234" s="6"/>
       <c r="G234" s="6"/>
       <c r="H234" s="6">
-        <v>0.638888888888889</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I234" s="6"/>
-      <c r="J234" s="7"/>
+      <c r="J234" s="11"/>
     </row>
     <row r="235" ht="21" customHeight="1">
-      <c r="A235" t="s" s="5">
+      <c r="A235" t="s" s="16">
         <v>479</v>
       </c>
-      <c r="B235" t="s" s="5">
+      <c r="B235" t="s" s="16">
         <v>480</v>
       </c>
-      <c r="C235" s="12"/>
-      <c r="D235" s="6"/>
+      <c r="C235" t="s" s="17">
+        <v>18</v>
+      </c>
+      <c r="D235" s="6">
+        <v>0.285714285714286</v>
+      </c>
       <c r="E235" s="6"/>
       <c r="F235" s="6"/>
       <c r="G235" s="6"/>
       <c r="H235" s="6">
-        <v>0.666666666666667</v>
+        <v>0.805555555555556</v>
       </c>
       <c r="I235" s="6"/>
       <c r="J235" s="7"/>
     </row>
     <row r="236" ht="21" customHeight="1">
-      <c r="A236" t="s" s="4">
+      <c r="A236" t="s" s="18">
         <v>481</v>
       </c>
-      <c r="B236" t="s" s="4">
+      <c r="B236" t="s" s="18">
         <v>482</v>
       </c>
-      <c r="C236" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D236" s="6">
-        <v>0.904761904761905</v>
-      </c>
+      <c r="C236" t="s" s="17">
+        <v>15</v>
+      </c>
+      <c r="D236" s="6"/>
       <c r="E236" s="6"/>
       <c r="F236" s="6"/>
       <c r="G236" s="6"/>
       <c r="H236" s="6">
-        <v>0.861111111111111</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I236" s="6"/>
-      <c r="J236" s="9"/>
+      <c r="J236" s="7"/>
     </row>
     <row r="237" ht="21" customHeight="1">
-      <c r="A237" s="26"/>
-      <c r="B237" s="26"/>
-      <c r="C237" s="12"/>
-      <c r="D237" s="6"/>
+      <c r="A237" t="s" s="5">
+        <v>483</v>
+      </c>
+      <c r="B237" t="s" s="5">
+        <v>484</v>
+      </c>
+      <c r="C237" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D237" s="6">
+        <v>0.30952380952381</v>
+      </c>
       <c r="E237" s="6"/>
       <c r="F237" s="6"/>
       <c r="G237" s="6"/>
-      <c r="H237" s="6"/>
+      <c r="H237" s="6">
+        <v>0.638888888888889</v>
+      </c>
       <c r="I237" s="6"/>
-      <c r="J237" s="11"/>
+      <c r="J237" s="7"/>
     </row>
     <row r="238" ht="21" customHeight="1">
-      <c r="A238" s="27"/>
-      <c r="B238" s="27"/>
-      <c r="C238" s="12"/>
-      <c r="D238" s="6"/>
+      <c r="A238" t="s" s="5">
+        <v>485</v>
+      </c>
+      <c r="B238" t="s" s="5">
+        <v>486</v>
+      </c>
+      <c r="C238" t="s" s="5">
+        <v>67</v>
+      </c>
+      <c r="D238" s="6">
+        <v>0.333333333333333</v>
+      </c>
       <c r="E238" s="6"/>
       <c r="F238" s="6"/>
       <c r="G238" s="6"/>
-      <c r="H238" s="6"/>
+      <c r="H238" s="6">
+        <v>0.666666666666667</v>
+      </c>
       <c r="I238" s="6"/>
       <c r="J238" s="7"/>
     </row>
     <row r="239" ht="21" customHeight="1">
-      <c r="A239" s="28"/>
-      <c r="B239" s="28"/>
-      <c r="C239" s="24"/>
-      <c r="D239" s="6"/>
+      <c r="A239" t="s" s="4">
+        <v>487</v>
+      </c>
+      <c r="B239" t="s" s="4">
+        <v>488</v>
+      </c>
+      <c r="C239" t="s" s="5">
+        <v>18</v>
+      </c>
+      <c r="D239" s="6">
+        <v>0.904761904761905</v>
+      </c>
       <c r="E239" s="6"/>
       <c r="F239" s="6"/>
       <c r="G239" s="6"/>
-      <c r="H239" s="6"/>
+      <c r="H239" s="6">
+        <v>0.861111111111111</v>
+      </c>
       <c r="I239" s="6"/>
       <c r="J239" s="7"/>
     </row>
     <row r="240" ht="21" customHeight="1">
-      <c r="A240" s="28"/>
-      <c r="B240" s="28"/>
+      <c r="A240" s="26"/>
+      <c r="B240" s="26"/>
       <c r="C240" s="24"/>
       <c r="D240" s="6"/>
       <c r="E240" s="6"/>
@@ -8012,8 +8136,8 @@
       <c r="J240" s="9"/>
     </row>
     <row r="241" ht="21" customHeight="1">
-      <c r="A241" s="29"/>
-      <c r="B241" s="29"/>
+      <c r="A241" s="27"/>
+      <c r="B241" s="27"/>
       <c r="C241" s="12"/>
       <c r="D241" s="6"/>
       <c r="E241" s="6"/>
@@ -8024,8 +8148,8 @@
       <c r="J241" s="11"/>
     </row>
     <row r="242" ht="21" customHeight="1">
-      <c r="A242" s="28"/>
-      <c r="B242" s="28"/>
+      <c r="A242" s="26"/>
+      <c r="B242" s="26"/>
       <c r="C242" s="24"/>
       <c r="D242" s="6"/>
       <c r="E242" s="6"/>
@@ -8036,8 +8160,8 @@
       <c r="J242" s="9"/>
     </row>
     <row r="243" ht="21" customHeight="1">
-      <c r="A243" s="26"/>
-      <c r="B243" s="26"/>
+      <c r="A243" s="28"/>
+      <c r="B243" s="28"/>
       <c r="C243" s="12"/>
       <c r="D243" s="6"/>
       <c r="E243" s="6"/>
@@ -8168,8 +8292,8 @@
       <c r="J253" s="13"/>
     </row>
     <row r="254" ht="20.35" customHeight="1">
-      <c r="A254" s="27"/>
-      <c r="B254" s="27"/>
+      <c r="A254" s="29"/>
+      <c r="B254" s="29"/>
       <c r="C254" s="12"/>
       <c r="D254" s="12"/>
       <c r="E254" s="12"/>
@@ -8180,8 +8304,8 @@
       <c r="J254" s="15"/>
     </row>
     <row r="255" ht="21" customHeight="1">
-      <c r="A255" s="28"/>
-      <c r="B255" s="28"/>
+      <c r="A255" s="26"/>
+      <c r="B255" s="26"/>
       <c r="C255" s="24"/>
       <c r="D255" s="6"/>
       <c r="E255" s="6"/>
@@ -8192,8 +8316,8 @@
       <c r="J255" s="9"/>
     </row>
     <row r="256" ht="20.7" customHeight="1">
-      <c r="A256" s="26"/>
-      <c r="B256" s="26"/>
+      <c r="A256" s="28"/>
+      <c r="B256" s="28"/>
       <c r="C256" s="12"/>
       <c r="D256" s="12"/>
       <c r="E256" s="12"/>
@@ -8204,8 +8328,8 @@
       <c r="J256" s="15"/>
     </row>
     <row r="257" ht="21" customHeight="1">
-      <c r="A257" s="27"/>
-      <c r="B257" s="27"/>
+      <c r="A257" s="29"/>
+      <c r="B257" s="29"/>
       <c r="C257" s="12"/>
       <c r="D257" s="6"/>
       <c r="E257" s="6"/>
@@ -8216,8 +8340,8 @@
       <c r="J257" s="7"/>
     </row>
     <row r="258" ht="21" customHeight="1">
-      <c r="A258" s="28"/>
-      <c r="B258" s="28"/>
+      <c r="A258" s="26"/>
+      <c r="B258" s="26"/>
       <c r="C258" s="24"/>
       <c r="D258" s="6"/>
       <c r="E258" s="6"/>
@@ -8228,8 +8352,8 @@
       <c r="J258" s="9"/>
     </row>
     <row r="259" ht="21" customHeight="1">
-      <c r="A259" s="26"/>
-      <c r="B259" s="26"/>
+      <c r="A259" s="28"/>
+      <c r="B259" s="28"/>
       <c r="C259" s="12"/>
       <c r="D259" s="6"/>
       <c r="E259" s="6"/>
@@ -8252,8 +8376,8 @@
       <c r="J260" s="7"/>
     </row>
     <row r="261" ht="21" customHeight="1">
-      <c r="A261" s="27"/>
-      <c r="B261" s="27"/>
+      <c r="A261" s="29"/>
+      <c r="B261" s="29"/>
       <c r="C261" s="12"/>
       <c r="D261" s="6"/>
       <c r="E261" s="6"/>
@@ -8264,8 +8388,8 @@
       <c r="J261" s="7"/>
     </row>
     <row r="262" ht="21" customHeight="1">
-      <c r="A262" s="28"/>
-      <c r="B262" s="28"/>
+      <c r="A262" s="26"/>
+      <c r="B262" s="26"/>
       <c r="C262" s="24"/>
       <c r="D262" s="6"/>
       <c r="E262" s="6"/>
@@ -8276,8 +8400,8 @@
       <c r="J262" s="7"/>
     </row>
     <row r="263" ht="21" customHeight="1">
-      <c r="A263" s="28"/>
-      <c r="B263" s="28"/>
+      <c r="A263" s="26"/>
+      <c r="B263" s="26"/>
       <c r="C263" s="24"/>
       <c r="D263" s="6"/>
       <c r="E263" s="6"/>
@@ -8288,8 +8412,8 @@
       <c r="J263" s="7"/>
     </row>
     <row r="264" ht="21" customHeight="1">
-      <c r="A264" s="26"/>
-      <c r="B264" s="26"/>
+      <c r="A264" s="28"/>
+      <c r="B264" s="28"/>
       <c r="C264" s="12"/>
       <c r="D264" s="6"/>
       <c r="E264" s="6"/>
@@ -8456,8 +8580,8 @@
       <c r="J277" s="7"/>
     </row>
     <row r="278" ht="21" customHeight="1">
-      <c r="A278" s="27"/>
-      <c r="B278" s="27"/>
+      <c r="A278" s="29"/>
+      <c r="B278" s="29"/>
       <c r="C278" s="12"/>
       <c r="D278" s="6"/>
       <c r="E278" s="6"/>
@@ -8468,8 +8592,8 @@
       <c r="J278" s="7"/>
     </row>
     <row r="279" ht="21" customHeight="1">
-      <c r="A279" s="28"/>
-      <c r="B279" s="28"/>
+      <c r="A279" s="26"/>
+      <c r="B279" s="26"/>
       <c r="C279" s="24"/>
       <c r="D279" s="6"/>
       <c r="E279" s="6"/>
@@ -8480,8 +8604,8 @@
       <c r="J279" s="7"/>
     </row>
     <row r="280" ht="21" customHeight="1">
-      <c r="A280" s="28"/>
-      <c r="B280" s="28"/>
+      <c r="A280" s="26"/>
+      <c r="B280" s="26"/>
       <c r="C280" s="24"/>
       <c r="D280" s="6"/>
       <c r="E280" s="6"/>
@@ -8492,8 +8616,8 @@
       <c r="J280" s="9"/>
     </row>
     <row r="281" ht="21" customHeight="1">
-      <c r="A281" s="26"/>
-      <c r="B281" s="26"/>
+      <c r="A281" s="28"/>
+      <c r="B281" s="28"/>
       <c r="C281" s="12"/>
       <c r="D281" s="6"/>
       <c r="E281" s="6"/>
@@ -8636,8 +8760,8 @@
       <c r="J292" s="7"/>
     </row>
     <row r="293" ht="21" customHeight="1">
-      <c r="A293" s="27"/>
-      <c r="B293" s="27"/>
+      <c r="A293" s="29"/>
+      <c r="B293" s="29"/>
       <c r="C293" s="12"/>
       <c r="D293" s="6"/>
       <c r="E293" s="6"/>
@@ -8648,8 +8772,8 @@
       <c r="J293" s="7"/>
     </row>
     <row r="294" ht="21" customHeight="1">
-      <c r="A294" s="28"/>
-      <c r="B294" s="28"/>
+      <c r="A294" s="26"/>
+      <c r="B294" s="26"/>
       <c r="C294" s="24"/>
       <c r="D294" s="6"/>
       <c r="E294" s="6"/>
@@ -8660,8 +8784,8 @@
       <c r="J294" s="9"/>
     </row>
     <row r="295" ht="20.7" customHeight="1">
-      <c r="A295" s="26"/>
-      <c r="B295" s="26"/>
+      <c r="A295" s="28"/>
+      <c r="B295" s="28"/>
       <c r="C295" s="12"/>
       <c r="D295" s="12"/>
       <c r="E295" s="12"/>
@@ -8720,8 +8844,8 @@
       <c r="J299" s="9"/>
     </row>
     <row r="300" ht="21" customHeight="1">
-      <c r="A300" s="27"/>
-      <c r="B300" s="27"/>
+      <c r="A300" s="29"/>
+      <c r="B300" s="29"/>
       <c r="C300" s="12"/>
       <c r="D300" s="6"/>
       <c r="E300" s="6"/>
@@ -8732,8 +8856,8 @@
       <c r="J300" s="11"/>
     </row>
     <row r="301" ht="21" customHeight="1">
-      <c r="A301" s="28"/>
-      <c r="B301" s="28"/>
+      <c r="A301" s="26"/>
+      <c r="B301" s="26"/>
       <c r="C301" s="24"/>
       <c r="D301" s="6"/>
       <c r="E301" s="6"/>
@@ -8744,8 +8868,8 @@
       <c r="J301" s="7"/>
     </row>
     <row r="302" ht="21" customHeight="1">
-      <c r="A302" s="26"/>
-      <c r="B302" s="26"/>
+      <c r="A302" s="28"/>
+      <c r="B302" s="28"/>
       <c r="C302" s="12"/>
       <c r="D302" s="6"/>
       <c r="E302" s="6"/>
@@ -8996,8 +9120,8 @@
       <c r="J322" s="7"/>
     </row>
     <row r="323" ht="21" customHeight="1">
-      <c r="A323" s="27"/>
-      <c r="B323" s="27"/>
+      <c r="A323" s="29"/>
+      <c r="B323" s="29"/>
       <c r="C323" s="12"/>
       <c r="D323" s="6"/>
       <c r="E323" s="6"/>
@@ -9008,8 +9132,8 @@
       <c r="J323" s="7"/>
     </row>
     <row r="324" ht="21" customHeight="1">
-      <c r="A324" s="28"/>
-      <c r="B324" s="28"/>
+      <c r="A324" s="26"/>
+      <c r="B324" s="26"/>
       <c r="C324" s="24"/>
       <c r="D324" s="6"/>
       <c r="E324" s="6"/>
@@ -9020,8 +9144,8 @@
       <c r="J324" s="7"/>
     </row>
     <row r="325" ht="21" customHeight="1">
-      <c r="A325" s="28"/>
-      <c r="B325" s="28"/>
+      <c r="A325" s="26"/>
+      <c r="B325" s="26"/>
       <c r="C325" s="24"/>
       <c r="D325" s="6"/>
       <c r="E325" s="6"/>
@@ -9032,8 +9156,8 @@
       <c r="J325" s="7"/>
     </row>
     <row r="326" ht="21" customHeight="1">
-      <c r="A326" s="28"/>
-      <c r="B326" s="28"/>
+      <c r="A326" s="26"/>
+      <c r="B326" s="26"/>
       <c r="C326" s="24"/>
       <c r="D326" s="6"/>
       <c r="E326" s="6"/>
@@ -9044,8 +9168,8 @@
       <c r="J326" s="9"/>
     </row>
     <row r="327" ht="21" customHeight="1">
-      <c r="A327" s="26"/>
-      <c r="B327" s="26"/>
+      <c r="A327" s="28"/>
+      <c r="B327" s="28"/>
       <c r="C327" s="12"/>
       <c r="D327" s="6"/>
       <c r="E327" s="6"/>
@@ -9116,8 +9240,8 @@
       <c r="J332" s="10"/>
     </row>
     <row r="333" ht="20.7" customHeight="1">
-      <c r="A333" s="27"/>
-      <c r="B333" s="27"/>
+      <c r="A333" s="29"/>
+      <c r="B333" s="29"/>
       <c r="C333" s="12"/>
       <c r="D333" s="12"/>
       <c r="E333" s="12"/>
@@ -9128,8 +9252,8 @@
       <c r="J333" s="15"/>
     </row>
     <row r="334" ht="21" customHeight="1">
-      <c r="A334" s="28"/>
-      <c r="B334" s="28"/>
+      <c r="A334" s="26"/>
+      <c r="B334" s="26"/>
       <c r="C334" s="24"/>
       <c r="D334" s="6"/>
       <c r="E334" s="6"/>
@@ -9140,8 +9264,8 @@
       <c r="J334" s="7"/>
     </row>
     <row r="335" ht="21" customHeight="1">
-      <c r="A335" s="28"/>
-      <c r="B335" s="28"/>
+      <c r="A335" s="26"/>
+      <c r="B335" s="26"/>
       <c r="C335" s="24"/>
       <c r="D335" s="6"/>
       <c r="E335" s="6"/>
@@ -9152,8 +9276,8 @@
       <c r="J335" s="9"/>
     </row>
     <row r="336" ht="21" customHeight="1">
-      <c r="A336" s="26"/>
-      <c r="B336" s="26"/>
+      <c r="A336" s="28"/>
+      <c r="B336" s="28"/>
       <c r="C336" s="12"/>
       <c r="D336" s="6"/>
       <c r="E336" s="6"/>
@@ -9260,8 +9384,8 @@
       <c r="J344" s="9"/>
     </row>
     <row r="345" ht="21" customHeight="1">
-      <c r="A345" s="27"/>
-      <c r="B345" s="27"/>
+      <c r="A345" s="29"/>
+      <c r="B345" s="29"/>
       <c r="C345" s="12"/>
       <c r="D345" s="6"/>
       <c r="E345" s="6"/>
@@ -9272,8 +9396,8 @@
       <c r="J345" s="11"/>
     </row>
     <row r="346" ht="21" customHeight="1">
-      <c r="A346" s="28"/>
-      <c r="B346" s="28"/>
+      <c r="A346" s="26"/>
+      <c r="B346" s="26"/>
       <c r="C346" s="24"/>
       <c r="D346" s="6"/>
       <c r="E346" s="6"/>
@@ -9284,8 +9408,8 @@
       <c r="J346" s="9"/>
     </row>
     <row r="347" ht="21" customHeight="1">
-      <c r="A347" s="26"/>
-      <c r="B347" s="26"/>
+      <c r="A347" s="28"/>
+      <c r="B347" s="28"/>
       <c r="C347" s="12"/>
       <c r="D347" s="6"/>
       <c r="E347" s="6"/>

--- a/cw12022023.xlsx
+++ b/cw12022023.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="492">
   <si>
     <t>Surname</t>
   </si>
@@ -208,15 +208,21 @@
     <t>H220337F</t>
   </si>
   <si>
+    <t>Chinembiri</t>
+  </si>
+  <si>
+    <t>H190726M</t>
+  </si>
+  <si>
+    <t>HEPT</t>
+  </si>
+  <si>
     <t>Chingandu</t>
   </si>
   <si>
     <t>H220737N</t>
   </si>
   <si>
-    <t>HEPT</t>
-  </si>
-  <si>
     <t>Chingovo</t>
   </si>
   <si>
@@ -1193,6 +1199,9 @@
   </si>
   <si>
     <t>H210240M</t>
+  </si>
+  <si>
+    <t>H220565N</t>
   </si>
   <si>
     <t>Nyamano</t>
@@ -1752,7 +1761,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1788,6 +1797,9 @@
     </xf>
     <xf numFmtId="2" fontId="5" fillId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
@@ -1828,14 +1840,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
@@ -3139,15 +3145,17 @@
       <c r="C9" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
+      <c r="D9" s="12">
+        <v>0</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
       <c r="H9" s="6">
         <v>0.361111111111111</v>
       </c>
-      <c r="I9" s="12"/>
-      <c r="J9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="14"/>
     </row>
     <row r="10" ht="20.7" customHeight="1">
       <c r="A10" t="s" s="4">
@@ -3159,26 +3167,26 @@
       <c r="C10" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="15">
         <v>0.666666666666667</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
       <c r="H10" s="6">
         <v>0.722222222222222</v>
       </c>
-      <c r="I10" s="12"/>
-      <c r="J10" s="15"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="16"/>
     </row>
     <row r="11" ht="21" customHeight="1">
-      <c r="A11" t="s" s="16">
+      <c r="A11" t="s" s="17">
         <v>32</v>
       </c>
-      <c r="B11" t="s" s="16">
+      <c r="B11" t="s" s="17">
         <v>33</v>
       </c>
-      <c r="C11" t="s" s="17">
+      <c r="C11" t="s" s="18">
         <v>15</v>
       </c>
       <c r="D11" s="6">
@@ -3194,13 +3202,13 @@
       <c r="J11" s="7"/>
     </row>
     <row r="12" ht="21" customHeight="1">
-      <c r="A12" t="s" s="18">
+      <c r="A12" t="s" s="19">
         <v>34</v>
       </c>
-      <c r="B12" t="s" s="18">
+      <c r="B12" t="s" s="19">
         <v>35</v>
       </c>
-      <c r="C12" t="s" s="17">
+      <c r="C12" t="s" s="18">
         <v>36</v>
       </c>
       <c r="D12" s="6">
@@ -3260,13 +3268,13 @@
       <c r="J14" s="11"/>
     </row>
     <row r="15" ht="21" customHeight="1">
-      <c r="A15" t="s" s="18">
+      <c r="A15" t="s" s="19">
         <v>41</v>
       </c>
-      <c r="B15" t="s" s="18">
+      <c r="B15" t="s" s="19">
         <v>42</v>
       </c>
-      <c r="C15" t="s" s="17">
+      <c r="C15" t="s" s="18">
         <v>12</v>
       </c>
       <c r="D15" s="6">
@@ -3304,13 +3312,13 @@
       <c r="J16" s="7"/>
     </row>
     <row r="17" ht="21" customHeight="1">
-      <c r="A17" t="s" s="18">
+      <c r="A17" t="s" s="19">
         <v>45</v>
       </c>
-      <c r="B17" t="s" s="18">
+      <c r="B17" t="s" s="19">
         <v>46</v>
       </c>
-      <c r="C17" t="s" s="17">
+      <c r="C17" t="s" s="18">
         <v>15</v>
       </c>
       <c r="D17" s="6">
@@ -3335,7 +3343,9 @@
       <c r="C18" t="s" s="5">
         <v>36</v>
       </c>
-      <c r="D18" s="6"/>
+      <c r="D18" s="6">
+        <v>0.714285714285714</v>
+      </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
@@ -3412,13 +3422,13 @@
       <c r="J21" s="9"/>
     </row>
     <row r="22" ht="21" customHeight="1">
-      <c r="A22" t="s" s="18">
+      <c r="A22" t="s" s="19">
         <v>55</v>
       </c>
-      <c r="B22" t="s" s="18">
+      <c r="B22" t="s" s="19">
         <v>56</v>
       </c>
-      <c r="C22" t="s" s="17">
+      <c r="C22" t="s" s="18">
         <v>18</v>
       </c>
       <c r="D22" s="6">
@@ -3500,136 +3510,136 @@
       <c r="J25" s="7"/>
     </row>
     <row r="26" ht="21" customHeight="1">
-      <c r="A26" t="s" s="16">
+      <c r="A26" t="s" s="17">
         <v>63</v>
       </c>
-      <c r="B26" t="s" s="16">
+      <c r="B26" t="s" s="17">
         <v>64</v>
       </c>
-      <c r="C26" t="s" s="19">
+      <c r="C26" t="s" s="18">
         <v>12</v>
       </c>
-      <c r="D26" s="20">
+      <c r="D26" s="6">
         <v>0.761904761904762</v>
       </c>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20">
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6">
         <v>0.638888888888889</v>
       </c>
-      <c r="I26" s="20"/>
+      <c r="I26" s="6"/>
       <c r="J26" s="7"/>
     </row>
     <row r="27" ht="21" customHeight="1">
-      <c r="A27" t="s" s="18">
+      <c r="A27" t="s" s="17">
         <v>65</v>
       </c>
-      <c r="B27" t="s" s="18">
+      <c r="B27" t="s" s="17">
         <v>66</v>
       </c>
-      <c r="C27" t="s" s="21">
+      <c r="C27" t="s" s="20">
         <v>67</v>
       </c>
-      <c r="D27" s="22">
+      <c r="D27" s="21">
+        <v>0.19047619047619</v>
+      </c>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21">
+        <v>0</v>
+      </c>
+      <c r="I27" s="21"/>
+      <c r="J27" s="7"/>
+    </row>
+    <row r="28" ht="21" customHeight="1">
+      <c r="A28" t="s" s="19">
+        <v>68</v>
+      </c>
+      <c r="B28" t="s" s="19">
+        <v>69</v>
+      </c>
+      <c r="C28" t="s" s="22">
+        <v>67</v>
+      </c>
+      <c r="D28" s="23">
         <v>0.738095238095238</v>
       </c>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22">
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23">
         <v>0.694444444444444</v>
       </c>
-      <c r="I27" s="22"/>
-      <c r="J27" s="9"/>
-    </row>
-    <row r="28" ht="20.7" customHeight="1">
-      <c r="A28" t="s" s="5">
-        <v>68</v>
-      </c>
-      <c r="B28" t="s" s="5">
-        <v>69</v>
-      </c>
-      <c r="C28" t="s" s="5">
+      <c r="I28" s="23"/>
+      <c r="J28" s="9"/>
+    </row>
+    <row r="29" ht="20.7" customHeight="1">
+      <c r="A29" t="s" s="5">
+        <v>70</v>
+      </c>
+      <c r="B29" t="s" s="5">
+        <v>71</v>
+      </c>
+      <c r="C29" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D29" s="15">
         <v>0.69047619047619</v>
       </c>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="6">
-        <v>0.777777777777778</v>
-      </c>
-      <c r="I28" s="12"/>
-      <c r="J28" s="15"/>
-    </row>
-    <row r="29" ht="21" customHeight="1">
-      <c r="A29" t="s" s="4">
-        <v>70</v>
-      </c>
-      <c r="B29" t="s" s="4">
-        <v>71</v>
-      </c>
-      <c r="C29" t="s" s="5">
-        <v>36</v>
-      </c>
-      <c r="D29" s="6">
-        <v>0.785714285714286</v>
-      </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
       <c r="H29" s="6">
         <v>0.777777777777778</v>
       </c>
-      <c r="I29" s="6"/>
-      <c r="J29" s="9"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="16"/>
     </row>
     <row r="30" ht="21" customHeight="1">
-      <c r="A30" t="s" s="8">
+      <c r="A30" t="s" s="4">
         <v>72</v>
       </c>
-      <c r="B30" t="s" s="8">
+      <c r="B30" t="s" s="4">
         <v>73</v>
       </c>
       <c r="C30" t="s" s="5">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D30" s="6">
-        <v>0.595238095238095</v>
+        <v>0.785714285714286</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6">
-        <v>0</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I30" s="6"/>
-      <c r="J30" s="11"/>
+      <c r="J30" s="9"/>
     </row>
     <row r="31" ht="21" customHeight="1">
-      <c r="A31" t="s" s="5">
+      <c r="A31" t="s" s="8">
         <v>74</v>
       </c>
-      <c r="B31" t="s" s="5">
+      <c r="B31" t="s" s="8">
         <v>75</v>
       </c>
       <c r="C31" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="D31" s="14">
-        <v>0.880952380952381</v>
-      </c>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
+      <c r="D31" s="6">
+        <v>0.595238095238095</v>
+      </c>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
       <c r="H31" s="6">
-        <v>0.722222222222222</v>
-      </c>
-      <c r="I31" s="12"/>
-      <c r="J31" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="6"/>
+      <c r="J31" s="11"/>
     </row>
     <row r="32" ht="21" customHeight="1">
       <c r="A32" t="s" s="5">
@@ -3639,21 +3649,21 @@
         <v>77</v>
       </c>
       <c r="C32" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="D32" s="6">
+        <v>21</v>
+      </c>
+      <c r="D32" s="15">
         <v>0.880952380952381</v>
       </c>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
       <c r="H32" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="I32" s="6"/>
-      <c r="J32" s="9"/>
-    </row>
-    <row r="33" ht="20.7" customHeight="1">
+        <v>0.722222222222222</v>
+      </c>
+      <c r="I32" s="13"/>
+      <c r="J32" s="7"/>
+    </row>
+    <row r="33" ht="21" customHeight="1">
       <c r="A33" t="s" s="5">
         <v>78</v>
       </c>
@@ -3661,21 +3671,21 @@
         <v>79</v>
       </c>
       <c r="C33" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D33" s="14">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
+        <v>12</v>
+      </c>
+      <c r="D33" s="6">
+        <v>0.880952380952381</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
       <c r="H33" s="6">
-        <v>0.805555555555556</v>
-      </c>
-      <c r="I33" s="12"/>
-      <c r="J33" s="13"/>
-    </row>
-    <row r="34" ht="21" customHeight="1">
+        <v>0.75</v>
+      </c>
+      <c r="I33" s="6"/>
+      <c r="J33" s="9"/>
+    </row>
+    <row r="34" ht="20.7" customHeight="1">
       <c r="A34" t="s" s="5">
         <v>80</v>
       </c>
@@ -3685,49 +3695,49 @@
       <c r="C34" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="15">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="6">
+        <v>0.805555555555556</v>
+      </c>
+      <c r="I34" s="13"/>
+      <c r="J34" s="14"/>
+    </row>
+    <row r="35" ht="21" customHeight="1">
+      <c r="A35" t="s" s="5">
+        <v>82</v>
+      </c>
+      <c r="B35" t="s" s="5">
+        <v>83</v>
+      </c>
+      <c r="C35" t="s" s="5">
+        <v>18</v>
+      </c>
+      <c r="D35" s="6">
         <v>0.30952380952381</v>
-      </c>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6">
-        <v>0</v>
-      </c>
-      <c r="I34" s="6"/>
-      <c r="J34" s="11"/>
-    </row>
-    <row r="35" ht="21" customHeight="1">
-      <c r="A35" t="s" s="4">
-        <v>82</v>
-      </c>
-      <c r="B35" t="s" s="4">
-        <v>83</v>
-      </c>
-      <c r="C35" t="s" s="5">
-        <v>15</v>
-      </c>
-      <c r="D35" s="6">
-        <v>0.880952380952381</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6">
-        <v>0.777777777777778</v>
+        <v>0</v>
       </c>
       <c r="I35" s="6"/>
-      <c r="J35" s="7"/>
+      <c r="J35" s="11"/>
     </row>
     <row r="36" ht="21" customHeight="1">
-      <c r="A36" t="s" s="16">
+      <c r="A36" t="s" s="4">
         <v>84</v>
       </c>
-      <c r="B36" t="s" s="16">
+      <c r="B36" t="s" s="4">
         <v>85</v>
       </c>
-      <c r="C36" t="s" s="17">
-        <v>21</v>
+      <c r="C36" t="s" s="5">
+        <v>15</v>
       </c>
       <c r="D36" s="6">
         <v>0.880952380952381</v>
@@ -3736,151 +3746,155 @@
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6">
-        <v>0.75</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I36" s="6"/>
-      <c r="J36" s="9"/>
+      <c r="J36" s="7"/>
     </row>
     <row r="37" ht="21" customHeight="1">
-      <c r="A37" t="s" s="8">
+      <c r="A37" t="s" s="17">
         <v>86</v>
       </c>
-      <c r="B37" t="s" s="8">
+      <c r="B37" t="s" s="17">
         <v>87</v>
       </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="6"/>
+      <c r="C37" t="s" s="18">
+        <v>21</v>
+      </c>
+      <c r="D37" s="6">
+        <v>0.880952380952381</v>
+      </c>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6">
-        <v>0.638888888888889</v>
+        <v>0.75</v>
       </c>
       <c r="I37" s="6"/>
-      <c r="J37" s="11"/>
+      <c r="J37" s="9"/>
     </row>
     <row r="38" ht="21" customHeight="1">
-      <c r="A38" t="s" s="4">
+      <c r="A38" t="s" s="8">
         <v>88</v>
       </c>
-      <c r="B38" t="s" s="4">
+      <c r="B38" t="s" s="8">
         <v>89</v>
       </c>
       <c r="C38" t="s" s="5">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D38" s="6">
-        <v>0.666666666666667</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6">
+        <v>0.638888888888889</v>
+      </c>
+      <c r="I38" s="6"/>
+      <c r="J38" s="11"/>
+    </row>
+    <row r="39" ht="21" customHeight="1">
+      <c r="A39" t="s" s="4">
+        <v>90</v>
+      </c>
+      <c r="B39" t="s" s="4">
+        <v>91</v>
+      </c>
+      <c r="C39" t="s" s="5">
+        <v>15</v>
+      </c>
+      <c r="D39" s="6">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6">
         <v>0</v>
       </c>
-      <c r="I38" s="6"/>
-      <c r="J38" s="9"/>
-    </row>
-    <row r="39" ht="20.7" customHeight="1">
-      <c r="A39" t="s" s="8">
-        <v>90</v>
-      </c>
-      <c r="B39" t="s" s="8">
-        <v>91</v>
-      </c>
-      <c r="C39" t="s" s="5">
+      <c r="I39" s="6"/>
+      <c r="J39" s="9"/>
+    </row>
+    <row r="40" ht="20.7" customHeight="1">
+      <c r="A40" t="s" s="8">
+        <v>92</v>
+      </c>
+      <c r="B40" t="s" s="8">
+        <v>93</v>
+      </c>
+      <c r="C40" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D39" s="14">
+      <c r="D40" s="15">
         <v>0.761904761904762</v>
       </c>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="6">
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="6">
         <v>0.805555555555556</v>
       </c>
-      <c r="I39" s="12"/>
-      <c r="J39" s="13"/>
-    </row>
-    <row r="40" ht="20.7" customHeight="1">
-      <c r="A40" t="s" s="5">
-        <v>92</v>
-      </c>
-      <c r="B40" t="s" s="5">
-        <v>93</v>
-      </c>
-      <c r="C40" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="D40" s="6">
-        <v>0.214285714285714</v>
-      </c>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="6">
-        <v>0</v>
-      </c>
-      <c r="I40" s="12"/>
-      <c r="J40" s="15"/>
-    </row>
-    <row r="41" ht="21" customHeight="1">
-      <c r="A41" t="s" s="4">
+      <c r="I40" s="13"/>
+      <c r="J40" s="14"/>
+    </row>
+    <row r="41" ht="20.7" customHeight="1">
+      <c r="A41" t="s" s="5">
         <v>94</v>
       </c>
-      <c r="B41" t="s" s="4">
+      <c r="B41" t="s" s="5">
         <v>95</v>
       </c>
       <c r="C41" t="s" s="5">
         <v>21</v>
       </c>
       <c r="D41" s="6">
+        <v>0.214285714285714</v>
+      </c>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="6">
+        <v>0</v>
+      </c>
+      <c r="I41" s="13"/>
+      <c r="J41" s="16"/>
+    </row>
+    <row r="42" ht="21" customHeight="1">
+      <c r="A42" t="s" s="4">
+        <v>96</v>
+      </c>
+      <c r="B42" t="s" s="4">
+        <v>97</v>
+      </c>
+      <c r="C42" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="D42" s="6">
         <v>0.833333333333333</v>
-      </c>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6">
-        <v>0.305555555555556</v>
-      </c>
-      <c r="I41" s="6"/>
-      <c r="J41" s="7"/>
-    </row>
-    <row r="42" ht="21" customHeight="1">
-      <c r="A42" t="s" s="18">
-        <v>96</v>
-      </c>
-      <c r="B42" t="s" s="18">
-        <v>97</v>
-      </c>
-      <c r="C42" t="s" s="17">
-        <v>12</v>
-      </c>
-      <c r="D42" s="6">
-        <v>0.595238095238095</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
       <c r="H42" s="6">
-        <v>0.777777777777778</v>
+        <v>0.305555555555556</v>
       </c>
       <c r="I42" s="6"/>
       <c r="J42" s="7"/>
     </row>
     <row r="43" ht="21" customHeight="1">
-      <c r="A43" t="s" s="5">
+      <c r="A43" t="s" s="19">
         <v>98</v>
       </c>
-      <c r="B43" t="s" s="5">
+      <c r="B43" t="s" s="19">
         <v>99</v>
       </c>
-      <c r="C43" t="s" s="5">
-        <v>21</v>
+      <c r="C43" t="s" s="18">
+        <v>12</v>
       </c>
       <c r="D43" s="6">
-        <v>0.80952380952381</v>
+        <v>0.595238095238095</v>
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
@@ -3892,199 +3906,199 @@
       <c r="J43" s="7"/>
     </row>
     <row r="44" ht="21" customHeight="1">
-      <c r="A44" t="s" s="4">
+      <c r="A44" t="s" s="5">
         <v>100</v>
       </c>
-      <c r="B44" t="s" s="4">
+      <c r="B44" t="s" s="5">
         <v>101</v>
       </c>
       <c r="C44" t="s" s="5">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D44" s="6">
-        <v>0.833333333333333</v>
+        <v>0.80952380952381</v>
       </c>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="H44" s="6">
-        <v>0.861111111111111</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I44" s="6"/>
       <c r="J44" s="7"/>
     </row>
     <row r="45" ht="21" customHeight="1">
-      <c r="A45" t="s" s="18">
+      <c r="A45" t="s" s="4">
         <v>102</v>
       </c>
-      <c r="B45" t="s" s="18">
+      <c r="B45" t="s" s="4">
         <v>103</v>
       </c>
-      <c r="C45" t="s" s="17">
-        <v>18</v>
+      <c r="C45" t="s" s="5">
+        <v>12</v>
       </c>
       <c r="D45" s="6">
-        <v>0.5238095238095239</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6">
-        <v>0</v>
+        <v>0.861111111111111</v>
       </c>
       <c r="I45" s="6"/>
       <c r="J45" s="7"/>
     </row>
     <row r="46" ht="21" customHeight="1">
-      <c r="A46" t="s" s="5">
+      <c r="A46" t="s" s="19">
         <v>104</v>
       </c>
-      <c r="B46" t="s" s="5">
+      <c r="B46" t="s" s="19">
         <v>105</v>
       </c>
-      <c r="C46" t="s" s="5">
-        <v>36</v>
+      <c r="C46" t="s" s="18">
+        <v>18</v>
       </c>
       <c r="D46" s="6">
-        <v>0.904761904761905</v>
+        <v>0.5238095238095239</v>
       </c>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6">
-        <v>0.777777777777778</v>
+        <v>0</v>
       </c>
       <c r="I46" s="6"/>
       <c r="J46" s="7"/>
     </row>
     <row r="47" ht="21" customHeight="1">
-      <c r="A47" t="s" s="4">
+      <c r="A47" t="s" s="5">
         <v>106</v>
       </c>
-      <c r="B47" t="s" s="4">
+      <c r="B47" t="s" s="5">
         <v>107</v>
       </c>
       <c r="C47" t="s" s="5">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D47" s="6">
-        <v>0.5238095238095239</v>
+        <v>0.904761904761905</v>
       </c>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
       <c r="H47" s="6">
-        <v>0.361111111111111</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I47" s="6"/>
-      <c r="J47" s="9"/>
+      <c r="J47" s="7"/>
     </row>
     <row r="48" ht="21" customHeight="1">
-      <c r="A48" t="s" s="23">
+      <c r="A48" t="s" s="4">
         <v>108</v>
       </c>
-      <c r="B48" t="s" s="23">
+      <c r="B48" t="s" s="4">
         <v>109</v>
       </c>
       <c r="C48" t="s" s="5">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D48" s="6">
-        <v>0.595238095238095</v>
+        <v>0.5238095238095239</v>
       </c>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
       <c r="H48" s="6">
-        <v>0.75</v>
+        <v>0.361111111111111</v>
       </c>
       <c r="I48" s="6"/>
-      <c r="J48" s="10"/>
+      <c r="J48" s="9"/>
     </row>
     <row r="49" ht="21" customHeight="1">
-      <c r="A49" t="s" s="8">
+      <c r="A49" t="s" s="24">
         <v>110</v>
       </c>
-      <c r="B49" t="s" s="8">
+      <c r="B49" t="s" s="24">
         <v>111</v>
       </c>
       <c r="C49" t="s" s="5">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D49" s="6">
-        <v>0.571428571428571</v>
+        <v>0.595238095238095</v>
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
       <c r="H49" s="6">
-        <v>0.777777777777778</v>
+        <v>0.75</v>
       </c>
       <c r="I49" s="6"/>
       <c r="J49" s="10"/>
     </row>
-    <row r="50" ht="20.7" customHeight="1">
-      <c r="A50" t="s" s="4">
+    <row r="50" ht="21" customHeight="1">
+      <c r="A50" t="s" s="8">
         <v>112</v>
       </c>
-      <c r="B50" t="s" s="4">
+      <c r="B50" t="s" s="8">
         <v>113</v>
       </c>
       <c r="C50" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="D50" s="14">
-        <v>0.595238095238095</v>
-      </c>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
+        <v>18</v>
+      </c>
+      <c r="D50" s="6">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
       <c r="H50" s="6">
         <v>0.777777777777778</v>
       </c>
-      <c r="I50" s="12"/>
-      <c r="J50" s="15"/>
-    </row>
-    <row r="51" ht="21" customHeight="1">
-      <c r="A51" t="s" s="18">
+      <c r="I50" s="6"/>
+      <c r="J50" s="10"/>
+    </row>
+    <row r="51" ht="20.7" customHeight="1">
+      <c r="A51" t="s" s="4">
         <v>114</v>
       </c>
-      <c r="B51" t="s" s="18">
+      <c r="B51" t="s" s="4">
         <v>115</v>
       </c>
-      <c r="C51" t="s" s="17">
+      <c r="C51" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="D51" s="15">
+        <v>0.595238095238095</v>
+      </c>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="6">
+        <v>0.777777777777778</v>
+      </c>
+      <c r="I51" s="13"/>
+      <c r="J51" s="16"/>
+    </row>
+    <row r="52" ht="21" customHeight="1">
+      <c r="A52" t="s" s="19">
+        <v>116</v>
+      </c>
+      <c r="B52" t="s" s="19">
+        <v>117</v>
+      </c>
+      <c r="C52" t="s" s="18">
         <v>67</v>
       </c>
-      <c r="D51" s="6">
+      <c r="D52" s="6">
         <v>0.761904761904762</v>
-      </c>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6">
-        <v>0.694444444444444</v>
-      </c>
-      <c r="I51" s="6"/>
-      <c r="J51" s="7"/>
-    </row>
-    <row r="52" ht="21" customHeight="1">
-      <c r="A52" t="s" s="5">
-        <v>116</v>
-      </c>
-      <c r="B52" t="s" s="5">
-        <v>117</v>
-      </c>
-      <c r="C52" t="s" s="5">
-        <v>67</v>
-      </c>
-      <c r="D52" s="6">
-        <v>0.833333333333333</v>
       </c>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
       <c r="H52" s="6">
-        <v>0</v>
+        <v>0.694444444444444</v>
       </c>
       <c r="I52" s="6"/>
       <c r="J52" s="7"/>
@@ -4097,139 +4111,143 @@
         <v>119</v>
       </c>
       <c r="C53" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="D53" s="6"/>
+        <v>67</v>
+      </c>
+      <c r="D53" s="6">
+        <v>0.833333333333333</v>
+      </c>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6">
-        <v>0.777777777777778</v>
+        <v>0</v>
       </c>
       <c r="I53" s="6"/>
       <c r="J53" s="7"/>
     </row>
     <row r="54" ht="21" customHeight="1">
-      <c r="A54" t="s" s="4">
+      <c r="A54" t="s" s="5">
         <v>120</v>
       </c>
-      <c r="B54" t="s" s="4">
+      <c r="B54" t="s" s="5">
         <v>121</v>
       </c>
       <c r="C54" t="s" s="5">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D54" s="6">
-        <v>0.571428571428571</v>
+        <v>0</v>
       </c>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
       <c r="H54" s="6">
-        <v>0.555555555555556</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I54" s="6"/>
-      <c r="J54" s="9"/>
+      <c r="J54" s="7"/>
     </row>
     <row r="55" ht="21" customHeight="1">
-      <c r="A55" t="s" s="8">
+      <c r="A55" t="s" s="4">
         <v>122</v>
       </c>
-      <c r="B55" t="s" s="8">
+      <c r="B55" t="s" s="4">
         <v>123</v>
       </c>
       <c r="C55" t="s" s="5">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D55" s="6">
-        <v>0.714285714285714</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
       <c r="H55" s="6">
-        <v>0.777777777777778</v>
+        <v>0.555555555555556</v>
       </c>
       <c r="I55" s="6"/>
-      <c r="J55" s="11"/>
+      <c r="J55" s="9"/>
     </row>
     <row r="56" ht="21" customHeight="1">
-      <c r="A56" t="s" s="5">
+      <c r="A56" t="s" s="8">
         <v>124</v>
       </c>
-      <c r="B56" t="s" s="5">
+      <c r="B56" t="s" s="8">
         <v>125</v>
       </c>
       <c r="C56" t="s" s="5">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D56" s="6">
-        <v>0.476190476190476</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6">
+        <v>0.777777777777778</v>
+      </c>
+      <c r="I56" s="6"/>
+      <c r="J56" s="11"/>
+    </row>
+    <row r="57" ht="21" customHeight="1">
+      <c r="A57" t="s" s="5">
+        <v>126</v>
+      </c>
+      <c r="B57" t="s" s="5">
+        <v>127</v>
+      </c>
+      <c r="C57" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D57" s="6">
+        <v>0.476190476190476</v>
+      </c>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6">
         <v>0.75</v>
       </c>
-      <c r="I56" s="6"/>
-      <c r="J56" s="9"/>
-    </row>
-    <row r="57" ht="20.35" customHeight="1">
-      <c r="A57" t="s" s="4">
-        <v>126</v>
-      </c>
-      <c r="B57" t="s" s="4">
-        <v>127</v>
-      </c>
-      <c r="C57" t="s" s="5">
+      <c r="I57" s="6"/>
+      <c r="J57" s="9"/>
+    </row>
+    <row r="58" ht="20.35" customHeight="1">
+      <c r="A58" t="s" s="4">
+        <v>128</v>
+      </c>
+      <c r="B58" t="s" s="4">
+        <v>129</v>
+      </c>
+      <c r="C58" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D57" s="14">
+      <c r="D58" s="15">
         <v>0.666666666666667</v>
       </c>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="6">
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="6">
         <v>0.777777777777778</v>
       </c>
-      <c r="I57" s="12"/>
-      <c r="J57" s="15"/>
-    </row>
-    <row r="58" ht="21" customHeight="1">
-      <c r="A58" t="s" s="16">
-        <v>128</v>
-      </c>
-      <c r="B58" t="s" s="16">
-        <v>129</v>
-      </c>
-      <c r="C58" t="s" s="17">
+      <c r="I58" s="13"/>
+      <c r="J58" s="16"/>
+    </row>
+    <row r="59" ht="21" customHeight="1">
+      <c r="A59" t="s" s="17">
+        <v>130</v>
+      </c>
+      <c r="B59" t="s" s="17">
+        <v>131</v>
+      </c>
+      <c r="C59" t="s" s="18">
         <v>18</v>
       </c>
-      <c r="D58" s="6">
+      <c r="D59" s="6">
         <v>0.69047619047619</v>
       </c>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="I58" s="6"/>
-      <c r="J58" s="9"/>
-    </row>
-    <row r="59" ht="21" customHeight="1">
-      <c r="A59" t="s" s="23">
-        <v>130</v>
-      </c>
-      <c r="B59" t="s" s="23">
-        <v>131</v>
-      </c>
-      <c r="C59" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D59" s="6"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
@@ -4237,170 +4255,178 @@
         <v>0.75</v>
       </c>
       <c r="I59" s="6"/>
-      <c r="J59" s="10"/>
+      <c r="J59" s="9"/>
     </row>
     <row r="60" ht="21" customHeight="1">
-      <c r="A60" t="s" s="8">
+      <c r="A60" t="s" s="24">
         <v>132</v>
       </c>
-      <c r="B60" t="s" s="8">
+      <c r="B60" t="s" s="24">
         <v>133</v>
       </c>
       <c r="C60" t="s" s="5">
         <v>18</v>
       </c>
       <c r="D60" s="6">
-        <v>0.5238095238095239</v>
+        <v>0.69047619047619</v>
       </c>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
       <c r="H60" s="6">
-        <v>0.805555555555556</v>
+        <v>0.75</v>
       </c>
       <c r="I60" s="6"/>
-      <c r="J60" s="11"/>
+      <c r="J60" s="10"/>
     </row>
     <row r="61" ht="21" customHeight="1">
-      <c r="A61" t="s" s="5">
+      <c r="A61" t="s" s="8">
         <v>134</v>
       </c>
-      <c r="B61" t="s" s="5">
+      <c r="B61" t="s" s="8">
         <v>135</v>
       </c>
       <c r="C61" t="s" s="5">
-        <v>15</v>
-      </c>
-      <c r="D61" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="D61" s="6">
+        <v>0.5238095238095239</v>
+      </c>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
       <c r="H61" s="6">
-        <v>0</v>
+        <v>0.805555555555556</v>
       </c>
       <c r="I61" s="6"/>
-      <c r="J61" s="9"/>
-    </row>
-    <row r="62" ht="20.7" customHeight="1">
-      <c r="A62" t="s" s="4">
+      <c r="J61" s="11"/>
+    </row>
+    <row r="62" ht="21" customHeight="1">
+      <c r="A62" t="s" s="5">
         <v>136</v>
       </c>
-      <c r="B62" t="s" s="4">
+      <c r="B62" t="s" s="5">
         <v>137</v>
       </c>
       <c r="C62" t="s" s="5">
-        <v>67</v>
-      </c>
-      <c r="D62" s="14">
-        <v>0.80952380952381</v>
-      </c>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
+        <v>15</v>
+      </c>
+      <c r="D62" s="6">
+        <v>0.547619047619048</v>
+      </c>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
       <c r="H62" s="6">
         <v>0</v>
       </c>
-      <c r="I62" s="12"/>
-      <c r="J62" s="13"/>
-    </row>
-    <row r="63" ht="21" customHeight="1">
-      <c r="A63" t="s" s="18">
+      <c r="I62" s="6"/>
+      <c r="J62" s="9"/>
+    </row>
+    <row r="63" ht="20.7" customHeight="1">
+      <c r="A63" t="s" s="4">
         <v>138</v>
       </c>
-      <c r="B63" t="s" s="18">
+      <c r="B63" t="s" s="4">
         <v>139</v>
       </c>
-      <c r="C63" t="s" s="17">
+      <c r="C63" t="s" s="5">
+        <v>67</v>
+      </c>
+      <c r="D63" s="15">
+        <v>0.80952380952381</v>
+      </c>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="6">
+        <v>0</v>
+      </c>
+      <c r="I63" s="13"/>
+      <c r="J63" s="14"/>
+    </row>
+    <row r="64" ht="21" customHeight="1">
+      <c r="A64" t="s" s="19">
+        <v>140</v>
+      </c>
+      <c r="B64" t="s" s="19">
+        <v>141</v>
+      </c>
+      <c r="C64" t="s" s="18">
         <v>36</v>
       </c>
-      <c r="D63" s="6">
+      <c r="D64" s="6">
         <v>0.5238095238095239</v>
-      </c>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="I63" s="6"/>
-      <c r="J63" s="11"/>
-    </row>
-    <row r="64" ht="21" customHeight="1">
-      <c r="A64" t="s" s="5">
-        <v>140</v>
-      </c>
-      <c r="B64" t="s" s="5">
-        <v>141</v>
-      </c>
-      <c r="C64" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D64" s="6">
-        <v>0.714285714285714</v>
       </c>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
       <c r="H64" s="6">
-        <v>0.694444444444444</v>
+        <v>0.75</v>
       </c>
       <c r="I64" s="6"/>
-      <c r="J64" s="7"/>
+      <c r="J64" s="11"/>
     </row>
     <row r="65" ht="21" customHeight="1">
-      <c r="A65" t="s" s="4">
+      <c r="A65" t="s" s="5">
         <v>142</v>
       </c>
-      <c r="B65" t="s" s="4">
+      <c r="B65" t="s" s="5">
         <v>143</v>
       </c>
       <c r="C65" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="D65" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="D65" s="6">
+        <v>0.714285714285714</v>
+      </c>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
       <c r="H65" s="6">
-        <v>0.777777777777778</v>
+        <v>0.694444444444444</v>
       </c>
       <c r="I65" s="6"/>
       <c r="J65" s="7"/>
     </row>
     <row r="66" ht="21" customHeight="1">
-      <c r="A66" t="s" s="18">
+      <c r="A66" t="s" s="4">
         <v>144</v>
       </c>
-      <c r="B66" t="s" s="18">
+      <c r="B66" t="s" s="4">
         <v>145</v>
       </c>
-      <c r="C66" s="24"/>
-      <c r="D66" s="6"/>
+      <c r="C66" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="D66" s="6">
+        <v>0</v>
+      </c>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
       <c r="H66" s="6">
-        <v>0.694444444444444</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I66" s="6"/>
       <c r="J66" s="7"/>
     </row>
     <row r="67" ht="21" customHeight="1">
-      <c r="A67" t="s" s="5">
+      <c r="A67" t="s" s="19">
         <v>146</v>
       </c>
-      <c r="B67" t="s" s="5">
+      <c r="B67" t="s" s="19">
         <v>147</v>
       </c>
-      <c r="C67" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D67" s="6"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="6">
+        <v>0</v>
+      </c>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
       <c r="H67" s="6">
-        <v>0.805555555555556</v>
+        <v>0.694444444444444</v>
       </c>
       <c r="I67" s="6"/>
       <c r="J67" s="7"/>
@@ -4416,29 +4442,29 @@
         <v>18</v>
       </c>
       <c r="D68" s="6">
-        <v>0.619047619047619</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
       <c r="H68" s="6">
-        <v>0.777777777777778</v>
+        <v>0.805555555555556</v>
       </c>
       <c r="I68" s="6"/>
-      <c r="J68" s="9"/>
+      <c r="J68" s="7"/>
     </row>
     <row r="69" ht="21" customHeight="1">
-      <c r="A69" t="s" s="4">
+      <c r="A69" t="s" s="5">
         <v>150</v>
       </c>
-      <c r="B69" t="s" s="4">
+      <c r="B69" t="s" s="5">
         <v>151</v>
       </c>
       <c r="C69" t="s" s="5">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D69" s="6">
-        <v>0.595238095238095</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
@@ -4447,20 +4473,20 @@
         <v>0.777777777777778</v>
       </c>
       <c r="I69" s="6"/>
-      <c r="J69" s="10"/>
+      <c r="J69" s="9"/>
     </row>
     <row r="70" ht="21" customHeight="1">
-      <c r="A70" t="s" s="8">
+      <c r="A70" t="s" s="4">
         <v>152</v>
       </c>
-      <c r="B70" t="s" s="8">
+      <c r="B70" t="s" s="4">
         <v>153</v>
       </c>
       <c r="C70" t="s" s="5">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D70" s="6">
-        <v>0.785714285714286</v>
+        <v>0.595238095238095</v>
       </c>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
@@ -4469,37 +4495,39 @@
         <v>0.777777777777778</v>
       </c>
       <c r="I70" s="6"/>
-      <c r="J70" s="11"/>
+      <c r="J70" s="10"/>
     </row>
     <row r="71" ht="21" customHeight="1">
-      <c r="A71" t="s" s="5">
+      <c r="A71" t="s" s="8">
         <v>154</v>
       </c>
-      <c r="B71" t="s" s="5">
+      <c r="B71" t="s" s="8">
         <v>155</v>
       </c>
       <c r="C71" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="D71" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="D71" s="6">
+        <v>0.785714285714286</v>
+      </c>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
       <c r="H71" s="6">
-        <v>0.722222222222222</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I71" s="6"/>
-      <c r="J71" s="7"/>
+      <c r="J71" s="11"/>
     </row>
     <row r="72" ht="21" customHeight="1">
-      <c r="A72" t="s" s="4">
+      <c r="A72" t="s" s="5">
         <v>156</v>
       </c>
-      <c r="B72" t="s" s="4">
+      <c r="B72" t="s" s="5">
         <v>157</v>
       </c>
       <c r="C72" t="s" s="5">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D72" s="6">
         <v>0.69047619047619</v>
@@ -4514,13 +4542,13 @@
       <c r="J72" s="7"/>
     </row>
     <row r="73" ht="21" customHeight="1">
-      <c r="A73" t="s" s="18">
+      <c r="A73" t="s" s="4">
         <v>158</v>
       </c>
-      <c r="B73" t="s" s="18">
+      <c r="B73" t="s" s="4">
         <v>159</v>
       </c>
-      <c r="C73" t="s" s="17">
+      <c r="C73" t="s" s="5">
         <v>12</v>
       </c>
       <c r="D73" s="6">
@@ -4530,29 +4558,29 @@
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
       <c r="H73" s="6">
-        <v>0.638888888888889</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="I73" s="6"/>
       <c r="J73" s="7"/>
     </row>
     <row r="74" ht="21" customHeight="1">
-      <c r="A74" t="s" s="5">
+      <c r="A74" t="s" s="19">
         <v>160</v>
       </c>
-      <c r="B74" t="s" s="5">
+      <c r="B74" t="s" s="19">
         <v>161</v>
       </c>
-      <c r="C74" t="s" s="5">
-        <v>67</v>
+      <c r="C74" t="s" s="18">
+        <v>12</v>
       </c>
       <c r="D74" s="6">
-        <v>0.619047619047619</v>
+        <v>0.69047619047619</v>
       </c>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
       <c r="H74" s="6">
-        <v>0.666666666666667</v>
+        <v>0.638888888888889</v>
       </c>
       <c r="I74" s="6"/>
       <c r="J74" s="7"/>
@@ -4565,16 +4593,16 @@
         <v>163</v>
       </c>
       <c r="C75" t="s" s="5">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="D75" s="6">
-        <v>0.80952380952381</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
       <c r="H75" s="6">
-        <v>0.777777777777778</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="I75" s="6"/>
       <c r="J75" s="7"/>
@@ -4587,16 +4615,16 @@
         <v>165</v>
       </c>
       <c r="C76" t="s" s="5">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D76" s="6">
-        <v>0.857142857142857</v>
+        <v>0.80952380952381</v>
       </c>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
       <c r="H76" s="6">
-        <v>0.722222222222222</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I76" s="6"/>
       <c r="J76" s="7"/>
@@ -4609,16 +4637,16 @@
         <v>167</v>
       </c>
       <c r="C77" t="s" s="5">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D77" s="6">
-        <v>0.738095238095238</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
       <c r="H77" s="6">
-        <v>0.694444444444444</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="I77" s="6"/>
       <c r="J77" s="7"/>
@@ -4631,16 +4659,16 @@
         <v>169</v>
       </c>
       <c r="C78" t="s" s="5">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="D78" s="6">
-        <v>0.761904761904762</v>
+        <v>0.738095238095238</v>
       </c>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
       <c r="H78" s="6">
-        <v>0.722222222222222</v>
+        <v>0.694444444444444</v>
       </c>
       <c r="I78" s="6"/>
       <c r="J78" s="7"/>
@@ -4653,10 +4681,10 @@
         <v>171</v>
       </c>
       <c r="C79" t="s" s="5">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D79" s="6">
-        <v>0.714285714285714</v>
+        <v>0.761904761904762</v>
       </c>
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
@@ -4675,16 +4703,16 @@
         <v>173</v>
       </c>
       <c r="C80" t="s" s="5">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D80" s="6">
-        <v>0.880952380952381</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
       <c r="H80" s="6">
-        <v>0.75</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="I80" s="6"/>
       <c r="J80" s="7"/>
@@ -4696,8 +4724,12 @@
       <c r="B81" t="s" s="5">
         <v>175</v>
       </c>
-      <c r="C81" s="12"/>
-      <c r="D81" s="6"/>
+      <c r="C81" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="D81" s="6">
+        <v>0.880952380952381</v>
+      </c>
       <c r="E81" s="6"/>
       <c r="F81" s="6"/>
       <c r="G81" s="6"/>
@@ -4705,71 +4737,73 @@
         <v>0.75</v>
       </c>
       <c r="I81" s="6"/>
-      <c r="J81" s="9"/>
-    </row>
-    <row r="82" ht="20.7" customHeight="1">
-      <c r="A82" t="s" s="4">
+      <c r="J81" s="7"/>
+    </row>
+    <row r="82" ht="21" customHeight="1">
+      <c r="A82" t="s" s="5">
         <v>176</v>
       </c>
-      <c r="B82" t="s" s="4">
+      <c r="B82" t="s" s="5">
         <v>177</v>
       </c>
       <c r="C82" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D82" s="6">
+        <v>0.904761904761905</v>
+      </c>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="I82" s="6"/>
+      <c r="J82" s="9"/>
+    </row>
+    <row r="83" ht="20.7" customHeight="1">
+      <c r="A83" t="s" s="4">
+        <v>178</v>
+      </c>
+      <c r="B83" t="s" s="4">
+        <v>179</v>
+      </c>
+      <c r="C83" t="s" s="5">
         <v>36</v>
       </c>
-      <c r="D82" s="25">
+      <c r="D83" s="12">
         <v>0.857142857142857</v>
       </c>
-      <c r="E82" s="12"/>
-      <c r="F82" s="12"/>
-      <c r="G82" s="12"/>
-      <c r="H82" s="6">
+      <c r="E83" s="13"/>
+      <c r="F83" s="13"/>
+      <c r="G83" s="13"/>
+      <c r="H83" s="6">
         <v>0.777777777777778</v>
       </c>
-      <c r="I82" s="12"/>
-      <c r="J82" s="15"/>
-    </row>
-    <row r="83" ht="21" customHeight="1">
-      <c r="A83" t="s" s="18">
-        <v>178</v>
-      </c>
-      <c r="B83" t="s" s="18">
-        <v>179</v>
-      </c>
-      <c r="C83" t="s" s="17">
+      <c r="I83" s="13"/>
+      <c r="J83" s="16"/>
+    </row>
+    <row r="84" ht="21" customHeight="1">
+      <c r="A84" t="s" s="19">
+        <v>180</v>
+      </c>
+      <c r="B84" t="s" s="19">
+        <v>181</v>
+      </c>
+      <c r="C84" t="s" s="18">
         <v>21</v>
       </c>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
-      <c r="G83" s="6"/>
-      <c r="H83" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="I83" s="6"/>
-      <c r="J83" s="7"/>
-    </row>
-    <row r="84" ht="21" customHeight="1">
-      <c r="A84" t="s" s="5">
-        <v>180</v>
-      </c>
-      <c r="B84" t="s" s="5">
-        <v>181</v>
-      </c>
-      <c r="C84" t="s" s="5">
-        <v>36</v>
-      </c>
       <c r="D84" s="6">
-        <v>0.452380952380952</v>
+        <v>0.5238095238095239</v>
       </c>
       <c r="E84" s="6"/>
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
       <c r="H84" s="6">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="I84" s="6"/>
-      <c r="J84" s="9"/>
+      <c r="J84" s="7"/>
     </row>
     <row r="85" ht="21" customHeight="1">
       <c r="A85" t="s" s="5">
@@ -4779,120 +4813,120 @@
         <v>183</v>
       </c>
       <c r="C85" t="s" s="5">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D85" s="6">
-        <v>0.857142857142857</v>
+        <v>0.452380952380952</v>
       </c>
       <c r="E85" s="6"/>
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
       <c r="H85" s="6">
-        <v>0.777777777777778</v>
+        <v>0</v>
       </c>
       <c r="I85" s="6"/>
-      <c r="J85" s="10"/>
+      <c r="J85" s="9"/>
     </row>
     <row r="86" ht="21" customHeight="1">
-      <c r="A86" t="s" s="4">
+      <c r="A86" t="s" s="5">
         <v>184</v>
       </c>
-      <c r="B86" t="s" s="4">
+      <c r="B86" t="s" s="5">
         <v>185</v>
       </c>
       <c r="C86" t="s" s="5">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="D86" s="6">
-        <v>0.619047619047619</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="E86" s="6"/>
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
       <c r="H86" s="6">
-        <v>0.694444444444444</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I86" s="6"/>
-      <c r="J86" s="11"/>
+      <c r="J86" s="10"/>
     </row>
     <row r="87" ht="21" customHeight="1">
-      <c r="A87" t="s" s="18">
+      <c r="A87" t="s" s="4">
         <v>186</v>
       </c>
-      <c r="B87" t="s" s="18">
+      <c r="B87" t="s" s="4">
         <v>187</v>
       </c>
-      <c r="C87" t="s" s="17">
-        <v>21</v>
+      <c r="C87" t="s" s="5">
+        <v>67</v>
       </c>
       <c r="D87" s="6">
-        <v>0.69047619047619</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="E87" s="6"/>
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
       <c r="H87" s="6">
-        <v>0.638888888888889</v>
+        <v>0.694444444444444</v>
       </c>
       <c r="I87" s="6"/>
-      <c r="J87" s="7"/>
+      <c r="J87" s="11"/>
     </row>
     <row r="88" ht="21" customHeight="1">
-      <c r="A88" t="s" s="5">
+      <c r="A88" t="s" s="19">
         <v>188</v>
       </c>
-      <c r="B88" t="s" s="5">
+      <c r="B88" t="s" s="19">
         <v>189</v>
       </c>
-      <c r="C88" t="s" s="5">
-        <v>18</v>
+      <c r="C88" t="s" s="18">
+        <v>21</v>
       </c>
       <c r="D88" s="6">
-        <v>0.619047619047619</v>
+        <v>0.69047619047619</v>
       </c>
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
       <c r="H88" s="6">
-        <v>0.416666666666667</v>
+        <v>0.638888888888889</v>
       </c>
       <c r="I88" s="6"/>
       <c r="J88" s="7"/>
     </row>
     <row r="89" ht="21" customHeight="1">
-      <c r="A89" t="s" s="4">
+      <c r="A89" t="s" s="5">
         <v>190</v>
       </c>
-      <c r="B89" t="s" s="4">
+      <c r="B89" t="s" s="5">
         <v>191</v>
       </c>
       <c r="C89" t="s" s="5">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D89" s="6">
-        <v>0.785714285714286</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="E89" s="6"/>
       <c r="F89" s="6"/>
       <c r="G89" s="6"/>
       <c r="H89" s="6">
-        <v>0.75</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="I89" s="6"/>
       <c r="J89" s="7"/>
     </row>
     <row r="90" ht="21" customHeight="1">
-      <c r="A90" t="s" s="16">
+      <c r="A90" t="s" s="4">
         <v>192</v>
       </c>
-      <c r="B90" t="s" s="16">
+      <c r="B90" t="s" s="4">
         <v>193</v>
       </c>
-      <c r="C90" t="s" s="17">
-        <v>36</v>
+      <c r="C90" t="s" s="5">
+        <v>12</v>
       </c>
       <c r="D90" s="6">
-        <v>0.642857142857143</v>
+        <v>0.785714285714286</v>
       </c>
       <c r="E90" s="6"/>
       <c r="F90" s="6"/>
@@ -4904,81 +4938,83 @@
       <c r="J90" s="7"/>
     </row>
     <row r="91" ht="21" customHeight="1">
-      <c r="A91" t="s" s="16">
+      <c r="A91" t="s" s="17">
         <v>194</v>
       </c>
-      <c r="B91" t="s" s="16">
+      <c r="B91" t="s" s="17">
         <v>195</v>
       </c>
-      <c r="C91" t="s" s="17">
+      <c r="C91" t="s" s="18">
         <v>36</v>
       </c>
       <c r="D91" s="6">
-        <v>0.5238095238095239</v>
+        <v>0.642857142857143</v>
       </c>
       <c r="E91" s="6"/>
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
       <c r="H91" s="6">
-        <v>0.888888888888889</v>
+        <v>0.75</v>
       </c>
       <c r="I91" s="6"/>
       <c r="J91" s="7"/>
     </row>
     <row r="92" ht="21" customHeight="1">
-      <c r="A92" t="s" s="23">
+      <c r="A92" t="s" s="17">
         <v>196</v>
       </c>
-      <c r="B92" t="s" s="23">
+      <c r="B92" t="s" s="17">
         <v>197</v>
       </c>
-      <c r="C92" t="s" s="5">
-        <v>21</v>
+      <c r="C92" t="s" s="18">
+        <v>36</v>
       </c>
       <c r="D92" s="6">
-        <v>0.666666666666667</v>
+        <v>0.5238095238095239</v>
       </c>
       <c r="E92" s="6"/>
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
       <c r="H92" s="6">
-        <v>0.75</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="I92" s="6"/>
       <c r="J92" s="7"/>
     </row>
     <row r="93" ht="21" customHeight="1">
-      <c r="A93" t="s" s="18">
+      <c r="A93" t="s" s="24">
         <v>198</v>
       </c>
-      <c r="B93" t="s" s="18">
+      <c r="B93" t="s" s="24">
         <v>199</v>
       </c>
-      <c r="C93" t="s" s="17">
-        <v>15</v>
-      </c>
-      <c r="D93" s="6"/>
+      <c r="C93" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="D93" s="6">
+        <v>0.666666666666667</v>
+      </c>
       <c r="E93" s="6"/>
       <c r="F93" s="6"/>
       <c r="G93" s="6"/>
       <c r="H93" s="6">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="I93" s="6"/>
       <c r="J93" s="7"/>
     </row>
     <row r="94" ht="21" customHeight="1">
-      <c r="A94" t="s" s="5">
+      <c r="A94" t="s" s="19">
         <v>200</v>
       </c>
-      <c r="B94" t="s" s="5">
+      <c r="B94" t="s" s="19">
         <v>201</v>
       </c>
-      <c r="C94" t="s" s="5">
-        <v>18</v>
+      <c r="C94" t="s" s="18">
+        <v>15</v>
       </c>
       <c r="D94" s="6">
-        <v>0.928571428571429</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="E94" s="6"/>
       <c r="F94" s="6"/>
@@ -4997,9 +5033,11 @@
         <v>203</v>
       </c>
       <c r="C95" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="D95" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="D95" s="6">
+        <v>0.928571428571429</v>
+      </c>
       <c r="E95" s="6"/>
       <c r="F95" s="6"/>
       <c r="G95" s="6"/>
@@ -5017,16 +5055,16 @@
         <v>205</v>
       </c>
       <c r="C96" t="s" s="5">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D96" s="6">
-        <v>0.833333333333333</v>
+        <v>0.80952380952381</v>
       </c>
       <c r="E96" s="6"/>
       <c r="F96" s="6"/>
       <c r="G96" s="6"/>
       <c r="H96" s="6">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="I96" s="6"/>
       <c r="J96" s="7"/>
@@ -5042,80 +5080,82 @@
         <v>18</v>
       </c>
       <c r="D97" s="6">
-        <v>0.738095238095238</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E97" s="6"/>
       <c r="F97" s="6"/>
       <c r="G97" s="6"/>
       <c r="H97" s="6">
-        <v>0.416666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="I97" s="6"/>
-      <c r="J97" s="9"/>
+      <c r="J97" s="7"/>
     </row>
     <row r="98" ht="21" customHeight="1">
-      <c r="A98" t="s" s="4">
+      <c r="A98" t="s" s="5">
         <v>208</v>
       </c>
-      <c r="B98" t="s" s="4">
+      <c r="B98" t="s" s="5">
         <v>209</v>
       </c>
       <c r="C98" t="s" s="5">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D98" s="6">
-        <v>0.595238095238095</v>
+        <v>0.738095238095238</v>
       </c>
       <c r="E98" s="6"/>
       <c r="F98" s="6"/>
       <c r="G98" s="6"/>
       <c r="H98" s="6">
-        <v>0.777777777777778</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="I98" s="6"/>
-      <c r="J98" s="11"/>
+      <c r="J98" s="9"/>
     </row>
     <row r="99" ht="21" customHeight="1">
-      <c r="A99" t="s" s="18">
+      <c r="A99" t="s" s="4">
         <v>210</v>
       </c>
-      <c r="B99" t="s" s="18">
+      <c r="B99" t="s" s="4">
         <v>211</v>
       </c>
-      <c r="C99" t="s" s="17">
-        <v>12</v>
+      <c r="C99" t="s" s="5">
+        <v>15</v>
       </c>
       <c r="D99" s="6">
-        <v>0.5</v>
+        <v>0.595238095238095</v>
       </c>
       <c r="E99" s="6"/>
       <c r="F99" s="6"/>
       <c r="G99" s="6"/>
       <c r="H99" s="6">
-        <v>0.722222222222222</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I99" s="6"/>
-      <c r="J99" s="7"/>
+      <c r="J99" s="11"/>
     </row>
     <row r="100" ht="21" customHeight="1">
-      <c r="A100" t="s" s="5">
+      <c r="A100" t="s" s="19">
         <v>212</v>
       </c>
-      <c r="B100" t="s" s="5">
+      <c r="B100" t="s" s="19">
         <v>213</v>
       </c>
-      <c r="C100" t="s" s="5">
-        <v>15</v>
-      </c>
-      <c r="D100" s="6"/>
+      <c r="C100" t="s" s="18">
+        <v>12</v>
+      </c>
+      <c r="D100" s="6">
+        <v>0.5</v>
+      </c>
       <c r="E100" s="6"/>
       <c r="F100" s="6"/>
       <c r="G100" s="6"/>
       <c r="H100" s="6">
-        <v>0</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="I100" s="6"/>
-      <c r="J100" s="9"/>
+      <c r="J100" s="7"/>
     </row>
     <row r="101" ht="21" customHeight="1">
       <c r="A101" t="s" s="5">
@@ -5125,19 +5165,19 @@
         <v>215</v>
       </c>
       <c r="C101" t="s" s="5">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D101" s="6">
-        <v>0.69047619047619</v>
+        <v>0.452380952380952</v>
       </c>
       <c r="E101" s="6"/>
       <c r="F101" s="6"/>
       <c r="G101" s="6"/>
       <c r="H101" s="6">
-        <v>0.805555555555556</v>
+        <v>0</v>
       </c>
       <c r="I101" s="6"/>
-      <c r="J101" s="11"/>
+      <c r="J101" s="9"/>
     </row>
     <row r="102" ht="21" customHeight="1">
       <c r="A102" t="s" s="5">
@@ -5147,82 +5187,82 @@
         <v>217</v>
       </c>
       <c r="C102" t="s" s="5">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D102" s="6">
-        <v>0.857142857142857</v>
+        <v>0.69047619047619</v>
       </c>
       <c r="E102" s="6"/>
       <c r="F102" s="6"/>
       <c r="G102" s="6"/>
       <c r="H102" s="6">
-        <v>0.777777777777778</v>
+        <v>0.805555555555556</v>
       </c>
       <c r="I102" s="6"/>
-      <c r="J102" s="7"/>
+      <c r="J102" s="11"/>
     </row>
     <row r="103" ht="21" customHeight="1">
-      <c r="A103" t="s" s="4">
+      <c r="A103" t="s" s="5">
         <v>218</v>
       </c>
-      <c r="B103" t="s" s="4">
+      <c r="B103" t="s" s="5">
         <v>219</v>
       </c>
       <c r="C103" t="s" s="5">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D103" s="6">
-        <v>0.285714285714286</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="E103" s="6"/>
       <c r="F103" s="6"/>
       <c r="G103" s="6"/>
       <c r="H103" s="6">
-        <v>0.361111111111111</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I103" s="6"/>
       <c r="J103" s="7"/>
     </row>
     <row r="104" ht="21" customHeight="1">
-      <c r="A104" t="s" s="8">
+      <c r="A104" t="s" s="4">
         <v>220</v>
       </c>
-      <c r="B104" t="s" s="8">
+      <c r="B104" t="s" s="4">
         <v>221</v>
       </c>
       <c r="C104" t="s" s="5">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D104" s="6">
-        <v>0.571428571428571</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="E104" s="6"/>
       <c r="F104" s="6"/>
       <c r="G104" s="6"/>
       <c r="H104" s="6">
-        <v>0.722222222222222</v>
+        <v>0.361111111111111</v>
       </c>
       <c r="I104" s="6"/>
       <c r="J104" s="7"/>
     </row>
     <row r="105" ht="21" customHeight="1">
-      <c r="A105" t="s" s="5">
+      <c r="A105" t="s" s="8">
         <v>222</v>
       </c>
-      <c r="B105" t="s" s="5">
+      <c r="B105" t="s" s="8">
         <v>223</v>
       </c>
       <c r="C105" t="s" s="5">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D105" s="6">
-        <v>0.69047619047619</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="E105" s="6"/>
       <c r="F105" s="6"/>
       <c r="G105" s="6"/>
       <c r="H105" s="6">
-        <v>0.694444444444444</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="I105" s="6"/>
       <c r="J105" s="7"/>
@@ -5235,19 +5275,21 @@
         <v>225</v>
       </c>
       <c r="C106" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="D106" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="D106" s="6">
+        <v>0.69047619047619</v>
+      </c>
       <c r="E106" s="6"/>
       <c r="F106" s="6"/>
       <c r="G106" s="6"/>
       <c r="H106" s="6">
-        <v>0.777777777777778</v>
+        <v>0.694444444444444</v>
       </c>
       <c r="I106" s="6"/>
-      <c r="J106" s="9"/>
-    </row>
-    <row r="107" ht="20.7" customHeight="1">
+      <c r="J106" s="7"/>
+    </row>
+    <row r="107" ht="21" customHeight="1">
       <c r="A107" t="s" s="5">
         <v>226</v>
       </c>
@@ -5257,17 +5299,17 @@
       <c r="C107" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="D107" s="14">
-        <v>0.5238095238095239</v>
-      </c>
-      <c r="E107" s="12"/>
-      <c r="F107" s="12"/>
-      <c r="G107" s="12"/>
+      <c r="D107" s="6">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6"/>
+      <c r="G107" s="6"/>
       <c r="H107" s="6">
         <v>0.777777777777778</v>
       </c>
-      <c r="I107" s="12"/>
-      <c r="J107" s="13"/>
+      <c r="I107" s="6"/>
+      <c r="J107" s="9"/>
     </row>
     <row r="108" ht="20.7" customHeight="1">
       <c r="A108" t="s" s="5">
@@ -5277,21 +5319,21 @@
         <v>229</v>
       </c>
       <c r="C108" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="D108" s="14">
-        <v>0.785714285714286</v>
-      </c>
-      <c r="E108" s="12"/>
-      <c r="F108" s="12"/>
-      <c r="G108" s="12"/>
+        <v>21</v>
+      </c>
+      <c r="D108" s="15">
+        <v>0.5238095238095239</v>
+      </c>
+      <c r="E108" s="13"/>
+      <c r="F108" s="13"/>
+      <c r="G108" s="13"/>
       <c r="H108" s="6">
-        <v>0.638888888888889</v>
-      </c>
-      <c r="I108" s="12"/>
-      <c r="J108" s="15"/>
-    </row>
-    <row r="109" ht="21" customHeight="1">
+        <v>0.777777777777778</v>
+      </c>
+      <c r="I108" s="13"/>
+      <c r="J108" s="14"/>
+    </row>
+    <row r="109" ht="20.7" customHeight="1">
       <c r="A109" t="s" s="5">
         <v>230</v>
       </c>
@@ -5299,19 +5341,19 @@
         <v>231</v>
       </c>
       <c r="C109" t="s" s="5">
-        <v>15</v>
-      </c>
-      <c r="D109" s="6">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="E109" s="6"/>
-      <c r="F109" s="6"/>
-      <c r="G109" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="D109" s="15">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="E109" s="13"/>
+      <c r="F109" s="13"/>
+      <c r="G109" s="13"/>
       <c r="H109" s="6">
-        <v>0</v>
-      </c>
-      <c r="I109" s="6"/>
-      <c r="J109" s="7"/>
+        <v>0.638888888888889</v>
+      </c>
+      <c r="I109" s="13"/>
+      <c r="J109" s="16"/>
     </row>
     <row r="110" ht="21" customHeight="1">
       <c r="A110" t="s" s="5">
@@ -5321,21 +5363,21 @@
         <v>233</v>
       </c>
       <c r="C110" t="s" s="5">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D110" s="6">
-        <v>0.833333333333333</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="E110" s="6"/>
       <c r="F110" s="6"/>
       <c r="G110" s="6"/>
       <c r="H110" s="6">
-        <v>0.694444444444444</v>
+        <v>0</v>
       </c>
       <c r="I110" s="6"/>
-      <c r="J110" s="9"/>
-    </row>
-    <row r="111" ht="20.05" customHeight="1">
+      <c r="J110" s="7"/>
+    </row>
+    <row r="111" ht="21" customHeight="1">
       <c r="A111" t="s" s="5">
         <v>234</v>
       </c>
@@ -5345,17 +5387,19 @@
       <c r="C111" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D111" s="12"/>
-      <c r="E111" s="12"/>
-      <c r="F111" s="12"/>
-      <c r="G111" s="12"/>
+      <c r="D111" s="6">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E111" s="6"/>
+      <c r="F111" s="6"/>
+      <c r="G111" s="6"/>
       <c r="H111" s="6">
-        <v>0.777777777777778</v>
-      </c>
-      <c r="I111" s="12"/>
-      <c r="J111" s="15"/>
-    </row>
-    <row r="112" ht="21" customHeight="1">
+        <v>0.694444444444444</v>
+      </c>
+      <c r="I111" s="6"/>
+      <c r="J111" s="9"/>
+    </row>
+    <row r="112" ht="20.05" customHeight="1">
       <c r="A112" t="s" s="5">
         <v>236</v>
       </c>
@@ -5365,19 +5409,19 @@
       <c r="C112" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D112" s="6">
-        <v>0.714285714285714</v>
-      </c>
-      <c r="E112" s="6"/>
-      <c r="F112" s="6"/>
-      <c r="G112" s="6"/>
+      <c r="D112" s="15">
+        <v>0.80952380952381</v>
+      </c>
+      <c r="E112" s="13"/>
+      <c r="F112" s="13"/>
+      <c r="G112" s="13"/>
       <c r="H112" s="6">
-        <v>0.555555555555556</v>
-      </c>
-      <c r="I112" s="6"/>
-      <c r="J112" s="9"/>
-    </row>
-    <row r="113" ht="20.7" customHeight="1">
+        <v>0.777777777777778</v>
+      </c>
+      <c r="I112" s="13"/>
+      <c r="J112" s="16"/>
+    </row>
+    <row r="113" ht="21" customHeight="1">
       <c r="A113" t="s" s="5">
         <v>238</v>
       </c>
@@ -5385,21 +5429,21 @@
         <v>239</v>
       </c>
       <c r="C113" t="s" s="5">
-        <v>36</v>
-      </c>
-      <c r="D113" s="14">
-        <v>0.452380952380952</v>
-      </c>
-      <c r="E113" s="12"/>
-      <c r="F113" s="12"/>
-      <c r="G113" s="12"/>
+        <v>18</v>
+      </c>
+      <c r="D113" s="6">
+        <v>0.714285714285714</v>
+      </c>
+      <c r="E113" s="6"/>
+      <c r="F113" s="6"/>
+      <c r="G113" s="6"/>
       <c r="H113" s="6">
-        <v>0.888888888888889</v>
-      </c>
-      <c r="I113" s="12"/>
-      <c r="J113" s="13"/>
-    </row>
-    <row r="114" ht="21" customHeight="1">
+        <v>0.555555555555556</v>
+      </c>
+      <c r="I113" s="6"/>
+      <c r="J113" s="9"/>
+    </row>
+    <row r="114" ht="20.7" customHeight="1">
       <c r="A114" t="s" s="5">
         <v>240</v>
       </c>
@@ -5407,19 +5451,19 @@
         <v>241</v>
       </c>
       <c r="C114" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="D114" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="E114" s="6"/>
-      <c r="F114" s="6"/>
-      <c r="G114" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="D114" s="15">
+        <v>0.452380952380952</v>
+      </c>
+      <c r="E114" s="13"/>
+      <c r="F114" s="13"/>
+      <c r="G114" s="13"/>
       <c r="H114" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="I114" s="6"/>
-      <c r="J114" s="11"/>
+        <v>0.888888888888889</v>
+      </c>
+      <c r="I114" s="13"/>
+      <c r="J114" s="14"/>
     </row>
     <row r="115" ht="21" customHeight="1">
       <c r="A115" t="s" s="5">
@@ -5432,7 +5476,7 @@
         <v>21</v>
       </c>
       <c r="D115" s="6">
-        <v>0.595238095238095</v>
+        <v>0.5</v>
       </c>
       <c r="E115" s="6"/>
       <c r="F115" s="6"/>
@@ -5441,7 +5485,7 @@
         <v>0.75</v>
       </c>
       <c r="I115" s="6"/>
-      <c r="J115" s="7"/>
+      <c r="J115" s="11"/>
     </row>
     <row r="116" ht="21" customHeight="1">
       <c r="A116" t="s" s="5">
@@ -5451,16 +5495,16 @@
         <v>245</v>
       </c>
       <c r="C116" t="s" s="5">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D116" s="6">
-        <v>0.80952380952381</v>
+        <v>0.595238095238095</v>
       </c>
       <c r="E116" s="6"/>
       <c r="F116" s="6"/>
       <c r="G116" s="6"/>
       <c r="H116" s="6">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="I116" s="6"/>
       <c r="J116" s="7"/>
@@ -5473,14 +5517,16 @@
         <v>247</v>
       </c>
       <c r="C117" t="s" s="5">
-        <v>36</v>
-      </c>
-      <c r="D117" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="D117" s="6">
+        <v>0.80952380952381</v>
+      </c>
       <c r="E117" s="6"/>
       <c r="F117" s="6"/>
       <c r="G117" s="6"/>
       <c r="H117" s="6">
-        <v>0.777777777777778</v>
+        <v>0</v>
       </c>
       <c r="I117" s="6"/>
       <c r="J117" s="7"/>
@@ -5493,16 +5539,16 @@
         <v>249</v>
       </c>
       <c r="C118" t="s" s="5">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="D118" s="6">
-        <v>0.214285714285714</v>
+        <v>0.904761904761905</v>
       </c>
       <c r="E118" s="6"/>
       <c r="F118" s="6"/>
       <c r="G118" s="6"/>
       <c r="H118" s="6">
-        <v>0.388888888888889</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I118" s="6"/>
       <c r="J118" s="7"/>
@@ -5515,93 +5561,99 @@
         <v>251</v>
       </c>
       <c r="C119" t="s" s="5">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="D119" s="6">
-        <v>0.69047619047619</v>
+        <v>0.214285714285714</v>
       </c>
       <c r="E119" s="6"/>
       <c r="F119" s="6"/>
       <c r="G119" s="6"/>
       <c r="H119" s="6">
-        <v>0</v>
+        <v>0.388888888888889</v>
       </c>
       <c r="I119" s="6"/>
-      <c r="J119" s="9"/>
+      <c r="J119" s="7"/>
     </row>
     <row r="120" ht="21" customHeight="1">
-      <c r="A120" t="s" s="4">
+      <c r="A120" t="s" s="5">
         <v>252</v>
       </c>
-      <c r="B120" t="s" s="4">
+      <c r="B120" t="s" s="5">
         <v>253</v>
       </c>
       <c r="C120" t="s" s="5">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D120" s="6">
-        <v>0.642857142857143</v>
+        <v>0.69047619047619</v>
       </c>
       <c r="E120" s="6"/>
       <c r="F120" s="6"/>
       <c r="G120" s="6"/>
       <c r="H120" s="6">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="I120" s="6"/>
-      <c r="J120" s="10"/>
+      <c r="J120" s="9"/>
     </row>
     <row r="121" ht="21" customHeight="1">
-      <c r="A121" t="s" s="8">
+      <c r="A121" t="s" s="4">
         <v>254</v>
       </c>
-      <c r="B121" t="s" s="8">
+      <c r="B121" t="s" s="4">
         <v>255</v>
       </c>
       <c r="C121" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="D121" s="6"/>
+      <c r="D121" s="6">
+        <v>0.642857142857143</v>
+      </c>
       <c r="E121" s="6"/>
       <c r="F121" s="6"/>
       <c r="G121" s="6"/>
       <c r="H121" s="6">
-        <v>0.777777777777778</v>
+        <v>0.75</v>
       </c>
       <c r="I121" s="6"/>
-      <c r="J121" s="11"/>
+      <c r="J121" s="10"/>
     </row>
     <row r="122" ht="21" customHeight="1">
-      <c r="A122" t="s" s="5">
+      <c r="A122" t="s" s="8">
         <v>256</v>
       </c>
-      <c r="B122" t="s" s="5">
+      <c r="B122" t="s" s="8">
         <v>257</v>
       </c>
       <c r="C122" t="s" s="5">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D122" s="6">
-        <v>0.904761904761905</v>
+        <v>0.80952380952381</v>
       </c>
       <c r="E122" s="6"/>
       <c r="F122" s="6"/>
       <c r="G122" s="6"/>
       <c r="H122" s="6">
-        <v>0.75</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I122" s="6"/>
-      <c r="J122" s="7"/>
+      <c r="J122" s="11"/>
     </row>
     <row r="123" ht="21" customHeight="1">
-      <c r="A123" t="s" s="4">
+      <c r="A123" t="s" s="5">
         <v>258</v>
       </c>
-      <c r="B123" t="s" s="4">
+      <c r="B123" t="s" s="5">
         <v>259</v>
       </c>
-      <c r="C123" s="12"/>
-      <c r="D123" s="6"/>
+      <c r="C123" t="s" s="5">
+        <v>36</v>
+      </c>
+      <c r="D123" s="6">
+        <v>0.904761904761905</v>
+      </c>
       <c r="E123" s="6"/>
       <c r="F123" s="6"/>
       <c r="G123" s="6"/>
@@ -5609,147 +5661,147 @@
         <v>0.75</v>
       </c>
       <c r="I123" s="6"/>
-      <c r="J123" s="9"/>
+      <c r="J123" s="7"/>
     </row>
     <row r="124" ht="21" customHeight="1">
-      <c r="A124" t="s" s="23">
+      <c r="A124" t="s" s="4">
         <v>260</v>
       </c>
-      <c r="B124" t="s" s="23">
+      <c r="B124" t="s" s="4">
         <v>261</v>
       </c>
-      <c r="C124" t="s" s="5">
-        <v>15</v>
-      </c>
+      <c r="C124" s="13"/>
       <c r="D124" s="6">
-        <v>0.619047619047619</v>
+        <v>0</v>
       </c>
       <c r="E124" s="6"/>
       <c r="F124" s="6"/>
       <c r="G124" s="6"/>
       <c r="H124" s="6">
-        <v>0.777777777777778</v>
+        <v>0.75</v>
       </c>
       <c r="I124" s="6"/>
-      <c r="J124" s="10"/>
+      <c r="J124" s="9"/>
     </row>
     <row r="125" ht="21" customHeight="1">
-      <c r="A125" t="s" s="8">
+      <c r="A125" t="s" s="24">
         <v>262</v>
       </c>
-      <c r="B125" t="s" s="8">
+      <c r="B125" t="s" s="24">
         <v>263</v>
       </c>
       <c r="C125" t="s" s="5">
-        <v>67</v>
-      </c>
-      <c r="D125" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="D125" s="6">
+        <v>0.619047619047619</v>
+      </c>
       <c r="E125" s="6"/>
       <c r="F125" s="6"/>
       <c r="G125" s="6"/>
       <c r="H125" s="6">
-        <v>0.722222222222222</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I125" s="6"/>
       <c r="J125" s="10"/>
     </row>
-    <row r="126" ht="20.7" customHeight="1">
-      <c r="A126" t="s" s="5">
+    <row r="126" ht="21" customHeight="1">
+      <c r="A126" t="s" s="8">
         <v>264</v>
       </c>
-      <c r="B126" t="s" s="5">
+      <c r="B126" t="s" s="8">
         <v>265</v>
       </c>
       <c r="C126" t="s" s="5">
+        <v>67</v>
+      </c>
+      <c r="D126" s="6">
+        <v>0.761904761904762</v>
+      </c>
+      <c r="E126" s="6"/>
+      <c r="F126" s="6"/>
+      <c r="G126" s="6"/>
+      <c r="H126" s="6">
+        <v>0.722222222222222</v>
+      </c>
+      <c r="I126" s="6"/>
+      <c r="J126" s="10"/>
+    </row>
+    <row r="127" ht="20.7" customHeight="1">
+      <c r="A127" t="s" s="5">
+        <v>266</v>
+      </c>
+      <c r="B127" t="s" s="5">
+        <v>267</v>
+      </c>
+      <c r="C127" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="D126" s="25">
+      <c r="D127" s="12">
         <v>0.595238095238095</v>
       </c>
-      <c r="E126" s="12"/>
-      <c r="F126" s="12"/>
-      <c r="G126" s="12"/>
-      <c r="H126" s="6">
+      <c r="E127" s="13"/>
+      <c r="F127" s="13"/>
+      <c r="G127" s="13"/>
+      <c r="H127" s="6">
         <v>0.75</v>
       </c>
-      <c r="I126" s="12"/>
-      <c r="J126" s="13"/>
-    </row>
-    <row r="127" ht="21" customHeight="1">
-      <c r="A127" t="s" s="4">
-        <v>266</v>
-      </c>
-      <c r="B127" t="s" s="4">
-        <v>267</v>
-      </c>
-      <c r="C127" t="s" s="5">
+      <c r="I127" s="13"/>
+      <c r="J127" s="14"/>
+    </row>
+    <row r="128" ht="21" customHeight="1">
+      <c r="A128" t="s" s="4">
+        <v>268</v>
+      </c>
+      <c r="B128" t="s" s="4">
+        <v>269</v>
+      </c>
+      <c r="C128" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="D127" s="6">
+      <c r="D128" s="6">
         <v>0.69047619047619</v>
-      </c>
-      <c r="E127" s="6"/>
-      <c r="F127" s="6"/>
-      <c r="G127" s="6"/>
-      <c r="H127" s="6">
-        <v>0.805555555555556</v>
-      </c>
-      <c r="I127" s="6"/>
-      <c r="J127" s="11"/>
-    </row>
-    <row r="128" ht="21" customHeight="1">
-      <c r="A128" t="s" s="18">
-        <v>268</v>
-      </c>
-      <c r="B128" t="s" s="18">
-        <v>269</v>
-      </c>
-      <c r="C128" t="s" s="17">
-        <v>21</v>
-      </c>
-      <c r="D128" s="6">
-        <v>0.80952380952381</v>
       </c>
       <c r="E128" s="6"/>
       <c r="F128" s="6"/>
       <c r="G128" s="6"/>
       <c r="H128" s="6">
-        <v>0.75</v>
+        <v>0.805555555555556</v>
       </c>
       <c r="I128" s="6"/>
-      <c r="J128" s="9"/>
+      <c r="J128" s="11"/>
     </row>
     <row r="129" ht="21" customHeight="1">
-      <c r="A129" t="s" s="5">
+      <c r="A129" t="s" s="19">
         <v>270</v>
       </c>
-      <c r="B129" t="s" s="5">
+      <c r="B129" t="s" s="19">
         <v>271</v>
       </c>
-      <c r="C129" t="s" s="5">
-        <v>18</v>
+      <c r="C129" t="s" s="18">
+        <v>21</v>
       </c>
       <c r="D129" s="6">
-        <v>0.738095238095238</v>
+        <v>0.80952380952381</v>
       </c>
       <c r="E129" s="6"/>
       <c r="F129" s="6"/>
       <c r="G129" s="6"/>
       <c r="H129" s="6">
-        <v>0.861111111111111</v>
+        <v>0.75</v>
       </c>
       <c r="I129" s="6"/>
-      <c r="J129" s="11"/>
+      <c r="J129" s="9"/>
     </row>
     <row r="130" ht="21" customHeight="1">
-      <c r="A130" t="s" s="4">
+      <c r="A130" t="s" s="5">
         <v>272</v>
       </c>
-      <c r="B130" t="s" s="4">
+      <c r="B130" t="s" s="5">
         <v>273</v>
       </c>
       <c r="C130" t="s" s="5">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D130" s="6">
         <v>0.738095238095238</v>
@@ -5758,54 +5810,54 @@
       <c r="F130" s="6"/>
       <c r="G130" s="6"/>
       <c r="H130" s="6">
-        <v>0.805555555555556</v>
+        <v>0.861111111111111</v>
       </c>
       <c r="I130" s="6"/>
-      <c r="J130" s="9"/>
+      <c r="J130" s="11"/>
     </row>
     <row r="131" ht="21" customHeight="1">
-      <c r="A131" t="s" s="8">
+      <c r="A131" t="s" s="4">
         <v>274</v>
       </c>
-      <c r="B131" t="s" s="8">
+      <c r="B131" t="s" s="4">
         <v>275</v>
       </c>
       <c r="C131" t="s" s="5">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D131" s="6">
-        <v>0.452380952380952</v>
+        <v>0.738095238095238</v>
       </c>
       <c r="E131" s="6"/>
       <c r="F131" s="6"/>
       <c r="G131" s="6"/>
       <c r="H131" s="6">
-        <v>0.361111111111111</v>
+        <v>0.805555555555556</v>
       </c>
       <c r="I131" s="6"/>
-      <c r="J131" s="11"/>
+      <c r="J131" s="9"/>
     </row>
     <row r="132" ht="21" customHeight="1">
-      <c r="A132" t="s" s="5">
+      <c r="A132" t="s" s="8">
         <v>276</v>
       </c>
-      <c r="B132" t="s" s="5">
+      <c r="B132" t="s" s="8">
         <v>277</v>
       </c>
       <c r="C132" t="s" s="5">
         <v>18</v>
       </c>
       <c r="D132" s="6">
-        <v>0.857142857142857</v>
+        <v>0.452380952380952</v>
       </c>
       <c r="E132" s="6"/>
       <c r="F132" s="6"/>
       <c r="G132" s="6"/>
       <c r="H132" s="6">
-        <v>0.861111111111111</v>
+        <v>0.361111111111111</v>
       </c>
       <c r="I132" s="6"/>
-      <c r="J132" s="7"/>
+      <c r="J132" s="11"/>
     </row>
     <row r="133" ht="21" customHeight="1">
       <c r="A133" t="s" s="5">
@@ -5818,131 +5870,135 @@
         <v>18</v>
       </c>
       <c r="D133" s="6">
-        <v>0.80952380952381</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="E133" s="6"/>
       <c r="F133" s="6"/>
       <c r="G133" s="6"/>
       <c r="H133" s="6">
-        <v>0.777777777777778</v>
+        <v>0.861111111111111</v>
       </c>
       <c r="I133" s="6"/>
       <c r="J133" s="7"/>
     </row>
     <row r="134" ht="21" customHeight="1">
-      <c r="A134" t="s" s="4">
+      <c r="A134" t="s" s="5">
         <v>280</v>
       </c>
-      <c r="B134" t="s" s="4">
+      <c r="B134" t="s" s="5">
         <v>281</v>
       </c>
       <c r="C134" t="s" s="5">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D134" s="6">
-        <v>0.428571428571429</v>
+        <v>0.80952380952381</v>
       </c>
       <c r="E134" s="6"/>
       <c r="F134" s="6"/>
       <c r="G134" s="6"/>
       <c r="H134" s="6">
-        <v>0.722222222222222</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I134" s="6"/>
       <c r="J134" s="7"/>
     </row>
     <row r="135" ht="21" customHeight="1">
-      <c r="A135" t="s" s="18">
+      <c r="A135" t="s" s="4">
         <v>282</v>
       </c>
-      <c r="B135" t="s" s="18">
+      <c r="B135" t="s" s="4">
         <v>283</v>
       </c>
-      <c r="C135" t="s" s="17">
-        <v>18</v>
+      <c r="C135" t="s" s="5">
+        <v>21</v>
       </c>
       <c r="D135" s="6">
-        <v>0.476190476190476</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="E135" s="6"/>
       <c r="F135" s="6"/>
       <c r="G135" s="6"/>
       <c r="H135" s="6">
-        <v>0.75</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="I135" s="6"/>
       <c r="J135" s="7"/>
     </row>
     <row r="136" ht="21" customHeight="1">
-      <c r="A136" t="s" s="5">
+      <c r="A136" t="s" s="19">
         <v>284</v>
       </c>
-      <c r="B136" t="s" s="5">
+      <c r="B136" t="s" s="19">
         <v>285</v>
       </c>
-      <c r="C136" t="s" s="5">
+      <c r="C136" t="s" s="18">
         <v>18</v>
       </c>
       <c r="D136" s="6">
-        <v>0.738095238095238</v>
+        <v>0.476190476190476</v>
       </c>
       <c r="E136" s="6"/>
       <c r="F136" s="6"/>
       <c r="G136" s="6"/>
       <c r="H136" s="6">
-        <v>0.416666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="I136" s="6"/>
       <c r="J136" s="7"/>
     </row>
     <row r="137" ht="21" customHeight="1">
-      <c r="A137" t="s" s="4">
+      <c r="A137" t="s" s="5">
         <v>286</v>
       </c>
-      <c r="B137" t="s" s="4">
+      <c r="B137" t="s" s="5">
         <v>287</v>
       </c>
-      <c r="C137" s="12"/>
-      <c r="D137" s="6"/>
+      <c r="C137" t="s" s="5">
+        <v>18</v>
+      </c>
+      <c r="D137" s="6">
+        <v>0.738095238095238</v>
+      </c>
       <c r="E137" s="6"/>
       <c r="F137" s="6"/>
       <c r="G137" s="6"/>
       <c r="H137" s="6">
-        <v>0.75</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="I137" s="6"/>
       <c r="J137" s="7"/>
     </row>
     <row r="138" ht="21" customHeight="1">
-      <c r="A138" t="s" s="18">
+      <c r="A138" t="s" s="4">
         <v>288</v>
       </c>
-      <c r="B138" t="s" s="18">
+      <c r="B138" t="s" s="4">
         <v>289</v>
       </c>
-      <c r="C138" t="s" s="17">
+      <c r="C138" t="s" s="5">
         <v>18</v>
       </c>
       <c r="D138" s="6">
-        <v>0.738095238095238</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="E138" s="6"/>
       <c r="F138" s="6"/>
       <c r="G138" s="6"/>
       <c r="H138" s="6">
-        <v>0.805555555555556</v>
+        <v>0.75</v>
       </c>
       <c r="I138" s="6"/>
       <c r="J138" s="7"/>
     </row>
     <row r="139" ht="21" customHeight="1">
-      <c r="A139" t="s" s="5">
+      <c r="A139" t="s" s="19">
         <v>290</v>
       </c>
-      <c r="B139" t="s" s="5">
+      <c r="B139" t="s" s="19">
         <v>291</v>
       </c>
-      <c r="C139" t="s" s="5">
+      <c r="C139" t="s" s="18">
         <v>18</v>
       </c>
       <c r="D139" s="6">
@@ -5952,34 +6008,36 @@
       <c r="F139" s="6"/>
       <c r="G139" s="6"/>
       <c r="H139" s="6">
-        <v>0.777777777777778</v>
+        <v>0.805555555555556</v>
       </c>
       <c r="I139" s="6"/>
       <c r="J139" s="7"/>
     </row>
     <row r="140" ht="21" customHeight="1">
       <c r="A140" t="s" s="5">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B140" t="s" s="5">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C140" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D140" s="6"/>
+      <c r="D140" s="6">
+        <v>0.738095238095238</v>
+      </c>
       <c r="E140" s="6"/>
       <c r="F140" s="6"/>
       <c r="G140" s="6"/>
       <c r="H140" s="6">
-        <v>0.416666666666667</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I140" s="6"/>
-      <c r="J140" s="9"/>
-    </row>
-    <row r="141" ht="20.7" customHeight="1">
+      <c r="J140" s="7"/>
+    </row>
+    <row r="141" ht="21" customHeight="1">
       <c r="A141" t="s" s="5">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B141" t="s" s="5">
         <v>294</v>
@@ -5987,19 +6045,19 @@
       <c r="C141" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D141" s="25">
-        <v>0.476190476190476</v>
-      </c>
-      <c r="E141" s="12"/>
-      <c r="F141" s="12"/>
-      <c r="G141" s="12"/>
+      <c r="D141" s="6">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E141" s="6"/>
+      <c r="F141" s="6"/>
+      <c r="G141" s="6"/>
       <c r="H141" s="6">
-        <v>0.555555555555556</v>
-      </c>
-      <c r="I141" s="12"/>
-      <c r="J141" s="13"/>
-    </row>
-    <row r="142" ht="21" customHeight="1">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="I141" s="6"/>
+      <c r="J141" s="9"/>
+    </row>
+    <row r="142" ht="20.7" customHeight="1">
       <c r="A142" t="s" s="5">
         <v>295</v>
       </c>
@@ -6007,19 +6065,19 @@
         <v>296</v>
       </c>
       <c r="C142" t="s" s="5">
-        <v>67</v>
-      </c>
-      <c r="D142" s="6">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E142" s="6"/>
-      <c r="F142" s="6"/>
-      <c r="G142" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="D142" s="12">
+        <v>0.476190476190476</v>
+      </c>
+      <c r="E142" s="13"/>
+      <c r="F142" s="13"/>
+      <c r="G142" s="13"/>
       <c r="H142" s="6">
-        <v>0.39</v>
-      </c>
-      <c r="I142" s="6"/>
-      <c r="J142" s="11"/>
+        <v>0.555555555555556</v>
+      </c>
+      <c r="I142" s="13"/>
+      <c r="J142" s="14"/>
     </row>
     <row r="143" ht="21" customHeight="1">
       <c r="A143" t="s" s="5">
@@ -6029,19 +6087,19 @@
         <v>298</v>
       </c>
       <c r="C143" t="s" s="5">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="D143" s="6">
-        <v>0.785714285714286</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E143" s="6"/>
       <c r="F143" s="6"/>
       <c r="G143" s="6"/>
       <c r="H143" s="6">
-        <v>0.722222222222222</v>
+        <v>0.39</v>
       </c>
       <c r="I143" s="6"/>
-      <c r="J143" s="7"/>
+      <c r="J143" s="11"/>
     </row>
     <row r="144" ht="21" customHeight="1">
       <c r="A144" t="s" s="5">
@@ -6054,13 +6112,13 @@
         <v>21</v>
       </c>
       <c r="D144" s="6">
-        <v>0.714285714285714</v>
+        <v>0.785714285714286</v>
       </c>
       <c r="E144" s="6"/>
       <c r="F144" s="6"/>
       <c r="G144" s="6"/>
       <c r="H144" s="6">
-        <v>0.777777777777778</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="I144" s="6"/>
       <c r="J144" s="7"/>
@@ -6073,10 +6131,10 @@
         <v>302</v>
       </c>
       <c r="C145" t="s" s="5">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D145" s="6">
-        <v>0.69047619047619</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="E145" s="6"/>
       <c r="F145" s="6"/>
@@ -6098,13 +6156,13 @@
         <v>12</v>
       </c>
       <c r="D146" s="6">
-        <v>0.833333333333333</v>
+        <v>0.69047619047619</v>
       </c>
       <c r="E146" s="6"/>
       <c r="F146" s="6"/>
       <c r="G146" s="6"/>
       <c r="H146" s="6">
-        <v>0.805555555555556</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I146" s="6"/>
       <c r="J146" s="7"/>
@@ -6117,19 +6175,19 @@
         <v>306</v>
       </c>
       <c r="C147" t="s" s="5">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D147" s="6">
-        <v>0.785714285714286</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E147" s="6"/>
       <c r="F147" s="6"/>
       <c r="G147" s="6"/>
       <c r="H147" s="6">
-        <v>0.75</v>
+        <v>0.805555555555556</v>
       </c>
       <c r="I147" s="6"/>
-      <c r="J147" s="9"/>
+      <c r="J147" s="7"/>
     </row>
     <row r="148" ht="21" customHeight="1">
       <c r="A148" t="s" s="5">
@@ -6139,21 +6197,21 @@
         <v>308</v>
       </c>
       <c r="C148" t="s" s="5">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D148" s="6">
-        <v>0.880952380952381</v>
+        <v>0.785714285714286</v>
       </c>
       <c r="E148" s="6"/>
       <c r="F148" s="6"/>
       <c r="G148" s="6"/>
       <c r="H148" s="6">
-        <v>0.777777777777778</v>
+        <v>0.75</v>
       </c>
       <c r="I148" s="6"/>
-      <c r="J148" s="10"/>
-    </row>
-    <row r="149" ht="20.7" customHeight="1">
+      <c r="J148" s="9"/>
+    </row>
+    <row r="149" ht="21" customHeight="1">
       <c r="A149" t="s" s="5">
         <v>309</v>
       </c>
@@ -6161,51 +6219,55 @@
         <v>310</v>
       </c>
       <c r="C149" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D149" s="6">
+        <v>0.880952380952381</v>
+      </c>
+      <c r="E149" s="6"/>
+      <c r="F149" s="6"/>
+      <c r="G149" s="6"/>
+      <c r="H149" s="6">
+        <v>0.777777777777778</v>
+      </c>
+      <c r="I149" s="6"/>
+      <c r="J149" s="10"/>
+    </row>
+    <row r="150" ht="20.7" customHeight="1">
+      <c r="A150" t="s" s="5">
+        <v>311</v>
+      </c>
+      <c r="B150" t="s" s="5">
+        <v>312</v>
+      </c>
+      <c r="C150" t="s" s="5">
         <v>67</v>
       </c>
-      <c r="D149" s="14">
+      <c r="D150" s="15">
         <v>0.619047619047619</v>
       </c>
-      <c r="E149" s="12"/>
-      <c r="F149" s="12"/>
-      <c r="G149" s="12"/>
-      <c r="H149" s="6">
+      <c r="E150" s="13"/>
+      <c r="F150" s="13"/>
+      <c r="G150" s="13"/>
+      <c r="H150" s="6">
         <v>0.666666666666667</v>
       </c>
-      <c r="I149" s="12"/>
-      <c r="J149" s="15"/>
-    </row>
-    <row r="150" ht="21" customHeight="1">
-      <c r="A150" t="s" s="4">
-        <v>311</v>
-      </c>
-      <c r="B150" t="s" s="4">
-        <v>312</v>
-      </c>
-      <c r="C150" t="s" s="5">
+      <c r="I150" s="13"/>
+      <c r="J150" s="16"/>
+    </row>
+    <row r="151" ht="21" customHeight="1">
+      <c r="A151" t="s" s="4">
+        <v>313</v>
+      </c>
+      <c r="B151" t="s" s="4">
+        <v>314</v>
+      </c>
+      <c r="C151" t="s" s="5">
         <v>36</v>
       </c>
-      <c r="D150" s="6">
+      <c r="D151" s="6">
         <v>0.904761904761905</v>
       </c>
-      <c r="E150" s="6"/>
-      <c r="F150" s="6"/>
-      <c r="G150" s="6"/>
-      <c r="H150" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="I150" s="6"/>
-      <c r="J150" s="7"/>
-    </row>
-    <row r="151" ht="21" customHeight="1">
-      <c r="A151" t="s" s="8">
-        <v>313</v>
-      </c>
-      <c r="B151" t="s" s="8">
-        <v>314</v>
-      </c>
-      <c r="C151" s="12"/>
-      <c r="D151" s="6"/>
       <c r="E151" s="6"/>
       <c r="F151" s="6"/>
       <c r="G151" s="6"/>
@@ -6216,26 +6278,26 @@
       <c r="J151" s="7"/>
     </row>
     <row r="152" ht="21" customHeight="1">
-      <c r="A152" t="s" s="5">
+      <c r="A152" t="s" s="8">
         <v>315</v>
       </c>
-      <c r="B152" t="s" s="5">
+      <c r="B152" t="s" s="8">
         <v>316</v>
       </c>
       <c r="C152" t="s" s="5">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D152" s="6">
-        <v>0.714285714285714</v>
+        <v>0.738095238095238</v>
       </c>
       <c r="E152" s="6"/>
       <c r="F152" s="6"/>
       <c r="G152" s="6"/>
       <c r="H152" s="6">
-        <v>0.722222222222222</v>
+        <v>0.75</v>
       </c>
       <c r="I152" s="6"/>
-      <c r="J152" s="9"/>
+      <c r="J152" s="7"/>
     </row>
     <row r="153" ht="21" customHeight="1">
       <c r="A153" t="s" s="5">
@@ -6245,19 +6307,19 @@
         <v>318</v>
       </c>
       <c r="C153" t="s" s="5">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D153" s="6">
-        <v>0.785714285714286</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="E153" s="6"/>
       <c r="F153" s="6"/>
       <c r="G153" s="6"/>
       <c r="H153" s="6">
-        <v>0.777777777777778</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="I153" s="6"/>
-      <c r="J153" s="11"/>
+      <c r="J153" s="9"/>
     </row>
     <row r="154" ht="21" customHeight="1">
       <c r="A154" t="s" s="5">
@@ -6267,9 +6329,11 @@
         <v>320</v>
       </c>
       <c r="C154" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="D154" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="D154" s="6">
+        <v>0.785714285714286</v>
+      </c>
       <c r="E154" s="6"/>
       <c r="F154" s="6"/>
       <c r="G154" s="6"/>
@@ -6277,7 +6341,7 @@
         <v>0.777777777777778</v>
       </c>
       <c r="I154" s="6"/>
-      <c r="J154" s="7"/>
+      <c r="J154" s="11"/>
     </row>
     <row r="155" ht="21" customHeight="1">
       <c r="A155" t="s" s="5">
@@ -6287,10 +6351,10 @@
         <v>322</v>
       </c>
       <c r="C155" t="s" s="5">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D155" s="6">
-        <v>0.761904761904762</v>
+        <v>0</v>
       </c>
       <c r="E155" s="6"/>
       <c r="F155" s="6"/>
@@ -6309,16 +6373,16 @@
         <v>324</v>
       </c>
       <c r="C156" t="s" s="5">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="D156" s="6">
-        <v>0.80952380952381</v>
+        <v>0.761904761904762</v>
       </c>
       <c r="E156" s="6"/>
       <c r="F156" s="6"/>
       <c r="G156" s="6"/>
       <c r="H156" s="6">
-        <v>0.388888888888889</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I156" s="6"/>
       <c r="J156" s="7"/>
@@ -6334,18 +6398,18 @@
         <v>67</v>
       </c>
       <c r="D157" s="6">
-        <v>0.785714285714286</v>
+        <v>0.80952380952381</v>
       </c>
       <c r="E157" s="6"/>
       <c r="F157" s="6"/>
       <c r="G157" s="6"/>
       <c r="H157" s="6">
-        <v>0</v>
+        <v>0.388888888888889</v>
       </c>
       <c r="I157" s="6"/>
-      <c r="J157" s="9"/>
-    </row>
-    <row r="158" ht="20.7" customHeight="1">
+      <c r="J157" s="7"/>
+    </row>
+    <row r="158" ht="21" customHeight="1">
       <c r="A158" t="s" s="5">
         <v>327</v>
       </c>
@@ -6353,21 +6417,21 @@
         <v>328</v>
       </c>
       <c r="C158" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D158" s="25">
-        <v>0.642857142857143</v>
-      </c>
-      <c r="E158" s="12"/>
-      <c r="F158" s="12"/>
-      <c r="G158" s="12"/>
+        <v>67</v>
+      </c>
+      <c r="D158" s="6">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="E158" s="6"/>
+      <c r="F158" s="6"/>
+      <c r="G158" s="6"/>
       <c r="H158" s="6">
-        <v>0.861111111111111</v>
-      </c>
-      <c r="I158" s="12"/>
-      <c r="J158" s="15"/>
-    </row>
-    <row r="159" ht="21" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="I158" s="6"/>
+      <c r="J158" s="9"/>
+    </row>
+    <row r="159" ht="20.7" customHeight="1">
       <c r="A159" t="s" s="5">
         <v>329</v>
       </c>
@@ -6377,17 +6441,17 @@
       <c r="C159" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D159" s="6">
-        <v>0.619047619047619</v>
-      </c>
-      <c r="E159" s="6"/>
-      <c r="F159" s="6"/>
-      <c r="G159" s="6"/>
+      <c r="D159" s="12">
+        <v>0.642857142857143</v>
+      </c>
+      <c r="E159" s="13"/>
+      <c r="F159" s="13"/>
+      <c r="G159" s="13"/>
       <c r="H159" s="6">
-        <v>0.805555555555556</v>
-      </c>
-      <c r="I159" s="6"/>
-      <c r="J159" s="9"/>
+        <v>0.861111111111111</v>
+      </c>
+      <c r="I159" s="13"/>
+      <c r="J159" s="16"/>
     </row>
     <row r="160" ht="21" customHeight="1">
       <c r="A160" t="s" s="5">
@@ -6397,19 +6461,19 @@
         <v>332</v>
       </c>
       <c r="C160" t="s" s="5">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D160" s="6">
-        <v>0.666666666666667</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="E160" s="6"/>
       <c r="F160" s="6"/>
       <c r="G160" s="6"/>
       <c r="H160" s="6">
-        <v>0.888888888888889</v>
+        <v>0.805555555555556</v>
       </c>
       <c r="I160" s="6"/>
-      <c r="J160" s="11"/>
+      <c r="J160" s="9"/>
     </row>
     <row r="161" ht="21" customHeight="1">
       <c r="A161" t="s" s="5">
@@ -6419,410 +6483,412 @@
         <v>334</v>
       </c>
       <c r="C161" t="s" s="5">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D161" s="6">
-        <v>0.714285714285714</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="E161" s="6"/>
       <c r="F161" s="6"/>
       <c r="G161" s="6"/>
       <c r="H161" s="6">
-        <v>0.777777777777778</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="I161" s="6"/>
-      <c r="J161" s="7"/>
+      <c r="J161" s="11"/>
     </row>
     <row r="162" ht="21" customHeight="1">
-      <c r="A162" t="s" s="4">
+      <c r="A162" t="s" s="5">
         <v>335</v>
       </c>
-      <c r="B162" t="s" s="4">
+      <c r="B162" t="s" s="5">
         <v>336</v>
       </c>
       <c r="C162" t="s" s="5">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D162" s="6">
-        <v>0.738095238095238</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="E162" s="6"/>
       <c r="F162" s="6"/>
       <c r="G162" s="6"/>
       <c r="H162" s="6">
-        <v>0.75</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I162" s="6"/>
-      <c r="J162" s="9"/>
+      <c r="J162" s="7"/>
     </row>
     <row r="163" ht="21" customHeight="1">
-      <c r="A163" t="s" s="23">
+      <c r="A163" t="s" s="4">
         <v>337</v>
       </c>
-      <c r="B163" t="s" s="23">
+      <c r="B163" t="s" s="4">
         <v>338</v>
       </c>
       <c r="C163" t="s" s="5">
         <v>12</v>
       </c>
       <c r="D163" s="6">
-        <v>0.714285714285714</v>
+        <v>0.738095238095238</v>
       </c>
       <c r="E163" s="6"/>
       <c r="F163" s="6"/>
       <c r="G163" s="6"/>
       <c r="H163" s="6">
-        <v>0.861111111111111</v>
+        <v>0.75</v>
       </c>
       <c r="I163" s="6"/>
-      <c r="J163" s="10"/>
+      <c r="J163" s="9"/>
     </row>
     <row r="164" ht="21" customHeight="1">
-      <c r="A164" t="s" s="8">
+      <c r="A164" t="s" s="24">
         <v>339</v>
       </c>
-      <c r="B164" t="s" s="8">
+      <c r="B164" t="s" s="24">
         <v>340</v>
       </c>
       <c r="C164" t="s" s="5">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D164" s="6">
-        <v>0.80952380952381</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="E164" s="6"/>
       <c r="F164" s="6"/>
       <c r="G164" s="6"/>
       <c r="H164" s="6">
-        <v>0.777777777777778</v>
+        <v>0.861111111111111</v>
       </c>
       <c r="I164" s="6"/>
-      <c r="J164" s="11"/>
+      <c r="J164" s="10"/>
     </row>
     <row r="165" ht="21" customHeight="1">
-      <c r="A165" t="s" s="5">
+      <c r="A165" t="s" s="8">
         <v>341</v>
       </c>
-      <c r="B165" t="s" s="5">
+      <c r="B165" t="s" s="8">
         <v>342</v>
       </c>
       <c r="C165" t="s" s="5">
         <v>21</v>
       </c>
       <c r="D165" s="6">
-        <v>0.69047619047619</v>
+        <v>0.80952380952381</v>
       </c>
       <c r="E165" s="6"/>
       <c r="F165" s="6"/>
       <c r="G165" s="6"/>
       <c r="H165" s="6">
+        <v>0.777777777777778</v>
+      </c>
+      <c r="I165" s="6"/>
+      <c r="J165" s="11"/>
+    </row>
+    <row r="166" ht="21" customHeight="1">
+      <c r="A166" t="s" s="5">
+        <v>343</v>
+      </c>
+      <c r="B166" t="s" s="5">
+        <v>344</v>
+      </c>
+      <c r="C166" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="D166" s="6">
+        <v>0.69047619047619</v>
+      </c>
+      <c r="E166" s="6"/>
+      <c r="F166" s="6"/>
+      <c r="G166" s="6"/>
+      <c r="H166" s="6">
         <v>0.722222222222222</v>
       </c>
-      <c r="I165" s="6"/>
-      <c r="J165" s="9"/>
-    </row>
-    <row r="166" ht="20.35" customHeight="1">
-      <c r="A166" t="s" s="4">
-        <v>343</v>
-      </c>
-      <c r="B166" t="s" s="4">
-        <v>344</v>
-      </c>
-      <c r="C166" t="s" s="5">
+      <c r="I166" s="6"/>
+      <c r="J166" s="9"/>
+    </row>
+    <row r="167" ht="20.35" customHeight="1">
+      <c r="A167" t="s" s="4">
+        <v>345</v>
+      </c>
+      <c r="B167" t="s" s="4">
+        <v>346</v>
+      </c>
+      <c r="C167" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D166" s="14">
+      <c r="D167" s="15">
         <v>0.80952380952381</v>
       </c>
-      <c r="E166" s="12"/>
-      <c r="F166" s="12"/>
-      <c r="G166" s="12"/>
-      <c r="H166" s="6">
+      <c r="E167" s="13"/>
+      <c r="F167" s="13"/>
+      <c r="G167" s="13"/>
+      <c r="H167" s="6">
         <v>0.777777777777778</v>
       </c>
-      <c r="I166" s="12"/>
-      <c r="J166" s="13"/>
-    </row>
-    <row r="167" ht="21" customHeight="1">
-      <c r="A167" t="s" s="8">
-        <v>345</v>
-      </c>
-      <c r="B167" t="s" s="8">
-        <v>346</v>
-      </c>
-      <c r="C167" t="s" s="5">
+      <c r="I167" s="13"/>
+      <c r="J167" s="14"/>
+    </row>
+    <row r="168" ht="21" customHeight="1">
+      <c r="A168" t="s" s="8">
+        <v>347</v>
+      </c>
+      <c r="B168" t="s" s="8">
+        <v>348</v>
+      </c>
+      <c r="C168" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="D167" s="6">
+      <c r="D168" s="6">
         <v>0.904761904761905</v>
-      </c>
-      <c r="E167" s="6"/>
-      <c r="F167" s="6"/>
-      <c r="G167" s="6"/>
-      <c r="H167" s="6">
-        <v>0</v>
-      </c>
-      <c r="I167" s="6"/>
-      <c r="J167" s="11"/>
-    </row>
-    <row r="168" ht="21" customHeight="1">
-      <c r="A168" t="s" s="4">
-        <v>347</v>
-      </c>
-      <c r="B168" t="s" s="4">
-        <v>348</v>
-      </c>
-      <c r="C168" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D168" s="6">
-        <v>0.69047619047619</v>
       </c>
       <c r="E168" s="6"/>
       <c r="F168" s="6"/>
       <c r="G168" s="6"/>
       <c r="H168" s="6">
-        <v>0.777777777777778</v>
+        <v>0</v>
       </c>
       <c r="I168" s="6"/>
-      <c r="J168" s="9"/>
+      <c r="J168" s="11"/>
     </row>
     <row r="169" ht="21" customHeight="1">
-      <c r="A169" t="s" s="23">
+      <c r="A169" t="s" s="4">
         <v>349</v>
       </c>
-      <c r="B169" t="s" s="23">
+      <c r="B169" t="s" s="4">
         <v>350</v>
       </c>
       <c r="C169" t="s" s="5">
         <v>18</v>
       </c>
       <c r="D169" s="6">
-        <v>0.857142857142857</v>
+        <v>0.69047619047619</v>
       </c>
       <c r="E169" s="6"/>
       <c r="F169" s="6"/>
       <c r="G169" s="6"/>
       <c r="H169" s="6">
+        <v>0.777777777777778</v>
+      </c>
+      <c r="I169" s="6"/>
+      <c r="J169" s="9"/>
+    </row>
+    <row r="170" ht="21" customHeight="1">
+      <c r="A170" t="s" s="24">
+        <v>351</v>
+      </c>
+      <c r="B170" t="s" s="24">
+        <v>352</v>
+      </c>
+      <c r="C170" t="s" s="5">
+        <v>18</v>
+      </c>
+      <c r="D170" s="6">
+        <v>0.857142857142857</v>
+      </c>
+      <c r="E170" s="6"/>
+      <c r="F170" s="6"/>
+      <c r="G170" s="6"/>
+      <c r="H170" s="6">
         <v>0.805555555555556</v>
       </c>
-      <c r="I169" s="6"/>
-      <c r="J169" s="11"/>
-    </row>
-    <row r="170" ht="21" customHeight="1">
-      <c r="A170" t="s" s="8">
-        <v>351</v>
-      </c>
-      <c r="B170" t="s" s="8">
-        <v>352</v>
-      </c>
-      <c r="C170" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="D170" s="14">
-        <v>0.619047619047619</v>
-      </c>
-      <c r="E170" s="12"/>
-      <c r="F170" s="12"/>
-      <c r="G170" s="12"/>
-      <c r="H170" s="6">
-        <v>0.638888888888889</v>
-      </c>
-      <c r="I170" s="12"/>
-      <c r="J170" s="7"/>
+      <c r="I170" s="6"/>
+      <c r="J170" s="11"/>
     </row>
     <row r="171" ht="21" customHeight="1">
-      <c r="A171" t="s" s="4">
+      <c r="A171" t="s" s="8">
         <v>353</v>
       </c>
-      <c r="B171" t="s" s="4">
+      <c r="B171" t="s" s="8">
         <v>354</v>
       </c>
       <c r="C171" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="D171" s="6">
+      <c r="D171" s="15">
+        <v>0.619047619047619</v>
+      </c>
+      <c r="E171" s="13"/>
+      <c r="F171" s="13"/>
+      <c r="G171" s="13"/>
+      <c r="H171" s="6">
+        <v>0.638888888888889</v>
+      </c>
+      <c r="I171" s="13"/>
+      <c r="J171" s="7"/>
+    </row>
+    <row r="172" ht="21" customHeight="1">
+      <c r="A172" t="s" s="4">
+        <v>355</v>
+      </c>
+      <c r="B172" t="s" s="4">
+        <v>356</v>
+      </c>
+      <c r="C172" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D172" s="6">
         <v>0.5238095238095239</v>
-      </c>
-      <c r="E171" s="6"/>
-      <c r="F171" s="6"/>
-      <c r="G171" s="6"/>
-      <c r="H171" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="I171" s="6"/>
-      <c r="J171" s="7"/>
-    </row>
-    <row r="172" ht="21" customHeight="1">
-      <c r="A172" t="s" s="18">
-        <v>355</v>
-      </c>
-      <c r="B172" t="s" s="18">
-        <v>356</v>
-      </c>
-      <c r="C172" t="s" s="17">
-        <v>21</v>
-      </c>
-      <c r="D172" s="6">
-        <v>0.714285714285714</v>
       </c>
       <c r="E172" s="6"/>
       <c r="F172" s="6"/>
       <c r="G172" s="6"/>
       <c r="H172" s="6">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="I172" s="6"/>
       <c r="J172" s="7"/>
     </row>
     <row r="173" ht="21" customHeight="1">
-      <c r="A173" t="s" s="4">
+      <c r="A173" t="s" s="19">
         <v>357</v>
       </c>
-      <c r="B173" t="s" s="4">
+      <c r="B173" t="s" s="19">
         <v>358</v>
       </c>
-      <c r="C173" t="s" s="5">
+      <c r="C173" t="s" s="18">
         <v>21</v>
       </c>
-      <c r="D173" s="6"/>
+      <c r="D173" s="6">
+        <v>0.714285714285714</v>
+      </c>
       <c r="E173" s="6"/>
       <c r="F173" s="6"/>
       <c r="G173" s="6"/>
       <c r="H173" s="6">
-        <v>0.305555555555556</v>
+        <v>0</v>
       </c>
       <c r="I173" s="6"/>
-      <c r="J173" s="9"/>
+      <c r="J173" s="7"/>
     </row>
     <row r="174" ht="21" customHeight="1">
-      <c r="A174" t="s" s="16">
+      <c r="A174" t="s" s="4">
         <v>359</v>
       </c>
-      <c r="B174" t="s" s="16">
+      <c r="B174" t="s" s="4">
         <v>360</v>
       </c>
-      <c r="C174" t="s" s="17">
-        <v>36</v>
+      <c r="C174" t="s" s="5">
+        <v>21</v>
       </c>
       <c r="D174" s="6">
-        <v>0.785714285714286</v>
+        <v>0.761904761904762</v>
       </c>
       <c r="E174" s="6"/>
       <c r="F174" s="6"/>
       <c r="G174" s="6"/>
       <c r="H174" s="6">
-        <v>0.805555555555556</v>
+        <v>0.305555555555556</v>
       </c>
       <c r="I174" s="6"/>
-      <c r="J174" s="10"/>
+      <c r="J174" s="9"/>
     </row>
     <row r="175" ht="21" customHeight="1">
-      <c r="A175" t="s" s="8">
+      <c r="A175" t="s" s="17">
         <v>361</v>
       </c>
-      <c r="B175" t="s" s="8">
+      <c r="B175" t="s" s="17">
         <v>362</v>
       </c>
-      <c r="C175" t="s" s="5">
-        <v>67</v>
+      <c r="C175" t="s" s="18">
+        <v>36</v>
       </c>
       <c r="D175" s="6">
-        <v>0.694444444444444</v>
+        <v>0.785714285714286</v>
       </c>
       <c r="E175" s="6"/>
       <c r="F175" s="6"/>
       <c r="G175" s="6"/>
       <c r="H175" s="6">
-        <v>0</v>
+        <v>0.805555555555556</v>
       </c>
       <c r="I175" s="6"/>
-      <c r="J175" s="11"/>
+      <c r="J175" s="10"/>
     </row>
     <row r="176" ht="21" customHeight="1">
-      <c r="A176" t="s" s="5">
+      <c r="A176" t="s" s="8">
         <v>363</v>
       </c>
-      <c r="B176" t="s" s="5">
+      <c r="B176" t="s" s="8">
         <v>364</v>
       </c>
       <c r="C176" t="s" s="5">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D176" s="6">
-        <v>0.714285714285714</v>
+        <v>0.694444444444444</v>
       </c>
       <c r="E176" s="6"/>
       <c r="F176" s="6"/>
       <c r="G176" s="6"/>
       <c r="H176" s="6">
-        <v>0.777777777777778</v>
+        <v>0</v>
       </c>
       <c r="I176" s="6"/>
-      <c r="J176" s="9"/>
-    </row>
-    <row r="177" ht="20.7" customHeight="1">
-      <c r="A177" t="s" s="4">
+      <c r="J176" s="11"/>
+    </row>
+    <row r="177" ht="21" customHeight="1">
+      <c r="A177" t="s" s="5">
         <v>365</v>
       </c>
-      <c r="B177" t="s" s="4">
+      <c r="B177" t="s" s="5">
         <v>366</v>
       </c>
       <c r="C177" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="D177" s="25">
-        <v>0.738095238095238</v>
-      </c>
-      <c r="E177" s="12"/>
-      <c r="F177" s="12"/>
-      <c r="G177" s="12"/>
+      <c r="D177" s="6">
+        <v>0.714285714285714</v>
+      </c>
+      <c r="E177" s="6"/>
+      <c r="F177" s="6"/>
+      <c r="G177" s="6"/>
       <c r="H177" s="6">
         <v>0.777777777777778</v>
       </c>
-      <c r="I177" s="12"/>
-      <c r="J177" s="15"/>
-    </row>
-    <row r="178" ht="21" customHeight="1">
-      <c r="A178" t="s" s="18">
+      <c r="I177" s="6"/>
+      <c r="J177" s="9"/>
+    </row>
+    <row r="178" ht="20.7" customHeight="1">
+      <c r="A178" t="s" s="4">
         <v>367</v>
       </c>
-      <c r="B178" t="s" s="18">
+      <c r="B178" t="s" s="4">
         <v>368</v>
       </c>
-      <c r="C178" t="s" s="17">
-        <v>18</v>
-      </c>
-      <c r="D178" s="6">
-        <v>0.952380952380952</v>
-      </c>
-      <c r="E178" s="6"/>
-      <c r="F178" s="6"/>
-      <c r="G178" s="6"/>
+      <c r="C178" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D178" s="12">
+        <v>0.738095238095238</v>
+      </c>
+      <c r="E178" s="13"/>
+      <c r="F178" s="13"/>
+      <c r="G178" s="13"/>
       <c r="H178" s="6">
         <v>0.777777777777778</v>
       </c>
-      <c r="I178" s="6"/>
-      <c r="J178" s="7"/>
+      <c r="I178" s="13"/>
+      <c r="J178" s="16"/>
     </row>
     <row r="179" ht="21" customHeight="1">
-      <c r="A179" t="s" s="5">
+      <c r="A179" t="s" s="19">
         <v>369</v>
       </c>
-      <c r="B179" t="s" s="5">
+      <c r="B179" t="s" s="19">
         <v>370</v>
       </c>
-      <c r="C179" t="s" s="5">
-        <v>12</v>
+      <c r="C179" t="s" s="18">
+        <v>18</v>
       </c>
       <c r="D179" s="6">
-        <v>0.571428571428571</v>
+        <v>0.952380952380952</v>
       </c>
       <c r="E179" s="6"/>
       <c r="F179" s="6"/>
       <c r="G179" s="6"/>
       <c r="H179" s="6">
-        <v>0.722222222222222</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I179" s="6"/>
       <c r="J179" s="7"/>
@@ -6835,269 +6901,271 @@
         <v>372</v>
       </c>
       <c r="C180" t="s" s="5">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D180" s="6">
-        <v>0.357142857142857</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="E180" s="6"/>
       <c r="F180" s="6"/>
       <c r="G180" s="6"/>
       <c r="H180" s="6">
-        <v>0</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="I180" s="6"/>
       <c r="J180" s="7"/>
     </row>
     <row r="181" ht="21" customHeight="1">
-      <c r="A181" t="s" s="4">
-        <v>371</v>
-      </c>
-      <c r="B181" t="s" s="4">
+      <c r="A181" t="s" s="5">
         <v>373</v>
       </c>
+      <c r="B181" t="s" s="5">
+        <v>374</v>
+      </c>
       <c r="C181" t="s" s="5">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D181" s="6">
-        <v>0.666666666666667</v>
+        <v>0.357142857142857</v>
       </c>
       <c r="E181" s="6"/>
       <c r="F181" s="6"/>
       <c r="G181" s="6"/>
       <c r="H181" s="6">
-        <v>0.638888888888889</v>
+        <v>0</v>
       </c>
       <c r="I181" s="6"/>
-      <c r="J181" s="9"/>
+      <c r="J181" s="7"/>
     </row>
     <row r="182" ht="21" customHeight="1">
-      <c r="A182" t="s" s="23">
-        <v>374</v>
-      </c>
-      <c r="B182" t="s" s="23">
+      <c r="A182" t="s" s="4">
+        <v>373</v>
+      </c>
+      <c r="B182" t="s" s="4">
         <v>375</v>
       </c>
       <c r="C182" t="s" s="5">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D182" s="6">
-        <v>0.761904761904762</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="E182" s="6"/>
       <c r="F182" s="6"/>
       <c r="G182" s="6"/>
       <c r="H182" s="6">
-        <v>0.888888888888889</v>
+        <v>0.638888888888889</v>
       </c>
       <c r="I182" s="6"/>
-      <c r="J182" s="10"/>
+      <c r="J182" s="9"/>
     </row>
     <row r="183" ht="21" customHeight="1">
-      <c r="A183" t="s" s="8">
+      <c r="A183" t="s" s="24">
         <v>376</v>
       </c>
-      <c r="B183" t="s" s="8">
+      <c r="B183" t="s" s="24">
         <v>377</v>
       </c>
       <c r="C183" t="s" s="5">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D183" s="6">
-        <v>0.619047619047619</v>
+        <v>0.761904761904762</v>
       </c>
       <c r="E183" s="6"/>
       <c r="F183" s="6"/>
       <c r="G183" s="6"/>
       <c r="H183" s="6">
-        <v>0.75</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="I183" s="6"/>
       <c r="J183" s="10"/>
     </row>
-    <row r="184" ht="20.7" customHeight="1">
-      <c r="A184" t="s" s="5">
+    <row r="184" ht="21" customHeight="1">
+      <c r="A184" t="s" s="8">
         <v>378</v>
       </c>
-      <c r="B184" t="s" s="5">
+      <c r="B184" t="s" s="8">
         <v>379</v>
       </c>
       <c r="C184" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="D184" s="12"/>
-      <c r="E184" s="12"/>
-      <c r="F184" s="12"/>
-      <c r="G184" s="12"/>
+      <c r="D184" s="6">
+        <v>0.619047619047619</v>
+      </c>
+      <c r="E184" s="6"/>
+      <c r="F184" s="6"/>
+      <c r="G184" s="6"/>
       <c r="H184" s="6">
         <v>0.75</v>
       </c>
-      <c r="I184" s="12"/>
-      <c r="J184" s="15"/>
-    </row>
-    <row r="185" ht="21" customHeight="1">
-      <c r="A185" t="s" s="4">
+      <c r="I184" s="6"/>
+      <c r="J184" s="10"/>
+    </row>
+    <row r="185" ht="20.7" customHeight="1">
+      <c r="A185" t="s" s="5">
         <v>380</v>
       </c>
-      <c r="B185" t="s" s="4">
+      <c r="B185" t="s" s="5">
         <v>381</v>
       </c>
       <c r="C185" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="D185" s="15">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E185" s="13"/>
+      <c r="F185" s="13"/>
+      <c r="G185" s="13"/>
+      <c r="H185" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="I185" s="13"/>
+      <c r="J185" s="16"/>
+    </row>
+    <row r="186" ht="21" customHeight="1">
+      <c r="A186" t="s" s="4">
+        <v>382</v>
+      </c>
+      <c r="B186" t="s" s="4">
+        <v>383</v>
+      </c>
+      <c r="C186" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="D185" s="6">
+      <c r="D186" s="6">
         <v>0.80952380952381</v>
-      </c>
-      <c r="E185" s="6"/>
-      <c r="F185" s="6"/>
-      <c r="G185" s="6"/>
-      <c r="H185" s="6">
-        <v>0.861111111111111</v>
-      </c>
-      <c r="I185" s="6"/>
-      <c r="J185" s="7"/>
-    </row>
-    <row r="186" ht="21" customHeight="1">
-      <c r="A186" t="s" s="18">
-        <v>382</v>
-      </c>
-      <c r="B186" t="s" s="18">
-        <v>383</v>
-      </c>
-      <c r="C186" t="s" s="17">
-        <v>18</v>
-      </c>
-      <c r="D186" s="6">
-        <v>0.666666666666667</v>
       </c>
       <c r="E186" s="6"/>
       <c r="F186" s="6"/>
       <c r="G186" s="6"/>
       <c r="H186" s="6">
-        <v>0.805555555555556</v>
+        <v>0.861111111111111</v>
       </c>
       <c r="I186" s="6"/>
       <c r="J186" s="7"/>
     </row>
     <row r="187" ht="21" customHeight="1">
-      <c r="A187" t="s" s="4">
+      <c r="A187" t="s" s="19">
         <v>384</v>
       </c>
-      <c r="B187" t="s" s="4">
+      <c r="B187" t="s" s="19">
         <v>385</v>
       </c>
-      <c r="C187" t="s" s="5">
-        <v>21</v>
+      <c r="C187" t="s" s="18">
+        <v>18</v>
       </c>
       <c r="D187" s="6">
-        <v>0.904761904761905</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="E187" s="6"/>
       <c r="F187" s="6"/>
       <c r="G187" s="6"/>
       <c r="H187" s="6">
-        <v>0.75</v>
+        <v>0.805555555555556</v>
       </c>
       <c r="I187" s="6"/>
       <c r="J187" s="7"/>
     </row>
     <row r="188" ht="21" customHeight="1">
-      <c r="A188" t="s" s="18">
+      <c r="A188" t="s" s="4">
         <v>386</v>
       </c>
-      <c r="B188" t="s" s="18">
+      <c r="B188" t="s" s="4">
         <v>387</v>
       </c>
-      <c r="C188" t="s" s="17">
+      <c r="C188" t="s" s="5">
         <v>21</v>
       </c>
       <c r="D188" s="6">
-        <v>0.861111111111111</v>
+        <v>0.904761904761905</v>
       </c>
       <c r="E188" s="6"/>
       <c r="F188" s="6"/>
       <c r="G188" s="6"/>
       <c r="H188" s="6">
-        <v>0.722222222222222</v>
+        <v>0.75</v>
       </c>
       <c r="I188" s="6"/>
-      <c r="J188" s="9"/>
-    </row>
-    <row r="189" ht="20.7" customHeight="1">
-      <c r="A189" t="s" s="5">
+      <c r="J188" s="7"/>
+    </row>
+    <row r="189" ht="21" customHeight="1">
+      <c r="A189" t="s" s="19">
         <v>388</v>
       </c>
-      <c r="B189" t="s" s="5">
+      <c r="B189" t="s" s="19">
         <v>389</v>
       </c>
-      <c r="C189" t="s" s="5">
-        <v>67</v>
-      </c>
-      <c r="D189" s="25">
-        <v>0.69047619047619</v>
-      </c>
-      <c r="E189" s="12"/>
-      <c r="F189" s="12"/>
-      <c r="G189" s="12"/>
+      <c r="C189" t="s" s="18">
+        <v>21</v>
+      </c>
+      <c r="D189" s="6">
+        <v>0.861111111111111</v>
+      </c>
+      <c r="E189" s="6"/>
+      <c r="F189" s="6"/>
+      <c r="G189" s="6"/>
       <c r="H189" s="6">
         <v>0.722222222222222</v>
       </c>
-      <c r="I189" s="12"/>
-      <c r="J189" s="15"/>
-    </row>
-    <row r="190" ht="21" customHeight="1">
-      <c r="A190" t="s" s="4">
+      <c r="I189" s="6"/>
+      <c r="J189" s="9"/>
+    </row>
+    <row r="190" ht="20.7" customHeight="1">
+      <c r="A190" t="s" s="5">
         <v>390</v>
       </c>
-      <c r="B190" t="s" s="4">
+      <c r="B190" t="s" s="5">
         <v>391</v>
       </c>
       <c r="C190" t="s" s="5">
         <v>67</v>
       </c>
-      <c r="D190" s="6">
-        <v>0.619047619047619</v>
-      </c>
-      <c r="E190" s="6"/>
-      <c r="F190" s="6"/>
-      <c r="G190" s="6"/>
+      <c r="D190" s="12">
+        <v>0.69047619047619</v>
+      </c>
+      <c r="E190" s="13"/>
+      <c r="F190" s="13"/>
+      <c r="G190" s="13"/>
       <c r="H190" s="6">
         <v>0.722222222222222</v>
       </c>
-      <c r="I190" s="6"/>
-      <c r="J190" s="7"/>
+      <c r="I190" s="13"/>
+      <c r="J190" s="16"/>
     </row>
     <row r="191" ht="21" customHeight="1">
-      <c r="A191" t="s" s="18">
+      <c r="A191" t="s" s="4">
         <v>392</v>
       </c>
-      <c r="B191" t="s" s="18">
+      <c r="B191" t="s" s="4">
         <v>393</v>
       </c>
-      <c r="C191" t="s" s="17">
-        <v>36</v>
+      <c r="C191" t="s" s="5">
+        <v>67</v>
       </c>
       <c r="D191" s="6">
-        <v>0.571428571428571</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="E191" s="6"/>
       <c r="F191" s="6"/>
       <c r="G191" s="6"/>
       <c r="H191" s="6">
-        <v>0.666666666666667</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="I191" s="6"/>
       <c r="J191" s="7"/>
     </row>
     <row r="192" ht="21" customHeight="1">
-      <c r="A192" t="s" s="5">
+      <c r="A192" t="s" s="17">
         <v>394</v>
       </c>
-      <c r="B192" t="s" s="5">
+      <c r="B192" t="s" s="17">
         <v>395</v>
       </c>
-      <c r="C192" t="s" s="5">
-        <v>21</v>
+      <c r="C192" t="s" s="18">
+        <v>36</v>
       </c>
       <c r="D192" s="6">
         <v>0.571428571428571</v>
@@ -7106,150 +7174,152 @@
       <c r="F192" s="6"/>
       <c r="G192" s="6"/>
       <c r="H192" s="6">
-        <v>0.75</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="I192" s="6"/>
-      <c r="J192" s="7"/>
+      <c r="J192" s="9"/>
     </row>
     <row r="193" ht="21" customHeight="1">
-      <c r="A193" t="s" s="4">
+      <c r="A193" t="s" s="8">
+        <v>394</v>
+      </c>
+      <c r="B193" t="s" s="8">
         <v>396</v>
       </c>
-      <c r="B193" t="s" s="4">
-        <v>397</v>
-      </c>
       <c r="C193" t="s" s="5">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D193" s="6">
-        <v>0.857142857142857</v>
+        <v>0.69047619047619</v>
       </c>
       <c r="E193" s="6"/>
       <c r="F193" s="6"/>
       <c r="G193" s="6"/>
       <c r="H193" s="6">
-        <v>0.805555555555556</v>
+        <v>0</v>
       </c>
       <c r="I193" s="6"/>
-      <c r="J193" s="7"/>
+      <c r="J193" s="11"/>
     </row>
     <row r="194" ht="21" customHeight="1">
-      <c r="A194" t="s" s="16">
+      <c r="A194" t="s" s="5">
+        <v>397</v>
+      </c>
+      <c r="B194" t="s" s="5">
         <v>398</v>
       </c>
-      <c r="B194" t="s" s="16">
-        <v>399</v>
-      </c>
-      <c r="C194" t="s" s="17">
-        <v>12</v>
+      <c r="C194" t="s" s="5">
+        <v>21</v>
       </c>
       <c r="D194" s="6">
-        <v>0.80952380952381</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="E194" s="6"/>
       <c r="F194" s="6"/>
       <c r="G194" s="6"/>
       <c r="H194" s="6">
-        <v>0.861111111111111</v>
+        <v>0.75</v>
       </c>
       <c r="I194" s="6"/>
-      <c r="J194" s="9"/>
+      <c r="J194" s="7"/>
     </row>
     <row r="195" ht="21" customHeight="1">
-      <c r="A195" t="s" s="18">
+      <c r="A195" t="s" s="4">
+        <v>399</v>
+      </c>
+      <c r="B195" t="s" s="4">
         <v>400</v>
       </c>
-      <c r="B195" t="s" s="18">
-        <v>401</v>
-      </c>
-      <c r="C195" t="s" s="17">
-        <v>21</v>
-      </c>
-      <c r="D195" s="6"/>
+      <c r="C195" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D195" s="6">
+        <v>0.857142857142857</v>
+      </c>
       <c r="E195" s="6"/>
       <c r="F195" s="6"/>
       <c r="G195" s="6"/>
       <c r="H195" s="6">
-        <v>0.75</v>
+        <v>0.805555555555556</v>
       </c>
       <c r="I195" s="6"/>
-      <c r="J195" s="11"/>
+      <c r="J195" s="7"/>
     </row>
     <row r="196" ht="21" customHeight="1">
-      <c r="A196" t="s" s="5">
+      <c r="A196" t="s" s="17">
+        <v>401</v>
+      </c>
+      <c r="B196" t="s" s="17">
         <v>402</v>
       </c>
-      <c r="B196" t="s" s="5">
-        <v>403</v>
-      </c>
-      <c r="C196" t="s" s="5">
-        <v>21</v>
+      <c r="C196" t="s" s="18">
+        <v>12</v>
       </c>
       <c r="D196" s="6">
-        <v>0.619047619047619</v>
+        <v>0.80952380952381</v>
       </c>
       <c r="E196" s="6"/>
       <c r="F196" s="6"/>
       <c r="G196" s="6"/>
       <c r="H196" s="6">
-        <v>0</v>
+        <v>0.861111111111111</v>
       </c>
       <c r="I196" s="6"/>
-      <c r="J196" s="7"/>
+      <c r="J196" s="9"/>
     </row>
     <row r="197" ht="21" customHeight="1">
-      <c r="A197" t="s" s="5">
+      <c r="A197" t="s" s="19">
+        <v>403</v>
+      </c>
+      <c r="B197" t="s" s="19">
         <v>404</v>
       </c>
-      <c r="B197" t="s" s="5">
-        <v>405</v>
-      </c>
-      <c r="C197" t="s" s="5">
-        <v>36</v>
+      <c r="C197" t="s" s="18">
+        <v>21</v>
       </c>
       <c r="D197" s="6">
-        <v>0.785714285714286</v>
+        <v>0.261904761904762</v>
       </c>
       <c r="E197" s="6"/>
       <c r="F197" s="6"/>
       <c r="G197" s="6"/>
       <c r="H197" s="6">
-        <v>0.777777777777778</v>
+        <v>0.75</v>
       </c>
       <c r="I197" s="6"/>
-      <c r="J197" s="7"/>
+      <c r="J197" s="11"/>
     </row>
     <row r="198" ht="21" customHeight="1">
       <c r="A198" t="s" s="5">
+        <v>405</v>
+      </c>
+      <c r="B198" t="s" s="5">
         <v>406</v>
       </c>
-      <c r="B198" t="s" s="5">
-        <v>407</v>
-      </c>
       <c r="C198" t="s" s="5">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D198" s="6">
-        <v>1</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="E198" s="6"/>
       <c r="F198" s="6"/>
       <c r="G198" s="6"/>
       <c r="H198" s="6">
-        <v>0.777777777777778</v>
+        <v>0</v>
       </c>
       <c r="I198" s="6"/>
       <c r="J198" s="7"/>
     </row>
     <row r="199" ht="21" customHeight="1">
-      <c r="A199" t="s" s="4">
+      <c r="A199" t="s" s="5">
+        <v>407</v>
+      </c>
+      <c r="B199" t="s" s="5">
         <v>408</v>
       </c>
-      <c r="B199" t="s" s="4">
-        <v>119</v>
-      </c>
       <c r="C199" t="s" s="5">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D199" s="6">
         <v>0.785714285714286</v>
@@ -7258,42 +7328,42 @@
       <c r="F199" s="6"/>
       <c r="G199" s="6"/>
       <c r="H199" s="6">
-        <v>0</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I199" s="6"/>
       <c r="J199" s="7"/>
     </row>
     <row r="200" ht="21" customHeight="1">
-      <c r="A200" t="s" s="18">
+      <c r="A200" t="s" s="5">
         <v>409</v>
       </c>
-      <c r="B200" t="s" s="18">
+      <c r="B200" t="s" s="5">
         <v>410</v>
       </c>
-      <c r="C200" t="s" s="17">
-        <v>67</v>
+      <c r="C200" t="s" s="5">
+        <v>36</v>
       </c>
       <c r="D200" s="6">
-        <v>0.738095238095238</v>
+        <v>1</v>
       </c>
       <c r="E200" s="6"/>
       <c r="F200" s="6"/>
       <c r="G200" s="6"/>
       <c r="H200" s="6">
-        <v>0.388888888888889</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I200" s="6"/>
       <c r="J200" s="7"/>
     </row>
     <row r="201" ht="21" customHeight="1">
-      <c r="A201" t="s" s="5">
+      <c r="A201" t="s" s="4">
         <v>411</v>
       </c>
-      <c r="B201" t="s" s="5">
-        <v>412</v>
+      <c r="B201" t="s" s="4">
+        <v>121</v>
       </c>
       <c r="C201" t="s" s="5">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D201" s="6">
         <v>0.785714285714286</v>
@@ -7302,88 +7372,90 @@
       <c r="F201" s="6"/>
       <c r="G201" s="6"/>
       <c r="H201" s="6">
-        <v>0.777777777777778</v>
+        <v>0</v>
       </c>
       <c r="I201" s="6"/>
-      <c r="J201" s="9"/>
-    </row>
-    <row r="202" ht="20.7" customHeight="1">
-      <c r="A202" t="s" s="5">
+      <c r="J201" s="7"/>
+    </row>
+    <row r="202" ht="21" customHeight="1">
+      <c r="A202" t="s" s="19">
+        <v>412</v>
+      </c>
+      <c r="B202" t="s" s="19">
         <v>413</v>
       </c>
-      <c r="B202" t="s" s="5">
+      <c r="C202" t="s" s="18">
+        <v>67</v>
+      </c>
+      <c r="D202" s="6">
+        <v>0.738095238095238</v>
+      </c>
+      <c r="E202" s="6"/>
+      <c r="F202" s="6"/>
+      <c r="G202" s="6"/>
+      <c r="H202" s="6">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="I202" s="6"/>
+      <c r="J202" s="7"/>
+    </row>
+    <row r="203" ht="21" customHeight="1">
+      <c r="A203" t="s" s="5">
         <v>414</v>
       </c>
-      <c r="C202" t="s" s="5">
+      <c r="B203" t="s" s="5">
+        <v>415</v>
+      </c>
+      <c r="C203" t="s" s="5">
         <v>36</v>
       </c>
-      <c r="D202" s="14">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E202" s="12"/>
-      <c r="F202" s="12"/>
-      <c r="G202" s="12"/>
-      <c r="H202" s="6">
-        <v>0.888888888888889</v>
-      </c>
-      <c r="I202" s="12"/>
-      <c r="J202" s="15"/>
-    </row>
-    <row r="203" ht="21" customHeight="1">
-      <c r="A203" t="s" s="4">
-        <v>415</v>
-      </c>
-      <c r="B203" t="s" s="4">
-        <v>416</v>
-      </c>
-      <c r="C203" t="s" s="5">
-        <v>21</v>
-      </c>
       <c r="D203" s="6">
-        <v>0.761904761904762</v>
+        <v>0.785714285714286</v>
       </c>
       <c r="E203" s="6"/>
       <c r="F203" s="6"/>
       <c r="G203" s="6"/>
       <c r="H203" s="6">
-        <v>0</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I203" s="6"/>
       <c r="J203" s="9"/>
     </row>
-    <row r="204" ht="21" customHeight="1">
-      <c r="A204" t="s" s="23">
+    <row r="204" ht="20.7" customHeight="1">
+      <c r="A204" t="s" s="5">
+        <v>416</v>
+      </c>
+      <c r="B204" t="s" s="5">
         <v>417</v>
-      </c>
-      <c r="B204" t="s" s="23">
-        <v>418</v>
       </c>
       <c r="C204" t="s" s="5">
         <v>36</v>
       </c>
-      <c r="D204" s="6">
-        <v>0.69047619047619</v>
-      </c>
-      <c r="E204" s="6"/>
-      <c r="F204" s="6"/>
-      <c r="G204" s="6"/>
+      <c r="D204" s="15">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E204" s="13"/>
+      <c r="F204" s="13"/>
+      <c r="G204" s="13"/>
       <c r="H204" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="I204" s="6"/>
-      <c r="J204" s="10"/>
+        <v>0.888888888888889</v>
+      </c>
+      <c r="I204" s="13"/>
+      <c r="J204" s="16"/>
     </row>
     <row r="205" ht="21" customHeight="1">
-      <c r="A205" t="s" s="8">
+      <c r="A205" t="s" s="4">
+        <v>418</v>
+      </c>
+      <c r="B205" t="s" s="4">
         <v>419</v>
       </c>
-      <c r="B205" t="s" s="8">
-        <v>420</v>
-      </c>
       <c r="C205" t="s" s="5">
-        <v>15</v>
-      </c>
-      <c r="D205" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="D205" s="6">
+        <v>0.761904761904762</v>
+      </c>
       <c r="E205" s="6"/>
       <c r="F205" s="6"/>
       <c r="G205" s="6"/>
@@ -7391,64 +7463,64 @@
         <v>0</v>
       </c>
       <c r="I205" s="6"/>
-      <c r="J205" s="11"/>
+      <c r="J205" s="9"/>
     </row>
     <row r="206" ht="21" customHeight="1">
-      <c r="A206" t="s" s="5">
+      <c r="A206" t="s" s="24">
+        <v>420</v>
+      </c>
+      <c r="B206" t="s" s="24">
         <v>421</v>
       </c>
-      <c r="B206" t="s" s="5">
-        <v>422</v>
-      </c>
       <c r="C206" t="s" s="5">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D206" s="6">
-        <v>0.571428571428571</v>
+        <v>0.69047619047619</v>
       </c>
       <c r="E206" s="6"/>
       <c r="F206" s="6"/>
       <c r="G206" s="6"/>
       <c r="H206" s="6">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="I206" s="6"/>
-      <c r="J206" s="7"/>
+      <c r="J206" s="10"/>
     </row>
     <row r="207" ht="21" customHeight="1">
-      <c r="A207" t="s" s="5">
+      <c r="A207" t="s" s="8">
+        <v>422</v>
+      </c>
+      <c r="B207" t="s" s="8">
         <v>423</v>
       </c>
-      <c r="B207" t="s" s="5">
-        <v>424</v>
-      </c>
       <c r="C207" t="s" s="5">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D207" s="6">
-        <v>0.880952380952381</v>
+        <v>0.547619047619048</v>
       </c>
       <c r="E207" s="6"/>
       <c r="F207" s="6"/>
       <c r="G207" s="6"/>
       <c r="H207" s="6">
-        <v>0.722222222222222</v>
+        <v>0</v>
       </c>
       <c r="I207" s="6"/>
-      <c r="J207" s="7"/>
+      <c r="J207" s="11"/>
     </row>
     <row r="208" ht="21" customHeight="1">
       <c r="A208" t="s" s="5">
+        <v>424</v>
+      </c>
+      <c r="B208" t="s" s="5">
         <v>425</v>
       </c>
-      <c r="B208" t="s" s="5">
-        <v>426</v>
-      </c>
       <c r="C208" t="s" s="5">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="D208" s="6">
-        <v>0.714285714285714</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="E208" s="6"/>
       <c r="F208" s="6"/>
@@ -7461,120 +7533,126 @@
     </row>
     <row r="209" ht="21" customHeight="1">
       <c r="A209" t="s" s="5">
+        <v>426</v>
+      </c>
+      <c r="B209" t="s" s="5">
         <v>427</v>
       </c>
-      <c r="B209" t="s" s="5">
-        <v>428</v>
-      </c>
       <c r="C209" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="D209" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="D209" s="6">
+        <v>0.880952380952381</v>
+      </c>
       <c r="E209" s="6"/>
       <c r="F209" s="6"/>
       <c r="G209" s="6"/>
       <c r="H209" s="6">
-        <v>0.75</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="I209" s="6"/>
       <c r="J209" s="7"/>
     </row>
     <row r="210" ht="21" customHeight="1">
       <c r="A210" t="s" s="5">
+        <v>428</v>
+      </c>
+      <c r="B210" t="s" s="5">
         <v>429</v>
       </c>
-      <c r="B210" t="s" s="5">
-        <v>430</v>
-      </c>
       <c r="C210" t="s" s="5">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="D210" s="6">
-        <v>0.761904761904762</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="E210" s="6"/>
       <c r="F210" s="6"/>
       <c r="G210" s="6"/>
       <c r="H210" s="6">
-        <v>0.805555555555556</v>
+        <v>0</v>
       </c>
       <c r="I210" s="6"/>
-      <c r="J210" s="9"/>
+      <c r="J210" s="7"/>
     </row>
     <row r="211" ht="21" customHeight="1">
       <c r="A211" t="s" s="5">
+        <v>430</v>
+      </c>
+      <c r="B211" t="s" s="5">
         <v>431</v>
       </c>
-      <c r="B211" t="s" s="5">
-        <v>432</v>
-      </c>
-      <c r="C211" s="12"/>
-      <c r="D211" s="6"/>
+      <c r="C211" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D211" s="6">
+        <v>0.80952380952381</v>
+      </c>
       <c r="E211" s="6"/>
       <c r="F211" s="6"/>
       <c r="G211" s="6"/>
       <c r="H211" s="6">
-        <v>0.694444444444444</v>
+        <v>0.75</v>
       </c>
       <c r="I211" s="6"/>
-      <c r="J211" s="11"/>
+      <c r="J211" s="7"/>
     </row>
     <row r="212" ht="21" customHeight="1">
-      <c r="A212" t="s" s="4">
+      <c r="A212" t="s" s="5">
+        <v>432</v>
+      </c>
+      <c r="B212" t="s" s="5">
         <v>433</v>
       </c>
-      <c r="B212" t="s" s="4">
-        <v>434</v>
-      </c>
       <c r="C212" t="s" s="5">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D212" s="6">
-        <v>0.833333333333333</v>
+        <v>0.761904761904762</v>
       </c>
       <c r="E212" s="6"/>
       <c r="F212" s="6"/>
       <c r="G212" s="6"/>
       <c r="H212" s="6">
-        <v>0.777777777777778</v>
+        <v>0.805555555555556</v>
       </c>
       <c r="I212" s="6"/>
-      <c r="J212" s="7"/>
+      <c r="J212" s="9"/>
     </row>
     <row r="213" ht="21" customHeight="1">
-      <c r="A213" t="s" s="18">
+      <c r="A213" t="s" s="5">
+        <v>434</v>
+      </c>
+      <c r="B213" t="s" s="5">
         <v>435</v>
       </c>
-      <c r="B213" t="s" s="18">
-        <v>436</v>
-      </c>
-      <c r="C213" t="s" s="17">
+      <c r="C213" t="s" s="5">
         <v>15</v>
       </c>
       <c r="D213" s="6">
-        <v>0.642857142857143</v>
+        <v>0.19047619047619</v>
       </c>
       <c r="E213" s="6"/>
       <c r="F213" s="6"/>
       <c r="G213" s="6"/>
       <c r="H213" s="6">
-        <v>0</v>
+        <v>0.694444444444444</v>
       </c>
       <c r="I213" s="6"/>
-      <c r="J213" s="7"/>
+      <c r="J213" s="11"/>
     </row>
     <row r="214" ht="21" customHeight="1">
       <c r="A214" t="s" s="4">
+        <v>436</v>
+      </c>
+      <c r="B214" t="s" s="4">
         <v>437</v>
       </c>
-      <c r="B214" t="s" s="4">
-        <v>438</v>
-      </c>
       <c r="C214" t="s" s="5">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D214" s="6">
-        <v>0.666666666666667</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E214" s="6"/>
       <c r="F214" s="6"/>
@@ -7586,425 +7664,435 @@
       <c r="J214" s="7"/>
     </row>
     <row r="215" ht="21" customHeight="1">
-      <c r="A215" t="s" s="18">
+      <c r="A215" t="s" s="19">
+        <v>438</v>
+      </c>
+      <c r="B215" t="s" s="19">
         <v>439</v>
       </c>
-      <c r="B215" t="s" s="18">
-        <v>440</v>
-      </c>
-      <c r="C215" t="s" s="17">
-        <v>67</v>
+      <c r="C215" t="s" s="18">
+        <v>15</v>
       </c>
       <c r="D215" s="6">
-        <v>0.666666666666667</v>
+        <v>0.642857142857143</v>
       </c>
       <c r="E215" s="6"/>
       <c r="F215" s="6"/>
       <c r="G215" s="6"/>
       <c r="H215" s="6">
-        <v>0.694444444444444</v>
+        <v>0</v>
       </c>
       <c r="I215" s="6"/>
       <c r="J215" s="7"/>
     </row>
     <row r="216" ht="21" customHeight="1">
       <c r="A216" t="s" s="4">
+        <v>440</v>
+      </c>
+      <c r="B216" t="s" s="4">
         <v>441</v>
       </c>
-      <c r="B216" t="s" s="4">
-        <v>442</v>
-      </c>
       <c r="C216" t="s" s="5">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D216" s="6">
-        <v>0.785714285714286</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="E216" s="6"/>
       <c r="F216" s="6"/>
       <c r="G216" s="6"/>
       <c r="H216" s="6">
-        <v>0.555555555555556</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I216" s="6"/>
       <c r="J216" s="7"/>
     </row>
     <row r="217" ht="21" customHeight="1">
-      <c r="A217" t="s" s="18">
+      <c r="A217" t="s" s="19">
+        <v>442</v>
+      </c>
+      <c r="B217" t="s" s="19">
         <v>443</v>
       </c>
-      <c r="B217" t="s" s="18">
-        <v>444</v>
-      </c>
-      <c r="C217" t="s" s="17">
-        <v>15</v>
+      <c r="C217" t="s" s="18">
+        <v>67</v>
       </c>
       <c r="D217" s="6">
-        <v>0.80952380952381</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="E217" s="6"/>
       <c r="F217" s="6"/>
       <c r="G217" s="6"/>
       <c r="H217" s="6">
-        <v>0</v>
+        <v>0.694444444444444</v>
       </c>
       <c r="I217" s="6"/>
-      <c r="J217" s="9"/>
+      <c r="J217" s="7"/>
     </row>
     <row r="218" ht="21" customHeight="1">
-      <c r="A218" t="s" s="5">
+      <c r="A218" t="s" s="4">
+        <v>444</v>
+      </c>
+      <c r="B218" t="s" s="4">
         <v>445</v>
       </c>
-      <c r="B218" t="s" s="5">
-        <v>446</v>
-      </c>
       <c r="C218" t="s" s="5">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="D218" s="6">
-        <v>0.571428571428571</v>
+        <v>0.785714285714286</v>
       </c>
       <c r="E218" s="6"/>
       <c r="F218" s="6"/>
       <c r="G218" s="6"/>
       <c r="H218" s="6">
-        <v>0</v>
+        <v>0.555555555555556</v>
       </c>
       <c r="I218" s="6"/>
-      <c r="J218" s="11"/>
+      <c r="J218" s="7"/>
     </row>
     <row r="219" ht="21" customHeight="1">
-      <c r="A219" t="s" s="4">
+      <c r="A219" t="s" s="19">
+        <v>446</v>
+      </c>
+      <c r="B219" t="s" s="19">
         <v>447</v>
       </c>
-      <c r="B219" t="s" s="4">
-        <v>448</v>
-      </c>
-      <c r="C219" t="s" s="5">
-        <v>36</v>
+      <c r="C219" t="s" s="18">
+        <v>15</v>
       </c>
       <c r="D219" s="6">
-        <v>0.833333333333333</v>
+        <v>0.80952380952381</v>
       </c>
       <c r="E219" s="6"/>
       <c r="F219" s="6"/>
       <c r="G219" s="6"/>
       <c r="H219" s="6">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="I219" s="6"/>
       <c r="J219" s="9"/>
     </row>
     <row r="220" ht="21" customHeight="1">
-      <c r="A220" t="s" s="8">
+      <c r="A220" t="s" s="5">
+        <v>448</v>
+      </c>
+      <c r="B220" t="s" s="5">
         <v>449</v>
       </c>
-      <c r="B220" t="s" s="8">
-        <v>450</v>
-      </c>
       <c r="C220" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="D220" s="6"/>
+        <v>67</v>
+      </c>
+      <c r="D220" s="6">
+        <v>0.571428571428571</v>
+      </c>
       <c r="E220" s="6"/>
       <c r="F220" s="6"/>
       <c r="G220" s="6"/>
       <c r="H220" s="6">
-        <v>0.722222222222222</v>
+        <v>0</v>
       </c>
       <c r="I220" s="6"/>
       <c r="J220" s="11"/>
     </row>
     <row r="221" ht="21" customHeight="1">
-      <c r="A221" t="s" s="5">
+      <c r="A221" t="s" s="4">
+        <v>450</v>
+      </c>
+      <c r="B221" t="s" s="4">
         <v>451</v>
-      </c>
-      <c r="B221" t="s" s="5">
-        <v>452</v>
       </c>
       <c r="C221" t="s" s="5">
         <v>36</v>
       </c>
       <c r="D221" s="6">
-        <v>0.5</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E221" s="6"/>
       <c r="F221" s="6"/>
       <c r="G221" s="6"/>
       <c r="H221" s="6">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="I221" s="6"/>
-      <c r="J221" s="7"/>
+      <c r="J221" s="9"/>
     </row>
     <row r="222" ht="21" customHeight="1">
-      <c r="A222" t="s" s="5">
+      <c r="A222" t="s" s="8">
+        <v>452</v>
+      </c>
+      <c r="B222" t="s" s="8">
         <v>453</v>
       </c>
-      <c r="B222" t="s" s="5">
-        <v>454</v>
-      </c>
       <c r="C222" t="s" s="5">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="D222" s="6">
-        <v>0.642857142857143</v>
+        <v>0.785714285714286</v>
       </c>
       <c r="E222" s="6"/>
       <c r="F222" s="6"/>
       <c r="G222" s="6"/>
       <c r="H222" s="6">
-        <v>0.388888888888889</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="I222" s="6"/>
-      <c r="J222" s="9"/>
+      <c r="J222" s="11"/>
     </row>
     <row r="223" ht="21" customHeight="1">
       <c r="A223" t="s" s="5">
+        <v>454</v>
+      </c>
+      <c r="B223" t="s" s="5">
         <v>455</v>
       </c>
-      <c r="B223" t="s" s="5">
-        <v>456</v>
-      </c>
       <c r="C223" t="s" s="5">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D223" s="6">
-        <v>0.666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="E223" s="6"/>
       <c r="F223" s="6"/>
       <c r="G223" s="6"/>
       <c r="H223" s="6">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="I223" s="6"/>
-      <c r="J223" s="10"/>
-    </row>
-    <row r="224" ht="20.7" customHeight="1">
-      <c r="A224" t="s" s="4">
+      <c r="J223" s="7"/>
+    </row>
+    <row r="224" ht="21" customHeight="1">
+      <c r="A224" t="s" s="5">
+        <v>456</v>
+      </c>
+      <c r="B224" t="s" s="5">
         <v>457</v>
       </c>
-      <c r="B224" t="s" s="4">
+      <c r="C224" t="s" s="5">
+        <v>67</v>
+      </c>
+      <c r="D224" s="6">
+        <v>0.642857142857143</v>
+      </c>
+      <c r="E224" s="6"/>
+      <c r="F224" s="6"/>
+      <c r="G224" s="6"/>
+      <c r="H224" s="6">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="I224" s="6"/>
+      <c r="J224" s="9"/>
+    </row>
+    <row r="225" ht="21" customHeight="1">
+      <c r="A225" t="s" s="5">
         <v>458</v>
       </c>
-      <c r="C224" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="D224" s="12"/>
-      <c r="E224" s="12"/>
-      <c r="F224" s="12"/>
-      <c r="G224" s="12"/>
-      <c r="H224" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="I224" s="12"/>
-      <c r="J224" s="13"/>
-    </row>
-    <row r="225" ht="21" customHeight="1">
-      <c r="A225" t="s" s="8">
+      <c r="B225" t="s" s="5">
         <v>459</v>
       </c>
-      <c r="B225" t="s" s="8">
-        <v>460</v>
-      </c>
-      <c r="C225" s="12"/>
-      <c r="D225" s="6"/>
+      <c r="C225" t="s" s="5">
+        <v>18</v>
+      </c>
+      <c r="D225" s="6">
+        <v>0.666666666666667</v>
+      </c>
       <c r="E225" s="6"/>
       <c r="F225" s="6"/>
       <c r="G225" s="6"/>
       <c r="H225" s="6">
-        <v>0.666666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="I225" s="6"/>
-      <c r="J225" s="11"/>
-    </row>
-    <row r="226" ht="21" customHeight="1">
-      <c r="A226" t="s" s="5">
+      <c r="J225" s="10"/>
+    </row>
+    <row r="226" ht="20.7" customHeight="1">
+      <c r="A226" t="s" s="4">
+        <v>460</v>
+      </c>
+      <c r="B226" t="s" s="4">
         <v>461</v>
       </c>
-      <c r="B226" t="s" s="5">
+      <c r="C226" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D226" s="12">
+        <v>0.9761904761904761</v>
+      </c>
+      <c r="E226" s="13"/>
+      <c r="F226" s="13"/>
+      <c r="G226" s="13"/>
+      <c r="H226" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="I226" s="13"/>
+      <c r="J226" s="14"/>
+    </row>
+    <row r="227" ht="21" customHeight="1">
+      <c r="A227" t="s" s="8">
         <v>462</v>
       </c>
-      <c r="C226" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D226" s="6">
+      <c r="B227" t="s" s="8">
+        <v>463</v>
+      </c>
+      <c r="C227" t="s" s="5">
+        <v>67</v>
+      </c>
+      <c r="D227" s="6">
         <v>0.595238095238095</v>
-      </c>
-      <c r="E226" s="6"/>
-      <c r="F226" s="6"/>
-      <c r="G226" s="6"/>
-      <c r="H226" s="6">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="I226" s="6"/>
-      <c r="J226" s="7"/>
-    </row>
-    <row r="227" ht="21" customHeight="1">
-      <c r="A227" t="s" s="5">
-        <v>463</v>
-      </c>
-      <c r="B227" t="s" s="5">
-        <v>464</v>
-      </c>
-      <c r="C227" t="s" s="5">
-        <v>15</v>
-      </c>
-      <c r="D227" s="6">
-        <v>0.547619047619048</v>
       </c>
       <c r="E227" s="6"/>
       <c r="F227" s="6"/>
       <c r="G227" s="6"/>
       <c r="H227" s="6">
-        <v>0.777777777777778</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="I227" s="6"/>
-      <c r="J227" s="7"/>
+      <c r="J227" s="11"/>
     </row>
     <row r="228" ht="21" customHeight="1">
       <c r="A228" t="s" s="5">
+        <v>464</v>
+      </c>
+      <c r="B228" t="s" s="5">
         <v>465</v>
       </c>
-      <c r="B228" t="s" s="5">
-        <v>466</v>
-      </c>
       <c r="C228" t="s" s="5">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="D228" s="6">
-        <v>0.547619047619048</v>
+        <v>0.595238095238095</v>
       </c>
       <c r="E228" s="6"/>
       <c r="F228" s="6"/>
       <c r="G228" s="6"/>
       <c r="H228" s="6">
-        <v>0.666666666666667</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="I228" s="6"/>
-      <c r="J228" s="9"/>
-    </row>
-    <row r="229" ht="20.7" customHeight="1">
+      <c r="J228" s="7"/>
+    </row>
+    <row r="229" ht="21" customHeight="1">
       <c r="A229" t="s" s="5">
+        <v>466</v>
+      </c>
+      <c r="B229" t="s" s="5">
         <v>467</v>
       </c>
-      <c r="B229" t="s" s="5">
-        <v>468</v>
-      </c>
       <c r="C229" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="D229" s="14">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E229" s="12"/>
-      <c r="F229" s="12"/>
-      <c r="G229" s="12"/>
+        <v>15</v>
+      </c>
+      <c r="D229" s="6">
+        <v>0.547619047619048</v>
+      </c>
+      <c r="E229" s="6"/>
+      <c r="F229" s="6"/>
+      <c r="G229" s="6"/>
       <c r="H229" s="6">
-        <v>0.638888888888889</v>
-      </c>
-      <c r="I229" s="12"/>
-      <c r="J229" s="13"/>
+        <v>0.777777777777778</v>
+      </c>
+      <c r="I229" s="6"/>
+      <c r="J229" s="7"/>
     </row>
     <row r="230" ht="21" customHeight="1">
       <c r="A230" t="s" s="5">
+        <v>468</v>
+      </c>
+      <c r="B230" t="s" s="5">
         <v>469</v>
       </c>
-      <c r="B230" t="s" s="5">
-        <v>470</v>
-      </c>
       <c r="C230" t="s" s="5">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="D230" s="6">
-        <v>0.761904761904762</v>
+        <v>0.547619047619048</v>
       </c>
       <c r="E230" s="6"/>
       <c r="F230" s="6"/>
       <c r="G230" s="6"/>
       <c r="H230" s="6">
-        <v>0.861111111111111</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="I230" s="6"/>
-      <c r="J230" s="10"/>
-    </row>
-    <row r="231" ht="21" customHeight="1">
+      <c r="J230" s="9"/>
+    </row>
+    <row r="231" ht="20.7" customHeight="1">
       <c r="A231" t="s" s="5">
+        <v>470</v>
+      </c>
+      <c r="B231" t="s" s="5">
         <v>471</v>
       </c>
-      <c r="B231" t="s" s="5">
-        <v>472</v>
-      </c>
       <c r="C231" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="D231" s="6"/>
-      <c r="E231" s="6"/>
-      <c r="F231" s="6"/>
-      <c r="G231" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="D231" s="15">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E231" s="13"/>
+      <c r="F231" s="13"/>
+      <c r="G231" s="13"/>
       <c r="H231" s="6">
-        <v>0.611111111111111</v>
-      </c>
-      <c r="I231" s="6"/>
-      <c r="J231" s="11"/>
+        <v>0.638888888888889</v>
+      </c>
+      <c r="I231" s="13"/>
+      <c r="J231" s="14"/>
     </row>
     <row r="232" ht="21" customHeight="1">
       <c r="A232" t="s" s="5">
+        <v>472</v>
+      </c>
+      <c r="B232" t="s" s="5">
         <v>473</v>
       </c>
-      <c r="B232" t="s" s="5">
-        <v>474</v>
-      </c>
       <c r="C232" t="s" s="5">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D232" s="6">
-        <v>0.595238095238095</v>
+        <v>0.761904761904762</v>
       </c>
       <c r="E232" s="6"/>
       <c r="F232" s="6"/>
       <c r="G232" s="6"/>
       <c r="H232" s="6">
-        <v>0.777777777777778</v>
+        <v>0.861111111111111</v>
       </c>
       <c r="I232" s="6"/>
-      <c r="J232" s="7"/>
+      <c r="J232" s="10"/>
     </row>
     <row r="233" ht="21" customHeight="1">
-      <c r="A233" t="s" s="4">
+      <c r="A233" t="s" s="5">
+        <v>474</v>
+      </c>
+      <c r="B233" t="s" s="5">
         <v>475</v>
       </c>
-      <c r="B233" t="s" s="4">
-        <v>476</v>
-      </c>
       <c r="C233" t="s" s="5">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D233" s="6">
-        <v>0.571428571428571</v>
+        <v>0</v>
       </c>
       <c r="E233" s="6"/>
       <c r="F233" s="6"/>
       <c r="G233" s="6"/>
       <c r="H233" s="6">
-        <v>0.75</v>
+        <v>0.611111111111111</v>
       </c>
       <c r="I233" s="6"/>
-      <c r="J233" s="9"/>
+      <c r="J233" s="11"/>
     </row>
     <row r="234" ht="21" customHeight="1">
-      <c r="A234" t="s" s="23">
+      <c r="A234" t="s" s="5">
+        <v>476</v>
+      </c>
+      <c r="B234" t="s" s="5">
         <v>477</v>
       </c>
-      <c r="B234" t="s" s="23">
-        <v>478</v>
-      </c>
       <c r="C234" t="s" s="5">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D234" s="6">
-        <v>0.738095238095238</v>
+        <v>0.595238095238095</v>
       </c>
       <c r="E234" s="6"/>
       <c r="F234" s="6"/>
@@ -8013,41 +8101,43 @@
         <v>0.777777777777778</v>
       </c>
       <c r="I234" s="6"/>
-      <c r="J234" s="11"/>
+      <c r="J234" s="7"/>
     </row>
     <row r="235" ht="21" customHeight="1">
-      <c r="A235" t="s" s="16">
+      <c r="A235" t="s" s="4">
+        <v>478</v>
+      </c>
+      <c r="B235" t="s" s="4">
         <v>479</v>
       </c>
-      <c r="B235" t="s" s="16">
-        <v>480</v>
-      </c>
-      <c r="C235" t="s" s="17">
-        <v>18</v>
+      <c r="C235" t="s" s="5">
+        <v>36</v>
       </c>
       <c r="D235" s="6">
-        <v>0.285714285714286</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="E235" s="6"/>
       <c r="F235" s="6"/>
       <c r="G235" s="6"/>
       <c r="H235" s="6">
-        <v>0.805555555555556</v>
+        <v>0.75</v>
       </c>
       <c r="I235" s="6"/>
-      <c r="J235" s="7"/>
+      <c r="J235" s="9"/>
     </row>
     <row r="236" ht="21" customHeight="1">
-      <c r="A236" t="s" s="18">
+      <c r="A236" t="s" s="24">
+        <v>480</v>
+      </c>
+      <c r="B236" t="s" s="24">
         <v>481</v>
       </c>
-      <c r="B236" t="s" s="18">
-        <v>482</v>
-      </c>
-      <c r="C236" t="s" s="17">
-        <v>15</v>
-      </c>
-      <c r="D236" s="6"/>
+      <c r="C236" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="D236" s="6">
+        <v>0.738095238095238</v>
+      </c>
       <c r="E236" s="6"/>
       <c r="F236" s="6"/>
       <c r="G236" s="6"/>
@@ -8055,102 +8145,122 @@
         <v>0.777777777777778</v>
       </c>
       <c r="I236" s="6"/>
-      <c r="J236" s="7"/>
+      <c r="J236" s="11"/>
     </row>
     <row r="237" ht="21" customHeight="1">
-      <c r="A237" t="s" s="5">
+      <c r="A237" t="s" s="17">
+        <v>482</v>
+      </c>
+      <c r="B237" t="s" s="17">
         <v>483</v>
       </c>
-      <c r="B237" t="s" s="5">
-        <v>484</v>
-      </c>
-      <c r="C237" t="s" s="5">
-        <v>12</v>
+      <c r="C237" t="s" s="18">
+        <v>18</v>
       </c>
       <c r="D237" s="6">
-        <v>0.30952380952381</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="E237" s="6"/>
       <c r="F237" s="6"/>
       <c r="G237" s="6"/>
       <c r="H237" s="6">
-        <v>0.638888888888889</v>
+        <v>0.805555555555556</v>
       </c>
       <c r="I237" s="6"/>
       <c r="J237" s="7"/>
     </row>
     <row r="238" ht="21" customHeight="1">
-      <c r="A238" t="s" s="5">
+      <c r="A238" t="s" s="19">
+        <v>484</v>
+      </c>
+      <c r="B238" t="s" s="19">
         <v>485</v>
       </c>
-      <c r="B238" t="s" s="5">
-        <v>486</v>
-      </c>
-      <c r="C238" t="s" s="5">
-        <v>67</v>
+      <c r="C238" t="s" s="18">
+        <v>15</v>
       </c>
       <c r="D238" s="6">
-        <v>0.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="E238" s="6"/>
       <c r="F238" s="6"/>
       <c r="G238" s="6"/>
       <c r="H238" s="6">
-        <v>0.666666666666667</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I238" s="6"/>
       <c r="J238" s="7"/>
     </row>
     <row r="239" ht="21" customHeight="1">
-      <c r="A239" t="s" s="4">
+      <c r="A239" t="s" s="5">
+        <v>486</v>
+      </c>
+      <c r="B239" t="s" s="5">
         <v>487</v>
       </c>
-      <c r="B239" t="s" s="4">
-        <v>488</v>
-      </c>
       <c r="C239" t="s" s="5">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D239" s="6">
-        <v>0.904761904761905</v>
+        <v>0.30952380952381</v>
       </c>
       <c r="E239" s="6"/>
       <c r="F239" s="6"/>
       <c r="G239" s="6"/>
       <c r="H239" s="6">
-        <v>0.861111111111111</v>
+        <v>0.638888888888889</v>
       </c>
       <c r="I239" s="6"/>
       <c r="J239" s="7"/>
     </row>
     <row r="240" ht="21" customHeight="1">
-      <c r="A240" s="26"/>
-      <c r="B240" s="26"/>
-      <c r="C240" s="24"/>
-      <c r="D240" s="6"/>
+      <c r="A240" t="s" s="5">
+        <v>488</v>
+      </c>
+      <c r="B240" t="s" s="5">
+        <v>489</v>
+      </c>
+      <c r="C240" t="s" s="5">
+        <v>67</v>
+      </c>
+      <c r="D240" s="6">
+        <v>0.333333333333333</v>
+      </c>
       <c r="E240" s="6"/>
       <c r="F240" s="6"/>
       <c r="G240" s="6"/>
-      <c r="H240" s="6"/>
+      <c r="H240" s="6">
+        <v>0.666666666666667</v>
+      </c>
       <c r="I240" s="6"/>
-      <c r="J240" s="9"/>
+      <c r="J240" s="7"/>
     </row>
     <row r="241" ht="21" customHeight="1">
-      <c r="A241" s="27"/>
-      <c r="B241" s="27"/>
-      <c r="C241" s="12"/>
-      <c r="D241" s="6"/>
+      <c r="A241" t="s" s="4">
+        <v>490</v>
+      </c>
+      <c r="B241" t="s" s="4">
+        <v>491</v>
+      </c>
+      <c r="C241" t="s" s="5">
+        <v>18</v>
+      </c>
+      <c r="D241" s="6">
+        <v>0.904761904761905</v>
+      </c>
       <c r="E241" s="6"/>
       <c r="F241" s="6"/>
       <c r="G241" s="6"/>
-      <c r="H241" s="6"/>
+      <c r="H241" s="6">
+        <v>0.861111111111111</v>
+      </c>
       <c r="I241" s="6"/>
-      <c r="J241" s="11"/>
+      <c r="J241" s="7"/>
     </row>
     <row r="242" ht="21" customHeight="1">
       <c r="A242" s="26"/>
       <c r="B242" s="26"/>
-      <c r="C242" s="24"/>
+      <c r="C242" s="25"/>
       <c r="D242" s="6"/>
       <c r="E242" s="6"/>
       <c r="F242" s="6"/>
@@ -8160,9 +8270,9 @@
       <c r="J242" s="9"/>
     </row>
     <row r="243" ht="21" customHeight="1">
-      <c r="A243" s="28"/>
-      <c r="B243" s="28"/>
-      <c r="C243" s="12"/>
+      <c r="A243" s="27"/>
+      <c r="B243" s="27"/>
+      <c r="C243" s="13"/>
       <c r="D243" s="6"/>
       <c r="E243" s="6"/>
       <c r="F243" s="6"/>
@@ -8172,9 +8282,9 @@
       <c r="J243" s="11"/>
     </row>
     <row r="244" ht="21" customHeight="1">
-      <c r="A244" s="12"/>
-      <c r="B244" s="12"/>
-      <c r="C244" s="12"/>
+      <c r="A244" s="13"/>
+      <c r="B244" s="13"/>
+      <c r="C244" s="13"/>
       <c r="D244" s="6"/>
       <c r="E244" s="6"/>
       <c r="F244" s="6"/>
@@ -8184,9 +8294,9 @@
       <c r="J244" s="7"/>
     </row>
     <row r="245" ht="21" customHeight="1">
-      <c r="A245" s="12"/>
-      <c r="B245" s="12"/>
-      <c r="C245" s="12"/>
+      <c r="A245" s="13"/>
+      <c r="B245" s="13"/>
+      <c r="C245" s="13"/>
       <c r="D245" s="6"/>
       <c r="E245" s="6"/>
       <c r="F245" s="6"/>
@@ -8196,9 +8306,9 @@
       <c r="J245" s="7"/>
     </row>
     <row r="246" ht="21" customHeight="1">
-      <c r="A246" s="12"/>
-      <c r="B246" s="12"/>
-      <c r="C246" s="12"/>
+      <c r="A246" s="13"/>
+      <c r="B246" s="13"/>
+      <c r="C246" s="13"/>
       <c r="D246" s="6"/>
       <c r="E246" s="6"/>
       <c r="F246" s="6"/>
@@ -8208,9 +8318,9 @@
       <c r="J246" s="7"/>
     </row>
     <row r="247" ht="21" customHeight="1">
-      <c r="A247" s="12"/>
-      <c r="B247" s="12"/>
-      <c r="C247" s="12"/>
+      <c r="A247" s="13"/>
+      <c r="B247" s="13"/>
+      <c r="C247" s="13"/>
       <c r="D247" s="6"/>
       <c r="E247" s="6"/>
       <c r="F247" s="6"/>
@@ -8220,9 +8330,9 @@
       <c r="J247" s="7"/>
     </row>
     <row r="248" ht="21" customHeight="1">
-      <c r="A248" s="12"/>
-      <c r="B248" s="12"/>
-      <c r="C248" s="12"/>
+      <c r="A248" s="13"/>
+      <c r="B248" s="13"/>
+      <c r="C248" s="13"/>
       <c r="D248" s="6"/>
       <c r="E248" s="6"/>
       <c r="F248" s="6"/>
@@ -8232,33 +8342,33 @@
       <c r="J248" s="9"/>
     </row>
     <row r="249" ht="20.35" customHeight="1">
-      <c r="A249" s="12"/>
-      <c r="B249" s="12"/>
-      <c r="C249" s="12"/>
-      <c r="D249" s="12"/>
-      <c r="E249" s="12"/>
-      <c r="F249" s="12"/>
-      <c r="G249" s="12"/>
+      <c r="A249" s="13"/>
+      <c r="B249" s="13"/>
+      <c r="C249" s="13"/>
+      <c r="D249" s="13"/>
+      <c r="E249" s="13"/>
+      <c r="F249" s="13"/>
+      <c r="G249" s="13"/>
       <c r="H249" s="6"/>
-      <c r="I249" s="12"/>
-      <c r="J249" s="13"/>
+      <c r="I249" s="13"/>
+      <c r="J249" s="14"/>
     </row>
     <row r="250" ht="20.35" customHeight="1">
-      <c r="A250" s="12"/>
-      <c r="B250" s="12"/>
-      <c r="C250" s="12"/>
-      <c r="D250" s="12"/>
-      <c r="E250" s="12"/>
-      <c r="F250" s="12"/>
-      <c r="G250" s="12"/>
+      <c r="A250" s="13"/>
+      <c r="B250" s="13"/>
+      <c r="C250" s="13"/>
+      <c r="D250" s="13"/>
+      <c r="E250" s="13"/>
+      <c r="F250" s="13"/>
+      <c r="G250" s="13"/>
       <c r="H250" s="6"/>
-      <c r="I250" s="12"/>
-      <c r="J250" s="15"/>
+      <c r="I250" s="13"/>
+      <c r="J250" s="16"/>
     </row>
     <row r="251" ht="21" customHeight="1">
-      <c r="A251" s="12"/>
-      <c r="B251" s="12"/>
-      <c r="C251" s="12"/>
+      <c r="A251" s="13"/>
+      <c r="B251" s="13"/>
+      <c r="C251" s="13"/>
       <c r="D251" s="6"/>
       <c r="E251" s="6"/>
       <c r="F251" s="6"/>
@@ -8268,45 +8378,45 @@
       <c r="J251" s="9"/>
     </row>
     <row r="252" ht="20.35" customHeight="1">
-      <c r="A252" s="12"/>
-      <c r="B252" s="12"/>
-      <c r="C252" s="12"/>
-      <c r="D252" s="12"/>
-      <c r="E252" s="12"/>
-      <c r="F252" s="12"/>
-      <c r="G252" s="12"/>
+      <c r="A252" s="13"/>
+      <c r="B252" s="13"/>
+      <c r="C252" s="13"/>
+      <c r="D252" s="13"/>
+      <c r="E252" s="13"/>
+      <c r="F252" s="13"/>
+      <c r="G252" s="13"/>
       <c r="H252" s="6"/>
-      <c r="I252" s="12"/>
-      <c r="J252" s="13"/>
+      <c r="I252" s="13"/>
+      <c r="J252" s="14"/>
     </row>
     <row r="253" ht="20.05" customHeight="1">
-      <c r="A253" s="12"/>
-      <c r="B253" s="12"/>
-      <c r="C253" s="12"/>
-      <c r="D253" s="12"/>
-      <c r="E253" s="12"/>
-      <c r="F253" s="12"/>
-      <c r="G253" s="12"/>
+      <c r="A253" s="13"/>
+      <c r="B253" s="13"/>
+      <c r="C253" s="13"/>
+      <c r="D253" s="13"/>
+      <c r="E253" s="13"/>
+      <c r="F253" s="13"/>
+      <c r="G253" s="13"/>
       <c r="H253" s="6"/>
-      <c r="I253" s="12"/>
-      <c r="J253" s="13"/>
+      <c r="I253" s="13"/>
+      <c r="J253" s="14"/>
     </row>
     <row r="254" ht="20.35" customHeight="1">
-      <c r="A254" s="29"/>
-      <c r="B254" s="29"/>
-      <c r="C254" s="12"/>
-      <c r="D254" s="12"/>
-      <c r="E254" s="12"/>
-      <c r="F254" s="12"/>
-      <c r="G254" s="12"/>
+      <c r="A254" s="28"/>
+      <c r="B254" s="28"/>
+      <c r="C254" s="13"/>
+      <c r="D254" s="13"/>
+      <c r="E254" s="13"/>
+      <c r="F254" s="13"/>
+      <c r="G254" s="13"/>
       <c r="H254" s="6"/>
-      <c r="I254" s="12"/>
-      <c r="J254" s="15"/>
+      <c r="I254" s="13"/>
+      <c r="J254" s="16"/>
     </row>
     <row r="255" ht="21" customHeight="1">
       <c r="A255" s="26"/>
       <c r="B255" s="26"/>
-      <c r="C255" s="24"/>
+      <c r="C255" s="25"/>
       <c r="D255" s="6"/>
       <c r="E255" s="6"/>
       <c r="F255" s="6"/>
@@ -8316,21 +8426,21 @@
       <c r="J255" s="9"/>
     </row>
     <row r="256" ht="20.7" customHeight="1">
-      <c r="A256" s="28"/>
-      <c r="B256" s="28"/>
-      <c r="C256" s="12"/>
-      <c r="D256" s="12"/>
-      <c r="E256" s="12"/>
-      <c r="F256" s="12"/>
-      <c r="G256" s="12"/>
+      <c r="A256" s="27"/>
+      <c r="B256" s="27"/>
+      <c r="C256" s="13"/>
+      <c r="D256" s="13"/>
+      <c r="E256" s="13"/>
+      <c r="F256" s="13"/>
+      <c r="G256" s="13"/>
       <c r="H256" s="6"/>
-      <c r="I256" s="12"/>
-      <c r="J256" s="15"/>
+      <c r="I256" s="13"/>
+      <c r="J256" s="16"/>
     </row>
     <row r="257" ht="21" customHeight="1">
-      <c r="A257" s="29"/>
-      <c r="B257" s="29"/>
-      <c r="C257" s="12"/>
+      <c r="A257" s="28"/>
+      <c r="B257" s="28"/>
+      <c r="C257" s="13"/>
       <c r="D257" s="6"/>
       <c r="E257" s="6"/>
       <c r="F257" s="6"/>
@@ -8342,7 +8452,7 @@
     <row r="258" ht="21" customHeight="1">
       <c r="A258" s="26"/>
       <c r="B258" s="26"/>
-      <c r="C258" s="24"/>
+      <c r="C258" s="25"/>
       <c r="D258" s="6"/>
       <c r="E258" s="6"/>
       <c r="F258" s="6"/>
@@ -8352,9 +8462,9 @@
       <c r="J258" s="9"/>
     </row>
     <row r="259" ht="21" customHeight="1">
-      <c r="A259" s="28"/>
-      <c r="B259" s="28"/>
-      <c r="C259" s="12"/>
+      <c r="A259" s="27"/>
+      <c r="B259" s="27"/>
+      <c r="C259" s="13"/>
       <c r="D259" s="6"/>
       <c r="E259" s="6"/>
       <c r="F259" s="6"/>
@@ -8364,9 +8474,9 @@
       <c r="J259" s="11"/>
     </row>
     <row r="260" ht="21" customHeight="1">
-      <c r="A260" s="12"/>
-      <c r="B260" s="12"/>
-      <c r="C260" s="12"/>
+      <c r="A260" s="13"/>
+      <c r="B260" s="13"/>
+      <c r="C260" s="13"/>
       <c r="D260" s="6"/>
       <c r="E260" s="6"/>
       <c r="F260" s="6"/>
@@ -8376,9 +8486,9 @@
       <c r="J260" s="7"/>
     </row>
     <row r="261" ht="21" customHeight="1">
-      <c r="A261" s="29"/>
-      <c r="B261" s="29"/>
-      <c r="C261" s="12"/>
+      <c r="A261" s="28"/>
+      <c r="B261" s="28"/>
+      <c r="C261" s="13"/>
       <c r="D261" s="6"/>
       <c r="E261" s="6"/>
       <c r="F261" s="6"/>
@@ -8390,7 +8500,7 @@
     <row r="262" ht="21" customHeight="1">
       <c r="A262" s="26"/>
       <c r="B262" s="26"/>
-      <c r="C262" s="24"/>
+      <c r="C262" s="25"/>
       <c r="D262" s="6"/>
       <c r="E262" s="6"/>
       <c r="F262" s="6"/>
@@ -8402,7 +8512,7 @@
     <row r="263" ht="21" customHeight="1">
       <c r="A263" s="26"/>
       <c r="B263" s="26"/>
-      <c r="C263" s="24"/>
+      <c r="C263" s="25"/>
       <c r="D263" s="6"/>
       <c r="E263" s="6"/>
       <c r="F263" s="6"/>
@@ -8412,9 +8522,9 @@
       <c r="J263" s="7"/>
     </row>
     <row r="264" ht="21" customHeight="1">
-      <c r="A264" s="28"/>
-      <c r="B264" s="28"/>
-      <c r="C264" s="12"/>
+      <c r="A264" s="27"/>
+      <c r="B264" s="27"/>
+      <c r="C264" s="13"/>
       <c r="D264" s="6"/>
       <c r="E264" s="6"/>
       <c r="F264" s="6"/>
@@ -8424,9 +8534,9 @@
       <c r="J264" s="9"/>
     </row>
     <row r="265" ht="21" customHeight="1">
-      <c r="A265" s="12"/>
-      <c r="B265" s="12"/>
-      <c r="C265" s="12"/>
+      <c r="A265" s="13"/>
+      <c r="B265" s="13"/>
+      <c r="C265" s="13"/>
       <c r="D265" s="6"/>
       <c r="E265" s="6"/>
       <c r="F265" s="6"/>
@@ -8436,9 +8546,9 @@
       <c r="J265" s="10"/>
     </row>
     <row r="266" ht="21" customHeight="1">
-      <c r="A266" s="12"/>
-      <c r="B266" s="12"/>
-      <c r="C266" s="12"/>
+      <c r="A266" s="13"/>
+      <c r="B266" s="13"/>
+      <c r="C266" s="13"/>
       <c r="D266" s="6"/>
       <c r="E266" s="6"/>
       <c r="F266" s="6"/>
@@ -8448,9 +8558,9 @@
       <c r="J266" s="11"/>
     </row>
     <row r="267" ht="21" customHeight="1">
-      <c r="A267" s="12"/>
-      <c r="B267" s="12"/>
-      <c r="C267" s="12"/>
+      <c r="A267" s="13"/>
+      <c r="B267" s="13"/>
+      <c r="C267" s="13"/>
       <c r="D267" s="6"/>
       <c r="E267" s="6"/>
       <c r="F267" s="6"/>
@@ -8460,9 +8570,9 @@
       <c r="J267" s="9"/>
     </row>
     <row r="268" ht="21" customHeight="1">
-      <c r="A268" s="12"/>
-      <c r="B268" s="12"/>
-      <c r="C268" s="12"/>
+      <c r="A268" s="13"/>
+      <c r="B268" s="13"/>
+      <c r="C268" s="13"/>
       <c r="D268" s="6"/>
       <c r="E268" s="6"/>
       <c r="F268" s="6"/>
@@ -8472,9 +8582,9 @@
       <c r="J268" s="11"/>
     </row>
     <row r="269" ht="21" customHeight="1">
-      <c r="A269" s="12"/>
-      <c r="B269" s="12"/>
-      <c r="C269" s="12"/>
+      <c r="A269" s="13"/>
+      <c r="B269" s="13"/>
+      <c r="C269" s="13"/>
       <c r="D269" s="6"/>
       <c r="E269" s="6"/>
       <c r="F269" s="6"/>
@@ -8484,9 +8594,9 @@
       <c r="J269" s="9"/>
     </row>
     <row r="270" ht="21" customHeight="1">
-      <c r="A270" s="12"/>
-      <c r="B270" s="12"/>
-      <c r="C270" s="12"/>
+      <c r="A270" s="13"/>
+      <c r="B270" s="13"/>
+      <c r="C270" s="13"/>
       <c r="D270" s="6"/>
       <c r="E270" s="6"/>
       <c r="F270" s="6"/>
@@ -8496,9 +8606,9 @@
       <c r="J270" s="11"/>
     </row>
     <row r="271" ht="21" customHeight="1">
-      <c r="A271" s="12"/>
-      <c r="B271" s="12"/>
-      <c r="C271" s="12"/>
+      <c r="A271" s="13"/>
+      <c r="B271" s="13"/>
+      <c r="C271" s="13"/>
       <c r="D271" s="6"/>
       <c r="E271" s="6"/>
       <c r="F271" s="6"/>
@@ -8508,9 +8618,9 @@
       <c r="J271" s="7"/>
     </row>
     <row r="272" ht="21" customHeight="1">
-      <c r="A272" s="12"/>
-      <c r="B272" s="12"/>
-      <c r="C272" s="12"/>
+      <c r="A272" s="13"/>
+      <c r="B272" s="13"/>
+      <c r="C272" s="13"/>
       <c r="D272" s="6"/>
       <c r="E272" s="6"/>
       <c r="F272" s="6"/>
@@ -8520,9 +8630,9 @@
       <c r="J272" s="9"/>
     </row>
     <row r="273" ht="21" customHeight="1">
-      <c r="A273" s="12"/>
-      <c r="B273" s="12"/>
-      <c r="C273" s="12"/>
+      <c r="A273" s="13"/>
+      <c r="B273" s="13"/>
+      <c r="C273" s="13"/>
       <c r="D273" s="6"/>
       <c r="E273" s="6"/>
       <c r="F273" s="6"/>
@@ -8532,21 +8642,21 @@
       <c r="J273" s="10"/>
     </row>
     <row r="274" ht="20.7" customHeight="1">
-      <c r="A274" s="12"/>
-      <c r="B274" s="12"/>
-      <c r="C274" s="12"/>
-      <c r="D274" s="12"/>
-      <c r="E274" s="12"/>
-      <c r="F274" s="12"/>
-      <c r="G274" s="12"/>
+      <c r="A274" s="13"/>
+      <c r="B274" s="13"/>
+      <c r="C274" s="13"/>
+      <c r="D274" s="13"/>
+      <c r="E274" s="13"/>
+      <c r="F274" s="13"/>
+      <c r="G274" s="13"/>
       <c r="H274" s="6"/>
-      <c r="I274" s="12"/>
-      <c r="J274" s="15"/>
+      <c r="I274" s="13"/>
+      <c r="J274" s="16"/>
     </row>
     <row r="275" ht="21" customHeight="1">
-      <c r="A275" s="12"/>
-      <c r="B275" s="12"/>
-      <c r="C275" s="12"/>
+      <c r="A275" s="13"/>
+      <c r="B275" s="13"/>
+      <c r="C275" s="13"/>
       <c r="D275" s="6"/>
       <c r="E275" s="6"/>
       <c r="F275" s="6"/>
@@ -8556,9 +8666,9 @@
       <c r="J275" s="7"/>
     </row>
     <row r="276" ht="21" customHeight="1">
-      <c r="A276" s="12"/>
-      <c r="B276" s="12"/>
-      <c r="C276" s="12"/>
+      <c r="A276" s="13"/>
+      <c r="B276" s="13"/>
+      <c r="C276" s="13"/>
       <c r="D276" s="6"/>
       <c r="E276" s="6"/>
       <c r="F276" s="6"/>
@@ -8568,9 +8678,9 @@
       <c r="J276" s="7"/>
     </row>
     <row r="277" ht="21" customHeight="1">
-      <c r="A277" s="12"/>
-      <c r="B277" s="12"/>
-      <c r="C277" s="12"/>
+      <c r="A277" s="13"/>
+      <c r="B277" s="13"/>
+      <c r="C277" s="13"/>
       <c r="D277" s="6"/>
       <c r="E277" s="6"/>
       <c r="F277" s="6"/>
@@ -8580,9 +8690,9 @@
       <c r="J277" s="7"/>
     </row>
     <row r="278" ht="21" customHeight="1">
-      <c r="A278" s="29"/>
-      <c r="B278" s="29"/>
-      <c r="C278" s="12"/>
+      <c r="A278" s="28"/>
+      <c r="B278" s="28"/>
+      <c r="C278" s="13"/>
       <c r="D278" s="6"/>
       <c r="E278" s="6"/>
       <c r="F278" s="6"/>
@@ -8594,7 +8704,7 @@
     <row r="279" ht="21" customHeight="1">
       <c r="A279" s="26"/>
       <c r="B279" s="26"/>
-      <c r="C279" s="24"/>
+      <c r="C279" s="25"/>
       <c r="D279" s="6"/>
       <c r="E279" s="6"/>
       <c r="F279" s="6"/>
@@ -8606,7 +8716,7 @@
     <row r="280" ht="21" customHeight="1">
       <c r="A280" s="26"/>
       <c r="B280" s="26"/>
-      <c r="C280" s="24"/>
+      <c r="C280" s="25"/>
       <c r="D280" s="6"/>
       <c r="E280" s="6"/>
       <c r="F280" s="6"/>
@@ -8616,9 +8726,9 @@
       <c r="J280" s="9"/>
     </row>
     <row r="281" ht="21" customHeight="1">
-      <c r="A281" s="28"/>
-      <c r="B281" s="28"/>
-      <c r="C281" s="12"/>
+      <c r="A281" s="27"/>
+      <c r="B281" s="27"/>
+      <c r="C281" s="13"/>
       <c r="D281" s="6"/>
       <c r="E281" s="6"/>
       <c r="F281" s="6"/>
@@ -8628,9 +8738,9 @@
       <c r="J281" s="11"/>
     </row>
     <row r="282" ht="21" customHeight="1">
-      <c r="A282" s="12"/>
-      <c r="B282" s="12"/>
-      <c r="C282" s="12"/>
+      <c r="A282" s="13"/>
+      <c r="B282" s="13"/>
+      <c r="C282" s="13"/>
       <c r="D282" s="6"/>
       <c r="E282" s="6"/>
       <c r="F282" s="6"/>
@@ -8640,9 +8750,9 @@
       <c r="J282" s="7"/>
     </row>
     <row r="283" ht="21" customHeight="1">
-      <c r="A283" s="12"/>
-      <c r="B283" s="12"/>
-      <c r="C283" s="12"/>
+      <c r="A283" s="13"/>
+      <c r="B283" s="13"/>
+      <c r="C283" s="13"/>
       <c r="D283" s="6"/>
       <c r="E283" s="6"/>
       <c r="F283" s="6"/>
@@ -8652,9 +8762,9 @@
       <c r="J283" s="9"/>
     </row>
     <row r="284" ht="21" customHeight="1">
-      <c r="A284" s="12"/>
-      <c r="B284" s="12"/>
-      <c r="C284" s="12"/>
+      <c r="A284" s="13"/>
+      <c r="B284" s="13"/>
+      <c r="C284" s="13"/>
       <c r="D284" s="6"/>
       <c r="E284" s="6"/>
       <c r="F284" s="6"/>
@@ -8664,9 +8774,9 @@
       <c r="J284" s="11"/>
     </row>
     <row r="285" ht="21" customHeight="1">
-      <c r="A285" s="12"/>
-      <c r="B285" s="12"/>
-      <c r="C285" s="12"/>
+      <c r="A285" s="13"/>
+      <c r="B285" s="13"/>
+      <c r="C285" s="13"/>
       <c r="D285" s="6"/>
       <c r="E285" s="6"/>
       <c r="F285" s="6"/>
@@ -8676,9 +8786,9 @@
       <c r="J285" s="7"/>
     </row>
     <row r="286" ht="21" customHeight="1">
-      <c r="A286" s="12"/>
-      <c r="B286" s="12"/>
-      <c r="C286" s="12"/>
+      <c r="A286" s="13"/>
+      <c r="B286" s="13"/>
+      <c r="C286" s="13"/>
       <c r="D286" s="6"/>
       <c r="E286" s="6"/>
       <c r="F286" s="6"/>
@@ -8688,9 +8798,9 @@
       <c r="J286" s="9"/>
     </row>
     <row r="287" ht="21" customHeight="1">
-      <c r="A287" s="12"/>
-      <c r="B287" s="12"/>
-      <c r="C287" s="12"/>
+      <c r="A287" s="13"/>
+      <c r="B287" s="13"/>
+      <c r="C287" s="13"/>
       <c r="D287" s="6"/>
       <c r="E287" s="6"/>
       <c r="F287" s="6"/>
@@ -8700,9 +8810,9 @@
       <c r="J287" s="11"/>
     </row>
     <row r="288" ht="21" customHeight="1">
-      <c r="A288" s="12"/>
-      <c r="B288" s="12"/>
-      <c r="C288" s="12"/>
+      <c r="A288" s="13"/>
+      <c r="B288" s="13"/>
+      <c r="C288" s="13"/>
       <c r="D288" s="6"/>
       <c r="E288" s="6"/>
       <c r="F288" s="6"/>
@@ -8712,9 +8822,9 @@
       <c r="J288" s="7"/>
     </row>
     <row r="289" ht="21" customHeight="1">
-      <c r="A289" s="12"/>
-      <c r="B289" s="12"/>
-      <c r="C289" s="12"/>
+      <c r="A289" s="13"/>
+      <c r="B289" s="13"/>
+      <c r="C289" s="13"/>
       <c r="D289" s="6"/>
       <c r="E289" s="6"/>
       <c r="F289" s="6"/>
@@ -8724,9 +8834,9 @@
       <c r="J289" s="7"/>
     </row>
     <row r="290" ht="21" customHeight="1">
-      <c r="A290" s="12"/>
-      <c r="B290" s="12"/>
-      <c r="C290" s="12"/>
+      <c r="A290" s="13"/>
+      <c r="B290" s="13"/>
+      <c r="C290" s="13"/>
       <c r="D290" s="6"/>
       <c r="E290" s="6"/>
       <c r="F290" s="6"/>
@@ -8736,9 +8846,9 @@
       <c r="J290" s="7"/>
     </row>
     <row r="291" ht="21" customHeight="1">
-      <c r="A291" s="12"/>
-      <c r="B291" s="12"/>
-      <c r="C291" s="12"/>
+      <c r="A291" s="13"/>
+      <c r="B291" s="13"/>
+      <c r="C291" s="13"/>
       <c r="D291" s="6"/>
       <c r="E291" s="6"/>
       <c r="F291" s="6"/>
@@ -8748,9 +8858,9 @@
       <c r="J291" s="7"/>
     </row>
     <row r="292" ht="21" customHeight="1">
-      <c r="A292" s="12"/>
-      <c r="B292" s="12"/>
-      <c r="C292" s="12"/>
+      <c r="A292" s="13"/>
+      <c r="B292" s="13"/>
+      <c r="C292" s="13"/>
       <c r="D292" s="6"/>
       <c r="E292" s="6"/>
       <c r="F292" s="6"/>
@@ -8760,9 +8870,9 @@
       <c r="J292" s="7"/>
     </row>
     <row r="293" ht="21" customHeight="1">
-      <c r="A293" s="29"/>
-      <c r="B293" s="29"/>
-      <c r="C293" s="12"/>
+      <c r="A293" s="28"/>
+      <c r="B293" s="28"/>
+      <c r="C293" s="13"/>
       <c r="D293" s="6"/>
       <c r="E293" s="6"/>
       <c r="F293" s="6"/>
@@ -8774,7 +8884,7 @@
     <row r="294" ht="21" customHeight="1">
       <c r="A294" s="26"/>
       <c r="B294" s="26"/>
-      <c r="C294" s="24"/>
+      <c r="C294" s="25"/>
       <c r="D294" s="6"/>
       <c r="E294" s="6"/>
       <c r="F294" s="6"/>
@@ -8784,21 +8894,21 @@
       <c r="J294" s="9"/>
     </row>
     <row r="295" ht="20.7" customHeight="1">
-      <c r="A295" s="28"/>
-      <c r="B295" s="28"/>
-      <c r="C295" s="12"/>
-      <c r="D295" s="12"/>
-      <c r="E295" s="12"/>
-      <c r="F295" s="12"/>
-      <c r="G295" s="12"/>
+      <c r="A295" s="27"/>
+      <c r="B295" s="27"/>
+      <c r="C295" s="13"/>
+      <c r="D295" s="13"/>
+      <c r="E295" s="13"/>
+      <c r="F295" s="13"/>
+      <c r="G295" s="13"/>
       <c r="H295" s="6"/>
-      <c r="I295" s="12"/>
-      <c r="J295" s="15"/>
+      <c r="I295" s="13"/>
+      <c r="J295" s="16"/>
     </row>
     <row r="296" ht="21" customHeight="1">
-      <c r="A296" s="12"/>
-      <c r="B296" s="12"/>
-      <c r="C296" s="12"/>
+      <c r="A296" s="13"/>
+      <c r="B296" s="13"/>
+      <c r="C296" s="13"/>
       <c r="D296" s="6"/>
       <c r="E296" s="6"/>
       <c r="F296" s="6"/>
@@ -8808,9 +8918,9 @@
       <c r="J296" s="7"/>
     </row>
     <row r="297" ht="21" customHeight="1">
-      <c r="A297" s="12"/>
-      <c r="B297" s="12"/>
-      <c r="C297" s="12"/>
+      <c r="A297" s="13"/>
+      <c r="B297" s="13"/>
+      <c r="C297" s="13"/>
       <c r="D297" s="6"/>
       <c r="E297" s="6"/>
       <c r="F297" s="6"/>
@@ -8820,9 +8930,9 @@
       <c r="J297" s="7"/>
     </row>
     <row r="298" ht="21" customHeight="1">
-      <c r="A298" s="12"/>
-      <c r="B298" s="12"/>
-      <c r="C298" s="12"/>
+      <c r="A298" s="13"/>
+      <c r="B298" s="13"/>
+      <c r="C298" s="13"/>
       <c r="D298" s="6"/>
       <c r="E298" s="6"/>
       <c r="F298" s="6"/>
@@ -8832,9 +8942,9 @@
       <c r="J298" s="7"/>
     </row>
     <row r="299" ht="21" customHeight="1">
-      <c r="A299" s="12"/>
-      <c r="B299" s="12"/>
-      <c r="C299" s="12"/>
+      <c r="A299" s="13"/>
+      <c r="B299" s="13"/>
+      <c r="C299" s="13"/>
       <c r="D299" s="6"/>
       <c r="E299" s="6"/>
       <c r="F299" s="6"/>
@@ -8844,9 +8954,9 @@
       <c r="J299" s="9"/>
     </row>
     <row r="300" ht="21" customHeight="1">
-      <c r="A300" s="29"/>
-      <c r="B300" s="29"/>
-      <c r="C300" s="12"/>
+      <c r="A300" s="28"/>
+      <c r="B300" s="28"/>
+      <c r="C300" s="13"/>
       <c r="D300" s="6"/>
       <c r="E300" s="6"/>
       <c r="F300" s="6"/>
@@ -8858,7 +8968,7 @@
     <row r="301" ht="21" customHeight="1">
       <c r="A301" s="26"/>
       <c r="B301" s="26"/>
-      <c r="C301" s="24"/>
+      <c r="C301" s="25"/>
       <c r="D301" s="6"/>
       <c r="E301" s="6"/>
       <c r="F301" s="6"/>
@@ -8868,9 +8978,9 @@
       <c r="J301" s="7"/>
     </row>
     <row r="302" ht="21" customHeight="1">
-      <c r="A302" s="28"/>
-      <c r="B302" s="28"/>
-      <c r="C302" s="12"/>
+      <c r="A302" s="27"/>
+      <c r="B302" s="27"/>
+      <c r="C302" s="13"/>
       <c r="D302" s="6"/>
       <c r="E302" s="6"/>
       <c r="F302" s="6"/>
@@ -8880,9 +8990,9 @@
       <c r="J302" s="9"/>
     </row>
     <row r="303" ht="21" customHeight="1">
-      <c r="A303" s="12"/>
-      <c r="B303" s="12"/>
-      <c r="C303" s="12"/>
+      <c r="A303" s="13"/>
+      <c r="B303" s="13"/>
+      <c r="C303" s="13"/>
       <c r="D303" s="6"/>
       <c r="E303" s="6"/>
       <c r="F303" s="6"/>
@@ -8892,9 +9002,9 @@
       <c r="J303" s="11"/>
     </row>
     <row r="304" ht="21" customHeight="1">
-      <c r="A304" s="12"/>
-      <c r="B304" s="12"/>
-      <c r="C304" s="12"/>
+      <c r="A304" s="13"/>
+      <c r="B304" s="13"/>
+      <c r="C304" s="13"/>
       <c r="D304" s="6"/>
       <c r="E304" s="6"/>
       <c r="F304" s="6"/>
@@ -8904,33 +9014,33 @@
       <c r="J304" s="9"/>
     </row>
     <row r="305" ht="20.35" customHeight="1">
-      <c r="A305" s="12"/>
-      <c r="B305" s="12"/>
-      <c r="C305" s="12"/>
-      <c r="D305" s="12"/>
-      <c r="E305" s="12"/>
-      <c r="F305" s="12"/>
-      <c r="G305" s="12"/>
+      <c r="A305" s="13"/>
+      <c r="B305" s="13"/>
+      <c r="C305" s="13"/>
+      <c r="D305" s="13"/>
+      <c r="E305" s="13"/>
+      <c r="F305" s="13"/>
+      <c r="G305" s="13"/>
       <c r="H305" s="6"/>
-      <c r="I305" s="12"/>
-      <c r="J305" s="13"/>
+      <c r="I305" s="13"/>
+      <c r="J305" s="14"/>
     </row>
     <row r="306" ht="20.35" customHeight="1">
-      <c r="A306" s="12"/>
-      <c r="B306" s="12"/>
-      <c r="C306" s="12"/>
-      <c r="D306" s="12"/>
-      <c r="E306" s="12"/>
-      <c r="F306" s="12"/>
-      <c r="G306" s="12"/>
+      <c r="A306" s="13"/>
+      <c r="B306" s="13"/>
+      <c r="C306" s="13"/>
+      <c r="D306" s="13"/>
+      <c r="E306" s="13"/>
+      <c r="F306" s="13"/>
+      <c r="G306" s="13"/>
       <c r="H306" s="6"/>
-      <c r="I306" s="12"/>
-      <c r="J306" s="15"/>
+      <c r="I306" s="13"/>
+      <c r="J306" s="16"/>
     </row>
     <row r="307" ht="21" customHeight="1">
-      <c r="A307" s="12"/>
-      <c r="B307" s="12"/>
-      <c r="C307" s="12"/>
+      <c r="A307" s="13"/>
+      <c r="B307" s="13"/>
+      <c r="C307" s="13"/>
       <c r="D307" s="6"/>
       <c r="E307" s="6"/>
       <c r="F307" s="6"/>
@@ -8940,9 +9050,9 @@
       <c r="J307" s="9"/>
     </row>
     <row r="308" ht="21" customHeight="1">
-      <c r="A308" s="12"/>
-      <c r="B308" s="12"/>
-      <c r="C308" s="12"/>
+      <c r="A308" s="13"/>
+      <c r="B308" s="13"/>
+      <c r="C308" s="13"/>
       <c r="D308" s="6"/>
       <c r="E308" s="6"/>
       <c r="F308" s="6"/>
@@ -8952,9 +9062,9 @@
       <c r="J308" s="11"/>
     </row>
     <row r="309" ht="21" customHeight="1">
-      <c r="A309" s="12"/>
-      <c r="B309" s="12"/>
-      <c r="C309" s="12"/>
+      <c r="A309" s="13"/>
+      <c r="B309" s="13"/>
+      <c r="C309" s="13"/>
       <c r="D309" s="6"/>
       <c r="E309" s="6"/>
       <c r="F309" s="6"/>
@@ -8964,9 +9074,9 @@
       <c r="J309" s="9"/>
     </row>
     <row r="310" ht="21" customHeight="1">
-      <c r="A310" s="12"/>
-      <c r="B310" s="12"/>
-      <c r="C310" s="12"/>
+      <c r="A310" s="13"/>
+      <c r="B310" s="13"/>
+      <c r="C310" s="13"/>
       <c r="D310" s="6"/>
       <c r="E310" s="6"/>
       <c r="F310" s="6"/>
@@ -8976,21 +9086,21 @@
       <c r="J310" s="11"/>
     </row>
     <row r="311" ht="21" customHeight="1">
-      <c r="A311" s="12"/>
-      <c r="B311" s="12"/>
-      <c r="C311" s="12"/>
-      <c r="D311" s="12"/>
-      <c r="E311" s="12"/>
-      <c r="F311" s="12"/>
-      <c r="G311" s="12"/>
+      <c r="A311" s="13"/>
+      <c r="B311" s="13"/>
+      <c r="C311" s="13"/>
+      <c r="D311" s="13"/>
+      <c r="E311" s="13"/>
+      <c r="F311" s="13"/>
+      <c r="G311" s="13"/>
       <c r="H311" s="6"/>
-      <c r="I311" s="12"/>
+      <c r="I311" s="13"/>
       <c r="J311" s="7"/>
     </row>
     <row r="312" ht="21" customHeight="1">
-      <c r="A312" s="12"/>
-      <c r="B312" s="12"/>
-      <c r="C312" s="12"/>
+      <c r="A312" s="13"/>
+      <c r="B312" s="13"/>
+      <c r="C312" s="13"/>
       <c r="D312" s="6"/>
       <c r="E312" s="6"/>
       <c r="F312" s="6"/>
@@ -9000,9 +9110,9 @@
       <c r="J312" s="7"/>
     </row>
     <row r="313" ht="21" customHeight="1">
-      <c r="A313" s="12"/>
-      <c r="B313" s="12"/>
-      <c r="C313" s="12"/>
+      <c r="A313" s="13"/>
+      <c r="B313" s="13"/>
+      <c r="C313" s="13"/>
       <c r="D313" s="6"/>
       <c r="E313" s="6"/>
       <c r="F313" s="6"/>
@@ -9012,21 +9122,21 @@
       <c r="J313" s="9"/>
     </row>
     <row r="314" ht="20.7" customHeight="1">
-      <c r="A314" s="12"/>
-      <c r="B314" s="12"/>
-      <c r="C314" s="12"/>
-      <c r="D314" s="12"/>
-      <c r="E314" s="12"/>
-      <c r="F314" s="12"/>
-      <c r="G314" s="12"/>
+      <c r="A314" s="13"/>
+      <c r="B314" s="13"/>
+      <c r="C314" s="13"/>
+      <c r="D314" s="13"/>
+      <c r="E314" s="13"/>
+      <c r="F314" s="13"/>
+      <c r="G314" s="13"/>
       <c r="H314" s="6"/>
-      <c r="I314" s="12"/>
-      <c r="J314" s="15"/>
+      <c r="I314" s="13"/>
+      <c r="J314" s="16"/>
     </row>
     <row r="315" ht="21" customHeight="1">
-      <c r="A315" s="12"/>
-      <c r="B315" s="12"/>
-      <c r="C315" s="12"/>
+      <c r="A315" s="13"/>
+      <c r="B315" s="13"/>
+      <c r="C315" s="13"/>
       <c r="D315" s="6"/>
       <c r="E315" s="6"/>
       <c r="F315" s="6"/>
@@ -9036,9 +9146,9 @@
       <c r="J315" s="7"/>
     </row>
     <row r="316" ht="21" customHeight="1">
-      <c r="A316" s="12"/>
-      <c r="B316" s="12"/>
-      <c r="C316" s="12"/>
+      <c r="A316" s="13"/>
+      <c r="B316" s="13"/>
+      <c r="C316" s="13"/>
       <c r="D316" s="6"/>
       <c r="E316" s="6"/>
       <c r="F316" s="6"/>
@@ -9048,9 +9158,9 @@
       <c r="J316" s="7"/>
     </row>
     <row r="317" ht="21" customHeight="1">
-      <c r="A317" s="12"/>
-      <c r="B317" s="12"/>
-      <c r="C317" s="12"/>
+      <c r="A317" s="13"/>
+      <c r="B317" s="13"/>
+      <c r="C317" s="13"/>
       <c r="D317" s="6"/>
       <c r="E317" s="6"/>
       <c r="F317" s="6"/>
@@ -9060,9 +9170,9 @@
       <c r="J317" s="9"/>
     </row>
     <row r="318" ht="21" customHeight="1">
-      <c r="A318" s="12"/>
-      <c r="B318" s="12"/>
-      <c r="C318" s="12"/>
+      <c r="A318" s="13"/>
+      <c r="B318" s="13"/>
+      <c r="C318" s="13"/>
       <c r="D318" s="6"/>
       <c r="E318" s="6"/>
       <c r="F318" s="6"/>
@@ -9072,9 +9182,9 @@
       <c r="J318" s="11"/>
     </row>
     <row r="319" ht="21" customHeight="1">
-      <c r="A319" s="12"/>
-      <c r="B319" s="12"/>
-      <c r="C319" s="12"/>
+      <c r="A319" s="13"/>
+      <c r="B319" s="13"/>
+      <c r="C319" s="13"/>
       <c r="D319" s="6"/>
       <c r="E319" s="6"/>
       <c r="F319" s="6"/>
@@ -9084,9 +9194,9 @@
       <c r="J319" s="7"/>
     </row>
     <row r="320" ht="21" customHeight="1">
-      <c r="A320" s="12"/>
-      <c r="B320" s="12"/>
-      <c r="C320" s="12"/>
+      <c r="A320" s="13"/>
+      <c r="B320" s="13"/>
+      <c r="C320" s="13"/>
       <c r="D320" s="6"/>
       <c r="E320" s="6"/>
       <c r="F320" s="6"/>
@@ -9096,9 +9206,9 @@
       <c r="J320" s="7"/>
     </row>
     <row r="321" ht="21" customHeight="1">
-      <c r="A321" s="12"/>
-      <c r="B321" s="12"/>
-      <c r="C321" s="12"/>
+      <c r="A321" s="13"/>
+      <c r="B321" s="13"/>
+      <c r="C321" s="13"/>
       <c r="D321" s="6"/>
       <c r="E321" s="6"/>
       <c r="F321" s="6"/>
@@ -9108,9 +9218,9 @@
       <c r="J321" s="7"/>
     </row>
     <row r="322" ht="21" customHeight="1">
-      <c r="A322" s="12"/>
-      <c r="B322" s="12"/>
-      <c r="C322" s="12"/>
+      <c r="A322" s="13"/>
+      <c r="B322" s="13"/>
+      <c r="C322" s="13"/>
       <c r="D322" s="6"/>
       <c r="E322" s="6"/>
       <c r="F322" s="6"/>
@@ -9120,9 +9230,9 @@
       <c r="J322" s="7"/>
     </row>
     <row r="323" ht="21" customHeight="1">
-      <c r="A323" s="29"/>
-      <c r="B323" s="29"/>
-      <c r="C323" s="12"/>
+      <c r="A323" s="28"/>
+      <c r="B323" s="28"/>
+      <c r="C323" s="13"/>
       <c r="D323" s="6"/>
       <c r="E323" s="6"/>
       <c r="F323" s="6"/>
@@ -9134,7 +9244,7 @@
     <row r="324" ht="21" customHeight="1">
       <c r="A324" s="26"/>
       <c r="B324" s="26"/>
-      <c r="C324" s="24"/>
+      <c r="C324" s="25"/>
       <c r="D324" s="6"/>
       <c r="E324" s="6"/>
       <c r="F324" s="6"/>
@@ -9146,7 +9256,7 @@
     <row r="325" ht="21" customHeight="1">
       <c r="A325" s="26"/>
       <c r="B325" s="26"/>
-      <c r="C325" s="24"/>
+      <c r="C325" s="25"/>
       <c r="D325" s="6"/>
       <c r="E325" s="6"/>
       <c r="F325" s="6"/>
@@ -9158,7 +9268,7 @@
     <row r="326" ht="21" customHeight="1">
       <c r="A326" s="26"/>
       <c r="B326" s="26"/>
-      <c r="C326" s="24"/>
+      <c r="C326" s="25"/>
       <c r="D326" s="6"/>
       <c r="E326" s="6"/>
       <c r="F326" s="6"/>
@@ -9168,9 +9278,9 @@
       <c r="J326" s="9"/>
     </row>
     <row r="327" ht="21" customHeight="1">
-      <c r="A327" s="28"/>
-      <c r="B327" s="28"/>
-      <c r="C327" s="12"/>
+      <c r="A327" s="27"/>
+      <c r="B327" s="27"/>
+      <c r="C327" s="13"/>
       <c r="D327" s="6"/>
       <c r="E327" s="6"/>
       <c r="F327" s="6"/>
@@ -9180,9 +9290,9 @@
       <c r="J327" s="11"/>
     </row>
     <row r="328" ht="21" customHeight="1">
-      <c r="A328" s="12"/>
-      <c r="B328" s="12"/>
-      <c r="C328" s="12"/>
+      <c r="A328" s="13"/>
+      <c r="B328" s="13"/>
+      <c r="C328" s="13"/>
       <c r="D328" s="6"/>
       <c r="E328" s="6"/>
       <c r="F328" s="6"/>
@@ -9192,9 +9302,9 @@
       <c r="J328" s="7"/>
     </row>
     <row r="329" ht="21" customHeight="1">
-      <c r="A329" s="12"/>
-      <c r="B329" s="12"/>
-      <c r="C329" s="12"/>
+      <c r="A329" s="13"/>
+      <c r="B329" s="13"/>
+      <c r="C329" s="13"/>
       <c r="D329" s="6"/>
       <c r="E329" s="6"/>
       <c r="F329" s="6"/>
@@ -9204,9 +9314,9 @@
       <c r="J329" s="7"/>
     </row>
     <row r="330" ht="21" customHeight="1">
-      <c r="A330" s="12"/>
-      <c r="B330" s="12"/>
-      <c r="C330" s="12"/>
+      <c r="A330" s="13"/>
+      <c r="B330" s="13"/>
+      <c r="C330" s="13"/>
       <c r="D330" s="6"/>
       <c r="E330" s="6"/>
       <c r="F330" s="6"/>
@@ -9216,9 +9326,9 @@
       <c r="J330" s="7"/>
     </row>
     <row r="331" ht="21" customHeight="1">
-      <c r="A331" s="12"/>
-      <c r="B331" s="12"/>
-      <c r="C331" s="12"/>
+      <c r="A331" s="13"/>
+      <c r="B331" s="13"/>
+      <c r="C331" s="13"/>
       <c r="D331" s="6"/>
       <c r="E331" s="6"/>
       <c r="F331" s="6"/>
@@ -9228,9 +9338,9 @@
       <c r="J331" s="9"/>
     </row>
     <row r="332" ht="21" customHeight="1">
-      <c r="A332" s="12"/>
-      <c r="B332" s="12"/>
-      <c r="C332" s="12"/>
+      <c r="A332" s="13"/>
+      <c r="B332" s="13"/>
+      <c r="C332" s="13"/>
       <c r="D332" s="6"/>
       <c r="E332" s="6"/>
       <c r="F332" s="6"/>
@@ -9240,21 +9350,21 @@
       <c r="J332" s="10"/>
     </row>
     <row r="333" ht="20.7" customHeight="1">
-      <c r="A333" s="29"/>
-      <c r="B333" s="29"/>
-      <c r="C333" s="12"/>
-      <c r="D333" s="12"/>
-      <c r="E333" s="12"/>
-      <c r="F333" s="12"/>
-      <c r="G333" s="12"/>
+      <c r="A333" s="28"/>
+      <c r="B333" s="28"/>
+      <c r="C333" s="13"/>
+      <c r="D333" s="13"/>
+      <c r="E333" s="13"/>
+      <c r="F333" s="13"/>
+      <c r="G333" s="13"/>
       <c r="H333" s="6"/>
-      <c r="I333" s="12"/>
-      <c r="J333" s="15"/>
+      <c r="I333" s="13"/>
+      <c r="J333" s="16"/>
     </row>
     <row r="334" ht="21" customHeight="1">
       <c r="A334" s="26"/>
       <c r="B334" s="26"/>
-      <c r="C334" s="24"/>
+      <c r="C334" s="25"/>
       <c r="D334" s="6"/>
       <c r="E334" s="6"/>
       <c r="F334" s="6"/>
@@ -9266,7 +9376,7 @@
     <row r="335" ht="21" customHeight="1">
       <c r="A335" s="26"/>
       <c r="B335" s="26"/>
-      <c r="C335" s="24"/>
+      <c r="C335" s="25"/>
       <c r="D335" s="6"/>
       <c r="E335" s="6"/>
       <c r="F335" s="6"/>
@@ -9276,9 +9386,9 @@
       <c r="J335" s="9"/>
     </row>
     <row r="336" ht="21" customHeight="1">
-      <c r="A336" s="28"/>
-      <c r="B336" s="28"/>
-      <c r="C336" s="12"/>
+      <c r="A336" s="27"/>
+      <c r="B336" s="27"/>
+      <c r="C336" s="13"/>
       <c r="D336" s="6"/>
       <c r="E336" s="6"/>
       <c r="F336" s="6"/>
@@ -9288,9 +9398,9 @@
       <c r="J336" s="11"/>
     </row>
     <row r="337" ht="21" customHeight="1">
-      <c r="A337" s="12"/>
-      <c r="B337" s="12"/>
-      <c r="C337" s="12"/>
+      <c r="A337" s="13"/>
+      <c r="B337" s="13"/>
+      <c r="C337" s="13"/>
       <c r="D337" s="6"/>
       <c r="E337" s="6"/>
       <c r="F337" s="6"/>
@@ -9300,9 +9410,9 @@
       <c r="J337" s="7"/>
     </row>
     <row r="338" ht="21" customHeight="1">
-      <c r="A338" s="12"/>
-      <c r="B338" s="12"/>
-      <c r="C338" s="12"/>
+      <c r="A338" s="13"/>
+      <c r="B338" s="13"/>
+      <c r="C338" s="13"/>
       <c r="D338" s="6"/>
       <c r="E338" s="6"/>
       <c r="F338" s="6"/>
@@ -9312,9 +9422,9 @@
       <c r="J338" s="7"/>
     </row>
     <row r="339" ht="21" customHeight="1">
-      <c r="A339" s="12"/>
-      <c r="B339" s="12"/>
-      <c r="C339" s="12"/>
+      <c r="A339" s="13"/>
+      <c r="B339" s="13"/>
+      <c r="C339" s="13"/>
       <c r="D339" s="6"/>
       <c r="E339" s="6"/>
       <c r="F339" s="6"/>
@@ -9324,9 +9434,9 @@
       <c r="J339" s="9"/>
     </row>
     <row r="340" ht="21" customHeight="1">
-      <c r="A340" s="12"/>
-      <c r="B340" s="12"/>
-      <c r="C340" s="12"/>
+      <c r="A340" s="13"/>
+      <c r="B340" s="13"/>
+      <c r="C340" s="13"/>
       <c r="D340" s="6"/>
       <c r="E340" s="6"/>
       <c r="F340" s="6"/>
@@ -9336,9 +9446,9 @@
       <c r="J340" s="11"/>
     </row>
     <row r="341" ht="21" customHeight="1">
-      <c r="A341" s="12"/>
-      <c r="B341" s="12"/>
-      <c r="C341" s="12"/>
+      <c r="A341" s="13"/>
+      <c r="B341" s="13"/>
+      <c r="C341" s="13"/>
       <c r="D341" s="6"/>
       <c r="E341" s="6"/>
       <c r="F341" s="6"/>
@@ -9348,9 +9458,9 @@
       <c r="J341" s="7"/>
     </row>
     <row r="342" ht="21" customHeight="1">
-      <c r="A342" s="12"/>
-      <c r="B342" s="12"/>
-      <c r="C342" s="12"/>
+      <c r="A342" s="13"/>
+      <c r="B342" s="13"/>
+      <c r="C342" s="13"/>
       <c r="D342" s="6"/>
       <c r="E342" s="6"/>
       <c r="F342" s="6"/>
@@ -9360,9 +9470,9 @@
       <c r="J342" s="7"/>
     </row>
     <row r="343" ht="21" customHeight="1">
-      <c r="A343" s="12"/>
-      <c r="B343" s="12"/>
-      <c r="C343" s="12"/>
+      <c r="A343" s="13"/>
+      <c r="B343" s="13"/>
+      <c r="C343" s="13"/>
       <c r="D343" s="6"/>
       <c r="E343" s="6"/>
       <c r="F343" s="6"/>
@@ -9372,9 +9482,9 @@
       <c r="J343" s="7"/>
     </row>
     <row r="344" ht="21" customHeight="1">
-      <c r="A344" s="12"/>
-      <c r="B344" s="12"/>
-      <c r="C344" s="12"/>
+      <c r="A344" s="13"/>
+      <c r="B344" s="13"/>
+      <c r="C344" s="13"/>
       <c r="D344" s="6"/>
       <c r="E344" s="6"/>
       <c r="F344" s="6"/>
@@ -9384,9 +9494,9 @@
       <c r="J344" s="9"/>
     </row>
     <row r="345" ht="21" customHeight="1">
-      <c r="A345" s="29"/>
-      <c r="B345" s="29"/>
-      <c r="C345" s="12"/>
+      <c r="A345" s="28"/>
+      <c r="B345" s="28"/>
+      <c r="C345" s="13"/>
       <c r="D345" s="6"/>
       <c r="E345" s="6"/>
       <c r="F345" s="6"/>
@@ -9398,7 +9508,7 @@
     <row r="346" ht="21" customHeight="1">
       <c r="A346" s="26"/>
       <c r="B346" s="26"/>
-      <c r="C346" s="24"/>
+      <c r="C346" s="25"/>
       <c r="D346" s="6"/>
       <c r="E346" s="6"/>
       <c r="F346" s="6"/>
@@ -9408,9 +9518,9 @@
       <c r="J346" s="9"/>
     </row>
     <row r="347" ht="21" customHeight="1">
-      <c r="A347" s="28"/>
-      <c r="B347" s="28"/>
-      <c r="C347" s="12"/>
+      <c r="A347" s="27"/>
+      <c r="B347" s="27"/>
+      <c r="C347" s="13"/>
       <c r="D347" s="6"/>
       <c r="E347" s="6"/>
       <c r="F347" s="6"/>
@@ -9420,9 +9530,9 @@
       <c r="J347" s="11"/>
     </row>
     <row r="348" ht="21" customHeight="1">
-      <c r="A348" s="12"/>
-      <c r="B348" s="12"/>
-      <c r="C348" s="12"/>
+      <c r="A348" s="13"/>
+      <c r="B348" s="13"/>
+      <c r="C348" s="13"/>
       <c r="D348" s="6"/>
       <c r="E348" s="6"/>
       <c r="F348" s="6"/>
@@ -9432,9 +9542,9 @@
       <c r="J348" s="9"/>
     </row>
     <row r="349" ht="21" customHeight="1">
-      <c r="A349" s="12"/>
-      <c r="B349" s="12"/>
-      <c r="C349" s="12"/>
+      <c r="A349" s="13"/>
+      <c r="B349" s="13"/>
+      <c r="C349" s="13"/>
       <c r="D349" s="6"/>
       <c r="E349" s="6"/>
       <c r="F349" s="6"/>
@@ -9444,9 +9554,9 @@
       <c r="J349" s="11"/>
     </row>
     <row r="350" ht="21" customHeight="1">
-      <c r="A350" s="12"/>
-      <c r="B350" s="12"/>
-      <c r="C350" s="12"/>
+      <c r="A350" s="13"/>
+      <c r="B350" s="13"/>
+      <c r="C350" s="13"/>
       <c r="D350" s="6"/>
       <c r="E350" s="6"/>
       <c r="F350" s="6"/>
@@ -9456,9 +9566,9 @@
       <c r="J350" s="7"/>
     </row>
     <row r="351" ht="21" customHeight="1">
-      <c r="A351" s="12"/>
-      <c r="B351" s="12"/>
-      <c r="C351" s="12"/>
+      <c r="A351" s="13"/>
+      <c r="B351" s="13"/>
+      <c r="C351" s="13"/>
       <c r="D351" s="6"/>
       <c r="E351" s="6"/>
       <c r="F351" s="6"/>
@@ -9468,9 +9578,9 @@
       <c r="J351" s="7"/>
     </row>
     <row r="352" ht="21" customHeight="1">
-      <c r="A352" s="12"/>
-      <c r="B352" s="12"/>
-      <c r="C352" s="12"/>
+      <c r="A352" s="13"/>
+      <c r="B352" s="13"/>
+      <c r="C352" s="13"/>
       <c r="D352" s="6"/>
       <c r="E352" s="6"/>
       <c r="F352" s="6"/>
@@ -9480,9 +9590,9 @@
       <c r="J352" s="7"/>
     </row>
     <row r="353" ht="21" customHeight="1">
-      <c r="A353" s="12"/>
-      <c r="B353" s="12"/>
-      <c r="C353" s="12"/>
+      <c r="A353" s="13"/>
+      <c r="B353" s="13"/>
+      <c r="C353" s="13"/>
       <c r="D353" s="6"/>
       <c r="E353" s="6"/>
       <c r="F353" s="6"/>
@@ -9492,9 +9602,9 @@
       <c r="J353" s="9"/>
     </row>
     <row r="354" ht="21" customHeight="1">
-      <c r="A354" s="12"/>
-      <c r="B354" s="12"/>
-      <c r="C354" s="12"/>
+      <c r="A354" s="13"/>
+      <c r="B354" s="13"/>
+      <c r="C354" s="13"/>
       <c r="D354" s="6"/>
       <c r="E354" s="6"/>
       <c r="F354" s="6"/>
@@ -9504,9 +9614,9 @@
       <c r="J354" s="11"/>
     </row>
     <row r="355" ht="21" customHeight="1">
-      <c r="A355" s="12"/>
-      <c r="B355" s="12"/>
-      <c r="C355" s="12"/>
+      <c r="A355" s="13"/>
+      <c r="B355" s="13"/>
+      <c r="C355" s="13"/>
       <c r="D355" s="6"/>
       <c r="E355" s="6"/>
       <c r="F355" s="6"/>

--- a/cw12022023.xlsx
+++ b/cw12022023.xlsx
@@ -1267,7 +1267,7 @@
     <t>H220003C</t>
   </si>
   <si>
-    <t>Pepukani</t>
+    <t>Pepukayi</t>
   </si>
   <si>
     <t>H210706T</t>
@@ -4400,7 +4400,7 @@
         <v>21</v>
       </c>
       <c r="D66" s="6">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
@@ -6728,7 +6728,7 @@
         <v>12</v>
       </c>
       <c r="D172" s="6">
-        <v>0.5238095238095239</v>
+        <v>0.761904761904762</v>
       </c>
       <c r="E172" s="6"/>
       <c r="F172" s="6"/>

--- a/cw12022023.xlsx
+++ b/cw12022023.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="491">
   <si>
     <t>Surname</t>
   </si>
@@ -373,880 +373,877 @@
     <t>H170392Z</t>
   </si>
   <si>
-    <t>Gamuchirayi</t>
+    <t>Garan’anga</t>
+  </si>
+  <si>
+    <t>H220190J</t>
+  </si>
+  <si>
+    <t>Gondo</t>
+  </si>
+  <si>
+    <t>H220041C</t>
+  </si>
+  <si>
+    <t>Govera</t>
+  </si>
+  <si>
+    <t>H220017H</t>
+  </si>
+  <si>
+    <t>Gurure</t>
+  </si>
+  <si>
+    <t>H220575Q</t>
+  </si>
+  <si>
+    <t>Hamandishe</t>
+  </si>
+  <si>
+    <t>H220289H</t>
+  </si>
+  <si>
+    <t>Hunda</t>
+  </si>
+  <si>
+    <t>H220527A</t>
+  </si>
+  <si>
+    <t>Jachah</t>
+  </si>
+  <si>
+    <t>H220068Z</t>
+  </si>
+  <si>
+    <t>Jazi</t>
+  </si>
+  <si>
+    <t>H220609H</t>
+  </si>
+  <si>
+    <t>Jinga</t>
+  </si>
+  <si>
+    <t>H210570T</t>
+  </si>
+  <si>
+    <t>Jiriengwa</t>
+  </si>
+  <si>
+    <t>H220128A</t>
+  </si>
+  <si>
+    <t>Jonasi</t>
+  </si>
+  <si>
+    <t>H220126G</t>
+  </si>
+  <si>
+    <t>Jongororo</t>
+  </si>
+  <si>
+    <t>H220368J</t>
+  </si>
+  <si>
+    <t>Kaboti</t>
+  </si>
+  <si>
+    <t>H190340F</t>
+  </si>
+  <si>
+    <t>Kadyamurandu</t>
+  </si>
+  <si>
+    <t>H220437Q</t>
+  </si>
+  <si>
+    <t>Kandi</t>
+  </si>
+  <si>
+    <t>H220602N</t>
+  </si>
+  <si>
+    <t>Kanengoni</t>
+  </si>
+  <si>
+    <t>H220385Y</t>
+  </si>
+  <si>
+    <t>Kapingu</t>
+  </si>
+  <si>
+    <t>H220000V</t>
+  </si>
+  <si>
+    <t>Karuma</t>
+  </si>
+  <si>
+    <t>H220201A</t>
+  </si>
+  <si>
+    <t>Kashiri</t>
+  </si>
+  <si>
+    <t>H220177A</t>
+  </si>
+  <si>
+    <t>Kazamula</t>
+  </si>
+  <si>
+    <t>H220355Y</t>
+  </si>
+  <si>
+    <t>Kazembe</t>
+  </si>
+  <si>
+    <t>H220692W</t>
+  </si>
+  <si>
+    <t>Kloppers</t>
+  </si>
+  <si>
+    <t>H220285F</t>
+  </si>
+  <si>
+    <t>Komborai</t>
+  </si>
+  <si>
+    <t>H220226E</t>
+  </si>
+  <si>
+    <t>Lungu</t>
+  </si>
+  <si>
+    <t>H220326C</t>
+  </si>
+  <si>
+    <t>Mabehlya</t>
+  </si>
+  <si>
+    <t>H220600T</t>
+  </si>
+  <si>
+    <t>Machingauta</t>
+  </si>
+  <si>
+    <t>H220098M</t>
+  </si>
+  <si>
+    <t>Machiri</t>
+  </si>
+  <si>
+    <t>H220453Z</t>
+  </si>
+  <si>
+    <t>Machongwe</t>
+  </si>
+  <si>
+    <t>H220433E</t>
+  </si>
+  <si>
+    <t>Machote</t>
+  </si>
+  <si>
+    <t>H220027Z</t>
+  </si>
+  <si>
+    <t>Madamombe</t>
+  </si>
+  <si>
+    <t>H220452T</t>
+  </si>
+  <si>
+    <t>Madhende</t>
+  </si>
+  <si>
+    <t>H210337P</t>
+  </si>
+  <si>
+    <t>Madzokere</t>
+  </si>
+  <si>
+    <t>H220376N</t>
+  </si>
+  <si>
+    <t>Madzokora</t>
+  </si>
+  <si>
+    <t>H220621R</t>
+  </si>
+  <si>
+    <t>Madzorera</t>
+  </si>
+  <si>
+    <t>H220382F</t>
+  </si>
+  <si>
+    <t>Madzowere</t>
+  </si>
+  <si>
+    <t>H220694Y</t>
+  </si>
+  <si>
+    <t>Magwati</t>
+  </si>
+  <si>
+    <t>H220318R</t>
+  </si>
+  <si>
+    <t>Majoni</t>
+  </si>
+  <si>
+    <t>H220083G</t>
+  </si>
+  <si>
+    <t>Makanje</t>
+  </si>
+  <si>
+    <t>H220534J</t>
+  </si>
+  <si>
+    <t>Makanyire</t>
+  </si>
+  <si>
+    <t>H220032F</t>
+  </si>
+  <si>
+    <t>Makaye</t>
+  </si>
+  <si>
+    <t>H220206Y</t>
+  </si>
+  <si>
+    <t>Makichi</t>
+  </si>
+  <si>
+    <t>H210274H</t>
+  </si>
+  <si>
+    <t>Makope</t>
+  </si>
+  <si>
+    <t>H220487J</t>
+  </si>
+  <si>
+    <t>Makuyana</t>
+  </si>
+  <si>
+    <t>H210581E</t>
+  </si>
+  <si>
+    <t>Mambara</t>
+  </si>
+  <si>
+    <t>H220347T</t>
+  </si>
+  <si>
+    <t>Mambayo</t>
+  </si>
+  <si>
+    <t>H220103A</t>
+  </si>
+  <si>
+    <t>Mandara</t>
+  </si>
+  <si>
+    <t>H220186G</t>
+  </si>
+  <si>
+    <t>Mandava</t>
+  </si>
+  <si>
+    <t>H220178M</t>
+  </si>
+  <si>
+    <t>Mandaza</t>
+  </si>
+  <si>
+    <t>H220491V</t>
+  </si>
+  <si>
+    <t>Mandebvu</t>
+  </si>
+  <si>
+    <t>H220328C</t>
+  </si>
+  <si>
+    <t>Mangava</t>
+  </si>
+  <si>
+    <t>H190623E</t>
+  </si>
+  <si>
+    <t>Mangozhu</t>
+  </si>
+  <si>
+    <t>H220055X</t>
+  </si>
+  <si>
+    <t>Manjeru</t>
+  </si>
+  <si>
+    <t>H220525Z</t>
+  </si>
+  <si>
+    <t>Mapfururi</t>
+  </si>
+  <si>
+    <t>H220505N</t>
+  </si>
+  <si>
+    <t>Maponde</t>
+  </si>
+  <si>
+    <t>H220207F</t>
+  </si>
+  <si>
+    <t>Marabowa</t>
+  </si>
+  <si>
+    <t>H220468M</t>
+  </si>
+  <si>
+    <t>Marezva</t>
+  </si>
+  <si>
+    <t>H220706X</t>
+  </si>
+  <si>
+    <t>Mariridza</t>
+  </si>
+  <si>
+    <t>H180455C</t>
+  </si>
+  <si>
+    <t>Marufu</t>
+  </si>
+  <si>
+    <t>H220472F</t>
+  </si>
+  <si>
+    <t>Marwisa</t>
+  </si>
+  <si>
+    <t>H220192Z</t>
+  </si>
+  <si>
+    <t>Masarire</t>
+  </si>
+  <si>
+    <t>H220387Z</t>
+  </si>
+  <si>
+    <t>Masawi</t>
+  </si>
+  <si>
+    <t>H220544A</t>
+  </si>
+  <si>
+    <t>Mashiri</t>
+  </si>
+  <si>
+    <t>H220568A</t>
+  </si>
+  <si>
+    <t>Masocha</t>
+  </si>
+  <si>
+    <t>H220090R</t>
+  </si>
+  <si>
+    <t>Masuku</t>
+  </si>
+  <si>
+    <t>H220504Z</t>
+  </si>
+  <si>
+    <t>Masvinge</t>
+  </si>
+  <si>
+    <t>H220637E</t>
+  </si>
+  <si>
+    <t>Masvosva</t>
+  </si>
+  <si>
+    <t>H220060M</t>
+  </si>
+  <si>
+    <t>Matambanadzo</t>
+  </si>
+  <si>
+    <t>H220279B</t>
+  </si>
+  <si>
+    <t>Matema</t>
+  </si>
+  <si>
+    <t>H220020W</t>
+  </si>
+  <si>
+    <t>Matipangamise</t>
+  </si>
+  <si>
+    <t>H220043B</t>
+  </si>
+  <si>
+    <t>Matizha</t>
+  </si>
+  <si>
+    <t>H190838E</t>
+  </si>
+  <si>
+    <t>Matongo</t>
+  </si>
+  <si>
+    <t>H220214Y</t>
+  </si>
+  <si>
+    <t>Matsweru</t>
+  </si>
+  <si>
+    <t>H220172C</t>
+  </si>
+  <si>
+    <t>Maushe</t>
+  </si>
+  <si>
+    <t>H220490J</t>
+  </si>
+  <si>
+    <t>Mawodza</t>
+  </si>
+  <si>
+    <t>H220334Z</t>
+  </si>
+  <si>
+    <t>Mawodzeka</t>
+  </si>
+  <si>
+    <t>H220292M</t>
+  </si>
+  <si>
+    <t>Mawoyo</t>
+  </si>
+  <si>
+    <t>H220271G</t>
+  </si>
+  <si>
+    <t>Mazobere</t>
+  </si>
+  <si>
+    <t>H220436J</t>
+  </si>
+  <si>
+    <t>Mbabvu</t>
+  </si>
+  <si>
+    <t>H220370E</t>
+  </si>
+  <si>
+    <t>Mbanje</t>
+  </si>
+  <si>
+    <t>H220381F</t>
+  </si>
+  <si>
+    <t>Mbofana</t>
+  </si>
+  <si>
+    <t>H220217E</t>
+  </si>
+  <si>
+    <t>Mhakure</t>
+  </si>
+  <si>
+    <t>H220401M</t>
+  </si>
+  <si>
+    <t>Mhandu</t>
+  </si>
+  <si>
+    <t>H220576B</t>
+  </si>
+  <si>
+    <t>Mhungu</t>
+  </si>
+  <si>
+    <t>H220093Z</t>
+  </si>
+  <si>
+    <t>Midzi</t>
+  </si>
+  <si>
+    <t>H220587P</t>
+  </si>
+  <si>
+    <t>Million</t>
+  </si>
+  <si>
+    <t>H220246M</t>
+  </si>
+  <si>
+    <t>Moyo</t>
+  </si>
+  <si>
+    <t>H220642T</t>
+  </si>
+  <si>
+    <t>H220635Y</t>
+  </si>
+  <si>
+    <t>Mtendi</t>
+  </si>
+  <si>
+    <t>H220596R</t>
+  </si>
+  <si>
+    <t>Muchemwa</t>
+  </si>
+  <si>
+    <t>H220584B</t>
+  </si>
+  <si>
+    <t>Muchena</t>
+  </si>
+  <si>
+    <t>H220107E</t>
+  </si>
+  <si>
+    <t>Mudekwa</t>
+  </si>
+  <si>
+    <t>H220571T</t>
+  </si>
+  <si>
+    <t>Mugadza</t>
+  </si>
+  <si>
+    <t>H220112F</t>
+  </si>
+  <si>
+    <t>Mugomeza</t>
+  </si>
+  <si>
+    <t>H220160C</t>
+  </si>
+  <si>
+    <t>Mukungwa</t>
+  </si>
+  <si>
+    <t>H220123C</t>
+  </si>
+  <si>
+    <t>Mukwashi</t>
+  </si>
+  <si>
+    <t>H220438T</t>
+  </si>
+  <si>
+    <t>Munhutu</t>
+  </si>
+  <si>
+    <t>H220655G</t>
+  </si>
+  <si>
+    <t>Munjodzi</t>
+  </si>
+  <si>
+    <t>H220159P</t>
+  </si>
+  <si>
+    <t>Munondo</t>
+  </si>
+  <si>
+    <t>H220048G</t>
+  </si>
+  <si>
+    <t>Munqitshwa</t>
+  </si>
+  <si>
+    <t>H220598P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Munyani </t>
+  </si>
+  <si>
+    <t>H220234Z</t>
+  </si>
+  <si>
+    <t>Mupfudze</t>
+  </si>
+  <si>
+    <t>H220559Y</t>
+  </si>
+  <si>
+    <t>Mupinga</t>
+  </si>
+  <si>
+    <t>H220296G</t>
+  </si>
+  <si>
+    <t>Mupini</t>
+  </si>
+  <si>
+    <t>H220687H</t>
+  </si>
+  <si>
+    <t>Muradzvi</t>
+  </si>
+  <si>
+    <t>H210180N</t>
+  </si>
+  <si>
+    <t>Muraicho</t>
+  </si>
+  <si>
+    <t>H220241M</t>
+  </si>
+  <si>
+    <t>Murambiwa</t>
+  </si>
+  <si>
+    <t>H220499V</t>
+  </si>
+  <si>
+    <t>Musariri</t>
+  </si>
+  <si>
+    <t>H220442T</t>
+  </si>
+  <si>
+    <t>Mushayabvudzi</t>
+  </si>
+  <si>
+    <t>H220092N</t>
+  </si>
+  <si>
+    <t>Mutamba</t>
+  </si>
+  <si>
+    <t>H220262P</t>
+  </si>
+  <si>
+    <t>Mutambirwa</t>
+  </si>
+  <si>
+    <t>H220253X</t>
+  </si>
+  <si>
+    <t>Mutanda</t>
+  </si>
+  <si>
+    <t>H220267R</t>
+  </si>
+  <si>
+    <t>Mutaramutswa</t>
+  </si>
+  <si>
+    <t>H220543P</t>
+  </si>
+  <si>
+    <t>Mutasa</t>
+  </si>
+  <si>
+    <t>H220409J</t>
+  </si>
+  <si>
+    <t>Muteera</t>
+  </si>
+  <si>
+    <t>H190440Z</t>
+  </si>
+  <si>
+    <t>Mutsvairo</t>
+  </si>
+  <si>
+    <t>H220540E</t>
+  </si>
+  <si>
+    <t>Mutubuki</t>
+  </si>
+  <si>
+    <t>H220309Z</t>
+  </si>
+  <si>
+    <t>Mutukudzi</t>
+  </si>
+  <si>
+    <t>H220113B</t>
+  </si>
+  <si>
+    <t>Mutwira</t>
+  </si>
+  <si>
+    <t>H220578V</t>
+  </si>
+  <si>
+    <t>Muusha</t>
+  </si>
+  <si>
+    <t>H220338H</t>
+  </si>
+  <si>
+    <t>Muwisa</t>
+  </si>
+  <si>
+    <t>H220297X</t>
+  </si>
+  <si>
+    <t>Muyambo</t>
+  </si>
+  <si>
+    <t>H210472M</t>
+  </si>
+  <si>
+    <t>Muza</t>
+  </si>
+  <si>
+    <t>H210603F</t>
+  </si>
+  <si>
+    <t>Muzuka</t>
+  </si>
+  <si>
+    <t>H220458Z</t>
+  </si>
+  <si>
+    <t>Muzvimwe</t>
+  </si>
+  <si>
+    <t>H220419A</t>
+  </si>
+  <si>
+    <t>Mwashita</t>
+  </si>
+  <si>
+    <t>H220199M</t>
+  </si>
+  <si>
+    <t>Ncube</t>
+  </si>
+  <si>
+    <t>H220200V</t>
+  </si>
+  <si>
+    <t>Ndebele</t>
+  </si>
+  <si>
+    <t>H220731A</t>
+  </si>
+  <si>
+    <t>H220633H</t>
+  </si>
+  <si>
+    <t>Ndige</t>
+  </si>
+  <si>
+    <t>H220676Q</t>
+  </si>
+  <si>
+    <t>Ndlovu</t>
+  </si>
+  <si>
+    <t>H220403P</t>
+  </si>
+  <si>
+    <t>Nemadziva</t>
+  </si>
+  <si>
+    <t>H220601Q</t>
+  </si>
+  <si>
+    <t>Nematiyere</t>
+  </si>
+  <si>
+    <t>H220257E</t>
+  </si>
+  <si>
+    <t>Ngocha</t>
+  </si>
+  <si>
+    <t>H220367F</t>
+  </si>
+  <si>
+    <t>Ngoromani</t>
+  </si>
+  <si>
+    <t>H220579F</t>
+  </si>
+  <si>
+    <t>Ngulube</t>
+  </si>
+  <si>
+    <t>H220205A</t>
+  </si>
+  <si>
+    <t>Nhambu</t>
+  </si>
+  <si>
+    <t>H220510G</t>
+  </si>
+  <si>
+    <t>Nhopi</t>
+  </si>
+  <si>
+    <t>H220446P</t>
+  </si>
+  <si>
+    <t>Nyamadzawo</t>
+  </si>
+  <si>
+    <t>H210240M</t>
+  </si>
+  <si>
+    <t>H220565N</t>
+  </si>
+  <si>
+    <t>Nyamano</t>
+  </si>
+  <si>
+    <t>H220570X</t>
+  </si>
+  <si>
+    <t>Nyamaropa</t>
+  </si>
+  <si>
+    <t>H220061Q</t>
+  </si>
+  <si>
+    <t>Nyamashuka</t>
+  </si>
+  <si>
+    <t>H180117M</t>
+  </si>
+  <si>
+    <t>Nyathi</t>
+  </si>
+  <si>
+    <t>H220486J</t>
+  </si>
+  <si>
+    <t>Nyawuri</t>
+  </si>
+  <si>
+    <t>H220188W</t>
+  </si>
+  <si>
+    <t>Nyikayaramba</t>
+  </si>
+  <si>
+    <t>H220265N</t>
+  </si>
+  <si>
+    <t>Nyisome</t>
+  </si>
+  <si>
+    <t>H220412H</t>
+  </si>
+  <si>
+    <t>Padziri</t>
   </si>
   <si>
     <t>H220031Q</t>
-  </si>
-  <si>
-    <t>Garan’anga</t>
-  </si>
-  <si>
-    <t>H220190J</t>
-  </si>
-  <si>
-    <t>Gondo</t>
-  </si>
-  <si>
-    <t>H220041C</t>
-  </si>
-  <si>
-    <t>Govera</t>
-  </si>
-  <si>
-    <t>H220017H</t>
-  </si>
-  <si>
-    <t>Gurure</t>
-  </si>
-  <si>
-    <t>H220575Q</t>
-  </si>
-  <si>
-    <t>Hamandishe</t>
-  </si>
-  <si>
-    <t>H220289H</t>
-  </si>
-  <si>
-    <t>Hunda</t>
-  </si>
-  <si>
-    <t>H220527A</t>
-  </si>
-  <si>
-    <t>Jachah</t>
-  </si>
-  <si>
-    <t>H220068Z</t>
-  </si>
-  <si>
-    <t>Jazi</t>
-  </si>
-  <si>
-    <t>H220609H</t>
-  </si>
-  <si>
-    <t>Jinga</t>
-  </si>
-  <si>
-    <t>H210570T</t>
-  </si>
-  <si>
-    <t>Jiriengwa</t>
-  </si>
-  <si>
-    <t>H220128A</t>
-  </si>
-  <si>
-    <t>Jonasi</t>
-  </si>
-  <si>
-    <t>H220126G</t>
-  </si>
-  <si>
-    <t>Jongororo</t>
-  </si>
-  <si>
-    <t>H220368J</t>
-  </si>
-  <si>
-    <t>Kaboti</t>
-  </si>
-  <si>
-    <t>H190340F</t>
-  </si>
-  <si>
-    <t>Kadyamurandu</t>
-  </si>
-  <si>
-    <t>H220437Q</t>
-  </si>
-  <si>
-    <t>Kandi</t>
-  </si>
-  <si>
-    <t>H220602N</t>
-  </si>
-  <si>
-    <t>Kanengoni</t>
-  </si>
-  <si>
-    <t>H220385Y</t>
-  </si>
-  <si>
-    <t>Kapingu</t>
-  </si>
-  <si>
-    <t>H220000V</t>
-  </si>
-  <si>
-    <t>Karuma</t>
-  </si>
-  <si>
-    <t>H220201A</t>
-  </si>
-  <si>
-    <t>Kashiri</t>
-  </si>
-  <si>
-    <t>H220177A</t>
-  </si>
-  <si>
-    <t>Kazamula</t>
-  </si>
-  <si>
-    <t>H220355Y</t>
-  </si>
-  <si>
-    <t>Kazembe</t>
-  </si>
-  <si>
-    <t>H220692W</t>
-  </si>
-  <si>
-    <t>Kloppers</t>
-  </si>
-  <si>
-    <t>H220285F</t>
-  </si>
-  <si>
-    <t>Komborai</t>
-  </si>
-  <si>
-    <t>H220226E</t>
-  </si>
-  <si>
-    <t>Lungu</t>
-  </si>
-  <si>
-    <t>H220326C</t>
-  </si>
-  <si>
-    <t>Mabehlya</t>
-  </si>
-  <si>
-    <t>H220600T</t>
-  </si>
-  <si>
-    <t>Machingauta</t>
-  </si>
-  <si>
-    <t>H220098M</t>
-  </si>
-  <si>
-    <t>Machiri</t>
-  </si>
-  <si>
-    <t>H220453Z</t>
-  </si>
-  <si>
-    <t>Machongwe</t>
-  </si>
-  <si>
-    <t>H220433E</t>
-  </si>
-  <si>
-    <t>Machote</t>
-  </si>
-  <si>
-    <t>H220027Z</t>
-  </si>
-  <si>
-    <t>Madamombe</t>
-  </si>
-  <si>
-    <t>H220452T</t>
-  </si>
-  <si>
-    <t>Madhende</t>
-  </si>
-  <si>
-    <t>H210337P</t>
-  </si>
-  <si>
-    <t>Madzokere</t>
-  </si>
-  <si>
-    <t>H220376N</t>
-  </si>
-  <si>
-    <t>Madzokora</t>
-  </si>
-  <si>
-    <t>H220621R</t>
-  </si>
-  <si>
-    <t>Madzorera</t>
-  </si>
-  <si>
-    <t>H220382F</t>
-  </si>
-  <si>
-    <t>Madzowere</t>
-  </si>
-  <si>
-    <t>H220694Y</t>
-  </si>
-  <si>
-    <t>Magwati</t>
-  </si>
-  <si>
-    <t>H220318R</t>
-  </si>
-  <si>
-    <t>Majoni</t>
-  </si>
-  <si>
-    <t>H220083G</t>
-  </si>
-  <si>
-    <t>Makanje</t>
-  </si>
-  <si>
-    <t>H220534J</t>
-  </si>
-  <si>
-    <t>Makanyire</t>
-  </si>
-  <si>
-    <t>H220032F</t>
-  </si>
-  <si>
-    <t>Makaye</t>
-  </si>
-  <si>
-    <t>H220206Y</t>
-  </si>
-  <si>
-    <t>Makichi</t>
-  </si>
-  <si>
-    <t>H210274H</t>
-  </si>
-  <si>
-    <t>Makope</t>
-  </si>
-  <si>
-    <t>H220487J</t>
-  </si>
-  <si>
-    <t>Makuyana</t>
-  </si>
-  <si>
-    <t>H210581E</t>
-  </si>
-  <si>
-    <t>Mambara</t>
-  </si>
-  <si>
-    <t>H220347T</t>
-  </si>
-  <si>
-    <t>Mambayo</t>
-  </si>
-  <si>
-    <t>H220103A</t>
-  </si>
-  <si>
-    <t>Mandara</t>
-  </si>
-  <si>
-    <t>H220186G</t>
-  </si>
-  <si>
-    <t>Mandava</t>
-  </si>
-  <si>
-    <t>H220178M</t>
-  </si>
-  <si>
-    <t>Mandaza</t>
-  </si>
-  <si>
-    <t>H220491V</t>
-  </si>
-  <si>
-    <t>Mandebvu</t>
-  </si>
-  <si>
-    <t>H220328C</t>
-  </si>
-  <si>
-    <t>Mangava</t>
-  </si>
-  <si>
-    <t>H190623E</t>
-  </si>
-  <si>
-    <t>Mangozhu</t>
-  </si>
-  <si>
-    <t>H220055X</t>
-  </si>
-  <si>
-    <t>Manjeru</t>
-  </si>
-  <si>
-    <t>H220525Z</t>
-  </si>
-  <si>
-    <t>Mapfururi</t>
-  </si>
-  <si>
-    <t>H220505N</t>
-  </si>
-  <si>
-    <t>Maponde</t>
-  </si>
-  <si>
-    <t>H220207F</t>
-  </si>
-  <si>
-    <t>Marabowa</t>
-  </si>
-  <si>
-    <t>H220468M</t>
-  </si>
-  <si>
-    <t>Marezva</t>
-  </si>
-  <si>
-    <t>H220706X</t>
-  </si>
-  <si>
-    <t>Mariridza</t>
-  </si>
-  <si>
-    <t>H180455C</t>
-  </si>
-  <si>
-    <t>Marufu</t>
-  </si>
-  <si>
-    <t>H220472F</t>
-  </si>
-  <si>
-    <t>Marwisa</t>
-  </si>
-  <si>
-    <t>H220192Z</t>
-  </si>
-  <si>
-    <t>Masarire</t>
-  </si>
-  <si>
-    <t>H220387Z</t>
-  </si>
-  <si>
-    <t>Masawi</t>
-  </si>
-  <si>
-    <t>H220544A</t>
-  </si>
-  <si>
-    <t>Mashiri</t>
-  </si>
-  <si>
-    <t>H220568A</t>
-  </si>
-  <si>
-    <t>Masocha</t>
-  </si>
-  <si>
-    <t>H220090R</t>
-  </si>
-  <si>
-    <t>Masuku</t>
-  </si>
-  <si>
-    <t>H220504Z</t>
-  </si>
-  <si>
-    <t>Masvinge</t>
-  </si>
-  <si>
-    <t>H220637E</t>
-  </si>
-  <si>
-    <t>Masvosva</t>
-  </si>
-  <si>
-    <t>H220060M</t>
-  </si>
-  <si>
-    <t>Matambanadzo</t>
-  </si>
-  <si>
-    <t>H220279B</t>
-  </si>
-  <si>
-    <t>Matema</t>
-  </si>
-  <si>
-    <t>H220020W</t>
-  </si>
-  <si>
-    <t>Matipangamise</t>
-  </si>
-  <si>
-    <t>H220043B</t>
-  </si>
-  <si>
-    <t>Matizha</t>
-  </si>
-  <si>
-    <t>H190838E</t>
-  </si>
-  <si>
-    <t>Matongo</t>
-  </si>
-  <si>
-    <t>H220214Y</t>
-  </si>
-  <si>
-    <t>Matsweru</t>
-  </si>
-  <si>
-    <t>H220172C</t>
-  </si>
-  <si>
-    <t>Maushe</t>
-  </si>
-  <si>
-    <t>H220490J</t>
-  </si>
-  <si>
-    <t>Mawodza</t>
-  </si>
-  <si>
-    <t>H220334Z</t>
-  </si>
-  <si>
-    <t>Mawodzeka</t>
-  </si>
-  <si>
-    <t>H220292M</t>
-  </si>
-  <si>
-    <t>Mawoyo</t>
-  </si>
-  <si>
-    <t>H220271G</t>
-  </si>
-  <si>
-    <t>Mazobere</t>
-  </si>
-  <si>
-    <t>H220436J</t>
-  </si>
-  <si>
-    <t>Mbabvu</t>
-  </si>
-  <si>
-    <t>H220370E</t>
-  </si>
-  <si>
-    <t>Mbanje</t>
-  </si>
-  <si>
-    <t>H220381F</t>
-  </si>
-  <si>
-    <t>Mbofana</t>
-  </si>
-  <si>
-    <t>H220217E</t>
-  </si>
-  <si>
-    <t>Mhakure</t>
-  </si>
-  <si>
-    <t>H220401M</t>
-  </si>
-  <si>
-    <t>Mhandu</t>
-  </si>
-  <si>
-    <t>H220576B</t>
-  </si>
-  <si>
-    <t>Mhungu</t>
-  </si>
-  <si>
-    <t>H220093Z</t>
-  </si>
-  <si>
-    <t>Midzi</t>
-  </si>
-  <si>
-    <t>H220587P</t>
-  </si>
-  <si>
-    <t>Million</t>
-  </si>
-  <si>
-    <t>H220246M</t>
-  </si>
-  <si>
-    <t>Moyo</t>
-  </si>
-  <si>
-    <t>H220642T</t>
-  </si>
-  <si>
-    <t>H220635Y</t>
-  </si>
-  <si>
-    <t>Mtendi</t>
-  </si>
-  <si>
-    <t>H220596R</t>
-  </si>
-  <si>
-    <t>Muchemwa</t>
-  </si>
-  <si>
-    <t>H220584B</t>
-  </si>
-  <si>
-    <t>Muchena</t>
-  </si>
-  <si>
-    <t>H220107E</t>
-  </si>
-  <si>
-    <t>Mudekwa</t>
-  </si>
-  <si>
-    <t>H220571T</t>
-  </si>
-  <si>
-    <t>Mugadza</t>
-  </si>
-  <si>
-    <t>H220112F</t>
-  </si>
-  <si>
-    <t>Mugomeza</t>
-  </si>
-  <si>
-    <t>H220160C</t>
-  </si>
-  <si>
-    <t>Mukungwa</t>
-  </si>
-  <si>
-    <t>H220123C</t>
-  </si>
-  <si>
-    <t>Mukwashi</t>
-  </si>
-  <si>
-    <t>H220438T</t>
-  </si>
-  <si>
-    <t>Munhutu</t>
-  </si>
-  <si>
-    <t>H220655G</t>
-  </si>
-  <si>
-    <t>Munjodzi</t>
-  </si>
-  <si>
-    <t>H220159P</t>
-  </si>
-  <si>
-    <t>Munondo</t>
-  </si>
-  <si>
-    <t>H220048G</t>
-  </si>
-  <si>
-    <t>Munqitshwa</t>
-  </si>
-  <si>
-    <t>H220598P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Munyani </t>
-  </si>
-  <si>
-    <t>H220234Z</t>
-  </si>
-  <si>
-    <t>Mupfudze</t>
-  </si>
-  <si>
-    <t>H220559Y</t>
-  </si>
-  <si>
-    <t>Mupinga</t>
-  </si>
-  <si>
-    <t>H220296G</t>
-  </si>
-  <si>
-    <t>Mupini</t>
-  </si>
-  <si>
-    <t>H220687H</t>
-  </si>
-  <si>
-    <t>Muradzvi</t>
-  </si>
-  <si>
-    <t>H210180N</t>
-  </si>
-  <si>
-    <t>Muraicho</t>
-  </si>
-  <si>
-    <t>H220241M</t>
-  </si>
-  <si>
-    <t>Murambiwa</t>
-  </si>
-  <si>
-    <t>H220499V</t>
-  </si>
-  <si>
-    <t>Musariri</t>
-  </si>
-  <si>
-    <t>H220442T</t>
-  </si>
-  <si>
-    <t>Mushayabvudzi</t>
-  </si>
-  <si>
-    <t>H220092N</t>
-  </si>
-  <si>
-    <t>Mutamba</t>
-  </si>
-  <si>
-    <t>H220262P</t>
-  </si>
-  <si>
-    <t>Mutambirwa</t>
-  </si>
-  <si>
-    <t>H220253X</t>
-  </si>
-  <si>
-    <t>Mutanda</t>
-  </si>
-  <si>
-    <t>H220267R</t>
-  </si>
-  <si>
-    <t>Mutaramutswa</t>
-  </si>
-  <si>
-    <t>H220543P</t>
-  </si>
-  <si>
-    <t>Mutasa</t>
-  </si>
-  <si>
-    <t>H220409J</t>
-  </si>
-  <si>
-    <t>Muteera</t>
-  </si>
-  <si>
-    <t>H190440Z</t>
-  </si>
-  <si>
-    <t>Mutsvairo</t>
-  </si>
-  <si>
-    <t>H220540E</t>
-  </si>
-  <si>
-    <t>Mutubuki</t>
-  </si>
-  <si>
-    <t>H220309Z</t>
-  </si>
-  <si>
-    <t>Mutukudzi</t>
-  </si>
-  <si>
-    <t>H220113B</t>
-  </si>
-  <si>
-    <t>Mutwira</t>
-  </si>
-  <si>
-    <t>H220578V</t>
-  </si>
-  <si>
-    <t>Muusha</t>
-  </si>
-  <si>
-    <t>H220338H</t>
-  </si>
-  <si>
-    <t>Muwisa</t>
-  </si>
-  <si>
-    <t>H220297X</t>
-  </si>
-  <si>
-    <t>Muyambo</t>
-  </si>
-  <si>
-    <t>H210472M</t>
-  </si>
-  <si>
-    <t>Muza</t>
-  </si>
-  <si>
-    <t>H210603F</t>
-  </si>
-  <si>
-    <t>Muzuka</t>
-  </si>
-  <si>
-    <t>H220458Z</t>
-  </si>
-  <si>
-    <t>Muzvimwe</t>
-  </si>
-  <si>
-    <t>H220419A</t>
-  </si>
-  <si>
-    <t>Mwashita</t>
-  </si>
-  <si>
-    <t>H220199M</t>
-  </si>
-  <si>
-    <t>Ncube</t>
-  </si>
-  <si>
-    <t>H220200V</t>
-  </si>
-  <si>
-    <t>Ndebele</t>
-  </si>
-  <si>
-    <t>H220731A</t>
-  </si>
-  <si>
-    <t>H220633H</t>
-  </si>
-  <si>
-    <t>Ndige</t>
-  </si>
-  <si>
-    <t>H220676Q</t>
-  </si>
-  <si>
-    <t>Ndlovu</t>
-  </si>
-  <si>
-    <t>H220403P</t>
-  </si>
-  <si>
-    <t>Nemadziva</t>
-  </si>
-  <si>
-    <t>H220601Q</t>
-  </si>
-  <si>
-    <t>Nematiyere</t>
-  </si>
-  <si>
-    <t>H220257E</t>
-  </si>
-  <si>
-    <t>Ngocha</t>
-  </si>
-  <si>
-    <t>H220367F</t>
-  </si>
-  <si>
-    <t>Ngoromani</t>
-  </si>
-  <si>
-    <t>H220579F</t>
-  </si>
-  <si>
-    <t>Ngulube</t>
-  </si>
-  <si>
-    <t>H220205A</t>
-  </si>
-  <si>
-    <t>Nhambu</t>
-  </si>
-  <si>
-    <t>H220510G</t>
-  </si>
-  <si>
-    <t>Nhopi</t>
-  </si>
-  <si>
-    <t>H220446P</t>
-  </si>
-  <si>
-    <t>Nyamadzawo</t>
-  </si>
-  <si>
-    <t>H210240M</t>
-  </si>
-  <si>
-    <t>H220565N</t>
-  </si>
-  <si>
-    <t>Nyamano</t>
-  </si>
-  <si>
-    <t>H220570X</t>
-  </si>
-  <si>
-    <t>Nyamaropa</t>
-  </si>
-  <si>
-    <t>H220061Q</t>
-  </si>
-  <si>
-    <t>Nyamashuka</t>
-  </si>
-  <si>
-    <t>H180117M</t>
-  </si>
-  <si>
-    <t>Nyathi</t>
-  </si>
-  <si>
-    <t>H220486J</t>
-  </si>
-  <si>
-    <t>Nyawuri</t>
-  </si>
-  <si>
-    <t>H220188W</t>
-  </si>
-  <si>
-    <t>Nyikayaramba</t>
-  </si>
-  <si>
-    <t>H220265N</t>
-  </si>
-  <si>
-    <t>Nyisome</t>
-  </si>
-  <si>
-    <t>H220412H</t>
-  </si>
-  <si>
-    <t>Padziri</t>
   </si>
   <si>
     <t>Paganga</t>
@@ -2932,7 +2929,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J355"/>
+  <dimension ref="A1:J354"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -3038,7 +3035,9 @@
       <c r="D4" s="6">
         <v>0.5238095238095239</v>
       </c>
-      <c r="E4" s="6"/>
+      <c r="E4" s="6">
+        <v>0.479166666666667</v>
+      </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6">
@@ -3566,7 +3565,9 @@
       <c r="D28" s="23">
         <v>0.738095238095238</v>
       </c>
-      <c r="E28" s="23"/>
+      <c r="E28" s="23">
+        <v>0.708333333333333</v>
+      </c>
       <c r="F28" s="23"/>
       <c r="G28" s="23"/>
       <c r="H28" s="23">
@@ -3610,7 +3611,9 @@
       <c r="D30" s="6">
         <v>0.785714285714286</v>
       </c>
-      <c r="E30" s="6"/>
+      <c r="E30" s="6">
+        <v>0.625</v>
+      </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6">
@@ -3632,7 +3635,9 @@
       <c r="D31" s="6">
         <v>0.595238095238095</v>
       </c>
-      <c r="E31" s="6"/>
+      <c r="E31" s="6">
+        <v>0.520833333333333</v>
+      </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6">
@@ -3984,7 +3989,9 @@
       <c r="D47" s="6">
         <v>0.904761904761905</v>
       </c>
-      <c r="E47" s="6"/>
+      <c r="E47" s="6">
+        <v>0.9375</v>
+      </c>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
       <c r="H47" s="6">
@@ -4126,123 +4133,123 @@
       <c r="J53" s="7"/>
     </row>
     <row r="54" ht="21" customHeight="1">
-      <c r="A54" t="s" s="5">
+      <c r="A54" t="s" s="4">
         <v>120</v>
       </c>
-      <c r="B54" t="s" s="5">
+      <c r="B54" t="s" s="4">
         <v>121</v>
       </c>
       <c r="C54" t="s" s="5">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D54" s="6">
-        <v>0</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
       <c r="H54" s="6">
-        <v>0.777777777777778</v>
+        <v>0.555555555555556</v>
       </c>
       <c r="I54" s="6"/>
-      <c r="J54" s="7"/>
+      <c r="J54" s="9"/>
     </row>
     <row r="55" ht="21" customHeight="1">
-      <c r="A55" t="s" s="4">
+      <c r="A55" t="s" s="8">
         <v>122</v>
       </c>
-      <c r="B55" t="s" s="4">
+      <c r="B55" t="s" s="8">
         <v>123</v>
       </c>
       <c r="C55" t="s" s="5">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D55" s="6">
-        <v>0.571428571428571</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
       <c r="H55" s="6">
-        <v>0.555555555555556</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I55" s="6"/>
-      <c r="J55" s="9"/>
+      <c r="J55" s="11"/>
     </row>
     <row r="56" ht="21" customHeight="1">
-      <c r="A56" t="s" s="8">
+      <c r="A56" t="s" s="5">
         <v>124</v>
       </c>
-      <c r="B56" t="s" s="8">
+      <c r="B56" t="s" s="5">
         <v>125</v>
       </c>
       <c r="C56" t="s" s="5">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D56" s="6">
-        <v>0.714285714285714</v>
+        <v>0.476190476190476</v>
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="I56" s="6"/>
+      <c r="J56" s="9"/>
+    </row>
+    <row r="57" ht="20.35" customHeight="1">
+      <c r="A57" t="s" s="4">
+        <v>126</v>
+      </c>
+      <c r="B57" t="s" s="4">
+        <v>127</v>
+      </c>
+      <c r="C57" t="s" s="5">
+        <v>18</v>
+      </c>
+      <c r="D57" s="15">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="6">
         <v>0.777777777777778</v>
       </c>
-      <c r="I56" s="6"/>
-      <c r="J56" s="11"/>
-    </row>
-    <row r="57" ht="21" customHeight="1">
-      <c r="A57" t="s" s="5">
-        <v>126</v>
-      </c>
-      <c r="B57" t="s" s="5">
-        <v>127</v>
-      </c>
-      <c r="C57" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="D57" s="6">
-        <v>0.476190476190476</v>
-      </c>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6">
+      <c r="I57" s="13"/>
+      <c r="J57" s="16"/>
+    </row>
+    <row r="58" ht="21" customHeight="1">
+      <c r="A58" t="s" s="17">
+        <v>128</v>
+      </c>
+      <c r="B58" t="s" s="17">
+        <v>129</v>
+      </c>
+      <c r="C58" t="s" s="18">
+        <v>18</v>
+      </c>
+      <c r="D58" s="6">
+        <v>0.69047619047619</v>
+      </c>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6">
         <v>0.75</v>
       </c>
-      <c r="I57" s="6"/>
-      <c r="J57" s="9"/>
-    </row>
-    <row r="58" ht="20.35" customHeight="1">
-      <c r="A58" t="s" s="4">
-        <v>128</v>
-      </c>
-      <c r="B58" t="s" s="4">
-        <v>129</v>
-      </c>
-      <c r="C58" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D58" s="15">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13"/>
-      <c r="H58" s="6">
-        <v>0.777777777777778</v>
-      </c>
-      <c r="I58" s="13"/>
-      <c r="J58" s="16"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="9"/>
     </row>
     <row r="59" ht="21" customHeight="1">
-      <c r="A59" t="s" s="17">
+      <c r="A59" t="s" s="24">
         <v>130</v>
       </c>
-      <c r="B59" t="s" s="17">
+      <c r="B59" t="s" s="24">
         <v>131</v>
       </c>
-      <c r="C59" t="s" s="18">
+      <c r="C59" t="s" s="5">
         <v>18</v>
       </c>
       <c r="D59" s="6">
@@ -4255,178 +4262,180 @@
         <v>0.75</v>
       </c>
       <c r="I59" s="6"/>
-      <c r="J59" s="9"/>
+      <c r="J59" s="10"/>
     </row>
     <row r="60" ht="21" customHeight="1">
-      <c r="A60" t="s" s="24">
+      <c r="A60" t="s" s="8">
         <v>132</v>
       </c>
-      <c r="B60" t="s" s="24">
+      <c r="B60" t="s" s="8">
         <v>133</v>
       </c>
       <c r="C60" t="s" s="5">
         <v>18</v>
       </c>
       <c r="D60" s="6">
-        <v>0.69047619047619</v>
+        <v>0.5238095238095239</v>
       </c>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
       <c r="H60" s="6">
-        <v>0.75</v>
+        <v>0.805555555555556</v>
       </c>
       <c r="I60" s="6"/>
-      <c r="J60" s="10"/>
+      <c r="J60" s="11"/>
     </row>
     <row r="61" ht="21" customHeight="1">
-      <c r="A61" t="s" s="8">
+      <c r="A61" t="s" s="5">
         <v>134</v>
       </c>
-      <c r="B61" t="s" s="8">
+      <c r="B61" t="s" s="5">
         <v>135</v>
       </c>
       <c r="C61" t="s" s="5">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D61" s="6">
-        <v>0.5238095238095239</v>
+        <v>0.547619047619048</v>
       </c>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
       <c r="H61" s="6">
-        <v>0.805555555555556</v>
+        <v>0</v>
       </c>
       <c r="I61" s="6"/>
-      <c r="J61" s="11"/>
-    </row>
-    <row r="62" ht="21" customHeight="1">
-      <c r="A62" t="s" s="5">
+      <c r="J61" s="9"/>
+    </row>
+    <row r="62" ht="20.7" customHeight="1">
+      <c r="A62" t="s" s="4">
         <v>136</v>
       </c>
-      <c r="B62" t="s" s="5">
+      <c r="B62" t="s" s="4">
         <v>137</v>
       </c>
       <c r="C62" t="s" s="5">
-        <v>15</v>
-      </c>
-      <c r="D62" s="6">
-        <v>0.547619047619048</v>
-      </c>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
+        <v>67</v>
+      </c>
+      <c r="D62" s="15">
+        <v>0.80952380952381</v>
+      </c>
+      <c r="E62" s="15">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F62" s="13"/>
+      <c r="G62" s="13"/>
       <c r="H62" s="6">
         <v>0</v>
       </c>
-      <c r="I62" s="6"/>
-      <c r="J62" s="9"/>
-    </row>
-    <row r="63" ht="20.7" customHeight="1">
-      <c r="A63" t="s" s="4">
+      <c r="I62" s="13"/>
+      <c r="J62" s="14"/>
+    </row>
+    <row r="63" ht="21" customHeight="1">
+      <c r="A63" t="s" s="19">
         <v>138</v>
       </c>
-      <c r="B63" t="s" s="4">
+      <c r="B63" t="s" s="19">
         <v>139</v>
       </c>
-      <c r="C63" t="s" s="5">
-        <v>67</v>
-      </c>
-      <c r="D63" s="15">
-        <v>0.80952380952381</v>
-      </c>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="13"/>
+      <c r="C63" t="s" s="18">
+        <v>36</v>
+      </c>
+      <c r="D63" s="6">
+        <v>0.5238095238095239</v>
+      </c>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
       <c r="H63" s="6">
-        <v>0</v>
-      </c>
-      <c r="I63" s="13"/>
-      <c r="J63" s="14"/>
+        <v>0.75</v>
+      </c>
+      <c r="I63" s="6"/>
+      <c r="J63" s="11"/>
     </row>
     <row r="64" ht="21" customHeight="1">
-      <c r="A64" t="s" s="19">
+      <c r="A64" t="s" s="5">
         <v>140</v>
       </c>
-      <c r="B64" t="s" s="19">
+      <c r="B64" t="s" s="5">
         <v>141</v>
       </c>
-      <c r="C64" t="s" s="18">
-        <v>36</v>
+      <c r="C64" t="s" s="5">
+        <v>18</v>
       </c>
       <c r="D64" s="6">
-        <v>0.5238095238095239</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
       <c r="H64" s="6">
-        <v>0.75</v>
+        <v>0.694444444444444</v>
       </c>
       <c r="I64" s="6"/>
-      <c r="J64" s="11"/>
+      <c r="J64" s="7"/>
     </row>
     <row r="65" ht="21" customHeight="1">
-      <c r="A65" t="s" s="5">
+      <c r="A65" t="s" s="4">
         <v>142</v>
       </c>
-      <c r="B65" t="s" s="5">
+      <c r="B65" t="s" s="4">
         <v>143</v>
       </c>
       <c r="C65" t="s" s="5">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D65" s="6">
-        <v>0.714285714285714</v>
+        <v>0.5</v>
       </c>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
       <c r="H65" s="6">
-        <v>0.694444444444444</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I65" s="6"/>
       <c r="J65" s="7"/>
     </row>
     <row r="66" ht="21" customHeight="1">
-      <c r="A66" t="s" s="4">
+      <c r="A66" t="s" s="19">
         <v>144</v>
       </c>
-      <c r="B66" t="s" s="4">
+      <c r="B66" t="s" s="19">
         <v>145</v>
       </c>
-      <c r="C66" t="s" s="5">
-        <v>21</v>
-      </c>
+      <c r="C66" s="25"/>
       <c r="D66" s="6">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
       <c r="H66" s="6">
-        <v>0.777777777777778</v>
+        <v>0.694444444444444</v>
       </c>
       <c r="I66" s="6"/>
       <c r="J66" s="7"/>
     </row>
     <row r="67" ht="21" customHeight="1">
-      <c r="A67" t="s" s="19">
+      <c r="A67" t="s" s="5">
         <v>146</v>
       </c>
-      <c r="B67" t="s" s="19">
+      <c r="B67" t="s" s="5">
         <v>147</v>
       </c>
-      <c r="C67" s="25"/>
+      <c r="C67" t="s" s="5">
+        <v>18</v>
+      </c>
       <c r="D67" s="6">
-        <v>0</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
       <c r="H67" s="6">
-        <v>0.694444444444444</v>
+        <v>0.805555555555556</v>
       </c>
       <c r="I67" s="6"/>
       <c r="J67" s="7"/>
@@ -4442,29 +4451,31 @@
         <v>18</v>
       </c>
       <c r="D68" s="6">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E68" s="6"/>
+        <v>0.619047619047619</v>
+      </c>
+      <c r="E68" s="6">
+        <v>0.479166666666667</v>
+      </c>
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
       <c r="H68" s="6">
-        <v>0.805555555555556</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I68" s="6"/>
-      <c r="J68" s="7"/>
+      <c r="J68" s="9"/>
     </row>
     <row r="69" ht="21" customHeight="1">
-      <c r="A69" t="s" s="5">
+      <c r="A69" t="s" s="4">
         <v>150</v>
       </c>
-      <c r="B69" t="s" s="5">
+      <c r="B69" t="s" s="4">
         <v>151</v>
       </c>
       <c r="C69" t="s" s="5">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D69" s="6">
-        <v>0.619047619047619</v>
+        <v>0.595238095238095</v>
       </c>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
@@ -4473,20 +4484,20 @@
         <v>0.777777777777778</v>
       </c>
       <c r="I69" s="6"/>
-      <c r="J69" s="9"/>
+      <c r="J69" s="10"/>
     </row>
     <row r="70" ht="21" customHeight="1">
-      <c r="A70" t="s" s="4">
+      <c r="A70" t="s" s="8">
         <v>152</v>
       </c>
-      <c r="B70" t="s" s="4">
+      <c r="B70" t="s" s="8">
         <v>153</v>
       </c>
       <c r="C70" t="s" s="5">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D70" s="6">
-        <v>0.595238095238095</v>
+        <v>0.785714285714286</v>
       </c>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
@@ -4495,39 +4506,39 @@
         <v>0.777777777777778</v>
       </c>
       <c r="I70" s="6"/>
-      <c r="J70" s="10"/>
+      <c r="J70" s="11"/>
     </row>
     <row r="71" ht="21" customHeight="1">
-      <c r="A71" t="s" s="8">
+      <c r="A71" t="s" s="5">
         <v>154</v>
       </c>
-      <c r="B71" t="s" s="8">
+      <c r="B71" t="s" s="5">
         <v>155</v>
       </c>
       <c r="C71" t="s" s="5">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D71" s="6">
-        <v>0.785714285714286</v>
+        <v>0.69047619047619</v>
       </c>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
       <c r="H71" s="6">
-        <v>0.777777777777778</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="I71" s="6"/>
-      <c r="J71" s="11"/>
+      <c r="J71" s="7"/>
     </row>
     <row r="72" ht="21" customHeight="1">
-      <c r="A72" t="s" s="5">
+      <c r="A72" t="s" s="4">
         <v>156</v>
       </c>
-      <c r="B72" t="s" s="5">
+      <c r="B72" t="s" s="4">
         <v>157</v>
       </c>
       <c r="C72" t="s" s="5">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D72" s="6">
         <v>0.69047619047619</v>
@@ -4542,13 +4553,13 @@
       <c r="J72" s="7"/>
     </row>
     <row r="73" ht="21" customHeight="1">
-      <c r="A73" t="s" s="4">
+      <c r="A73" t="s" s="19">
         <v>158</v>
       </c>
-      <c r="B73" t="s" s="4">
+      <c r="B73" t="s" s="19">
         <v>159</v>
       </c>
-      <c r="C73" t="s" s="5">
+      <c r="C73" t="s" s="18">
         <v>12</v>
       </c>
       <c r="D73" s="6">
@@ -4558,29 +4569,29 @@
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
       <c r="H73" s="6">
-        <v>0.722222222222222</v>
+        <v>0.638888888888889</v>
       </c>
       <c r="I73" s="6"/>
       <c r="J73" s="7"/>
     </row>
     <row r="74" ht="21" customHeight="1">
-      <c r="A74" t="s" s="19">
+      <c r="A74" t="s" s="5">
         <v>160</v>
       </c>
-      <c r="B74" t="s" s="19">
+      <c r="B74" t="s" s="5">
         <v>161</v>
       </c>
-      <c r="C74" t="s" s="18">
-        <v>12</v>
+      <c r="C74" t="s" s="5">
+        <v>67</v>
       </c>
       <c r="D74" s="6">
-        <v>0.69047619047619</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
       <c r="H74" s="6">
-        <v>0.638888888888889</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="I74" s="6"/>
       <c r="J74" s="7"/>
@@ -4593,16 +4604,16 @@
         <v>163</v>
       </c>
       <c r="C75" t="s" s="5">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="D75" s="6">
-        <v>0.619047619047619</v>
+        <v>0.80952380952381</v>
       </c>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
       <c r="H75" s="6">
-        <v>0.666666666666667</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I75" s="6"/>
       <c r="J75" s="7"/>
@@ -4615,16 +4626,16 @@
         <v>165</v>
       </c>
       <c r="C76" t="s" s="5">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D76" s="6">
-        <v>0.80952380952381</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
       <c r="H76" s="6">
-        <v>0.777777777777778</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="I76" s="6"/>
       <c r="J76" s="7"/>
@@ -4637,16 +4648,16 @@
         <v>167</v>
       </c>
       <c r="C77" t="s" s="5">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D77" s="6">
-        <v>0.857142857142857</v>
+        <v>0.738095238095238</v>
       </c>
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
       <c r="H77" s="6">
-        <v>0.722222222222222</v>
+        <v>0.694444444444444</v>
       </c>
       <c r="I77" s="6"/>
       <c r="J77" s="7"/>
@@ -4659,16 +4670,16 @@
         <v>169</v>
       </c>
       <c r="C78" t="s" s="5">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="D78" s="6">
-        <v>0.738095238095238</v>
+        <v>0.761904761904762</v>
       </c>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
       <c r="H78" s="6">
-        <v>0.694444444444444</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="I78" s="6"/>
       <c r="J78" s="7"/>
@@ -4681,10 +4692,10 @@
         <v>171</v>
       </c>
       <c r="C79" t="s" s="5">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="D79" s="6">
-        <v>0.761904761904762</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
@@ -4703,16 +4714,16 @@
         <v>173</v>
       </c>
       <c r="C80" t="s" s="5">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D80" s="6">
-        <v>0.714285714285714</v>
+        <v>0.880952380952381</v>
       </c>
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
       <c r="H80" s="6">
-        <v>0.722222222222222</v>
+        <v>0.75</v>
       </c>
       <c r="I80" s="6"/>
       <c r="J80" s="7"/>
@@ -4725,10 +4736,10 @@
         <v>175</v>
       </c>
       <c r="C81" t="s" s="5">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D81" s="6">
-        <v>0.880952380952381</v>
+        <v>0.904761904761905</v>
       </c>
       <c r="E81" s="6"/>
       <c r="F81" s="6"/>
@@ -4737,73 +4748,73 @@
         <v>0.75</v>
       </c>
       <c r="I81" s="6"/>
-      <c r="J81" s="7"/>
-    </row>
-    <row r="82" ht="21" customHeight="1">
-      <c r="A82" t="s" s="5">
+      <c r="J81" s="9"/>
+    </row>
+    <row r="82" ht="20.7" customHeight="1">
+      <c r="A82" t="s" s="4">
         <v>176</v>
       </c>
-      <c r="B82" t="s" s="5">
+      <c r="B82" t="s" s="4">
         <v>177</v>
       </c>
       <c r="C82" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="D82" s="6">
-        <v>0.904761904761905</v>
-      </c>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
-      <c r="G82" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="D82" s="12">
+        <v>0.857142857142857</v>
+      </c>
+      <c r="E82" s="13"/>
+      <c r="F82" s="13"/>
+      <c r="G82" s="13"/>
       <c r="H82" s="6">
+        <v>0.777777777777778</v>
+      </c>
+      <c r="I82" s="13"/>
+      <c r="J82" s="16"/>
+    </row>
+    <row r="83" ht="21" customHeight="1">
+      <c r="A83" t="s" s="19">
+        <v>178</v>
+      </c>
+      <c r="B83" t="s" s="19">
+        <v>179</v>
+      </c>
+      <c r="C83" t="s" s="18">
+        <v>21</v>
+      </c>
+      <c r="D83" s="6">
+        <v>0.5238095238095239</v>
+      </c>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6">
         <v>0.75</v>
       </c>
-      <c r="I82" s="6"/>
-      <c r="J82" s="9"/>
-    </row>
-    <row r="83" ht="20.7" customHeight="1">
-      <c r="A83" t="s" s="4">
-        <v>178</v>
-      </c>
-      <c r="B83" t="s" s="4">
-        <v>179</v>
-      </c>
-      <c r="C83" t="s" s="5">
+      <c r="I83" s="6"/>
+      <c r="J83" s="7"/>
+    </row>
+    <row r="84" ht="21" customHeight="1">
+      <c r="A84" t="s" s="5">
+        <v>180</v>
+      </c>
+      <c r="B84" t="s" s="5">
+        <v>181</v>
+      </c>
+      <c r="C84" t="s" s="5">
         <v>36</v>
       </c>
-      <c r="D83" s="12">
-        <v>0.857142857142857</v>
-      </c>
-      <c r="E83" s="13"/>
-      <c r="F83" s="13"/>
-      <c r="G83" s="13"/>
-      <c r="H83" s="6">
-        <v>0.777777777777778</v>
-      </c>
-      <c r="I83" s="13"/>
-      <c r="J83" s="16"/>
-    </row>
-    <row r="84" ht="21" customHeight="1">
-      <c r="A84" t="s" s="19">
-        <v>180</v>
-      </c>
-      <c r="B84" t="s" s="19">
-        <v>181</v>
-      </c>
-      <c r="C84" t="s" s="18">
-        <v>21</v>
-      </c>
       <c r="D84" s="6">
-        <v>0.5238095238095239</v>
+        <v>0.452380952380952</v>
       </c>
       <c r="E84" s="6"/>
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
       <c r="H84" s="6">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="I84" s="6"/>
-      <c r="J84" s="7"/>
+      <c r="J84" s="9"/>
     </row>
     <row r="85" ht="21" customHeight="1">
       <c r="A85" t="s" s="5">
@@ -4813,120 +4824,120 @@
         <v>183</v>
       </c>
       <c r="C85" t="s" s="5">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D85" s="6">
-        <v>0.452380952380952</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="E85" s="6"/>
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
       <c r="H85" s="6">
-        <v>0</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I85" s="6"/>
-      <c r="J85" s="9"/>
+      <c r="J85" s="10"/>
     </row>
     <row r="86" ht="21" customHeight="1">
-      <c r="A86" t="s" s="5">
+      <c r="A86" t="s" s="4">
         <v>184</v>
       </c>
-      <c r="B86" t="s" s="5">
+      <c r="B86" t="s" s="4">
         <v>185</v>
       </c>
       <c r="C86" t="s" s="5">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="D86" s="6">
-        <v>0.857142857142857</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="E86" s="6"/>
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
       <c r="H86" s="6">
-        <v>0.777777777777778</v>
+        <v>0.694444444444444</v>
       </c>
       <c r="I86" s="6"/>
-      <c r="J86" s="10"/>
+      <c r="J86" s="11"/>
     </row>
     <row r="87" ht="21" customHeight="1">
-      <c r="A87" t="s" s="4">
+      <c r="A87" t="s" s="19">
         <v>186</v>
       </c>
-      <c r="B87" t="s" s="4">
+      <c r="B87" t="s" s="19">
         <v>187</v>
       </c>
-      <c r="C87" t="s" s="5">
-        <v>67</v>
+      <c r="C87" t="s" s="18">
+        <v>21</v>
       </c>
       <c r="D87" s="6">
-        <v>0.619047619047619</v>
+        <v>0.69047619047619</v>
       </c>
       <c r="E87" s="6"/>
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
       <c r="H87" s="6">
-        <v>0.694444444444444</v>
+        <v>0.638888888888889</v>
       </c>
       <c r="I87" s="6"/>
-      <c r="J87" s="11"/>
+      <c r="J87" s="7"/>
     </row>
     <row r="88" ht="21" customHeight="1">
-      <c r="A88" t="s" s="19">
+      <c r="A88" t="s" s="5">
         <v>188</v>
       </c>
-      <c r="B88" t="s" s="19">
+      <c r="B88" t="s" s="5">
         <v>189</v>
       </c>
-      <c r="C88" t="s" s="18">
-        <v>21</v>
+      <c r="C88" t="s" s="5">
+        <v>18</v>
       </c>
       <c r="D88" s="6">
-        <v>0.69047619047619</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
       <c r="H88" s="6">
-        <v>0.638888888888889</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="I88" s="6"/>
       <c r="J88" s="7"/>
     </row>
     <row r="89" ht="21" customHeight="1">
-      <c r="A89" t="s" s="5">
+      <c r="A89" t="s" s="4">
         <v>190</v>
       </c>
-      <c r="B89" t="s" s="5">
+      <c r="B89" t="s" s="4">
         <v>191</v>
       </c>
       <c r="C89" t="s" s="5">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D89" s="6">
-        <v>0.619047619047619</v>
+        <v>0.785714285714286</v>
       </c>
       <c r="E89" s="6"/>
       <c r="F89" s="6"/>
       <c r="G89" s="6"/>
       <c r="H89" s="6">
-        <v>0.416666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="I89" s="6"/>
       <c r="J89" s="7"/>
     </row>
     <row r="90" ht="21" customHeight="1">
-      <c r="A90" t="s" s="4">
+      <c r="A90" t="s" s="17">
         <v>192</v>
       </c>
-      <c r="B90" t="s" s="4">
+      <c r="B90" t="s" s="17">
         <v>193</v>
       </c>
-      <c r="C90" t="s" s="5">
-        <v>12</v>
+      <c r="C90" t="s" s="18">
+        <v>36</v>
       </c>
       <c r="D90" s="6">
-        <v>0.785714285714286</v>
+        <v>0.642857142857143</v>
       </c>
       <c r="E90" s="6"/>
       <c r="F90" s="6"/>
@@ -4948,73 +4959,75 @@
         <v>36</v>
       </c>
       <c r="D91" s="6">
-        <v>0.642857142857143</v>
-      </c>
-      <c r="E91" s="6"/>
+        <v>0.5238095238095239</v>
+      </c>
+      <c r="E91" s="6">
+        <v>0.6875</v>
+      </c>
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
       <c r="H91" s="6">
-        <v>0.75</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="I91" s="6"/>
       <c r="J91" s="7"/>
     </row>
     <row r="92" ht="21" customHeight="1">
-      <c r="A92" t="s" s="17">
+      <c r="A92" t="s" s="24">
         <v>196</v>
       </c>
-      <c r="B92" t="s" s="17">
+      <c r="B92" t="s" s="24">
         <v>197</v>
       </c>
-      <c r="C92" t="s" s="18">
-        <v>36</v>
+      <c r="C92" t="s" s="5">
+        <v>21</v>
       </c>
       <c r="D92" s="6">
-        <v>0.5238095238095239</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="E92" s="6"/>
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
       <c r="H92" s="6">
-        <v>0.888888888888889</v>
+        <v>0.75</v>
       </c>
       <c r="I92" s="6"/>
       <c r="J92" s="7"/>
     </row>
     <row r="93" ht="21" customHeight="1">
-      <c r="A93" t="s" s="24">
+      <c r="A93" t="s" s="19">
         <v>198</v>
       </c>
-      <c r="B93" t="s" s="24">
+      <c r="B93" t="s" s="19">
         <v>199</v>
       </c>
-      <c r="C93" t="s" s="5">
-        <v>21</v>
+      <c r="C93" t="s" s="18">
+        <v>15</v>
       </c>
       <c r="D93" s="6">
-        <v>0.666666666666667</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="E93" s="6"/>
       <c r="F93" s="6"/>
       <c r="G93" s="6"/>
       <c r="H93" s="6">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="I93" s="6"/>
       <c r="J93" s="7"/>
     </row>
     <row r="94" ht="21" customHeight="1">
-      <c r="A94" t="s" s="19">
+      <c r="A94" t="s" s="5">
         <v>200</v>
       </c>
-      <c r="B94" t="s" s="19">
+      <c r="B94" t="s" s="5">
         <v>201</v>
       </c>
-      <c r="C94" t="s" s="18">
-        <v>15</v>
+      <c r="C94" t="s" s="5">
+        <v>18</v>
       </c>
       <c r="D94" s="6">
-        <v>0.857142857142857</v>
+        <v>0.928571428571429</v>
       </c>
       <c r="E94" s="6"/>
       <c r="F94" s="6"/>
@@ -5033,10 +5046,10 @@
         <v>203</v>
       </c>
       <c r="C95" t="s" s="5">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D95" s="6">
-        <v>0.928571428571429</v>
+        <v>0.80952380952381</v>
       </c>
       <c r="E95" s="6"/>
       <c r="F95" s="6"/>
@@ -5055,16 +5068,16 @@
         <v>205</v>
       </c>
       <c r="C96" t="s" s="5">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D96" s="6">
-        <v>0.80952380952381</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E96" s="6"/>
       <c r="F96" s="6"/>
       <c r="G96" s="6"/>
       <c r="H96" s="6">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="I96" s="6"/>
       <c r="J96" s="7"/>
@@ -5080,82 +5093,82 @@
         <v>18</v>
       </c>
       <c r="D97" s="6">
-        <v>0.833333333333333</v>
+        <v>0.738095238095238</v>
       </c>
       <c r="E97" s="6"/>
       <c r="F97" s="6"/>
       <c r="G97" s="6"/>
       <c r="H97" s="6">
-        <v>0.75</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="I97" s="6"/>
-      <c r="J97" s="7"/>
+      <c r="J97" s="9"/>
     </row>
     <row r="98" ht="21" customHeight="1">
-      <c r="A98" t="s" s="5">
+      <c r="A98" t="s" s="4">
         <v>208</v>
       </c>
-      <c r="B98" t="s" s="5">
+      <c r="B98" t="s" s="4">
         <v>209</v>
       </c>
       <c r="C98" t="s" s="5">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D98" s="6">
-        <v>0.738095238095238</v>
+        <v>0.595238095238095</v>
       </c>
       <c r="E98" s="6"/>
       <c r="F98" s="6"/>
       <c r="G98" s="6"/>
       <c r="H98" s="6">
-        <v>0.416666666666667</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I98" s="6"/>
-      <c r="J98" s="9"/>
+      <c r="J98" s="11"/>
     </row>
     <row r="99" ht="21" customHeight="1">
-      <c r="A99" t="s" s="4">
+      <c r="A99" t="s" s="19">
         <v>210</v>
       </c>
-      <c r="B99" t="s" s="4">
+      <c r="B99" t="s" s="19">
         <v>211</v>
       </c>
-      <c r="C99" t="s" s="5">
-        <v>15</v>
+      <c r="C99" t="s" s="18">
+        <v>12</v>
       </c>
       <c r="D99" s="6">
-        <v>0.595238095238095</v>
+        <v>0.5</v>
       </c>
       <c r="E99" s="6"/>
       <c r="F99" s="6"/>
       <c r="G99" s="6"/>
       <c r="H99" s="6">
-        <v>0.777777777777778</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="I99" s="6"/>
-      <c r="J99" s="11"/>
+      <c r="J99" s="7"/>
     </row>
     <row r="100" ht="21" customHeight="1">
-      <c r="A100" t="s" s="19">
+      <c r="A100" t="s" s="5">
         <v>212</v>
       </c>
-      <c r="B100" t="s" s="19">
+      <c r="B100" t="s" s="5">
         <v>213</v>
       </c>
-      <c r="C100" t="s" s="18">
-        <v>12</v>
+      <c r="C100" t="s" s="5">
+        <v>15</v>
       </c>
       <c r="D100" s="6">
-        <v>0.5</v>
+        <v>0.452380952380952</v>
       </c>
       <c r="E100" s="6"/>
       <c r="F100" s="6"/>
       <c r="G100" s="6"/>
       <c r="H100" s="6">
-        <v>0.722222222222222</v>
+        <v>0</v>
       </c>
       <c r="I100" s="6"/>
-      <c r="J100" s="7"/>
+      <c r="J100" s="9"/>
     </row>
     <row r="101" ht="21" customHeight="1">
       <c r="A101" t="s" s="5">
@@ -5165,19 +5178,19 @@
         <v>215</v>
       </c>
       <c r="C101" t="s" s="5">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D101" s="6">
-        <v>0.452380952380952</v>
+        <v>0.69047619047619</v>
       </c>
       <c r="E101" s="6"/>
       <c r="F101" s="6"/>
       <c r="G101" s="6"/>
       <c r="H101" s="6">
-        <v>0</v>
+        <v>0.805555555555556</v>
       </c>
       <c r="I101" s="6"/>
-      <c r="J101" s="9"/>
+      <c r="J101" s="11"/>
     </row>
     <row r="102" ht="21" customHeight="1">
       <c r="A102" t="s" s="5">
@@ -5187,82 +5200,84 @@
         <v>217</v>
       </c>
       <c r="C102" t="s" s="5">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D102" s="6">
-        <v>0.69047619047619</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="E102" s="6"/>
       <c r="F102" s="6"/>
       <c r="G102" s="6"/>
       <c r="H102" s="6">
-        <v>0.805555555555556</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I102" s="6"/>
-      <c r="J102" s="11"/>
+      <c r="J102" s="7"/>
     </row>
     <row r="103" ht="21" customHeight="1">
-      <c r="A103" t="s" s="5">
+      <c r="A103" t="s" s="4">
         <v>218</v>
       </c>
-      <c r="B103" t="s" s="5">
+      <c r="B103" t="s" s="4">
         <v>219</v>
       </c>
       <c r="C103" t="s" s="5">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D103" s="6">
-        <v>0.857142857142857</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="E103" s="6"/>
       <c r="F103" s="6"/>
       <c r="G103" s="6"/>
       <c r="H103" s="6">
-        <v>0.777777777777778</v>
+        <v>0.361111111111111</v>
       </c>
       <c r="I103" s="6"/>
       <c r="J103" s="7"/>
     </row>
     <row r="104" ht="21" customHeight="1">
-      <c r="A104" t="s" s="4">
+      <c r="A104" t="s" s="8">
         <v>220</v>
       </c>
-      <c r="B104" t="s" s="4">
+      <c r="B104" t="s" s="8">
         <v>221</v>
       </c>
       <c r="C104" t="s" s="5">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D104" s="6">
-        <v>0.285714285714286</v>
-      </c>
-      <c r="E104" s="6"/>
+        <v>0.571428571428571</v>
+      </c>
+      <c r="E104" s="6">
+        <v>0.958333333333333</v>
+      </c>
       <c r="F104" s="6"/>
       <c r="G104" s="6"/>
       <c r="H104" s="6">
-        <v>0.361111111111111</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="I104" s="6"/>
       <c r="J104" s="7"/>
     </row>
     <row r="105" ht="21" customHeight="1">
-      <c r="A105" t="s" s="8">
+      <c r="A105" t="s" s="5">
         <v>222</v>
       </c>
-      <c r="B105" t="s" s="8">
+      <c r="B105" t="s" s="5">
         <v>223</v>
       </c>
       <c r="C105" t="s" s="5">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D105" s="6">
-        <v>0.571428571428571</v>
+        <v>0.69047619047619</v>
       </c>
       <c r="E105" s="6"/>
       <c r="F105" s="6"/>
       <c r="G105" s="6"/>
       <c r="H105" s="6">
-        <v>0.722222222222222</v>
+        <v>0.694444444444444</v>
       </c>
       <c r="I105" s="6"/>
       <c r="J105" s="7"/>
@@ -5275,21 +5290,21 @@
         <v>225</v>
       </c>
       <c r="C106" t="s" s="5">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D106" s="6">
-        <v>0.69047619047619</v>
+        <v>0.785714285714286</v>
       </c>
       <c r="E106" s="6"/>
       <c r="F106" s="6"/>
       <c r="G106" s="6"/>
       <c r="H106" s="6">
-        <v>0.694444444444444</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I106" s="6"/>
-      <c r="J106" s="7"/>
-    </row>
-    <row r="107" ht="21" customHeight="1">
+      <c r="J106" s="9"/>
+    </row>
+    <row r="107" ht="20.7" customHeight="1">
       <c r="A107" t="s" s="5">
         <v>226</v>
       </c>
@@ -5299,17 +5314,19 @@
       <c r="C107" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="D107" s="6">
-        <v>0.785714285714286</v>
-      </c>
-      <c r="E107" s="6"/>
-      <c r="F107" s="6"/>
-      <c r="G107" s="6"/>
+      <c r="D107" s="15">
+        <v>0.5238095238095239</v>
+      </c>
+      <c r="E107" s="15">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="F107" s="13"/>
+      <c r="G107" s="13"/>
       <c r="H107" s="6">
         <v>0.777777777777778</v>
       </c>
-      <c r="I107" s="6"/>
-      <c r="J107" s="9"/>
+      <c r="I107" s="13"/>
+      <c r="J107" s="14"/>
     </row>
     <row r="108" ht="20.7" customHeight="1">
       <c r="A108" t="s" s="5">
@@ -5319,21 +5336,21 @@
         <v>229</v>
       </c>
       <c r="C108" t="s" s="5">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D108" s="15">
-        <v>0.5238095238095239</v>
+        <v>0.785714285714286</v>
       </c>
       <c r="E108" s="13"/>
       <c r="F108" s="13"/>
       <c r="G108" s="13"/>
       <c r="H108" s="6">
-        <v>0.777777777777778</v>
+        <v>0.638888888888889</v>
       </c>
       <c r="I108" s="13"/>
-      <c r="J108" s="14"/>
-    </row>
-    <row r="109" ht="20.7" customHeight="1">
+      <c r="J108" s="16"/>
+    </row>
+    <row r="109" ht="21" customHeight="1">
       <c r="A109" t="s" s="5">
         <v>230</v>
       </c>
@@ -5341,19 +5358,19 @@
         <v>231</v>
       </c>
       <c r="C109" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="D109" s="15">
-        <v>0.785714285714286</v>
-      </c>
-      <c r="E109" s="13"/>
-      <c r="F109" s="13"/>
-      <c r="G109" s="13"/>
+        <v>15</v>
+      </c>
+      <c r="D109" s="6">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="E109" s="6"/>
+      <c r="F109" s="6"/>
+      <c r="G109" s="6"/>
       <c r="H109" s="6">
-        <v>0.638888888888889</v>
-      </c>
-      <c r="I109" s="13"/>
-      <c r="J109" s="16"/>
+        <v>0</v>
+      </c>
+      <c r="I109" s="6"/>
+      <c r="J109" s="7"/>
     </row>
     <row r="110" ht="21" customHeight="1">
       <c r="A110" t="s" s="5">
@@ -5363,21 +5380,21 @@
         <v>233</v>
       </c>
       <c r="C110" t="s" s="5">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D110" s="6">
-        <v>0.666666666666667</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E110" s="6"/>
       <c r="F110" s="6"/>
       <c r="G110" s="6"/>
       <c r="H110" s="6">
-        <v>0</v>
+        <v>0.694444444444444</v>
       </c>
       <c r="I110" s="6"/>
-      <c r="J110" s="7"/>
-    </row>
-    <row r="111" ht="21" customHeight="1">
+      <c r="J110" s="9"/>
+    </row>
+    <row r="111" ht="20.05" customHeight="1">
       <c r="A111" t="s" s="5">
         <v>234</v>
       </c>
@@ -5387,19 +5404,19 @@
       <c r="C111" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D111" s="6">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E111" s="6"/>
-      <c r="F111" s="6"/>
-      <c r="G111" s="6"/>
+      <c r="D111" s="15">
+        <v>0.80952380952381</v>
+      </c>
+      <c r="E111" s="13"/>
+      <c r="F111" s="13"/>
+      <c r="G111" s="13"/>
       <c r="H111" s="6">
-        <v>0.694444444444444</v>
-      </c>
-      <c r="I111" s="6"/>
-      <c r="J111" s="9"/>
-    </row>
-    <row r="112" ht="20.05" customHeight="1">
+        <v>0.777777777777778</v>
+      </c>
+      <c r="I111" s="13"/>
+      <c r="J111" s="16"/>
+    </row>
+    <row r="112" ht="21" customHeight="1">
       <c r="A112" t="s" s="5">
         <v>236</v>
       </c>
@@ -5409,19 +5426,19 @@
       <c r="C112" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D112" s="15">
-        <v>0.80952380952381</v>
-      </c>
-      <c r="E112" s="13"/>
-      <c r="F112" s="13"/>
-      <c r="G112" s="13"/>
+      <c r="D112" s="6">
+        <v>0.714285714285714</v>
+      </c>
+      <c r="E112" s="6"/>
+      <c r="F112" s="6"/>
+      <c r="G112" s="6"/>
       <c r="H112" s="6">
-        <v>0.777777777777778</v>
-      </c>
-      <c r="I112" s="13"/>
-      <c r="J112" s="16"/>
-    </row>
-    <row r="113" ht="21" customHeight="1">
+        <v>0.555555555555556</v>
+      </c>
+      <c r="I112" s="6"/>
+      <c r="J112" s="9"/>
+    </row>
+    <row r="113" ht="20.7" customHeight="1">
       <c r="A113" t="s" s="5">
         <v>238</v>
       </c>
@@ -5429,21 +5446,21 @@
         <v>239</v>
       </c>
       <c r="C113" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D113" s="6">
-        <v>0.714285714285714</v>
-      </c>
-      <c r="E113" s="6"/>
-      <c r="F113" s="6"/>
-      <c r="G113" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="D113" s="15">
+        <v>0.452380952380952</v>
+      </c>
+      <c r="E113" s="13"/>
+      <c r="F113" s="13"/>
+      <c r="G113" s="13"/>
       <c r="H113" s="6">
-        <v>0.555555555555556</v>
-      </c>
-      <c r="I113" s="6"/>
-      <c r="J113" s="9"/>
-    </row>
-    <row r="114" ht="20.7" customHeight="1">
+        <v>0.888888888888889</v>
+      </c>
+      <c r="I113" s="13"/>
+      <c r="J113" s="14"/>
+    </row>
+    <row r="114" ht="21" customHeight="1">
       <c r="A114" t="s" s="5">
         <v>240</v>
       </c>
@@ -5451,19 +5468,21 @@
         <v>241</v>
       </c>
       <c r="C114" t="s" s="5">
-        <v>36</v>
-      </c>
-      <c r="D114" s="15">
-        <v>0.452380952380952</v>
-      </c>
-      <c r="E114" s="13"/>
-      <c r="F114" s="13"/>
-      <c r="G114" s="13"/>
+        <v>21</v>
+      </c>
+      <c r="D114" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E114" s="6">
+        <v>0.4375</v>
+      </c>
+      <c r="F114" s="6"/>
+      <c r="G114" s="6"/>
       <c r="H114" s="6">
-        <v>0.888888888888889</v>
-      </c>
-      <c r="I114" s="13"/>
-      <c r="J114" s="14"/>
+        <v>0.75</v>
+      </c>
+      <c r="I114" s="6"/>
+      <c r="J114" s="11"/>
     </row>
     <row r="115" ht="21" customHeight="1">
       <c r="A115" t="s" s="5">
@@ -5476,7 +5495,7 @@
         <v>21</v>
       </c>
       <c r="D115" s="6">
-        <v>0.5</v>
+        <v>0.595238095238095</v>
       </c>
       <c r="E115" s="6"/>
       <c r="F115" s="6"/>
@@ -5485,7 +5504,7 @@
         <v>0.75</v>
       </c>
       <c r="I115" s="6"/>
-      <c r="J115" s="11"/>
+      <c r="J115" s="7"/>
     </row>
     <row r="116" ht="21" customHeight="1">
       <c r="A116" t="s" s="5">
@@ -5495,16 +5514,16 @@
         <v>245</v>
       </c>
       <c r="C116" t="s" s="5">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D116" s="6">
-        <v>0.595238095238095</v>
+        <v>0.80952380952381</v>
       </c>
       <c r="E116" s="6"/>
       <c r="F116" s="6"/>
       <c r="G116" s="6"/>
       <c r="H116" s="6">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="I116" s="6"/>
       <c r="J116" s="7"/>
@@ -5517,16 +5536,16 @@
         <v>247</v>
       </c>
       <c r="C117" t="s" s="5">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D117" s="6">
-        <v>0.80952380952381</v>
+        <v>0.904761904761905</v>
       </c>
       <c r="E117" s="6"/>
       <c r="F117" s="6"/>
       <c r="G117" s="6"/>
       <c r="H117" s="6">
-        <v>0</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I117" s="6"/>
       <c r="J117" s="7"/>
@@ -5539,16 +5558,16 @@
         <v>249</v>
       </c>
       <c r="C118" t="s" s="5">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="D118" s="6">
-        <v>0.904761904761905</v>
+        <v>0.214285714285714</v>
       </c>
       <c r="E118" s="6"/>
       <c r="F118" s="6"/>
       <c r="G118" s="6"/>
       <c r="H118" s="6">
-        <v>0.777777777777778</v>
+        <v>0.388888888888889</v>
       </c>
       <c r="I118" s="6"/>
       <c r="J118" s="7"/>
@@ -5561,247 +5580,251 @@
         <v>251</v>
       </c>
       <c r="C119" t="s" s="5">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="D119" s="6">
-        <v>0.214285714285714</v>
+        <v>0.69047619047619</v>
       </c>
       <c r="E119" s="6"/>
       <c r="F119" s="6"/>
       <c r="G119" s="6"/>
       <c r="H119" s="6">
-        <v>0.388888888888889</v>
+        <v>0</v>
       </c>
       <c r="I119" s="6"/>
-      <c r="J119" s="7"/>
+      <c r="J119" s="9"/>
     </row>
     <row r="120" ht="21" customHeight="1">
-      <c r="A120" t="s" s="5">
+      <c r="A120" t="s" s="4">
         <v>252</v>
       </c>
-      <c r="B120" t="s" s="5">
+      <c r="B120" t="s" s="4">
         <v>253</v>
       </c>
       <c r="C120" t="s" s="5">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D120" s="6">
-        <v>0.69047619047619</v>
+        <v>0.642857142857143</v>
       </c>
       <c r="E120" s="6"/>
       <c r="F120" s="6"/>
       <c r="G120" s="6"/>
       <c r="H120" s="6">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="I120" s="6"/>
-      <c r="J120" s="9"/>
+      <c r="J120" s="10"/>
     </row>
     <row r="121" ht="21" customHeight="1">
-      <c r="A121" t="s" s="4">
+      <c r="A121" t="s" s="8">
         <v>254</v>
       </c>
-      <c r="B121" t="s" s="4">
+      <c r="B121" t="s" s="8">
         <v>255</v>
       </c>
       <c r="C121" t="s" s="5">
         <v>12</v>
       </c>
       <c r="D121" s="6">
-        <v>0.642857142857143</v>
+        <v>0.80952380952381</v>
       </c>
       <c r="E121" s="6"/>
       <c r="F121" s="6"/>
       <c r="G121" s="6"/>
       <c r="H121" s="6">
-        <v>0.75</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I121" s="6"/>
-      <c r="J121" s="10"/>
+      <c r="J121" s="11"/>
     </row>
     <row r="122" ht="21" customHeight="1">
-      <c r="A122" t="s" s="8">
+      <c r="A122" t="s" s="5">
         <v>256</v>
       </c>
-      <c r="B122" t="s" s="8">
+      <c r="B122" t="s" s="5">
         <v>257</v>
       </c>
       <c r="C122" t="s" s="5">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D122" s="6">
-        <v>0.80952380952381</v>
+        <v>0.904761904761905</v>
       </c>
       <c r="E122" s="6"/>
       <c r="F122" s="6"/>
       <c r="G122" s="6"/>
       <c r="H122" s="6">
-        <v>0.777777777777778</v>
+        <v>0.75</v>
       </c>
       <c r="I122" s="6"/>
-      <c r="J122" s="11"/>
+      <c r="J122" s="7"/>
     </row>
     <row r="123" ht="21" customHeight="1">
-      <c r="A123" t="s" s="5">
+      <c r="A123" t="s" s="4">
         <v>258</v>
       </c>
-      <c r="B123" t="s" s="5">
+      <c r="B123" t="s" s="4">
         <v>259</v>
       </c>
       <c r="C123" t="s" s="5">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D123" s="6">
-        <v>0.904761904761905</v>
-      </c>
-      <c r="E123" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="E123" s="6">
+        <v>0.229166666666667</v>
+      </c>
       <c r="F123" s="6"/>
       <c r="G123" s="6"/>
       <c r="H123" s="6">
         <v>0.75</v>
       </c>
       <c r="I123" s="6"/>
-      <c r="J123" s="7"/>
+      <c r="J123" s="9"/>
     </row>
     <row r="124" ht="21" customHeight="1">
-      <c r="A124" t="s" s="4">
+      <c r="A124" t="s" s="24">
         <v>260</v>
       </c>
-      <c r="B124" t="s" s="4">
+      <c r="B124" t="s" s="24">
         <v>261</v>
       </c>
-      <c r="C124" s="13"/>
+      <c r="C124" t="s" s="5">
+        <v>15</v>
+      </c>
       <c r="D124" s="6">
-        <v>0</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="E124" s="6"/>
       <c r="F124" s="6"/>
       <c r="G124" s="6"/>
       <c r="H124" s="6">
-        <v>0.75</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I124" s="6"/>
-      <c r="J124" s="9"/>
+      <c r="J124" s="10"/>
     </row>
     <row r="125" ht="21" customHeight="1">
-      <c r="A125" t="s" s="24">
+      <c r="A125" t="s" s="8">
         <v>262</v>
       </c>
-      <c r="B125" t="s" s="24">
+      <c r="B125" t="s" s="8">
         <v>263</v>
       </c>
       <c r="C125" t="s" s="5">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="D125" s="6">
-        <v>0.619047619047619</v>
+        <v>0.761904761904762</v>
       </c>
       <c r="E125" s="6"/>
       <c r="F125" s="6"/>
       <c r="G125" s="6"/>
       <c r="H125" s="6">
-        <v>0.777777777777778</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="I125" s="6"/>
       <c r="J125" s="10"/>
     </row>
-    <row r="126" ht="21" customHeight="1">
-      <c r="A126" t="s" s="8">
+    <row r="126" ht="20.7" customHeight="1">
+      <c r="A126" t="s" s="5">
         <v>264</v>
       </c>
-      <c r="B126" t="s" s="8">
+      <c r="B126" t="s" s="5">
         <v>265</v>
       </c>
       <c r="C126" t="s" s="5">
-        <v>67</v>
-      </c>
-      <c r="D126" s="6">
-        <v>0.761904761904762</v>
-      </c>
-      <c r="E126" s="6"/>
-      <c r="F126" s="6"/>
-      <c r="G126" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="D126" s="12">
+        <v>0.595238095238095</v>
+      </c>
+      <c r="E126" s="13"/>
+      <c r="F126" s="13"/>
+      <c r="G126" s="13"/>
       <c r="H126" s="6">
-        <v>0.722222222222222</v>
-      </c>
-      <c r="I126" s="6"/>
-      <c r="J126" s="10"/>
-    </row>
-    <row r="127" ht="20.7" customHeight="1">
-      <c r="A127" t="s" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="I126" s="13"/>
+      <c r="J126" s="14"/>
+    </row>
+    <row r="127" ht="21" customHeight="1">
+      <c r="A127" t="s" s="4">
         <v>266</v>
       </c>
-      <c r="B127" t="s" s="5">
+      <c r="B127" t="s" s="4">
         <v>267</v>
       </c>
       <c r="C127" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D127" s="6">
+        <v>0.69047619047619</v>
+      </c>
+      <c r="E127" s="6"/>
+      <c r="F127" s="6"/>
+      <c r="G127" s="6"/>
+      <c r="H127" s="6">
+        <v>0.805555555555556</v>
+      </c>
+      <c r="I127" s="6"/>
+      <c r="J127" s="11"/>
+    </row>
+    <row r="128" ht="21" customHeight="1">
+      <c r="A128" t="s" s="19">
+        <v>268</v>
+      </c>
+      <c r="B128" t="s" s="19">
+        <v>269</v>
+      </c>
+      <c r="C128" t="s" s="18">
         <v>21</v>
       </c>
-      <c r="D127" s="12">
-        <v>0.595238095238095</v>
-      </c>
-      <c r="E127" s="13"/>
-      <c r="F127" s="13"/>
-      <c r="G127" s="13"/>
-      <c r="H127" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="I127" s="13"/>
-      <c r="J127" s="14"/>
-    </row>
-    <row r="128" ht="21" customHeight="1">
-      <c r="A128" t="s" s="4">
-        <v>268</v>
-      </c>
-      <c r="B128" t="s" s="4">
-        <v>269</v>
-      </c>
-      <c r="C128" t="s" s="5">
-        <v>12</v>
-      </c>
       <c r="D128" s="6">
-        <v>0.69047619047619</v>
+        <v>0.80952380952381</v>
       </c>
       <c r="E128" s="6"/>
       <c r="F128" s="6"/>
       <c r="G128" s="6"/>
       <c r="H128" s="6">
-        <v>0.805555555555556</v>
+        <v>0.75</v>
       </c>
       <c r="I128" s="6"/>
-      <c r="J128" s="11"/>
+      <c r="J128" s="9"/>
     </row>
     <row r="129" ht="21" customHeight="1">
-      <c r="A129" t="s" s="19">
+      <c r="A129" t="s" s="5">
         <v>270</v>
       </c>
-      <c r="B129" t="s" s="19">
+      <c r="B129" t="s" s="5">
         <v>271</v>
       </c>
-      <c r="C129" t="s" s="18">
-        <v>21</v>
+      <c r="C129" t="s" s="5">
+        <v>18</v>
       </c>
       <c r="D129" s="6">
-        <v>0.80952380952381</v>
+        <v>0.738095238095238</v>
       </c>
       <c r="E129" s="6"/>
       <c r="F129" s="6"/>
       <c r="G129" s="6"/>
       <c r="H129" s="6">
-        <v>0.75</v>
+        <v>0.861111111111111</v>
       </c>
       <c r="I129" s="6"/>
-      <c r="J129" s="9"/>
+      <c r="J129" s="11"/>
     </row>
     <row r="130" ht="21" customHeight="1">
-      <c r="A130" t="s" s="5">
+      <c r="A130" t="s" s="4">
         <v>272</v>
       </c>
-      <c r="B130" t="s" s="5">
+      <c r="B130" t="s" s="4">
         <v>273</v>
       </c>
       <c r="C130" t="s" s="5">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D130" s="6">
         <v>0.738095238095238</v>
@@ -5810,54 +5833,56 @@
       <c r="F130" s="6"/>
       <c r="G130" s="6"/>
       <c r="H130" s="6">
-        <v>0.861111111111111</v>
+        <v>0.805555555555556</v>
       </c>
       <c r="I130" s="6"/>
-      <c r="J130" s="11"/>
+      <c r="J130" s="9"/>
     </row>
     <row r="131" ht="21" customHeight="1">
-      <c r="A131" t="s" s="4">
+      <c r="A131" t="s" s="8">
         <v>274</v>
       </c>
-      <c r="B131" t="s" s="4">
+      <c r="B131" t="s" s="8">
         <v>275</v>
       </c>
       <c r="C131" t="s" s="5">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D131" s="6">
-        <v>0.738095238095238</v>
-      </c>
-      <c r="E131" s="6"/>
+        <v>0.452380952380952</v>
+      </c>
+      <c r="E131" s="6">
+        <v>0.666666666666667</v>
+      </c>
       <c r="F131" s="6"/>
       <c r="G131" s="6"/>
       <c r="H131" s="6">
-        <v>0.805555555555556</v>
+        <v>0.361111111111111</v>
       </c>
       <c r="I131" s="6"/>
-      <c r="J131" s="9"/>
+      <c r="J131" s="11"/>
     </row>
     <row r="132" ht="21" customHeight="1">
-      <c r="A132" t="s" s="8">
+      <c r="A132" t="s" s="5">
         <v>276</v>
       </c>
-      <c r="B132" t="s" s="8">
+      <c r="B132" t="s" s="5">
         <v>277</v>
       </c>
       <c r="C132" t="s" s="5">
         <v>18</v>
       </c>
       <c r="D132" s="6">
-        <v>0.452380952380952</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="E132" s="6"/>
       <c r="F132" s="6"/>
       <c r="G132" s="6"/>
       <c r="H132" s="6">
-        <v>0.361111111111111</v>
+        <v>0.861111111111111</v>
       </c>
       <c r="I132" s="6"/>
-      <c r="J132" s="11"/>
+      <c r="J132" s="7"/>
     </row>
     <row r="133" ht="21" customHeight="1">
       <c r="A133" t="s" s="5">
@@ -5870,174 +5895,180 @@
         <v>18</v>
       </c>
       <c r="D133" s="6">
-        <v>0.857142857142857</v>
+        <v>0.80952380952381</v>
       </c>
       <c r="E133" s="6"/>
       <c r="F133" s="6"/>
       <c r="G133" s="6"/>
       <c r="H133" s="6">
-        <v>0.861111111111111</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I133" s="6"/>
       <c r="J133" s="7"/>
     </row>
     <row r="134" ht="21" customHeight="1">
-      <c r="A134" t="s" s="5">
+      <c r="A134" t="s" s="4">
         <v>280</v>
       </c>
-      <c r="B134" t="s" s="5">
+      <c r="B134" t="s" s="4">
         <v>281</v>
       </c>
       <c r="C134" t="s" s="5">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D134" s="6">
-        <v>0.80952380952381</v>
-      </c>
-      <c r="E134" s="6"/>
+        <v>0.428571428571429</v>
+      </c>
+      <c r="E134" s="6">
+        <v>0.3125</v>
+      </c>
       <c r="F134" s="6"/>
       <c r="G134" s="6"/>
       <c r="H134" s="6">
-        <v>0.777777777777778</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="I134" s="6"/>
       <c r="J134" s="7"/>
     </row>
     <row r="135" ht="21" customHeight="1">
-      <c r="A135" t="s" s="4">
+      <c r="A135" t="s" s="19">
         <v>282</v>
       </c>
-      <c r="B135" t="s" s="4">
+      <c r="B135" t="s" s="19">
         <v>283</v>
       </c>
-      <c r="C135" t="s" s="5">
-        <v>21</v>
+      <c r="C135" t="s" s="18">
+        <v>18</v>
       </c>
       <c r="D135" s="6">
-        <v>0.428571428571429</v>
+        <v>0.476190476190476</v>
       </c>
       <c r="E135" s="6"/>
       <c r="F135" s="6"/>
       <c r="G135" s="6"/>
       <c r="H135" s="6">
-        <v>0.722222222222222</v>
+        <v>0.75</v>
       </c>
       <c r="I135" s="6"/>
       <c r="J135" s="7"/>
     </row>
     <row r="136" ht="21" customHeight="1">
-      <c r="A136" t="s" s="19">
+      <c r="A136" t="s" s="5">
         <v>284</v>
       </c>
-      <c r="B136" t="s" s="19">
+      <c r="B136" t="s" s="5">
         <v>285</v>
       </c>
-      <c r="C136" t="s" s="18">
+      <c r="C136" t="s" s="5">
         <v>18</v>
       </c>
       <c r="D136" s="6">
-        <v>0.476190476190476</v>
-      </c>
-      <c r="E136" s="6"/>
+        <v>0.738095238095238</v>
+      </c>
+      <c r="E136" s="6">
+        <v>0.854166666666667</v>
+      </c>
       <c r="F136" s="6"/>
       <c r="G136" s="6"/>
       <c r="H136" s="6">
-        <v>0.75</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="I136" s="6"/>
       <c r="J136" s="7"/>
     </row>
     <row r="137" ht="21" customHeight="1">
-      <c r="A137" t="s" s="5">
+      <c r="A137" t="s" s="4">
         <v>286</v>
       </c>
-      <c r="B137" t="s" s="5">
+      <c r="B137" t="s" s="4">
         <v>287</v>
       </c>
       <c r="C137" t="s" s="5">
         <v>18</v>
       </c>
       <c r="D137" s="6">
-        <v>0.738095238095238</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="E137" s="6"/>
       <c r="F137" s="6"/>
       <c r="G137" s="6"/>
       <c r="H137" s="6">
-        <v>0.416666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="I137" s="6"/>
       <c r="J137" s="7"/>
     </row>
     <row r="138" ht="21" customHeight="1">
-      <c r="A138" t="s" s="4">
+      <c r="A138" t="s" s="19">
         <v>288</v>
       </c>
-      <c r="B138" t="s" s="4">
+      <c r="B138" t="s" s="19">
         <v>289</v>
       </c>
-      <c r="C138" t="s" s="5">
+      <c r="C138" t="s" s="18">
         <v>18</v>
       </c>
       <c r="D138" s="6">
-        <v>0.619047619047619</v>
+        <v>0.738095238095238</v>
       </c>
       <c r="E138" s="6"/>
       <c r="F138" s="6"/>
       <c r="G138" s="6"/>
       <c r="H138" s="6">
-        <v>0.75</v>
+        <v>0.805555555555556</v>
       </c>
       <c r="I138" s="6"/>
       <c r="J138" s="7"/>
     </row>
     <row r="139" ht="21" customHeight="1">
-      <c r="A139" t="s" s="19">
+      <c r="A139" t="s" s="5">
         <v>290</v>
       </c>
-      <c r="B139" t="s" s="19">
+      <c r="B139" t="s" s="5">
         <v>291</v>
       </c>
-      <c r="C139" t="s" s="18">
+      <c r="C139" t="s" s="5">
         <v>18</v>
       </c>
       <c r="D139" s="6">
         <v>0.738095238095238</v>
       </c>
-      <c r="E139" s="6"/>
+      <c r="E139" s="6">
+        <v>0.5</v>
+      </c>
       <c r="F139" s="6"/>
       <c r="G139" s="6"/>
       <c r="H139" s="6">
-        <v>0.805555555555556</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I139" s="6"/>
       <c r="J139" s="7"/>
     </row>
     <row r="140" ht="21" customHeight="1">
       <c r="A140" t="s" s="5">
+        <v>290</v>
+      </c>
+      <c r="B140" t="s" s="5">
         <v>292</v>
-      </c>
-      <c r="B140" t="s" s="5">
-        <v>293</v>
       </c>
       <c r="C140" t="s" s="5">
         <v>18</v>
       </c>
       <c r="D140" s="6">
-        <v>0.738095238095238</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E140" s="6"/>
       <c r="F140" s="6"/>
       <c r="G140" s="6"/>
       <c r="H140" s="6">
-        <v>0.777777777777778</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="I140" s="6"/>
-      <c r="J140" s="7"/>
-    </row>
-    <row r="141" ht="21" customHeight="1">
+      <c r="J140" s="9"/>
+    </row>
+    <row r="141" ht="20.7" customHeight="1">
       <c r="A141" t="s" s="5">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B141" t="s" s="5">
         <v>294</v>
@@ -6045,19 +6076,19 @@
       <c r="C141" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D141" s="6">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E141" s="6"/>
-      <c r="F141" s="6"/>
-      <c r="G141" s="6"/>
+      <c r="D141" s="12">
+        <v>0.476190476190476</v>
+      </c>
+      <c r="E141" s="13"/>
+      <c r="F141" s="13"/>
+      <c r="G141" s="13"/>
       <c r="H141" s="6">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="I141" s="6"/>
-      <c r="J141" s="9"/>
-    </row>
-    <row r="142" ht="20.7" customHeight="1">
+        <v>0.555555555555556</v>
+      </c>
+      <c r="I141" s="13"/>
+      <c r="J141" s="14"/>
+    </row>
+    <row r="142" ht="21" customHeight="1">
       <c r="A142" t="s" s="5">
         <v>295</v>
       </c>
@@ -6065,19 +6096,21 @@
         <v>296</v>
       </c>
       <c r="C142" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D142" s="12">
-        <v>0.476190476190476</v>
-      </c>
-      <c r="E142" s="13"/>
-      <c r="F142" s="13"/>
-      <c r="G142" s="13"/>
+        <v>67</v>
+      </c>
+      <c r="D142" s="6">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E142" s="6">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="F142" s="6"/>
+      <c r="G142" s="6"/>
       <c r="H142" s="6">
-        <v>0.555555555555556</v>
-      </c>
-      <c r="I142" s="13"/>
-      <c r="J142" s="14"/>
+        <v>0.39</v>
+      </c>
+      <c r="I142" s="6"/>
+      <c r="J142" s="11"/>
     </row>
     <row r="143" ht="21" customHeight="1">
       <c r="A143" t="s" s="5">
@@ -6087,19 +6120,19 @@
         <v>298</v>
       </c>
       <c r="C143" t="s" s="5">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="D143" s="6">
-        <v>0.833333333333333</v>
+        <v>0.785714285714286</v>
       </c>
       <c r="E143" s="6"/>
       <c r="F143" s="6"/>
       <c r="G143" s="6"/>
       <c r="H143" s="6">
-        <v>0.39</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="I143" s="6"/>
-      <c r="J143" s="11"/>
+      <c r="J143" s="7"/>
     </row>
     <row r="144" ht="21" customHeight="1">
       <c r="A144" t="s" s="5">
@@ -6112,13 +6145,13 @@
         <v>21</v>
       </c>
       <c r="D144" s="6">
-        <v>0.785714285714286</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="E144" s="6"/>
       <c r="F144" s="6"/>
       <c r="G144" s="6"/>
       <c r="H144" s="6">
-        <v>0.722222222222222</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I144" s="6"/>
       <c r="J144" s="7"/>
@@ -6131,10 +6164,10 @@
         <v>302</v>
       </c>
       <c r="C145" t="s" s="5">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D145" s="6">
-        <v>0.714285714285714</v>
+        <v>0.69047619047619</v>
       </c>
       <c r="E145" s="6"/>
       <c r="F145" s="6"/>
@@ -6156,13 +6189,13 @@
         <v>12</v>
       </c>
       <c r="D146" s="6">
-        <v>0.69047619047619</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E146" s="6"/>
       <c r="F146" s="6"/>
       <c r="G146" s="6"/>
       <c r="H146" s="6">
-        <v>0.777777777777778</v>
+        <v>0.805555555555556</v>
       </c>
       <c r="I146" s="6"/>
       <c r="J146" s="7"/>
@@ -6175,19 +6208,19 @@
         <v>306</v>
       </c>
       <c r="C147" t="s" s="5">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D147" s="6">
-        <v>0.833333333333333</v>
+        <v>0.785714285714286</v>
       </c>
       <c r="E147" s="6"/>
       <c r="F147" s="6"/>
       <c r="G147" s="6"/>
       <c r="H147" s="6">
-        <v>0.805555555555556</v>
+        <v>0.75</v>
       </c>
       <c r="I147" s="6"/>
-      <c r="J147" s="7"/>
+      <c r="J147" s="9"/>
     </row>
     <row r="148" ht="21" customHeight="1">
       <c r="A148" t="s" s="5">
@@ -6197,21 +6230,21 @@
         <v>308</v>
       </c>
       <c r="C148" t="s" s="5">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D148" s="6">
-        <v>0.785714285714286</v>
+        <v>0.880952380952381</v>
       </c>
       <c r="E148" s="6"/>
       <c r="F148" s="6"/>
       <c r="G148" s="6"/>
       <c r="H148" s="6">
-        <v>0.75</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I148" s="6"/>
-      <c r="J148" s="9"/>
-    </row>
-    <row r="149" ht="21" customHeight="1">
+      <c r="J148" s="10"/>
+    </row>
+    <row r="149" ht="20.7" customHeight="1">
       <c r="A149" t="s" s="5">
         <v>309</v>
       </c>
@@ -6219,54 +6252,54 @@
         <v>310</v>
       </c>
       <c r="C149" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="D149" s="6">
-        <v>0.880952380952381</v>
-      </c>
-      <c r="E149" s="6"/>
-      <c r="F149" s="6"/>
-      <c r="G149" s="6"/>
+        <v>67</v>
+      </c>
+      <c r="D149" s="15">
+        <v>0.619047619047619</v>
+      </c>
+      <c r="E149" s="13"/>
+      <c r="F149" s="13"/>
+      <c r="G149" s="13"/>
       <c r="H149" s="6">
-        <v>0.777777777777778</v>
-      </c>
-      <c r="I149" s="6"/>
-      <c r="J149" s="10"/>
-    </row>
-    <row r="150" ht="20.7" customHeight="1">
-      <c r="A150" t="s" s="5">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="I149" s="13"/>
+      <c r="J149" s="16"/>
+    </row>
+    <row r="150" ht="21" customHeight="1">
+      <c r="A150" t="s" s="4">
         <v>311</v>
       </c>
-      <c r="B150" t="s" s="5">
+      <c r="B150" t="s" s="4">
         <v>312</v>
       </c>
       <c r="C150" t="s" s="5">
-        <v>67</v>
-      </c>
-      <c r="D150" s="15">
-        <v>0.619047619047619</v>
-      </c>
-      <c r="E150" s="13"/>
-      <c r="F150" s="13"/>
-      <c r="G150" s="13"/>
+        <v>36</v>
+      </c>
+      <c r="D150" s="6">
+        <v>0.904761904761905</v>
+      </c>
+      <c r="E150" s="6"/>
+      <c r="F150" s="6"/>
+      <c r="G150" s="6"/>
       <c r="H150" s="6">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="I150" s="13"/>
-      <c r="J150" s="16"/>
+        <v>0.75</v>
+      </c>
+      <c r="I150" s="6"/>
+      <c r="J150" s="7"/>
     </row>
     <row r="151" ht="21" customHeight="1">
-      <c r="A151" t="s" s="4">
+      <c r="A151" t="s" s="8">
         <v>313</v>
       </c>
-      <c r="B151" t="s" s="4">
+      <c r="B151" t="s" s="8">
         <v>314</v>
       </c>
       <c r="C151" t="s" s="5">
         <v>36</v>
       </c>
       <c r="D151" s="6">
-        <v>0.904761904761905</v>
+        <v>0.738095238095238</v>
       </c>
       <c r="E151" s="6"/>
       <c r="F151" s="6"/>
@@ -6278,26 +6311,26 @@
       <c r="J151" s="7"/>
     </row>
     <row r="152" ht="21" customHeight="1">
-      <c r="A152" t="s" s="8">
+      <c r="A152" t="s" s="5">
         <v>315</v>
       </c>
-      <c r="B152" t="s" s="8">
+      <c r="B152" t="s" s="5">
         <v>316</v>
       </c>
       <c r="C152" t="s" s="5">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D152" s="6">
-        <v>0.738095238095238</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="E152" s="6"/>
       <c r="F152" s="6"/>
       <c r="G152" s="6"/>
       <c r="H152" s="6">
-        <v>0.75</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="I152" s="6"/>
-      <c r="J152" s="7"/>
+      <c r="J152" s="9"/>
     </row>
     <row r="153" ht="21" customHeight="1">
       <c r="A153" t="s" s="5">
@@ -6307,19 +6340,19 @@
         <v>318</v>
       </c>
       <c r="C153" t="s" s="5">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D153" s="6">
-        <v>0.714285714285714</v>
+        <v>0.785714285714286</v>
       </c>
       <c r="E153" s="6"/>
       <c r="F153" s="6"/>
       <c r="G153" s="6"/>
       <c r="H153" s="6">
-        <v>0.722222222222222</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I153" s="6"/>
-      <c r="J153" s="9"/>
+      <c r="J153" s="11"/>
     </row>
     <row r="154" ht="21" customHeight="1">
       <c r="A154" t="s" s="5">
@@ -6329,10 +6362,10 @@
         <v>320</v>
       </c>
       <c r="C154" t="s" s="5">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D154" s="6">
-        <v>0.785714285714286</v>
+        <v>0</v>
       </c>
       <c r="E154" s="6"/>
       <c r="F154" s="6"/>
@@ -6341,7 +6374,7 @@
         <v>0.777777777777778</v>
       </c>
       <c r="I154" s="6"/>
-      <c r="J154" s="11"/>
+      <c r="J154" s="7"/>
     </row>
     <row r="155" ht="21" customHeight="1">
       <c r="A155" t="s" s="5">
@@ -6351,10 +6384,10 @@
         <v>322</v>
       </c>
       <c r="C155" t="s" s="5">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D155" s="6">
-        <v>0</v>
+        <v>0.761904761904762</v>
       </c>
       <c r="E155" s="6"/>
       <c r="F155" s="6"/>
@@ -6373,16 +6406,16 @@
         <v>324</v>
       </c>
       <c r="C156" t="s" s="5">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="D156" s="6">
-        <v>0.761904761904762</v>
+        <v>0.80952380952381</v>
       </c>
       <c r="E156" s="6"/>
       <c r="F156" s="6"/>
       <c r="G156" s="6"/>
       <c r="H156" s="6">
-        <v>0.777777777777778</v>
+        <v>0.388888888888889</v>
       </c>
       <c r="I156" s="6"/>
       <c r="J156" s="7"/>
@@ -6398,18 +6431,18 @@
         <v>67</v>
       </c>
       <c r="D157" s="6">
-        <v>0.80952380952381</v>
+        <v>0.785714285714286</v>
       </c>
       <c r="E157" s="6"/>
       <c r="F157" s="6"/>
       <c r="G157" s="6"/>
       <c r="H157" s="6">
-        <v>0.388888888888889</v>
+        <v>0</v>
       </c>
       <c r="I157" s="6"/>
-      <c r="J157" s="7"/>
-    </row>
-    <row r="158" ht="21" customHeight="1">
+      <c r="J157" s="9"/>
+    </row>
+    <row r="158" ht="20.7" customHeight="1">
       <c r="A158" t="s" s="5">
         <v>327</v>
       </c>
@@ -6417,21 +6450,21 @@
         <v>328</v>
       </c>
       <c r="C158" t="s" s="5">
-        <v>67</v>
-      </c>
-      <c r="D158" s="6">
-        <v>0.785714285714286</v>
-      </c>
-      <c r="E158" s="6"/>
-      <c r="F158" s="6"/>
-      <c r="G158" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="D158" s="12">
+        <v>0.642857142857143</v>
+      </c>
+      <c r="E158" s="13"/>
+      <c r="F158" s="13"/>
+      <c r="G158" s="13"/>
       <c r="H158" s="6">
-        <v>0</v>
-      </c>
-      <c r="I158" s="6"/>
-      <c r="J158" s="9"/>
-    </row>
-    <row r="159" ht="20.7" customHeight="1">
+        <v>0.861111111111111</v>
+      </c>
+      <c r="I158" s="13"/>
+      <c r="J158" s="16"/>
+    </row>
+    <row r="159" ht="21" customHeight="1">
       <c r="A159" t="s" s="5">
         <v>329</v>
       </c>
@@ -6441,17 +6474,17 @@
       <c r="C159" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D159" s="12">
-        <v>0.642857142857143</v>
-      </c>
-      <c r="E159" s="13"/>
-      <c r="F159" s="13"/>
-      <c r="G159" s="13"/>
+      <c r="D159" s="6">
+        <v>0.619047619047619</v>
+      </c>
+      <c r="E159" s="6"/>
+      <c r="F159" s="6"/>
+      <c r="G159" s="6"/>
       <c r="H159" s="6">
-        <v>0.861111111111111</v>
-      </c>
-      <c r="I159" s="13"/>
-      <c r="J159" s="16"/>
+        <v>0.805555555555556</v>
+      </c>
+      <c r="I159" s="6"/>
+      <c r="J159" s="9"/>
     </row>
     <row r="160" ht="21" customHeight="1">
       <c r="A160" t="s" s="5">
@@ -6461,19 +6494,19 @@
         <v>332</v>
       </c>
       <c r="C160" t="s" s="5">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D160" s="6">
-        <v>0.619047619047619</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="E160" s="6"/>
       <c r="F160" s="6"/>
       <c r="G160" s="6"/>
       <c r="H160" s="6">
-        <v>0.805555555555556</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="I160" s="6"/>
-      <c r="J160" s="9"/>
+      <c r="J160" s="11"/>
     </row>
     <row r="161" ht="21" customHeight="1">
       <c r="A161" t="s" s="5">
@@ -6483,412 +6516,414 @@
         <v>334</v>
       </c>
       <c r="C161" t="s" s="5">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D161" s="6">
-        <v>0.666666666666667</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="E161" s="6"/>
       <c r="F161" s="6"/>
       <c r="G161" s="6"/>
       <c r="H161" s="6">
-        <v>0.888888888888889</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I161" s="6"/>
-      <c r="J161" s="11"/>
+      <c r="J161" s="7"/>
     </row>
     <row r="162" ht="21" customHeight="1">
-      <c r="A162" t="s" s="5">
+      <c r="A162" t="s" s="4">
         <v>335</v>
       </c>
-      <c r="B162" t="s" s="5">
+      <c r="B162" t="s" s="4">
         <v>336</v>
       </c>
       <c r="C162" t="s" s="5">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D162" s="6">
-        <v>0.714285714285714</v>
+        <v>0.738095238095238</v>
       </c>
       <c r="E162" s="6"/>
       <c r="F162" s="6"/>
       <c r="G162" s="6"/>
       <c r="H162" s="6">
-        <v>0.777777777777778</v>
+        <v>0.75</v>
       </c>
       <c r="I162" s="6"/>
-      <c r="J162" s="7"/>
+      <c r="J162" s="9"/>
     </row>
     <row r="163" ht="21" customHeight="1">
-      <c r="A163" t="s" s="4">
+      <c r="A163" t="s" s="24">
         <v>337</v>
       </c>
-      <c r="B163" t="s" s="4">
+      <c r="B163" t="s" s="24">
         <v>338</v>
       </c>
       <c r="C163" t="s" s="5">
         <v>12</v>
       </c>
       <c r="D163" s="6">
-        <v>0.738095238095238</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="E163" s="6"/>
       <c r="F163" s="6"/>
       <c r="G163" s="6"/>
       <c r="H163" s="6">
-        <v>0.75</v>
+        <v>0.861111111111111</v>
       </c>
       <c r="I163" s="6"/>
-      <c r="J163" s="9"/>
+      <c r="J163" s="10"/>
     </row>
     <row r="164" ht="21" customHeight="1">
-      <c r="A164" t="s" s="24">
+      <c r="A164" t="s" s="8">
         <v>339</v>
       </c>
-      <c r="B164" t="s" s="24">
+      <c r="B164" t="s" s="8">
         <v>340</v>
       </c>
       <c r="C164" t="s" s="5">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D164" s="6">
-        <v>0.714285714285714</v>
+        <v>0.80952380952381</v>
       </c>
       <c r="E164" s="6"/>
       <c r="F164" s="6"/>
       <c r="G164" s="6"/>
       <c r="H164" s="6">
-        <v>0.861111111111111</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I164" s="6"/>
-      <c r="J164" s="10"/>
+      <c r="J164" s="11"/>
     </row>
     <row r="165" ht="21" customHeight="1">
-      <c r="A165" t="s" s="8">
+      <c r="A165" t="s" s="5">
         <v>341</v>
       </c>
-      <c r="B165" t="s" s="8">
+      <c r="B165" t="s" s="5">
         <v>342</v>
       </c>
       <c r="C165" t="s" s="5">
         <v>21</v>
       </c>
       <c r="D165" s="6">
-        <v>0.80952380952381</v>
+        <v>0.69047619047619</v>
       </c>
       <c r="E165" s="6"/>
       <c r="F165" s="6"/>
       <c r="G165" s="6"/>
       <c r="H165" s="6">
+        <v>0.722222222222222</v>
+      </c>
+      <c r="I165" s="6"/>
+      <c r="J165" s="9"/>
+    </row>
+    <row r="166" ht="20.35" customHeight="1">
+      <c r="A166" t="s" s="4">
+        <v>343</v>
+      </c>
+      <c r="B166" t="s" s="4">
+        <v>344</v>
+      </c>
+      <c r="C166" t="s" s="5">
+        <v>18</v>
+      </c>
+      <c r="D166" s="15">
+        <v>0.80952380952381</v>
+      </c>
+      <c r="E166" s="13"/>
+      <c r="F166" s="13"/>
+      <c r="G166" s="13"/>
+      <c r="H166" s="6">
         <v>0.777777777777778</v>
       </c>
-      <c r="I165" s="6"/>
-      <c r="J165" s="11"/>
-    </row>
-    <row r="166" ht="21" customHeight="1">
-      <c r="A166" t="s" s="5">
-        <v>343</v>
-      </c>
-      <c r="B166" t="s" s="5">
-        <v>344</v>
-      </c>
-      <c r="C166" t="s" s="5">
+      <c r="I166" s="13"/>
+      <c r="J166" s="14"/>
+    </row>
+    <row r="167" ht="21" customHeight="1">
+      <c r="A167" t="s" s="8">
+        <v>345</v>
+      </c>
+      <c r="B167" t="s" s="8">
+        <v>346</v>
+      </c>
+      <c r="C167" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="D166" s="6">
+      <c r="D167" s="6">
+        <v>0.904761904761905</v>
+      </c>
+      <c r="E167" s="6"/>
+      <c r="F167" s="6"/>
+      <c r="G167" s="6"/>
+      <c r="H167" s="6">
+        <v>0</v>
+      </c>
+      <c r="I167" s="6"/>
+      <c r="J167" s="11"/>
+    </row>
+    <row r="168" ht="21" customHeight="1">
+      <c r="A168" t="s" s="4">
+        <v>347</v>
+      </c>
+      <c r="B168" t="s" s="4">
+        <v>348</v>
+      </c>
+      <c r="C168" t="s" s="5">
+        <v>18</v>
+      </c>
+      <c r="D168" s="6">
         <v>0.69047619047619</v>
-      </c>
-      <c r="E166" s="6"/>
-      <c r="F166" s="6"/>
-      <c r="G166" s="6"/>
-      <c r="H166" s="6">
-        <v>0.722222222222222</v>
-      </c>
-      <c r="I166" s="6"/>
-      <c r="J166" s="9"/>
-    </row>
-    <row r="167" ht="20.35" customHeight="1">
-      <c r="A167" t="s" s="4">
-        <v>345</v>
-      </c>
-      <c r="B167" t="s" s="4">
-        <v>346</v>
-      </c>
-      <c r="C167" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D167" s="15">
-        <v>0.80952380952381</v>
-      </c>
-      <c r="E167" s="13"/>
-      <c r="F167" s="13"/>
-      <c r="G167" s="13"/>
-      <c r="H167" s="6">
-        <v>0.777777777777778</v>
-      </c>
-      <c r="I167" s="13"/>
-      <c r="J167" s="14"/>
-    </row>
-    <row r="168" ht="21" customHeight="1">
-      <c r="A168" t="s" s="8">
-        <v>347</v>
-      </c>
-      <c r="B168" t="s" s="8">
-        <v>348</v>
-      </c>
-      <c r="C168" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="D168" s="6">
-        <v>0.904761904761905</v>
       </c>
       <c r="E168" s="6"/>
       <c r="F168" s="6"/>
       <c r="G168" s="6"/>
       <c r="H168" s="6">
-        <v>0</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I168" s="6"/>
-      <c r="J168" s="11"/>
+      <c r="J168" s="9"/>
     </row>
     <row r="169" ht="21" customHeight="1">
-      <c r="A169" t="s" s="4">
+      <c r="A169" t="s" s="24">
         <v>349</v>
       </c>
-      <c r="B169" t="s" s="4">
+      <c r="B169" t="s" s="24">
         <v>350</v>
       </c>
       <c r="C169" t="s" s="5">
         <v>18</v>
       </c>
       <c r="D169" s="6">
-        <v>0.69047619047619</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="E169" s="6"/>
       <c r="F169" s="6"/>
       <c r="G169" s="6"/>
       <c r="H169" s="6">
-        <v>0.777777777777778</v>
+        <v>0.805555555555556</v>
       </c>
       <c r="I169" s="6"/>
-      <c r="J169" s="9"/>
+      <c r="J169" s="11"/>
     </row>
     <row r="170" ht="21" customHeight="1">
-      <c r="A170" t="s" s="24">
+      <c r="A170" t="s" s="8">
         <v>351</v>
       </c>
-      <c r="B170" t="s" s="24">
+      <c r="B170" t="s" s="8">
         <v>352</v>
       </c>
       <c r="C170" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D170" s="6">
-        <v>0.857142857142857</v>
-      </c>
-      <c r="E170" s="6"/>
-      <c r="F170" s="6"/>
-      <c r="G170" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="D170" s="15">
+        <v>0.619047619047619</v>
+      </c>
+      <c r="E170" s="13"/>
+      <c r="F170" s="13"/>
+      <c r="G170" s="13"/>
       <c r="H170" s="6">
-        <v>0.805555555555556</v>
-      </c>
-      <c r="I170" s="6"/>
-      <c r="J170" s="11"/>
+        <v>0.638888888888889</v>
+      </c>
+      <c r="I170" s="13"/>
+      <c r="J170" s="7"/>
     </row>
     <row r="171" ht="21" customHeight="1">
-      <c r="A171" t="s" s="8">
+      <c r="A171" t="s" s="4">
         <v>353</v>
       </c>
-      <c r="B171" t="s" s="8">
+      <c r="B171" t="s" s="4">
         <v>354</v>
       </c>
       <c r="C171" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="D171" s="15">
-        <v>0.619047619047619</v>
-      </c>
-      <c r="E171" s="13"/>
-      <c r="F171" s="13"/>
-      <c r="G171" s="13"/>
+      <c r="D171" s="6">
+        <v>0.761904761904762</v>
+      </c>
+      <c r="E171" s="6"/>
+      <c r="F171" s="6"/>
+      <c r="G171" s="6"/>
       <c r="H171" s="6">
-        <v>0.638888888888889</v>
-      </c>
-      <c r="I171" s="13"/>
+        <v>0.75</v>
+      </c>
+      <c r="I171" s="6"/>
       <c r="J171" s="7"/>
     </row>
     <row r="172" ht="21" customHeight="1">
-      <c r="A172" t="s" s="4">
+      <c r="A172" t="s" s="19">
         <v>355</v>
       </c>
-      <c r="B172" t="s" s="4">
+      <c r="B172" t="s" s="19">
         <v>356</v>
       </c>
-      <c r="C172" t="s" s="5">
-        <v>12</v>
+      <c r="C172" t="s" s="18">
+        <v>21</v>
       </c>
       <c r="D172" s="6">
-        <v>0.761904761904762</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="E172" s="6"/>
       <c r="F172" s="6"/>
       <c r="G172" s="6"/>
       <c r="H172" s="6">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="I172" s="6"/>
       <c r="J172" s="7"/>
     </row>
     <row r="173" ht="21" customHeight="1">
-      <c r="A173" t="s" s="19">
+      <c r="A173" t="s" s="4">
         <v>357</v>
       </c>
-      <c r="B173" t="s" s="19">
+      <c r="B173" t="s" s="4">
         <v>358</v>
       </c>
-      <c r="C173" t="s" s="18">
+      <c r="C173" t="s" s="5">
         <v>21</v>
       </c>
       <c r="D173" s="6">
-        <v>0.714285714285714</v>
+        <v>0.761904761904762</v>
       </c>
       <c r="E173" s="6"/>
       <c r="F173" s="6"/>
       <c r="G173" s="6"/>
       <c r="H173" s="6">
-        <v>0</v>
+        <v>0.305555555555556</v>
       </c>
       <c r="I173" s="6"/>
-      <c r="J173" s="7"/>
+      <c r="J173" s="9"/>
     </row>
     <row r="174" ht="21" customHeight="1">
-      <c r="A174" t="s" s="4">
+      <c r="A174" t="s" s="17">
         <v>359</v>
       </c>
-      <c r="B174" t="s" s="4">
+      <c r="B174" t="s" s="17">
         <v>360</v>
       </c>
-      <c r="C174" t="s" s="5">
-        <v>21</v>
+      <c r="C174" t="s" s="18">
+        <v>36</v>
       </c>
       <c r="D174" s="6">
-        <v>0.761904761904762</v>
+        <v>0.785714285714286</v>
       </c>
       <c r="E174" s="6"/>
       <c r="F174" s="6"/>
       <c r="G174" s="6"/>
       <c r="H174" s="6">
-        <v>0.305555555555556</v>
+        <v>0.805555555555556</v>
       </c>
       <c r="I174" s="6"/>
-      <c r="J174" s="9"/>
+      <c r="J174" s="10"/>
     </row>
     <row r="175" ht="21" customHeight="1">
-      <c r="A175" t="s" s="17">
+      <c r="A175" t="s" s="8">
         <v>361</v>
       </c>
-      <c r="B175" t="s" s="17">
+      <c r="B175" t="s" s="8">
         <v>362</v>
       </c>
-      <c r="C175" t="s" s="18">
-        <v>36</v>
+      <c r="C175" t="s" s="5">
+        <v>67</v>
       </c>
       <c r="D175" s="6">
-        <v>0.785714285714286</v>
+        <v>0.694444444444444</v>
       </c>
       <c r="E175" s="6"/>
       <c r="F175" s="6"/>
       <c r="G175" s="6"/>
       <c r="H175" s="6">
-        <v>0.805555555555556</v>
+        <v>0</v>
       </c>
       <c r="I175" s="6"/>
-      <c r="J175" s="10"/>
+      <c r="J175" s="11"/>
     </row>
     <row r="176" ht="21" customHeight="1">
-      <c r="A176" t="s" s="8">
+      <c r="A176" t="s" s="5">
         <v>363</v>
       </c>
-      <c r="B176" t="s" s="8">
+      <c r="B176" t="s" s="5">
         <v>364</v>
       </c>
       <c r="C176" t="s" s="5">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="D176" s="6">
-        <v>0.694444444444444</v>
-      </c>
-      <c r="E176" s="6"/>
+        <v>0.714285714285714</v>
+      </c>
+      <c r="E176" s="6">
+        <v>0.645833333333333</v>
+      </c>
       <c r="F176" s="6"/>
       <c r="G176" s="6"/>
       <c r="H176" s="6">
-        <v>0</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I176" s="6"/>
-      <c r="J176" s="11"/>
-    </row>
-    <row r="177" ht="21" customHeight="1">
-      <c r="A177" t="s" s="5">
+      <c r="J176" s="9"/>
+    </row>
+    <row r="177" ht="20.7" customHeight="1">
+      <c r="A177" t="s" s="4">
         <v>365</v>
       </c>
-      <c r="B177" t="s" s="5">
+      <c r="B177" t="s" s="4">
         <v>366</v>
       </c>
       <c r="C177" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="D177" s="6">
-        <v>0.714285714285714</v>
-      </c>
-      <c r="E177" s="6"/>
-      <c r="F177" s="6"/>
-      <c r="G177" s="6"/>
+      <c r="D177" s="12">
+        <v>0.738095238095238</v>
+      </c>
+      <c r="E177" s="13"/>
+      <c r="F177" s="13"/>
+      <c r="G177" s="13"/>
       <c r="H177" s="6">
         <v>0.777777777777778</v>
       </c>
-      <c r="I177" s="6"/>
-      <c r="J177" s="9"/>
-    </row>
-    <row r="178" ht="20.7" customHeight="1">
-      <c r="A178" t="s" s="4">
+      <c r="I177" s="13"/>
+      <c r="J177" s="16"/>
+    </row>
+    <row r="178" ht="21" customHeight="1">
+      <c r="A178" t="s" s="19">
         <v>367</v>
       </c>
-      <c r="B178" t="s" s="4">
+      <c r="B178" t="s" s="19">
         <v>368</v>
       </c>
-      <c r="C178" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="D178" s="12">
-        <v>0.738095238095238</v>
-      </c>
-      <c r="E178" s="13"/>
-      <c r="F178" s="13"/>
-      <c r="G178" s="13"/>
+      <c r="C178" t="s" s="18">
+        <v>18</v>
+      </c>
+      <c r="D178" s="6">
+        <v>0.952380952380952</v>
+      </c>
+      <c r="E178" s="6"/>
+      <c r="F178" s="6"/>
+      <c r="G178" s="6"/>
       <c r="H178" s="6">
         <v>0.777777777777778</v>
       </c>
-      <c r="I178" s="13"/>
-      <c r="J178" s="16"/>
+      <c r="I178" s="6"/>
+      <c r="J178" s="7"/>
     </row>
     <row r="179" ht="21" customHeight="1">
-      <c r="A179" t="s" s="19">
+      <c r="A179" t="s" s="5">
         <v>369</v>
       </c>
-      <c r="B179" t="s" s="19">
+      <c r="B179" t="s" s="5">
         <v>370</v>
       </c>
-      <c r="C179" t="s" s="18">
-        <v>18</v>
+      <c r="C179" t="s" s="5">
+        <v>12</v>
       </c>
       <c r="D179" s="6">
-        <v>0.952380952380952</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="E179" s="6"/>
       <c r="F179" s="6"/>
       <c r="G179" s="6"/>
       <c r="H179" s="6">
-        <v>0.777777777777778</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="I179" s="6"/>
       <c r="J179" s="7"/>
@@ -6901,393 +6936,393 @@
         <v>372</v>
       </c>
       <c r="C180" t="s" s="5">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D180" s="6">
-        <v>0.571428571428571</v>
+        <v>0.357142857142857</v>
       </c>
       <c r="E180" s="6"/>
       <c r="F180" s="6"/>
       <c r="G180" s="6"/>
       <c r="H180" s="6">
-        <v>0.722222222222222</v>
+        <v>0</v>
       </c>
       <c r="I180" s="6"/>
       <c r="J180" s="7"/>
     </row>
     <row r="181" ht="21" customHeight="1">
-      <c r="A181" t="s" s="5">
+      <c r="A181" t="s" s="4">
+        <v>371</v>
+      </c>
+      <c r="B181" t="s" s="4">
         <v>373</v>
       </c>
-      <c r="B181" t="s" s="5">
-        <v>374</v>
-      </c>
       <c r="C181" t="s" s="5">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D181" s="6">
-        <v>0.357142857142857</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="E181" s="6"/>
       <c r="F181" s="6"/>
       <c r="G181" s="6"/>
       <c r="H181" s="6">
-        <v>0</v>
+        <v>0.638888888888889</v>
       </c>
       <c r="I181" s="6"/>
-      <c r="J181" s="7"/>
+      <c r="J181" s="9"/>
     </row>
     <row r="182" ht="21" customHeight="1">
-      <c r="A182" t="s" s="4">
-        <v>373</v>
-      </c>
-      <c r="B182" t="s" s="4">
+      <c r="A182" t="s" s="24">
+        <v>374</v>
+      </c>
+      <c r="B182" t="s" s="24">
         <v>375</v>
       </c>
       <c r="C182" t="s" s="5">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D182" s="6">
-        <v>0.666666666666667</v>
+        <v>0.761904761904762</v>
       </c>
       <c r="E182" s="6"/>
       <c r="F182" s="6"/>
       <c r="G182" s="6"/>
       <c r="H182" s="6">
-        <v>0.638888888888889</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="I182" s="6"/>
-      <c r="J182" s="9"/>
+      <c r="J182" s="10"/>
     </row>
     <row r="183" ht="21" customHeight="1">
-      <c r="A183" t="s" s="24">
+      <c r="A183" t="s" s="8">
         <v>376</v>
       </c>
-      <c r="B183" t="s" s="24">
+      <c r="B183" t="s" s="8">
         <v>377</v>
       </c>
       <c r="C183" t="s" s="5">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D183" s="6">
-        <v>0.761904761904762</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="E183" s="6"/>
       <c r="F183" s="6"/>
       <c r="G183" s="6"/>
       <c r="H183" s="6">
-        <v>0.888888888888889</v>
+        <v>0.75</v>
       </c>
       <c r="I183" s="6"/>
       <c r="J183" s="10"/>
     </row>
-    <row r="184" ht="21" customHeight="1">
-      <c r="A184" t="s" s="8">
+    <row r="184" ht="20.7" customHeight="1">
+      <c r="A184" t="s" s="5">
         <v>378</v>
       </c>
-      <c r="B184" t="s" s="8">
+      <c r="B184" t="s" s="5">
         <v>379</v>
       </c>
       <c r="C184" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="D184" s="6">
-        <v>0.619047619047619</v>
-      </c>
-      <c r="E184" s="6"/>
-      <c r="F184" s="6"/>
-      <c r="G184" s="6"/>
+      <c r="D184" s="15">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E184" s="13"/>
+      <c r="F184" s="13"/>
+      <c r="G184" s="13"/>
       <c r="H184" s="6">
         <v>0.75</v>
       </c>
-      <c r="I184" s="6"/>
-      <c r="J184" s="10"/>
-    </row>
-    <row r="185" ht="20.7" customHeight="1">
-      <c r="A185" t="s" s="5">
+      <c r="I184" s="13"/>
+      <c r="J184" s="16"/>
+    </row>
+    <row r="185" ht="21" customHeight="1">
+      <c r="A185" t="s" s="4">
         <v>380</v>
       </c>
-      <c r="B185" t="s" s="5">
+      <c r="B185" t="s" s="4">
         <v>381</v>
       </c>
       <c r="C185" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="D185" s="15">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E185" s="13"/>
-      <c r="F185" s="13"/>
-      <c r="G185" s="13"/>
+        <v>12</v>
+      </c>
+      <c r="D185" s="6">
+        <v>0.80952380952381</v>
+      </c>
+      <c r="E185" s="6"/>
+      <c r="F185" s="6"/>
+      <c r="G185" s="6"/>
       <c r="H185" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="I185" s="13"/>
-      <c r="J185" s="16"/>
+        <v>0.861111111111111</v>
+      </c>
+      <c r="I185" s="6"/>
+      <c r="J185" s="7"/>
     </row>
     <row r="186" ht="21" customHeight="1">
-      <c r="A186" t="s" s="4">
+      <c r="A186" t="s" s="19">
         <v>382</v>
       </c>
-      <c r="B186" t="s" s="4">
+      <c r="B186" t="s" s="19">
         <v>383</v>
       </c>
-      <c r="C186" t="s" s="5">
-        <v>12</v>
+      <c r="C186" t="s" s="18">
+        <v>18</v>
       </c>
       <c r="D186" s="6">
-        <v>0.80952380952381</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="E186" s="6"/>
       <c r="F186" s="6"/>
       <c r="G186" s="6"/>
       <c r="H186" s="6">
-        <v>0.861111111111111</v>
+        <v>0.805555555555556</v>
       </c>
       <c r="I186" s="6"/>
       <c r="J186" s="7"/>
     </row>
     <row r="187" ht="21" customHeight="1">
-      <c r="A187" t="s" s="19">
+      <c r="A187" t="s" s="4">
         <v>384</v>
       </c>
-      <c r="B187" t="s" s="19">
+      <c r="B187" t="s" s="4">
         <v>385</v>
       </c>
-      <c r="C187" t="s" s="18">
-        <v>18</v>
+      <c r="C187" t="s" s="5">
+        <v>21</v>
       </c>
       <c r="D187" s="6">
-        <v>0.666666666666667</v>
+        <v>0.904761904761905</v>
       </c>
       <c r="E187" s="6"/>
       <c r="F187" s="6"/>
       <c r="G187" s="6"/>
       <c r="H187" s="6">
-        <v>0.805555555555556</v>
+        <v>0.75</v>
       </c>
       <c r="I187" s="6"/>
       <c r="J187" s="7"/>
     </row>
     <row r="188" ht="21" customHeight="1">
-      <c r="A188" t="s" s="4">
+      <c r="A188" t="s" s="19">
         <v>386</v>
       </c>
-      <c r="B188" t="s" s="4">
+      <c r="B188" t="s" s="19">
         <v>387</v>
       </c>
-      <c r="C188" t="s" s="5">
+      <c r="C188" t="s" s="18">
         <v>21</v>
       </c>
       <c r="D188" s="6">
-        <v>0.904761904761905</v>
+        <v>0.861111111111111</v>
       </c>
       <c r="E188" s="6"/>
       <c r="F188" s="6"/>
       <c r="G188" s="6"/>
       <c r="H188" s="6">
-        <v>0.75</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="I188" s="6"/>
-      <c r="J188" s="7"/>
-    </row>
-    <row r="189" ht="21" customHeight="1">
-      <c r="A189" t="s" s="19">
+      <c r="J188" s="9"/>
+    </row>
+    <row r="189" ht="20.7" customHeight="1">
+      <c r="A189" t="s" s="5">
         <v>388</v>
       </c>
-      <c r="B189" t="s" s="19">
+      <c r="B189" t="s" s="5">
         <v>389</v>
       </c>
-      <c r="C189" t="s" s="18">
-        <v>21</v>
-      </c>
-      <c r="D189" s="6">
-        <v>0.861111111111111</v>
-      </c>
-      <c r="E189" s="6"/>
-      <c r="F189" s="6"/>
-      <c r="G189" s="6"/>
+      <c r="C189" t="s" s="5">
+        <v>67</v>
+      </c>
+      <c r="D189" s="12">
+        <v>0.69047619047619</v>
+      </c>
+      <c r="E189" s="13"/>
+      <c r="F189" s="13"/>
+      <c r="G189" s="13"/>
       <c r="H189" s="6">
         <v>0.722222222222222</v>
       </c>
-      <c r="I189" s="6"/>
-      <c r="J189" s="9"/>
-    </row>
-    <row r="190" ht="20.7" customHeight="1">
-      <c r="A190" t="s" s="5">
+      <c r="I189" s="13"/>
+      <c r="J189" s="16"/>
+    </row>
+    <row r="190" ht="21" customHeight="1">
+      <c r="A190" t="s" s="4">
         <v>390</v>
       </c>
-      <c r="B190" t="s" s="5">
+      <c r="B190" t="s" s="4">
         <v>391</v>
       </c>
       <c r="C190" t="s" s="5">
         <v>67</v>
       </c>
-      <c r="D190" s="12">
-        <v>0.69047619047619</v>
-      </c>
-      <c r="E190" s="13"/>
-      <c r="F190" s="13"/>
-      <c r="G190" s="13"/>
+      <c r="D190" s="6">
+        <v>0.619047619047619</v>
+      </c>
+      <c r="E190" s="6"/>
+      <c r="F190" s="6"/>
+      <c r="G190" s="6"/>
       <c r="H190" s="6">
         <v>0.722222222222222</v>
       </c>
-      <c r="I190" s="13"/>
-      <c r="J190" s="16"/>
+      <c r="I190" s="6"/>
+      <c r="J190" s="7"/>
     </row>
     <row r="191" ht="21" customHeight="1">
-      <c r="A191" t="s" s="4">
+      <c r="A191" t="s" s="17">
         <v>392</v>
       </c>
-      <c r="B191" t="s" s="4">
+      <c r="B191" t="s" s="17">
         <v>393</v>
       </c>
-      <c r="C191" t="s" s="5">
-        <v>67</v>
+      <c r="C191" t="s" s="18">
+        <v>36</v>
       </c>
       <c r="D191" s="6">
-        <v>0.619047619047619</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="E191" s="6"/>
       <c r="F191" s="6"/>
       <c r="G191" s="6"/>
       <c r="H191" s="6">
-        <v>0.722222222222222</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="I191" s="6"/>
-      <c r="J191" s="7"/>
+      <c r="J191" s="9"/>
     </row>
     <row r="192" ht="21" customHeight="1">
-      <c r="A192" t="s" s="17">
+      <c r="A192" t="s" s="8">
+        <v>392</v>
+      </c>
+      <c r="B192" t="s" s="8">
         <v>394</v>
       </c>
-      <c r="B192" t="s" s="17">
-        <v>395</v>
-      </c>
-      <c r="C192" t="s" s="18">
-        <v>36</v>
+      <c r="C192" t="s" s="5">
+        <v>67</v>
       </c>
       <c r="D192" s="6">
-        <v>0.571428571428571</v>
+        <v>0.69047619047619</v>
       </c>
       <c r="E192" s="6"/>
       <c r="F192" s="6"/>
       <c r="G192" s="6"/>
       <c r="H192" s="6">
-        <v>0.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="I192" s="6"/>
-      <c r="J192" s="9"/>
+      <c r="J192" s="11"/>
     </row>
     <row r="193" ht="21" customHeight="1">
-      <c r="A193" t="s" s="8">
-        <v>394</v>
-      </c>
-      <c r="B193" t="s" s="8">
+      <c r="A193" t="s" s="5">
+        <v>395</v>
+      </c>
+      <c r="B193" t="s" s="5">
         <v>396</v>
       </c>
       <c r="C193" t="s" s="5">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="D193" s="6">
-        <v>0.69047619047619</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="E193" s="6"/>
       <c r="F193" s="6"/>
       <c r="G193" s="6"/>
       <c r="H193" s="6">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="I193" s="6"/>
-      <c r="J193" s="11"/>
+      <c r="J193" s="7"/>
     </row>
     <row r="194" ht="21" customHeight="1">
-      <c r="A194" t="s" s="5">
+      <c r="A194" t="s" s="4">
         <v>397</v>
       </c>
-      <c r="B194" t="s" s="5">
+      <c r="B194" t="s" s="4">
         <v>398</v>
       </c>
       <c r="C194" t="s" s="5">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D194" s="6">
-        <v>0.571428571428571</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="E194" s="6"/>
       <c r="F194" s="6"/>
       <c r="G194" s="6"/>
       <c r="H194" s="6">
-        <v>0.75</v>
+        <v>0.805555555555556</v>
       </c>
       <c r="I194" s="6"/>
       <c r="J194" s="7"/>
     </row>
     <row r="195" ht="21" customHeight="1">
-      <c r="A195" t="s" s="4">
+      <c r="A195" t="s" s="17">
         <v>399</v>
       </c>
-      <c r="B195" t="s" s="4">
+      <c r="B195" t="s" s="17">
         <v>400</v>
       </c>
-      <c r="C195" t="s" s="5">
+      <c r="C195" t="s" s="18">
         <v>12</v>
       </c>
       <c r="D195" s="6">
-        <v>0.857142857142857</v>
+        <v>0.80952380952381</v>
       </c>
       <c r="E195" s="6"/>
       <c r="F195" s="6"/>
       <c r="G195" s="6"/>
       <c r="H195" s="6">
-        <v>0.805555555555556</v>
+        <v>0.861111111111111</v>
       </c>
       <c r="I195" s="6"/>
-      <c r="J195" s="7"/>
+      <c r="J195" s="9"/>
     </row>
     <row r="196" ht="21" customHeight="1">
-      <c r="A196" t="s" s="17">
+      <c r="A196" t="s" s="19">
         <v>401</v>
       </c>
-      <c r="B196" t="s" s="17">
+      <c r="B196" t="s" s="19">
         <v>402</v>
       </c>
       <c r="C196" t="s" s="18">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D196" s="6">
-        <v>0.80952380952381</v>
+        <v>0.261904761904762</v>
       </c>
       <c r="E196" s="6"/>
       <c r="F196" s="6"/>
       <c r="G196" s="6"/>
       <c r="H196" s="6">
-        <v>0.861111111111111</v>
+        <v>0.75</v>
       </c>
       <c r="I196" s="6"/>
-      <c r="J196" s="9"/>
+      <c r="J196" s="11"/>
     </row>
     <row r="197" ht="21" customHeight="1">
-      <c r="A197" t="s" s="19">
+      <c r="A197" t="s" s="5">
         <v>403</v>
       </c>
-      <c r="B197" t="s" s="19">
+      <c r="B197" t="s" s="5">
         <v>404</v>
       </c>
-      <c r="C197" t="s" s="18">
+      <c r="C197" t="s" s="5">
         <v>21</v>
       </c>
       <c r="D197" s="6">
-        <v>0.261904761904762</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="E197" s="6"/>
       <c r="F197" s="6"/>
       <c r="G197" s="6"/>
       <c r="H197" s="6">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="I197" s="6"/>
-      <c r="J197" s="11"/>
+      <c r="J197" s="7"/>
     </row>
     <row r="198" ht="21" customHeight="1">
       <c r="A198" t="s" s="5">
@@ -7297,16 +7332,16 @@
         <v>406</v>
       </c>
       <c r="C198" t="s" s="5">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D198" s="6">
-        <v>0.619047619047619</v>
+        <v>0.785714285714286</v>
       </c>
       <c r="E198" s="6"/>
       <c r="F198" s="6"/>
       <c r="G198" s="6"/>
       <c r="H198" s="6">
-        <v>0</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I198" s="6"/>
       <c r="J198" s="7"/>
@@ -7322,7 +7357,7 @@
         <v>36</v>
       </c>
       <c r="D199" s="6">
-        <v>0.785714285714286</v>
+        <v>1</v>
       </c>
       <c r="E199" s="6"/>
       <c r="F199" s="6"/>
@@ -7334,17 +7369,17 @@
       <c r="J199" s="7"/>
     </row>
     <row r="200" ht="21" customHeight="1">
-      <c r="A200" t="s" s="5">
+      <c r="A200" t="s" s="4">
         <v>409</v>
       </c>
-      <c r="B200" t="s" s="5">
+      <c r="B200" t="s" s="4">
         <v>410</v>
       </c>
       <c r="C200" t="s" s="5">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D200" s="6">
-        <v>1</v>
+        <v>0.785714285714286</v>
       </c>
       <c r="E200" s="6"/>
       <c r="F200" s="6"/>
@@ -7356,149 +7391,153 @@
       <c r="J200" s="7"/>
     </row>
     <row r="201" ht="21" customHeight="1">
-      <c r="A201" t="s" s="4">
+      <c r="A201" t="s" s="19">
         <v>411</v>
       </c>
-      <c r="B201" t="s" s="4">
-        <v>121</v>
-      </c>
-      <c r="C201" t="s" s="5">
-        <v>12</v>
+      <c r="B201" t="s" s="19">
+        <v>412</v>
+      </c>
+      <c r="C201" t="s" s="18">
+        <v>67</v>
       </c>
       <c r="D201" s="6">
-        <v>0.785714285714286</v>
+        <v>0.738095238095238</v>
       </c>
       <c r="E201" s="6"/>
       <c r="F201" s="6"/>
       <c r="G201" s="6"/>
       <c r="H201" s="6">
-        <v>0</v>
+        <v>0.388888888888889</v>
       </c>
       <c r="I201" s="6"/>
       <c r="J201" s="7"/>
     </row>
     <row r="202" ht="21" customHeight="1">
-      <c r="A202" t="s" s="19">
-        <v>412</v>
-      </c>
-      <c r="B202" t="s" s="19">
+      <c r="A202" t="s" s="5">
         <v>413</v>
       </c>
-      <c r="C202" t="s" s="18">
-        <v>67</v>
+      <c r="B202" t="s" s="5">
+        <v>414</v>
+      </c>
+      <c r="C202" t="s" s="5">
+        <v>36</v>
       </c>
       <c r="D202" s="6">
-        <v>0.738095238095238</v>
-      </c>
-      <c r="E202" s="6"/>
+        <v>0.785714285714286</v>
+      </c>
+      <c r="E202" s="6">
+        <v>0.604166666666667</v>
+      </c>
       <c r="F202" s="6"/>
       <c r="G202" s="6"/>
       <c r="H202" s="6">
-        <v>0.388888888888889</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I202" s="6"/>
-      <c r="J202" s="7"/>
-    </row>
-    <row r="203" ht="21" customHeight="1">
+      <c r="J202" s="9"/>
+    </row>
+    <row r="203" ht="20.7" customHeight="1">
       <c r="A203" t="s" s="5">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B203" t="s" s="5">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C203" t="s" s="5">
         <v>36</v>
       </c>
-      <c r="D203" s="6">
-        <v>0.785714285714286</v>
-      </c>
-      <c r="E203" s="6"/>
-      <c r="F203" s="6"/>
-      <c r="G203" s="6"/>
+      <c r="D203" s="15">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E203" s="15">
+        <v>0.375</v>
+      </c>
+      <c r="F203" s="13"/>
+      <c r="G203" s="13"/>
       <c r="H203" s="6">
-        <v>0.777777777777778</v>
-      </c>
-      <c r="I203" s="6"/>
-      <c r="J203" s="9"/>
-    </row>
-    <row r="204" ht="20.7" customHeight="1">
-      <c r="A204" t="s" s="5">
-        <v>416</v>
-      </c>
-      <c r="B204" t="s" s="5">
+        <v>0.888888888888889</v>
+      </c>
+      <c r="I203" s="13"/>
+      <c r="J203" s="16"/>
+    </row>
+    <row r="204" ht="21" customHeight="1">
+      <c r="A204" t="s" s="4">
         <v>417</v>
       </c>
+      <c r="B204" t="s" s="4">
+        <v>418</v>
+      </c>
       <c r="C204" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="D204" s="6">
+        <v>0.761904761904762</v>
+      </c>
+      <c r="E204" s="6"/>
+      <c r="F204" s="6"/>
+      <c r="G204" s="6"/>
+      <c r="H204" s="6">
+        <v>0</v>
+      </c>
+      <c r="I204" s="6"/>
+      <c r="J204" s="9"/>
+    </row>
+    <row r="205" ht="21" customHeight="1">
+      <c r="A205" t="s" s="24">
+        <v>419</v>
+      </c>
+      <c r="B205" t="s" s="24">
+        <v>420</v>
+      </c>
+      <c r="C205" t="s" s="5">
         <v>36</v>
       </c>
-      <c r="D204" s="15">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E204" s="13"/>
-      <c r="F204" s="13"/>
-      <c r="G204" s="13"/>
-      <c r="H204" s="6">
-        <v>0.888888888888889</v>
-      </c>
-      <c r="I204" s="13"/>
-      <c r="J204" s="16"/>
-    </row>
-    <row r="205" ht="21" customHeight="1">
-      <c r="A205" t="s" s="4">
-        <v>418</v>
-      </c>
-      <c r="B205" t="s" s="4">
-        <v>419</v>
-      </c>
-      <c r="C205" t="s" s="5">
-        <v>21</v>
-      </c>
       <c r="D205" s="6">
-        <v>0.761904761904762</v>
+        <v>0.69047619047619</v>
       </c>
       <c r="E205" s="6"/>
       <c r="F205" s="6"/>
       <c r="G205" s="6"/>
       <c r="H205" s="6">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="I205" s="6"/>
-      <c r="J205" s="9"/>
+      <c r="J205" s="10"/>
     </row>
     <row r="206" ht="21" customHeight="1">
-      <c r="A206" t="s" s="24">
-        <v>420</v>
-      </c>
-      <c r="B206" t="s" s="24">
+      <c r="A206" t="s" s="8">
         <v>421</v>
       </c>
+      <c r="B206" t="s" s="8">
+        <v>422</v>
+      </c>
       <c r="C206" t="s" s="5">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D206" s="6">
-        <v>0.69047619047619</v>
+        <v>0.547619047619048</v>
       </c>
       <c r="E206" s="6"/>
       <c r="F206" s="6"/>
       <c r="G206" s="6"/>
       <c r="H206" s="6">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="I206" s="6"/>
-      <c r="J206" s="10"/>
+      <c r="J206" s="11"/>
     </row>
     <row r="207" ht="21" customHeight="1">
-      <c r="A207" t="s" s="8">
-        <v>422</v>
-      </c>
-      <c r="B207" t="s" s="8">
+      <c r="A207" t="s" s="5">
         <v>423</v>
       </c>
+      <c r="B207" t="s" s="5">
+        <v>424</v>
+      </c>
       <c r="C207" t="s" s="5">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D207" s="6">
-        <v>0.547619047619048</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="E207" s="6"/>
       <c r="F207" s="6"/>
@@ -7507,262 +7546,264 @@
         <v>0</v>
       </c>
       <c r="I207" s="6"/>
-      <c r="J207" s="11"/>
+      <c r="J207" s="7"/>
     </row>
     <row r="208" ht="21" customHeight="1">
       <c r="A208" t="s" s="5">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B208" t="s" s="5">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C208" t="s" s="5">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D208" s="6">
-        <v>0.571428571428571</v>
+        <v>0.880952380952381</v>
       </c>
       <c r="E208" s="6"/>
       <c r="F208" s="6"/>
       <c r="G208" s="6"/>
       <c r="H208" s="6">
-        <v>0</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="I208" s="6"/>
       <c r="J208" s="7"/>
     </row>
     <row r="209" ht="21" customHeight="1">
       <c r="A209" t="s" s="5">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B209" t="s" s="5">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C209" t="s" s="5">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="D209" s="6">
-        <v>0.880952380952381</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="E209" s="6"/>
       <c r="F209" s="6"/>
       <c r="G209" s="6"/>
       <c r="H209" s="6">
-        <v>0.722222222222222</v>
+        <v>0</v>
       </c>
       <c r="I209" s="6"/>
       <c r="J209" s="7"/>
     </row>
     <row r="210" ht="21" customHeight="1">
       <c r="A210" t="s" s="5">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B210" t="s" s="5">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C210" t="s" s="5">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="D210" s="6">
-        <v>0.714285714285714</v>
+        <v>0.80952380952381</v>
       </c>
       <c r="E210" s="6"/>
       <c r="F210" s="6"/>
       <c r="G210" s="6"/>
       <c r="H210" s="6">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="I210" s="6"/>
       <c r="J210" s="7"/>
     </row>
     <row r="211" ht="21" customHeight="1">
       <c r="A211" t="s" s="5">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B211" t="s" s="5">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C211" t="s" s="5">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D211" s="6">
-        <v>0.80952380952381</v>
+        <v>0.761904761904762</v>
       </c>
       <c r="E211" s="6"/>
       <c r="F211" s="6"/>
       <c r="G211" s="6"/>
       <c r="H211" s="6">
-        <v>0.75</v>
+        <v>0.805555555555556</v>
       </c>
       <c r="I211" s="6"/>
-      <c r="J211" s="7"/>
+      <c r="J211" s="9"/>
     </row>
     <row r="212" ht="21" customHeight="1">
       <c r="A212" t="s" s="5">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B212" t="s" s="5">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C212" t="s" s="5">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D212" s="6">
-        <v>0.761904761904762</v>
+        <v>0.19047619047619</v>
       </c>
       <c r="E212" s="6"/>
       <c r="F212" s="6"/>
       <c r="G212" s="6"/>
       <c r="H212" s="6">
-        <v>0.805555555555556</v>
+        <v>0.694444444444444</v>
       </c>
       <c r="I212" s="6"/>
-      <c r="J212" s="9"/>
+      <c r="J212" s="11"/>
     </row>
     <row r="213" ht="21" customHeight="1">
-      <c r="A213" t="s" s="5">
-        <v>434</v>
-      </c>
-      <c r="B213" t="s" s="5">
+      <c r="A213" t="s" s="4">
         <v>435</v>
       </c>
+      <c r="B213" t="s" s="4">
+        <v>436</v>
+      </c>
       <c r="C213" t="s" s="5">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D213" s="6">
-        <v>0.19047619047619</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E213" s="6"/>
       <c r="F213" s="6"/>
       <c r="G213" s="6"/>
       <c r="H213" s="6">
-        <v>0.694444444444444</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I213" s="6"/>
-      <c r="J213" s="11"/>
+      <c r="J213" s="7"/>
     </row>
     <row r="214" ht="21" customHeight="1">
-      <c r="A214" t="s" s="4">
-        <v>436</v>
-      </c>
-      <c r="B214" t="s" s="4">
+      <c r="A214" t="s" s="19">
         <v>437</v>
       </c>
-      <c r="C214" t="s" s="5">
-        <v>18</v>
+      <c r="B214" t="s" s="19">
+        <v>438</v>
+      </c>
+      <c r="C214" t="s" s="18">
+        <v>15</v>
       </c>
       <c r="D214" s="6">
-        <v>0.833333333333333</v>
+        <v>0.642857142857143</v>
       </c>
       <c r="E214" s="6"/>
       <c r="F214" s="6"/>
       <c r="G214" s="6"/>
       <c r="H214" s="6">
-        <v>0.777777777777778</v>
+        <v>0</v>
       </c>
       <c r="I214" s="6"/>
       <c r="J214" s="7"/>
     </row>
     <row r="215" ht="21" customHeight="1">
-      <c r="A215" t="s" s="19">
-        <v>438</v>
-      </c>
-      <c r="B215" t="s" s="19">
+      <c r="A215" t="s" s="4">
         <v>439</v>
       </c>
-      <c r="C215" t="s" s="18">
-        <v>15</v>
+      <c r="B215" t="s" s="4">
+        <v>440</v>
+      </c>
+      <c r="C215" t="s" s="5">
+        <v>36</v>
       </c>
       <c r="D215" s="6">
-        <v>0.642857142857143</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="E215" s="6"/>
       <c r="F215" s="6"/>
       <c r="G215" s="6"/>
       <c r="H215" s="6">
-        <v>0</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I215" s="6"/>
       <c r="J215" s="7"/>
     </row>
     <row r="216" ht="21" customHeight="1">
-      <c r="A216" t="s" s="4">
-        <v>440</v>
-      </c>
-      <c r="B216" t="s" s="4">
+      <c r="A216" t="s" s="19">
         <v>441</v>
       </c>
-      <c r="C216" t="s" s="5">
-        <v>36</v>
+      <c r="B216" t="s" s="19">
+        <v>442</v>
+      </c>
+      <c r="C216" t="s" s="18">
+        <v>67</v>
       </c>
       <c r="D216" s="6">
         <v>0.666666666666667</v>
       </c>
-      <c r="E216" s="6"/>
+      <c r="E216" s="6">
+        <v>0.708333333333333</v>
+      </c>
       <c r="F216" s="6"/>
       <c r="G216" s="6"/>
       <c r="H216" s="6">
-        <v>0.777777777777778</v>
+        <v>0.694444444444444</v>
       </c>
       <c r="I216" s="6"/>
       <c r="J216" s="7"/>
     </row>
     <row r="217" ht="21" customHeight="1">
-      <c r="A217" t="s" s="19">
-        <v>442</v>
-      </c>
-      <c r="B217" t="s" s="19">
+      <c r="A217" t="s" s="4">
         <v>443</v>
       </c>
-      <c r="C217" t="s" s="18">
-        <v>67</v>
+      <c r="B217" t="s" s="4">
+        <v>444</v>
+      </c>
+      <c r="C217" t="s" s="5">
+        <v>18</v>
       </c>
       <c r="D217" s="6">
-        <v>0.666666666666667</v>
+        <v>0.785714285714286</v>
       </c>
       <c r="E217" s="6"/>
       <c r="F217" s="6"/>
       <c r="G217" s="6"/>
       <c r="H217" s="6">
-        <v>0.694444444444444</v>
+        <v>0.555555555555556</v>
       </c>
       <c r="I217" s="6"/>
       <c r="J217" s="7"/>
     </row>
     <row r="218" ht="21" customHeight="1">
-      <c r="A218" t="s" s="4">
-        <v>444</v>
-      </c>
-      <c r="B218" t="s" s="4">
+      <c r="A218" t="s" s="19">
         <v>445</v>
       </c>
-      <c r="C218" t="s" s="5">
-        <v>18</v>
+      <c r="B218" t="s" s="19">
+        <v>446</v>
+      </c>
+      <c r="C218" t="s" s="18">
+        <v>15</v>
       </c>
       <c r="D218" s="6">
-        <v>0.785714285714286</v>
+        <v>0.80952380952381</v>
       </c>
       <c r="E218" s="6"/>
       <c r="F218" s="6"/>
       <c r="G218" s="6"/>
       <c r="H218" s="6">
-        <v>0.555555555555556</v>
+        <v>0</v>
       </c>
       <c r="I218" s="6"/>
-      <c r="J218" s="7"/>
+      <c r="J218" s="9"/>
     </row>
     <row r="219" ht="21" customHeight="1">
-      <c r="A219" t="s" s="19">
-        <v>446</v>
-      </c>
-      <c r="B219" t="s" s="19">
+      <c r="A219" t="s" s="5">
         <v>447</v>
       </c>
-      <c r="C219" t="s" s="18">
-        <v>15</v>
+      <c r="B219" t="s" s="5">
+        <v>448</v>
+      </c>
+      <c r="C219" t="s" s="5">
+        <v>67</v>
       </c>
       <c r="D219" s="6">
-        <v>0.80952380952381</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="E219" s="6"/>
       <c r="F219" s="6"/>
@@ -7771,215 +7812,217 @@
         <v>0</v>
       </c>
       <c r="I219" s="6"/>
-      <c r="J219" s="9"/>
+      <c r="J219" s="11"/>
     </row>
     <row r="220" ht="21" customHeight="1">
-      <c r="A220" t="s" s="5">
-        <v>448</v>
-      </c>
-      <c r="B220" t="s" s="5">
+      <c r="A220" t="s" s="4">
         <v>449</v>
       </c>
+      <c r="B220" t="s" s="4">
+        <v>450</v>
+      </c>
       <c r="C220" t="s" s="5">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="D220" s="6">
-        <v>0.571428571428571</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E220" s="6"/>
       <c r="F220" s="6"/>
       <c r="G220" s="6"/>
       <c r="H220" s="6">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="I220" s="6"/>
-      <c r="J220" s="11"/>
+      <c r="J220" s="9"/>
     </row>
     <row r="221" ht="21" customHeight="1">
-      <c r="A221" t="s" s="4">
-        <v>450</v>
-      </c>
-      <c r="B221" t="s" s="4">
+      <c r="A221" t="s" s="8">
         <v>451</v>
       </c>
+      <c r="B221" t="s" s="8">
+        <v>452</v>
+      </c>
       <c r="C221" t="s" s="5">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D221" s="6">
-        <v>0.833333333333333</v>
+        <v>0.785714285714286</v>
       </c>
       <c r="E221" s="6"/>
       <c r="F221" s="6"/>
       <c r="G221" s="6"/>
       <c r="H221" s="6">
-        <v>0.75</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="I221" s="6"/>
-      <c r="J221" s="9"/>
+      <c r="J221" s="11"/>
     </row>
     <row r="222" ht="21" customHeight="1">
-      <c r="A222" t="s" s="8">
-        <v>452</v>
-      </c>
-      <c r="B222" t="s" s="8">
+      <c r="A222" t="s" s="5">
         <v>453</v>
       </c>
+      <c r="B222" t="s" s="5">
+        <v>454</v>
+      </c>
       <c r="C222" t="s" s="5">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D222" s="6">
-        <v>0.785714285714286</v>
+        <v>0.5</v>
       </c>
       <c r="E222" s="6"/>
       <c r="F222" s="6"/>
       <c r="G222" s="6"/>
       <c r="H222" s="6">
-        <v>0.722222222222222</v>
+        <v>0</v>
       </c>
       <c r="I222" s="6"/>
-      <c r="J222" s="11"/>
+      <c r="J222" s="7"/>
     </row>
     <row r="223" ht="21" customHeight="1">
       <c r="A223" t="s" s="5">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B223" t="s" s="5">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C223" t="s" s="5">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="D223" s="6">
-        <v>0.5</v>
+        <v>0.642857142857143</v>
       </c>
       <c r="E223" s="6"/>
       <c r="F223" s="6"/>
       <c r="G223" s="6"/>
       <c r="H223" s="6">
-        <v>0</v>
+        <v>0.388888888888889</v>
       </c>
       <c r="I223" s="6"/>
-      <c r="J223" s="7"/>
+      <c r="J223" s="9"/>
     </row>
     <row r="224" ht="21" customHeight="1">
       <c r="A224" t="s" s="5">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B224" t="s" s="5">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C224" t="s" s="5">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="D224" s="6">
-        <v>0.642857142857143</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="E224" s="6"/>
       <c r="F224" s="6"/>
       <c r="G224" s="6"/>
       <c r="H224" s="6">
-        <v>0.388888888888889</v>
+        <v>0.75</v>
       </c>
       <c r="I224" s="6"/>
-      <c r="J224" s="9"/>
-    </row>
-    <row r="225" ht="21" customHeight="1">
-      <c r="A225" t="s" s="5">
-        <v>458</v>
-      </c>
-      <c r="B225" t="s" s="5">
+      <c r="J224" s="10"/>
+    </row>
+    <row r="225" ht="20.7" customHeight="1">
+      <c r="A225" t="s" s="4">
         <v>459</v>
       </c>
+      <c r="B225" t="s" s="4">
+        <v>460</v>
+      </c>
       <c r="C225" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D225" s="6">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="E225" s="6"/>
-      <c r="F225" s="6"/>
-      <c r="G225" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="D225" s="12">
+        <v>0.9761904761904761</v>
+      </c>
+      <c r="E225" s="13"/>
+      <c r="F225" s="13"/>
+      <c r="G225" s="13"/>
       <c r="H225" s="6">
         <v>0.75</v>
       </c>
-      <c r="I225" s="6"/>
-      <c r="J225" s="10"/>
-    </row>
-    <row r="226" ht="20.7" customHeight="1">
-      <c r="A226" t="s" s="4">
-        <v>460</v>
-      </c>
-      <c r="B226" t="s" s="4">
+      <c r="I225" s="13"/>
+      <c r="J225" s="14"/>
+    </row>
+    <row r="226" ht="21" customHeight="1">
+      <c r="A226" t="s" s="8">
         <v>461</v>
       </c>
+      <c r="B226" t="s" s="8">
+        <v>462</v>
+      </c>
       <c r="C226" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="D226" s="12">
-        <v>0.9761904761904761</v>
-      </c>
-      <c r="E226" s="13"/>
-      <c r="F226" s="13"/>
-      <c r="G226" s="13"/>
+        <v>67</v>
+      </c>
+      <c r="D226" s="6">
+        <v>0.595238095238095</v>
+      </c>
+      <c r="E226" s="6"/>
+      <c r="F226" s="6"/>
+      <c r="G226" s="6"/>
       <c r="H226" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="I226" s="13"/>
-      <c r="J226" s="14"/>
+        <v>0.666666666666667</v>
+      </c>
+      <c r="I226" s="6"/>
+      <c r="J226" s="11"/>
     </row>
     <row r="227" ht="21" customHeight="1">
-      <c r="A227" t="s" s="8">
-        <v>462</v>
-      </c>
-      <c r="B227" t="s" s="8">
+      <c r="A227" t="s" s="5">
         <v>463</v>
       </c>
+      <c r="B227" t="s" s="5">
+        <v>464</v>
+      </c>
       <c r="C227" t="s" s="5">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="D227" s="6">
         <v>0.595238095238095</v>
       </c>
-      <c r="E227" s="6"/>
+      <c r="E227" s="6">
+        <v>0.75</v>
+      </c>
       <c r="F227" s="6"/>
       <c r="G227" s="6"/>
       <c r="H227" s="6">
-        <v>0.666666666666667</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="I227" s="6"/>
-      <c r="J227" s="11"/>
+      <c r="J227" s="7"/>
     </row>
     <row r="228" ht="21" customHeight="1">
       <c r="A228" t="s" s="5">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B228" t="s" s="5">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C228" t="s" s="5">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D228" s="6">
-        <v>0.595238095238095</v>
+        <v>0.547619047619048</v>
       </c>
       <c r="E228" s="6"/>
       <c r="F228" s="6"/>
       <c r="G228" s="6"/>
       <c r="H228" s="6">
-        <v>0.416666666666667</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I228" s="6"/>
       <c r="J228" s="7"/>
     </row>
     <row r="229" ht="21" customHeight="1">
       <c r="A229" t="s" s="5">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B229" t="s" s="5">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C229" t="s" s="5">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="D229" s="6">
         <v>0.547619047619048</v>
@@ -7988,290 +8031,280 @@
       <c r="F229" s="6"/>
       <c r="G229" s="6"/>
       <c r="H229" s="6">
-        <v>0.777777777777778</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="I229" s="6"/>
-      <c r="J229" s="7"/>
-    </row>
-    <row r="230" ht="21" customHeight="1">
+      <c r="J229" s="9"/>
+    </row>
+    <row r="230" ht="20.7" customHeight="1">
       <c r="A230" t="s" s="5">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B230" t="s" s="5">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C230" t="s" s="5">
-        <v>67</v>
-      </c>
-      <c r="D230" s="6">
-        <v>0.547619047619048</v>
-      </c>
-      <c r="E230" s="6"/>
-      <c r="F230" s="6"/>
-      <c r="G230" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="D230" s="15">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E230" s="13"/>
+      <c r="F230" s="13"/>
+      <c r="G230" s="13"/>
       <c r="H230" s="6">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="I230" s="6"/>
-      <c r="J230" s="9"/>
-    </row>
-    <row r="231" ht="20.7" customHeight="1">
+        <v>0.638888888888889</v>
+      </c>
+      <c r="I230" s="13"/>
+      <c r="J230" s="14"/>
+    </row>
+    <row r="231" ht="21" customHeight="1">
       <c r="A231" t="s" s="5">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B231" t="s" s="5">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C231" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="D231" s="15">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E231" s="13"/>
-      <c r="F231" s="13"/>
-      <c r="G231" s="13"/>
+        <v>18</v>
+      </c>
+      <c r="D231" s="6">
+        <v>0.761904761904762</v>
+      </c>
+      <c r="E231" s="6"/>
+      <c r="F231" s="6"/>
+      <c r="G231" s="6"/>
       <c r="H231" s="6">
-        <v>0.638888888888889</v>
-      </c>
-      <c r="I231" s="13"/>
-      <c r="J231" s="14"/>
+        <v>0.861111111111111</v>
+      </c>
+      <c r="I231" s="6"/>
+      <c r="J231" s="10"/>
     </row>
     <row r="232" ht="21" customHeight="1">
       <c r="A232" t="s" s="5">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B232" t="s" s="5">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C232" t="s" s="5">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D232" s="6">
-        <v>0.761904761904762</v>
+        <v>0</v>
       </c>
       <c r="E232" s="6"/>
       <c r="F232" s="6"/>
       <c r="G232" s="6"/>
       <c r="H232" s="6">
-        <v>0.861111111111111</v>
+        <v>0.611111111111111</v>
       </c>
       <c r="I232" s="6"/>
-      <c r="J232" s="10"/>
+      <c r="J232" s="11"/>
     </row>
     <row r="233" ht="21" customHeight="1">
       <c r="A233" t="s" s="5">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B233" t="s" s="5">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C233" t="s" s="5">
         <v>12</v>
       </c>
       <c r="D233" s="6">
-        <v>0</v>
+        <v>0.595238095238095</v>
       </c>
       <c r="E233" s="6"/>
       <c r="F233" s="6"/>
       <c r="G233" s="6"/>
       <c r="H233" s="6">
-        <v>0.611111111111111</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I233" s="6"/>
-      <c r="J233" s="11"/>
+      <c r="J233" s="7"/>
     </row>
     <row r="234" ht="21" customHeight="1">
-      <c r="A234" t="s" s="5">
-        <v>476</v>
-      </c>
-      <c r="B234" t="s" s="5">
+      <c r="A234" t="s" s="4">
         <v>477</v>
       </c>
+      <c r="B234" t="s" s="4">
+        <v>478</v>
+      </c>
       <c r="C234" t="s" s="5">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D234" s="6">
-        <v>0.595238095238095</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="E234" s="6"/>
       <c r="F234" s="6"/>
       <c r="G234" s="6"/>
       <c r="H234" s="6">
-        <v>0.777777777777778</v>
+        <v>0.75</v>
       </c>
       <c r="I234" s="6"/>
-      <c r="J234" s="7"/>
+      <c r="J234" s="9"/>
     </row>
     <row r="235" ht="21" customHeight="1">
-      <c r="A235" t="s" s="4">
-        <v>478</v>
-      </c>
-      <c r="B235" t="s" s="4">
+      <c r="A235" t="s" s="24">
         <v>479</v>
       </c>
+      <c r="B235" t="s" s="24">
+        <v>480</v>
+      </c>
       <c r="C235" t="s" s="5">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D235" s="6">
-        <v>0.571428571428571</v>
+        <v>0.738095238095238</v>
       </c>
       <c r="E235" s="6"/>
       <c r="F235" s="6"/>
       <c r="G235" s="6"/>
       <c r="H235" s="6">
-        <v>0.75</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I235" s="6"/>
-      <c r="J235" s="9"/>
+      <c r="J235" s="11"/>
     </row>
     <row r="236" ht="21" customHeight="1">
-      <c r="A236" t="s" s="24">
-        <v>480</v>
-      </c>
-      <c r="B236" t="s" s="24">
+      <c r="A236" t="s" s="17">
         <v>481</v>
       </c>
-      <c r="C236" t="s" s="5">
-        <v>21</v>
+      <c r="B236" t="s" s="17">
+        <v>482</v>
+      </c>
+      <c r="C236" t="s" s="18">
+        <v>18</v>
       </c>
       <c r="D236" s="6">
-        <v>0.738095238095238</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="E236" s="6"/>
       <c r="F236" s="6"/>
       <c r="G236" s="6"/>
       <c r="H236" s="6">
-        <v>0.777777777777778</v>
+        <v>0.805555555555556</v>
       </c>
       <c r="I236" s="6"/>
-      <c r="J236" s="11"/>
+      <c r="J236" s="7"/>
     </row>
     <row r="237" ht="21" customHeight="1">
-      <c r="A237" t="s" s="17">
-        <v>482</v>
-      </c>
-      <c r="B237" t="s" s="17">
+      <c r="A237" t="s" s="19">
         <v>483</v>
       </c>
+      <c r="B237" t="s" s="19">
+        <v>484</v>
+      </c>
       <c r="C237" t="s" s="18">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D237" s="6">
-        <v>0.285714285714286</v>
+        <v>0</v>
       </c>
       <c r="E237" s="6"/>
       <c r="F237" s="6"/>
       <c r="G237" s="6"/>
       <c r="H237" s="6">
-        <v>0.805555555555556</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I237" s="6"/>
       <c r="J237" s="7"/>
     </row>
     <row r="238" ht="21" customHeight="1">
-      <c r="A238" t="s" s="19">
-        <v>484</v>
-      </c>
-      <c r="B238" t="s" s="19">
+      <c r="A238" t="s" s="5">
         <v>485</v>
       </c>
-      <c r="C238" t="s" s="18">
-        <v>15</v>
+      <c r="B238" t="s" s="5">
+        <v>486</v>
+      </c>
+      <c r="C238" t="s" s="5">
+        <v>12</v>
       </c>
       <c r="D238" s="6">
-        <v>0</v>
+        <v>0.30952380952381</v>
       </c>
       <c r="E238" s="6"/>
       <c r="F238" s="6"/>
       <c r="G238" s="6"/>
       <c r="H238" s="6">
-        <v>0.777777777777778</v>
+        <v>0.638888888888889</v>
       </c>
       <c r="I238" s="6"/>
       <c r="J238" s="7"/>
     </row>
     <row r="239" ht="21" customHeight="1">
       <c r="A239" t="s" s="5">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B239" t="s" s="5">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C239" t="s" s="5">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D239" s="6">
-        <v>0.30952380952381</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="E239" s="6"/>
       <c r="F239" s="6"/>
       <c r="G239" s="6"/>
       <c r="H239" s="6">
-        <v>0.638888888888889</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="I239" s="6"/>
       <c r="J239" s="7"/>
     </row>
     <row r="240" ht="21" customHeight="1">
-      <c r="A240" t="s" s="5">
-        <v>488</v>
-      </c>
-      <c r="B240" t="s" s="5">
+      <c r="A240" t="s" s="4">
         <v>489</v>
       </c>
+      <c r="B240" t="s" s="4">
+        <v>490</v>
+      </c>
       <c r="C240" t="s" s="5">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="D240" s="6">
-        <v>0.333333333333333</v>
+        <v>0.904761904761905</v>
       </c>
       <c r="E240" s="6"/>
       <c r="F240" s="6"/>
       <c r="G240" s="6"/>
       <c r="H240" s="6">
-        <v>0.666666666666667</v>
+        <v>0.861111111111111</v>
       </c>
       <c r="I240" s="6"/>
       <c r="J240" s="7"/>
     </row>
     <row r="241" ht="21" customHeight="1">
-      <c r="A241" t="s" s="4">
-        <v>490</v>
-      </c>
-      <c r="B241" t="s" s="4">
-        <v>491</v>
-      </c>
-      <c r="C241" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D241" s="6">
-        <v>0.904761904761905</v>
-      </c>
+      <c r="A241" s="26"/>
+      <c r="B241" s="26"/>
+      <c r="C241" s="25"/>
+      <c r="D241" s="6"/>
       <c r="E241" s="6"/>
       <c r="F241" s="6"/>
       <c r="G241" s="6"/>
-      <c r="H241" s="6">
-        <v>0.861111111111111</v>
-      </c>
+      <c r="H241" s="6"/>
       <c r="I241" s="6"/>
-      <c r="J241" s="7"/>
+      <c r="J241" s="9"/>
     </row>
     <row r="242" ht="21" customHeight="1">
-      <c r="A242" s="26"/>
-      <c r="B242" s="26"/>
-      <c r="C242" s="25"/>
+      <c r="A242" s="27"/>
+      <c r="B242" s="27"/>
+      <c r="C242" s="13"/>
       <c r="D242" s="6"/>
       <c r="E242" s="6"/>
       <c r="F242" s="6"/>
       <c r="G242" s="6"/>
       <c r="H242" s="6"/>
       <c r="I242" s="6"/>
-      <c r="J242" s="9"/>
+      <c r="J242" s="11"/>
     </row>
     <row r="243" ht="21" customHeight="1">
-      <c r="A243" s="27"/>
-      <c r="B243" s="27"/>
+      <c r="A243" s="13"/>
+      <c r="B243" s="13"/>
       <c r="C243" s="13"/>
       <c r="D243" s="6"/>
       <c r="E243" s="6"/>
@@ -8279,7 +8312,7 @@
       <c r="G243" s="6"/>
       <c r="H243" s="6"/>
       <c r="I243" s="6"/>
-      <c r="J243" s="11"/>
+      <c r="J243" s="7"/>
     </row>
     <row r="244" ht="21" customHeight="1">
       <c r="A244" s="13"/>
@@ -8327,19 +8360,19 @@
       <c r="G247" s="6"/>
       <c r="H247" s="6"/>
       <c r="I247" s="6"/>
-      <c r="J247" s="7"/>
-    </row>
-    <row r="248" ht="21" customHeight="1">
+      <c r="J247" s="9"/>
+    </row>
+    <row r="248" ht="20.35" customHeight="1">
       <c r="A248" s="13"/>
       <c r="B248" s="13"/>
       <c r="C248" s="13"/>
-      <c r="D248" s="6"/>
-      <c r="E248" s="6"/>
-      <c r="F248" s="6"/>
-      <c r="G248" s="6"/>
+      <c r="D248" s="13"/>
+      <c r="E248" s="13"/>
+      <c r="F248" s="13"/>
+      <c r="G248" s="13"/>
       <c r="H248" s="6"/>
-      <c r="I248" s="6"/>
-      <c r="J248" s="9"/>
+      <c r="I248" s="13"/>
+      <c r="J248" s="14"/>
     </row>
     <row r="249" ht="20.35" customHeight="1">
       <c r="A249" s="13"/>
@@ -8351,33 +8384,33 @@
       <c r="G249" s="13"/>
       <c r="H249" s="6"/>
       <c r="I249" s="13"/>
-      <c r="J249" s="14"/>
-    </row>
-    <row r="250" ht="20.35" customHeight="1">
+      <c r="J249" s="16"/>
+    </row>
+    <row r="250" ht="21" customHeight="1">
       <c r="A250" s="13"/>
       <c r="B250" s="13"/>
       <c r="C250" s="13"/>
-      <c r="D250" s="13"/>
-      <c r="E250" s="13"/>
-      <c r="F250" s="13"/>
-      <c r="G250" s="13"/>
+      <c r="D250" s="6"/>
+      <c r="E250" s="6"/>
+      <c r="F250" s="6"/>
+      <c r="G250" s="6"/>
       <c r="H250" s="6"/>
-      <c r="I250" s="13"/>
-      <c r="J250" s="16"/>
-    </row>
-    <row r="251" ht="21" customHeight="1">
+      <c r="I250" s="6"/>
+      <c r="J250" s="9"/>
+    </row>
+    <row r="251" ht="20.35" customHeight="1">
       <c r="A251" s="13"/>
       <c r="B251" s="13"/>
       <c r="C251" s="13"/>
-      <c r="D251" s="6"/>
-      <c r="E251" s="6"/>
-      <c r="F251" s="6"/>
-      <c r="G251" s="6"/>
+      <c r="D251" s="13"/>
+      <c r="E251" s="13"/>
+      <c r="F251" s="13"/>
+      <c r="G251" s="13"/>
       <c r="H251" s="6"/>
-      <c r="I251" s="6"/>
-      <c r="J251" s="9"/>
-    </row>
-    <row r="252" ht="20.35" customHeight="1">
+      <c r="I251" s="13"/>
+      <c r="J251" s="14"/>
+    </row>
+    <row r="252" ht="20.05" customHeight="1">
       <c r="A252" s="13"/>
       <c r="B252" s="13"/>
       <c r="C252" s="13"/>
@@ -8389,9 +8422,9 @@
       <c r="I252" s="13"/>
       <c r="J252" s="14"/>
     </row>
-    <row r="253" ht="20.05" customHeight="1">
-      <c r="A253" s="13"/>
-      <c r="B253" s="13"/>
+    <row r="253" ht="20.35" customHeight="1">
+      <c r="A253" s="28"/>
+      <c r="B253" s="28"/>
       <c r="C253" s="13"/>
       <c r="D253" s="13"/>
       <c r="E253" s="13"/>
@@ -8399,71 +8432,71 @@
       <c r="G253" s="13"/>
       <c r="H253" s="6"/>
       <c r="I253" s="13"/>
-      <c r="J253" s="14"/>
-    </row>
-    <row r="254" ht="20.35" customHeight="1">
-      <c r="A254" s="28"/>
-      <c r="B254" s="28"/>
-      <c r="C254" s="13"/>
-      <c r="D254" s="13"/>
-      <c r="E254" s="13"/>
-      <c r="F254" s="13"/>
-      <c r="G254" s="13"/>
+      <c r="J253" s="16"/>
+    </row>
+    <row r="254" ht="21" customHeight="1">
+      <c r="A254" s="26"/>
+      <c r="B254" s="26"/>
+      <c r="C254" s="25"/>
+      <c r="D254" s="6"/>
+      <c r="E254" s="6"/>
+      <c r="F254" s="6"/>
+      <c r="G254" s="6"/>
       <c r="H254" s="6"/>
-      <c r="I254" s="13"/>
-      <c r="J254" s="16"/>
-    </row>
-    <row r="255" ht="21" customHeight="1">
-      <c r="A255" s="26"/>
-      <c r="B255" s="26"/>
-      <c r="C255" s="25"/>
-      <c r="D255" s="6"/>
-      <c r="E255" s="6"/>
-      <c r="F255" s="6"/>
-      <c r="G255" s="6"/>
+      <c r="I254" s="6"/>
+      <c r="J254" s="9"/>
+    </row>
+    <row r="255" ht="20.7" customHeight="1">
+      <c r="A255" s="27"/>
+      <c r="B255" s="27"/>
+      <c r="C255" s="13"/>
+      <c r="D255" s="13"/>
+      <c r="E255" s="13"/>
+      <c r="F255" s="13"/>
+      <c r="G255" s="13"/>
       <c r="H255" s="6"/>
-      <c r="I255" s="6"/>
-      <c r="J255" s="9"/>
-    </row>
-    <row r="256" ht="20.7" customHeight="1">
-      <c r="A256" s="27"/>
-      <c r="B256" s="27"/>
+      <c r="I255" s="13"/>
+      <c r="J255" s="16"/>
+    </row>
+    <row r="256" ht="21" customHeight="1">
+      <c r="A256" s="28"/>
+      <c r="B256" s="28"/>
       <c r="C256" s="13"/>
-      <c r="D256" s="13"/>
-      <c r="E256" s="13"/>
-      <c r="F256" s="13"/>
-      <c r="G256" s="13"/>
+      <c r="D256" s="6"/>
+      <c r="E256" s="6"/>
+      <c r="F256" s="6"/>
+      <c r="G256" s="6"/>
       <c r="H256" s="6"/>
-      <c r="I256" s="13"/>
-      <c r="J256" s="16"/>
+      <c r="I256" s="6"/>
+      <c r="J256" s="7"/>
     </row>
     <row r="257" ht="21" customHeight="1">
-      <c r="A257" s="28"/>
-      <c r="B257" s="28"/>
-      <c r="C257" s="13"/>
+      <c r="A257" s="26"/>
+      <c r="B257" s="26"/>
+      <c r="C257" s="25"/>
       <c r="D257" s="6"/>
       <c r="E257" s="6"/>
       <c r="F257" s="6"/>
       <c r="G257" s="6"/>
       <c r="H257" s="6"/>
       <c r="I257" s="6"/>
-      <c r="J257" s="7"/>
+      <c r="J257" s="9"/>
     </row>
     <row r="258" ht="21" customHeight="1">
-      <c r="A258" s="26"/>
-      <c r="B258" s="26"/>
-      <c r="C258" s="25"/>
+      <c r="A258" s="27"/>
+      <c r="B258" s="27"/>
+      <c r="C258" s="13"/>
       <c r="D258" s="6"/>
       <c r="E258" s="6"/>
       <c r="F258" s="6"/>
       <c r="G258" s="6"/>
       <c r="H258" s="6"/>
       <c r="I258" s="6"/>
-      <c r="J258" s="9"/>
+      <c r="J258" s="11"/>
     </row>
     <row r="259" ht="21" customHeight="1">
-      <c r="A259" s="27"/>
-      <c r="B259" s="27"/>
+      <c r="A259" s="13"/>
+      <c r="B259" s="13"/>
       <c r="C259" s="13"/>
       <c r="D259" s="6"/>
       <c r="E259" s="6"/>
@@ -8471,11 +8504,11 @@
       <c r="G259" s="6"/>
       <c r="H259" s="6"/>
       <c r="I259" s="6"/>
-      <c r="J259" s="11"/>
+      <c r="J259" s="7"/>
     </row>
     <row r="260" ht="21" customHeight="1">
-      <c r="A260" s="13"/>
-      <c r="B260" s="13"/>
+      <c r="A260" s="28"/>
+      <c r="B260" s="28"/>
       <c r="C260" s="13"/>
       <c r="D260" s="6"/>
       <c r="E260" s="6"/>
@@ -8486,9 +8519,9 @@
       <c r="J260" s="7"/>
     </row>
     <row r="261" ht="21" customHeight="1">
-      <c r="A261" s="28"/>
-      <c r="B261" s="28"/>
-      <c r="C261" s="13"/>
+      <c r="A261" s="26"/>
+      <c r="B261" s="26"/>
+      <c r="C261" s="25"/>
       <c r="D261" s="6"/>
       <c r="E261" s="6"/>
       <c r="F261" s="6"/>
@@ -8510,20 +8543,20 @@
       <c r="J262" s="7"/>
     </row>
     <row r="263" ht="21" customHeight="1">
-      <c r="A263" s="26"/>
-      <c r="B263" s="26"/>
-      <c r="C263" s="25"/>
+      <c r="A263" s="27"/>
+      <c r="B263" s="27"/>
+      <c r="C263" s="13"/>
       <c r="D263" s="6"/>
       <c r="E263" s="6"/>
       <c r="F263" s="6"/>
       <c r="G263" s="6"/>
       <c r="H263" s="6"/>
       <c r="I263" s="6"/>
-      <c r="J263" s="7"/>
+      <c r="J263" s="9"/>
     </row>
     <row r="264" ht="21" customHeight="1">
-      <c r="A264" s="27"/>
-      <c r="B264" s="27"/>
+      <c r="A264" s="13"/>
+      <c r="B264" s="13"/>
       <c r="C264" s="13"/>
       <c r="D264" s="6"/>
       <c r="E264" s="6"/>
@@ -8531,7 +8564,7 @@
       <c r="G264" s="6"/>
       <c r="H264" s="6"/>
       <c r="I264" s="6"/>
-      <c r="J264" s="9"/>
+      <c r="J264" s="10"/>
     </row>
     <row r="265" ht="21" customHeight="1">
       <c r="A265" s="13"/>
@@ -8543,7 +8576,7 @@
       <c r="G265" s="6"/>
       <c r="H265" s="6"/>
       <c r="I265" s="6"/>
-      <c r="J265" s="10"/>
+      <c r="J265" s="11"/>
     </row>
     <row r="266" ht="21" customHeight="1">
       <c r="A266" s="13"/>
@@ -8555,7 +8588,7 @@
       <c r="G266" s="6"/>
       <c r="H266" s="6"/>
       <c r="I266" s="6"/>
-      <c r="J266" s="11"/>
+      <c r="J266" s="9"/>
     </row>
     <row r="267" ht="21" customHeight="1">
       <c r="A267" s="13"/>
@@ -8567,7 +8600,7 @@
       <c r="G267" s="6"/>
       <c r="H267" s="6"/>
       <c r="I267" s="6"/>
-      <c r="J267" s="9"/>
+      <c r="J267" s="11"/>
     </row>
     <row r="268" ht="21" customHeight="1">
       <c r="A268" s="13"/>
@@ -8579,7 +8612,7 @@
       <c r="G268" s="6"/>
       <c r="H268" s="6"/>
       <c r="I268" s="6"/>
-      <c r="J268" s="11"/>
+      <c r="J268" s="9"/>
     </row>
     <row r="269" ht="21" customHeight="1">
       <c r="A269" s="13"/>
@@ -8591,7 +8624,7 @@
       <c r="G269" s="6"/>
       <c r="H269" s="6"/>
       <c r="I269" s="6"/>
-      <c r="J269" s="9"/>
+      <c r="J269" s="11"/>
     </row>
     <row r="270" ht="21" customHeight="1">
       <c r="A270" s="13"/>
@@ -8603,7 +8636,7 @@
       <c r="G270" s="6"/>
       <c r="H270" s="6"/>
       <c r="I270" s="6"/>
-      <c r="J270" s="11"/>
+      <c r="J270" s="7"/>
     </row>
     <row r="271" ht="21" customHeight="1">
       <c r="A271" s="13"/>
@@ -8615,7 +8648,7 @@
       <c r="G271" s="6"/>
       <c r="H271" s="6"/>
       <c r="I271" s="6"/>
-      <c r="J271" s="7"/>
+      <c r="J271" s="9"/>
     </row>
     <row r="272" ht="21" customHeight="1">
       <c r="A272" s="13"/>
@@ -8627,31 +8660,31 @@
       <c r="G272" s="6"/>
       <c r="H272" s="6"/>
       <c r="I272" s="6"/>
-      <c r="J272" s="9"/>
-    </row>
-    <row r="273" ht="21" customHeight="1">
+      <c r="J272" s="10"/>
+    </row>
+    <row r="273" ht="20.7" customHeight="1">
       <c r="A273" s="13"/>
       <c r="B273" s="13"/>
       <c r="C273" s="13"/>
-      <c r="D273" s="6"/>
-      <c r="E273" s="6"/>
-      <c r="F273" s="6"/>
-      <c r="G273" s="6"/>
+      <c r="D273" s="13"/>
+      <c r="E273" s="13"/>
+      <c r="F273" s="13"/>
+      <c r="G273" s="13"/>
       <c r="H273" s="6"/>
-      <c r="I273" s="6"/>
-      <c r="J273" s="10"/>
-    </row>
-    <row r="274" ht="20.7" customHeight="1">
+      <c r="I273" s="13"/>
+      <c r="J273" s="16"/>
+    </row>
+    <row r="274" ht="21" customHeight="1">
       <c r="A274" s="13"/>
       <c r="B274" s="13"/>
       <c r="C274" s="13"/>
-      <c r="D274" s="13"/>
-      <c r="E274" s="13"/>
-      <c r="F274" s="13"/>
-      <c r="G274" s="13"/>
+      <c r="D274" s="6"/>
+      <c r="E274" s="6"/>
+      <c r="F274" s="6"/>
+      <c r="G274" s="6"/>
       <c r="H274" s="6"/>
-      <c r="I274" s="13"/>
-      <c r="J274" s="16"/>
+      <c r="I274" s="6"/>
+      <c r="J274" s="7"/>
     </row>
     <row r="275" ht="21" customHeight="1">
       <c r="A275" s="13"/>
@@ -8678,8 +8711,8 @@
       <c r="J276" s="7"/>
     </row>
     <row r="277" ht="21" customHeight="1">
-      <c r="A277" s="13"/>
-      <c r="B277" s="13"/>
+      <c r="A277" s="28"/>
+      <c r="B277" s="28"/>
       <c r="C277" s="13"/>
       <c r="D277" s="6"/>
       <c r="E277" s="6"/>
@@ -8690,9 +8723,9 @@
       <c r="J277" s="7"/>
     </row>
     <row r="278" ht="21" customHeight="1">
-      <c r="A278" s="28"/>
-      <c r="B278" s="28"/>
-      <c r="C278" s="13"/>
+      <c r="A278" s="26"/>
+      <c r="B278" s="26"/>
+      <c r="C278" s="25"/>
       <c r="D278" s="6"/>
       <c r="E278" s="6"/>
       <c r="F278" s="6"/>
@@ -8711,23 +8744,23 @@
       <c r="G279" s="6"/>
       <c r="H279" s="6"/>
       <c r="I279" s="6"/>
-      <c r="J279" s="7"/>
+      <c r="J279" s="9"/>
     </row>
     <row r="280" ht="21" customHeight="1">
-      <c r="A280" s="26"/>
-      <c r="B280" s="26"/>
-      <c r="C280" s="25"/>
+      <c r="A280" s="27"/>
+      <c r="B280" s="27"/>
+      <c r="C280" s="13"/>
       <c r="D280" s="6"/>
       <c r="E280" s="6"/>
       <c r="F280" s="6"/>
       <c r="G280" s="6"/>
       <c r="H280" s="6"/>
       <c r="I280" s="6"/>
-      <c r="J280" s="9"/>
+      <c r="J280" s="11"/>
     </row>
     <row r="281" ht="21" customHeight="1">
-      <c r="A281" s="27"/>
-      <c r="B281" s="27"/>
+      <c r="A281" s="13"/>
+      <c r="B281" s="13"/>
       <c r="C281" s="13"/>
       <c r="D281" s="6"/>
       <c r="E281" s="6"/>
@@ -8735,7 +8768,7 @@
       <c r="G281" s="6"/>
       <c r="H281" s="6"/>
       <c r="I281" s="6"/>
-      <c r="J281" s="11"/>
+      <c r="J281" s="7"/>
     </row>
     <row r="282" ht="21" customHeight="1">
       <c r="A282" s="13"/>
@@ -8747,7 +8780,7 @@
       <c r="G282" s="6"/>
       <c r="H282" s="6"/>
       <c r="I282" s="6"/>
-      <c r="J282" s="7"/>
+      <c r="J282" s="9"/>
     </row>
     <row r="283" ht="21" customHeight="1">
       <c r="A283" s="13"/>
@@ -8759,7 +8792,7 @@
       <c r="G283" s="6"/>
       <c r="H283" s="6"/>
       <c r="I283" s="6"/>
-      <c r="J283" s="9"/>
+      <c r="J283" s="11"/>
     </row>
     <row r="284" ht="21" customHeight="1">
       <c r="A284" s="13"/>
@@ -8771,7 +8804,7 @@
       <c r="G284" s="6"/>
       <c r="H284" s="6"/>
       <c r="I284" s="6"/>
-      <c r="J284" s="11"/>
+      <c r="J284" s="7"/>
     </row>
     <row r="285" ht="21" customHeight="1">
       <c r="A285" s="13"/>
@@ -8783,7 +8816,7 @@
       <c r="G285" s="6"/>
       <c r="H285" s="6"/>
       <c r="I285" s="6"/>
-      <c r="J285" s="7"/>
+      <c r="J285" s="9"/>
     </row>
     <row r="286" ht="21" customHeight="1">
       <c r="A286" s="13"/>
@@ -8795,7 +8828,7 @@
       <c r="G286" s="6"/>
       <c r="H286" s="6"/>
       <c r="I286" s="6"/>
-      <c r="J286" s="9"/>
+      <c r="J286" s="11"/>
     </row>
     <row r="287" ht="21" customHeight="1">
       <c r="A287" s="13"/>
@@ -8807,7 +8840,7 @@
       <c r="G287" s="6"/>
       <c r="H287" s="6"/>
       <c r="I287" s="6"/>
-      <c r="J287" s="11"/>
+      <c r="J287" s="7"/>
     </row>
     <row r="288" ht="21" customHeight="1">
       <c r="A288" s="13"/>
@@ -8858,8 +8891,8 @@
       <c r="J291" s="7"/>
     </row>
     <row r="292" ht="21" customHeight="1">
-      <c r="A292" s="13"/>
-      <c r="B292" s="13"/>
+      <c r="A292" s="28"/>
+      <c r="B292" s="28"/>
       <c r="C292" s="13"/>
       <c r="D292" s="6"/>
       <c r="E292" s="6"/>
@@ -8870,40 +8903,40 @@
       <c r="J292" s="7"/>
     </row>
     <row r="293" ht="21" customHeight="1">
-      <c r="A293" s="28"/>
-      <c r="B293" s="28"/>
-      <c r="C293" s="13"/>
+      <c r="A293" s="26"/>
+      <c r="B293" s="26"/>
+      <c r="C293" s="25"/>
       <c r="D293" s="6"/>
       <c r="E293" s="6"/>
       <c r="F293" s="6"/>
       <c r="G293" s="6"/>
       <c r="H293" s="6"/>
       <c r="I293" s="6"/>
-      <c r="J293" s="7"/>
-    </row>
-    <row r="294" ht="21" customHeight="1">
-      <c r="A294" s="26"/>
-      <c r="B294" s="26"/>
-      <c r="C294" s="25"/>
-      <c r="D294" s="6"/>
-      <c r="E294" s="6"/>
-      <c r="F294" s="6"/>
-      <c r="G294" s="6"/>
+      <c r="J293" s="9"/>
+    </row>
+    <row r="294" ht="20.7" customHeight="1">
+      <c r="A294" s="27"/>
+      <c r="B294" s="27"/>
+      <c r="C294" s="13"/>
+      <c r="D294" s="13"/>
+      <c r="E294" s="13"/>
+      <c r="F294" s="13"/>
+      <c r="G294" s="13"/>
       <c r="H294" s="6"/>
-      <c r="I294" s="6"/>
-      <c r="J294" s="9"/>
-    </row>
-    <row r="295" ht="20.7" customHeight="1">
-      <c r="A295" s="27"/>
-      <c r="B295" s="27"/>
+      <c r="I294" s="13"/>
+      <c r="J294" s="16"/>
+    </row>
+    <row r="295" ht="21" customHeight="1">
+      <c r="A295" s="13"/>
+      <c r="B295" s="13"/>
       <c r="C295" s="13"/>
-      <c r="D295" s="13"/>
-      <c r="E295" s="13"/>
-      <c r="F295" s="13"/>
-      <c r="G295" s="13"/>
+      <c r="D295" s="6"/>
+      <c r="E295" s="6"/>
+      <c r="F295" s="6"/>
+      <c r="G295" s="6"/>
       <c r="H295" s="6"/>
-      <c r="I295" s="13"/>
-      <c r="J295" s="16"/>
+      <c r="I295" s="6"/>
+      <c r="J295" s="7"/>
     </row>
     <row r="296" ht="21" customHeight="1">
       <c r="A296" s="13"/>
@@ -8939,11 +8972,11 @@
       <c r="G298" s="6"/>
       <c r="H298" s="6"/>
       <c r="I298" s="6"/>
-      <c r="J298" s="7"/>
+      <c r="J298" s="9"/>
     </row>
     <row r="299" ht="21" customHeight="1">
-      <c r="A299" s="13"/>
-      <c r="B299" s="13"/>
+      <c r="A299" s="28"/>
+      <c r="B299" s="28"/>
       <c r="C299" s="13"/>
       <c r="D299" s="6"/>
       <c r="E299" s="6"/>
@@ -8951,35 +8984,35 @@
       <c r="G299" s="6"/>
       <c r="H299" s="6"/>
       <c r="I299" s="6"/>
-      <c r="J299" s="9"/>
+      <c r="J299" s="11"/>
     </row>
     <row r="300" ht="21" customHeight="1">
-      <c r="A300" s="28"/>
-      <c r="B300" s="28"/>
-      <c r="C300" s="13"/>
+      <c r="A300" s="26"/>
+      <c r="B300" s="26"/>
+      <c r="C300" s="25"/>
       <c r="D300" s="6"/>
       <c r="E300" s="6"/>
       <c r="F300" s="6"/>
       <c r="G300" s="6"/>
       <c r="H300" s="6"/>
       <c r="I300" s="6"/>
-      <c r="J300" s="11"/>
+      <c r="J300" s="7"/>
     </row>
     <row r="301" ht="21" customHeight="1">
-      <c r="A301" s="26"/>
-      <c r="B301" s="26"/>
-      <c r="C301" s="25"/>
+      <c r="A301" s="27"/>
+      <c r="B301" s="27"/>
+      <c r="C301" s="13"/>
       <c r="D301" s="6"/>
       <c r="E301" s="6"/>
       <c r="F301" s="6"/>
       <c r="G301" s="6"/>
       <c r="H301" s="6"/>
       <c r="I301" s="6"/>
-      <c r="J301" s="7"/>
+      <c r="J301" s="9"/>
     </row>
     <row r="302" ht="21" customHeight="1">
-      <c r="A302" s="27"/>
-      <c r="B302" s="27"/>
+      <c r="A302" s="13"/>
+      <c r="B302" s="13"/>
       <c r="C302" s="13"/>
       <c r="D302" s="6"/>
       <c r="E302" s="6"/>
@@ -8987,7 +9020,7 @@
       <c r="G302" s="6"/>
       <c r="H302" s="6"/>
       <c r="I302" s="6"/>
-      <c r="J302" s="9"/>
+      <c r="J302" s="11"/>
     </row>
     <row r="303" ht="21" customHeight="1">
       <c r="A303" s="13"/>
@@ -8999,19 +9032,19 @@
       <c r="G303" s="6"/>
       <c r="H303" s="6"/>
       <c r="I303" s="6"/>
-      <c r="J303" s="11"/>
-    </row>
-    <row r="304" ht="21" customHeight="1">
+      <c r="J303" s="9"/>
+    </row>
+    <row r="304" ht="20.35" customHeight="1">
       <c r="A304" s="13"/>
       <c r="B304" s="13"/>
       <c r="C304" s="13"/>
-      <c r="D304" s="6"/>
-      <c r="E304" s="6"/>
-      <c r="F304" s="6"/>
-      <c r="G304" s="6"/>
+      <c r="D304" s="13"/>
+      <c r="E304" s="13"/>
+      <c r="F304" s="13"/>
+      <c r="G304" s="13"/>
       <c r="H304" s="6"/>
-      <c r="I304" s="6"/>
-      <c r="J304" s="9"/>
+      <c r="I304" s="13"/>
+      <c r="J304" s="14"/>
     </row>
     <row r="305" ht="20.35" customHeight="1">
       <c r="A305" s="13"/>
@@ -9023,19 +9056,19 @@
       <c r="G305" s="13"/>
       <c r="H305" s="6"/>
       <c r="I305" s="13"/>
-      <c r="J305" s="14"/>
-    </row>
-    <row r="306" ht="20.35" customHeight="1">
+      <c r="J305" s="16"/>
+    </row>
+    <row r="306" ht="21" customHeight="1">
       <c r="A306" s="13"/>
       <c r="B306" s="13"/>
       <c r="C306" s="13"/>
-      <c r="D306" s="13"/>
-      <c r="E306" s="13"/>
-      <c r="F306" s="13"/>
-      <c r="G306" s="13"/>
+      <c r="D306" s="6"/>
+      <c r="E306" s="6"/>
+      <c r="F306" s="6"/>
+      <c r="G306" s="6"/>
       <c r="H306" s="6"/>
-      <c r="I306" s="13"/>
-      <c r="J306" s="16"/>
+      <c r="I306" s="6"/>
+      <c r="J306" s="9"/>
     </row>
     <row r="307" ht="21" customHeight="1">
       <c r="A307" s="13"/>
@@ -9047,7 +9080,7 @@
       <c r="G307" s="6"/>
       <c r="H307" s="6"/>
       <c r="I307" s="6"/>
-      <c r="J307" s="9"/>
+      <c r="J307" s="11"/>
     </row>
     <row r="308" ht="21" customHeight="1">
       <c r="A308" s="13"/>
@@ -9059,7 +9092,7 @@
       <c r="G308" s="6"/>
       <c r="H308" s="6"/>
       <c r="I308" s="6"/>
-      <c r="J308" s="11"/>
+      <c r="J308" s="9"/>
     </row>
     <row r="309" ht="21" customHeight="1">
       <c r="A309" s="13"/>
@@ -9071,30 +9104,30 @@
       <c r="G309" s="6"/>
       <c r="H309" s="6"/>
       <c r="I309" s="6"/>
-      <c r="J309" s="9"/>
+      <c r="J309" s="11"/>
     </row>
     <row r="310" ht="21" customHeight="1">
       <c r="A310" s="13"/>
       <c r="B310" s="13"/>
       <c r="C310" s="13"/>
-      <c r="D310" s="6"/>
-      <c r="E310" s="6"/>
-      <c r="F310" s="6"/>
-      <c r="G310" s="6"/>
+      <c r="D310" s="13"/>
+      <c r="E310" s="13"/>
+      <c r="F310" s="13"/>
+      <c r="G310" s="13"/>
       <c r="H310" s="6"/>
-      <c r="I310" s="6"/>
-      <c r="J310" s="11"/>
+      <c r="I310" s="13"/>
+      <c r="J310" s="7"/>
     </row>
     <row r="311" ht="21" customHeight="1">
       <c r="A311" s="13"/>
       <c r="B311" s="13"/>
       <c r="C311" s="13"/>
-      <c r="D311" s="13"/>
-      <c r="E311" s="13"/>
-      <c r="F311" s="13"/>
-      <c r="G311" s="13"/>
+      <c r="D311" s="6"/>
+      <c r="E311" s="6"/>
+      <c r="F311" s="6"/>
+      <c r="G311" s="6"/>
       <c r="H311" s="6"/>
-      <c r="I311" s="13"/>
+      <c r="I311" s="6"/>
       <c r="J311" s="7"/>
     </row>
     <row r="312" ht="21" customHeight="1">
@@ -9107,31 +9140,31 @@
       <c r="G312" s="6"/>
       <c r="H312" s="6"/>
       <c r="I312" s="6"/>
-      <c r="J312" s="7"/>
-    </row>
-    <row r="313" ht="21" customHeight="1">
+      <c r="J312" s="9"/>
+    </row>
+    <row r="313" ht="20.7" customHeight="1">
       <c r="A313" s="13"/>
       <c r="B313" s="13"/>
       <c r="C313" s="13"/>
-      <c r="D313" s="6"/>
-      <c r="E313" s="6"/>
-      <c r="F313" s="6"/>
-      <c r="G313" s="6"/>
+      <c r="D313" s="13"/>
+      <c r="E313" s="13"/>
+      <c r="F313" s="13"/>
+      <c r="G313" s="13"/>
       <c r="H313" s="6"/>
-      <c r="I313" s="6"/>
-      <c r="J313" s="9"/>
-    </row>
-    <row r="314" ht="20.7" customHeight="1">
+      <c r="I313" s="13"/>
+      <c r="J313" s="16"/>
+    </row>
+    <row r="314" ht="21" customHeight="1">
       <c r="A314" s="13"/>
       <c r="B314" s="13"/>
       <c r="C314" s="13"/>
-      <c r="D314" s="13"/>
-      <c r="E314" s="13"/>
-      <c r="F314" s="13"/>
-      <c r="G314" s="13"/>
+      <c r="D314" s="6"/>
+      <c r="E314" s="6"/>
+      <c r="F314" s="6"/>
+      <c r="G314" s="6"/>
       <c r="H314" s="6"/>
-      <c r="I314" s="13"/>
-      <c r="J314" s="16"/>
+      <c r="I314" s="6"/>
+      <c r="J314" s="7"/>
     </row>
     <row r="315" ht="21" customHeight="1">
       <c r="A315" s="13"/>
@@ -9155,7 +9188,7 @@
       <c r="G316" s="6"/>
       <c r="H316" s="6"/>
       <c r="I316" s="6"/>
-      <c r="J316" s="7"/>
+      <c r="J316" s="9"/>
     </row>
     <row r="317" ht="21" customHeight="1">
       <c r="A317" s="13"/>
@@ -9167,7 +9200,7 @@
       <c r="G317" s="6"/>
       <c r="H317" s="6"/>
       <c r="I317" s="6"/>
-      <c r="J317" s="9"/>
+      <c r="J317" s="11"/>
     </row>
     <row r="318" ht="21" customHeight="1">
       <c r="A318" s="13"/>
@@ -9179,7 +9212,7 @@
       <c r="G318" s="6"/>
       <c r="H318" s="6"/>
       <c r="I318" s="6"/>
-      <c r="J318" s="11"/>
+      <c r="J318" s="7"/>
     </row>
     <row r="319" ht="21" customHeight="1">
       <c r="A319" s="13"/>
@@ -9218,8 +9251,8 @@
       <c r="J321" s="7"/>
     </row>
     <row r="322" ht="21" customHeight="1">
-      <c r="A322" s="13"/>
-      <c r="B322" s="13"/>
+      <c r="A322" s="28"/>
+      <c r="B322" s="28"/>
       <c r="C322" s="13"/>
       <c r="D322" s="6"/>
       <c r="E322" s="6"/>
@@ -9230,9 +9263,9 @@
       <c r="J322" s="7"/>
     </row>
     <row r="323" ht="21" customHeight="1">
-      <c r="A323" s="28"/>
-      <c r="B323" s="28"/>
-      <c r="C323" s="13"/>
+      <c r="A323" s="26"/>
+      <c r="B323" s="26"/>
+      <c r="C323" s="25"/>
       <c r="D323" s="6"/>
       <c r="E323" s="6"/>
       <c r="F323" s="6"/>
@@ -9263,23 +9296,23 @@
       <c r="G325" s="6"/>
       <c r="H325" s="6"/>
       <c r="I325" s="6"/>
-      <c r="J325" s="7"/>
+      <c r="J325" s="9"/>
     </row>
     <row r="326" ht="21" customHeight="1">
-      <c r="A326" s="26"/>
-      <c r="B326" s="26"/>
-      <c r="C326" s="25"/>
+      <c r="A326" s="27"/>
+      <c r="B326" s="27"/>
+      <c r="C326" s="13"/>
       <c r="D326" s="6"/>
       <c r="E326" s="6"/>
       <c r="F326" s="6"/>
       <c r="G326" s="6"/>
       <c r="H326" s="6"/>
       <c r="I326" s="6"/>
-      <c r="J326" s="9"/>
+      <c r="J326" s="11"/>
     </row>
     <row r="327" ht="21" customHeight="1">
-      <c r="A327" s="27"/>
-      <c r="B327" s="27"/>
+      <c r="A327" s="13"/>
+      <c r="B327" s="13"/>
       <c r="C327" s="13"/>
       <c r="D327" s="6"/>
       <c r="E327" s="6"/>
@@ -9287,7 +9320,7 @@
       <c r="G327" s="6"/>
       <c r="H327" s="6"/>
       <c r="I327" s="6"/>
-      <c r="J327" s="11"/>
+      <c r="J327" s="7"/>
     </row>
     <row r="328" ht="21" customHeight="1">
       <c r="A328" s="13"/>
@@ -9323,7 +9356,7 @@
       <c r="G330" s="6"/>
       <c r="H330" s="6"/>
       <c r="I330" s="6"/>
-      <c r="J330" s="7"/>
+      <c r="J330" s="9"/>
     </row>
     <row r="331" ht="21" customHeight="1">
       <c r="A331" s="13"/>
@@ -9335,31 +9368,31 @@
       <c r="G331" s="6"/>
       <c r="H331" s="6"/>
       <c r="I331" s="6"/>
-      <c r="J331" s="9"/>
-    </row>
-    <row r="332" ht="21" customHeight="1">
-      <c r="A332" s="13"/>
-      <c r="B332" s="13"/>
+      <c r="J331" s="10"/>
+    </row>
+    <row r="332" ht="20.7" customHeight="1">
+      <c r="A332" s="28"/>
+      <c r="B332" s="28"/>
       <c r="C332" s="13"/>
-      <c r="D332" s="6"/>
-      <c r="E332" s="6"/>
-      <c r="F332" s="6"/>
-      <c r="G332" s="6"/>
+      <c r="D332" s="13"/>
+      <c r="E332" s="13"/>
+      <c r="F332" s="13"/>
+      <c r="G332" s="13"/>
       <c r="H332" s="6"/>
-      <c r="I332" s="6"/>
-      <c r="J332" s="10"/>
-    </row>
-    <row r="333" ht="20.7" customHeight="1">
-      <c r="A333" s="28"/>
-      <c r="B333" s="28"/>
-      <c r="C333" s="13"/>
-      <c r="D333" s="13"/>
-      <c r="E333" s="13"/>
-      <c r="F333" s="13"/>
-      <c r="G333" s="13"/>
+      <c r="I332" s="13"/>
+      <c r="J332" s="16"/>
+    </row>
+    <row r="333" ht="21" customHeight="1">
+      <c r="A333" s="26"/>
+      <c r="B333" s="26"/>
+      <c r="C333" s="25"/>
+      <c r="D333" s="6"/>
+      <c r="E333" s="6"/>
+      <c r="F333" s="6"/>
+      <c r="G333" s="6"/>
       <c r="H333" s="6"/>
-      <c r="I333" s="13"/>
-      <c r="J333" s="16"/>
+      <c r="I333" s="6"/>
+      <c r="J333" s="7"/>
     </row>
     <row r="334" ht="21" customHeight="1">
       <c r="A334" s="26"/>
@@ -9371,23 +9404,23 @@
       <c r="G334" s="6"/>
       <c r="H334" s="6"/>
       <c r="I334" s="6"/>
-      <c r="J334" s="7"/>
+      <c r="J334" s="9"/>
     </row>
     <row r="335" ht="21" customHeight="1">
-      <c r="A335" s="26"/>
-      <c r="B335" s="26"/>
-      <c r="C335" s="25"/>
+      <c r="A335" s="27"/>
+      <c r="B335" s="27"/>
+      <c r="C335" s="13"/>
       <c r="D335" s="6"/>
       <c r="E335" s="6"/>
       <c r="F335" s="6"/>
       <c r="G335" s="6"/>
       <c r="H335" s="6"/>
       <c r="I335" s="6"/>
-      <c r="J335" s="9"/>
+      <c r="J335" s="11"/>
     </row>
     <row r="336" ht="21" customHeight="1">
-      <c r="A336" s="27"/>
-      <c r="B336" s="27"/>
+      <c r="A336" s="13"/>
+      <c r="B336" s="13"/>
       <c r="C336" s="13"/>
       <c r="D336" s="6"/>
       <c r="E336" s="6"/>
@@ -9395,7 +9428,7 @@
       <c r="G336" s="6"/>
       <c r="H336" s="6"/>
       <c r="I336" s="6"/>
-      <c r="J336" s="11"/>
+      <c r="J336" s="7"/>
     </row>
     <row r="337" ht="21" customHeight="1">
       <c r="A337" s="13"/>
@@ -9419,7 +9452,7 @@
       <c r="G338" s="6"/>
       <c r="H338" s="6"/>
       <c r="I338" s="6"/>
-      <c r="J338" s="7"/>
+      <c r="J338" s="9"/>
     </row>
     <row r="339" ht="21" customHeight="1">
       <c r="A339" s="13"/>
@@ -9431,7 +9464,7 @@
       <c r="G339" s="6"/>
       <c r="H339" s="6"/>
       <c r="I339" s="6"/>
-      <c r="J339" s="9"/>
+      <c r="J339" s="11"/>
     </row>
     <row r="340" ht="21" customHeight="1">
       <c r="A340" s="13"/>
@@ -9443,7 +9476,7 @@
       <c r="G340" s="6"/>
       <c r="H340" s="6"/>
       <c r="I340" s="6"/>
-      <c r="J340" s="11"/>
+      <c r="J340" s="7"/>
     </row>
     <row r="341" ht="21" customHeight="1">
       <c r="A341" s="13"/>
@@ -9479,11 +9512,11 @@
       <c r="G343" s="6"/>
       <c r="H343" s="6"/>
       <c r="I343" s="6"/>
-      <c r="J343" s="7"/>
+      <c r="J343" s="9"/>
     </row>
     <row r="344" ht="21" customHeight="1">
-      <c r="A344" s="13"/>
-      <c r="B344" s="13"/>
+      <c r="A344" s="28"/>
+      <c r="B344" s="28"/>
       <c r="C344" s="13"/>
       <c r="D344" s="6"/>
       <c r="E344" s="6"/>
@@ -9491,35 +9524,35 @@
       <c r="G344" s="6"/>
       <c r="H344" s="6"/>
       <c r="I344" s="6"/>
-      <c r="J344" s="9"/>
+      <c r="J344" s="11"/>
     </row>
     <row r="345" ht="21" customHeight="1">
-      <c r="A345" s="28"/>
-      <c r="B345" s="28"/>
-      <c r="C345" s="13"/>
+      <c r="A345" s="26"/>
+      <c r="B345" s="26"/>
+      <c r="C345" s="25"/>
       <c r="D345" s="6"/>
       <c r="E345" s="6"/>
       <c r="F345" s="6"/>
       <c r="G345" s="6"/>
       <c r="H345" s="6"/>
       <c r="I345" s="6"/>
-      <c r="J345" s="11"/>
+      <c r="J345" s="9"/>
     </row>
     <row r="346" ht="21" customHeight="1">
-      <c r="A346" s="26"/>
-      <c r="B346" s="26"/>
-      <c r="C346" s="25"/>
+      <c r="A346" s="27"/>
+      <c r="B346" s="27"/>
+      <c r="C346" s="13"/>
       <c r="D346" s="6"/>
       <c r="E346" s="6"/>
       <c r="F346" s="6"/>
       <c r="G346" s="6"/>
       <c r="H346" s="6"/>
       <c r="I346" s="6"/>
-      <c r="J346" s="9"/>
+      <c r="J346" s="11"/>
     </row>
     <row r="347" ht="21" customHeight="1">
-      <c r="A347" s="27"/>
-      <c r="B347" s="27"/>
+      <c r="A347" s="13"/>
+      <c r="B347" s="13"/>
       <c r="C347" s="13"/>
       <c r="D347" s="6"/>
       <c r="E347" s="6"/>
@@ -9527,7 +9560,7 @@
       <c r="G347" s="6"/>
       <c r="H347" s="6"/>
       <c r="I347" s="6"/>
-      <c r="J347" s="11"/>
+      <c r="J347" s="9"/>
     </row>
     <row r="348" ht="21" customHeight="1">
       <c r="A348" s="13"/>
@@ -9539,7 +9572,7 @@
       <c r="G348" s="6"/>
       <c r="H348" s="6"/>
       <c r="I348" s="6"/>
-      <c r="J348" s="9"/>
+      <c r="J348" s="11"/>
     </row>
     <row r="349" ht="21" customHeight="1">
       <c r="A349" s="13"/>
@@ -9551,7 +9584,7 @@
       <c r="G349" s="6"/>
       <c r="H349" s="6"/>
       <c r="I349" s="6"/>
-      <c r="J349" s="11"/>
+      <c r="J349" s="7"/>
     </row>
     <row r="350" ht="21" customHeight="1">
       <c r="A350" s="13"/>
@@ -9587,7 +9620,7 @@
       <c r="G352" s="6"/>
       <c r="H352" s="6"/>
       <c r="I352" s="6"/>
-      <c r="J352" s="7"/>
+      <c r="J352" s="9"/>
     </row>
     <row r="353" ht="21" customHeight="1">
       <c r="A353" s="13"/>
@@ -9599,7 +9632,7 @@
       <c r="G353" s="6"/>
       <c r="H353" s="6"/>
       <c r="I353" s="6"/>
-      <c r="J353" s="9"/>
+      <c r="J353" s="11"/>
     </row>
     <row r="354" ht="21" customHeight="1">
       <c r="A354" s="13"/>
@@ -9611,19 +9644,7 @@
       <c r="G354" s="6"/>
       <c r="H354" s="6"/>
       <c r="I354" s="6"/>
-      <c r="J354" s="11"/>
-    </row>
-    <row r="355" ht="21" customHeight="1">
-      <c r="A355" s="13"/>
-      <c r="B355" s="13"/>
-      <c r="C355" s="13"/>
-      <c r="D355" s="6"/>
-      <c r="E355" s="6"/>
-      <c r="F355" s="6"/>
-      <c r="G355" s="6"/>
-      <c r="H355" s="6"/>
-      <c r="I355" s="6"/>
-      <c r="J355" s="9"/>
+      <c r="J354" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/cw12022023.xlsx
+++ b/cw12022023.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="493">
   <si>
     <t>Surname</t>
   </si>
@@ -1418,6 +1418,12 @@
   </si>
   <si>
     <t>H220500Y</t>
+  </si>
+  <si>
+    <t>Useya</t>
+  </si>
+  <si>
+    <t>H220667Q</t>
   </si>
   <si>
     <t>Vurayai</t>
@@ -1837,14 +1843,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3455,7 +3461,9 @@
       <c r="D23" s="6">
         <v>0.285714285714286</v>
       </c>
-      <c r="E23" s="6"/>
+      <c r="E23" s="6">
+        <v>0.229166666666667</v>
+      </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6">
@@ -3659,7 +3667,9 @@
       <c r="D32" s="15">
         <v>0.880952380952381</v>
       </c>
-      <c r="E32" s="13"/>
+      <c r="E32" s="15">
+        <v>0.5625</v>
+      </c>
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
       <c r="H32" s="6">
@@ -4101,7 +4111,9 @@
       <c r="D52" s="6">
         <v>0.761904761904762</v>
       </c>
-      <c r="E52" s="6"/>
+      <c r="E52" s="6">
+        <v>0.666666666666667</v>
+      </c>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
       <c r="H52" s="6">
@@ -4477,7 +4489,9 @@
       <c r="D69" s="6">
         <v>0.595238095238095</v>
       </c>
-      <c r="E69" s="6"/>
+      <c r="E69" s="6">
+        <v>0.770833333333333</v>
+      </c>
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
       <c r="H69" s="6">
@@ -4543,7 +4557,9 @@
       <c r="D72" s="6">
         <v>0.69047619047619</v>
       </c>
-      <c r="E72" s="6"/>
+      <c r="E72" s="6">
+        <v>0.5</v>
+      </c>
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
       <c r="H72" s="6">
@@ -5497,7 +5513,9 @@
       <c r="D115" s="6">
         <v>0.595238095238095</v>
       </c>
-      <c r="E115" s="6"/>
+      <c r="E115" s="6">
+        <v>0.354166666666667</v>
+      </c>
       <c r="F115" s="6"/>
       <c r="G115" s="6"/>
       <c r="H115" s="6">
@@ -6257,7 +6275,9 @@
       <c r="D149" s="15">
         <v>0.619047619047619</v>
       </c>
-      <c r="E149" s="13"/>
+      <c r="E149" s="15">
+        <v>0.395833333333333</v>
+      </c>
       <c r="F149" s="13"/>
       <c r="G149" s="13"/>
       <c r="H149" s="6">
@@ -7007,7 +7027,9 @@
       <c r="D183" s="6">
         <v>0.619047619047619</v>
       </c>
-      <c r="E183" s="6"/>
+      <c r="E183" s="6">
+        <v>0.770833333333333</v>
+      </c>
       <c r="F183" s="6"/>
       <c r="G183" s="6"/>
       <c r="H183" s="6">
@@ -7561,7 +7583,9 @@
       <c r="D208" s="6">
         <v>0.880952380952381</v>
       </c>
-      <c r="E208" s="6"/>
+      <c r="E208" s="6">
+        <v>0.979166666666667</v>
+      </c>
       <c r="F208" s="6"/>
       <c r="G208" s="6"/>
       <c r="H208" s="6">
@@ -7583,7 +7607,9 @@
       <c r="D209" s="6">
         <v>0.714285714285714</v>
       </c>
-      <c r="E209" s="6"/>
+      <c r="E209" s="6">
+        <v>0.520833333333333</v>
+      </c>
       <c r="F209" s="6"/>
       <c r="G209" s="6"/>
       <c r="H209" s="6">
@@ -8015,10 +8041,10 @@
       <c r="J228" s="7"/>
     </row>
     <row r="229" ht="21" customHeight="1">
-      <c r="A229" t="s" s="5">
+      <c r="A229" t="s" s="4">
         <v>467</v>
       </c>
-      <c r="B229" t="s" s="5">
+      <c r="B229" t="s" s="4">
         <v>468</v>
       </c>
       <c r="C229" t="s" s="5">
@@ -8034,31 +8060,33 @@
         <v>0.666666666666667</v>
       </c>
       <c r="I229" s="6"/>
-      <c r="J229" s="9"/>
-    </row>
-    <row r="230" ht="20.7" customHeight="1">
-      <c r="A230" t="s" s="5">
+      <c r="J229" s="7"/>
+    </row>
+    <row r="230" ht="21" customHeight="1">
+      <c r="A230" t="s" s="19">
         <v>469</v>
       </c>
-      <c r="B230" t="s" s="5">
+      <c r="B230" t="s" s="19">
         <v>470</v>
       </c>
-      <c r="C230" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="D230" s="15">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E230" s="13"/>
-      <c r="F230" s="13"/>
-      <c r="G230" s="13"/>
+      <c r="C230" t="s" s="18">
+        <v>67</v>
+      </c>
+      <c r="D230" s="6">
+        <v>0</v>
+      </c>
+      <c r="E230" s="6">
+        <v>0.6875</v>
+      </c>
+      <c r="F230" s="6"/>
+      <c r="G230" s="6"/>
       <c r="H230" s="6">
-        <v>0.638888888888889</v>
-      </c>
-      <c r="I230" s="13"/>
-      <c r="J230" s="14"/>
-    </row>
-    <row r="231" ht="21" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="I230" s="6"/>
+      <c r="J230" s="9"/>
+    </row>
+    <row r="231" ht="20.7" customHeight="1">
       <c r="A231" t="s" s="5">
         <v>471</v>
       </c>
@@ -8066,19 +8094,19 @@
         <v>472</v>
       </c>
       <c r="C231" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D231" s="6">
-        <v>0.761904761904762</v>
-      </c>
-      <c r="E231" s="6"/>
-      <c r="F231" s="6"/>
-      <c r="G231" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="D231" s="15">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E231" s="13"/>
+      <c r="F231" s="13"/>
+      <c r="G231" s="13"/>
       <c r="H231" s="6">
-        <v>0.861111111111111</v>
-      </c>
-      <c r="I231" s="6"/>
-      <c r="J231" s="10"/>
+        <v>0.638888888888889</v>
+      </c>
+      <c r="I231" s="13"/>
+      <c r="J231" s="14"/>
     </row>
     <row r="232" ht="21" customHeight="1">
       <c r="A232" t="s" s="5">
@@ -8088,19 +8116,19 @@
         <v>474</v>
       </c>
       <c r="C232" t="s" s="5">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D232" s="6">
-        <v>0</v>
+        <v>0.761904761904762</v>
       </c>
       <c r="E232" s="6"/>
       <c r="F232" s="6"/>
       <c r="G232" s="6"/>
       <c r="H232" s="6">
-        <v>0.611111111111111</v>
+        <v>0.861111111111111</v>
       </c>
       <c r="I232" s="6"/>
-      <c r="J232" s="11"/>
+      <c r="J232" s="10"/>
     </row>
     <row r="233" ht="21" customHeight="1">
       <c r="A233" t="s" s="5">
@@ -8113,123 +8141,123 @@
         <v>12</v>
       </c>
       <c r="D233" s="6">
-        <v>0.595238095238095</v>
+        <v>0</v>
       </c>
       <c r="E233" s="6"/>
       <c r="F233" s="6"/>
       <c r="G233" s="6"/>
       <c r="H233" s="6">
-        <v>0.777777777777778</v>
+        <v>0.611111111111111</v>
       </c>
       <c r="I233" s="6"/>
-      <c r="J233" s="7"/>
+      <c r="J233" s="11"/>
     </row>
     <row r="234" ht="21" customHeight="1">
-      <c r="A234" t="s" s="4">
+      <c r="A234" t="s" s="5">
         <v>477</v>
       </c>
-      <c r="B234" t="s" s="4">
+      <c r="B234" t="s" s="5">
         <v>478</v>
       </c>
       <c r="C234" t="s" s="5">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D234" s="6">
-        <v>0.571428571428571</v>
+        <v>0.595238095238095</v>
       </c>
       <c r="E234" s="6"/>
       <c r="F234" s="6"/>
       <c r="G234" s="6"/>
       <c r="H234" s="6">
-        <v>0.75</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I234" s="6"/>
-      <c r="J234" s="9"/>
+      <c r="J234" s="7"/>
     </row>
     <row r="235" ht="21" customHeight="1">
-      <c r="A235" t="s" s="24">
+      <c r="A235" t="s" s="4">
         <v>479</v>
       </c>
-      <c r="B235" t="s" s="24">
+      <c r="B235" t="s" s="4">
         <v>480</v>
       </c>
       <c r="C235" t="s" s="5">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D235" s="6">
-        <v>0.738095238095238</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="E235" s="6"/>
       <c r="F235" s="6"/>
       <c r="G235" s="6"/>
       <c r="H235" s="6">
-        <v>0.777777777777778</v>
+        <v>0.75</v>
       </c>
       <c r="I235" s="6"/>
-      <c r="J235" s="11"/>
+      <c r="J235" s="9"/>
     </row>
     <row r="236" ht="21" customHeight="1">
-      <c r="A236" t="s" s="17">
+      <c r="A236" t="s" s="24">
         <v>481</v>
       </c>
-      <c r="B236" t="s" s="17">
+      <c r="B236" t="s" s="24">
         <v>482</v>
       </c>
-      <c r="C236" t="s" s="18">
-        <v>18</v>
+      <c r="C236" t="s" s="5">
+        <v>21</v>
       </c>
       <c r="D236" s="6">
-        <v>0.285714285714286</v>
+        <v>0.738095238095238</v>
       </c>
       <c r="E236" s="6"/>
       <c r="F236" s="6"/>
       <c r="G236" s="6"/>
       <c r="H236" s="6">
-        <v>0.805555555555556</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I236" s="6"/>
-      <c r="J236" s="7"/>
+      <c r="J236" s="11"/>
     </row>
     <row r="237" ht="21" customHeight="1">
-      <c r="A237" t="s" s="19">
+      <c r="A237" t="s" s="17">
         <v>483</v>
       </c>
-      <c r="B237" t="s" s="19">
+      <c r="B237" t="s" s="17">
         <v>484</v>
       </c>
       <c r="C237" t="s" s="18">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D237" s="6">
-        <v>0</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="E237" s="6"/>
       <c r="F237" s="6"/>
       <c r="G237" s="6"/>
       <c r="H237" s="6">
-        <v>0.777777777777778</v>
+        <v>0.805555555555556</v>
       </c>
       <c r="I237" s="6"/>
       <c r="J237" s="7"/>
     </row>
     <row r="238" ht="21" customHeight="1">
-      <c r="A238" t="s" s="5">
+      <c r="A238" t="s" s="19">
         <v>485</v>
       </c>
-      <c r="B238" t="s" s="5">
+      <c r="B238" t="s" s="19">
         <v>486</v>
       </c>
-      <c r="C238" t="s" s="5">
-        <v>12</v>
+      <c r="C238" t="s" s="18">
+        <v>15</v>
       </c>
       <c r="D238" s="6">
-        <v>0.30952380952381</v>
+        <v>0</v>
       </c>
       <c r="E238" s="6"/>
       <c r="F238" s="6"/>
       <c r="G238" s="6"/>
       <c r="H238" s="6">
-        <v>0.638888888888889</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I238" s="6"/>
       <c r="J238" s="7"/>
@@ -8242,57 +8270,67 @@
         <v>488</v>
       </c>
       <c r="C239" t="s" s="5">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="D239" s="6">
-        <v>0.333333333333333</v>
+        <v>0.30952380952381</v>
       </c>
       <c r="E239" s="6"/>
       <c r="F239" s="6"/>
       <c r="G239" s="6"/>
       <c r="H239" s="6">
-        <v>0.666666666666667</v>
+        <v>0.638888888888889</v>
       </c>
       <c r="I239" s="6"/>
       <c r="J239" s="7"/>
     </row>
     <row r="240" ht="21" customHeight="1">
-      <c r="A240" t="s" s="4">
+      <c r="A240" t="s" s="5">
         <v>489</v>
       </c>
-      <c r="B240" t="s" s="4">
+      <c r="B240" t="s" s="5">
         <v>490</v>
       </c>
       <c r="C240" t="s" s="5">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="D240" s="6">
-        <v>0.904761904761905</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="E240" s="6"/>
       <c r="F240" s="6"/>
       <c r="G240" s="6"/>
       <c r="H240" s="6">
-        <v>0.861111111111111</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="I240" s="6"/>
       <c r="J240" s="7"/>
     </row>
     <row r="241" ht="21" customHeight="1">
-      <c r="A241" s="26"/>
-      <c r="B241" s="26"/>
-      <c r="C241" s="25"/>
-      <c r="D241" s="6"/>
+      <c r="A241" t="s" s="4">
+        <v>491</v>
+      </c>
+      <c r="B241" t="s" s="4">
+        <v>492</v>
+      </c>
+      <c r="C241" t="s" s="5">
+        <v>18</v>
+      </c>
+      <c r="D241" s="6">
+        <v>0.904761904761905</v>
+      </c>
       <c r="E241" s="6"/>
       <c r="F241" s="6"/>
       <c r="G241" s="6"/>
-      <c r="H241" s="6"/>
+      <c r="H241" s="6">
+        <v>0.861111111111111</v>
+      </c>
       <c r="I241" s="6"/>
       <c r="J241" s="9"/>
     </row>
     <row r="242" ht="21" customHeight="1">
-      <c r="A242" s="27"/>
-      <c r="B242" s="27"/>
+      <c r="A242" s="26"/>
+      <c r="B242" s="26"/>
       <c r="C242" s="13"/>
       <c r="D242" s="6"/>
       <c r="E242" s="6"/>
@@ -8423,8 +8461,8 @@
       <c r="J252" s="14"/>
     </row>
     <row r="253" ht="20.35" customHeight="1">
-      <c r="A253" s="28"/>
-      <c r="B253" s="28"/>
+      <c r="A253" s="27"/>
+      <c r="B253" s="27"/>
       <c r="C253" s="13"/>
       <c r="D253" s="13"/>
       <c r="E253" s="13"/>
@@ -8435,8 +8473,8 @@
       <c r="J253" s="16"/>
     </row>
     <row r="254" ht="21" customHeight="1">
-      <c r="A254" s="26"/>
-      <c r="B254" s="26"/>
+      <c r="A254" s="28"/>
+      <c r="B254" s="28"/>
       <c r="C254" s="25"/>
       <c r="D254" s="6"/>
       <c r="E254" s="6"/>
@@ -8447,8 +8485,8 @@
       <c r="J254" s="9"/>
     </row>
     <row r="255" ht="20.7" customHeight="1">
-      <c r="A255" s="27"/>
-      <c r="B255" s="27"/>
+      <c r="A255" s="26"/>
+      <c r="B255" s="26"/>
       <c r="C255" s="13"/>
       <c r="D255" s="13"/>
       <c r="E255" s="13"/>
@@ -8459,8 +8497,8 @@
       <c r="J255" s="16"/>
     </row>
     <row r="256" ht="21" customHeight="1">
-      <c r="A256" s="28"/>
-      <c r="B256" s="28"/>
+      <c r="A256" s="27"/>
+      <c r="B256" s="27"/>
       <c r="C256" s="13"/>
       <c r="D256" s="6"/>
       <c r="E256" s="6"/>
@@ -8471,8 +8509,8 @@
       <c r="J256" s="7"/>
     </row>
     <row r="257" ht="21" customHeight="1">
-      <c r="A257" s="26"/>
-      <c r="B257" s="26"/>
+      <c r="A257" s="28"/>
+      <c r="B257" s="28"/>
       <c r="C257" s="25"/>
       <c r="D257" s="6"/>
       <c r="E257" s="6"/>
@@ -8483,8 +8521,8 @@
       <c r="J257" s="9"/>
     </row>
     <row r="258" ht="21" customHeight="1">
-      <c r="A258" s="27"/>
-      <c r="B258" s="27"/>
+      <c r="A258" s="26"/>
+      <c r="B258" s="26"/>
       <c r="C258" s="13"/>
       <c r="D258" s="6"/>
       <c r="E258" s="6"/>
@@ -8507,8 +8545,8 @@
       <c r="J259" s="7"/>
     </row>
     <row r="260" ht="21" customHeight="1">
-      <c r="A260" s="28"/>
-      <c r="B260" s="28"/>
+      <c r="A260" s="27"/>
+      <c r="B260" s="27"/>
       <c r="C260" s="13"/>
       <c r="D260" s="6"/>
       <c r="E260" s="6"/>
@@ -8519,8 +8557,8 @@
       <c r="J260" s="7"/>
     </row>
     <row r="261" ht="21" customHeight="1">
-      <c r="A261" s="26"/>
-      <c r="B261" s="26"/>
+      <c r="A261" s="28"/>
+      <c r="B261" s="28"/>
       <c r="C261" s="25"/>
       <c r="D261" s="6"/>
       <c r="E261" s="6"/>
@@ -8531,8 +8569,8 @@
       <c r="J261" s="7"/>
     </row>
     <row r="262" ht="21" customHeight="1">
-      <c r="A262" s="26"/>
-      <c r="B262" s="26"/>
+      <c r="A262" s="28"/>
+      <c r="B262" s="28"/>
       <c r="C262" s="25"/>
       <c r="D262" s="6"/>
       <c r="E262" s="6"/>
@@ -8543,8 +8581,8 @@
       <c r="J262" s="7"/>
     </row>
     <row r="263" ht="21" customHeight="1">
-      <c r="A263" s="27"/>
-      <c r="B263" s="27"/>
+      <c r="A263" s="26"/>
+      <c r="B263" s="26"/>
       <c r="C263" s="13"/>
       <c r="D263" s="6"/>
       <c r="E263" s="6"/>
@@ -8711,8 +8749,8 @@
       <c r="J276" s="7"/>
     </row>
     <row r="277" ht="21" customHeight="1">
-      <c r="A277" s="28"/>
-      <c r="B277" s="28"/>
+      <c r="A277" s="27"/>
+      <c r="B277" s="27"/>
       <c r="C277" s="13"/>
       <c r="D277" s="6"/>
       <c r="E277" s="6"/>
@@ -8723,8 +8761,8 @@
       <c r="J277" s="7"/>
     </row>
     <row r="278" ht="21" customHeight="1">
-      <c r="A278" s="26"/>
-      <c r="B278" s="26"/>
+      <c r="A278" s="28"/>
+      <c r="B278" s="28"/>
       <c r="C278" s="25"/>
       <c r="D278" s="6"/>
       <c r="E278" s="6"/>
@@ -8735,8 +8773,8 @@
       <c r="J278" s="7"/>
     </row>
     <row r="279" ht="21" customHeight="1">
-      <c r="A279" s="26"/>
-      <c r="B279" s="26"/>
+      <c r="A279" s="28"/>
+      <c r="B279" s="28"/>
       <c r="C279" s="25"/>
       <c r="D279" s="6"/>
       <c r="E279" s="6"/>
@@ -8747,8 +8785,8 @@
       <c r="J279" s="9"/>
     </row>
     <row r="280" ht="21" customHeight="1">
-      <c r="A280" s="27"/>
-      <c r="B280" s="27"/>
+      <c r="A280" s="26"/>
+      <c r="B280" s="26"/>
       <c r="C280" s="13"/>
       <c r="D280" s="6"/>
       <c r="E280" s="6"/>
@@ -8891,8 +8929,8 @@
       <c r="J291" s="7"/>
     </row>
     <row r="292" ht="21" customHeight="1">
-      <c r="A292" s="28"/>
-      <c r="B292" s="28"/>
+      <c r="A292" s="27"/>
+      <c r="B292" s="27"/>
       <c r="C292" s="13"/>
       <c r="D292" s="6"/>
       <c r="E292" s="6"/>
@@ -8903,8 +8941,8 @@
       <c r="J292" s="7"/>
     </row>
     <row r="293" ht="21" customHeight="1">
-      <c r="A293" s="26"/>
-      <c r="B293" s="26"/>
+      <c r="A293" s="28"/>
+      <c r="B293" s="28"/>
       <c r="C293" s="25"/>
       <c r="D293" s="6"/>
       <c r="E293" s="6"/>
@@ -8915,8 +8953,8 @@
       <c r="J293" s="9"/>
     </row>
     <row r="294" ht="20.7" customHeight="1">
-      <c r="A294" s="27"/>
-      <c r="B294" s="27"/>
+      <c r="A294" s="26"/>
+      <c r="B294" s="26"/>
       <c r="C294" s="13"/>
       <c r="D294" s="13"/>
       <c r="E294" s="13"/>
@@ -8975,8 +9013,8 @@
       <c r="J298" s="9"/>
     </row>
     <row r="299" ht="21" customHeight="1">
-      <c r="A299" s="28"/>
-      <c r="B299" s="28"/>
+      <c r="A299" s="27"/>
+      <c r="B299" s="27"/>
       <c r="C299" s="13"/>
       <c r="D299" s="6"/>
       <c r="E299" s="6"/>
@@ -8987,8 +9025,8 @@
       <c r="J299" s="11"/>
     </row>
     <row r="300" ht="21" customHeight="1">
-      <c r="A300" s="26"/>
-      <c r="B300" s="26"/>
+      <c r="A300" s="28"/>
+      <c r="B300" s="28"/>
       <c r="C300" s="25"/>
       <c r="D300" s="6"/>
       <c r="E300" s="6"/>
@@ -8999,8 +9037,8 @@
       <c r="J300" s="7"/>
     </row>
     <row r="301" ht="21" customHeight="1">
-      <c r="A301" s="27"/>
-      <c r="B301" s="27"/>
+      <c r="A301" s="26"/>
+      <c r="B301" s="26"/>
       <c r="C301" s="13"/>
       <c r="D301" s="6"/>
       <c r="E301" s="6"/>
@@ -9251,8 +9289,8 @@
       <c r="J321" s="7"/>
     </row>
     <row r="322" ht="21" customHeight="1">
-      <c r="A322" s="28"/>
-      <c r="B322" s="28"/>
+      <c r="A322" s="27"/>
+      <c r="B322" s="27"/>
       <c r="C322" s="13"/>
       <c r="D322" s="6"/>
       <c r="E322" s="6"/>
@@ -9263,8 +9301,8 @@
       <c r="J322" s="7"/>
     </row>
     <row r="323" ht="21" customHeight="1">
-      <c r="A323" s="26"/>
-      <c r="B323" s="26"/>
+      <c r="A323" s="28"/>
+      <c r="B323" s="28"/>
       <c r="C323" s="25"/>
       <c r="D323" s="6"/>
       <c r="E323" s="6"/>
@@ -9275,8 +9313,8 @@
       <c r="J323" s="7"/>
     </row>
     <row r="324" ht="21" customHeight="1">
-      <c r="A324" s="26"/>
-      <c r="B324" s="26"/>
+      <c r="A324" s="28"/>
+      <c r="B324" s="28"/>
       <c r="C324" s="25"/>
       <c r="D324" s="6"/>
       <c r="E324" s="6"/>
@@ -9287,8 +9325,8 @@
       <c r="J324" s="7"/>
     </row>
     <row r="325" ht="21" customHeight="1">
-      <c r="A325" s="26"/>
-      <c r="B325" s="26"/>
+      <c r="A325" s="28"/>
+      <c r="B325" s="28"/>
       <c r="C325" s="25"/>
       <c r="D325" s="6"/>
       <c r="E325" s="6"/>
@@ -9299,8 +9337,8 @@
       <c r="J325" s="9"/>
     </row>
     <row r="326" ht="21" customHeight="1">
-      <c r="A326" s="27"/>
-      <c r="B326" s="27"/>
+      <c r="A326" s="26"/>
+      <c r="B326" s="26"/>
       <c r="C326" s="13"/>
       <c r="D326" s="6"/>
       <c r="E326" s="6"/>
@@ -9371,8 +9409,8 @@
       <c r="J331" s="10"/>
     </row>
     <row r="332" ht="20.7" customHeight="1">
-      <c r="A332" s="28"/>
-      <c r="B332" s="28"/>
+      <c r="A332" s="27"/>
+      <c r="B332" s="27"/>
       <c r="C332" s="13"/>
       <c r="D332" s="13"/>
       <c r="E332" s="13"/>
@@ -9383,8 +9421,8 @@
       <c r="J332" s="16"/>
     </row>
     <row r="333" ht="21" customHeight="1">
-      <c r="A333" s="26"/>
-      <c r="B333" s="26"/>
+      <c r="A333" s="28"/>
+      <c r="B333" s="28"/>
       <c r="C333" s="25"/>
       <c r="D333" s="6"/>
       <c r="E333" s="6"/>
@@ -9395,8 +9433,8 @@
       <c r="J333" s="7"/>
     </row>
     <row r="334" ht="21" customHeight="1">
-      <c r="A334" s="26"/>
-      <c r="B334" s="26"/>
+      <c r="A334" s="28"/>
+      <c r="B334" s="28"/>
       <c r="C334" s="25"/>
       <c r="D334" s="6"/>
       <c r="E334" s="6"/>
@@ -9407,8 +9445,8 @@
       <c r="J334" s="9"/>
     </row>
     <row r="335" ht="21" customHeight="1">
-      <c r="A335" s="27"/>
-      <c r="B335" s="27"/>
+      <c r="A335" s="26"/>
+      <c r="B335" s="26"/>
       <c r="C335" s="13"/>
       <c r="D335" s="6"/>
       <c r="E335" s="6"/>
@@ -9515,8 +9553,8 @@
       <c r="J343" s="9"/>
     </row>
     <row r="344" ht="21" customHeight="1">
-      <c r="A344" s="28"/>
-      <c r="B344" s="28"/>
+      <c r="A344" s="27"/>
+      <c r="B344" s="27"/>
       <c r="C344" s="13"/>
       <c r="D344" s="6"/>
       <c r="E344" s="6"/>
@@ -9527,8 +9565,8 @@
       <c r="J344" s="11"/>
     </row>
     <row r="345" ht="21" customHeight="1">
-      <c r="A345" s="26"/>
-      <c r="B345" s="26"/>
+      <c r="A345" s="28"/>
+      <c r="B345" s="28"/>
       <c r="C345" s="25"/>
       <c r="D345" s="6"/>
       <c r="E345" s="6"/>
@@ -9539,8 +9577,8 @@
       <c r="J345" s="9"/>
     </row>
     <row r="346" ht="21" customHeight="1">
-      <c r="A346" s="27"/>
-      <c r="B346" s="27"/>
+      <c r="A346" s="26"/>
+      <c r="B346" s="26"/>
       <c r="C346" s="13"/>
       <c r="D346" s="6"/>
       <c r="E346" s="6"/>

--- a/cw12022023.xlsx
+++ b/cw12022023.xlsx
@@ -46,7 +46,7 @@
     <t>Benaiah</t>
   </si>
   <si>
-    <t>H220445</t>
+    <t>H220445N</t>
   </si>
   <si>
     <t>HEEE</t>
@@ -112,7 +112,7 @@
     <t>Chagorerino</t>
   </si>
   <si>
-    <t>H200481F</t>
+    <t>H220481F</t>
   </si>
   <si>
     <t xml:space="preserve">Chaka </t>
@@ -2997,7 +2997,9 @@
       <c r="D2" s="6">
         <v>0.428571428571429</v>
       </c>
-      <c r="E2" s="6"/>
+      <c r="E2" s="6">
+        <v>0.395833333333333</v>
+      </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6">
@@ -3087,7 +3089,9 @@
       <c r="D6" s="6">
         <v>0.642857142857143</v>
       </c>
-      <c r="E6" s="6"/>
+      <c r="E6" s="6">
+        <v>0.645833333333333</v>
+      </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6">
@@ -3197,7 +3201,9 @@
       <c r="D11" s="6">
         <v>0.880952380952381</v>
       </c>
-      <c r="E11" s="6"/>
+      <c r="E11" s="6">
+        <v>0.791666666666667</v>
+      </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6">
@@ -3219,7 +3225,9 @@
       <c r="D12" s="6">
         <v>0.5238095238095239</v>
       </c>
-      <c r="E12" s="6"/>
+      <c r="E12" s="6">
+        <v>0.833333333333333</v>
+      </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6">
@@ -3241,7 +3249,9 @@
       <c r="D13" s="6">
         <v>0.833333333333333</v>
       </c>
-      <c r="E13" s="6"/>
+      <c r="E13" s="6">
+        <v>0.479166666666667</v>
+      </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6">
@@ -3329,7 +3339,9 @@
       <c r="D17" s="6">
         <v>0.714285714285714</v>
       </c>
-      <c r="E17" s="6"/>
+      <c r="E17" s="6">
+        <v>0.5</v>
+      </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6">
@@ -3823,7 +3835,9 @@
       <c r="D39" s="6">
         <v>0.666666666666667</v>
       </c>
-      <c r="E39" s="6"/>
+      <c r="E39" s="6">
+        <v>0.791666666666667</v>
+      </c>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
       <c r="H39" s="6">
@@ -4135,7 +4149,9 @@
       <c r="D53" s="6">
         <v>0.833333333333333</v>
       </c>
-      <c r="E53" s="6"/>
+      <c r="E53" s="6">
+        <v>0.791666666666667</v>
+      </c>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6">
@@ -4357,7 +4373,9 @@
       <c r="D63" s="6">
         <v>0.5238095238095239</v>
       </c>
-      <c r="E63" s="6"/>
+      <c r="E63" s="6">
+        <v>0.625</v>
+      </c>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6">
@@ -4691,7 +4709,9 @@
       <c r="D78" s="6">
         <v>0.761904761904762</v>
       </c>
-      <c r="E78" s="6"/>
+      <c r="E78" s="6">
+        <v>0.583333333333333</v>
+      </c>
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
       <c r="H78" s="6">
@@ -5354,10 +5374,12 @@
       <c r="C108" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="D108" s="15">
+      <c r="D108" s="12">
         <v>0.785714285714286</v>
       </c>
-      <c r="E108" s="13"/>
+      <c r="E108" s="12">
+        <v>0.895833333333333</v>
+      </c>
       <c r="F108" s="13"/>
       <c r="G108" s="13"/>
       <c r="H108" s="6">
@@ -5379,7 +5401,9 @@
       <c r="D109" s="6">
         <v>0.666666666666667</v>
       </c>
-      <c r="E109" s="6"/>
+      <c r="E109" s="6">
+        <v>0.541666666666667</v>
+      </c>
       <c r="F109" s="6"/>
       <c r="G109" s="6"/>
       <c r="H109" s="6">
@@ -5803,7 +5827,9 @@
       <c r="D128" s="6">
         <v>0.80952380952381</v>
       </c>
-      <c r="E128" s="6"/>
+      <c r="E128" s="6">
+        <v>0.645833333333333</v>
+      </c>
       <c r="F128" s="6"/>
       <c r="G128" s="6"/>
       <c r="H128" s="6">
@@ -6007,7 +6033,9 @@
       <c r="D137" s="6">
         <v>0.619047619047619</v>
       </c>
-      <c r="E137" s="6"/>
+      <c r="E137" s="6">
+        <v>0.583333333333333</v>
+      </c>
       <c r="F137" s="6"/>
       <c r="G137" s="6"/>
       <c r="H137" s="6">
@@ -6097,7 +6125,9 @@
       <c r="D141" s="12">
         <v>0.476190476190476</v>
       </c>
-      <c r="E141" s="13"/>
+      <c r="E141" s="15">
+        <v>0.333333333333333</v>
+      </c>
       <c r="F141" s="13"/>
       <c r="G141" s="13"/>
       <c r="H141" s="6">
@@ -6143,7 +6173,9 @@
       <c r="D143" s="6">
         <v>0.785714285714286</v>
       </c>
-      <c r="E143" s="6"/>
+      <c r="E143" s="6">
+        <v>0.895833333333333</v>
+      </c>
       <c r="F143" s="6"/>
       <c r="G143" s="6"/>
       <c r="H143" s="6">
@@ -6585,7 +6617,9 @@
       <c r="D163" s="6">
         <v>0.714285714285714</v>
       </c>
-      <c r="E163" s="6"/>
+      <c r="E163" s="6">
+        <v>0.604166666666667</v>
+      </c>
       <c r="F163" s="6"/>
       <c r="G163" s="6"/>
       <c r="H163" s="6">
@@ -6607,7 +6641,9 @@
       <c r="D164" s="6">
         <v>0.80952380952381</v>
       </c>
-      <c r="E164" s="6"/>
+      <c r="E164" s="6">
+        <v>0.625</v>
+      </c>
       <c r="F164" s="6"/>
       <c r="G164" s="6"/>
       <c r="H164" s="6">
@@ -6717,7 +6753,9 @@
       <c r="D169" s="6">
         <v>0.857142857142857</v>
       </c>
-      <c r="E169" s="6"/>
+      <c r="E169" s="6">
+        <v>0.833333333333333</v>
+      </c>
       <c r="F169" s="6"/>
       <c r="G169" s="6"/>
       <c r="H169" s="6">
@@ -7117,7 +7155,9 @@
       <c r="D187" s="6">
         <v>0.904761904761905</v>
       </c>
-      <c r="E187" s="6"/>
+      <c r="E187" s="6">
+        <v>0.541666666666667</v>
+      </c>
       <c r="F187" s="6"/>
       <c r="G187" s="6"/>
       <c r="H187" s="6">
@@ -7271,7 +7311,9 @@
       <c r="D194" s="6">
         <v>0.857142857142857</v>
       </c>
-      <c r="E194" s="6"/>
+      <c r="E194" s="6">
+        <v>0.458333333333333</v>
+      </c>
       <c r="F194" s="6"/>
       <c r="G194" s="6"/>
       <c r="H194" s="6">
@@ -7293,7 +7335,9 @@
       <c r="D195" s="6">
         <v>0.80952380952381</v>
       </c>
-      <c r="E195" s="6"/>
+      <c r="E195" s="6">
+        <v>0.75</v>
+      </c>
       <c r="F195" s="6"/>
       <c r="G195" s="6"/>
       <c r="H195" s="6">
@@ -7359,7 +7403,9 @@
       <c r="D198" s="6">
         <v>0.785714285714286</v>
       </c>
-      <c r="E198" s="6"/>
+      <c r="E198" s="6">
+        <v>0.6875</v>
+      </c>
       <c r="F198" s="6"/>
       <c r="G198" s="6"/>
       <c r="H198" s="6">
@@ -7381,7 +7427,9 @@
       <c r="D199" s="6">
         <v>1</v>
       </c>
-      <c r="E199" s="6"/>
+      <c r="E199" s="6">
+        <v>0.708333333333333</v>
+      </c>
       <c r="F199" s="6"/>
       <c r="G199" s="6"/>
       <c r="H199" s="6">
@@ -7425,7 +7473,9 @@
       <c r="D201" s="6">
         <v>0.738095238095238</v>
       </c>
-      <c r="E201" s="6"/>
+      <c r="E201" s="6">
+        <v>0.729166666666667</v>
+      </c>
       <c r="F201" s="6"/>
       <c r="G201" s="6"/>
       <c r="H201" s="6">
@@ -7631,7 +7681,9 @@
       <c r="D210" s="6">
         <v>0.80952380952381</v>
       </c>
-      <c r="E210" s="6"/>
+      <c r="E210" s="6">
+        <v>0.791666666666667</v>
+      </c>
       <c r="F210" s="6"/>
       <c r="G210" s="6"/>
       <c r="H210" s="6">
@@ -7741,7 +7793,9 @@
       <c r="D215" s="6">
         <v>0.666666666666667</v>
       </c>
-      <c r="E215" s="6"/>
+      <c r="E215" s="6">
+        <v>0.729166666666667</v>
+      </c>
       <c r="F215" s="6"/>
       <c r="G215" s="6"/>
       <c r="H215" s="6">
@@ -7853,7 +7907,9 @@
       <c r="D220" s="6">
         <v>0.833333333333333</v>
       </c>
-      <c r="E220" s="6"/>
+      <c r="E220" s="6">
+        <v>0.666666666666667</v>
+      </c>
       <c r="F220" s="6"/>
       <c r="G220" s="6"/>
       <c r="H220" s="6">
@@ -8121,7 +8177,9 @@
       <c r="D232" s="6">
         <v>0.761904761904762</v>
       </c>
-      <c r="E232" s="6"/>
+      <c r="E232" s="6">
+        <v>0.520833333333333</v>
+      </c>
       <c r="F232" s="6"/>
       <c r="G232" s="6"/>
       <c r="H232" s="6">
@@ -8209,7 +8267,9 @@
       <c r="D236" s="6">
         <v>0.738095238095238</v>
       </c>
-      <c r="E236" s="6"/>
+      <c r="E236" s="6">
+        <v>0.375</v>
+      </c>
       <c r="F236" s="6"/>
       <c r="G236" s="6"/>
       <c r="H236" s="6">
@@ -8231,7 +8291,9 @@
       <c r="D237" s="6">
         <v>0.285714285714286</v>
       </c>
-      <c r="E237" s="6"/>
+      <c r="E237" s="6">
+        <v>0.645833333333333</v>
+      </c>
       <c r="F237" s="6"/>
       <c r="G237" s="6"/>
       <c r="H237" s="6">
@@ -8253,7 +8315,9 @@
       <c r="D238" s="6">
         <v>0</v>
       </c>
-      <c r="E238" s="6"/>
+      <c r="E238" s="6">
+        <v>0.479166666666667</v>
+      </c>
       <c r="F238" s="6"/>
       <c r="G238" s="6"/>
       <c r="H238" s="6">
@@ -8275,7 +8339,9 @@
       <c r="D239" s="6">
         <v>0.30952380952381</v>
       </c>
-      <c r="E239" s="6"/>
+      <c r="E239" s="6">
+        <v>0.458333333333333</v>
+      </c>
       <c r="F239" s="6"/>
       <c r="G239" s="6"/>
       <c r="H239" s="6">

--- a/cw12022023.xlsx
+++ b/cw12022023.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="494">
   <si>
     <t>Surname</t>
   </si>
@@ -349,6 +349,9 @@
     <t>H220630W</t>
   </si>
   <si>
+    <t>H1312870A</t>
+  </si>
+  <si>
     <t>Dube</t>
   </si>
   <si>
@@ -1450,7 +1453,7 @@
     <t>H220275N</t>
   </si>
   <si>
-    <t>Zhirizhi</t>
+    <t>Zhorizhi</t>
   </si>
   <si>
     <t>H220054M</t>
@@ -1843,14 +1846,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3021,7 +3024,9 @@
       <c r="D3" s="6">
         <v>0.714285714285714</v>
       </c>
-      <c r="E3" s="6"/>
+      <c r="E3" s="6">
+        <v>0.375</v>
+      </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6">
@@ -3407,7 +3412,9 @@
       <c r="D20" s="6">
         <v>0.785714285714286</v>
       </c>
-      <c r="E20" s="6"/>
+      <c r="E20" s="6">
+        <v>0.958333333333333</v>
+      </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6">
@@ -3429,7 +3436,9 @@
       <c r="D21" s="6">
         <v>0.666666666666667</v>
       </c>
-      <c r="E21" s="6"/>
+      <c r="E21" s="6">
+        <v>0.416666666666667</v>
+      </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6">
@@ -3859,7 +3868,9 @@
       <c r="D40" s="15">
         <v>0.761904761904762</v>
       </c>
-      <c r="E40" s="13"/>
+      <c r="E40" s="15">
+        <v>0.8125</v>
+      </c>
       <c r="F40" s="13"/>
       <c r="G40" s="13"/>
       <c r="H40" s="6">
@@ -3969,7 +3980,9 @@
       <c r="D45" s="6">
         <v>0.833333333333333</v>
       </c>
-      <c r="E45" s="6"/>
+      <c r="E45" s="6">
+        <v>0.875</v>
+      </c>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6">
@@ -4069,215 +4082,217 @@
       <c r="J49" s="10"/>
     </row>
     <row r="50" ht="21" customHeight="1">
-      <c r="A50" t="s" s="8">
+      <c r="A50" t="s" s="24">
+        <v>110</v>
+      </c>
+      <c r="B50" t="s" s="24">
         <v>112</v>
       </c>
-      <c r="B50" t="s" s="8">
-        <v>113</v>
-      </c>
       <c r="C50" t="s" s="5">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D50" s="6">
-        <v>0.571428571428571</v>
-      </c>
-      <c r="E50" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="E50" s="6">
+        <v>0.1875</v>
+      </c>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6">
-        <v>0.777777777777778</v>
+        <v>0</v>
       </c>
       <c r="I50" s="6"/>
       <c r="J50" s="10"/>
     </row>
-    <row r="51" ht="20.7" customHeight="1">
-      <c r="A51" t="s" s="4">
+    <row r="51" ht="21" customHeight="1">
+      <c r="A51" t="s" s="8">
+        <v>113</v>
+      </c>
+      <c r="B51" t="s" s="8">
         <v>114</v>
       </c>
-      <c r="B51" t="s" s="4">
-        <v>115</v>
-      </c>
       <c r="C51" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="D51" s="15">
-        <v>0.595238095238095</v>
-      </c>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
+        <v>18</v>
+      </c>
+      <c r="D51" s="6">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
       <c r="H51" s="6">
         <v>0.777777777777778</v>
       </c>
-      <c r="I51" s="13"/>
-      <c r="J51" s="16"/>
-    </row>
-    <row r="52" ht="21" customHeight="1">
-      <c r="A52" t="s" s="19">
+      <c r="I51" s="6"/>
+      <c r="J51" s="10"/>
+    </row>
+    <row r="52" ht="20.7" customHeight="1">
+      <c r="A52" t="s" s="4">
+        <v>115</v>
+      </c>
+      <c r="B52" t="s" s="4">
         <v>116</v>
       </c>
-      <c r="B52" t="s" s="19">
+      <c r="C52" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="D52" s="15">
+        <v>0.595238095238095</v>
+      </c>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="6">
+        <v>0.777777777777778</v>
+      </c>
+      <c r="I52" s="13"/>
+      <c r="J52" s="16"/>
+    </row>
+    <row r="53" ht="21" customHeight="1">
+      <c r="A53" t="s" s="19">
         <v>117</v>
       </c>
-      <c r="C52" t="s" s="18">
+      <c r="B53" t="s" s="19">
+        <v>118</v>
+      </c>
+      <c r="C53" t="s" s="18">
         <v>67</v>
       </c>
-      <c r="D52" s="6">
+      <c r="D53" s="6">
         <v>0.761904761904762</v>
       </c>
-      <c r="E52" s="6">
+      <c r="E53" s="6">
         <v>0.666666666666667</v>
-      </c>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6">
-        <v>0.694444444444444</v>
-      </c>
-      <c r="I52" s="6"/>
-      <c r="J52" s="7"/>
-    </row>
-    <row r="53" ht="21" customHeight="1">
-      <c r="A53" t="s" s="5">
-        <v>118</v>
-      </c>
-      <c r="B53" t="s" s="5">
-        <v>119</v>
-      </c>
-      <c r="C53" t="s" s="5">
-        <v>67</v>
-      </c>
-      <c r="D53" s="6">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E53" s="6">
-        <v>0.791666666666667</v>
       </c>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6">
-        <v>0</v>
+        <v>0.694444444444444</v>
       </c>
       <c r="I53" s="6"/>
       <c r="J53" s="7"/>
     </row>
     <row r="54" ht="21" customHeight="1">
-      <c r="A54" t="s" s="4">
+      <c r="A54" t="s" s="5">
+        <v>119</v>
+      </c>
+      <c r="B54" t="s" s="5">
         <v>120</v>
       </c>
-      <c r="B54" t="s" s="4">
-        <v>121</v>
-      </c>
       <c r="C54" t="s" s="5">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="D54" s="6">
-        <v>0.571428571428571</v>
-      </c>
-      <c r="E54" s="6"/>
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E54" s="6">
+        <v>0.791666666666667</v>
+      </c>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
       <c r="H54" s="6">
-        <v>0.555555555555556</v>
+        <v>0</v>
       </c>
       <c r="I54" s="6"/>
-      <c r="J54" s="9"/>
+      <c r="J54" s="7"/>
     </row>
     <row r="55" ht="21" customHeight="1">
-      <c r="A55" t="s" s="8">
+      <c r="A55" t="s" s="4">
+        <v>121</v>
+      </c>
+      <c r="B55" t="s" s="4">
         <v>122</v>
       </c>
-      <c r="B55" t="s" s="8">
-        <v>123</v>
-      </c>
       <c r="C55" t="s" s="5">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D55" s="6">
-        <v>0.714285714285714</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
       <c r="H55" s="6">
-        <v>0.777777777777778</v>
+        <v>0.555555555555556</v>
       </c>
       <c r="I55" s="6"/>
-      <c r="J55" s="11"/>
+      <c r="J55" s="9"/>
     </row>
     <row r="56" ht="21" customHeight="1">
-      <c r="A56" t="s" s="5">
+      <c r="A56" t="s" s="8">
+        <v>123</v>
+      </c>
+      <c r="B56" t="s" s="8">
         <v>124</v>
       </c>
-      <c r="B56" t="s" s="5">
-        <v>125</v>
-      </c>
       <c r="C56" t="s" s="5">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D56" s="6">
-        <v>0.476190476190476</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6">
+        <v>0.777777777777778</v>
+      </c>
+      <c r="I56" s="6"/>
+      <c r="J56" s="11"/>
+    </row>
+    <row r="57" ht="21" customHeight="1">
+      <c r="A57" t="s" s="5">
+        <v>125</v>
+      </c>
+      <c r="B57" t="s" s="5">
+        <v>126</v>
+      </c>
+      <c r="C57" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D57" s="6">
+        <v>0.476190476190476</v>
+      </c>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6">
         <v>0.75</v>
       </c>
-      <c r="I56" s="6"/>
-      <c r="J56" s="9"/>
-    </row>
-    <row r="57" ht="20.35" customHeight="1">
-      <c r="A57" t="s" s="4">
-        <v>126</v>
-      </c>
-      <c r="B57" t="s" s="4">
+      <c r="I57" s="6"/>
+      <c r="J57" s="9"/>
+    </row>
+    <row r="58" ht="20.35" customHeight="1">
+      <c r="A58" t="s" s="4">
         <v>127</v>
       </c>
-      <c r="C57" t="s" s="5">
+      <c r="B58" t="s" s="4">
+        <v>128</v>
+      </c>
+      <c r="C58" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D57" s="15">
+      <c r="D58" s="15">
         <v>0.666666666666667</v>
       </c>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="6">
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="6">
         <v>0.777777777777778</v>
       </c>
-      <c r="I57" s="13"/>
-      <c r="J57" s="16"/>
-    </row>
-    <row r="58" ht="21" customHeight="1">
-      <c r="A58" t="s" s="17">
-        <v>128</v>
-      </c>
-      <c r="B58" t="s" s="17">
+      <c r="I58" s="13"/>
+      <c r="J58" s="16"/>
+    </row>
+    <row r="59" ht="21" customHeight="1">
+      <c r="A59" t="s" s="17">
         <v>129</v>
       </c>
-      <c r="C58" t="s" s="18">
-        <v>18</v>
-      </c>
-      <c r="D58" s="6">
-        <v>0.69047619047619</v>
-      </c>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="I58" s="6"/>
-      <c r="J58" s="9"/>
-    </row>
-    <row r="59" ht="21" customHeight="1">
-      <c r="A59" t="s" s="24">
+      <c r="B59" t="s" s="17">
         <v>130</v>
       </c>
-      <c r="B59" t="s" s="24">
-        <v>131</v>
-      </c>
-      <c r="C59" t="s" s="5">
+      <c r="C59" t="s" s="18">
         <v>18</v>
       </c>
       <c r="D59" s="6">
@@ -4290,225 +4305,225 @@
         <v>0.75</v>
       </c>
       <c r="I59" s="6"/>
-      <c r="J59" s="10"/>
+      <c r="J59" s="9"/>
     </row>
     <row r="60" ht="21" customHeight="1">
-      <c r="A60" t="s" s="8">
+      <c r="A60" t="s" s="24">
+        <v>131</v>
+      </c>
+      <c r="B60" t="s" s="24">
         <v>132</v>
-      </c>
-      <c r="B60" t="s" s="8">
-        <v>133</v>
       </c>
       <c r="C60" t="s" s="5">
         <v>18</v>
       </c>
       <c r="D60" s="6">
-        <v>0.5238095238095239</v>
+        <v>0.69047619047619</v>
       </c>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
       <c r="H60" s="6">
-        <v>0.805555555555556</v>
+        <v>0.75</v>
       </c>
       <c r="I60" s="6"/>
-      <c r="J60" s="11"/>
+      <c r="J60" s="10"/>
     </row>
     <row r="61" ht="21" customHeight="1">
-      <c r="A61" t="s" s="5">
+      <c r="A61" t="s" s="8">
+        <v>133</v>
+      </c>
+      <c r="B61" t="s" s="8">
         <v>134</v>
       </c>
-      <c r="B61" t="s" s="5">
-        <v>135</v>
-      </c>
       <c r="C61" t="s" s="5">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D61" s="6">
-        <v>0.547619047619048</v>
+        <v>0.5238095238095239</v>
       </c>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
       <c r="H61" s="6">
-        <v>0</v>
+        <v>0.805555555555556</v>
       </c>
       <c r="I61" s="6"/>
-      <c r="J61" s="9"/>
-    </row>
-    <row r="62" ht="20.7" customHeight="1">
-      <c r="A62" t="s" s="4">
+      <c r="J61" s="11"/>
+    </row>
+    <row r="62" ht="21" customHeight="1">
+      <c r="A62" t="s" s="5">
+        <v>135</v>
+      </c>
+      <c r="B62" t="s" s="5">
         <v>136</v>
       </c>
-      <c r="B62" t="s" s="4">
-        <v>137</v>
-      </c>
       <c r="C62" t="s" s="5">
-        <v>67</v>
-      </c>
-      <c r="D62" s="15">
-        <v>0.80952380952381</v>
-      </c>
-      <c r="E62" s="15">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="F62" s="13"/>
-      <c r="G62" s="13"/>
+        <v>15</v>
+      </c>
+      <c r="D62" s="6">
+        <v>0.547619047619048</v>
+      </c>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
       <c r="H62" s="6">
         <v>0</v>
       </c>
-      <c r="I62" s="13"/>
-      <c r="J62" s="14"/>
-    </row>
-    <row r="63" ht="21" customHeight="1">
-      <c r="A63" t="s" s="19">
+      <c r="I62" s="6"/>
+      <c r="J62" s="9"/>
+    </row>
+    <row r="63" ht="20.7" customHeight="1">
+      <c r="A63" t="s" s="4">
+        <v>137</v>
+      </c>
+      <c r="B63" t="s" s="4">
         <v>138</v>
       </c>
-      <c r="B63" t="s" s="19">
+      <c r="C63" t="s" s="5">
+        <v>67</v>
+      </c>
+      <c r="D63" s="15">
+        <v>0.80952380952381</v>
+      </c>
+      <c r="E63" s="15">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="6">
+        <v>0</v>
+      </c>
+      <c r="I63" s="13"/>
+      <c r="J63" s="14"/>
+    </row>
+    <row r="64" ht="21" customHeight="1">
+      <c r="A64" t="s" s="19">
         <v>139</v>
       </c>
-      <c r="C63" t="s" s="18">
+      <c r="B64" t="s" s="19">
+        <v>140</v>
+      </c>
+      <c r="C64" t="s" s="18">
         <v>36</v>
       </c>
-      <c r="D63" s="6">
+      <c r="D64" s="6">
         <v>0.5238095238095239</v>
       </c>
-      <c r="E63" s="6">
+      <c r="E64" s="6">
         <v>0.625</v>
       </c>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="I63" s="6"/>
-      <c r="J63" s="11"/>
-    </row>
-    <row r="64" ht="21" customHeight="1">
-      <c r="A64" t="s" s="5">
-        <v>140</v>
-      </c>
-      <c r="B64" t="s" s="5">
-        <v>141</v>
-      </c>
-      <c r="C64" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D64" s="6">
-        <v>0.714285714285714</v>
-      </c>
-      <c r="E64" s="6"/>
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
       <c r="H64" s="6">
-        <v>0.694444444444444</v>
+        <v>0.75</v>
       </c>
       <c r="I64" s="6"/>
-      <c r="J64" s="7"/>
+      <c r="J64" s="11"/>
     </row>
     <row r="65" ht="21" customHeight="1">
-      <c r="A65" t="s" s="4">
+      <c r="A65" t="s" s="5">
+        <v>141</v>
+      </c>
+      <c r="B65" t="s" s="5">
         <v>142</v>
       </c>
-      <c r="B65" t="s" s="4">
-        <v>143</v>
-      </c>
       <c r="C65" t="s" s="5">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D65" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="E65" s="6"/>
+        <v>0.714285714285714</v>
+      </c>
+      <c r="E65" s="6">
+        <v>0.625</v>
+      </c>
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
       <c r="H65" s="6">
-        <v>0.777777777777778</v>
+        <v>0.694444444444444</v>
       </c>
       <c r="I65" s="6"/>
       <c r="J65" s="7"/>
     </row>
     <row r="66" ht="21" customHeight="1">
-      <c r="A66" t="s" s="19">
+      <c r="A66" t="s" s="4">
+        <v>143</v>
+      </c>
+      <c r="B66" t="s" s="4">
         <v>144</v>
       </c>
-      <c r="B66" t="s" s="19">
-        <v>145</v>
-      </c>
-      <c r="C66" s="25"/>
+      <c r="C66" t="s" s="5">
+        <v>21</v>
+      </c>
       <c r="D66" s="6">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
       <c r="H66" s="6">
-        <v>0.694444444444444</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I66" s="6"/>
       <c r="J66" s="7"/>
     </row>
     <row r="67" ht="21" customHeight="1">
-      <c r="A67" t="s" s="5">
+      <c r="A67" t="s" s="19">
+        <v>145</v>
+      </c>
+      <c r="B67" t="s" s="19">
         <v>146</v>
       </c>
-      <c r="B67" t="s" s="5">
-        <v>147</v>
-      </c>
-      <c r="C67" t="s" s="5">
-        <v>18</v>
-      </c>
+      <c r="C67" s="25"/>
       <c r="D67" s="6">
-        <v>0.833333333333333</v>
+        <v>0</v>
       </c>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
       <c r="H67" s="6">
-        <v>0.805555555555556</v>
+        <v>0.694444444444444</v>
       </c>
       <c r="I67" s="6"/>
       <c r="J67" s="7"/>
     </row>
     <row r="68" ht="21" customHeight="1">
       <c r="A68" t="s" s="5">
+        <v>147</v>
+      </c>
+      <c r="B68" t="s" s="5">
         <v>148</v>
-      </c>
-      <c r="B68" t="s" s="5">
-        <v>149</v>
       </c>
       <c r="C68" t="s" s="5">
         <v>18</v>
       </c>
       <c r="D68" s="6">
-        <v>0.619047619047619</v>
-      </c>
-      <c r="E68" s="6">
-        <v>0.479166666666667</v>
-      </c>
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E68" s="6"/>
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
       <c r="H68" s="6">
-        <v>0.777777777777778</v>
+        <v>0.805555555555556</v>
       </c>
       <c r="I68" s="6"/>
-      <c r="J68" s="9"/>
+      <c r="J68" s="7"/>
     </row>
     <row r="69" ht="21" customHeight="1">
-      <c r="A69" t="s" s="4">
+      <c r="A69" t="s" s="5">
+        <v>149</v>
+      </c>
+      <c r="B69" t="s" s="5">
         <v>150</v>
       </c>
-      <c r="B69" t="s" s="4">
-        <v>151</v>
-      </c>
       <c r="C69" t="s" s="5">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D69" s="6">
-        <v>0.595238095238095</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="E69" s="6">
-        <v>0.770833333333333</v>
+        <v>0.479166666666667</v>
       </c>
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
@@ -4516,68 +4531,68 @@
         <v>0.777777777777778</v>
       </c>
       <c r="I69" s="6"/>
-      <c r="J69" s="10"/>
+      <c r="J69" s="9"/>
     </row>
     <row r="70" ht="21" customHeight="1">
-      <c r="A70" t="s" s="8">
+      <c r="A70" t="s" s="4">
+        <v>151</v>
+      </c>
+      <c r="B70" t="s" s="4">
         <v>152</v>
       </c>
-      <c r="B70" t="s" s="8">
-        <v>153</v>
-      </c>
       <c r="C70" t="s" s="5">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D70" s="6">
-        <v>0.785714285714286</v>
-      </c>
-      <c r="E70" s="6"/>
+        <v>0.595238095238095</v>
+      </c>
+      <c r="E70" s="6">
+        <v>0.770833333333333</v>
+      </c>
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
       <c r="H70" s="6">
         <v>0.777777777777778</v>
       </c>
       <c r="I70" s="6"/>
-      <c r="J70" s="11"/>
+      <c r="J70" s="10"/>
     </row>
     <row r="71" ht="21" customHeight="1">
-      <c r="A71" t="s" s="5">
+      <c r="A71" t="s" s="8">
+        <v>153</v>
+      </c>
+      <c r="B71" t="s" s="8">
         <v>154</v>
       </c>
-      <c r="B71" t="s" s="5">
-        <v>155</v>
-      </c>
       <c r="C71" t="s" s="5">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D71" s="6">
-        <v>0.69047619047619</v>
+        <v>0.785714285714286</v>
       </c>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
       <c r="H71" s="6">
-        <v>0.722222222222222</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I71" s="6"/>
-      <c r="J71" s="7"/>
+      <c r="J71" s="11"/>
     </row>
     <row r="72" ht="21" customHeight="1">
-      <c r="A72" t="s" s="4">
+      <c r="A72" t="s" s="5">
+        <v>155</v>
+      </c>
+      <c r="B72" t="s" s="5">
         <v>156</v>
       </c>
-      <c r="B72" t="s" s="4">
-        <v>157</v>
-      </c>
       <c r="C72" t="s" s="5">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D72" s="6">
         <v>0.69047619047619</v>
       </c>
-      <c r="E72" s="6">
-        <v>0.5</v>
-      </c>
+      <c r="E72" s="6"/>
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
       <c r="H72" s="6">
@@ -4587,153 +4602,157 @@
       <c r="J72" s="7"/>
     </row>
     <row r="73" ht="21" customHeight="1">
-      <c r="A73" t="s" s="19">
+      <c r="A73" t="s" s="4">
+        <v>157</v>
+      </c>
+      <c r="B73" t="s" s="4">
         <v>158</v>
       </c>
-      <c r="B73" t="s" s="19">
-        <v>159</v>
-      </c>
-      <c r="C73" t="s" s="18">
+      <c r="C73" t="s" s="5">
         <v>12</v>
       </c>
       <c r="D73" s="6">
         <v>0.69047619047619</v>
       </c>
-      <c r="E73" s="6"/>
+      <c r="E73" s="6">
+        <v>0.5</v>
+      </c>
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
       <c r="H73" s="6">
-        <v>0.638888888888889</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="I73" s="6"/>
       <c r="J73" s="7"/>
     </row>
     <row r="74" ht="21" customHeight="1">
-      <c r="A74" t="s" s="5">
+      <c r="A74" t="s" s="19">
+        <v>159</v>
+      </c>
+      <c r="B74" t="s" s="19">
         <v>160</v>
       </c>
-      <c r="B74" t="s" s="5">
-        <v>161</v>
-      </c>
-      <c r="C74" t="s" s="5">
-        <v>67</v>
+      <c r="C74" t="s" s="18">
+        <v>12</v>
       </c>
       <c r="D74" s="6">
-        <v>0.619047619047619</v>
+        <v>0.69047619047619</v>
       </c>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
       <c r="H74" s="6">
-        <v>0.666666666666667</v>
+        <v>0.638888888888889</v>
       </c>
       <c r="I74" s="6"/>
       <c r="J74" s="7"/>
     </row>
     <row r="75" ht="21" customHeight="1">
       <c r="A75" t="s" s="5">
+        <v>161</v>
+      </c>
+      <c r="B75" t="s" s="5">
         <v>162</v>
       </c>
-      <c r="B75" t="s" s="5">
-        <v>163</v>
-      </c>
       <c r="C75" t="s" s="5">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="D75" s="6">
-        <v>0.80952380952381</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
       <c r="H75" s="6">
-        <v>0.777777777777778</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="I75" s="6"/>
       <c r="J75" s="7"/>
     </row>
     <row r="76" ht="21" customHeight="1">
       <c r="A76" t="s" s="5">
+        <v>163</v>
+      </c>
+      <c r="B76" t="s" s="5">
         <v>164</v>
       </c>
-      <c r="B76" t="s" s="5">
-        <v>165</v>
-      </c>
       <c r="C76" t="s" s="5">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D76" s="6">
-        <v>0.857142857142857</v>
-      </c>
-      <c r="E76" s="6"/>
+        <v>0.80952380952381</v>
+      </c>
+      <c r="E76" s="6">
+        <v>0.708333333333333</v>
+      </c>
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
       <c r="H76" s="6">
-        <v>0.722222222222222</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I76" s="6"/>
       <c r="J76" s="7"/>
     </row>
     <row r="77" ht="21" customHeight="1">
       <c r="A77" t="s" s="5">
+        <v>165</v>
+      </c>
+      <c r="B77" t="s" s="5">
         <v>166</v>
       </c>
-      <c r="B77" t="s" s="5">
-        <v>167</v>
-      </c>
       <c r="C77" t="s" s="5">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D77" s="6">
-        <v>0.738095238095238</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
       <c r="H77" s="6">
-        <v>0.694444444444444</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="I77" s="6"/>
       <c r="J77" s="7"/>
     </row>
     <row r="78" ht="21" customHeight="1">
       <c r="A78" t="s" s="5">
+        <v>167</v>
+      </c>
+      <c r="B78" t="s" s="5">
         <v>168</v>
       </c>
-      <c r="B78" t="s" s="5">
-        <v>169</v>
-      </c>
       <c r="C78" t="s" s="5">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="D78" s="6">
-        <v>0.761904761904762</v>
-      </c>
-      <c r="E78" s="6">
-        <v>0.583333333333333</v>
-      </c>
+        <v>0.738095238095238</v>
+      </c>
+      <c r="E78" s="6"/>
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
       <c r="H78" s="6">
-        <v>0.722222222222222</v>
+        <v>0.694444444444444</v>
       </c>
       <c r="I78" s="6"/>
       <c r="J78" s="7"/>
     </row>
     <row r="79" ht="21" customHeight="1">
       <c r="A79" t="s" s="5">
+        <v>169</v>
+      </c>
+      <c r="B79" t="s" s="5">
         <v>170</v>
       </c>
-      <c r="B79" t="s" s="5">
-        <v>171</v>
-      </c>
       <c r="C79" t="s" s="5">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D79" s="6">
-        <v>0.714285714285714</v>
-      </c>
-      <c r="E79" s="6"/>
+        <v>0.761904761904762</v>
+      </c>
+      <c r="E79" s="6">
+        <v>0.583333333333333</v>
+      </c>
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
       <c r="H79" s="6">
@@ -4744,38 +4763,38 @@
     </row>
     <row r="80" ht="21" customHeight="1">
       <c r="A80" t="s" s="5">
+        <v>171</v>
+      </c>
+      <c r="B80" t="s" s="5">
         <v>172</v>
       </c>
-      <c r="B80" t="s" s="5">
-        <v>173</v>
-      </c>
       <c r="C80" t="s" s="5">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D80" s="6">
-        <v>0.880952380952381</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
       <c r="H80" s="6">
-        <v>0.75</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="I80" s="6"/>
       <c r="J80" s="7"/>
     </row>
     <row r="81" ht="21" customHeight="1">
       <c r="A81" t="s" s="5">
+        <v>173</v>
+      </c>
+      <c r="B81" t="s" s="5">
         <v>174</v>
       </c>
-      <c r="B81" t="s" s="5">
-        <v>175</v>
-      </c>
       <c r="C81" t="s" s="5">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D81" s="6">
-        <v>0.904761904761905</v>
+        <v>0.880952380952381</v>
       </c>
       <c r="E81" s="6"/>
       <c r="F81" s="6"/>
@@ -4784,198 +4803,204 @@
         <v>0.75</v>
       </c>
       <c r="I81" s="6"/>
-      <c r="J81" s="9"/>
-    </row>
-    <row r="82" ht="20.7" customHeight="1">
-      <c r="A82" t="s" s="4">
+      <c r="J81" s="7"/>
+    </row>
+    <row r="82" ht="21" customHeight="1">
+      <c r="A82" t="s" s="5">
+        <v>175</v>
+      </c>
+      <c r="B82" t="s" s="5">
         <v>176</v>
       </c>
-      <c r="B82" t="s" s="4">
+      <c r="C82" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D82" s="6">
+        <v>0.904761904761905</v>
+      </c>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="I82" s="6"/>
+      <c r="J82" s="9"/>
+    </row>
+    <row r="83" ht="20.7" customHeight="1">
+      <c r="A83" t="s" s="4">
         <v>177</v>
       </c>
-      <c r="C82" t="s" s="5">
+      <c r="B83" t="s" s="4">
+        <v>178</v>
+      </c>
+      <c r="C83" t="s" s="5">
         <v>36</v>
       </c>
-      <c r="D82" s="12">
+      <c r="D83" s="12">
         <v>0.857142857142857</v>
       </c>
-      <c r="E82" s="13"/>
-      <c r="F82" s="13"/>
-      <c r="G82" s="13"/>
-      <c r="H82" s="6">
+      <c r="E83" s="15">
+        <v>0.9375</v>
+      </c>
+      <c r="F83" s="13"/>
+      <c r="G83" s="13"/>
+      <c r="H83" s="6">
         <v>0.777777777777778</v>
       </c>
-      <c r="I82" s="13"/>
-      <c r="J82" s="16"/>
-    </row>
-    <row r="83" ht="21" customHeight="1">
-      <c r="A83" t="s" s="19">
-        <v>178</v>
-      </c>
-      <c r="B83" t="s" s="19">
+      <c r="I83" s="13"/>
+      <c r="J83" s="16"/>
+    </row>
+    <row r="84" ht="21" customHeight="1">
+      <c r="A84" t="s" s="19">
         <v>179</v>
       </c>
-      <c r="C83" t="s" s="18">
+      <c r="B84" t="s" s="19">
+        <v>180</v>
+      </c>
+      <c r="C84" t="s" s="18">
         <v>21</v>
       </c>
-      <c r="D83" s="6">
+      <c r="D84" s="6">
         <v>0.5238095238095239</v>
-      </c>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
-      <c r="G83" s="6"/>
-      <c r="H83" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="I83" s="6"/>
-      <c r="J83" s="7"/>
-    </row>
-    <row r="84" ht="21" customHeight="1">
-      <c r="A84" t="s" s="5">
-        <v>180</v>
-      </c>
-      <c r="B84" t="s" s="5">
-        <v>181</v>
-      </c>
-      <c r="C84" t="s" s="5">
-        <v>36</v>
-      </c>
-      <c r="D84" s="6">
-        <v>0.452380952380952</v>
       </c>
       <c r="E84" s="6"/>
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
       <c r="H84" s="6">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="I84" s="6"/>
-      <c r="J84" s="9"/>
+      <c r="J84" s="7"/>
     </row>
     <row r="85" ht="21" customHeight="1">
       <c r="A85" t="s" s="5">
+        <v>181</v>
+      </c>
+      <c r="B85" t="s" s="5">
         <v>182</v>
       </c>
-      <c r="B85" t="s" s="5">
-        <v>183</v>
-      </c>
       <c r="C85" t="s" s="5">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D85" s="6">
-        <v>0.857142857142857</v>
+        <v>0.452380952380952</v>
       </c>
       <c r="E85" s="6"/>
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
       <c r="H85" s="6">
-        <v>0.777777777777778</v>
+        <v>0</v>
       </c>
       <c r="I85" s="6"/>
-      <c r="J85" s="10"/>
+      <c r="J85" s="9"/>
     </row>
     <row r="86" ht="21" customHeight="1">
-      <c r="A86" t="s" s="4">
+      <c r="A86" t="s" s="5">
+        <v>183</v>
+      </c>
+      <c r="B86" t="s" s="5">
         <v>184</v>
       </c>
-      <c r="B86" t="s" s="4">
-        <v>185</v>
-      </c>
       <c r="C86" t="s" s="5">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="D86" s="6">
-        <v>0.619047619047619</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="E86" s="6"/>
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
       <c r="H86" s="6">
-        <v>0.694444444444444</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I86" s="6"/>
-      <c r="J86" s="11"/>
+      <c r="J86" s="10"/>
     </row>
     <row r="87" ht="21" customHeight="1">
-      <c r="A87" t="s" s="19">
+      <c r="A87" t="s" s="4">
+        <v>185</v>
+      </c>
+      <c r="B87" t="s" s="4">
         <v>186</v>
       </c>
-      <c r="B87" t="s" s="19">
-        <v>187</v>
-      </c>
-      <c r="C87" t="s" s="18">
-        <v>21</v>
+      <c r="C87" t="s" s="5">
+        <v>67</v>
       </c>
       <c r="D87" s="6">
-        <v>0.69047619047619</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="E87" s="6"/>
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
       <c r="H87" s="6">
-        <v>0.638888888888889</v>
+        <v>0.694444444444444</v>
       </c>
       <c r="I87" s="6"/>
-      <c r="J87" s="7"/>
+      <c r="J87" s="11"/>
     </row>
     <row r="88" ht="21" customHeight="1">
-      <c r="A88" t="s" s="5">
+      <c r="A88" t="s" s="19">
+        <v>187</v>
+      </c>
+      <c r="B88" t="s" s="19">
         <v>188</v>
       </c>
-      <c r="B88" t="s" s="5">
-        <v>189</v>
-      </c>
-      <c r="C88" t="s" s="5">
-        <v>18</v>
+      <c r="C88" t="s" s="18">
+        <v>21</v>
       </c>
       <c r="D88" s="6">
-        <v>0.619047619047619</v>
+        <v>0.69047619047619</v>
       </c>
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
       <c r="H88" s="6">
-        <v>0.416666666666667</v>
+        <v>0.638888888888889</v>
       </c>
       <c r="I88" s="6"/>
       <c r="J88" s="7"/>
     </row>
     <row r="89" ht="21" customHeight="1">
-      <c r="A89" t="s" s="4">
+      <c r="A89" t="s" s="5">
+        <v>189</v>
+      </c>
+      <c r="B89" t="s" s="5">
         <v>190</v>
       </c>
-      <c r="B89" t="s" s="4">
-        <v>191</v>
-      </c>
       <c r="C89" t="s" s="5">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D89" s="6">
-        <v>0.785714285714286</v>
-      </c>
-      <c r="E89" s="6"/>
+        <v>0.619047619047619</v>
+      </c>
+      <c r="E89" s="6">
+        <v>0.479166666666667</v>
+      </c>
       <c r="F89" s="6"/>
       <c r="G89" s="6"/>
       <c r="H89" s="6">
-        <v>0.75</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="I89" s="6"/>
       <c r="J89" s="7"/>
     </row>
     <row r="90" ht="21" customHeight="1">
-      <c r="A90" t="s" s="17">
+      <c r="A90" t="s" s="4">
+        <v>191</v>
+      </c>
+      <c r="B90" t="s" s="4">
         <v>192</v>
       </c>
-      <c r="B90" t="s" s="17">
-        <v>193</v>
-      </c>
-      <c r="C90" t="s" s="18">
-        <v>36</v>
+      <c r="C90" t="s" s="5">
+        <v>12</v>
       </c>
       <c r="D90" s="6">
-        <v>0.642857142857143</v>
-      </c>
-      <c r="E90" s="6"/>
+        <v>0.785714285714286</v>
+      </c>
+      <c r="E90" s="6">
+        <v>0.583333333333333</v>
+      </c>
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
       <c r="H90" s="6">
@@ -4986,84 +5011,84 @@
     </row>
     <row r="91" ht="21" customHeight="1">
       <c r="A91" t="s" s="17">
+        <v>193</v>
+      </c>
+      <c r="B91" t="s" s="17">
         <v>194</v>
-      </c>
-      <c r="B91" t="s" s="17">
-        <v>195</v>
       </c>
       <c r="C91" t="s" s="18">
         <v>36</v>
       </c>
       <c r="D91" s="6">
-        <v>0.5238095238095239</v>
-      </c>
-      <c r="E91" s="6">
-        <v>0.6875</v>
-      </c>
+        <v>0.642857142857143</v>
+      </c>
+      <c r="E91" s="6"/>
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
       <c r="H91" s="6">
-        <v>0.888888888888889</v>
+        <v>0.75</v>
       </c>
       <c r="I91" s="6"/>
       <c r="J91" s="7"/>
     </row>
     <row r="92" ht="21" customHeight="1">
-      <c r="A92" t="s" s="24">
+      <c r="A92" t="s" s="17">
+        <v>195</v>
+      </c>
+      <c r="B92" t="s" s="17">
         <v>196</v>
       </c>
-      <c r="B92" t="s" s="24">
-        <v>197</v>
-      </c>
-      <c r="C92" t="s" s="5">
-        <v>21</v>
+      <c r="C92" t="s" s="18">
+        <v>36</v>
       </c>
       <c r="D92" s="6">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="E92" s="6"/>
+        <v>0.5238095238095239</v>
+      </c>
+      <c r="E92" s="6">
+        <v>0.6875</v>
+      </c>
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
       <c r="H92" s="6">
-        <v>0.75</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="I92" s="6"/>
       <c r="J92" s="7"/>
     </row>
     <row r="93" ht="21" customHeight="1">
-      <c r="A93" t="s" s="19">
+      <c r="A93" t="s" s="24">
+        <v>197</v>
+      </c>
+      <c r="B93" t="s" s="24">
         <v>198</v>
       </c>
-      <c r="B93" t="s" s="19">
-        <v>199</v>
-      </c>
-      <c r="C93" t="s" s="18">
-        <v>15</v>
+      <c r="C93" t="s" s="5">
+        <v>21</v>
       </c>
       <c r="D93" s="6">
-        <v>0.857142857142857</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="E93" s="6"/>
       <c r="F93" s="6"/>
       <c r="G93" s="6"/>
       <c r="H93" s="6">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="I93" s="6"/>
       <c r="J93" s="7"/>
     </row>
     <row r="94" ht="21" customHeight="1">
-      <c r="A94" t="s" s="5">
+      <c r="A94" t="s" s="19">
+        <v>199</v>
+      </c>
+      <c r="B94" t="s" s="19">
         <v>200</v>
       </c>
-      <c r="B94" t="s" s="5">
-        <v>201</v>
-      </c>
-      <c r="C94" t="s" s="5">
-        <v>18</v>
+      <c r="C94" t="s" s="18">
+        <v>15</v>
       </c>
       <c r="D94" s="6">
-        <v>0.928571428571429</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="E94" s="6"/>
       <c r="F94" s="6"/>
@@ -5076,16 +5101,16 @@
     </row>
     <row r="95" ht="21" customHeight="1">
       <c r="A95" t="s" s="5">
+        <v>201</v>
+      </c>
+      <c r="B95" t="s" s="5">
         <v>202</v>
       </c>
-      <c r="B95" t="s" s="5">
-        <v>203</v>
-      </c>
       <c r="C95" t="s" s="5">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D95" s="6">
-        <v>0.80952380952381</v>
+        <v>0.928571428571429</v>
       </c>
       <c r="E95" s="6"/>
       <c r="F95" s="6"/>
@@ -5098,447 +5123,451 @@
     </row>
     <row r="96" ht="21" customHeight="1">
       <c r="A96" t="s" s="5">
+        <v>203</v>
+      </c>
+      <c r="B96" t="s" s="5">
         <v>204</v>
       </c>
-      <c r="B96" t="s" s="5">
-        <v>205</v>
-      </c>
       <c r="C96" t="s" s="5">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D96" s="6">
-        <v>0.833333333333333</v>
+        <v>0.80952380952381</v>
       </c>
       <c r="E96" s="6"/>
       <c r="F96" s="6"/>
       <c r="G96" s="6"/>
       <c r="H96" s="6">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="I96" s="6"/>
       <c r="J96" s="7"/>
     </row>
     <row r="97" ht="21" customHeight="1">
       <c r="A97" t="s" s="5">
+        <v>205</v>
+      </c>
+      <c r="B97" t="s" s="5">
         <v>206</v>
-      </c>
-      <c r="B97" t="s" s="5">
-        <v>207</v>
       </c>
       <c r="C97" t="s" s="5">
         <v>18</v>
       </c>
       <c r="D97" s="6">
-        <v>0.738095238095238</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E97" s="6"/>
       <c r="F97" s="6"/>
       <c r="G97" s="6"/>
       <c r="H97" s="6">
-        <v>0.416666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="I97" s="6"/>
-      <c r="J97" s="9"/>
+      <c r="J97" s="7"/>
     </row>
     <row r="98" ht="21" customHeight="1">
-      <c r="A98" t="s" s="4">
+      <c r="A98" t="s" s="5">
+        <v>207</v>
+      </c>
+      <c r="B98" t="s" s="5">
         <v>208</v>
       </c>
-      <c r="B98" t="s" s="4">
-        <v>209</v>
-      </c>
       <c r="C98" t="s" s="5">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D98" s="6">
-        <v>0.595238095238095</v>
+        <v>0.738095238095238</v>
       </c>
       <c r="E98" s="6"/>
       <c r="F98" s="6"/>
       <c r="G98" s="6"/>
       <c r="H98" s="6">
-        <v>0.777777777777778</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="I98" s="6"/>
-      <c r="J98" s="11"/>
+      <c r="J98" s="9"/>
     </row>
     <row r="99" ht="21" customHeight="1">
-      <c r="A99" t="s" s="19">
+      <c r="A99" t="s" s="4">
+        <v>209</v>
+      </c>
+      <c r="B99" t="s" s="4">
         <v>210</v>
       </c>
-      <c r="B99" t="s" s="19">
-        <v>211</v>
-      </c>
-      <c r="C99" t="s" s="18">
-        <v>12</v>
+      <c r="C99" t="s" s="5">
+        <v>15</v>
       </c>
       <c r="D99" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="E99" s="6"/>
+        <v>0.595238095238095</v>
+      </c>
+      <c r="E99" s="6">
+        <v>0.625</v>
+      </c>
       <c r="F99" s="6"/>
       <c r="G99" s="6"/>
       <c r="H99" s="6">
-        <v>0.722222222222222</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I99" s="6"/>
-      <c r="J99" s="7"/>
+      <c r="J99" s="11"/>
     </row>
     <row r="100" ht="21" customHeight="1">
-      <c r="A100" t="s" s="5">
+      <c r="A100" t="s" s="19">
+        <v>211</v>
+      </c>
+      <c r="B100" t="s" s="19">
         <v>212</v>
       </c>
-      <c r="B100" t="s" s="5">
-        <v>213</v>
-      </c>
-      <c r="C100" t="s" s="5">
-        <v>15</v>
+      <c r="C100" t="s" s="18">
+        <v>12</v>
       </c>
       <c r="D100" s="6">
-        <v>0.452380952380952</v>
+        <v>0.5</v>
       </c>
       <c r="E100" s="6"/>
       <c r="F100" s="6"/>
       <c r="G100" s="6"/>
       <c r="H100" s="6">
-        <v>0</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="I100" s="6"/>
-      <c r="J100" s="9"/>
+      <c r="J100" s="7"/>
     </row>
     <row r="101" ht="21" customHeight="1">
       <c r="A101" t="s" s="5">
+        <v>213</v>
+      </c>
+      <c r="B101" t="s" s="5">
         <v>214</v>
       </c>
-      <c r="B101" t="s" s="5">
-        <v>215</v>
-      </c>
       <c r="C101" t="s" s="5">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D101" s="6">
-        <v>0.69047619047619</v>
+        <v>0.452380952380952</v>
       </c>
       <c r="E101" s="6"/>
       <c r="F101" s="6"/>
       <c r="G101" s="6"/>
       <c r="H101" s="6">
-        <v>0.805555555555556</v>
+        <v>0</v>
       </c>
       <c r="I101" s="6"/>
-      <c r="J101" s="11"/>
+      <c r="J101" s="9"/>
     </row>
     <row r="102" ht="21" customHeight="1">
       <c r="A102" t="s" s="5">
+        <v>215</v>
+      </c>
+      <c r="B102" t="s" s="5">
         <v>216</v>
       </c>
-      <c r="B102" t="s" s="5">
-        <v>217</v>
-      </c>
       <c r="C102" t="s" s="5">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D102" s="6">
-        <v>0.857142857142857</v>
-      </c>
-      <c r="E102" s="6"/>
+        <v>0.69047619047619</v>
+      </c>
+      <c r="E102" s="6">
+        <v>0.791666666666667</v>
+      </c>
       <c r="F102" s="6"/>
       <c r="G102" s="6"/>
       <c r="H102" s="6">
-        <v>0.777777777777778</v>
+        <v>0.805555555555556</v>
       </c>
       <c r="I102" s="6"/>
-      <c r="J102" s="7"/>
+      <c r="J102" s="11"/>
     </row>
     <row r="103" ht="21" customHeight="1">
-      <c r="A103" t="s" s="4">
+      <c r="A103" t="s" s="5">
+        <v>217</v>
+      </c>
+      <c r="B103" t="s" s="5">
         <v>218</v>
       </c>
-      <c r="B103" t="s" s="4">
-        <v>219</v>
-      </c>
       <c r="C103" t="s" s="5">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D103" s="6">
-        <v>0.285714285714286</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="E103" s="6"/>
       <c r="F103" s="6"/>
       <c r="G103" s="6"/>
       <c r="H103" s="6">
-        <v>0.361111111111111</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I103" s="6"/>
       <c r="J103" s="7"/>
     </row>
     <row r="104" ht="21" customHeight="1">
-      <c r="A104" t="s" s="8">
+      <c r="A104" t="s" s="4">
+        <v>219</v>
+      </c>
+      <c r="B104" t="s" s="4">
         <v>220</v>
       </c>
-      <c r="B104" t="s" s="8">
-        <v>221</v>
-      </c>
       <c r="C104" t="s" s="5">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D104" s="6">
-        <v>0.571428571428571</v>
-      </c>
-      <c r="E104" s="6">
-        <v>0.958333333333333</v>
-      </c>
+        <v>0.285714285714286</v>
+      </c>
+      <c r="E104" s="6"/>
       <c r="F104" s="6"/>
       <c r="G104" s="6"/>
       <c r="H104" s="6">
-        <v>0.722222222222222</v>
+        <v>0.361111111111111</v>
       </c>
       <c r="I104" s="6"/>
       <c r="J104" s="7"/>
     </row>
     <row r="105" ht="21" customHeight="1">
-      <c r="A105" t="s" s="5">
+      <c r="A105" t="s" s="8">
+        <v>221</v>
+      </c>
+      <c r="B105" t="s" s="8">
         <v>222</v>
       </c>
-      <c r="B105" t="s" s="5">
-        <v>223</v>
-      </c>
       <c r="C105" t="s" s="5">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D105" s="6">
-        <v>0.69047619047619</v>
-      </c>
-      <c r="E105" s="6"/>
+        <v>0.571428571428571</v>
+      </c>
+      <c r="E105" s="6">
+        <v>0.958333333333333</v>
+      </c>
       <c r="F105" s="6"/>
       <c r="G105" s="6"/>
       <c r="H105" s="6">
-        <v>0.694444444444444</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="I105" s="6"/>
       <c r="J105" s="7"/>
     </row>
     <row r="106" ht="21" customHeight="1">
       <c r="A106" t="s" s="5">
+        <v>223</v>
+      </c>
+      <c r="B106" t="s" s="5">
         <v>224</v>
       </c>
-      <c r="B106" t="s" s="5">
-        <v>225</v>
-      </c>
       <c r="C106" t="s" s="5">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D106" s="6">
-        <v>0.785714285714286</v>
+        <v>0.69047619047619</v>
       </c>
       <c r="E106" s="6"/>
       <c r="F106" s="6"/>
       <c r="G106" s="6"/>
       <c r="H106" s="6">
-        <v>0.777777777777778</v>
+        <v>0.694444444444444</v>
       </c>
       <c r="I106" s="6"/>
-      <c r="J106" s="9"/>
-    </row>
-    <row r="107" ht="20.7" customHeight="1">
+      <c r="J106" s="7"/>
+    </row>
+    <row r="107" ht="21" customHeight="1">
       <c r="A107" t="s" s="5">
+        <v>225</v>
+      </c>
+      <c r="B107" t="s" s="5">
         <v>226</v>
-      </c>
-      <c r="B107" t="s" s="5">
-        <v>227</v>
       </c>
       <c r="C107" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="D107" s="15">
-        <v>0.5238095238095239</v>
-      </c>
-      <c r="E107" s="15">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
+      <c r="D107" s="6">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6"/>
+      <c r="G107" s="6"/>
       <c r="H107" s="6">
         <v>0.777777777777778</v>
       </c>
-      <c r="I107" s="13"/>
-      <c r="J107" s="14"/>
+      <c r="I107" s="6"/>
+      <c r="J107" s="9"/>
     </row>
     <row r="108" ht="20.7" customHeight="1">
       <c r="A108" t="s" s="5">
+        <v>227</v>
+      </c>
+      <c r="B108" t="s" s="5">
         <v>228</v>
       </c>
-      <c r="B108" t="s" s="5">
-        <v>229</v>
-      </c>
       <c r="C108" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="D108" s="12">
-        <v>0.785714285714286</v>
-      </c>
-      <c r="E108" s="12">
-        <v>0.895833333333333</v>
+        <v>21</v>
+      </c>
+      <c r="D108" s="15">
+        <v>0.5238095238095239</v>
+      </c>
+      <c r="E108" s="15">
+        <v>0.708333333333333</v>
       </c>
       <c r="F108" s="13"/>
       <c r="G108" s="13"/>
       <c r="H108" s="6">
+        <v>0.777777777777778</v>
+      </c>
+      <c r="I108" s="13"/>
+      <c r="J108" s="14"/>
+    </row>
+    <row r="109" ht="20.7" customHeight="1">
+      <c r="A109" t="s" s="5">
+        <v>229</v>
+      </c>
+      <c r="B109" t="s" s="5">
+        <v>230</v>
+      </c>
+      <c r="C109" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D109" s="12">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="E109" s="12">
+        <v>0.895833333333333</v>
+      </c>
+      <c r="F109" s="13"/>
+      <c r="G109" s="13"/>
+      <c r="H109" s="6">
         <v>0.638888888888889</v>
       </c>
-      <c r="I108" s="13"/>
-      <c r="J108" s="16"/>
-    </row>
-    <row r="109" ht="21" customHeight="1">
-      <c r="A109" t="s" s="5">
-        <v>230</v>
-      </c>
-      <c r="B109" t="s" s="5">
-        <v>231</v>
-      </c>
-      <c r="C109" t="s" s="5">
-        <v>15</v>
-      </c>
-      <c r="D109" s="6">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="E109" s="6">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="F109" s="6"/>
-      <c r="G109" s="6"/>
-      <c r="H109" s="6">
-        <v>0</v>
-      </c>
-      <c r="I109" s="6"/>
-      <c r="J109" s="7"/>
+      <c r="I109" s="13"/>
+      <c r="J109" s="16"/>
     </row>
     <row r="110" ht="21" customHeight="1">
       <c r="A110" t="s" s="5">
+        <v>231</v>
+      </c>
+      <c r="B110" t="s" s="5">
         <v>232</v>
       </c>
-      <c r="B110" t="s" s="5">
-        <v>233</v>
-      </c>
       <c r="C110" t="s" s="5">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D110" s="6">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E110" s="6"/>
+        <v>0.666666666666667</v>
+      </c>
+      <c r="E110" s="6">
+        <v>0.541666666666667</v>
+      </c>
       <c r="F110" s="6"/>
       <c r="G110" s="6"/>
       <c r="H110" s="6">
-        <v>0.694444444444444</v>
+        <v>0</v>
       </c>
       <c r="I110" s="6"/>
-      <c r="J110" s="9"/>
-    </row>
-    <row r="111" ht="20.05" customHeight="1">
+      <c r="J110" s="7"/>
+    </row>
+    <row r="111" ht="21" customHeight="1">
       <c r="A111" t="s" s="5">
+        <v>233</v>
+      </c>
+      <c r="B111" t="s" s="5">
         <v>234</v>
-      </c>
-      <c r="B111" t="s" s="5">
-        <v>235</v>
       </c>
       <c r="C111" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D111" s="15">
-        <v>0.80952380952381</v>
-      </c>
-      <c r="E111" s="13"/>
-      <c r="F111" s="13"/>
-      <c r="G111" s="13"/>
+      <c r="D111" s="6">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E111" s="6"/>
+      <c r="F111" s="6"/>
+      <c r="G111" s="6"/>
       <c r="H111" s="6">
-        <v>0.777777777777778</v>
-      </c>
-      <c r="I111" s="13"/>
-      <c r="J111" s="16"/>
-    </row>
-    <row r="112" ht="21" customHeight="1">
+        <v>0.694444444444444</v>
+      </c>
+      <c r="I111" s="6"/>
+      <c r="J111" s="9"/>
+    </row>
+    <row r="112" ht="20.05" customHeight="1">
       <c r="A112" t="s" s="5">
+        <v>235</v>
+      </c>
+      <c r="B112" t="s" s="5">
         <v>236</v>
-      </c>
-      <c r="B112" t="s" s="5">
-        <v>237</v>
       </c>
       <c r="C112" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D112" s="6">
+      <c r="D112" s="15">
+        <v>0.80952380952381</v>
+      </c>
+      <c r="E112" s="13"/>
+      <c r="F112" s="13"/>
+      <c r="G112" s="13"/>
+      <c r="H112" s="6">
+        <v>0.777777777777778</v>
+      </c>
+      <c r="I112" s="13"/>
+      <c r="J112" s="16"/>
+    </row>
+    <row r="113" ht="21" customHeight="1">
+      <c r="A113" t="s" s="5">
+        <v>237</v>
+      </c>
+      <c r="B113" t="s" s="5">
+        <v>238</v>
+      </c>
+      <c r="C113" t="s" s="5">
+        <v>18</v>
+      </c>
+      <c r="D113" s="6">
         <v>0.714285714285714</v>
       </c>
-      <c r="E112" s="6"/>
-      <c r="F112" s="6"/>
-      <c r="G112" s="6"/>
-      <c r="H112" s="6">
+      <c r="E113" s="6"/>
+      <c r="F113" s="6"/>
+      <c r="G113" s="6"/>
+      <c r="H113" s="6">
         <v>0.555555555555556</v>
       </c>
-      <c r="I112" s="6"/>
-      <c r="J112" s="9"/>
-    </row>
-    <row r="113" ht="20.7" customHeight="1">
-      <c r="A113" t="s" s="5">
-        <v>238</v>
-      </c>
-      <c r="B113" t="s" s="5">
+      <c r="I113" s="6"/>
+      <c r="J113" s="9"/>
+    </row>
+    <row r="114" ht="20.7" customHeight="1">
+      <c r="A114" t="s" s="5">
         <v>239</v>
       </c>
-      <c r="C113" t="s" s="5">
+      <c r="B114" t="s" s="5">
+        <v>240</v>
+      </c>
+      <c r="C114" t="s" s="5">
         <v>36</v>
       </c>
-      <c r="D113" s="15">
+      <c r="D114" s="15">
         <v>0.452380952380952</v>
       </c>
-      <c r="E113" s="13"/>
-      <c r="F113" s="13"/>
-      <c r="G113" s="13"/>
-      <c r="H113" s="6">
+      <c r="E114" s="15">
+        <v>0.375</v>
+      </c>
+      <c r="F114" s="13"/>
+      <c r="G114" s="13"/>
+      <c r="H114" s="6">
         <v>0.888888888888889</v>
       </c>
-      <c r="I113" s="13"/>
-      <c r="J113" s="14"/>
-    </row>
-    <row r="114" ht="21" customHeight="1">
-      <c r="A114" t="s" s="5">
-        <v>240</v>
-      </c>
-      <c r="B114" t="s" s="5">
-        <v>241</v>
-      </c>
-      <c r="C114" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="D114" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="E114" s="6">
-        <v>0.4375</v>
-      </c>
-      <c r="F114" s="6"/>
-      <c r="G114" s="6"/>
-      <c r="H114" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="I114" s="6"/>
-      <c r="J114" s="11"/>
+      <c r="I114" s="13"/>
+      <c r="J114" s="14"/>
     </row>
     <row r="115" ht="21" customHeight="1">
       <c r="A115" t="s" s="5">
+        <v>241</v>
+      </c>
+      <c r="B115" t="s" s="5">
         <v>242</v>
-      </c>
-      <c r="B115" t="s" s="5">
-        <v>243</v>
       </c>
       <c r="C115" t="s" s="5">
         <v>21</v>
       </c>
       <c r="D115" s="6">
-        <v>0.595238095238095</v>
+        <v>0.5</v>
       </c>
       <c r="E115" s="6">
-        <v>0.354166666666667</v>
+        <v>0.4375</v>
       </c>
       <c r="F115" s="6"/>
       <c r="G115" s="6"/>
@@ -5546,329 +5575,331 @@
         <v>0.75</v>
       </c>
       <c r="I115" s="6"/>
-      <c r="J115" s="7"/>
+      <c r="J115" s="11"/>
     </row>
     <row r="116" ht="21" customHeight="1">
       <c r="A116" t="s" s="5">
+        <v>243</v>
+      </c>
+      <c r="B116" t="s" s="5">
         <v>244</v>
       </c>
-      <c r="B116" t="s" s="5">
-        <v>245</v>
-      </c>
       <c r="C116" t="s" s="5">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D116" s="6">
-        <v>0.80952380952381</v>
-      </c>
-      <c r="E116" s="6"/>
+        <v>0.595238095238095</v>
+      </c>
+      <c r="E116" s="6">
+        <v>0.354166666666667</v>
+      </c>
       <c r="F116" s="6"/>
       <c r="G116" s="6"/>
       <c r="H116" s="6">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="I116" s="6"/>
       <c r="J116" s="7"/>
     </row>
     <row r="117" ht="21" customHeight="1">
       <c r="A117" t="s" s="5">
+        <v>245</v>
+      </c>
+      <c r="B117" t="s" s="5">
         <v>246</v>
       </c>
-      <c r="B117" t="s" s="5">
-        <v>247</v>
-      </c>
       <c r="C117" t="s" s="5">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D117" s="6">
-        <v>0.904761904761905</v>
+        <v>0.80952380952381</v>
       </c>
       <c r="E117" s="6"/>
       <c r="F117" s="6"/>
       <c r="G117" s="6"/>
       <c r="H117" s="6">
-        <v>0.777777777777778</v>
+        <v>0</v>
       </c>
       <c r="I117" s="6"/>
       <c r="J117" s="7"/>
     </row>
     <row r="118" ht="21" customHeight="1">
       <c r="A118" t="s" s="5">
+        <v>247</v>
+      </c>
+      <c r="B118" t="s" s="5">
         <v>248</v>
       </c>
-      <c r="B118" t="s" s="5">
-        <v>249</v>
-      </c>
       <c r="C118" t="s" s="5">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="D118" s="6">
-        <v>0.214285714285714</v>
+        <v>0.904761904761905</v>
       </c>
       <c r="E118" s="6"/>
       <c r="F118" s="6"/>
       <c r="G118" s="6"/>
       <c r="H118" s="6">
-        <v>0.388888888888889</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I118" s="6"/>
       <c r="J118" s="7"/>
     </row>
     <row r="119" ht="21" customHeight="1">
       <c r="A119" t="s" s="5">
+        <v>249</v>
+      </c>
+      <c r="B119" t="s" s="5">
         <v>250</v>
       </c>
-      <c r="B119" t="s" s="5">
-        <v>251</v>
-      </c>
       <c r="C119" t="s" s="5">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="D119" s="6">
-        <v>0.69047619047619</v>
+        <v>0.214285714285714</v>
       </c>
       <c r="E119" s="6"/>
       <c r="F119" s="6"/>
       <c r="G119" s="6"/>
       <c r="H119" s="6">
-        <v>0</v>
+        <v>0.388888888888889</v>
       </c>
       <c r="I119" s="6"/>
-      <c r="J119" s="9"/>
+      <c r="J119" s="7"/>
     </row>
     <row r="120" ht="21" customHeight="1">
-      <c r="A120" t="s" s="4">
+      <c r="A120" t="s" s="5">
+        <v>251</v>
+      </c>
+      <c r="B120" t="s" s="5">
         <v>252</v>
       </c>
-      <c r="B120" t="s" s="4">
-        <v>253</v>
-      </c>
       <c r="C120" t="s" s="5">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D120" s="6">
-        <v>0.642857142857143</v>
+        <v>0.69047619047619</v>
       </c>
       <c r="E120" s="6"/>
       <c r="F120" s="6"/>
       <c r="G120" s="6"/>
       <c r="H120" s="6">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="I120" s="6"/>
-      <c r="J120" s="10"/>
+      <c r="J120" s="9"/>
     </row>
     <row r="121" ht="21" customHeight="1">
-      <c r="A121" t="s" s="8">
+      <c r="A121" t="s" s="4">
+        <v>253</v>
+      </c>
+      <c r="B121" t="s" s="4">
         <v>254</v>
-      </c>
-      <c r="B121" t="s" s="8">
-        <v>255</v>
       </c>
       <c r="C121" t="s" s="5">
         <v>12</v>
       </c>
       <c r="D121" s="6">
-        <v>0.80952380952381</v>
+        <v>0.642857142857143</v>
       </c>
       <c r="E121" s="6"/>
       <c r="F121" s="6"/>
       <c r="G121" s="6"/>
       <c r="H121" s="6">
-        <v>0.777777777777778</v>
+        <v>0.75</v>
       </c>
       <c r="I121" s="6"/>
-      <c r="J121" s="11"/>
+      <c r="J121" s="10"/>
     </row>
     <row r="122" ht="21" customHeight="1">
-      <c r="A122" t="s" s="5">
+      <c r="A122" t="s" s="8">
+        <v>255</v>
+      </c>
+      <c r="B122" t="s" s="8">
         <v>256</v>
       </c>
-      <c r="B122" t="s" s="5">
-        <v>257</v>
-      </c>
       <c r="C122" t="s" s="5">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D122" s="6">
-        <v>0.904761904761905</v>
+        <v>0.80952380952381</v>
       </c>
       <c r="E122" s="6"/>
       <c r="F122" s="6"/>
       <c r="G122" s="6"/>
       <c r="H122" s="6">
-        <v>0.75</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I122" s="6"/>
-      <c r="J122" s="7"/>
+      <c r="J122" s="11"/>
     </row>
     <row r="123" ht="21" customHeight="1">
-      <c r="A123" t="s" s="4">
+      <c r="A123" t="s" s="5">
+        <v>257</v>
+      </c>
+      <c r="B123" t="s" s="5">
         <v>258</v>
       </c>
-      <c r="B123" t="s" s="4">
-        <v>259</v>
-      </c>
       <c r="C123" t="s" s="5">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D123" s="6">
-        <v>0</v>
-      </c>
-      <c r="E123" s="6">
-        <v>0.229166666666667</v>
-      </c>
+        <v>0.904761904761905</v>
+      </c>
+      <c r="E123" s="6"/>
       <c r="F123" s="6"/>
       <c r="G123" s="6"/>
       <c r="H123" s="6">
         <v>0.75</v>
       </c>
       <c r="I123" s="6"/>
-      <c r="J123" s="9"/>
+      <c r="J123" s="7"/>
     </row>
     <row r="124" ht="21" customHeight="1">
-      <c r="A124" t="s" s="24">
+      <c r="A124" t="s" s="4">
+        <v>259</v>
+      </c>
+      <c r="B124" t="s" s="4">
         <v>260</v>
-      </c>
-      <c r="B124" t="s" s="24">
-        <v>261</v>
       </c>
       <c r="C124" t="s" s="5">
         <v>15</v>
       </c>
       <c r="D124" s="6">
-        <v>0.619047619047619</v>
-      </c>
-      <c r="E124" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="E124" s="6">
+        <v>0.229166666666667</v>
+      </c>
       <c r="F124" s="6"/>
       <c r="G124" s="6"/>
       <c r="H124" s="6">
-        <v>0.777777777777778</v>
+        <v>0.75</v>
       </c>
       <c r="I124" s="6"/>
-      <c r="J124" s="10"/>
+      <c r="J124" s="9"/>
     </row>
     <row r="125" ht="21" customHeight="1">
-      <c r="A125" t="s" s="8">
+      <c r="A125" t="s" s="24">
+        <v>261</v>
+      </c>
+      <c r="B125" t="s" s="24">
         <v>262</v>
       </c>
-      <c r="B125" t="s" s="8">
-        <v>263</v>
-      </c>
       <c r="C125" t="s" s="5">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="D125" s="6">
-        <v>0.761904761904762</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="E125" s="6"/>
       <c r="F125" s="6"/>
       <c r="G125" s="6"/>
       <c r="H125" s="6">
-        <v>0.722222222222222</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I125" s="6"/>
       <c r="J125" s="10"/>
     </row>
-    <row r="126" ht="20.7" customHeight="1">
-      <c r="A126" t="s" s="5">
+    <row r="126" ht="21" customHeight="1">
+      <c r="A126" t="s" s="8">
+        <v>263</v>
+      </c>
+      <c r="B126" t="s" s="8">
         <v>264</v>
       </c>
-      <c r="B126" t="s" s="5">
+      <c r="C126" t="s" s="5">
+        <v>67</v>
+      </c>
+      <c r="D126" s="6">
+        <v>0.761904761904762</v>
+      </c>
+      <c r="E126" s="6"/>
+      <c r="F126" s="6"/>
+      <c r="G126" s="6"/>
+      <c r="H126" s="6">
+        <v>0.722222222222222</v>
+      </c>
+      <c r="I126" s="6"/>
+      <c r="J126" s="10"/>
+    </row>
+    <row r="127" ht="20.7" customHeight="1">
+      <c r="A127" t="s" s="5">
         <v>265</v>
       </c>
-      <c r="C126" t="s" s="5">
+      <c r="B127" t="s" s="5">
+        <v>266</v>
+      </c>
+      <c r="C127" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="D126" s="12">
+      <c r="D127" s="12">
         <v>0.595238095238095</v>
       </c>
-      <c r="E126" s="13"/>
-      <c r="F126" s="13"/>
-      <c r="G126" s="13"/>
-      <c r="H126" s="6">
+      <c r="E127" s="13"/>
+      <c r="F127" s="13"/>
+      <c r="G127" s="13"/>
+      <c r="H127" s="6">
         <v>0.75</v>
       </c>
-      <c r="I126" s="13"/>
-      <c r="J126" s="14"/>
-    </row>
-    <row r="127" ht="21" customHeight="1">
-      <c r="A127" t="s" s="4">
-        <v>266</v>
-      </c>
-      <c r="B127" t="s" s="4">
+      <c r="I127" s="13"/>
+      <c r="J127" s="14"/>
+    </row>
+    <row r="128" ht="21" customHeight="1">
+      <c r="A128" t="s" s="4">
         <v>267</v>
       </c>
-      <c r="C127" t="s" s="5">
+      <c r="B128" t="s" s="4">
+        <v>268</v>
+      </c>
+      <c r="C128" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="D127" s="6">
+      <c r="D128" s="6">
         <v>0.69047619047619</v>
       </c>
-      <c r="E127" s="6"/>
-      <c r="F127" s="6"/>
-      <c r="G127" s="6"/>
-      <c r="H127" s="6">
-        <v>0.805555555555556</v>
-      </c>
-      <c r="I127" s="6"/>
-      <c r="J127" s="11"/>
-    </row>
-    <row r="128" ht="21" customHeight="1">
-      <c r="A128" t="s" s="19">
-        <v>268</v>
-      </c>
-      <c r="B128" t="s" s="19">
-        <v>269</v>
-      </c>
-      <c r="C128" t="s" s="18">
-        <v>21</v>
-      </c>
-      <c r="D128" s="6">
-        <v>0.80952380952381</v>
-      </c>
-      <c r="E128" s="6">
-        <v>0.645833333333333</v>
-      </c>
+      <c r="E128" s="6"/>
       <c r="F128" s="6"/>
       <c r="G128" s="6"/>
       <c r="H128" s="6">
-        <v>0.75</v>
+        <v>0.805555555555556</v>
       </c>
       <c r="I128" s="6"/>
-      <c r="J128" s="9"/>
+      <c r="J128" s="11"/>
     </row>
     <row r="129" ht="21" customHeight="1">
-      <c r="A129" t="s" s="5">
+      <c r="A129" t="s" s="19">
+        <v>269</v>
+      </c>
+      <c r="B129" t="s" s="19">
         <v>270</v>
       </c>
-      <c r="B129" t="s" s="5">
-        <v>271</v>
-      </c>
-      <c r="C129" t="s" s="5">
-        <v>18</v>
+      <c r="C129" t="s" s="18">
+        <v>21</v>
       </c>
       <c r="D129" s="6">
-        <v>0.738095238095238</v>
-      </c>
-      <c r="E129" s="6"/>
+        <v>0.80952380952381</v>
+      </c>
+      <c r="E129" s="6">
+        <v>0.645833333333333</v>
+      </c>
       <c r="F129" s="6"/>
       <c r="G129" s="6"/>
       <c r="H129" s="6">
-        <v>0.861111111111111</v>
+        <v>0.75</v>
       </c>
       <c r="I129" s="6"/>
-      <c r="J129" s="11"/>
+      <c r="J129" s="9"/>
     </row>
     <row r="130" ht="21" customHeight="1">
-      <c r="A130" t="s" s="4">
+      <c r="A130" t="s" s="5">
+        <v>271</v>
+      </c>
+      <c r="B130" t="s" s="5">
         <v>272</v>
       </c>
-      <c r="B130" t="s" s="4">
-        <v>273</v>
-      </c>
       <c r="C130" t="s" s="5">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D130" s="6">
         <v>0.738095238095238</v>
@@ -5877,222 +5908,224 @@
       <c r="F130" s="6"/>
       <c r="G130" s="6"/>
       <c r="H130" s="6">
-        <v>0.805555555555556</v>
+        <v>0.861111111111111</v>
       </c>
       <c r="I130" s="6"/>
-      <c r="J130" s="9"/>
+      <c r="J130" s="11"/>
     </row>
     <row r="131" ht="21" customHeight="1">
-      <c r="A131" t="s" s="8">
+      <c r="A131" t="s" s="4">
+        <v>273</v>
+      </c>
+      <c r="B131" t="s" s="4">
         <v>274</v>
       </c>
-      <c r="B131" t="s" s="8">
-        <v>275</v>
-      </c>
       <c r="C131" t="s" s="5">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D131" s="6">
-        <v>0.452380952380952</v>
+        <v>0.738095238095238</v>
       </c>
       <c r="E131" s="6">
-        <v>0.666666666666667</v>
+        <v>0.3125</v>
       </c>
       <c r="F131" s="6"/>
       <c r="G131" s="6"/>
       <c r="H131" s="6">
-        <v>0.361111111111111</v>
+        <v>0.805555555555556</v>
       </c>
       <c r="I131" s="6"/>
-      <c r="J131" s="11"/>
+      <c r="J131" s="9"/>
     </row>
     <row r="132" ht="21" customHeight="1">
-      <c r="A132" t="s" s="5">
+      <c r="A132" t="s" s="8">
+        <v>275</v>
+      </c>
+      <c r="B132" t="s" s="8">
         <v>276</v>
-      </c>
-      <c r="B132" t="s" s="5">
-        <v>277</v>
       </c>
       <c r="C132" t="s" s="5">
         <v>18</v>
       </c>
       <c r="D132" s="6">
-        <v>0.857142857142857</v>
-      </c>
-      <c r="E132" s="6"/>
+        <v>0.452380952380952</v>
+      </c>
+      <c r="E132" s="6">
+        <v>0.666666666666667</v>
+      </c>
       <c r="F132" s="6"/>
       <c r="G132" s="6"/>
       <c r="H132" s="6">
-        <v>0.861111111111111</v>
+        <v>0.361111111111111</v>
       </c>
       <c r="I132" s="6"/>
-      <c r="J132" s="7"/>
+      <c r="J132" s="11"/>
     </row>
     <row r="133" ht="21" customHeight="1">
       <c r="A133" t="s" s="5">
+        <v>277</v>
+      </c>
+      <c r="B133" t="s" s="5">
         <v>278</v>
-      </c>
-      <c r="B133" t="s" s="5">
-        <v>279</v>
       </c>
       <c r="C133" t="s" s="5">
         <v>18</v>
       </c>
       <c r="D133" s="6">
-        <v>0.80952380952381</v>
-      </c>
-      <c r="E133" s="6"/>
+        <v>0.857142857142857</v>
+      </c>
+      <c r="E133" s="6">
+        <v>0.541666666666667</v>
+      </c>
       <c r="F133" s="6"/>
       <c r="G133" s="6"/>
       <c r="H133" s="6">
-        <v>0.777777777777778</v>
+        <v>0.861111111111111</v>
       </c>
       <c r="I133" s="6"/>
       <c r="J133" s="7"/>
     </row>
     <row r="134" ht="21" customHeight="1">
-      <c r="A134" t="s" s="4">
+      <c r="A134" t="s" s="5">
+        <v>279</v>
+      </c>
+      <c r="B134" t="s" s="5">
         <v>280</v>
       </c>
-      <c r="B134" t="s" s="4">
-        <v>281</v>
-      </c>
       <c r="C134" t="s" s="5">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D134" s="6">
-        <v>0.428571428571429</v>
-      </c>
-      <c r="E134" s="6">
-        <v>0.3125</v>
-      </c>
+        <v>0.80952380952381</v>
+      </c>
+      <c r="E134" s="6"/>
       <c r="F134" s="6"/>
       <c r="G134" s="6"/>
       <c r="H134" s="6">
-        <v>0.722222222222222</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I134" s="6"/>
       <c r="J134" s="7"/>
     </row>
     <row r="135" ht="21" customHeight="1">
-      <c r="A135" t="s" s="19">
+      <c r="A135" t="s" s="4">
+        <v>281</v>
+      </c>
+      <c r="B135" t="s" s="4">
         <v>282</v>
       </c>
-      <c r="B135" t="s" s="19">
-        <v>283</v>
-      </c>
-      <c r="C135" t="s" s="18">
-        <v>18</v>
+      <c r="C135" t="s" s="5">
+        <v>21</v>
       </c>
       <c r="D135" s="6">
-        <v>0.476190476190476</v>
-      </c>
-      <c r="E135" s="6"/>
+        <v>0.428571428571429</v>
+      </c>
+      <c r="E135" s="6">
+        <v>0.3125</v>
+      </c>
       <c r="F135" s="6"/>
       <c r="G135" s="6"/>
       <c r="H135" s="6">
-        <v>0.75</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="I135" s="6"/>
       <c r="J135" s="7"/>
     </row>
     <row r="136" ht="21" customHeight="1">
-      <c r="A136" t="s" s="5">
+      <c r="A136" t="s" s="19">
+        <v>283</v>
+      </c>
+      <c r="B136" t="s" s="19">
         <v>284</v>
       </c>
-      <c r="B136" t="s" s="5">
-        <v>285</v>
-      </c>
-      <c r="C136" t="s" s="5">
+      <c r="C136" t="s" s="18">
         <v>18</v>
       </c>
       <c r="D136" s="6">
-        <v>0.738095238095238</v>
-      </c>
-      <c r="E136" s="6">
-        <v>0.854166666666667</v>
-      </c>
+        <v>0.476190476190476</v>
+      </c>
+      <c r="E136" s="6"/>
       <c r="F136" s="6"/>
       <c r="G136" s="6"/>
       <c r="H136" s="6">
-        <v>0.416666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="I136" s="6"/>
       <c r="J136" s="7"/>
     </row>
     <row r="137" ht="21" customHeight="1">
-      <c r="A137" t="s" s="4">
+      <c r="A137" t="s" s="5">
+        <v>285</v>
+      </c>
+      <c r="B137" t="s" s="5">
         <v>286</v>
-      </c>
-      <c r="B137" t="s" s="4">
-        <v>287</v>
       </c>
       <c r="C137" t="s" s="5">
         <v>18</v>
       </c>
       <c r="D137" s="6">
-        <v>0.619047619047619</v>
+        <v>0.738095238095238</v>
       </c>
       <c r="E137" s="6">
-        <v>0.583333333333333</v>
+        <v>0.854166666666667</v>
       </c>
       <c r="F137" s="6"/>
       <c r="G137" s="6"/>
       <c r="H137" s="6">
-        <v>0.75</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="I137" s="6"/>
       <c r="J137" s="7"/>
     </row>
     <row r="138" ht="21" customHeight="1">
-      <c r="A138" t="s" s="19">
+      <c r="A138" t="s" s="4">
+        <v>287</v>
+      </c>
+      <c r="B138" t="s" s="4">
         <v>288</v>
       </c>
-      <c r="B138" t="s" s="19">
-        <v>289</v>
-      </c>
-      <c r="C138" t="s" s="18">
+      <c r="C138" t="s" s="5">
         <v>18</v>
       </c>
       <c r="D138" s="6">
-        <v>0.738095238095238</v>
-      </c>
-      <c r="E138" s="6"/>
+        <v>0.619047619047619</v>
+      </c>
+      <c r="E138" s="6">
+        <v>0.583333333333333</v>
+      </c>
       <c r="F138" s="6"/>
       <c r="G138" s="6"/>
       <c r="H138" s="6">
-        <v>0.805555555555556</v>
+        <v>0.75</v>
       </c>
       <c r="I138" s="6"/>
       <c r="J138" s="7"/>
     </row>
     <row r="139" ht="21" customHeight="1">
-      <c r="A139" t="s" s="5">
+      <c r="A139" t="s" s="19">
+        <v>289</v>
+      </c>
+      <c r="B139" t="s" s="19">
         <v>290</v>
       </c>
-      <c r="B139" t="s" s="5">
-        <v>291</v>
-      </c>
-      <c r="C139" t="s" s="5">
+      <c r="C139" t="s" s="18">
         <v>18</v>
       </c>
       <c r="D139" s="6">
         <v>0.738095238095238</v>
       </c>
-      <c r="E139" s="6">
-        <v>0.5</v>
-      </c>
+      <c r="E139" s="6"/>
       <c r="F139" s="6"/>
       <c r="G139" s="6"/>
       <c r="H139" s="6">
-        <v>0.777777777777778</v>
+        <v>0.805555555555556</v>
       </c>
       <c r="I139" s="6"/>
       <c r="J139" s="7"/>
     </row>
     <row r="140" ht="21" customHeight="1">
       <c r="A140" t="s" s="5">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B140" t="s" s="5">
         <v>292</v>
@@ -6101,123 +6134,127 @@
         <v>18</v>
       </c>
       <c r="D140" s="6">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E140" s="6"/>
+        <v>0.738095238095238</v>
+      </c>
+      <c r="E140" s="6">
+        <v>0.5</v>
+      </c>
       <c r="F140" s="6"/>
       <c r="G140" s="6"/>
       <c r="H140" s="6">
-        <v>0.416666666666667</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I140" s="6"/>
-      <c r="J140" s="9"/>
-    </row>
-    <row r="141" ht="20.7" customHeight="1">
+      <c r="J140" s="7"/>
+    </row>
+    <row r="141" ht="21" customHeight="1">
       <c r="A141" t="s" s="5">
+        <v>291</v>
+      </c>
+      <c r="B141" t="s" s="5">
         <v>293</v>
-      </c>
-      <c r="B141" t="s" s="5">
-        <v>294</v>
       </c>
       <c r="C141" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D141" s="12">
+      <c r="D141" s="6">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E141" s="6">
+        <v>0.520833333333333</v>
+      </c>
+      <c r="F141" s="6"/>
+      <c r="G141" s="6"/>
+      <c r="H141" s="6">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="I141" s="6"/>
+      <c r="J141" s="9"/>
+    </row>
+    <row r="142" ht="20.7" customHeight="1">
+      <c r="A142" t="s" s="5">
+        <v>294</v>
+      </c>
+      <c r="B142" t="s" s="5">
+        <v>295</v>
+      </c>
+      <c r="C142" t="s" s="5">
+        <v>18</v>
+      </c>
+      <c r="D142" s="12">
         <v>0.476190476190476</v>
       </c>
-      <c r="E141" s="15">
+      <c r="E142" s="15">
         <v>0.333333333333333</v>
       </c>
-      <c r="F141" s="13"/>
-      <c r="G141" s="13"/>
-      <c r="H141" s="6">
+      <c r="F142" s="13"/>
+      <c r="G142" s="13"/>
+      <c r="H142" s="6">
         <v>0.555555555555556</v>
       </c>
-      <c r="I141" s="13"/>
-      <c r="J141" s="14"/>
-    </row>
-    <row r="142" ht="21" customHeight="1">
-      <c r="A142" t="s" s="5">
-        <v>295</v>
-      </c>
-      <c r="B142" t="s" s="5">
-        <v>296</v>
-      </c>
-      <c r="C142" t="s" s="5">
-        <v>67</v>
-      </c>
-      <c r="D142" s="6">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E142" s="6">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="F142" s="6"/>
-      <c r="G142" s="6"/>
-      <c r="H142" s="6">
-        <v>0.39</v>
-      </c>
-      <c r="I142" s="6"/>
-      <c r="J142" s="11"/>
+      <c r="I142" s="13"/>
+      <c r="J142" s="14"/>
     </row>
     <row r="143" ht="21" customHeight="1">
       <c r="A143" t="s" s="5">
+        <v>296</v>
+      </c>
+      <c r="B143" t="s" s="5">
         <v>297</v>
       </c>
-      <c r="B143" t="s" s="5">
-        <v>298</v>
-      </c>
       <c r="C143" t="s" s="5">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="D143" s="6">
-        <v>0.785714285714286</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E143" s="6">
-        <v>0.895833333333333</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="F143" s="6"/>
       <c r="G143" s="6"/>
       <c r="H143" s="6">
-        <v>0.722222222222222</v>
+        <v>0.39</v>
       </c>
       <c r="I143" s="6"/>
-      <c r="J143" s="7"/>
+      <c r="J143" s="11"/>
     </row>
     <row r="144" ht="21" customHeight="1">
       <c r="A144" t="s" s="5">
+        <v>298</v>
+      </c>
+      <c r="B144" t="s" s="5">
         <v>299</v>
-      </c>
-      <c r="B144" t="s" s="5">
-        <v>300</v>
       </c>
       <c r="C144" t="s" s="5">
         <v>21</v>
       </c>
       <c r="D144" s="6">
-        <v>0.714285714285714</v>
-      </c>
-      <c r="E144" s="6"/>
+        <v>0.785714285714286</v>
+      </c>
+      <c r="E144" s="6">
+        <v>0.895833333333333</v>
+      </c>
       <c r="F144" s="6"/>
       <c r="G144" s="6"/>
       <c r="H144" s="6">
-        <v>0.777777777777778</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="I144" s="6"/>
       <c r="J144" s="7"/>
     </row>
     <row r="145" ht="21" customHeight="1">
       <c r="A145" t="s" s="5">
+        <v>300</v>
+      </c>
+      <c r="B145" t="s" s="5">
         <v>301</v>
       </c>
-      <c r="B145" t="s" s="5">
-        <v>302</v>
-      </c>
       <c r="C145" t="s" s="5">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D145" s="6">
-        <v>0.69047619047619</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="E145" s="6"/>
       <c r="F145" s="6"/>
@@ -6230,128 +6267,134 @@
     </row>
     <row r="146" ht="21" customHeight="1">
       <c r="A146" t="s" s="5">
+        <v>302</v>
+      </c>
+      <c r="B146" t="s" s="5">
         <v>303</v>
-      </c>
-      <c r="B146" t="s" s="5">
-        <v>304</v>
       </c>
       <c r="C146" t="s" s="5">
         <v>12</v>
       </c>
       <c r="D146" s="6">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E146" s="6"/>
+        <v>0.69047619047619</v>
+      </c>
+      <c r="E146" s="6">
+        <v>0.75</v>
+      </c>
       <c r="F146" s="6"/>
       <c r="G146" s="6"/>
       <c r="H146" s="6">
-        <v>0.805555555555556</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I146" s="6"/>
       <c r="J146" s="7"/>
     </row>
     <row r="147" ht="21" customHeight="1">
       <c r="A147" t="s" s="5">
+        <v>304</v>
+      </c>
+      <c r="B147" t="s" s="5">
         <v>305</v>
       </c>
-      <c r="B147" t="s" s="5">
-        <v>306</v>
-      </c>
       <c r="C147" t="s" s="5">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D147" s="6">
-        <v>0.785714285714286</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E147" s="6"/>
       <c r="F147" s="6"/>
       <c r="G147" s="6"/>
       <c r="H147" s="6">
-        <v>0.75</v>
+        <v>0.805555555555556</v>
       </c>
       <c r="I147" s="6"/>
-      <c r="J147" s="9"/>
+      <c r="J147" s="7"/>
     </row>
     <row r="148" ht="21" customHeight="1">
       <c r="A148" t="s" s="5">
+        <v>306</v>
+      </c>
+      <c r="B148" t="s" s="5">
         <v>307</v>
       </c>
-      <c r="B148" t="s" s="5">
-        <v>308</v>
-      </c>
       <c r="C148" t="s" s="5">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D148" s="6">
-        <v>0.880952380952381</v>
-      </c>
-      <c r="E148" s="6"/>
+        <v>0.785714285714286</v>
+      </c>
+      <c r="E148" s="6">
+        <v>0.625</v>
+      </c>
       <c r="F148" s="6"/>
       <c r="G148" s="6"/>
       <c r="H148" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="I148" s="6"/>
+      <c r="J148" s="9"/>
+    </row>
+    <row r="149" ht="21" customHeight="1">
+      <c r="A149" t="s" s="5">
+        <v>308</v>
+      </c>
+      <c r="B149" t="s" s="5">
+        <v>309</v>
+      </c>
+      <c r="C149" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D149" s="6">
+        <v>0.880952380952381</v>
+      </c>
+      <c r="E149" s="6">
+        <v>0.6875</v>
+      </c>
+      <c r="F149" s="6"/>
+      <c r="G149" s="6"/>
+      <c r="H149" s="6">
         <v>0.777777777777778</v>
       </c>
-      <c r="I148" s="6"/>
-      <c r="J148" s="10"/>
-    </row>
-    <row r="149" ht="20.7" customHeight="1">
-      <c r="A149" t="s" s="5">
-        <v>309</v>
-      </c>
-      <c r="B149" t="s" s="5">
+      <c r="I149" s="6"/>
+      <c r="J149" s="10"/>
+    </row>
+    <row r="150" ht="20.7" customHeight="1">
+      <c r="A150" t="s" s="5">
         <v>310</v>
       </c>
-      <c r="C149" t="s" s="5">
+      <c r="B150" t="s" s="5">
+        <v>311</v>
+      </c>
+      <c r="C150" t="s" s="5">
         <v>67</v>
       </c>
-      <c r="D149" s="15">
+      <c r="D150" s="15">
         <v>0.619047619047619</v>
       </c>
-      <c r="E149" s="15">
+      <c r="E150" s="15">
         <v>0.395833333333333</v>
       </c>
-      <c r="F149" s="13"/>
-      <c r="G149" s="13"/>
-      <c r="H149" s="6">
+      <c r="F150" s="13"/>
+      <c r="G150" s="13"/>
+      <c r="H150" s="6">
         <v>0.666666666666667</v>
       </c>
-      <c r="I149" s="13"/>
-      <c r="J149" s="16"/>
-    </row>
-    <row r="150" ht="21" customHeight="1">
-      <c r="A150" t="s" s="4">
-        <v>311</v>
-      </c>
-      <c r="B150" t="s" s="4">
+      <c r="I150" s="13"/>
+      <c r="J150" s="16"/>
+    </row>
+    <row r="151" ht="21" customHeight="1">
+      <c r="A151" t="s" s="4">
         <v>312</v>
       </c>
-      <c r="C150" t="s" s="5">
-        <v>36</v>
-      </c>
-      <c r="D150" s="6">
-        <v>0.904761904761905</v>
-      </c>
-      <c r="E150" s="6"/>
-      <c r="F150" s="6"/>
-      <c r="G150" s="6"/>
-      <c r="H150" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="I150" s="6"/>
-      <c r="J150" s="7"/>
-    </row>
-    <row r="151" ht="21" customHeight="1">
-      <c r="A151" t="s" s="8">
+      <c r="B151" t="s" s="4">
         <v>313</v>
-      </c>
-      <c r="B151" t="s" s="8">
-        <v>314</v>
       </c>
       <c r="C151" t="s" s="5">
         <v>36</v>
       </c>
       <c r="D151" s="6">
-        <v>0.738095238095238</v>
+        <v>0.904761904761905</v>
       </c>
       <c r="E151" s="6"/>
       <c r="F151" s="6"/>
@@ -6363,61 +6406,61 @@
       <c r="J151" s="7"/>
     </row>
     <row r="152" ht="21" customHeight="1">
-      <c r="A152" t="s" s="5">
+      <c r="A152" t="s" s="8">
+        <v>314</v>
+      </c>
+      <c r="B152" t="s" s="8">
         <v>315</v>
       </c>
-      <c r="B152" t="s" s="5">
-        <v>316</v>
-      </c>
       <c r="C152" t="s" s="5">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D152" s="6">
-        <v>0.714285714285714</v>
+        <v>0.738095238095238</v>
       </c>
       <c r="E152" s="6"/>
       <c r="F152" s="6"/>
       <c r="G152" s="6"/>
       <c r="H152" s="6">
-        <v>0.722222222222222</v>
+        <v>0.75</v>
       </c>
       <c r="I152" s="6"/>
-      <c r="J152" s="9"/>
+      <c r="J152" s="7"/>
     </row>
     <row r="153" ht="21" customHeight="1">
       <c r="A153" t="s" s="5">
+        <v>316</v>
+      </c>
+      <c r="B153" t="s" s="5">
         <v>317</v>
       </c>
-      <c r="B153" t="s" s="5">
-        <v>318</v>
-      </c>
       <c r="C153" t="s" s="5">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D153" s="6">
-        <v>0.785714285714286</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="E153" s="6"/>
       <c r="F153" s="6"/>
       <c r="G153" s="6"/>
       <c r="H153" s="6">
-        <v>0.777777777777778</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="I153" s="6"/>
-      <c r="J153" s="11"/>
+      <c r="J153" s="9"/>
     </row>
     <row r="154" ht="21" customHeight="1">
       <c r="A154" t="s" s="5">
+        <v>318</v>
+      </c>
+      <c r="B154" t="s" s="5">
         <v>319</v>
       </c>
-      <c r="B154" t="s" s="5">
-        <v>320</v>
-      </c>
       <c r="C154" t="s" s="5">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D154" s="6">
-        <v>0</v>
+        <v>0.785714285714286</v>
       </c>
       <c r="E154" s="6"/>
       <c r="F154" s="6"/>
@@ -6426,20 +6469,20 @@
         <v>0.777777777777778</v>
       </c>
       <c r="I154" s="6"/>
-      <c r="J154" s="7"/>
+      <c r="J154" s="11"/>
     </row>
     <row r="155" ht="21" customHeight="1">
       <c r="A155" t="s" s="5">
+        <v>320</v>
+      </c>
+      <c r="B155" t="s" s="5">
         <v>321</v>
       </c>
-      <c r="B155" t="s" s="5">
-        <v>322</v>
-      </c>
       <c r="C155" t="s" s="5">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D155" s="6">
-        <v>0.761904761904762</v>
+        <v>0</v>
       </c>
       <c r="E155" s="6"/>
       <c r="F155" s="6"/>
@@ -6452,983 +6495,995 @@
     </row>
     <row r="156" ht="21" customHeight="1">
       <c r="A156" t="s" s="5">
+        <v>322</v>
+      </c>
+      <c r="B156" t="s" s="5">
         <v>323</v>
       </c>
-      <c r="B156" t="s" s="5">
-        <v>324</v>
-      </c>
       <c r="C156" t="s" s="5">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="D156" s="6">
-        <v>0.80952380952381</v>
+        <v>0.761904761904762</v>
       </c>
       <c r="E156" s="6"/>
       <c r="F156" s="6"/>
       <c r="G156" s="6"/>
       <c r="H156" s="6">
-        <v>0.388888888888889</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I156" s="6"/>
       <c r="J156" s="7"/>
     </row>
     <row r="157" ht="21" customHeight="1">
       <c r="A157" t="s" s="5">
+        <v>324</v>
+      </c>
+      <c r="B157" t="s" s="5">
         <v>325</v>
-      </c>
-      <c r="B157" t="s" s="5">
-        <v>326</v>
       </c>
       <c r="C157" t="s" s="5">
         <v>67</v>
       </c>
       <c r="D157" s="6">
-        <v>0.785714285714286</v>
+        <v>0.80952380952381</v>
       </c>
       <c r="E157" s="6"/>
       <c r="F157" s="6"/>
       <c r="G157" s="6"/>
       <c r="H157" s="6">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="I157" s="6"/>
+      <c r="J157" s="7"/>
+    </row>
+    <row r="158" ht="21" customHeight="1">
+      <c r="A158" t="s" s="5">
+        <v>326</v>
+      </c>
+      <c r="B158" t="s" s="5">
+        <v>327</v>
+      </c>
+      <c r="C158" t="s" s="5">
+        <v>67</v>
+      </c>
+      <c r="D158" s="6">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="E158" s="6"/>
+      <c r="F158" s="6"/>
+      <c r="G158" s="6"/>
+      <c r="H158" s="6">
         <v>0</v>
       </c>
-      <c r="I157" s="6"/>
-      <c r="J157" s="9"/>
-    </row>
-    <row r="158" ht="20.7" customHeight="1">
-      <c r="A158" t="s" s="5">
-        <v>327</v>
-      </c>
-      <c r="B158" t="s" s="5">
+      <c r="I158" s="6"/>
+      <c r="J158" s="9"/>
+    </row>
+    <row r="159" ht="20.7" customHeight="1">
+      <c r="A159" t="s" s="5">
         <v>328</v>
       </c>
-      <c r="C158" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D158" s="12">
-        <v>0.642857142857143</v>
-      </c>
-      <c r="E158" s="13"/>
-      <c r="F158" s="13"/>
-      <c r="G158" s="13"/>
-      <c r="H158" s="6">
-        <v>0.861111111111111</v>
-      </c>
-      <c r="I158" s="13"/>
-      <c r="J158" s="16"/>
-    </row>
-    <row r="159" ht="21" customHeight="1">
-      <c r="A159" t="s" s="5">
+      <c r="B159" t="s" s="5">
         <v>329</v>
-      </c>
-      <c r="B159" t="s" s="5">
-        <v>330</v>
       </c>
       <c r="C159" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D159" s="6">
-        <v>0.619047619047619</v>
-      </c>
-      <c r="E159" s="6"/>
-      <c r="F159" s="6"/>
-      <c r="G159" s="6"/>
+      <c r="D159" s="12">
+        <v>0.642857142857143</v>
+      </c>
+      <c r="E159" s="13"/>
+      <c r="F159" s="13"/>
+      <c r="G159" s="13"/>
       <c r="H159" s="6">
-        <v>0.805555555555556</v>
-      </c>
-      <c r="I159" s="6"/>
-      <c r="J159" s="9"/>
+        <v>0.861111111111111</v>
+      </c>
+      <c r="I159" s="13"/>
+      <c r="J159" s="16"/>
     </row>
     <row r="160" ht="21" customHeight="1">
       <c r="A160" t="s" s="5">
+        <v>330</v>
+      </c>
+      <c r="B160" t="s" s="5">
         <v>331</v>
       </c>
-      <c r="B160" t="s" s="5">
-        <v>332</v>
-      </c>
       <c r="C160" t="s" s="5">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D160" s="6">
+        <v>0.619047619047619</v>
+      </c>
+      <c r="E160" s="6">
         <v>0.666666666666667</v>
       </c>
-      <c r="E160" s="6"/>
       <c r="F160" s="6"/>
       <c r="G160" s="6"/>
       <c r="H160" s="6">
-        <v>0.888888888888889</v>
+        <v>0.805555555555556</v>
       </c>
       <c r="I160" s="6"/>
-      <c r="J160" s="11"/>
+      <c r="J160" s="9"/>
     </row>
     <row r="161" ht="21" customHeight="1">
       <c r="A161" t="s" s="5">
+        <v>332</v>
+      </c>
+      <c r="B161" t="s" s="5">
         <v>333</v>
       </c>
-      <c r="B161" t="s" s="5">
-        <v>334</v>
-      </c>
       <c r="C161" t="s" s="5">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D161" s="6">
-        <v>0.714285714285714</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="E161" s="6"/>
       <c r="F161" s="6"/>
       <c r="G161" s="6"/>
       <c r="H161" s="6">
-        <v>0.777777777777778</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="I161" s="6"/>
-      <c r="J161" s="7"/>
+      <c r="J161" s="11"/>
     </row>
     <row r="162" ht="21" customHeight="1">
-      <c r="A162" t="s" s="4">
+      <c r="A162" t="s" s="5">
+        <v>334</v>
+      </c>
+      <c r="B162" t="s" s="5">
         <v>335</v>
       </c>
-      <c r="B162" t="s" s="4">
-        <v>336</v>
-      </c>
       <c r="C162" t="s" s="5">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D162" s="6">
-        <v>0.738095238095238</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="E162" s="6"/>
       <c r="F162" s="6"/>
       <c r="G162" s="6"/>
       <c r="H162" s="6">
-        <v>0.75</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I162" s="6"/>
-      <c r="J162" s="9"/>
+      <c r="J162" s="7"/>
     </row>
     <row r="163" ht="21" customHeight="1">
-      <c r="A163" t="s" s="24">
+      <c r="A163" t="s" s="4">
+        <v>336</v>
+      </c>
+      <c r="B163" t="s" s="4">
         <v>337</v>
-      </c>
-      <c r="B163" t="s" s="24">
-        <v>338</v>
       </c>
       <c r="C163" t="s" s="5">
         <v>12</v>
       </c>
       <c r="D163" s="6">
-        <v>0.714285714285714</v>
+        <v>0.738095238095238</v>
       </c>
       <c r="E163" s="6">
-        <v>0.604166666666667</v>
+        <v>0.5</v>
       </c>
       <c r="F163" s="6"/>
       <c r="G163" s="6"/>
       <c r="H163" s="6">
-        <v>0.861111111111111</v>
+        <v>0.75</v>
       </c>
       <c r="I163" s="6"/>
-      <c r="J163" s="10"/>
+      <c r="J163" s="9"/>
     </row>
     <row r="164" ht="21" customHeight="1">
-      <c r="A164" t="s" s="8">
+      <c r="A164" t="s" s="24">
+        <v>338</v>
+      </c>
+      <c r="B164" t="s" s="24">
         <v>339</v>
       </c>
-      <c r="B164" t="s" s="8">
-        <v>340</v>
-      </c>
       <c r="C164" t="s" s="5">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D164" s="6">
-        <v>0.80952380952381</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="E164" s="6">
-        <v>0.625</v>
+        <v>0.604166666666667</v>
       </c>
       <c r="F164" s="6"/>
       <c r="G164" s="6"/>
       <c r="H164" s="6">
-        <v>0.777777777777778</v>
+        <v>0.861111111111111</v>
       </c>
       <c r="I164" s="6"/>
-      <c r="J164" s="11"/>
+      <c r="J164" s="10"/>
     </row>
     <row r="165" ht="21" customHeight="1">
-      <c r="A165" t="s" s="5">
+      <c r="A165" t="s" s="8">
+        <v>340</v>
+      </c>
+      <c r="B165" t="s" s="8">
         <v>341</v>
-      </c>
-      <c r="B165" t="s" s="5">
-        <v>342</v>
       </c>
       <c r="C165" t="s" s="5">
         <v>21</v>
       </c>
       <c r="D165" s="6">
-        <v>0.69047619047619</v>
-      </c>
-      <c r="E165" s="6"/>
+        <v>0.80952380952381</v>
+      </c>
+      <c r="E165" s="6">
+        <v>0.625</v>
+      </c>
       <c r="F165" s="6"/>
       <c r="G165" s="6"/>
       <c r="H165" s="6">
+        <v>0.777777777777778</v>
+      </c>
+      <c r="I165" s="6"/>
+      <c r="J165" s="11"/>
+    </row>
+    <row r="166" ht="21" customHeight="1">
+      <c r="A166" t="s" s="5">
+        <v>342</v>
+      </c>
+      <c r="B166" t="s" s="5">
+        <v>343</v>
+      </c>
+      <c r="C166" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="D166" s="6">
+        <v>0.69047619047619</v>
+      </c>
+      <c r="E166" s="6"/>
+      <c r="F166" s="6"/>
+      <c r="G166" s="6"/>
+      <c r="H166" s="6">
         <v>0.722222222222222</v>
       </c>
-      <c r="I165" s="6"/>
-      <c r="J165" s="9"/>
-    </row>
-    <row r="166" ht="20.35" customHeight="1">
-      <c r="A166" t="s" s="4">
-        <v>343</v>
-      </c>
-      <c r="B166" t="s" s="4">
+      <c r="I166" s="6"/>
+      <c r="J166" s="9"/>
+    </row>
+    <row r="167" ht="20.35" customHeight="1">
+      <c r="A167" t="s" s="4">
         <v>344</v>
       </c>
-      <c r="C166" t="s" s="5">
+      <c r="B167" t="s" s="4">
+        <v>345</v>
+      </c>
+      <c r="C167" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D166" s="15">
+      <c r="D167" s="15">
         <v>0.80952380952381</v>
       </c>
-      <c r="E166" s="13"/>
-      <c r="F166" s="13"/>
-      <c r="G166" s="13"/>
-      <c r="H166" s="6">
+      <c r="E167" s="13"/>
+      <c r="F167" s="13"/>
+      <c r="G167" s="13"/>
+      <c r="H167" s="6">
         <v>0.777777777777778</v>
       </c>
-      <c r="I166" s="13"/>
-      <c r="J166" s="14"/>
-    </row>
-    <row r="167" ht="21" customHeight="1">
-      <c r="A167" t="s" s="8">
-        <v>345</v>
-      </c>
-      <c r="B167" t="s" s="8">
+      <c r="I167" s="13"/>
+      <c r="J167" s="14"/>
+    </row>
+    <row r="168" ht="21" customHeight="1">
+      <c r="A168" t="s" s="8">
         <v>346</v>
       </c>
-      <c r="C167" t="s" s="5">
+      <c r="B168" t="s" s="8">
+        <v>347</v>
+      </c>
+      <c r="C168" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="D167" s="6">
+      <c r="D168" s="6">
         <v>0.904761904761905</v>
-      </c>
-      <c r="E167" s="6"/>
-      <c r="F167" s="6"/>
-      <c r="G167" s="6"/>
-      <c r="H167" s="6">
-        <v>0</v>
-      </c>
-      <c r="I167" s="6"/>
-      <c r="J167" s="11"/>
-    </row>
-    <row r="168" ht="21" customHeight="1">
-      <c r="A168" t="s" s="4">
-        <v>347</v>
-      </c>
-      <c r="B168" t="s" s="4">
-        <v>348</v>
-      </c>
-      <c r="C168" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D168" s="6">
-        <v>0.69047619047619</v>
       </c>
       <c r="E168" s="6"/>
       <c r="F168" s="6"/>
       <c r="G168" s="6"/>
       <c r="H168" s="6">
-        <v>0.777777777777778</v>
+        <v>0</v>
       </c>
       <c r="I168" s="6"/>
-      <c r="J168" s="9"/>
+      <c r="J168" s="11"/>
     </row>
     <row r="169" ht="21" customHeight="1">
-      <c r="A169" t="s" s="24">
+      <c r="A169" t="s" s="4">
+        <v>348</v>
+      </c>
+      <c r="B169" t="s" s="4">
         <v>349</v>
-      </c>
-      <c r="B169" t="s" s="24">
-        <v>350</v>
       </c>
       <c r="C169" t="s" s="5">
         <v>18</v>
       </c>
       <c r="D169" s="6">
-        <v>0.857142857142857</v>
-      </c>
-      <c r="E169" s="6">
-        <v>0.833333333333333</v>
-      </c>
+        <v>0.69047619047619</v>
+      </c>
+      <c r="E169" s="6"/>
       <c r="F169" s="6"/>
       <c r="G169" s="6"/>
       <c r="H169" s="6">
+        <v>0.777777777777778</v>
+      </c>
+      <c r="I169" s="6"/>
+      <c r="J169" s="9"/>
+    </row>
+    <row r="170" ht="21" customHeight="1">
+      <c r="A170" t="s" s="24">
+        <v>350</v>
+      </c>
+      <c r="B170" t="s" s="24">
+        <v>351</v>
+      </c>
+      <c r="C170" t="s" s="5">
+        <v>18</v>
+      </c>
+      <c r="D170" s="6">
+        <v>0.857142857142857</v>
+      </c>
+      <c r="E170" s="6">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="F170" s="6"/>
+      <c r="G170" s="6"/>
+      <c r="H170" s="6">
         <v>0.805555555555556</v>
       </c>
-      <c r="I169" s="6"/>
-      <c r="J169" s="11"/>
-    </row>
-    <row r="170" ht="21" customHeight="1">
-      <c r="A170" t="s" s="8">
-        <v>351</v>
-      </c>
-      <c r="B170" t="s" s="8">
+      <c r="I170" s="6"/>
+      <c r="J170" s="11"/>
+    </row>
+    <row r="171" ht="21" customHeight="1">
+      <c r="A171" t="s" s="8">
         <v>352</v>
       </c>
-      <c r="C170" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="D170" s="15">
-        <v>0.619047619047619</v>
-      </c>
-      <c r="E170" s="13"/>
-      <c r="F170" s="13"/>
-      <c r="G170" s="13"/>
-      <c r="H170" s="6">
-        <v>0.638888888888889</v>
-      </c>
-      <c r="I170" s="13"/>
-      <c r="J170" s="7"/>
-    </row>
-    <row r="171" ht="21" customHeight="1">
-      <c r="A171" t="s" s="4">
+      <c r="B171" t="s" s="8">
         <v>353</v>
-      </c>
-      <c r="B171" t="s" s="4">
-        <v>354</v>
       </c>
       <c r="C171" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="D171" s="6">
+      <c r="D171" s="15">
+        <v>0.619047619047619</v>
+      </c>
+      <c r="E171" s="13"/>
+      <c r="F171" s="13"/>
+      <c r="G171" s="13"/>
+      <c r="H171" s="6">
+        <v>0.638888888888889</v>
+      </c>
+      <c r="I171" s="13"/>
+      <c r="J171" s="7"/>
+    </row>
+    <row r="172" ht="21" customHeight="1">
+      <c r="A172" t="s" s="4">
+        <v>354</v>
+      </c>
+      <c r="B172" t="s" s="4">
+        <v>355</v>
+      </c>
+      <c r="C172" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D172" s="6">
         <v>0.761904761904762</v>
-      </c>
-      <c r="E171" s="6"/>
-      <c r="F171" s="6"/>
-      <c r="G171" s="6"/>
-      <c r="H171" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="I171" s="6"/>
-      <c r="J171" s="7"/>
-    </row>
-    <row r="172" ht="21" customHeight="1">
-      <c r="A172" t="s" s="19">
-        <v>355</v>
-      </c>
-      <c r="B172" t="s" s="19">
-        <v>356</v>
-      </c>
-      <c r="C172" t="s" s="18">
-        <v>21</v>
-      </c>
-      <c r="D172" s="6">
-        <v>0.714285714285714</v>
       </c>
       <c r="E172" s="6"/>
       <c r="F172" s="6"/>
       <c r="G172" s="6"/>
       <c r="H172" s="6">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="I172" s="6"/>
       <c r="J172" s="7"/>
     </row>
     <row r="173" ht="21" customHeight="1">
-      <c r="A173" t="s" s="4">
+      <c r="A173" t="s" s="19">
+        <v>356</v>
+      </c>
+      <c r="B173" t="s" s="19">
         <v>357</v>
       </c>
-      <c r="B173" t="s" s="4">
-        <v>358</v>
-      </c>
-      <c r="C173" t="s" s="5">
+      <c r="C173" t="s" s="18">
         <v>21</v>
       </c>
       <c r="D173" s="6">
-        <v>0.761904761904762</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="E173" s="6"/>
       <c r="F173" s="6"/>
       <c r="G173" s="6"/>
       <c r="H173" s="6">
-        <v>0.305555555555556</v>
+        <v>0</v>
       </c>
       <c r="I173" s="6"/>
-      <c r="J173" s="9"/>
+      <c r="J173" s="7"/>
     </row>
     <row r="174" ht="21" customHeight="1">
-      <c r="A174" t="s" s="17">
+      <c r="A174" t="s" s="4">
+        <v>358</v>
+      </c>
+      <c r="B174" t="s" s="4">
         <v>359</v>
       </c>
-      <c r="B174" t="s" s="17">
-        <v>360</v>
-      </c>
-      <c r="C174" t="s" s="18">
-        <v>36</v>
+      <c r="C174" t="s" s="5">
+        <v>21</v>
       </c>
       <c r="D174" s="6">
-        <v>0.785714285714286</v>
+        <v>0.761904761904762</v>
       </c>
       <c r="E174" s="6"/>
       <c r="F174" s="6"/>
       <c r="G174" s="6"/>
       <c r="H174" s="6">
-        <v>0.805555555555556</v>
+        <v>0.305555555555556</v>
       </c>
       <c r="I174" s="6"/>
-      <c r="J174" s="10"/>
+      <c r="J174" s="9"/>
     </row>
     <row r="175" ht="21" customHeight="1">
-      <c r="A175" t="s" s="8">
+      <c r="A175" t="s" s="17">
+        <v>360</v>
+      </c>
+      <c r="B175" t="s" s="17">
         <v>361</v>
       </c>
-      <c r="B175" t="s" s="8">
-        <v>362</v>
-      </c>
-      <c r="C175" t="s" s="5">
-        <v>67</v>
+      <c r="C175" t="s" s="18">
+        <v>36</v>
       </c>
       <c r="D175" s="6">
-        <v>0.694444444444444</v>
+        <v>0.785714285714286</v>
       </c>
       <c r="E175" s="6"/>
       <c r="F175" s="6"/>
       <c r="G175" s="6"/>
       <c r="H175" s="6">
-        <v>0</v>
+        <v>0.805555555555556</v>
       </c>
       <c r="I175" s="6"/>
-      <c r="J175" s="11"/>
+      <c r="J175" s="10"/>
     </row>
     <row r="176" ht="21" customHeight="1">
-      <c r="A176" t="s" s="5">
+      <c r="A176" t="s" s="8">
+        <v>362</v>
+      </c>
+      <c r="B176" t="s" s="8">
         <v>363</v>
       </c>
-      <c r="B176" t="s" s="5">
-        <v>364</v>
-      </c>
       <c r="C176" t="s" s="5">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D176" s="6">
-        <v>0.714285714285714</v>
-      </c>
-      <c r="E176" s="6">
-        <v>0.645833333333333</v>
-      </c>
+        <v>0.694444444444444</v>
+      </c>
+      <c r="E176" s="6"/>
       <c r="F176" s="6"/>
       <c r="G176" s="6"/>
       <c r="H176" s="6">
-        <v>0.777777777777778</v>
+        <v>0</v>
       </c>
       <c r="I176" s="6"/>
-      <c r="J176" s="9"/>
-    </row>
-    <row r="177" ht="20.7" customHeight="1">
-      <c r="A177" t="s" s="4">
+      <c r="J176" s="11"/>
+    </row>
+    <row r="177" ht="21" customHeight="1">
+      <c r="A177" t="s" s="5">
+        <v>364</v>
+      </c>
+      <c r="B177" t="s" s="5">
         <v>365</v>
-      </c>
-      <c r="B177" t="s" s="4">
-        <v>366</v>
       </c>
       <c r="C177" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="D177" s="12">
-        <v>0.738095238095238</v>
-      </c>
-      <c r="E177" s="13"/>
-      <c r="F177" s="13"/>
-      <c r="G177" s="13"/>
+      <c r="D177" s="6">
+        <v>0.714285714285714</v>
+      </c>
+      <c r="E177" s="6">
+        <v>0.645833333333333</v>
+      </c>
+      <c r="F177" s="6"/>
+      <c r="G177" s="6"/>
       <c r="H177" s="6">
         <v>0.777777777777778</v>
       </c>
-      <c r="I177" s="13"/>
-      <c r="J177" s="16"/>
-    </row>
-    <row r="178" ht="21" customHeight="1">
-      <c r="A178" t="s" s="19">
+      <c r="I177" s="6"/>
+      <c r="J177" s="9"/>
+    </row>
+    <row r="178" ht="20.7" customHeight="1">
+      <c r="A178" t="s" s="4">
+        <v>366</v>
+      </c>
+      <c r="B178" t="s" s="4">
         <v>367</v>
       </c>
-      <c r="B178" t="s" s="19">
-        <v>368</v>
-      </c>
-      <c r="C178" t="s" s="18">
-        <v>18</v>
-      </c>
-      <c r="D178" s="6">
-        <v>0.952380952380952</v>
-      </c>
-      <c r="E178" s="6"/>
-      <c r="F178" s="6"/>
-      <c r="G178" s="6"/>
+      <c r="C178" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D178" s="12">
+        <v>0.738095238095238</v>
+      </c>
+      <c r="E178" s="15">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="F178" s="13"/>
+      <c r="G178" s="13"/>
       <c r="H178" s="6">
         <v>0.777777777777778</v>
       </c>
-      <c r="I178" s="6"/>
-      <c r="J178" s="7"/>
+      <c r="I178" s="13"/>
+      <c r="J178" s="16"/>
     </row>
     <row r="179" ht="21" customHeight="1">
-      <c r="A179" t="s" s="5">
+      <c r="A179" t="s" s="19">
+        <v>368</v>
+      </c>
+      <c r="B179" t="s" s="19">
         <v>369</v>
       </c>
-      <c r="B179" t="s" s="5">
-        <v>370</v>
-      </c>
-      <c r="C179" t="s" s="5">
-        <v>12</v>
+      <c r="C179" t="s" s="18">
+        <v>18</v>
       </c>
       <c r="D179" s="6">
-        <v>0.571428571428571</v>
-      </c>
-      <c r="E179" s="6"/>
+        <v>0.952380952380952</v>
+      </c>
+      <c r="E179" s="6">
+        <v>0.854166666666667</v>
+      </c>
       <c r="F179" s="6"/>
       <c r="G179" s="6"/>
       <c r="H179" s="6">
-        <v>0.722222222222222</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I179" s="6"/>
       <c r="J179" s="7"/>
     </row>
     <row r="180" ht="21" customHeight="1">
       <c r="A180" t="s" s="5">
+        <v>370</v>
+      </c>
+      <c r="B180" t="s" s="5">
         <v>371</v>
       </c>
-      <c r="B180" t="s" s="5">
-        <v>372</v>
-      </c>
       <c r="C180" t="s" s="5">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D180" s="6">
-        <v>0.357142857142857</v>
-      </c>
-      <c r="E180" s="6"/>
+        <v>0.571428571428571</v>
+      </c>
+      <c r="E180" s="6">
+        <v>0.541666666666667</v>
+      </c>
       <c r="F180" s="6"/>
       <c r="G180" s="6"/>
       <c r="H180" s="6">
-        <v>0</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="I180" s="6"/>
       <c r="J180" s="7"/>
     </row>
     <row r="181" ht="21" customHeight="1">
-      <c r="A181" t="s" s="4">
-        <v>371</v>
-      </c>
-      <c r="B181" t="s" s="4">
+      <c r="A181" t="s" s="5">
+        <v>372</v>
+      </c>
+      <c r="B181" t="s" s="5">
         <v>373</v>
       </c>
       <c r="C181" t="s" s="5">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D181" s="6">
-        <v>0.666666666666667</v>
+        <v>0.357142857142857</v>
       </c>
       <c r="E181" s="6"/>
       <c r="F181" s="6"/>
       <c r="G181" s="6"/>
       <c r="H181" s="6">
-        <v>0.638888888888889</v>
+        <v>0</v>
       </c>
       <c r="I181" s="6"/>
-      <c r="J181" s="9"/>
+      <c r="J181" s="7"/>
     </row>
     <row r="182" ht="21" customHeight="1">
-      <c r="A182" t="s" s="24">
+      <c r="A182" t="s" s="4">
+        <v>372</v>
+      </c>
+      <c r="B182" t="s" s="4">
         <v>374</v>
       </c>
-      <c r="B182" t="s" s="24">
-        <v>375</v>
-      </c>
       <c r="C182" t="s" s="5">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D182" s="6">
-        <v>0.761904761904762</v>
-      </c>
-      <c r="E182" s="6"/>
+        <v>0.666666666666667</v>
+      </c>
+      <c r="E182" s="6">
+        <v>0.479166666666667</v>
+      </c>
       <c r="F182" s="6"/>
       <c r="G182" s="6"/>
       <c r="H182" s="6">
-        <v>0.888888888888889</v>
+        <v>0.638888888888889</v>
       </c>
       <c r="I182" s="6"/>
-      <c r="J182" s="10"/>
+      <c r="J182" s="9"/>
     </row>
     <row r="183" ht="21" customHeight="1">
-      <c r="A183" t="s" s="8">
+      <c r="A183" t="s" s="24">
+        <v>375</v>
+      </c>
+      <c r="B183" t="s" s="24">
         <v>376</v>
       </c>
-      <c r="B183" t="s" s="8">
-        <v>377</v>
-      </c>
       <c r="C183" t="s" s="5">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D183" s="6">
-        <v>0.619047619047619</v>
+        <v>0.761904761904762</v>
       </c>
       <c r="E183" s="6">
-        <v>0.770833333333333</v>
+        <v>0.604166666666667</v>
       </c>
       <c r="F183" s="6"/>
       <c r="G183" s="6"/>
       <c r="H183" s="6">
-        <v>0.75</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="I183" s="6"/>
       <c r="J183" s="10"/>
     </row>
-    <row r="184" ht="20.7" customHeight="1">
-      <c r="A184" t="s" s="5">
+    <row r="184" ht="21" customHeight="1">
+      <c r="A184" t="s" s="8">
+        <v>377</v>
+      </c>
+      <c r="B184" t="s" s="8">
         <v>378</v>
-      </c>
-      <c r="B184" t="s" s="5">
-        <v>379</v>
       </c>
       <c r="C184" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="D184" s="15">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E184" s="13"/>
-      <c r="F184" s="13"/>
-      <c r="G184" s="13"/>
+      <c r="D184" s="6">
+        <v>0.619047619047619</v>
+      </c>
+      <c r="E184" s="6">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="F184" s="6"/>
+      <c r="G184" s="6"/>
       <c r="H184" s="6">
         <v>0.75</v>
       </c>
-      <c r="I184" s="13"/>
-      <c r="J184" s="16"/>
-    </row>
-    <row r="185" ht="21" customHeight="1">
-      <c r="A185" t="s" s="4">
+      <c r="I184" s="6"/>
+      <c r="J184" s="10"/>
+    </row>
+    <row r="185" ht="20.7" customHeight="1">
+      <c r="A185" t="s" s="5">
+        <v>379</v>
+      </c>
+      <c r="B185" t="s" s="5">
         <v>380</v>
       </c>
-      <c r="B185" t="s" s="4">
+      <c r="C185" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="D185" s="15">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E185" s="13"/>
+      <c r="F185" s="13"/>
+      <c r="G185" s="13"/>
+      <c r="H185" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="I185" s="13"/>
+      <c r="J185" s="16"/>
+    </row>
+    <row r="186" ht="21" customHeight="1">
+      <c r="A186" t="s" s="4">
         <v>381</v>
       </c>
-      <c r="C185" t="s" s="5">
+      <c r="B186" t="s" s="4">
+        <v>382</v>
+      </c>
+      <c r="C186" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="D185" s="6">
+      <c r="D186" s="6">
         <v>0.80952380952381</v>
-      </c>
-      <c r="E185" s="6"/>
-      <c r="F185" s="6"/>
-      <c r="G185" s="6"/>
-      <c r="H185" s="6">
-        <v>0.861111111111111</v>
-      </c>
-      <c r="I185" s="6"/>
-      <c r="J185" s="7"/>
-    </row>
-    <row r="186" ht="21" customHeight="1">
-      <c r="A186" t="s" s="19">
-        <v>382</v>
-      </c>
-      <c r="B186" t="s" s="19">
-        <v>383</v>
-      </c>
-      <c r="C186" t="s" s="18">
-        <v>18</v>
-      </c>
-      <c r="D186" s="6">
-        <v>0.666666666666667</v>
       </c>
       <c r="E186" s="6"/>
       <c r="F186" s="6"/>
       <c r="G186" s="6"/>
       <c r="H186" s="6">
-        <v>0.805555555555556</v>
+        <v>0.861111111111111</v>
       </c>
       <c r="I186" s="6"/>
       <c r="J186" s="7"/>
     </row>
     <row r="187" ht="21" customHeight="1">
-      <c r="A187" t="s" s="4">
+      <c r="A187" t="s" s="19">
+        <v>383</v>
+      </c>
+      <c r="B187" t="s" s="19">
         <v>384</v>
       </c>
-      <c r="B187" t="s" s="4">
-        <v>385</v>
-      </c>
-      <c r="C187" t="s" s="5">
-        <v>21</v>
+      <c r="C187" t="s" s="18">
+        <v>18</v>
       </c>
       <c r="D187" s="6">
-        <v>0.904761904761905</v>
-      </c>
-      <c r="E187" s="6">
-        <v>0.541666666666667</v>
-      </c>
+        <v>0.666666666666667</v>
+      </c>
+      <c r="E187" s="6"/>
       <c r="F187" s="6"/>
       <c r="G187" s="6"/>
       <c r="H187" s="6">
-        <v>0.75</v>
+        <v>0.805555555555556</v>
       </c>
       <c r="I187" s="6"/>
       <c r="J187" s="7"/>
     </row>
     <row r="188" ht="21" customHeight="1">
-      <c r="A188" t="s" s="19">
+      <c r="A188" t="s" s="4">
+        <v>385</v>
+      </c>
+      <c r="B188" t="s" s="4">
         <v>386</v>
       </c>
-      <c r="B188" t="s" s="19">
-        <v>387</v>
-      </c>
-      <c r="C188" t="s" s="18">
+      <c r="C188" t="s" s="5">
         <v>21</v>
       </c>
       <c r="D188" s="6">
-        <v>0.861111111111111</v>
-      </c>
-      <c r="E188" s="6"/>
+        <v>0.904761904761905</v>
+      </c>
+      <c r="E188" s="6">
+        <v>0.541666666666667</v>
+      </c>
       <c r="F188" s="6"/>
       <c r="G188" s="6"/>
       <c r="H188" s="6">
-        <v>0.722222222222222</v>
+        <v>0.75</v>
       </c>
       <c r="I188" s="6"/>
-      <c r="J188" s="9"/>
-    </row>
-    <row r="189" ht="20.7" customHeight="1">
-      <c r="A189" t="s" s="5">
+      <c r="J188" s="7"/>
+    </row>
+    <row r="189" ht="21" customHeight="1">
+      <c r="A189" t="s" s="19">
+        <v>387</v>
+      </c>
+      <c r="B189" t="s" s="19">
         <v>388</v>
       </c>
-      <c r="B189" t="s" s="5">
-        <v>389</v>
-      </c>
-      <c r="C189" t="s" s="5">
-        <v>67</v>
-      </c>
-      <c r="D189" s="12">
-        <v>0.69047619047619</v>
-      </c>
-      <c r="E189" s="13"/>
-      <c r="F189" s="13"/>
-      <c r="G189" s="13"/>
+      <c r="C189" t="s" s="18">
+        <v>21</v>
+      </c>
+      <c r="D189" s="6">
+        <v>0.861111111111111</v>
+      </c>
+      <c r="E189" s="6"/>
+      <c r="F189" s="6"/>
+      <c r="G189" s="6"/>
       <c r="H189" s="6">
         <v>0.722222222222222</v>
       </c>
-      <c r="I189" s="13"/>
-      <c r="J189" s="16"/>
-    </row>
-    <row r="190" ht="21" customHeight="1">
-      <c r="A190" t="s" s="4">
+      <c r="I189" s="6"/>
+      <c r="J189" s="9"/>
+    </row>
+    <row r="190" ht="20.7" customHeight="1">
+      <c r="A190" t="s" s="5">
+        <v>389</v>
+      </c>
+      <c r="B190" t="s" s="5">
         <v>390</v>
-      </c>
-      <c r="B190" t="s" s="4">
-        <v>391</v>
       </c>
       <c r="C190" t="s" s="5">
         <v>67</v>
       </c>
-      <c r="D190" s="6">
-        <v>0.619047619047619</v>
-      </c>
-      <c r="E190" s="6"/>
-      <c r="F190" s="6"/>
-      <c r="G190" s="6"/>
+      <c r="D190" s="12">
+        <v>0.69047619047619</v>
+      </c>
+      <c r="E190" s="13"/>
+      <c r="F190" s="13"/>
+      <c r="G190" s="13"/>
       <c r="H190" s="6">
         <v>0.722222222222222</v>
       </c>
-      <c r="I190" s="6"/>
-      <c r="J190" s="7"/>
+      <c r="I190" s="13"/>
+      <c r="J190" s="16"/>
     </row>
     <row r="191" ht="21" customHeight="1">
-      <c r="A191" t="s" s="17">
+      <c r="A191" t="s" s="4">
+        <v>391</v>
+      </c>
+      <c r="B191" t="s" s="4">
         <v>392</v>
       </c>
-      <c r="B191" t="s" s="17">
-        <v>393</v>
-      </c>
-      <c r="C191" t="s" s="18">
-        <v>36</v>
+      <c r="C191" t="s" s="5">
+        <v>67</v>
       </c>
       <c r="D191" s="6">
-        <v>0.571428571428571</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="E191" s="6"/>
       <c r="F191" s="6"/>
       <c r="G191" s="6"/>
       <c r="H191" s="6">
-        <v>0.666666666666667</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="I191" s="6"/>
-      <c r="J191" s="9"/>
+      <c r="J191" s="7"/>
     </row>
     <row r="192" ht="21" customHeight="1">
-      <c r="A192" t="s" s="8">
-        <v>392</v>
-      </c>
-      <c r="B192" t="s" s="8">
+      <c r="A192" t="s" s="17">
+        <v>393</v>
+      </c>
+      <c r="B192" t="s" s="17">
         <v>394</v>
       </c>
-      <c r="C192" t="s" s="5">
-        <v>67</v>
+      <c r="C192" t="s" s="18">
+        <v>36</v>
       </c>
       <c r="D192" s="6">
-        <v>0.69047619047619</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="E192" s="6"/>
       <c r="F192" s="6"/>
       <c r="G192" s="6"/>
       <c r="H192" s="6">
-        <v>0</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="I192" s="6"/>
-      <c r="J192" s="11"/>
+      <c r="J192" s="9"/>
     </row>
     <row r="193" ht="21" customHeight="1">
-      <c r="A193" t="s" s="5">
+      <c r="A193" t="s" s="8">
+        <v>393</v>
+      </c>
+      <c r="B193" t="s" s="8">
         <v>395</v>
       </c>
-      <c r="B193" t="s" s="5">
-        <v>396</v>
-      </c>
       <c r="C193" t="s" s="5">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="D193" s="6">
-        <v>0.571428571428571</v>
+        <v>0.69047619047619</v>
       </c>
       <c r="E193" s="6"/>
       <c r="F193" s="6"/>
       <c r="G193" s="6"/>
       <c r="H193" s="6">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="I193" s="6"/>
-      <c r="J193" s="7"/>
+      <c r="J193" s="11"/>
     </row>
     <row r="194" ht="21" customHeight="1">
-      <c r="A194" t="s" s="4">
+      <c r="A194" t="s" s="5">
+        <v>396</v>
+      </c>
+      <c r="B194" t="s" s="5">
         <v>397</v>
       </c>
-      <c r="B194" t="s" s="4">
-        <v>398</v>
-      </c>
       <c r="C194" t="s" s="5">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D194" s="6">
-        <v>0.857142857142857</v>
-      </c>
-      <c r="E194" s="6">
-        <v>0.458333333333333</v>
-      </c>
+        <v>0.571428571428571</v>
+      </c>
+      <c r="E194" s="6"/>
       <c r="F194" s="6"/>
       <c r="G194" s="6"/>
       <c r="H194" s="6">
-        <v>0.805555555555556</v>
+        <v>0.75</v>
       </c>
       <c r="I194" s="6"/>
       <c r="J194" s="7"/>
     </row>
     <row r="195" ht="21" customHeight="1">
-      <c r="A195" t="s" s="17">
+      <c r="A195" t="s" s="4">
+        <v>398</v>
+      </c>
+      <c r="B195" t="s" s="4">
         <v>399</v>
       </c>
-      <c r="B195" t="s" s="17">
-        <v>400</v>
-      </c>
-      <c r="C195" t="s" s="18">
+      <c r="C195" t="s" s="5">
         <v>12</v>
       </c>
       <c r="D195" s="6">
-        <v>0.80952380952381</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="E195" s="6">
-        <v>0.75</v>
+        <v>0.458333333333333</v>
       </c>
       <c r="F195" s="6"/>
       <c r="G195" s="6"/>
       <c r="H195" s="6">
-        <v>0.861111111111111</v>
+        <v>0.805555555555556</v>
       </c>
       <c r="I195" s="6"/>
-      <c r="J195" s="9"/>
+      <c r="J195" s="7"/>
     </row>
     <row r="196" ht="21" customHeight="1">
-      <c r="A196" t="s" s="19">
+      <c r="A196" t="s" s="17">
+        <v>400</v>
+      </c>
+      <c r="B196" t="s" s="17">
         <v>401</v>
       </c>
-      <c r="B196" t="s" s="19">
-        <v>402</v>
-      </c>
       <c r="C196" t="s" s="18">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D196" s="6">
-        <v>0.261904761904762</v>
-      </c>
-      <c r="E196" s="6"/>
+        <v>0.80952380952381</v>
+      </c>
+      <c r="E196" s="6">
+        <v>0.75</v>
+      </c>
       <c r="F196" s="6"/>
       <c r="G196" s="6"/>
       <c r="H196" s="6">
-        <v>0.75</v>
+        <v>0.861111111111111</v>
       </c>
       <c r="I196" s="6"/>
-      <c r="J196" s="11"/>
+      <c r="J196" s="9"/>
     </row>
     <row r="197" ht="21" customHeight="1">
-      <c r="A197" t="s" s="5">
+      <c r="A197" t="s" s="19">
+        <v>402</v>
+      </c>
+      <c r="B197" t="s" s="19">
         <v>403</v>
       </c>
-      <c r="B197" t="s" s="5">
-        <v>404</v>
-      </c>
-      <c r="C197" t="s" s="5">
+      <c r="C197" t="s" s="18">
         <v>21</v>
       </c>
       <c r="D197" s="6">
-        <v>0.619047619047619</v>
+        <v>0.261904761904762</v>
       </c>
       <c r="E197" s="6"/>
       <c r="F197" s="6"/>
       <c r="G197" s="6"/>
       <c r="H197" s="6">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="I197" s="6"/>
-      <c r="J197" s="7"/>
+      <c r="J197" s="11"/>
     </row>
     <row r="198" ht="21" customHeight="1">
       <c r="A198" t="s" s="5">
+        <v>404</v>
+      </c>
+      <c r="B198" t="s" s="5">
         <v>405</v>
       </c>
-      <c r="B198" t="s" s="5">
-        <v>406</v>
-      </c>
       <c r="C198" t="s" s="5">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D198" s="6">
-        <v>0.785714285714286</v>
-      </c>
-      <c r="E198" s="6">
-        <v>0.6875</v>
-      </c>
+        <v>0.619047619047619</v>
+      </c>
+      <c r="E198" s="6"/>
       <c r="F198" s="6"/>
       <c r="G198" s="6"/>
       <c r="H198" s="6">
-        <v>0.777777777777778</v>
+        <v>0</v>
       </c>
       <c r="I198" s="6"/>
       <c r="J198" s="7"/>
     </row>
     <row r="199" ht="21" customHeight="1">
       <c r="A199" t="s" s="5">
+        <v>406</v>
+      </c>
+      <c r="B199" t="s" s="5">
         <v>407</v>
-      </c>
-      <c r="B199" t="s" s="5">
-        <v>408</v>
       </c>
       <c r="C199" t="s" s="5">
         <v>36</v>
       </c>
       <c r="D199" s="6">
-        <v>1</v>
+        <v>0.785714285714286</v>
       </c>
       <c r="E199" s="6">
-        <v>0.708333333333333</v>
+        <v>0.6875</v>
       </c>
       <c r="F199" s="6"/>
       <c r="G199" s="6"/>
@@ -7439,19 +7494,21 @@
       <c r="J199" s="7"/>
     </row>
     <row r="200" ht="21" customHeight="1">
-      <c r="A200" t="s" s="4">
+      <c r="A200" t="s" s="5">
+        <v>408</v>
+      </c>
+      <c r="B200" t="s" s="5">
         <v>409</v>
       </c>
-      <c r="B200" t="s" s="4">
-        <v>410</v>
-      </c>
       <c r="C200" t="s" s="5">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D200" s="6">
-        <v>0.785714285714286</v>
-      </c>
-      <c r="E200" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="E200" s="6">
+        <v>0.708333333333333</v>
+      </c>
       <c r="F200" s="6"/>
       <c r="G200" s="6"/>
       <c r="H200" s="6">
@@ -7461,429 +7518,433 @@
       <c r="J200" s="7"/>
     </row>
     <row r="201" ht="21" customHeight="1">
-      <c r="A201" t="s" s="19">
+      <c r="A201" t="s" s="4">
+        <v>410</v>
+      </c>
+      <c r="B201" t="s" s="4">
         <v>411</v>
       </c>
-      <c r="B201" t="s" s="19">
-        <v>412</v>
-      </c>
-      <c r="C201" t="s" s="18">
-        <v>67</v>
+      <c r="C201" t="s" s="5">
+        <v>12</v>
       </c>
       <c r="D201" s="6">
-        <v>0.738095238095238</v>
+        <v>0.785714285714286</v>
       </c>
       <c r="E201" s="6">
-        <v>0.729166666666667</v>
+        <v>0.8125</v>
       </c>
       <c r="F201" s="6"/>
       <c r="G201" s="6"/>
       <c r="H201" s="6">
-        <v>0.388888888888889</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I201" s="6"/>
       <c r="J201" s="7"/>
     </row>
     <row r="202" ht="21" customHeight="1">
-      <c r="A202" t="s" s="5">
+      <c r="A202" t="s" s="19">
+        <v>412</v>
+      </c>
+      <c r="B202" t="s" s="19">
         <v>413</v>
       </c>
-      <c r="B202" t="s" s="5">
-        <v>414</v>
-      </c>
-      <c r="C202" t="s" s="5">
-        <v>36</v>
+      <c r="C202" t="s" s="18">
+        <v>67</v>
       </c>
       <c r="D202" s="6">
-        <v>0.785714285714286</v>
+        <v>0.738095238095238</v>
       </c>
       <c r="E202" s="6">
-        <v>0.604166666666667</v>
+        <v>0.729166666666667</v>
       </c>
       <c r="F202" s="6"/>
       <c r="G202" s="6"/>
       <c r="H202" s="6">
-        <v>0.777777777777778</v>
+        <v>0.388888888888889</v>
       </c>
       <c r="I202" s="6"/>
-      <c r="J202" s="9"/>
-    </row>
-    <row r="203" ht="20.7" customHeight="1">
+      <c r="J202" s="7"/>
+    </row>
+    <row r="203" ht="21" customHeight="1">
       <c r="A203" t="s" s="5">
+        <v>414</v>
+      </c>
+      <c r="B203" t="s" s="5">
         <v>415</v>
-      </c>
-      <c r="B203" t="s" s="5">
-        <v>416</v>
       </c>
       <c r="C203" t="s" s="5">
         <v>36</v>
       </c>
-      <c r="D203" s="15">
+      <c r="D203" s="6">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="E203" s="6">
+        <v>0.604166666666667</v>
+      </c>
+      <c r="F203" s="6"/>
+      <c r="G203" s="6"/>
+      <c r="H203" s="6">
+        <v>0.777777777777778</v>
+      </c>
+      <c r="I203" s="6"/>
+      <c r="J203" s="9"/>
+    </row>
+    <row r="204" ht="20.7" customHeight="1">
+      <c r="A204" t="s" s="5">
+        <v>416</v>
+      </c>
+      <c r="B204" t="s" s="5">
+        <v>417</v>
+      </c>
+      <c r="C204" t="s" s="5">
+        <v>36</v>
+      </c>
+      <c r="D204" s="15">
         <v>0.833333333333333</v>
       </c>
-      <c r="E203" s="15">
+      <c r="E204" s="15">
         <v>0.375</v>
       </c>
-      <c r="F203" s="13"/>
-      <c r="G203" s="13"/>
-      <c r="H203" s="6">
+      <c r="F204" s="13"/>
+      <c r="G204" s="13"/>
+      <c r="H204" s="6">
         <v>0.888888888888889</v>
       </c>
-      <c r="I203" s="13"/>
-      <c r="J203" s="16"/>
-    </row>
-    <row r="204" ht="21" customHeight="1">
-      <c r="A204" t="s" s="4">
-        <v>417</v>
-      </c>
-      <c r="B204" t="s" s="4">
+      <c r="I204" s="13"/>
+      <c r="J204" s="16"/>
+    </row>
+    <row r="205" ht="21" customHeight="1">
+      <c r="A205" t="s" s="4">
         <v>418</v>
       </c>
-      <c r="C204" t="s" s="5">
+      <c r="B205" t="s" s="4">
+        <v>419</v>
+      </c>
+      <c r="C205" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="D204" s="6">
+      <c r="D205" s="6">
         <v>0.761904761904762</v>
-      </c>
-      <c r="E204" s="6"/>
-      <c r="F204" s="6"/>
-      <c r="G204" s="6"/>
-      <c r="H204" s="6">
-        <v>0</v>
-      </c>
-      <c r="I204" s="6"/>
-      <c r="J204" s="9"/>
-    </row>
-    <row r="205" ht="21" customHeight="1">
-      <c r="A205" t="s" s="24">
-        <v>419</v>
-      </c>
-      <c r="B205" t="s" s="24">
-        <v>420</v>
-      </c>
-      <c r="C205" t="s" s="5">
-        <v>36</v>
-      </c>
-      <c r="D205" s="6">
-        <v>0.69047619047619</v>
       </c>
       <c r="E205" s="6"/>
       <c r="F205" s="6"/>
       <c r="G205" s="6"/>
       <c r="H205" s="6">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="I205" s="6"/>
-      <c r="J205" s="10"/>
+      <c r="J205" s="9"/>
     </row>
     <row r="206" ht="21" customHeight="1">
-      <c r="A206" t="s" s="8">
+      <c r="A206" t="s" s="24">
+        <v>420</v>
+      </c>
+      <c r="B206" t="s" s="24">
         <v>421</v>
       </c>
-      <c r="B206" t="s" s="8">
-        <v>422</v>
-      </c>
       <c r="C206" t="s" s="5">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D206" s="6">
-        <v>0.547619047619048</v>
+        <v>0.69047619047619</v>
       </c>
       <c r="E206" s="6"/>
       <c r="F206" s="6"/>
       <c r="G206" s="6"/>
       <c r="H206" s="6">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="I206" s="6"/>
-      <c r="J206" s="11"/>
+      <c r="J206" s="10"/>
     </row>
     <row r="207" ht="21" customHeight="1">
-      <c r="A207" t="s" s="5">
+      <c r="A207" t="s" s="8">
+        <v>422</v>
+      </c>
+      <c r="B207" t="s" s="8">
         <v>423</v>
       </c>
-      <c r="B207" t="s" s="5">
-        <v>424</v>
-      </c>
       <c r="C207" t="s" s="5">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D207" s="6">
-        <v>0.571428571428571</v>
-      </c>
-      <c r="E207" s="6"/>
+        <v>0.547619047619048</v>
+      </c>
+      <c r="E207" s="6">
+        <v>0.479166666666667</v>
+      </c>
       <c r="F207" s="6"/>
       <c r="G207" s="6"/>
       <c r="H207" s="6">
         <v>0</v>
       </c>
       <c r="I207" s="6"/>
-      <c r="J207" s="7"/>
+      <c r="J207" s="11"/>
     </row>
     <row r="208" ht="21" customHeight="1">
       <c r="A208" t="s" s="5">
+        <v>424</v>
+      </c>
+      <c r="B208" t="s" s="5">
         <v>425</v>
       </c>
-      <c r="B208" t="s" s="5">
-        <v>426</v>
-      </c>
       <c r="C208" t="s" s="5">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D208" s="6">
-        <v>0.880952380952381</v>
-      </c>
-      <c r="E208" s="6">
-        <v>0.979166666666667</v>
-      </c>
+        <v>0.571428571428571</v>
+      </c>
+      <c r="E208" s="6"/>
       <c r="F208" s="6"/>
       <c r="G208" s="6"/>
       <c r="H208" s="6">
-        <v>0.722222222222222</v>
+        <v>0</v>
       </c>
       <c r="I208" s="6"/>
       <c r="J208" s="7"/>
     </row>
     <row r="209" ht="21" customHeight="1">
       <c r="A209" t="s" s="5">
+        <v>426</v>
+      </c>
+      <c r="B209" t="s" s="5">
         <v>427</v>
       </c>
-      <c r="B209" t="s" s="5">
-        <v>428</v>
-      </c>
       <c r="C209" t="s" s="5">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="D209" s="6">
-        <v>0.714285714285714</v>
+        <v>0.880952380952381</v>
       </c>
       <c r="E209" s="6">
-        <v>0.520833333333333</v>
+        <v>0.979166666666667</v>
       </c>
       <c r="F209" s="6"/>
       <c r="G209" s="6"/>
       <c r="H209" s="6">
-        <v>0</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="I209" s="6"/>
       <c r="J209" s="7"/>
     </row>
     <row r="210" ht="21" customHeight="1">
       <c r="A210" t="s" s="5">
+        <v>428</v>
+      </c>
+      <c r="B210" t="s" s="5">
         <v>429</v>
       </c>
-      <c r="B210" t="s" s="5">
-        <v>430</v>
-      </c>
       <c r="C210" t="s" s="5">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D210" s="6">
-        <v>0.80952380952381</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="E210" s="6">
-        <v>0.791666666666667</v>
+        <v>0.520833333333333</v>
       </c>
       <c r="F210" s="6"/>
       <c r="G210" s="6"/>
       <c r="H210" s="6">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="I210" s="6"/>
       <c r="J210" s="7"/>
     </row>
     <row r="211" ht="21" customHeight="1">
       <c r="A211" t="s" s="5">
+        <v>430</v>
+      </c>
+      <c r="B211" t="s" s="5">
         <v>431</v>
       </c>
-      <c r="B211" t="s" s="5">
-        <v>432</v>
-      </c>
       <c r="C211" t="s" s="5">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D211" s="6">
-        <v>0.761904761904762</v>
-      </c>
-      <c r="E211" s="6"/>
+        <v>0.80952380952381</v>
+      </c>
+      <c r="E211" s="6">
+        <v>0.791666666666667</v>
+      </c>
       <c r="F211" s="6"/>
       <c r="G211" s="6"/>
       <c r="H211" s="6">
-        <v>0.805555555555556</v>
+        <v>0.75</v>
       </c>
       <c r="I211" s="6"/>
-      <c r="J211" s="9"/>
+      <c r="J211" s="7"/>
     </row>
     <row r="212" ht="21" customHeight="1">
       <c r="A212" t="s" s="5">
+        <v>432</v>
+      </c>
+      <c r="B212" t="s" s="5">
         <v>433</v>
       </c>
-      <c r="B212" t="s" s="5">
-        <v>434</v>
-      </c>
       <c r="C212" t="s" s="5">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D212" s="6">
-        <v>0.19047619047619</v>
+        <v>0.761904761904762</v>
       </c>
       <c r="E212" s="6"/>
       <c r="F212" s="6"/>
       <c r="G212" s="6"/>
       <c r="H212" s="6">
-        <v>0.694444444444444</v>
+        <v>0.805555555555556</v>
       </c>
       <c r="I212" s="6"/>
-      <c r="J212" s="11"/>
+      <c r="J212" s="9"/>
     </row>
     <row r="213" ht="21" customHeight="1">
-      <c r="A213" t="s" s="4">
+      <c r="A213" t="s" s="5">
+        <v>434</v>
+      </c>
+      <c r="B213" t="s" s="5">
         <v>435</v>
       </c>
-      <c r="B213" t="s" s="4">
-        <v>436</v>
-      </c>
       <c r="C213" t="s" s="5">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D213" s="6">
-        <v>0.833333333333333</v>
+        <v>0.19047619047619</v>
       </c>
       <c r="E213" s="6"/>
       <c r="F213" s="6"/>
       <c r="G213" s="6"/>
       <c r="H213" s="6">
-        <v>0.777777777777778</v>
+        <v>0.694444444444444</v>
       </c>
       <c r="I213" s="6"/>
-      <c r="J213" s="7"/>
+      <c r="J213" s="11"/>
     </row>
     <row r="214" ht="21" customHeight="1">
-      <c r="A214" t="s" s="19">
+      <c r="A214" t="s" s="4">
+        <v>436</v>
+      </c>
+      <c r="B214" t="s" s="4">
         <v>437</v>
       </c>
-      <c r="B214" t="s" s="19">
-        <v>438</v>
-      </c>
-      <c r="C214" t="s" s="18">
-        <v>15</v>
+      <c r="C214" t="s" s="5">
+        <v>18</v>
       </c>
       <c r="D214" s="6">
-        <v>0.642857142857143</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E214" s="6"/>
       <c r="F214" s="6"/>
       <c r="G214" s="6"/>
       <c r="H214" s="6">
-        <v>0</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I214" s="6"/>
       <c r="J214" s="7"/>
     </row>
     <row r="215" ht="21" customHeight="1">
-      <c r="A215" t="s" s="4">
+      <c r="A215" t="s" s="19">
+        <v>438</v>
+      </c>
+      <c r="B215" t="s" s="19">
         <v>439</v>
       </c>
-      <c r="B215" t="s" s="4">
-        <v>440</v>
-      </c>
-      <c r="C215" t="s" s="5">
-        <v>36</v>
+      <c r="C215" t="s" s="18">
+        <v>15</v>
       </c>
       <c r="D215" s="6">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="E215" s="6">
-        <v>0.729166666666667</v>
-      </c>
+        <v>0.642857142857143</v>
+      </c>
+      <c r="E215" s="6"/>
       <c r="F215" s="6"/>
       <c r="G215" s="6"/>
       <c r="H215" s="6">
-        <v>0.777777777777778</v>
+        <v>0</v>
       </c>
       <c r="I215" s="6"/>
       <c r="J215" s="7"/>
     </row>
     <row r="216" ht="21" customHeight="1">
-      <c r="A216" t="s" s="19">
+      <c r="A216" t="s" s="4">
+        <v>440</v>
+      </c>
+      <c r="B216" t="s" s="4">
         <v>441</v>
       </c>
-      <c r="B216" t="s" s="19">
-        <v>442</v>
-      </c>
-      <c r="C216" t="s" s="18">
-        <v>67</v>
+      <c r="C216" t="s" s="5">
+        <v>36</v>
       </c>
       <c r="D216" s="6">
         <v>0.666666666666667</v>
       </c>
       <c r="E216" s="6">
-        <v>0.708333333333333</v>
+        <v>0.729166666666667</v>
       </c>
       <c r="F216" s="6"/>
       <c r="G216" s="6"/>
       <c r="H216" s="6">
-        <v>0.694444444444444</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I216" s="6"/>
       <c r="J216" s="7"/>
     </row>
     <row r="217" ht="21" customHeight="1">
-      <c r="A217" t="s" s="4">
+      <c r="A217" t="s" s="19">
+        <v>442</v>
+      </c>
+      <c r="B217" t="s" s="19">
         <v>443</v>
       </c>
-      <c r="B217" t="s" s="4">
-        <v>444</v>
-      </c>
-      <c r="C217" t="s" s="5">
-        <v>18</v>
+      <c r="C217" t="s" s="18">
+        <v>67</v>
       </c>
       <c r="D217" s="6">
-        <v>0.785714285714286</v>
-      </c>
-      <c r="E217" s="6"/>
+        <v>0.666666666666667</v>
+      </c>
+      <c r="E217" s="6">
+        <v>0.708333333333333</v>
+      </c>
       <c r="F217" s="6"/>
       <c r="G217" s="6"/>
       <c r="H217" s="6">
-        <v>0.555555555555556</v>
+        <v>0.694444444444444</v>
       </c>
       <c r="I217" s="6"/>
       <c r="J217" s="7"/>
     </row>
     <row r="218" ht="21" customHeight="1">
-      <c r="A218" t="s" s="19">
+      <c r="A218" t="s" s="4">
+        <v>444</v>
+      </c>
+      <c r="B218" t="s" s="4">
         <v>445</v>
       </c>
-      <c r="B218" t="s" s="19">
-        <v>446</v>
-      </c>
-      <c r="C218" t="s" s="18">
-        <v>15</v>
+      <c r="C218" t="s" s="5">
+        <v>18</v>
       </c>
       <c r="D218" s="6">
-        <v>0.80952380952381</v>
+        <v>0.785714285714286</v>
       </c>
       <c r="E218" s="6"/>
       <c r="F218" s="6"/>
       <c r="G218" s="6"/>
       <c r="H218" s="6">
-        <v>0</v>
+        <v>0.555555555555556</v>
       </c>
       <c r="I218" s="6"/>
-      <c r="J218" s="9"/>
+      <c r="J218" s="7"/>
     </row>
     <row r="219" ht="21" customHeight="1">
-      <c r="A219" t="s" s="5">
+      <c r="A219" t="s" s="19">
+        <v>446</v>
+      </c>
+      <c r="B219" t="s" s="19">
         <v>447</v>
       </c>
-      <c r="B219" t="s" s="5">
-        <v>448</v>
-      </c>
-      <c r="C219" t="s" s="5">
-        <v>67</v>
+      <c r="C219" t="s" s="18">
+        <v>15</v>
       </c>
       <c r="D219" s="6">
-        <v>0.571428571428571</v>
+        <v>0.80952380952381</v>
       </c>
       <c r="E219" s="6"/>
       <c r="F219" s="6"/>
@@ -7892,219 +7953,221 @@
         <v>0</v>
       </c>
       <c r="I219" s="6"/>
-      <c r="J219" s="11"/>
+      <c r="J219" s="9"/>
     </row>
     <row r="220" ht="21" customHeight="1">
-      <c r="A220" t="s" s="4">
+      <c r="A220" t="s" s="5">
+        <v>448</v>
+      </c>
+      <c r="B220" t="s" s="5">
         <v>449</v>
       </c>
-      <c r="B220" t="s" s="4">
-        <v>450</v>
-      </c>
       <c r="C220" t="s" s="5">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="D220" s="6">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E220" s="6">
-        <v>0.666666666666667</v>
-      </c>
+        <v>0.571428571428571</v>
+      </c>
+      <c r="E220" s="6"/>
       <c r="F220" s="6"/>
       <c r="G220" s="6"/>
       <c r="H220" s="6">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="I220" s="6"/>
-      <c r="J220" s="9"/>
+      <c r="J220" s="11"/>
     </row>
     <row r="221" ht="21" customHeight="1">
-      <c r="A221" t="s" s="8">
+      <c r="A221" t="s" s="4">
+        <v>450</v>
+      </c>
+      <c r="B221" t="s" s="4">
         <v>451</v>
       </c>
-      <c r="B221" t="s" s="8">
-        <v>452</v>
-      </c>
       <c r="C221" t="s" s="5">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D221" s="6">
-        <v>0.785714285714286</v>
-      </c>
-      <c r="E221" s="6"/>
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E221" s="6">
+        <v>0.666666666666667</v>
+      </c>
       <c r="F221" s="6"/>
       <c r="G221" s="6"/>
       <c r="H221" s="6">
-        <v>0.722222222222222</v>
+        <v>0.75</v>
       </c>
       <c r="I221" s="6"/>
-      <c r="J221" s="11"/>
+      <c r="J221" s="9"/>
     </row>
     <row r="222" ht="21" customHeight="1">
-      <c r="A222" t="s" s="5">
+      <c r="A222" t="s" s="8">
+        <v>452</v>
+      </c>
+      <c r="B222" t="s" s="8">
         <v>453</v>
       </c>
-      <c r="B222" t="s" s="5">
-        <v>454</v>
-      </c>
       <c r="C222" t="s" s="5">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D222" s="6">
-        <v>0.5</v>
+        <v>0.785714285714286</v>
       </c>
       <c r="E222" s="6"/>
       <c r="F222" s="6"/>
       <c r="G222" s="6"/>
       <c r="H222" s="6">
-        <v>0</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="I222" s="6"/>
-      <c r="J222" s="7"/>
+      <c r="J222" s="11"/>
     </row>
     <row r="223" ht="21" customHeight="1">
       <c r="A223" t="s" s="5">
+        <v>454</v>
+      </c>
+      <c r="B223" t="s" s="5">
         <v>455</v>
       </c>
-      <c r="B223" t="s" s="5">
-        <v>456</v>
-      </c>
       <c r="C223" t="s" s="5">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="D223" s="6">
-        <v>0.642857142857143</v>
+        <v>0.5</v>
       </c>
       <c r="E223" s="6"/>
       <c r="F223" s="6"/>
       <c r="G223" s="6"/>
       <c r="H223" s="6">
-        <v>0.388888888888889</v>
+        <v>0</v>
       </c>
       <c r="I223" s="6"/>
-      <c r="J223" s="9"/>
+      <c r="J223" s="7"/>
     </row>
     <row r="224" ht="21" customHeight="1">
       <c r="A224" t="s" s="5">
+        <v>456</v>
+      </c>
+      <c r="B224" t="s" s="5">
         <v>457</v>
       </c>
-      <c r="B224" t="s" s="5">
-        <v>458</v>
-      </c>
       <c r="C224" t="s" s="5">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="D224" s="6">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="E224" s="6"/>
+        <v>0.642857142857143</v>
+      </c>
+      <c r="E224" s="6">
+        <v>0.604166666666667</v>
+      </c>
       <c r="F224" s="6"/>
       <c r="G224" s="6"/>
       <c r="H224" s="6">
-        <v>0.75</v>
+        <v>0.388888888888889</v>
       </c>
       <c r="I224" s="6"/>
-      <c r="J224" s="10"/>
-    </row>
-    <row r="225" ht="20.7" customHeight="1">
-      <c r="A225" t="s" s="4">
+      <c r="J224" s="9"/>
+    </row>
+    <row r="225" ht="21" customHeight="1">
+      <c r="A225" t="s" s="5">
+        <v>458</v>
+      </c>
+      <c r="B225" t="s" s="5">
         <v>459</v>
       </c>
-      <c r="B225" t="s" s="4">
-        <v>460</v>
-      </c>
       <c r="C225" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="D225" s="12">
-        <v>0.9761904761904761</v>
-      </c>
-      <c r="E225" s="13"/>
-      <c r="F225" s="13"/>
-      <c r="G225" s="13"/>
+        <v>18</v>
+      </c>
+      <c r="D225" s="6">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="E225" s="6"/>
+      <c r="F225" s="6"/>
+      <c r="G225" s="6"/>
       <c r="H225" s="6">
         <v>0.75</v>
       </c>
-      <c r="I225" s="13"/>
-      <c r="J225" s="14"/>
-    </row>
-    <row r="226" ht="21" customHeight="1">
-      <c r="A226" t="s" s="8">
+      <c r="I225" s="6"/>
+      <c r="J225" s="10"/>
+    </row>
+    <row r="226" ht="20.7" customHeight="1">
+      <c r="A226" t="s" s="4">
+        <v>460</v>
+      </c>
+      <c r="B226" t="s" s="4">
         <v>461</v>
       </c>
-      <c r="B226" t="s" s="8">
+      <c r="C226" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D226" s="12">
+        <v>0.9761904761904761</v>
+      </c>
+      <c r="E226" s="13"/>
+      <c r="F226" s="13"/>
+      <c r="G226" s="13"/>
+      <c r="H226" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="I226" s="13"/>
+      <c r="J226" s="14"/>
+    </row>
+    <row r="227" ht="21" customHeight="1">
+      <c r="A227" t="s" s="8">
         <v>462</v>
       </c>
-      <c r="C226" t="s" s="5">
+      <c r="B227" t="s" s="8">
+        <v>463</v>
+      </c>
+      <c r="C227" t="s" s="5">
         <v>67</v>
-      </c>
-      <c r="D226" s="6">
-        <v>0.595238095238095</v>
-      </c>
-      <c r="E226" s="6"/>
-      <c r="F226" s="6"/>
-      <c r="G226" s="6"/>
-      <c r="H226" s="6">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="I226" s="6"/>
-      <c r="J226" s="11"/>
-    </row>
-    <row r="227" ht="21" customHeight="1">
-      <c r="A227" t="s" s="5">
-        <v>463</v>
-      </c>
-      <c r="B227" t="s" s="5">
-        <v>464</v>
-      </c>
-      <c r="C227" t="s" s="5">
-        <v>18</v>
       </c>
       <c r="D227" s="6">
         <v>0.595238095238095</v>
       </c>
-      <c r="E227" s="6">
-        <v>0.75</v>
-      </c>
+      <c r="E227" s="6"/>
       <c r="F227" s="6"/>
       <c r="G227" s="6"/>
       <c r="H227" s="6">
-        <v>0.416666666666667</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="I227" s="6"/>
-      <c r="J227" s="7"/>
+      <c r="J227" s="11"/>
     </row>
     <row r="228" ht="21" customHeight="1">
       <c r="A228" t="s" s="5">
+        <v>464</v>
+      </c>
+      <c r="B228" t="s" s="5">
         <v>465</v>
       </c>
-      <c r="B228" t="s" s="5">
-        <v>466</v>
-      </c>
       <c r="C228" t="s" s="5">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D228" s="6">
-        <v>0.547619047619048</v>
-      </c>
-      <c r="E228" s="6"/>
+        <v>0.595238095238095</v>
+      </c>
+      <c r="E228" s="6">
+        <v>0.75</v>
+      </c>
       <c r="F228" s="6"/>
       <c r="G228" s="6"/>
       <c r="H228" s="6">
-        <v>0.777777777777778</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="I228" s="6"/>
       <c r="J228" s="7"/>
     </row>
     <row r="229" ht="21" customHeight="1">
-      <c r="A229" t="s" s="4">
+      <c r="A229" t="s" s="5">
+        <v>466</v>
+      </c>
+      <c r="B229" t="s" s="5">
         <v>467</v>
       </c>
-      <c r="B229" t="s" s="4">
-        <v>468</v>
-      </c>
       <c r="C229" t="s" s="5">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="D229" s="6">
         <v>0.547619047619048</v>
@@ -8113,298 +8176,312 @@
       <c r="F229" s="6"/>
       <c r="G229" s="6"/>
       <c r="H229" s="6">
-        <v>0.666666666666667</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I229" s="6"/>
       <c r="J229" s="7"/>
     </row>
     <row r="230" ht="21" customHeight="1">
-      <c r="A230" t="s" s="19">
+      <c r="A230" t="s" s="4">
+        <v>468</v>
+      </c>
+      <c r="B230" t="s" s="4">
         <v>469</v>
       </c>
-      <c r="B230" t="s" s="19">
-        <v>470</v>
-      </c>
-      <c r="C230" t="s" s="18">
+      <c r="C230" t="s" s="5">
         <v>67</v>
       </c>
       <c r="D230" s="6">
-        <v>0</v>
-      </c>
-      <c r="E230" s="6">
-        <v>0.6875</v>
-      </c>
+        <v>0.547619047619048</v>
+      </c>
+      <c r="E230" s="6"/>
       <c r="F230" s="6"/>
       <c r="G230" s="6"/>
       <c r="H230" s="6">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="I230" s="6"/>
+      <c r="J230" s="7"/>
+    </row>
+    <row r="231" ht="21" customHeight="1">
+      <c r="A231" t="s" s="19">
+        <v>470</v>
+      </c>
+      <c r="B231" t="s" s="19">
+        <v>471</v>
+      </c>
+      <c r="C231" t="s" s="18">
+        <v>67</v>
+      </c>
+      <c r="D231" s="6">
         <v>0</v>
       </c>
-      <c r="I230" s="6"/>
-      <c r="J230" s="9"/>
-    </row>
-    <row r="231" ht="20.7" customHeight="1">
-      <c r="A231" t="s" s="5">
-        <v>471</v>
-      </c>
-      <c r="B231" t="s" s="5">
+      <c r="E231" s="6">
+        <v>0.6875</v>
+      </c>
+      <c r="F231" s="6"/>
+      <c r="G231" s="6"/>
+      <c r="H231" s="6">
+        <v>0</v>
+      </c>
+      <c r="I231" s="6"/>
+      <c r="J231" s="9"/>
+    </row>
+    <row r="232" ht="20.7" customHeight="1">
+      <c r="A232" t="s" s="5">
         <v>472</v>
       </c>
-      <c r="C231" t="s" s="5">
+      <c r="B232" t="s" s="5">
+        <v>473</v>
+      </c>
+      <c r="C232" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="D231" s="15">
+      <c r="D232" s="15">
         <v>0.833333333333333</v>
       </c>
-      <c r="E231" s="13"/>
-      <c r="F231" s="13"/>
-      <c r="G231" s="13"/>
-      <c r="H231" s="6">
+      <c r="E232" s="13"/>
+      <c r="F232" s="13"/>
+      <c r="G232" s="13"/>
+      <c r="H232" s="6">
         <v>0.638888888888889</v>
       </c>
-      <c r="I231" s="13"/>
-      <c r="J231" s="14"/>
-    </row>
-    <row r="232" ht="21" customHeight="1">
-      <c r="A232" t="s" s="5">
-        <v>473</v>
-      </c>
-      <c r="B232" t="s" s="5">
-        <v>474</v>
-      </c>
-      <c r="C232" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D232" s="6">
-        <v>0.761904761904762</v>
-      </c>
-      <c r="E232" s="6">
-        <v>0.520833333333333</v>
-      </c>
-      <c r="F232" s="6"/>
-      <c r="G232" s="6"/>
-      <c r="H232" s="6">
-        <v>0.861111111111111</v>
-      </c>
-      <c r="I232" s="6"/>
-      <c r="J232" s="10"/>
+      <c r="I232" s="13"/>
+      <c r="J232" s="14"/>
     </row>
     <row r="233" ht="21" customHeight="1">
       <c r="A233" t="s" s="5">
+        <v>474</v>
+      </c>
+      <c r="B233" t="s" s="5">
         <v>475</v>
       </c>
-      <c r="B233" t="s" s="5">
-        <v>476</v>
-      </c>
       <c r="C233" t="s" s="5">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D233" s="6">
-        <v>0</v>
-      </c>
-      <c r="E233" s="6"/>
+        <v>0.761904761904762</v>
+      </c>
+      <c r="E233" s="6">
+        <v>0.520833333333333</v>
+      </c>
       <c r="F233" s="6"/>
       <c r="G233" s="6"/>
       <c r="H233" s="6">
-        <v>0.611111111111111</v>
+        <v>0.861111111111111</v>
       </c>
       <c r="I233" s="6"/>
-      <c r="J233" s="11"/>
+      <c r="J233" s="10"/>
     </row>
     <row r="234" ht="21" customHeight="1">
       <c r="A234" t="s" s="5">
+        <v>476</v>
+      </c>
+      <c r="B234" t="s" s="5">
         <v>477</v>
-      </c>
-      <c r="B234" t="s" s="5">
-        <v>478</v>
       </c>
       <c r="C234" t="s" s="5">
         <v>12</v>
       </c>
       <c r="D234" s="6">
-        <v>0.595238095238095</v>
+        <v>0</v>
       </c>
       <c r="E234" s="6"/>
       <c r="F234" s="6"/>
       <c r="G234" s="6"/>
       <c r="H234" s="6">
-        <v>0.777777777777778</v>
+        <v>0.611111111111111</v>
       </c>
       <c r="I234" s="6"/>
-      <c r="J234" s="7"/>
+      <c r="J234" s="11"/>
     </row>
     <row r="235" ht="21" customHeight="1">
-      <c r="A235" t="s" s="4">
+      <c r="A235" t="s" s="5">
+        <v>478</v>
+      </c>
+      <c r="B235" t="s" s="5">
         <v>479</v>
       </c>
-      <c r="B235" t="s" s="4">
-        <v>480</v>
-      </c>
       <c r="C235" t="s" s="5">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D235" s="6">
-        <v>0.571428571428571</v>
+        <v>0.595238095238095</v>
       </c>
       <c r="E235" s="6"/>
       <c r="F235" s="6"/>
       <c r="G235" s="6"/>
       <c r="H235" s="6">
-        <v>0.75</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I235" s="6"/>
-      <c r="J235" s="9"/>
+      <c r="J235" s="7"/>
     </row>
     <row r="236" ht="21" customHeight="1">
-      <c r="A236" t="s" s="24">
+      <c r="A236" t="s" s="4">
+        <v>480</v>
+      </c>
+      <c r="B236" t="s" s="4">
         <v>481</v>
       </c>
-      <c r="B236" t="s" s="24">
-        <v>482</v>
-      </c>
       <c r="C236" t="s" s="5">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D236" s="6">
-        <v>0.738095238095238</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="E236" s="6">
-        <v>0.375</v>
+        <v>0.604166666666667</v>
       </c>
       <c r="F236" s="6"/>
       <c r="G236" s="6"/>
       <c r="H236" s="6">
-        <v>0.777777777777778</v>
+        <v>0.75</v>
       </c>
       <c r="I236" s="6"/>
-      <c r="J236" s="11"/>
+      <c r="J236" s="9"/>
     </row>
     <row r="237" ht="21" customHeight="1">
-      <c r="A237" t="s" s="17">
+      <c r="A237" t="s" s="24">
+        <v>482</v>
+      </c>
+      <c r="B237" t="s" s="24">
         <v>483</v>
       </c>
-      <c r="B237" t="s" s="17">
-        <v>484</v>
-      </c>
-      <c r="C237" t="s" s="18">
-        <v>18</v>
+      <c r="C237" t="s" s="5">
+        <v>21</v>
       </c>
       <c r="D237" s="6">
-        <v>0.285714285714286</v>
+        <v>0.738095238095238</v>
       </c>
       <c r="E237" s="6">
-        <v>0.645833333333333</v>
+        <v>0.375</v>
       </c>
       <c r="F237" s="6"/>
       <c r="G237" s="6"/>
       <c r="H237" s="6">
-        <v>0.805555555555556</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I237" s="6"/>
-      <c r="J237" s="7"/>
+      <c r="J237" s="11"/>
     </row>
     <row r="238" ht="21" customHeight="1">
-      <c r="A238" t="s" s="19">
+      <c r="A238" t="s" s="17">
+        <v>484</v>
+      </c>
+      <c r="B238" t="s" s="17">
         <v>485</v>
       </c>
-      <c r="B238" t="s" s="19">
-        <v>486</v>
-      </c>
       <c r="C238" t="s" s="18">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D238" s="6">
-        <v>0</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="E238" s="6">
-        <v>0.479166666666667</v>
+        <v>0.645833333333333</v>
       </c>
       <c r="F238" s="6"/>
       <c r="G238" s="6"/>
       <c r="H238" s="6">
-        <v>0.777777777777778</v>
+        <v>0.805555555555556</v>
       </c>
       <c r="I238" s="6"/>
       <c r="J238" s="7"/>
     </row>
     <row r="239" ht="21" customHeight="1">
-      <c r="A239" t="s" s="5">
+      <c r="A239" t="s" s="19">
+        <v>486</v>
+      </c>
+      <c r="B239" t="s" s="19">
         <v>487</v>
       </c>
-      <c r="B239" t="s" s="5">
-        <v>488</v>
-      </c>
-      <c r="C239" t="s" s="5">
-        <v>12</v>
+      <c r="C239" t="s" s="18">
+        <v>15</v>
       </c>
       <c r="D239" s="6">
-        <v>0.30952380952381</v>
+        <v>0</v>
       </c>
       <c r="E239" s="6">
-        <v>0.458333333333333</v>
+        <v>0.479166666666667</v>
       </c>
       <c r="F239" s="6"/>
       <c r="G239" s="6"/>
       <c r="H239" s="6">
-        <v>0.638888888888889</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I239" s="6"/>
       <c r="J239" s="7"/>
     </row>
     <row r="240" ht="21" customHeight="1">
       <c r="A240" t="s" s="5">
+        <v>488</v>
+      </c>
+      <c r="B240" t="s" s="5">
         <v>489</v>
       </c>
-      <c r="B240" t="s" s="5">
-        <v>490</v>
-      </c>
       <c r="C240" t="s" s="5">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="D240" s="6">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E240" s="6"/>
+        <v>0.30952380952381</v>
+      </c>
+      <c r="E240" s="6">
+        <v>0.458333333333333</v>
+      </c>
       <c r="F240" s="6"/>
       <c r="G240" s="6"/>
       <c r="H240" s="6">
-        <v>0.666666666666667</v>
+        <v>0.638888888888889</v>
       </c>
       <c r="I240" s="6"/>
       <c r="J240" s="7"/>
     </row>
     <row r="241" ht="21" customHeight="1">
-      <c r="A241" t="s" s="4">
+      <c r="A241" t="s" s="5">
+        <v>490</v>
+      </c>
+      <c r="B241" t="s" s="5">
         <v>491</v>
       </c>
-      <c r="B241" t="s" s="4">
-        <v>492</v>
-      </c>
       <c r="C241" t="s" s="5">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="D241" s="6">
-        <v>0.904761904761905</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="E241" s="6"/>
       <c r="F241" s="6"/>
       <c r="G241" s="6"/>
       <c r="H241" s="6">
-        <v>0.861111111111111</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="I241" s="6"/>
-      <c r="J241" s="9"/>
+      <c r="J241" s="7"/>
     </row>
     <row r="242" ht="21" customHeight="1">
-      <c r="A242" s="26"/>
-      <c r="B242" s="26"/>
-      <c r="C242" s="13"/>
-      <c r="D242" s="6"/>
-      <c r="E242" s="6"/>
+      <c r="A242" t="s" s="5">
+        <v>492</v>
+      </c>
+      <c r="B242" t="s" s="5">
+        <v>493</v>
+      </c>
+      <c r="C242" t="s" s="5">
+        <v>18</v>
+      </c>
+      <c r="D242" s="6">
+        <v>0.904761904761905</v>
+      </c>
+      <c r="E242" s="6">
+        <v>0.916666666666667</v>
+      </c>
       <c r="F242" s="6"/>
       <c r="G242" s="6"/>
-      <c r="H242" s="6"/>
+      <c r="H242" s="6">
+        <v>0.861111111111111</v>
+      </c>
       <c r="I242" s="6"/>
-      <c r="J242" s="11"/>
+      <c r="J242" s="7"/>
     </row>
     <row r="243" ht="21" customHeight="1">
       <c r="A243" s="13"/>
@@ -8527,8 +8604,8 @@
       <c r="J252" s="14"/>
     </row>
     <row r="253" ht="20.35" customHeight="1">
-      <c r="A253" s="27"/>
-      <c r="B253" s="27"/>
+      <c r="A253" s="26"/>
+      <c r="B253" s="26"/>
       <c r="C253" s="13"/>
       <c r="D253" s="13"/>
       <c r="E253" s="13"/>
@@ -8539,8 +8616,8 @@
       <c r="J253" s="16"/>
     </row>
     <row r="254" ht="21" customHeight="1">
-      <c r="A254" s="28"/>
-      <c r="B254" s="28"/>
+      <c r="A254" s="27"/>
+      <c r="B254" s="27"/>
       <c r="C254" s="25"/>
       <c r="D254" s="6"/>
       <c r="E254" s="6"/>
@@ -8551,8 +8628,8 @@
       <c r="J254" s="9"/>
     </row>
     <row r="255" ht="20.7" customHeight="1">
-      <c r="A255" s="26"/>
-      <c r="B255" s="26"/>
+      <c r="A255" s="28"/>
+      <c r="B255" s="28"/>
       <c r="C255" s="13"/>
       <c r="D255" s="13"/>
       <c r="E255" s="13"/>
@@ -8563,8 +8640,8 @@
       <c r="J255" s="16"/>
     </row>
     <row r="256" ht="21" customHeight="1">
-      <c r="A256" s="27"/>
-      <c r="B256" s="27"/>
+      <c r="A256" s="26"/>
+      <c r="B256" s="26"/>
       <c r="C256" s="13"/>
       <c r="D256" s="6"/>
       <c r="E256" s="6"/>
@@ -8575,8 +8652,8 @@
       <c r="J256" s="7"/>
     </row>
     <row r="257" ht="21" customHeight="1">
-      <c r="A257" s="28"/>
-      <c r="B257" s="28"/>
+      <c r="A257" s="27"/>
+      <c r="B257" s="27"/>
       <c r="C257" s="25"/>
       <c r="D257" s="6"/>
       <c r="E257" s="6"/>
@@ -8587,8 +8664,8 @@
       <c r="J257" s="9"/>
     </row>
     <row r="258" ht="21" customHeight="1">
-      <c r="A258" s="26"/>
-      <c r="B258" s="26"/>
+      <c r="A258" s="28"/>
+      <c r="B258" s="28"/>
       <c r="C258" s="13"/>
       <c r="D258" s="6"/>
       <c r="E258" s="6"/>
@@ -8611,8 +8688,8 @@
       <c r="J259" s="7"/>
     </row>
     <row r="260" ht="21" customHeight="1">
-      <c r="A260" s="27"/>
-      <c r="B260" s="27"/>
+      <c r="A260" s="26"/>
+      <c r="B260" s="26"/>
       <c r="C260" s="13"/>
       <c r="D260" s="6"/>
       <c r="E260" s="6"/>
@@ -8623,8 +8700,8 @@
       <c r="J260" s="7"/>
     </row>
     <row r="261" ht="21" customHeight="1">
-      <c r="A261" s="28"/>
-      <c r="B261" s="28"/>
+      <c r="A261" s="27"/>
+      <c r="B261" s="27"/>
       <c r="C261" s="25"/>
       <c r="D261" s="6"/>
       <c r="E261" s="6"/>
@@ -8635,8 +8712,8 @@
       <c r="J261" s="7"/>
     </row>
     <row r="262" ht="21" customHeight="1">
-      <c r="A262" s="28"/>
-      <c r="B262" s="28"/>
+      <c r="A262" s="27"/>
+      <c r="B262" s="27"/>
       <c r="C262" s="25"/>
       <c r="D262" s="6"/>
       <c r="E262" s="6"/>
@@ -8647,8 +8724,8 @@
       <c r="J262" s="7"/>
     </row>
     <row r="263" ht="21" customHeight="1">
-      <c r="A263" s="26"/>
-      <c r="B263" s="26"/>
+      <c r="A263" s="28"/>
+      <c r="B263" s="28"/>
       <c r="C263" s="13"/>
       <c r="D263" s="6"/>
       <c r="E263" s="6"/>
@@ -8815,8 +8892,8 @@
       <c r="J276" s="7"/>
     </row>
     <row r="277" ht="21" customHeight="1">
-      <c r="A277" s="27"/>
-      <c r="B277" s="27"/>
+      <c r="A277" s="26"/>
+      <c r="B277" s="26"/>
       <c r="C277" s="13"/>
       <c r="D277" s="6"/>
       <c r="E277" s="6"/>
@@ -8827,8 +8904,8 @@
       <c r="J277" s="7"/>
     </row>
     <row r="278" ht="21" customHeight="1">
-      <c r="A278" s="28"/>
-      <c r="B278" s="28"/>
+      <c r="A278" s="27"/>
+      <c r="B278" s="27"/>
       <c r="C278" s="25"/>
       <c r="D278" s="6"/>
       <c r="E278" s="6"/>
@@ -8839,8 +8916,8 @@
       <c r="J278" s="7"/>
     </row>
     <row r="279" ht="21" customHeight="1">
-      <c r="A279" s="28"/>
-      <c r="B279" s="28"/>
+      <c r="A279" s="27"/>
+      <c r="B279" s="27"/>
       <c r="C279" s="25"/>
       <c r="D279" s="6"/>
       <c r="E279" s="6"/>
@@ -8851,8 +8928,8 @@
       <c r="J279" s="9"/>
     </row>
     <row r="280" ht="21" customHeight="1">
-      <c r="A280" s="26"/>
-      <c r="B280" s="26"/>
+      <c r="A280" s="28"/>
+      <c r="B280" s="28"/>
       <c r="C280" s="13"/>
       <c r="D280" s="6"/>
       <c r="E280" s="6"/>
@@ -8995,8 +9072,8 @@
       <c r="J291" s="7"/>
     </row>
     <row r="292" ht="21" customHeight="1">
-      <c r="A292" s="27"/>
-      <c r="B292" s="27"/>
+      <c r="A292" s="26"/>
+      <c r="B292" s="26"/>
       <c r="C292" s="13"/>
       <c r="D292" s="6"/>
       <c r="E292" s="6"/>
@@ -9007,8 +9084,8 @@
       <c r="J292" s="7"/>
     </row>
     <row r="293" ht="21" customHeight="1">
-      <c r="A293" s="28"/>
-      <c r="B293" s="28"/>
+      <c r="A293" s="27"/>
+      <c r="B293" s="27"/>
       <c r="C293" s="25"/>
       <c r="D293" s="6"/>
       <c r="E293" s="6"/>
@@ -9019,8 +9096,8 @@
       <c r="J293" s="9"/>
     </row>
     <row r="294" ht="20.7" customHeight="1">
-      <c r="A294" s="26"/>
-      <c r="B294" s="26"/>
+      <c r="A294" s="28"/>
+      <c r="B294" s="28"/>
       <c r="C294" s="13"/>
       <c r="D294" s="13"/>
       <c r="E294" s="13"/>
@@ -9079,8 +9156,8 @@
       <c r="J298" s="9"/>
     </row>
     <row r="299" ht="21" customHeight="1">
-      <c r="A299" s="27"/>
-      <c r="B299" s="27"/>
+      <c r="A299" s="26"/>
+      <c r="B299" s="26"/>
       <c r="C299" s="13"/>
       <c r="D299" s="6"/>
       <c r="E299" s="6"/>
@@ -9091,8 +9168,8 @@
       <c r="J299" s="11"/>
     </row>
     <row r="300" ht="21" customHeight="1">
-      <c r="A300" s="28"/>
-      <c r="B300" s="28"/>
+      <c r="A300" s="27"/>
+      <c r="B300" s="27"/>
       <c r="C300" s="25"/>
       <c r="D300" s="6"/>
       <c r="E300" s="6"/>
@@ -9103,8 +9180,8 @@
       <c r="J300" s="7"/>
     </row>
     <row r="301" ht="21" customHeight="1">
-      <c r="A301" s="26"/>
-      <c r="B301" s="26"/>
+      <c r="A301" s="28"/>
+      <c r="B301" s="28"/>
       <c r="C301" s="13"/>
       <c r="D301" s="6"/>
       <c r="E301" s="6"/>
@@ -9355,8 +9432,8 @@
       <c r="J321" s="7"/>
     </row>
     <row r="322" ht="21" customHeight="1">
-      <c r="A322" s="27"/>
-      <c r="B322" s="27"/>
+      <c r="A322" s="26"/>
+      <c r="B322" s="26"/>
       <c r="C322" s="13"/>
       <c r="D322" s="6"/>
       <c r="E322" s="6"/>
@@ -9367,8 +9444,8 @@
       <c r="J322" s="7"/>
     </row>
     <row r="323" ht="21" customHeight="1">
-      <c r="A323" s="28"/>
-      <c r="B323" s="28"/>
+      <c r="A323" s="27"/>
+      <c r="B323" s="27"/>
       <c r="C323" s="25"/>
       <c r="D323" s="6"/>
       <c r="E323" s="6"/>
@@ -9379,8 +9456,8 @@
       <c r="J323" s="7"/>
     </row>
     <row r="324" ht="21" customHeight="1">
-      <c r="A324" s="28"/>
-      <c r="B324" s="28"/>
+      <c r="A324" s="27"/>
+      <c r="B324" s="27"/>
       <c r="C324" s="25"/>
       <c r="D324" s="6"/>
       <c r="E324" s="6"/>
@@ -9391,8 +9468,8 @@
       <c r="J324" s="7"/>
     </row>
     <row r="325" ht="21" customHeight="1">
-      <c r="A325" s="28"/>
-      <c r="B325" s="28"/>
+      <c r="A325" s="27"/>
+      <c r="B325" s="27"/>
       <c r="C325" s="25"/>
       <c r="D325" s="6"/>
       <c r="E325" s="6"/>
@@ -9403,8 +9480,8 @@
       <c r="J325" s="9"/>
     </row>
     <row r="326" ht="21" customHeight="1">
-      <c r="A326" s="26"/>
-      <c r="B326" s="26"/>
+      <c r="A326" s="28"/>
+      <c r="B326" s="28"/>
       <c r="C326" s="13"/>
       <c r="D326" s="6"/>
       <c r="E326" s="6"/>
@@ -9475,8 +9552,8 @@
       <c r="J331" s="10"/>
     </row>
     <row r="332" ht="20.7" customHeight="1">
-      <c r="A332" s="27"/>
-      <c r="B332" s="27"/>
+      <c r="A332" s="26"/>
+      <c r="B332" s="26"/>
       <c r="C332" s="13"/>
       <c r="D332" s="13"/>
       <c r="E332" s="13"/>
@@ -9487,8 +9564,8 @@
       <c r="J332" s="16"/>
     </row>
     <row r="333" ht="21" customHeight="1">
-      <c r="A333" s="28"/>
-      <c r="B333" s="28"/>
+      <c r="A333" s="27"/>
+      <c r="B333" s="27"/>
       <c r="C333" s="25"/>
       <c r="D333" s="6"/>
       <c r="E333" s="6"/>
@@ -9499,8 +9576,8 @@
       <c r="J333" s="7"/>
     </row>
     <row r="334" ht="21" customHeight="1">
-      <c r="A334" s="28"/>
-      <c r="B334" s="28"/>
+      <c r="A334" s="27"/>
+      <c r="B334" s="27"/>
       <c r="C334" s="25"/>
       <c r="D334" s="6"/>
       <c r="E334" s="6"/>
@@ -9511,8 +9588,8 @@
       <c r="J334" s="9"/>
     </row>
     <row r="335" ht="21" customHeight="1">
-      <c r="A335" s="26"/>
-      <c r="B335" s="26"/>
+      <c r="A335" s="28"/>
+      <c r="B335" s="28"/>
       <c r="C335" s="13"/>
       <c r="D335" s="6"/>
       <c r="E335" s="6"/>
@@ -9619,8 +9696,8 @@
       <c r="J343" s="9"/>
     </row>
     <row r="344" ht="21" customHeight="1">
-      <c r="A344" s="27"/>
-      <c r="B344" s="27"/>
+      <c r="A344" s="26"/>
+      <c r="B344" s="26"/>
       <c r="C344" s="13"/>
       <c r="D344" s="6"/>
       <c r="E344" s="6"/>
@@ -9631,8 +9708,8 @@
       <c r="J344" s="11"/>
     </row>
     <row r="345" ht="21" customHeight="1">
-      <c r="A345" s="28"/>
-      <c r="B345" s="28"/>
+      <c r="A345" s="27"/>
+      <c r="B345" s="27"/>
       <c r="C345" s="25"/>
       <c r="D345" s="6"/>
       <c r="E345" s="6"/>
@@ -9643,8 +9720,8 @@
       <c r="J345" s="9"/>
     </row>
     <row r="346" ht="21" customHeight="1">
-      <c r="A346" s="26"/>
-      <c r="B346" s="26"/>
+      <c r="A346" s="28"/>
+      <c r="B346" s="28"/>
       <c r="C346" s="13"/>
       <c r="D346" s="6"/>
       <c r="E346" s="6"/>

--- a/cw12022023.xlsx
+++ b/cw12022023.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="496">
   <si>
     <t>Surname</t>
   </si>
@@ -1055,6 +1055,12 @@
   </si>
   <si>
     <t>H190440Z</t>
+  </si>
+  <si>
+    <t>Mutize</t>
+  </si>
+  <si>
+    <t>H190697H</t>
   </si>
   <si>
     <t>Mutsvairo</t>
@@ -3118,7 +3124,9 @@
       <c r="D7" s="6">
         <v>0.714285714285714</v>
       </c>
-      <c r="E7" s="6"/>
+      <c r="E7" s="6">
+        <v>0.520833333333333</v>
+      </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6">
@@ -3322,7 +3330,9 @@
       <c r="D16" s="6">
         <v>0.476190476190476</v>
       </c>
-      <c r="E16" s="6"/>
+      <c r="E16" s="6">
+        <v>0.333333333333333</v>
+      </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6">
@@ -3390,7 +3400,9 @@
       <c r="D19" s="6">
         <v>0.642857142857143</v>
       </c>
-      <c r="E19" s="6"/>
+      <c r="E19" s="6">
+        <v>0.458333333333333</v>
+      </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6">
@@ -3936,7 +3948,9 @@
       <c r="D43" s="6">
         <v>0.595238095238095</v>
       </c>
-      <c r="E43" s="6"/>
+      <c r="E43" s="6">
+        <v>0.270833333333333</v>
+      </c>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6">
@@ -4118,7 +4132,9 @@
       <c r="D51" s="6">
         <v>0.571428571428571</v>
       </c>
-      <c r="E51" s="6"/>
+      <c r="E51" s="6">
+        <v>0.395833333333333</v>
+      </c>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
       <c r="H51" s="6">
@@ -4364,7 +4380,9 @@
       <c r="D62" s="6">
         <v>0.547619047619048</v>
       </c>
-      <c r="E62" s="6"/>
+      <c r="E62" s="6">
+        <v>0.645833333333333</v>
+      </c>
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
       <c r="H62" s="6">
@@ -4458,7 +4476,9 @@
       <c r="D66" s="6">
         <v>0.5</v>
       </c>
-      <c r="E66" s="6"/>
+      <c r="E66" s="6">
+        <v>0.416666666666667</v>
+      </c>
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
       <c r="H66" s="6">
@@ -4706,7 +4726,9 @@
       <c r="D77" s="6">
         <v>0.857142857142857</v>
       </c>
-      <c r="E77" s="6"/>
+      <c r="E77" s="6">
+        <v>0.604166666666667</v>
+      </c>
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
       <c r="H77" s="6">
@@ -4774,7 +4796,9 @@
       <c r="D80" s="6">
         <v>0.714285714285714</v>
       </c>
-      <c r="E80" s="6"/>
+      <c r="E80" s="6">
+        <v>0.541666666666667</v>
+      </c>
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
       <c r="H80" s="6">
@@ -4930,7 +4954,9 @@
       <c r="D87" s="6">
         <v>0.619047619047619</v>
       </c>
-      <c r="E87" s="6"/>
+      <c r="E87" s="6">
+        <v>0.520833333333333</v>
+      </c>
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
       <c r="H87" s="6">
@@ -5292,7 +5318,9 @@
       <c r="D103" s="6">
         <v>0.857142857142857</v>
       </c>
-      <c r="E103" s="6"/>
+      <c r="E103" s="6">
+        <v>0.375</v>
+      </c>
       <c r="F103" s="6"/>
       <c r="G103" s="6"/>
       <c r="H103" s="6">
@@ -5476,7 +5504,9 @@
       <c r="D111" s="6">
         <v>0.833333333333333</v>
       </c>
-      <c r="E111" s="6"/>
+      <c r="E111" s="6">
+        <v>0.645833333333333</v>
+      </c>
       <c r="F111" s="6"/>
       <c r="G111" s="6"/>
       <c r="H111" s="6">
@@ -5658,7 +5688,9 @@
       <c r="D119" s="6">
         <v>0.214285714285714</v>
       </c>
-      <c r="E119" s="6"/>
+      <c r="E119" s="6">
+        <v>0.395833333333333</v>
+      </c>
       <c r="F119" s="6"/>
       <c r="G119" s="6"/>
       <c r="H119" s="6">
@@ -5746,7 +5778,9 @@
       <c r="D123" s="6">
         <v>0.904761904761905</v>
       </c>
-      <c r="E123" s="6"/>
+      <c r="E123" s="6">
+        <v>0.875</v>
+      </c>
       <c r="F123" s="6"/>
       <c r="G123" s="6"/>
       <c r="H123" s="6">
@@ -5792,7 +5826,9 @@
       <c r="D125" s="6">
         <v>0.619047619047619</v>
       </c>
-      <c r="E125" s="6"/>
+      <c r="E125" s="6">
+        <v>0.354166666666667</v>
+      </c>
       <c r="F125" s="6"/>
       <c r="G125" s="6"/>
       <c r="H125" s="6">
@@ -6396,7 +6432,9 @@
       <c r="D151" s="6">
         <v>0.904761904761905</v>
       </c>
-      <c r="E151" s="6"/>
+      <c r="E151" s="6">
+        <v>0.916666666666667</v>
+      </c>
       <c r="F151" s="6"/>
       <c r="G151" s="6"/>
       <c r="H151" s="6">
@@ -6528,7 +6566,9 @@
       <c r="D157" s="6">
         <v>0.80952380952381</v>
       </c>
-      <c r="E157" s="6"/>
+      <c r="E157" s="6">
+        <v>0.895833333333333</v>
+      </c>
       <c r="F157" s="6"/>
       <c r="G157" s="6"/>
       <c r="H157" s="6">
@@ -6618,7 +6658,9 @@
       <c r="D161" s="6">
         <v>0.666666666666667</v>
       </c>
-      <c r="E161" s="6"/>
+      <c r="E161" s="6">
+        <v>0.3125</v>
+      </c>
       <c r="F161" s="6"/>
       <c r="G161" s="6"/>
       <c r="H161" s="6">
@@ -6788,275 +6830,275 @@
       <c r="J168" s="11"/>
     </row>
     <row r="169" ht="21" customHeight="1">
-      <c r="A169" t="s" s="4">
+      <c r="A169" t="s" s="5">
         <v>348</v>
       </c>
-      <c r="B169" t="s" s="4">
+      <c r="B169" t="s" s="5">
         <v>349</v>
       </c>
       <c r="C169" t="s" s="5">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D169" s="6">
-        <v>0.69047619047619</v>
-      </c>
-      <c r="E169" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="E169" s="6">
+        <v>0.25</v>
+      </c>
       <c r="F169" s="6"/>
       <c r="G169" s="6"/>
       <c r="H169" s="6">
-        <v>0.777777777777778</v>
+        <v>0</v>
       </c>
       <c r="I169" s="6"/>
-      <c r="J169" s="9"/>
+      <c r="J169" s="7"/>
     </row>
     <row r="170" ht="21" customHeight="1">
-      <c r="A170" t="s" s="24">
+      <c r="A170" t="s" s="4">
         <v>350</v>
       </c>
-      <c r="B170" t="s" s="24">
+      <c r="B170" t="s" s="4">
         <v>351</v>
       </c>
       <c r="C170" t="s" s="5">
         <v>18</v>
       </c>
       <c r="D170" s="6">
-        <v>0.857142857142857</v>
-      </c>
-      <c r="E170" s="6">
-        <v>0.833333333333333</v>
-      </c>
+        <v>0.69047619047619</v>
+      </c>
+      <c r="E170" s="6"/>
       <c r="F170" s="6"/>
       <c r="G170" s="6"/>
       <c r="H170" s="6">
+        <v>0.777777777777778</v>
+      </c>
+      <c r="I170" s="6"/>
+      <c r="J170" s="9"/>
+    </row>
+    <row r="171" ht="21" customHeight="1">
+      <c r="A171" t="s" s="24">
+        <v>352</v>
+      </c>
+      <c r="B171" t="s" s="24">
+        <v>353</v>
+      </c>
+      <c r="C171" t="s" s="5">
+        <v>18</v>
+      </c>
+      <c r="D171" s="6">
+        <v>0.857142857142857</v>
+      </c>
+      <c r="E171" s="6">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="F171" s="6"/>
+      <c r="G171" s="6"/>
+      <c r="H171" s="6">
         <v>0.805555555555556</v>
       </c>
-      <c r="I170" s="6"/>
-      <c r="J170" s="11"/>
-    </row>
-    <row r="171" ht="21" customHeight="1">
-      <c r="A171" t="s" s="8">
-        <v>352</v>
-      </c>
-      <c r="B171" t="s" s="8">
-        <v>353</v>
-      </c>
-      <c r="C171" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="D171" s="15">
-        <v>0.619047619047619</v>
-      </c>
-      <c r="E171" s="13"/>
-      <c r="F171" s="13"/>
-      <c r="G171" s="13"/>
-      <c r="H171" s="6">
-        <v>0.638888888888889</v>
-      </c>
-      <c r="I171" s="13"/>
-      <c r="J171" s="7"/>
+      <c r="I171" s="6"/>
+      <c r="J171" s="11"/>
     </row>
     <row r="172" ht="21" customHeight="1">
-      <c r="A172" t="s" s="4">
+      <c r="A172" t="s" s="8">
         <v>354</v>
       </c>
-      <c r="B172" t="s" s="4">
+      <c r="B172" t="s" s="8">
         <v>355</v>
       </c>
       <c r="C172" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="D172" s="6">
+      <c r="D172" s="15">
+        <v>0.619047619047619</v>
+      </c>
+      <c r="E172" s="13"/>
+      <c r="F172" s="13"/>
+      <c r="G172" s="13"/>
+      <c r="H172" s="6">
+        <v>0.638888888888889</v>
+      </c>
+      <c r="I172" s="13"/>
+      <c r="J172" s="7"/>
+    </row>
+    <row r="173" ht="21" customHeight="1">
+      <c r="A173" t="s" s="4">
+        <v>356</v>
+      </c>
+      <c r="B173" t="s" s="4">
+        <v>357</v>
+      </c>
+      <c r="C173" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D173" s="6">
         <v>0.761904761904762</v>
-      </c>
-      <c r="E172" s="6"/>
-      <c r="F172" s="6"/>
-      <c r="G172" s="6"/>
-      <c r="H172" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="I172" s="6"/>
-      <c r="J172" s="7"/>
-    </row>
-    <row r="173" ht="21" customHeight="1">
-      <c r="A173" t="s" s="19">
-        <v>356</v>
-      </c>
-      <c r="B173" t="s" s="19">
-        <v>357</v>
-      </c>
-      <c r="C173" t="s" s="18">
-        <v>21</v>
-      </c>
-      <c r="D173" s="6">
-        <v>0.714285714285714</v>
       </c>
       <c r="E173" s="6"/>
       <c r="F173" s="6"/>
       <c r="G173" s="6"/>
       <c r="H173" s="6">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="I173" s="6"/>
       <c r="J173" s="7"/>
     </row>
     <row r="174" ht="21" customHeight="1">
-      <c r="A174" t="s" s="4">
+      <c r="A174" t="s" s="19">
         <v>358</v>
       </c>
-      <c r="B174" t="s" s="4">
+      <c r="B174" t="s" s="19">
         <v>359</v>
       </c>
-      <c r="C174" t="s" s="5">
+      <c r="C174" t="s" s="18">
         <v>21</v>
       </c>
       <c r="D174" s="6">
-        <v>0.761904761904762</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="E174" s="6"/>
       <c r="F174" s="6"/>
       <c r="G174" s="6"/>
       <c r="H174" s="6">
-        <v>0.305555555555556</v>
+        <v>0</v>
       </c>
       <c r="I174" s="6"/>
-      <c r="J174" s="9"/>
+      <c r="J174" s="7"/>
     </row>
     <row r="175" ht="21" customHeight="1">
-      <c r="A175" t="s" s="17">
+      <c r="A175" t="s" s="4">
         <v>360</v>
       </c>
-      <c r="B175" t="s" s="17">
+      <c r="B175" t="s" s="4">
         <v>361</v>
       </c>
-      <c r="C175" t="s" s="18">
-        <v>36</v>
+      <c r="C175" t="s" s="5">
+        <v>21</v>
       </c>
       <c r="D175" s="6">
-        <v>0.785714285714286</v>
+        <v>0.761904761904762</v>
       </c>
       <c r="E175" s="6"/>
       <c r="F175" s="6"/>
       <c r="G175" s="6"/>
       <c r="H175" s="6">
-        <v>0.805555555555556</v>
+        <v>0.305555555555556</v>
       </c>
       <c r="I175" s="6"/>
-      <c r="J175" s="10"/>
+      <c r="J175" s="9"/>
     </row>
     <row r="176" ht="21" customHeight="1">
-      <c r="A176" t="s" s="8">
+      <c r="A176" t="s" s="17">
         <v>362</v>
       </c>
-      <c r="B176" t="s" s="8">
+      <c r="B176" t="s" s="17">
         <v>363</v>
       </c>
-      <c r="C176" t="s" s="5">
-        <v>67</v>
+      <c r="C176" t="s" s="18">
+        <v>36</v>
       </c>
       <c r="D176" s="6">
-        <v>0.694444444444444</v>
+        <v>0.785714285714286</v>
       </c>
       <c r="E176" s="6"/>
       <c r="F176" s="6"/>
       <c r="G176" s="6"/>
       <c r="H176" s="6">
-        <v>0</v>
+        <v>0.805555555555556</v>
       </c>
       <c r="I176" s="6"/>
-      <c r="J176" s="11"/>
+      <c r="J176" s="10"/>
     </row>
     <row r="177" ht="21" customHeight="1">
-      <c r="A177" t="s" s="5">
+      <c r="A177" t="s" s="8">
         <v>364</v>
       </c>
-      <c r="B177" t="s" s="5">
+      <c r="B177" t="s" s="8">
         <v>365</v>
       </c>
       <c r="C177" t="s" s="5">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D177" s="6">
-        <v>0.714285714285714</v>
-      </c>
-      <c r="E177" s="6">
-        <v>0.645833333333333</v>
-      </c>
+        <v>0.694444444444444</v>
+      </c>
+      <c r="E177" s="6"/>
       <c r="F177" s="6"/>
       <c r="G177" s="6"/>
       <c r="H177" s="6">
-        <v>0.777777777777778</v>
+        <v>0</v>
       </c>
       <c r="I177" s="6"/>
-      <c r="J177" s="9"/>
-    </row>
-    <row r="178" ht="20.7" customHeight="1">
-      <c r="A178" t="s" s="4">
+      <c r="J177" s="11"/>
+    </row>
+    <row r="178" ht="21" customHeight="1">
+      <c r="A178" t="s" s="5">
         <v>366</v>
       </c>
-      <c r="B178" t="s" s="4">
+      <c r="B178" t="s" s="5">
         <v>367</v>
       </c>
       <c r="C178" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="D178" s="12">
-        <v>0.738095238095238</v>
-      </c>
-      <c r="E178" s="15">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="F178" s="13"/>
-      <c r="G178" s="13"/>
+      <c r="D178" s="6">
+        <v>0.714285714285714</v>
+      </c>
+      <c r="E178" s="6">
+        <v>0.645833333333333</v>
+      </c>
+      <c r="F178" s="6"/>
+      <c r="G178" s="6"/>
       <c r="H178" s="6">
         <v>0.777777777777778</v>
       </c>
-      <c r="I178" s="13"/>
-      <c r="J178" s="16"/>
-    </row>
-    <row r="179" ht="21" customHeight="1">
-      <c r="A179" t="s" s="19">
+      <c r="I178" s="6"/>
+      <c r="J178" s="9"/>
+    </row>
+    <row r="179" ht="20.7" customHeight="1">
+      <c r="A179" t="s" s="4">
         <v>368</v>
       </c>
-      <c r="B179" t="s" s="19">
+      <c r="B179" t="s" s="4">
         <v>369</v>
       </c>
-      <c r="C179" t="s" s="18">
-        <v>18</v>
-      </c>
-      <c r="D179" s="6">
-        <v>0.952380952380952</v>
-      </c>
-      <c r="E179" s="6">
-        <v>0.854166666666667</v>
-      </c>
-      <c r="F179" s="6"/>
-      <c r="G179" s="6"/>
+      <c r="C179" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D179" s="12">
+        <v>0.738095238095238</v>
+      </c>
+      <c r="E179" s="15">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="F179" s="13"/>
+      <c r="G179" s="13"/>
       <c r="H179" s="6">
         <v>0.777777777777778</v>
       </c>
-      <c r="I179" s="6"/>
-      <c r="J179" s="7"/>
+      <c r="I179" s="13"/>
+      <c r="J179" s="16"/>
     </row>
     <row r="180" ht="21" customHeight="1">
-      <c r="A180" t="s" s="5">
+      <c r="A180" t="s" s="19">
         <v>370</v>
       </c>
-      <c r="B180" t="s" s="5">
+      <c r="B180" t="s" s="19">
         <v>371</v>
       </c>
-      <c r="C180" t="s" s="5">
-        <v>12</v>
+      <c r="C180" t="s" s="18">
+        <v>18</v>
       </c>
       <c r="D180" s="6">
-        <v>0.571428571428571</v>
+        <v>0.952380952380952</v>
       </c>
       <c r="E180" s="6">
-        <v>0.541666666666667</v>
+        <v>0.854166666666667</v>
       </c>
       <c r="F180" s="6"/>
       <c r="G180" s="6"/>
       <c r="H180" s="6">
-        <v>0.722222222222222</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I180" s="6"/>
       <c r="J180" s="7"/>
@@ -7069,405 +7111,417 @@
         <v>373</v>
       </c>
       <c r="C181" t="s" s="5">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D181" s="6">
-        <v>0.357142857142857</v>
-      </c>
-      <c r="E181" s="6"/>
+        <v>0.571428571428571</v>
+      </c>
+      <c r="E181" s="6">
+        <v>0.541666666666667</v>
+      </c>
       <c r="F181" s="6"/>
       <c r="G181" s="6"/>
       <c r="H181" s="6">
-        <v>0</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="I181" s="6"/>
       <c r="J181" s="7"/>
     </row>
     <row r="182" ht="21" customHeight="1">
-      <c r="A182" t="s" s="4">
-        <v>372</v>
-      </c>
-      <c r="B182" t="s" s="4">
+      <c r="A182" t="s" s="5">
         <v>374</v>
       </c>
+      <c r="B182" t="s" s="5">
+        <v>375</v>
+      </c>
       <c r="C182" t="s" s="5">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D182" s="6">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="E182" s="6">
-        <v>0.479166666666667</v>
-      </c>
+        <v>0.357142857142857</v>
+      </c>
+      <c r="E182" s="6"/>
       <c r="F182" s="6"/>
       <c r="G182" s="6"/>
       <c r="H182" s="6">
-        <v>0.638888888888889</v>
+        <v>0</v>
       </c>
       <c r="I182" s="6"/>
-      <c r="J182" s="9"/>
+      <c r="J182" s="7"/>
     </row>
     <row r="183" ht="21" customHeight="1">
-      <c r="A183" t="s" s="24">
-        <v>375</v>
-      </c>
-      <c r="B183" t="s" s="24">
+      <c r="A183" t="s" s="4">
+        <v>374</v>
+      </c>
+      <c r="B183" t="s" s="4">
         <v>376</v>
       </c>
       <c r="C183" t="s" s="5">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D183" s="6">
-        <v>0.761904761904762</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="E183" s="6">
-        <v>0.604166666666667</v>
+        <v>0.479166666666667</v>
       </c>
       <c r="F183" s="6"/>
       <c r="G183" s="6"/>
       <c r="H183" s="6">
-        <v>0.888888888888889</v>
+        <v>0.638888888888889</v>
       </c>
       <c r="I183" s="6"/>
-      <c r="J183" s="10"/>
+      <c r="J183" s="9"/>
     </row>
     <row r="184" ht="21" customHeight="1">
-      <c r="A184" t="s" s="8">
+      <c r="A184" t="s" s="24">
         <v>377</v>
       </c>
-      <c r="B184" t="s" s="8">
+      <c r="B184" t="s" s="24">
         <v>378</v>
       </c>
       <c r="C184" t="s" s="5">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D184" s="6">
-        <v>0.619047619047619</v>
+        <v>0.761904761904762</v>
       </c>
       <c r="E184" s="6">
-        <v>0.770833333333333</v>
+        <v>0.604166666666667</v>
       </c>
       <c r="F184" s="6"/>
       <c r="G184" s="6"/>
       <c r="H184" s="6">
-        <v>0.75</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="I184" s="6"/>
       <c r="J184" s="10"/>
     </row>
-    <row r="185" ht="20.7" customHeight="1">
-      <c r="A185" t="s" s="5">
+    <row r="185" ht="21" customHeight="1">
+      <c r="A185" t="s" s="8">
         <v>379</v>
       </c>
-      <c r="B185" t="s" s="5">
+      <c r="B185" t="s" s="8">
         <v>380</v>
       </c>
       <c r="C185" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="D185" s="15">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E185" s="13"/>
-      <c r="F185" s="13"/>
-      <c r="G185" s="13"/>
+      <c r="D185" s="6">
+        <v>0.619047619047619</v>
+      </c>
+      <c r="E185" s="6">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="F185" s="6"/>
+      <c r="G185" s="6"/>
       <c r="H185" s="6">
         <v>0.75</v>
       </c>
-      <c r="I185" s="13"/>
-      <c r="J185" s="16"/>
-    </row>
-    <row r="186" ht="21" customHeight="1">
-      <c r="A186" t="s" s="4">
+      <c r="I185" s="6"/>
+      <c r="J185" s="10"/>
+    </row>
+    <row r="186" ht="20.7" customHeight="1">
+      <c r="A186" t="s" s="5">
         <v>381</v>
       </c>
-      <c r="B186" t="s" s="4">
+      <c r="B186" t="s" s="5">
         <v>382</v>
       </c>
       <c r="C186" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="D186" s="15">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E186" s="13"/>
+      <c r="F186" s="13"/>
+      <c r="G186" s="13"/>
+      <c r="H186" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="I186" s="13"/>
+      <c r="J186" s="16"/>
+    </row>
+    <row r="187" ht="21" customHeight="1">
+      <c r="A187" t="s" s="4">
+        <v>383</v>
+      </c>
+      <c r="B187" t="s" s="4">
+        <v>384</v>
+      </c>
+      <c r="C187" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="D186" s="6">
+      <c r="D187" s="6">
         <v>0.80952380952381</v>
       </c>
-      <c r="E186" s="6"/>
-      <c r="F186" s="6"/>
-      <c r="G186" s="6"/>
-      <c r="H186" s="6">
-        <v>0.861111111111111</v>
-      </c>
-      <c r="I186" s="6"/>
-      <c r="J186" s="7"/>
-    </row>
-    <row r="187" ht="21" customHeight="1">
-      <c r="A187" t="s" s="19">
-        <v>383</v>
-      </c>
-      <c r="B187" t="s" s="19">
-        <v>384</v>
-      </c>
-      <c r="C187" t="s" s="18">
-        <v>18</v>
-      </c>
-      <c r="D187" s="6">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="E187" s="6"/>
+      <c r="E187" s="6">
+        <v>0.375</v>
+      </c>
       <c r="F187" s="6"/>
       <c r="G187" s="6"/>
       <c r="H187" s="6">
-        <v>0.805555555555556</v>
+        <v>0.861111111111111</v>
       </c>
       <c r="I187" s="6"/>
       <c r="J187" s="7"/>
     </row>
     <row r="188" ht="21" customHeight="1">
-      <c r="A188" t="s" s="4">
+      <c r="A188" t="s" s="19">
         <v>385</v>
       </c>
-      <c r="B188" t="s" s="4">
+      <c r="B188" t="s" s="19">
         <v>386</v>
       </c>
-      <c r="C188" t="s" s="5">
-        <v>21</v>
+      <c r="C188" t="s" s="18">
+        <v>18</v>
       </c>
       <c r="D188" s="6">
-        <v>0.904761904761905</v>
-      </c>
-      <c r="E188" s="6">
-        <v>0.541666666666667</v>
-      </c>
+        <v>0.666666666666667</v>
+      </c>
+      <c r="E188" s="6"/>
       <c r="F188" s="6"/>
       <c r="G188" s="6"/>
       <c r="H188" s="6">
-        <v>0.75</v>
+        <v>0.805555555555556</v>
       </c>
       <c r="I188" s="6"/>
       <c r="J188" s="7"/>
     </row>
     <row r="189" ht="21" customHeight="1">
-      <c r="A189" t="s" s="19">
+      <c r="A189" t="s" s="4">
         <v>387</v>
       </c>
-      <c r="B189" t="s" s="19">
+      <c r="B189" t="s" s="4">
         <v>388</v>
       </c>
-      <c r="C189" t="s" s="18">
+      <c r="C189" t="s" s="5">
         <v>21</v>
       </c>
       <c r="D189" s="6">
-        <v>0.861111111111111</v>
-      </c>
-      <c r="E189" s="6"/>
+        <v>0.904761904761905</v>
+      </c>
+      <c r="E189" s="6">
+        <v>0.541666666666667</v>
+      </c>
       <c r="F189" s="6"/>
       <c r="G189" s="6"/>
       <c r="H189" s="6">
-        <v>0.722222222222222</v>
+        <v>0.75</v>
       </c>
       <c r="I189" s="6"/>
-      <c r="J189" s="9"/>
-    </row>
-    <row r="190" ht="20.7" customHeight="1">
-      <c r="A190" t="s" s="5">
+      <c r="J189" s="7"/>
+    </row>
+    <row r="190" ht="21" customHeight="1">
+      <c r="A190" t="s" s="19">
         <v>389</v>
       </c>
-      <c r="B190" t="s" s="5">
+      <c r="B190" t="s" s="19">
         <v>390</v>
       </c>
-      <c r="C190" t="s" s="5">
-        <v>67</v>
-      </c>
-      <c r="D190" s="12">
-        <v>0.69047619047619</v>
-      </c>
-      <c r="E190" s="13"/>
-      <c r="F190" s="13"/>
-      <c r="G190" s="13"/>
+      <c r="C190" t="s" s="18">
+        <v>21</v>
+      </c>
+      <c r="D190" s="6">
+        <v>0.861111111111111</v>
+      </c>
+      <c r="E190" s="6">
+        <v>0.729166666666667</v>
+      </c>
+      <c r="F190" s="6"/>
+      <c r="G190" s="6"/>
       <c r="H190" s="6">
         <v>0.722222222222222</v>
       </c>
-      <c r="I190" s="13"/>
-      <c r="J190" s="16"/>
-    </row>
-    <row r="191" ht="21" customHeight="1">
-      <c r="A191" t="s" s="4">
+      <c r="I190" s="6"/>
+      <c r="J190" s="9"/>
+    </row>
+    <row r="191" ht="20.7" customHeight="1">
+      <c r="A191" t="s" s="5">
         <v>391</v>
       </c>
-      <c r="B191" t="s" s="4">
+      <c r="B191" t="s" s="5">
         <v>392</v>
       </c>
       <c r="C191" t="s" s="5">
         <v>67</v>
       </c>
-      <c r="D191" s="6">
-        <v>0.619047619047619</v>
-      </c>
-      <c r="E191" s="6"/>
-      <c r="F191" s="6"/>
-      <c r="G191" s="6"/>
+      <c r="D191" s="12">
+        <v>0.69047619047619</v>
+      </c>
+      <c r="E191" s="15">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="F191" s="13"/>
+      <c r="G191" s="13"/>
       <c r="H191" s="6">
         <v>0.722222222222222</v>
       </c>
-      <c r="I191" s="6"/>
-      <c r="J191" s="7"/>
+      <c r="I191" s="13"/>
+      <c r="J191" s="16"/>
     </row>
     <row r="192" ht="21" customHeight="1">
-      <c r="A192" t="s" s="17">
+      <c r="A192" t="s" s="4">
         <v>393</v>
       </c>
-      <c r="B192" t="s" s="17">
+      <c r="B192" t="s" s="4">
         <v>394</v>
       </c>
-      <c r="C192" t="s" s="18">
-        <v>36</v>
+      <c r="C192" t="s" s="5">
+        <v>67</v>
       </c>
       <c r="D192" s="6">
-        <v>0.571428571428571</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="E192" s="6"/>
       <c r="F192" s="6"/>
       <c r="G192" s="6"/>
       <c r="H192" s="6">
-        <v>0.666666666666667</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="I192" s="6"/>
-      <c r="J192" s="9"/>
+      <c r="J192" s="7"/>
     </row>
     <row r="193" ht="21" customHeight="1">
-      <c r="A193" t="s" s="8">
-        <v>393</v>
-      </c>
-      <c r="B193" t="s" s="8">
+      <c r="A193" t="s" s="17">
         <v>395</v>
       </c>
-      <c r="C193" t="s" s="5">
-        <v>67</v>
+      <c r="B193" t="s" s="17">
+        <v>396</v>
+      </c>
+      <c r="C193" t="s" s="18">
+        <v>36</v>
       </c>
       <c r="D193" s="6">
-        <v>0.69047619047619</v>
-      </c>
-      <c r="E193" s="6"/>
+        <v>0.571428571428571</v>
+      </c>
+      <c r="E193" s="6">
+        <v>0.645833333333333</v>
+      </c>
       <c r="F193" s="6"/>
       <c r="G193" s="6"/>
       <c r="H193" s="6">
-        <v>0</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="I193" s="6"/>
-      <c r="J193" s="11"/>
+      <c r="J193" s="9"/>
     </row>
     <row r="194" ht="21" customHeight="1">
-      <c r="A194" t="s" s="5">
-        <v>396</v>
-      </c>
-      <c r="B194" t="s" s="5">
+      <c r="A194" t="s" s="8">
+        <v>395</v>
+      </c>
+      <c r="B194" t="s" s="8">
         <v>397</v>
       </c>
       <c r="C194" t="s" s="5">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="D194" s="6">
-        <v>0.571428571428571</v>
-      </c>
-      <c r="E194" s="6"/>
+        <v>0.69047619047619</v>
+      </c>
+      <c r="E194" s="6">
+        <v>0.458333333333333</v>
+      </c>
       <c r="F194" s="6"/>
       <c r="G194" s="6"/>
       <c r="H194" s="6">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="I194" s="6"/>
-      <c r="J194" s="7"/>
+      <c r="J194" s="11"/>
     </row>
     <row r="195" ht="21" customHeight="1">
-      <c r="A195" t="s" s="4">
+      <c r="A195" t="s" s="5">
         <v>398</v>
       </c>
-      <c r="B195" t="s" s="4">
+      <c r="B195" t="s" s="5">
         <v>399</v>
       </c>
       <c r="C195" t="s" s="5">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D195" s="6">
-        <v>0.857142857142857</v>
-      </c>
-      <c r="E195" s="6">
-        <v>0.458333333333333</v>
-      </c>
+        <v>0.571428571428571</v>
+      </c>
+      <c r="E195" s="6"/>
       <c r="F195" s="6"/>
       <c r="G195" s="6"/>
       <c r="H195" s="6">
-        <v>0.805555555555556</v>
+        <v>0.75</v>
       </c>
       <c r="I195" s="6"/>
       <c r="J195" s="7"/>
     </row>
     <row r="196" ht="21" customHeight="1">
-      <c r="A196" t="s" s="17">
+      <c r="A196" t="s" s="4">
         <v>400</v>
       </c>
-      <c r="B196" t="s" s="17">
+      <c r="B196" t="s" s="4">
         <v>401</v>
       </c>
-      <c r="C196" t="s" s="18">
+      <c r="C196" t="s" s="5">
         <v>12</v>
       </c>
       <c r="D196" s="6">
-        <v>0.80952380952381</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="E196" s="6">
-        <v>0.75</v>
+        <v>0.458333333333333</v>
       </c>
       <c r="F196" s="6"/>
       <c r="G196" s="6"/>
       <c r="H196" s="6">
-        <v>0.861111111111111</v>
+        <v>0.805555555555556</v>
       </c>
       <c r="I196" s="6"/>
-      <c r="J196" s="9"/>
+      <c r="J196" s="7"/>
     </row>
     <row r="197" ht="21" customHeight="1">
-      <c r="A197" t="s" s="19">
+      <c r="A197" t="s" s="17">
         <v>402</v>
       </c>
-      <c r="B197" t="s" s="19">
+      <c r="B197" t="s" s="17">
         <v>403</v>
       </c>
       <c r="C197" t="s" s="18">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D197" s="6">
-        <v>0.261904761904762</v>
-      </c>
-      <c r="E197" s="6"/>
+        <v>0.80952380952381</v>
+      </c>
+      <c r="E197" s="6">
+        <v>0.75</v>
+      </c>
       <c r="F197" s="6"/>
       <c r="G197" s="6"/>
       <c r="H197" s="6">
-        <v>0.75</v>
+        <v>0.861111111111111</v>
       </c>
       <c r="I197" s="6"/>
-      <c r="J197" s="11"/>
+      <c r="J197" s="9"/>
     </row>
     <row r="198" ht="21" customHeight="1">
-      <c r="A198" t="s" s="5">
+      <c r="A198" t="s" s="19">
         <v>404</v>
       </c>
-      <c r="B198" t="s" s="5">
+      <c r="B198" t="s" s="19">
         <v>405</v>
       </c>
-      <c r="C198" t="s" s="5">
+      <c r="C198" t="s" s="18">
         <v>21</v>
       </c>
       <c r="D198" s="6">
-        <v>0.619047619047619</v>
+        <v>0.261904761904762</v>
       </c>
       <c r="E198" s="6"/>
       <c r="F198" s="6"/>
       <c r="G198" s="6"/>
       <c r="H198" s="6">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="I198" s="6"/>
-      <c r="J198" s="7"/>
+      <c r="J198" s="11"/>
     </row>
     <row r="199" ht="21" customHeight="1">
       <c r="A199" t="s" s="5">
@@ -7477,18 +7531,16 @@
         <v>407</v>
       </c>
       <c r="C199" t="s" s="5">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D199" s="6">
-        <v>0.785714285714286</v>
-      </c>
-      <c r="E199" s="6">
-        <v>0.6875</v>
-      </c>
+        <v>0.619047619047619</v>
+      </c>
+      <c r="E199" s="6"/>
       <c r="F199" s="6"/>
       <c r="G199" s="6"/>
       <c r="H199" s="6">
-        <v>0.777777777777778</v>
+        <v>0</v>
       </c>
       <c r="I199" s="6"/>
       <c r="J199" s="7"/>
@@ -7504,10 +7556,10 @@
         <v>36</v>
       </c>
       <c r="D200" s="6">
-        <v>1</v>
+        <v>0.785714285714286</v>
       </c>
       <c r="E200" s="6">
-        <v>0.708333333333333</v>
+        <v>0.6875</v>
       </c>
       <c r="F200" s="6"/>
       <c r="G200" s="6"/>
@@ -7518,20 +7570,20 @@
       <c r="J200" s="7"/>
     </row>
     <row r="201" ht="21" customHeight="1">
-      <c r="A201" t="s" s="4">
+      <c r="A201" t="s" s="5">
         <v>410</v>
       </c>
-      <c r="B201" t="s" s="4">
+      <c r="B201" t="s" s="5">
         <v>411</v>
       </c>
       <c r="C201" t="s" s="5">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D201" s="6">
-        <v>0.785714285714286</v>
+        <v>1</v>
       </c>
       <c r="E201" s="6">
-        <v>0.8125</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="F201" s="6"/>
       <c r="G201" s="6"/>
@@ -7542,54 +7594,54 @@
       <c r="J201" s="7"/>
     </row>
     <row r="202" ht="21" customHeight="1">
-      <c r="A202" t="s" s="19">
+      <c r="A202" t="s" s="4">
         <v>412</v>
       </c>
-      <c r="B202" t="s" s="19">
+      <c r="B202" t="s" s="4">
         <v>413</v>
       </c>
-      <c r="C202" t="s" s="18">
-        <v>67</v>
+      <c r="C202" t="s" s="5">
+        <v>12</v>
       </c>
       <c r="D202" s="6">
-        <v>0.738095238095238</v>
+        <v>0.785714285714286</v>
       </c>
       <c r="E202" s="6">
-        <v>0.729166666666667</v>
+        <v>0.8125</v>
       </c>
       <c r="F202" s="6"/>
       <c r="G202" s="6"/>
       <c r="H202" s="6">
-        <v>0.388888888888889</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I202" s="6"/>
       <c r="J202" s="7"/>
     </row>
     <row r="203" ht="21" customHeight="1">
-      <c r="A203" t="s" s="5">
+      <c r="A203" t="s" s="19">
         <v>414</v>
       </c>
-      <c r="B203" t="s" s="5">
+      <c r="B203" t="s" s="19">
         <v>415</v>
       </c>
-      <c r="C203" t="s" s="5">
-        <v>36</v>
+      <c r="C203" t="s" s="18">
+        <v>67</v>
       </c>
       <c r="D203" s="6">
-        <v>0.785714285714286</v>
+        <v>0.738095238095238</v>
       </c>
       <c r="E203" s="6">
-        <v>0.604166666666667</v>
+        <v>0.729166666666667</v>
       </c>
       <c r="F203" s="6"/>
       <c r="G203" s="6"/>
       <c r="H203" s="6">
-        <v>0.777777777777778</v>
+        <v>0.388888888888889</v>
       </c>
       <c r="I203" s="6"/>
-      <c r="J203" s="9"/>
-    </row>
-    <row r="204" ht="20.7" customHeight="1">
+      <c r="J203" s="7"/>
+    </row>
+    <row r="204" ht="21" customHeight="1">
       <c r="A204" t="s" s="5">
         <v>416</v>
       </c>
@@ -7599,76 +7651,80 @@
       <c r="C204" t="s" s="5">
         <v>36</v>
       </c>
-      <c r="D204" s="15">
+      <c r="D204" s="6">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="E204" s="6">
+        <v>0.604166666666667</v>
+      </c>
+      <c r="F204" s="6"/>
+      <c r="G204" s="6"/>
+      <c r="H204" s="6">
+        <v>0.777777777777778</v>
+      </c>
+      <c r="I204" s="6"/>
+      <c r="J204" s="9"/>
+    </row>
+    <row r="205" ht="20.7" customHeight="1">
+      <c r="A205" t="s" s="5">
+        <v>418</v>
+      </c>
+      <c r="B205" t="s" s="5">
+        <v>419</v>
+      </c>
+      <c r="C205" t="s" s="5">
+        <v>36</v>
+      </c>
+      <c r="D205" s="15">
         <v>0.833333333333333</v>
       </c>
-      <c r="E204" s="15">
+      <c r="E205" s="15">
         <v>0.375</v>
       </c>
-      <c r="F204" s="13"/>
-      <c r="G204" s="13"/>
-      <c r="H204" s="6">
+      <c r="F205" s="13"/>
+      <c r="G205" s="13"/>
+      <c r="H205" s="6">
         <v>0.888888888888889</v>
       </c>
-      <c r="I204" s="13"/>
-      <c r="J204" s="16"/>
-    </row>
-    <row r="205" ht="21" customHeight="1">
-      <c r="A205" t="s" s="4">
-        <v>418</v>
-      </c>
-      <c r="B205" t="s" s="4">
-        <v>419</v>
-      </c>
-      <c r="C205" t="s" s="5">
+      <c r="I205" s="13"/>
+      <c r="J205" s="16"/>
+    </row>
+    <row r="206" ht="21" customHeight="1">
+      <c r="A206" t="s" s="4">
+        <v>420</v>
+      </c>
+      <c r="B206" t="s" s="4">
+        <v>421</v>
+      </c>
+      <c r="C206" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="D205" s="6">
+      <c r="D206" s="6">
         <v>0.761904761904762</v>
       </c>
-      <c r="E205" s="6"/>
-      <c r="F205" s="6"/>
-      <c r="G205" s="6"/>
-      <c r="H205" s="6">
-        <v>0</v>
-      </c>
-      <c r="I205" s="6"/>
-      <c r="J205" s="9"/>
-    </row>
-    <row r="206" ht="21" customHeight="1">
-      <c r="A206" t="s" s="24">
-        <v>420</v>
-      </c>
-      <c r="B206" t="s" s="24">
-        <v>421</v>
-      </c>
-      <c r="C206" t="s" s="5">
-        <v>36</v>
-      </c>
-      <c r="D206" s="6">
-        <v>0.69047619047619</v>
-      </c>
-      <c r="E206" s="6"/>
+      <c r="E206" s="6">
+        <v>0.229166666666667</v>
+      </c>
       <c r="F206" s="6"/>
       <c r="G206" s="6"/>
       <c r="H206" s="6">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="I206" s="6"/>
-      <c r="J206" s="10"/>
+      <c r="J206" s="9"/>
     </row>
     <row r="207" ht="21" customHeight="1">
-      <c r="A207" t="s" s="8">
+      <c r="A207" t="s" s="24">
         <v>422</v>
       </c>
-      <c r="B207" t="s" s="8">
+      <c r="B207" t="s" s="24">
         <v>423</v>
       </c>
       <c r="C207" t="s" s="5">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D207" s="6">
-        <v>0.547619047619048</v>
+        <v>0.69047619047619</v>
       </c>
       <c r="E207" s="6">
         <v>0.479166666666667</v>
@@ -7676,32 +7732,34 @@
       <c r="F207" s="6"/>
       <c r="G207" s="6"/>
       <c r="H207" s="6">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="I207" s="6"/>
-      <c r="J207" s="11"/>
+      <c r="J207" s="10"/>
     </row>
     <row r="208" ht="21" customHeight="1">
-      <c r="A208" t="s" s="5">
+      <c r="A208" t="s" s="8">
         <v>424</v>
       </c>
-      <c r="B208" t="s" s="5">
+      <c r="B208" t="s" s="8">
         <v>425</v>
       </c>
       <c r="C208" t="s" s="5">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D208" s="6">
-        <v>0.571428571428571</v>
-      </c>
-      <c r="E208" s="6"/>
+        <v>0.547619047619048</v>
+      </c>
+      <c r="E208" s="6">
+        <v>0.479166666666667</v>
+      </c>
       <c r="F208" s="6"/>
       <c r="G208" s="6"/>
       <c r="H208" s="6">
         <v>0</v>
       </c>
       <c r="I208" s="6"/>
-      <c r="J208" s="7"/>
+      <c r="J208" s="11"/>
     </row>
     <row r="209" ht="21" customHeight="1">
       <c r="A209" t="s" s="5">
@@ -7711,18 +7769,16 @@
         <v>427</v>
       </c>
       <c r="C209" t="s" s="5">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D209" s="6">
-        <v>0.880952380952381</v>
-      </c>
-      <c r="E209" s="6">
-        <v>0.979166666666667</v>
-      </c>
+        <v>0.571428571428571</v>
+      </c>
+      <c r="E209" s="6"/>
       <c r="F209" s="6"/>
       <c r="G209" s="6"/>
       <c r="H209" s="6">
-        <v>0.722222222222222</v>
+        <v>0</v>
       </c>
       <c r="I209" s="6"/>
       <c r="J209" s="7"/>
@@ -7735,18 +7791,18 @@
         <v>429</v>
       </c>
       <c r="C210" t="s" s="5">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="D210" s="6">
-        <v>0.714285714285714</v>
+        <v>0.880952380952381</v>
       </c>
       <c r="E210" s="6">
-        <v>0.520833333333333</v>
+        <v>0.979166666666667</v>
       </c>
       <c r="F210" s="6"/>
       <c r="G210" s="6"/>
       <c r="H210" s="6">
-        <v>0</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="I210" s="6"/>
       <c r="J210" s="7"/>
@@ -7759,18 +7815,18 @@
         <v>431</v>
       </c>
       <c r="C211" t="s" s="5">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D211" s="6">
-        <v>0.80952380952381</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="E211" s="6">
-        <v>0.791666666666667</v>
+        <v>0.520833333333333</v>
       </c>
       <c r="F211" s="6"/>
       <c r="G211" s="6"/>
       <c r="H211" s="6">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="I211" s="6"/>
       <c r="J211" s="7"/>
@@ -7783,19 +7839,21 @@
         <v>433</v>
       </c>
       <c r="C212" t="s" s="5">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D212" s="6">
-        <v>0.761904761904762</v>
-      </c>
-      <c r="E212" s="6"/>
+        <v>0.80952380952381</v>
+      </c>
+      <c r="E212" s="6">
+        <v>0.791666666666667</v>
+      </c>
       <c r="F212" s="6"/>
       <c r="G212" s="6"/>
       <c r="H212" s="6">
-        <v>0.805555555555556</v>
+        <v>0.75</v>
       </c>
       <c r="I212" s="6"/>
-      <c r="J212" s="9"/>
+      <c r="J212" s="7"/>
     </row>
     <row r="213" ht="21" customHeight="1">
       <c r="A213" t="s" s="5">
@@ -7805,168 +7863,174 @@
         <v>435</v>
       </c>
       <c r="C213" t="s" s="5">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D213" s="6">
-        <v>0.19047619047619</v>
-      </c>
-      <c r="E213" s="6"/>
+        <v>0.761904761904762</v>
+      </c>
+      <c r="E213" s="6">
+        <v>0.583333333333333</v>
+      </c>
       <c r="F213" s="6"/>
       <c r="G213" s="6"/>
       <c r="H213" s="6">
-        <v>0.694444444444444</v>
+        <v>0.805555555555556</v>
       </c>
       <c r="I213" s="6"/>
-      <c r="J213" s="11"/>
+      <c r="J213" s="9"/>
     </row>
     <row r="214" ht="21" customHeight="1">
-      <c r="A214" t="s" s="4">
+      <c r="A214" t="s" s="5">
         <v>436</v>
       </c>
-      <c r="B214" t="s" s="4">
+      <c r="B214" t="s" s="5">
         <v>437</v>
       </c>
       <c r="C214" t="s" s="5">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D214" s="6">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E214" s="6"/>
+        <v>0.19047619047619</v>
+      </c>
+      <c r="E214" s="6">
+        <v>0.291666666666667</v>
+      </c>
       <c r="F214" s="6"/>
       <c r="G214" s="6"/>
       <c r="H214" s="6">
-        <v>0.777777777777778</v>
+        <v>0.694444444444444</v>
       </c>
       <c r="I214" s="6"/>
-      <c r="J214" s="7"/>
+      <c r="J214" s="11"/>
     </row>
     <row r="215" ht="21" customHeight="1">
-      <c r="A215" t="s" s="19">
+      <c r="A215" t="s" s="4">
         <v>438</v>
       </c>
-      <c r="B215" t="s" s="19">
+      <c r="B215" t="s" s="4">
         <v>439</v>
       </c>
-      <c r="C215" t="s" s="18">
-        <v>15</v>
+      <c r="C215" t="s" s="5">
+        <v>18</v>
       </c>
       <c r="D215" s="6">
-        <v>0.642857142857143</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E215" s="6"/>
       <c r="F215" s="6"/>
       <c r="G215" s="6"/>
       <c r="H215" s="6">
-        <v>0</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I215" s="6"/>
       <c r="J215" s="7"/>
     </row>
     <row r="216" ht="21" customHeight="1">
-      <c r="A216" t="s" s="4">
+      <c r="A216" t="s" s="19">
         <v>440</v>
       </c>
-      <c r="B216" t="s" s="4">
+      <c r="B216" t="s" s="19">
         <v>441</v>
       </c>
-      <c r="C216" t="s" s="5">
-        <v>36</v>
+      <c r="C216" t="s" s="18">
+        <v>15</v>
       </c>
       <c r="D216" s="6">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="E216" s="6">
-        <v>0.729166666666667</v>
-      </c>
+        <v>0.642857142857143</v>
+      </c>
+      <c r="E216" s="6"/>
       <c r="F216" s="6"/>
       <c r="G216" s="6"/>
       <c r="H216" s="6">
-        <v>0.777777777777778</v>
+        <v>0</v>
       </c>
       <c r="I216" s="6"/>
       <c r="J216" s="7"/>
     </row>
     <row r="217" ht="21" customHeight="1">
-      <c r="A217" t="s" s="19">
+      <c r="A217" t="s" s="4">
         <v>442</v>
       </c>
-      <c r="B217" t="s" s="19">
+      <c r="B217" t="s" s="4">
         <v>443</v>
       </c>
-      <c r="C217" t="s" s="18">
-        <v>67</v>
+      <c r="C217" t="s" s="5">
+        <v>36</v>
       </c>
       <c r="D217" s="6">
         <v>0.666666666666667</v>
       </c>
       <c r="E217" s="6">
-        <v>0.708333333333333</v>
+        <v>0.729166666666667</v>
       </c>
       <c r="F217" s="6"/>
       <c r="G217" s="6"/>
       <c r="H217" s="6">
-        <v>0.694444444444444</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I217" s="6"/>
       <c r="J217" s="7"/>
     </row>
     <row r="218" ht="21" customHeight="1">
-      <c r="A218" t="s" s="4">
+      <c r="A218" t="s" s="19">
         <v>444</v>
       </c>
-      <c r="B218" t="s" s="4">
+      <c r="B218" t="s" s="19">
         <v>445</v>
       </c>
-      <c r="C218" t="s" s="5">
-        <v>18</v>
+      <c r="C218" t="s" s="18">
+        <v>67</v>
       </c>
       <c r="D218" s="6">
-        <v>0.785714285714286</v>
-      </c>
-      <c r="E218" s="6"/>
+        <v>0.666666666666667</v>
+      </c>
+      <c r="E218" s="6">
+        <v>0.708333333333333</v>
+      </c>
       <c r="F218" s="6"/>
       <c r="G218" s="6"/>
       <c r="H218" s="6">
-        <v>0.555555555555556</v>
+        <v>0.694444444444444</v>
       </c>
       <c r="I218" s="6"/>
       <c r="J218" s="7"/>
     </row>
     <row r="219" ht="21" customHeight="1">
-      <c r="A219" t="s" s="19">
+      <c r="A219" t="s" s="4">
         <v>446</v>
       </c>
-      <c r="B219" t="s" s="19">
+      <c r="B219" t="s" s="4">
         <v>447</v>
       </c>
-      <c r="C219" t="s" s="18">
-        <v>15</v>
+      <c r="C219" t="s" s="5">
+        <v>18</v>
       </c>
       <c r="D219" s="6">
-        <v>0.80952380952381</v>
-      </c>
-      <c r="E219" s="6"/>
+        <v>0.785714285714286</v>
+      </c>
+      <c r="E219" s="6">
+        <v>0.708333333333333</v>
+      </c>
       <c r="F219" s="6"/>
       <c r="G219" s="6"/>
       <c r="H219" s="6">
-        <v>0</v>
+        <v>0.555555555555556</v>
       </c>
       <c r="I219" s="6"/>
-      <c r="J219" s="9"/>
+      <c r="J219" s="7"/>
     </row>
     <row r="220" ht="21" customHeight="1">
-      <c r="A220" t="s" s="5">
+      <c r="A220" t="s" s="19">
         <v>448</v>
       </c>
-      <c r="B220" t="s" s="5">
+      <c r="B220" t="s" s="19">
         <v>449</v>
       </c>
-      <c r="C220" t="s" s="5">
-        <v>67</v>
+      <c r="C220" t="s" s="18">
+        <v>15</v>
       </c>
       <c r="D220" s="6">
-        <v>0.571428571428571</v>
+        <v>0.80952380952381</v>
       </c>
       <c r="E220" s="6"/>
       <c r="F220" s="6"/>
@@ -7975,75 +8039,77 @@
         <v>0</v>
       </c>
       <c r="I220" s="6"/>
-      <c r="J220" s="11"/>
+      <c r="J220" s="9"/>
     </row>
     <row r="221" ht="21" customHeight="1">
-      <c r="A221" t="s" s="4">
+      <c r="A221" t="s" s="5">
         <v>450</v>
       </c>
-      <c r="B221" t="s" s="4">
+      <c r="B221" t="s" s="5">
         <v>451</v>
       </c>
       <c r="C221" t="s" s="5">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="D221" s="6">
-        <v>0.833333333333333</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="E221" s="6">
-        <v>0.666666666666667</v>
+        <v>0.541666666666667</v>
       </c>
       <c r="F221" s="6"/>
       <c r="G221" s="6"/>
       <c r="H221" s="6">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="I221" s="6"/>
-      <c r="J221" s="9"/>
+      <c r="J221" s="11"/>
     </row>
     <row r="222" ht="21" customHeight="1">
-      <c r="A222" t="s" s="8">
+      <c r="A222" t="s" s="4">
         <v>452</v>
       </c>
-      <c r="B222" t="s" s="8">
+      <c r="B222" t="s" s="4">
         <v>453</v>
       </c>
       <c r="C222" t="s" s="5">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D222" s="6">
-        <v>0.785714285714286</v>
-      </c>
-      <c r="E222" s="6"/>
+        <v>0.833333333333333</v>
+      </c>
+      <c r="E222" s="6">
+        <v>0.666666666666667</v>
+      </c>
       <c r="F222" s="6"/>
       <c r="G222" s="6"/>
       <c r="H222" s="6">
-        <v>0.722222222222222</v>
+        <v>0.75</v>
       </c>
       <c r="I222" s="6"/>
-      <c r="J222" s="11"/>
+      <c r="J222" s="9"/>
     </row>
     <row r="223" ht="21" customHeight="1">
-      <c r="A223" t="s" s="5">
+      <c r="A223" t="s" s="8">
         <v>454</v>
       </c>
-      <c r="B223" t="s" s="5">
+      <c r="B223" t="s" s="8">
         <v>455</v>
       </c>
       <c r="C223" t="s" s="5">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D223" s="6">
-        <v>0.5</v>
+        <v>0.785714285714286</v>
       </c>
       <c r="E223" s="6"/>
       <c r="F223" s="6"/>
       <c r="G223" s="6"/>
       <c r="H223" s="6">
-        <v>0</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="I223" s="6"/>
-      <c r="J223" s="7"/>
+      <c r="J223" s="11"/>
     </row>
     <row r="224" ht="21" customHeight="1">
       <c r="A224" t="s" s="5">
@@ -8053,21 +8119,19 @@
         <v>457</v>
       </c>
       <c r="C224" t="s" s="5">
-        <v>67</v>
+        <v>36</v>
       </c